--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -5719,7 +5719,7 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/g9UhvECqZ9jRayWsVjrl1A?typeid=9</t>
   </si>
   <si>
-    <t>發佈日期：2020-10-24\$\@\$中央流行疫情指揮中心今(24)日表示，針對「台灣-帛琉安全旅行圈」一案，業經指揮中心會同國內相關部會經過三次會議討論，已達成初部規劃。然帛琉高層為確保國內醫療及防疫量能，尚未作好放寬邊境檢疫措施之準備，加以北半球進入冬季，尚須觀察評估，再行決定是否可放寬檢疫措施。我國尊重友邦防疫措施相關考量，將持續關注國際疫情變化，並持續與帛琉就安全旅行圈進行協商溝通。\$\@\$我方將於通盤考量雙方防疫需求之前提下，草擬完整防疫方案，並提供帛方討論，待帛方內部形成共識前，我方仍對本案保持開放態度。</t>
+    <t>發佈日期：2020-10-24\$\@\$中央流行疫情指揮中心今(24)日表示，針對「台灣-帛琉安全旅行圈」一案，業經指揮中心會同國內相關部會經過三次會議討論，已達成初步規劃。然帛琉高層為確保國內醫療及防疫量能，尚未作好放寬邊境檢疫措施之準備，加以北半球進入冬季，尚須觀察評估，再行決定是否可放寬檢疫措施。我國尊重友邦防疫措施相關考量，將持續關注國際疫情變化，並持續與帛琉就安全旅行圈進行協商溝通。\$\@\$我方將於通盤考量雙方防疫需求之前提下，草擬完整防疫方案，並提供帛方討論，待帛方內部形成共識前，我方仍對本案保持開放態度。</t>
   </si>
   <si>
     <t>發佈日期：2020-10-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增2例境外移入COVID-19(武漢肺炎)病例，分別自菲律賓及美國入境。\$\@\$指揮中心表示，案549為20多歲菲律賓籍女性，因工作於今(2020)年9月30日入境臺灣，搭機前3日內檢驗陰性，入境時至集中檢疫期滿均無症狀，10月13日檢疫期滿前採檢結果為陰性，檢疫期滿後由仲介安排至隔離宿舍進行自主健康管理，並於10月22由仲介安排至醫院自費檢驗，於今日確診，目前住院隔離中。衛生單位已掌握個案接觸者共12人，包含接送車輛之司機3人及同事3人，因皆有佩戴口罩，列自主健康管理；另6人為與個案一同至醫院採檢之同事，採檢結果均為陰性，然接觸期間未確實佩戴口罩，列居家隔離。\$\@\$指揮中心指出，案550為30多歲本國籍男性，今年10月2日出境至美國，並於10月18日返國，入境時無不適症狀。個案於10月21日居家檢疫期間出現發燒、咳嗽、肌肉痠痛、關節痛及全身倦怠等症狀，由衛生單位安排就醫採檢，並於今日確診，目前住院隔離中。由於個案發病前2日均於住家進行居家檢疫，未有同行及同住接觸者，因此無匡列接觸者。\$\@\$指揮中心統計，截至目前累計100,306例新型冠狀病毒肺炎相關通報(含99,044例排除)，其中550例確診，分別為458例境外移入，55例本土病例，36例敦睦艦隊及1例不明。確診個案中7人死亡、502人解除隔離、41人住院隔離中。</t>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -6466,7 +6466,7 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/g9UhvECqZ9jRayWsVjrl1A?typeid=9</t>
   </si>
   <si>
-    <t>發佈日期：2020-12-06\$\@\$中央流行疫情指揮中心今(6)日表示，昨(5)日晚間新增1例 (印尼籍案695)、今日新增22例COVID-19(武漢肺炎)境外移入病例，今日新增案例移入國家分別為印尼20例(案696至714、案717)及菲律賓2例(案715、716)。\$\@\$指揮中心表示，因應近期印尼境外移入個案遽增，指揮中心於12月4日起針對集中檢疫場所印尼籍移工進行擴大採檢共642人，其中17名陽性，為案696至712，分別為15女2男，年齡介於20多歲至40多歲，入境日介於11月28日至12月2日。其中案699於12月1日出現鼻塞、腹瀉等症狀，案701於12月1日出現肌肉痠痛、關節痛、嘔吐、味覺異常等症狀，其餘15人入境迄今均無症狀。\$\@\$指揮中心說明，案713為30多歲印尼籍男性，11月19日來臺工作，入境後至檢疫旅館進行居家檢疫，迄今無症狀，檢疫期滿後12月4日由仲介公司安排自費採檢，於今日確診。衛生單位已匡列接觸者共7人，其中5人未著適當防護，列居家隔離；其餘2人因有適當防護，列自主健康管理。\$\@\$指揮中心指出，案714為30多歲印尼籍女性，11月12日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，11月25日檢疫期滿前採檢結果為陰性，後至仲介公司安排住所自主健康管理，12月4日由雇主安排自費採檢，於今日確診。衛生單位已匡列接觸者共2人，皆著適當防護，列自主健康管理。\$\@\$指揮中心表示，案715為20多歲菲律賓籍女性，11月11日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，11月24日檢疫期滿前採檢結果為陰性，後至仲介公司安排住所自主健康管理，12月4日由仲介公司安排自費採檢，於今日確診。衛生單位已匡列接觸者共22人，1人未著適當防護，列居家隔離，其餘21人皆著適當防護，列為自主健康管理。\$\@\$指揮中心說明，案716為20多歲菲律賓籍男性，11月22日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，12月5日進行期滿前採檢，於今日確診。因個案無症狀，檢疫期間無接觸他人，因此無匡列接觸者。\$\@\$指揮中心指出，案717為40多歲印尼籍男性，11月20日來臺工作，入境後至檢疫旅館進行居家檢疫，迄今無症狀，12月5日檢疫期滿後由仲介公司安排自費採檢，於今日確診，衛生單位已匡列接觸者共8人，皆著適當防護，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計112,558例新型冠狀病毒肺炎相關通報(含110,769例排除)，其中716例確診，分別為624例境外移入，55例本⼟病例，36例敦睦艦隊及1例不明；另1例(案530)移除為空號。確診個案中7人死亡、574人解除隔離、135人住院隔離中。</t>
+    <t>發佈日期：2020-12-06\$\@\$中央流行疫情指揮中心今(6)日表示，昨(5)日晚間新增1例 (印尼籍案695)、今日新增22例COVID-19(武漢肺炎)境外移入病例，今日新增案例移入國家分別為印尼20例(案696至714、案717)及菲律賓2例(案715、716)。\$\@\$指揮中心表示，因應近期印尼境外移入個案遽增，指揮中心於12月4日起針對集中檢疫場所印尼籍移工進行擴大採檢共642人，其中17名陽性，為案696至712，分別為15女2男，年齡介於20多歲至40多歲，入境日介於11月28日至12月3日。其中案699於12月1日出現鼻塞、腹瀉等症狀，案701於12月1日出現肌肉痠痛、關節痛、嘔吐、味覺異常等症狀，其餘15人入境迄今均無症狀。\$\@\$指揮中心說明，案713為30多歲印尼籍男性，11月19日來臺工作，入境後至檢疫旅館進行居家檢疫，迄今無症狀，檢疫期滿後12月4日由仲介公司安排自費採檢，於今日確診。衛生單位已匡列接觸者共7人，其中5人未著適當防護，列居家隔離；其餘2人因有適當防護，列自主健康管理。\$\@\$指揮中心指出，案714為30多歲印尼籍女性，11月12日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，11月25日檢疫期滿前採檢結果為陰性，後至仲介公司安排住所自主健康管理，12月4日由雇主安排自費採檢，於今日確診。衛生單位已匡列接觸者共2人，皆著適當防護，列自主健康管理。\$\@\$指揮中心表示，案715為20多歲菲律賓籍女性，11月11日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，11月24日檢疫期滿前採檢結果為陰性，後至仲介公司安排住所自主健康管理，12月4日由仲介公司安排自費採檢，於今日確診。衛生單位已匡列接觸者共22人，1人未著適當防護，列居家隔離，其餘21人皆著適當防護，列為自主健康管理。\$\@\$指揮中心說明，案716為20多歲菲律賓籍男性，11月22日來臺工作，入境後至集中檢疫所進行檢疫，迄今無症狀，12月5日進行期滿前採檢，於今日確診。因個案無症狀，檢疫期間無接觸他人，因此無匡列接觸者。\$\@\$指揮中心指出，案717為40多歲印尼籍男性，11月20日來臺工作，入境後至檢疫旅館進行居家檢疫，迄今無症狀，12月5日檢疫期滿後由仲介公司安排自費採檢，於今日確診，衛生單位已匡列接觸者共8人，皆著適當防護，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計112,558例新型冠狀病毒肺炎相關通報(含110,769例排除)，其中716例確診，分別為624例境外移入，55例本⼟病例，36例敦睦艦隊及1例不明；另1例(案530)移除為空號。確診個案中7人死亡、574人解除隔離、135人住院隔離中。</t>
   </si>
   <si>
     <t>發佈日期：2020-12-06\$\@\$中央流行疫情指揮中心今(6)日公布「案688印尼移工接觸者專案」採檢情形，47名同宿舍接觸者中，46人檢驗陰性，1人檢驗陽性，為昨(5)日晚間公布之案695。\$\@\$指揮中心指出，案695為20多歲印尼籍女性移工，今(2020)年11月14日來臺工作，持有登機前3日內核酸檢驗陰性報告，入境後入住集中檢疫所，檢疫期間均無不適症狀，檢疫期滿前採檢結果為陰性，後由仲介安排至宿舍自主健康管理，12月4日因「案688印尼移工接觸者專案」入住集中檢疫所並進行採檢，於昨日確診。\$\@\$指揮中心表示，案695為案688同宿舍接觸者， 2人均於11月29日於三民路宿舍進行自主健康管理；11月30日案695入住春日路宿舍，並於12月4日召回集中檢疫所。案695密切接觸者共2人，均為案688接觸者，其中1人已於12月4日入集中檢疫所，採檢結果為陰性；另1人為原失聯之越南籍移工，已於今日尋獲，採檢結果為陰性。其餘接觸者將持續調查釐清。</t>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,24 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>強化COVID-19第三級疫情警戒相關措施及裁罰說明，請民眾確實遵守</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增302例本土、2例境外移入COVID-19個案，另有331例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心依疫情監測評估，即日起將香港調整為低風險，以色列增列為中低風險，越南自中低風險移除</t>
+  </si>
+  <si>
+    <t>5月26日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>國內新增1例日本腦炎病例，提醒民眾加強防蚊並按時攜幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>金門縣、澎湖縣及連江縣可在符合相關條件及流程下  提供自願性採檢服務</t>
+  </si>
+  <si>
     <t>指揮中心公布新增281例本土、2例境外移入COVID-19個案，另有261例校正回歸個案</t>
   </si>
   <si>
@@ -253,190 +271,22 @@
     <t>新增1例本土COVID-19確診病例，為案1102同住家人</t>
   </si>
   <si>
-    <t>新增3例境外移入COVID-19病例，自菲律賓及印尼入境</t>
-  </si>
-  <si>
-    <t>指揮中心因應本次防疫旅宿員工確診事件，將進行相關應變措施及防疫旅宿總體檢</t>
-  </si>
-  <si>
-    <t>新增3例本土COVID-19病例，皆為機場防疫旅館員工</t>
-  </si>
-  <si>
-    <t>新增4例境外移入COVID-19病例，自哈薩克、埃及、菲律賓及印度入境</t>
-  </si>
-  <si>
-    <t>5月3日起開放實施計畫第一類至第三類同住者以及所有醫事機構工作人員接種COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>新增2例本土及1例調查中COVID-19確定病例，疫調工作持續進行</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，自菲律賓及墨西哥入境</t>
-  </si>
-  <si>
-    <t>新增3例本土COVID-19病例，皆為接觸者採檢確診</t>
-  </si>
-  <si>
-    <t>斐濟及寮國COVID-19疫情上升，即日起自低風險調整至中低風險國家</t>
-  </si>
-  <si>
-    <t>新增3例境外移入COVID-19病例，自印尼及印度入境</t>
-  </si>
-  <si>
-    <t>某航空公司機師感染案，檢出6名機師血清抗體陽性</t>
-  </si>
-  <si>
-    <t>新增1例本土COVID-19確診病例，為案1090同住家人</t>
-  </si>
-  <si>
-    <t>新增5例境外移入COVID-19病例，自加拿大及菲律賓入境</t>
-  </si>
-  <si>
-    <t>某航空公司機師感染案，新增2例採檢者確診，感染源調查中</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，均自菲律賓入境</t>
-  </si>
-  <si>
-    <t>因應某航空公司機師於澳洲檢出COVID-19陽性案，新增1例回溯採檢者確診，另新增1名居家檢疫者確診，感染源均調查中</t>
-  </si>
-  <si>
-    <t>新增1例境外移入COVID-19病例，自美國入境</t>
-  </si>
-  <si>
-    <t>因應某航空公司機師於澳洲檢出COVID-19陽性案，新增1例回溯採檢者確診，感染源調查中</t>
-  </si>
-  <si>
-    <t>新增6例境外移入COVID-19病例，自菲律賓、印度及印尼入境</t>
-  </si>
-  <si>
-    <t>因應某航空公司機師於澳洲檢出COVID-19陽性，及其在臺接觸者檢驗確診事件，指揮中心啟動疫情調查</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，自印度及比利時入境</t>
-  </si>
-  <si>
-    <t>新增4例境外移入COVID-19病例，自哈薩克、菲律賓及印尼入境</t>
-  </si>
-  <si>
-    <t>4月23日起開放實施計畫第五及第六類公費對象接種COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>新增4例境外移入COVID-19病例，自斯洛伐克、印尼及菲律賓入境</t>
-  </si>
-  <si>
-    <t>全球COVID-19疫情再創新高，籲請入境者務必配合防檢疫措施</t>
-  </si>
-  <si>
-    <t>Taiwan V-Watch系統註冊踴躍，提醒民眾按時填寫健康回報</t>
-  </si>
-  <si>
-    <t>新增2例COVID-19病例，感染源調查中</t>
-  </si>
-  <si>
-    <t>新增3例境外移入COVID-19病例，分別自菲律賓、印度入境</t>
-  </si>
-  <si>
-    <t>新增1例境外移入COVID-19病例，自馬來西亞入境</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，均自印度入境</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，自菲律賓及克羅埃西亞入境</t>
-  </si>
-  <si>
-    <t>「漢他老鼠 OUT」，外景女神巴鈺直播防鼠妙招</t>
-  </si>
-  <si>
-    <t>疾病管制署攜手萬芳醫院及中華民國護理師護士公會全國聯合會辦理「防疫好生活 疫苗提升保護力」COVID-19疫苗網路活動</t>
-  </si>
-  <si>
-    <t>自4月14日起，臺帛旅遊泡泡旅客返國檢疫放寬為14天一般自主健康管理及返國第5天完成PCR檢測</t>
-  </si>
-  <si>
-    <t>即日起開放實施計畫第四類公費對象接種COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>新增5例境外移入COVID-19病例，自菲律賓、俄羅斯、英國及加拿大入境</t>
-  </si>
-  <si>
-    <t>柬埔寨COVID-19疫情持續上升，即日起自中低風險國家移除</t>
-  </si>
-  <si>
-    <t>4月21日起，開放民眾預約COVID-19疫苗自費接種</t>
-  </si>
-  <si>
-    <t>4月15日起，調整國籍航空公司抵臺航班之機組員檢疫防疫措施</t>
-  </si>
-  <si>
-    <t>新增4例境外移入COVID-19病例，自孟加拉、菲律賓、衣索比亞及愛爾蘭入境</t>
-  </si>
-  <si>
-    <t>預防愛滋一起來！暴露愛滋病毒「前」預防性投藥計畫，4月13日開跑</t>
-  </si>
-  <si>
-    <t>新增1例境外移入COVID-19病例，自日本入境</t>
-  </si>
-  <si>
-    <t>感謝有您，防疫人員及高接觸風險工作者今日開打公費COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，自印尼及菲律賓入境</t>
-  </si>
-  <si>
-    <t>新增4例境外移入COVID-19病例，自義大利、菲律賓及英國入境</t>
-  </si>
-  <si>
-    <t>AstraZeneca COVID-19疫苗接種注意事項</t>
-  </si>
-  <si>
-    <t>4月12日起，開放中央及地方政府防疫人員及高接觸風險工作者等對象接種COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>4月10日起，具英國、南非或史瓦帝尼旅遊史之入境旅客，恢復防疫旅宿或1人1戶之居家檢疫措施</t>
-  </si>
-  <si>
-    <t>模里西斯本土COVID-19疫情持續上升，即日起自中低風險國家移除</t>
-  </si>
-  <si>
-    <t>新增2例境外移入COVID-19病例，均自埃及入境</t>
-  </si>
-  <si>
-    <t>進入抗旱關鍵時期！限水期間民眾應落實手部衛生及留意儲水方式，勿讓傳染病有機可乘</t>
-  </si>
-  <si>
-    <t>因應408次太魯閣列車事故，指揮中心啟動海外親屬返臺探病/奔喪專案</t>
-  </si>
-  <si>
-    <t>首批COVAX獲配之AstraZeneca COVID-19疫苗即將抵臺</t>
-  </si>
-  <si>
-    <t>新增6例境外移入COVID-19病例，分別⾃菲律賓及印尼入境</t>
-  </si>
-  <si>
-    <t>新增3例境外移入COVID-19病例，自印尼及瑞士入境</t>
-  </si>
-  <si>
-    <t>新增6例境外移入COVID-19病例，分別自巴拉圭、愛爾蘭、阿聯、菲律賓及印尼入境</t>
-  </si>
-  <si>
-    <t>臺帛旅遊泡泡首發團檢驗結果均為陰性，可如期出遊</t>
-  </si>
-  <si>
-    <t>清明連假不鬆懈！請持續落實秋冬防疫專案之各項措施</t>
-  </si>
-  <si>
-    <t>4月6日起，開放執業登記醫事人員、醫療院所非醫事人員等接種計畫第一類實施對象接種COVID-19疫苗</t>
-  </si>
-  <si>
-    <t>國際COVID-19疫情回升，籲請民眾保持警覺，配合防檢疫措施</t>
-  </si>
-  <si>
-    <t>新增6例境外移入COVID-19病例，自美國、緬甸、印尼、衣索比亞及孟加拉入境</t>
-  </si>
-  <si>
-    <t>國內出現本季首例流感重症死亡，籲請民眾落實手部及呼吸道衛生，儘速接種流感疫苗</t>
+    <t>/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
@@ -661,202 +511,22 @@
     <t>/Bulletin/Detail/3CQIRH9Izbq5U-n8VV4dIQ?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/hvbvMJP3f0680ak3SYQRhw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/l2eaz5it22nn-0P-Oa4WyA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/iWqUvaKC8VRIpE6ItYvMJw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/L4j5jcH2E_6ycFn8SeD4SA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/R1uGsf55IMBBnu24rzUGCA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/5n3199mIMM39ZfwBrz79qw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/6wjYrMCSnoBR6_Dz3Ss6vA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/SsrkLwZIVglII-p2noeafg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/7ZO9hmSVfq6xaqSEiChCJg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/QTJurGG-Vi1BKvkvEAv80w?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/lyHMQmDCrf7J6jRsk9vMfg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Xls9nWqtVKPjS5RHBwgpYA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/4l6s0uRlKJN6mLp9xJ0Oeg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/nthSJPt1UcLhqt71n5g0QQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/MgsTXpnf_VUnl3mQYvsi6A?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/qwraf0f1O5W276DGRBqrlA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/9Nq2eERGe_YMATB0FNWULw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Fcvm8m349hNjsXVIDPn_ug?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/P1OUzFSsGOsb6YASfXOOaQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/jxSp9So4qRcblWjXNWbZsA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/QK1_8ID7W48tY2-mSOO2Pg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/C6Yd6PWJMMyxp0Nnu9enOQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/cZRGvZYcDFJEVohlp59v4Q?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/xS9PNI_h9C2QcaCFJ1IIeQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/BBckmj_NgXXjCuo9oqF9Gg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/7Z7yfPw2LWUZY137iCa-UA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/AqNb7mWiXAcfVgADx4zZuQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/qgL9xYfONrFtuGhUf52UdA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/NTYkV1MfDJCx2KCl-RJtKQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/jXcX-SmHVTK0KQVm5DzyRA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/NGwPph8-xAQBID7MoXfNVw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/V7s_mttRBpAzAo3nkCi_YQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/wPkmRWRVjc-2OrxRY-_gNg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/aUkJ1R00AdgARV3KIimBWw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/jE5DwUvoC232B_4MhmfJwg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/RsWt2z3z_XKwAwspQTX44Q?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/WPtPN4ebTxhVLgBh_tW8og?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/sRQtM1ZLspC0Qp0uGGoQ2w?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/FzKt9zEZK_oVjCtkO8jVbg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/yxYR6baD4M-T6ZMaJ1QrYw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/QIz_nH08zfFtIJhMg3JPxA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/HBaRhb7hnTHiDNAUegaixA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/PpSoanISyvSlcK4AHo6T4A?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/VGbSA-NY-4i58xK_pKPymA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/MBM80eZ2q3vxNAqt36T0Ww?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Z2JbPBM-h1BvUVmG0rwz1w?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/UdGb_Q8pcw6QVWoZfaK0XQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/rmftXMQmGvXAaAYAWO5Cqw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/NzHeBoTQBOlhw7Gcpf0PiA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/M-9iYi3U7l_VvdxBD5fnNw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/AdBJ556KMDko7L4Gjdg8GQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/2E5P61G2a0jLEqwvtJUSpw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/bQ1uG-EfyPJxSD44E85YxA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/ZQE296tUnZkDLEzD0Vf7mw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/xzCfya6oDtcfOBuTpigVWQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/egX6yU_Ou7qL6KAlEvgGWg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/EenwGmnsNvP7NosqGef9pQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/CX1HkaOfxUjhHpr4k4Hr6w?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/P11AUO_PxvouWnTRZN8g9Q?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/1pNP8jNCR7aaRng1SwwpmA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/ZnKmLwTDTE082rUkGA9lng?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/yzj3O4uspRC28GA5wUj7-Q?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/2EST7D9BLIjnkSBusi0BHw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/6Gkh8vw-Urlyl0soflgBww?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/nBzSLFs8hFe_sI3skE_VqA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/duLv99-tNMDAW-hAEvE-jw?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
@@ -1081,208 +751,28 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/3CQIRH9Izbq5U-n8VV4dIQ?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/hvbvMJP3f0680ak3SYQRhw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/l2eaz5it22nn-0P-Oa4WyA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/iWqUvaKC8VRIpE6ItYvMJw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/L4j5jcH2E_6ycFn8SeD4SA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1uGsf55IMBBnu24rzUGCA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/5n3199mIMM39ZfwBrz79qw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/6wjYrMCSnoBR6_Dz3Ss6vA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/SsrkLwZIVglII-p2noeafg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZO9hmSVfq6xaqSEiChCJg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/QTJurGG-Vi1BKvkvEAv80w?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/lyHMQmDCrf7J6jRsk9vMfg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Xls9nWqtVKPjS5RHBwgpYA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/4l6s0uRlKJN6mLp9xJ0Oeg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/nthSJPt1UcLhqt71n5g0QQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/MgsTXpnf_VUnl3mQYvsi6A?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/qwraf0f1O5W276DGRBqrlA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/9Nq2eERGe_YMATB0FNWULw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Fcvm8m349hNjsXVIDPn_ug?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/P1OUzFSsGOsb6YASfXOOaQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/jxSp9So4qRcblWjXNWbZsA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/QK1_8ID7W48tY2-mSOO2Pg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/C6Yd6PWJMMyxp0Nnu9enOQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/cZRGvZYcDFJEVohlp59v4Q?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/xS9PNI_h9C2QcaCFJ1IIeQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/BBckmj_NgXXjCuo9oqF9Gg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/7Z7yfPw2LWUZY137iCa-UA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/AqNb7mWiXAcfVgADx4zZuQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/qgL9xYfONrFtuGhUf52UdA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/NTYkV1MfDJCx2KCl-RJtKQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/jXcX-SmHVTK0KQVm5DzyRA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/NGwPph8-xAQBID7MoXfNVw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/V7s_mttRBpAzAo3nkCi_YQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/wPkmRWRVjc-2OrxRY-_gNg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/aUkJ1R00AdgARV3KIimBWw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/jE5DwUvoC232B_4MhmfJwg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/RsWt2z3z_XKwAwspQTX44Q?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/WPtPN4ebTxhVLgBh_tW8og?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/sRQtM1ZLspC0Qp0uGGoQ2w?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/FzKt9zEZK_oVjCtkO8jVbg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/yxYR6baD4M-T6ZMaJ1QrYw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/QIz_nH08zfFtIJhMg3JPxA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/HBaRhb7hnTHiDNAUegaixA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/PpSoanISyvSlcK4AHo6T4A?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/VGbSA-NY-4i58xK_pKPymA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/MBM80eZ2q3vxNAqt36T0Ww?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z2JbPBM-h1BvUVmG0rwz1w?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/UdGb_Q8pcw6QVWoZfaK0XQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/rmftXMQmGvXAaAYAWO5Cqw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/NzHeBoTQBOlhw7Gcpf0PiA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/M-9iYi3U7l_VvdxBD5fnNw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/AdBJ556KMDko7L4Gjdg8GQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5P61G2a0jLEqwvtJUSpw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/bQ1uG-EfyPJxSD44E85YxA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZQE296tUnZkDLEzD0Vf7mw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/xzCfya6oDtcfOBuTpigVWQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/egX6yU_Ou7qL6KAlEvgGWg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/EenwGmnsNvP7NosqGef9pQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/CX1HkaOfxUjhHpr4k4Hr6w?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/P11AUO_PxvouWnTRZN8g9Q?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/1pNP8jNCR7aaRng1SwwpmA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZnKmLwTDTE082rUkGA9lng?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/yzj3O4uspRC28GA5wUj7-Q?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/2EST7D9BLIjnkSBusi0BHw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/6Gkh8vw-Urlyl0soflgBww?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/nBzSLFs8hFe_sI3skE_VqA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/duLv99-tNMDAW-hAEvE-jw?typeid=9</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增283例COVID-19確定病例，分別為281例本土個案及2例境外移入個案；另有校正回歸本土個案261例，總計544例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之281例本土病例，為144例男性，137例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月24日；個案分布以新北市154例最多，其次為臺北市49例，桃園市16例，臺南市、基隆市及彰化縣各10例，臺中市9例，屏東縣及新竹市各4例，高雄市、宜蘭縣各3例，臺東縣、南投縣及苗栗縣各2例、新竹縣、雲林縣及花蓮縣各1例。校正回歸個案261例中，為162例男性、99例女性，年齡介於未滿10歲至90多歲，發病日介於5月2日至5月22日；個案分布以臺北市155例最多，其次為新北市89例，宜蘭縣、桃園市各5例，基隆市及彰化縣各3例，臺中市1例。綜上所有個案，其中萬華活動史相關186例、茶藝館相關28例、某社團相關2例、某水果商相關7例、其他已知感染源122例、關聯不明111例、疫調中86例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1341為70多歲男性，有高血壓、糖尿病等慢性病史，5月8日出現咳嗽、發燒、有痰、全身痠痛等症狀，11日就醫並住院，15日確診，20日死亡。案2558為60多歲男性，有萬華區活動史，5月15日出現發燒、喉嚨痛、咳嗽、肌肉痠痛等症狀，20日確診並收治住院，21日死亡。案2719為90多歲男性，有糖尿病、癌症等慢性病史，5月14日出現發燒症狀，17日就醫並住院，20日確診，同日死亡。案3031為60多歲男性，有高血壓、糖尿病等慢性病史，5月15日出現發燒、咳嗽、呼吸困難、喉嚨痛等症狀，20日就醫並住院，21日確診，23日死亡。案3242為60多歲女性，有糖尿病、高血壓、心血管疾病等慢性病史，5月20日有肌肉痠痛、咳嗽、流鼻水、發燒等症狀，22日確診後至防疫旅館隔離，24日死亡。案4648為70多歲男性，有糖尿病、高血壓等慢性病史，5月22日出現發燒、呼吸困難、肺炎等症狀，同日就醫並住院，23日死亡，24日確診。\$\@\$指揮中心指出，新增2例境外移入病例(案5085、5470)皆自菲律賓來臺工作，均持有搭機前3日內檢驗陰性報告。案5085為40多歲男性，5月2日入境後至防疫旅館隔離，在臺期間並無症狀，17日期滿前採檢結果為陰性， 24日完成自主健康管理後公司安排自費採檢，於今日確診(Ct值32)。案5470為20多歲男性，5月11日入境，在臺期間並無症狀，24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計388,453例新型冠狀病毒肺炎相關通報(含340,438例排除)，其中5,456例確診，分別為1,118例境外移入，4,285例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中35例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、 考量各項防疫措施生效至落實推動需要時間，請各地方政府持續加強監測、防疫及整備工作，並增加社區採檢站及提升採檢量能，強化檢驗及醫療調度應變量能，避免造成急診壅塞及增加院內感染風險。\$\@\$二、 為評估全國疫情風險狀況，指揮中心明(26)日起開始實施「COVID-19傳染病通報作業新流程」，由各地方政府每日通報社區採檢站篩檢量及陽性數等資訊，產製報表、面板分享共用，以利進行指標監測；另為防止高風險地區之社區篩檢站檢驗壅塞，指揮中心訂有「社區快篩站快篩處置流程」，協助地方提升篩檢工作執行效率。\$\@\$三、 醫療資源整備工作推動：\$\@\$有關雙北市專責病房一人一室收治病患之規範，如確有困難，將由「傳染病防治醫療網」網區指揮官視病人住院必要性、急迫性，及醫院收治量能、病房硬體條件，彈性調整。\$\@\$長期需要血液透析之確診病患，請集中收治於臺北市立聯合醫院和平院區及三軍總醫院松山分院，不限一人一室，並請地方衛生局督導上述醫院儘快制定相關作業流程。\$\@\$為利病患收治，請各地方政府督導轄內醫院加速專責病床清空速度，500床以上醫院須於本週五(28日)完成1/10病床數開設為專責病床；專責ICU部分，以醫學中心及準醫學中心至少20床，其他重度級急救責任醫院至少10床為原則，並以區域為單位規劃設置。\$\@\$地方指定應變醫院且同時肩負該縣市重度級急救責任醫院者，為避免排擠其他重症患者就醫診治，請新竹縣、雲林縣及嘉義縣即刻執行備援應變醫院指定工作。\$\@\$集中檢疫場所設置請以50間以上為原則，以提升運用效率。\$\@\$為提升病床週轉率，針對確診住院者，距離發病或採檢日達10天以上且PCR採檢Ct值大於30者，可以出院並自主健康管理7日；若Ct值小於30則入住集中檢疫所。</t>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，因應本土疫情持續嚴峻，宣布強化COVID-19第三級疫情警戒相關措施及裁罰規定，請全國民眾持續落實遵循，與政府共同努力，嚴守社區防線。相關強化措施及裁罰如下：\$\@\$一、民眾外出時應全程佩戴口罩，一經查獲有違反情事，不再勸導，逕予開罰。\$\@\$二、經公告應關閉之休閒娛樂場所，將嚴查不得營業；查獲違法營業者，對業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$指揮中心提醒，外出時有飲食需求者，得在與不特定對象保持社交距離或有適當阻隔設備之情形下，於飲食期間暫時取下口罩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增304例COVID-19確定病例，分別為302例本土個案及2例境外移入個案；另有校正回歸本土個案331例，總計635例。確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之302例本土病例，為158例男性，144例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月8日至5月25日；個案分布以新北市152例最多，其次為臺北市87例，桃園市21例，基隆市13例，臺中市9例，新竹縣4例，屏東縣、雲林縣、臺南市、宜蘭縣、高雄市及彰化縣各2例，花蓮縣、嘉義市、臺東縣及連江縣各1例。校正回歸個案331例中，為160例男性、171例女性，年齡介於未滿5歲至90多歲，發病日介於5月13日至5月25日；個案分布以臺北市221例最多，其次為新北市102例，桃園市3例，基隆市及臺中市各2例，苗栗縣1例。綜上所有個案，其中萬華活動史相關209例、茶藝館相關35例、某社團相關3例、其他已知感染源170例、關聯不明122例、疫調中94例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增11例死亡個案（案2865、2877、3305、3213、3980、4273、4373、4666、4984、5098、5869）中，為9男2女，年齡介於50多歲至70多歲。發病日/採檢日介於5月7日至5月25日，確診日介於5月21日至5月26日，死亡日介於5月23日至5月25日。死亡個案中7人有慢性病史，9人有萬華或其他確診個案活動接觸史，相關疫情調查持續進行中。\$\@\$指揮中心指出，新增2例境外移入病例中，案5646為中國籍20多歲男性，5月1日來臺，持有搭機前3日內檢驗陰性報告，入境後於防疫旅館居家檢疫，在臺期間並無症狀，自主健康管理期滿後於5月24日自費採檢，於今日確診。案5891為本國籍50多歲男性，5月5日於印度出現症狀並檢驗陽性，5月14日以緊急醫療包機自印度返臺，入境時PCR採檢陰性、抗體陽性，入境後入院治療，期間再次採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計413,389例新型冠狀病毒肺炎相關通報(含359,139例排除)，其中6,091例確診，分別為1,120例境外移入，4,918例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中46例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，香港本土疫情自3月起持續趨緩，連續4週達低風險分級標準，故自即日起，將香港自中低風險調整為低風險；以色列疫情持續趨緩，連續2週達中低風險分級標準，故自即日起，增列為中低風險；越南近期本土疫情持續升溫，至少30個行政區報告本土病例，故自即日起，自中低風險移除。\$\@\$各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲、香港。\$\@\$中低感染風險國家/地區：斐濟、不丹、新加坡、以色列。\$\@\$指揮中心監測資料顯示，全球累計167,563,632例確診，分布於193個國家/地區；病例數以美國33,251,432例、印度26,948,874例、巴西16,194,209例、法國5,609,050例及土耳其5,203,385例為多；病例中3,491,014例死亡，以美國601,778例、巴西452,031例、印度307,231例、墨西哥221,695例及英國127,739例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、    針對確診者解除隔離作業，指揮中心已於5月17日修訂公布，只要確診者距離發病或採檢日達10天以上，且PCR採檢Ct值≧30者，可逕行完成解隔離程序，並自主健康管理７日，以提升病床週轉率；如為Ct值&lt;30者，則入住集中檢疫所。另指揮中心將於今日再次召開專家小組會議，研議一致之確診者解除隔離公衛模式，供各地方政府遵循辦理。\$\@\$二、    集中檢疫場所後送醫院綠色通道，係由集中檢疫場所附近之重度級急救責任醫院配合辦理，六區區域緊急醫療應變中心協助「傳染病防治醫療網」網區指揮官進行急重症病床調度；其中針對雙北市確診病患收轉至外縣市收治之綠色通道合理時間，指揮中心今日將請雙北市提供自設集中檢疫所及加強版防疫旅館位置，並於醫療量能盤點會議中研商討論。\$\@\$三、    有關我國進口疫苗，須有正式代理廠商提出疫苗產品相關資訊及藥證申請，包括疫苗廠資格、疫苗相關品質證明等，確保疫苗安全性、有效性、合法性，並經食品藥物管理署(TFDA)核可，始可由代理商進行進口作業，以防止疫苗進入國內施打時產生不良反應問題，影響施打意願。\$\@\$四、    疫苗撥補作業部分及施打順位，指揮中心會儘速撥發疫苗，請各地方政府以專責醫院醫護人員列第一順位施打；另鑒於雙北市為高風險疫情地區，將開放一到三順位人員進行接種；其他地方政府部分，原則以地方政府所提一至三順位人員名冊，並同步考量疫苗量，依序撥補施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$疾病管制署今(25)日公布國內新增1例日本腦炎確定病例，為高雄市大寮區40多歲男性，近期無國內外旅遊史，平時活動地以住家及工作地為主；5月5日出現頭痛症狀，自行服藥後症狀改善，5月8日因發燒就醫，隔日因高燒再次就醫並收治住院，入院後發現有失語症狀，5月10日通報，經採檢後確診。由於個案住家附近有豬舍、鴿舍及水稻田等高風險場所，研判其於住家周邊感染的可能性較高，衛生單位已針對個案住活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾之衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共2例確定病例，個案居住地分別為屏東縣及高雄市各1例，個案活動地附近多有高風險環境；2017至2020年全國同期確定病例數分別為1、7、4及0例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，國內日本腦炎病媒蚊以三斑家蚊、環紋家蚊及白頭家蚊為主，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段，大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。\$\@\$疾管署提醒，請民眾儘量避免於病媒蚊吸血高峰時段，在高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，有關離島縣市採檢需求，指揮中心經評估後，同意金門縣、澎湖縣、連江縣等三離島得在符合篩檢流程條件及後送配套流程下，提供自願性採檢服務。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增283例COVID-19確定病例，分別為281例本土個案及2例境外移入個案；另有校正回歸本土個案261例，總計544例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之281例本土病例，為144例男性，137例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月24日；個案分布以新北市154例最多，其次為臺北市49例，桃園市16例，臺南市、基隆市及彰化縣各10例，臺中市9例，屏東縣及新竹市各4例，高雄市、宜蘭縣各3例，臺東縣、南投縣及苗栗縣各2例、新竹縣、雲林縣及花蓮縣各1例。校正回歸個案261例中，為162例男性、99例女性，年齡介於未滿10歲至90多歲，發病日介於5月2日至5月22日；個案分布以臺北市155例最多，其次為新北市89例，宜蘭縣、桃園市各5例，基隆市及彰化縣各3例，臺中市1例。綜上所有個案，其中萬華活動史相關186例、茶藝館相關28例、某社團相關2例、某水果商相關7例、其他已知感染源122例、關聯不明111例、疫調中86例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1341為70多歲男性，有高血壓、糖尿病等慢性病史，5月8日出現咳嗽、發燒、有痰、全身痠痛等症狀，11日就醫並住院，15日確診，20日死亡。案2558為60多歲男性，有萬華區活動史，5月15日出現發燒、喉嚨痛、咳嗽、肌肉痠痛等症狀，20日確診並收治住院，21日死亡。案2719為90多歲男性，有糖尿病、癌症等慢性病史，5月14日出現發燒症狀，17日就醫並住院，20日確診，同日死亡。案3031為60多歲男性，有高血壓、糖尿病等慢性病史，5月15日出現發燒、咳嗽、呼吸困難、喉嚨痛等症狀，20日就醫並住院，21日確診，23日死亡。案3242為60多歲女性，有糖尿病、高血壓、心血管疾病等慢性病史，5月20日有肌肉痠痛、咳嗽、流鼻水、發燒等症狀，22日確診後至防疫旅館隔離，24日死亡。案4648為70多歲男性，有糖尿病、高血壓等慢性病史，5月22日出現發燒、呼吸困難、肺炎等症狀，同日就醫並住院，23日死亡，24日確診。\$\@\$指揮中心指出，新增2例境外移入病例(案5085、5470)皆自菲律賓來臺工作，均持有搭機前3日內檢驗陰性報告。案5085為40多歲男性，5月2日入境後至防疫旅館隔離，在臺期間並無症狀，17日期滿前採檢結果為陰性，24日完成自主健康管理後公司安排自費採檢，於今日確診(Ct值32)。案5470為20多歲男性，5月11日入境，在臺期間並無症狀，24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計388,453例新型冠狀病毒肺炎相關通報(含340,438例排除)，其中5,456例確診，分別為1,118例境外移入，4,285例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中35例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、 考量各項防疫措施生效至落實推動需要時間，請各地方政府持續加強監測、防疫及整備工作，並增加社區採檢站及提升採檢量能，強化檢驗及醫療調度應變量能，避免造成急診壅塞及增加院內感染風險。\$\@\$二、 為評估全國疫情風險狀況，指揮中心明(26)日起開始實施「COVID-19傳染病通報作業新流程」，由各地方政府每日通報社區採檢站篩檢量及陽性數等資訊，產製報表、面板分享共用，以利進行指標監測；另為防止高風險地區之社區篩檢站檢驗壅塞，指揮中心訂有「社區快篩站快篩處置流程」，協助地方提升篩檢工作執行效率。\$\@\$三、 醫療資源整備工作推動：\$\@\$有關雙北市專責病房一人一室收治病患之規範，如確有困難，將由「傳染病防治醫療網」網區指揮官視病人住院必要性、急迫性，及醫院收治量能、病房硬體條件，彈性調整。\$\@\$長期需要血液透析之確診病患，請集中收治於臺北市立聯合醫院和平院區及三軍總醫院松山分院，不限一人一室，並請地方衛生局督導上述醫院儘快制定相關作業流程。\$\@\$為利病患收治，請各地方政府督導轄內醫院加速專責病床清空速度，500床以上醫院須於本週五(28日)完成1/10病床數開設為專責病床；專責ICU部分，以醫學中心及準醫學中心至少20床，其他重度級急救責任醫院至少10床為原則，並以區域為單位規劃設置。\$\@\$地方指定應變醫院且同時肩負該縣市重度級急救責任醫院者，為避免排擠其他重症患者就醫診治，請新竹市、雲林縣及嘉義縣即刻執行備援應變醫院指定工作。\$\@\$集中檢疫場所設置請以50間以上為原則，以提升運用效率。\$\@\$為提升病床週轉率，針對確診住院者，距離發病或採檢日達10天以上且PCR採檢Ct值大於30者，可以出院並自主健康管理7日；若Ct值小於30則入住集中檢疫所。</t>
   </si>
   <si>
     <t>發佈日期：2021-05-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增339例COVID-19確定病例，分別為334例本土個案及5例境外移入個案(含印度3例、菲律賓1例、尼泊爾1例)；另有校正回歸本土個案256例，總計595例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之334例本土病例，為157例男性、177例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月10日至5月23日；個案分布以新北市177例最多(以板橋區43例為多)，其次為臺北市99例(以萬華區38例為多)，桃園市19例、彰化縣12例、基隆市及臺中市各7例、高雄市5例、屏東縣及臺南市各3例、南投縣及新竹縣各1例。校正回歸個案256例中，為157例男性、99例女性，年齡介於未滿5歲至90多歲，發病日介於5月14日至5月22日；個案分布以臺北市148例最多(以萬華區76例為多)，其次為新北市99例(以板橋區34例為多)，桃園市6例、苗栗縣2例、臺中市1例。綜上所有個案，其中萬華活動史相關200例、茶藝館相關34例、某社團相關6例、某水果商相關6例、其他已知感染源138例、關聯不明101例、疫調中105例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1860為70多歲女性，有胃癌等慢性病史，5月14日採檢，17日確診，19日死亡。案2476為70多歲男性，有扁桃腺惡性腫瘤等慢性病史，5月17日出現發燒症狀並就醫，19日確診，21日死亡。案2720為60多歲男性，5月15日出現咳嗽症狀，16日自行就醫採檢，20日確診，22日死亡。案2825為60多歲男性，有高血壓、肝硬化等慢性病史，5月17日出現發燒症狀，20日確診，22日死亡。案4162為60多歲女性，有糖尿病、慢性B型肝炎等慢性病史，5月21日有肌肉痠痛、呼吸困難、肺炎等症狀，21日採檢，22日死亡，23日確診。案4284為60多歲男性，有萬華區活動史，5月22日死亡並通報採檢，23日確診。\$\@\$指揮中心指出，新增5例境外移入病例，分別自菲律賓(案4466)、尼泊爾(案4613)、印度(案4773、案4902、案4914)移入，均持有搭機前3日內檢驗陰性報告。案4466為菲律賓籍30多歲男性，5月9日來臺工作，在臺期間並無症狀，5月23日進行檢疫期滿前採檢，於今日確診。案4613為30多歲本國籍男性，5月22日返臺，因入境時有症狀，於機場採檢送驗，於今日確診。案4773、案4902、案4914分別為本國籍40多歲、20多歲及50多歲男性，案4773、案4914皆於5月22日返臺，入境時並無症狀，入境後至檢疫所集中檢疫並採檢，於今日確診；案4902於5月10日返臺，入境後至檢疫所集中檢疫，期間並無症狀，5月23日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計364,911例新型冠狀病毒肺炎相關通報(含325,070例排除)，其中4,917例確診，分別為1,116例境外移入，3,748例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、案1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中29例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
@@ -1312,7 +802,7 @@
     <t>發佈日期：2021-05-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增315例COVID-19確定病例，分別為312例本土及3例境外移入。\$\@\$指揮中心表示，今日新增之312例本土個案為170例男性，142例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月8日至5月20日。居住縣市以新北市144例最多(以板橋區37例為多)，其次為臺北市127例(以萬華區60例為多)，桃園市13例、基隆市9例、臺中市及彰化縣各5例、高雄市4例、宜蘭縣2例、屏東縣、南投縣、雲林縣各1例。其中萬華活動史相關107例、茶藝館相關73例、某社團相關6例、某水果商相關5例、其他已知感染源24例、關聯不明72例、疫調中25例。相關疫情調查持續進行中。\$\@\$指揮中心指出，今日新增之3例境外移入，分別自美國、菲律賓、加拿大移入。案2974為美國籍50多歲女性，於4月28日自美國入境，持有搭機前3日內檢驗陰性報告，在臺期間無症狀，於5月20日進行採檢，於今日確診。案3103為加拿大籍40多歲男性，於5月19日自加拿大入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於5月20日進行採檢，於今日確診。案3038為菲律賓籍30多歲男性船員，持有搭機前3日內檢驗陰性報告，5月5日自菲律賓入境，檢疫期滿後於5月20日進行自費採檢，在臺期間並無症狀，於今日確診。\$\@\$指揮中心統計，截至目前國內累計315,592例新型冠狀病毒肺炎相關通報(含280,916例排除)，其中3,139例確診，分別為1,106例境外移入，1,980例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中，15例死亡。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
   </si>
   <si>
-    <t>發佈日期：2021-05-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增295例，286例本土；9例境外移入；確診個案中新增1例死亡(案2683)。\$\@\$指揮中心表示，今日新增之286例本土個案為155例男性，131例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月1日至5月19日。居住縣市以新北市157例最多(以中和區40例為多)，其次為臺北市87例(以萬華區40例為多)，桃園市17例、宜蘭縣8例、彰化縣6例，基隆市5例、臺中市3例、高雄市2例及雲林縣1例。萬華活動史相關84例、茶藝館相關60例、某社團相關7例、某水果商相關4例、遊藝場相關2例。關聯不明63例、其他已知感染源38例、疫調中28例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增之死亡個案(案2683)為70多歲女性，於萬華工作，個案平時獨居，有心血管疾病，5月15日出現虛弱無力及倦怠情形，但拒絕就醫；5月16日被匡列為須採檢之接觸者，但因個案持續失聯，衛生單位轉請警政單位協尋。5月17日家屬前往探視，發現個案已無生命跡象，經採檢於今日確診，Ct值25。5月18日警政單位回復尋獲個案，但個案已於5月17日死亡。個案家屬目前無症狀，列居家隔離；我國至今累計15例死亡個案。\$\@\$指揮中心指出，今日新增之9例境外移入，分別自菲律賓(6例)、美國、南非及印尼移入。案2610為本國籍50多歲男性，持有搭機前3日內檢驗陰性報告，5月9日自美國入境，5月15日於檢疫期間出現症狀，5月17日採檢，於今日確診。案2611至案2614、案2826、案2828為菲律賓籍移工4男2女，年齡介於20多至30多歲，均持有搭機前3日內檢驗陰性報告，分別5月5日、5月6日入境，在臺期間並無症狀，於5月19日進行檢疫期滿前採檢，於今日確診。案2615為本國籍60多歲女性，持有搭機前3日內檢驗陰性報告，5月11日自南非入境後於檢疫所進行採檢，於今日確診。案2827為印尼男性30多歲移工，持有搭機前3日內檢驗陰性報告，於5月6日自印尼入境，在臺期間無症狀，於5月19日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計297,481例新型冠狀病毒肺炎相關通報(含265,558例排除)，其中2,825例確診，分別為1,103例境外移入，1,669例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另8例(案530、案1589、1676、1591、1886、2067、2068、2528)移除為空號。確診個案中，15例死亡。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+    <t>發佈日期：2021-05-21\$\@\$中央流行疫情指揮中心今(21)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、為統一疫情防疫措施及規範，指揮中心已依傳染病防治法等相關規定，就全國民眾必須遵守之防疫措施，訂定一致性之指引及規範，並請各地方政府務必宣導民眾嚴格落實執行，以達到步調齊一、作法一致、說法一致，順暢推動防疫工作。\$\@\$二、各地方政府對外發布確診者公共場所活動史務必審慎，避免發生資訊錯亂情事。另衛生單位疫調確實完成後，公布前請事先通知所涉之相關地方政府及場所。\$\@\$三、各地方政府物資撥補盤點後如仍有不足之處，請儘速向指揮中心請求撥發；其中第一線防疫人員(如民政、消防、環保等)裝備，請務必給予充分支援。\$\@\$四、請衛生福利部每日將可收治確診者之場所通報雙北市政府知悉，並請雙北市政府副首長協助指揮調度，將相關訊息傳送地方消防局，以執行安排確診者至醫療院所或集中檢疫場所作業。\$\@\$五、民眾佩戴口罩，仍應遵守外出須全程佩戴之規定。針對自行開車部分，如為2人(含)以上同車者，則應佩戴口罩；另工地施工人員部分，因考量工人都在工地內用餐，飲食時請保持社交距離，不需佩戴口罩，但其他時間仍需佩戴口罩。\$\@\$六、為提高集中檢疫場所設置量能，請各地方政府積極盤點可設集中檢疫場所之地點，並儘速提供指揮中心，由衛生福利部進行評估及勘察作業。</t>
   </si>
   <si>
     <t>發佈日期：2021-05-20\$\@\$中央流行疫情指揮中心今(20)日表示，已於上午與各縣市政府完成召開第一次「全國防疫會議」。會議決議如下：\$\@\$一、    請各地方政府儘速盤點熱區採檢站設立事宜，並提報指揮中心評估協助。\$\@\$二、    針對採檢、後送就醫、診療程序及集中檢疫場所設置標準等，請指揮中心相關單位會後儘速研議提供各地方政府。\$\@\$三、    有關地方政府防疫物資需求，請提報指揮中心，以及時撥補，以利時效。\$\@\$四、    醫療資源整合部分，後續將由衛生福利部統籌進行全國盤點與分配事宜。\$\@\$五、    指揮中心已於5月16日授權地方政府確診個案公共場所活動史發布原則，將進行整合跨區域公共場所活動史及處理流程，供各地方政府參考。\$\@\$六、    請各地方政府優先提供第一線醫護人員接種COVID-19疫苗，後續到貨部分，將依疫情風險評估調整公費對象。</t>
@@ -1384,9 +874,6 @@
     <t>發佈日期：2021-05-13\$\@\$中央流行疫情指揮中心今(13)日表示，網路流傳「指揮中心尚未公布多個地區有確診案例」等訊息尚未證實，有關疫情相關資訊，請民眾以指揮中心公布為主，切勿以訛傳訛。\$\@\$指揮中心提醒，民眾接獲來源不明的訊息時，可透過疾管署全球資訊網、疾管家Line官方帳號、疾管署臉書專頁等管道查證最新疫情資訊。</t>
   </si>
   <si>
-    <t>發佈日期：2021-05-13\$\@\$中央流行疫情指揮中心今(13)日接獲某醫院通報2名住院病患確診為COVID-19，隨即偕同相關衛生單位至該院進行調查防治。\$\@\$指揮中心表示，經初步調查2案均為60多歲之男性及女性，係於5月9日至該院急診就醫，並分別於當日及隔（5/10）日入住該院不同病房。住院中經醫療人員詢問其具相關風險區域活動史，遂於5月12日轉負壓隔離病房並進行通報採檢後，於今日晚間確診。初步已匡列相關工作人員42名進行居家隔離及採檢。\$\@\$指揮中心說明，已隨即於今日晚間召開會議，針對疫情及防治作為進行討論，採取措施包括：\$\@\$1.    確診個案入住之病房暫停轉出及轉入，並擴大匡列接觸者。\$\@\$2.    立即安排相關密切接觸者（包括工作人員及病患）進行採檢。\$\@\$3.    該院急（門）診營運降載，並全面清消。\$\@\$4.    暫停收治疑似COVID-19確定及疑似個案，並由衛生單位協調其他醫院協助收治。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-05-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增12例境外移入COVID-19確定病例，自菲律賓(案1233至案1236、案1238)、印度(案1239至案1244)及烏干達(案1237)入境。\$\@\$指揮中心指出，案1233至案1236皆為菲律賓籍20餘歲男性移工，今(2021)年4月20日來臺工作，持有搭機前3日內檢驗陰性報告、入境後至集中檢疫所檢疫，5月3日檢疫期滿前採檢結果為陰性。4人檢疫期滿後由公司安排至宿舍自主健康管理，因工作需要，5月11日至醫院自費採檢，於今日確診(Ct值分別為34、30、30與34)。4人在臺期間並無症狀，已匡列接觸者41人，其中2人列居家隔離，39人列自我健康監測。\$\@\$指揮中心表示，案1238為菲律賓籍30餘歲女性，今年4月28日來臺工作，持有搭機前3日內檢驗陰性報告、入境後至集中檢疫所檢疫，5月11日進行檢疫期滿前採檢，於今日確診(Ct值31)。個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心說明，案1239至案1244為5名本國籍與1名印度籍，為5男1女，年齡介於20多歲至30多歲，今年3月至印度工作，5月11日返臺，皆持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，同日進行採檢，於今日確診(6人Ct值分別為30、34、36、35、27、28)；6名個案同班機旅客17人持續於集中檢疫所隔離。\$\@\$指揮中心表示，案1237為本國籍40多歲男性，2019年11月至烏干達工作，今年4月16日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，期間並無症狀；個案5月1日檢疫期滿後返回住處自主健康管理，5月9日出現喉嚨痛症狀，5月11日因發燒、喉嚨痛、嗅覺異常、胸悶等情形，至醫院就醫採檢，於今日確診(Ct值33)。已初步匡列個案接觸者17人，列居家隔離。</t>
   </si>
   <si>
@@ -1423,6 +910,9 @@
     <t>發佈日期：2021-05-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增3例本土及1例感染源調查中COVID-19確定病例，其中1例為機場防疫旅館員工(案1186)，1例為某航空公司機師(案1187感染源調查中)，2例為案1105同住家人(案1199、案1200)。\$\@\$指揮中心表示，案1186為本國籍40多歲男性，為機場防疫旅館員工接駁車司機，近期無出國史，今(2021)年4月23日至4月28日間曾分別接送過案1128及案1129，4月29日配合旅館清空計畫前往集中檢疫所，當日採檢核酸檢測及血清抗體皆為陰性。個案5月7日出現發燒、咳嗽及腹瀉症狀，5月8日由檢疫所安排就醫採檢，於今日確診(Ct值20)。個案發病前3日皆在集中檢疫所，未與他人接觸，故無匡列接觸者，另為求慎重，已針對個案同住家人進行回溯採檢。\$\@\$指揮中心指出，案1187為本國籍40多歲男性，為某航空公司機師，今年4月20日至4月22日曾執勤至美國，4月25日進行機師專案採檢，核酸檢測及血清抗體皆為陰性，5月2日曾與案1183搭乘同一部車至公司。個案5月6日出現發燒症狀，僅自行服藥未就醫，5月8日匡列為案1183之居家隔離接觸者，同日個案因發燒症狀，由衛生單位安排就醫採檢，於今日確診(Ct值16)，感染源調查中。已初步掌握個案接觸者26人，其中24人列居家隔離，2人列自我健康監測，將全數安排採檢。\$\@\$指揮中心表示，由於案1187可傳染期間曾有公共場所活動史(如附件)，提醒曾於附件所列時間及場所活動的民眾，進行14天自我健康監測，如有疑似症狀，請儘速戴口罩就醫，並主動告知醫師活動接觸史。\$\@\$指揮中心指出，案1199及案1200為40多歲女性及10多歲女性，為案1105之同住家人，2人與另1名家人於4月26日匡列為居家隔離對象，當日採檢核酸檢測及血清抗體皆為陰性。2人隔離期間並無症狀，5月9日進行隔離期滿前採檢，於今日確診(案1199 Ct值：28；案1200 Ct值：33)。已掌握2人之同住接觸者1人，先前已列為案1105接觸者，5月9日採檢結果為陰性，將延長居家隔離日期至5月23日。\$\@\$指揮中心統計，截至目前國內累計215,806例新型冠狀病毒肺炎相關通報(含213,504例排除)，其中1,199例確診，分別為1,048例境外移入，99例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及13例調查中；另1例(案530)移除為空號。確診個案中12人死亡、1,089人解除隔離、98人住院隔離中。 圖片 附件\$\@\$案1187公共場所活動史</t>
   </si>
   <si>
+    <t>發佈日期：2021-05-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增11例境外移入COVID-19確定病例，自菲律賓(案1188)、敘利亞(案1189)、印度(案1190至案1193)及印尼(案1194至案1198)入境。\$\@\$指揮中心指出，案1188為本國籍20多歲女性，2019年5月至菲律賓工作，今(2021)年4月21日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫至5月4日，檢疫期滿後，於5月7日至醫院自費採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，檢疫期滿後除就醫採檢外無外出，就醫時接觸之人員皆有適當防護，故無匡列接觸者。\$\@\$指揮中心表示，案1189為敘利亞籍50多歲男性，今年4月16日來臺洽公，持有搭機前3日內檢驗陰性報告，入境後至其他住所進行檢疫；因預計返回敘利亞，5月8日至醫院自費採檢，於今日確診(Ct值37)。個案在臺期間並無症狀，已掌握個案職場接觸者5人，列居家隔離。\$\@\$指揮中心表示，案1190及案1191均為本國籍50多歲男性，去(2020)年9月至印度工作。案1190於今年4月28日起陸續出現咳嗽、流鼻水、發燒、腹瀉、肌肉痠痛及嗅味覺異常等症狀，5月3日在當地檢出COVID-19陽性，5月4日因呼吸困難至醫院就醫檢出肺炎；案1191於今年4月15日起陸續出現咳嗽、流鼻水、倦怠及腹瀉等症狀，5月3日在當地檢出COVID-19陽性，5月6日就醫檢出肺炎；2人於5月8日一同搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，於今日確診。已掌握2人返國後送就醫之相關接觸者共6名，因均有適當防護裝備，列自我健康監測。\$\@\$指揮中心表示，案1192及案1193分別為本國籍40多歲及20多歲男性，皆於今年3月至印度工作。案1192曾於4月26日出現喉嚨痛、流鼻水及嗅味覺異常等症狀；案1193曾於4月29日出現咳嗽、流鼻水及喉嚨痛等症狀。2人同於5月8日返臺，均持有搭機前3日內檢驗陰性報告，入境時主動通報曾有症狀，於機場採檢後，至集中檢疫所檢疫，於今日確診(案1192 Ct值：23；案1193 Ct值：31)。已掌握同班機接觸者71人，列居家隔離。\$\@\$指揮中心指出，案1194至案1198為印尼籍男性漁工，年齡介於10多歲至20多歲，今年4月26日來臺工作，皆持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月9日進行檢疫期滿前採檢，於今日確診。5人在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-05-09\$\@\$中央流行疫情指揮中心今（9）日表示，昨（8）日一艘馬來西亞籍阿弗桑特提1號帆船，由國人駕駛返國，卻未依照防疫及商港法規定事先申請在國際商港管制區辦理各項入境檢查，經海巡署人員發現要求改正。後續經疾管署、移民署、航港局及臺南市政府等單位人員即時協助下，該船已停靠安平港管制區碼頭，並執行各項入境檢查。為杜絕防疫可能破口，船上5名人員已依規定進行居家檢疫，其餘2人留船預計5月10日進行居檢。\$\@\$指揮中心指出，依商港法第19條規定，船舶進入國際商港，應於到達港區24小時前填具船舶入港預報表，送航港局查核通過後，交由港務公司安排船席。如安排之船席船長認為靠泊有危及船舶安全，應向港務公司反應，另外安排合適碼頭靠泊。\$\@\$指揮中心表示，另依防疫規定，外籍遊艇必須進入國際商港管制區進行檢疫，阿弗桑特提1號帆船原預定直接進入興達港，由於興達港並非國際商港，故該船改航向安平港，臨時於8日8點16分向航港局申請進港預報，雖不符商港法規定，航港局基於協助立場，仍執行進港審查作業，但因申請資料缺漏，於9點54分通知船長補正資料，船長於11點22分完成補件後，航港局即通過進港申請審核。\$\@\$指揮中心指出，經查詢，該帆船8日10時26分抵達安平港外海，13時09分通過安平港信號臺，前往高雄港務分公司安平港營運處指泊之17號碼頭靠泊，惟17號碼頭碰墊較大，船長擔心靠泊船隻會受損，經反應後，安平港營運處再改指泊13號碼頭，結果船長仍有疑慮，便將船航向港口北護岸之海巡安檢碼頭停泊，之後船長又自行將該船航向亞果遊艇碼頭並停靠。因亞果碼頭區並非管制區，無法執行各項安檢作業，經協調，營運處再指泊該帆船移靠港警辦公室前側水域警艇停泊區（7號碼頭旁邊）。\$\@\$指揮中心表示，該帆船於5月8日21時30分靠妥7號碼頭，港區CIQS及檢疫相關單位相繼進行通關及檢疫作業。23時40分疾管署南區管制中心完成遊艇上5名國人開立居家檢疫書；移民署於23時56分完成辦理5人入境，另2名船員留船至5月10日再處理居檢事宜。 指揮中心強調，政府相關單位均依規定執行該帆船進港、通關及防疫等作業，杜絕防疫可能破口。後續將檢視該船入港及停泊是否有違失情形，將依蒐集事證依法裁處。</t>
   </si>
   <si>
@@ -1493,192 +983,6 @@
   </si>
   <si>
     <t>發佈日期：2021-05-01\$\@\$中央流行疫情指揮中心今(1)日表示，新增1例本土COVID-19確診病例(案1133)，為案1102之同住家人。\$\@\$指揮中心說明，案1133為本國籍未滿5歲男童，近期無出國史，今(2021)年4月25日匡列為居家隔離對象，4月29日出現發燒症狀，由衛生單位安排就醫採檢，於今日確診(Ct值18)。個案家庭接觸者2人，延長居家隔離日期至5月15日。\$\@\$指揮中心統計，截至目前國內累計208,351例新型冠狀病毒肺炎相關通報(含206,137例排除)，其中1,132例確診，分別為996例境外移入，88例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及9例調查中；另1例(案530)移除為空號。 確診個案中12人死亡、1,053人解除隔離、67人住院隔離中。\$\@\$指揮中心說明，針對案1129之活動史，因曾到過嘉義，相關接觸者共10名，其中6人核酸檢驗陰性，其餘檢驗中。\$\@\$指揮中心提醒，接種COVID-19疫苗可以減少罹病、重症及死亡的風險，並可形成社區群體免疫力，降低疫情傳播機會。符合目前公費疫苗接種對象者，無須等候接種通知，請於接種前先上網或電話預約，並攜帶健保卡至接種院所施打。如無法預約，得攜帶身分證或其他身分證明文件(如員工證)等至接種單位，由醫療院所確認後接種疫苗。請符合公費接種對象者踴躍接種，及早獲得保護力。 圖片 附件\$\@\$案1127公共場所活動史(20210501更新)\$\@\$案1128公共場所活動史(20210501更新)\$\@\$案1129公共場所活動史\$\@\$case#1127.JPG\$\@\$case#1128.JPG\$\@\$case#1129.JPG</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-05-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增3例境外移入COVID-19確定病例，自菲律賓(案1130、案1132)及印尼(案1131)入境。\$\@\$指揮中心指出，案1130為菲律賓籍40多歲男性漁工，今(2021)年4月16日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，4月29日進行檢疫期滿前採檢，於今日確診(Ct值34)。個案檢疫期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心表示，案1131為本國籍40多歲男性，去(2020)年12月至印尼洽公，於今年3月28日返臺，持有搭機前3日內檢驗陰性報告，入境後至其他住所進行檢疫，4月12日檢疫期滿後返回住家；因預計再次出國，4月30日至醫院自費採檢，於今日確診(Ct值36；住院後採檢核酸檢驗及血清抗體皆陰性)。個案在臺期間無症狀，已掌握接觸者4人，其中3人列居家隔離，餘1人列自我健康監測對象。\$\@\$指揮中心指出，案1132為本國籍40多歲男性，去年3月至菲律賓工作，並於今年3月13日至19日間陸續出現喉嚨癢、發燒、畏寒等症狀，3月20日在當地檢出COVID-19陽性，並於4月11日及12日兩次採檢皆為陰性。個案4月15日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫；4月30日檢疫期滿前往醫院自費採檢，於今日確診(Ct值33)。個案在臺期間無症狀，且檢疫期間未與他人接觸，就醫採檢時接觸之相關人員皆有適當防護，故無匡列接觸者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-30\$\@\$中央流行疫情指揮中心今(30)日表示，有關機場防疫旅宿員工確診COVID-19事件，考量該防疫旅宿可能有潛在傳播風險，故將針對本(2021)年4月15日至4月28日間自該飯店退房之機組人員數調查，並進行擴大居家隔離。\$\@\$指揮中心提醒，於該段時間曾至該旅宿活動之民眾，請自暴露日起進行自我健康監測14天，若出現發燒、上呼吸道、腹瀉、嗅味覺異常等症狀，應佩戴醫用口罩，儘速至就近指定社區採檢院所就醫，並主動告知接觸史、旅遊史、職業暴露、周遭其他人是否有類似症狀，就醫時不得搭乘大眾運輸。\$\@\$指揮中心強調，防疫旅宿的運作已訂有「COVID-19因應指引：防疫旅宿設置及管理」，並由地方政府依「因應COVID-19疫情防疫旅宿檢核表」就旅客入住安排、門禁管理及安全維護、房間設備、環境清潔及廢棄物清理及人員健康管理等五項目，每月至少進行1次抽核，防疫旅宿業者亦應依該查檢項目落實相關管理措施。\$\@\$指揮中心指出，為因應本次防疫旅宿員工確診事件，指揮中心將進行防疫旅宿總體檢，請地方政府於本年5月17日前完成轄內各防疫旅宿之查核作業，針對查核後須改善之防疫旅宿，將加強輔導並安排複查，以維護社區防疫安全。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增3例本土COVID-19確定病例(案1127至案1129)，皆為機場防疫旅館員工。\$\@\$指揮中心表示，案1127為本國籍20多歲女性，為機場防疫旅館餐飲部員工，近期無出國史，昨(29)日上午依旅館清空計畫至集中檢疫所，當日下午出現喉嚨癢症狀，於檢疫所進行採檢，於今日確診(Ct值26)。已初步掌握個案接觸者10人，皆列居家隔離對象。\$\@\$指揮中心指出，案1128為本國籍20多歲男性，為機場防疫旅館房務部員工，近期無出國史，昨日原預計依旅館清空計畫前往集中檢疫所，但因量測體溫有發燒情形，後送就醫採檢及隔離治療，於今日確診(Ct值16)。已初步掌握個案接觸者4人，皆列居家隔離對象。\$\@\$指揮中心表示，案1129為本國籍60多歲女性，為機場防疫旅館房務部員工，近期無出國史，4月26日曾出現輕微咳嗽及喉嚨痛症狀，並自行購買成藥服用，昨日依旅館清空計畫前往集中檢疫所，並於檢疫所內進行採檢，於今日確診(Ct值20)。已初步掌握個案接觸者4人，皆列居家隔離對象。\$\@\$指揮中心指出，因應案1120確診，已於昨日啟動旅館清空計畫及員工採檢，截至目前已採檢206人，其中3人檢驗陽性(案1127至案1129)，203人陰性。由於該旅館確診員工隔離前有公共場所活動史(如附件)，提醒曾於附件所列時間及場所活動的民眾，進行自我健康監測14天，如有疑似症狀，請儘速戴口罩就醫，並主動告知醫師活動接觸史。\$\@\$指揮中心統計，截至目前國內累計207,488例新型冠狀病毒肺炎相關通報(含205,371例排除)，其中1,128例確診，分別為993例境外移入，87例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及9例調查中；另1例(案530)移除為空號。確診個案中12人死亡、1,053人解除隔離、63人住院隔離中。\$\@\$指揮中心表示，有關某航空公司1,279名機師採檢專案，新增2名檢出血清抗體陽性，其中1名為昨日公布之案1122，另1名為本國籍20多歲女性機師，4月19日執勤至美國，4月26日返國後進行居家檢疫，期間無不適症狀，4月29日進行檢疫期滿採檢，其中核酸檢測陰性，血清抗體IgM陰性、IgG陽性；已掌握個案接觸者1人，將安排採檢。本採檢專案截至目前血清抗體已採檢1,139人，其中1,126人陰性、9人陽性、4人檢驗中。 圖片 附件\$\@\$案1120公共場所活動史\$\@\$案1127公共場所活動史\$\@\$案1128公共場所活動史</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增4例境外移入COVID-19確定病例，自哈薩克(案1123)、埃及(案1124)、菲律賓(案1125)及印度(案1126)入境。\$\@\$指揮中心指出，案1123為本國籍50多歲男性，今(2021)年2月至哈薩克洽公，3月30日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月14日檢疫期滿後返家；因預計再次出國洽公，4月28日至醫院自費採檢，於今日確診(Ct值33；住院後採檢核酸檢驗陰性，血清抗體IgM陽性、IgG陽性)。個案在臺期間無症狀，已掌握接觸者12人，其中3人列居家隔離，餘9人列自我健康監測對象。\$\@\$指揮中心表示，案1124為菲律賓籍20多歲男性船員，於今年3月自埃及登船工作。該船航行途中經過我國，申請4月9日於我國外海進行物資補給，因當日個案出現意識不清及呼吸急促症狀，4月10日入境我國後，經衛生單位安排就醫治療並採檢；個案住院期間，曾採檢3次檢驗結果均為陰性，4月27日出院後，由衛生單位安排至防疫旅館，4月28日因出境需要，由船務公司安排進行自費採檢，於今日確診(Ct值30；住院後採檢核酸檢驗陰性、血清抗體陰性)。已掌握個案接觸者4人，均有適當防護，故列為自我健康監測對象。\$\@\$指揮中心指出，案1125為菲律賓籍30多歲男性移工，今年4月16日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，4月29日進行檢疫期滿前採檢，於今日確診。個案檢疫期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心表示，案1126為印度籍30多歲男性，今年2月12日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，2月27日檢疫期滿後返回住處。個案在臺期間並無症狀，因預計返回印度，4月27日至醫院自費採檢，於今日確診(Ct值36；住院後採檢Ct值36、血清抗體IgM陰性、IgG陽性)。已掌握個案職場接觸者共20人，其中12人為個案同辦公室同事，列居家隔離；餘8人，列自我健康監測對象。\$\@\$備註：「自我健康監測對象」：衛生單位進行疫情調查後，僅打電話詢問健康狀況，並無正式開單者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-29\$\@\$中央流行疫情指揮中心今(29)日表示，因應近期某航空公司血清抗體陽性機師之同住家人陸續確診，考量醫護人員、中央及地方政府防疫人員以及高接觸風險第一線工作人員之同住者亦屬高感染風險族群，為盡速建立該等對象免疫保護力，自5月3日起，開放醫護人員、中央及地方政府防疫人員及高接觸風險第一線工作人員等實施計畫第一類至第三類對象之同住者公費接種COVID-19疫苗。另考量診所及其他醫事機構（包括藥局、捐血機構、病理機構、醫事檢驗所等）未納入第一類接種對象之所有非醫事人員亦為高感染風險者，該等人員及其同住者亦納入本階段公費開放對象。\$\@\$指揮中心說明，截至4月29日止，已配送115,400劑AstraZeneca COVID-19疫苗至地方政府衛生局以及175家合約院所。為增加疫苗接種可近性，各地方政府衛生所自本週起開始陸續提供COVID-19疫苗接種服務，預計5月中旬以前，全臺至少可再增加195處接種點。指揮中心呼籲，上述對象可透過接種預約網址或COVID-19疫苗接種服務專線，預約COVID-19疫苗接種事宜，並依預約時間日攜帶健保卡等身分證明文件準時前往接種。\$\@\$指揮中心表示，近期美國、英國等歐美國家進行之大規模臨床試驗及實施接種計畫後追蹤研究顯示，AstraZeneca COVID-19疫苗能預防COVID-19感染，以及感染後重症、住院及死亡的風險，接種疫苗可形成社區群體免疫力，降低疫情傳播機會。指揮中心呼籲符合公費接種對象之民眾踴躍接種，並提醒民眾接種前應與醫師討論評估相關風險，接種後應於接種單位或附近休息並觀察至少30分鐘，無恙後再離開。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增2例本土及1例調查中COVID-19確定病例，本土病例中，1例為機場防疫旅館員工(案1120)、1例為案1078同住家人(案1121)；調查中病例為某航空公司機師(案1122)。\$\@\$指揮中心表示，案1120為本國籍40多歲男性，為機場防疫旅館員工，近期無出國史，平時工作項目為檢查房間環境之清潔，偶爾協助機組員購買物品或送備品，工作期間佩戴口罩及手套。個案4月17日起陸續出現咳嗽、流鼻水、食慾不振及呼吸喘等症狀，並於4月19日至4月26日間多次至診所就醫，因症狀未改善，4月27日至醫院就醫，經診斷有肺炎情形，收治住院隔離並採檢，於今日確診(Ct值21，血清抗體IgM及IgG皆為陽性)。\$\@\$指揮中心指出，案1120獨居未與家人同住，已初步掌握接觸者107人，包括友人、職場接觸者及就醫接觸者等，其中4人列居家隔離、103人列自主健康管理，將持續調查個案活動史及接觸史，匡列可能接觸者。因應機場防疫旅館員工確診，指揮中心將召回該旅館所有員工進行採檢，針對目前住宿於該旅館之人員，今日將全數安排至集中檢疫所，另已採檢39件該旅館之環境檢體送驗。\$\@\$指揮中心表示，案1121為本國籍40多歲女性，為案1078(某航空公司機師)之同住家人，4月20日列為居家隔離接觸者並採檢，檢驗結果為陰性；個案4月27日因出現胸悶、呼吸困難等情形，由衛生單位安排就醫採檢，於今日確診(Ct值18)。由於個案發病前2天為居家隔離期，未與他人接觸，故無匡列接觸者；另案1078之接觸者中，截至目前除案1121發病確診外，其他家人及職場接觸者等共28人檢驗結果皆為陰性。\$\@\$指揮中心指出，案1122為本國籍50多歲男性，為某航空公司貨機機師，4月2日至4月9日曾執勤至美國，返臺後於防疫旅館檢疫至4月15日，期間無症狀，檢疫期滿採檢結果為陰性；個案4月19日再次執勤至美國，4月24日自美國經日本返臺，4月25日入境後返回住處居家檢疫，4月27日出現喉嚨痛及發燒症狀，由衛生單位安排就醫採檢，於今日確診(Ct值21)。已掌握個案同住接觸者1人，列居家隔離，職場接觸者調查匡列中。\$\@\$指揮中心統計，截至目前國內累計206,358例新型冠狀病毒肺炎相關通報(含204,315例排除)，其中1,121例確診，分別為989例境外移入，84例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及9例調查中；另1例(案530)移除為空號。確診個案中12人死亡、1,051人解除隔離、58人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增2例境外移入COVID-19確定病例，自菲律賓(案1118)及墨西哥(案1119)入境。\$\@\$指揮中心指出，案1118為菲律賓籍20多歲女性移工，今(2021)年4月7日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，4月20日接受檢疫期滿前採檢，結果為陰性；檢疫期滿後，由公司安排至其他住所單獨自主健康管理，因工作需要，4月27日搭乘專車至醫院自費採檢，於今日確診(Ct值36)。個案在臺期間無症狀，已掌握同車接觸者5人，均有適當防護，列自主健康管理。\$\@\$指揮中心表示，案1119為本國籍40多歲男性，今年1月至墨西哥洽公，4月18日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月24日陸續出現咳嗽及發燒症狀，4月26日經衛生單位安排就醫採檢，於今日確診(Ct值23)。個案發病前2天為居家檢疫期，未與他人接觸，且就醫時接觸之人員均有適當防護，故無匡列接觸者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增3例本土COVID-19確定病例，其中1例(案1112)為境外移入個案之非同住家人，2例(案1113、案1114)為昨(27)日公布某航空公司血清抗體陽性機師之同住家人。\$\@\$指揮中心表示，案1112為本國籍70多歲男性，為境外移入個案(案1068、案1106)之非同住家人，近期無出國史，亦無疑似症狀，曾因案1068居家檢疫期間於住處跌倒，前往該案住處停留半個多小時，另於案1106居家隔離期間，協助送餐事宜。衛生單位於4月26日安排案1112進行接觸者採檢，於今日確診(Ct值26)。已初步掌握個案接觸者190人，列居家隔離。另由於個案曾有公共場所活動史(如附件)，提醒曾於附件所列時間及場所活動的民眾，自主健康管理14天，如有疑似症狀，請儘速戴口罩就醫，並主動告知醫師活動接觸史。\$\@\$指揮中心指出，案1113為本國籍10多歲男性，為昨日公布某航空公司血清抗體陽性另一機師之同住家人，近期無出國史，亦無疑似症狀，4月26日由衛生單位安排進行接觸者採檢，於今日確診(Ct值36，次日再驗Ct值41，血清抗體IgM陰性、IgG陽性)。個案之同住家人，除該名機師外，其餘2名家人之核酸檢測皆為陰性，血清抗體皆呈IgM陰性、IgG陽性。\$\@\$指揮中心表示，案1114為本國籍40多歲女性，為昨日公布某航空公司血清抗體陽性機師之同住家人，近期無出國史，亦無疑似症狀，4月26日由衛生單位安排進行接觸者採檢，於今日確診(Ct值34，次日再驗核酸檢測陰性，血清抗體IgM陰性、IgG陽性)。個案之同住家人，除該名機師外，其餘2名家人之核酸檢測皆為陰性，其中1人血清抗體IgM陰性、IgG陽性，另1人血清抗體為陰性。\$\@\$指揮中心指出，依據目前調查結果，COVID-19在社區傳播的風險很低，惟為求謹慎，將調查個案及血清抗體陽性者活動史，並針對相關密切接觸者提供免費病毒核酸以及血清抗體檢驗，以瞭解其健康狀況，同時保護其周邊的親友。 圖片 附件\$\@\$案1112公共場所活動史</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-28\$\@\$中央流行疫情指揮中心今(28)日表示，斐濟近期因境外移入個案導致本土群聚發生，當局持續擴大封鎖管制地區；寮國近期病例快速增加，自今(2021)年4月20日起已累計逾350例本土COVID-19個案，且分布於多個行政區，故自即日起，將該2國自低風險國家調整為中低風險國家。各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲、新加坡、越南、不丹。\$\@\$中低感染風險國家/地區：香港、斐濟、寮國。\$\@\$指揮中心指出，全球COVID-19疫情持續創新高，近7日新增確診數較上週增加6%，印度、歐洲、美洲為目前疫情流行中心。依據監測資料顯示，全球累計148,190,965例確診，分布於193個國家/地區；病例數以美國32,197,973例、印度17,636,307例、巴西14,441,563例、法國5,534,313例及俄羅斯4,779,425例為多；病例中3,141,348例死亡，以美國583,999例、巴西395,022例、墨西哥215,113例、印度197,894例及英國127,451例為多。\$\@\$指揮中心表示，國內今日新增6例 COVID-19病例，截至目前國內累計205,578例新型冠狀病毒肺炎相關通報(含203,630例排除)，其中1,116例確診，分別為987例境外移入，82例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及8例調查中；另1例(案530)移除為空號。確診個案中12人死亡、1,050人解除隔離、54人住院隔離中。\$\@\$指揮中心提醒，接種COVID-19疫苗可以減少罹病、重症及死亡的風險，並可形成社區群體免疫力，降低疫情傳播機會。符合目前公費疫苗接種對象者，無須等候接種通知，請於接種前先上網或電話預約，並攜帶健保卡至接種院所施打。如無法預約，得攜帶身分證或其他身分證明文件(如員工證)等至接種單位，由醫療院所確認後接種疫苗。請符合公費接種對象者踴躍接種，及早獲得保護力。\$\@\$指揮中心再次籲請民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增3例境外移入COVID-19確定病例，自印尼(案1115、案1116)及印度(案1117)入境。\$\@\$指揮中心表示，案1115、案1116為印尼籍20多歲女性及20多歲男性，今(2021)年4月11日一同來臺就學，持有搭機前3日內檢驗陰性報告，入境後由校方安排住所進行居家檢疫，期間並無症狀；4月26日檢疫期滿後，經校方安排專車至醫院採檢，於今日確診(案1115：Ct值32；案1116：Ct值30)。已掌握2人同車接觸者15人，均有適當防護，列自主健康管理。\$\@\$指揮中心指出，案1117為本國籍30多歲男性，去(2020)年2月至印度工作，今年4月13日返國，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月24日出現輕微咳嗽症狀，隔日因腹瀉及發燒，由衛生單位安排就醫採檢，於今日確診(Ct值21)。個案發病前2日為居家檢疫期間，未與他人接觸，故無匡列接觸者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-27\$\@\$中央流行疫情指揮中心今(27)日表示，因應某航空公司機師於澳洲檢出COVID-19陽性，指揮中心啟動航空公司飛航機師採檢專案，針對1,279名機師進行採檢，截至目前血清抗體已採檢934名，其中925名陰性、6名陽性、3名檢驗中。\$\@\$指揮中心表示，該6名血清抗體檢測陽性機師中，3名為過去已公布之確診個案(案151、案177及案1105)，另3名為本國籍40多歲男性(2名)及本國籍40多歲女性(1名)，3人分別於4月22日、4月24日及4月25日接受專案採檢，檢驗結果核酸檢測皆為陰性，血清抗體皆呈IgM陰性、IgG陽性。\$\@\$指揮中心指出，針對先前未確診但檢出血清抗體陽性之3名個案，將進行執勤飛航紀錄、同行機組員進行疫調，並對密切接觸者匡列及進行核酸檢測及血清抗體檢驗。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-27\$\@\$中央流行疫情指揮中心今(27)日表示，新增1例本土COVID-19確診病例(案1111)，為澳洲驗出陽性機師及案1090之同住家人。\$\@\$指揮中心說明，案1111為印尼籍40多歲女性，近期無出國史，今(2021)年4月21日匡列為居家隔離接觸者，當日及次(22)日採檢結果均為陰性。4月26日出現喉嚨乾、身體痛、暈眩、口苦、噁心、睡不著等症狀，由衛生單位安排採檢，於今日確診(Ct值22)。個案家庭接觸者1人，延長居家隔離日期至5月10日，另匡列3名接觸者，為防疫計程車司機，接觸時雙方皆佩戴口罩，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計204,833例新型冠狀病毒肺炎相關通報(含202,612例排除)，其中1,110例確診，分別為984例境外移入，79例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及8例調查中；另1例(案530)移除為空號。 確診個案中12人死亡、1,050人解除隔離、48人住院隔離中。\$\@\$指揮中心也提醒，接種COVID-19疫苗可以減少罹病、重症及死亡的風險，並可形成社區群體免疫力，降低疫情傳播機會。符合目前公費疫苗接種對象者，無須等候接種通知，請於接種前先電話預約，並攜帶健保卡至接種院所施打。如無法預約，請先向工作單位確認是否已列入造冊名單，再進行預約接種事宜。請符合公費接種對象者踴躍接種，及早獲得保護力。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增5例境外移入COVID-19病例，自加拿大(案1106)及菲律賓(案1107至案1110)入境。\$\@\$指揮中心表示，案1106為本國籍70多歲女性，今(2021)年3月1日與日前公布之案1068一同至加拿大探親，4月8日返臺，持有搭機前3日內檢驗陰性報告，入境後至住處居家檢疫，因案1068確診，改列為居家隔離對象，4月13日進行接觸者採檢，結果為陰性。個案隔離期間並無症狀，4月25日由衛生單位安排至醫院進行隔離期滿前採檢，於今日確診(Ct值29)。已掌握個案接觸者2人，1人列居家隔離、1人列自主健康管理。\$\@\$指揮中心指出，案1107、案1109及案1110分別為緬甸籍30多歲男性、中國籍40多歲男性及緬甸籍20多歲男性，皆為昨(26)日公布案1103及案1104之同船船員，其中案1107於4月24日起陸續出現發燒及咳嗽症狀，4月25日後送就醫並採檢，案1109、1110則於4月26日進行接觸者採檢，3人因核酸檢測皆呈現陽性，於今日確診(案1107 Ct值26；案1109 Ct值20；案1110 Ct值28)。該船截至目前共計5人確診，已掌握接觸者64人，其中14人為同船船員，核酸檢測皆為陰性，並已出境；餘50人中，3人列居家隔離、47人列自主健康管理。\$\@\$指揮中心表示，案1108為菲律賓籍20多歲女性移工，今年4月25日來臺工作，持有搭機前3日內檢驗陰性報告，入境時無症狀，因主動通報3月下旬於菲律賓當地確診COVID-19，故在機場進行採檢，於今日確診(Ct值27)。已掌握個案同班機前後二排座位旅客3人，列居家隔離。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增1例COVID-19境外移入確定病例，自美國(案1099)入境。\$\@\$指揮中心表示，案1099為本國籍40多歲男性，今(2021)年2月3日至墨西哥洽公，4月12日至16日停留美國，於4月18日抵臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫；4月22日因出現發燒及咳嗽症狀，由衛生單位安排至醫院就醫並採檢，於今日確診(Ct值18)。個案在臺期間為居家檢疫期未與他人接觸，且就醫時接觸之人員均有適當防護，故無匡列接觸者；另掌握個案境外同行同事34名，均在居家檢疫中，並追蹤健康狀況，其中1名曾回報有咳嗽症狀，刻正安排後續採檢。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-24\$\@\$中央流行疫情指揮中心今(24)日表示，因應某航空公司機師於澳洲檢出COVID-19陽性，指揮中心啟動個案在臺活動史之調查，並針對在臺接觸者匡列及回溯採檢，今日新增1名回溯採檢者檢出陽性(案1092)。\$\@\$指揮中心說明，案1092為本國籍40多歲男性，為該航空公司之貨機機組員，個案今(2021)年4月9日至4月16日曾執勤至紐西蘭及荷蘭，因出勤需求曾於4月9日及13日進行採檢，結果皆為陰性，出勤期間無症狀，返臺後於4月19日進行檢疫期滿採檢，結果為陰性；個案4月22日執勤往返日本，返臺後於住家居家檢疫，同日下午因指揮中心針對澳洲檢出陽性機師之接觸者進行回溯採檢，於今日確診(Ct值35，二採Ct值23，血清抗體陰性)。\$\@\$指揮中心表示，個案感染源現正調查中，已掌握接觸者共14人，其中5人列居家隔離，9人列自主健康管理；14名接觸者中，5人已採檢核酸及血清抗體，其中4人核酸檢驗陰性、1人檢驗中，該5人之血清抗體皆檢驗中，餘9人待採檢。\$\@\$指揮中心統計，截至目前國內累計202,574 例新型冠狀病毒肺炎相關通報(含200,556 例排除)，其中1,097例確診，分別為976例境外移入，78例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及4例調查中；另1例(案530)移除為空號。確診個案中12人死亡、1,045人解除隔離、40人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增6例境外移入COVID-19確定病例，分別自菲律賓(案1093、1094、1098)、印度(案1095)及印尼(案1096、1097)入境。\$\@\$指揮中心表示，案1093為菲律賓籍20多歲男性，今(2021)年3月17日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，期間並無症狀及期滿採檢為陰性；個案於4月7日因同行移工確診(案1054)進行居家隔離，於4月11日解除後進行自主健康管理，因工作需要，4月22日由公司安排至醫院自費採檢並於今日確診(Ct值30，核酸二採陰性，血清抗體IgM陰性、IgG陽性)。已掌握個案接觸者6人，其中1人列居家隔離，4人列自主健康管理，1人已出境。\$\@\$指揮中心指出，案1094為本國籍70多歲男性，長期居住菲律賓，並於今年4月8日來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月19日因心情不佳無食慾等狀況，由衛生局安排就醫，因無發燒及呼吸道相關症狀，故無採檢並返回旅館繼續檢疫，4月21日因個案未領早餐，旅館人員發現個案已無心跳，經法醫採檢於今日確診(Ct值27)。個案居家檢疫期間及就醫時接觸者皆有適當防護，故無匡列接觸者。\$\@\$指揮中心表示，案1095為印度籍20多歲男性學生，今年4月8日首次來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫至4月22日，期滿後隔日由學校專案安排至醫院採檢並確診(Ct值20，核酸二採及血清抗體檢驗中)。已掌握個案接觸者1人，列自主健康管理。\$\@\$指揮中心表示，案1096為印尼籍20多歲男性學生，今年4月8日首次來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫至4月22日，期滿後隔日由學校專案安排至醫院採檢並確診(Ct值33，核酸二採Ct值30，血清抗體IgM陰性、IgG陽性)。已掌握個案接觸者共8人，其中1人列居家隔離，7人列自主健康管理。\$\@\$指揮中心表示，案1097為印尼籍30多歲男性漁工，4月22日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，4月23日因有咳嗽症狀，由集中檢疫所安排採檢並於今日確診。已掌握個案接觸者共27人，其中15人列居家隔離，12人列自主健康管理。\$\@\$指揮中心表示，案1098為菲律賓籍20多歲女性移工，今年3月26日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，4月8日接受檢疫期滿前採檢陰性；因工作需要，個案於4月23日至醫院自費採檢並確診(Ct值31，核酸二採Ct值32，血清抗體IgM陰性、IgG陽性)。已掌握個案接觸者共19人，因有適當防護，列為自主健康管理。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-23\$\@\$中央流行疫情指揮中心今(23)日表示，我國今(2021)年4月21日接獲我國某航空公司通報，該公司1名印尼籍40多歲男性貨機機師，4月20日執勤至澳洲時，自覺出現喉嚨癢情形，並於當地檢出COVID-19陽性，指揮中心隨即啟動個案在臺活動史之調查，並針對在臺接觸者匡列及採檢，其中2名接觸者檢出陽性，於今日確診(案1090、1091)。\$\@\$指揮中心表示，案1090為印尼籍10多歲男性，為該名機師之同住家人，近期無出國史，4月21日匡列為居家隔離接觸者，並由衛生單位安排就醫採檢，4月22日出現喉嚨乾痛、暈眩等症狀，於今日確診(Ct值30)。\$\@\$指揮中心指出，案1091為印尼籍50多歲男性，為該名機師之同事，4月4日至4月10日曾執勤至美國，期間無症狀，返臺後於4月15日進行檢疫期滿採檢，結果為陰性；個案4月16日自覺有疲憊、身體微熱情形，同日中午與該機師及案1090一同於台北清真寺活動，4月18日出現輕微咳嗽症狀，經服藥後症狀改善，因預計返回印尼探親，4月21日進行自費採檢，於今日確診(Ct值27)。\$\@\$指揮中心表示，初步調查，3名個案雖有台北清真寺之共同活動史，但是否為群聚事件，待進一步調查釐清。由於個案發病前2日至住院隔離前曾有公共場所活動史(如附件)，提醒曾於附件所列時間及場所活動的民眾，自主健康管理14天，如有疑似症狀，請儘速戴口罩就醫，並主動告知醫師活動接觸史。\$\@\$因應本起事件，目前已掌握接觸者58人，其中2人陽性(案1090、1091)，8人陰性，23人檢驗中，25人待採檢，接觸者持續匡列中。另為求慎重，將針對該航空公司目前處於居家檢疫及自主健康管理期間之貨機機組員等，進行擴大採檢。\$\@\$指揮中心統計，截至目前國內累計201,735例新型冠狀病毒肺炎相關通報(含199,900例排除)，其中1,090例確診，分別為970例境外移入，78例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及3例調查中(案1078、1079、1091)；另1例(案530)移除為空號。確診個案中11人死亡、1,044人解除隔離、35人住院隔離中。 圖片 附件\$\@\$案1091公共場所活動史\$\@\$澳洲檢驗陽性機師公共場所活動史\$\@\$案1091公共場所活動史(印尼文).jpg\$\@\$澳洲檢驗陽性機師公共場所活動史(印尼文).jpg\$\@\$案1091公共場所活動史(英文版).jpg\$\@\$澳洲檢驗陽性機師公共場所活動史(英文版).jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增2例COVID-19境外移入確定病例，自印度(案1088)及比利時(案1089)入境。\$\@\$指揮中心表示，案1088為印度籍30多歲男性，今(2021)年4月6日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫；因工作需要，個案於4月21日檢疫期滿後，至醫院自費採檢，於今日確診(Ct值32，住院後採檢Ct值33，血清抗體IgM及IgG皆為陽性)。個案在臺期間並無症狀，已掌握接觸者5人，其中1人列居家隔離，4人列自主健康管理。\$\@\$指揮中心指出，案1089為比利時籍40多歲男性，今年4月6日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月20日出現頭痛、喉嚨痛、流鼻水及嗅味覺異常等症狀，隔日由衛生單位安排就醫採檢，於今日確診(Ct值20)。個案發病前2日為居家檢疫期未與他人接觸，且就醫時接觸之人員均有適當防護，故無匡列接觸者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增4例境外移入COVID-19確定病例，分別自哈薩克(案1084)、菲律賓(案1085、1086)及印尼(案1087)入境。\$\@\$指揮中心表示，案1084為哈薩克籍30多歲女性，今(2021)年4月14日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫；個案於4月16日出現咳嗽症狀，4月18日因咳嗽、呼吸困難等情形，由衛生單位安排就醫採檢，於今日確診(Ct值29，住院後採檢Ct值33，血清抗體IgM及IgG皆為陽性)。已掌握個案同班機前後二排座位旅客共7人，列居家隔離；機組員17人因有適當防護，列自主健康管理。\$\@\$指揮中心指出，案1085、1086為菲律賓籍20多歲及30多歲女性移工，今年4月7日來臺工作，皆持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，4月20日接受檢疫期滿前採檢，於今日確診(案1085 Ct值30，住院後採檢Ct值33，血清抗體IgM陰性、IgG陽性；案1086 Ct值36，住院後採檢Ct值35，血清抗體IgM陰性、IgG陽性)。2人在臺期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心表示，案1087為印尼籍30多歲男性船員，今年3月25日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫至4月8日，期滿後接續於其他住所自主健康管理，個案因工作需要，4月20日由公司安排至醫院自費採檢，於今日確診(Ct值32，住院後採檢Ct值34，血清抗體IgM陰性、IgG陽性)。個案在臺期間並無症狀，自主健康管理期間為1人1室，未與他人接觸，就醫採檢時接觸之人員皆有適當防護，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計201,061例新型冠狀病毒肺炎相關通報(含198,980例排除)，其中1,086例確診，分別為968例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及2例調查中；另1例(案530)移除為空號。確診個案中11人死亡、1,041人解除隔離、34人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-21\$\@\$中央流行疫情指揮中心今(21)日指出，考量維持治安等社會機能工作者，與維持長照社福機構與社福照護系統運作之工作者及住民，皆為COVID-19高感染風險或感染後容易產生嚴重併發症之族群，為使上述對象及早獲得免疫保護力，自4月23日起，開放警察、憲兵等維持社會機能運作必要人員及長照社福機構、社福照護系統之人員與受照顧者等接種計畫所列第五及第六類實施對象接種COVID-19疫苗。\$\@\$指揮中心說明，本次開放對象之第五類資格，是由各目的事業主管機關認定後報請指揮中心核定，目前各目的事業主管機關已陸續進行相關人員之列冊作業，接獲主管機關通知已核定接種需求之人員，可自4月23日起至全臺(含離島)174家接種醫院之預約網址或COVID-19疫苗接種服務專線，預約COVID-19疫苗接種事宜，並依預約時間日攜帶健保卡等身分證明文件準時前往接種。而社福照護系統之人員與受照顧者等第六類對象，將由地方政府衛生局協助規劃安排接種事宜。\$\@\$指揮中心提醒，民眾於疫苗接種前，應與醫師討論評估相關風險後再接種；接種後應於接種單位休息並觀察至少30分鐘，無恙後再離開。此外，由於服用避孕藥與接受荷爾蒙治療為引起血栓之危險因子，建議現階段前述對象接種前後停藥至少28天；如接種疫苗後14天內，出現呼吸困難、胸痛、持續腹痛、四肢腫脹或冰冷、持續嚴重頭痛或疼痛加劇、視力模糊、非注射部位出現不尋常出血點、紫斑等症狀，應立即就醫告知疫苗接種史，以釐清病因，儘速診治。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增4例境外移入COVID-19確定病例，自斯洛伐克(案1080)、印尼(1081)及菲律賓(案1082、1083)入境。\$\@\$指揮中心表示，案1080為本國籍40多歲男性，長期於斯洛伐克工作，今(2021)年3月曾出現嗅味覺異常、發冷、頭暈等症狀，並在斯洛伐克當地檢出COVID-19陽性。個案4月4日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月19日檢疫期滿後至醫院自費採檢，於今日確診(Ct值29，住院後採檢之Ct值33，血清抗體IgM及IgG皆為陽性)。個案在臺期間並無症狀，檢疫期間未與他人接觸，檢疫期滿後至住院隔離前接觸之人員均有適當防護，故無匡列接觸者。\$\@\$指揮中心指出，案1081為印尼籍40多歲男性，今年4月3日來臺就學，持有搭機前3日內檢驗陰性報告，入境後由校方安排住所進行檢疫，4月19日接受檢疫期滿採檢，於今日確診(Ct值35，住院後採檢之Ct值37，血清抗體IgM陰性、IgG陽性)。個案在臺期間並無症狀，檢疫期間未與他人接觸，檢疫期滿後至住院隔離前接觸之人員均有適當防護，故無匡列接觸者。\$\@\$指揮中心表示，案1082為菲律賓籍20多歲女性移工，今年4月6日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，4月19日接受檢疫期滿前採檢，於今日確診(Ct值32，住院後採檢之核酸及血清抗體檢驗中)。個案在臺期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1083為菲律賓籍20多歲女性移工，今年3月17日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，3月30日接受檢疫期滿前採檢，結果為陰性；檢疫期滿後，由公司安排至其他住所自主健康管理，因工作需要，4月19日搭乘專車至醫院自費採檢，於今日確診(Ct值33，住院後之核酸檢測檢驗中，血清抗體IgM陰性、IgG陽性)。個案在臺期間並無症狀，檢疫期間未與他人接觸，檢疫期滿後至住院隔離前接觸之人員均有適當防護，故無匡列接觸者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-21\$\@\$中央流行疫情指揮中心今(21)日表示，全球COVID-19疫情再創新高，近7日較前週增加10%，歐洲、美洲、印度為目前流行中心。世界衛生組織表示，導致疫情回升因素主要有變異株迅速擴散、社會交流增加、不當或過早放寬公共衛生管制措施、民眾的疫情疲乏效應及疫苗覆蓋率不均等，其中25-59歲族群感染及住院人數均快速成長。\$\@\$指揮中心指出，本週各國/地區感染風險級別無調整，名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、斐濟、汶萊、寮國、諾魯、馬紹爾群島、不丹、澳洲、新加坡、越南。\$\@\$中低感染風險國家/地區：香港。\$\@\$指揮中心指出，依據監測資料顯示，全球累計142,478,685例確診，分布於193個國家/地區；病例數以美國31,815,439例、印度15,321,089例、巴西14,043,076例、法國5,339,920例及俄羅斯4,718,854例為多；全球確診病例中計3,050,809例死亡，以美國579,089例、巴西378,003例、墨西哥212,466例、印度180,530例及英國127,307例為多。\$\@\$指揮中心再次呼籲，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。\$\@\$指揮中心統計，截至目前國內累計200,225例新型冠狀病毒肺炎相關通報(含198,460例排除)，其中1,082例確診，分別為964例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及2例調查中；另1例(案530)移除為空號。確診個案中11人死亡、1,038人解除隔離、33人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-21\$\@\$中央流行疫情指揮中心今(21)日表示，為便於民眾追蹤接種COVID-19疫苗後之健康情形，自3月22日起，於疾管家建置「Taiwan V-Watch」COVID-19疫苗接種健康回報系統(下稱V-Watch系統)，供民眾定期紀錄自身健康狀況，提醒民眾記得按時填報。\$\@\$指揮中心說明，為進一步主動監測國人接種緊急使用授權之不同廠牌疫苗常見的不良反應，或可能發生的不良事件，針對V-Watch各廠牌COVID-19疫苗前3萬名註冊民眾進行主動追蹤，提醒定期回填個人接種後健康狀況，頻率如下：\$\@\$一、每劑接種後7天內每天回報1次，共7次。\$\@\$二、每劑接種後第2至第6週每週回報1次，共5次。\$\@\$三、於疫苗完成應接種劑次後6個月、12個月與18個月各回報1次，共3次。\$\@\$此外，如遇有民眾回復接種後出現嚴重身體不適或就醫等情況，除了以LINE推播提醒民眾及時就醫處置外，也會由衛福部疫情關懷中心與衛生局(所)進行主動關懷，以即時掌握分析疫苗接種後不良反應個案的實際症狀及通報的適切性。V-Watch主動追蹤流程，請參閱http://at.cdc.tw/yU8850。\$\@\$指揮中心指出，若單一廠牌疫苗主動追蹤人數達3萬人，之後的接種民眾仍可加入V-Watch成為自主追蹤對象，填寫健康回報，以自我觀察接種後不適狀況的進展，同時也會時提醒第二劑疫苗的接種時間，及提供相關衛教資訊，惟系統不會進行遺漏填寫提醒及轉介關懷，如民眾有接種後不適，應適時就醫。截至昨(20)日止，AstraZeneca疫苗完成第一劑接種者，已超過兩萬人註冊V-Watch健康回報，呼籲民眾於接種當日把握機會，加入主動追蹤，積極掌握及維護自己接種後的健康。\$\@\$指揮中心也提醒，接種COVID-19疫苗可以減少罹病、重症及死亡的風險，並可形成社區群體免疫力，降低疫情傳播機會，請符合公費對象民眾踴躍接種，獲得保護力。此外，尚未接種COVID-19疫苗的民眾，也可藉由疾管家V-Watch專區，先行瞭解該系統的各項功能，及目前國內提供的疫苗種類、接種劑量、保護力、副作用、接種後之注意事項等資訊。民眾可從LINE搜尋官方帳號「疾管家」或「＠taiwancdc」，將疾管家加為好友，以即時獲得防疫訊息。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增2例COVID-19確定病例(案1078、1079)，為本國籍50多歲及60多歲男性，皆為某航空公司之貨機機組員，2人於今(2021)年4月14日與另1名機組員一同執勤至美國，並由公司安排於當地旅館檢疫，4月16日返臺後進行3天居家檢疫。\$\@\$指揮中心表示，案1078於4月18日出現喉嚨癢，案1079於4月17日出現喉嚨癢、全身痠痛症狀，2人因出勤需要，4月19日經公司安排進行採檢，並於今日確診，Ct值分別為29(案1078)及17(案1079)。2名個案感染源現正調查中，並已初步掌握2人的接觸者共131人，其中2人列居家隔離，129人列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計199,699例新型冠狀病毒肺炎相關通報(含197,883例排除)，其中1,078例確診，分別為960例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及2例調查中；另1例(案530)移除為空號。確診個案中11人死亡、1,038人解除隔離、29人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增3例境外移入COVID-19確定病例，分別自菲律賓（案1075、案1076）及印度（案1077）入境。\$\@\$指揮中心表示，案1075、案1076皆為菲律賓籍30多歲女性，今(2021)年4月4日來臺工作，皆持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，2名個案入境時及集中檢疫期間並無症狀，4月17日進行檢疫期滿採檢，於今日確診（案1075Ct值31，二採Ct值32，IgM、IgG皆陰性；案1076Ct值29，二採Ct值32，IgM、IgG皆陰性）。2名個案檢疫期間無與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1077為印度籍20多歲男性，4月2日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，入境及檢疫期間並無症狀，4月17日居家檢疫期滿，由公司安排自費採檢，於今日確診（Ct值32，二採核酸檢驗陰性，IgM、IgG皆陽性）。衛生單位已匡列接觸者2人，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計198,978例新型冠狀病毒肺炎相關通報(含197,470例排除)，其中1,076例確診，分別為960例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,034人解除隔離、31人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增1例境外移入COVID-19確定病例(案1074)，為馬來西亞籍40多歲男性，今(2021)年4月15日來臺工作，持有搭機前3日內檢驗陰性報告，入境時因體溫異常(38.5℃)，後送醫院採檢送驗，於今日確診(Ct值16)。個案自述在機上自覺喉嚨乾癢及輕微咳嗽。衛生單位已匡列接觸者共14人，其中個案機上座位前後2排旅客共3人，列居家隔離，機組人員共11名，因均著適當防護，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計198,850例新型冠狀病毒肺炎相關通報(含197,337例排除)，其中1,073例確診，分別為957例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,033人解除隔離、29人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增2例境外移入COVID-19確定病例(案1072及1073)，均為印度籍，分別為30多歲及20多歲男性，今年3月30日來臺就學，皆持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫至4月13日，期間均無症狀。\$\@\$指揮中心表示，2名個案4月14日各自經校方安排至醫院進行檢疫期滿後採檢，於今日確診(案1072之Ct值33，住院後採檢核酸檢測陰性，血清總抗體陽性；案1073之Ct值29，血清抗體IgM陰性、IgG陽性)。2名個案檢疫期間未與他人接觸，就醫採檢時接觸之相關人員皆有適當防護，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計198,711例新型冠狀病毒肺炎相關通報(含197,018例排除)，其中1,072例確診，分別為956例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,033人解除隔離、28人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增2例境外移入COVID-19確定病例，分別自菲律賓(案1070)及克羅埃西亞(案1071)入境。\$\@\$指揮中心表示，案1070為本國籍30多歲男性，去(2020)年1月至菲律賓工作，因過敏體質平時會流鼻水，今(2021)年3月10日出現嗅味覺喪失，症狀持續5至6天後改善，期間僅自行服藥未在菲律賓當地就醫。個案4月13日返臺，持有搭機前3日內檢驗陰性報告，入境時主動通報流鼻水及曾有嗅味覺喪失情形，在機場進行採檢，於今日確診(Ct值32，住院後再採Ct值35，血清抗體IgM陰性、IgG陽性)。已掌握個案同班機前後二排座位旅客共3人，列居家隔離對象。\$\@\$指揮中心指出，案1071為克羅埃西亞籍30多歲男性，去年12月10日在克羅埃西亞曾出現發燒及嗅味覺異常症狀，分別於今年1月14日、1月20日及1月27日採檢COVID-19陽性，後續於2月1日及2月3日兩次採檢陰性。個案2月4日來臺工作，持有搭機前3日內檢驗陰性報告，入境後進行居家檢疫至2月18日，2月20日在臺採檢取得檢驗陰性報告後，接續完成自主健康管理。\$\@\$指揮中心進一步表示，案1071於3月7日登船出海工作，期間並無症狀，4月13日返回我國港口，因出境需要，4月14日與其他15名預計離臺之同船人員進行自費採檢，其中個案檢出陽性於今日確診(Ct值32，住院後再採Ct值34，血清抗體IgM陰性、IgG陽性)，15名同事檢驗陰性。已掌握同船人員共56人，由於船上皆為一人一室且有獨立衛浴，故暫不匡列為密切接觸者。\$\@\$指揮中心統計，截至目前國內累計198,162例新型冠狀病毒肺炎相關通報(含196,507例排除)，其中1,070例確診，分別為954例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,032人解除隔離、27人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-16\$\@\$為提升民眾對防制漢他病毒的認知，在日常生活中落實防鼠措施，疾病管制署今（16）日於官方臉書專頁「疾病管制署─1922防疫達人」舉辦「漢他老鼠OUT」直播活動，邀請外景女神巴鈺與防疫醫師洪敏南，分享漢他病毒的知識與防鼠妙招。\$\@\$巴鈺在直播中分享，因為工作的關係，常常需要在各種不同環境下工作，難免會遇到老鼠，節目團隊除了注意遠離老鼠，也會用酒精加強環境消毒；巴鈺提醒粉絲們，要落實食材、廚餘的打包與存放，日常生活中也要定時進行環境的清潔，有效防鼠。\$\@\$洪敏南防疫醫師提到，漢他病毒的傳染方式主要是經由呼吸道吸入鼠類分泌物之飛沫，若接觸到遭病毒污染的污染物，或被帶病毒的齧齒動物咬到都有可能受到感染，感染後可能會引起發燒、腸胃道症狀、腎功能異常等「漢他病毒出血熱併腎症候群」症狀；而若出現發燒、疲倦、嚴重的肌肉痛、咳嗽、呼吸急促則可能是「漢他病毒肺症候群」。\$\@\$疾管署提醒，漢他病毒是人畜共通傳染病的一種，主要經由齧齒類動物傳播，預防勝於治療，落實「不讓鼠來、不讓鼠住、不讓鼠吃」三不措施，隨時做好環境清理，才是預防漢他病毒最有效的方法。除要留意家中老鼠可能入侵的路徑外，餐飲業、市場攤販、食品工廠等應落實環境衛生。若發現鼠類排泄物時，務必先佩戴口罩、橡膠手套並打開門窗，以稀釋漂白水（100cc市售漂白水+1公升清水）潑灑於可能被污染的環境，待消毒作用至少5分鐘後再行清理。\$\@\$疾管署同時在直播中舉辦抽獎活動，獎品包括吸塵器1組、1000元禮物卡2組以及乾洗手組2組，民眾只要在活動期間於直播貼文寫下指定留言，就可參加抽獎，相關活動辦法可至「疾病管制署-1922防疫達人」臉書專頁瀏覽(https://www.facebook.com/TWCDC/)。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增1例境外移入COVID-19確定病例(案1069)，為本國籍未滿5歲女童，長期居住印尼，今(2021)年3月21日即有咳嗽症狀，於印尼當地就醫服藥後症狀改善；3月28日與案1036(印尼籍30多歲女性)同行來臺，持有搭機前3日內檢驗陰性報告，入境時隨同案1036後送就醫，因案1069曾於3月21日有咳嗽症狀，亦進行採檢，其中案1036檢驗COVID-19陽性，於4月1日確診，案1069則檢驗陰性，返家由家人照顧，並列為居家隔離對象。\$\@\$指揮中心表示，考量案1069居家隔離前皆由案1036照顧，接觸時間長，為求慎重，4月13日由衛生單位安排至醫院進行隔離期滿採檢，檢出COVID-19陽性，於今日確診(Ct值29，二採Ct值介於27至34，血清抗體IgM及IgG皆為陽性)。\$\@\$指揮中心指出，案1069之密切接觸者共1人，先前已匡列為案1036接觸者，故不重複匡列，4月13日採檢結果為陰性，因其為案1069確診前照顧者，將延長居家隔離期間至4月27日。\$\@\$指揮中心統計，截至目前國內累計197,635例新型冠狀病毒肺炎相關通報(含196,000例排除)，其中1,068例確診，分別為952例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,031人解除隔離、26人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-15\$\@\$中央流行疫情指揮中心今(15)日辦理「防疫好生活 疫苗提升保護力」COVID-19疫苗網路活動，於疾病管制署周志浩署長帶領下，由疾管署防疫人員、萬芳醫院及中華民國護理師護士公會全國聯合會醫事人員共同接種 COVID-19疫苗，呼籲符合第一至第四類對象踴躍接種，以儘早獲得免疫力，保護自己及他人。\$\@\$指揮中心表示，COVID-19疫苗指定接種合約醫院已新增至173家，符合接種資格對象可至疾病管制署全球資訊網查詢院所後預約接種(網址：https://reurl.cc/ZQo8Ea)。由於疫苗為多劑型包裝，為減少疫苗耗損，請依預約時間，攜帶健保卡等身分證明文件準時前往接種。\$\@\$指揮中心提醒，疫苗接種後應於接種單位休息並觀察至少30分鐘，接種後可能出現反應主要為接種部位疼痛，通常於數天內消失，其他可能反應包含疲倦、頭痛、肌肉痠痛等，若症狀持續未改善請儘速就醫診治、釐清病因。完成2劑AZ疫苗接種後，與不活化疫苗間隔至少14天；與其他活性減毒疫苗間隔至少28天。即使完成COVID-19疫苗接種，仍應勤洗手、佩戴口罩、保持社交距離，以降低感染風險，確保自身健康。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日表示，交通部觀光局配合指揮中心於今(2021)年3月17日宣布開放臺灣及帛琉旅遊泡泡，於同日恢復旅行業組團赴帛琉旅遊及接待帛琉來臺觀光團體入境，首發團亦於4月1日出發前往帛琉。依照指揮中心3月17日原公布之防疫規定，旅客返臺後5天內實施加強自主健康管理，第5天自費PCR檢測陰性後，改為一般自主健康管理至入境後第14天。\$\@\$指揮中心表示，鑑於參加帛琉旅遊泡泡首發團的旅客，出發前均於桃園機場進行全體團體旅客PCR檢測，檢測均為陰性，且臺帛安全旅遊圈係採無菌廊道方式前往COVID-19零確診之帛琉地區，各旅行團於帛琉期間亦均遵守當地戴口罩、維持社交距離、定期量測體溫等防疫要求，首發團旅客返國後5日PCR採檢結果全體為陰性。經指揮中心整體評估，即日起旅客自帛琉返國檢疫放寬為14天一般自主健康管理，但旅客仍需於返國第5天完成PCR採檢措施。\$\@\$指揮中心說明，臺帛旅遊泡泡雖屬小眾市場，仍宜穩健發展，為縮短市場磨合期，交通部觀光局亦將配合疫情發展及邊境管制情況進行滾動檢討，並於近日邀集相關機關、航空公司及旅行業者等相關單位研商，盼持續朝簡化行政流程，檢討旅遊產品及操作等面向，進一步鬆綁檢疫規定等方向研議，來協助旅行業者共同穩健推動臺帛旅行安全圈之旅遊市場。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日指出，全球COVID-19疫情仍然嚴峻，考量外交或公務奉派出國人員、代表國家出國之運動員、選手等因特殊情形必要出國者之疫苗接種急迫需求，自即日起，開放該類公費對象接種COVID-19疫苗。\$\@\$指揮中心說明，本次開放對象之資格，是由各目的事業主管機關認定後報請指揮中心核定，目前各目的事業主管機關已陸續進行相關人員之列冊作業。指揮中心籲請接獲主管機關通知已核定接種需求之人員，自即日起可透過各縣市指定接種醫療院所預約網址，或洽詢專線預約接種疫苗事宜，並依預約時間日攜帶健保卡等身分證明文件準時前往接種。\$\@\$指揮中心表示，為便於民眾接種疫苗，截至目前全臺(含離島)已規劃173家接種點提供COVID-19疫苗接種服務，指揮中心持續與地方政府衛生局輔導合約院所優化預約及接種作業流程，提升民眾接種之便利性。\$\@\$指揮中心提醒，民眾於疫苗接種前，應與醫師討論評估相關風險後再接種；接種後應於接種單位休息並觀察至少30分鐘，無恙後再離開。此外，由於服用避孕藥與接受荷爾蒙治療為引起血栓之危險因子，建議現階段前述對象接種前後停藥至少28天；如接種疫苗後14天內，出現呼吸困難、胸痛、持續腹痛、四肢腫脹或冰冷、持續嚴重頭痛或疼痛加劇、視力模糊、非注射部位出現不尋常出血點、紫斑等症狀，應立即就醫告知疫苗接種史，以釐清病因，儘速診治。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增5例境外移入COVID-19確定病例，自菲律賓(案1064、1065)、俄羅斯(1066)、英國(案1067)及加拿大(案1068)入境。\$\@\$指揮中心表示，案1064為菲律賓籍20多歲女性移工，今年3月31日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，4月13日接受檢疫期滿前採檢，於今日確診。個案檢疫期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1065為菲律賓籍30多歲男性船員，今年3月28日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月12日檢疫期滿後搭乘專車至醫院自費採檢，於今日確診(Ct值34，二採核酸檢驗陰性，血清抗體IgM陰性、IgG陽性)。個案在臺期間並無症狀，已掌握同車接觸者共7人，均有適當防護，列自主健康管理。\$\@\$指揮中心表示，案1066為俄羅斯籍40多歲男性，去年12月曾在俄羅斯當地檢出COVID-19陽性。今年1月20日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫；檢疫期滿後，2月4日至4月10日出海工作，期間並無下船，4月11日返回臺灣，因出境需要，4月12日至醫院自費採檢，於今日確診(Ct值35，二採核酸檢驗陰性，血清抗體IgM陰性、IgG陽性)。已掌握同船接觸者共9人，核酸檢驗皆為陰性，均已離境。\$\@\$指揮中心指出，案1067為英國籍40多歲男性，今年1月曾於英國當地確診COVID-19，3月31日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，4月13日接受檢疫期滿前採檢，於今日確診(Ct值40.7，血清抗體IgM及IgG皆為陽性)。個案檢疫期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心表示，案1068為本國籍70多歲男性，今年3月1日至加拿大探親，4月9日返臺，持有搭機前3日內檢驗陰性報告，入境時無症狀，並返家進行居家檢疫。個案4月12日因其他疾病之就醫需求，由衛生單位安排就醫採檢，於今日確診(Ct值16)。已掌握接觸者共4人，其中3人列居家隔離，1人列自主健康管理。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日表示，近1週以來，全球COVID-19新增確診、死亡病例持續回升，新增確診較前週增加18%。柬埔寨近期COVID-19疫情上升且呈擴散趨勢，連日新增確診病例數已逾中低風險國家之分級標準，故即日起將該國自中低風險國家移除。各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、斐濟、汶萊、寮國、諾魯、馬紹爾群島、不丹、澳洲、新加坡、越南。\$\@\$中低感染風險國家/地區：香港。\$\@\$指揮中心指出，依據監測資料顯示，全球累計137,069,553例確診，分布於193個國家/地區；病例數以美國31,350,993例、印度13,689,453例、巴西13,599,994例、法國5,106,329例及俄羅斯4,657,883例為多；全球確診病例中計2,966,206例死亡，以美國573,845例、巴西358,425例、墨西哥209,702例、印度171,058例及英國127,123例為多。\$\@\$指揮中心再次呼籲，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。\$\@\$指揮中心統計，截至目前國內累計197,037例新型冠狀病毒肺炎相關通報(含195,430例排除)，其中1,067例確診，分別為951例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,029人解除隔離、27人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日宣布，為降低具出國必要性的民眾於境外感染COVID-19的風險，並確保個人及國內防疫安全，自4月21日起，初步開放1萬劑COVID-19疫苗供民眾自費接種，相關注意事項如下：\$\@\$適用對象：商務、出國工作、留學及就醫等人道考量者。\$\@\$接種醫院：設有旅遊醫學門診之COVID-19疫苗接種專責醫院辦理，計31家(每縣巿至少1家，含離島縣巿)。\$\@\$自費接種採預約制，因疫苗為多劑型包裝，需要配合醫院安排集中接種作業。\$\@\$疫苗統一由指揮中心調配至專責醫院，且不提供民眾挑選疫苗廠牌。\$\@\$民眾必須自付醫院收取之掛號費、診察費、注射費等；但免收疫苗成本費用。\$\@\$指揮中心提醒，即使完成COVID-19疫苗接種，仍應遵守防疫新生活原則，勤洗手、佩戴口罩、保持社交距離，以降低感染風險，確保自身健康。 附件\$\@\$附件-設有旅遊醫學門診之COVID-19疫苗接種專責醫院據點</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-14\$\@\$中央流行疫情指揮中心今(14)日表示，經重新審視國籍航空公司外站管制措施、機組員機上全程防護、管理查核機制及完備民航相關法規後，自明(15)日起(以航班抵臺時間計算)，國籍航空機組員返國後檢疫防疫措施，調整如下：\$\@\$入境旅遊疫情第三級地區(長程航班)：3天居家檢疫(結束當日核酸檢驗陰性)+11天自主健康管理。\$\@\$當班往返且未入境旅遊疫情第三級地區(短程航班)：14天自主健康管理。\$\@\$指揮中心進一步指出，接種疫苗為最具成本效益之傳染病防治措施，國籍航空機組員為COVID-19疫苗公費接種對象，於完整接種兩劑疫苗兩週後，其返國後檢疫防疫措施，將再調整如下：\$\@\$長程航班：7天自主健康管理，結束當日檢驗通過即解除。\$\@\$短程航班：免自主健康管理，應落實防疫新生活。\$\@\$指揮中心重申，國籍航空公司及其組員應嚴格落實外站管理、機上全程防護、持續派飛管理等措施，以兼顧國內防疫安全及機組員身心健康。如違反交通部「國籍航空公司實施機組人員防疫健康管控措施作業原則」，將從重裁罰違規機組員及所屬航空公司。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增4例境外移入COVID-19確定病例，自孟加拉(案1060)、菲律賓(案1061)、衣索比亞(案1062)及愛爾蘭(案1063)入境。\$\@\$指揮中心表示，案1060為本國籍40多歲男性，今(2021)年2月中旬至孟加拉工作，4月1日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行檢疫，4月9日出現鼻塞、流鼻水及咳嗽症狀，4月10日由衛生單位安排就醫採檢，於今日確診。個案發病前2日為居家檢疫期，未與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1061為本國籍50多歲男性，長期居住菲律賓(前次自臺灣出境時間為2020年10月)，因有其他疾病之緊急就醫需求，今年4月11日返國，持有搭機前3日內檢驗陰性報告，入境後即至醫院就醫及採檢，經評估有轉院必要，由院方安排轉院並於次日再次採檢。個案4月12日出現輕微喘症狀，兩次採檢皆呈COVID-19陽性，於今日確診(Ct值分別為20及21)。已掌握個案同班機前後二排旅客2人，列居家隔離。\$\@\$指揮中心表示，案1062為本國籍30多歲男性，去年10月至衣索比亞工作，今年3月12日至14日陸續出現咳嗽、頭痛、全身痠痛及嗅覺異常症狀，3月26日於當地檢出COVID-19陽性，4月1日及7日二次採檢皆為陰性。個案4月9日返臺，持有搭機前3日內檢驗陰性報告，入境時主動通報有咳嗽症狀，於機場採檢，結果為陰性，4月12日於集中檢疫所再次採檢，結果為陽性，於今日確診(Ct值32，血清抗體IgM及IgG皆為陽性)；已掌握個案同班機前後二排旅客10人，列居家隔離對象。\$\@\$指揮中心指出，案1063為本國籍20多歲男性，去年9月至愛爾蘭就學，今年4月8日返臺，持有搭機前3日內檢驗陰性報告，入境時有短暫流鼻水症狀，入境後至住處進行檢疫。個案4月12日因發燒症狀，由衛生單位安排就醫採檢，於今日確診(Ct值22)；同班機接觸者調查匡列中。\$\@\$指揮中心統計，截至目前國內累計196,502例新型冠狀病毒肺炎相關通報(含194,709例排除)，其中1,062例確診，分別為946例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,027人解除隔離、24人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-13\$\@\$疾病管制署與全國37家醫療院所合作，推動「愛滋病毒篩檢與暴露愛滋病毒前預防性投藥(PrEP)計畫」，即日起提供愛滋感染者之配偶及伴侶，與35歲(含)以下年輕族群整合型服務，包含藥物、安全性行為與愛滋防治衛教諮詢、性病檢驗，若合併有藥癮問題亦協助轉介戒治等個人化服務。\$\@\$依據疾管署統計資料顯示，2020年我國愛滋新通報感染人數為1,391人，以35歲以下年齡層為主(占66%)，感染危險因子主要為不安全性行為(占90%)。考量感染者配偶或伴侶具有較高的感染風險，因此透過PrEP計畫提供整合型服務，針對感染者之女性配偶或伴侶提供最多每月30顆PrEP公費藥品，感染者之男性配偶或伴侶及35歲(含)以下年輕族群最多每3個月20顆PrEP公費藥品，並補助醫院免收上述對象之愛滋病毒檢驗費、藥事服務費等，降低PrEP使用者經濟上的障礙及感染風險，同時鼓勵具風險行為族群接受愛滋篩檢，以達到最大防疫效益。\$\@\$疾管署表示，若民眾為感染者配偶或伴侶，不拘年齡，可透過各縣市衛生單位諮詢篩檢與轉介。若民眾為35歲(含)以下年輕族群，則可直接至合作醫療院所接受諮詢，經醫師評估具風險且愛滋篩檢為陰性，即可加入計畫接受PrEP整合型服務。因名額有限，請有需求民眾儘早洽詢相關單位，或至疾管署網站PrEP專區查詢(網址：https://reurl.cc/GdlWmZ)。\$\@\$暴露愛滋病毒「前」預防性投藥(Pre-exposure prophylaxis,簡稱PrEP)是國際上認可，能有效預防感染愛滋病毒的方法，民眾在暴露於感染愛滋病毒風險前，透過服用藥物，讓體內有足夠的藥物濃度預防愛滋病毒感染，保護效果可達90%以上，但因為保護力並非100%，且無法預防其他性病，仍須搭配使用保險套，以達到最大防護效果。\$\@\$疾管署再次呼籲，預防愛滋最重要的是做好全面防護措施，除了PrEP外，也應全程正確使用保險套及水性潤滑液、不共用針具、稀釋液，不使用毒品、定期愛滋篩檢等，以降低感染風險。 附件\$\@\$PrEP懶人包</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增1例境外移入COVID-19確定病例(案1059)，為本國籍20多歲女性，去(2020)年10月至日本就學，於今(2021)年4月4日返臺，持有搭機前3日內檢驗陰性報告，入境時並無症狀，並至防疫旅館居家檢疫。個案於4月9日期間出現頭暈、噁心等症狀，4月10日由衛生單位安排就醫採檢，於今日確診(Ct值22)。衛生單位已匡列接觸者1人，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計195,759例新型冠狀病毒肺炎相關通報(含194,071例排除)，其中1,058例確診，分別為942例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,026人解除隔離、21人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-12\$\@\$中央流行疫情指揮中心今(12)日舉辦「感謝有您 COVID-19疫苗接種記者會」，由指揮中心陳宗彥副指揮官及羅一鈞醫療應變組副組長，帶領中央及地方政府防疫人員及高接觸風險工作者現身接種疫苗，呼籲符合第一、二、三類對象之61.3萬人員踴躍接種，保護自己也保護身邊的人。\$\@\$指揮中心表示，為維持防疫量能，使高感染風險對象儘早獲得免疫保護力，自今日起開放中央及地方政府防疫人員及高接觸風險工作者等接種計畫所列第二、三類實施對象接種COVID-19疫苗。符合接種資格對象可至疾病管制署全球資訊網查詢院所後預約接種。由於疫苗為多劑型包裝，為減少疫苗耗損，請依預約時間，攜帶健保卡等身分證明文件準時前往接種。\$\@\$指揮中心提醒，疫苗接種後應於接種單位休息並觀察至少30分鐘，無恙後再離開。而接種後可能出現反應主要為接種部位疼痛，通常於數天內消失，其他可能反應包含疲倦、頭痛、肌肉痠痛等，若症狀持續未改善請儘速就醫診治、釐清病因。完成2劑AZ疫苗接種後，與不活化疫苗間隔至少14天；與其他活性減毒疫苗間隔至少28天。即使完成COVID-19疫苗接種，仍應遵守防疫新生活原則，勤洗手、佩戴口罩、保持社交距離，以降低感染風險，確保自身健康。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增1例境外移入COVID-19確定病例(案1058)，自美國入境；另新增1例確定病例死亡(案889)。\$\@\$指揮中心表示，案1058為本國籍20多歲女性，去(2020)年10月至美國工作，於今(2021)年4月3日返臺，持有搭機前3日內檢驗陰性報告，入境時並無症狀，並返家單獨居家檢疫。個案於4月4日至8日期間陸續出現咳嗽、流鼻水、鼻塞、腹瀉及嗅味覺異常等症狀，4月9日因症狀持續由衛生單位安排就醫採檢，於今日確診(Ct值為21)。衛生單位已掌握個案同班機接觸者共18人，其中3人為前後二排旅客，列居家隔離，餘15人為機組員，均著適當防護且均已出境，將透過IHR通知相關國家。\$\@\$指揮中心指出，新增之死亡個案(案889，本國籍60多歲男性)有慢性病病史，於今年1月19日發病(更新原發病日1月20日)、24日確診；個案於入院後病況加劇，使用呼吸器及葉克膜治療，2月22日因檢驗條件符合規定而解除隔離，惟因其他疾病持續住院治療，3月17日移除葉克膜後仍持續使用呼吸器，4月8日個案陸續出現呼吸喘、血壓下降及嚴重心律不整，次日經急救仍因肺炎併敗血性休克不幸病逝。\$\@\$指揮中心統計，截至目前國內累計195,600例新型冠狀病毒肺炎相關通報(含193,727例排除)，其中1,057例確診，分別為941例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中11人死亡、1,022人解除隔離、24人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增2例境外移入COVID-19確定病例，分別自印尼(案1056)及菲律賓(案1057)入境。\$\@\$指揮中心表示，案1056為印尼籍20多歲男性漁工，今(2021)年3月26日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，4月8日接受檢疫期滿前採檢，於今日確診(Ct值30，核酸二採及血清抗體檢驗中)。個案入境期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1057為菲律賓籍20多歲女性移工，今年3月26日來臺工作，持有搭機前3日內檢驗陰性報告，入境時無症狀，並至集中檢疫所進行檢疫。個案自述4月6日曾短暫出現輕微咳嗽情形，4月8日接受檢疫期滿前採檢，於今日確診(Ct值27，核酸二採及血清抗體檢驗中)。個案檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計195,367例新型冠狀病毒肺炎相關通報(含193,174例排除)，其中1,056例確診，分別為940例境外移入，77例本⼟病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、1020人解除隔離、26人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增4例境外移入COVID-19確定病例，分別自義大利(案1052)、菲律賓(案1053、1054)及英國(案1055)入境。\$\@\$指揮中心表示，案1052為本國籍50多歲女性，長期居住義大利(前次自臺灣出境時間為2020年2月)，去(2020)年11月上旬出現咳嗽及有痰症狀，於義大利當地就醫，並確診COVID-19，因症狀輕微未住院治療，後續於12月21日及12月25日採檢結果皆為陰性；個案12月27日返臺，入境後至防疫旅館進行居家檢疫，在臺期間並無症狀。\$\@\$指揮中心進一步指出，案1052於今(2021)年4月6日因持續發燒，至醫院就醫及採檢，並留院觀察，隔天個案因出現呼吸喘情形，轉至負壓隔離病房治療，於今日確診(Ct值34，二採核酸檢測陰性，血清總抗體陽性)。已掌握個案同住接觸者3人，目前均無症狀，列自主健康管理。\$\@\$指揮中心表示，案1053為菲律賓籍20多歲女性移工，今年3月5日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，3月18日接受檢疫期滿前採檢，結果為陰性，檢疫期滿後，由公司安排至其他住所自主健康管理，因工作需要，4月7日搭乘專車至醫院自費採檢，於今日確診(Ct值32，二採核酸檢測陰性，血清抗體IgM陰性、IgG陽性)。個案在臺期間無症狀，同行採檢者皆有佩戴口罩及保持適當間隔，故無匡列接觸者。\$\@\$指揮中心指出，案1054為菲律賓籍20多歲男性移工，今年3月17日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所進行檢疫，3月30日接受檢疫期滿前採檢，結果為陰性，檢疫期滿後由公司安排至宿舍自主健康管理，因工作需要，4月7日至醫院自費採檢，並於今日確診(Ct值35，二採Ct值37，血清抗體IgM陰性、IgG陽性)。已掌握個案接觸者6人，其中3人列居家隔離，3人列自主健康管理。\$\@\$指揮中心表示，案1055為本國籍30多歲男性，2020年1月至英國工作，去年11月下旬出現發燒、咳嗽症狀，於當地就醫並確診COVID-19；個案今年3月26日返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，3月27日進行專案採檢，結果為陰性，4月8日接受檢疫期滿前採檢，於今日確診(Ct值32，核酸二採及血清抗體檢驗中)。個案檢疫期間並無症狀，且未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計194,521例新型冠狀病毒肺炎相關通報(含192,516例排除)，其中1,054例確診，分別為938例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、1018人解除隔離、26人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-08\$\@\$中央流行疫情指揮中心今(8)日指出，歐洲藥物管理局(EMA)於本(2021)年4月7日表示，AstraZeneca COVID-19疫苗之注射，與注射後出現非常罕見的血栓併血小板低下事件，可能有關聯，惟依目前的科學證據，尚未有具體明確的風險因素。因此經評估審視後結論，AstraZeneca COVID-19疫苗於預防COVID-19感染、感染後重症、住院及死亡之臨床效益，仍大於接種後發生不良反應之風險。\$\@\$指揮中心表示，今日我國「衛生福利部傳染病防治諮詢會預防接種組(ACIP)」召開專家會議，就上述事件討論後，決議在「AstraZeneca COVID-19疫苗接種注意事項」加註相關提醒。委員會仍建議依原訂之實施對象優先順序推動，亦請民眾接種前與醫師討論評估相關風險後再接種；指揮中心將密切注意此議題，並適時滾動調整。\$\@\$指揮中心表示，透過COVAX獲配之AstraZeneca COVID-19疫苗其中19.92萬劑，目前刻由衛生福利部食品藥物管理署進行檢驗封緘作業，預計4月中旬可放行提供接種。為加速提升群體免疫力，發揮疫苗最大使用效益，自4月12日起開放對象含括中央及地方政府防疫人員以及國籍航空機組員、國際商船船員、防疫車隊駕駛、防疫旅宿實際執行居家檢疫工作之第一線人員等高接觸風險工作者。\$\@\$此外，由於服用避孕藥與接受荷爾蒙治療為引起血栓之危險因子，建議現階段前述對象接種前後停藥至少28天。另接種疫苗後14天內，若出現呼吸困難、胸痛、持續腹痛、四肢腫脹或冰冷、持續嚴重頭痛或疼痛加劇、視力模糊、非注射部位出現不尋常出血點、紫斑等症狀，應立即就醫。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-07\$\@\$中央流行疫情指揮中心今(7)日表示，為維持防疫量能，使高感染風險對象儘早獲得免疫保護力，自4月12日起，開放中央及地方政府防疫人員及高接觸風險工作者等接種計畫所列第二、三類實施對象接種COVID-19疫苗。\$\@\$指揮中心表示，我國透過COVAX獲配之AstraZeneca COVID-19疫苗，首批19.92萬劑已於4月4日運抵臺灣，目前刻由衛生福利部食品藥物管理署進行檢驗封緘作業，預計4月中旬可放行提供接種。為加速提升群體免疫力，發揮疫苗最大使用效益，故自4月12日起，開放中央及地方政府防疫人員以及國籍航空機組員、國際商船船員、防疫車隊駕駛、防疫旅宿實際執行居家檢疫工作之第一線人員等高接觸風險工作者接種疫苗。\$\@\$指揮中心說明，為增加疫苗接種可近性，提升接種效能，將請地方政府衛生局與現行合約醫院持續溝通，增加COVID-19疫苗接種門診診次及每診次就診名額，並於4月14日前輔導具有辦理常規或流感疫苗接種經驗，但尚未成為COVID-19疫苗接種合約院所之專責醫院成為接種點，自4月15日起開放提供符合接種對象之民眾預約，預計自4月16日起，全臺至少將有170處接種點可提供接種服務，符合接種資格對象可至疾病管制署全球資訊網查詢院所後預約接種。由於疫苗為多劑型包裝，為減少疫苗耗損，請依預約時間，攜帶健保卡等身分證明文件準時前往接種。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-07\$\@\$中央流行疫情指揮中心今(7)日宣布，4月10日零時起(航班抵臺時間)，旅客如過去14日內具英國、南非共和國或史瓦帝尼王國等國家旅遊史(含在當地轉機)，入境後恢復自第三級流行地區抵臺旅客之檢疫措施(防疫旅宿或1人1戶居家檢疫14天)，無須再入住集中檢疫所，後續仍應落實7天自主健康管理。\$\@\$指揮中心表示，依據疫情監測資料顯示，英國、南非共和國及史瓦帝尼王國等3個國家之疫情已過高峰且呈明顯下降，加上我國已超過2個月未檢出自該些國家境外移入之COVID-19病毒變異株案例，故調整自該3個國家入境旅客之檢疫措施。\$\@\$指揮中心指出，為確保國內防疫安全，所有入境旅客均應出示「表定航班時間(Flight schedule time)前3日內COVID-19核酸檢驗報告」後搭機來臺；入境臺灣旅客應事前安排檢疫居所(防疫旅宿或1人1戶居家檢疫)，且須於「入境檢疫系統」完成線上健康申報並切結符合相關規定。入境檢疫措施將視疫情及執行狀況，適時滾動調整。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-07\$\@\$中央流行疫情指揮中心今(7)日表示，模里西斯近期本土COVID-19疫情延燒，且近2週病例數持續上升，考量病例發生率大幅超越中低風險國家之分級標準，故即日起將該國自中低風險國家移除。各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、斐濟、汶萊、寮國、諾魯、馬紹爾群島、不丹、澳洲、新加坡、越南。\$\@\$中低感染風險國家/地區：柬埔寨、香港。\$\@\$指揮中心指出，全球COVID-19疫情仍然嚴峻，新增病例數已連續6週上升，美洲、歐洲為目前疫情流行中心。依據監測資料顯示，全球累計132,146,467例確診，分布於193個國家/地區；病例數以美國30,850,493例、巴西13,100,580例、印度12,686,049例、法國4,841,308例及俄羅斯4,597,868例為多；全球確診病例中計2,880,914例死亡，以美國566,857例、巴西336,947例、墨西哥204,399例、印度165,547例及英國126,882例為多。\$\@\$指揮中心再次呼籲，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。\$\@\$指揮中心表示，國內今日無新增 COVID-19病例，截至目前累計193,197例新型冠狀病毒肺炎相關通報(含190,800例排除)，其中1,050例確診，分別為934例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、1,007人解除隔離、33人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增2例境外移入COVID-19確定病例(案1050、1051)，為本國籍10多歲及20多歲男性，今(2021)年3月上旬一同至埃及工作，案1050於3月29日出現咳嗽症狀，案1051亦自同日起出現咳嗽、流鼻水、喉嚨痛及頭痛情形；2人於4月4日返國，持有搭機前3日內檢驗陰性報告，入境時主動通報有症狀，在機場採檢，並於今日確診(Ct值分別為20及21)。\$\@\$指揮中心表示，兩名個案同班機前後二排座位旅客共5人，其中2人列為居家隔離對象，另3人入境後已至集中檢疫所檢疫，故無需再匡列為居家隔離對象；機組員共12人，因有適當防護且已出境，無需匡列為接觸者。\$\@\$指揮中心統計，截至目前國內累計192,075例新型冠狀病毒肺炎相關通報(含190,322例排除)，其中1,050例確診，分別為934例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、1004人解除隔離、36人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增1例境外移入COVID-19確定病例(案1049)，為印尼籍20多歲女性，今(2021)年3月21日來臺就學，持有搭機前3日內檢驗陰性報告，入境時無症狀，並至集中檢疫所進行檢疫，4月3日由衛生單位安排期滿前採檢，於今日確診(Ct值34，次日採檢陰性，IgM、IgG皆為陽性)，自述曾於當地接觸過確診者。因個案入境至今並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計191,769例新型冠狀病毒肺炎相關通報(含189,901例排除)，其中1,048例確診，分別為932例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、1004人解除隔離、34人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-04\$\@\$中央流行疫情指揮中心今(4)日表示，因應4月2日臺鐵408次太魯閣列車發生事故，指揮中心啟動「0402太魯閣列車事故返臺探病/奔喪專案」，以利本次事故罹難者及傷者之海外家屬返臺探病及奔喪，相關流程及規定如下：\$\@\$一、搭機前配合事項\$\@\$１.無症狀者得「免」提供搭機前3日內核酸檢驗陰性報告；請填寫「旅客入境切結書」，註明「0402事故協處專案」，以利航空公司地勤協處。\$\@\$中文版：https://reurl.cc/V3QRE5\$\@\$英文版：https://reurl.cc/9ZL15n\$\@\$２.搭機當日請以個人手機完成「入境檢疫系統」線上申報，並請先向地方政府聯繫安排居家檢疫事宜。\$\@\$網址：https://reurl.cc/l04Z5A\$\@\$二、入境後，接收手機簡訊(須持有國內SIM卡)，無症狀者由機場安排防疫計程車送至部立桃園醫院採檢後，於醫院搭乘防疫計程車或專車至目的地；有症狀者依現行作業流程，採檢深喉唾液後送至集中檢疫所，二採陰性後始可搭乘防疫計程車或專車至目的地。\$\@\$三、抵達目的地後，依相關規定申請外出探病/奔喪：\$\@\$居家隔離/檢疫第0至4天採檢者，取得檢驗陰性報告且於採檢2天內，可向地方衛生單位申請安排外出探病/奔喪。\$\@\$若為居家隔離/檢疫第5天(含)以後採檢者，則於取得檢驗陰性報告3天內，可向地方衛生單位申請安排外出探病/奔喪。\$\@\$之後若仍有外出需求，可再循上述程序提出申請，次數不限。\$\@\$無論探病、奔喪或辦理喪事，以每天1次、每次4小時為原則(不包含車程)；且不得過夜。\$\@\$遵守外出時不得搭乘大眾運輸工具，全程佩戴口罩，保持安全社交距離及落實手部衛生等個人良好衛生習慣。\$\@\$四、    民眾在臺期間因申請外出探病/奔喪所需之採檢費用，包括掛號費、診療費等，一律由指揮中心支付。 圖片 附件\$\@\$0402太魯閣列車事故返臺探病奔喪專案.png</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增2例境外移入COVID-19確定病例，分別自印尼(案1047)及菲律賓(案1048)入境。\$\@\$指揮中心表示，案1047為印尼籍20多歲男性，今(2021)年3月31日來台就學，持有搭機前3日內檢驗陰性報告，入境時無症狀，並至集中檢疫所進行檢疫。個案4月2日出現發燒、流鼻水、頭痛等症狀，由衛生單位安排就醫採檢，於今日確診(Ct值12)。已掌握接觸者37人，其中14人為同班機前後二排座位旅客及接機人員，列居家隔離，23人為機組員，因有適當防護，列自主健康管理。\$\@\$指揮中心指出，案1048為本國籍60多歲男性，長期於菲律賓工作，今年3月23日出現發燒症狀並在當地就醫，3月29日及30日陸續出現呼吸喘、持續發燒、味覺異常等症狀再度就醫，因檢出COVID-19陽性，且檢查雙側肺部有異狀，收治當地醫院治療。個案於4月2日搭乘醫療專機返臺，4月3日入境後收治住院隔離及採檢，於今日確診(Ct值24)。個案因獨自搭機返臺，醫療專機機組人員皆未入境，另協助後送個案就醫及收治住院之相關人員都有適當防護裝備，故無匡列接觸者。\$\@\$指揮中心統計，截⾄⽬前國內累計191,609例新型冠狀病毒肺炎相關通報(含189,730例排除)，其中1,047例確診，分別為931例境外移入，77例本⼟病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、997人解除隔離、40人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-03\$\@\$中央流行疫情指揮中心今(3)日表示，我國透過COVAX獲配102萬劑AstraZeneca疫苗，首批19.92萬劑疫苗將於明(4)日上午運達桃園國際機場。該疫苗原預定於2至5月間陸續抵臺，但因全球疫苗供應短缺及配送作業而延遲。本批疫苗待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，COVAX係由全球疫苗免疫聯盟(GAVI)、流行病預防創新聯盟(CEPI)與WHO合作主導，集中全球力量，篩選有潛力的COVID-19候選疫苗，投資疫苗廠加速研發及產製，並透過保證採購承諾，敦促疫苗廠製造足夠數量的疫苗，共同分攤風險，擴大疫苗成功上市的機會，同時也讓低收入國家得以公平取得疫苗，早日終結大流行。全球共有190個經濟體參與COVAX，包括92個低收入國家及98個自費參與者。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增6例境外移入COVID-19確定病例，分別自菲律賓(案1041、1042、1046)及印尼(案1043至1045)入境。\$\@\$指揮中心表示，案1041、1042及1046均為菲律賓籍女性移工，年齡介於20多歲至30多歲，案1041於3月10日入境，案1042及1046於3月19日入境，皆持有登機前3日內核酸檢驗陰性報告，入境後至集中檢疫所檢疫。案1041於3月23日接受檢疫期滿採檢陰性，因工作需求，自主健康管理期滿後，於4月1日進行自費採檢(Ct值36，二採核酸檢驗陰性、IgM陰性、IgG陽性)；案1042及1046於4月1日接受檢疫期滿前採檢，均於今日確診(案1042：Ct值33，二採陰性、IgM陰性、IgG陽性；案1046：Ct值33，二採陰性、IgM陰性、IgG陽性)。3名個案期間並無症狀，且接觸者均有適當防護措施，故無匡列接觸者。\$\@\$指揮中心指出，案1043至1045均為印尼籍男性船員，年齡介於20多歲至40多歲，該船停靠我國後，3月13日起進行全船居家檢疫，4月1日進行全船自費採檢，其中3名個案於今日確診(案1043：Ct值33，二採陰性、血清抗體IgM陽性、IgG陽性；案1044：Ct值36，二採38、IgM陰性、IgG陽性；案1045：Ct值34，二採陰性、抗體陽性)，個案期間並無症狀。目前已掌握同船接觸者49人，3名個案期間並無症狀，其中2人為同寢接觸者列居家隔離，其餘47人因於船檢疫期間均有進行適當防護，列自主健康管理。\$\@\$指揮中心統計，截⾄⽬前國內累計191,317例新型冠狀病毒肺炎相關通報(含189,368例排除)，其中1,045例確診，分別為929例境外移入，77例本⼟病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、992人解除隔離、43人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增3例境外移入COVID-19確定病例，自印尼(案1038、1039)及瑞士(案1040)入境。\$\@\$指揮中心表示，案1038為印尼籍50多歲男性漁工，今(2021)年3月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，3月31日接受檢疫期滿前採檢，於今日確診(Ct值34，血清抗體IgM陰性、IgG陽性)。個案入境期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心指出，案1039為印尼籍20多歲男性漁工，今年3月11日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，3月24日接受檢疫期滿前採檢，結果為陰性，3月26日檢疫期滿後，搭乘專車至防疫旅館進行自主健康管理；因工作需要，個案3月31日由公司安排搭乘專車至醫院自費採檢，檢出COVID-19陽性，於今日確診(Ct值37，血清抗體IgM、IgG皆為陽性)。個案入境期間並無症狀，已掌握接觸者11人，其中9人列居家隔離、2人列自主健康管理。\$\@\$指揮中心表示，案1040為瑞士籍30多歲男性，今年3月13日自瑞士經新加坡轉機來臺工作，3月14日入境臺灣，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，期間均無症狀，3月29日檢疫期滿後，由公司安排至另一旅館自主健康管理，因工作需要，3月31日至醫院自費採檢，於今日確診 (Ct值32，次日Ct值37，血清抗體IgM、IgG皆為陽性)。個案入境期間並無症狀，已掌握接觸者34人，其中16人列居家隔離、18人列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計191,042例新型冠狀病毒肺炎相關通報(含188,956例排除)，其中1,039例確診，分別為923例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、987人解除隔離、42人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增6例境外移入COVID-19確定病例，分別自巴拉圭(案1032)、愛爾蘭(案1033)、阿拉伯聯合大公國(案1034)、菲律賓(案1035、1037)及印尼(案1036)入境。\$\@\$指揮中心表示，案1032為巴拉圭籍20多歲男性，今(2021)年3月5日自巴拉圭經巴西至杜拜轉機來臺就學，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，並於3月6日及3月18日接受專案採檢，結果為陰性。個案檢疫期滿後，由校方安排至其他住所自主健康管理，因預計返校就學，3月29日至醫院自費採檢，於今日確診(Ct值32，二採核酸檢驗陰性，血清抗體IgM陰性、IgG陽性)。個案在臺期間並無症狀，已掌握接觸者5人，為自主健康管理期間之同寢境外生，3月29日自費採檢結果為陰性，列居家隔離。\$\@\$指揮中心指出，案1033為愛爾蘭籍20多歲男性，今年1月8日曾在愛爾蘭當地檢出COVID-19陽性，1月21日及3月12日採檢結果為陰性。個案3月15日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，3月30日檢疫期滿後，因工作需要，至醫院自費採檢，於今日確診(Ct值33，二採核酸檢驗陰性，血清抗體IgM及IgG皆為陽性)。個案在臺期間並無症狀，檢疫期間未與他人接觸，檢疫期滿後至住院隔離前接觸之人員均有適當防護，故無匡列接觸者。\$\@\$指揮中心表示，案1034為本國籍50多歲女性，因工作長期往返中國、非洲、杜拜等地(前次自臺灣出境時間為2020年6月)。個案今年3月5日自杜拜返國，持有搭機前3日內檢驗陰性報告，入境後至住處居家檢疫至3月19日；個案在臺期間並無症狀，原規劃3月25日出國，故於3月24日至醫院自費採檢，結果為陰性。由於出國行程變動，3月30日再度至醫院自費採檢，於今日確診(Ct值32，二採Ct值38，血清抗體IgM及IgG皆為陽性)。已掌握個案接觸者6人，列居家隔離，其中4人核酸檢驗為陰性，2人檢驗中。\$\@\$指揮中心指出，案1035為菲律賓籍20多歲男性移工，今年3月17日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，期間曾於3月24日出現嗅味覺喪失情形，因自覺症狀輕微未通報，3月30日接受檢疫期滿前採檢，於今日確診(Ct值30)。由於個案發病前2日為檢疫期，採檢及就醫隔離接觸之相關人員皆有適當防護，故無匡列接觸者。\$\@\$指揮中心表示，案1036為印尼籍30多歲女性，長期居住印尼，其丈夫(本國籍)今年2月先行返臺，個案與另一名家人則於3月28日來臺，持有搭機前3日內檢驗陰性報告；個案於機上曾有忽冷忽熱症狀，入境時體溫異常於機場檢疫站攔檢，經量測耳溫有發燒情形，後送就醫並採檢，於今日確診(Ct值17)。已掌握個案接觸者共9人，包括同班機前後二排座位旅客及家人，列居家隔離。\$\@\$指揮中心指出，案1037為菲律賓籍40多歲女性移工，今年3月24日來臺工作，持有搭機前3日內檢驗陰性報告，入境時無症狀，並至集中檢疫所檢疫；個案3月30日出現味覺異常症狀，同日由衛生單位安排就醫採檢，於今日確診。由於個案發病前2日為檢疫期，就醫時接觸之相關人員皆有適當防護，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計190,423例新型冠狀病毒肺炎相關通報(含188,263例排除)，其中1,036例確診，分別為920例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、983人解除隔離、43人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-04-01\$\@\$中央流行疫情指揮中心表示，預訂於今(1)日出發的首團臺帛旅遊泡泡團員，計有旅客100人、帛琉外交使節團23人，共計123人，行前PCR檢驗結果皆為陰性，可順利辦理出關手續，旅客均可如期出發，安心出遊。\$\@\$指揮中心表示，旅客於帛琉當地應遵守相關防疫規範，並下載、填報追蹤應用程式APP，以利完成行程追蹤。當地行程皆由專人專車接送、團進團出，全程佩戴口罩並每日量測體溫，動線分流須按照事先規劃的行程，不與當地民眾接觸。機場對於返國團員將另設置洗手間及免稅商店，團員返國入境時，也將與一般入境旅客分流管理，經專櫃通關後，依規劃動線分流為旅行社遊覽車、計程車、親友接送或自行開車等方式離開，不得搭乘大眾交通工具。\$\@\$指揮中心指出，旅客返臺後5天內應實施加強自主健康管理，除一起前往旅遊及返臺者外，居所應符合1人1室，且有單獨房間與專用衛浴，共同生活者應一起採取適當防護措施，包含佩戴口罩，保持社交距離，不可共食。如果沒有出現任何症狀，可外出，但應記錄每日活動及接觸人員，並全程佩戴口罩及保持社交距離，不可接觸不特定人士（如會議、進修課程等）；不可搭乘大眾運輸；禁止至賣場、夜店、夜市、百貨公司、餐館及觀光景點等人潮擁擠的場所，並延後非急迫性的醫療或檢查，就醫時應主動告知醫師旅遊史。\$\@\$指揮中心表示，受COVID-19疫情影響，全球旅遊業受到重大衝擊，此次我國與帛琉的旅遊泡泡，可望兼顧防疫安全、振興旅遊及經濟活動，亦可作為未來其他國家復興旅遊產業的參考範例。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-03-31\$\@\$中央流行疫情指揮中心今(31)日表示，全球COVID-19疫情嚴峻，國內持續有境外移入確定病例，本週適逢清明節及兒童節連續假期，民眾南來北往掃墓、出遊機會增加，請務必持續配合落實秋冬防疫專案之各項措施，以降低疫情發生的風險。\$\@\$指揮中心指出，連假期間民眾出入「醫療照護、公共運輸、生活消費、教育學習、觀展觀賽、休閒娛樂、宗教祭祀、洽公機關(構)」等八大類場所(場所舉例如附表)，應佩戴口罩；若有飲食需求，在與不特定對象保持社交距離或有適當阻隔設備的前提下，可在飲食期間暫時取下口罩。如未依規定佩戴口罩，且經勸導不聽者，將依違反傳染病防治法第37條第1項第6款規定，由地方政府裁罰新臺幣3千元以上1萬5千元以下罰鍰。\$\@\$指揮中心表示，戶外風景區、遊樂園、夜市、傳統市場等戶外場所，或遊行、遶境等戶外公眾集會活動，業者或場所管理單位採「人數總量管制」方式管控，確保民眾在場所或活動中持續有效地保持社交距離，並請民眾如有發燒或呼吸道症狀等不適時，避免前往上述場所，並在無法保持社交距離時戴上口罩。公眾集會活動主辦單位應參考「COVID-19(武漢肺炎)因應指引：公眾集會」，妥為評估舉辦活動之必要性及風險，若決定舉辦，應訂定完整防疫應變計畫，落實相關準備及措施。若無法於活動前嚴格執行風險評估，及規劃完善之防疫配套措施，指揮中心強烈建議取消或延後舉辦。\$\@\$指揮中心指出，連假期間邊境檢疫人員持續堅守崗位，請民眾配合相關防檢疫措施，入境(或經我國機場轉機)應出示「表定航班時間(Flight schedule time)前3日內COVID-19核酸檢驗報告」，及事前安排入境後之檢疫居所(如：防疫旅宿或1人1戶在宅檢疫)，並於「入境檢疫系統」線上完成切結；入境後亦請落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。 圖片 附件\$\@\$高感染傳播風險場域</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-03-31\$\@\$中央流行疫情指揮中心今(31)日表示，經評估國內COVID-19疫苗使用情形，為使疫苗發揮最大效益，自4月6日起，開放執業登記醫事人員、醫療院所非醫事人員、集中檢疫所人員等接種計畫所列第一類實施對象接種COVID-19疫苗。\$\@\$指揮中心指出，自3月22日起至3月30日止，首批開放接種之AstraZeneca COVID-19疫苗總計接種12,605人次，為儘早提升高感染風險族群之免疫保護力，經「衛生福利部傳染病防治諮詢會預防接種組(ACIP)」專家開會討論，建議開放實施對象第一序位所有人員接種。\$\@\$指揮中心說明，為增加疫苗接種可近性，除原規劃之87家接種點，將再增加16家接種點，符合接種對象之人員可至上述院所預約接種。由於疫苗為多劑型包裝，為減少疫苗耗損，請依預約時間，攜帶健保卡等身分證明文件準時前往接種。\$\@\$指揮中心表示，目前開放接種之AstraZeneca COVID-19疫苗，依臨床試驗安全性結果顯示，接種後可能產生的不良反應包括接種部位腫脹、疼痛、疲倦、肌肉痛、關節痛、身體不適、體溫上升、發燒、畏寒等，一般於接種後數日內均可緩解，如民眾返家後有持續發燒、呼吸困難、氣喘、暈眩、心跳加速等不適症狀，請儘速就醫並告知醫師曾接種疫苗，以及時診治並釐清病因。民眾亦可透過疾管家V-Watch系統進行資料填寫與註冊，系統將主動推播告知須回報健康狀況的日期，透過簡單的問卷進行健康追蹤，系統將依據使用者回報情形，給予合適的關懷或就醫建議。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-03-31\$\@\$中央流行疫情指揮中心今(31)日表示，依據世界衛生組織資料顯示，由於各國管制措施放寬、變異株傳播及民眾對疫情警覺性下降等因素影響，全球COVID-19疫情有回升趨勢，近1週平均單日新增確診數已達前波高峰近8成，較前週增加15%；此外，全球近兩週死亡數亦回升，近1週的新增死亡病例還較前週增加逾10%，增幅擴大。目前歐洲、美洲為疫情流行中心。\$\@\$指揮中心指出，本週各國/地區感染風險級別無調整，名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、斐濟、汶萊、寮國、諾魯、馬紹爾群島、不丹、澳洲、新加坡、越南。\$\@\$中低感染風險國家/地區：柬埔寨、香港、模里西斯。\$\@\$指揮中心監測資料顯示，全球累計127,993,949例確診，分布於193個國家/地區；病例數以美國30,398,049例、巴西12,658,109例、印度12,095,855例、法國4,585,385例及俄羅斯4,536,820例為多；病例中2,810,921例死亡，以美國561,165例、巴西317,646例、墨西哥201,826例、印度162,114例及英國126,670例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-03-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增6例境外移入COVID-19確定病例，自美國(案1026)、緬甸(案1027)、印尼(案1028及1029)、衣索比亞(案1030)及孟加拉(案1031)入境。\$\@\$指揮中心表示，案1026為本國籍70多歲男性，長期居住美國，今(2021)年1月3日返臺，持有搭機前3日內檢驗陰性報告，入境後於住家單獨居家檢疫。個案在臺期間並無症狀，3月29日因出境需要，至醫院自費採檢，於今日確診(Ct值31，次日再驗Ct值36，血清抗體IgM、IgG皆為陽性)。已掌握個案接觸者共53人，其中12人列居家隔離、41人列自主健康管理。已採檢48人，其中17人PCR採檢陰性，其餘PCR及血清抗體檢驗中。\$\@\$指揮中心指出，案1027為緬甸籍30多歲男性漁工，今年3月14日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅宿居家檢疫。個案3月29日檢疫期滿後由公司安排至醫院自費採檢，於今日確診(Ct值35，血清抗體檢驗中)。個案在臺期間並無症狀，已掌握個案接觸者共3人，其中2人列居家隔離、1人列自主健康管理。\$\@\$指揮中心表示，案1028及1029均為印尼籍20多歲男性漁工，今年3月4日來臺工作，皆持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，3月17日接受檢疫期滿前採檢，結果均為陰性。2人檢疫期滿後，至其他住所自主健康管理。3月24日搭乘專車至醫院自費採檢，自費採檢結果為陰性，因同行中有5人確診(案1015至1019)，轉列居家隔離對象。3月29日公司逕自安排至醫院自費採檢，於今日確診(Ct值分別為34及31，血清抗體檢驗中)。2人在臺期間均無症狀，已掌握個案接觸者共6人，其中4人列居家隔離，2人列自主健康管理。\$\@\$指揮中心指出，案1030為本國籍20多歲男性，去年10月至衣索比亞工作，今年3月28日返臺，持有搭機前3日內檢驗陰性報告，入境時無症狀，主動通報曾於國外出現咳嗽、嗅味覺異常等症狀，入境採檢陰性。個案入境後至集中檢疫所檢疫，3月30日再次採檢，並於今日確診(Ct值31，血清抗體檢驗中)。已掌握個案接觸者共17人，其中5人列居家隔離、12人列自主健康管理。\$\@\$指揮中心表示，案1031為孟加拉籍20多歲女性，今年3月26日來臺就學，持有搭機前3日內檢驗陰性報告，入境後至防疫旅宿居家檢疫。3月28日出現咳嗽症狀，由衛生單位安排就醫採檢，於今日確診(Ct值18)。已掌握個案接觸者共10人，其中8人列居家隔離、2人列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計189,458例新型冠狀病毒肺炎相關通報(含187,640例排除)，其中1,030例確診，分別為914例境外移入，77例本土病例，36例敦睦艦隊、2例航空器感染及1例不明；另1例(案530)移除為空號。確診個案中10人死亡、981人解除隔離、39人住院隔離中。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-03-30\$\@\$疾病管制署公布我國本流感季(2020年10月以來)首例流感併發重症死亡病例；近期國內流感疫情雖在低點，提醒民眾仍應做好個人手部及呼吸道衛生，並留意自身及親友健康情形；尚未接種流感疫苗的民眾也應儘快接種，以降低流感病毒對健康的威脅。\$\@\$疾管署表示，新增之流感併發重症死亡病例為80多歲男性，有慢性病史，未接種流感疫苗，今(2021)年3月21日因嘔吐、呼吸急促就醫並收治住院，經診斷有吸入性肺炎等情形，轉至加護病房治療，3月25日通報，因檢出A型流感，3月27日研判為流感併發重症，同日個案病情惡化，不幸病逝。\$\@\$依據疾管署監測資料顯示，上週(3月21日至3月27日)國內類流感門急診就診共29,261人次，近期處低點，近4週社區呼吸道病毒分離以腺病毒為多，其次為單純疱疹病毒及副流感病毒；國內自去(2020)年10月迄今累計2例流感併發重症病例，分別感染H3N2、A型(待分型)，死亡病例累計1例，重症病例數及死亡病例數均明顯低於前4個流感季同期(同期病例數為360至966例、死亡病例數為56至159例)。\$\@\$截至今年3月28日，本流感季公費流感疫苗總接種數約619.3萬劑，65歲以上長者接種率52.5%，學齡前幼兒接種率51.1%。我國自今年1月30日起，公費流感疫苗擴大提供全國6個月以上尚未接種的本國籍民眾接種(如為外籍人士，需為申請中或持有居留證，包含外交官員證、國際機構官員證及外國機構官員證)，至疫苗用罄為止，籲請尚未接種流感疫苗的民眾儘速完成接種，以提升保護力，保護自身及家人健康。\$\@\$此外，也提醒民眾落實勤洗手及咳嗽禮節等衛生防護措施，有呼吸道症狀時應佩戴口罩；打噴嚏時應用面紙或手帕遮住口鼻，或用衣袖代替；與他人交談時，請保持安全社交距離。民眾如有類流感症狀，應就近就醫並充分休息，以降低病毒傳播的機會。</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2081,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2098,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2115,16 +1419,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2132,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2149,16 +1453,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2166,16 +1470,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2183,16 +1487,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2200,16 +1504,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2">
-        <v>44338</v>
+        <v>44341</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2217,16 +1521,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2">
-        <v>44338</v>
+        <v>44340</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>429</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2234,16 +1538,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2251,16 +1555,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2268,13 +1572,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>292</v>
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2282,16 +1589,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2299,16 +1606,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2">
-        <v>44336</v>
+        <v>44338</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2316,16 +1623,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2333,16 +1640,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2350,16 +1657,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2367,16 +1674,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>437</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2384,16 +1691,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" t="s">
-        <v>438</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2401,16 +1705,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2418,16 +1722,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2435,16 +1739,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2452,16 +1756,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2469,16 +1773,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2486,16 +1790,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>305</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2503,16 +1807,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2">
-        <v>44332</v>
+        <v>44334</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2520,16 +1824,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2">
-        <v>44332</v>
+        <v>44334</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2537,16 +1841,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2554,16 +1858,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2571,16 +1875,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2588,16 +1892,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>450</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2605,16 +1909,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>312</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2622,16 +1926,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2639,16 +1943,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2656,16 +1960,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>315</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>454</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2673,16 +1977,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>455</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2690,16 +1994,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="C38" s="2">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>456</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2707,16 +2011,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>457</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2724,16 +2028,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>458</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2741,16 +2045,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>459</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2758,16 +2062,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2775,16 +2079,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="E43" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2792,16 +2096,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C44" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E44" t="s">
-        <v>462</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2809,16 +2110,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2826,16 +2127,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>464</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2843,16 +2144,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>465</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2860,16 +2161,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>466</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2877,16 +2178,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>467</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2894,16 +2195,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>468</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2911,13 +2212,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>330</v>
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2925,16 +2229,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="C52" s="2">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>469</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2942,16 +2246,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>470</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2959,16 +2263,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2976,16 +2280,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C55" s="2">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2993,16 +2297,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>473</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3010,16 +2314,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C57" s="2">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>474</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3027,16 +2331,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>475</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3044,16 +2348,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
-        <v>476</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3061,16 +2365,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>477</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3078,16 +2382,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>478</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3095,16 +2399,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C62" s="2">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>479</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3112,16 +2416,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3129,16 +2433,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3146,16 +2450,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>482</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3163,16 +2467,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="C66" s="2">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>483</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3180,16 +2484,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3197,16 +2501,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C68" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>485</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3214,16 +2518,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
-        <v>486</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3231,16 +2535,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>487</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3248,16 +2552,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C71" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
-        <v>488</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3265,16 +2569,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3282,16 +2586,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2">
-        <v>44318</v>
+        <v>44320</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3299,16 +2603,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2">
-        <v>44318</v>
+        <v>44320</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>491</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3316,16 +2620,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>492</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3333,16 +2637,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>493</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3350,16 +2654,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>494</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3367,16 +2671,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C78" s="2">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="E78" t="s">
-        <v>495</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3384,16 +2688,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2">
-        <v>44316</v>
+        <v>44318</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
-        <v>496</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3401,16 +2705,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2">
-        <v>44315</v>
+        <v>44318</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>497</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3418,1024 +2722,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="s">
-        <v>221</v>
-      </c>
-      <c r="C82" s="2">
-        <v>44315</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E82" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="2">
-        <v>44314</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E83" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="2">
-        <v>44314</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E84" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="2">
-        <v>44314</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="2">
-        <v>44313</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E86" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" s="2">
-        <v>44313</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E87" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="s">
-        <v>227</v>
-      </c>
-      <c r="C88" s="2">
-        <v>44313</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E88" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="2">
-        <v>44312</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>229</v>
-      </c>
-      <c r="C90" s="2">
-        <v>44312</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="2">
-        <v>44311</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>231</v>
-      </c>
-      <c r="C92" s="2">
-        <v>44311</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E92" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="2">
-        <v>44310</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E93" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="2">
-        <v>44310</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E94" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="s">
-        <v>234</v>
-      </c>
-      <c r="C95" s="2">
-        <v>44309</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" s="2">
-        <v>44309</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E96" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="2">
-        <v>44308</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>237</v>
-      </c>
-      <c r="C98" s="2">
-        <v>44307</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E98" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="2">
-        <v>44307</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E99" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>239</v>
-      </c>
-      <c r="C100" s="2">
-        <v>44307</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>240</v>
-      </c>
-      <c r="C101" s="2">
-        <v>44307</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E101" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102" s="2">
-        <v>44306</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E102" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>242</v>
-      </c>
-      <c r="C103" s="2">
-        <v>44305</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E103" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>243</v>
-      </c>
-      <c r="C104" s="2">
-        <v>44304</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E104" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="2">
-        <v>44303</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E105" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="2">
-        <v>44302</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E106" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="2">
-        <v>44302</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E107" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="2">
-        <v>44301</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E108" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="s">
-        <v>248</v>
-      </c>
-      <c r="C109" s="2">
-        <v>44301</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E109" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E110" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E111" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C112" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E112" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="s">
-        <v>252</v>
-      </c>
-      <c r="C113" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E113" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E114" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E115" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="2">
-        <v>44299</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E116" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="2">
-        <v>44299</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E117" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="2">
-        <v>44298</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E118" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="2">
-        <v>44298</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E119" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>95</v>
-      </c>
-      <c r="B120" t="s">
-        <v>259</v>
-      </c>
-      <c r="C120" s="2">
-        <v>44297</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E120" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="2">
-        <v>44296</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E121" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="2">
-        <v>44295</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E122" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>262</v>
-      </c>
-      <c r="C123" s="2">
-        <v>44294</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E123" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" t="s">
-        <v>263</v>
-      </c>
-      <c r="C124" s="2">
-        <v>44293</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E124" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" s="2">
-        <v>44293</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E125" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" s="2">
-        <v>44293</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E126" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>266</v>
-      </c>
-      <c r="C127" s="2">
-        <v>44292</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E127" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" s="2">
-        <v>44292</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" s="2">
-        <v>44291</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E129" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>269</v>
-      </c>
-      <c r="C130" s="2">
-        <v>44290</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E130" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" t="s">
-        <v>270</v>
-      </c>
-      <c r="C131" s="2">
-        <v>44290</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E131" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>271</v>
-      </c>
-      <c r="C132" s="2">
-        <v>44289</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E132" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="2">
-        <v>44289</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E133" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>273</v>
-      </c>
-      <c r="C134" s="2">
-        <v>44288</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E134" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" s="2">
-        <v>44287</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E135" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>275</v>
-      </c>
-      <c r="C136" s="2">
-        <v>44287</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E136" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" s="2">
-        <v>44286</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E137" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="2">
-        <v>44286</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E138" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="2">
-        <v>44286</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E139" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>279</v>
-      </c>
-      <c r="C140" s="2">
-        <v>44286</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E140" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>280</v>
-      </c>
-      <c r="C141" s="2">
-        <v>44285</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E141" t="s">
-        <v>554</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4520,66 +2816,6 @@
     <hyperlink ref="D79" r:id="rId78"/>
     <hyperlink ref="D80" r:id="rId79"/>
     <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
-    <hyperlink ref="D120" r:id="rId119"/>
-    <hyperlink ref="D121" r:id="rId120"/>
-    <hyperlink ref="D122" r:id="rId121"/>
-    <hyperlink ref="D123" r:id="rId122"/>
-    <hyperlink ref="D124" r:id="rId123"/>
-    <hyperlink ref="D125" r:id="rId124"/>
-    <hyperlink ref="D126" r:id="rId125"/>
-    <hyperlink ref="D127" r:id="rId126"/>
-    <hyperlink ref="D128" r:id="rId127"/>
-    <hyperlink ref="D129" r:id="rId128"/>
-    <hyperlink ref="D130" r:id="rId129"/>
-    <hyperlink ref="D131" r:id="rId130"/>
-    <hyperlink ref="D132" r:id="rId131"/>
-    <hyperlink ref="D133" r:id="rId132"/>
-    <hyperlink ref="D134" r:id="rId133"/>
-    <hyperlink ref="D135" r:id="rId134"/>
-    <hyperlink ref="D136" r:id="rId135"/>
-    <hyperlink ref="D137" r:id="rId136"/>
-    <hyperlink ref="D138" r:id="rId137"/>
-    <hyperlink ref="D139" r:id="rId138"/>
-    <hyperlink ref="D140" r:id="rId139"/>
-    <hyperlink ref="D141" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
     <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
   </si>
   <si>
@@ -61,6 +73,306 @@
     <t>6月15日全國防疫會議後記者會報告</t>
   </si>
   <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增263例COVID-19本土確定病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心針對好心肝診所提供非開放接種對象接種疫苗案，將由司法單位依法徹查，還原真相，嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心說明配送至臺北市轄內合約醫院協助專案對象接種事宜</t>
+  </si>
+  <si>
+    <t>因應COVID-19疫情，調整COVID-19疫苗公費優先接種對象</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例COVID-19本土確定病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19疫苗須依循指揮中心所訂之接種順序依序施打</t>
+  </si>
+  <si>
+    <t>6月8日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增219例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>國內出現自呼吸道疾病病人中分離出H1N2v流感病毒案例，病患已痊癒，疾管署呼籲民眾做好個人健康管理</t>
+  </si>
+  <si>
+    <t>加強訪查移工宿舍落實防疫工作  增訂企業因應員工確診應變處置</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增211例本土COVID-19個案、3例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級延長至6月28日，相關防疫措施持續執行，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：目前我國COVID-19疫苗無自費接種規劃，並無所謂「自費負擔」之問題存在，而未來將依序開放全體國民公費接種，相關行政費用皆由政府負擔</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增335例本土COVID-19個案，另有8例校正回歸個案</t>
+  </si>
+  <si>
+    <t>針對苗栗縣電子廠群聚感染案件，指揮中心說明前進指揮所協助防疫作為</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：全民免費接種COVID-19疫苗公費疫苗順序，將由指揮中心陸續公布</t>
+  </si>
+  <si>
+    <t>指揮中心：政府已於特別預算編列40億，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務，自6月7日起實施</t>
+  </si>
+  <si>
+    <t>指揮中心澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關確診及死亡資訊都有公開</t>
+  </si>
+  <si>
+    <t>自即日起，暫停移工轉換雇主等作業以減少人員流動 防杜疫情擴散</t>
+  </si>
+  <si>
+    <t>苗栗縣2家電子廠發生群聚感染案件，前進指揮所已立即啟動相關防疫措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增476例本土，另有35例校正回歸個案</t>
+  </si>
+  <si>
+    <t>近期各地皆有豪大雨，請民眾落實孳生源清除及防蚊措施，防範登革熱</t>
+  </si>
+  <si>
+    <t>確保COVID-19重症病人照護品質  指揮中心辦理新冠病毒重症個案臨床處置線上課程</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增339例本土、2例境外移入COVID-19個案，另有133例校正回歸個案</t>
+  </si>
+  <si>
+    <t>苗栗縣某電子廠發生群聚感染案件，指揮中心即刻設立前進指揮所協助緊急防疫</t>
+  </si>
+  <si>
+    <t>日本政府提供124萬劑AstraZeneca COVID-19疫苗將於今(4)日下午抵臺</t>
+  </si>
+  <si>
+    <t>6月4日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增364例本土、2例境外移入COVID-19個案，另有219例校正回歸個案</t>
+  </si>
+  <si>
+    <t>譴責暴力行為 指揮中心：修法給予防疫人員妥善照顧</t>
+  </si>
+  <si>
+    <t>指揮中心規劃推動COVID-19疫苗大規模接種作業，加速民眾獲得免疫保護力</t>
+  </si>
+  <si>
+    <t>專家會議決議持續推行AstraZeneca COVID-19疫苗接種作業，並確實執行疫苗接種不良事件監測作業</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增372例本土COVID-19確定病例，另有177例校正回歸個案</t>
+  </si>
+  <si>
+    <t>衛福部依法撤銷110年5月31日連江縣及6月1日澎湖縣、金門縣政府之公告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增262例本土、5例境外移入COVID-19個案，另有65例校正回歸個案</t>
+  </si>
+  <si>
+    <t>6月1日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>交通部所屬5航空站設立篩檢站，有症狀旅客不予搭機、過去14天內有症狀須現場快篩陰性始得搭機</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例本土、4例境外移入COVID-19個案，另有73例校正回歸個案</t>
+  </si>
+  <si>
+    <t>保障國人健康 已向國外採購2,000萬劑及預採購國產1,000萬劑COVID-19疫苗</t>
+  </si>
+  <si>
+    <t>守護國人健康，指揮中心全力供應防疫物資，並自6月1日起公開物資撥配資料供各界查詢</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增266例本土COVID-19個案，另有89例校正回歸個案</t>
+  </si>
+  <si>
+    <t>我國Moderna疫苗皆為原廠進口，請民眾安心接種</t>
+  </si>
+  <si>
+    <t>全國社區篩檢站設置補助上路，提高民眾採檢可近性</t>
+  </si>
+  <si>
+    <t>我國疫苗政策兩大原則：由中央政府與原廠簽約採購並統籌分配執行</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增320例本土、7例境外移入COVID-19個案，另有166例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心對於日本政府有意提供COVID-19疫苗，表達感謝與尊重</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增297例本土、2例境外移入COVID-19個案，另有258例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月28日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>Moderna首批疫苗15萬劑將於5月28日下午抵臺</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增401例本土、4例境外移入COVID-19個案，另有266例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月27日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>強化COVID-19第三級疫情警戒相關措施及裁罰說明，請民眾確實遵守</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增302例本土、2例境外移入COVID-19個案，另有331例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心依疫情監測評估，即日起將香港調整為低風險，以色列增列為中低風險，越南自中低風險移除</t>
+  </si>
+  <si>
+    <t>5月26日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>國內新增1例日本腦炎病例，提醒民眾加強防蚊並按時攜幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>金門縣、澎湖縣及連江縣可在符合相關條件及流程下  提供自願性採檢服務</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增281例本土、2例境外移入COVID-19個案，另有261例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增334例本土、5例境外移入COVID-19個案，另有256例校正回歸上週各日個案</t>
+  </si>
+  <si>
+    <t>5月24日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>經多次溝通未果，衛福部依法撤銷金門縣政府110年5月23日公告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增287例本土、3例境外移入個案，另有170例校正回歸上週各日個案</t>
+  </si>
+  <si>
+    <t>5月23日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增321例本土、2例境外移入個案，另有400例校正回歸上週各日個案</t>
+  </si>
+  <si>
+    <t>5月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>因應國內COVID-19疫情警戒升級，指揮中心進行防疫物資整備及撥發</t>
+  </si>
+  <si>
+    <t>新增315例COVID-19確診，312例本土、3例境外移入</t>
+  </si>
+  <si>
+    <t>5月21日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>新增295例COVID-19確診，286例本土、9例境外移入</t>
+  </si>
+  <si>
+    <t>5月20日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>因應本土疫情持續嚴峻，指揮中心自即日起至5月28日止提升全國疫情警戒至第三級，各地同步加嚴、加大防疫限制，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>新增275例COVID-19確診，267例本土、8例境外移入</t>
+  </si>
+  <si>
+    <t>國際COVID-19疫情仍嚴峻，籲請民眾保持警覺，配合防檢疫措施</t>
+  </si>
+  <si>
+    <t>第二批COVAX獲配之AstraZeneca COVID-19疫苗即將抵臺</t>
+  </si>
+  <si>
+    <t>台美日英澳合辦全球合作暨訓練架構-「公共衛生：COVID-19疫苗接種的經驗與挑戰」線上國際研討會，分享各國疫苗接種現況與遭遇困難</t>
+  </si>
+  <si>
+    <t>感謝醫界相挺，320位耳鼻喉科醫師投入社區篩檢工作，共同抗疫</t>
+  </si>
+  <si>
+    <t>新增245例COVID-19確診，240例本土、5例境外移入</t>
+  </si>
+  <si>
+    <t>5月19日零時起暫停未持有我國居留證之非本國籍人士入境，及暫停旅客來臺轉機</t>
+  </si>
+  <si>
+    <t>新增335例COVID-19確診，333例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>健保醫療資訊雲端查詢系統增列「通報個案經檢驗陰性」及「經疫調列為自主健康管理者」14天自主健康管理提示</t>
+  </si>
+  <si>
+    <t>因應國內疫情進入社區流行階段 保全醫療量能 指揮中心宣布四大醫療應變策略</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
   </si>
   <si>
@@ -91,6 +403,306 @@
     <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o27RvXK2iFalOiryjIgglw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DKMRnrc0yNY-66xSIIWJMw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94PqMiI5V-gZP9F0rZ7UuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/vArl0v_hBYnHkry8Er2p6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zpyeez9DR02hYPPArtt0jg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oVAkCa84z1Qi9aG6lX9Bag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wqV3lKEhPhIxfAcYUmxgyA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CNFkjeg9JF4pKpoxvMj8oQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6ycXn2reLS6y5IOsoGHY4g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-cxOeHRhcVf1aXh8L3E7DA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3H8oYAqjJ6jnbdDKPWI9VA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IXE9yRaVxfGI8W9Dd_nfsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/b49dwP6CliFon0WZ7EAWTw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/abDtRS-xzztQeAchjX9fqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/fznvbAyh16Agrx6GvaLhtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2nG0D3Fm3EuHk_KByel_sA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hMCsuxvkedaN_hQplbzRgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_OOMwpibJ1yVMwpdX70F4w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3yVA23JILW27jBzAlrxpqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4qdDEYlGMOtVjwuryQFY9Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jFbqjTTexTGf3kdrinf0FA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QZdaYxpncGhm5TwiJ-82kQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FPFUTJ_xdE8deRN7mtAgtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_czNqXB2n2A3JZrciBnMhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
   </si>
   <si>
@@ -121,6 +733,306 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o27RvXK2iFalOiryjIgglw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DKMRnrc0yNY-66xSIIWJMw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94PqMiI5V-gZP9F0rZ7UuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/vArl0v_hBYnHkry8Er2p6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zpyeez9DR02hYPPArtt0jg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oVAkCa84z1Qi9aG6lX9Bag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wqV3lKEhPhIxfAcYUmxgyA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CNFkjeg9JF4pKpoxvMj8oQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6ycXn2reLS6y5IOsoGHY4g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-cxOeHRhcVf1aXh8L3E7DA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3H8oYAqjJ6jnbdDKPWI9VA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IXE9yRaVxfGI8W9Dd_nfsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/b49dwP6CliFon0WZ7EAWTw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/abDtRS-xzztQeAchjX9fqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/fznvbAyh16Agrx6GvaLhtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2nG0D3Fm3EuHk_KByel_sA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hMCsuxvkedaN_hQplbzRgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_OOMwpibJ1yVMwpdX70F4w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3yVA23JILW27jBzAlrxpqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4qdDEYlGMOtVjwuryQFY9Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jFbqjTTexTGf3kdrinf0FA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QZdaYxpncGhm5TwiJ-82kQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FPFUTJ_xdE8deRN7mtAgtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_czNqXB2n2A3JZrciBnMhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，並於今日邀集專家就「疫苗不良事件通報系統(VAERS)」通報的COVID-19疫苗接種後死亡個案進行討論。指揮中心表示，截至目前為止，尚未有死亡個案被判定為與疫苗相關。\$\@\$指揮中心統計，截至6月17日為止，國內接種AstraZeneca COVID-19疫苗共計1,273,121人次，其中229,566人次為75歲以上長者。又目前VAERS已收到25例接種AstraZeneca COVID-19疫苗後死亡之報告，其中20例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病；部分個案經司法相驗解剖後，初步死因與心血管疾病或慢性病史相關，惟迄目前為止，尚未有死亡個案被判定為與疫苗相關，指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$此外，指揮中心亦針對近期高齡者接種COVID-19疫苗，提供以下建議：\$\@\$1. 對於近期身體具狀況或慢性病情不穩定者，建議身體狀況較穩定後再接種。\$\@\$2. 近期天氣炎熱，考量長者身體狀況，建議避開高溫時段前往接種。\$\@\$3. 現有開放診所及衛生所可接種疫苗，建議就近前往接種。\$\@\$指揮中心提醒，所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日宣布，因應國內近期本土COVID-19確診病例疫情嚴峻，為利醫療院所照護重症個案、降低死亡率，將成立「COVID-19重症個案臨床處置專家諮詢小組」，由臺大醫院新竹臺大分院余忠仁院長擔任召集人，邀集全國22位重症個案臨床處置專家擔任諮詢委員，建立COVID-19重症個案處置諮詢平臺，並自6月21日(星期一)起，定期於星期一至星期五，每日晚間6時至8時，召開COVID-19線上重症病例諮詢會議，每日由3至5位諮詢委員，提供各醫療院所臨床重症個案處置意見，預定每次會議時間約為2小時。\$\@\$指揮中心表示，前已函請地方政府衛生局與相關學會轉知所屬醫療院所及會員，若醫療院所於診治COVID-19個案，有相關重症個案臨床處置諮詢需求，請於會議當日中午12時前，以電子郵件提交討論病例簡報、報告人姓名與聯繫資料至指揮中心醫療應變組公務信箱，以利會議討論。\$\@\$指揮中心說明，為降低重症個案死亡率，將「經鼻高流量濕化氧氣治療(Humidified high flow nasal cannula oxygen therapy, HFNCOT）」及「俯臥通氣治療(Prone positioning ventilation therapy)」，納入COVID-19確診個案公費給付項目，並回溯自5月1日起適用。\$\@\$指揮中心呼籲重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊需照顧好自己及隊友，若有相關重症個案臨床處置諮詢需求，務必儘速提請討論，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，第二批Moderna疫苗24萬劑，已於歐洲時間6月17日下午6時自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增188例COVID-19確定病例，分別為187例本土個案及1例境外移入；確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之187例本土病例，為83例男性、104例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月29日至6月17日。個案分佈以新北市76例最多，其次為臺北市71例，苗栗縣26例，桃園市6例，基隆市4例，臺中市2例，花蓮縣及新竹縣各1例。其中雙北地區以外縣市40例中，38例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，為男性12位、女性9位，年齡介於50多歲至90多歲，發病日介於5月6日至6月13日，確診日介於5月19日至6月15日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月16日累計公布12,210位確診個案中，已有6,873人解除隔離，解隔離人數達確診人數56.3%。\$\@\$指揮中心指出，今日新增1例境外移入個案(案13801)，為印度籍30多歲男性船員，3月5日自印度來臺工作，4月3日登船出海工作，期間並無症狀，6月16日返回我國港口，因出境需要，於同日採檢，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,011,097例新型冠狀病毒肺炎相關通報(含993,010例排除)，其中13,771例確診，分別為1,162例境外移入，12,556例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案13408)，累計95例移除為空號。自2020年起累計518例COVID-19死亡病例，其中511例本土，個案居住縣市分布為新北市255例、臺北市206例、基隆市17例、桃園市14例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日表示，疫苗接種是預防COVID-19感染、避免重症與死亡最有效的方式，全世界已有數億人接種過至少一劑疫苗，且COVID-19疫苗的安全性也正持續被監測當中。依過去經驗顯示，大規模疫苗接種與安全性監測時，會發現有部分人在疫苗接種後，發生對健康造成負面影響的事件，包括死亡。這些事件可能是由接種疫苗所導致，也可能與疫苗無關，僅是剛好發生在接種完疫苗後的巧合事件，相關死因皆仍待調查釐清。指揮中心亦將持續監測疫苗接種後不良事件，請國人放心。\$\@\$指揮中心說明，在大規模疫苗接種初期，大部分的接種對象均為年長者，並可能有潛在慢性疾病，使得這類疫苗接種後通報死亡的案件數量增加。因此需藉由回顧病歷資料或解剖釐清死因，調查這些事件是否可能與疫苗相關。此外，亦可藉由持續性自然死亡率的評估，觀察是否有疫苗安全性的疑慮。如根據109年度我國人口統計資料，75歲以上年中人口為1,433,286人，同年度75歲以上死亡人數為95,367人；故可得知，即便在未接種COVID-19疫苗的情形之下，預期平均每日都會有200多名75歲以上長者死亡。\$\@\$指揮中心統計，截至6月16日為止，國內共計1,133,515位民眾接種AstraZeneca COVID-19疫苗，其中174,098名為75歲以上長者。根據疫苗不良事件通報系統(VAERS)顯示，目前已收到11例接種AstraZeneca COVID-19疫苗後死亡之報告，其中8例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病。部分個案經解剖後已可確認死因。\$\@\$指揮中心強調，截至目前為止，尚未有死亡個案被判定為與疫苗相關。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應；同時提醒所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
   </si>
   <si>
@@ -130,12 +1042,18 @@
     <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增170例COVID-19確定病例，分別為167例本土個案及3例境外移入；確診個案中新增18例死亡。\$\@\$指揮中心表示，今日新增之167例本土病例，為85例男性、82例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月1日至6月15日。個案分佈以新北市65例最多，其次為臺北市50例，苗栗縣21例，桃園市14例，花蓮縣8例，新竹縣5例，基隆市2例，高雄市及臺中市各1例。其中雙北地區以外縣市52例中，48例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增18例死亡個案，共計為男性9位、女性9位，年齡介於30多歲至90多歲，發病日介於5月7日至6月10日，確診日介於5月15日至6月11日，死亡日介於6月6日至6月14日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月14日累計公布11,907位確診個案中，已有6,373人解除隔離，解隔離人數達確診人數53.5%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13371、案13372均為菲律賓籍20多歲男性船員，分別於5月13日及5月5日自菲律賓來臺工作，皆持有搭機前3日內檢驗陰性報告，且居家檢疫期滿採檢結果均為陰性。2人為同船船員，在臺期間並無症狀，6月14日因出境需求，一同自費採檢，於今日確診；衛生單位已匡列2人接觸者共19人，均列自我健康監測。案13501為本國籍20多歲男性，5月24日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，檢疫期滿後於6月9日出現發燒、咳嗽症狀，就醫後返家持續自主健康管理，6月15日因症狀持續就醫採檢，於今日確診；衛生單位已匡列相關接觸者2人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計937,150例新型冠狀病毒肺炎相關通報(含914,861例排除)，其中13,409例確診，分別為1,161例境外移入，12,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另新增2例空號 (案12511、12767)，累計94例移除為空號；確診個案中478例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月16日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日指出，近日有媒體報導「國光在疫苗研發上，疑因試驗基準不公而慘遭淘汰」及「聯亞遭受衛福部刁難，所提的第三期臨床試驗替代方案遭漠視」等相關訊息，指揮中心嚴正澄清，衛生福利部食品藥物管理署(下稱「食藥署」)及財團法人醫藥品查驗中心(下稱「醫藥品查驗中心」)對於國內COVID-19疫苗臨床試驗計畫申請，皆採取一致性審查標準，包括諮詢輔導、召開週會及專家會議均一視同仁，秉持公平公正，提供最合適、最可行之法規科學建議，並無偏袒特定廠商。\$\@\$指揮中心表示，有關國光公司申請第二期臨床試驗一事，食藥署已於110年2月9日函復廠商審查結果，也於函中敘明食藥署之考量，絕無審查不公相關情事。另，有關報導所提聯亞公司提出「圈選接種 (Ring Vaccination)」的國內第三期臨床試驗規劃，食藥署及醫藥品查驗中心亦於諮詢週會給予相關建議，例如：如何選擇指標個案、樣本數估算、施打及追蹤時程、施打劑數之合理性等，供廠商進行相關評估，但截至目前食藥署仍未收到該廠商後續規劃及申請。\$\@\$指揮中心指出，考量疫情及國際公共衛生緊急需求，為加速國產疫苗及早上市，針對COVID-19疫苗研發及輔導，食藥署及醫藥品查驗中心採滾動式審查機制(rolling review)，並針對重要關鍵製程，派員駐廠監製，協助廠商於研發過程能符合法規要求，以縮短研發及審查時程，並確保疫苗品質、安全及療效。\$\@\$指揮中心表示，該中心採購COVID-19疫苗，包括先前採購國外疫苗，均為預採購模式。此次採購國產疫苗是依據政府採購法第105條第1項第2款「因人民之生命、身體、健康、財產遭遇緊急危難」辦理。惟採購合約細節基於保密要求，相關資訊暫不便對外透露。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日表示，將於6月18日起，配送第二批莫德納(Moderna) COVID-19疫苗73,200劑，同時開放第一類至第三類對象接種，請獲配之合約醫療院所開啟預約掛號服務，提供上述對象預約接種，提升群體免疫力。\$\@\$指揮中心說明，莫德納(Moderna) COVID-19疫苗已於6月9日起陸續提供第一類醫事及非醫事人員接種，截至昨(15)日累計接種3萬7,505人。為儘速提升第二類及第三類對象免疫保護力，將於6月18日起進行第二次配送，同時開放至第三類對象接種。本次疫苗配送量是以各縣市符合第一類至第三類對象中，尚未接種人數接種率４成核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）分配數量係以尚未接種人數接種率達5成以上計算，總計配送63,200劑。\$\@\$指揮中心表示，另10,000劑疫苗提供交通部認定之第二類及第三類對象所需疫苗量，其中分配給國籍航空機組員5,000劑，含長榮、立榮、華航、華信、台灣虎航、星宇及飛特立等7家公司的駕駛員、空服員與隨機維修員等；另外5,000劑分配給民航航空第一線人員，含桃園機場及相關廠商、民航局、航空站、航管人員、飛機維修、倉儲、地勤及空廚等人員。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。另，依據各國疫苗上市後安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等的不良反應事件，大多發生在接種後數天內，指揮中心特別提醒民眾，接種mRNA 疫苗後，應注意如出現胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史。</t>
   </si>
   <si>
     <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，有關COVID-19疫苗，在世界各國及世界衛生組織指引中，皆將防疫人員與醫護人員列在優先施打對象，目的是為了執行疾病防治工作保護民眾，維持社會安定；而我國也將此類人員列為優先施打的對象。\$\@\$指揮中心進一步指出，第二類中央及地方政府防疫人員包含對象為：「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」、「港埠執行邊境管制之海關檢查(Customs)、證照查驗(Immigration)、人員檢疫及動植物檢疫(Quarantine)、安全檢查及航空保安(Security)等第一線工作人員」、「實際執行居家檢疫與居家隔離者關懷服務工作可能接觸前開對象之第一線人員(含警察、提送餐等服務之村里長或村里幹事、垃圾清運之環保人員、心理諮商及特殊狀況親訪等人員)」、「實際執行救災、救護人員(指消防隊及民間救護車執行緊急救護技術之第一線人員)」、「第一線海巡、岸巡人員」、「實施空中救護勤務人員」及協助防疫工作之國軍人員，該項下截至6/15已造冊人數計約16.2萬人。</t>
   </si>
   <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為提升目前優先接種COVID-19疫苗對象之接種率，將於6月17日起，依各縣市75歲以上人口比率，進行第二次疫苗撥配，預計配送394,800劑。\$\@\$指揮中心說明，自6月12日起，已陸續撥配68.8萬劑(含高風險縣市及中高風險縣市額外撥配2.49萬劑)至各地方政府衛生局，提供第一類至第六類優先對象(包括「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」)接種。為提升前揭對象接種率，本次疫苗配送量是以各縣市75歲以上長者人口數之26%核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）增配10%，中高風險縣市（桃園市、臺中市、基隆市、苗栗縣及彰化縣）增配5%，合計配送 385,800劑。加上前次疫苗撥配量，預估可讓全臺75歲以上長者接種率至少達53%。\$\@\$指揮中心指出，另考量部分縣市及離島縣市交通不便、疫苗配送不易且醫療資源相較不足，指揮中心規劃「離島-偏遠地區擴大接種計畫」，額外撥補臺東縣、屏東縣、澎湖縣、金門縣及連江縣共9,000劑疫苗，提供縣市依轄內接種需求規劃疫苗接種作業，其中連江縣撥配量將提前於6月16日配送。\$\@\$指揮中心特別提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為儘速發掘社區內可能潛藏病例，並有效斷絕所有感染鏈，該中心已於10日公布「社區廣篩4大策略」；今日並宣布，將補助各地方社區篩檢站50臺PCR檢驗儀器，居家自採與企業快篩陽性民眾，將可就近至社區第一線進行快速PCR檢驗。\$\@\$指揮中心指出，在廣設社區篩檢站方面，截至6月13日止，全國各地已開設249社區篩檢站，為加速社區第一線檢驗量能篩檢，今日宣布將補助各地方社區篩檢站50臺PCR檢驗儀器，未來居家自採與企業快篩民眾，若快篩結果呈現陽性，可就近至有快速PCR檢驗的社區篩檢站進行檢驗，並依照PCR檢驗結果及有無症狀進行後續措施(如附表)，形成全國社區防疫網。\$\@\$指揮中心表示，目前持續鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高的地區為考量，針對具有確診個案相關接觸史、活動史的無症狀民眾為主要篩檢對象。另為保全重度級急救責任醫院收治量能，請考量於社區健康中心、其他非重度級急救責任醫院及通風良好的場所，設置社區篩檢站。相關設置規定，可參考指揮中心訂頒的「各地方政府社區篩檢站設置指引」辦理。\$\@\$指揮中心再次提醒，所有篩檢工具皆有偽陰性、偽陽性的可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。 圖片 附件\$\@\$0615 COVID-19廣篩策略.jpg</t>
   </si>
   <si>
@@ -143,6 +1061,288 @@
   </si>
   <si>
     <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心表示，今(15)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國推動加強三級警戒等管制措施，雙北疫情雖逐步趨緩，但指揮中心仍請雙北以外的部分縣市，密切注意疫情發展，須持續強化基層醫療檢驗及社區篩檢及病例監測之能力，針對弱勢族群及獨居老人更應提高注意，並加強疫調與接觸者管理及早發現個案，以防疫情反彈或出現新一波流行。\$\@\$二、有關疫苗配發及接種作業：\$\@\$(一)指揮中心再次向各地方政府說明，前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AZ疫苗，均以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各地方政府依比例公平、公開透明分配，指揮中心也會根據各地方政府之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業。\$\@\$(二)有關指揮中心已公布之目標接種族群，其疫苗施打不受戶籍地限制，請地方政府依序完成民眾預約接種作業；另地方政府建請指揮中心就目前開放施打對象重新評估研議部分，鑒於疫苗量有限，仍請各地方政府依造冊對象及接種計畫審慎作業，有關第七類施打對象部分，指揮中心正與相關機關進行盤點，也會參考地方政府建議，依實際狀況完備造冊作業。\$\@\$三、有關地方政府擬進行到宅接種作業，指揮中心尊重地方政府相關作業，惟請留意疫苗保存條件：須保存在2-8℃、開瓶後要在6小時內施打，避免晃動等。另應預先安排10人次進行施打，以利疫苗接種效率。\$\@\$四、針對出國留學之學生能否先予納入公費疫苗接種對象，鑒於國內疫苗供應需求，目前仍以臺灣社區防疫為主，暫不將上類人員納入公費施打對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$國際疫情持續嚴峻且變化快速，為確保國籍航空機組員職場健康及維護國內防疫安全，關於國籍航空公司機組員接種COVID-19疫苗後之檢疫措施，於交通主管機關監督航空公司落實外站「零接觸」管理、機組員「機上全程防護」及返國檢疫措施下，調整說明如下：\$\@\$一、重點高風險國家航線航班之返臺機組員，居家檢疫14天(結束日PCR檢驗)。\$\@\$二、長程航班(入境旅遊疫情第三級地區)：\$\@\$1. 尚未接種疫苗及接種1劑疫苗未達兩週者：110/6/12起，採5天居家檢疫(結束日PCR檢驗)+9天加強版自主健康管理(第9、14天抗原快篩)。7/1起，採7天居家檢疫(結束日PCR檢驗)+7天加強版自主健康管理(第14天抗原快篩)。\$\@\$2. 接種1劑疫苗且滿兩週，但尚未具完整疫苗保護力：110/6/12起，採3天居家檢疫(結束日PCR檢驗)+11天自主健康管理(第9、14天抗原快篩)。7/1起，採5天居家檢疫(結束日PCR檢驗)+9加強版天自主健康管理(第9、14天抗原快篩)。\$\@\$3. 完整接種2劑疫苗達兩週且抗體檢測陽性(每3個月監測)：採7天自主健康管理(結束日PCR陰性)。\$\@\$三、短程航班(當班往返且未入境旅遊疫情第三級地區)：110/6/12起，\$\@\$1. 未完整接種疫苗達兩週及抗體檢測陰性者：採14天自主健康管理+每14天PCR監測。\$\@\$2. 完整接種疫苗滿兩週且抗體檢測陽性者(每3個月抗體監測)：自我健康監測+每14天PCR監測\$\@\$指揮中心表示，自疫情以來，機組員肩負疫苗及輸送物資進出口，以維持空運貨物運能，對機組員的付出表示感謝。目前國籍航空機組員多數已接種第1劑疫苗，後續將保留其第2劑疫苗，確保其能獲得疫苗保護力。指揮中心特別提醒，因病毒株變異及傳播力難以預測，具疫苗保護力的機組員於執勤時，仍應遵守民用航空局訂定之作業規範，於外站「零接觸當地人」、機上全程防護及加強手部衛生清消頻率等，以維護個人及家人防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增185例COVID-19確定病例，均為本土個案；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之185例本土病例，為83例男性、102例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月28日至6月13日。個案分佈以新北市98例最多，其次為臺北市42例，基隆市14例，桃園市10例，苗栗縣7例，花蓮縣4例，彰化縣及新竹縣各3例，宜蘭縣2例，臺中市及雲林縣各1例。其中雙北地區以外縣市45例中，37例為已知感染源、5例關聯不明、3例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，共計為男性9位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月8日，確診日介於5月18日至6月13日，死亡日介於6月5日至6月13日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月12日累計公布11,547位確診個案中，已有5,802人解除隔離，解隔離人數達確診人數50.2%。\$\@\$指揮中心統計，截至目前國內累計886,014例新型冠狀病毒肺炎相關通報(含863,703例排除)，其中13,106例確診，分別為1,155例境外移入，11,898例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中452例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月14日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日就「第二類『中央政府防疫人員』及第三類『高接觸風險第一線工作人員』疫苗量，寄放於各縣市」一事，說明如下：\$\@\$一、指揮中心係以造冊名單核估各縣市第一類至第三類人員疫苗分配數量。前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AstraZeneca COVID-19疫苗，均以此原則估算。\$\@\$二、對於符合各類接種對象身分者，COVID-19合約醫療院所均不得以任何方式拒絕及妨礙該等對象接種，惟未限定須為其保留疫苗數量，故無所謂「寄放」之問題，如未及時接種，地方政府可依現行優先接種對象，安排接種作業。\$\@\$三、考量先前第二類、第三類對象之接種作業，有些地方政府以各縣市所屬機關人員優先接種，而拒絕為符合第二類之「中央政府防疫人員」接種，爰本次疫苗分配時，特別提醒各地方政府衛生局，應提供工作地點位於該縣市之「中央政府防疫人員」及「高接觸風險第一線工作人員」接種疫苗。該數量係以機關/工作所在地位於該縣市，且尚未接種人數之6成估算，提供各地方政府參考使用。\$\@\$指揮中心再次重申，配送予各地方政府之疫苗數量，是以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日表示，有關網傳總統、副總統已接種COVID-19疫苗，經總統及副總統授權由中央流行疫情指揮中心調閱「全國性預防接種資訊管理系統(NIIS)」系統查證，蔡英文總統及賴清德副總統均尚未接種COVID-19疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增251例COVID-19確定病例，分別為250例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之250例本土病例，為116例男性、134例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月28日至6月11日。個案分佈以新北市133例最多，其次為臺北市65例，基隆市16例，桃園市13例，苗栗縣9例，花蓮縣3例，宜蘭縣、新竹市、彰化縣及臺中市各2例，高雄市、雲林縣、新竹縣各1例。其中雙北地區以外縣市52例中，45例為已知感染源，7例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性16位、女性10位，年齡介於40多歲至100多歲，發病日介於5月15日至6月9日，確診日介於5月18日至6月11日，死亡日介於6月4日至6月11日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12698)，為本國籍40多歲女性，5月30日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫旅館進行居家檢疫，於6月9日出現發燒等症狀，6月10日由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，累計845,113例新型冠狀病毒肺炎相關通報(含821,956例排除)，其中12,746例確診，分別為1,154例境外移入，11,539例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增5例空號 (案9332、10323、10337、10353、12078)，累計92例移除為空號。確診個案中411例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月12日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日下午由行政院秘書長李孟諺、指揮中心社區防疫組組長薛瑞元與各縣市政府衛生局召開「COVID-19疫苗接種作業推行協調會」，針對不同年齡與族群的疫苗接種策略，進行相關經驗交流與分享；會議重點如下：\$\@\$請地方衛生機關每日確實將接種名冊上傳，以利及時掌握接種進度及疫苗撥配相關事宜。\$\@\$日本政府提供我國的124萬劑AstraZeneca疫苗，開放75歲以上長者(含65歲以上具原住民身分者)施打，只要為民國35年12月31日(含)以前出生者，或具原住民身分之證明文件且為民國45年12月31日(含)以前出生者，均符合接種資格。同時，75歲以上長者，不限其居住地或戶籍地，均可就近完成接種作業。\$\@\$各地方政府的疫苗接種策略不同，大部分縣市採預先造冊、由民政單位通知方式辦理，另有部分縣市採用院所預約方式，惟請採預約方式之縣市，宜加速擴充電話線路及服務人力，使施打作業更為順暢。\$\@\$另，指揮中心提醒，目前第一類尚未完成接種COVID-19疫苗較多之縣市，請加速疫苗接種作業，使民眾儘早獲得疫苗保護力。\$\@\$為避免人潮擁擠，請各地方政府以分齡、分流、分批辦理，減少群聚風險。\$\@\$另，由於食品藥物管理署加速完成該批COVID-19疫苗檢驗封緘作業，以及物流業者鼎力協助提前於今日深夜開始配送，明(12)日將有50萬劑陸續運抵各地方政府，考量地方政府需前置作業時間，指揮中心表示，疫苗開打日仍以 6月15日為原則辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、雙北疫情趨勢雖持平惟仍舊嚴峻，指揮中心持續鼓勵各縣市增設社區篩檢站，以便及早發掘潛在陽性個案，阻斷社區傳播鏈；另鑒於重症及死亡數攀升對社會之衝擊與影響較大，也請各地方政府持續掌握及協調醫療資源，迅速應變。\$\@\$二、針對疫苗配撥及施打作業：\$\@\$(一)指揮中心再次強調，中央與地方應秉持「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂「COVID-19疫苗接種順序」，進行施打作業。\$\@\$(二)有關各地方政府關切疫苗配撥量部分，指揮中心會儘速完成第一類至第六類符合施打對象之計算，並加速進行疫苗撥發作業。另鑒於現行國內疫苗量仍無法全數完成上開類別人員之施打，亦請各地方政府審慎妥予規劃相關施打作業之進行。\$\@\$(三)請地方衛生機關加強向合約醫療院所宣導，針對符合接種順序者，應讓其以最方便之方式就近完成接種作業，不侷限接種者居住地、工作地或戶籍地區分，避免造成人流移動情形；另有關疫苗施打類別，針對公費疫苗接種第七類有關維持國家安全及社會機能正常運作者之匡列部分，指揮中心將會再進一步研議，俾符實際運作狀況。\$\@\$三、衛生福利部醫事司與內政部消防署已協調民間18家救護車業者，自今日起投入防疫救護載運工作，將進行醫院、集中檢疫場所間，點到點之病患運送作業，預計至少有108部民間救護車加入防疫工作，以有效舒緩消防機關救護工作之壓力。\$\@\$四、請各地方政府鼓勵觀光飯店業者發動「暖心方案」，提供醫護人員以及相關醫事人員入住，讓第一線醫事人員可以獲得充分及妥適休息。\$\@\$五、鑒於暑假將屆，有關大專院校學生暑期生活管理作業，教育部前於5月26日及6月8日2度要求各級學校，應強化住宿生管理，並不得強制要求住宿學生返家。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，指揮中心已採購複合單株抗體藥物，將提供具有重症風險因子之輕中度確診個案治療使用，以降低個案轉為重症需住院之風險，協助紓解重症醫療量能。\$\@\$指揮中心指出，依據國際研究顯示，新冠病毒感染患者輕症比率大約佔8成左右，但其中約9％的患者可能惡化為重症，主要的重症危險因子有高齡、肥胖、慢性腎病、心血管疾病/高血壓、慢性肺病、免疫抑制疾病/免疫抑制治療等影響免疫功能之疾病，以及懷孕等，且其病程演化迅速，甚至導致死亡。截至本(110)年6月10日監測資料，國內輕中度COVID-19確診病例約佔所有確診個案84%，死亡病例數佔確診病例2.7%。\$\@\$指揮中心表示，國內新冠肺炎(COVID-19)疫情持續嚴峻，重症醫療量能持續緊繃，鑒於單株抗體之療效及安全性已有部分證據支持，美國FDA及國際間已陸續發布緊急使用授權(EUA)核准於臨床使用，以治療輕度至中度SARS-CoV-2感染且有重症危險因子之高風險患者，降低個案轉為重症需住院之風險。指揮中心經諮詢專家，已將該藥物之使用建議納入我國新型冠狀病毒(SARS-CoV-2)感染臨床處置暫行指引，並著手採購儲備該藥物，規劃分配於集中檢疫場所之主責醫院，經醫師評估治療效益與風險，並充分告知後，給予符合條件個案注射治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增287例COVID-19確定病例，分別為286例本土及1例境外移入；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之286例本土病例，為141例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月19日至6月10日。個案分佈以新北市120例最多，其次為苗栗縣56例、臺北市49例、桃園市19例、新竹縣12例、基隆市8例、彰化縣7例、臺中市4例、宜蘭縣及新竹市各3例、雲林縣及花蓮縣各2例、臺南市1例。其中雙北地區以外縣市117例中，109例為已知感染源，8例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，共計為男性12位、女性12位，年齡介於50多歲至80多歲，發病日介於5月3日至6月8日，確診日介於5月15日至6月10日，死亡日介於6月2日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12479)，為泰國籍30多歲男性移工，2月7日曾在泰國當地檢出COVID-19陽性，3月23日自泰國來臺工作，持有搭機前3日內檢驗陰性報告，4月7日檢疫期滿採檢結果為陰性，6月8日出現發燒及咳嗽症狀，6月10日就醫採檢，於今日確診(Ct值31，次日再驗核酸檢測陰性，血清抗體陽性)；已匡列個案接觸者13人，皆列為居家隔離。\$\@\$指揮中心統計，累計804,931例新型冠狀病毒肺炎相關通報(含781,334例排除)，其中12,500例確診，分別為1,153例境外移入，11,294例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增9例空號 (案6616、9671、10339、10348、10350、10359、10452、11381、11865)，累計87例移除為空號。確診個案中385例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增266例COVID-19確定病例，其中263例為本土個案，另有3例境外移入個案。確診個案中新增28例死亡。\$\@\$指揮中心表示，今日新增之263例本土病例，為124例男性、139例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月22日至6月9日。個案分佈以新北市112例最多，其次為臺北市58例、苗栗縣43例、桃園市14例、基隆市12例、彰化縣10例、花蓮縣7例、南投縣及新竹縣各2例，宜蘭縣、臺東縣及臺南市各1例。其中雙北地區以外縣市93例中，84例為已知感染源，5例關聯不明，4例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增28例死亡個案，共計為男性21位、女性7位，年齡介於50多歲至90多歲，發病日介於5月13日至6月8日，確診日介於5月16日至6月9日，死亡日介於6月1日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增3例境外移入個案中，案12214為本國籍30多歲男性，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案12293為本國籍30多歲男性，4月14日自奈及利亞返臺，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀；因需再次出境，於6月9日自費採檢後確診；相關接觸者匡列中。案12294為本國籍40多歲女性，曾於4月9日及30日於美國當地完成2劑Pfizer/BioNTech疫苗接種，並於6月3日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後返家進行居家檢疫，6月7日出現咳嗽、流鼻水等症狀但未就醫；6月9日，個案的同住家人出現發燒症狀，經就醫採檢後確診，故同日安排個案採檢，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，累計769,990例新型冠狀病毒肺炎相關通報(含746,817例排除)，其中12,222例確診，分別為1,152例境外移入，11,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增12例空號 (案2550、2977、6445、7162、7379、9729、10340、10354、10355、10356、10524、11849)，累計78例移除為空號。確診個案中361例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$針對臺北市政府提供好心肝診所一千多劑COVID-19 疫苗，且該診所未依指揮中心之規定，提供非屬一到三類醫護人員之一般民眾施打一事，中央流行疫情指揮中心今(9)日嚴正表示，此事嚴重影響尚未施打疫苗之基層醫護人員權益，有人漠視規定，明知故犯，情節重大，指揮中心將由司法單位依法徹查，還原真相，並追究相關人員應負之法律責任。\$\@\$指揮中心指出，該診所之醫護人員多已至院外接種COVID-19疫苗，而指揮中心也尚未許可基層診所提供COVID-19疫苗接種服務，臺北市政府竟無視相關規定，任意將多達一千多劑疫苗撥給該診所，既違反規定，也不合情理；而該診所短時間內即施打一千多劑，究竟是何人被通知前往施打，有無特權介入，事不單純，也不尋常，其中過程實令人合理懷疑是否有違法濫權之事。\$\@\$指揮中心強調，基於維護及確保疫苗施打之合法性及公平性的職責，絕不容許類此情形再度發生，破壞綱紀，並將交由司法單位調查本案之始末，釐清真相，還原事實，以瞭解其中是否有人謀不臧、私相授受，甚至偽造文書或違法圖利之相關犯罪嫌疑，以明法紀，並昭公信。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$有關COVID-19疫苗放置臺北市醫院，提供中央造冊之外國使節等施打一事，中央流行疫情指揮中心今(9)日表示，因特殊情形必要出國者，可由各該主管機關提具需求說明、預估接種人數及時程，向中央流行疫情指揮中心以專案方式，申請接種公費COVID-19疫苗。目前已專案申請接種對象包括我國因外交或公務需求奉派出國者、代表我國出國之運動員或參賽選手等。另基於互惠原則，駐臺外交人員及其在臺眷屬亦屬專案同意接種對象。針對此類專案指揮中心會視疫苗進口期程及供應量整體評估提供。\$\@\$指揮中心進一步說明，考量該類專案對象其工作地點多位於臺北市，且其工作性質需分批次接種，故依專案需求，撥配疫苗至單位指定院所，提供該類對象接種；目前撥配及接種狀況如下：\$\@\$一、疾病管制署庫存30瓶，係供該署尚未接種第一劑及須接種第二劑之防疫人員接種，本週預計接種30人次，並依照業務安排陸續完成接種。\$\@\$二、三軍總醫院附設民眾診療服務處計配送70瓶，提供國軍協助防疫旅館消毒之化學兵接種，已全數接種完畢。\$\@\$三、臺北市立仁愛醫院計配送180瓶，係提供華航機師及機組員接種，截至目前約250人尚未接種，預計本週完成接種。\$\@\$四、三軍總醫院北投分院計配送100瓶，供總統護衛等國安人員接種，截至目前，尚有250人未接種，庫存14 瓶，預計本週完成接種。\$\@\$五、臺北醫學大學附設醫院，係提供食品藥物管理署員工接種，已全數接種完畢。\$\@\$六、臺大醫院配送20瓶，供指揮中心委託研究計畫之研究對象使用，已全數接種完畢。\$\@\$七、指揮中心另請臺北市榮民總醫院協助接種外交使節、因公務需求有必要出國者及代表國家出國之運動選手疫苗接種事宜，目前約400人還未接種。\$\@\$指揮中心強調，針對上述指揮中心同意列冊施打對象，總計配送650瓶疫苗，目前已接種共計5,400人次，尚未接種為1,200人次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日表示，昨(8)日衛生福利部傳染病防治諮詢會預防接種組(ACIP)召開專家會議，討論COVID-19疫苗優先接種順序。會中專家表示，因應國內正處於COVID-19社區流行階段現況，為使醫療、防疫業務正常運作，確保感染後易產生嚴重併發症或導致死亡之對象儘速獲得免疫保護力，同時確保社會及國家設施正常運作，降低疫情造成之衝擊，建議調整「COVID-19疫苗優先接種順序」，將「維持機構及社福照護系統運作」及「75歲以上長者」分別列於第五類及第六類對象，並將「經各主管機關認定之關鍵設施工作人員」、「運輸及倉儲業者」、「高中職以下學校教職員工與校內工作人員」及「幼兒園托育人員及托育機構專業人員」列入第七類「維持國家安全及社會機能正常運作」對象，需報指揮中心同意。\$\@\$指揮中心說明，日本提供我方之124萬劑AstraZeneca COVID-19疫苗完成檢驗封緘後，預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所，並依ACIP專家決議之優先接種順序，於本批疫苗開始供應後，同時開放「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」，優先接種COVID-19疫苗。指揮中心將視疫苗供應期程、數量、優先接種對象接種情形及國內外疫情現況，適時調整疫苗分配數量及開放接種對象。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。\$\@\$指揮中心再次感謝日本政府於此疫情艱難，且全球疫苗產能供不應求之際，及時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助。指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增275例COVID-19確定病例，其中274例為本土個案，另有1例境外移入個案。確診個案中新增25例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為142例男性、132例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至6月8日。個案分佈以新北市162例最多，其次為臺北市63例，桃園市15例，苗栗縣12例，基隆市10例，彰化縣及南投縣各3例，宜蘭縣2例，臺南市、嘉義市、臺中市及新竹縣各1例。其中雙北地區以外縣市49例中，43例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增25例死亡個案，共計為男性20位、女性5位，年齡介於50多歲至90多歲，發病日介於5月11日至5月30日，確診日介於5月17日至6月5日，死亡日介於5月29日至6月7日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案（案12033），為本國籍50多歲男性，5月1日於印度曾有相關症狀，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，累計739,818例新型冠狀病毒肺炎相關通報(含717,016例排除)，其中11,968例確診，分別為1,149例境外移入，10,766例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號 (案11069)，累計66例移除為空號。確診個案中333例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日澄清，有關媒體報導某臺北診所開放民眾連夜施打 COVID-19疫苗案，指揮中心重申，有關現階段COVID-19疫苗之撥配，係由各地方政府統籌分配予所轄合約醫療院所，針對於合約醫療院所提供接種服務，應符合目前公費接種對象優先順序，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市，則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。另針對3月22日至4月11日已完成第一劑之公費對象，於間隔10至12週後，開放接種第二劑。\$\@\$指揮中心說明，針對媒體所報導之情事，已請臺北市政府衛生局進行瞭解及處理，另指揮中心聲明，合約醫療院所提供接種服務應符相關規範，並落實感染管制相關指引，同時應規劃維持社交距離避免群聚感染。如經查執行其接種作業有違指揮中心相關接種政策或實施對象者，可依傳染病防治法第29條處以30萬至200萬罰鍰；也再次強調中央與地方「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂之COVID-19疫苗接種順序，進行施打作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心表示，今(8)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、近期國內疫情仍處高峰期，因感染而死亡的個案增加，指揮中心將持續與地方政府掌握及協調醫療資源，迅速應變，請地方政府衛生機關加強設置社區篩檢站，提高民眾採檢可近性，降低社區擴散風險。\$\@\$二、針對端午節連假前後，南北往返的大眾運輸系統購票率以及各觀光景點飯店住房率，指揮中心均與相關部會保持密切聯繫，持續掌握人流狀況，適時強化防疫措施；請各地方政府加強連假期間易造成人潮聚集區域的人流管控，同時呼籲民眾暫緩返鄉，減少人流移動。\$\@\$三、加強及落實移工防疫管理部分：\$\@\$(一) 針對北部電子工廠發生群聚感染案件，指揮中心已成立前進指揮所，協助相關廠區緊急應處，也請地方政府協助企業團體強化因應措施。\$\@\$(二) 勞動部昨(7)日已發布實施「暫停移工轉換至新雇主」，以及「暫緩雇主調派移工至其他廠區工作」作業，力求降低移工人流，並修訂「雇主聘僱移工指引」，增訂「企業因應疫情處置」；勞動部另將儘速發布補助要點，補助雇主因移工隔離以及宿舍降載，所須支出之必要防疫措施費用。\$\@\$四、針對大賣場及傳統市場的人流管制，屬高風險地區的地方政府已加強推動實聯制，並運用身分證單、雙號分流，進行人流管控。此外，經濟部已與地方政府研商擬訂5大措施，以加強傳統市場人流管制，請其他地方政府配合施行。\$\@\$五、針對COVID-19疫苗的分配與接種，請各地方政府及醫療院所依據指揮中心所訂之疫苗接種順序，進行施打作業。\$\@\$六、 經考量疫情進展與防疫量能餘裕，快篩陽性及輕症、無症狀確診者收治原則調整如下：\$\@\$(一) 快篩陽性尚未確診者：雖仍得採居家隔離一人一室，因考量收治量能餘裕已擴大，同意各縣市如量能足夠，得一律安排收住於集中檢疫場所，或加強型防疫旅館，並請地方政府再次盤點相關量能。\$\@\$(二) 輕症、無症狀確診者：應儘速收治於集中檢疫場所及加強型防疫旅館。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增219例COVID-19確定病例，均為本土個案。確診個案中新增22例死亡。\$\@\$指揮中心表示，今日新增之219例本土病例，為117例男性、102例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月22日至6月7日。以新北市123例最多，其次為臺北市54例，苗栗縣16例，桃園市13例，基隆市8例，彰化縣2例，臺南市、新竹市及臺中市各1例。其中雙北地區以外縣市42例中，36例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增22例死亡個案，共計為男性15位、女性7位，年齡介於30多歲至100多歲，發病日介於5月13日至5月30日，確診日介於5月18日至6月4日，死亡日介於5月30日至6月7日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計698,373例新型冠狀病毒肺炎相關通報(含675,836例排除)，其中11,694例確診，分別為1,148例境外移入，10,493例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增16例空號 (案7378、9643、10704、10856、11304、11305、11306、11378、11379、11380、11382、11383、11385、11386、11393、11396)，累計65例移除為空號。確診個案中308例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$疾病管制署今(7)日表示，本(2021)年4月接獲醫院通報，一名住中部之5歲女童流感輕症病患之呼吸道檢體分離出無法次分型之A型流感病毒，經該署進一步檢驗並進行基因定序為H1N2v流感病毒。經調查個案密切接觸者6名，其中3人有類流感症狀，經檢驗均未發現H1N2v流感病毒感染，經邀集農政單位及相關醫學與獸醫專家召開會議討論，依上述現有流行病學調查結果研判，本案應屬散發個案，與國際過去案例類似，無證據顯示有人傳人現象，衛生及農政單位亦將持續加強人類、動物與環境之監測。\$\@\$疾管署指出，這名女童未曾出國，家中從事禽畜養殖業，本年3月12日出現流鼻水及咳嗽症狀，3月13日開始發燒，3月14日因持續發燒而就醫，流感快篩為A型陽性，經醫師評估無需住院，開立流感抗病毒藥劑後返家，目前已康復。4月5日自該名女童呼吸道檢體分離出H1N2v流感病毒，另針對呼吸道感染常見病毒如腺病毒、呼吸道融合病毒、冠狀病毒、腸病毒及鼻病毒等進行檢測，均呈陰性反應。此外，農政單位亦自病例家族經營之養豬場豬隻採集檢體檢驗，結果未檢出H1N2流感病毒。\$\@\$國際間H1N2為存在豬隻的低病原性流感病毒，很少在人群中傳播，但偶爾有人類感染之報告，全球2012-2021年累計30例H1N2v流感確診病例，分布於美洲地區，以美國為多，其次為巴西，病例多具有豬隻暴露史或曾暴露於受汙染環境，並不會透過食用肉品而感染。本次由病患所分離之病毒基因序列，與本土過去於豬隻分離之H1N2流感病毒株最為接近，但不相同，對克流感及瑞樂沙等抗病毒藥物敏感。\$\@\$疾管署提醒，防範新型A型流感，民眾應遵守「5要6不」原則，「5要」：肉類及蛋要熟食、要以肥皂澈底洗手、出現症狀，要戴口罩速就醫並告知職業及接觸史、與禽畜長期接觸者要接種流感疫苗、要均衡飲食及適當運動；「6不」：不生食禽鳥蛋類或製品、不走私及購買來路不明肉品、不接觸或餵食動物、不野放及隨意丟棄動物、不將飼養動物與其他禽畜混居、不去空氣不流通或人潮壅擠的場所。相關資訊可至疾管署全球資訊網（https://www.cdc.gov.tw/），或撥打免費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日表示，為促使聘有移工企業落實防疫工作及員工確診應變處置，勞動部採取以下四大措施：\$\@\$一、增訂企業因應疫情之處置：將修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，並自下列規範公告之日起實施：\$\@\$（一）廠區未發生或部分廠區發生疫情時，應備有1人1室隔離空間、工作區及生活區應分艙分流，同產線移工應同一住宿地點、不得任意變動、每天進行員工健康監測由專人確認、追蹤及轉送疑似症狀者採檢並隔離。\$\@\$（二）廠區有1名員工確診後，應即匡列職場密切接觸者，並確實執行居家隔離於有單獨衛浴設備之套房。衍生隔離費用，必要時將由勞動部部分補貼。\$\@\$二、訪查潛在高風險企業：勞動部偕同地方政府已開始訪查，針對產業聘僱移工人數達50人以上宿舍共計1, 168家，預計6月10日訪查完畢。\$\@\$三、補助移工隔離及宿舍降載：勞動部將補助雇主必要防疫措施的部分費用，包括移工採檢後隔離期間費用，及鼓勵雇主降載移工每房居住人數轉住租賃建物、一般旅館或防疫旅館費用，並協調地方政府受理申請。\$\@\$四、加強宣導防疫措施：已於6月6日以「LINE@移點通」主動推播、發布新聞稿、移工權益網站、1955臉書及多國語廣播電臺，呼籲移工非必要不要外出，提醒桃竹苗地區之家事移工，注意自身健康情形，若有症狀或接觸史，儘速登記快篩。\$\@\$指揮中心表示，近期苗栗縣電子廠之移工群聚感染案件，勞動部已駐點前進指揮所現場，協助個案雇主與仲介公司，加強移工防疫及預防感染擴大：\$\@\$一、清理個案宿舍及進出管制：協助清空共用衛浴之移工宿舍，部分移工送集中檢疫所、部分隔離於其他有獨立衛浴房間，其餘人員禁止外出及限制出房門。\$\@\$二、實地關懷移工給予支持：自6月6日起，派駐雙語人員於前進指揮所，協助疫調翻譯，並每日早晚放送廣播關懷移工、關懷每日健康監測狀況，並啟動隔離移工關懷機制，由1955專線雙語人員主動電話關懷隔離移工情緒給予心理支持，及提供防疫包(溫度計、口罩、消毒用品、家鄉零食、1955專線電話、Line@移點通）。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增214例COVID-19確定病例，分別為211例本土個案及3例境外移入個案。確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之211例本土病例，為106例男性、105例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年5月21日至6月6日。個案分布地區以新北市82例最多，其次為臺北市60例，苗栗縣45例，彰化縣8例，新竹市、桃園市、澎湖縣及基隆市各3例，宜蘭縣、嘉義縣、屏東縣及新竹縣各1例。其中雙北地區以外縣市69例中，64例為已知感染源，1例有萬華區活動史，4例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性20位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月2日，確診日介於5月12日至6月5日，死亡日介於5月31日至6月6日，詳如新聞稿附件。\$\@\$指揮中心表示，今日新增3例境外移入中，案11500、案11501分別為40多歲及20多歲菲律賓籍男性，5月15日來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，6月5日自主健康管理期滿前自費採檢，於今日確診。案11052為本國籍40多歲男性，6月5日自印度返臺，持有搭機前3日內陰性報告，入境時無症狀，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計671,160例新型冠狀病毒肺炎相關通報(含648,841例排除)，其中11,491例確診，分別為1,148例境外移入，10,290例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另49例(新增案10772、10826、10829、11143、11144、11146、11147、11148、11149、11155、11177、11179、11184、11190、11193、11194、11225、11227、11228、11229、11230)移除為空號。確診個案中286例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日宣布，因應本土疫情持續嚴峻，全國疫情警戒第三級延長至6月28日止，請全國民眾與政府共同持續努力，嚴守社區防線。相關措施如下：\$\@\$一、民眾外出應全程佩戴口罩，一經查獲有違反情事，將不再勸導，逕予開罰。\$\@\$二、經公告應關閉的休閒娛樂場所，將嚴查不得營業，並對違法營業的業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$六、關閉休閒娛樂場、觀展觀賽場所及教育學習場域。\$\@\$七、停止室內5人以上、室外10人以上之家庭聚會(同住者不計)和社交聚會，並避免不必要移動、活動或集會。\$\@\$八、自我健康監測，有症狀應就醫。\$\@\$九、營業場所及洽公機關(構)應落實人流管制，戴口罩、保持社交距離。\$\@\$十、職場及工作處所應遵守企業持續營運指引的防疫規定，落實個人及工作場所衛生管理，啟動企業持續營運因應措施，如異地或遠距辦公、彈性時間上班。\$\@\$十一、公共場域、大眾運輸加強清消。\$\@\$指揮中心說明，針對近期醫院及長照機構感染事件，指揮中心已請全國醫院停止開放探病(例外情形除外)，住院病人的陪病者以1人為限，執行至全國三級警戒降級為止。至於長照機構，除停止開放機構住民探視，也要求非必要性特殊情況，盡量避免住民請假外出，並強化門禁管理，避免不必要的人員進出，同時持續落實每日工作人員、服務對象與陪住人員等體溫及健康監測，掌握其COVID-19暴露風險情形。\$\@\$指揮中心強調，現在是防疫的關鍵時刻，惟有民眾與政府互相配合、共同抗疫，才可控制疫情，維護全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，目前我國COVID-19疫苗優先提供公費對象接種，民眾不用負擔疫苗費用，6月7日起也無須負擔其他行政費用。未來將會依序逐漸擴大至全體國民皆能公費接種，目前更無自費接種規劃，並無所謂「自費負擔」之問題存在。今(2021)年5月31日經立法院三讀通過的「嚴重特殊傳染性肺炎防治及紓困振興特別條例」，加上去年所編列之疫苗預算，行政院已編列共約340億用來購買全民公費疫苗，今年則額外編列約40億元預算，用以負擔疫苗接種所需之醫療院所行政費用，讓符合公費資格者，在面對疫情挑戰時，不用擔心還要花錢施打疫苗。\$\@\$指揮中心表示，現階段開放的公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放的公費對象，也將視疫苗供應充裕情況，逐步列入公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增335例本土COVID-19確定病例，另有校正回歸本土個案8例，總計343例。確診個案中新增36例死亡。\$\@\$指揮中心表示，今日新增之335例本土病例，為189例男性、146例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月24日至6月5日。另校正回歸個案8例中，為3例男性、5例女性，年齡介於20多歲至60多歲，發病日介於6月1日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共343例，分布地區以新北市160例最多，其次為苗栗縣75例、臺北市64例、桃園市16例、宜蘭縣9例、雲林縣、高雄市、彰化縣及新竹縣各3例，基隆市、臺中市及臺南市各2例，嘉義市1例。其中雙北地區以外縣市119例中，107例為已知感染源，7例關聯不明、5例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增36例死亡個案，共計為男性22位、女性14位，年齡介於50多歲至90多歲，發病日介於5月7日至6月1日，確診日介於5月13日至6月5日，死亡日介於5月28日至6月4日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計656,768例新型冠狀病毒肺炎相關通報(含634,762例排除)，其中11,298例確診，分別為1,145例境外移入，10,100例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另28例(新增案10494)移除為空號。確診個案中260例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日表示，針對苗栗縣電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、所有外籍移工停止上班，居家隔離，薪資照付。\$\@\$二、高風險區移工安排入住集中檢疫所；中低風險區就地居家隔離，並進行健康監控。\$\@\$三、本國籍員工確診者立即進行疫調，匡列接觸者，依規定進行隔離。其餘員工，加強健康監控。\$\@\$四、所有確診者皆已完成就醫安置。\$\@\$五、經工業局、防疫醫師及廠方進行會勘，依防疫計畫有條件降載復工。\$\@\$指揮中心指出，截至6月5日，第1家電子公司共計182案確診 (24名本國籍、158名外國籍），已匡列接觸者399名；第2家電子公司共計12案確診 (均為外國籍)；第3家電子公司共計12案確診 (2名本國籍、10名外國籍)。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關COVID-19確診及死亡個案資訊都有公開，所有確診個案已於5月30日及6月1日公布，死亡個案亦於5月31日公布，絕未有隱匿疫情不公布之情事。對於民眾及死者家屬造成誤會，已請衛生單位與其聯絡說明並表達歉意。\$\@\$指揮中心表示，1922若接獲民眾進線詢問就醫疑問或需求，都會提供民眾所在地方衛生單位電話，以利地方衛生單位及時安排就醫事宜。如民眾聯繫衛生單位發現電話無法接通等問題，均可隨時撥打1922專線，由專人協助處理。\$\@\$指揮中心指出，抗病毒藥物瑞德西韋自6月1日起，醫院已可存放，目前存放醫院有：臺大醫院、臺北市立聯合醫院5院區、新北市立聯合醫院、亞東醫院、馬偕醫院(台北、淡水)、陽明交通大學附設醫院、部立臺北醫院、林口長庚醫院。主治醫師經評估有使用本藥劑需求，即可直接領用存放於醫院之藥劑。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$鑒於本土疫情嚴峻，應絕對禁止廠區和廠區間的移工流動。中央流行疫情指揮中心今(5)日表示， 地方政府及勞動部應協助苗栗某電子廠公司的移工避免離開宿舍，並於這段期間與地方政府合作，減少移工不必要的外出，以減少移工群聚發生。\$\@\$指揮中心指出，請雇主及仲介公司自即日起，配合辦理下列事項：\$\@\$一、自即日起針對移工非必要轉換至新雇主之作業，於第三級警戒期間暫緩作業。\$\@\$二、自即日起針對同一雇主不同廠區間的派工，於第三級警戒期間暫緩調派。\$\@\$三、確實依照勞動部發布嚴重特殊傳染性肺炎雇主聘僱移工指引，辦理防疫作業。\$\@\$指揮中心強調，基於國內防疫安全，近期將由勞動部與地方政府針對移工人數達五百人以上企業與百人以上大型移工宿舍進行訪查，實地督導雇主與仲介業者落實防疫指引，並請勞動部規劃補助企業改善宿舍防疫環境，以強化防疫量能。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，針對苗栗縣2家電子公司廠房發生COVID-19群聚事件，指揮中心已於昨(4)日設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關作為如下：\$\@\$一、加速篩檢執行：昨日經動員後於第1家電子公司共開設18條篩檢線，每小時可執行350-500人次篩檢，截至昨日（6/3-6/4）共完成採檢4,599人，累計抗原快篩陽性59人，其中PCR檢驗共56人陽性確診、3人陰性。今日進行其餘約2,451人之採檢，截至中午尚餘約1,500人待採，將於今日完成採檢工作。\$\@\$二、宿舍、職場及外部風險評估及安置：針對第1家電子公司確診個案之宿舍及廠區分布，劃定風險區域，安排相關宿舍樓層之清空及人員區隔安置，密切接觸者送集中檢疫所或防疫旅館居家隔離，今日預計移出280位。另第2家電子公司之相關接觸者已匡列安排隔離安置及採檢，該公司亦於今天展開全員約4千人篩檢。\$\@\$三、由經濟部即刻派遣產業專家進駐前進指揮所，協助防疫醫師與電子場規劃廠區作業、休息及用餐等活動之分艙分流，如無法執行，即要求停工。\$\@\$四、由勞動部即刻派員確保仲介公司之移工管理，落實住宿人數降載及確保分艙分流，並就仍需共用衛浴之宿舍環境問題予以解決；移工宿舍人員禁止外出部分，加強管理並協調警政協處。\$\@\$五、為避免本國勞工將疫情帶入社區，請該公司緊急通知員工留置家中，如家庭環境無法落實一人一室者，公司應協助安排合適住宿地點。\$\@\$指揮中心指出，截至6月4日，第1家電子公司共計131案確診（14名本國籍、117名外國籍），已匡列接觸者323名，均已採檢；第2家電子公司共計9案確診。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增476例COVID-19本土個案確定病例；另有校正回歸本土個案35例，總計511例。確診個案中新增37例死亡。\$\@\$指揮中心表示，今日新增之476例本土病例，為248例男性、205例女性，另有23例外籍人士性別待確認，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月15日至6月4日。另校正回歸個案35例中，為15例男性、20例女性，年齡介於未滿10歲至80多歲，發病日介於今年5月24日至6月1日。\$\@\$指揮中心指出，綜上所有本土個案共511例，以新北市229例最多，其次為臺北市144例，苗栗縣66例，桃園市16例，基隆市13例，彰化縣11例，臺中市9例，新竹縣7例，屏東縣4例，南投縣、高雄市及嘉義縣各3例，新竹市、雲林縣及臺南市各1例。其中雙北地區以外的縣市，138例中121例已知感染源，16例關聯不明，1例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增37例死亡個案，共計為男性25位、女性12位，年齡介於30多歲至90多歲，發病日介於5月2日至5月30日，確診日介於5月15日至6月2日，死亡日期介於5月23日至6月2日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計636,500例新型冠狀病毒肺炎相關通報(含614,742例排除)，其中10,956例確診，分別為1,145例境外移入，9,758例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另27例(新增案9984)移除為空號。確診個案中224例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月5日新增死亡COVID-19確診個案表 - 更正版.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$疾病管制署表示，國內近期受鋒面及熱帶低氣壓影響，各地皆有豪大雨發生，加以氣溫偏高，利於病媒蚊生長。疾管署呼籲，民眾平時應做好環境孳生源清除，及做好防蚊措施，如有疑似症狀儘速就醫，避免讓登革熱有機可乘。\$\@\$疾管署統計，今(2021)年截至目前累計5例登革熱病例，均為境外移入，分別自菲律賓、越南、印尼及柬埔寨移入，目前尚無本土病例；同期累計病例數低於2018-2020年(72、179、53例)。\$\@\$疾管署表示，近日國內各地持續有降雨機會，雨後若未及時清理環境積水容器，易成為病媒蚊孳生的溫床，籲請民眾雨後應落實「巡、倒、清、刷」，仔細巡視戶內外容器，是否有潛在孳生源，如花瓶、花盆底盤、廢棄瓶罐、水桶、運動場設施的廢輪胎、樹洞、竹筒及植物葉腋(檳榔、椰子落葉)、黃金葛或萬年青水瓶等，並澈底清除，以降低病媒蚊孳生的風險。若有運用水桶、儲水箱等容器儲水，務必加蓋或是覆蓋細紗網，並須留意紗網不可接觸水面，避免成為孳生源。\$\@\$民眾如出現疑似登革熱症狀，應儘速就醫，並主動告知旅遊活動史。也請醫療院所提高警覺，加強詢問就診者之TOCC(旅遊史、職業史、接觸史、群聚史)，並可使用登革熱NS1快篩試劑輔助診斷並及早通報，以利衛生單位採取防治工作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，因應國內疫情持續嚴峻，為利醫療院所照護COVID-19重症個案，指揮中心於今日上午10時辦理「COVID-19 Clinical Rounds：新冠病毒重症個案臨床處置」線上課程，由臺大醫院新竹臺大分院余忠仁院長主持。課程內容包括臺大醫院新竹臺大分院余忠仁院長主講「新型冠狀病毒(COVID-19)重症個案臨床處置」；及臺大醫院隔離加護病房主任阮聖元主任主講「新型冠狀病毒(COVID-19)個案之隔離加護病房照護實務經驗分享」，總計約3,900名急重症醫師及照護團隊共同線上參與，且踴躍提出臨床實務問題，並由講者現場即時回應。\$\@\$指揮中心指出，為強化COVID-19急重症臨床處置，指揮中心提供急重症醫療照護團隊不受時間和地點限制的學習平台，錄製數位學習課程，急重症醫療照護團隊可運用手機、平版、電腦等電子裝置進行線上學習，本課程已置於衛生福利部疾病管制署全球資訊網/嚴重特殊傳染性肺炎(COVID-19)防疫專區/數位學習課程( http://at.cdc.tw/x0l31N ) 專區，或點選網址( https://youtu.be/UyHsM82JU-c )，歡迎各界多加利用。\$\@\$指揮中心再次呼籲，重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊要顧好自己，也要顧好隊友，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增341例COVID-19確定病例，分別為339例本土個案及2例境外移入個案；另有校正回歸本土個案133例，總計474例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之339例本土病例，為170例男性、169例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月1日至6月3日。另校正回歸個案133例中，為57例男性、76例女性，年齡介於未滿5歲至80多歲，發病日介於5月18日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共472例，分布地區以新北市227例最多，其次為臺北市152例、苗栗縣51例、桃園市11例、臺中市及基隆市各7例、彰化縣6例、新竹市及南投縣各2例，花蓮縣、宜蘭縣、新竹縣、屏東縣、高雄市、嘉義縣及雲林縣各1例。其中雙北地區以外縣市93例中，1例有萬華活動史，76例為已知感染源，14例關聯不明、2例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，共計為男性14位、女性7位，年齡介於30多歲至90多歲，發病日介於5月15日至5月27日，確診日介於5月21日至5月30日，死亡日介於5月27日至6月2日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案10211為越南籍30多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日檢疫期滿採檢，於今日確診；個案在臺期間並無症狀，已掌握接觸者7人，列居家隔離。案10470為印尼籍40多歲男性，5月14日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，5月29日檢疫期滿由公司安排自費採檢，結果為陰性；因工作需要，6月3日再度至醫院自費採檢，於今日確診；個案在臺期間並無症狀，接觸者調查匡列中。\$\@\$指揮中心統計，截至目前國內累計606,921例新型冠狀病毒肺炎相關通報(含585,272例排除)，其中10,446例確診，分別為1,145例境外移入，9,248例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另26例(新增案9199、案9868)移除為空號。確診個案中187例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，針對苗栗縣某電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、前進指揮所指派衛福部醫福會執行長王必勝擔任指揮官，並由疾管署防疫醫師介入指導緊急防疫措施及疫調。\$\@\$二、請仲介公司儘速盤點移工名單，以利各相關電子廠預作準備及人員分流。各相關電子廠及宿舍須增設篩檢點，加速找出個案，快篩陽性者優先送至集中檢疫所及加強型防疫旅館，快篩陰性者加強衛教，相關翻譯作業已請勞動部協處。\$\@\$三、相關移工宿舍人員於近三日（6月4、5、6日）休假，禁止外出；移工宿舍內部需進行人員降載、分流，擴大社交距離。廠區工作須將移工與本國勞工分流，避免造成進一步社區傳染。\$\@\$四、請地方落實大量篩檢之檢體分流作業，確保檢驗結果即時通報上傳，並須保留及擴大醫療收治量能，為後續收治重症病患預做準備。\$\@\$指揮中心表示，5月30日接獲該電子廠通報，有2名居住在公司宿舍的菲律賓籍移工採檢陽性，衛生單位隨即進行擴大匡列與採檢。截至6月3日，該電子廠共計67名確診個案（含8名本國籍、59名菲律賓籍)，已匡列接觸者323名，並已採檢321人。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，日本政府提供124萬劑AstraZeneca疫苗預定於今日下午2時40分運達桃園國際機場。本批疫苗待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此疫情艱難，且全球疫苗產能供不應求之際，對於日本即時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關強化全國指定檢驗網PCR量能及分流，指揮中心將持續擴充指定COVID-19檢驗網絡最大量能，建立責任區制與分流機制，包括：同縣市與同區分流、跨縣市與跨區分流、以及人員分工，以提升檢驗網PCR檢驗量能及消化積件壓力。\$\@\$二、有關地方建置加強型防疫旅館規格將比照集中檢疫場所，派駐相關維護安全作業之地方員警及其他相關工作人員，原則比照集中檢疫場所處理機制，可申請相關防疫津貼。\$\@\$三、鑒於部分縣市發生企業群聚案件，提醒各地方政府如有類此案件發生應儘快完成篩檢作業，以及確實進行相關隔離作為，並要求企業、團體落實員工自主健康管理，遵守防疫相關措施，預防群聚事件再度發生。\$\@\$四、各地方社區採檢站之設置運用人力，請以基層醫事人力為主，儘量避免運用醫療院所人力，以利醫療量能有效運用；另各地集中檢疫場所病患之安置，應以源頭進行分流。\$\@\$五、為加快疫調速度，儘速掌握確診者足跡，請各地方政府成立客服中心，強化及組織公衛人力運用，有效進行確診者足跡前端掃瞄追蹤作業，以利及早掌握確診者足跡，匡列出可能遭感染者，有效圍堵疫情。\$\@\$六、針對疫苗配發接種，請各地方政府依報送指揮中心之造冊對象順位依序施打；另指揮中心完成疫苗檢驗封緘作業，將儘速撥發地方安排進行接種事宜。\$\@\$七、外傳各地方仍有賽事進行，為顧及國內防疫安全，請各地方政府協助宣導，暫緩舉辦此類非必要性活動。\$\@\$八、端午連假將至，疫情指揮中心呼籲，民眾以視訊問候家人方式取代返鄉團聚，也將請交通部與高鐵、台鐵及公路運輸業者聯繫協調，將連假期間的公共運輸量進行降載，以避免民眾流動導致病毒傳染散布。\$\@\$九、賣場及傳統市場為COVID-19高風險傳染區域，為避免成為防疫破口，請各縣市政府呼籲民眾少去多買、一次購足。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增366例COVID-19確定病例，分別為364例本土個案及2例境外移入個案；另有校正回歸本土個案219例，總計585例。確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之364例本土病例，為186例男性、178例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月28日至6月2日。另校正回歸個案219例中，為120例男性、99例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月31日。\$\@\$指揮中心指出，綜上所有本土個案共583例，分布地區以新北市265例最多，其次為臺北市224例、苗栗縣34例、桃園市30例、彰化縣15例、臺中市5例、基隆市4例、臺南市2例，新竹市、花蓮縣、宜蘭縣及高雄市各1例。其中雙北地區以外縣市94例中，77例為已知感染源，14例關聯不明、3例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，共計為男性13位、女性4位，年齡介於40多歲至90多歲，發病日介於5月12日至5月25日，確診日介於5月14日至5月27日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案9567為印尼籍20多歲男性，5月5日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，在臺期間並無症狀，於25日自主健康管理期滿前，由公司安排自費採檢結果為陰性，後因工作需要，6月1日再次自費採檢，於今日確診；已掌握個案接觸者32人，其中21人列居家隔離，餘11人列自我健康監測。案9883為越南籍20多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計578,935例新型冠狀病毒肺炎相關通報(含556,055例排除)，其中9,974例確診，分別為1,143例境外移入，8,778例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例移除為空號。確診個案中166例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月3日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$針對雙和醫院有護理人員遭受暴力致傷事件，行為人已嚴重違法，檢警已積極發動公權力偵辦，追究行為人之民、刑事責任。醫療機構在疫情期間擔負起重要任務，傾全力照護病患、搶救生命，衛生福利部今（2）日針對此違法行為亦嚴厲譴責，強調該行為不管在平時或疫情期間都不應存在，於法將予以嚴懲，亦會強化醫院及醫護之安全，保障醫護權益。\$\@\$目前針對疫情期間所發生之醫療暴力事件，衛福部基於對傷者慰助，將修正「執行第五類傳染病防治工作致傷病或死亡補助辦法」，將醫護人員執行防疫工作時遭受暴力所生損害納入得補助事項。相關防疫醫護人員的傷病，亦會由中央全力補助治療與休養期間的薪資。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，為保障國人健康，使國民即早獲得群體免疫保護力，將推動COVID-19疫苗大規模接種作業，並陸續辦理整備作業，包含三大面向：\$\@\$一、    持續擴增COVID-19疫苗接種合約醫療院所，納入基層診所共同提供接種服務。\$\@\$二、    訂定「COVID-19疫苗接種站設置作業指引」，推動包含社區接種站、大型接種站及外展服務等疫苗接種站設置，並透過醫療院所人力及衛生福利部護理及健康照護司所招募籌備之疫苗注射護理隊人力，共同協助設置工作。未來公務機關、軍營及企業等，可藉由外展服務，安排疫苗接種以即早獲得保護力。\$\@\$三、    建立「疫苗接種預約平台」，提供民眾預約服務，增進接種便利性。\$\@\$指揮中心表示，後續疫苗逐續到貨，將運用大規模接種作業，推動COVID-19疫苗全民接種，保障全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，針對近期國內接種AstraZeneca COVID-19疫苗後嚴重不良反應事件，衛生福利部傳染病防治諮詢會預防接種組(ACIP)已於5月31日召開專家諮詢會議進行討論，確認我國首例因接種AstraZeneca COVID-19疫苗後，引發血栓併血小板低下症後群(Thrombosis with Thrombocytopenia Syndrome, TTS)之案例。該名民眾經臨床警覺與及時診治，症狀已改善並轉至普通病房持續觀察中。與會專家於綜整相關資料後表示，截至目前國內AstraZeneca COVID-19已接種461,647人次，本例為我國首例TTS個案，發生率為百萬分之2.1，其他國家如英國於接種第一劑後TTS發生率約百萬分之12.3(截至5月1日)，歐盟則為百萬分之6.5(截至4月4日)，建議指揮中心應持續監測疫苗接種不良反應事件，並建議符合接種對象之民眾應配合疫苗供應進度，接種COVID-19疫苗。\$\@\$指揮中心說明，本案為30多歲男性，於5月12日接種第一劑AstraZeneca COVID-19疫苗後，曾出現發燒等身體不適症狀，於3日後逐漸緩解。自５月19日起，出現微燒、持續頭痛、腹痛等症狀，就醫抽血檢查後，發現血小板低下，D-dimer異常升高等，同步影像學檢視頭部、腹部雖未發現血栓病兆，經臨床研判依「血栓併血小板低下症候群(Thrombosis with Thrombocytopenia Syndrome, TTS)臨床指引」及時診治，個案目前血小板值恢復中，狀況穩定。本案經專家審查，符合布萊頓合作組織(Brighton Collaboration)病例定義，研判為我國首例TTS個案。\$\@\$指揮中心呼籲，接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增372例本土COVID-19確定病例，另有校正回歸本土個案177例，總計549例。確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之372例本土病例，為207例男性、165例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月2日至6月1日。另校正回歸個案177例中，為96例男性、81例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月30日。\$\@\$指揮中心指出，綜上所有本土個案共549例，分布地區以新北市310例最多，其次為臺北市152例、桃園市28例、基隆市18例、苗栗縣12例、彰化縣10例、高雄市5例、臺東縣4例、臺中市3例，新竹縣及臺南市各2例，新竹市、南投縣及花蓮縣各1例。其中雙北地區以外縣市87例中1例有萬華活動史，65例已知感染源，21例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，共計為男性7位、女性5位，年齡介於60多歲至90多歲，發病日介於5月13日至5月29日，確診日介於5月16日至6月1日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計551,478例新型冠狀病毒肺炎相關通報(含524,385例排除)，其中9,389例確診，分別為1,141例境外移入，8,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例(新增案7666、案8854)移除為空號。確診個案中149例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，連江縣政府5月31日、澎湖縣、金門縣政府6月1日逕為公告入境旅客接受COVID-19抗原快篩一事，此舉違反「傳染病防治法」第17條第1項及第37條第3項等相關法律規定，於中央流行疫情指揮中心成立期間，應依中央流行疫情指揮中心指揮官之指示辦理，已由衛生福利部依行政程序法第117條規定予以撤銷其公告。\$\@\$指揮中心說明，為達防疫工作之事權統一，按「傳染病防治法」第17條第1項規定，中央主管機關經考量國内、外流行疫情嚴重程度，認有統籌各種資源、設備及整合相關機關(構)人員之必要時，得報請行政院同意成立中央流行疫情指揮中心，並指定人員擔任指揮官，統一指揮、督導及協調各級政府機關、公營事業、後備軍人組織、民間團體執行防疫工作；必要時，得協調國軍支援；同法第37條第3項規定，於中央流行疫情指揮中心成立期間,應依中央流行疫情指揮中心指揮官之指示辦理。\$\@\$指揮中心指出，指揮中心前於今(110)年5月17日函請各地方政府，於嚴重特殊傳染性肺炎中央流行疫情指揮中心成立期間，務請遵循傳染病防治法相關規定程序公布防疫措施，若有需依「傳染病防治法」第37條第1項規定採行相關防疫措施，仍請地方政府遵循「傳染病防治法」第37條第3項規定，應依指揮官指示辦理，以利整體防疫業務之執行。又檢疫政策之決定依「傳染病防治法」第5條第1項第1款第1目之規定，是屬中央主管機關權責，地方政府應依中央主管機關之決策，始得據以執行，而指揮官近日也公開宣示：「中央決策、地方執行」，此乃權限分際的原則問題。\$\@\$指揮中心強調，值此疫情嚴峻時刻，對國內跨縣市移動採取人員進出之管制作為，或要求民眾強制篩檢等，均屬全國一致性之重要政策，指揮官再三強調中央與地方應「標準一致、說法一致、腳步一致」防疫原則，且已建立全國疫情會議機制，統合協調，避免各自為政，致生雜沓混亂影響整體防疫，為統一事權並維護法制，不得不撤銷上開違法公告。該等縣政府如仍有地方防疫之特殊需求，請正式提出計畫報請指揮官指示辦理，以符合權責並完備法律程序。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增267例COVID-19確定病例，分別為262例本土個案及5例境外移入個案；另有校正回歸本土個案65例，總計332例。確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之262例本土病例，為136例男性、126例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月20日至5月31日。另校正回歸個案65例中，為31例男性、34例女性，年齡介於未滿5歲至90多歲，發病日介於5月20日至5月30日。\$\@\$指揮中心指出，綜上所有本土個案共327例，以新北市166例最多，其次為臺北市87例，桃園市23例，彰化縣12例，臺中市10例，基隆市8例，宜蘭縣5例，嘉義縣4例，花蓮縣、臺東縣各3例，苗栗縣2例，臺南市、澎湖縣、高雄市及新竹縣各1例。其中253例有雙北活動史，其餘縣市74例中1例有萬華活動史，55例已知感染源，18例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案（案1757、1993、2580、2786、2993、3145、3546、4102、6517、6562、6932、7483、7793），共計為男性10位、女性3位，年齡介於60多歲至80多歲，發病日介於5月13日至5月27日，確診日介於5月17日至5月29日，死亡日期介於5月24日至5月31日，詳如新聞稿附件。\$\@\$指揮中心指出，新增5例境外移入個案，為3名男性(案8766、8767、8854)、2名女性(案8856、8864)，均為20多歲菲律賓籍人士，入境時持有3日內檢驗陰性報告，入境後至檢疫旅館居家檢疫，在臺期間並無症狀。案8766、案8767於5月10日來臺工作，31日自主健康管理期滿自費採檢，於今日確診。案8854於4月27日來臺工作，5月31日因工作需求自費採檢，於今日確診。案8856、案8864於5月11日來臺工作，31日自主健康管理期滿後自費採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計522,816例新型冠狀病毒肺炎相關通報(含488,696例排除)，其中8,842例確診，分別為1,142例境外移入，7,647例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另22例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096、8343)移除為空號。確診個案中137例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月1日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、指揮中心均依各地方政府之請撥，全數撥交防疫物資數量，並同意各地方醫療院所調高防疫物資安全存量；此外自今日起配發雙北市2倍安全存量，請各地方政府持續關注各醫療院所及第一線防疫人員口罩使用情形，以符合防疫相關指引規定。另鑒於汛期已屆，也提醒地方政府妥適保存防疫物資，防止物資受潮毀損。\$\@\$二、為利COVID-19重症確診者之收治，請各地方政府衛生局配合，每日利用google表單將確診者動向回報指揮中心，以掌握資訊及有效進行醫療資源分配；另鑒於雙北市重症收治個案眾多，將要求各重度級急救責任醫院加開專責ICU病房；高風險區域須跨區轉診就醫者，則運用醫療綠色通道配對協助轉診，相關轉診所運用之民間救護車輛費用由指揮中心支應。\$\@\$三、企業辦理抗原快篩檢測係屬企業內部對員工健康監測之一環，採企業自主與篩檢自費方式進行，且需由醫事人員執行採檢。考量抗原快篩仍有偽陽或偽陰性機率，企業執行抗原快篩時，如為陽性者，依規定須進行通報及PCR檢測，同時也須提供隔離安置場所，例如返回可隔離的宿舍或居家隔離(一人一室為原則)，也可安置於防疫旅館，等待PCR檢驗結果，降低傳染風險；如為陰性者，仍需進行自我健康監測。指揮中心將於近日對外發布企業快篩指引供各界遵循。\$\@\$四、針對臺北松山、臺中、嘉義、臺南及高雄小港等5個航空站設立篩檢站等事宜，昨(5/31)日由指揮中心邀集交通部、各航空站及地方政府衛生局共同研議，重點包括：\$\@\$1、由交通部研議縮減往返澎湖、金門、馬祖等離島3縣市航班之可行性，減少民眾不必要之跨區域移動，降低傳播風險。\$\@\$2、「因應新冠肺炎(COVID-19)疫情國內機場飛往離島執行快速篩檢」作業，將依傳染病防治法相關規定於今(6/1)日完成公告等法制程序，並自6月2日起實施。\$\@\$3、臺東航空站是否比照進行快篩，已請臺東縣政府本於職權，依指揮中心所訂原則與實施基準辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日表示，因應國內近期持續出現本土COVID-19確診個案，為避免疫情散播及確保航空器防疫安全，指揮中心經評估後，將同意交通部民航局所屬臺北松山、臺中、嘉義、臺南及高雄小港航空站設立篩檢站。旅客搭乘國內航線前往離島時，應於搭機前填寫「健康聲明書」，現場有症狀者不可搭機，且應配合病毒核酸檢測；若為過去14天內有症狀者，須現場配合接受抗原快篩檢驗且為陰性，始得搭機。經抗原快篩檢驗陽性的旅客，將由航空站安排搭乘防疫計乘車送至衛生單位指定防疫旅館或集中檢疫所。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增278例COVID-19確定病例，分別為274例本土個案及4例境外移入個案；另有校正回歸本土個案73例，總計351例。確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為129例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月30日。另校正回歸個案73例中，為36例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於5月14日至5月29日。\$\@\$指揮中心指出，綜上所有本土個案共347例，以新北市171例最多，其次為臺北市122例，桃園市27例，彰化縣10例，臺中市5例，基隆市及苗栗縣各3例，新竹市2例，花蓮縣、澎湖縣、高雄市及新竹縣各1例。其中293例有雙北活動史，其餘縣市54例中2例有萬華活動史，46例已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案（案1778、2111、2616、2656、2658、2795、3143、4936、5698、5732、6803、7140、7277、8031、8134），共計為男性9位、女性6位，年齡介於60多歲至90多歲，發病日介於5月11日至5月28日，確診日介於5月17日至5月30日，死亡日期介於5月21日至5月29日，詳如新聞稿附件。\$\@\$指揮中心指出，新增4例境外移入個案中，皆持有登機前3日內檢驗陰性報告。案8419、案8531、案8532分別為本國籍30多歲男性、50多歲女性及50多歲男性，分別曾於4月29日(案8531)、5月10日(案8419、8532)出現相關症狀，3名個案於5月29日自印度返臺，入境後至檢疫所集中檢疫並採檢，於今日確診。案8434為本國籍40多歲男性，5月14日自南非返臺，入境後至防疫旅館進行居家檢疫，29日出現相關症狀，由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計502,354例新型冠狀病毒肺炎相關通報(含466,018例排除)，其中8,511例確診，分別為1,137例境外移入，7,321例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中124例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月31日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，疫苗自製自用是國家既定政策，未來COVID-19流感化是必然的趨勢，國家必須掌握COVID-19疫苗為戰略物資，本次所有疫苗，包括政府之前對外採購的國外疫苗，均為預採購模式。\$\@\$指揮中心說明，針對AstraZenca及Moderna疫苗，該二疫苗是在第二或第三期臨床實驗未完成前，即進行預採購。\$\@\$指揮中心指出，衛生福利部疾病管制署於今(2021)年5月28日與高端疫苗生物製劑有限公司及聯亞生技開發股份有限公司簽訂「國內COVID-19疫苗採購契約」，每家各500萬劑疫苗，並視未來疫情需求，納入後續擴充每家各500萬劑疫苗。\$\@\$指揮中心強調，考量疫苗接種涵蓋率是充分發揮防治效益的關鍵因素，爰以涵蓋我國人口之65%為規劃，預計為1,500萬人接種，以每人2劑估算，需3,000萬劑疫苗。目前已完成採購COVAX、AstraZenca及Moderna疫苗約2,000萬劑，需再採購1,000萬劑。截至5月28日衛福部取得87.66萬劑進口疫苗，但評估現階段國外疫苗供應時程難以確認，相較之下，採購國產疫苗可確實掌控疫苗供貨時程。\$\@\$指揮中心指出，因全球疫苗生產原物料短缺，疫苗的生產及檢驗至少需要2-3個月的作業程序，為避免因等待疫苗研發程序完成，屆時無法購得原物料而喪失即時生產疫苗的時機，因此基於保障國人最佳利益前提下，以預購模式向國內外廠商採購COVID-19疫苗，以預先保有所需之疫苗數量，俾利廠商於取得專案核准製造許可後，可儘速提供國人接種，保障國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，為積極防治國內COVID-19疫情，針對中央機關、地方政府及醫療院所之防疫物資需求，均會全力支援並儘速供應，與地方政府共同攜手為守護第一線人員及國人健康而努力。據指揮中心統計，自今(2021)年5月3日至5月27日期間，已撥配一般醫用/外科口罩4508餘萬片、N95口罩240萬餘個、隔離衣161萬件、防護衣約27萬餘件，共計逾4900萬個/件。\$\@\$指揮中心指出，為爭取防疫時效、加速防疫物資撥發效率，撥發中央機關、地方政府及醫療院所之防疫物資，除增加原來定期性撥配數量與頻率外，另依觀光局提供地方防疫旅宿房間數、COVID-19確定病例數計算，主動撥配物資予各地方政府統籌撥發轄區醫療院所、防疫旅宿及公務機關作為防疫及醫療使用。指揮中心亦會依中央機關、地方政府、醫療院所緊急防疫需求，額外撥發所需物資。\$\@\$為因應COVID-19病患之醫療照護需要，指揮中心針對特定緊急需要，已緊急採購血氧機、呼吸器、製氧機及採檢亭等醫療器材、設施，提供病患及醫護人員更妥適之照護及工作環境，維護民眾與醫護人員的健康。\$\@\$另，為使防疫物資撥發資訊透明化，讓醫療院所能了解物資撥配情形，自6月1日起，物資撥配資料將公布於衛生福利部疾病管制署網站「COVID-19防疫專區」，供各界查閱。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增266例本土COVID-19確定病例，另有校正回歸本土個案89例，總計355例。確診個案中新增10例死亡。\$\@\$指揮中心表示，今日新增之266例本土病例，為123例男性、143例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至5月29日。另校正回歸個案89例中，為42例男性、47例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共355例，以新北市193例最多，其次為臺北市85例，桃園市24例，苗栗縣、臺中市及彰化縣各9例，基隆市8例，花蓮縣6例，南投縣4例，嘉義縣3例，連江縣、臺東縣、宜蘭縣、新竹市及高雄市各1例。其中萬華活動史相關20例、茶藝館相關1例，其他已知感染源118例、關聯不明47例、疫調中169例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增10例死亡個案（案1574、3972、4092、4798、4832、5288、5682、5690、6631、6907），共計為男性9位、女性1位，年齡介於60多歲至80多歲，發病日介於5月6日至5月25日，確診日介於5月16日至5月28日，死亡日期介於5月24日至5月29日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計492,142例新型冠狀病毒肺炎相關通報(含454,051例排除)，其中8,160例確診，分別為1,133例境外移入，6,974例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中109例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，國際疫苗廠於全球各地設廠，並因應各國規定有不同的標示。我國購買的Moderna疫苗為歐洲廠生產，該廠生產的疫苗標示為「產品批號」及「有效日期」，而美國廠疫苗標示為「產品批號」及「生產日期」，兩者所使用的疫苗標示顯然不同。而日前網友看到的美國Moderna網站，係提供在美接種疫苗者做查詢，因此不適用於查詢我國購買的Moderna疫苗。\$\@\$指揮中心強調，我國購買的Moderna疫苗皆為原廠進口，來源清楚且可靠，經各項疫苗檢驗封緘作業，並注重運送及儲存等條件，確保國人用藥品質安全無虞，請國人安心接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$因應國內近期持續出現本土COVID-19群聚事件及感染源不明的確診病例，經多方討論，中央流行疫情指揮中心今(30)日公布「各地方政府設置社區篩檢站補助要點」，鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高之地區為考量，針對具有確診個案相關接觸史、活動史之無症狀民眾為主要篩檢對象，另為保全重度級急救責任醫院收治量能，社區篩檢站之設置，請考量於社區健康中心或其他非重度級急救責任醫院設置為主，並考量通風良好之場所。相關設置規定，指揮中心將訂頒「各地方政府社區篩檢站設置指引」。\$\@\$自即日起，地方政府衛生局可透過衛生所或健康服務中心依下列補助原則辦理：\$\@\$一、每一篩檢站補助設備費用（包括帳篷等）新臺幣（下同）20萬元，每案相關行政費用（包括掛號、採檢、通報等費用）補助500元。\$\@\$二、支援採檢醫師6,000元/班、護理師或其他醫事人員3,500元/班，每班以4小時計。\$\@\$三、每站每班其他人員（行政、清潔各1人），每人每日2,000元。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日表示，關於「地方政府或企業申請COVID-19疫苗專案輸入流程」議題，指揮中心已多次說明，有關疫苗的輸入申請，有嚴謹的條件與規定，除應有原廠的授權，也必須依照食品藥物管理署召開專家會議審查，且最終須依照指揮中心防疫政策使用，任何民間單位、縣市政府的申請也都必須符合同樣的嚴謹程序。因此，基於保障國民健康安全，疫苗政策應秉持「由中央政府與原廠簽約採購」、「由中央政府統籌分配執行」兩大基本原則，此涉及疫苗安全、法律責任與接種部署三大層面：\$\@\$一、疫苗安全：\$\@\$COVID-19是全球重大流行疫病，為了確保國民健康安全，相關疫苗的取得，因為涉及嚴謹的緊急授權程序以及供應配送等相對嚴格的技術要求，為維護國人健康，保障國家整體之安全，我國疫苗政策與各國相一致，皆由中央政府依權責與專業統籌辦理。\$\@\$二、法律責任：\$\@\$依照「傳染病防治法」第 5條，傳染病防治政策及計畫，包括「預防接種」均是中央主管機關權責；此外，依照「藥事法」第 48-2 條規定意旨，製造或輸入緊急的疫苗藥物，其專案核准權限也屬中央主管機關。因此，有關疫苗的取得、分配與接種，均應由中央統籌，並與地方政府密切合作。\$\@\$三、接種部署：\$\@\$疫苗的購買與施打，涉及嚴格的供貨、冷鏈以及專業人力丶物力的規劃部署，必須配合國家整體防疫策略，施打有序，以確保供應分配的安全性、有效性及公平性，因此執行層面也都必須由中央統籌處理。\$\@\$指揮中心強調，對於近來有企業、宗教或社會團體表示願意出資購買海外原廠疫苗捐贈政府使用，或提供管道途徑，媒合促成向原廠採購者，政府均表達高度感謝與肯定。但為確保國人的安全健康，並達到國家整體防疫的成效，中央的疫苗政策是統一由政府向原廠採購，統籌分配使用，這也是絕大多數國家所採取的基本原則。由政府與原廠直接簽約採購，確保原廠對政府直接負疫苗安全與法律的責任。企業、宗教等民間團體的捐贈，以及地方政府的採購，也需採取同樣原則處理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增327例COVID-19確定病例，分別為320例本土個案及7例境外移入個案；另有校正回歸本土個案166例，總計493例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之320例本土病例，為169例男性、151例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月28日。另校正回歸個案166例中，為90例男性、76例女性，年齡介於未滿5歲至90多歲，發病日介於5月6日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共486例，以新北市224例最多，其次為臺北市168例，臺中市33例，桃園市19例，基隆市14例，臺東縣、宜蘭縣各5例，花蓮縣、嘉義縣各4例，苗栗縣3例，新竹縣及彰化縣各2例，雲林縣、高雄市及新竹市各1例。其中萬華活動史相關36例、茶藝館相關2例，其他已知感染源158例、關聯不明49例、疫調中241例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案（案1950、2265、2652、2862、3066、3302、3618、4391、4881、4893、4985、5552、5594、5702、5791、6283、6284、7237、7274、7435、7508），共計為男性13位、女性8位，年齡介於30多歲至90多歲，發病日介於5月11日至5月25日，確診日介於5月17日至5月29日，死亡日期介於5月23日至5月28日，詳如新聞稿附件。\$\@\$指揮中心指出，新增7例境外移入個案，皆持有登機前3日內檢驗陰性報告，且在臺期間並無症狀。案7557為菲律賓籍20多歲男性，5月6日來臺工作， 28日自我健康管理期滿後自費採檢，於今日確診。案7676為本國籍20多歲男性，4月28日自印尼返臺，5月28日因工作所需進行自費採檢，於今日確診。案7805為本國籍40多歲男性，5月15日自印度返臺，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診。案7811、7812、7813、7814為3名菲律賓籍20多歲男性及1名菲律賓籍30多歲男性(案7814)，4人均於5月15日自菲律賓來臺工作，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診 。\$\@\$指揮中心統計，截至目前國內累計470,287例新型冠狀病毒肺炎相關通報(含426,915例排除)，其中7,806例確診，分別為1,133例境外移入，6,620例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另20例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5841、7096)移除為空號。確診個案中99例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，對於日本政府願意在臺灣疫情艱難時刻，有意提供COVID-19疫苗，給予幫助，表達萬分感謝。\$\@\$指揮中心指出，鑒於臺灣疫情仍然嚴峻，在國內COVID-19疫苗的空窗期時，若日本政府願意即時伸出援手，我國一定也會感到非常溫暖，惟相關事宜均尊重日本政府的討論與安排，也希望能夠儘快著手進行後續作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增299例COVID-19確定病例，分別為297例本土個案及2例境外移入個案；另有校正回歸本土個案258例，總計557例。確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之297例本土病例，為157例男性，140例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月27日；個案分布以新北市136例最多，其次為台北市94例，桃園市21例，台中市10例，花蓮縣9例，彰化縣7例，基隆市及台南市各6例，嘉義市2例，新竹縣、屏東縣、台東縣、南投縣、新竹市及高雄市各1例。\$\@\$指揮中心進一步表示，校正回歸個案258例中，為133例男性，125例女性，年齡介於未滿5歲至90多歲，發病日介於5月11日至5月27日；個案分布以新北市141例最多，其次為台北市114例，彰化縣2例，桃園市1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關110例、茶藝館相關9例、某社團相關1例，其他已知感染源181例、關聯不明143例、疫調中111例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案（案1800、2127、2393、2654、2813、3337、3341、4194、4366、4578、4852、5029、5170、5338、5409、6125、6399、6530、6824），共計為男性14位、女性5位，年齡介於40多歲至80多歲，發病日介於5月10日至5月24日，確診日介於5月17日至5月28日，死亡日期介於5月21日至5月27日，詳如新聞稿附件。\$\@\$指揮中心指出，新增2例境外移入個案中，案7332為本國籍10歲以下男性，5月18日於澳洲出現流鼻水等症狀，5月26日返臺，持有登機前3日內檢驗陰性報告，入境時主動通報曾有症狀，採檢後於今日確診。案7333為菲律賓籍20多歲女性，5月14日來臺工作，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，5月24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，累計455,198例新型冠狀病毒肺炎相關通報(含397,534例排除)，其中7,315例確診，分別為1,126例境外移入，6,136例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另18例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726)移除為空號。確診個案中78例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關長照機構收住人員入院流程，指揮中心完成「新進或出院返回機構之服務對象健康管理」，重點包括：\$\@\$1.由社區新入住之服務對象\$\@\$警戒期間，不建議收住直接由社區新進之服務對象；如確有收住必要，則由服務對象進行自費SARS-CoV-2病毒核酸檢驗，提供入住前3日內陰性檢驗結果；另入住機構後，應先將服務對象安置於隔離空間或單人房14天，且無相關症狀後，再安排入住一般房室。\$\@\$2.出院轉入或返回機構之服務對象\$\@\$院方在病患出院前，循住院病患採檢之機制，進行公費SARS-CoV-2病毒核酸檢驗，其結果須為陰性，始得轉入或返回機構；另考量服務對象因於入院及出院時，皆有進行採檢送驗，故服務對象於轉入或返回機構後可不需進行隔離。\$\@\$二、指揮中心重申，為利傳染病防治工作進行，各直轄市、縣(市)政府得以「指揮中心記者會確診個案資料發布原則」，發布確診個案公共場所活動史。惟發布時，務必注意個人資料保護，避免造成當事人之二度傷害，亦請民眾切勿散布及轉傳未經證實的相關資訊，避免觸法及影響防治工作。\$\@\$三、考量各地方政府相關人力投入防疫工作之負擔，及防疫作業進度執行及規劃等工作已逐漸完備，全國疫情研商早報會議自即日起改為每週二、五召開；指揮中心與各地方政府均建有聯繫窗口，持續保持密切聯繫，務求防疫工作不間斷。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，首批Moderna疫苗15萬劑，將於臺灣時間5月28日凌晨自盧森堡啟運，預定於明(28)日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增405例COVID-19確定病例，分別為401例本土個案及4例境外移入個案；另有校正回歸本土個案266例，總計671例。確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之401例本土病例，為190例男性，211例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月26日至5月26日；個案分布以新北市177例最多，其次為臺北市130例，桃園市18例，基隆市15例，高雄市14例，彰化縣10例，臺中市7例，花蓮縣6例，宜蘭縣、新竹縣各5例、臺東縣4例，屏東縣3例，嘉義市、連江縣各2例，苗栗縣、南投縣及雲林縣各1例。\$\@\$指揮中心進一步表示，校正回歸個案266例中，為140例男性、126例女性，年齡介於未滿5歲至90多歲，發病日介於5月15日至5月26日；個案分布以新北市146例最多，其次為臺北市101例，宜蘭縣5例，桃園市4例，彰化縣及臺中市各3例，基隆市2例，嘉義市及臺南市各1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關152例、茶藝館相關25例、某社團相關6例，其他已知感染源222例、關聯不明145例、疫調中117例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增13例死亡個案中，案1399為本國籍70多歲男性，有高血壓等慢性病史，有萬華區活動史，5月12日因其他原因就醫，13日檢驗陽性後住院，15日確診，24日死亡。案1753為本國籍60多歲男性，有高血壓等慢性病史，有萬華區活動史，5月13日出現咳嗽、呼吸困難等症狀，17日確診，20日收治住院，26日死亡。案2328為本國籍70多歲男性，有洗腎、心臟病等慢性病史，有萬華區活動史，5月16日出現發燒、咳嗽、流鼻水等症狀，17日就醫採檢，18日收治住院，19日確診，25日死亡。案2674為本國籍70多歲男性，有萬華區活動史，5月16日有喉嚨痛、咳嗽等症狀，17日因其他原因就醫後收治住院並採檢，20日確診，26日死亡。案2762為本國籍60多歲男性，有糖尿病、高血壓、哮喘等慢性病史，有萬華區活動史，5月18日出現發燒、腹瀉等症狀，20日確診，21日入住集中檢疫所，25日死亡。案3039為本國籍70多歲男性，曾接觸確診個案，5月18日出現發燒等症狀後就醫採檢，21日確診，23日入住集中檢疫所，26日死亡。案3179為本國籍90多歲女性，有萬華區活動史，5月19日出現發燒、發冷等症狀，20日就醫後住院，22日確診，25日死亡。案3429為本國籍60多歲女性，有高血壓等慢性病史，有萬華區活動史，5月17日出現發燒症狀，20日就醫後收治住院並採檢，22日確診，26日死亡。案4428為本國籍90多歲女性，有高血壓、糖尿病及心臟病等慢性病史，5月18日出現咳嗽及呼吸困難症狀，21日就醫後收治住院並採檢，24日確診，26日死亡。案5676為本國籍40多歲女性，曾接觸確診個案，5月19日採檢後入住防疫旅館，同日出現發燒症狀，25日死亡。案5993為本國籍60多歲男性，有高血壓、高血脂、糖尿病等慢性病史，有萬華區活動史，5月20日出現呼吸喘等症狀，24日就醫並採檢，當日死亡，26日確診。案6316為本國籍70多歲男性，有糖尿病等慢性病史，5月20日因出現呼吸困難症狀就醫並採檢，25日死亡，27日確診。案6503為本國籍50多歲男性，有主動脈剝離病史，5月22日出現呼吸喘等症狀，25日在家中昏迷後急救送醫，同日死亡，採檢後於27日確診。\$\@\$指揮中心指出，新增4例境外移入病例中，案6175、案6369分別為30多歲及印度籍20多歲男性，於5月24日自印度入境，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢，於今日確診。案6557、案6585均為20多歲菲律賓籍男性，持有登機前3日內檢驗陰性報告。案6557於5月10日來臺工作，5月26日自主管理期滿後自費採檢，於今日確診。案6585於5月26日來臺工作，入境後至檢疫所集中檢疫並採檢，於今日確診。上述4名個案在臺期間並無症狀。\$\@\$指揮中心統計，國內累計434,840例新型冠狀病毒肺炎相關通報(含381,735例排除)，其中6,761例確診，分別為1,124例境外移入，5,584例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另15例(案530、1589、1676、1591、1886、2067、2068、2528、2530、3459、3975、3989、3990、3991、4726)移除為空號。確診個案中59例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對部分高風險地區尚未完成設置加強型防疫旅館或量能不足部分，請相關地方政府持續建置，以強化COVID-19確診患者之醫療分流作業。\$\@\$二、為協助醫療院所及集中檢疫場所與加強型防疫旅館，儘速完成符合解除隔離條件之病患返家作業，已請交通部協助各地方政府，加強防疫計程車量能，以利載送。\$\@\$三、指揮中心已於昨(26)日修訂COVID-19確診個案解除隔離治療條件，並於今日全國防疫會議向各地方政府宣布實施。\$\@\$四、有關41萬劑AstraZeneca COVID-19疫苗配發作業，說明如下：\$\@\$(一)    第一階段15萬劑(5/27撥配，用罄前隨時撥補)，其中雙北地區以第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者為優先施打對象。雙北以外縣市，則以第一類人員(醫事人員)未曾接種者、醫護人員與亟需公務出國接種第二劑者。\$\@\$(二)    第二階段26萬劑(6/10起調整對象)，以全國第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者，為優先施打對象。後續再視下批疫苗到貨進度、接種情形及疫情狀況，滾動檢討調整開放第四類至第八類對象未曾接種者進行施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，因應本土疫情持續嚴峻，宣布強化COVID-19第三級疫情警戒相關措施及裁罰規定，請全國民眾持續落實遵循，與政府共同努力，嚴守社區防線。相關強化措施及裁罰如下：\$\@\$一、民眾外出時應全程佩戴口罩，一經查獲有違反情事，不再勸導，逕予開罰。\$\@\$二、經公告應關閉之休閒娛樂場所，將嚴查不得營業；查獲違法營業者，對業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$指揮中心提醒，外出時有飲食需求者，得在與不特定對象保持社交距離或有適當阻隔設備之情形下，於飲食期間暫時取下口罩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增304例COVID-19確定病例，分別為302例本土個案及2例境外移入個案；另有校正回歸本土個案331例，總計635例。確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之302例本土病例，為158例男性，144例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月8日至5月25日；個案分布以新北市152例最多，其次為臺北市87例，桃園市21例，基隆市13例，臺中市9例，新竹縣4例，屏東縣、雲林縣、臺南市、宜蘭縣、高雄市及彰化縣各2例，花蓮縣、嘉義市、臺東縣及連江縣各1例。校正回歸個案331例中，為160例男性、171例女性，年齡介於未滿5歲至90多歲，發病日介於5月13日至5月25日；個案分布以臺北市221例最多，其次為新北市102例，桃園市3例，基隆市及臺中市各2例，苗栗縣1例。綜上所有個案，其中萬華活動史相關209例、茶藝館相關35例、某社團相關3例、其他已知感染源170例、關聯不明122例、疫調中94例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增11例死亡個案（案2865、2877、3305、3213、3980、4273、4373、4666、4984、5098、5869）中，為9男2女，年齡介於50多歲至70多歲。發病日/採檢日介於5月7日至5月25日，確診日介於5月21日至5月26日，死亡日介於5月23日至5月25日。死亡個案中7人有慢性病史，9人有萬華或其他確診個案活動接觸史，相關疫情調查持續進行中。\$\@\$指揮中心指出，新增2例境外移入病例中，案5646為中國籍20多歲男性，5月1日來臺，持有搭機前3日內檢驗陰性報告，入境後於防疫旅館居家檢疫，在臺期間並無症狀，自主健康管理期滿後於5月24日自費採檢，於今日確診。案5891為本國籍50多歲男性，5月5日於印度出現症狀並檢驗陽性，5月14日以緊急醫療包機自印度返臺，入境時PCR採檢陰性、抗體陽性，入境後入院治療，期間再次採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計413,389例新型冠狀病毒肺炎相關通報(含359,139例排除)，其中6,091例確診，分別為1,120例境外移入，4,918例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中46例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，香港本土疫情自3月起持續趨緩，連續4週達低風險分級標準，故自即日起，將香港自中低風險調整為低風險；以色列疫情持續趨緩，連續2週達中低風險分級標準，故自即日起，增列為中低風險；越南近期本土疫情持續升溫，至少30個行政區報告本土病例，故自即日起，自中低風險移除。\$\@\$各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲、香港。\$\@\$中低感染風險國家/地區：斐濟、不丹、新加坡、以色列。\$\@\$指揮中心監測資料顯示，全球累計167,563,632例確診，分布於193個國家/地區；病例數以美國33,251,432例、印度26,948,874例、巴西16,194,209例、法國5,609,050例及土耳其5,203,385例為多；病例中3,491,014例死亡，以美國601,778例、巴西452,031例、印度307,231例、墨西哥221,695例及英國127,739例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對確診者解除隔離作業，指揮中心已於5月17日修訂公布，只要確診者距離發病或採檢日達10天以上，且PCR採檢Ct值≧30者，可逕行完成解隔離程序，並自主健康管理７日，以提升病床週轉率；如為Ct值&lt;30者，則入住集中檢疫所。另指揮中心將於今日再次召開專家小組會議，研議一致之確診者解除隔離公衛模式，供各地方政府遵循辦理。\$\@\$二、集中檢疫場所後送醫院綠色通道，係由集中檢疫場所附近之重度級急救責任醫院配合辦理，六區區域緊急醫療應變中心協助「傳染病防治醫療網」網區指揮官進行急重症病床調度；其中針對雙北市確診病患收轉至外縣市收治之綠色通道合理時間，指揮中心今日將請雙北市提供自設集中檢疫所及加強版防疫旅館位置，並於醫療量能盤點會議中研商討論。\$\@\$三、有關我國進口疫苗，須有正式代理廠商提出疫苗產品相關資訊及藥證申請，包括疫苗廠資格、疫苗相關品質證明等，確保疫苗安全性、有效性、合法性，並經食品藥物管理署(TFDA)核可，始可由代理商進行進口作業，以防止疫苗進入國內施打時產生不良反應問題，影響施打意願。\$\@\$四、疫苗撥補作業部分及施打順位，指揮中心會儘速撥發疫苗，請各地方政府以專責醫院醫護人員列第一順位施打；另鑒於雙北市為高風險疫情地區，將開放一到三順位人員進行接種；其他地方政府部分，原則以地方政府所提一至三順位人員名冊，並同步考量疫苗量，依序撥補施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$疾病管制署今(25)日公布國內新增1例日本腦炎確定病例，為高雄市大寮區40多歲男性，近期無國內外旅遊史，平時活動地以住家及工作地為主；5月5日出現頭痛症狀，自行服藥後症狀改善，5月8日因發燒就醫，隔日因高燒再次就醫並收治住院，入院後發現有失語症狀，5月10日通報，經採檢後確診。由於個案住家附近有豬舍、鴿舍及水稻田等高風險場所，研判其於住家周邊感染的可能性較高，衛生單位已針對個案住活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾之衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共2例確定病例，個案居住地分別為屏東縣及高雄市各1例，個案活動地附近多有高風險環境；2017至2020年全國同期確定病例數分別為1、7、4及0例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，國內日本腦炎病媒蚊以三斑家蚊、環紋家蚊及白頭家蚊為主，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段，大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。\$\@\$疾管署提醒，請民眾儘量避免於病媒蚊吸血高峰時段，在高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，有關離島縣市採檢需求，指揮中心經評估後，同意金門縣、澎湖縣、連江縣等三離島得在符合篩檢流程條件及後送配套流程下，提供自願性採檢服務。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增283例COVID-19確定病例，分別為281例本土個案及2例境外移入個案；另有校正回歸本土個案261例，總計544例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之281例本土病例，為144例男性，137例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月24日；個案分布以新北市154例最多，其次為臺北市49例，桃園市16例，臺南市、基隆市及彰化縣各10例，臺中市9例，屏東縣及新竹市各4例，高雄市、宜蘭縣各3例，臺東縣、南投縣及苗栗縣各2例、新竹縣、雲林縣及花蓮縣各1例。校正回歸個案261例中，為162例男性、99例女性，年齡介於未滿10歲至90多歲，發病日介於5月2日至5月22日；個案分布以臺北市155例最多，其次為新北市89例，宜蘭縣、桃園市各5例，基隆市及彰化縣各3例，臺中市1例。綜上所有個案，其中萬華活動史相關186例、茶藝館相關28例、某社團相關2例、某水果商相關7例、其他已知感染源122例、關聯不明111例、疫調中86例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1341為70多歲男性，有高血壓、糖尿病等慢性病史，5月8日出現咳嗽、發燒、有痰、全身痠痛等症狀，11日就醫並住院，15日確診，20日死亡。案2558為60多歲男性，有萬華區活動史，5月15日出現發燒、喉嚨痛、咳嗽、肌肉痠痛等症狀，20日確診並收治住院，21日死亡。案2719為90多歲男性，有糖尿病、癌症等慢性病史，5月14日出現發燒症狀，17日就醫並住院，20日確診，同日死亡。案3031為60多歲男性，有高血壓、糖尿病等慢性病史，5月15日出現發燒、咳嗽、呼吸困難、喉嚨痛等症狀，20日就醫並住院，21日確診，23日死亡。案3242為60多歲女性，有糖尿病、高血壓、心血管疾病等慢性病史，5月20日有肌肉痠痛、咳嗽、流鼻水、發燒等症狀，22日確診後至防疫旅館隔離，24日死亡。案4648為70多歲男性，有糖尿病、高血壓等慢性病史，5月22日出現發燒、呼吸困難、肺炎等症狀，同日就醫並住院，23日死亡，24日確診。\$\@\$指揮中心指出，新增2例境外移入病例(案5085、5470)皆自菲律賓來臺工作，均持有搭機前3日內檢驗陰性報告。案5085為40多歲男性，5月2日入境後至防疫旅館隔離，在臺期間並無症狀，17日期滿前採檢結果為陰性，24日完成自主健康管理後公司安排自費採檢，於今日確診(Ct值32)。案5470為20多歲男性，5月11日入境，在臺期間並無症狀，24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計388,453例新型冠狀病毒肺炎相關通報(含340,438例排除)，其中5,456例確診，分別為1,118例境外移入，4,285例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中35例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、 考量各項防疫措施生效至落實推動需要時間，請各地方政府持續加強監測、防疫及整備工作，並增加社區採檢站及提升採檢量能，強化檢驗及醫療調度應變量能，避免造成急診壅塞及增加院內感染風險。\$\@\$二、 為評估全國疫情風險狀況，指揮中心明(26)日起開始實施「COVID-19傳染病通報作業新流程」，由各地方政府每日通報社區採檢站篩檢量及陽性數等資訊，產製報表、面板分享共用，以利進行指標監測；另為防止高風險地區之社區篩檢站檢驗壅塞，指揮中心訂有「社區快篩站快篩處置流程」，協助地方提升篩檢工作執行效率。\$\@\$三、 醫療資源整備工作推動：\$\@\$有關雙北市專責病房一人一室收治病患之規範，如確有困難，將由「傳染病防治醫療網」網區指揮官視病人住院必要性、急迫性，及醫院收治量能、病房硬體條件，彈性調整。\$\@\$長期需要血液透析之確診病患，請集中收治於臺北市立聯合醫院和平院區及三軍總醫院松山分院，不限一人一室，並請地方衛生局督導上述醫院儘快制定相關作業流程。\$\@\$為利病患收治，請各地方政府督導轄內醫院加速專責病床清空速度，500床以上醫院須於本週五(28日)完成1/10病床數開設為專責病床；專責ICU部分，以醫學中心及準醫學中心至少20床，其他重度級急救責任醫院至少10床為原則，並以區域為單位規劃設置。\$\@\$地方指定應變醫院且同時肩負該縣市重度級急救責任醫院者，為避免排擠其他重症患者就醫診治，請新竹市、雲林縣及嘉義縣即刻執行備援應變醫院指定工作。\$\@\$集中檢疫場所設置請以50間以上為原則，以提升運用效率。\$\@\$為提升病床週轉率，針對確診住院者，距離發病或採檢日達10天以上且PCR採檢Ct值大於30者，可以出院並自主健康管理7日；若Ct值小於30則入住集中檢疫所。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增339例COVID-19確定病例，分別為334例本土個案及5例境外移入個案(含印度3例、菲律賓1例、尼泊爾1例)；另有校正回歸本土個案256例，總計595例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之334例本土病例，為157例男性、177例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月10日至5月23日；個案分布以新北市177例最多(以板橋區43例為多)，其次為臺北市99例(以萬華區38例為多)，桃園市19例、彰化縣12例、基隆市及臺中市各7例、高雄市5例、屏東縣及臺南市各3例、南投縣及新竹縣各1例。校正回歸個案256例中，為157例男性、99例女性，年齡介於未滿5歲至90多歲，發病日介於5月14日至5月22日；個案分布以臺北市148例最多(以萬華區76例為多)，其次為新北市99例(以板橋區34例為多)，桃園市6例、苗栗縣2例、臺中市1例。綜上所有個案，其中萬華活動史相關200例、茶藝館相關34例、某社團相關6例、某水果商相關6例、其他已知感染源138例、關聯不明101例、疫調中105例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1860為70多歲女性，有胃癌等慢性病史，5月14日採檢，17日確診，19日死亡。案2476為70多歲男性，有扁桃腺惡性腫瘤等慢性病史，5月17日出現發燒症狀並就醫，19日確診，21日死亡。案2720為60多歲男性，5月15日出現咳嗽症狀，16日自行就醫採檢，20日確診，22日死亡。案2825為60多歲男性，有高血壓、肝硬化等慢性病史，5月17日出現發燒症狀，20日確診，22日死亡。案4162為60多歲女性，有糖尿病、慢性B型肝炎等慢性病史，5月21日有肌肉痠痛、呼吸困難、肺炎等症狀，21日採檢，22日死亡，23日確診。案4284為60多歲男性，有萬華區活動史，5月22日死亡並通報採檢，23日確診。\$\@\$指揮中心指出，新增5例境外移入病例，分別自菲律賓(案4466)、尼泊爾(案4613)、印度(案4773、案4902、案4914)移入，均持有搭機前3日內檢驗陰性報告。案4466為菲律賓籍30多歲男性，5月9日來臺工作，在臺期間並無症狀，5月23日進行檢疫期滿前採檢，於今日確診。案4613為30多歲本國籍男性，5月22日返臺，因入境時有症狀，於機場採檢送驗，於今日確診。案4773、案4902、案4914分別為本國籍40多歲、20多歲及50多歲男性，案4773、案4914皆於5月22日返臺，入境時並無症狀，入境後至檢疫所集中檢疫並採檢，於今日確診；案4902於5月10日返臺，入境後至檢疫所集中檢疫，期間並無症狀，5月23日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計364,911例新型冠狀病毒肺炎相關通報(含325,070例排除)，其中4,917例確診，分別為1,116例境外移入，3,748例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、案1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中29例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-24\$\@\$中央流行疫情指揮中心今(24)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、全國三級警戒發布後，為防止各地出現標準不一現象，指揮中心依傳染病防治法第37條相關規定，對於全國須一致遵守之防疫措施，訂有各項指引對外發布，請各地方政府配合，達到全國防疫標準一致、説法一致、步調一致，以利民眾落實執行，將傳染可能性降到最低。\$\@\$二、為強化確診重症資源調度及醫療體系，指揮中心已於昨(23)日與各地方政府開會研議，完成設置專責加護病房(ICU)原則，及集中檢疫所後送醫院綠色通道建置作法，以有效掌握全國重症收治量能，確保急、重症醫療照護品質及資源調度效率，並落實醫療機構感染管制。\$\@\$三、為統一集中檢疫場所後送醫療及處置機制，指揮中心於昨(23)日邀集各地方消防局局長，共同研議統一醫療後送作法；集中檢疫場所指揮官或醫護組人員，如發現需後送醫療及處置個案，只要撥打119通報，各地消防機關會立即出動所需之救護隊，前往救護後送。\$\@\$四、各地防疫物資配發，請各地方政府持續盤點醫療院所及第一線防疫同仁所需，指揮中心會立即配合完成撥付，提供第一線防疫同仁充分裝備，順利執行任務。\$\@\$五、有關由各地方責任醫院設置社區篩檢站事宜，將以考量責任醫院人力及收治量能，且勿排擠重症病患收治量能原則下，依急迫及必要性妥予規劃；另為減輕醫療及安置資源，針對社區快篩為陽性之民眾，可先行返家進行居家隔離，並建立妥予完成安置及後送就醫標準作業流程(SOP)，以完備後續救護之安排。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-24\$\@\$金門縣政府昨（5/23)日逕為公告「搭乘民用航空器抵達金門航空站之旅客應配合實聯制、接受新冠肺炎快速篩檢，並自110年5月24日生效」，此舉違反傳染病防治法第37條第3項等相關法律規定。該府未正式告知並提出書面申請即逕行公告於先，又經指揮官於當晚親自致電溝通仍不依法完備程序於後，故依法撤銷違法處分之公告，以維法制。\$\@\$中央流行疫情指揮中心於110年5月17日即以發文予各地方政府，說明「中央流行疫情指揮中心成立期間，若有需依傳染病防治法第37條第1項規定採行相關防疫措施，仍請貴府遵循傳染病防治法第37條第3項規定，應依指揮官指示辦理，以利整體防疫業務之執行」等語，促請各地方政府應依上開規定辦理之意旨，俾以符合事權統一之立法目的。又檢疫政策之決定依傳染病防治法第5條第1項第1款第1目之規定，係屬中央主管機關之權責，地方政府應依中央主管機關之決策，始得據以執行，而指揮官近日也公開宣示：「中央決策、地方執行」，此乃權限分際之原則問題。\$\@\$對國內跨縣市移動採取人員進出之管制作為，或要求民眾強制普篩等，屬全國一致性之重要政策，按傳染病防治法第37條第3項之規定，均應依中央指揮官之指示辦理，始符法制。\$\@\$值此疫情嚴峻時刻，全國已一致提高至三級警戒，指揮官再三強調中央與地方應「標準一致、說法一致、腳步一致」之防疫原則，且業已建立每日全國疫情會議之機制，俾收統合協調之效，以避免各自為政，致生雜沓混亂影響整體防疫，為統一事權並維護法制，不得不撤銷上開違法公告。金門縣政府如仍有地方防疫之特殊需求，依法應先完備法律程序，正式提出計畫報請指揮官指示辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-23\$\@\$中央流行疫情指揮中心今(23)日公布新增國內290例COVID-19確定病例，分別為287例本土及3例境外移入(案4023、案4227、案4228)。另有170例本土個案為校正回歸上週各日個案。確診個案中新增6例死亡(案1912、案2384、案2483、案2986、案3304、案3417)。\$\@\$指揮中心表示，今日新增之287例本土病例，為138例男性、149例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月6日至5月22日；個案分布以新北市142例最多(以板橋區32例為多)，其次為臺北市77例(以萬華區38例為多)，桃園市23例，屏東縣、南投縣各8例，宜蘭縣6例，基隆市、臺中市及彰化縣各5例，臺南市2例，花蓮縣、嘉義市、嘉義縣、新竹縣、新竹市、雲林縣各1例。校正回歸個案170例中，為84例男性、86例女性，年齡介於未滿5歲至80多歲，發病日介於4月25日至5月22日；個案分布以臺北市88例最多(以萬華區48例為多)，其次為新北市73例(以板橋區17例為多)，彰化縣6例，宜蘭縣、新竹市及雲林縣各1例。綜上所有個案，其中萬華活動史相關161例、茶藝館相關25例、某社團相關5例、某水果商相關11例、其他已知感染源119例、關聯不明70例、疫調中66例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案，為5男(案1912、案2384、案2986、案3304、案3417)1女(案2483)，年齡介於50多歲至80多歲，發病日介於5月10日至5月20日，確診日介於5月17日至5月22日，死亡日介於5月20日至5月21日。上述6名個案，除案2384外，餘5人皆有慢性病史。\$\@\$指揮中心指出，新增3例境外移入病例中，案4023為印尼籍20多歲男性漁工，今年5月8日自印尼來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，入境後至集中檢疫所檢疫，5月21日進行檢疫期滿前採檢，於今日確診。案4227為菲律賓籍40多歲男性移工，5月7日自菲律賓來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，5月22日檢疫期滿後自費採檢，於今日確診。案4228為丹麥籍40多歲男性，曾於3月30日在丹麥當地檢出COVID-19陽性，4月17日自丹麥來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀；因要再次出境，5月22日自費採檢，於今日確診(Ct值30)。\$\@\$指揮中心統計，截至目前國內累計351,999例新型冠狀病毒肺炎相關通報(含312,689例排除)，其中4,322例確診，分別為1,111例境外移入，3,158例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、案1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中，23例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-23\$\@\$中央流行疫情指揮中心今(23)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、為加快疫調速度，指揮中心已完成疫調輔助系統，一經地方政府通報確診者相關資訊後，儘速完備足跡資料，供地方衛政單位完成疫調，提升疫調效率與效能。\$\@\$二、各地方醫療院所醫護人員如匡列為接觸者，且需進行隔離時，請地方政府協助安排入住防疫旅館相關事宜。\$\@\$三、為保全醫療院所醫事人力量能，地方設立社區篩檢站所需人力，請動員診所基層醫事人力，或洽請醫師公會全聯會、耳鼻喉科醫學會等公協會協助採檢。\$\@\$四、各地方政府若發生疑似確診者失聯，請立即啟動警政協尋作業，以防範疫情擴散。\$\@\$五、有關醫療資源整備，指揮中心醫療應變組與各區管制中心及責任醫院，均確實掌握病床數及相關醫療資源分配，以協助地方因應疫情。\$\@\$六、通報及檢驗流程部分，已規劃機制減少醫療院所端通報及送驗資料登打負擔，快速傳遞檢驗結果，以利採取防治工作，加速民眾溝通，讓民眾安心丶放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-22\$\@\$中央流行疫情指揮中心今(22)日公布今日國內323例COVID-19確定病例，分別為321例本土及2例境外移入（案3462、案3867）。另有400例本土個案為校正回歸上週各日個案。確診個案中新增2例死亡（案3097、案3553）。\$\@\$指揮中心表示，今日新增之321例本土病例，為162例男性、159例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月10日至5月21日；校正回歸個案400例中，為185例男性、215例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於5月7日至5月20日。上述個案分布以新北市384例最多(以板橋區103例為多)，其次為臺北市269例(以萬華區174例為多)，桃園市20例、臺中市11例、基隆市9例、屏東縣5例、彰化縣及高雄市各4例、宜蘭縣、新竹市及花蓮縣各3例、新竹縣2例、臺南市、苗栗縣、南投縣、雲林縣各1例。其中萬華活動史相關258例、茶藝館相關100例、某社團相關4例、某水果商相關3例、其他已知感染源80例、關聯不明121例、疫調中155例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增死亡個案中，案3097為80多歲男性，5月19日晚間因咳嗽、發燒、呼吸困難及全身倦怠等症狀送醫，於5月20日死亡，經採檢於5月21日確診。家屬表示個案無萬華區活動史，亦無接觸確診個案。案3553為70多歲男性，曾接觸過確診者，5月18日由衛生單位匡列為居家隔離，5月19日至醫院採檢，衛生單位電訪時自述無症狀，5月21日家人發現個案無呼吸心跳，當日宣告死亡，經採檢於今日確診，Ct值14。\$\@\$指揮中心指出，境外移入病例案3462為本國籍30多歲男性，今年1月初在菲律賓曾有流鼻水等症狀，1月13日、20日於當地檢驗陽性，未接受治療，後續分別於2月至4月間取得4次陰性證明，4月8日自菲律賓入境，持有搭機前3日內檢驗陰性報告，在臺期間均無症狀，4月23日採檢結果亦為陰性。個案因工作需求，於5月19日自費採檢，於今日確診（Ct值34，第2次PCR採檢結果為陰性）。案3867為英國籍30多歲男性，4月28日自英國來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間均無症狀，5月21日自主健康管理結束後因工作所需自費採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計337,455例新型冠狀病毒肺炎相關通報(含298,513例排除)，其中3,862例確診，分別為1,108例境外移入，2,701例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、案1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中，17例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-22\$\@\$中央流行疫情指揮中心今(22)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、為利疫調匡列精確及時，指揮中心已完成疫調輔助系統，資訊將滾動隨時提供地方政府應用。\$\@\$二、為因應本土個案持續增加，疏解醫療院所壓力，將設置加強型防疫旅館，有效並妥適收治輕症及無症狀患者，相關規格比照集中檢疫場所設立。\$\@\$三、請地方政府社會局針對街友適時發送口罩、持續關懷健康狀況，必要時協助安排採檢。\$\@\$四、截至5月21日止，全臺各縣市防疫旅館房間數總計19,174間，其中獨棟有273家，16,822房；分層有33家，2,352房。總量能預計可達20,569間房(包含已上線19,174房、即將上線1,395房)。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-21\$\@\$中央流行疫情指揮中心今(21)日表示，因應國內COVID-19疫情警戒升級，指揮中心持續進行防疫物資整備及撥發，說明如下：\$\@\$一、因應疫情，除持續撥發地方政府一般醫用/外科口罩提供轄區公務單位、醫療院所、長照機構、特殊病患、弱勢族群，做為防疫及醫療使用，並自本(2021)年5月20日起增加撥發數量。亦持續依醫院外科口罩、隔離衣及N95口罩耗用情形進行撥補，維持其庫存量高於安全儲備量。另撥發診所N95口罩及隔離衣供儲備運用，及撥發防疫旅宿業者隔離衣供防疫使用。此外，依中央機關、地方衛生局及醫院等單位之防疫需求，額外撥發N95口罩、隔離衣、一般醫用口罩等防疫物資。\$\@\$二、為爭取防治時效、加速防疫物資撥發效率，以本年5月21日以各縣市COVID-19確定病例數為計算基準，先行撥發地方政府N95口罩及隔離衣各100 萬片/件，由衛生局統籌撥發轄區醫療院所及公務機關防疫/醫療之用，倘仍有需求，再依需求向指揮中心中心提出申請。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增315例COVID-19確定病例，分別為312例本土及3例境外移入。\$\@\$指揮中心表示，今日新增之312例本土個案為170例男性，142例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月8日至5月20日。居住縣市以新北市144例最多(以板橋區37例為多)，其次為臺北市127例(以萬華區60例為多)，桃園市13例、基隆市9例、臺中市及彰化縣各5例、高雄市4例、宜蘭縣2例、屏東縣、南投縣、雲林縣各1例。其中萬華活動史相關107例、茶藝館相關73例、某社團相關6例、某水果商相關5例、其他已知感染源24例、關聯不明72例、疫調中25例。相關疫情調查持續進行中。\$\@\$指揮中心指出，今日新增之3例境外移入，分別自美國、菲律賓、加拿大移入。案2974為美國籍50多歲女性，於4月28日自美國入境，持有搭機前3日內檢驗陰性報告，在臺期間無症狀，於5月20日進行採檢，於今日確診。案3103為加拿大籍40多歲男性，於5月19日自加拿大入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於5月20日進行採檢，於今日確診。案3038為菲律賓籍30多歲男性船員，持有搭機前3日內檢驗陰性報告，5月5日自菲律賓入境，檢疫期滿後於5月20日進行自費採檢，在臺期間並無症狀，於今日確診。\$\@\$指揮中心統計，截至目前國內累計315,592例新型冠狀病毒肺炎相關通報(含280,916例排除)，其中3,139例確診，分別為1,106例境外移入，1,980例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另9例(案530、1589、1676、1591、1886、2067、2068、2528、2530)移除為空號。確診個案中，15例死亡。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-21\$\@\$中央流行疫情指揮中心今(21)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、為統一疫情防疫措施及規範，指揮中心已依傳染病防治法等相關規定，就全國民眾必須遵守之防疫措施，訂定一致性之指引及規範，並請各地方政府務必宣導民眾嚴格落實執行，以達到步調齊一、作法一致、說法一致，順暢推動防疫工作。\$\@\$二、各地方政府對外發布確診者公共場所活動史務必審慎，避免發生資訊錯亂情事。另衛生單位疫調確實完成後，公布前請事先通知所涉之相關地方政府及場所。\$\@\$三、各地方政府物資撥補盤點後如仍有不足之處，請儘速向指揮中心請求撥發；其中第一線防疫人員(如民政、消防、環保等)裝備，請務必給予充分支援。\$\@\$四、請衛生福利部每日將可收治確診者之場所通報雙北市政府知悉，並請雙北市政府副首長協助指揮調度，將相關訊息傳送地方消防局，以執行安排確診者至醫療院所或集中檢疫場所作業。\$\@\$五、民眾佩戴口罩，仍應遵守外出須全程佩戴之規定。針對自行開車部分，如為2人(含)以上同車者，則應佩戴口罩；另工地施工人員部分，因考量工人都在工地內用餐，飲食時請保持社交距離，不需佩戴口罩，但其他時間仍需佩戴口罩。\$\@\$六、為提高集中檢疫場所設置量能，請各地方政府積極盤點可設集中檢疫場所之地點，並儘速提供指揮中心，由衛生福利部進行評估及勘察作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增295例，286例本土；9例境外移入；確診個案中新增1例死亡(案2683)。\$\@\$指揮中心表示，今日新增之286例本土個案為155例男性，131例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月1日至5月19日。居住縣市以新北市157例最多(以中和區40例為多)，其次為臺北市87例(以萬華區40例為多)，桃園市17例、宜蘭縣8例、彰化縣6例，基隆市5例、臺中市3例、高雄市2例及雲林縣1例。萬華活動史相關84例、茶藝館相關60例、某社團相關7例、某水果商相關4例、遊藝場相關2例。關聯不明63例、其他已知感染源38例、疫調中28例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增之死亡個案(案2683)為70多歲女性，於萬華工作，個案平時獨居，有心血管疾病，5月15日出現虛弱無力及倦怠情形，但拒絕就醫；5月16日被匡列為須採檢之接觸者，但因個案持續失聯，衛生單位轉請警政單位協尋。5月17日家屬前往探視，發現個案已無生命跡象，經採檢於今日確診，Ct值25。5月18日警政單位回復尋獲個案，但個案已於5月17日死亡。個案家屬目前無症狀，列居家隔離；我國至今累計15例死亡個案。\$\@\$指揮中心指出，今日新增之9例境外移入，分別自菲律賓(6例)、美國、南非及印尼移入。案2610為本國籍50多歲男性，持有搭機前3日內檢驗陰性報告，5月9日自美國入境，5月15日於檢疫期間出現症狀，5月17日採檢，於今日確診。案2611至案2614、案2826、案2828為菲律賓籍移工4男2女，年齡介於20多至30多歲，均持有搭機前3日內檢驗陰性報告，分別5月5日、5月6日入境，在臺期間並無症狀，於5月19日進行檢疫期滿前採檢，於今日確診。案2615為本國籍60多歲女性，持有搭機前3日內檢驗陰性報告，5月11日自南非入境後於檢疫所進行採檢，於今日確診。案2827為印尼男性30多歲移工，持有搭機前3日內檢驗陰性報告，於5月6日自印尼入境，在臺期間無症狀，於5月19日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計297,481例新型冠狀病毒肺炎相關通報(含265,558例排除)，其中2,825例確診，分別為1,103例境外移入，1,669例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另8例(案530、案1589、1676、1591、1886、2067、2068、2528)移除為空號。確診個案中，15例死亡。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-20\$\@\$中央流行疫情指揮中心今(20)日表示，已於上午與各縣市政府完成召開第一次「全國防疫會議」。會議決議如下：\$\@\$一、    請各地方政府儘速盤點熱區採檢站設立事宜，並提報指揮中心評估協助。\$\@\$二、    針對採檢、後送就醫、診療程序及集中檢疫場所設置標準等，請指揮中心相關單位會後儘速研議提供各地方政府。\$\@\$三、    有關地方政府防疫物資需求，請提報指揮中心，以及時撥補，以利時效。\$\@\$四、    醫療資源整合部分，後續將由衛生福利部統籌進行全國盤點與分配事宜。\$\@\$五、    指揮中心已於5月16日授權地方政府確診個案公共場所活動史發布原則，將進行整合跨區域公共場所活動史及處理流程，供各地方政府參考。\$\@\$六、    請各地方政府優先提供第一線醫護人員接種COVID-19疫苗，後續到貨部分，將依疫情風險評估調整公費對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-19\$\@\$中央流行疫情指揮中心今(19)日表示，因應目前國內COVID-19本土疫情持續嚴峻，雙北地區(臺北市、新北市)以外縣市亦持續有本土病例出現，為加強相關防疫措施，自即日起至5月28日止提升全國疫情警戒至第三級，請全國民眾持續落實遵循並配合現行三級警戒管制措施，與政府共同努力，嚴守社區防線。\$\@\$指揮中心強調，目前尚無升四級之必要，並將採取相關應變措施，強化防疫量：\$\@\$一、 全國標準一致，地方一體執行，以指揮中心發布之指引與標準貫徹執行。地方若有資源及人力不足之處，指揮中心全力協調、協助。\$\@\$二、 指揮中心邀集地方政府每日召開全國防疫會議，由陳宗彥副指揮官、衛生福利部石崇良次長主持，整合防疫資源、檢視執行進度、駁斥錯誤不實訊息，會議後將增開一場記者會，由陳副指揮官澄清錯誤不實訊息。\$\@\$三、 醫療量能充足，民眾不必擔心，持續提升4大醫療量能，中央全力支援地方需要：\$\@\$1. 篩檢站：在熱區點增加篩檢站，再次要求地方政府對有症狀者開設「綠色通道」，也再次要求地方政府須於第一時間(確診後6小時內，深夜時間除外)，將確診患者依症狀分級，送至集中檢疫所或醫療院所。\$\@\$2. 防疫旅館：截至5月18日止，全國防疫旅館房間數共有17,789間，已入住10,501間，使用率達到59.03%；要求地方政府持續擴充防疫旅館數量。\$\@\$3. 集中檢疫所：目前有39所，共4,500間，已使用2,500間，仍有2,000間空餘，將再持續盤整增加約2,000間，確保在任何時間都有房間供緊急使用。\$\@\$4. 專責及應變醫院：已啟動全國專責醫院及傳染病防治醫療網網區/縣市應變醫院，共可提供專責病室2,412間及負壓隔離病室1,068間，並要求其他所有收治醫院按照指揮中心應變機制，全面擴大專責病房數量。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增275例COVID-19確定病例，分別為267例本土及8例境外移入。\$\@\$指揮中心表示，今日新增之267例本土個案為127例男性、140例女性，年齡介於未滿5歲至80多歲，發病日/採檢日介於今(2021)年4月30日至5月18日，居住縣市分別為新北市129例(中和區26例為多)、臺北市70例(萬華區31例為多)、彰化縣28例，桃園市16例、高雄市8例、臺中市5例、基隆市4例、宜蘭縣3例、臺南市及新竹市各2例；新增縣市為臺南市。其中萬華區活動史87例、茶藝館相關73例、水果盤商相關28例、某社團相關群聚2例、進香團1例。不明感染源49例、疫調中27例。相關疫情調查持續進行中。\$\@\$指揮中心指出，今日新增之8例境外移入個案，5例印度、2例菲律賓、1例日本。皆持有搭機前3日內檢驗陰性報告，在臺期間並無症狀。案2358為本國籍20多歲男性，4月25日自日本入境，檢疫期滿後自主健康管理，5月17日自費採檢，並於今日確診。案2359、案2538為菲律賓籍20多歲男性移工與40多歲女性移工，皆在檢疫期滿後進行自費採檢，於今日確診。案2533至案2537為本國籍3男2女，年齡介於5歲以下至40多歲，分別於5月17、18日自印度入境後於檢疫所進行採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計279,650例新型冠狀病毒肺炎相關通報(含253,155例排除)， 其中2,533例確診，分別為1,094例境外移入，1,386例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另5例(案530、案1589、案1676、案1591、案1886)移除為空號。確診個案中14例死亡、1,133例解除隔離、1,386例隔離中。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-19\$\@\$中央流行疫情指揮中心今(19)日表示，依據世界衛生組織（WHO）資料顯示，全球近7日新增 COVID-19確診數較前週下降14%，西太平洋及非洲地區整體疫情持平，美洲、歐洲、東地中海及東南亞地區的整體疫情較前波高峰趨緩，惟東南亞地區死亡數持續創新高，國際疫情仍然嚴峻。\$\@\$指揮中心指出，本週各國/地區感染風險級別無調整，名單如下： 1. 低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲。 2. 中低感染風險國家/地區：香港、斐濟、不丹、新加坡、越南。\$\@\$指揮中心監測資料顯示，全球累計163,883,728例確診，分布於193個國家/地區；病例數以美國33,082,324例、印度25,228,996例、巴西15,732,836例、法國5,898,347例及土耳其5,139,485例為多；病例中3,409,801例死亡，以美國598,022例、巴西439,050例、印度278,719例、墨西哥220,489例及英國127,698例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-19\$\@\$中央流行疫情指揮中心今(19)日表示，我國透過COVAX獲配的第二批AstraZeneca疫苗41.04萬劑將於今日下午運達桃園國際機場。\$\@\$本批疫苗待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，COVAX係由全球疫苗免疫聯盟(GAVI)、流行病預防創新聯盟(CEPI)與WHO合作主導，集中全球力量，篩選有潛力的COVID-19候選疫苗，投資疫苗廠加速研發及產製，並透過保證採購承諾，敦促疫苗廠製造足夠數量的疫苗，共同分攤風險，擴大疫苗成功上市的機會，同時也讓低收入國家得以公平取得疫苗，早日終結大流行。全球共有190個經濟體參與COVAX，包括92個低收入國家及98個自費參與者。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-19\$\@\$我國與美國、日本、英國及澳洲在「全球合作暨訓練架構(GCTF)」合作模式下，於5月18日舉辦「公共衛生：COVID-19疫苗接種的經驗與挑戰」線上國際研討會，由衛生福利部次長薛瑞元、疾病管制署署長周志浩、外交部部長吳釗燮、美國在台協會台北辦事處處長酈英傑、日本台灣交流協會代表泉裕泰、英國駐台辦事處代表鄧元翰、澳洲辦事處代表露珍怡共同連線參與本次活動致詞。\$\@\$COVID-19疫情自108年底從中國武漢地區傳出不明肺炎迄今，已造成全球超過1億6,200萬名確診病例、337萬人死亡。薛次長與周署長在致詞中表示，疫苗是對抗傳染性疾病最有效的利器，在全球科學家戮力匪懈的合作下，已研發有AstraZeneca、Pfizer/BioNTech、Moderna等疫苗供全球人類使用。COVID-19大流行為所有國家帶來沉重的打擊，現更面臨病毒變異衍生的新挑戰，沒有任何一個國家得以免受威脅，除非所有國家都控制好疫情。公平取得有效的疫苗是遏止全球COVID-19疫情的終極手段，期待更多有效且充足的疫苗研發上市，並呼籲各國攜手合作共同終止COVID-19疫情。\$\@\$本活動由我國、美國、加拿大、歐盟、英國、以色列、澳洲、日本派員擔任講者或參與討論，從COVID-19疫苗介紹及安全性到各國疫苗的取得分配、物流及冷鏈管理、接種優先順序、不良反應、疫苗猶豫等面向進行經驗交流與分享。共有36個國家約135名專家連線參與討論，共同提升COVID-19區域聯防量能，防範傳染病對全球造成之威脅。\$\@\$本活動係自104年6月1日成立「全球合作暨訓練架構」後辦理的第8場公共衛生領域訓練，迄今已邀請全球47個國家、超過350名衛生防疫官員或專家與會交流分享，成果有目共睹。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-18\$\@\$中央流行疫情指揮中心今(18)日表示，為感謝台灣耳鼻喉頭頸外科醫學會號召全臺會員，投入政府成立的社區篩檢站，貢獻專業，共同抗疫，目前已有320位醫師願意參與。今天特別邀請該學會理事長陳穆寬醫師及新北市醫師公會理事長周慶明醫師蒞臨記者會，鼓勵醫界一起響應，共同抗疫。\$\@\$指揮中心說明，醫界在防疫中扮演非常重要的角色，疑似病例通報、個案治療等第一線防疫工作，都讓醫事人員承受高風險及高壓力，今天許多醫師不畏辛勞，主動投入社區篩檢站，對國內防疫工作推動更是一大助益。\$\@\$陳穆寬理事長強調，在嚴峻疫情考驗下，感染源不明的本土案例出現，會逐漸影響整體基層醫療服務量能；政府成立社區篩檢站，篩檢可能個案，可減少疑似個案社區活動，並達到醫療分流、分工合作，降低病毒傳播風險；因此號召學會會員發揮耳鼻喉科專業，配合國家防疫指揮系統，全力支援社區篩檢站工作，協力控制疫情，目前已有320位醫師願意參與。\$\@\$新北市醫師公會理事長周慶明指出，耳鼻喉科醫師平時就專門照顧呼吸道疾病患者，這方面的專業能力非常出色，若積極投入，必定能提高篩檢準確度。針對新北市基層診所醫師所做的相關問卷調查也顯示，新北市醫師皆有接受良好訓練，除投入社區篩檢站，亦願意配合防疫，協助COVID-19疫苗注射、集中檢疫所、居家隔離或居家檢疫者通訊診療及照護工作。\$\@\$指揮中心呼籲，現在是國內防疫的重要時刻，各界的力量都是防疫的後盾，請民眾配合做好各項防疫措施及個人防護工作，共同守住防疫陣線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增245例COVID-19確定病例，分別為240例本土及5例境外移入；確診個案中新增2例死亡（案1522、案2095）。\$\@\$指揮中心表示，今日新增之240例本土個案為112例男性、128例女性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月5日至5月17日，居住縣市分別為新北市106例(中和區33例最多)、臺北市102例(萬華區48例最多)、桃園市12例、彰化縣10例、基隆市及高雄市各3例、新竹縣2例、新竹市及雲林縣各1例。其中臺北茶藝館88例、萬華區活動史67例、某社團相關群聚2例、進香團2例、宜蘭遊藝場1例。群聚關聯不明51例、疫調中29例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增之死亡個案分別為案1522與案2095。其中案1522為60多歲女性，在萬華工作，5月10日出現發燒，5月14日就醫採檢，於5月16日確診，個案17日倒臥家中，同日送醫急救無效不幸死亡。案2095為80多歲男性住院病人，有慢性病史，於5月16日進行接觸者檢驗檢出陽性，Ct值約25。5月17日因病情惡化，經急救後仍不幸死亡。我國至今累計14例死亡個案。\$\@\$指揮中心指出，今日新增之5例境外移入個案，案2071、案2072皆為印尼籍20多歲男性漁工，於5月3日自印尼入境，皆持有搭機前3日內檢驗陰性報告，來臺期間無症狀，於5月16日進行檢疫期滿前採檢，於今日確診。案2151為本國籍30多歲男性，5月16日自吉爾吉斯入境，持有搭機前3日內檢驗陰性報告，入境篩檢出陽性，於今日確診。\$\@\$案2152、案2263皆為菲律賓籍30多歲女性移工，於5月4日自菲律賓入境，皆持有搭機前3日內檢驗陰性報告，來臺期間並無症狀，5月17日進行檢疫期滿前採驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計261,389例新型冠狀病毒肺炎相關通報(含244,409例排除)，其中2,260例確診，分別為1,086例境外移入，1,121例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另3例(案530、案1589、案1676)移除為空號。確診個案中14例死亡、1,127例解除隔離、1,119人隔離中。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-17\$\@\$中央流行疫情指揮中心今(17)日表示，鑒於國際及國內COVID-19疫情升溫，為維護國內防疫安全及確保國人健康，我國自5月19日零時起(當地搭機時間)邊境嚴管措施如下：\$\@\$(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外。\$\@\$(二)暫停旅客來臺轉機。\$\@\$上述措施至6月18日止，將視疫情及執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增335例COVID-19確定病例，分別為333例本土(案1684至案2016)及2例(案2017、案2018)境外移入。\$\@\$指揮中心表示，今日新增之333例本土個案為189例女性、144例男性，年齡介於未滿5歲至90多歲，發病日/採檢日介於今(2021)年5月5日至5月16日，居住縣市分別為臺北市158例(萬華區89例最多)、新北市148例(板橋區41例最多)、桃園市10例，基隆市6例、彰化縣5例、臺中市及宜蘭縣各2例、新竹縣及苗栗縣各1例。其中臺北茶藝館155例、萬華活動史相關86例、南部進香團6例、某社團群聚相關5例、宜蘭遊藝場群聚相關3例，疫調中有38例、群聚關聯不明者40例。相關疫情調查持續進行中。\$\@\$指揮中心指出，今日新增之2例境外移入個案為菲律賓籍30多歲男性、本國籍20多歲女性，分別自菲律賓、海地入境，入境日為4月30日與5月16日，皆持有搭機前3日內檢驗陰性報告。\$\@\$指揮中心統計，截至目前國內累計245,801例新型冠狀病毒肺炎相關通報(含236,103例排除)，其中2,017例確診，分別為1,081例境外移入，883例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中(案1078、1079、1091、1092、1100、1101、1102、1105、1122、1153、1154、1183、1187、1222)；另1例(案530)移除為空號。。確診個案中12人死亡、1,123例解除隔離、882人住院隔離中。\$\@\$指揮中心籲請民眾落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-17\$\@\$中央流行疫情指揮中心今(17)日表示，因應國內本土COVID-19疫情，中央健康保險署自即日起，陸續將通報個案經檢驗陰性者及經疫調列為自主健康管理者，分別於健保醫療資訊雲端查詢系統註記為「通報個案經檢驗陰性—自主健康管理個案(14天内)」、「經疫調列為自主健康管理個案(14天内)」。\$\@\$指揮中心指出，為協助醫師快速辨識，14天自主健康管理提示，以明亮的淺黃為底色，除加大提示文字外，並於左上角標示接觸日期，以便閱覽及區辨。14天自主健康管理期滿後，自第15天起至第30天止，則以淺綠底色提示畫面顯示「曾為自主健康管理個案，但已期滿(延長提示第15至第30天)」。此次首批匯入系統註記的資料筆數分別為：通報個案經檢驗為陰性需自主健康管理14天者142筆、自主健康管理期滿延長提示第15至第30天者161筆；經疫調列入自主健康管理14天者178筆、延長提示第15至第30天者183筆。\$\@\$指揮中心表示，期望透過TOCC提示，能協助醫師快速辨識就診病患是否可能有感染風險，並提供合適的診斷或進行COVID-19檢測，以照護病患並守住醫療防線。另外也提醒可能具有感染風險並列入TOCC提示的民眾，應配合防疫措施，身體若有不適，請聯絡當地衛生機關或撥打1922協助相關就醫事項。\$\@\$指揮中心進一步指出，該系統除了將上述對象列入自主健康管理14天外，目前尚有「臺帛旅遊泡泡專案返臺者」亦為自主健康管理14天，另外「居家檢疫期滿」及「居家隔離期滿」者，則列入自主健康管理7天的提示範圍。 指揮中心表示，該系統目前已同時納入疾病管制署5月14日更新之具感染風險民眾追蹤管理機制資訊，另TOCC提示畫面亦設有「具感染風險民眾追蹤管理機制」按鈕(以紅色呈現)，點選按鈕後，可閱覽疾管署提供之防疫資料。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-16\$\@\$中央流行疫情指揮中心今(16)日宣布，因應國內COVID-19疫情進入社區流行階段，為確保國內醫療院所對疫情的因應及保全醫療量能，即日起全國醫療機構實施下列醫療應變作為：\$\@\$一、醫療營運降載：\$\@\$（一） 依病人治療之急迫性需求等，評估病人且綜合考量延遲提供病人診療的風險及疾病傳播的風險後，決定提供或延遲診療。\$\@\$（二） 可延遲診療之醫療暫緩（如：健檢、美容、預定手術或檢查、物理及職能復健等）。\$\@\$二、 加強社區監測通報採檢：\$\@\$（一） 病人於入院前一律篩檢，採檢後至入院前待在家中，避免外出。緊急需住院者，於入住病房前一律採檢。\$\@\$（二） 倘若病人檢驗結果為陰性，僅能作為當下疾病狀態之判定，但無法排除病人為已遭感染但尚在潛伏期的症狀前期(pre-symptomatic)的可能，因此應持續監測健康狀況。\$\@\$（三） 住院期間若出現發燒、呼吸道症狀、味覺嗅覺喪失、不明腹瀉等COVID-19相關症狀或醫師懷疑時進行採檢。\$\@\$三、 加強員工健康監測：\$\@\$（一） 落實工作人員每日體溫量測及健康狀況監測（包括體溫及相關症狀），並確實登錄，有疑似症狀應立即通報採檢。\$\@\$（二） 定期（5-7天）針對高風險單位醫療照護相關工作人員(如：急診、加護病房及專責病房等)進行鼻咽或深喉唾液採檢。\$\@\$四、 國際醫療暫停(特殊或緊急採專案許可除外)。\$\@\$指揮中心指出，國內醫療機構相關應變策略，將視疫情狀況滾動修正相關規定。</t>
   </si>
 </sst>
 </file>
@@ -517,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +1745,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -562,16 +1762,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -579,16 +1779,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -596,13 +1796,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -610,16 +1813,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -627,16 +1830,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -644,13 +1847,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -658,16 +1864,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,16 +1881,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -692,16 +1898,1710 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2">
         <v>44362</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E77" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E79" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E80" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E83" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E85" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E88" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44339</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44339</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E93" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44338</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44338</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44337</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44337</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E97" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44337</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E99" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E100" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44335</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44335</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44335</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E103" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44335</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44335</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44334</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E106" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44334</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44333</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E108" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44333</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44333</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44332</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E111" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -716,6 +3616,106 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,13 +31,25 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>簡訊實聯制數據係以合法性、正當性、必要性進行使用，絕無違法情事</t>
+  </si>
+  <si>
+    <t>針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增54例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>6月29日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
     <t>新增60例COVID-19確定病例，均為本土個案</t>
   </si>
   <si>
     <t>本島各機場前往離島自願快篩而呈陽性反應之旅客，將進行PCR採檢陰性後，始允許登機</t>
   </si>
   <si>
-    <t>全球Delta變異株流行，即日起，入境旅客自機場前往檢疫地點應搭乘防疫車輛</t>
+    <t>全球Delta變異株流行，即日起，入境人士前往檢疫地點應搭乘防疫車輛</t>
   </si>
   <si>
     <t>網傳「mRNA疫苗會使接種者變成轉基因生物體」，指揮中心：疫苗品質安全把關，民眾用藥有保障</t>
@@ -49,16 +61,16 @@
     <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗第一階段分配事宜</t>
   </si>
   <si>
-    <t>因應屏東Delta印度變異株群聚及相關感染事件，指揮中心已採取相關應變措施，避免感染擴大</t>
-  </si>
-  <si>
-    <t>新增78例本土COVID-19確定病例，另有2例境外移入</t>
-  </si>
-  <si>
-    <t>集中檢疫所開放高風險7國以外入境者自費入住</t>
-  </si>
-  <si>
-    <t>第二劑AZ COVID-19疫苗接種說明</t>
+    <t>/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
@@ -79,16 +91,16 @@
     <t>/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
@@ -109,16 +121,16 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日表示，簡訊實聯制的推出，係為方便民眾及商家落實實聯制措施、減少紙本紀錄的接觸，並有助於疫調人員掌握個案相關活動史及匡列接觸者等，相關數據之使用，均有其合法性、正當性、必要性，且絕無違法情事，說明如下：\$\@\$一、 合法性：衛福部依傳染病防治法第37條第1項第6款，公告「嚴重特殊傳染性肺炎(COVID-19)第三級疫情警戒標準及防疫措施裁罰規定」，規定外出時應全程佩戴口罩，並配合實聯制；行政院為遏止疫情擴散，並減少實聯制紙本填寫之接觸，推出「簡訊實聯制」，供民眾及商家使用。\$\@\$二、 正當性：簡訊實聯制係於經得使用人同意下，掃瞄QR code即完成實聯制措施；而「簡訊實聯制」並不會留下個資給店家，所留下的活動史簡訊，電信業者也只保留28天，且僅供指揮中心疫調使用，不會做目的外利用。\$\@\$三、 必要性：在疫調工作中，衛生單位人員須掌握確診個案相關之活動資訊，以即時展開接觸者匡列、環境清消等各項防疫措施，故適當的運用簡訊實聯制相關資訊，對防疫推動有實質的幫助。\$\@\$指揮中心進一步指出，簡訊實聯制自今(2021)年5月19日上線後，於6月3日起啟用實聯制資料調用機制，以供地方政府衛生局有疫情調查需求時，向指揮中心申請調閱，經審核通過後將調閱資料回復，大多數申請調用案件可於一日之內提供資料。截至6月29日，已有宜蘭縣、花蓮縣、南投縣、屏東縣、苗栗縣、桃園市、高雄市、基隆市、新北市、新竹縣、嘉義縣、彰化縣、臺中市、臺北市、臺南市、澎湖縣，共計16縣市政府衛生局調用303項資料，調用量前3名依序為桃園市衛生局、高雄市衛生局、臺中市衛生局。\$\@\$指揮中心強調，「簡訊實聯制」的推出，主要為提供民眾、商家、衛生單位不管是在配合防疫措施或執行疫調工作上便利的平臺，籲請民眾、商家配合，也請地方政府加強稽查，共同落實實聯制，完備疫調工作，達到防疫的目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」，中央流行疫情指揮中心今(29)日澄清，無法選擇疫苗廠牌，係因目前尚無法確認屆時可供應之疫苗廠牌與數量，並非為國產疫苗鋪路。\$\@\$指揮中心表示，為加速我國COVID-19疫苗接種作業，規劃辦理「COVID-19疫苗接種外展服務」，已於日前發文請各部會先行調查「規模1,000人以上企業」、「100人以上中央政府機關」等人員施打疫苗意願及進行造冊，並由各機關（構）自行評估是否有適合執行接種作業的地點及空間規劃等。\$\@\$有關媒體報導「該公文提到無法選擇疫苗廠牌，係為國產疫苗鋪路」，指揮中心澄清，係因目前尚無法確認屆時可供外展服務之疫苗廠牌與疫苗數量，並非為國產疫苗鋪路。待疫苗量充足，會依屆時可供應之疫苗廠牌與數量，再次詢問機關（構）參與外展服務與接種之意願。\$\@\$指揮中心進一步說明，有關「疫苗外展服務調查」，係為後續疫苗量充足且可全民接種時，疫苗需求量調查與分布之預先規劃。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增54例COVID-19確定病例，均為本土個案；另確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之54例本土病例(其中17例為居家隔離期間或期滿檢驗陽性者)，為19例男性、35例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月16日至6月28日。個案分布以新北市22例最多，其次為臺北市20例、桃園市及新竹縣各4例，彰化縣2例，基隆市及屏東縣各1例；其中31例為已知感染源、5例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，為5例男性、3例女性，年齡介於60多歲至80多歲，發病日介於5月9日至6月19日，確診日介於5月15日至6月20日，死亡日介於6月25日至6月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月27日累計公布13,435位確診個案中，已有10,086人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心統計，截至目前國內累計1,311,961例新型冠狀病毒肺炎相關通報(含1,295,813例排除)，其中14,748例確診，分別為1,170例境外移入，13,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計102例移除為空號。自2020年起累計643例COVID-19死亡病例，其中635例本土，個案居住縣市分布為新北市325例、臺北市245例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心表示，今(29)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情雖持續下降，惟部分縣(市)仍持續爆發群聚事件，須密切注意監測，及早發現並介入防治；另國內出現Delta變異株群聚，應強化疫調早期圍堵，避免造成社區流行。\$\@\$1.雙北部分：臺北市疫情趨緩，惟轄內近期發生市場、機構及工地等群聚，須留意防範擴散至社區；新北市疫情亦趨緩，惟各行政區仍須留意後續疫情變化。\$\@\$2.屏東縣部分：因出現Delta變異株群聚，不排除未來一週仍可能檢出相關病例，請屏東縣落實精準疫調及接觸者匡列、追蹤，早期發現病例並介入防治。\$\@\$二、有關簡訊實聯制運用於疫調處理部分，鑒於簡訊實聯制推動主要作為輔助疫調之用，建置前提為民眾上傳資訊越少越好(僅有停留場所代碼及進入之時間點)，因此請各地方政府在疫情處理上仍應以精準疫調為主，簡訊實聯制為輔，地方政府如有實聯制資料運用於疫調之需求，指揮中心資訊組將會適時協助提供。\$\@\$三、針對Delta變異株之防範，有無需要調整醫療院所感染管制措施之部分，指揮中心參考比較國外感控措施，目前尚無需調整我國現行措施。至於相關確診者個案能否共同收治入院，建議地方政府在病房收治量能允許下，仍應以一人一室為主。</t>
   </si>
   <si>
     <t>發佈日期：2021-06-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增60例COVID-19確定病例，均為本土個案；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之60例本土病例(其中31例為居家隔離期間或期滿檢驗陽性者)，為26例男性、34例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月19日至6月27日。個案分佈以新北市33例最多，其次為臺北市22例、桃園市2例，基隆市、南投縣及彰化縣各1例；其中32例為已知感染源、3例關聯不明、25例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於70多歲至90多歲，發病日介於5月23日至6月22日，確診日介於5月26日至6月24日，死亡日介於6月25日至6月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前累計1,282,057例新型冠狀病毒肺炎相關通報(含1,265,704例排除)，其中14,694例確診，分別為1,170例境外移入，13,471例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計635例COVID-19死亡病例，其中627例本土，個案居住縣市分布為新北市321例、臺北市243例、基隆市21例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月28日新增死亡COVID-19確診個案表.pdf</t>
@@ -127,28 +139,10 @@
     <t>發佈日期：2021-06-27\$\@\$有關今(6/27)日上午飛往金門航班，某旅客於機場快篩站進行快篩，因第一次篩檢結果無法成為判定的依據，在取得當事人同意後，執行第二次篩檢，呈現陰性，判定快篩結果為陰性，應予放行，另同步通知金門航空站及金門縣衛生局，以確實掌握該旅客情況。該旅客抵達金門後立即執行PCR檢測，經採檢PCR結果亦為陰性。\$\@\$目前本島各機場針對前往離島旅客執行篩檢，仍屬自願性質，並無強迫性，不只顧及防疫，亦能爭取旅客信任，鼓勵更多旅客參與篩檢，對離島的防疫防線更有幫助。惟為避免造成地方疑慮，未來於各機場快篩呈陽性或弱陽性反應之旅客，不再考慮檢驗誤差問題，將進行PCR採檢陰性後，始允許登機。</t>
   </si>
   <si>
-    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日宣布，因應Delta變異株於全球日益擴散且其傳播力高，即日起若旅客自「重點高風險國家(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」入境，則請搭乘交通部安排之的防疫車輛前往集中檢疫所。若旅客並非由前述「重點高風險國家」入境，應自費搭乘防疫車輛(或自行駕車)前往防疫旅宿或自費集中檢疫所之檢疫地點。\$\@\$指揮中心強調，入境旅客之親友勿前往機場接機，以減少病毒傳播風險，共同保護親友及社區防疫安全。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-06-27\$\@\$為保障健康安全，近日民眾踴躍接種COVID-19疫苗，關於疫苗接種後是否產生副作用也有諸多討論。針對網傳COVID-19 mRNA疫苗恐傷害人體，中央流行疫情指揮中心今（27）日澄清，疫苗中的mRNA並不會進入細胞核，不會以任何方式改變人體的DNA，或與DNA產生交互作用。而政府也會嚴格把關疫苗安全，民眾可安心接種。\$\@\$指揮中心表示，我國目前已核准緊急使用授權的COVID-19疫苗分為兩大類，其中所使用的COVID-19 mRNA疫苗，其作用原理是將含有一段可轉譯成SARS-CoV-2病毒棘蛋白的mRNA注射至體內，接種後會在人體細胞質內製造出SARS-CoV-2病毒棘蛋白，作為疫苗抗原，進而誘發人體產生免疫反應，以對抗SARS-CoV-2病毒，疫苗中的mRNA不會進入細胞核、不會改變人體的DNA，或與DNA產生交互作用。\$\@\$指揮中心重申，我國核准專案輸入的mRNA疫苗，例如莫德納疫苗，是經過衛生福利部食品藥物管理署審查廠商所提供的疫苗品質管制資料、非臨床藥毒理試驗及人體臨床試驗報告，確認疫苗的品質、安全及療效後，始予以核准。\$\@\$指揮中心表示，為確保COVID-19疫苗上市後廣泛臨床使用下國人用藥安全，我國已建立COVID-19疫苗安全資訊主動監控機制，除持續監控國外衛生主管機關發布之COVID-19疫苗安全警訊外，亦設有「疫苗不良事件通報系統(VAERS)」接受各界通報，蒐集、分析及評估我國COVID-19疫苗不良事件，並藉由收集相關安全資訊，監控其安全性，一旦發現具有未知或未預期之風險，立即啟動再評估機制，重新評估其療效與風險，並確認是否需採取相關風險管控措施。\$\@\$指揮中心再次提醒， COVID-19疫苗與其他藥品一樣，或多或少都具有一些副作用，如過敏反應等，民眾接種前應主動提供自己的身體狀況，包括是否對特定藥品過敏、慢性病或正在服用的藥品；女性則需告知是否(或可能)懷孕、準備懷孕或正在哺乳母乳等，供醫師審慎評估其臨床效益及風險。接種後則應關心身體變化，部分民眾接種COVID-19疫苗後，可能會發生接種部位疼痛、紅腫、疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心等，這些症狀通常輕微並且數天內消失，但如發生嚴重持續性頭痛、視力改變或癲癇、嚴重且持續腹痛超過24小時以上、皮膚出現自發性出血點、瘀青、紫斑、嚴重胸痛或呼吸困難、下肢腫脹或疼痛等，請立即就醫，並說明疫苗接種史，同時請醫師通報當地衛生局或衛生福利部疾病管制署。</t>
   </si>
   <si>
-    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增89例COVID-19確定病例，分別為88例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之88例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為48例男性、40例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月10日至6月26日。個案分佈以新北市41例最多，其次為臺北市33例、臺南市8例、桃園市3例，屏東縣、南投縣及新竹市各1例；其中60例為已知感染源、2例關聯不明、26例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為3例男性、6例女性，年齡介於40多歲至90多歲，發病日介於5月15日至6月22日，確診日介於5月20日至6月25日，死亡日介於6月22日至6月26日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例境外移入個案(案14719)，為本國籍20多歲男性，5月3日曾在奧地利當地檢出COVID-19陽性，6月11日自奧地利返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月24日進行檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,266,904例新型冠狀病毒肺炎相關通報(含1,250,863例排除)，其中14,634例確診，分別為1,170例境外移入，13,411例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計632例COVID-19死亡病例，其中624例本土，個案居住縣市分布為新北市319例、臺北市243例、基隆市20例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月27日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
     <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，目前進口國內之274萬劑莫德納(Ｍoderna) COVID-19疫苗將陸續完成檢驗封緘，預計於今(2021)年7月1日起，陸續配送至地方政府衛生局及指定醫療院所，並開放第一類至第八類對象接種。第一階段預計分配各地方政府衛生局約106萬劑，分兩梯次配送，第一梯次配送約64.3萬劑，預計於7月1日陸續配達，第二梯次配送約41.8萬劑，預計７月８日陸續配達(如附件)。\$\@\$指揮中心指出，第一階段疫苗各地方政府分配數量係以下列原則核估，並將依各地方政府衛生局規劃，配送至衛生局或其指定醫療院所：\$\@\$一、各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」中，尚未接種疫苗之64歲以下與75歲以上服務對象及所有照服員人數總計之6成。\$\@\$二、各縣市第五類「其他機構(含矯正機關工作人員)」尚未接種人數。\$\@\$三、各縣市莫德納(Moderna)COVID-19疫苗已分配數。\$\@\$四、各縣市65-74歲長者30%人口數。\$\@\$另第二階段各地方政府分配數量則以65-74歲長者20%人口數所需疫苗數量核估，將視第一階段疫苗接種情形配發。\$\@\$指揮中心說明，有關第七類對象「維持國家安全及社會機能正常運作者」是經由各中央目的事業主管機關認定，並依據其感染風險決定為優先接種對象後進行造冊，列為首波接種之國家關鍵設施或維持設社會正常運作必要工作人員。上述對象的疫苗需求量，原則直接配送至各部會指定之COVID-19合約醫療院所，各醫療院所可視接種量能，透過原預約機制，或安排於特定時段集中接種。惟莫德納(Moderna) COVID-19疫苗於2-8℃配達後僅能保存28天，請第七類對象於預約日或接獲通知日期後，儘速前往接種，以利指揮中心視各醫療院所接種情形與庫存量，通知醫療院所逐續開放其他類對象接種，發揮COVID-19疫苗最大效益。\$\@\$指揮中心表示，第一階段配送之莫德納(Ｍoderna) COVID-19疫苗為美國提供之250萬劑其中一部分，將以2-8℃溫層配送，其包裝為每瓶14劑，10瓶一盒，接種單位可針對當日最後一瓶疫苗開瓶的剩餘劑，規劃候補名單機制，有效利用COVID-19疫苗。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。 附件\$\@\$附件-274萬劑Moderna疫苗分配量.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，有關屏東COVID-19 Delta印度變異株群聚及其相關感染事件，目前累計12例確定病例，其中6例經基因定序後，均為Delta印度變異株，分別為秘魯境外移入確診祖孫2人(案13332、13333)及案14298、14407、14408、14409。\$\@\$指揮中心指出，該起群聚事件指標個案為當地白牌司機(案14298)，經疫調及接觸者採檢後，發現1位工作接觸者(案14409)確診，而案14409之2位家人(案14407、14408)亦同時確診，其中案14407曾於6月11日、6月14日與秘魯境外移入案13332有短暫接觸，其餘事件相關確診個案均為家庭或活動之接觸者採檢後確診。為避免感染擴大，指揮中心已採取相關應變措施如下：\$\@\$一、精準疫調並擴大匡列接觸者及採檢，另接觸者安排防疫旅館落實隔離，並於居隔期滿前採檢，截至6月25日案14298群聚相關接觸者匡列136人、共居家隔離99人、自主健康管理匡列32人，自我健康監測5人，其中已採檢124人，PCR檢驗陽性9人、陰性115人，接觸者持續擴大匡列中。\$\@\$二、6月24日起於當地設置社區篩檢站，籲請足跡重疊民眾篩檢，並加強民眾溝通配合篩檢，截至6月25日PCR篩檢共419人皆為陰性；另針對確診個案公布社區足跡點，並完成公共場所消毒。\$\@\$三、當地醫療院所加強通報及感染管制措施，請醫師協助有疑似症狀就醫民眾轉介採檢院所通報及採檢。\$\@\$四、透過廣播系統呼籲民眾落實疫情三級警戒規範，外出與工作均要全程佩戴口罩，嚴查避免群聚，另針對當地超市、超商、餐飲業、傳統市場等場所關閉三天。\$\@\$五、給予確診個案妥善臨床照護處置，如符合單株抗體、瑞德西韋使用條件則即時使用；如有出現重症前兆，迅速進行處置及治療。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增80例COVID-19確定病例，其中78例為本土個案(39例為居家隔離期間或期滿檢驗陽性者)；另有2例境外移入。另，確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為36例男性、42例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月11日至6月25日。個案分佈以新北市36例最多，其次為臺北市30例、桃園市、基隆市及屏東縣各3例，苗栗縣、彰化縣及新竹縣各1例。其中雙北地區以外縣市12例中，10例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為8例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月14日至6月20日，確診日介於5月19日至6月22日，死亡日介於6月21日至6月24日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月24日累計公布13,190位確診個案中，已有9,916人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案14591為30多歲本國籍女性，6月11日自日本返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。案14619為本國籍30多歲女性，6月11日自菲律賓返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。2名個案檢疫期間均無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,243,683例新型冠狀病毒肺炎相關通報(含1,227,748例排除)，其中14,545例確診，分別為1,169例境外移入，13,323例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計102例移除為空號。自2020年起累計623例COVID-19死亡病例，其中615例本土，個案居住縣市分布為新北市313例、臺北市241例、基隆市20例、桃園市17例、彰化縣9例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月26日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，為因應6月27日起，自COVID-19變異株「重點高風險7國(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」以外之國家入境旅客(過去14天旅遊史、含轉機)住宿需要，將開放集中檢疫所供民眾自費使用，於今日晚間8時開放訂房。\$\@\$指揮中心指出，目前全臺有49處集中檢疫所，分布於北、中、南等三區，包括各類公務人員訓練中心、軍營、停招的學校宿舍、旅館等，每人每日新臺幣2,000元整，12歲以下幼童與父或母同住一室者，不另外收費。\$\@\$指揮中心說明，民眾入住之檢疫所地點須由指揮中心分派，房內皆有網路、電視等相關設備，入住民眾亦可使用自己的手機電話與外界聯繫；集中檢疫場所均有提供三餐，餐飲會於固定時間送到檢疫房間外，再由民眾自行取用至自己的檢疫房間內用餐。\$\@\$指揮中心提醒，集中檢疫所預定今日晚間8時開放訂房，有意自費入住民眾可至「入境檢疫系統」網頁預約，預約者須於航班預計抵臺48小時前至入境檢疫系統預約、繳費，以取得預約訂房識別碼，作為入境登記使用。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，5月9日前已完成第一劑AstraZeneca COVID-19疫苗接種之民眾，皆可於接種後第10至12週公費接種第二劑。專家建議AstraZeneca COVID-19疫苗接種間隔10至12週再接種第二劑疫苗，效益更佳。若有出國急迫性須於8至10週間接種者，亦可酌情提供接種。前述對象均可至各合約醫療院所預約接種，亦建議優先考量原接種醫院，或可至疾病管制署旅遊醫學合約醫院。\$\@\$指揮中心說明，截至6月24日止，已有3.3萬人完成兩劑AstraZeneca COVID-19疫苗接種，為使民眾獲得最大免疫保護力，請4月12日至5月9日期間已接種第一劑疫苗之民眾，於接種日起間隔第10-12週後，透過各醫院預約系統預約接種第二劑疫苗。為確保該等對象第二劑AstraZeneca COVID-19疫苗接種之權益，指揮中心將依據4月12日至5月9日每週AstraZeneca COVID-19疫苗接種量，自本週起4週內，每週配送至指揮中心指定之COVID-19疫苗合約醫療院所，預計全臺4週配送量約6.9萬劑。民眾可優先於原接種醫院預約，或可至疾管署旅遊醫學合約醫院接種（院所名單詳見附件，將視各院接種與開放情形適時調整）。\$\@\$指揮中心提醒，前往接種前務必確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，並完成第二劑接種。指揮中心進一步說明，國外臨床試驗資料分析顯示，完成兩劑AstraZeneca COVID-19疫苗接種且間隔 12 週以上，保護力可達81%，籲請民眾可於第一劑接種10-12週後，完成第二劑接種，使疫苗發揮最大效益。 附件\$\@\$有開設旅遊醫學門診之醫療院所名單.pdf</t>
   </si>
 </sst>
 </file>
@@ -554,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -571,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -588,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -605,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -622,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
@@ -639,7 +633,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
@@ -656,13 +650,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -673,13 +664,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -690,13 +681,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -713,7 +701,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,15 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>指揮中心與農委會制定「批發市場防疫管理措施建議指引」 協助批發市場防疫</t>
+  </si>
+  <si>
+    <t>Moderna第三批採購疫苗41萬劑將於今(30)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增56例COVID-19確定病例，分別為55例本土及1例境外移入</t>
+  </si>
+  <si>
     <t>簡訊實聯制數據係以合法性、正當性、必要性進行使用，絕無違法情事</t>
   </si>
   <si>
@@ -61,6 +70,246 @@
     <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗第一階段分配事宜</t>
   </si>
   <si>
+    <t>因應屏東Delta印度變異株群聚及相關感染事件，指揮中心已採取相關應變措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>新增78例本土COVID-19確定病例，另有2例境外移入</t>
+  </si>
+  <si>
+    <t>集中檢疫所開放高風險7國以外入境者自費入住</t>
+  </si>
+  <si>
+    <t>第二劑AZ COVID-19疫苗接種說明</t>
+  </si>
+  <si>
+    <t>6月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為有效利用COVID-19疫苗 當日最後一瓶開瓶剩餘劑量將開放候補接種</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自6月27日零時起，全面提升入境人員檢疫措施</t>
+  </si>
+  <si>
+    <t>新增76例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>民眾使用COVID-19家用快篩試劑流程與注意事項</t>
+  </si>
+  <si>
+    <t>新增130例COVID-19確定病例，分別為129例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與相關單位持續精進「市場專案」相關措施，達到社區清零目的</t>
+  </si>
+  <si>
+    <t>指揮中心維持全國疫情警戒第三級至7月12日止，希望國人共體時艱，共同抗疫</t>
+  </si>
+  <si>
+    <t>因應臺北農產運銷公司群聚感染事件，指揮中心啟動「市場專案」強化相關防疫作為</t>
+  </si>
+  <si>
+    <t>新增104例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗之分配規劃、第一批次分配原則與接種對象</t>
+  </si>
+  <si>
+    <t>因應印度變種病毒蔓延 居家檢疫及居家隔離期滿者均須進行PCR檢測 以維護國內社區安全</t>
+  </si>
+  <si>
+    <t>6月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心說明「COVID-19疫苗公費接種對象」及現階段開放接種實施對象</t>
+  </si>
+  <si>
+    <t>新增78例COVID-19本土病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>修正雇主聘僱移工防疫指引，明定雇主應落實防疫措施</t>
+  </si>
+  <si>
+    <t>新增75例COVID-19本土病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾待身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>美國政府捐贈250萬劑Moderna COVID-19疫苗將於今(20)日傍晚抵臺</t>
+  </si>
+  <si>
+    <t>新增109例COVID-19病例，為107例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾視身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>已接種一劑AZ COVID-19疫苗之民眾，可陸續完成第二劑接種</t>
+  </si>
+  <si>
+    <t>新增128例COVID-19病例，為127例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>6月18日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增175例COVID-19本土病例</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增167例COVID-19本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>國產疫苗審查皆以科學、專業為原則，並依法規程序採購</t>
+  </si>
+  <si>
+    <t>第二批莫德納(Moderna) COVID-19疫苗預計於6月18日起配送，請合約醫療院所開啟預約掛號服務，提供符合對象者預約接種</t>
+  </si>
+  <si>
+    <t>指揮中心說明疫苗接種第二類「中央及地方政府防疫人員」含括對象</t>
+  </si>
+  <si>
+    <t>日本提供我國AstraZeneca COVID-19疫苗第二次分配量說明</t>
+  </si>
+  <si>
+    <t>補助全國快速PCR檢驗儀 加速社區檢驗量能</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增132例本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>6月15日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增263例COVID-19本土確定病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心針對好心肝診所提供非開放接種對象接種疫苗案，將由司法單位依法徹查，還原真相，嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心說明配送至臺北市轄內合約醫院協助專案對象接種事宜</t>
+  </si>
+  <si>
+    <t>因應COVID-19疫情，調整COVID-19疫苗公費優先接種對象</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例COVID-19本土確定病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19疫苗須依循指揮中心所訂之接種順序依序施打</t>
+  </si>
+  <si>
+    <t>6月8日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增219例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>國內出現自呼吸道疾病病人中分離出H1N2v流感病毒案例，病患已痊癒，疾管署呼籲民眾做好個人健康管理</t>
+  </si>
+  <si>
+    <t>加強訪查移工宿舍落實防疫工作  增訂企業因應員工確診應變處置</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增211例本土COVID-19個案、3例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級延長至6月28日，相關防疫措施持續執行，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：目前我國COVID-19疫苗無自費接種規劃，並無所謂「自費負擔」之問題存在，而未來將依序開放全體國民公費接種，相關行政費用皆由政府負擔</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增335例本土COVID-19個案，另有8例校正回歸個案</t>
+  </si>
+  <si>
+    <t>針對苗栗縣電子廠群聚感染案件，指揮中心說明前進指揮所協助防疫作為</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：全民免費接種COVID-19疫苗公費疫苗順序，將由指揮中心陸續公布</t>
+  </si>
+  <si>
+    <t>指揮中心：政府已於特別預算編列40億，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務，自6月7日起實施</t>
+  </si>
+  <si>
+    <t>指揮中心澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關確診及死亡資訊都有公開</t>
+  </si>
+  <si>
+    <t>自即日起，暫停移工轉換雇主等作業以減少人員流動 防杜疫情擴散</t>
+  </si>
+  <si>
+    <t>苗栗縣2家電子廠發生群聚感染案件，前進指揮所已立即啟動相關防疫措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
   </si>
   <si>
@@ -91,6 +340,246 @@
     <t>/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
   </si>
   <si>
@@ -121,12 +610,249 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，批發市場為供應民眾農、漁、畜等民生物資的重要營業場所，因應近期批發市場出現群聚感染事件，為確保相關場域工作人員、採購民眾自身與家人健康，指揮中心與農委會共同訂定「批發市場防疫管理措施建議指引」，呼籲各批發市場遵循，以避免群聚感染、疫情擴大。\$\@\$指揮中心進一步表示，「批發市場防疫管理措施建議指引」提供主管機關、場域管理單位及工作人員，依實際可行性與適用性，內化為適合個別場域所需的管理措施，供管理單位、從業人員及採購人員遵循辦理，以降低疫情在批發市場的發生機率、規模及社區傳播風險。\$\@\$指揮中心指出，「批發市場防疫管理措施建議指引」包含以下重點防疫措施，請各批發市場遵循，以降低疫情發生：\$\@\$人員健康管理：落實市場出入人員體溫量測、實聯制。盤點及造冊相關工作人員，落實健康狀況監測、定期篩檢及訂定健康監測計畫(包含人員名單及異常追蹤處理機制)，並鼓勵接種COVID-19疫苗。\$\@\$人流管制措施：調整市場攤位配置及營業時段，減少市場之出入口、劃定人員動線及分流措施，管制人數總量及單位時間人數。\$\@\$落實人員衛生行為：張貼標語、海報或透過廣播提醒顧客、從業人員等落實戴口罩及手部衛生，增加洗手設備可近性，並儘量使用非直接與顧客接觸之收付款方式。\$\@\$個人防護裝備建議：工作人員需佩戴口罩及面罩，視需要佩戴手套或穿著防水圍裙，拋棄式口罩不可重複使用；面罩若為可重複使用者，應確實清潔消毒後重複使用。\$\@\$環境清潔消毒：訂定環境清潔及消毒計畫，定時執行環境清潔及消毒，每天至少1次以上，並增加公共廁所衛生清潔及消毒頻率。\$\@\$出現確定病例之應變措施：訂定包括風險對象管理、風險區域管理及營運降載措施等3大應變措施，批發市場若發生確診者，應通報主管機關，風險區域須暫停營業，並視影響程度，通知供應人及承銷人至鄰近市場交易。\$\@\$指揮中心表示，農委會後續將與全國各批發市場及縣市政府召開視訊說明會，並請各縣市批發市場依據公布的指引自行訂定符合實際經營樣態的防疫作業規範，確保農產品穩定供應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，第三批Moderna疫苗41萬劑，已於歐洲時間6月29日晚上9時30分自阿姆斯特丹啟運，預定今日下午4時40分抵達桃園國際機場。\$\@\$指揮中心表示，本批疫苗為我國與供應商採購之一部分，首批15萬劑已於5月28日、第二批24萬劑也於6月18日分別到貨。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增56例COVID-19確定病例，分別為55例本土及1例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之55例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為30例男性、25例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月20日至6月29日。個案分布以新北市23例最多，其次為臺北市22例、桃園市5例，高雄市及苗栗縣各2例、屏東縣1例；其中31例為已知感染源、2例關聯不明、22例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至70多歲，發病日介於5月24日至6月16日，確診日介於5月25日至6月18日，死亡日介於6月25日至6月28日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月28日累計公布13,495位確診個案中，已有10,196人解除隔離，解隔離人數達確診人數75.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案14875)，為印度籍30多歲男性，6月27日自印度來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，因有適當防護，列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,347,513例新型冠狀病毒肺炎相關通報(含1,331,329例排除)，其中14,804例確診，分別為1,172例境外移入(原6月28日公布之本土個案14755，經疫調採檢後改判為境外移入)，13,579例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計 648例COVID-19死亡病例，其中640例本土，個案居住縣市分布為新北市329例、臺北市246例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日表示，簡訊實聯制的推出，係為方便民眾及商家落實實聯制措施、減少紙本紀錄的接觸，並有助於疫調人員掌握個案相關活動史及匡列接觸者等，相關數據之使用，均有其合法性、正當性、必要性，且絕無違法情事，說明如下：\$\@\$一、 合法性：衛福部依傳染病防治法第37條第1項第6款，公告「嚴重特殊傳染性肺炎(COVID-19)第三級疫情警戒標準及防疫措施裁罰規定」，規定外出時應全程佩戴口罩，並配合實聯制；行政院為遏止疫情擴散，並減少實聯制紙本填寫之接觸，推出「簡訊實聯制」，供民眾及商家使用。\$\@\$二、 正當性：簡訊實聯制係於經得使用人同意下，掃瞄QR code即完成實聯制措施；而「簡訊實聯制」並不會留下個資給店家，所留下的活動史簡訊，電信業者也只保留28天，且僅供指揮中心疫調使用，不會做目的外利用。\$\@\$三、 必要性：在疫調工作中，衛生單位人員須掌握確診個案相關之活動資訊，以即時展開接觸者匡列、環境清消等各項防疫措施，故適當的運用簡訊實聯制相關資訊，對防疫推動有實質的幫助。\$\@\$指揮中心進一步指出，簡訊實聯制自今(2021)年5月19日上線後，於6月3日起啟用實聯制資料調用機制，以供地方政府衛生局有疫情調查需求時，向指揮中心申請調閱，經審核通過後將調閱資料回復，大多數申請調用案件可於一日之內提供資料。截至6月29日，已有宜蘭縣、花蓮縣、南投縣、屏東縣、苗栗縣、桃園市、高雄市、基隆市、新北市、新竹縣、嘉義縣、彰化縣、臺中市、臺北市、臺南市、澎湖縣，共計16縣市政府衛生局調用303項資料，調用量前3名依序為桃園市衛生局、高雄市衛生局、臺中市衛生局。\$\@\$指揮中心強調，「簡訊實聯制」的推出，主要為提供民眾、商家、衛生單位不管是在配合防疫措施或執行疫調工作上便利的平臺，籲請民眾、商家配合，也請地方政府加強稽查，共同落實實聯制，完備疫調工作，達到防疫的目的。</t>
   </si>
   <si>
-    <t>發佈日期：2021-06-29\$\@\$針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」，中央流行疫情指揮中心今(29)日澄清，無法選擇疫苗廠牌，係因目前尚無法確認屆時可供應之疫苗廠牌與數量，並非為國產疫苗鋪路。\$\@\$指揮中心表示，為加速我國COVID-19疫苗接種作業，規劃辦理「COVID-19疫苗接種外展服務」，已於日前發文請各部會先行調查「規模1,000人以上企業」、「100人以上中央政府機關」等人員施打疫苗意願及進行造冊，並由各機關（構）自行評估是否有適合執行接種作業的地點及空間規劃等。\$\@\$有關媒體報導「該公文提到無法選擇疫苗廠牌，係為國產疫苗鋪路」，指揮中心澄清，係因目前尚無法確認屆時可供外展服務之疫苗廠牌與疫苗數量，並非為國產疫苗鋪路。待疫苗量充足，會依屆時可供應之疫苗廠牌與數量，再次詢問機關（構）參與外展服務與接種之意願。\$\@\$指揮中心進一步說明，有關「疫苗外展服務調查」，係為後續疫苗量充足且可全民接種時，疫苗需求量調查與分布之預先規劃。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增54例COVID-19確定病例，均為本土個案；另確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之54例本土病例(其中17例為居家隔離期間或期滿檢驗陽性者)，為19例男性、35例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月16日至6月28日。個案分布以新北市22例最多，其次為臺北市20例、桃園市及新竹縣各4例，彰化縣2例，基隆市及屏東縣各1例；其中31例為已知感染源、5例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，為5例男性、3例女性，年齡介於60多歲至80多歲，發病日介於5月9日至6月19日，確診日介於5月15日至6月20日，死亡日介於6月25日至6月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月27日累計公布13,435位確診個案中，已有10,086人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心統計，截至目前國內累計1,311,961例新型冠狀病毒肺炎相關通報(含1,295,813例排除)，其中14,748例確診，分別為1,170例境外移入，13,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計102例移除為空號。自2020年起累計643例COVID-19死亡病例，其中635例本土，個案居住縣市分布為新北市325例、臺北市245例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月29日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
@@ -139,10 +865,130 @@
     <t>發佈日期：2021-06-27\$\@\$有關今(6/27)日上午飛往金門航班，某旅客於機場快篩站進行快篩，因第一次篩檢結果無法成為判定的依據，在取得當事人同意後，執行第二次篩檢，呈現陰性，判定快篩結果為陰性，應予放行，另同步通知金門航空站及金門縣衛生局，以確實掌握該旅客情況。該旅客抵達金門後立即執行PCR檢測，經採檢PCR結果亦為陰性。\$\@\$目前本島各機場針對前往離島旅客執行篩檢，仍屬自願性質，並無強迫性，不只顧及防疫，亦能爭取旅客信任，鼓勵更多旅客參與篩檢，對離島的防疫防線更有幫助。惟為避免造成地方疑慮，未來於各機場快篩呈陽性或弱陽性反應之旅客，不再考慮檢驗誤差問題，將進行PCR採檢陰性後，始允許登機。</t>
   </si>
   <si>
-    <t>發佈日期：2021-06-27\$\@\$為保障健康安全，近日民眾踴躍接種COVID-19疫苗，關於疫苗接種後是否產生副作用也有諸多討論。針對網傳COVID-19 mRNA疫苗恐傷害人體，中央流行疫情指揮中心今（27）日澄清，疫苗中的mRNA並不會進入細胞核，不會以任何方式改變人體的DNA，或與DNA產生交互作用。而政府也會嚴格把關疫苗安全，民眾可安心接種。\$\@\$指揮中心表示，我國目前已核准緊急使用授權的COVID-19疫苗分為兩大類，其中所使用的COVID-19 mRNA疫苗，其作用原理是將含有一段可轉譯成SARS-CoV-2病毒棘蛋白的mRNA注射至體內，接種後會在人體細胞質內製造出SARS-CoV-2病毒棘蛋白，作為疫苗抗原，進而誘發人體產生免疫反應，以對抗SARS-CoV-2病毒，疫苗中的mRNA不會進入細胞核、不會改變人體的DNA，或與DNA產生交互作用。\$\@\$指揮中心重申，我國核准專案輸入的mRNA疫苗，例如莫德納疫苗，是經過衛生福利部食品藥物管理署審查廠商所提供的疫苗品質管制資料、非臨床藥毒理試驗及人體臨床試驗報告，確認疫苗的品質、安全及療效後，始予以核准。\$\@\$指揮中心表示，為確保COVID-19疫苗上市後廣泛臨床使用下國人用藥安全，我國已建立COVID-19疫苗安全資訊主動監控機制，除持續監控國外衛生主管機關發布之COVID-19疫苗安全警訊外，亦設有「疫苗不良事件通報系統(VAERS)」接受各界通報，蒐集、分析及評估我國COVID-19疫苗不良事件，並藉由收集相關安全資訊，監控其安全性，一旦發現具有未知或未預期之風險，立即啟動再評估機制，重新評估其療效與風險，並確認是否需採取相關風險管控措施。\$\@\$指揮中心再次提醒， COVID-19疫苗與其他藥品一樣，或多或少都具有一些副作用，如過敏反應等，民眾接種前應主動提供自己的身體狀況，包括是否對特定藥品過敏、慢性病或正在服用的藥品；女性則需告知是否(或可能)懷孕、準備懷孕或正在哺乳母乳等，供醫師審慎評估其臨床效益及風險。接種後則應關心身體變化，部分民眾接種COVID-19疫苗後，可能會發生接種部位疼痛、紅腫、疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心等，這些症狀通常輕微並且數天內消失，但如發生嚴重持續性頭痛、視力改變或癲癇、嚴重且持續腹痛超過24小時以上、皮膚出現自發性出血點、瘀青、紫斑、嚴重胸痛或呼吸困難、下肢腫脹或疼痛等，請立即就醫，並說明疫苗接種史，同時請醫師通報當地衛生局或衛生福利部疾病管制署。</t>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增89例COVID-19確定病例，分別為88例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之88例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為48例男性、40例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月10日至6月26日。個案分佈以新北市41例最多，其次為臺北市33例、臺南市8例、桃園市3例，屏東縣、南投縣及新竹市各1例；其中60例為已知感染源、2例關聯不明、26例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為3例男性、6例女性，年齡介於40多歲至90多歲，發病日介於5月15日至6月22日，確診日介於5月20日至6月25日，死亡日介於6月22日至6月26日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例境外移入個案(案14719)，為本國籍20多歲男性，5月3日曾在奧地利當地檢出COVID-19陽性，6月11日自奧地利返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月24日進行檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,266,904例新型冠狀病毒肺炎相關通報(含1,250,863例排除)，其中14,634例確診，分別為1,170例境外移入，13,411例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計632例COVID-19死亡病例，其中624例本土，個案居住縣市分布為新北市319例、臺北市243例、基隆市20例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月27日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
     <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，目前進口國內之274萬劑莫德納(Ｍoderna) COVID-19疫苗將陸續完成檢驗封緘，預計於今(2021)年7月1日起，陸續配送至地方政府衛生局及指定醫療院所，並開放第一類至第八類對象接種。第一階段預計分配各地方政府衛生局約106萬劑，分兩梯次配送，第一梯次配送約64.3萬劑，預計於7月1日陸續配達，第二梯次配送約41.8萬劑，預計７月８日陸續配達(如附件)。\$\@\$指揮中心指出，第一階段疫苗各地方政府分配數量係以下列原則核估，並將依各地方政府衛生局規劃，配送至衛生局或其指定醫療院所：\$\@\$一、各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」中，尚未接種疫苗之64歲以下與75歲以上服務對象及所有照服員人數總計之6成。\$\@\$二、各縣市第五類「其他機構(含矯正機關工作人員)」尚未接種人數。\$\@\$三、各縣市莫德納(Moderna)COVID-19疫苗已分配數。\$\@\$四、各縣市65-74歲長者30%人口數。\$\@\$另第二階段各地方政府分配數量則以65-74歲長者20%人口數所需疫苗數量核估，將視第一階段疫苗接種情形配發。\$\@\$指揮中心說明，有關第七類對象「維持國家安全及社會機能正常運作者」是經由各中央目的事業主管機關認定，並依據其感染風險決定為優先接種對象後進行造冊，列為首波接種之國家關鍵設施或維持設社會正常運作必要工作人員。上述對象的疫苗需求量，原則直接配送至各部會指定之COVID-19合約醫療院所，各醫療院所可視接種量能，透過原預約機制，或安排於特定時段集中接種。惟莫德納(Moderna) COVID-19疫苗於2-8℃配達後僅能保存28天，請第七類對象於預約日或接獲通知日期後，儘速前往接種，以利指揮中心視各醫療院所接種情形與庫存量，通知醫療院所逐續開放其他類對象接種，發揮COVID-19疫苗最大效益。\$\@\$指揮中心表示，第一階段配送之莫德納(Ｍoderna) COVID-19疫苗為美國提供之250萬劑其中一部分，將以2-8℃溫層配送，其包裝為每瓶14劑，10瓶一盒，接種單位可針對當日最後一瓶疫苗開瓶的剩餘劑，規劃候補名單機制，有效利用COVID-19疫苗。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。 附件\$\@\$附件-274萬劑Moderna疫苗分配量.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，有關屏東COVID-19 Delta印度變異株群聚及其相關感染事件，目前累計12例確定病例，其中6例經基因定序後，均為Delta印度變異株，分別為秘魯境外移入確診祖孫2人(案13332、13333)及案14298、14407、14408、14409。\$\@\$指揮中心指出，該起群聚事件指標個案為當地白牌司機(案14298)，經疫調及接觸者採檢後，發現1位工作接觸者(案14409)確診，而案14409之2位家人(案14407、14408)亦同時確診，其中案14407曾於6月11日、6月14日與秘魯境外移入案13332有短暫接觸，其餘事件相關確診個案均為家庭或活動之接觸者採檢後確診。為避免感染擴大，指揮中心已採取相關應變措施如下：\$\@\$一、精準疫調並擴大匡列接觸者及採檢，另接觸者安排防疫旅館落實隔離，並於居隔期滿前採檢，截至6月25日案14298群聚相關接觸者匡列136人、共居家隔離99人、自主健康管理匡列32人，自我健康監測5人，其中已採檢124人，PCR檢驗陽性9人、陰性115人，接觸者持續擴大匡列中。\$\@\$二、6月24日起於當地設置社區篩檢站，籲請足跡重疊民眾篩檢，並加強民眾溝通配合篩檢，截至6月25日PCR篩檢共419人皆為陰性；另針對確診個案公布社區足跡點，並完成公共場所消毒。\$\@\$三、當地醫療院所加強通報及感染管制措施，請醫師協助有疑似症狀就醫民眾轉介採檢院所通報及採檢。\$\@\$四、透過廣播系統呼籲民眾落實疫情三級警戒規範，外出與工作均要全程佩戴口罩，嚴查避免群聚，另針對當地超市、超商、餐飲業、傳統市場等場所關閉三天。\$\@\$五、給予確診個案妥善臨床照護處置，如符合單株抗體、瑞德西韋使用條件則即時使用；如有出現重症前兆，迅速進行處置及治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，為因應6月27日起，自COVID-19變異株「重點高風險7國(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」以外之國家入境旅客(過去14天旅遊史、含轉機)住宿需要，將開放集中檢疫所供民眾自費使用，於今日晚間8時開放訂房。\$\@\$指揮中心指出，目前全臺有49處集中檢疫所，分布於北、中、南等三區，包括各類公務人員訓練中心、軍營、停招的學校宿舍、旅館等，每人每日新臺幣2,000元整，12歲以下幼童與父或母同住一室者，不另外收費。\$\@\$指揮中心說明，民眾入住之檢疫所地點須由指揮中心分派，房內皆有網路、電視等相關設備，入住民眾亦可使用自己的手機電話與外界聯繫；集中檢疫場所均有提供三餐，餐飲會於固定時間送到檢疫房間外，再由民眾自行取用至自己的檢疫房間內用餐。\$\@\$指揮中心提醒，集中檢疫所預定今日晚間8時開放訂房，有意自費入住民眾可至「入境檢疫系統」網頁預約，預約者須於航班預計抵臺48小時前至入境檢疫系統預約、繳費，以取得預約訂房識別碼，作為入境登記使用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，5月9日前已完成第一劑AstraZeneca COVID-19疫苗接種之民眾，皆可於接種後第10至12週公費接種第二劑。專家建議AstraZeneca COVID-19疫苗接種間隔10至12週再接種第二劑疫苗，效益更佳。若有出國急迫性須於8至10週間接種者，亦可酌情提供接種。前述對象均可至各合約醫療院所預約接種，亦建議優先考量原接種醫院，或可至疾病管制署旅遊醫學合約醫院。\$\@\$指揮中心說明，截至6月24日止，已有3.3萬人完成兩劑AstraZeneca COVID-19疫苗接種，為使民眾獲得最大免疫保護力，請4月12日至5月9日期間已接種第一劑疫苗之民眾，於接種日起間隔第10-12週後，透過各醫院預約系統預約接種第二劑疫苗。為確保該等對象第二劑AstraZeneca COVID-19疫苗接種之權益，指揮中心將依據4月12日至5月9日每週AstraZeneca COVID-19疫苗接種量，自本週起4週內，每週配送至指揮中心指定之COVID-19疫苗合約醫療院所，預計全臺4週配送量約6.9萬劑。民眾可優先於原接種醫院預約，或可至疾管署旅遊醫學合約醫院接種（院所名單詳見附件，將視各院接種與開放情形適時調整）。\$\@\$指揮中心提醒，前往接種前務必確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，並完成第二劑接種。指揮中心進一步說明，國外臨床試驗資料分析顯示，完成兩劑AstraZeneca COVID-19疫苗接種且間隔 12 週以上，保護力可達81%，籲請民眾可於第一劑接種10-12週後，完成第二劑接種，使疫苗發揮最大效益。 附件\$\@\$有開設旅遊醫學門診之醫療院所名單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，「民眾使用COVID-19家用快篩試劑指引」已於6月19日公布(詳如新聞稿附件)。為利民眾居家正確自行檢測，指揮中心再次提醒民眾使用家用快篩試劑相關流程與注意事項。\$\@\$指揮中心指出，COVID-19家用快篩試劑可由醫療器材販賣業者、藥粧店、醫療器材行、便利商店等或藥局販售，民眾購買時，請確認產品名稱是否有「家用」、包裝是否刊載「防疫專案核准製造第XXXXXXXXXX號」或「防疫專案核准輸入第XXXXXXXXXX號」等字樣(已核准之家用快篩試劑名單可至衛生福利部食品藥物管理署[下稱食藥署]網站確認)、產品效期是否在有效期間或保存期限內，並依使用說明書或操作影片進行採檢及操作。對使用家用快篩試劑有任何疑問，可洽詢販售該產品之醫療器材商或藥局，或逕洽詢試劑廠商。\$\@\$指揮中心說明，居家隔離或居家檢疫者如測出結果為陽性時，請立即與當地衛生局聯繫，或撥打1922，依指示方式處理；非居家隔離且非居家檢疫者測出結果為陽性時，請戴好口罩，勿搭乘大眾運輸工具，儘速至鄰近的社區採檢院所進一步檢測，並將使用過之採檢器材用塑膠袋密封包好，一併攜帶至社區採檢院所，交予院所人員。當測出結果為陰性時，仍請遵循指揮中心的防疫規範，做好個人防護，持續自我健康管理，採檢完之家用快篩試劑及試劑棒勿任意棄置，請以塑膠袋密封包好，以一般垃圾處理。\$\@\$指揮中心提醒，若民眾已出現嚴重特殊傳染性肺炎相關症狀，不宜使用COVID-19家用快篩試劑自行在家檢測，應佩戴醫用口罩，儘速前往醫療院所就醫，且前往就醫時勿搭乘大眾運輸工具。另外，提醒居家快篩試劑測試結果可能出現偽陰性或偽陽性，仍需經認可實驗室所進行的「核酸檢測」作為診斷COVID-19感染之依據。COVID-19家用快篩試劑產品核准名單、說明書及操作影片均可至食藥署網站( http://www.fda.gov.tw )之業務專區 &gt; 醫療器材 &gt; COVID-19 防疫醫材專區 &gt; 家用新型冠狀病毒檢驗試劑專區查詢。 附件\$\@\$附件-民眾使用COVID-19家用快篩試劑檢驗指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增130例COVID-19確定病例，分別為129例本土個案及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之129例本土病例(其中73例為居家隔離/檢疫期間或期滿檢驗陽性者)，為64例男性、65例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月4日至6月23日。個案分佈以新北市54例最多，其次為臺北市35例、基隆市9例、桃園市7例、屏東縣及高雄市各6例、苗栗縣及新竹縣各5例、南投縣2例。其中雙北地區以外縣市40例中，38例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性5位、女性1位，年齡介於50多歲至90多歲，發病日介於5月11日至6月4日，確診日介於5月15日至6月5日，死亡日介於6月18日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月22日累計公布12,958位確診個案中，已有9,288人解除隔離，解隔離人數達確診人數71.7%。\$\@\$指揮中心表示，案14386為本國籍60多歲女性，於6月9日自巴西返臺，持有登機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，6月22日檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,180,033例新型冠狀病毒肺炎相關通報(含1,164,226例排除)，其中14,389例確診，分別為1,167例境外移入，13,169例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號病例(案10029)，累計102例移除為空號。自2020年起累計605例COVID-19死亡病例，其中597例本土，個案居住縣市分布為新北市304例、臺北市237例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣、新竹縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月24日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，為精進臺北農產運銷公司COVID-19群聚感染事件相關防疫作為，於昨(23)日晚間再次召開會議，與農委會、雙北市政府、雙北農產/果菜運銷公司進行專業溝通及討論「市場專案」各項細節，並於會中達成三點共識如下：\$\@\$一、自6月24日零時起，雙北批發市場所有從業人員未持有陰性檢驗證明者不得進場，請雙北市協調警力於現場維持秩序；另亦設置快篩站至6月24日零時，提供尚未篩檢者快篩服務。\$\@\$二、落實疫調、找出熱區：指揮中心將蒐集本案相關疫調資訊，並與雙北市政府、臺北農產運銷股份有限公司及新北市果菜運銷股份有限公司建立疫調資料交流機制，儘速釐清造成此波感染事件之問題及劃分疫情熱區，以利批發市場、零批市場及周遭傳統市場執行後續防疫因應作為。\$\@\$三、考量多有跨縣市至雙北批發市場之工作者，為即時發覺潛在個案，有效阻斷傳播鏈，確診個案由居住地縣市進行精準疫調及接觸者匡列作業，其中職場接觸者匡列由職場所在縣市進行。另疾管署將成立平台協助各地方政府整合資訊，讓疫調更加完整。\$\@\$指揮中心進一步說明，考量快篩或PCR檢驗陰性僅代表個案現階段不具病毒傳播力，雙北批發市場所有從業人員亦應持續落實動線分流、人員降載等相關防疫措施，減少傳播風險；另請臺北農產運銷股份有限公司、新北市果菜運銷股份有限公司針對從業人員進行健康監測，以及早掌握可能個案，並及時進行各項防治措施。\$\@\$指揮中心強調，本專案結束後，將持續設置篩檢站三週，提供周邊攤商及社區民眾就近篩檢，達到社區清零目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，針對臺北農產運銷公司發生COVID-19群聚感染事件，指揮中心於昨(22)日召開會議，與農委會、臺北市政府、臺北農產運銷公司共同討論疫情狀況並研商「市場專案」強化相關防疫作為，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、啟動「市場專案」快速全面篩檢，確保雙北批發市場從業人員防疫安全，避免傳播至家戶及社區之風險，並以社區儘速清零為目標。\$\@\$二、自6月24日零時起，雙北批發市場所有從業人員未持有6月20日以後檢驗陰性證明者不得進場，且規定須於完成篩檢後方得接種COVIID-19疫苗。\$\@\$三、為提升雙北批發市場各從業人員篩檢意願，篩檢站設置應鄰近市場並配合其作業時間；專案結束後，仍延長篩檢站設置時間，以利周邊攤商及社區民眾就近篩檢，以社區清零。\$\@\$四、為加快篩檢速度且減少偽陰性及偽陽性情形，建議僅進行PCR採檢，提升篩檢作業效率；如檢驗陽性者，請地方政府衛生局落實後續疫調及接觸者匡列工作，並請提供疾管署彙整轉送居住地縣市，以進行後續疫調及匡列作業。\$\@\$五、考量雙北批發市場貨車司機及隨車捆工停留於市場時間較短暫，該類人員之篩檢、疫調及接種作業，將請臺北農產運銷公司提供人員名冊，由指揮中心轉居住地縣市政府辦理。\$\@\$六、推動北北基桃批發市場從業人員逐步施打疫苗，以雙北批發市場優先實施，所需疫苗均由指揮中心提供。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增104例COVID-19確定病例，均為本土個案；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之104例本土病例，為45例男性、59例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月10日至6月22日。個案分佈以新北市45例最多，其次為臺北市22例，高雄市及新竹縣各9例，桃園市7例，苗栗縣4例，基隆市3例，宜蘭縣2例，彰化縣、南投縣及屏東縣各1例。其中雙北地區以外縣市37例中，28例為已知感染源，5例關聯不明，4例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，為男性15位、女性9位，年齡介於40多歲至80多歲，發病日介於4月11日至6月14日，確診日介於4月13日至6月16日，死亡日介於6月13日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月21日累計公布12,879位確診個案中，已有9,041人解除隔離，解隔離人數達確診人數70.2%。\$\@\$指揮中心統計，截至目前國內累計1,148,916例新型冠狀病毒肺炎相關通報(含1,133,240例排除)，其中14,260例確診，分別為1,166例境外移入，13,041例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案14228)，累計101例移除為空號；自2020年起累計599例COVID-19死亡病例，其中591例本土，個案居住縣市分布為新北市301例、臺北市235例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月23日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國於今(2021)年6月18日及6月20日共計進口274萬劑莫德納(Moderna) COVID-19疫苗，預計於7月1日起配送至地方政府衛生局及指定醫療院所。自7月1日起，國內COVID-19疫苗接種對象(不限廠牌)擴增如下：\$\@\$1.第一類對象，醫事人員(包含醫事執登人員及醫事機構非醫事人員)\$\@\$2.第二類對象，中央及地方政府防疫人員、第一線處理大體之工作人員\$\@\$3.第三類對象，高接觸風險第一線工作人員\$\@\$4.第四類對象，因特殊情形必要出國者(因公出國者、外交駐臺員眷、代表國家出國之運動員或選手)\$\@\$5.第五類對象，包括「住宿型長照機構住民及其照護者」、「居家式和社區式長照機構及身障服務照服員及服務對象」、「其他機構(含矯正機關工作人員)」及洗腎患者，以及「矯正機關（構）工作人員」\$\@\$6.第六類對象，包括75歲以上長者及孕婦\$\@\$7.第七類對象，維持國家安全及社會機能正常運作者\$\@\$8.第八類對象，65-74歲長者\$\@\$9.已完成第一劑疫苗者，可依建議接種第二劑之時間，以同廠牌完成接種。\$\@\$指揮中心指出，第一批疫苗預計配送110萬劑，係以下列原則核估各縣市分配數量，並配送至各地方政府衛生局或其指定醫療院所：\$\@\$1.各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」與「其他機構(含矯正機關工作人員)」尚未接種人數\$\@\$2.各縣市莫德納(Moderna)COVID-19疫苗第一劑已分配數\$\@\$3.各縣市65-74歲長者30%人口數\$\@\$指揮中心說明，為確保維持國家及社會正常運作的相關基礎設施不受COVID-19疫情影響，第七類對象需經各中央主管機關認定並造冊，列為國家關鍵設施或維持設社會正常運作必要工作人員，並送指揮中心。經中央主管機關認定符合前述條件並造冊之對象，除了已陸續配送的國防軍事相關人員之外，包括高鐵、臺鐵、油氣水電與通訊等國家關鍵設施必要人員、全國第一線郵務處理人員、國家(含大考)等考試工作人員、高密度接觸孩童的幼兒園與國小安親班教育人員、托育機構人員、各類批發市場與屠宰市場工作人員、科學園區防疫工作人員、媒體第一線採訪工作人員、戶役政系統機房人員等。\$\@\$指揮中心表示，針對疫情較高風險的雙北等縣市，從事保母、計程車駕駛、外送員、國道客運司機、貨運司機、傳統市場合法攤商及賣場（含超商）收銀人員等，共計約50萬人，將特別納入此批COVID-19疫苗實施對象。上述對象的疫苗需求量將直接配送至各部會指定醫療院所。另，基於65-74歲長者一旦感染容易產生嚴重併發症或導致死亡，亦同時開放接種。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、在維持加強全國三級警戒等相關管制措施下，雙北市疫情已逐步趨緩，惟各縣市仍有零星爆發群聚事件發生，建議各縣市政府持續加強疫調及接觸者追蹤管理，以及早發現個案、控制疫情。另，端午節連假後對疫情之影響部分，目前尚未有相關影響發生，請各地方政府持續密切注意所轄區域疫情發展狀況，進一步強化社區篩檢及病例監測能力，以防止疫情反彈或新一波流行爆發出現。\$\@\$二、有關COVID-19疫情三級警戒期間，社區式長照服務雖暫時停止服務，但居家式長照服務及送餐服務仍會持續提供獨居失能長者。為因應防疫及持續關懷獨居長者生活與健康狀況，指揮中心就強化相關關懷服務訂定「COVID-19疫情三級警戒期間強化獨居長者關懷服務措施」，請各地方政府落實執行，重點包括：\$\@\$(一)強化服務機制部分：由地方政府整合社政、衛政、民政、警政單位及民間團體之力量，重新盤整資源，強化人力調度、支援及緊急處理機制。針對超過24小時聯繫未果之長者，建立緊急處理啟動機制結合網絡資源前往實地訪視。\$\@\$(二)加強關懷服務部分：針對列冊需關懷之獨居長者，由地方政府透過既有關懷服務體系，或協調由社區照顧關懷據點之專職人力及志工排班，每隔1日定時以電話或其他通訊方式關懷長者，了解其生活及健康狀況。針對暫未使用服務之長者，亦列為關懷對象，由地方政府協調照管中心、長照服務提供單位與鄰里資源，每隔1日定時以電話或其他通訊方式關懷長者。\$\@\$三、疫苗配發及接種：\$\@\$(一)指揮中心表示，有關各地方政府及外界關注之AZ疫苗自費施打第1劑之對象，其第2劑部分，以公費實施接種；另第1劑和第2劑施打不同廠牌疫苗部分，指揮中心目前建議第1劑、第2劑以施打同樣廠牌疫苗為主，不建議混合施打。\$\@\$(二)針對部分縣市將里鄰長納入第2類優先施打對象部分，指揮中心再次向地方政府説明，里鄰長等對象如確有實際執行居家檢疫、居家隔離等高風險對象之追蹤關懷、送餐、訪視等第一線工作，可納入第2類人員，請各地方政府確實查核，並應完成造冊作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，衛生福利部傳染病防治諮詢會預防接種組(ACIP)於6月20日召開第3次臨時會議，專家針對COVID-19疫苗工作小組歷次會議進行確認，討論COVID-19疫苗公費接種對象，經考量孕婦為 COVID-19 感染後容易產生嚴重併發症或導致死亡之族群，為保障懷孕婦女及胎兒健康，建議孕婦應接種COVID-19 疫苗並納入第六類優先接種對象。\$\@\$指揮中心指出，依據現階段國內外疫情及疫苗供貨情形，目前開放實施對象包括第一類至第三類、第五類之「住宿型長照機構住民及其照護者」、「洗腎患者」及第六類「75歲以上長者」及「孕婦」。此外提醒已接種第一劑AZ COVID-19疫苗者，請於間隔10至12週後完成第二劑接種，使疫苗發揮最大效益；指揮中心亦將於6月23日再就4月12日至5月9日前已接種第一劑之人數進行疫苗配發，以使民眾可陸續完成第二劑接種。\$\@\$另指揮中心進一步說明，莫德納(Moderna) COVID-19疫苗現階段作業為開放第一類至第三類人員及孕婦接種，惟顧及孕婦胎兒狀況及多重健康狀況考量，建議孕婦接種前應與醫師就風險效益詳細評估後，擇適合廠牌進行接種。\$\@\$指揮中心強調，將持續視疫情狀況及疫苗供貨情形，滾動調整開放接種實施對象，保障民眾接種權益，守護民眾健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增79例COVID-19確定病例，其中78例為本土個案，另有1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為35例男性、43例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月14日至6月21日。個案分佈以新北市43例最多，其次為臺北市25例，南投縣3例，基隆市2例，苗栗縣、彰化縣、桃園市、臺中市及新竹縣各1例。其中雙北地區以外縣市10例中，8例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性3位、女性3位，年齡介於50多歲至80多歲，發病日介於5月19日至6月19日，確診日介於5月28日至6月21日，死亡日介於6月17日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月20日累計公布12,806位確診個案中，已有8,087人解除隔離，解隔離人數達確診人數63.2%。\$\@\$指揮中心表示，今日新增1例境外移入個案（案14257）為本國籍50多歲男性，長期於印尼工作，6月20日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，6月21日出現喉嚨痛等症狀，由衛生單位安排就醫採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,107,543例新型冠狀病毒肺炎相關通報(含1,091,972例排除)，其中14,157例確診，分別為1,166例境外移入，12,938例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增2例空號 (案10380、案14131)，累計100例移除為空號；自2020年起累計575例COVID-19死亡病例，其中568例本土，個案居住縣市分布為新北市291例、臺北市223例、基隆市18例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，將自今(2021)年6月23日起，陸續配發AZ COVID-19疫苗至地方政府衛生局，提供先前已接種第一劑AZ COVID-19疫苗的民眾完成兩劑疫苗接種，以提升免疫保護力。\$\@\$指揮中心說明，截至6月18日止，已有2.7萬名民眾完成兩劑AZ COVID-19疫苗接種，核估目前可調度的剩餘疫苗數量，可提供4月12日至5月9日以前約6.7萬名已接種第一劑疫苗的民眾繼續接種第二劑AZ COVID-19疫苗，並視疫苗供應及接種情形，適時調整疫苗配發進度。\$\@\$指揮中心表示，根據世界衛生組織( World Health Organization, WHO)與醫學期刊「刺胳針」(The Lancet)等國外臨床試驗資料分析顯示，完成兩劑AZ COVID-19疫苗(間隔 80 天)的追蹤結果證實，可預防6成以上有症狀感染之風險；當接種間隔 12 週以上且完成 2 劑接種，保護力可達 81%。基此，我國衛生福利部傳染病防治諮詢會預防接種組（ACIP）專家建議兩劑AZ COVID-19疫苗接種間隔至少8週，而間隔10至12週再接種第二劑疫苗的效益更佳，故指揮中心籲請民眾可於第一劑接種後10-12週完成第二劑接種，使疫苗發揮最大效益。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，於接種後請在接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心也提醒民眾，接種AZ COVID-19疫苗後的28天內，如有發生嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當的臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增128例COVID-19確定病例，分別為127例本土個案及1例境外移入；確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之127例本土病例，為60例男性、67例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月18日。個案分佈以新北市81例最多，其次為臺北市30例，桃園市8例，新竹縣3例，新竹市、基隆市各2例，臺中市1例。其中雙北地區以外縣市16例中，12例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性10位、女性10位，年齡介於50多歲至90多歲，發病日介於5月13日至6月12日，確診日介於5月20日至6月17日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月17日累計公布12,385位確診個案中，已有7,189人解除隔離，解隔離人數達確診人數58%。\$\@\$指揮中心表示，今日新增1例境外移入，為本國籍10多歲男性，5月25日曾於印度確診，6月5日自印度返臺，持有搭機前3日內檢驗陰性證明，入境時採檢陰性，後至集中檢疫所檢疫，6月18日檢疫期滿前採檢，於今日確診(Ct值37)。個案檢疫期間並無症狀，亦無接觸他人，故無框列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,044,211例新型冠狀病毒肺炎相關通報(含1,028,898例排除)，其中13,896例確診，分別為1,163例境外移入，12,680例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增3例空號(案6822、案13764、案13800)，累計98例移除為空號。自2020年起累計538例COVID-19死亡病例，其中531例本土，個案居住縣市分布為新北市265例、臺北市215例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月19日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、考量目前國內社區傳播風險仍然存在，請高風險地區持續辦理擴大社區篩檢，雙北部分，建議社區篩檢站設置可以民眾就醫可近性為考量，發生零星案例之地方政府建議加強接觸者追蹤管理，以防堵疫情擴散；另請地方政府持續強化輕症個案之健康監測與轉診效率，尤其針對弱勢族群及獨居老人應提供主動關懷。另對於目前確診病例數持續緩降，爰請各地方政府回復著重疫調及接觸者追蹤管理作業，以利及早發現個案，降低死亡發生。\$\@\$二、疑似感染 COVID-19 之死亡案例死因相驗原則：\$\@\$1.關於相驗，現行法規適用無疑。\$\@\$2.疫情期間猝死個案一律PCR採檢，現階段由雙北地區先施行。\$\@\$3.PCR採檢執行部分：行政相驗由醫師執行，司法相驗由法醫採檢。\$\@\$4.相關檢驗費用由公務預算支出。\$\@\$三、診所辦理自費快篩收治指引及收費標準：\$\@\$1.檢驗方法：以抗原快篩為初篩方法，若為抗原快篩陽性，需以核酸檢驗進行確認。\$\@\$2.檢驗試劑：經食藥署核准防疫專案製造或輸入的SARS-CoV-2抗原快速檢驗試劑，提醒在購買及使用皆須事先確認是否符合相關法規。\$\@\$3.採檢人員：依據傳染病防治法第46條第1項第1款，確定病例的檢體，應該由醫師採檢為原則；疑似病例或社區通報採檢病例的咽喉或鼻咽拭子等接觸者檢體，則不限由醫師採檢，得由醫師或其他醫事人員採檢。\$\@\$四、疫苗配撥及施打部分：\$\@\$1.再次重申疫苗施打目標族群請依指揮中心造冊之對象，依序進行施打，避免造成施打亂象。至於各地方政府提出納入COVID-19疫苗接種對象之相關建議部分，指揮中心均會就各類人員可能受感染風險狀況，作為納入公費施打對象之評估與考量。\$\@\$2.鑒於天氣炎熱，對於年長者施打疫苗部分，請各地方政府儘量安排在地區診所或社區注射站進行，也可運用機動快打方式為長者提供施打服務，避免讓年長者因行程往返造成身體不適情形。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，並於今日邀集專家就「疫苗不良事件通報系統(VAERS)」通報的COVID-19疫苗接種後死亡個案進行討論。指揮中心表示，截至目前為止，尚未有死亡個案被判定為與疫苗相關。\$\@\$指揮中心統計，截至6月17日為止，國內接種AstraZeneca COVID-19疫苗共計1,273,121人次，其中229,566人次為75歲以上長者。又目前VAERS已收到25例接種AstraZeneca COVID-19疫苗後死亡之報告，其中20例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病；部分個案經司法相驗解剖後，初步死因與心血管疾病或慢性病史相關，惟迄目前為止，尚未有死亡個案被判定為與疫苗相關，指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$此外，指揮中心亦針對近期高齡者接種COVID-19疫苗，提供以下建議：\$\@\$1. 對於近期身體具狀況或慢性病情不穩定者，建議身體狀況較穩定後再接種。\$\@\$2. 近期天氣炎熱，考量長者身體狀況，建議避開高溫時段前往接種。\$\@\$3. 現有開放診所及衛生所可接種疫苗，建議就近前往接種。\$\@\$指揮中心提醒，所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日指出，近日有媒體報導「國光在疫苗研發上，疑因試驗基準不公而慘遭淘汰」及「聯亞遭受衛福部刁難，所提的第三期臨床試驗替代方案遭漠視」等相關訊息，指揮中心嚴正澄清，衛生福利部食品藥物管理署(下稱「食藥署」)及財團法人醫藥品查驗中心(下稱「醫藥品查驗中心」)對於國內COVID-19疫苗臨床試驗計畫申請，皆採取一致性審查標準，包括諮詢輔導、召開週會及專家會議均一視同仁，秉持公平公正，提供最合適、最可行之法規科學建議，並無偏袒特定廠商。\$\@\$指揮中心表示，有關國光公司申請第二期臨床試驗一事，食藥署已於110年2月9日函復廠商審查結果，也於函中敘明食藥署之考量，絕無審查不公相關情事。另，有關報導所提聯亞公司提出「圈選接種 (Ring Vaccination)」的國內第三期臨床試驗規劃，食藥署及醫藥品查驗中心亦於諮詢週會給予相關建議，例如：如何選擇指標個案、樣本數估算、施打及追蹤時程、施打劑數之合理性等，供廠商進行相關評估，但截至目前食藥署仍未收到該廠商後續規劃及申請。\$\@\$指揮中心指出，考量疫情及國際公共衛生緊急需求，為加速國產疫苗及早上市，針對COVID-19疫苗研發及輔導，食藥署及醫藥品查驗中心採滾動式審查機制(rolling review)，並針對重要關鍵製程，派員駐廠監製，協助廠商於研發過程能符合法規要求，以縮短研發及審查時程，並確保疫苗品質、安全及療效。\$\@\$指揮中心表示，該中心採購COVID-19疫苗，包括先前採購國外疫苗，均為預採購模式。此次採購國產疫苗是依據政府採購法第105條第1項第2款「因人民之生命、身體、健康、財產遭遇緊急危難」辦理。惟採購合約細節基於保密要求，相關資訊暫不便對外透露。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日表示，將於6月18日起，配送第二批莫德納(Moderna) COVID-19疫苗73,200劑，同時開放第一類至第三類對象接種，請獲配之合約醫療院所開啟預約掛號服務，提供上述對象預約接種，提升群體免疫力。\$\@\$指揮中心說明，莫德納(Moderna) COVID-19疫苗已於6月9日起陸續提供第一類醫事及非醫事人員接種，截至昨(15)日累計接種3萬7,505人。為儘速提升第二類及第三類對象免疫保護力，將於6月18日起進行第二次配送，同時開放至第三類對象接種。本次疫苗配送量是以各縣市符合第一類至第三類對象中，尚未接種人數接種率４成核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）分配數量係以尚未接種人數接種率達5成以上計算，總計配送63,200劑。\$\@\$指揮中心表示，另10,000劑疫苗提供交通部認定之第二類及第三類對象所需疫苗量，其中分配給國籍航空機組員5,000劑，含長榮、立榮、華航、華信、台灣虎航、星宇及飛特立等7家公司的駕駛員、空服員與隨機維修員等；另外5,000劑分配給民航航空第一線人員，含桃園機場及相關廠商、民航局、航空站、航管人員、飛機維修、倉儲、地勤及空廚等人員。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。另，依據各國疫苗上市後安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等的不良反應事件，大多發生在接種後數天內，指揮中心特別提醒民眾，接種mRNA 疫苗後，應注意如出現胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，有關COVID-19疫苗，在世界各國及世界衛生組織指引中，皆將防疫人員與醫護人員列在優先施打對象，目的是為了執行疾病防治工作保護民眾，維持社會安定；而我國也將此類人員列為優先施打的對象。\$\@\$指揮中心進一步指出，第二類中央及地方政府防疫人員包含對象為：「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」、「港埠執行邊境管制之海關檢查(Customs)、證照查驗(Immigration)、人員檢疫及動植物檢疫(Quarantine)、安全檢查及航空保安(Security)等第一線工作人員」、「實際執行居家檢疫與居家隔離者關懷服務工作可能接觸前開對象之第一線人員(含警察、提送餐等服務之村里長或村里幹事、垃圾清運之環保人員、心理諮商及特殊狀況親訪等人員)」、「實際執行救災、救護人員(指消防隊及民間救護車執行緊急救護技術之第一線人員)」、「第一線海巡、岸巡人員」、「實施空中救護勤務人員」及協助防疫工作之國軍人員，該項下截至6/15已造冊人數計約16.2萬人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$有關COVID-19疫苗放置臺北市醫院，提供中央造冊之外國使節等施打一事，中央流行疫情指揮中心今(9)日表示，因特殊情形必要出國者，可由各該主管機關提具需求說明、預估接種人數及時程，向中央流行疫情指揮中心以專案方式，申請接種公費COVID-19疫苗。目前已專案申請接種對象包括我國因外交或公務需求奉派出國者、代表我國出國之運動員或參賽選手等。另基於互惠原則，駐臺外交人員及其在臺眷屬亦屬專案同意接種對象。針對此類專案指揮中心會視疫苗進口期程及供應量整體評估提供。\$\@\$指揮中心進一步說明，考量該類專案對象其工作地點多位於臺北市，且其工作性質需分批次接種，故依專案需求，撥配疫苗至單位指定院所，提供該類對象接種；目前撥配及接種狀況如下：\$\@\$一、疾病管制署庫存30瓶，係供該署尚未接種第一劑及須接種第二劑之防疫人員接種，本週預計接種30人次，並依照業務安排陸續完成接種。\$\@\$二、三軍總醫院附設民眾診療服務處計配送70瓶，提供國軍協助防疫旅館消毒之化學兵接種，已全數接種完畢。\$\@\$三、臺北市立仁愛醫院計配送180瓶，係提供華航機師及機組員接種，截至目前約250人尚未接種，預計本週完成接種。\$\@\$四、三軍總醫院北投分院計配送100瓶，供總統護衛等國安人員接種，截至目前，尚有250人未接種，庫存14 瓶，預計本週完成接種。\$\@\$五、臺北醫學大學附設醫院，係提供食品藥物管理署員工接種，已全數接種完畢。\$\@\$六、臺大醫院配送20瓶，供指揮中心委託研究計畫之研究對象使用，已全數接種完畢。\$\@\$七、指揮中心另請臺北市榮民總醫院協助接種外交使節、因公務需求有必要出國者及代表國家出國之運動選手疫苗接種事宜，目前約400人還未接種。\$\@\$指揮中心強調，針對上述指揮中心同意列冊施打對象，總計配送650瓶疫苗，目前已接種共計5,400人次，尚未接種為1,200人次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日表示，昨(8)日衛生福利部傳染病防治諮詢會預防接種組(ACIP)召開專家會議，討論COVID-19疫苗優先接種順序。會中專家表示，因應國內正處於COVID-19社區流行階段現況，為使醫療、防疫業務正常運作，確保感染後易產生嚴重併發症或導致死亡之對象儘速獲得免疫保護力，同時確保社會及國家設施正常運作，降低疫情造成之衝擊，建議調整「COVID-19疫苗優先接種順序」，將「維持機構及社福照護系統運作」及「75歲以上長者」分別列於第五類及第六類對象，並將「經各主管機關認定之關鍵設施工作人員」、「運輸及倉儲業者」、「高中職以下學校教職員工與校內工作人員」及「幼兒園托育人員及托育機構專業人員」列入第七類「維持國家安全及社會機能正常運作」對象，需報指揮中心同意。\$\@\$指揮中心說明，日本提供我方之124萬劑AstraZeneca COVID-19疫苗完成檢驗封緘後，預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所，並依ACIP專家決議之優先接種順序，於本批疫苗開始供應後，同時開放「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」，優先接種COVID-19疫苗。指揮中心將視疫苗供應期程、數量、優先接種對象接種情形及國內外疫情現況，適時調整疫苗分配數量及開放接種對象。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。\$\@\$指揮中心再次感謝日本政府於此疫情艱難，且全球疫苗產能供不應求之際，及時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助。指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日澄清，有關媒體報導某臺北診所開放民眾連夜施打 COVID-19疫苗案，指揮中心重申，有關現階段COVID-19疫苗之撥配，係由各地方政府統籌分配予所轄合約醫療院所，針對於合約醫療院所提供接種服務，應符合目前公費接種對象優先順序，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市，則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。另針對3月22日至4月11日已完成第一劑之公費對象，於間隔10至12週後，開放接種第二劑。\$\@\$指揮中心說明，針對媒體所報導之情事，已請臺北市政府衛生局進行瞭解及處理，另指揮中心聲明，合約醫療院所提供接種服務應符相關規範，並落實感染管制相關指引，同時應規劃維持社交距離避免群聚感染。如經查執行其接種作業有違指揮中心相關接種政策或實施對象者，可依傳染病防治法第29條處以30萬至200萬罰鍰；也再次強調中央與地方「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂之COVID-19疫苗接種順序，進行施打作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心表示，今(8)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、近期國內疫情仍處高峰期，因感染而死亡的個案增加，指揮中心將持續與地方政府掌握及協調醫療資源，迅速應變，請地方政府衛生機關加強設置社區篩檢站，提高民眾採檢可近性，降低社區擴散風險。\$\@\$二、針對端午節連假前後，南北往返的大眾運輸系統購票率以及各觀光景點飯店住房率，指揮中心均與相關部會保持密切聯繫，持續掌握人流狀況，適時強化防疫措施；請各地方政府加強連假期間易造成人潮聚集區域的人流管控，同時呼籲民眾暫緩返鄉，減少人流移動。\$\@\$三、加強及落實移工防疫管理部分：\$\@\$(一) 針對北部電子工廠發生群聚感染案件，指揮中心已成立前進指揮所，協助相關廠區緊急應處，也請地方政府協助企業團體強化因應措施。\$\@\$(二) 勞動部昨(7)日已發布實施「暫停移工轉換至新雇主」，以及「暫緩雇主調派移工至其他廠區工作」作業，力求降低移工人流，並修訂「雇主聘僱移工指引」，增訂「企業因應疫情處置」；勞動部另將儘速發布補助要點，補助雇主因移工隔離以及宿舍降載，所須支出之必要防疫措施費用。\$\@\$四、針對大賣場及傳統市場的人流管制，屬高風險地區的地方政府已加強推動實聯制，並運用身分證單、雙號分流，進行人流管控。此外，經濟部已與地方政府研商擬訂5大措施，以加強傳統市場人流管制，請其他地方政府配合施行。\$\@\$五、針對COVID-19疫苗的分配與接種，請各地方政府及醫療院所依據指揮中心所訂之疫苗接種順序，進行施打作業。\$\@\$六、 經考量疫情進展與防疫量能餘裕，快篩陽性及輕症、無症狀確診者收治原則調整如下：\$\@\$(一) 快篩陽性尚未確診者：雖仍得採居家隔離一人一室，因考量收治量能餘裕已擴大，同意各縣市如量能足夠，得一律安排收住於集中檢疫場所，或加強型防疫旅館，並請地方政府再次盤點相關量能。\$\@\$(二) 輕症、無症狀確診者：應儘速收治於集中檢疫場所及加強型防疫旅館。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增219例COVID-19確定病例，均為本土個案。確診個案中新增22例死亡。\$\@\$指揮中心表示，今日新增之219例本土病例，為117例男性、102例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月22日至6月7日。以新北市123例最多，其次為臺北市54例，苗栗縣16例，桃園市13例，基隆市8例，彰化縣2例，臺南市、新竹市及臺中市各1例。其中雙北地區以外縣市42例中，36例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增22例死亡個案，共計為男性15位、女性7位，年齡介於30多歲至100多歲，發病日介於5月13日至5月30日，確診日介於5月18日至6月4日，死亡日介於5月30日至6月7日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計698,373例新型冠狀病毒肺炎相關通報(含675,836例排除)，其中11,694例確診，分別為1,148例境外移入，10,493例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增16例空號 (案7378、9643、10704、10856、11304、11305、11306、11378、11379、11380、11382、11383、11385、11386、11393、11396)，累計65例移除為空號。確診個案中308例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$疾病管制署今(7)日表示，本(2021)年4月接獲醫院通報，一名住中部之5歲女童流感輕症病患之呼吸道檢體分離出無法次分型之A型流感病毒，經該署進一步檢驗並進行基因定序為H1N2v流感病毒。經調查個案密切接觸者6名，其中3人有類流感症狀，經檢驗均未發現H1N2v流感病毒感染，經邀集農政單位及相關醫學與獸醫專家召開會議討論，依上述現有流行病學調查結果研判，本案應屬散發個案，與國際過去案例類似，無證據顯示有人傳人現象，衛生及農政單位亦將持續加強人類、動物與環境之監測。\$\@\$疾管署指出，這名女童未曾出國，家中從事禽畜養殖業，本年3月12日出現流鼻水及咳嗽症狀，3月13日開始發燒，3月14日因持續發燒而就醫，流感快篩為A型陽性，經醫師評估無需住院，開立流感抗病毒藥劑後返家，目前已康復。4月5日自該名女童呼吸道檢體分離出H1N2v流感病毒，另針對呼吸道感染常見病毒如腺病毒、呼吸道融合病毒、冠狀病毒、腸病毒及鼻病毒等進行檢測，均呈陰性反應。此外，農政單位亦自病例家族經營之養豬場豬隻採集檢體檢驗，結果未檢出H1N2流感病毒。\$\@\$國際間H1N2為存在豬隻的低病原性流感病毒，很少在人群中傳播，但偶爾有人類感染之報告，全球2012-2021年累計30例H1N2v流感確診病例，分布於美洲地區，以美國為多，其次為巴西，病例多具有豬隻暴露史或曾暴露於受汙染環境，並不會透過食用肉品而感染。本次由病患所分離之病毒基因序列，與本土過去於豬隻分離之H1N2流感病毒株最為接近，但不相同，對克流感及瑞樂沙等抗病毒藥物敏感。\$\@\$疾管署提醒，防範新型A型流感，民眾應遵守「5要6不」原則，「5要」：肉類及蛋要熟食、要以肥皂澈底洗手、出現症狀，要戴口罩速就醫並告知職業及接觸史、與禽畜長期接觸者要接種流感疫苗、要均衡飲食及適當運動；「6不」：不生食禽鳥蛋類或製品、不走私及購買來路不明肉品、不接觸或餵食動物、不野放及隨意丟棄動物、不將飼養動物與其他禽畜混居、不去空氣不流通或人潮壅擠的場所。相關資訊可至疾管署全球資訊網（https://www.cdc.gov.tw/），或撥打免費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日表示，為促使聘有移工企業落實防疫工作及員工確診應變處置，勞動部採取以下四大措施：\$\@\$一、增訂企業因應疫情之處置：將修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，並自下列規範公告之日起實施：\$\@\$（一）廠區未發生或部分廠區發生疫情時，應備有1人1室隔離空間、工作區及生活區應分艙分流，同產線移工應同一住宿地點、不得任意變動、每天進行員工健康監測由專人確認、追蹤及轉送疑似症狀者採檢並隔離。\$\@\$（二）廠區有1名員工確診後，應即匡列職場密切接觸者，並確實執行居家隔離於有單獨衛浴設備之套房。衍生隔離費用，必要時將由勞動部部分補貼。\$\@\$二、訪查潛在高風險企業：勞動部偕同地方政府已開始訪查，針對產業聘僱移工人數達50人以上宿舍共計1, 168家，預計6月10日訪查完畢。\$\@\$三、補助移工隔離及宿舍降載：勞動部將補助雇主必要防疫措施的部分費用，包括移工採檢後隔離期間費用，及鼓勵雇主降載移工每房居住人數轉住租賃建物、一般旅館或防疫旅館費用，並協調地方政府受理申請。\$\@\$四、加強宣導防疫措施：已於6月6日以「LINE@移點通」主動推播、發布新聞稿、移工權益網站、1955臉書及多國語廣播電臺，呼籲移工非必要不要外出，提醒桃竹苗地區之家事移工，注意自身健康情形，若有症狀或接觸史，儘速登記快篩。\$\@\$指揮中心表示，近期苗栗縣電子廠之移工群聚感染案件，勞動部已駐點前進指揮所現場，協助個案雇主與仲介公司，加強移工防疫及預防感染擴大：\$\@\$一、清理個案宿舍及進出管制：協助清空共用衛浴之移工宿舍，部分移工送集中檢疫所、部分隔離於其他有獨立衛浴房間，其餘人員禁止外出及限制出房門。\$\@\$二、實地關懷移工給予支持：自6月6日起，派駐雙語人員於前進指揮所，協助疫調翻譯，並每日早晚放送廣播關懷移工、關懷每日健康監測狀況，並啟動隔離移工關懷機制，由1955專線雙語人員主動電話關懷隔離移工情緒給予心理支持，及提供防疫包(溫度計、口罩、消毒用品、家鄉零食、1955專線電話、Line@移點通）。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增214例COVID-19確定病例，分別為211例本土個案及3例境外移入個案。確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之211例本土病例，為106例男性、105例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年5月21日至6月6日。個案分布地區以新北市82例最多，其次為臺北市60例，苗栗縣45例，彰化縣8例，新竹市、桃園市、澎湖縣及基隆市各3例，宜蘭縣、嘉義縣、屏東縣及新竹縣各1例。其中雙北地區以外縣市69例中，64例為已知感染源，1例有萬華區活動史，4例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性20位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月2日，確診日介於5月12日至6月5日，死亡日介於5月31日至6月6日，詳如新聞稿附件。\$\@\$指揮中心表示，今日新增3例境外移入中，案11500、案11501分別為40多歲及20多歲菲律賓籍男性，5月15日來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，6月5日自主健康管理期滿前自費採檢，於今日確診。案11052為本國籍40多歲男性，6月5日自印度返臺，持有搭機前3日內陰性報告，入境時無症狀，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計671,160例新型冠狀病毒肺炎相關通報(含648,841例排除)，其中11,491例確診，分別為1,148例境外移入，10,290例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另49例(新增案10772、10826、10829、11143、11144、11146、11147、11148、11149、11155、11177、11179、11184、11190、11193、11194、11225、11227、11228、11229、11230)移除為空號。確診個案中286例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日宣布，因應本土疫情持續嚴峻，全國疫情警戒第三級延長至6月28日止，請全國民眾與政府共同持續努力，嚴守社區防線。相關措施如下：\$\@\$一、民眾外出應全程佩戴口罩，一經查獲有違反情事，將不再勸導，逕予開罰。\$\@\$二、經公告應關閉的休閒娛樂場所，將嚴查不得營業，並對違法營業的業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$六、關閉休閒娛樂場、觀展觀賽場所及教育學習場域。\$\@\$七、停止室內5人以上、室外10人以上之家庭聚會(同住者不計)和社交聚會，並避免不必要移動、活動或集會。\$\@\$八、自我健康監測，有症狀應就醫。\$\@\$九、營業場所及洽公機關(構)應落實人流管制，戴口罩、保持社交距離。\$\@\$十、職場及工作處所應遵守企業持續營運指引的防疫規定，落實個人及工作場所衛生管理，啟動企業持續營運因應措施，如異地或遠距辦公、彈性時間上班。\$\@\$十一、公共場域、大眾運輸加強清消。\$\@\$指揮中心說明，針對近期醫院及長照機構感染事件，指揮中心已請全國醫院停止開放探病(例外情形除外)，住院病人的陪病者以1人為限，執行至全國三級警戒降級為止。至於長照機構，除停止開放機構住民探視，也要求非必要性特殊情況，盡量避免住民請假外出，並強化門禁管理，避免不必要的人員進出，同時持續落實每日工作人員、服務對象與陪住人員等體溫及健康監測，掌握其COVID-19暴露風險情形。\$\@\$指揮中心強調，現在是防疫的關鍵時刻，惟有民眾與政府互相配合、共同抗疫，才可控制疫情，維護全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，目前我國COVID-19疫苗優先提供公費對象接種，民眾不用負擔疫苗費用，6月7日起也無須負擔其他行政費用。未來將會依序逐漸擴大至全體國民皆能公費接種，目前更無自費接種規劃，並無所謂「自費負擔」之問題存在。今(2021)年5月31日經立法院三讀通過的「嚴重特殊傳染性肺炎防治及紓困振興特別條例」，加上去年所編列之疫苗預算，行政院已編列共約340億用來購買全民公費疫苗，今年則額外編列約40億元預算，用以負擔疫苗接種所需之醫療院所行政費用，讓符合公費資格者，在面對疫情挑戰時，不用擔心還要花錢施打疫苗。\$\@\$指揮中心表示，現階段開放的公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放的公費對象，也將視疫苗供應充裕情況，逐步列入公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增335例本土COVID-19確定病例，另有校正回歸本土個案8例，總計343例。確診個案中新增36例死亡。\$\@\$指揮中心表示，今日新增之335例本土病例，為189例男性、146例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月24日至6月5日。另校正回歸個案8例中，為3例男性、5例女性，年齡介於20多歲至60多歲，發病日介於6月1日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共343例，分布地區以新北市160例最多，其次為苗栗縣75例、臺北市64例、桃園市16例、宜蘭縣9例、雲林縣、高雄市、彰化縣及新竹縣各3例，基隆市、臺中市及臺南市各2例，嘉義市1例。其中雙北地區以外縣市119例中，107例為已知感染源，7例關聯不明、5例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增36例死亡個案，共計為男性22位、女性14位，年齡介於50多歲至90多歲，發病日介於5月7日至6月1日，確診日介於5月13日至6月5日，死亡日介於5月28日至6月4日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計656,768例新型冠狀病毒肺炎相關通報(含634,762例排除)，其中11,298例確診，分別為1,145例境外移入，10,100例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另28例(新增案10494)移除為空號。確診個案中260例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日表示，針對苗栗縣電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、所有外籍移工停止上班，居家隔離，薪資照付。\$\@\$二、高風險區移工安排入住集中檢疫所；中低風險區就地居家隔離，並進行健康監控。\$\@\$三、本國籍員工確診者立即進行疫調，匡列接觸者，依規定進行隔離。其餘員工，加強健康監控。\$\@\$四、所有確診者皆已完成就醫安置。\$\@\$五、經工業局、防疫醫師及廠方進行會勘，依防疫計畫有條件降載復工。\$\@\$指揮中心指出，截至6月5日，第1家電子公司共計182案確診 (24名本國籍、158名外國籍），已匡列接觸者399名；第2家電子公司共計12案確診 (均為外國籍)；第3家電子公司共計12案確診 (2名本國籍、10名外國籍)。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，有關昨(5)日公布之「自6月7日起，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務」新聞稿之內容，是指因應國內疫情嚴峻，指揮中心自6月7日起將依序提供符合「COVID-19疫苗接種計畫」之公費對象免費接種疫苗，相關施打順序將由指揮中心依據專家會議規定計畫，評估群體風險性，陸續開放施打。\$\@\$指揮中心表示，現階段開放之公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗之第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放之公費對象，也將於後續儘快開放公費接種。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$鑒於本土疫情嚴峻，應絕對禁止廠區和廠區間的移工流動。中央流行疫情指揮中心今(5)日表示， 地方政府及勞動部應協助苗栗某電子廠公司的移工避免離開宿舍，並於這段期間與地方政府合作，減少移工不必要的外出，以減少移工群聚發生。\$\@\$指揮中心指出，請雇主及仲介公司自即日起，配合辦理下列事項：\$\@\$一、自即日起針對移工非必要轉換至新雇主之作業，於第三級警戒期間暫緩作業。\$\@\$二、自即日起針對同一雇主不同廠區間的派工，於第三級警戒期間暫緩調派。\$\@\$三、確實依照勞動部發布嚴重特殊傳染性肺炎雇主聘僱移工指引，辦理防疫作業。\$\@\$指揮中心強調，基於國內防疫安全，近期將由勞動部與地方政府針對移工人數達五百人以上企業與百人以上大型移工宿舍進行訪查，實地督導雇主與仲介業者落實防疫指引，並請勞動部規劃補助企業改善宿舍防疫環境，以強化防疫量能。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，針對苗栗縣2家電子公司廠房發生COVID-19群聚事件，指揮中心已於昨(4)日設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關作為如下：\$\@\$一、加速篩檢執行：昨日經動員後於第1家電子公司共開設18條篩檢線，每小時可執行350-500人次篩檢，截至昨日（6/3-6/4）共完成採檢4,599人，累計抗原快篩陽性59人，其中PCR檢驗共56人陽性確診、3人陰性。今日進行其餘約2,451人之採檢，截至中午尚餘約1,500人待採，將於今日完成採檢工作。\$\@\$二、宿舍、職場及外部風險評估及安置：針對第1家電子公司確診個案之宿舍及廠區分布，劃定風險區域，安排相關宿舍樓層之清空及人員區隔安置，密切接觸者送集中檢疫所或防疫旅館居家隔離，今日預計移出280位。另第2家電子公司之相關接觸者已匡列安排隔離安置及採檢，該公司亦於今天展開全員約4千人篩檢。\$\@\$三、由經濟部即刻派遣產業專家進駐前進指揮所，協助防疫醫師與電子場規劃廠區作業、休息及用餐等活動之分艙分流，如無法執行，即要求停工。\$\@\$四、由勞動部即刻派員確保仲介公司之移工管理，落實住宿人數降載及確保分艙分流，並就仍需共用衛浴之宿舍環境問題予以解決；移工宿舍人員禁止外出部分，加強管理並協調警政協處。\$\@\$五、為避免本國勞工將疫情帶入社區，請該公司緊急通知員工留置家中，如家庭環境無法落實一人一室者，公司應協助安排合適住宿地點。\$\@\$指揮中心指出，截至6月4日，第1家電子公司共計131案確診（14名本國籍、117名外國籍），已匡列接觸者323名，均已採檢；第2家電子公司共計9案確診。相關疫調持續進行中。</t>
   </si>
 </sst>
 </file>
@@ -517,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -562,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -579,16 +1425,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -596,16 +1442,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2">
         <v>44376</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -613,16 +1459,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -630,16 +1473,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -647,13 +1490,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -661,16 +1507,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -678,13 +1524,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2">
         <v>44374</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -692,16 +1541,1259 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
-        <v>44373</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -716,6 +2808,86 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,15 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>指揮中心延長全國疫情警戒第三級至7月26日止，嚴守社區防線，並適度鬆綁部分措施</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為18例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>針對媒體報導「指揮中心設局召開記者會」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
     <t>指揮中心訂購第二批AZ疫苗62.6萬劑將於今(7)日下午抵臺</t>
   </si>
   <si>
@@ -61,6 +70,246 @@
     <t>新增80例COVID-19確定病例，分別為76例本土及4例境外移入</t>
   </si>
   <si>
+    <t>針對6月8日起曾在臺北市環南市場活動人員，將發送疫情警示簡訊</t>
+  </si>
+  <si>
+    <t>新增58例COVID-19確定病例，分別為57例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>7月2日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自7月2日中午12時加強國際港埠入境人員健康監測</t>
+  </si>
+  <si>
+    <t>國內新增2例日本腦炎病例，籲請民眾出入高風險場所加強防蚊，並按時帶幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>即日起，恢復家庭類移工轉換雇主，雇主應於接續當日安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>新增50例COVID-19確定病例，分別為47例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與農委會制定「批發市場防疫管理措施建議指引」 協助批發市場防疫</t>
+  </si>
+  <si>
+    <t>Moderna第三批採購疫苗41萬劑將於今(30)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增56例COVID-19確定病例，分別為55例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>簡訊實聯制數據係以合法性、正當性、必要性進行使用，絕無違法情事</t>
+  </si>
+  <si>
+    <t>針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增54例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>6月29日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>新增60例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>本島各機場前往離島自願快篩而呈陽性反應之旅客，將進行PCR採檢陰性後，始允許登機</t>
+  </si>
+  <si>
+    <t>全球Delta變異株流行，即日起，入境人士前往檢疫地點應搭乘防疫車輛</t>
+  </si>
+  <si>
+    <t>網傳「mRNA疫苗會使接種者變成轉基因生物體」，指揮中心：疫苗品質安全把關，民眾用藥有保障</t>
+  </si>
+  <si>
+    <t>新增89例COVID-19確定病例，分別為88例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗第一階段分配事宜</t>
+  </si>
+  <si>
+    <t>因應屏東Delta印度變異株群聚及相關感染事件，指揮中心已採取相關應變措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>新增78例本土COVID-19確定病例，另有2例境外移入</t>
+  </si>
+  <si>
+    <t>集中檢疫所開放高風險7國以外入境者自費入住</t>
+  </si>
+  <si>
+    <t>第二劑AZ COVID-19疫苗接種說明</t>
+  </si>
+  <si>
+    <t>6月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為有效利用COVID-19疫苗 當日最後一瓶開瓶剩餘劑量將開放候補接種</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自6月27日零時起，全面提升入境人員檢疫措施</t>
+  </si>
+  <si>
+    <t>新增76例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>民眾使用COVID-19家用快篩試劑流程與注意事項</t>
+  </si>
+  <si>
+    <t>新增130例COVID-19確定病例，分別為129例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與相關單位持續精進「市場專案」相關措施，達到社區清零目的</t>
+  </si>
+  <si>
+    <t>指揮中心維持全國疫情警戒第三級至7月12日止，希望國人共體時艱，共同抗疫</t>
+  </si>
+  <si>
+    <t>因應臺北農產運銷公司群聚感染事件，指揮中心啟動「市場專案」強化相關防疫作為</t>
+  </si>
+  <si>
+    <t>新增104例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗之分配規劃、第一批次分配原則與接種對象</t>
+  </si>
+  <si>
+    <t>因應印度變種病毒蔓延 居家檢疫及居家隔離期滿者均須進行PCR檢測 以維護國內社區安全</t>
+  </si>
+  <si>
+    <t>6月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心說明「COVID-19疫苗公費接種對象」及現階段開放接種實施對象</t>
+  </si>
+  <si>
+    <t>新增78例COVID-19本土病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>修正雇主聘僱移工防疫指引，明定雇主應落實防疫措施</t>
+  </si>
+  <si>
+    <t>新增75例COVID-19本土病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾待身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>美國政府捐贈250萬劑Moderna COVID-19疫苗將於今(20)日傍晚抵臺</t>
+  </si>
+  <si>
+    <t>新增109例COVID-19病例，為107例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾視身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>已接種一劑AZ COVID-19疫苗之民眾，可陸續完成第二劑接種</t>
+  </si>
+  <si>
+    <t>新增128例COVID-19病例，為127例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>6月18日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增175例COVID-19本土病例</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增167例COVID-19本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>國產疫苗審查皆以科學、專業為原則，並依法規程序採購</t>
+  </si>
+  <si>
+    <t>第二批莫德納(Moderna) COVID-19疫苗預計於6月18日起配送，請合約醫療院所開啟預約掛號服務，提供符合對象者預約接種</t>
+  </si>
+  <si>
+    <t>指揮中心說明疫苗接種第二類「中央及地方政府防疫人員」含括對象</t>
+  </si>
+  <si>
+    <t>日本提供我國AstraZeneca COVID-19疫苗第二次分配量說明</t>
+  </si>
+  <si>
+    <t>補助全國快速PCR檢驗儀 加速社區檢驗量能</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增132例本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>6月15日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
   </si>
   <si>
@@ -91,6 +340,246 @@
     <t>/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
   </si>
   <si>
@@ -121,13 +610,253 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，在國人共同努力配合下，國內疫情已在控制中，惟仍有部分感染事件發生，參酌世界各國管制作為及經驗，防疫措施鬆綁須逐步執行，才可穩定掌握疫情狀況，為確保國人健康，指揮中心經評估後決定，同步延長全國疫情警戒第三級至7月26日止，並適度鬆綁部分措施，說明如下：\$\@\$一、適度鬆綁措施：\$\@\$(一)    有條件鬆綁對象（地方政府得視防疫需要因時因地調整）：\$\@\$1.    戶外：國家公園、國家風景區、遊樂園區、休閒農場、森林遊樂區、植物園、文化園區、學校操場、駕訓班。\$\@\$2.    室內：美術館、博物館、電影院、表演場館(無觀眾)、社教機構、文化中心。\$\@\$3.    室內外運動場館(游泳池除外)、高爾夫球場。\$\@\$4.    餐飮場所(餐廳、傳統市場及夜市、百貨賣場 美食街、美食區等)符合指揮中心指引得內用。\$\@\$5.    國內小型旅行團(9人以下)、劇組拍攝。\$\@\$(二)    上述鬆綁須遵照通案性原則及主管機關指引：\$\@\$1.    實聯制、出入口管制、人流管控降載。\$\@\$2.    維持社交距離，除飮食外，全程戴口罩。\$\@\$3.    員工人員健康管理、確診事件即時應變。\$\@\$二、三級警戒延長仍須關閉之場所：\$\@\$(一)    休閒娛樂場所：\$\@\$歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、指壓按摩場所、健身休閒中心(含提供指壓、三溫暖等設施之美容瘦身場所)、保齡球館、撞球場、室內螢幕式高爾夫練習場、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、自助選物販賣機營業場所、釣蝦場、桌遊場所及其他類似場所。\$\@\$(二)    教育學習場域：\$\@\$社區大學、樂齡學習中心、訓練班(駕訓班除外)、K書中心等其他類似場所。\$\@\$(三)    觀展觀賽場所：\$\@\$會展場館、游泳池等其他類似場所。\$\@\$指揮中心表示，鬆綁過程是疫情重要關鍵，籲請全國民眾持續落實遵循並積極配合三級警戒管制及鬆綁規定相關措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增21例COVID-19確定病例，分別為18例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為8例男性、10例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月1日至7月7日。個案分布以臺北市12例最多，其次為新北市6例；其中9例為已知感染源、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至70多歲，發病日介於5月27日至6月14日，確診日介於5月28日至6月17日，死亡日介於7月5日至7月6日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月6日累計公布13,889位確診個案中，已有11,456人解除隔離，解隔離人數達確診人數82.5%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15252為本國籍30多歲男性，6月23日自泰國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月6日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15253為印尼籍20多歲男性漁工，5月10日自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月23日檢疫期滿前採檢結果為陰性，7月7日因有離境需求再次採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者221人，其中60人列居家隔離，餘161人列自我健康監測。案15254為本國籍10多歲女性，7月6日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,541,974例新型冠狀病毒肺炎相關通報(含1,525,372例排除)，其中15,149例確診，分別為1,193例境外移入，13,903例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計 718例COVID-19死亡病例，其中710例本土，個案居住縣市分布為新北市363例、臺北市272例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$針對媒體報導「指揮中心設局召開記者會」，中央流行疫情指揮中心今(8)日說明如下：\$\@\$一、針對臺北市環南市場進行大規模PCR篩檢且41人呈現陽性，顯示有群聚感染疫情，指揮中心於7月2日11:30前往環南市場現場召開記者會，並宣布與臺北市政府共同成立聯合前進指揮所。\$\@\$二、當日陳時中指揮官於9:45致電黃珊珊副市長，黃副市長將電話轉交給柯文哲市長，陳指揮官與柯市長直接通話，雙方對成立聯合前進指揮所達成共識，並在環南市場現場召開記者會。\$\@\$三、當日農委會陳吉仲主委於10:00多左右，親自致電二通予臺北市黃副市長，並於第二通電話中明確告知黃副市長，陳指揮官、經濟部王美花部長及農委會陳吉仲主委將至環南市場召開記者會，並邀請黃副市長出席，黃副市長表示柯市長也會出席。\$\@\$四、指揮中心表示，當日均依照指揮中心記者會程序，發布採訪通知；指揮中心幕僚抵達環南市場後，亦與臺北市市場處高副處長確認記者會場地、流程及雙方出席人員，同時與現場媒體溝通說明記者會流程，及預定出席人員。\$\@\$五、當日11:01，臺北市府陳智菡發言人於臺北市府群組發布採訪通知，說明柯市長、黃副市長皆會出席記者會； 11:20柯市長、黃副市長抵達環南市場。\$\@\$六、指揮中心說明，為儘快有效控制疫情，召開記者會說明防疫作為及因應措施，以利相關市場攤商、工作人員及周邊住民了解需配合之事項，並無「以開會名義設局召開記者會」一事。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日表示，第二批AstraZeneca疫苗約62.6萬劑，預定今日下午3時40分抵達桃園國際機場。\$\@\$指揮中心說明，本批疫苗為我國與供應商(阿斯特捷利康公司)採購之一部分，首批11.7萬劑已於3月3日到貨，第二批今日抵臺疫苗完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，該公司也協助交付經由COVAX供應和日本捐贈的AstraZeneca疫苗。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至110年10月30日。</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增40例COVID-19確定病例，分別為39例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之39例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為21例男性、18例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月6日。個案分布以臺北市與新北市各14例最多、其次為桃園市11例；其中23例為已知感染源、4例關聯不明、12例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為4例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月13日至6月27日，確診日介於5月18日至6月29日，死亡日介於7月3日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月5日累計公布13,862位確診個案中，已有11,277人解除隔離，解隔離人數達確診人數81.4%。\$\@\$指揮中心表示，今日新增境外移入個案(案15208)，為本國籍40多歲女性，7月4日自泰國入境，持有搭機前3日內檢驗陰性報告，個案入境時並無症狀，於機場採檢後至檢疫旅館檢疫，於今日確診，衛生單位已匡列個案同班機前後2排座位旅客共7人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,532,252例新型冠狀病毒肺炎相關通報(含1,515,985例排除)，其中15,128例確診，分別為1,190例境外移入，13,885例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計105例移除為空號。自2020年起累計累計715例COVID-19死亡病例，其中707例本土，個案居住縣市分布為新北市361例、臺北市271例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月7日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。</t>
+    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增40例COVID-19確定病例，分別為39例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之39例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為21例男性、18例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月6日。個案分布以臺北市與新北市各14例最多、其次為桃園市11例；其中23例為已知感染源、4例關聯不明、12例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為4例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月13日至6月27日，確診日介於5月18日至6月29日，死亡日介於7月1日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月5日累計公布13,862位確診個案中，已有11,277人解除隔離，解隔離人數達確診人數81.4%。\$\@\$指揮中心表示，今日新增境外移入個案(案15208)，為本國籍40多歲女性，7月4日自泰國入境，持有搭機前3日內檢驗陰性報告，個案入境時並無症狀，於機場採檢後至檢疫旅館檢疫，於今日確診，衛生單位已匡列個案同班機前後2排座位旅客共7人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,532,252例新型冠狀病毒肺炎相關通報(含1,515,985例排除)，其中15,128例確診，分別為1,190例境外移入，13,885例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計105例移除為空號。自2020年起累計累計715例COVID-19死亡病例，其中707例本土，個案居住縣市分布為新北市361例、臺北市271例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。 圖片 附件\$\@\$網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除.jpg</t>
   </si>
   <si>
     <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增29例COVID-19確定病例，分別為27例本土及2例境外移入；另確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之27例本土病例(其中15例為居家隔離期間或期滿檢驗陽性者)，為17例男性、10例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月10日至7月5日。個案分布以臺北市14例最多，其次為新北市11例、屏東縣及彰化縣各1例；其中17例為已知感染源、10例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，為14位男性、3位女性，發病日介於5月16日至7月2日，確診日介於5月19日至7月5日，死亡日介於6月28日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月4日累計公布13,831位確診個案中，已有11,180人解除隔離，解隔離人數達確診人數80.8%。\$\@\$指揮中心表示，今日新增境外移入個案中，案15180為本國籍10多歲男性，7月4日自美國入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於機場採檢後至防疫旅館檢疫，7月5日出現嗅味覺異常等症狀，於今日確診，相關接觸者匡列中。案15185為本國籍30多歲男性，6月30日自印尼入境，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並進行採檢，當日採檢結果為陰性；7月4日出現發燒、肌肉痠痛、流鼻水等症狀，7月5日由衛生單位採檢送驗，於今日確診，同班機旅客均已入境採檢並入住集中檢疫所。\$\@\$指揮中心統計，截至目前國內累計1,503,584例新型冠狀病毒肺炎相關通報(含1,487,019例排除)，其中15,088例確診，分別為1,189例境外移入，13,846例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號(案10180、案13124)，累計105例移除為空號。自2020年起累計706例COVID-19死亡病例，其中698例本土，個案居住縣市分布為新北市354例、臺北市269例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月6日新增死亡COVID-19確診個案表.pdf</t>
@@ -139,7 +868,151 @@
     <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心表示，今(6)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.疾病傳播能力雖呈現下降趨勢，惟部分縣市仍有群聚事件爆發，請各地方政府持續密切注意監測，早期發現並介入；另國內出現Delta變異株相關群聚，將強化國內病毒變異株基因監測外，鑒於該病毒株具高傳播力，未來可能成為主流病毒變異株，爰請各地方政府重新檢視病患收治轉送及醫療照護體系量能之整備。\$\@\$2.雙北部分，臺北市出現較大規模市場群聚，考量市場人流多屬不特定對象，請該市衛生機關加強轄內社區、市民及醫療院所警覺，並於市場周邊設置篩檢站；新北市亦有出現家禽市場群聚，請該市衛生機關持續留意後續疫情變化。\$\@\$二、疫苗施打意願登記與預約系統\$\@\$1.有關行政院唐鳳政務委員設計開發之「疫苗施打意願登記與預約系統」，重點如下：\$\@\$1)登記與預約四步驟：意願登記→1922以簡訊通知符合資格民眾→預約接種→接種疫苗。\$\@\$2)登記對象：第9類(18歲至64歲，患有高風險疾病、罕見疾病或重大傷病者)及第10類(50-64歲成人)符合公費疫苗接種對象。\$\@\$3)預約及登記平台：可採線上1922.gov.tw或手機app「健保快易通」(全名「全民健保行動快易通」)預約，或者持健保卡到超商、藥局、衛生所插卡預約。\$\@\$4)試辦時間及區域：7月6日上午10點至7日下午5點開放登記，7月8日上午10點至9日下午5點開放預約，於金門、馬祖、澎湖進行試辦。後續視試辦2週之成效後，再推動至全國。\$\@\$2.本系統啟動條件，以中央流行疫情指揮中心開放對象，進行逐步啟動，現行為第9及第10類民眾，另針對偏鄉或年長者意願及預約登記服務部分，請各地方政府各鄉鎮市公所提供協助作業。\$\@\$3.至於疫苗配撥安排，現階段以毎週提供單一品牌疫苗預約為原則，後續視疫苗到貨情況再行研議調整。\$\@\$三、針對第七類優先接種對象認定及疫苗配發施打作業，指揮中心依各專案主管部會造冊人數陸續進行疫苗核撥作業，鑒於造冊施打對象亦為各縣市的居民，且疫苗撥配量原則會多於專案造冊人數，爰請地方政府協助各部會疫苗依施打作業或計畫，進行各該對象之接種作業。</t>
   </si>
   <si>
+    <t>發佈日期：2021-07-05\$\@\$針對近日媒體報導「疾病管制署造冊人數，超過編制內人數」一事，中央流行疫情指揮中心今(5)日表示，為維持防疫體系運作，相關防疫人員與醫護人員均列為COVID-19公費疫苗接種的優先施打對象，包含第一類「維持醫療量能–醫事人員」及第二類「中央及地方政府防疫人員」，其中第二類對象為「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」以及「港埠執行邊境管制之海關檢查、證照查驗、人員檢疫及動植物檢疫、安全檢查及航空安全等第一線工作人員」等。\$\@\$指揮中心指出，疾管署為COVID-19防疫主責機關，負責疫情監控、邊境檢疫、社區防疫、感染管制及病毒檢驗事項等相關業務，該署造冊1,261人，其對象除了編制內人員(正式職員、聘僱人員、工級人員)850人外，尚有研發替代役、臨時人員、駐點及承攬人員等411人，該等人員負責協助支援各項業務推動，包含協勤保全人員、資訊委外駐點等，協助邊境檢疫作業及檢疫、隔離與預防接種等系統管理維運，均擔負重要職責，亦屬指揮中心公布之第一類「維持醫療量能–醫事人員」及第二類「維持防疫量能-中央及地方政府防疫人員」。\$\@\$指揮中心強調，因應COVID-19疫情，為維持防疫量能，又將防疫視同作戰，故以防疫業務推動與確保同仁防護能力為首要，進行相關人員接種作業，以避免影響防疫業務的正常運作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為9例男性、19例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月19日至7月4日。個案分布以臺北市15例最多，其次為新北市5例、桃園市3例、苗栗縣2例，屏東縣、基隆市及新竹縣各1例；其中16例為已知感染源、1例關聯不明、11例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案12752)，為70多歲女性，具慢性病史及其他確診者接觸史；個案於6月11日出現發燒、呼吸困難症狀，同日就醫採檢並住院治療，6月12日確診，7月3日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月3日累計公布13,792位確診個案中，已有11,008人解除隔離，解隔離人數達確診人數79.8%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15152為本國籍未滿5歲女童，6月21日自美國入境，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月4日進行期滿前採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，相關接觸者匡列中。案15155為本國籍20多歲男性，7月1日自英國返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，當日採檢結果為陰性，7月2日出現鼻塞、喉嚨癢、輕微發燒等症狀，7月4日通報衛生單位後安排採檢送驗，於今日確診(Ct值22)，相關接觸者匡列中。案15164為本國籍50多歲男性，7月2日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,472,827例新型冠狀病毒肺炎相關通報(含1,455,971例排除)，其中15,061例確診，分別為1,187例境外移入(原7月4日公布之本土個案15109、15110 ，經疫調採檢後改判為境外移入)，13,821例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計689例COVID-19死亡病例，其中681例本土，個案居住縣市分布為新北市349例、臺北市261例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增39例COVID-19確定病例，分別為37例本土及2例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之37例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為12例男性、25例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月17日至7月3日。個案分布以臺北市18例最多，其次為新北市11例、桃園市及彰化縣各3例、宜蘭縣2例；其中16例為已知感染源、3例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增2例死亡個案(案8089、12577)，分別為70多歲女性及80多歲男性，發病日為5月18日及6月9日，確診日為5月30日及6月11日，死亡日為7月2日及6月17日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月2日累計公布13,712位確診個案中，已有10,868人解除隔離，解隔離人數達確診人數79.3%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15113為本國籍50多歲女性，7月2日自柬埔寨返臺，持有搭機前3日內檢驗陰性報告，入境時有發燒症狀，在機場採檢後送醫治療，於今日確診；相關接觸者匡列中。案15129為本國籍30多歲男性，6月30日起陸續出現頭痛、喉嚨痛及流鼻水等症狀，7月3日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境時主動通報有症狀並在機場採檢，於今日確診；已掌握個案同行返臺之友人1名，其在臺期間並無症狀，檢體檢驗中，已列居家隔離，其餘同班機接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,459,913例新型冠狀病毒肺炎相關通報(含1,442,937例排除)，其中15,030例確診，分別為1,182例境外移入，13,795例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計688例COVID-19死亡病例，其中680例本土，個案居住縣市分布為新北市349例、臺北市260例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日表示，因應臺北市環南市場疫情，將於今日針對6月8日起，曾於相關時間及地點出入之民眾，發送疫情警示簡訊，內容如下：\$\@\$[疫情警示]如您曾至環南市場，且6月8日之後曾有發燒、呼吸道症狀，腹瀉，或嗅、味覺異常等疑似症狀，請就醫評估或可至社區篩檢站採檢。\$\@\$指揮中心說明，收到簡訊者若有不適，務必正確佩戴外科口罩儘速就醫，不可搭乘大眾交通工具，就醫時應主動告知醫療人員相關暴露及接觸史。指定社區採檢院所醫院清單可至疾病管制署網站查詢：http://at.cdc.tw/5y262t。\$\@\$備註：本次簡訊發送範圍：\$\@\$北至：萬板大橋\$\@\$東至：西藏路\$\@\$南至：華翠大橋\$\@\$西至：環河快速道路</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增58例COVID-19確定病例，分別為57例本土及1例境外移入；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之57例本土病例(其中22例為居家隔離期間或期滿檢驗陽性者)，為25例男性、32例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月22日至7月1日。個案分布以臺北市29例最多，其次為新北市15例、新竹縣4例、桃園市及基隆市各3例、臺中市2例、新竹市1例；其中28例為已知感染源、6例關聯不明、23例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，為8例男性、7例女性，年齡介於40多歲至80多歲，發病日介於5月25日至6月21日，確診日介於5月28日至6月28日，死亡日介於6月3日至6月30日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月30日累計公布13,605位確診個案中，已有10,347人解除隔離，解隔離人數達確診人數76.1%。\$\@\$指揮中心表示，今日新增1例境外移入中(案14975)，為本國籍50多歲女性，6月28日自匈牙利返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日申請外出奔喪，由衛生單位安排至醫院自費採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,411,572例新型冠狀病毒肺炎相關通報(含1,395,446例排除)，其中14,911例確診，分別為1,176例境外移入，13,682例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計676例COVID-19死亡病例，其中668例本土，個案居住縣市分布為新北市343例、臺北市256例、基隆市21例、桃園市20例、彰化縣11例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心表示，今(2)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、鑒於國內仍有職場、機構、醫院、社區等場域群聚事件發生，請相關地方政府持續落實疫調及接觸者匡列、社區篩檢及監測，以利早期發現病例，早期介入；另近期人流有上升趨勢，請各地方政府加強宣導落實三級警戒注意事項。\$\@\$1.雙北部分：臺北市近期發生市場、機構及工地等群聚，須留意防範擴散至社區，並加強疫調及跨縣市疫情通報；另建議持續考量民眾就醫可近性，設置社區篩檢站。\$\@\$2.屏東縣部分：Delta變異株進入枋山社區，目前當地疫情雖已控制，仍請屏東縣政府擴大社區篩檢及居民健康監測，提升當地民眾及醫療院所防疫警覺。\$\@\$二、針對第七類「國家關鍵基礎設施及高風險接種人員等專案」對象疫苗配撥及接種作業，已請相關中央目的事業主管機關，於中央流行疫情指揮中心第86次大會(6月29日)中，就接種計畫進行報告，也請各部會與地方政府業務隸屬之局處聯繫，務必向縣市首長報告專案實施內容，讓縣市首長充分瞭解。\$\@\$三、有關地方政府建議擴大疫苗施打對象部分，指揮中心均會就疫情狀況、疫苗可分配數量、接種情形等持續綜合評估，滾動規劃後續納入施打之開放類別目標族群，請各地方政府配合指揮中心規劃，確實將撥配疫苗施打於優先開放之類別目標族群。\$\@\$四、有關地方政府關切Moderna疫苗後續撥發規劃部分，評估疫苗保存、解涷及配發至地方等作業所需時間，目前第二批撥配日期為7月5日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日公布，鑑於Delta變異株於全球日益擴散且其傳播力強，為降低該病毒進入國內社區風險，自今(2021)年7月2日中午12時(航機抵臺時間)起，加強國際港埠入境人員健康監測，包含：\$\@\$一、14天內具「重點高風險國家」旅遊史之入境旅客，自空港或海港入境後，一律公費入住集中檢疫所14天，且須配合入住時、檢疫期滿進行COVID-19病毒核酸檢驗(PCR)檢測；另檢疫期間增加第10至12天以「家用快篩」採檢一次。\$\@\$二、14天內無「重點高風險國家」旅遊史之入境旅客，自空港或海港入境時皆須配合採深喉唾液及進行PCR檢測，並搭乘防疫車隊前往防疫旅宿或自費入住集中檢疫場所接續完成14天檢疫，且於檢疫期滿前(檢疫第12至14天)PCR檢測，另增加第10至12天以「家用快篩」採檢一次。\$\@\$三、所有入境旅客，檢驗為陽性者，均進行病毒基因定序。\$\@\$指揮中心強調，邊境管制為防範COVID-19疫情的重要關鍵，入境旅客抵臺時應主動配合邊境加強監測措施，並依指揮中心規定的交通方式前往檢疫地點及配合後續防疫相關措施。落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$疾病管制署今(1)日公布國內新增2例日本腦炎確定病例，為彰化縣鹿港鎮本國籍50多歲男性及臺中市大安區越南籍20多歲男性，發病日分別為6月16日及6月24日，症狀包括發燒、頭痛、嘔吐及意識改變等，經就醫通報後確診，目前均仍住院治療中。\$\@\$疾管署表示，2名個案近期均無國內外旅遊史，平時活動地以居住地及工作地為主。衛生單位於2人活動地周邊發現有豬舍或水稻田等高風險場所，研判於活動地附近感染的可能性較高，並已前往個案活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共6例確定病例，個案居住地分別為基隆市、臺中市、彰化縣、臺南市、高雄市及屏東縣各1例，個案活動地附近均有高風險環境；2017至2020年全國同期確定病例數分別為12、25、12及13例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，臺灣每年5至10月為日本腦炎流行季，其中6至7月為流行高峰。在臺灣以三斑家蚊、環紋家蚊及白頭家蚊為主要病媒蚊，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段。大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。請民眾儘量避免於病媒蚊吸血高峰時段，在上述易孳生病媒蚊之高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。\$\@\$疾管署呼籲，預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。住家或活動地鄰近豬舍、水稻田等高風險環境的民眾應加強防蚊，如自覺有感染風險的成人，可前往旅遊醫學門診評估自費接種疫苗。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日表示，本土確診案例連續1週低於百人，經考量失能者家庭照顧需求，及家庭較無其他替代人力，且不致有產業移工群聚擴大傳染風險等因素，自即日起優先恢復外籍家庭看護工及家庭幫傭，得轉換由家庭類雇主接續聘僱(含期滿轉換)；至於其他產業移工仍暫緩轉換，未來將視疫情再行檢討。\$\@\$指揮中心表示，家庭類雇主接續聘僱(含期滿轉換)家庭類移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接家庭類移工之新雇主應於接續聘僱（含期滿轉換）當日安排移工至合格醫療機構檢驗PCR，檢測費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件接續處理。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主若未於接續聘僱(含期滿轉換)當日，安排移工檢驗PCR，將依「就業服務法」第57條第9款規定，處新臺幣6萬至30萬元罰鍰，並不予核發接續聘僱許可及廢止名額。另雇主如果委託仲介公司辦理移工生活照顧，但仲介公司未善盡受任事務，違反防疫措施，仲介公司將被依「仲介公司違反就業服務法」規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，批發市場為供應民眾農、漁、畜等民生物資的重要營業場所，因應近期批發市場出現群聚感染事件，為確保相關場域工作人員、採購民眾自身與家人健康，指揮中心與農委會共同訂定「批發市場防疫管理措施建議指引」，呼籲各批發市場遵循，以避免群聚感染、疫情擴大。\$\@\$指揮中心進一步表示，「批發市場防疫管理措施建議指引」提供主管機關、場域管理單位及工作人員，依實際可行性與適用性，內化為適合個別場域所需的管理措施，供管理單位、從業人員及採購人員遵循辦理，以降低疫情在批發市場的發生機率、規模及社區傳播風險。\$\@\$指揮中心指出，「批發市場防疫管理措施建議指引」包含以下重點防疫措施，請各批發市場遵循，以降低疫情發生：\$\@\$人員健康管理：落實市場出入人員體溫量測、實聯制。盤點及造冊相關工作人員，落實健康狀況監測、定期篩檢及訂定健康監測計畫(包含人員名單及異常追蹤處理機制)，並鼓勵接種COVID-19疫苗。\$\@\$人流管制措施：調整市場攤位配置及營業時段，減少市場之出入口、劃定人員動線及分流措施，管制人數總量及單位時間人數。\$\@\$落實人員衛生行為：張貼標語、海報或透過廣播提醒顧客、從業人員等落實戴口罩及手部衛生，增加洗手設備可近性，並儘量使用非直接與顧客接觸之收付款方式。\$\@\$個人防護裝備建議：工作人員需佩戴口罩及面罩，視需要佩戴手套或穿著防水圍裙，拋棄式口罩不可重複使用；面罩若為可重複使用者，應確實清潔消毒後重複使用。\$\@\$環境清潔消毒：訂定環境清潔及消毒計畫，定時執行環境清潔及消毒，每天至少1次以上，並增加公共廁所衛生清潔及消毒頻率。\$\@\$出現確定病例之應變措施：訂定包括風險對象管理、風險區域管理及營運降載措施等3大應變措施，批發市場若發生確診者，應通報主管機關，風險區域須暫停營業，並視影響程度，通知供應人及承銷人至鄰近市場交易。\$\@\$指揮中心表示，農委會後續將與全國各批發市場及縣市政府召開視訊說明會，並請各縣市批發市場依據公布的指引自行訂定符合實際經營樣態的防疫作業規範，確保農產品穩定供應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，第三批Moderna疫苗41萬劑，已於歐洲時間6月29日晚上9時30分自阿姆斯特丹啟運，預定今日下午4時40分抵達桃園國際機場。\$\@\$指揮中心表示，本批疫苗為我國與供應商採購之一部分，首批15萬劑已於5月28日、第二批24萬劑也於6月18日分別到貨。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存至少6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」，中央流行疫情指揮中心今(29)日澄清，無法選擇疫苗廠牌，係因目前尚無法確認屆時可供應之疫苗廠牌與數量，並非為國產疫苗鋪路。\$\@\$指揮中心表示，為加速我國COVID-19疫苗接種作業，規劃辦理「COVID-19疫苗接種外展服務」，已於日前發文請各部會先行調查「規模1,000人以上企業」、「100人以上中央政府機關」等人員施打疫苗意願及進行造冊，並由各機關（構）自行評估是否有適合執行接種作業的地點及空間規劃等。\$\@\$有關媒體報導「該公文提到無法選擇疫苗廠牌，係為國產疫苗鋪路」，指揮中心澄清，係因目前尚無法確認屆時可供外展服務之疫苗廠牌與疫苗數量，並非為國產疫苗鋪路。待疫苗量充足，會依屆時可供應之疫苗廠牌與數量，再次詢問機關（構）參與外展服務與接種之意願。\$\@\$指揮中心進一步說明，有關「疫苗外展服務調查」，係為後續疫苗量充足且可全民接種時，疫苗需求量調查與分布之預先規劃。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增54例COVID-19確定病例，均為本土個案；另確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之54例本土病例(其中17例為居家隔離期間或期滿檢驗陽性者)，為19例男性、35例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月16日至6月28日。個案分布以新北市22例最多，其次為臺北市20例、桃園市及新竹縣各4例，彰化縣2例，基隆市及屏東縣各1例；其中31例為已知感染源、5例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，為5例男性、3例女性，年齡介於60多歲至80多歲，發病日介於5月9日至6月19日，確診日介於5月15日至6月20日，死亡日介於6月25日至6月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月27日累計公布13,435位確診個案中，已有10,086人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心統計，截至目前國內累計1,311,961例新型冠狀病毒肺炎相關通報(含1,295,813例排除)，其中14,748例確診，分別為1,170例境外移入，13,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計102例移除為空號。自2020年起累計643例COVID-19死亡病例，其中635例本土，個案居住縣市分布為新北市325例、臺北市245例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心表示，今(29)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情雖持續下降，惟部分縣(市)仍持續爆發群聚事件，須密切注意監測，及早發現並介入防治；另國內出現Delta變異株群聚，應強化疫調早期圍堵，避免造成社區流行。\$\@\$1.雙北部分：臺北市疫情趨緩，惟轄內近期發生市場、機構及工地等群聚，須留意防範擴散至社區；新北市疫情亦趨緩，惟各行政區仍須留意後續疫情變化。\$\@\$2.屏東縣部分：因出現Delta變異株群聚，不排除未來一週仍可能檢出相關病例，請屏東縣落實精準疫調及接觸者匡列、追蹤，早期發現病例並介入防治。\$\@\$二、有關簡訊實聯制運用於疫調處理部分，鑒於簡訊實聯制推動主要作為輔助疫調之用，建置前提為民眾上傳資訊越少越好(僅有停留場所代碼及進入之時間點)，因此請各地方政府在疫情處理上仍應以精準疫調為主，簡訊實聯制為輔，地方政府如有實聯制資料運用於疫調之需求，指揮中心資訊組將會適時協助提供。\$\@\$三、針對Delta變異株之防範，有無需要調整醫療院所感染管制措施之部分，指揮中心參考比較國外感控措施，目前尚無需調整我國現行措施。至於相關確診者個案能否共同收治入院，建議地方政府在病房收治量能允許下，仍應以一人一室為主。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增60例COVID-19確定病例，均為本土個案；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之60例本土病例(其中31例為居家隔離期間或期滿檢驗陽性者)，為26例男性、34例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月19日至6月27日。個案分佈以新北市33例最多，其次為臺北市22例、桃園市2例，基隆市、南投縣及彰化縣各1例；其中32例為已知感染源、3例關聯不明、25例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於70多歲至90多歲，發病日介於5月23日至6月22日，確診日介於5月26日至6月24日，死亡日介於6月25日至6月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前累計1,282,057例新型冠狀病毒肺炎相關通報(含1,265,704例排除)，其中14,694例確診，分別為1,170例境外移入，13,471例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計635例COVID-19死亡病例，其中627例本土，個案居住縣市分布為新北市321例、臺北市243例、基隆市21例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日宣布，因應Delta變異株於全球日益擴散且其傳播力高，即日起若旅客自「重點高風險國家(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」入境，則請搭乘交通部安排之的防疫車輛前往集中檢疫所。若旅客並非由前述「重點高風險國家」入境，應自費搭乘防疫車輛(或自行駕車)前往防疫旅宿或自費集中檢疫所之檢疫地點。\$\@\$指揮中心強調，入境人士之親友勿前往機場或港口接機，以減少病毒傳播風險，共同保護親友及社區防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$為保障健康安全，近日民眾踴躍接種COVID-19疫苗，關於疫苗接種後是否產生副作用也有諸多討論。針對網傳COVID-19 mRNA疫苗恐傷害人體，中央流行疫情指揮中心今（27）日澄清，疫苗中的mRNA並不會進入細胞核，不會以任何方式改變人體的DNA，或與DNA產生交互作用。而政府也會嚴格把關疫苗安全，民眾可安心接種。\$\@\$指揮中心表示，我國目前已核准緊急使用授權的COVID-19疫苗分為兩大類，其中所使用的COVID-19 mRNA疫苗，其作用原理是將含有一段可轉譯成SARS-CoV-2病毒棘蛋白的mRNA注射至體內，接種後會在人體細胞質內製造出SARS-CoV-2病毒棘蛋白，作為疫苗抗原，進而誘發人體產生免疫反應，以對抗SARS-CoV-2病毒，疫苗中的mRNA不會進入細胞核、不會改變人體的DNA，或與DNA產生交互作用。\$\@\$指揮中心重申，我國核准專案輸入的mRNA疫苗，例如莫德納疫苗，是經過衛生福利部食品藥物管理署審查廠商所提供的疫苗品質管制資料、非臨床藥毒理試驗及人體臨床試驗報告，確認疫苗的品質、安全及療效後，始予以核准。\$\@\$指揮中心表示，為確保COVID-19疫苗上市後廣泛臨床使用下國人用藥安全，我國已建立COVID-19疫苗安全資訊主動監控機制，除持續監控國外衛生主管機關發布之COVID-19疫苗安全警訊外，亦設有「疫苗不良事件通報系統(VAERS)」接受各界通報，蒐集、分析及評估我國COVID-19疫苗不良事件，並藉由收集相關安全資訊，監控其安全性，一旦發現具有未知或未預期之風險，立即啟動再評估機制，重新評估其療效與風險，並確認是否需採取相關風險管控措施。\$\@\$指揮中心再次提醒， COVID-19疫苗與其他藥品一樣，或多或少都具有一些副作用，如過敏反應等，民眾接種前應主動提供自己的身體狀況，包括是否對特定藥品過敏、慢性病或正在服用的藥品；女性則需告知是否(或可能)懷孕、準備懷孕或正在哺乳母乳等，供醫師審慎評估其臨床效益及風險。接種後則應關心身體變化，部分民眾接種COVID-19疫苗後，可能會發生接種部位疼痛、紅腫、疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心等，這些症狀通常輕微並且數天內消失，但如發生嚴重持續性頭痛、視力改變或癲癇、嚴重且持續腹痛超過24小時以上、皮膚出現自發性出血點、瘀青、紫斑、嚴重胸痛或呼吸困難、下肢腫脹或疼痛等，請立即就醫，並說明疫苗接種史，同時請醫師通報當地衛生局或衛生福利部疾病管制署。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增89例COVID-19確定病例，分別為88例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之88例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為48例男性、40例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月10日至6月26日。個案分佈以新北市41例最多，其次為臺北市33例、臺南市8例、桃園市3例，屏東縣、南投縣及新竹市各1例；其中60例為已知感染源、2例關聯不明、26例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為3例男性、6例女性，年齡介於40多歲至90多歲，發病日介於5月15日至6月22日，確診日介於5月20日至6月25日，死亡日介於6月22日至6月26日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例境外移入個案(案14719)，為本國籍20多歲男性，5月3日曾在奧地利當地檢出COVID-19陽性，6月11日自奧地利返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月24日進行檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,266,904例新型冠狀病毒肺炎相關通報(含1,250,863例排除)，其中14,634例確診，分別為1,170例境外移入，13,411例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計632例COVID-19死亡病例，其中624例本土，個案居住縣市分布為新北市319例、臺北市243例、基隆市20例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月27日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，目前進口國內之274萬劑莫德納(Ｍoderna) COVID-19疫苗將陸續完成檢驗封緘，預計於今(2021)年7月1日起，陸續配送至地方政府衛生局及指定醫療院所，並開放第一類至第八類對象接種。第一階段預計分配各地方政府衛生局約106萬劑，分兩梯次配送，第一梯次配送約64.3萬劑，預計於7月1日陸續配達，第二梯次配送約41.8萬劑，預計７月８日陸續配達(如附件)。\$\@\$指揮中心指出，第一階段疫苗各地方政府分配數量係以下列原則核估，並將依各地方政府衛生局規劃，配送至衛生局或其指定醫療院所：\$\@\$一、各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」中，尚未接種疫苗之64歲以下與75歲以上服務對象及所有照服員人數總計之6成。\$\@\$二、各縣市第五類「其他機構(含矯正機關工作人員)」尚未接種人數。\$\@\$三、各縣市莫德納(Moderna)COVID-19疫苗已分配數。\$\@\$四、各縣市65-74歲長者30%人口數。\$\@\$另第二階段各地方政府分配數量則以65-74歲長者20%人口數所需疫苗數量核估，將視第一階段疫苗接種情形配發。\$\@\$指揮中心說明，有關第七類對象「維持國家安全及社會機能正常運作者」是經由各中央目的事業主管機關認定，並依據其感染風險決定為優先接種對象後進行造冊，列為首波接種之國家關鍵設施或維持設社會正常運作必要工作人員。上述對象的疫苗需求量，原則直接配送至各部會指定之COVID-19合約醫療院所，各醫療院所可視接種量能，透過原預約機制，或安排於特定時段集中接種。惟莫德納(Moderna) COVID-19疫苗於2-8℃配達後僅能保存28天，請第七類對象於預約日或接獲通知日期後，儘速前往接種，以利指揮中心視各醫療院所接種情形與庫存量，通知醫療院所逐續開放其他類對象接種，發揮COVID-19疫苗最大效益。\$\@\$指揮中心表示，第一階段配送之莫德納(Ｍoderna) COVID-19疫苗為美國提供之250萬劑其中一部分，將以2-8℃溫層配送，其包裝為每瓶14劑，10瓶一盒，接種單位可針對當日最後一瓶疫苗開瓶的剩餘劑，規劃候補名單機制，有效利用COVID-19疫苗。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。 附件\$\@\$附件-274萬劑Moderna疫苗分配量.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增80例COVID-19確定病例，其中78例為本土個案(39例為居家隔離期間或期滿檢驗陽性者)；另有2例境外移入。另，確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為36例男性、42例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月11日至6月25日。個案分佈以新北市36例最多，其次為臺北市30例、桃園市、基隆市及屏東縣各3例，苗栗縣、彰化縣及新竹縣各1例。其中雙北地區以外縣市12例中，10例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為8例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月14日至6月20日，確診日介於5月19日至6月22日，死亡日介於6月21日至6月24日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月24日累計公布13,190位確診個案中，已有9,916人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案14591為30多歲本國籍女性，6月11日自日本返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。案14619為本國籍30多歲女性，6月11日自菲律賓返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。2名個案檢疫期間均無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,243,683例新型冠狀病毒肺炎相關通報(含1,227,748例排除)，其中14,545例確診，分別為1,169例境外移入，13,323例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計102例移除為空號。自2020年起累計623例COVID-19死亡病例，其中615例本土，個案居住縣市分布為新北市313例、臺北市241例、基隆市20例、桃園市17例、彰化縣9例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月26日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，為因應6月27日起，自COVID-19變異株「重點高風險7國(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」以外之國家入境旅客(過去14天旅遊史、含轉機)住宿需要，將開放集中檢疫所供民眾自費使用，於今日晚間8時開放訂房。\$\@\$指揮中心指出，目前全臺有49處集中檢疫所，分布於北、中、南等三區，包括各類公務人員訓練中心、軍營、停招的學校宿舍、旅館等，每人每日新臺幣2,000元整，12歲以下幼童與父或母同住一室者，不另外收費。\$\@\$指揮中心說明，民眾入住之檢疫所地點須由指揮中心分派，房內皆有網路、電視等相關設備，入住民眾亦可使用自己的手機電話與外界聯繫；集中檢疫場所均有提供三餐，餐飲會於固定時間送到檢疫房間外，再由民眾自行取用至自己的檢疫房間內用餐。\$\@\$指揮中心提醒，集中檢疫所預定今日晚間8時開放訂房，有意自費入住民眾可至「入境檢疫系統」網頁預約，預約者須於航班預計抵臺48小時前至入境檢疫系統預約、繳費，以取得預約訂房識別碼，作為入境登記使用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心表示，今(25)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國整體疫情雖有趨緩，惟仍有零星爆發群聚事件發生，建議各地方政府仍應加強社區篩檢、疫調及接觸者追蹤管理，且加強批發市場相關人員篩檢及健康監測，避免產銷營運受影響；另鑒於全球Delta病毒變異株流行擴大，指揮中心除持續加強國內變異株監測，並請地方政府配合同步監測。\$\@\$二、因應Delta病毒變異株於全球日益擴散且其傳播力高，自6/22起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫期滿前1日，均須進行公費PCR檢測，若隔離/檢疫期間「有症狀者」及經疫調風險評估匡列之接觸者仍須立即採檢；另經專案許可入境對象(高級中等【含】以下學校之境外生、外籍移工、搭機入境之我國籍遠洋漁船僱用外籍船員/漁工、大專校院境外生、海外青年技術訓練班新生、境外非學位生等)，由原來的檢疫期滿後隔日採檢，調整為檢疫期滿前1日採檢。\$\@\$三、疫苗接種作業說明\$\@\$1、274萬劑Moderna疫苗，第一批110萬劑預計於6/30進行配送，並於7/1開放施打。\$\@\$2、COVID-19疫苗開瓶後有一定之保存時間，最後一瓶疫苗開瓶後剩餘劑量處理方式如下：\$\@\$(1)請接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$(2)剩餘劑量使用於非現行開放類別對象，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳全國性預防接種資訊系統(NIIS)。\$\@\$3、目前國內供應各廠牌之COVID-19疫苗，其使用說明書皆載明每瓶疫苗抽取之最後一劑，若劑量不足1人分劑量則須丟棄，且為保障疫苗品質，不可與其他瓶疫苗混和抽取接種。\$\@\$4、針對已接種過第1劑COVID-19疫苗者，第2劑接種規劃如下\$\@\$(1)目前已開放5/9前已接種第1劑AZ COVID-19疫苗者，陸續於間隔10~12週時公費接種第2劑。並於7/1起開放所有已接種第1劑者，接種第2劑疫苗。\$\@\$(2)為第1至3類同住者，於5/3起開放COVID-19疫苗接種至暫停提供期間，已接種過第1劑的民眾，皆可於接種後第10至12週接種第2劑。專家建議兩劑AZ COVID-19疫苗接種間隔10至12週再接種第2劑疫苗的效益更佳。\$\@\$(3)在國外接種過第1劑COVID-19疫苗，在國內欲銜接接種第2劑疫苗時，須為已開放之公費對象方可提供接種。\$\@\$四、臺北區以外醫療院所，原則同意辦理專責病房數微調作業，請經傳染病防治醫療網區指揮官同意後報送指揮中心；後續仍應維持各項感染管控作業之進行，並視疫情持續滾動監測調整病房數。另，臺北區醫療院所之專責病房數維持不變，如先前所提供之專責病房數超過10%者，可優先進行微調；急診候床數需求量多者，亦可提出申請調整，惟上述相關調整案件請經傳染病防治醫療網網區指揮官同意後報送指揮中心。\$\@\$五、有關「市場專案」，請各地方政府務必確實落實相關防疫措施；另為利處理臺北市農產運銷群聚事件，包括第一果菜批發市場及環南市場，請儘速完成市場人員PCR採檢作業，並落實相關疫調之進行，以及確實匡列確診者之接觸者，進行隔離作業，並請各地方政府協助就轄區市場從業人員曾至臺北市上開市場作業者，進行營業市場地點、營業類型、攤商編號、姓名及電話等資訊之調查，並提供臺北市政府參考。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，為有效利用COVID-19疫苗，針對當日最後一瓶疫苗開瓶的剩餘劑量，可由接種單位規劃候補名單機制，建議執行方式如下：\$\@\$一、 接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$二、請接種單位建立其他18歲以上接種對象候補名單。\$\@\$指揮中心指出，當剩餘劑量使用於非現行開放類別對象時，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳。另針對接種站設站、至機構/洗腎診所接種或外展接種服務作業，亦比照上述原則事先規劃候補名單。接種單位可依上述建議事先規劃，以利有效並妥善的運用疫苗資源。有關尚未開放類別的公費接種對象，詳情可至網址 ( http://at.cdc.tw/1uq4dQ )查詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，世界衛生組織(WHO)公布目前全球已有逾85個國家出現Delta變異株(印度變異株)病例，歐洲疾控中心(ECDC)評估其傳播力較Alpha(英國變異株)高40-60%。國際間部分疫苗接種率較佳的國家包括以色列及英國等，近期病例數回升，且發現Delta變異株病例佔比達七成以上。另國內亦出現自秘魯境外移入個案檢出Delta變異株，其鄰近的孟加拉、印尼等國該變異株佔比近期亦呈增加趨勢。\$\@\$指揮中心指出，因應 Delta變異株於全球日益擴散且其傳播力高，自今(110)年6月27日零時起(抵臺時間)，全面提升入境人員檢疫措施如下：\$\@\$一、「重點高風險國家」入境旅客(過去14天旅遊史、含轉機)之檢疫措施：自空港或海港入境後一律入住集中檢疫所14天，且須配合入住時、檢疫期滿進行PCR檢測，旅客不需支付檢疫所及採檢費用。目前「重點高風險國家」為巴西(巴西變異株)、印度，含本次新增英國、秘魯、以色列、印尼及孟加拉等共7國。\$\@\$二、前述7國旅遊史以外之所有入境旅客，入境後應入住防疫旅宿或自費入住集中檢疫所14天，且於居家檢疫期滿前配合進行PCR檢測。\$\@\$三、國籍航空公司機組員，自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍進行居家檢疫14天，且檢疫期滿進行PCR檢測。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增76例COVID-19確定病例，均為本土個案；其中34例為居家隔離/檢疫期間或期滿檢驗陽性者。另，確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例，為39例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月18日至6月24日。個案分佈以新北市32例最多，其次為臺北市20例、桃園市10例、新竹縣4例、苗栗縣3例、彰化縣及高雄市各2例，宜蘭縣、基隆市及臺中市各1例。其中雙北地區以外縣市24例中，13例為已知感染源、2例關聯不明、9例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於70多歲至90多歲，發病日介於5月16日至6月19日，確診日介於5月29日至6月20日，死亡日介於6月21日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月23日累計公布13,061位確診個案中，已有9,650人解除隔離，解隔離人數達確診人數73.9%。\$\@\$指揮中心統計，截至目前國內累計1,213,717例新型冠狀病毒肺炎相關通報(含1,197,732例排除)，其中14,465例確診，分別為1,167例境外移入，13,245例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計610例COVID-19死亡病例，其中602例本土，個案居住縣市分布為新北市306例、臺北市238例、基隆市19例、桃園市16例、彰化縣9例、臺中市4例、新竹縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月25日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，「民眾使用COVID-19家用快篩試劑指引」已於6月19日公布(詳如新聞稿附件)。為利民眾居家正確自行檢測，指揮中心再次提醒民眾使用家用快篩試劑相關流程與注意事項。\$\@\$指揮中心指出，COVID-19家用快篩試劑可由醫療器材販賣業者、藥粧店、醫療器材行、便利商店等或藥局販售，民眾購買時，請確認產品名稱是否有「家用」、包裝是否刊載「防疫專案核准製造第XXXXXXXXXX號」或「防疫專案核准輸入第XXXXXXXXXX號」等字樣(已核准之家用快篩試劑名單可至衛生福利部食品藥物管理署[下稱食藥署]網站確認)、產品效期是否在有效期間或保存期限內，並依使用說明書或操作影片進行採檢及操作。對使用家用快篩試劑有任何疑問，可洽詢販售該產品之醫療器材商或藥局，或逕洽詢試劑廠商。\$\@\$指揮中心說明，居家隔離或居家檢疫者如測出結果為陽性時，請立即與當地衛生局聯繫，或撥打1922，依指示方式處理；非居家隔離且非居家檢疫者測出結果為陽性時，請戴好口罩，勿搭乘大眾運輸工具，儘速至鄰近的社區採檢院所進一步檢測，並將使用過之採檢器材用塑膠袋密封包好，一併攜帶至社區採檢院所，交予院所人員。當測出結果為陰性時，仍請遵循指揮中心的防疫規範，做好個人防護，持續自我健康管理，採檢完之家用快篩試劑及試劑棒勿任意棄置，請以塑膠袋密封包好，以一般垃圾處理。\$\@\$指揮中心提醒，若民眾已出現嚴重特殊傳染性肺炎相關症狀，不宜使用COVID-19家用快篩試劑自行在家檢測，應佩戴醫用口罩，儘速前往醫療院所就醫，且前往就醫時勿搭乘大眾運輸工具。另外，提醒居家快篩試劑測試結果可能出現偽陰性或偽陽性，仍需經認可實驗室所進行的「核酸檢測」作為診斷COVID-19感染之依據。COVID-19家用快篩試劑產品核准名單、說明書及操作影片均可至食藥署網站( http://www.fda.gov.tw )之業務專區 &gt; 醫療器材 &gt; COVID-19 防疫醫材專區 &gt; 家用新型冠狀病毒檢驗試劑專區查詢。 附件\$\@\$附件-民眾使用COVID-19家用快篩試劑檢驗指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，國內疫情由於國人的努力，得到良好控制，惟目前跨區傳播事件仍然存在，而世界各國因解封太快致疫情再起的經驗亦歷歷在目。為確保國人健康，指揮中心經評估後決定，全國再同步維持疫情三級警戒2週(至7月12日止)，用2週的時間換得國人平安，希望國人共體時艱，共同抗疫。\$\@\$指揮中心指出，考量社區感染風險尚未消除，指揮中心將持續與地方政府密切合作，加強落實以下管制措施，降低社區傳播風險，積極保障國人健康安全：\$\@\$一、針對確診個案精準疫調，儘速匡列相關接觸者並加強追蹤管理，及早阻斷病毒傳播鏈。\$\@\$二、針對居家檢疫及居家隔離者，無論有無症狀，均須於期滿前1日進行公費PCR檢測，以阻絕病毒進入社區。\$\@\$三、加速高風險族群疫苗接種作業，以減少其感染、或感染後產生嚴重併發症及死亡的機率。\$\@\$四、推動社區廣篩，鼓勵各地方政府設置社區篩檢站並加速檢驗時效，同時推廣企業快篩與居家快篩，以擴大篩檢量能並強化主動監測機制，儘速發掘社區內可能潛藏病例，有效斷絕所有感染鏈。\$\@\$五、強化重症醫療照護，透過COVID-19重症個案處置諮詢平臺，由多位專家諮詢委員線上提供醫院臨床重症個案處置意見，以降低個案死亡率、緩解重症醫療量能。\$\@\$六、啟動「民生供需產業健康監測專案」，針對果菜、家畜(肉品)、家禽、水產、綜合及其他類市場、超市、賣場及夜市等相關職業對象，由目的事業主管機關或地方政府進行人員健康監測，以及時進行各項防治措施，避免災害擴大，降低家戶傳播風險。\$\@\$指揮中心表示，現處疫情關鍵時刻，籲請全國民眾持續落實遵循並積極配合三級警戒管制措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增79例COVID-19確定病例，其中78例為本土個案，另有1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為35例男性、43例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月14日至6月21日。個案分佈以新北市43例最多，其次為臺北市25例，南投縣3例，基隆市2例，苗栗縣、彰化縣、桃園市、臺中市及新竹縣各1例。其中雙北地區以外縣市10例中，8例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性3位、女性3位，年齡介於50多歲至80多歲，發病日介於5月19日至6月19日，確診日介於5月28日至6月21日，死亡日介於6月17日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月20日累計公布12,806位確診個案中，已有8,087人解除隔離，解隔離人數達確診人數63.2%。\$\@\$指揮中心表示，今日新增1例境外移入個案（案14257）為本國籍50多歲男性，長期於印尼工作，6月20日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，6月21日出現喉嚨痛等症狀，由衛生單位安排就醫採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,107,543例新型冠狀病毒肺炎相關通報(含1,091,972例排除)，其中14,157例確診，分別為1,166例境外移入，12,938例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增2例空號 (案10380、案14131)，累計100例移除為空號；自2020年起累計575例COVID-19死亡病例，其中568例本土，個案居住縣市分布為新北市291例、臺北市223例、基隆市18例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至今(2021)年6月19日止，國內接種AZ COVID-19疫苗共計1,446,608人次，其中314,487人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS)已收到67例接種AZ COVID-19疫苗後死亡之報告。截至目前為止，尚無死亡個案被判定為與疫苗相關。\$\@\$指揮中心指出，昨(19)日接種後死亡案件新增18件，皆於接種後4日內發生，15例為75歲以上長者，死亡個案大多數為高齡且有慢性疾病。此外，目前已有9例死亡案件送司法相驗解剖，經初步研判，部分個案死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續仍待司法相驗解剖或回溯檢查等更精確資料，以釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮，並適時對外因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另外，現在已開放診所及衛生所可接種疫苗，建議民眾就近前往接種，並注意防曬、補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日宣布，因應國內近期本土COVID-19確診病例疫情嚴峻，為利醫療院所照護重症個案、降低死亡率，將成立「COVID-19重症個案臨床處置專家諮詢小組」，由臺大醫院新竹臺大分院余忠仁院長擔任召集人，邀集全國22位重症個案臨床處置專家擔任諮詢委員，建立COVID-19重症個案處置諮詢平臺，並自6月21日(星期一)起，定期於星期一至星期五，每日晚間6時至8時，召開COVID-19線上重症病例諮詢會議，每日由3至5位諮詢委員，提供各醫療院所臨床重症個案處置意見，預定每次會議時間約為2小時。\$\@\$指揮中心表示，前已函請地方政府衛生局與相關學會轉知所屬醫療院所及會員，若醫療院所於診治COVID-19個案，有相關重症個案臨床處置諮詢需求，請於會議當日中午12時前，以電子郵件提交討論病例簡報、報告人姓名與聯繫資料至指揮中心醫療應變組公務信箱，以利會議討論。\$\@\$指揮中心說明，為降低重症個案死亡率，將「經鼻高流量濕化氧氣治療(Humidified high flow nasal cannula oxygen therapy, HFNCOT）」及「俯臥通氣治療(Prone positioning ventilation therapy)」，納入COVID-19確診個案公費給付項目，並回溯自5月1日起適用。\$\@\$指揮中心呼籲重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊需照顧好自己及隊友，若有相關重症個案臨床處置諮詢需求，務必儘速提請討論，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，第二批Moderna疫苗24萬劑，已於歐洲時間6月17日下午6時自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增188例COVID-19確定病例，分別為187例本土個案及1例境外移入；確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之187例本土病例，為83例男性、104例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月29日至6月17日。個案分佈以新北市76例最多，其次為臺北市71例，苗栗縣26例，桃園市6例，基隆市4例，臺中市2例，花蓮縣及新竹縣各1例。其中雙北地區以外縣市40例中，38例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，為男性12位、女性9位，年齡介於50多歲至90多歲，發病日介於5月6日至6月13日，確診日介於5月19日至6月15日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月16日累計公布12,210位確診個案中，已有6,873人解除隔離，解隔離人數達確診人數56.3%。\$\@\$指揮中心指出，今日新增1例境外移入個案(案13801)，為印度籍30多歲男性船員，3月5日自印度來臺工作，4月3日登船出海工作，期間並無症狀，6月16日返回我國港口，因出境需要，於同日採檢，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,011,097例新型冠狀病毒肺炎相關通報(含993,010例排除)，其中13,771例確診，分別為1,162例境外移入，12,556例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案13408)，累計95例移除為空號。自2020年起累計518例COVID-19死亡病例，其中511例本土，個案居住縣市分布為新北市255例、臺北市206例、基隆市17例、桃園市14例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為提升目前優先接種COVID-19疫苗對象之接種率，將於6月17日起，依各縣市75歲以上人口比率，進行第二次疫苗撥配，預計配送394,800劑。\$\@\$指揮中心說明，自6月12日起，已陸續撥配68.8萬劑(含高風險縣市及中高風險縣市額外撥配2.49萬劑)至各地方政府衛生局，提供第一類至第六類優先對象(包括「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」)接種。為提升前揭對象接種率，本次疫苗配送量是以各縣市75歲以上長者人口數之26%核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）增配10%，中高風險縣市（桃園市、臺中市、基隆市、苗栗縣及彰化縣）增配5%，合計配送 385,800劑。加上前次疫苗撥配量，預估可讓全臺75歲以上長者接種率至少達53%。\$\@\$指揮中心指出，另考量部分縣市及離島縣市交通不便、疫苗配送不易且醫療資源相較不足，指揮中心規劃「離島-偏遠地區擴大接種計畫」，額外撥補臺東縣、屏東縣、澎湖縣、金門縣及連江縣共9,000劑疫苗，提供縣市依轄內接種需求規劃疫苗接種作業，其中連江縣撥配量將提前於6月16日配送。\$\@\$指揮中心特別提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為儘速發掘社區內可能潛藏病例，並有效斷絕所有感染鏈，該中心已於10日公布「社區廣篩4大策略」；今日並宣布，將補助各地方社區篩檢站50臺PCR檢驗儀器，居家自採與企業快篩陽性民眾，將可就近至社區第一線進行快速PCR檢驗。\$\@\$指揮中心指出，在廣設社區篩檢站方面，截至6月13日止，全國各地已開設249社區篩檢站，為加速社區第一線檢驗量能篩檢，今日宣布將補助各地方社區篩檢站50臺PCR檢驗儀器，未來居家自採與企業快篩民眾，若快篩結果呈現陽性，可就近至有快速PCR檢驗的社區篩檢站進行檢驗，並依照PCR檢驗結果及有無症狀進行後續措施(如附表)，形成全國社區防疫網。\$\@\$指揮中心表示，目前持續鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高的地區為考量，針對具有確診個案相關接觸史、活動史的無症狀民眾為主要篩檢對象。另為保全重度級急救責任醫院收治量能，請考量於社區健康中心、其他非重度級急救責任醫院及通風良好的場所，設置社區篩檢站。相關設置規定，可參考指揮中心訂頒的「各地方政府社區篩檢站設置指引」辦理。\$\@\$指揮中心再次提醒，所有篩檢工具皆有偽陰性、偽陽性的可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。 圖片 附件\$\@\$0615 COVID-19廣篩策略.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心表示，今(15)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國推動加強三級警戒等管制措施，雙北疫情雖逐步趨緩，但指揮中心仍請雙北以外的部分縣市，密切注意疫情發展，須持續強化基層醫療檢驗及社區篩檢及病例監測之能力，針對弱勢族群及獨居老人更應提高注意，並加強疫調與接觸者管理及早發現個案，以防疫情反彈或出現新一波流行。\$\@\$二、有關疫苗配發及接種作業：\$\@\$(一)指揮中心再次向各地方政府說明，前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AZ疫苗，均以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各地方政府依比例公平、公開透明分配，指揮中心也會根據各地方政府之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業。\$\@\$(二)有關指揮中心已公布之目標接種族群，其疫苗施打不受戶籍地限制，請地方政府依序完成民眾預約接種作業；另地方政府建請指揮中心就目前開放施打對象重新評估研議部分，鑒於疫苗量有限，仍請各地方政府依造冊對象及接種計畫審慎作業，有關第七類施打對象部分，指揮中心正與相關機關進行盤點，也會參考地方政府建議，依實際狀況完備造冊作業。\$\@\$三、有關地方政府擬進行到宅接種作業，指揮中心尊重地方政府相關作業，惟請留意疫苗保存條件：須保存在2-8℃、開瓶後要在6小時內施打，避免晃動等。另應預先安排10人次進行施打，以利疫苗接種效率。\$\@\$四、針對出國留學之學生能否先予納入公費疫苗接種對象，鑒於國內疫苗供應需求，目前仍以臺灣社區防疫為主，暫不將上類人員納入公費施打對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$國際疫情持續嚴峻且變化快速，為確保國籍航空機組員職場健康及維護國內防疫安全，關於國籍航空公司機組員接種COVID-19疫苗後之檢疫措施，於交通主管機關監督航空公司落實外站「零接觸」管理、機組員「機上全程防護」及返國檢疫措施下，調整說明如下：\$\@\$一、重點高風險國家航線航班之返臺機組員，居家檢疫14天(結束日PCR檢驗)。\$\@\$二、長程航班(入境旅遊疫情第三級地區)：\$\@\$1. 尚未接種疫苗及接種1劑疫苗未達兩週者：110/6/12起，採5天居家檢疫(結束日PCR檢驗)+9天加強版自主健康管理(第9、14天抗原快篩)。7/1起，採7天居家檢疫(結束日PCR檢驗)+7天加強版自主健康管理(第14天抗原快篩)。\$\@\$2. 接種1劑疫苗且滿兩週，但尚未具完整疫苗保護力：110/6/12起，採3天居家檢疫(結束日PCR檢驗)+11天自主健康管理(第9、14天抗原快篩)。7/1起，採5天居家檢疫(結束日PCR檢驗)+9加強版天自主健康管理(第9、14天抗原快篩)。\$\@\$3. 完整接種2劑疫苗達兩週且抗體檢測陽性(每3個月監測)：採7天自主健康管理(結束日PCR陰性)。\$\@\$三、短程航班(當班往返且未入境旅遊疫情第三級地區)：110/6/12起，\$\@\$1. 未完整接種疫苗達兩週及抗體檢測陰性者：採14天自主健康管理+每14天PCR監測。\$\@\$2. 完整接種疫苗滿兩週且抗體檢測陽性者(每3個月抗體監測)：自我健康監測+每14天PCR監測\$\@\$指揮中心表示，自疫情以來，機組員肩負疫苗及輸送物資進出口，以維持空運貨物運能，對機組員的付出表示感謝。目前國籍航空機組員多數已接種第1劑疫苗，後續將保留其第2劑疫苗，確保其能獲得疫苗保護力。指揮中心特別提醒，因病毒株變異及傳播力難以預測，具疫苗保護力的機組員於執勤時，仍應遵守民用航空局訂定之作業規範，於外站「零接觸當地人」、機上全程防護及加強手部衛生清消頻率等，以維護個人及家人防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增185例COVID-19確定病例，均為本土個案；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之185例本土病例，為83例男性、102例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月28日至6月13日。個案分佈以新北市98例最多，其次為臺北市42例，基隆市14例，桃園市10例，苗栗縣7例，花蓮縣4例，彰化縣及新竹縣各3例，宜蘭縣2例，臺中市及雲林縣各1例。其中雙北地區以外縣市45例中，37例為已知感染源、5例關聯不明、3例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，共計為男性9位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月8日，確診日介於5月18日至6月13日，死亡日介於6月5日至6月13日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月12日累計公布11,547位確診個案中，已有5,802人解除隔離，解隔離人數達確診人數50.2%。\$\@\$指揮中心統計，截至目前國內累計886,014例新型冠狀病毒肺炎相關通報(含863,703例排除)，其中13,106例確診，分別為1,155例境外移入，11,898例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中452例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月14日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日表示，有關網傳總統、副總統已接種COVID-19疫苗，經總統及副總統授權由中央流行疫情指揮中心調閱「全國性預防接種資訊管理系統(NIIS)」系統查證，蔡英文總統及賴清德副總統均尚未接種COVID-19疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增251例COVID-19確定病例，分別為250例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之250例本土病例，為116例男性、134例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月28日至6月11日。個案分佈以新北市133例最多，其次為臺北市65例，基隆市16例，桃園市13例，苗栗縣9例，花蓮縣3例，宜蘭縣、新竹市、彰化縣及臺中市各2例，高雄市、雲林縣、新竹縣各1例。其中雙北地區以外縣市52例中，45例為已知感染源，7例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性16位、女性10位，年齡介於40多歲至100多歲，發病日介於5月15日至6月9日，確診日介於5月18日至6月11日，死亡日介於6月4日至6月11日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12698)，為本國籍40多歲女性，5月30日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫旅館進行居家檢疫，於6月9日出現發燒等症狀，6月10日由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，累計845,113例新型冠狀病毒肺炎相關通報(含821,956例排除)，其中12,746例確診，分別為1,154例境外移入，11,539例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增5例空號 (案9332、10323、10337、10353、12078)，累計92例移除為空號。確診個案中411例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月12日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日下午由行政院秘書長李孟諺、指揮中心社區防疫組組長薛瑞元與各縣市政府衛生局召開「COVID-19疫苗接種作業推行協調會」，針對不同年齡與族群的疫苗接種策略，進行相關經驗交流與分享；會議重點如下：\$\@\$請地方衛生機關每日確實將接種名冊上傳，以利及時掌握接種進度及疫苗撥配相關事宜。\$\@\$日本政府提供我國的124萬劑AstraZeneca疫苗，開放75歲以上長者(含65歲以上具原住民身分者)施打，只要為民國35年12月31日(含)以前出生者，或具原住民身分之證明文件且為民國45年12月31日(含)以前出生者，均符合接種資格。同時，75歲以上長者，不限其居住地或戶籍地，均可就近完成接種作業。\$\@\$各地方政府的疫苗接種策略不同，大部分縣市採預先造冊、由民政單位通知方式辦理，另有部分縣市採用院所預約方式，惟請採預約方式之縣市，宜加速擴充電話線路及服務人力，使施打作業更為順暢。\$\@\$另，指揮中心提醒，目前第一類尚未完成接種COVID-19疫苗較多之縣市，請加速疫苗接種作業，使民眾儘早獲得疫苗保護力。\$\@\$為避免人潮擁擠，請各地方政府以分齡、分流、分批辦理，減少群聚風險。\$\@\$另，由於食品藥物管理署加速完成該批COVID-19疫苗檢驗封緘作業，以及物流業者鼎力協助提前於今日深夜開始配送，明(12)日將有50萬劑陸續運抵各地方政府，考量地方政府需前置作業時間，指揮中心表示，疫苗開打日仍以 6月15日為原則辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、雙北疫情趨勢雖持平惟仍舊嚴峻，指揮中心持續鼓勵各縣市增設社區篩檢站，以便及早發掘潛在陽性個案，阻斷社區傳播鏈；另鑒於重症及死亡數攀升對社會之衝擊與影響較大，也請各地方政府持續掌握及協調醫療資源，迅速應變。\$\@\$二、針對疫苗配撥及施打作業：\$\@\$(一)指揮中心再次強調，中央與地方應秉持「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂「COVID-19疫苗接種順序」，進行施打作業。\$\@\$(二)有關各地方政府關切疫苗配撥量部分，指揮中心會儘速完成第一類至第六類符合施打對象之計算，並加速進行疫苗撥發作業。另鑒於現行國內疫苗量仍無法全數完成上開類別人員之施打，亦請各地方政府審慎妥予規劃相關施打作業之進行。\$\@\$(三)請地方衛生機關加強向合約醫療院所宣導，針對符合接種順序者，應讓其以最方便之方式就近完成接種作業，不侷限接種者居住地、工作地或戶籍地區分，避免造成人流移動情形；另有關疫苗施打類別，針對公費疫苗接種第七類有關維持國家安全及社會機能正常運作者之匡列部分，指揮中心將會再進一步研議，俾符實際運作狀況。\$\@\$三、衛生福利部醫事司與內政部消防署已協調民間18家救護車業者，自今日起投入防疫救護載運工作，將進行醫院、集中檢疫場所間，點到點之病患運送作業，預計至少有108部民間救護車加入防疫工作，以有效舒緩消防機關救護工作之壓力。\$\@\$四、請各地方政府鼓勵觀光飯店業者發動「暖心方案」，提供醫護人員以及相關醫事人員入住，讓第一線醫事人員可以獲得充分及妥適休息。\$\@\$五、鑒於暑假將屆，有關大專院校學生暑期生活管理作業，教育部前於5月26日及6月8日2度要求各級學校，應強化住宿生管理，並不得強制要求住宿學生返家。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，指揮中心已採購複合單株抗體藥物，將提供具有重症風險因子之輕中度確診個案治療使用，以降低個案轉為重症需住院之風險，協助紓解重症醫療量能。\$\@\$指揮中心指出，依據國際研究顯示，新冠病毒感染患者輕症比率大約佔8成左右，但其中約9％的患者可能惡化為重症，主要的重症危險因子有高齡、肥胖、慢性腎病、心血管疾病/高血壓、慢性肺病、免疫抑制疾病/免疫抑制治療等影響免疫功能之疾病，以及懷孕等，且其病程演化迅速，甚至導致死亡。截至本(110)年6月10日監測資料，國內輕中度COVID-19確診病例約佔所有確診個案84%，死亡病例數佔確診病例2.7%。\$\@\$指揮中心表示，國內新冠肺炎(COVID-19)疫情持續嚴峻，重症醫療量能持續緊繃，鑒於單株抗體之療效及安全性已有部分證據支持，美國FDA及國際間已陸續發布緊急使用授權(EUA)核准於臨床使用，以治療輕度至中度SARS-CoV-2感染且有重症危險因子之高風險患者，降低個案轉為重症需住院之風險。指揮中心經諮詢專家，已將該藥物之使用建議納入我國新型冠狀病毒(SARS-CoV-2)感染臨床處置暫行指引，並著手採購儲備該藥物，規劃分配於集中檢疫場所之主責醫院，經醫師評估治療效益與風險，並充分告知後，給予符合條件個案注射治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增287例COVID-19確定病例，分別為286例本土及1例境外移入；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之286例本土病例，為141例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月19日至6月10日。個案分佈以新北市120例最多，其次為苗栗縣56例、臺北市49例、桃園市19例、新竹縣12例、基隆市8例、彰化縣7例、臺中市4例、宜蘭縣及新竹市各3例、雲林縣及花蓮縣各2例、臺南市1例。其中雙北地區以外縣市117例中，109例為已知感染源，8例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，共計為男性12位、女性12位，年齡介於50多歲至80多歲，發病日介於5月3日至6月8日，確診日介於5月15日至6月10日，死亡日介於6月2日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12479)，為泰國籍30多歲男性移工，2月7日曾在泰國當地檢出COVID-19陽性，3月23日自泰國來臺工作，持有搭機前3日內檢驗陰性報告，4月7日檢疫期滿採檢結果為陰性，6月8日出現發燒及咳嗽症狀，6月10日就醫採檢，於今日確診(Ct值31，次日再驗核酸檢測陰性，血清抗體陽性)；已匡列個案接觸者13人，皆列為居家隔離。\$\@\$指揮中心統計，累計804,931例新型冠狀病毒肺炎相關通報(含781,334例排除)，其中12,500例確診，分別為1,153例境外移入，11,294例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增9例空號 (案6616、9671、10339、10348、10350、10359、10452、11381、11865)，累計87例移除為空號。確診個案中385例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
   </si>
 </sst>
 </file>
@@ -514,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -559,16 +1432,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -576,16 +1449,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -593,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -610,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -627,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -644,13 +1517,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -658,13 +1534,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -672,16 +1551,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2">
-        <v>44381</v>
+        <v>44383</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -689,13 +1568,1280 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44381</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44380</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
-        <v>44380</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44375</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -710,6 +2856,86 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>新增29例COVID-19確定病例，分別為28例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺  即日起開放18歲(含)以上民眾進行第三輪意願登記</t>
+  </si>
+  <si>
     <t>為儘速提升第一劑COVID-19疫苗涵蓋率，第二劑Moderna疫苗接種間隔調整自第10週起接種</t>
   </si>
   <si>
@@ -61,6 +67,36 @@
     <t>針對媒體報導「指揮中心設局召開記者會」 指揮中心澄清並非事實</t>
   </si>
   <si>
+    <t>指揮中心延長全國疫情警戒第三級至7月26日止，嚴守社區防線，並自7月13日起適度鬆綁部分措施</t>
+  </si>
+  <si>
+    <t>指揮中心訂購第二批AZ疫苗62.6萬劑將於今(7)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增40例COVID-19確定病例，分別為39例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除</t>
+  </si>
+  <si>
+    <t>新增29例COVID-19確定病例，分別為27例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>日本政府提供113萬劑AstraZeneca COVID-19疫苗將於7月8日下午抵臺</t>
+  </si>
+  <si>
+    <t>7月6日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>報載「疾病管制署造冊人數，超過編制內人數」 指揮中心說明：人員皆符合規定 以利防疫運作</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
@@ -91,6 +127,36 @@
     <t>/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
@@ -121,6 +187,36 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日表示，為順利推動我國COVID-19疫苗接種作業，自即(7/13)日起開放18歲(含)以上民眾，於「疫苗施打意願登記與預約系統」( https://1922.gov.tw/）進行第三輪意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月15日17時，並同步進行第三輪結算。\$\@\$二、簡訊通知時間：7月16日至7月18日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。本輪可接種疫苗為AZ疫苗。\$\@\$三、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心進一步表示，第二輪的意願登記已於昨(12)日17時截止，全國約有285萬人登記，其中約114萬人有意願接種AZ疫苗。系統平臺將自7月13日上午，陸續以簡訊通知符合資格的民眾，提醒收到簡訊民眾記得進行預約；施打期間為7月16日至7月22日，籲請民眾準時前往接種。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，為儘速提升國人COVID-19疫苗第一劑涵蓋率及我國群體保護力，並因應政策需要，昨(11)日經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議第4次臨時會議決議，自即日起調整現階段Moderna COVID-19疫苗之第一、二劑接種間隔，除第一類接種對象、國籍航空機組員及孕婦的第二劑Moderna疫苗維持於間隔至少28天後接種外，其餘對象均調整第一劑與第二劑接種間隔10至12週，並依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，截至昨(11)日COVID-19疫苗(包含Moderna及AstraZeneca)累計接種3,565,840人次，疫苗涵蓋率約14.87%。依據國外臨床試驗資料分析顯示，Moderna COVID-19疫苗完成接種第一劑14天後保護力約為81%，另依據WHO建議接種間隔最晚可至12週，指揮中心考量政策需要並參考ACIP建議，亦將Moderna COVID-19疫苗接種間隔調整為10至12週，並持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，前往接種第二劑疫苗前，請確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。此外，籲請民眾完成疫苗接種後，須持續積極配合各項防疫措施，並落實勤洗手、戴口罩及保持社交距離等個人防護，以全面保護自我與家人的健康，有效降低染疫風險。</t>
   </si>
   <si>
@@ -139,10 +235,22 @@
     <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增33例COVID-19確定病例，分別為31例本土及2例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之31例本土病例(其中19例為居家隔離期間或期滿檢驗陽性者)，為17例男性、14例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年6月22日至7月9日。個案分布以臺北市及新北市各13例最多，其次為桃園市4例，基隆市1例；其中21例為已知感染源、2例關聯不明、8例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為2例男性、4例女性，年齡介於30多歲至80多歲，發病日介於6月3日至6月24日，確診日介於6月4日至6月25日，死亡日介於7月6日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月8日累計公布13,950位確診個案中，已有11,698人解除隔離，解隔離人數達確診人數83.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15299為本國籍30多歲女性，6月25日自義大利入境，持搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15319為本國籍20多歲男性，6月26日自比利時入境，持搭機前3日內檢驗陰性報告，入境後於自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,606,389例新型冠狀病毒肺炎相關通報(含1,589,769例排除)，其中15,218例確診，分別為1,199例境外移入，13,966例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計105例移除為空號。自2020年起累計736例COVID-19死亡病例，其中728例本土，個案居住縣市分布為新北市368例、臺北市279例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月10日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增36例COVID-19確定病例，分別為32例本土及4例境外移入；另確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之32例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為17例男性、15例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月1日至7月8日。個案分布以臺北市19例最多，其次為新北市11例、桃園市2例；其中14例為已知感染源、1例關聯不明、17例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，為8例男性、4例女性，年齡介於40多歲至80多歲，發病日介於5月12日至7月4日，確診日介於5月16日至7月7日，死亡日介於6月30日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月7日累計公布13,929位確診個案中，已有11,536人解除隔離，解隔離人數達確診人數82.8%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15270為本國籍60多歲女性，6月25日自土耳其返臺，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月7日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15283為本國籍30多歲女性，7月7日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案在臺期間並無症狀，已匡列同班機前後2排旅客共6人，均列居家隔離。案15289、15290皆為本國籍20多歲女性，7月7日自捷克搭乘同班機返臺，均持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；2人在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,582,844例新型冠狀病毒肺炎相關通報(含1,566,436例排除)，其中15,185例確診，分別為1,197例境外移入，13,935例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計730例COVID-19死亡病例，其中722例本土，個案居住縣市分布為新北市367例、臺北市277例、基隆市24例、桃園市21例、彰化縣12例、新竹縣8例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月9日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
     <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，為順利推動我國COVID-19疫苗接種作業，指揮中心於昨(7)日下午邀集各地方政府代表共同召開「疫苗施打意願登記與預約系統」討論會議，達成共識及決議如下：\$\@\$一、指揮中心將自即日起，開放全國第9類及第10類對象意願登記，並正式啟用「COVID-19疫苗施打意願登記與預約系統」，請符合資格民眾可先行意願登記：\$\@\$(一) 意願登記：即日起至7月12日下午5時止。\$\@\$(二) 為保障65歲以上長者疫苗接種權益，若希望使用該系統進行意願登記，請依時程辦理。\$\@\$二、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」之民眾進行意願登記，請地方政府設置因地制宜之服務專線或指定人員，協助不便使用系統民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形參照民眾所登記之意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊之民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。指揮中心也強調，「COVID-19疫苗施打意願登記與預約系統」是為建立一個讓大量疫苗接種能依序穩定有效推行之機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註:\$\@\$第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$第10類對象為50-64歲成人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增21例COVID-19確定病例，分別為18例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為8例男性、10例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月1日至7月7日。個案分布以臺北市12例最多，其次為新北市6例；其中9例為已知感染源、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至70多歲，發病日介於5月27日至6月14日，確診日介於5月28日至6月17日，死亡日介於7月5日至7月6日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月6日累計公布13,889位確診個案中，已有11,456人解除隔離，解隔離人數達確診人數82.5%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15252為本國籍30多歲男性，6月23日自泰國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月6日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15253為印尼籍20多歲男性漁工，5月10日自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月23日檢疫期滿前採檢結果為陰性，7月7日因有離境需求再次採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者221人，其中60人列居家隔離，餘161人列自我健康監測。案15254為本國籍10多歲女性，7月6日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,541,974例新型冠狀病毒肺炎相關通報(含1,525,372例排除)，其中15,149例確診，分別為1,193例境外移入，13,903例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計 718例COVID-19死亡病例，其中710例本土，個案居住縣市分布為新北市363例、臺北市272例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$針對媒體報導「指揮中心設局召開記者會」，中央流行疫情指揮中心今(8)日說明如下：\$\@\$一、針對臺北市環南市場進行大規模PCR篩檢且41人呈現陽性，顯示有群聚感染疫情，指揮中心於7月2日11:30前往環南市場現場召開記者會，並宣布與臺北市政府共同成立聯合前進指揮所。\$\@\$二、當日陳時中指揮官於9:45致電黃珊珊副市長，黃副市長將電話轉交給柯文哲市長，陳指揮官與柯市長直接通話，雙方對成立聯合前進指揮所達成共識，並在環南市場現場召開記者會。\$\@\$三、當日農委會陳吉仲主委於10:00多左右，親自致電二通予臺北市黃副市長，並於第二通電話中明確告知黃副市長，陳指揮官、經濟部王美花部長及農委會陳吉仲主委將至環南市場召開記者會，並邀請黃副市長出席，黃副市長表示柯市長也會出席。\$\@\$四、指揮中心表示，當日均依照指揮中心記者會程序，發布採訪通知；指揮中心幕僚抵達環南市場後，亦與臺北市市場處高副處長確認記者會場地、流程及雙方出席人員，同時與現場媒體溝通說明記者會流程，及預定出席人員。\$\@\$五、當日11:01，臺北市府陳智菡發言人於臺北市府群組發布採訪通知，說明柯市長、黃副市長皆會出席記者會； 11:20柯市長、黃副市長抵達環南市場。\$\@\$六、指揮中心說明，為儘快有效控制疫情，召開記者會說明防疫作為及因應措施，以利相關市場攤商、工作人員及周邊住民了解需配合之事項，並無「以開會名義設局召開記者會」一事。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，在國人共同努力配合下，國內疫情已在控制中，惟仍有部分感染事件發生，參酌世界各國管制作為及經驗，防疫措施鬆綁須逐步執行，才可穩定掌握疫情狀況，為確保國人健康，指揮中心經評估後決定，同步延長全國疫情警戒第三級至7月26日止，並自7月13日起適度鬆綁部分措施，說明如下：\$\@\$一、適度鬆綁措施：\$\@\$(一)    有條件鬆綁對象（地方政府得視防疫需要因時因地調整）：\$\@\$1.    戶外：國家公園、國家風景區、遊樂園區、休閒農場、森林遊樂區、植物園、文化園區、學校操場、駕訓班。\$\@\$2.    室內：美術館、博物館、電影院、表演場館(無觀眾)、社教機構、文化中心。\$\@\$3.    室內外運動場館(游泳池除外)、高爾夫球場。\$\@\$4.    餐飮場所(餐廳、傳統市場及夜市、百貨賣場 美食街、美食區等)符合指揮中心指引得內用。\$\@\$5.    國內小型旅行團(9人以下)、劇組拍攝。\$\@\$(二)    上述鬆綁須遵照通案性原則及主管機關指引：\$\@\$1.    實聯制、出入口管制、人流管控降載。\$\@\$2.    維持社交距離，除飮食外，全程戴口罩。\$\@\$3.    員工人員健康管理、確診事件即時應變。\$\@\$二、三級警戒延長仍須關閉之場所：\$\@\$(一)    休閒娛樂場所：\$\@\$歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、指壓按摩場所、健身休閒中心(含提供指壓、三溫暖等設施之美容瘦身場所)、保齡球館、撞球場、室內螢幕式高爾夫練習場、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、自助選物販賣機營業場所、釣蝦場、桌遊場所及其他類似場所。\$\@\$(二)    教育學習場域：\$\@\$社區大學、樂齡學習中心、訓練班(駕訓班除外)、K書中心等其他類似場所。\$\@\$(三)    觀展觀賽場所：\$\@\$會展場館、游泳池等其他類似場所。\$\@\$指揮中心表示，鬆綁過程是疫情重要關鍵，籲請全國民眾持續落實遵循並積極配合三級警戒管制及鬆綁規定相關措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。 圖片 附件\$\@\$網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增29例COVID-19確定病例，分別為27例本土及2例境外移入；另確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之27例本土病例(其中15例為居家隔離期間或期滿檢驗陽性者)，為17例男性、10例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月10日至7月5日。個案分布以臺北市14例最多，其次為新北市11例、屏東縣及彰化縣各1例；其中17例為已知感染源、10例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，為14位男性、3位女性，發病日介於5月16日至7月2日，確診日介於5月19日至7月5日，死亡日介於6月28日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月4日累計公布13,831位確診個案中，已有11,180人解除隔離，解隔離人數達確診人數80.8%。\$\@\$指揮中心表示，今日新增境外移入個案中，案15180為本國籍10多歲男性，7月4日自美國入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於機場採檢後至防疫旅館檢疫，7月5日出現嗅味覺異常等症狀，於今日確診，相關接觸者匡列中。案15185為本國籍30多歲男性，6月30日自印尼入境，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並進行採檢，當日採檢結果為陰性；7月4日出現發燒、肌肉痠痛、流鼻水等症狀，7月5日由衛生單位採檢送驗，於今日確診，同班機旅客均已入境採檢並入住集中檢疫所。\$\@\$指揮中心統計，截至目前國內累計1,503,584例新型冠狀病毒肺炎相關通報(含1,487,019例排除)，其中15,088例確診，分別為1,189例境外移入，13,846例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號(案10180、案13124)，累計105例移除為空號。自2020年起累計706例COVID-19死亡病例，其中698例本土，個案居住縣市分布為新北市354例、臺北市269例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月6日新增死亡COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -517,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +653,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -562,16 +670,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -579,16 +687,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>44389</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -596,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -613,16 +721,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -630,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -647,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -664,16 +772,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -681,13 +789,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -695,13 +803,171 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>44385</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -716,6 +982,16 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,21 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>153萬劑AstraZeneca疫苗及35萬劑Moderna疫苗將於今(15)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為14例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>社區式服務之衛生福利機構可依照相關防疫管理指引，逐步恢復提供服務</t>
+  </si>
+  <si>
+    <t>新增27例COVID-19確定病例，分別為17例本土及10例境外移入</t>
+  </si>
+  <si>
+    <t>7月13日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
     <t>新增29例COVID-19確定病例，分別為28例本土及1例境外移入</t>
   </si>
   <si>
@@ -46,49 +61,19 @@
     <t>自7月13日起恢復移工轉換雇主，雇主需於承接日前3日內安排移工檢驗PCR</t>
   </si>
   <si>
-    <t>籲請50歲(含)以上及18歲(含)以上第9類對象至COVID-19公費疫苗預約平臺登記意願  7月13日起陸續簡訊通知進行預約</t>
-  </si>
-  <si>
-    <t>新增31例COVID-19確定病例，分別為28例本土及3例境外移入</t>
-  </si>
-  <si>
-    <t>新增33例COVID-19確定病例，分別為31例本土及2例境外移入</t>
-  </si>
-  <si>
-    <t>新增36例COVID-19確定病例，分別為32例本土及4例境外移入</t>
-  </si>
-  <si>
-    <t>即日起開放全國第9及第10類對象意願登記</t>
-  </si>
-  <si>
-    <t>新增21例COVID-19確定病例，分別為18例本土及3例境外移入</t>
-  </si>
-  <si>
-    <t>針對媒體報導「指揮中心設局召開記者會」 指揮中心澄清並非事實</t>
-  </si>
-  <si>
-    <t>指揮中心延長全國疫情警戒第三級至7月26日止，嚴守社區防線，並自7月13日起適度鬆綁部分措施</t>
-  </si>
-  <si>
-    <t>指揮中心訂購第二批AZ疫苗62.6萬劑將於今(7)日下午抵臺</t>
-  </si>
-  <si>
-    <t>新增40例COVID-19確定病例，分別為39例本土及1例境外移入</t>
-  </si>
-  <si>
-    <t>網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除</t>
-  </si>
-  <si>
-    <t>新增29例COVID-19確定病例，分別為27例本土及2例境外移入</t>
-  </si>
-  <si>
-    <t>日本政府提供113萬劑AstraZeneca COVID-19疫苗將於7月8日下午抵臺</t>
-  </si>
-  <si>
-    <t>7月6日全國防疫會議後記者會報告</t>
-  </si>
-  <si>
-    <t>報載「疾病管制署造冊人數，超過編制內人數」 指揮中心說明：人員皆符合規定 以利防疫運作</t>
+    <t>/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ppvh82lbGAf4mdyYY3JanQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/djglefBeFAgAOPL4Kq7-0A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/yZAmavXm44dCHkOMtcPprQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
@@ -106,49 +91,19 @@
     <t>/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ppvh82lbGAf4mdyYY3JanQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/djglefBeFAgAOPL4Kq7-0A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/yZAmavXm44dCHkOMtcPprQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
@@ -166,49 +121,19 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封縅作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月6日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.03萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增18例COVID-19確定病例，分別為14例本土及4例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之14例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、6例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年7月7日至7月14日。個案分布以臺北市9例為最多，其次為桃園市3例、新北市2例；其中11例為已知感染源、3例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為1例男性、5例女性，年齡介於60多歲至80多歲，發病日介於5月15日至6月29日，確診日介於5月26日至6月30日，死亡日介於7月6日至7月13日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月13日累計公布14,103位確診個案中，已有12,083人解除隔離，解隔離人數達確診人數85.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15437為阿富汗籍40多歲男性，7月1日自阿富汗來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月13日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15446、案15447均為印尼籍20多歲男性漁工，受雇於同一公司，5月12日搭乘同班機自印尼來臺，皆持有搭機前3日內檢驗陰性報告，入境後均至防疫旅館完成居家檢疫並持續隔離至7月12日，7月13日由公司安排自費採檢，皆於今日確診；2人在臺期間並無症狀且無外出，已匡列接觸者4人，因有適當防護，均列自我健康監測。案15452為荷蘭籍40多歲男性，7月13日自阿拉伯聯合大公國(杜拜)來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,707,362例新型冠狀病毒肺炎相關通報(含1,690,141例排除)，其中15,346例確診，分別為1,218例境外移入，14,075例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計759例COVID-19死亡病例，其中751例本土，個案居住縣市分布為新北市377例、臺北市288例、基隆市26例、桃園市22例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月15日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日表示，COVID-19疫情三級警戒期間，為降低失能者及身心障礙者群聚及傳染風險，社區式機構均暫停提供服務。現因應國內疫情趨緩，指揮中心宣布社區式機構可在工作人員疫苗施打率達8成且做好防疫整備工作的狀態下，適度鬆綁，逐步恢復提供服務。\$\@\$指揮中心說明，為確保服務對象健康，衛生福利部特訂定「衛生福利機構(社區型)因應COVID-19防疫管理指引」，針對「服務條件」、「自主防疫管理措施」、「具有COVID-19感染風險者之應變措施及發生確診病例應變處置」等管理事項，提供社區式服務機構依循辦理，地方政府應輔導轄內機構依本指引提供服務，並填具檢核表報地方政府備查，在完備防疫工作的前提下逐步恢復提供服務。\$\@\$本指引適用提供社區式服務之衛生福利機構，包括：社區式服務類長期照顧機構(日間照顧、小規模多機能)、附設於住宿機構之日間照顧服務、身心障礙日間型服務(含社區日間作業設施、社區式日間照顧、日間服務機構)、精神復健機構(日間型)、早期療育機構。本指引重點包括：\$\@\$一、服務條件\$\@\$(一)機構提供服務條件：\$\@\$1.整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩(以下簡稱抗原快篩)陰性證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$(二)服務對象接受服務條件(未成年者不適用)：\$\@\$1.建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$二、自主防疫管理措施：\$\@\$(一)工作人員及服務對象之健康管理部分，若為確診、居家檢疫、居家隔離、自主健康管理、抗原快篩陽性者均不可提供或使用服務。\$\@\$(二)規劃服務動線、分區空間及隔離空間，建立分艙分流及分組活動、用餐機制。\$\@\$(三)交通服務管理，每車以10人(含司機)為限，車內禁止用餐、飲水。\$\@\$(四)加強環境(含交通接送車輛)清潔消毒，每日至少2次。\$\@\$三、具有COVID-19感染風險者之應變措施及發生確診病例應變處置：\$\@\$(一)發現疑似病例，機構應於24小時內通報，疑似病例應各自於隔離空間等候就醫或返家，且不得搭乘大眾交通工具。\$\@\$(二)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(三)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$另家庭托顧服務部分，因照顧規模較小，且工作人員及服務對象皆屬公費疫苗第五類施打對象，較不易發生大規模群聚感染情形；雖不在指引適用範圍，但仍應在家庭托顧員完成疫苗第一劑接種且滿14日的前提下，參考社區式服務防疫管理指引加強人員健康監測、維持社交距離、增加環境清潔消毒次數、建立疑似個案通報轉送及確診病例應變處置機制，落實防疫規範下恢復營運。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增27例COVID-19確定病例，分別為17例本土及10例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之17例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為11例男性、6例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月7日至7月13日。個案分布以臺北市10例為最多，其次為桃園市3例、新北市及臺中市各2例；其中10例為已知感染源、3例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為5例男性、1例女性，年齡介於50多歲至80多歲，發病日介於5月15日至7月3日，確診日介於5月19日至7月5日，死亡日介於7月10日至7月12日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月12日累計公布14,074位確診個案中，已有11,964人解除隔離，解隔離人數達確診人數85.0%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為9例男性、1例女性，年齡介於10多歲至70多歲，分別自緬甸(6例，為同一班機乘客)、英國、日本、印尼及茅利塔尼亞入境，均持有搭機前3日內檢驗陰性報告，入境日介於6月30日至7月11日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,686,311例新型冠狀病毒肺炎相關通報(含1,669,801例排除)，其中15,328例確診，分別為1,214例境外移入，14,061例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案15282)，共累計106例移除為空號。2020年起累計753例COVID-19死亡病例，其中745例本土，個案居住縣市分布為新北市374例、臺北市287例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月14日新增死亡COVID-19確診個案表.pdf\$\@\$7月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心表示，今(13)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.自實施全國加強三級警戒等相關管制措施下，Rt值已逐步下降，疫情持續趨緩，本週開始進行部分管制措施鬆綁，請各地方政府密切注意後續效應、及時應處。另全國三級警戒將延長至7月26日，考量各項防疫措施可能對民眾生活經濟、心理健康造成壓力，建議各地方政府進一步規劃相關關懷及配套方案，以舒緩民眾身心壓力。\$\@\$2.境外移入病例隨國外疫情上升有增加趨勢外，入境全面篩檢亦有陸續發現變異株相關個案，其中不乏病毒量高之病例，建議各地方政府持續加強疫情監控；雙北近期發生家庭群聚及職場群聚事件，仍請雙北地方政府除持續考量民眾就醫可近性設置社區篩檢站外，亦強化疫調作業，以利及早掌握病例，妥善應處。\$\@\$二、各直轄市、縣(市)政府「居家隔離/居家檢疫期滿前採檢政策」執行現況\$\@\$1.因應新型冠狀病毒Delta變異株於全球日益擴散且傳播力高，自今(2021)年6月22日起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫之期滿前，須由各地方政府協助安排於隔離或檢疫期滿前1-3日(即接觸或入境迄日起第12-14日)內，搭乘防疫計程車前往醫療院所進行採檢，並確保於期滿前可取得檢驗報告。\$\@\$2.政策實施迄今，經期滿採檢計發現4名居家隔離、14名居家檢疫者採檢為確定病例，顯見於隔離或檢疫期滿前落實採檢措施，可避免COVID-19病毒進入社區，降低社區傳播風險，仍請各地方政府持續落實居家隔離/檢疫之期滿前採檢措施，共同守護社區防疫安全。\$\@\$三、衛生福利部為利疫情期間日照服務機構業務執行，業研議「衛生福利機構(社區型)因應COVID-19防疫管理指引」，相關重點請各地方政府協助檢視，近期將對外發布，重點包括：\$\@\$1.適用範圍：社區式服務類長期照顧機構(日間照顧、小規模多機能家庭托顧)、附設於一般護理之家、精神護理之家、老人福利機構、身心障礙福利機構之日間照顧服務、身心障礙日間型服務(社區日間作業設施、社區式日間照顧、家庭托顧、日間服務機構)、精神復健機構（日間型）、早期療育機構。\$\@\$2.服務條件\$\@\$(1)機構提供服務條件：\$\@\$整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$地方政府應輔導轄內機構依本指引提供服務，機構須填具檢核表報地方政府備查，並配合後續抽核。\$\@\$(2)服務對象(含陪同照顧者)接受服務條件(未成年者不適用)：\$\@\$建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$3.自主防疫管理措施：\$\@\$(1)工作人員及服務對象之健康管理部分，若為居家檢疫、居家隔離、自主健康管理者均不可提供或使用服務。\$\@\$(2)規劃服務動線、分區空間及隔離空間，建立分艙分流及活動分組進行機制。\$\@\$(3)交通服務管理，每車以10人（含司機）為限\$\@\$4.疑似確診應變措施：\$\@\$(1)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方社（衛）政主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(2)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$四、針對地方政府疫調資料調閱部分\$\@\$1.各地方政府如有確診軌跡調閱之需求，可透過各區管中心向指揮中心調閱，並將儘速於1天內提供。\$\@\$2.指揮中心已完成個案軌跡、熱區查詢、及簡訊實聯制疫調查詢功能，近日內提供各地方政府直接由線上進行查詢。另簡訊實聯制資料僅限制疫調查詢為主，相關查詢均有紀錄及配套機制，以確保使用範圍。\$\@\$3.以臺北市為例，近日向指揮中心調閱近1,000筆資料，除提供資料，指揮中心也提供線上查詢功能，並將和臺北市資訊局洽談介接與合作事宜。</t>
   </si>
   <si>
     <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
@@ -221,36 +146,6 @@
   </si>
   <si>
     <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、10例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月20日至7月11日。個案分布以新北市10例為最多，其次為臺北市9例，基隆市、桃園市、新竹市及臺中市各1例；其中17例為已知感染源、4例關聯不明、2例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案2598)，為60多歲男性，具慢性病史及其他確診者接觸史；個案於5月11日出現發燒等症狀，5月19日就醫採檢，5月20日確診並住院治療，6月11日解除隔離並出院。7月10日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月10日累計公布14,019位確診個案中，已有11,850人解除隔離，解隔離人數達確診人數84.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15370)，為克羅埃西亞籍未滿10歲女童，6月28日自瑞士入境，持搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月10日進行檢疫期滿前採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,639,921例新型冠狀病毒肺炎相關通報(含1,622,834例排除)，其中15,273例確診，分別為1,203例境外移入，14,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。自2020年起累計741例COVID-19死亡病例，其中733例本土，個案居住縣市分布為新北市369例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，本土確診案例自今(2021)年7月2日起已連續低於50人，為兼顧國內產業用人需求及移工工作權益，爰自7月13日起恢復移工轉換雇主或工作。至於移工調派及工作延伸，考量移工流動性較高，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，7月1日已公佈優先恢復家庭類移工轉換至家庭類雇主，新雇主需為移工安排檢驗PCR。近期評估國內整體疫情及產業發展需要，將自7月13日起恢復家庭類以外類別之移工辦理轉換雇主，新雇主接續聘僱(含期滿轉換)移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接移工之新雇主應於接續聘僱日（含期滿轉換）前3日內安排移工檢驗PCR。但工作所在地之醫療院所假日期間未提供檢驗服務或檢驗能量已額滿者，得例外延後至接續聘僱日起3日內檢驗PCR。等待檢驗PCR結果期間，新雇主應安排移工1人1室，落實防疫措施，檢驗費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主接續聘僱(含期滿轉換)移工，如未於上開規定期限內安排移工檢驗PCR，或於等待PCR檢驗結果期間，未落實移工1人1室，將依就業服務法規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日表示，為順利推動我國COVID-19疫苗接種作業，自即日起全國50歲(含)以上及18歲(含)以上第9類具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者均可於「疫苗施打意願登記與預約系統」（ https://1922.gov.tw/ ）進行意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月12日17時，並同步進行第一輪結算。\$\@\$二、簡訊通知時間：7月13日至7月15日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。\$\@\$三、最快將於7月16日進行接種，未來三週均為AZ疫苗。\$\@\$四、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註：\$\@\$1. 第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$(1) 高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$(2) 罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$(3) 重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$2. 第10類對象為50-64歲成人。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為15例男性、13例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月26日至7月10日。個案分布以新北市12例為最多，其次為臺北市11例、桃園市2例，新竹縣、彰化縣及臺中市各1例；其中15例為已知感染源、9例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於40多歲至70多歲，發病日介於5月22日至6月22日，確診日介於5月25日至7月6日，死亡日介於7月7日至7月9日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月9日累計公布13,986位確診個案中，已有11,802人解除隔離，解隔離人數達確診人數84.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15342為本國籍30多歲男性，7月8日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，並入住防疫旅館，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15351為菲律賓籍30多歲船員，5月17日自菲律賓來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，檢疫期滿前採檢結果為陰性即登船出海工作，7月10日返臺並採檢，於今日確診；個案出海工作及在臺期間並無症狀，相關接觸者匡列中。案15353為本國籍40多歲男性，7月10日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案7月11日出現發燒症狀，已於醫院隔離治療，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,625,351例新型冠狀病毒肺炎相關通報(含1,608,702例排除)，其中15,249例確診，分別為1,202例境外移入，13,994例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計740例COVID-19死亡病例，其中732例本土，個案居住縣市分布為新北市368例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月11日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增33例COVID-19確定病例，分別為31例本土及2例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之31例本土病例(其中19例為居家隔離期間或期滿檢驗陽性者)，為17例男性、14例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年6月22日至7月9日。個案分布以臺北市及新北市各13例最多，其次為桃園市4例，基隆市1例；其中21例為已知感染源、2例關聯不明、8例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為2例男性、4例女性，年齡介於30多歲至80多歲，發病日介於6月3日至6月24日，確診日介於6月4日至6月25日，死亡日介於7月6日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月8日累計公布13,950位確診個案中，已有11,698人解除隔離，解隔離人數達確診人數83.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15299為本國籍30多歲女性，6月25日自義大利入境，持搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15319為本國籍20多歲男性，6月26日自比利時入境，持搭機前3日內檢驗陰性報告，入境後於自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,606,389例新型冠狀病毒肺炎相關通報(含1,589,769例排除)，其中15,218例確診，分別為1,199例境外移入，13,966例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計105例移除為空號。自2020年起累計736例COVID-19死亡病例，其中728例本土，個案居住縣市分布為新北市368例、臺北市279例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月10日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，為順利推動我國COVID-19疫苗接種作業，指揮中心於昨(7)日下午邀集各地方政府代表共同召開「疫苗施打意願登記與預約系統」討論會議，達成共識及決議如下：\$\@\$一、指揮中心將自即日起，開放全國第9類及第10類對象意願登記，並正式啟用「COVID-19疫苗施打意願登記與預約系統」，請符合資格民眾可先行意願登記：\$\@\$(一) 意願登記：即日起至7月12日下午5時止。\$\@\$(二) 為保障65歲以上長者疫苗接種權益，若希望使用該系統進行意願登記，請依時程辦理。\$\@\$二、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」之民眾進行意願登記，請地方政府設置因地制宜之服務專線或指定人員，協助不便使用系統民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形參照民眾所登記之意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊之民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。指揮中心也強調，「COVID-19疫苗施打意願登記與預約系統」是為建立一個讓大量疫苗接種能依序穩定有效推行之機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註:\$\@\$第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$第10類對象為50-64歲成人。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增21例COVID-19確定病例，分別為18例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為8例男性、10例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月1日至7月7日。個案分布以臺北市12例最多，其次為新北市6例；其中9例為已知感染源、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至70多歲，發病日介於5月27日至6月14日，確診日介於5月28日至6月17日，死亡日介於7月5日至7月6日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月6日累計公布13,889位確診個案中，已有11,456人解除隔離，解隔離人數達確診人數82.5%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15252為本國籍30多歲男性，6月23日自泰國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月6日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15253為印尼籍20多歲男性漁工，5月10日自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月23日檢疫期滿前採檢結果為陰性，7月7日因有離境需求再次採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者221人，其中60人列居家隔離，餘161人列自我健康監測。案15254為本國籍10多歲女性，7月6日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,541,974例新型冠狀病毒肺炎相關通報(含1,525,372例排除)，其中15,149例確診，分別為1,193例境外移入，13,903例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計 718例COVID-19死亡病例，其中710例本土，個案居住縣市分布為新北市363例、臺北市272例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月8日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-08\$\@\$針對媒體報導「指揮中心設局召開記者會」，中央流行疫情指揮中心今(8)日說明如下：\$\@\$一、針對臺北市環南市場進行大規模PCR篩檢且41人呈現陽性，顯示有群聚感染疫情，指揮中心於7月2日11:30前往環南市場現場召開記者會，並宣布與臺北市政府共同成立聯合前進指揮所。\$\@\$二、當日陳時中指揮官於9:45致電黃珊珊副市長，黃副市長將電話轉交給柯文哲市長，陳指揮官與柯市長直接通話，雙方對成立聯合前進指揮所達成共識，並在環南市場現場召開記者會。\$\@\$三、當日農委會陳吉仲主委於10:00多左右，親自致電二通予臺北市黃副市長，並於第二通電話中明確告知黃副市長，陳指揮官、經濟部王美花部長及農委會陳吉仲主委將至環南市場召開記者會，並邀請黃副市長出席，黃副市長表示柯市長也會出席。\$\@\$四、指揮中心表示，當日均依照指揮中心記者會程序，發布採訪通知；指揮中心幕僚抵達環南市場後，亦與臺北市市場處高副處長確認記者會場地、流程及雙方出席人員，同時與現場媒體溝通說明記者會流程，及預定出席人員。\$\@\$五、當日11:01，臺北市府陳智菡發言人於臺北市府群組發布採訪通知，說明柯市長、黃副市長皆會出席記者會； 11:20柯市長、黃副市長抵達環南市場。\$\@\$六、指揮中心說明，為儘快有效控制疫情，召開記者會說明防疫作為及因應措施，以利相關市場攤商、工作人員及周邊住民了解需配合之事項，並無「以開會名義設局召開記者會」一事。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，在國人共同努力配合下，國內疫情已在控制中，惟仍有部分感染事件發生，參酌世界各國管制作為及經驗，防疫措施鬆綁須逐步執行，才可穩定掌握疫情狀況，為確保國人健康，指揮中心經評估後決定，同步延長全國疫情警戒第三級至7月26日止，並自7月13日起適度鬆綁部分措施，說明如下：\$\@\$一、適度鬆綁措施：\$\@\$(一)    有條件鬆綁對象（地方政府得視防疫需要因時因地調整）：\$\@\$1.    戶外：國家公園、國家風景區、遊樂園區、休閒農場、森林遊樂區、植物園、文化園區、學校操場、駕訓班。\$\@\$2.    室內：美術館、博物館、電影院、表演場館(無觀眾)、社教機構、文化中心。\$\@\$3.    室內外運動場館(游泳池除外)、高爾夫球場。\$\@\$4.    餐飮場所(餐廳、傳統市場及夜市、百貨賣場 美食街、美食區等)符合指揮中心指引得內用。\$\@\$5.    國內小型旅行團(9人以下)、劇組拍攝。\$\@\$(二)    上述鬆綁須遵照通案性原則及主管機關指引：\$\@\$1.    實聯制、出入口管制、人流管控降載。\$\@\$2.    維持社交距離，除飮食外，全程戴口罩。\$\@\$3.    員工人員健康管理、確診事件即時應變。\$\@\$二、三級警戒延長仍須關閉之場所：\$\@\$(一)    休閒娛樂場所：\$\@\$歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、指壓按摩場所、健身休閒中心(含提供指壓、三溫暖等設施之美容瘦身場所)、保齡球館、撞球場、室內螢幕式高爾夫練習場、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、自助選物販賣機營業場所、釣蝦場、桌遊場所及其他類似場所。\$\@\$(二)    教育學習場域：\$\@\$社區大學、樂齡學習中心、訓練班(駕訓班除外)、K書中心等其他類似場所。\$\@\$(三)    觀展觀賽場所：\$\@\$會展場館、游泳池等其他類似場所。\$\@\$指揮中心表示，鬆綁過程是疫情重要關鍵，籲請全國民眾持續落實遵循並積極配合三級警戒管制及鬆綁規定相關措施，與政府共同努力，嚴守社區防線。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。 圖片 附件\$\@\$網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增29例COVID-19確定病例，分別為27例本土及2例境外移入；另確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之27例本土病例(其中15例為居家隔離期間或期滿檢驗陽性者)，為17例男性、10例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月10日至7月5日。個案分布以臺北市14例最多，其次為新北市11例、屏東縣及彰化縣各1例；其中17例為已知感染源、10例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，為14位男性、3位女性，發病日介於5月16日至7月2日，確診日介於5月19日至7月5日，死亡日介於6月28日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月4日累計公布13,831位確診個案中，已有11,180人解除隔離，解隔離人數達確診人數80.8%。\$\@\$指揮中心表示，今日新增境外移入個案中，案15180為本國籍10多歲男性，7月4日自美國入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於機場採檢後至防疫旅館檢疫，7月5日出現嗅味覺異常等症狀，於今日確診，相關接觸者匡列中。案15185為本國籍30多歲男性，6月30日自印尼入境，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並進行採檢，當日採檢結果為陰性；7月4日出現發燒、肌肉痠痛、流鼻水等症狀，7月5日由衛生單位採檢送驗，於今日確診，同班機旅客均已入境採檢並入住集中檢疫所。\$\@\$指揮中心統計，截至目前國內累計1,503,584例新型冠狀病毒肺炎相關通報(含1,487,019例排除)，其中15,088例確診，分別為1,189例境外移入，13,846例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號(案10180、案13124)，累計105例移除為空號。自2020年起累計706例COVID-19死亡病例，其中698例本土，個案居住縣市分布為新北市354例、臺北市269例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月6日新增死亡COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -625,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2">
-        <v>44390</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -670,16 +565,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2">
-        <v>44390</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -687,16 +582,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44391</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2">
-        <v>44389</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -704,16 +599,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44391</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2">
-        <v>44389</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -721,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
-        <v>44389</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -738,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
-        <v>44388</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -755,16 +650,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
-        <v>44388</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -772,16 +667,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2">
-        <v>44387</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -789,13 +684,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2">
-        <v>44386</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
+      <c r="E10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -803,171 +701,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44385</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44385</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44385</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44385</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44384</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44384</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44384</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44383</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44383</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44383</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44382</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -982,16 +722,6 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,21 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>近期城市汙水廠採驗結果皆為陰性，指揮中心將持續進行環境監測</t>
+  </si>
+  <si>
+    <t>新增32例COVID-19確定病例，分別為29例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測全球Delta變異株流行情形，自7月18日零時起增列緬甸為「重點高風險國家」</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第二輪預約接種自明(7/16)日開打，第三輪「意願登記」結算將延長至7月19日中午12時止</t>
+  </si>
+  <si>
+    <t>暴露後狂犬病免疫製劑接種適用對象，新增黃喉貂，並自本(110)年7月1日起適用</t>
+  </si>
+  <si>
     <t>153萬劑AstraZeneca疫苗及35萬劑Moderna疫苗將於今(15)日下午抵臺</t>
   </si>
   <si>
@@ -46,19 +61,19 @@
     <t>7月13日全國防疫會議後記者會報告</t>
   </si>
   <si>
-    <t>新增29例COVID-19確定病例，分別為28例本土及1例境外移入</t>
-  </si>
-  <si>
-    <t>COVID-19公費疫苗預約平臺  即日起開放18歲(含)以上民眾進行第三輪意願登記</t>
-  </si>
-  <si>
-    <t>為儘速提升第一劑COVID-19疫苗涵蓋率，第二劑Moderna疫苗接種間隔調整自第10週起接種</t>
-  </si>
-  <si>
-    <t>新增24例COVID-19確定病例，分別為23例本土及1例境外移入</t>
-  </si>
-  <si>
-    <t>自7月13日起恢復移工轉換雇主，雇主需於承接日前3日內安排移工檢驗PCR</t>
+    <t>/Bulletin/Detail/0_5hYtFaIW9kmfkkRHA0fQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B34H9oWmz6AnDmYSsCIHHg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kA2aOz-R6HIFy232juX3FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8J0zKvCwRhnEIxcDO93kog?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qSj5Zk3qZf_2Om9XsxHj7A?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
@@ -76,19 +91,19 @@
     <t>/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0_5hYtFaIW9kmfkkRHA0fQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B34H9oWmz6AnDmYSsCIHHg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kA2aOz-R6HIFy232juX3FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8J0zKvCwRhnEIxcDO93kog?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qSj5Zk3qZf_2Om9XsxHj7A?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
@@ -106,22 +121,22 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封縅作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月6日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.03萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日表示，為配合世界衛生組織(WHO)推動的根除小兒麻痺病毒之環境監測調查計畫，且為防堵國際疫情威脅與國內疫苗預防接種政策的改變，疾病管制署自(2012)年7月起即建立環境監測系統，透過從污水處理系統收集而來的污水樣本，檢測一個群體中是否有來自未知病患的小兒麻痺病毒，用以評估環境中野生株及疫苗株小兒麻痺病毒的流通傳播。自去(2020)年1月起，因應COVID-19疫情，於前揭計畫下加驗SARS-CoV-2病毒。\$\@\$指揮中心說明，環境監測調查作業的監測頻率為每月2次，將採集汙水廠的汙水樣本，濃縮後進行核酸檢驗；疾管署持續監測採檢11處城市汙水匯流的汙水廠，目前僅於今(2021)年6月1日監測採檢2處驗出COVID-19陽性。惟截至目前為止(含6月中與7月初)，11處（包含前揭該2處）城市汙水廠之污水監測SARS-CoV-2病毒檢測結果皆為陰性。\$\@\$指揮中心強調，未來將持續監測全臺大都會共11間汙水廠，並視疫情狀況調整環境汙水SARS-CoV-2病毒監測作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增32例COVID-19確定病例，分別為29例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之29例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為17例男性、12例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月5日至7月15日。個案分布以臺北市14例為最多，其次為新北市11例、桃園市2例、宜蘭縣及彰化縣各1例；其中21例為已知感染源、4例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，均為男性，年齡介於60多歲至90多歲，發病日介於5月24日至6月16日，確診日介於5月26日至6月24日，死亡日介於7月9日至7月14日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月14日累計公布14,130位確診個案中，已有12,131人解除隔離，解隔離人數達確診人數85.9%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15468為美國籍50多歲男性，7月2日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15472為本國籍未滿10歲女童，7月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15480為菲律賓籍30多歲男性漁工，4月30日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，檢疫期滿與自主健康管理期滿採檢結果均為陰性，5月22日登船工作後未再下船，7月14日因有出海作業需求，由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者18人，其中17人列居家隔離、1人列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,727,787例新型冠狀病毒肺炎相關通報(含1,710,974例排除)，其中15,378例確診，分別為1,221例境外移入，14,104例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計763例COVID-19死亡病例，其中755例本土，個案居住縣市分布為新北市379例、臺北市289例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月16日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日宣布，考量緬甸疫情現況及風險，於「重點高風險國家」增列緬甸。自7月18日零時起(抵臺時間)，自海港或空港入境我國人士，如過去14天有緬甸旅遊史(含轉機)者，入境後均應至集中檢疫所進行14天檢疫，且須配合於入住時與檢疫期滿分別進行PCR檢測，另檢疫期間第10至12天以「家用快篩」採檢一次；旅客不需支付集中檢疫所及採檢費用；此外，國籍航空公司機組員亦維持自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍檢疫14天，且檢疫期滿進行PCR檢測。\$\@\$指揮中心表示，緬甸近1個多月疫情再度遽升，近1週日增確診數由50例以下，上升至逾4,000例，新增確診及死亡數均續創新高，檢驗陽性率已逾30%；迄今累計逾20萬例確診病例，逾4千例死亡，致死率2%。此波疫情初期病例多來自鄰近印度邊境之實皆省(Sagaing)及欽邦(Chin)，爾後與印度接壤之多個社區陸續爆發疫情，並監測到Delta變異株。該國已於部分地區實施居家令，因醫療體系之篩檢量及檢測能力不足，實際疫情可能比官方公布更為嚴峻。\$\@\$指揮中心指出，現行「重點高風險國家」為巴西(Gamma巴西變異株)、印度、英國、秘魯、以色列、印尼、孟加拉及本次新增之緬甸(Delta印度變異株)等，共8國。\$\@\$指揮中心說明，邊境管制為防範COVID-19疫情之重要關鍵，指揮中心已全面提升入境人士檢疫措施、持續監測境外移入檢出變異株情形，同時籲請入境人士抵臺時應主動配合邊境檢疫措施，並依指揮中心規定之交通方式前往檢疫地點及配合後續防疫措施，落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，「COVID-19疫苗施打意願登記與預約系統」第二輪共計約94.1萬人已完成預約接種，將自明(16)日起開始施打，請民眾攜帶健保卡，如為第二劑接種者，亦請攜帶接種紀錄卡，於預約時間準時至預約地點接種疫苗。如民眾錯過預約時段，可於當日告知現場人員，另擇同日之其他時段接種；如無法於預約當日接種，須等候下一輪簡訊通知後，再至系統重新預約接種。\$\@\$指揮中心指出，第三輪意願登記原訂於7月15日下午5時進行第三輪結算，將延長至7月19日中午12時進行第三輪結算，並自7月20日起陸續以簡訊通知符合資格的民眾進行預約接種；本輪可接種疫苗為AZ疫苗。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$疾病管制署今(15)日表示，因應行政院農業委員會動植物防疫檢疫局本(2021)年6月30日發布，國內檢出首例黃喉貂狂犬病陽性案例，為維護國內民眾健康及安全，降低感染風險，疾管署修訂「疑似狂犬病或麗沙病毒動物抓咬傷臨床處置指引」，調整暴露後預防接種對象，增列遭「黃喉貂」咬傷者，經評估傷口暴露等級為第2及第3類者，應接種暴露後狂犬病免疫球蛋白及疫苗，並自本年7月1日起適用。\$\@\$疾管署說明，國內每年均接獲數起食肉目野生動物抓咬傷民眾通報案件，今年迄今有8起，其中3件動物檢驗為狂犬病陽性，去（2020）年同期為11起，全年則有14起，其中5件檢驗為狂犬病陽性、4件陰性、5件未送驗，陽性案件分布範圍為南投縣3件，屏東縣、嘉義縣各1件。\$\@\$狂犬病是由狂犬病病毒引起的一種急性腦脊髓炎，狂犬病毒從已感染動物的唾液隨著抓、咬傷所造成之傷口進入人體，潛伏期約1至3個月，初期症狀有發熱、喉嚨痛、發冷、厭食、嘔吐、呼吸困難、咳嗽、頭痛或咬傷部位異樣感，數天後出現興奮及恐懼現象，然後麻痺、吞嚥困難，咽喉部痙攣，並引起恐水現象(又稱恐水症)，隨後會發生精神錯亂及抽搐等情況，如不採取醫療措施，患者常因呼吸麻痺導致死亡，致死率近100%，但如能在遭動物咬傷後及時就醫，並接受狂犬病暴露後預防接種，可以降低發病的風險。\$\@\$疾管署再次呼籲，民眾應避免接觸及捕捉野生動物，每年須帶家中犬、貓等寵物施打狂犬病疫苗；如不慎遭野生哺乳類動物抓咬傷，請以肥皂及大量清水沖洗傷口15分鐘，再以優碘或70%酒精消毒後，儘速前往就醫，經醫師評估如有感染狂犬病風險，應儘速接種免疫球蛋白，並依時程(接種第一劑當天為第0天、3、7及第14天)接種4劑人用狂犬病疫苗，降低發病風險。相關資訊請參閱疾管署全球資訊網(https://www.cdc.gov.tw)或撥打免費防疫專線1922(或0800-001922)洽詢。 圖片 附件\$\@\$鼬獾.jpg\$\@\$黃喉貂.jpg\$\@\$白鼻心.jpg\$\@\$疑似狂犬病或麗沙病毒感染動物抓咬傷臨床處置指引_0715.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月8日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.3萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
   </si>
   <si>
     <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增18例COVID-19確定病例，分別為14例本土及4例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之14例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、6例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年7月7日至7月14日。個案分布以臺北市9例為最多，其次為桃園市3例、新北市2例；其中11例為已知感染源、3例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為1例男性、5例女性，年齡介於60多歲至80多歲，發病日介於5月15日至6月29日，確診日介於5月26日至6月30日，死亡日介於7月6日至7月13日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月13日累計公布14,103位確診個案中，已有12,083人解除隔離，解隔離人數達確診人數85.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15437為阿富汗籍40多歲男性，7月1日自阿富汗來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月13日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15446、案15447均為印尼籍20多歲男性漁工，受雇於同一公司，5月12日搭乘同班機自印尼來臺，皆持有搭機前3日內檢驗陰性報告，入境後均至防疫旅館完成居家檢疫並持續隔離至7月12日，7月13日由公司安排自費採檢，皆於今日確診；2人在臺期間並無症狀且無外出，已匡列接觸者4人，因有適當防護，均列自我健康監測。案15452為荷蘭籍40多歲男性，7月13日自阿拉伯聯合大公國(杜拜)來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,707,362例新型冠狀病毒肺炎相關通報(含1,690,141例排除)，其中15,346例確診，分別為1,218例境外移入，14,075例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計759例COVID-19死亡病例，其中751例本土，個案居住縣市分布為新北市377例、臺北市288例、基隆市26例、桃園市22例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月15日新增死亡COVID-19確診個案表.pdf</t>
@@ -134,18 +149,6 @@
   </si>
   <si>
     <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心表示，今(13)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.自實施全國加強三級警戒等相關管制措施下，Rt值已逐步下降，疫情持續趨緩，本週開始進行部分管制措施鬆綁，請各地方政府密切注意後續效應、及時應處。另全國三級警戒將延長至7月26日，考量各項防疫措施可能對民眾生活經濟、心理健康造成壓力，建議各地方政府進一步規劃相關關懷及配套方案，以舒緩民眾身心壓力。\$\@\$2.境外移入病例隨國外疫情上升有增加趨勢外，入境全面篩檢亦有陸續發現變異株相關個案，其中不乏病毒量高之病例，建議各地方政府持續加強疫情監控；雙北近期發生家庭群聚及職場群聚事件，仍請雙北地方政府除持續考量民眾就醫可近性設置社區篩檢站外，亦強化疫調作業，以利及早掌握病例，妥善應處。\$\@\$二、各直轄市、縣(市)政府「居家隔離/居家檢疫期滿前採檢政策」執行現況\$\@\$1.因應新型冠狀病毒Delta變異株於全球日益擴散且傳播力高，自今(2021)年6月22日起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫之期滿前，須由各地方政府協助安排於隔離或檢疫期滿前1-3日(即接觸或入境迄日起第12-14日)內，搭乘防疫計程車前往醫療院所進行採檢，並確保於期滿前可取得檢驗報告。\$\@\$2.政策實施迄今，經期滿採檢計發現4名居家隔離、14名居家檢疫者採檢為確定病例，顯見於隔離或檢疫期滿前落實採檢措施，可避免COVID-19病毒進入社區，降低社區傳播風險，仍請各地方政府持續落實居家隔離/檢疫之期滿前採檢措施，共同守護社區防疫安全。\$\@\$三、衛生福利部為利疫情期間日照服務機構業務執行，業研議「衛生福利機構(社區型)因應COVID-19防疫管理指引」，相關重點請各地方政府協助檢視，近期將對外發布，重點包括：\$\@\$1.適用範圍：社區式服務類長期照顧機構(日間照顧、小規模多機能家庭托顧)、附設於一般護理之家、精神護理之家、老人福利機構、身心障礙福利機構之日間照顧服務、身心障礙日間型服務(社區日間作業設施、社區式日間照顧、家庭托顧、日間服務機構)、精神復健機構（日間型）、早期療育機構。\$\@\$2.服務條件\$\@\$(1)機構提供服務條件：\$\@\$整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$地方政府應輔導轄內機構依本指引提供服務，機構須填具檢核表報地方政府備查，並配合後續抽核。\$\@\$(2)服務對象(含陪同照顧者)接受服務條件(未成年者不適用)：\$\@\$建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$3.自主防疫管理措施：\$\@\$(1)工作人員及服務對象之健康管理部分，若為居家檢疫、居家隔離、自主健康管理者均不可提供或使用服務。\$\@\$(2)規劃服務動線、分區空間及隔離空間，建立分艙分流及活動分組進行機制。\$\@\$(3)交通服務管理，每車以10人（含司機）為限\$\@\$4.疑似確診應變措施：\$\@\$(1)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方社（衛）政主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(2)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$四、針對地方政府疫調資料調閱部分\$\@\$1.各地方政府如有確診軌跡調閱之需求，可透過各區管中心向指揮中心調閱，並將儘速於1天內提供。\$\@\$2.指揮中心已完成個案軌跡、熱區查詢、及簡訊實聯制疫調查詢功能，近日內提供各地方政府直接由線上進行查詢。另簡訊實聯制資料僅限制疫調查詢為主，相關查詢均有紀錄及配套機制，以確保使用範圍。\$\@\$3.以臺北市為例，近日向指揮中心調閱近1,000筆資料，除提供資料，指揮中心也提供線上查詢功能，並將和臺北市資訊局洽談介接與合作事宜。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日表示，為順利推動我國COVID-19疫苗接種作業，自即(7/13)日起開放18歲(含)以上民眾，於「疫苗施打意願登記與預約系統」( https://1922.gov.tw/）進行第三輪意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月15日17時，並同步進行第三輪結算。\$\@\$二、簡訊通知時間：7月16日至7月18日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。本輪可接種疫苗為AZ疫苗。\$\@\$三、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心進一步表示，第二輪的意願登記已於昨(12)日17時截止，全國約有285萬人登記，其中約114萬人有意願接種AZ疫苗。系統平臺將自7月13日上午，陸續以簡訊通知符合資格的民眾，提醒收到簡訊民眾記得進行預約；施打期間為7月16日至7月22日，籲請民眾準時前往接種。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，為儘速提升國人COVID-19疫苗第一劑涵蓋率及我國群體保護力，並因應政策需要，昨(11)日經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議第4次臨時會議決議，自即日起調整現階段Moderna COVID-19疫苗之第一、二劑接種間隔，除第一類接種對象、國籍航空機組員及孕婦的第二劑Moderna疫苗維持於間隔至少28天後接種外，其餘對象均調整第一劑與第二劑接種間隔10至12週，並依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，截至昨(11)日COVID-19疫苗(包含Moderna及AstraZeneca)累計接種3,565,840人次，疫苗涵蓋率約14.87%。依據國外臨床試驗資料分析顯示，Moderna COVID-19疫苗完成接種第一劑14天後保護力約為81%，另依據WHO建議接種間隔最晚可至12週，指揮中心考量政策需要並參考ACIP建議，亦將Moderna COVID-19疫苗接種間隔調整為10至12週，並持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，前往接種第二劑疫苗前，請確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。此外，籲請民眾完成疫苗接種後，須持續積極配合各項防疫措施，並落實勤洗手、戴口罩及保持社交距離等個人防護，以全面保護自我與家人的健康，有效降低染疫風險。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、10例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月20日至7月11日。個案分布以新北市10例為最多，其次為臺北市9例，基隆市、桃園市、新竹市及臺中市各1例；其中17例為已知感染源、4例關聯不明、2例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案2598)，為60多歲男性，具慢性病史及其他確診者接觸史；個案於5月11日出現發燒等症狀，5月19日就醫採檢，5月20日確診並住院治療，6月11日解除隔離並出院。7月10日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月10日累計公布14,019位確診個案中，已有11,850人解除隔離，解隔離人數達確診人數84.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15370)，為克羅埃西亞籍未滿10歲女童，6月28日自瑞士入境，持搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月10日進行檢疫期滿前採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,639,921例新型冠狀病毒肺炎相關通報(含1,622,834例排除)，其中15,273例確診，分別為1,203例境外移入，14,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。自2020年起累計741例COVID-19死亡病例，其中733例本土，個案居住縣市分布為新北市369例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -568,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -585,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -602,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -619,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
@@ -636,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
@@ -653,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -670,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -687,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -704,10 +707,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>COVID-19公費疫苗預約平臺第三輪意願登記截止，並自明(7/20)日上10時起預約接種</t>
+  </si>
+  <si>
+    <t>衛福部核准高端MVC-COV1901新冠肺炎疫苗專案製造</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為15例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>自110年7月20日起恢復調派移工變更工作場所 雇主需於調派日前3日內安排移工檢驗PCR</t>
+  </si>
+  <si>
     <t>為使疫苗資源有效運用，Moderna疫苗第二劑接種對象擴及至第二類及三類，請各縣市及合約醫療院所加強推動符合資格民眾接種</t>
   </si>
   <si>
@@ -79,16 +91,16 @@
     <t>為儘速提升第一劑COVID-19疫苗涵蓋率，第二劑Moderna疫苗接種間隔調整自第10週起接種</t>
   </si>
   <si>
-    <t>新增24例COVID-19確定病例，分別為23例本土及1例境外移入</t>
-  </si>
-  <si>
-    <t>自7月13日起恢復移工轉換雇主，雇主需於承接日前3日內安排移工檢驗PCR</t>
-  </si>
-  <si>
-    <t>籲請50歲(含)以上及18歲(含)以上第9類對象至COVID-19公費疫苗預約平臺登記意願  7月13日起陸續簡訊通知進行預約</t>
-  </si>
-  <si>
-    <t>新增31例COVID-19確定病例，分別為28例本土及3例境外移入</t>
+    <t>/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gzkfXTnBuktqDJ3BXhI54w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/au9qBuU-ft4ueA56WlXGPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/fJu3NrBv5eVgPKLyZxGvyQ?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/7Ct5hMov8Tbtg1FNdufD7g?typeid=9</t>
@@ -139,16 +151,16 @@
     <t>/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gzkfXTnBuktqDJ3BXhI54w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/au9qBuU-ft4ueA56WlXGPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/fJu3NrBv5eVgPKLyZxGvyQ?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/7Ct5hMov8Tbtg1FNdufD7g?typeid=9</t>
@@ -199,19 +211,19 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-18\$\@\$中央流行疫情指揮中心(18)日表示，Moderna疫苗自解凍後，可使用期間為30天(配送各縣市後以28天計算)，自7月1、5、8及9日陸續配送至各地方政府衛生局或合約醫療院所的Moderna疫苗目前尚餘21萬570劑，將在7月29日至8月6日間到期，請各地方政府衛生局及合約醫療院所加強推動，針對原已符合第二劑接種間隔為至少28天的第一類、機組人員及孕婦等對象提供接種。\$\@\$指揮中心指出，為使疫苗資源有效運用，經統計自6月9日至7月9日為止，已接種第一劑Moderna疫苗之第一類至第三類對象及孕婦，共計18萬9,788人可於8月6日之前(接種間隔至少28天)接種第二劑Moderna疫苗，故目前各地方政府及合約醫療院所剩餘量，尚足以提供該等對象第二劑接種使用。為使高風險第一線防疫人員及相關工作人員能夠儘速獲得保護力，讓疫苗資源有效運用，自即日起除第一類、機組人員及孕婦等對象以外，第二及第三類對象於接種第一劑Moderna疫苗後滿28天，亦可接種第二劑。\$\@\$另指揮中心提醒，5月11日至5月23日已接種第一劑AstraZeneca 疫苗的民眾，將陸續自下週起間隔滿10週，可透過COVID-19疫苗預約系統意願登記接種第二劑，或至COVID-19疫苗合約醫療院所預約。請地方政府衛生局偕同合約醫療院所提供前述對象完成二劑疫苗接種，以提升第二劑疫苗覆蓋率。指揮中心亦將持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」。若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種的醫療院所申請補發，再繼續完成第二劑接種。接種單位於接種前需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線全國性預防接種資訊管理系統(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日表示，「COVID-19疫苗施打意願登記與預約系統」第三輪的意願登記已於今日中午12時截止，全國約有887萬人登記，其中約495萬人有意願接種AZ疫苗。該系統平臺自7月20日上午10時起，將針對第六、八、九、十類及1973年12月31日(含)以前出生民眾，約170萬人會陸續收到簡訊，預約接種期程至7月22日中午12時截止；本輪可接種疫苗為AZ疫苗，施打期間為7月23日至7月29日，籲請民眾準時前往接種。未來將視疫苗到貨量，每周二發送簡訊，提醒民眾預約接種。如接獲簡訊，但沒有完成預約者，將自動加入下一次簡訊通知名單。\$\@\$指揮中心進一步說明，該系統平臺自今日中午12時以後將先暫停意願登記，後續視疫苗新到貨量後重開意願登記。此外，重新開啟後，增勾或改勾AZ疫苗者，將於第三輪意願登記接種AZ疫苗之495萬人優先處理後，再接續處理。\$\@\$指揮中心提醒，請民眾須先於「COVID-19疫苗施打意願登記與預約系統」完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立讓大量疫苗接種能依序且穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$衛生福利部食品藥物管理署(以下簡稱食藥署)為積極因應新型冠狀病毒疾病(以下簡稱COVID-19)疫情防疫需求，於110年7月18日邀請國內化學製造管制、藥學、毒理學、臨床醫學、公衛、法律及醫學倫理專家召開會議，討論高端MVC-COV1901新冠肺炎疫苗(以下簡稱高端疫苗)專案製造申請案。\$\@\$經過一天充分的審查與討論，鑑於高端疫苗的中和抗體數據已證明不劣於國人接種AZ疫苗的中和抗體結果，達成食藥署公告之「新冠疫苗專案製造或輸入技術性資料審查基準」要求，且安全性數據顯示無重大安全疑慮：\$\@\$1.高端疫苗組與AZ疫苗組之原型株活病毒中和抗體幾何平均效價比值(geometric mean titer ratio, GMTR)的95%信賴區間下限為3.4倍，遠大於標準要求0.67倍。\$\@\$2.高端疫苗組的血清反應比率(sero-response rate)的95%信賴區間下限為95.5%，遠大於標準要求50%。\$\@\$基於疾病管制署認定國內確有疫情及疫苗緊急公共衛生需求之前提，評估整體醫療利益與風險平衡，與會專家出席21人，主席不參與投票，18人同意，1人補件再議，1人不同意。\$\@\$食藥署依「藥事法第48條之2規定」，核准高端疫苗專案製造，適用於20歲以上成人之主動免疫接種，接種兩劑，間隔28天，以預防COVID-19。另針對專家會議建議，該疫苗於專案核准製造期間，藥商須每月提供安全性監測報告，並於核准後一年內檢送國內外執行疫苗保護效益(effectiveness)報告，以保障國人用藥安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增21例COVID-19確定病例，分別為15例本土及6例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之15例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、7例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年7月14日至7月17日。個案分布以新北市11例為最多，其次為桃園市3例、臺北市1例；其中9例為已知感染源，餘6例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案13852)，為80多歲男性，有慢性病，因有其他確診者接觸史，6月17日安排採檢，採檢時無症狀，檢驗結果為陽性，同日收治住院，6月18日確診，7月9日解除隔離，7月17日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月17日累計公布14,192位確診個案中，已有12,268人解除隔離，解隔離人數達確診人數86.4%。\$\@\$指揮中心表示，今日新增6例境外移入個案，為5男 1女，年齡介於20多歲至50多歲，分別自阿根廷、阿拉伯聯合大公國、柬埔寨、波蘭、丹麥、美國入境，均持有搭機前3日內檢驗陰性報告，入境日介於5月28日至7月17日；詳如新聞稿附件。\$\@\$指揮中心統計，累計1,778,511例新型冠狀病毒肺炎相關通報(含1,761,879例排除)，其中15,429例確診，分別為1,235例境外移入，14,141例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計769例COVID-19死亡病例，其中761例本土，個案居住縣市分布為新北市382例、臺北市291例、基隆市27例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日表示，國內疫情已較為穩定，為兼顧國內妥善安排人力及實務上業務需求，自今(2021)年7月20日起恢復移工調派至同一雇主之其他工作場所。至於工作延伸(即雇主指派移工至客戶契約履行地工作)，考量移工流動性較高及染疫風險，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，近期評估國內整體疫情及產業發展需要，將自7月20日起恢復調派移工變更工作場所，雇主符合下列情形，得調派移工變更工作場所單次達60日以上，其餘單次未達60日以上者仍不得調派：\$\@\$一、安排移工核酸檢驗（下稱PCR）且PCR結果須為陰性：如為須向勞動部申請調派許可者(如營造業)，須於申請日(含)前3日內安排移工檢驗PCR，且PCR結果須為陰性，始得向勞動部提出申請。另其他工作類別無須經勞動部許可得逕調派者，須於調派日(含)前3日內安排移工檢驗PCR，且PCR結果須為陰性，始得調派移工，又調派前應先將PCR檢驗結果送當地勞工主管機關備查。\$\@\$二、雇主應依指引辦理防疫措施：倘若移工檢測PCR確診時，雇主應善盡雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若移工檢測PCR陰性，雇主調派移工仍應依指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，雇主調派移工變更工作場所單次達60日以上者，如未於上開規定期限內安排移工檢驗PCR，未依規定向勞動部申請或未送當地勞工主管機關備查，將依「就業服務法」第57條第4款及第68條第1項規定，處新臺幣3萬至15萬元罰鍰；若違反2次以上，將廢止雇主聘僱許可及管制聘僱移工名額。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反上開防疫措施，將依仲介公司違反「就業服務法」規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-18\$\@\$中央流行疫情指揮中心今(18)日表示，Moderna疫苗自解凍後，可使用期間為30天(配送各縣市後以28天計算)，自7月1、5、8及9日陸續配送至各地方政府衛生局或合約醫療院所的Moderna疫苗目前尚餘21萬570劑，將在7月29日至8月6日間到期，請各地方政府衛生局及合約醫療院所加強推動，針對原已符合第二劑接種間隔為至少28天的第一類、機組人員及孕婦等對象提供接種。\$\@\$指揮中心指出，為使疫苗資源有效運用，經統計自6月9日至7月9日為止，已接種第一劑Moderna疫苗之第一類至第三類對象及孕婦，共計18萬9,788人可於8月6日之前(接種間隔至少28天)接種第二劑Moderna疫苗，故目前各地方政府及合約醫療院所剩餘量，尚足以提供該等對象第二劑接種使用。為使高風險第一線防疫人員及相關工作人員能夠儘速獲得保護力，讓疫苗資源有效運用，自即日起除第一類、機組人員及孕婦等對象以外，第二及第三類對象於接種第一劑Moderna疫苗後滿28天，亦可接種第二劑。\$\@\$另指揮中心提醒，5月11日至5月23日已接種第一劑AstraZeneca 疫苗的民眾，將陸續自下週起間隔滿10週，可透過COVID-19疫苗預約系統意願登記接種第二劑，或至COVID-19疫苗合約醫療院所預約。請地方政府衛生局偕同合約醫療院所提供前述對象完成二劑疫苗接種，以提升第二劑疫苗覆蓋率。指揮中心亦將持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」。若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種的醫療院所申請補發，再繼續完成第二劑接種。接種單位於接種前需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線全國性預防接種資訊管理系統(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
   </si>
   <si>
     <t>發佈日期：2021-07-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增18例COVID-19確定病例，分別為15例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之15例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為9例男性、6例女性，年齡介於20多歲至90多歲，發病日介於今(2021)年7月10日至7月17日。個案分布以新北市7例為最多，其次為臺北市5例、桃園市3例；其中9例為已知感染源，餘6例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3例男性、1例女性，年齡介於40多歲至80多歲，發病日介於5月26日至6月13日，確診日介於6月3日至6月16日，死亡日介於7月13日至7月15日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月16日累計公布14,180位確診個案中，已有12,243人解除隔離，解隔離人數達確診人數86.3%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15507為本國籍20多歲男性，7月15日自西班牙返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15508為英國籍20多歲男性，7月15日自英國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15512為本國籍50多歲女性，7月16日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時無症狀，在機場採檢後至防疫旅館檢疫，同日出現流鼻水、喉嚨痛、喉嚨癢及頭暈症狀，7月17日由衛生單位安排至集中檢疫所隔離，並於今日確診；已匡列接觸者19人，其中10人為同班機前後兩排旅客，列居家隔離，餘9人為同班機機組員，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計1,765,532例新型冠狀病毒肺炎相關通報(含1,747,814例排除)，其中15,408例確診，分別為1,229例境外移入，14,126例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計768例COVID-19死亡病例，其中760例本土，個案居住縣市分布為新北市382例、臺北市291例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月18日新增死亡COVID-19確診個案表.pdf</t>
@@ -226,40 +238,16 @@
     <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增32例COVID-19確定病例，分別為29例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之29例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為17例男性、12例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月5日至7月15日。個案分布以臺北市14例為最多，其次為新北市11例、桃園市2例、宜蘭縣及彰化縣各1例；其中21例為已知感染源、4例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，均為男性，年齡介於60多歲至90多歲，發病日介於5月24日至6月16日，確診日介於5月26日至6月24日，死亡日介於7月9日至7月14日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月14日累計公布14,130位確診個案中，已有12,131人解除隔離，解隔離人數達確診人數85.9%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15468為美國籍50多歲男性，7月2日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15472為本國籍未滿10歲女童，7月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15480為菲律賓籍30多歲男性漁工，4月30日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，檢疫期滿與自主健康管理期滿採檢結果均為陰性，5月22日登船工作後未再下船，7月14日因有出海作業需求，由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者18人，其中17人列居家隔離、1人列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,727,787例新型冠狀病毒肺炎相關通報(含1,710,974例排除)，其中15,378例確診，分別為1,221例境外移入，14,104例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計763例COVID-19死亡病例，其中755例本土，個案居住縣市分布為新北市379例、臺北市289例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月16日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日宣布，考量緬甸疫情現況及風險，於「重點高風險國家」增列緬甸。自7月18日零時起(抵臺時間)，自海港或空港入境我國人士，如過去14天有緬甸旅遊史(含轉機)者，入境後均應至集中檢疫所進行14天檢疫，且須配合於入住時與檢疫期滿分別進行PCR檢測，另檢疫期間第10至12天以「家用快篩」採檢一次；旅客不需支付集中檢疫所及採檢費用；此外，國籍航空公司機組員亦維持自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍檢疫14天，且檢疫期滿進行PCR檢測。\$\@\$指揮中心表示，緬甸近1個多月疫情再度遽升，近1週日增確診數由50例以下，上升至逾4,000例，新增確診及死亡數均續創新高，檢驗陽性率已逾30%；迄今累計逾20萬例確診病例，逾4千例死亡，致死率2%。此波疫情初期病例多來自鄰近印度邊境之實皆省(Sagaing)及欽邦(Chin)，爾後與印度接壤之多個社區陸續爆發疫情，並監測到Delta變異株。該國已於部分地區實施居家令，因醫療體系之篩檢量及檢測能力不足，實際疫情可能比官方公布更為嚴峻。\$\@\$指揮中心指出，現行「重點高風險國家」為巴西(Gamma巴西變異株)、印度、英國、秘魯、以色列、印尼、孟加拉及本次新增之緬甸(Delta印度變異株)等，共8國。\$\@\$指揮中心說明，邊境管制為防範COVID-19疫情之重要關鍵，指揮中心已全面提升入境人士檢疫措施、持續監測境外移入檢出變異株情形，同時籲請入境人士抵臺時應主動配合邊境檢疫措施，並依指揮中心規定之交通方式前往檢疫地點及配合後續防疫措施，落實全民共同抗疫，將疫情阻絕於境外。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，「COVID-19疫苗施打意願登記與預約系統」第二輪共計約94.1萬人已完成預約接種，將自明(16)日起開始施打，請民眾攜帶健保卡，如為第二劑接種者，亦請攜帶接種紀錄卡，於預約時間準時至預約地點接種疫苗。如民眾錯過預約時段，可於當日告知現場人員，另擇同日之其他時段接種；如無法於預約當日接種，須等候下一輪簡訊通知後，再至系統重新預約接種。\$\@\$指揮中心指出，第三輪意願登記原訂於7月15日下午5時進行第三輪結算，將延長至7月19日中午12時進行第三輪結算，並自7月20日起陸續以簡訊通知符合資格的民眾進行預約接種；本輪可接種疫苗為AZ疫苗。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-15\$\@\$疾病管制署今(15)日表示，因應行政院農業委員會動植物防疫檢疫局本(2021)年6月30日發布，國內檢出首例黃喉貂狂犬病陽性案例，為維護國內民眾健康及安全，降低感染風險，疾管署修訂「疑似狂犬病或麗沙病毒動物抓咬傷臨床處置指引」，調整暴露後預防接種對象，增列遭「黃喉貂」咬傷者，經評估傷口暴露等級為第2及第3類者，應接種暴露後狂犬病免疫球蛋白及疫苗，並自本年7月1日起適用。\$\@\$疾管署說明，國內每年均接獲數起食肉目野生動物抓咬傷民眾通報案件，今年迄今有8起，其中3件動物檢驗為狂犬病陽性，去（2020）年同期為11起，全年則有14起，其中5件檢驗為狂犬病陽性、4件陰性、5件未送驗，陽性案件分布範圍為南投縣3件，屏東縣、嘉義縣各1件。\$\@\$狂犬病是由狂犬病病毒引起的一種急性腦脊髓炎，狂犬病毒從已感染動物的唾液隨著抓、咬傷所造成之傷口進入人體，潛伏期約1至3個月，初期症狀有發熱、喉嚨痛、發冷、厭食、嘔吐、呼吸困難、咳嗽、頭痛或咬傷部位異樣感，數天後出現興奮及恐懼現象，然後麻痺、吞嚥困難，咽喉部痙攣，並引起恐水現象(又稱恐水症)，隨後會發生精神錯亂及抽搐等情況，如不採取醫療措施，患者常因呼吸麻痺導致死亡，致死率近100%，但如能在遭動物咬傷後及時就醫，並接受狂犬病暴露後預防接種，可以降低發病的風險。\$\@\$疾管署再次呼籲，民眾應避免接觸及捕捉野生動物，每年須帶家中犬、貓等寵物施打狂犬病疫苗；如不慎遭野生哺乳類動物抓咬傷，請以肥皂及大量清水沖洗傷口15分鐘，再以優碘或70%酒精消毒後，儘速前往就醫，經醫師評估如有感染狂犬病風險，應儘速接種免疫球蛋白，並依時程(接種第一劑當天為第0天、3、7及第14天)接種4劑人用狂犬病疫苗，降低發病風險。相關資訊請參閱疾管署全球資訊網(https://www.cdc.gov.tw)或撥打免費防疫專線1922(或0800-001922)洽詢。 圖片 附件\$\@\$鼬獾.jpg\$\@\$黃喉貂.jpg\$\@\$白鼻心.jpg\$\@\$疑似狂犬病或麗沙病毒感染動物抓咬傷臨床處置指引_0715.pdf</t>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月8日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.3萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
   </si>
   <si>
     <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增18例COVID-19確定病例，分別為14例本土及4例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之14例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、6例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年7月7日至7月14日。個案分布以臺北市9例為最多，其次為桃園市3例、新北市2例；其中11例為已知感染源、3例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為1例男性、5例女性，年齡介於60多歲至80多歲，發病日介於5月15日至6月29日，確診日介於5月26日至6月30日，死亡日介於7月6日至7月13日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月13日累計公布14,103位確診個案中，已有12,083人解除隔離，解隔離人數達確診人數85.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15437為阿富汗籍40多歲男性，7月1日自阿富汗來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月13日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15446、案15447均為印尼籍20多歲男性漁工，受雇於同一公司，5月12日搭乘同班機自印尼來臺，皆持有搭機前3日內檢驗陰性報告，入境後均至防疫旅館完成居家檢疫並持續隔離至7月12日，7月13日由公司安排自費採檢，皆於今日確診；2人在臺期間並無症狀且無外出，已匡列接觸者4人，因有適當防護，均列自我健康監測。案15452為荷蘭籍40多歲男性，7月13日自阿拉伯聯合大公國(杜拜)來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,707,362例新型冠狀病毒肺炎相關通報(含1,690,141例排除)，其中15,346例確診，分別為1,218例境外移入，14,075例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計759例COVID-19死亡病例，其中751例本土，個案居住縣市分布為新北市377例、臺北市288例、基隆市26例、桃園市22例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月15日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日表示，COVID-19疫情三級警戒期間，為降低失能者及身心障礙者群聚及傳染風險，社區式機構均暫停提供服務。現因應國內疫情趨緩，指揮中心宣布社區式機構可在工作人員疫苗施打率達8成且做好防疫整備工作的狀態下，適度鬆綁，逐步恢復提供服務。\$\@\$指揮中心說明，為確保服務對象健康，衛生福利部特訂定「衛生福利機構(社區型)因應COVID-19防疫管理指引」，針對「服務條件」、「自主防疫管理措施」、「具有COVID-19感染風險者之應變措施及發生確診病例應變處置」等管理事項，提供社區式服務機構依循辦理，地方政府應輔導轄內機構依本指引提供服務，並填具檢核表報地方政府備查，在完備防疫工作的前提下逐步恢復提供服務。\$\@\$本指引適用提供社區式服務之衛生福利機構，包括：社區式服務類長期照顧機構(日間照顧、小規模多機能)、附設於住宿機構之日間照顧服務、身心障礙日間型服務(含社區日間作業設施、社區式日間照顧、日間服務機構)、精神復健機構(日間型)、早期療育機構。本指引重點包括：\$\@\$一、服務條件\$\@\$(一)機構提供服務條件：\$\@\$1.整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩(以下簡稱抗原快篩)陰性證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$(二)服務對象接受服務條件(未成年者不適用)：\$\@\$1.建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$二、自主防疫管理措施：\$\@\$(一)工作人員及服務對象之健康管理部分，若為確診、居家檢疫、居家隔離、自主健康管理、抗原快篩陽性者均不可提供或使用服務。\$\@\$(二)規劃服務動線、分區空間及隔離空間，建立分艙分流及分組活動、用餐機制。\$\@\$(三)交通服務管理，每車以10人(含司機)為限，車內禁止用餐、飲水。\$\@\$(四)加強環境(含交通接送車輛)清潔消毒，每日至少2次。\$\@\$三、具有COVID-19感染風險者之應變措施及發生確診病例應變處置：\$\@\$(一)發現疑似病例，機構應於24小時內通報，疑似病例應各自於隔離空間等候就醫或返家，且不得搭乘大眾交通工具。\$\@\$(二)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(三)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$另家庭托顧服務部分，因照顧規模較小，且工作人員及服務對象皆屬公費疫苗第五類施打對象，較不易發生大規模群聚感染情形；雖不在指引適用範圍，但仍應在家庭托顧員完成疫苗第一劑接種且滿14日的前提下，參考社區式服務防疫管理指引加強人員健康監測、維持社交距離、增加環境清潔消毒次數、建立疑似個案通報轉送及確診病例應變處置機制，落實防疫規範下恢復營運。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增27例COVID-19確定病例，分別為17例本土及10例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之17例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為11例男性、6例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月7日至7月13日。個案分布以臺北市10例為最多，其次為桃園市3例、新北市及臺中市各2例；其中10例為已知感染源、3例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為5例男性、1例女性，年齡介於50多歲至80多歲，發病日介於5月15日至7月3日，確診日介於5月19日至7月5日，死亡日介於7月10日至7月12日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月12日累計公布14,074位確診個案中，已有11,964人解除隔離，解隔離人數達確診人數85.0%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為9例男性、1例女性，年齡介於10多歲至70多歲，分別自緬甸(6例，為同一班機乘客)、英國、日本、印尼及茅利塔尼亞入境，均持有搭機前3日內檢驗陰性報告，入境日介於6月30日至7月11日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,686,311例新型冠狀病毒肺炎相關通報(含1,669,801例排除)，其中15,328例確診，分別為1,214例境外移入，14,061例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案15282)，共累計106例移除為空號。2020年起累計753例COVID-19死亡病例，其中745例本土，個案居住縣市分布為新北市374例、臺北市287例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月14日新增死亡COVID-19確診個案表.pdf\$\@\$7月14日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
     <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日表示，為順利推動我國COVID-19疫苗接種作業，自即(7/13)日起開放18歲(含)以上民眾，於「疫苗施打意願登記與預約系統」( https://1922.gov.tw/）進行第三輪意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月15日17時，並同步進行第三輪結算。\$\@\$二、簡訊通知時間：7月16日至7月18日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。本輪可接種疫苗為AZ疫苗。\$\@\$三、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心進一步表示，第二輪的意願登記已於昨(12)日17時截止，全國約有285萬人登記，其中約114萬人有意願接種AZ疫苗。系統平臺將自7月13日上午，陸續以簡訊通知符合資格的民眾，提醒收到簡訊民眾記得進行預約；施打期間為7月16日至7月22日，籲請民眾準時前往接種。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、10例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月20日至7月11日。個案分布以新北市10例為最多，其次為臺北市9例，基隆市、桃園市、新竹市及臺中市各1例；其中17例為已知感染源、4例關聯不明、2例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案2598)，為60多歲男性，具慢性病史及其他確診者接觸史；個案於5月11日出現發燒等症狀，5月19日就醫採檢，5月20日確診並住院治療，6月11日解除隔離並出院。7月10日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月10日累計公布14,019位確診個案中，已有11,850人解除隔離，解隔離人數達確診人數84.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15370)，為克羅埃西亞籍未滿10歲女童，6月28日自瑞士入境，持搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月10日進行檢疫期滿前採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,639,921例新型冠狀病毒肺炎相關通報(含1,622,834例排除)，其中15,273例確診，分別為1,203例境外移入，14,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。自2020年起累計741例COVID-19死亡病例，其中733例本土，個案居住縣市分布為新北市369例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，本土確診案例自今(2021)年7月2日起已連續低於50人，為兼顧國內產業用人需求及移工工作權益，爰自7月13日起恢復移工轉換雇主或工作。至於移工調派及工作延伸，考量移工流動性較高，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，7月1日已公佈優先恢復家庭類移工轉換至家庭類雇主，新雇主需為移工安排檢驗PCR。近期評估國內整體疫情及產業發展需要，將自7月13日起恢復家庭類以外類別之移工辦理轉換雇主，新雇主接續聘僱(含期滿轉換)移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接移工之新雇主應於接續聘僱日（含期滿轉換）前3日內安排移工檢驗PCR。但工作所在地之醫療院所假日期間未提供檢驗服務或檢驗能量已額滿者，得例外延後至接續聘僱日起3日內檢驗PCR。等待檢驗PCR結果期間，新雇主應安排移工1人1室，落實防疫措施，檢驗費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主接續聘僱(含期滿轉換)移工，如未於上開規定期限內安排移工檢驗PCR，或於等待PCR檢驗結果期間，未落實移工1人1室，將依就業服務法規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日表示，為順利推動我國COVID-19疫苗接種作業，自即日起全國50歲(含)以上及18歲(含)以上第9類具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者均可於「疫苗施打意願登記與預約系統」（ https://1922.gov.tw/ ）進行意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月12日17時，並同步進行第一輪結算。\$\@\$二、簡訊通知時間：7月13日至7月15日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。\$\@\$三、最快將於7月16日進行接種，未來三週均為AZ疫苗。\$\@\$四、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註：\$\@\$1. 第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$(1) 高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$(2) 罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$(3) 重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$2. 第10類對象為50-64歲成人。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為15例男性、13例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月26日至7月10日。個案分布以新北市12例為最多，其次為臺北市11例、桃園市2例，新竹縣、彰化縣及臺中市各1例；其中15例為已知感染源、9例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於40多歲至70多歲，發病日介於5月22日至6月22日，確診日介於5月25日至7月6日，死亡日介於7月7日至7月9日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月9日累計公布13,986位確診個案中，已有11,802人解除隔離，解隔離人數達確診人數84.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15342為本國籍30多歲男性，7月8日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，並入住防疫旅館，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15351為菲律賓籍30多歲船員，5月17日自菲律賓來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，檢疫期滿前採檢結果為陰性即登船出海工作，7月10日返臺並採檢，於今日確診；個案出海工作及在臺期間並無症狀，相關接觸者匡列中。案15353為本國籍40多歲男性，7月10日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案7月11日出現發燒症狀，已於醫院隔離治療，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,625,351例新型冠狀病毒肺炎相關通報(含1,608,702例排除)，其中15,249例確診，分別為1,202例境外移入，13,994例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計740例COVID-19死亡病例，其中732例本土，個案居住縣市分布為新北市368例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月11日新增死亡COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -665,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
@@ -682,7 +670,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>46</v>
@@ -699,7 +687,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="2">
-        <v>44394</v>
+        <v>44396</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>47</v>
@@ -716,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>44393</v>
+        <v>44396</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>48</v>
@@ -733,7 +721,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>49</v>
@@ -750,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>50</v>
@@ -767,7 +755,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2">
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
@@ -784,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
@@ -801,10 +789,13 @@
         <v>33</v>
       </c>
       <c r="C10" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -815,13 +806,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -832,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -849,13 +837,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -866,10 +851,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -880,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
@@ -897,13 +885,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -914,7 +899,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
@@ -928,13 +913,10 @@
         <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -945,13 +927,10 @@
         <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -962,13 +941,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="2">
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -979,13 +958,10 @@
         <v>44</v>
       </c>
       <c r="C21" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="718">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Page Content</t>
   </si>
   <si>
-    <t>COVID-19公費疫苗預約平臺第三輪意願登記截止，並自明(7/20)日上10時起預約接種</t>
+    <t>新增24例COVID-19確定病例，分別為18例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>7月20日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第三輪意願登記截止，並自明(7/20)日上午10時起預約接種</t>
   </si>
   <si>
     <t>衛福部核准高端MVC-COV1901新冠肺炎疫苗專案製造</t>
@@ -91,6 +97,483 @@
     <t>為儘速提升第一劑COVID-19疫苗涵蓋率，第二劑Moderna疫苗接種間隔調整自第10週起接種</t>
   </si>
   <si>
+    <t>新增24例COVID-19確定病例，分別為23例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>自7月13日起恢復移工轉換雇主，雇主需於承接日前3日內安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>籲請50歲(含)以上及18歲(含)以上第9類對象至COVID-19公費疫苗預約平臺登記意願  7月13日起陸續簡訊通知進行預約</t>
+  </si>
+  <si>
+    <t>新增31例COVID-19確定病例，分別為28例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>新增33例COVID-19確定病例，分別為31例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增36例COVID-19確定病例，分別為32例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>即日起開放全國第9及第10類對象意願登記</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為18例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>針對媒體報導「指揮中心設局召開記者會」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>指揮中心延長全國疫情警戒第三級至7月26日止，嚴守社區防線，並自7月13日起適度鬆綁部分措施</t>
+  </si>
+  <si>
+    <t>指揮中心訂購第二批AZ疫苗62.6萬劑將於今(7)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增40例COVID-19確定病例，分別為39例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除</t>
+  </si>
+  <si>
+    <t>新增29例COVID-19確定病例，分別為27例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>日本政府提供113萬劑AstraZeneca COVID-19疫苗將於7月8日下午抵臺</t>
+  </si>
+  <si>
+    <t>7月6日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>報載「疾病管制署造冊人數，超過編制內人數」 指揮中心說明：人員皆符合規定 以利防疫運作</t>
+  </si>
+  <si>
+    <t>新增39例COVID-19確定病例，分別為37例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增80例COVID-19確定病例，分別為76例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>針對6月8日起曾在臺北市環南市場活動人員，將發送疫情警示簡訊</t>
+  </si>
+  <si>
+    <t>新增58例COVID-19確定病例，分別為57例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>7月2日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自7月2日中午12時加強國際港埠入境人員健康監測</t>
+  </si>
+  <si>
+    <t>國內新增2例日本腦炎病例，籲請民眾出入高風險場所加強防蚊，並按時帶幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>即日起，恢復家庭類移工轉換雇主，雇主應於接續當日安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>新增50例COVID-19確定病例，分別為47例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與農委會制定「批發市場防疫管理措施建議指引」 協助批發市場防疫</t>
+  </si>
+  <si>
+    <t>Moderna第三批採購疫苗41萬劑將於今(30)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增56例COVID-19確定病例，分別為55例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>簡訊實聯制數據係以合法性、正當性、必要性進行使用，絕無違法情事</t>
+  </si>
+  <si>
+    <t>針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增54例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>6月29日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>新增60例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>本島各機場前往離島自願快篩而呈陽性反應之旅客，將進行PCR採檢陰性後，始允許登機</t>
+  </si>
+  <si>
+    <t>全球Delta變異株流行，即日起，入境人士前往檢疫地點應搭乘防疫車輛</t>
+  </si>
+  <si>
+    <t>網傳「mRNA疫苗會使接種者變成轉基因生物體」，指揮中心：疫苗品質安全把關，民眾用藥有保障</t>
+  </si>
+  <si>
+    <t>新增89例COVID-19確定病例，分別為88例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗第一階段分配事宜</t>
+  </si>
+  <si>
+    <t>因應屏東Delta印度變異株群聚及相關感染事件，指揮中心已採取相關應變措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>新增78例本土COVID-19確定病例，另有2例境外移入</t>
+  </si>
+  <si>
+    <t>集中檢疫所開放高風險7國以外入境者自費入住</t>
+  </si>
+  <si>
+    <t>第二劑AZ COVID-19疫苗接種說明</t>
+  </si>
+  <si>
+    <t>6月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為有效利用COVID-19疫苗 當日最後一瓶開瓶剩餘劑量將開放候補接種</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自6月27日零時起，全面提升入境人員檢疫措施</t>
+  </si>
+  <si>
+    <t>新增76例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>民眾使用COVID-19家用快篩試劑流程與注意事項</t>
+  </si>
+  <si>
+    <t>新增130例COVID-19確定病例，分別為129例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與相關單位持續精進「市場專案」相關措施，達到社區清零目的</t>
+  </si>
+  <si>
+    <t>指揮中心維持全國疫情警戒第三級至7月12日止，希望國人共體時艱，共同抗疫</t>
+  </si>
+  <si>
+    <t>因應臺北農產運銷公司群聚感染事件，指揮中心啟動「市場專案」強化相關防疫作為</t>
+  </si>
+  <si>
+    <t>新增104例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗之分配規劃、第一批次分配原則與接種對象</t>
+  </si>
+  <si>
+    <t>因應印度變種病毒蔓延 居家檢疫及居家隔離期滿者均須進行PCR檢測 以維護國內社區安全</t>
+  </si>
+  <si>
+    <t>6月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心說明「COVID-19疫苗公費接種對象」及現階段開放接種實施對象</t>
+  </si>
+  <si>
+    <t>新增78例COVID-19本土病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>修正雇主聘僱移工防疫指引，明定雇主應落實防疫措施</t>
+  </si>
+  <si>
+    <t>新增75例COVID-19本土病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾待身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>美國政府捐贈250萬劑Moderna COVID-19疫苗將於今(20)日傍晚抵臺</t>
+  </si>
+  <si>
+    <t>新增109例COVID-19病例，為107例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾視身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>已接種一劑AZ COVID-19疫苗之民眾，可陸續完成第二劑接種</t>
+  </si>
+  <si>
+    <t>新增128例COVID-19病例，為127例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>6月18日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增175例COVID-19本土病例</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增167例COVID-19本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>國產疫苗審查皆以科學、專業為原則，並依法規程序採購</t>
+  </si>
+  <si>
+    <t>第二批莫德納(Moderna) COVID-19疫苗預計於6月18日起配送，請合約醫療院所開啟預約掛號服務，提供符合對象者預約接種</t>
+  </si>
+  <si>
+    <t>指揮中心說明疫苗接種第二類「中央及地方政府防疫人員」含括對象</t>
+  </si>
+  <si>
+    <t>日本提供我國AstraZeneca COVID-19疫苗第二次分配量說明</t>
+  </si>
+  <si>
+    <t>補助全國快速PCR檢驗儀 加速社區檢驗量能</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增132例本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>6月15日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增263例COVID-19本土確定病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心針對好心肝診所提供非開放接種對象接種疫苗案，將由司法單位依法徹查，還原真相，嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心說明配送至臺北市轄內合約醫院協助專案對象接種事宜</t>
+  </si>
+  <si>
+    <t>因應COVID-19疫情，調整COVID-19疫苗公費優先接種對象</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例COVID-19本土確定病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19疫苗須依循指揮中心所訂之接種順序依序施打</t>
+  </si>
+  <si>
+    <t>6月8日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增219例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>國內出現自呼吸道疾病病人中分離出H1N2v流感病毒案例，病患已痊癒，疾管署呼籲民眾做好個人健康管理</t>
+  </si>
+  <si>
+    <t>加強訪查移工宿舍落實防疫工作  增訂企業因應員工確診應變處置</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增211例本土COVID-19個案、3例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級延長至6月28日，相關防疫措施持續執行，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：目前我國COVID-19疫苗無自費接種規劃，並無所謂「自費負擔」之問題存在，而未來將依序開放全體國民公費接種，相關行政費用皆由政府負擔</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增335例本土COVID-19個案，另有8例校正回歸個案</t>
+  </si>
+  <si>
+    <t>針對苗栗縣電子廠群聚感染案件，指揮中心說明前進指揮所協助防疫作為</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：全民免費接種COVID-19疫苗公費疫苗順序，將由指揮中心陸續公布</t>
+  </si>
+  <si>
+    <t>指揮中心：政府已於特別預算編列40億，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務，自6月7日起實施</t>
+  </si>
+  <si>
+    <t>指揮中心澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關確診及死亡資訊都有公開</t>
+  </si>
+  <si>
+    <t>自即日起，暫停移工轉換雇主等作業以減少人員流動 防杜疫情擴散</t>
+  </si>
+  <si>
+    <t>苗栗縣2家電子廠發生群聚感染案件，前進指揮所已立即啟動相關防疫措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增476例本土，另有35例校正回歸個案</t>
+  </si>
+  <si>
+    <t>近期各地皆有豪大雨，請民眾落實孳生源清除及防蚊措施，防範登革熱</t>
+  </si>
+  <si>
+    <t>確保COVID-19重症病人照護品質  指揮中心辦理新冠病毒重症個案臨床處置線上課程</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增339例本土、2例境外移入COVID-19個案，另有133例校正回歸個案</t>
+  </si>
+  <si>
+    <t>苗栗縣某電子廠發生群聚感染案件，指揮中心即刻設立前進指揮所協助緊急防疫</t>
+  </si>
+  <si>
+    <t>日本政府提供124萬劑AstraZeneca COVID-19疫苗將於今(4)日下午抵臺</t>
+  </si>
+  <si>
+    <t>6月4日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增364例本土、2例境外移入COVID-19個案，另有219例校正回歸個案</t>
+  </si>
+  <si>
+    <t>譴責暴力行為 指揮中心：修法給予防疫人員妥善照顧</t>
+  </si>
+  <si>
+    <t>指揮中心規劃推動COVID-19疫苗大規模接種作業，加速民眾獲得免疫保護力</t>
+  </si>
+  <si>
+    <t>專家會議決議持續推行AstraZeneca COVID-19疫苗接種作業，並確實執行疫苗接種不良事件監測作業</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增372例本土COVID-19確定病例，另有177例校正回歸個案</t>
+  </si>
+  <si>
+    <t>衛福部依法撤銷110年5月31日連江縣及6月1日澎湖縣、金門縣政府之公告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增262例本土、5例境外移入COVID-19個案，另有65例校正回歸個案</t>
+  </si>
+  <si>
+    <t>6月1日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>交通部所屬5航空站設立篩檢站，有症狀旅客不予搭機、過去14天內有症狀須現場快篩陰性始得搭機</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例本土、4例境外移入COVID-19個案，另有73例校正回歸個案</t>
+  </si>
+  <si>
+    <t>保障國人健康 已向國外採購2,000萬劑及預採購國產1,000萬劑COVID-19疫苗</t>
+  </si>
+  <si>
+    <t>守護國人健康，指揮中心全力供應防疫物資，並自6月1日起公開物資撥配資料供各界查詢</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增266例本土COVID-19個案，另有89例校正回歸個案</t>
+  </si>
+  <si>
+    <t>我國Moderna疫苗皆為原廠進口，請民眾安心接種</t>
+  </si>
+  <si>
+    <t>全國社區篩檢站設置補助上路，提高民眾採檢可近性</t>
+  </si>
+  <si>
+    <t>我國疫苗政策兩大原則：由中央政府與原廠簽約採購並統籌分配執行</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增320例本土、7例境外移入COVID-19個案，另有166例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心對於日本政府有意提供COVID-19疫苗，表達感謝與尊重</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增297例本土、2例境外移入COVID-19個案，另有258例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月28日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>Moderna首批疫苗15萬劑將於5月28日下午抵臺</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增401例本土、4例境外移入COVID-19個案，另有266例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月27日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>強化COVID-19第三級疫情警戒相關措施及裁罰說明，請民眾確實遵守</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增302例本土、2例境外移入COVID-19個案，另有331例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心依疫情監測評估，即日起將香港調整為低風險，以色列增列為中低風險，越南自中低風險移除</t>
+  </si>
+  <si>
+    <t>5月26日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>國內新增1例日本腦炎病例，提醒民眾加強防蚊並按時攜幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>金門縣、澎湖縣及連江縣可在符合相關條件及流程下  提供自願性採檢服務</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增281例本土、2例境外移入COVID-19個案，另有261例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增334例本土、5例境外移入COVID-19個案，另有256例校正回歸上週各日個案</t>
+  </si>
+  <si>
+    <t>5月24日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>經多次溝通未果，衛福部依法撤銷金門縣政府110年5月23日公告</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/D-lyKRriu-QBn2ydTdwyZw?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
   </si>
   <si>
@@ -151,6 +634,486 @@
     <t>/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1MZ7DQZCr19SPEPOs9xKiw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OlKSN2zbT7JgzxRvLS56dw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o27RvXK2iFalOiryjIgglw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DKMRnrc0yNY-66xSIIWJMw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94PqMiI5V-gZP9F0rZ7UuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/vArl0v_hBYnHkry8Er2p6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/D-lyKRriu-QBn2ydTdwyZw?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
   </si>
   <si>
@@ -211,6 +1174,486 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1MZ7DQZCr19SPEPOs9xKiw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OlKSN2zbT7JgzxRvLS56dw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o27RvXK2iFalOiryjIgglw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DKMRnrc0yNY-66xSIIWJMw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94PqMiI5V-gZP9F0rZ7UuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/vArl0v_hBYnHkry8Er2p6A?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增24例COVID-19確定病例，分別為18例本土及6例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、5例女性，年齡介於20多歲至80多歲，發病日介於今(2021)年7月12日至7月19日。個案分布以臺北市7例為最多，其次為新北市6例、基隆市3例、桃園市2例；其中13例為已知感染源，餘5例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3名女性、1名男性，年齡介於60多歲至70多歲，發病日介於5月17日至7月16日，確診日介於5月22日至7月19日，死亡日介於7月16日至7月19日，詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月18日累計公布14,210位確診個案中，已有12,348人解除隔離，解隔離人數達確診人數86.9%。\$\@\$指揮中心表示，今日新增6例境外移入個案，為4男 2女，年齡介於未滿10歲至40多歲，分別自美國(3例)、印尼(2例)、緬甸入境，入境日介於7月5日至7月19日；詳如新聞稿附件2。\$\@\$指揮中心統計，累計1,801,538例新型冠狀病毒肺炎相關通報(含1,784,759例排除)，其中15,453例確診，分別為1,241例境外移入，14,159例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計106例移除為空號。2020年起累計773例COVID-19死亡病例，其中765例本土，個案居住縣市分布為新北市384例、臺北市292例、基隆市27例、桃園市23例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月20日新增死亡COVID-19確診個案表.pdf\$\@\$7月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$中央流行疫情指揮中心表示，今(20)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估：\$\@\$1.國內疫情持續緩降，新增本土病例仍以雙北為多，各縣(市)偶有零星感染源待釐清之個案及群聚事件，惟近兩週疫情發生之群聚事件以家庭群聚為主；病例年齡層有下降趨勢，請各地方政府應將現階段防治重點納入青年族群且加強留意社區傳播風險，並持續強化病患收治轉送及醫療照護體系量能之整備，以因應未來可能之變異株疫情。\$\@\$2.指揮中心自7月13日起鬆綁部分防疫管制措施，請各地方政府持續密切注意後續效應，俾利疫情發生時，能快速有效防杜。\$\@\$二、針對地方政府所提，確診者其症狀緩解且檢疫期滿，惟經採檢後Ct值&lt;30，可繼續於加強版集中檢疫所或防疫旅館進行居家隔離；至居家隔離或居家檢疫期滿，惟採檢陽性但Ct值&gt;30之處置方式，仍請依確診者處置方式辦理，至2採後Ct值均&gt;30者，可解除居家隔離，但其密切接觸者應辦理疫調匡列。\$\@\$三、鑒於本週可能因颱風來襲，各地方疫苗接種站如因停班停課取消接種，預約平台也將會保留名額給受影響的民眾，併入下一期預約名單。民眾需在收到下一期預約簡訊後，再次進入預約平台預約接種。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日表示，「COVID-19疫苗施打意願登記與預約系統」第三輪的意願登記已於今日中午12時截止，全國約有887萬人登記，其中約495萬人有意願接種AZ疫苗。該系統平臺自7月20日上午10時起，將針對第六、八、九、十類及1973年12月31日(含)以前出生民眾，約170萬人會陸續收到簡訊，預約接種期程至7月22日中午12時截止；本輪可接種疫苗為AZ疫苗，施打期間為7月23日至7月29日，籲請民眾準時前往接種。未來將視疫苗到貨量，每周二發送簡訊，提醒民眾預約接種。如接獲簡訊，但沒有完成預約者，將自動加入下一次簡訊通知名單。\$\@\$指揮中心進一步說明，該系統平臺自今日中午12時以後將先暫停意願登記，後續視疫苗新到貨量後重開意願登記。此外，重新開啟後，增勾或改勾AZ疫苗者，將於第三輪意願登記接種AZ疫苗之495萬人優先處理後，再接續處理。\$\@\$指揮中心提醒，請民眾須先於「COVID-19疫苗施打意願登記與預約系統」完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立讓大量疫苗接種能依序且穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
   </si>
   <si>
@@ -238,16 +1681,493 @@
     <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增32例COVID-19確定病例，分別為29例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之29例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為17例男性、12例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月5日至7月15日。個案分布以臺北市14例為最多，其次為新北市11例、桃園市2例、宜蘭縣及彰化縣各1例；其中21例為已知感染源、4例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，均為男性，年齡介於60多歲至90多歲，發病日介於5月24日至6月16日，確診日介於5月26日至6月24日，死亡日介於7月9日至7月14日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月14日累計公布14,130位確診個案中，已有12,131人解除隔離，解隔離人數達確診人數85.9%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15468為美國籍50多歲男性，7月2日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15472為本國籍未滿10歲女童，7月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15480為菲律賓籍30多歲男性漁工，4月30日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，檢疫期滿與自主健康管理期滿採檢結果均為陰性，5月22日登船工作後未再下船，7月14日因有出海作業需求，由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者18人，其中17人列居家隔離、1人列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,727,787例新型冠狀病毒肺炎相關通報(含1,710,974例排除)，其中15,378例確診，分別為1,221例境外移入，14,104例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計763例COVID-19死亡病例，其中755例本土，個案居住縣市分布為新北市379例、臺北市289例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月16日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日宣布，考量緬甸疫情現況及風險，於「重點高風險國家」增列緬甸。自7月18日零時起(抵臺時間)，自海港或空港入境我國人士，如過去14天有緬甸旅遊史(含轉機)者，入境後均應至集中檢疫所進行14天檢疫，且須配合於入住時與檢疫期滿分別進行PCR檢測，另檢疫期間第10至12天以「家用快篩」採檢一次；旅客不需支付集中檢疫所及採檢費用；此外，國籍航空公司機組員亦維持自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍檢疫14天，且檢疫期滿進行PCR檢測。\$\@\$指揮中心表示，緬甸近1個多月疫情再度遽升，近1週日增確診數由50例以下，上升至逾4,000例，新增確診及死亡數均續創新高，檢驗陽性率已逾30%；迄今累計逾20萬例確診病例，逾4千例死亡，致死率2%。此波疫情初期病例多來自鄰近印度邊境之實皆省(Sagaing)及欽邦(Chin)，爾後與印度接壤之多個社區陸續爆發疫情，並監測到Delta變異株。該國已於部分地區實施居家令，因醫療體系之篩檢量及檢測能力不足，實際疫情可能比官方公布更為嚴峻。\$\@\$指揮中心指出，現行「重點高風險國家」為巴西(Gamma巴西變異株)、印度、英國、秘魯、以色列、印尼、孟加拉及本次新增之緬甸(Delta印度變異株)等，共8國。\$\@\$指揮中心說明，邊境管制為防範COVID-19疫情之重要關鍵，指揮中心已全面提升入境人士檢疫措施、持續監測境外移入檢出變異株情形，同時籲請入境人士抵臺時應主動配合邊境檢疫措施，並依指揮中心規定之交通方式前往檢疫地點及配合後續防疫措施，落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，「COVID-19疫苗施打意願登記與預約系統」第二輪共計約94.1萬人已完成預約接種，將自明(16)日起開始施打，請民眾攜帶健保卡，如為第二劑接種者，亦請攜帶接種紀錄卡，於預約時間準時至預約地點接種疫苗。如民眾錯過預約時段，可於當日告知現場人員，另擇同日之其他時段接種；如無法於預約當日接種，須等候下一輪簡訊通知後，再至系統重新預約接種。\$\@\$指揮中心指出，第三輪意願登記原訂於7月15日下午5時進行第三輪結算，將延長至7月19日中午12時進行第三輪結算，並自7月20日起陸續以簡訊通知符合資格的民眾進行預約接種；本輪可接種疫苗為AZ疫苗。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月8日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.3萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
+    <t>發佈日期：2021-07-15\$\@\$疾病管制署今(15)日表示，因應行政院農業委員會動植物防疫檢疫局本(2021)年6月30日發布，國內檢出首例黃喉貂狂犬病陽性案例，為維護國內民眾健康及安全，降低感染風險，疾管署修訂「疑似狂犬病或麗沙病毒動物抓咬傷臨床處置指引」，調整暴露後預防接種對象，增列遭「黃喉貂」咬傷者，經評估傷口暴露等級為第2及第3類者，應接種暴露後狂犬病免疫球蛋白及疫苗，並自本年7月1日起適用。\$\@\$疾管署說明，國內每年均接獲數起食肉目野生動物抓咬傷民眾通報案件，今年迄今有8起，其中3件動物檢驗為狂犬病陽性，去（2020）年同期為11起，全年則有14起，其中5件檢驗為狂犬病陽性、4件陰性、5件未送驗，陽性案件分布範圍為南投縣3件，屏東縣、嘉義縣各1件。\$\@\$狂犬病是由狂犬病病毒引起的一種急性腦脊髓炎，狂犬病毒從已感染動物的唾液隨著抓、咬傷所造成之傷口進入人體，潛伏期約1至3個月，初期症狀有發熱、喉嚨痛、發冷、厭食、嘔吐、呼吸困難、咳嗽、頭痛或咬傷部位異樣感，數天後出現興奮及恐懼現象，然後麻痺、吞嚥困難，咽喉部痙攣，並引起恐水現象(又稱恐水症)，隨後會發生精神錯亂及抽搐等情況，如不採取醫療措施，患者常因呼吸麻痺導致死亡，致死率近100%，但如能在遭動物咬傷後及時就醫，並接受狂犬病暴露後預防接種，可以降低發病的風險。\$\@\$疾管署再次呼籲，民眾應避免接觸及捕捉野生動物，每年須帶家中犬、貓等寵物施打狂犬病疫苗；如不慎遭野生哺乳類動物抓咬傷，請以肥皂及大量清水沖洗傷口15分鐘，再以優碘或70%酒精消毒後，儘速前往就醫，經醫師評估如有感染狂犬病風險，應儘速接種免疫球蛋白，並依時程(接種第一劑當天為第0天、3、7及第14天)接種4劑人用狂犬病疫苗，降低發病風險。相關資訊請參閱疾管署全球資訊網(https://www.cdc.gov.tw)或撥打免費防疫專線1922(或0800-001922)洽詢。 圖片 附件\$\@\$鼬獾.jpg\$\@\$黃喉貂.jpg\$\@\$白鼻心.jpg\$\@\$疑似狂犬病或麗沙病毒感染動物抓咬傷臨床處置指引_0715.pdf</t>
   </si>
   <si>
     <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增18例COVID-19確定病例，分別為14例本土及4例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之14例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、6例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年7月7日至7月14日。個案分布以臺北市9例為最多，其次為桃園市3例、新北市2例；其中11例為已知感染源、3例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為1例男性、5例女性，年齡介於60多歲至80多歲，發病日介於5月15日至6月29日，確診日介於5月26日至6月30日，死亡日介於7月6日至7月13日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月13日累計公布14,103位確診個案中，已有12,083人解除隔離，解隔離人數達確診人數85.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15437為阿富汗籍40多歲男性，7月1日自阿富汗來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月13日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15446、案15447均為印尼籍20多歲男性漁工，受雇於同一公司，5月12日搭乘同班機自印尼來臺，皆持有搭機前3日內檢驗陰性報告，入境後均至防疫旅館完成居家檢疫並持續隔離至7月12日，7月13日由公司安排自費採檢，皆於今日確診；2人在臺期間並無症狀且無外出，已匡列接觸者4人，因有適當防護，均列自我健康監測。案15452為荷蘭籍40多歲男性，7月13日自阿拉伯聯合大公國(杜拜)來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,707,362例新型冠狀病毒肺炎相關通報(含1,690,141例排除)，其中15,346例確診，分別為1,218例境外移入，14,075例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計759例COVID-19死亡病例，其中751例本土，個案居住縣市分布為新北市377例、臺北市288例、基隆市26例、桃園市22例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月15日新增死亡COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日表示，COVID-19疫情三級警戒期間，為降低失能者及身心障礙者群聚及傳染風險，社區式機構均暫停提供服務。現因應國內疫情趨緩，指揮中心宣布社區式機構可在工作人員疫苗施打率達8成且做好防疫整備工作的狀態下，適度鬆綁，逐步恢復提供服務。\$\@\$指揮中心說明，為確保服務對象健康，衛生福利部特訂定「衛生福利機構(社區型)因應COVID-19防疫管理指引」，針對「服務條件」、「自主防疫管理措施」、「具有COVID-19感染風險者之應變措施及發生確診病例應變處置」等管理事項，提供社區式服務機構依循辦理，地方政府應輔導轄內機構依本指引提供服務，並填具檢核表報地方政府備查，在完備防疫工作的前提下逐步恢復提供服務。\$\@\$本指引適用提供社區式服務之衛生福利機構，包括：社區式服務類長期照顧機構(日間照顧、小規模多機能)、附設於住宿機構之日間照顧服務、身心障礙日間型服務(含社區日間作業設施、社區式日間照顧、日間服務機構)、精神復健機構(日間型)、早期療育機構。本指引重點包括：\$\@\$一、服務條件\$\@\$(一)機構提供服務條件：\$\@\$1.整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩(以下簡稱抗原快篩)陰性證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$(二)服務對象接受服務條件(未成年者不適用)：\$\@\$1.建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$二、自主防疫管理措施：\$\@\$(一)工作人員及服務對象之健康管理部分，若為確診、居家檢疫、居家隔離、自主健康管理、抗原快篩陽性者均不可提供或使用服務。\$\@\$(二)規劃服務動線、分區空間及隔離空間，建立分艙分流及分組活動、用餐機制。\$\@\$(三)交通服務管理，每車以10人(含司機)為限，車內禁止用餐、飲水。\$\@\$(四)加強環境(含交通接送車輛)清潔消毒，每日至少2次。\$\@\$三、具有COVID-19感染風險者之應變措施及發生確診病例應變處置：\$\@\$(一)發現疑似病例，機構應於24小時內通報，疑似病例應各自於隔離空間等候就醫或返家，且不得搭乘大眾交通工具。\$\@\$(二)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(三)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$另家庭托顧服務部分，因照顧規模較小，且工作人員及服務對象皆屬公費疫苗第五類施打對象，較不易發生大規模群聚感染情形；雖不在指引適用範圍，但仍應在家庭托顧員完成疫苗第一劑接種且滿14日的前提下，參考社區式服務防疫管理指引加強人員健康監測、維持社交距離、增加環境清潔消毒次數、建立疑似個案通報轉送及確診病例應變處置機制，落實防疫規範下恢復營運。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增27例COVID-19確定病例，分別為17例本土及10例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之17例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為11例男性、6例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月7日至7月13日。個案分布以臺北市10例為最多，其次為桃園市3例、新北市及臺中市各2例；其中10例為已知感染源、3例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為5例男性、1例女性，年齡介於50多歲至80多歲，發病日介於5月15日至7月3日，確診日介於5月19日至7月5日，死亡日介於7月10日至7月12日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月12日累計公布14,074位確診個案中，已有11,964人解除隔離，解隔離人數達確診人數85.0%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為9例男性、1例女性，年齡介於10多歲至70多歲，分別自緬甸(6例，為同一班機乘客)、英國、日本、印尼及茅利塔尼亞入境，均持有搭機前3日內檢驗陰性報告，入境日介於6月30日至7月11日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,686,311例新型冠狀病毒肺炎相關通報(含1,669,801例排除)，其中15,328例確診，分別為1,214例境外移入，14,061例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案15282)，共累計106例移除為空號。2020年起累計753例COVID-19死亡病例，其中745例本土，個案居住縣市分布為新北市374例、臺北市287例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月14日新增死亡COVID-19確診個案表.pdf\$\@\$7月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心表示，今(13)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.自實施全國加強三級警戒等相關管制措施下，Rt值已逐步下降，疫情持續趨緩，本週開始進行部分管制措施鬆綁，請各地方政府密切注意後續效應、及時應處。另全國三級警戒將延長至7月26日，考量各項防疫措施可能對民眾生活經濟、心理健康造成壓力，建議各地方政府進一步規劃相關關懷及配套方案，以舒緩民眾身心壓力。\$\@\$2.境外移入病例隨國外疫情上升有增加趨勢外，入境全面篩檢亦有陸續發現變異株相關個案，其中不乏病毒量高之病例，建議各地方政府持續加強疫情監控；雙北近期發生家庭群聚及職場群聚事件，仍請雙北地方政府除持續考量民眾就醫可近性設置社區篩檢站外，亦強化疫調作業，以利及早掌握病例，妥善應處。\$\@\$二、各直轄市、縣(市)政府「居家隔離/居家檢疫期滿前採檢政策」執行現況\$\@\$1.因應新型冠狀病毒Delta變異株於全球日益擴散且傳播力高，自今(2021)年6月22日起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫之期滿前，須由各地方政府協助安排於隔離或檢疫期滿前1-3日(即接觸或入境迄日起第12-14日)內，搭乘防疫計程車前往醫療院所進行採檢，並確保於期滿前可取得檢驗報告。\$\@\$2.政策實施迄今，經期滿採檢計發現4名居家隔離、14名居家檢疫者採檢為確定病例，顯見於隔離或檢疫期滿前落實採檢措施，可避免COVID-19病毒進入社區，降低社區傳播風險，仍請各地方政府持續落實居家隔離/檢疫之期滿前採檢措施，共同守護社區防疫安全。\$\@\$三、衛生福利部為利疫情期間日照服務機構業務執行，業研議「衛生福利機構(社區型)因應COVID-19防疫管理指引」，相關重點請各地方政府協助檢視，近期將對外發布，重點包括：\$\@\$1.適用範圍：社區式服務類長期照顧機構(日間照顧、小規模多機能家庭托顧)、附設於一般護理之家、精神護理之家、老人福利機構、身心障礙福利機構之日間照顧服務、身心障礙日間型服務(社區日間作業設施、社區式日間照顧、家庭托顧、日間服務機構)、精神復健機構（日間型）、早期療育機構。\$\@\$2.服務條件\$\@\$(1)機構提供服務條件：\$\@\$整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$地方政府應輔導轄內機構依本指引提供服務，機構須填具檢核表報地方政府備查，並配合後續抽核。\$\@\$(2)服務對象(含陪同照顧者)接受服務條件(未成年者不適用)：\$\@\$建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$3.自主防疫管理措施：\$\@\$(1)工作人員及服務對象之健康管理部分，若為居家檢疫、居家隔離、自主健康管理者均不可提供或使用服務。\$\@\$(2)規劃服務動線、分區空間及隔離空間，建立分艙分流及活動分組進行機制。\$\@\$(3)交通服務管理，每車以10人（含司機）為限\$\@\$4.疑似確診應變措施：\$\@\$(1)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方社（衛）政主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(2)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$四、針對地方政府疫調資料調閱部分\$\@\$1.各地方政府如有確診軌跡調閱之需求，可透過各區管中心向指揮中心調閱，並將儘速於1天內提供。\$\@\$2.指揮中心已完成個案軌跡、熱區查詢、及簡訊實聯制疫調查詢功能，近日內提供各地方政府直接由線上進行查詢。另簡訊實聯制資料僅限制疫調查詢為主，相關查詢均有紀錄及配套機制，以確保使用範圍。\$\@\$3.以臺北市為例，近日向指揮中心調閱近1,000筆資料，除提供資料，指揮中心也提供線上查詢功能，並將和臺北市資訊局洽談介接與合作事宜。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日表示，為順利推動我國COVID-19疫苗接種作業，自即(7/13)日起開放18歲(含)以上民眾，於「疫苗施打意願登記與預約系統」( https://1922.gov.tw/）進行第三輪意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月15日17時，並同步進行第三輪結算。\$\@\$二、簡訊通知時間：7月16日至7月18日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。本輪可接種疫苗為AZ疫苗。\$\@\$三、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心進一步表示，第二輪的意願登記已於昨(12)日17時截止，全國約有285萬人登記，其中約114萬人有意願接種AZ疫苗。系統平臺將自7月13日上午，陸續以簡訊通知符合資格的民眾，提醒收到簡訊民眾記得進行預約；施打期間為7月16日至7月22日，籲請民眾準時前往接種。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，為儘速提升國人COVID-19疫苗第一劑涵蓋率及我國群體保護力，並因應政策需要，昨(11)日經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議第4次臨時會議決議，自即日起調整現階段Moderna COVID-19疫苗之第一、二劑接種間隔，除第一類接種對象、國籍航空機組員及孕婦的第二劑Moderna疫苗維持於間隔至少28天後接種外，其餘對象均調整第一劑與第二劑接種間隔10至12週，並依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，截至昨(11)日COVID-19疫苗(包含Moderna及AstraZeneca)累計接種3,565,840人次，疫苗涵蓋率約14.87%。依據國外臨床試驗資料分析顯示，Moderna COVID-19疫苗完成接種第一劑14天後保護力約為81%，另依據WHO建議接種間隔最晚可至12週，指揮中心考量政策需要並參考ACIP建議，亦將Moderna COVID-19疫苗接種間隔調整為10至12週，並持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，前往接種第二劑疫苗前，請確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。此外，籲請民眾完成疫苗接種後，須持續積極配合各項防疫措施，並落實勤洗手、戴口罩及保持社交距離等個人防護，以全面保護自我與家人的健康，有效降低染疫風險。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、10例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月20日至7月11日。個案分布以新北市10例為最多，其次為臺北市9例，基隆市、桃園市、新竹市及臺中市各1例；其中17例為已知感染源、4例關聯不明、2例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案2598)，為60多歲男性，具慢性病史及其他確診者接觸史；個案於5月11日出現發燒等症狀，5月19日就醫採檢，5月20日確診並住院治療，6月11日解除隔離並出院。7月10日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月10日累計公布14,019位確診個案中，已有11,850人解除隔離，解隔離人數達確診人數84.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15370)，為克羅埃西亞籍未滿10歲女童，6月28日自瑞士入境，持搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月10日進行檢疫期滿前採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,639,921例新型冠狀病毒肺炎相關通報(含1,622,834例排除)，其中15,273例確診，分別為1,203例境外移入，14,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。自2020年起累計741例COVID-19死亡病例，其中733例本土，個案居住縣市分布為新北市369例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，本土確診案例自今(2021)年7月2日起已連續低於50人，為兼顧國內產業用人需求及移工工作權益，爰自7月13日起恢復移工轉換雇主或工作。至於移工調派及工作延伸，考量移工流動性較高，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，7月1日已公佈優先恢復家庭類移工轉換至家庭類雇主，新雇主需為移工安排檢驗PCR。近期評估國內整體疫情及產業發展需要，將自7月13日起恢復家庭類以外類別之移工辦理轉換雇主，新雇主接續聘僱(含期滿轉換)移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接移工之新雇主應於接續聘僱日（含期滿轉換）前3日內安排移工檢驗PCR。但工作所在地之醫療院所假日期間未提供檢驗服務或檢驗能量已額滿者，得例外延後至接續聘僱日起3日內檢驗PCR。等待檢驗PCR結果期間，新雇主應安排移工1人1室，落實防疫措施，檢驗費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主接續聘僱(含期滿轉換)移工，如未於上開規定期限內安排移工檢驗PCR，或於等待PCR檢驗結果期間，未落實移工1人1室，將依就業服務法規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日表示，為順利推動我國COVID-19疫苗接種作業，自即日起全國50歲(含)以上及18歲(含)以上第9類具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者均可於「疫苗施打意願登記與預約系統」（ https://1922.gov.tw/ ）進行意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月12日17時，並同步進行第一輪結算。\$\@\$二、簡訊通知時間：7月13日至7月15日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。\$\@\$三、最快將於7月16日進行接種，未來三週均為AZ疫苗。\$\@\$四、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註：\$\@\$1. 第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$(1) 高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$(2) 罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$(3) 重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$2. 第10類對象為50-64歲成人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為15例男性、13例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月26日至7月10日。個案分布以新北市12例為最多，其次為臺北市11例、桃園市2例，新竹縣、彰化縣及臺中市各1例；其中15例為已知感染源、9例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於40多歲至70多歲，發病日介於5月22日至6月22日，確診日介於5月25日至7月6日，死亡日介於7月7日至7月9日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月9日累計公布13,986位確診個案中，已有11,802人解除隔離，解隔離人數達確診人數84.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15342為本國籍30多歲男性，7月8日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，並入住防疫旅館，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15351為菲律賓籍30多歲船員，5月17日自菲律賓來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，檢疫期滿前採檢結果為陰性即登船出海工作，7月10日返臺並採檢，於今日確診；個案出海工作及在臺期間並無症狀，相關接觸者匡列中。案15353為本國籍40多歲男性，7月10日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案7月11日出現發燒症狀，已於醫院隔離治療，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,625,351例新型冠狀病毒肺炎相關通報(含1,608,702例排除)，其中15,249例確診，分別為1,202例境外移入，13,994例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計740例COVID-19死亡病例，其中732例本土，個案居住縣市分布為新北市368例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增33例COVID-19確定病例，分別為31例本土及2例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之31例本土病例(其中19例為居家隔離期間或期滿檢驗陽性者)，為17例男性、14例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年6月22日至7月9日。個案分布以臺北市及新北市各13例最多，其次為桃園市4例，基隆市1例；其中21例為已知感染源、2例關聯不明、8例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為2例男性、4例女性，年齡介於30多歲至80多歲，發病日介於6月3日至6月24日，確診日介於6月4日至6月25日，死亡日介於7月6日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月8日累計公布13,950位確診個案中，已有11,698人解除隔離，解隔離人數達確診人數83.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15299為本國籍30多歲女性，6月25日自義大利入境，持搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15319為本國籍20多歲男性，6月26日自比利時入境，持搭機前3日內檢驗陰性報告，入境後於自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,606,389例新型冠狀病毒肺炎相關通報(含1,589,769例排除)，其中15,218例確診，分別為1,199例境外移入，13,966例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計105例移除為空號。自2020年起累計736例COVID-19死亡病例，其中728例本土，個案居住縣市分布為新北市368例、臺北市279例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增36例COVID-19確定病例，分別為32例本土及4例境外移入；另確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之32例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為17例男性、15例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月1日至7月8日。個案分布以臺北市19例最多，其次為新北市11例、桃園市2例；其中14例為已知感染源、1例關聯不明、17例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，為8例男性、4例女性，年齡介於40多歲至80多歲，發病日介於5月12日至7月4日，確診日介於5月16日至7月7日，死亡日介於6月30日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月7日累計公布13,929位確診個案中，已有11,536人解除隔離，解隔離人數達確診人數82.8%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15270為本國籍60多歲女性，6月25日自土耳其返臺，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月7日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15283為本國籍30多歲女性，7月7日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案在臺期間並無症狀，已匡列同班機前後2排旅客共6人，均列居家隔離。案15289、15290皆為本國籍20多歲女性，7月7日自捷克搭乘同班機返臺，均持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；2人在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,582,844例新型冠狀病毒肺炎相關通報(含1,566,436例排除)，其中15,185例確診，分別為1,197例境外移入，13,935例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計730例COVID-19死亡病例，其中722例本土，個案居住縣市分布為新北市367例、臺北市277例、基隆市24例、桃園市21例、彰化縣12例、新竹縣8例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，為順利推動我國COVID-19疫苗接種作業，指揮中心於昨(7)日下午邀集各地方政府代表共同召開「疫苗施打意願登記與預約系統」討論會議，達成共識及決議如下：\$\@\$一、指揮中心將自即日起，開放全國第9類及第10類對象意願登記，並正式啟用「COVID-19疫苗施打意願登記與預約系統」，請符合資格民眾可先行意願登記：\$\@\$(一) 意願登記：即日起至7月12日下午5時止。\$\@\$(二) 為保障65歲以上長者疫苗接種權益，若希望使用該系統進行意願登記，請依時程辦理。\$\@\$二、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」之民眾進行意願登記，請地方政府設置因地制宜之服務專線或指定人員，協助不便使用系統民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形參照民眾所登記之意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊之民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。指揮中心也強調，「COVID-19疫苗施打意願登記與預約系統」是為建立一個讓大量疫苗接種能依序穩定有效推行之機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註:\$\@\$第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$第10類對象為50-64歲成人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增21例COVID-19確定病例，分別為18例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為8例男性、10例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月1日至7月7日。個案分布以臺北市12例最多，其次為新北市6例；其中9例為已知感染源、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至70多歲，發病日介於5月27日至6月14日，確診日介於5月28日至6月17日，死亡日介於7月5日至7月6日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月6日累計公布13,889位確診個案中，已有11,456人解除隔離，解隔離人數達確診人數82.5%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15252為本國籍30多歲男性，6月23日自泰國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月6日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15253為印尼籍20多歲男性漁工，5月10日自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月23日檢疫期滿前採檢結果為陰性，7月7日因有離境需求再次採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者221人，其中60人列居家隔離，餘161人列自我健康監測。案15254為本國籍10多歲女性，7月6日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,541,974例新型冠狀病毒肺炎相關通報(含1,525,372例排除)，其中15,149例確診，分別為1,193例境外移入，13,903例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計 718例COVID-19死亡病例，其中710例本土，個案居住縣市分布為新北市363例、臺北市272例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$針對媒體報導「指揮中心設局召開記者會」，中央流行疫情指揮中心今(8)日說明如下：\$\@\$一、針對臺北市環南市場進行大規模PCR篩檢且41人呈現陽性，顯示有群聚感染疫情，指揮中心於7月2日11:30前往環南市場現場召開記者會，並宣布與臺北市政府共同成立聯合前進指揮所。\$\@\$二、當日陳時中指揮官於9:45致電黃珊珊副市長，黃副市長將電話轉交給柯文哲市長，陳指揮官與柯市長直接通話，雙方對成立聯合前進指揮所達成共識，並在環南市場現場召開記者會。\$\@\$三、當日農委會陳吉仲主委於10:00多左右，親自致電二通予臺北市黃副市長，並於第二通電話中明確告知黃副市長，陳指揮官、經濟部王美花部長及農委會陳吉仲主委將至環南市場召開記者會，並邀請黃副市長出席，黃副市長表示柯市長也會出席。\$\@\$四、指揮中心表示，當日均依照指揮中心記者會程序，發布採訪通知；指揮中心幕僚抵達環南市場後，亦與臺北市市場處高副處長確認記者會場地、流程及雙方出席人員，同時與現場媒體溝通說明記者會流程，及預定出席人員。\$\@\$五、當日11:01，臺北市府陳智菡發言人於臺北市府群組發布採訪通知，說明柯市長、黃副市長皆會出席記者會； 11:20柯市長、黃副市長抵達環南市場。\$\@\$六、指揮中心說明，為儘快有效控制疫情，召開記者會說明防疫作為及因應措施，以利相關市場攤商、工作人員及周邊住民了解需配合之事項，並無「以開會名義設局召開記者會」一事。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，在國人共同努力配合下，國內疫情已在控制中，惟仍有部分感染事件發生，參酌世界各國管制作為及經驗，防疫措施鬆綁須逐步執行，才可穩定掌握疫情狀況，為確保國人健康，指揮中心經評估後決定，同步延長全國疫情警戒第三級至7月26日止，並自7月13日起適度鬆綁部分措施，說明如下：\$\@\$一、適度鬆綁措施：\$\@\$(一)    有條件鬆綁對象（地方政府得視防疫需要因時因地調整）：\$\@\$1.    戶外：國家公園、國家風景區、遊樂園區、休閒農場、森林遊樂區、植物園、文化園區、學校操場、駕訓班。\$\@\$2.    室內：美術館、博物館、電影院、表演場館(無觀眾)、社教機構、文化中心。\$\@\$3.    室內外運動場館(游泳池除外)、高爾夫球場。\$\@\$4.    餐飮場所(餐廳、傳統市場及夜市、百貨賣場 美食街、美食區等)符合指揮中心指引得內用。\$\@\$5.    國內小型旅行團(9人以下)、劇組拍攝。\$\@\$(二)    上述鬆綁須遵照通案性原則及主管機關指引：\$\@\$1.    實聯制、出入口管制、人流管控降載。\$\@\$2.    維持社交距離，除飮食外，全程戴口罩。\$\@\$3.    員工人員健康管理、確診事件即時應變。\$\@\$二、三級警戒延長仍須關閉之場所：\$\@\$(一)    休閒娛樂場所：\$\@\$歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、指壓按摩場所、健身休閒中心(含提供指壓、三溫暖等設施之美容瘦身場所)、保齡球館、撞球場、室內螢幕式高爾夫練習場、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、自助選物販賣機營業場所、釣蝦場、桌遊場所及其他類似場所。\$\@\$(二)    教育學習場域：\$\@\$社區大學、樂齡學習中心、訓練班(駕訓班除外)、K書中心等其他類似場所。\$\@\$(三)    觀展觀賽場所：\$\@\$會展場館、游泳池等其他類似場所。\$\@\$指揮中心表示，鬆綁過程是疫情重要關鍵，籲請全國民眾持續落實遵循並積極配合三級警戒管制及鬆綁規定相關措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日表示，第二批AstraZeneca疫苗約62.6萬劑，預定今日下午3時40分抵達桃園國際機場。\$\@\$指揮中心說明，本批疫苗為我國與供應商(阿斯特捷利康公司)採購之一部分，首批11.7萬劑已於3月3日到貨，第二批今日抵臺疫苗完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，該公司也協助交付經由COVAX供應和日本捐贈的AstraZeneca疫苗。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至110年10月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增40例COVID-19確定病例，分別為39例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之39例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為21例男性、18例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月6日。個案分布以臺北市與新北市各14例最多、其次為桃園市11例；其中23例為已知感染源、4例關聯不明、12例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為4例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月13日至6月27日，確診日介於5月18日至6月29日，死亡日介於7月1日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月5日累計公布13,862位確診個案中，已有11,277人解除隔離，解隔離人數達確診人數81.4%。\$\@\$指揮中心表示，今日新增境外移入個案(案15208)，為本國籍40多歲女性，7月4日自泰國入境，持有搭機前3日內檢驗陰性報告，個案入境時並無症狀，於機場採檢後至檢疫旅館檢疫，於今日確診，衛生單位已匡列個案同班機前後2排座位旅客共7人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,532,252例新型冠狀病毒肺炎相關通報(含1,515,985例排除)，其中15,128例確診，分別為1,190例境外移入，13,885例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計105例移除為空號。自2020年起累計累計715例COVID-19死亡病例，其中707例本土，個案居住縣市分布為新北市361例、臺北市271例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。 圖片 附件\$\@\$網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增29例COVID-19確定病例，分別為27例本土及2例境外移入；另確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之27例本土病例(其中15例為居家隔離期間或期滿檢驗陽性者)，為17例男性、10例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月10日至7月5日。個案分布以臺北市14例最多，其次為新北市11例、屏東縣及彰化縣各1例；其中17例為已知感染源、10例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，為14位男性、3位女性，發病日介於5月16日至7月2日，確診日介於5月19日至7月5日，死亡日介於6月28日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月4日累計公布13,831位確診個案中，已有11,180人解除隔離，解隔離人數達確診人數80.8%。\$\@\$指揮中心表示，今日新增境外移入個案中，案15180為本國籍10多歲男性，7月4日自美國入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於機場採檢後至防疫旅館檢疫，7月5日出現嗅味覺異常等症狀，於今日確診，相關接觸者匡列中。案15185為本國籍30多歲男性，6月30日自印尼入境，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並進行採檢，當日採檢結果為陰性；7月4日出現發燒、肌肉痠痛、流鼻水等症狀，7月5日由衛生單位採檢送驗，於今日確診，同班機旅客均已入境採檢並入住集中檢疫所。\$\@\$指揮中心統計，截至目前國內累計1,503,584例新型冠狀病毒肺炎相關通報(含1,487,019例排除)，其中15,088例確診，分別為1,189例境外移入，13,846例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號(案10180、案13124)，累計105例移除為空號。自2020年起累計706例COVID-19死亡病例，其中698例本土，個案居住縣市分布為新北市354例、臺北市269例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日表示，日本政府繼6月4日提供我國124萬劑AstraZeneca疫苗，再提供113萬劑AstraZeneca疫苗予我國人使用。該批疫苗預定於7月8日下午運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封縅作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此全球疫苗供不應求且疫情艱難時刻，日本政府再度伸出援手追加這批COVID-19疫苗，將有助於提升我國疫苗涵蓋率，並给予國内疫情防治極大幫助，指揮中心謹向日本政府與人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心表示，今(6)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.疾病傳播能力雖呈現下降趨勢，惟部分縣市仍有群聚事件爆發，請各地方政府持續密切注意監測，早期發現並介入；另國內出現Delta變異株相關群聚，將強化國內病毒變異株基因監測外，鑒於該病毒株具高傳播力，未來可能成為主流病毒變異株，爰請各地方政府重新檢視病患收治轉送及醫療照護體系量能之整備。\$\@\$2.雙北部分，臺北市出現較大規模市場群聚，考量市場人流多屬不特定對象，請該市衛生機關加強轄內社區、市民及醫療院所警覺，並於市場周邊設置篩檢站；新北市亦有出現家禽市場群聚，請該市衛生機關持續留意後續疫情變化。\$\@\$二、疫苗施打意願登記與預約系統\$\@\$1.有關行政院唐鳳政務委員設計開發之「疫苗施打意願登記與預約系統」，重點如下：\$\@\$1)登記與預約四步驟：意願登記→1922以簡訊通知符合資格民眾→預約接種→接種疫苗。\$\@\$2)登記對象：第9類(18歲至64歲，患有高風險疾病、罕見疾病或重大傷病者)及第10類(50-64歲成人)符合公費疫苗接種對象。\$\@\$3)預約及登記平台：可採線上1922.gov.tw或手機app「健保快易通」(全名「全民健保行動快易通」)預約，或者持健保卡到超商、藥局、衛生所插卡預約。\$\@\$4)試辦時間及區域：7月6日上午10點至7日下午5點開放登記，7月8日上午10點至9日下午5點開放預約，於金門、馬祖、澎湖進行試辦。後續視試辦2週之成效後，再推動至全國。\$\@\$2.本系統啟動條件，以中央流行疫情指揮中心開放對象，進行逐步啟動，現行為第9及第10類民眾，另針對偏鄉或年長者意願及預約登記服務部分，請各地方政府各鄉鎮市公所提供協助作業。\$\@\$3.至於疫苗配撥安排，現階段以毎週提供單一品牌疫苗預約為原則，後續視疫苗到貨情況再行研議調整。\$\@\$三、針對第七類優先接種對象認定及疫苗配發施打作業，指揮中心依各專案主管部會造冊人數陸續進行疫苗核撥作業，鑒於造冊施打對象亦為各縣市的居民，且疫苗撥配量原則會多於專案造冊人數，爰請地方政府協助各部會疫苗依施打作業或計畫，進行各該對象之接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-05\$\@\$針對近日媒體報導「疾病管制署造冊人數，超過編制內人數」一事，中央流行疫情指揮中心今(5)日表示，為維持防疫體系運作，相關防疫人員與醫護人員均列為COVID-19公費疫苗接種的優先施打對象，包含第一類「維持醫療量能–醫事人員」及第二類「中央及地方政府防疫人員」，其中第二類對象為「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」以及「港埠執行邊境管制之海關檢查、證照查驗、人員檢疫及動植物檢疫、安全檢查及航空安全等第一線工作人員」等。\$\@\$指揮中心指出，疾管署為COVID-19防疫主責機關，負責疫情監控、邊境檢疫、社區防疫、感染管制及病毒檢驗事項等相關業務，該署造冊1,261人，其對象除了編制內人員(正式職員、聘僱人員、工級人員)850人外，尚有研發替代役、臨時人員、駐點及承攬人員等411人，該等人員負責協助支援各項業務推動，包含協勤保全人員、資訊委外駐點等，協助邊境檢疫作業及檢疫、隔離與預防接種等系統管理維運，均擔負重要職責，亦屬指揮中心公布之第一類「維持醫療量能–醫事人員」及第二類「維持防疫量能-中央及地方政府防疫人員」。\$\@\$指揮中心強調，因應COVID-19疫情，為維持防疫量能，又將防疫視同作戰，故以防疫業務推動與確保同仁防護能力為首要，進行相關人員接種作業，以避免影響防疫業務的正常運作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為9例男性、19例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月19日至7月4日。個案分布以臺北市15例最多，其次為新北市5例、桃園市3例、苗栗縣2例，屏東縣、基隆市及新竹縣各1例；其中16例為已知感染源、1例關聯不明、11例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案12752)，為70多歲女性，具慢性病史及其他確診者接觸史；個案於6月11日出現發燒、呼吸困難症狀，同日就醫採檢並住院治療，6月12日確診，7月3日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月3日累計公布13,792位確診個案中，已有11,008人解除隔離，解隔離人數達確診人數79.8%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15152為本國籍未滿5歲女童，6月21日自美國入境，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月4日進行期滿前採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，相關接觸者匡列中。案15155為本國籍20多歲男性，7月1日自英國返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，當日採檢結果為陰性，7月2日出現鼻塞、喉嚨癢、輕微發燒等症狀，7月4日通報衛生單位後安排採檢送驗，於今日確診(Ct值22)，相關接觸者匡列中。案15164為本國籍50多歲男性，7月2日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,472,827例新型冠狀病毒肺炎相關通報(含1,455,971例排除)，其中15,061例確診，分別為1,187例境外移入(原7月4日公布之本土個案15109、15110 ，經疫調採檢後改判為境外移入)，13,821例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計689例COVID-19死亡病例，其中681例本土，個案居住縣市分布為新北市349例、臺北市261例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增39例COVID-19確定病例，分別為37例本土及2例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之37例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為12例男性、25例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月17日至7月3日。個案分布以臺北市18例最多，其次為新北市11例、桃園市及彰化縣各3例、宜蘭縣2例；其中16例為已知感染源、3例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增2例死亡個案(案8089、12577)，分別為70多歲女性及80多歲男性，發病日為5月18日及6月9日，確診日為5月30日及6月11日，死亡日為7月2日及6月17日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月2日累計公布13,712位確診個案中，已有10,868人解除隔離，解隔離人數達確診人數79.3%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15113為本國籍50多歲女性，7月2日自柬埔寨返臺，持有搭機前3日內檢驗陰性報告，入境時有發燒症狀，在機場採檢後送醫治療，於今日確診；相關接觸者匡列中。案15129為本國籍30多歲男性，6月30日起陸續出現頭痛、喉嚨痛及流鼻水等症狀，7月3日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境時主動通報有症狀並在機場採檢，於今日確診；已掌握個案同行返臺之友人1名，其在臺期間並無症狀，檢體檢驗中，已列居家隔離，其餘同班機接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,459,913例新型冠狀病毒肺炎相關通報(含1,442,937例排除)，其中15,030例確診，分別為1,182例境外移入，13,795例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計688例COVID-19死亡病例，其中680例本土，個案居住縣市分布為新北市349例、臺北市260例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增80例COVID-19確定病例，分別為76例本土及4例境外移入；另確診個案中新增10例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例(其中14例為居家隔離期間或期滿檢驗陽性者)，為 31例男性、45例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月22日至7月2日。個案分布以臺北市48例最多，其次為新北市24例、桃園市3例，新竹市1例；其中55例為已知感染源、21例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增10例死亡個案，為5例男性、5例女性，年齡介於50多歲至90多歲，發病日介於5月21日至6月30日，確診日介於5月29日至7月2日，死亡日介於6月26日至7月2日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月1日累計公布13, 654位確診個案中，已有10,551人解除隔離，解隔離人數達確診人數77.3%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15059為本國籍10多歲男性，6月30日自英國入境，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日出現發燒、頭痛、全身倦怠、咳嗽等症狀，由衛生單位安排採檢送驗，於今日確診，接觸者匡列中。案15063為本國籍20多歲男性，6月18日自日本返臺；案15079為本國籍60多歲女性，6月18日自美國返臺，2人皆持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月2日進行期滿前採檢，於今日確診。2人在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15094為本國籍50多歲男性，6月25日自柬埔寨返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日由衛生單位安排轉換檢疫旅館，7月2日進行專案採檢，於今日確診(Ct值37，IgG、IgM均為陽性)，目前接觸者匡列中。\$\@\$指揮中心統計，截至目前累計1,437,283例新型冠狀病毒肺炎相關通報(含1,420,997例排除)，其中14,991例確診，分別為1,180例境外移入，13,758例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計686例COVID-19死亡病例，其中678例本土，個案居住縣市分布為新北市349例、臺北市259例、基隆市22例、桃園市20例、彰化縣11例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月3日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日表示，因應臺北市環南市場疫情，將於今日針對6月8日起，曾於相關時間及地點出入之民眾，發送疫情警示簡訊，內容如下：\$\@\$[疫情警示]如您曾至環南市場，且6月8日之後曾有發燒、呼吸道症狀，腹瀉，或嗅、味覺異常等疑似症狀，請就醫評估或可至社區篩檢站採檢。\$\@\$指揮中心說明，收到簡訊者若有不適，務必正確佩戴外科口罩儘速就醫，不可搭乘大眾交通工具，就醫時應主動告知醫療人員相關暴露及接觸史。指定社區採檢院所醫院清單可至疾病管制署網站查詢：http://at.cdc.tw/5y262t。\$\@\$備註：本次簡訊發送範圍：\$\@\$北至：萬板大橋\$\@\$東至：西藏路\$\@\$南至：華翠大橋\$\@\$西至：環河快速道路</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增58例COVID-19確定病例，分別為57例本土及1例境外移入；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之57例本土病例(其中22例為居家隔離期間或期滿檢驗陽性者)，為25例男性、32例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月22日至7月1日。個案分布以臺北市29例最多，其次為新北市15例、新竹縣4例、桃園市及基隆市各3例、臺中市2例、新竹市1例；其中28例為已知感染源、6例關聯不明、23例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，為8例男性、7例女性，年齡介於40多歲至80多歲，發病日介於5月25日至6月21日，確診日介於5月28日至6月28日，死亡日介於6月3日至6月30日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月30日累計公布13,605位確診個案中，已有10,347人解除隔離，解隔離人數達確診人數76.1%。\$\@\$指揮中心表示，今日新增1例境外移入中(案14975)，為本國籍50多歲女性，6月28日自匈牙利返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日申請外出奔喪，由衛生單位安排至醫院自費採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,411,572例新型冠狀病毒肺炎相關通報(含1,395,446例排除)，其中14,911例確診，分別為1,176例境外移入，13,682例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計676例COVID-19死亡病例，其中668例本土，個案居住縣市分布為新北市343例、臺北市256例、基隆市21例、桃園市20例、彰化縣11例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心表示，今(2)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、鑒於國內仍有職場、機構、醫院、社區等場域群聚事件發生，請相關地方政府持續落實疫調及接觸者匡列、社區篩檢及監測，以利早期發現病例，早期介入；另近期人流有上升趨勢，請各地方政府加強宣導落實三級警戒注意事項。\$\@\$1.雙北部分：臺北市近期發生市場、機構及工地等群聚，須留意防範擴散至社區，並加強疫調及跨縣市疫情通報；另建議持續考量民眾就醫可近性，設置社區篩檢站。\$\@\$2.屏東縣部分：Delta變異株進入枋山社區，目前當地疫情雖已控制，仍請屏東縣政府擴大社區篩檢及居民健康監測，提升當地民眾及醫療院所防疫警覺。\$\@\$二、針對第七類「國家關鍵基礎設施及高風險接種人員等專案」對象疫苗配撥及接種作業，已請相關中央目的事業主管機關，於中央流行疫情指揮中心第86次大會(6月29日)中，就接種計畫進行報告，也請各部會與地方政府業務隸屬之局處聯繫，務必向縣市首長報告專案實施內容，讓縣市首長充分瞭解。\$\@\$三、有關地方政府建議擴大疫苗施打對象部分，指揮中心均會就疫情狀況、疫苗可分配數量、接種情形等持續綜合評估，滾動規劃後續納入施打之開放類別目標族群，請各地方政府配合指揮中心規劃，確實將撥配疫苗施打於優先開放之類別目標族群。\$\@\$四、有關地方政府關切Moderna疫苗後續撥發規劃部分，評估疫苗保存、解涷及配發至地方等作業所需時間，目前第二批撥配日期為7月5日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日公布，鑑於Delta變異株於全球日益擴散且其傳播力強，為降低該病毒進入國內社區風險，自今(2021)年7月2日中午12時(航機抵臺時間)起，加強國際港埠入境人員健康監測，包含：\$\@\$一、14天內具「重點高風險國家」旅遊史之入境旅客，自空港或海港入境後，一律公費入住集中檢疫所14天，且須配合入住時、檢疫期滿進行COVID-19病毒核酸檢驗(PCR)檢測；另檢疫期間增加第10至12天以「家用快篩」採檢一次。\$\@\$二、14天內無「重點高風險國家」旅遊史之入境旅客，自空港或海港入境時皆須配合採深喉唾液及進行PCR檢測，並搭乘防疫車隊前往防疫旅宿或自費入住集中檢疫場所接續完成14天檢疫，且於檢疫期滿前(檢疫第12至14天)PCR檢測，另增加第10至12天以「家用快篩」採檢一次。\$\@\$三、所有入境旅客，檢驗為陽性者，均進行病毒基因定序。\$\@\$指揮中心強調，邊境管制為防範COVID-19疫情的重要關鍵，入境旅客抵臺時應主動配合邊境加強監測措施，並依指揮中心規定的交通方式前往檢疫地點及配合後續防疫相關措施。落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$疾病管制署今(1)日公布國內新增2例日本腦炎確定病例，為彰化縣鹿港鎮本國籍50多歲男性及臺中市大安區越南籍20多歲男性，發病日分別為6月16日及6月24日，症狀包括發燒、頭痛、嘔吐及意識改變等，經就醫通報後確診，目前均仍住院治療中。\$\@\$疾管署表示，2名個案近期均無國內外旅遊史，平時活動地以居住地及工作地為主。衛生單位於2人活動地周邊發現有豬舍或水稻田等高風險場所，研判於活動地附近感染的可能性較高，並已前往個案活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共6例確定病例，個案居住地分別為基隆市、臺中市、彰化縣、臺南市、高雄市及屏東縣各1例，個案活動地附近均有高風險環境；2017至2020年全國同期確定病例數分別為12、25、12及13例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，臺灣每年5至10月為日本腦炎流行季，其中6至7月為流行高峰。在臺灣以三斑家蚊、環紋家蚊及白頭家蚊為主要病媒蚊，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段。大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。請民眾儘量避免於病媒蚊吸血高峰時段，在上述易孳生病媒蚊之高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。\$\@\$疾管署呼籲，預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。住家或活動地鄰近豬舍、水稻田等高風險環境的民眾應加強防蚊，如自覺有感染風險的成人，可前往旅遊醫學門診評估自費接種疫苗。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日表示，本土確診案例連續1週低於百人，經考量失能者家庭照顧需求，及家庭較無其他替代人力，且不致有產業移工群聚擴大傳染風險等因素，自即日起優先恢復外籍家庭看護工及家庭幫傭，得轉換由家庭類雇主接續聘僱(含期滿轉換)；至於其他產業移工仍暫緩轉換，未來將視疫情再行檢討。\$\@\$指揮中心表示，家庭類雇主接續聘僱(含期滿轉換)家庭類移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接家庭類移工之新雇主應於接續聘僱（含期滿轉換）當日安排移工至合格醫療機構檢驗PCR，檢測費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件接續處理。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主若未於接續聘僱(含期滿轉換)當日，安排移工檢驗PCR，將依「就業服務法」第57條第9款規定，處新臺幣6萬至30萬元罰鍰，並不予核發接續聘僱許可及廢止名額。另雇主如果委託仲介公司辦理移工生活照顧，但仲介公司未善盡受任事務，違反防疫措施，仲介公司將被依「仲介公司違反就業服務法」規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增50例COVID-19確定病例，分別為47例本土及3例境外移入；另確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之47例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為22例男性、25例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月22日至6月30日。個案分布以新北市20例最多，其次為臺北市18例、桃園市5例、高雄市2例，新竹市及新竹縣各1例；其中28例為已知感染源、3例關聯不明、16例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為7例男性、6例女性，年齡介於50多歲至80多歲，發病日介於5月14日至6月18日，確診日介於5月18日至6月20日，死亡日介於6月17日至6月30日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月29日累計公布13,549位確診個案中，已有10,306人解除隔離，解隔離人數達確診人數76.1%。\$\@\$指揮中心表示，今日新增3例境外移入中，案14926、案14927分別為印尼籍30多歲及印尼籍20多歲男性漁工，去(2020)年12月自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，檢疫期滿採檢陰性即登船出海工作；2人均於今年6月16日返臺，入境後至防疫旅館檢疫，29日接受檢疫期滿前採檢，皆於今日確診；由於2人在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案14941為菲律賓籍30多歲男性漁工，5月13日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，5月27日檢疫期滿前採檢陰性，5月29日檢疫期滿後登船，未再下船，6月14日因工作需求再次採檢陰性，6月16日因同船漁工確診，故移至防疫旅館進行隔離，6月29日隔離期滿前採檢，於今日確診；個案在臺期間並無症狀，且隔離期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,379,630例新型冠狀病毒肺炎相關通報(含1,363,405例排除)，其中14,853例確診，分別為1,175例境外移入，13,625例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案14795)，共累計103例移除為空號。自2020年起累計661例COVID-19死亡病例，其中653例本土，個案居住縣市分布為新北市334例、臺北市251例、基隆市21例、桃園市20例、彰化縣10例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月1日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，批發市場為供應民眾農、漁、畜等民生物資的重要營業場所，因應近期批發市場出現群聚感染事件，為確保相關場域工作人員、採購民眾自身與家人健康，指揮中心與農委會共同訂定「批發市場防疫管理措施建議指引」，呼籲各批發市場遵循，以避免群聚感染、疫情擴大。\$\@\$指揮中心進一步表示，「批發市場防疫管理措施建議指引」提供主管機關、場域管理單位及工作人員，依實際可行性與適用性，內化為適合個別場域所需的管理措施，供管理單位、從業人員及採購人員遵循辦理，以降低疫情在批發市場的發生機率、規模及社區傳播風險。\$\@\$指揮中心指出，「批發市場防疫管理措施建議指引」包含以下重點防疫措施，請各批發市場遵循，以降低疫情發生：\$\@\$人員健康管理：落實市場出入人員體溫量測、實聯制。盤點及造冊相關工作人員，落實健康狀況監測、定期篩檢及訂定健康監測計畫(包含人員名單及異常追蹤處理機制)，並鼓勵接種COVID-19疫苗。\$\@\$人流管制措施：調整市場攤位配置及營業時段，減少市場之出入口、劃定人員動線及分流措施，管制人數總量及單位時間人數。\$\@\$落實人員衛生行為：張貼標語、海報或透過廣播提醒顧客、從業人員等落實戴口罩及手部衛生，增加洗手設備可近性，並儘量使用非直接與顧客接觸之收付款方式。\$\@\$個人防護裝備建議：工作人員需佩戴口罩及面罩，視需要佩戴手套或穿著防水圍裙，拋棄式口罩不可重複使用；面罩若為可重複使用者，應確實清潔消毒後重複使用。\$\@\$環境清潔消毒：訂定環境清潔及消毒計畫，定時執行環境清潔及消毒，每天至少1次以上，並增加公共廁所衛生清潔及消毒頻率。\$\@\$出現確定病例之應變措施：訂定包括風險對象管理、風險區域管理及營運降載措施等3大應變措施，批發市場若發生確診者，應通報主管機關，風險區域須暫停營業，並視影響程度，通知供應人及承銷人至鄰近市場交易。\$\@\$指揮中心表示，農委會後續將與全國各批發市場及縣市政府召開視訊說明會，並請各縣市批發市場依據公布的指引自行訂定符合實際經營樣態的防疫作業規範，確保農產品穩定供應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，第三批Moderna疫苗41萬劑，已於歐洲時間6月29日晚上9時30分自阿姆斯特丹啟運，預定今日下午4時40分抵達桃園國際機場。\$\@\$指揮中心表示，本批疫苗為我國與供應商採購之一部分，首批15萬劑已於5月28日、第二批24萬劑也於6月18日分別到貨。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存至少6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增56例COVID-19確定病例，分別為55例本土及1例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之55例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為30例男性、25例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月20日至6月29日。個案分布以新北市23例最多，其次為臺北市22例、桃園市5例，高雄市及苗栗縣各2例、屏東縣1例；其中31例為已知感染源、2例關聯不明、22例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至70多歲，發病日介於5月24日至6月16日，確診日介於5月25日至6月18日，死亡日介於6月25日至6月28日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月28日累計公布13,495位確診個案中，已有10,196人解除隔離，解隔離人數達確診人數75.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案14875)，為印度籍30多歲男性，6月27日自印度來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，因有適當防護，列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,347,513例新型冠狀病毒肺炎相關通報(含1,331,329例排除)，其中14,804例確診，分別為1,172例境外移入(原6月28日公布之本土個案14755，經疫調採檢後改判為境外移入)，13,579例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計 648例COVID-19死亡病例，其中640例本土，個案居住縣市分布為新北市329例、臺北市246例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日表示，簡訊實聯制的推出，係為方便民眾及商家落實實聯制措施、減少紙本紀錄的接觸，並有助於疫調人員掌握個案相關活動史及匡列接觸者等，相關數據之使用，均有其合法性、正當性、必要性，且絕無違法情事，說明如下：\$\@\$一、 合法性：衛福部依傳染病防治法第37條第1項第6款，公告「嚴重特殊傳染性肺炎(COVID-19)第三級疫情警戒標準及防疫措施裁罰規定」，規定外出時應全程佩戴口罩，並配合實聯制；行政院為遏止疫情擴散，並減少實聯制紙本填寫之接觸，推出「簡訊實聯制」，供民眾及商家使用。\$\@\$二、 正當性：簡訊實聯制係於經得使用人同意下，掃瞄QR code即完成實聯制措施；而「簡訊實聯制」並不會留下個資給店家，所留下的活動史簡訊，電信業者也只保留28天，且僅供指揮中心疫調使用，不會做目的外利用。\$\@\$三、 必要性：在疫調工作中，衛生單位人員須掌握確診個案相關之活動資訊，以即時展開接觸者匡列、環境清消等各項防疫措施，故適當的運用簡訊實聯制相關資訊，對防疫推動有實質的幫助。\$\@\$指揮中心進一步指出，簡訊實聯制自今(2021)年5月19日上線後，於6月3日起啟用實聯制資料調用機制，以供地方政府衛生局有疫情調查需求時，向指揮中心申請調閱，經審核通過後將調閱資料回復，大多數申請調用案件可於一日之內提供資料。截至6月29日，已有宜蘭縣、花蓮縣、南投縣、屏東縣、苗栗縣、桃園市、高雄市、基隆市、新北市、新竹縣、嘉義縣、彰化縣、臺中市、臺北市、臺南市、澎湖縣，共計16縣市政府衛生局調用303項資料，調用量前3名依序為桃園市衛生局、高雄市衛生局、臺中市衛生局。\$\@\$指揮中心強調，「簡訊實聯制」的推出，主要為提供民眾、商家、衛生單位不管是在配合防疫措施或執行疫調工作上便利的平臺，籲請民眾、商家配合，也請地方政府加強稽查，共同落實實聯制，完備疫調工作，達到防疫的目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」，中央流行疫情指揮中心今(29)日澄清，無法選擇疫苗廠牌，係因目前尚無法確認屆時可供應之疫苗廠牌與數量，並非為國產疫苗鋪路。\$\@\$指揮中心表示，為加速我國COVID-19疫苗接種作業，規劃辦理「COVID-19疫苗接種外展服務」，已於日前發文請各部會先行調查「規模1,000人以上企業」、「100人以上中央政府機關」等人員施打疫苗意願及進行造冊，並由各機關（構）自行評估是否有適合執行接種作業的地點及空間規劃等。\$\@\$有關媒體報導「該公文提到無法選擇疫苗廠牌，係為國產疫苗鋪路」，指揮中心澄清，係因目前尚無法確認屆時可供外展服務之疫苗廠牌與疫苗數量，並非為國產疫苗鋪路。待疫苗量充足，會依屆時可供應之疫苗廠牌與數量，再次詢問機關（構）參與外展服務與接種之意願。\$\@\$指揮中心進一步說明，有關「疫苗外展服務調查」，係為後續疫苗量充足且可全民接種時，疫苗需求量調查與分布之預先規劃。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增54例COVID-19確定病例，均為本土個案；另確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之54例本土病例(其中17例為居家隔離期間或期滿檢驗陽性者)，為19例男性、35例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月16日至6月28日。個案分布以新北市22例最多，其次為臺北市20例、桃園市及新竹縣各4例，彰化縣2例，基隆市及屏東縣各1例；其中31例為已知感染源、5例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，為5例男性、3例女性，年齡介於60多歲至80多歲，發病日介於5月9日至6月19日，確診日介於5月15日至6月20日，死亡日介於6月25日至6月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月27日累計公布13,435位確診個案中，已有10,086人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心統計，截至目前國內累計1,311,961例新型冠狀病毒肺炎相關通報(含1,295,813例排除)，其中14,748例確診，分別為1,170例境外移入，13,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計102例移除為空號。自2020年起累計643例COVID-19死亡病例，其中635例本土，個案居住縣市分布為新北市325例、臺北市245例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心表示，今(29)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情雖持續下降，惟部分縣(市)仍持續爆發群聚事件，須密切注意監測，及早發現並介入防治；另國內出現Delta變異株群聚，應強化疫調早期圍堵，避免造成社區流行。\$\@\$1.雙北部分：臺北市疫情趨緩，惟轄內近期發生市場、機構及工地等群聚，須留意防範擴散至社區；新北市疫情亦趨緩，惟各行政區仍須留意後續疫情變化。\$\@\$2.屏東縣部分：因出現Delta變異株群聚，不排除未來一週仍可能檢出相關病例，請屏東縣落實精準疫調及接觸者匡列、追蹤，早期發現病例並介入防治。\$\@\$二、有關簡訊實聯制運用於疫調處理部分，鑒於簡訊實聯制推動主要作為輔助疫調之用，建置前提為民眾上傳資訊越少越好(僅有停留場所代碼及進入之時間點)，因此請各地方政府在疫情處理上仍應以精準疫調為主，簡訊實聯制為輔，地方政府如有實聯制資料運用於疫調之需求，指揮中心資訊組將會適時協助提供。\$\@\$三、針對Delta變異株之防範，有無需要調整醫療院所感染管制措施之部分，指揮中心參考比較國外感控措施，目前尚無需調整我國現行措施。至於相關確診者個案能否共同收治入院，建議地方政府在病房收治量能允許下，仍應以一人一室為主。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增60例COVID-19確定病例，均為本土個案；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之60例本土病例(其中31例為居家隔離期間或期滿檢驗陽性者)，為26例男性、34例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月19日至6月27日。個案分佈以新北市33例最多，其次為臺北市22例、桃園市2例，基隆市、南投縣及彰化縣各1例；其中32例為已知感染源、3例關聯不明、25例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於70多歲至90多歲，發病日介於5月23日至6月22日，確診日介於5月26日至6月24日，死亡日介於6月25日至6月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前累計1,282,057例新型冠狀病毒肺炎相關通報(含1,265,704例排除)，其中14,694例確診，分別為1,170例境外移入，13,471例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計635例COVID-19死亡病例，其中627例本土，個案居住縣市分布為新北市321例、臺北市243例、基隆市21例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$有關今(6/27)日上午飛往金門航班，某旅客於機場快篩站進行快篩，因第一次篩檢結果無法成為判定的依據，在取得當事人同意後，執行第二次篩檢，呈現陰性，判定快篩結果為陰性，應予放行，另同步通知金門航空站及金門縣衛生局，以確實掌握該旅客情況。該旅客抵達金門後立即執行PCR檢測，經採檢PCR結果亦為陰性。\$\@\$目前本島各機場針對前往離島旅客執行篩檢，仍屬自願性質，並無強迫性，不只顧及防疫，亦能爭取旅客信任，鼓勵更多旅客參與篩檢，對離島的防疫防線更有幫助。惟為避免造成地方疑慮，未來於各機場快篩呈陽性或弱陽性反應之旅客，不再考慮檢驗誤差問題，將進行PCR採檢陰性後，始允許登機。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日宣布，因應Delta變異株於全球日益擴散且其傳播力高，即日起若旅客自「重點高風險國家(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」入境，則請搭乘交通部安排之的防疫車輛前往集中檢疫所。若旅客並非由前述「重點高風險國家」入境，應自費搭乘防疫車輛(或自行駕車)前往防疫旅宿或自費集中檢疫所之檢疫地點。\$\@\$指揮中心強調，入境人士之親友勿前往機場或港口接機，以減少病毒傳播風險，共同保護親友及社區防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$為保障健康安全，近日民眾踴躍接種COVID-19疫苗，關於疫苗接種後是否產生副作用也有諸多討論。針對網傳COVID-19 mRNA疫苗恐傷害人體，中央流行疫情指揮中心今（27）日澄清，疫苗中的mRNA並不會進入細胞核，不會以任何方式改變人體的DNA，或與DNA產生交互作用。而政府也會嚴格把關疫苗安全，民眾可安心接種。\$\@\$指揮中心表示，我國目前已核准緊急使用授權的COVID-19疫苗分為兩大類，其中所使用的COVID-19 mRNA疫苗，其作用原理是將含有一段可轉譯成SARS-CoV-2病毒棘蛋白的mRNA注射至體內，接種後會在人體細胞質內製造出SARS-CoV-2病毒棘蛋白，作為疫苗抗原，進而誘發人體產生免疫反應，以對抗SARS-CoV-2病毒，疫苗中的mRNA不會進入細胞核、不會改變人體的DNA，或與DNA產生交互作用。\$\@\$指揮中心重申，我國核准專案輸入的mRNA疫苗，例如莫德納疫苗，是經過衛生福利部食品藥物管理署審查廠商所提供的疫苗品質管制資料、非臨床藥毒理試驗及人體臨床試驗報告，確認疫苗的品質、安全及療效後，始予以核准。\$\@\$指揮中心表示，為確保COVID-19疫苗上市後廣泛臨床使用下國人用藥安全，我國已建立COVID-19疫苗安全資訊主動監控機制，除持續監控國外衛生主管機關發布之COVID-19疫苗安全警訊外，亦設有「疫苗不良事件通報系統(VAERS)」接受各界通報，蒐集、分析及評估我國COVID-19疫苗不良事件，並藉由收集相關安全資訊，監控其安全性，一旦發現具有未知或未預期之風險，立即啟動再評估機制，重新評估其療效與風險，並確認是否需採取相關風險管控措施。\$\@\$指揮中心再次提醒， COVID-19疫苗與其他藥品一樣，或多或少都具有一些副作用，如過敏反應等，民眾接種前應主動提供自己的身體狀況，包括是否對特定藥品過敏、慢性病或正在服用的藥品；女性則需告知是否(或可能)懷孕、準備懷孕或正在哺乳母乳等，供醫師審慎評估其臨床效益及風險。接種後則應關心身體變化，部分民眾接種COVID-19疫苗後，可能會發生接種部位疼痛、紅腫、疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心等，這些症狀通常輕微並且數天內消失，但如發生嚴重持續性頭痛、視力改變或癲癇、嚴重且持續腹痛超過24小時以上、皮膚出現自發性出血點、瘀青、紫斑、嚴重胸痛或呼吸困難、下肢腫脹或疼痛等，請立即就醫，並說明疫苗接種史，同時請醫師通報當地衛生局或衛生福利部疾病管制署。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增89例COVID-19確定病例，分別為88例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之88例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為48例男性、40例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月10日至6月26日。個案分佈以新北市41例最多，其次為臺北市33例、臺南市8例、桃園市3例，屏東縣、南投縣及新竹市各1例；其中60例為已知感染源、2例關聯不明、26例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為3例男性、6例女性，年齡介於40多歲至90多歲，發病日介於5月15日至6月22日，確診日介於5月20日至6月25日，死亡日介於6月22日至6月26日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例境外移入個案(案14719)，為本國籍20多歲男性，5月3日曾在奧地利當地檢出COVID-19陽性，6月11日自奧地利返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月24日進行檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,266,904例新型冠狀病毒肺炎相關通報(含1,250,863例排除)，其中14,634例確診，分別為1,170例境外移入，13,411例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計632例COVID-19死亡病例，其中624例本土，個案居住縣市分布為新北市319例、臺北市243例、基隆市20例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月27日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，目前進口國內之274萬劑莫德納(Ｍoderna) COVID-19疫苗將陸續完成檢驗封緘，預計於今(2021)年7月1日起，陸續配送至地方政府衛生局及指定醫療院所，並開放第一類至第八類對象接種。第一階段預計分配各地方政府衛生局約106萬劑，分兩梯次配送，第一梯次配送約64.3萬劑，預計於7月1日陸續配達，第二梯次配送約41.8萬劑，預計７月８日陸續配達(如附件)。\$\@\$指揮中心指出，第一階段疫苗各地方政府分配數量係以下列原則核估，並將依各地方政府衛生局規劃，配送至衛生局或其指定醫療院所：\$\@\$一、各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」中，尚未接種疫苗之64歲以下與75歲以上服務對象及所有照服員人數總計之6成。\$\@\$二、各縣市第五類「其他機構(含矯正機關工作人員)」尚未接種人數。\$\@\$三、各縣市莫德納(Moderna)COVID-19疫苗已分配數。\$\@\$四、各縣市65-74歲長者30%人口數。\$\@\$另第二階段各地方政府分配數量則以65-74歲長者20%人口數所需疫苗數量核估，將視第一階段疫苗接種情形配發。\$\@\$指揮中心說明，有關第七類對象「維持國家安全及社會機能正常運作者」是經由各中央目的事業主管機關認定，並依據其感染風險決定為優先接種對象後進行造冊，列為首波接種之國家關鍵設施或維持設社會正常運作必要工作人員。上述對象的疫苗需求量，原則直接配送至各部會指定之COVID-19合約醫療院所，各醫療院所可視接種量能，透過原預約機制，或安排於特定時段集中接種。惟莫德納(Moderna) COVID-19疫苗於2-8℃配達後僅能保存28天，請第七類對象於預約日或接獲通知日期後，儘速前往接種，以利指揮中心視各醫療院所接種情形與庫存量，通知醫療院所逐續開放其他類對象接種，發揮COVID-19疫苗最大效益。\$\@\$指揮中心表示，第一階段配送之莫德納(Ｍoderna) COVID-19疫苗為美國提供之250萬劑其中一部分，將以2-8℃溫層配送，其包裝為每瓶14劑，10瓶一盒，接種單位可針對當日最後一瓶疫苗開瓶的剩餘劑，規劃候補名單機制，有效利用COVID-19疫苗。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。 附件\$\@\$附件-274萬劑Moderna疫苗分配量.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，有關屏東COVID-19 Delta印度變異株群聚及其相關感染事件，目前累計12例確定病例，其中6例經基因定序後，均為Delta印度變異株，分別為秘魯境外移入確診祖孫2人(案13332、13333)及案14298、14407、14408、14409。\$\@\$指揮中心指出，該起群聚事件指標個案為當地白牌司機(案14298)，經疫調及接觸者採檢後，發現1位工作接觸者(案14409)確診，而案14409之2位家人(案14407、14408)亦同時確診，其中案14407曾於6月11日、6月14日與秘魯境外移入案13332有短暫接觸，其餘事件相關確診個案均為家庭或活動之接觸者採檢後確診。為避免感染擴大，指揮中心已採取相關應變措施如下：\$\@\$一、精準疫調並擴大匡列接觸者及採檢，另接觸者安排防疫旅館落實隔離，並於居隔期滿前採檢，截至6月25日案14298群聚相關接觸者匡列136人、共居家隔離99人、自主健康管理匡列32人，自我健康監測5人，其中已採檢124人，PCR檢驗陽性9人、陰性115人，接觸者持續擴大匡列中。\$\@\$二、6月24日起於當地設置社區篩檢站，籲請足跡重疊民眾篩檢，並加強民眾溝通配合篩檢，截至6月25日PCR篩檢共419人皆為陰性；另針對確診個案公布社區足跡點，並完成公共場所消毒。\$\@\$三、當地醫療院所加強通報及感染管制措施，請醫師協助有疑似症狀就醫民眾轉介採檢院所通報及採檢。\$\@\$四、透過廣播系統呼籲民眾落實疫情三級警戒規範，外出與工作均要全程佩戴口罩，嚴查避免群聚，另針對當地超市、超商、餐飲業、傳統市場等場所關閉三天。\$\@\$五、給予確診個案妥善臨床照護處置，如符合單株抗體、瑞德西韋使用條件則即時使用；如有出現重症前兆，迅速進行處置及治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增80例COVID-19確定病例，其中78例為本土個案(39例為居家隔離期間或期滿檢驗陽性者)；另有2例境外移入。另，確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為36例男性、42例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月11日至6月25日。個案分佈以新北市36例最多，其次為臺北市30例、桃園市、基隆市及屏東縣各3例，苗栗縣、彰化縣及新竹縣各1例。其中雙北地區以外縣市12例中，10例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為8例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月14日至6月20日，確診日介於5月19日至6月22日，死亡日介於6月21日至6月24日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月24日累計公布13,190位確診個案中，已有9,916人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案14591為30多歲本國籍女性，6月11日自日本返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。案14619為本國籍30多歲女性，6月11日自菲律賓返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。2名個案檢疫期間均無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,243,683例新型冠狀病毒肺炎相關通報(含1,227,748例排除)，其中14,545例確診，分別為1,169例境外移入，13,323例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計102例移除為空號。自2020年起累計623例COVID-19死亡病例，其中615例本土，個案居住縣市分布為新北市313例、臺北市241例、基隆市20例、桃園市17例、彰化縣9例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月26日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，為因應6月27日起，自COVID-19變異株「重點高風險7國(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」以外之國家入境旅客(過去14天旅遊史、含轉機)住宿需要，將開放集中檢疫所供民眾自費使用，於今日晚間8時開放訂房。\$\@\$指揮中心指出，目前全臺有49處集中檢疫所，分布於北、中、南等三區，包括各類公務人員訓練中心、軍營、停招的學校宿舍、旅館等，每人每日新臺幣2,000元整，12歲以下幼童與父或母同住一室者，不另外收費。\$\@\$指揮中心說明，民眾入住之檢疫所地點須由指揮中心分派，房內皆有網路、電視等相關設備，入住民眾亦可使用自己的手機電話與外界聯繫；集中檢疫場所均有提供三餐，餐飲會於固定時間送到檢疫房間外，再由民眾自行取用至自己的檢疫房間內用餐。\$\@\$指揮中心提醒，集中檢疫所預定今日晚間8時開放訂房，有意自費入住民眾可至「入境檢疫系統」網頁預約，預約者須於航班預計抵臺48小時前至入境檢疫系統預約、繳費，以取得預約訂房識別碼，作為入境登記使用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，5月9日前已完成第一劑AstraZeneca COVID-19疫苗接種之民眾，皆可於接種後第10至12週公費接種第二劑。專家建議AstraZeneca COVID-19疫苗接種間隔10至12週再接種第二劑疫苗，效益更佳。若有出國急迫性須於8至10週間接種者，亦可酌情提供接種。前述對象均可至各合約醫療院所預約接種，亦建議優先考量原接種醫院，或可至疾病管制署旅遊醫學合約醫院。\$\@\$指揮中心說明，截至6月24日止，已有3.3萬人完成兩劑AstraZeneca COVID-19疫苗接種，為使民眾獲得最大免疫保護力，請4月12日至5月9日期間已接種第一劑疫苗之民眾，於接種日起間隔第10-12週後，透過各醫院預約系統預約接種第二劑疫苗。為確保該等對象第二劑AstraZeneca COVID-19疫苗接種之權益，指揮中心將依據4月12日至5月9日每週AstraZeneca COVID-19疫苗接種量，自本週起4週內，每週配送至指揮中心指定之COVID-19疫苗合約醫療院所，預計全臺4週配送量約6.9萬劑。民眾可優先於原接種醫院預約，或可至疾管署旅遊醫學合約醫院接種（院所名單詳見附件，將視各院接種與開放情形適時調整）。\$\@\$指揮中心提醒，前往接種前務必確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，並完成第二劑接種。指揮中心進一步說明，國外臨床試驗資料分析顯示，完成兩劑AstraZeneca COVID-19疫苗接種且間隔 12 週以上，保護力可達81%，籲請民眾可於第一劑接種10-12週後，完成第二劑接種，使疫苗發揮最大效益。 附件\$\@\$有開設旅遊醫學門診之醫療院所名單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心表示，今(25)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國整體疫情雖有趨緩，惟仍有零星爆發群聚事件發生，建議各地方政府仍應加強社區篩檢、疫調及接觸者追蹤管理，且加強批發市場相關人員篩檢及健康監測，避免產銷營運受影響；另鑒於全球Delta病毒變異株流行擴大，指揮中心除持續加強國內變異株監測，並請地方政府配合同步監測。\$\@\$二、因應Delta病毒變異株於全球日益擴散且其傳播力高，自6/22起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫期滿前1日，均須進行公費PCR檢測，若隔離/檢疫期間「有症狀者」及經疫調風險評估匡列之接觸者仍須立即採檢；另經專案許可入境對象(高級中等【含】以下學校之境外生、外籍移工、搭機入境之我國籍遠洋漁船僱用外籍船員/漁工、大專校院境外生、海外青年技術訓練班新生、境外非學位生等)，由原來的檢疫期滿後隔日採檢，調整為檢疫期滿前1日採檢。\$\@\$三、疫苗接種作業說明\$\@\$1、274萬劑Moderna疫苗，第一批110萬劑預計於6/30進行配送，並於7/1開放施打。\$\@\$2、COVID-19疫苗開瓶後有一定之保存時間，最後一瓶疫苗開瓶後剩餘劑量處理方式如下：\$\@\$(1)請接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$(2)剩餘劑量使用於非現行開放類別對象，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳全國性預防接種資訊系統(NIIS)。\$\@\$3、目前國內供應各廠牌之COVID-19疫苗，其使用說明書皆載明每瓶疫苗抽取之最後一劑，若劑量不足1人分劑量則須丟棄，且為保障疫苗品質，不可與其他瓶疫苗混和抽取接種。\$\@\$4、針對已接種過第1劑COVID-19疫苗者，第2劑接種規劃如下\$\@\$(1)目前已開放5/9前已接種第1劑AZ COVID-19疫苗者，陸續於間隔10~12週時公費接種第2劑。並於7/1起開放所有已接種第1劑者，接種第2劑疫苗。\$\@\$(2)為第1至3類同住者，於5/3起開放COVID-19疫苗接種至暫停提供期間，已接種過第1劑的民眾，皆可於接種後第10至12週接種第2劑。專家建議兩劑AZ COVID-19疫苗接種間隔10至12週再接種第2劑疫苗的效益更佳。\$\@\$(3)在國外接種過第1劑COVID-19疫苗，在國內欲銜接接種第2劑疫苗時，須為已開放之公費對象方可提供接種。\$\@\$四、臺北區以外醫療院所，原則同意辦理專責病房數微調作業，請經傳染病防治醫療網區指揮官同意後報送指揮中心；後續仍應維持各項感染管控作業之進行，並視疫情持續滾動監測調整病房數。另，臺北區醫療院所之專責病房數維持不變，如先前所提供之專責病房數超過10%者，可優先進行微調；急診候床數需求量多者，亦可提出申請調整，惟上述相關調整案件請經傳染病防治醫療網網區指揮官同意後報送指揮中心。\$\@\$五、有關「市場專案」，請各地方政府務必確實落實相關防疫措施；另為利處理臺北市農產運銷群聚事件，包括第一果菜批發市場及環南市場，請儘速完成市場人員PCR採檢作業，並落實相關疫調之進行，以及確實匡列確診者之接觸者，進行隔離作業，並請各地方政府協助就轄區市場從業人員曾至臺北市上開市場作業者，進行營業市場地點、營業類型、攤商編號、姓名及電話等資訊之調查，並提供臺北市政府參考。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，為有效利用COVID-19疫苗，針對當日最後一瓶疫苗開瓶的剩餘劑量，可由接種單位規劃候補名單機制，建議執行方式如下：\$\@\$一、 接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$二、請接種單位建立其他18歲以上接種對象候補名單。\$\@\$指揮中心指出，當剩餘劑量使用於非現行開放類別對象時，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳。另針對接種站設站、至機構/洗腎診所接種或外展接種服務作業，亦比照上述原則事先規劃候補名單。接種單位可依上述建議事先規劃，以利有效並妥善的運用疫苗資源。有關尚未開放類別的公費接種對象，詳情可至網址 ( http://at.cdc.tw/1uq4dQ )查詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，世界衛生組織(WHO)公布目前全球已有逾85個國家出現Delta變異株(印度變異株)病例，歐洲疾控中心(ECDC)評估其傳播力較Alpha(英國變異株)高40-60%。國際間部分疫苗接種率較佳的國家包括以色列及英國等，近期病例數回升，且發現Delta變異株病例佔比達七成以上。另國內亦出現自秘魯境外移入個案檢出Delta變異株，其鄰近的孟加拉、印尼等國該變異株佔比近期亦呈增加趨勢。\$\@\$指揮中心指出，因應 Delta變異株於全球日益擴散且其傳播力高，自今(110)年6月27日零時起(抵臺時間)，全面提升入境人員檢疫措施如下：\$\@\$一、「重點高風險國家」入境旅客(過去14天旅遊史、含轉機)之檢疫措施：自空港或海港入境後一律入住集中檢疫所14天，且須配合入住時、檢疫期滿進行PCR檢測，旅客不需支付檢疫所及採檢費用。目前「重點高風險國家」為巴西(巴西變異株)、印度，含本次新增英國、秘魯、以色列、印尼及孟加拉等共7國。\$\@\$二、前述7國旅遊史以外之所有入境旅客，入境後應入住防疫旅宿或自費入住集中檢疫所14天，且於居家檢疫期滿前配合進行PCR檢測。\$\@\$三、國籍航空公司機組員，自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍進行居家檢疫14天，且檢疫期滿進行PCR檢測。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增76例COVID-19確定病例，均為本土個案；其中34例為居家隔離/檢疫期間或期滿檢驗陽性者。另，確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例，為39例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月18日至6月24日。個案分佈以新北市32例最多，其次為臺北市20例、桃園市10例、新竹縣4例、苗栗縣3例、彰化縣及高雄市各2例，宜蘭縣、基隆市及臺中市各1例。其中雙北地區以外縣市24例中，13例為已知感染源、2例關聯不明、9例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於70多歲至90多歲，發病日介於5月16日至6月19日，確診日介於5月29日至6月20日，死亡日介於6月21日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月23日累計公布13,061位確診個案中，已有9,650人解除隔離，解隔離人數達確診人數73.9%。\$\@\$指揮中心統計，截至目前國內累計1,213,717例新型冠狀病毒肺炎相關通報(含1,197,732例排除)，其中14,465例確診，分別為1,167例境外移入，13,245例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計610例COVID-19死亡病例，其中602例本土，個案居住縣市分布為新北市306例、臺北市238例、基隆市19例、桃園市16例、彰化縣9例、臺中市4例、新竹縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月25日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，「民眾使用COVID-19家用快篩試劑指引」已於6月19日公布(詳如新聞稿附件)。為利民眾居家正確自行檢測，指揮中心再次提醒民眾使用家用快篩試劑相關流程與注意事項。\$\@\$指揮中心指出，COVID-19家用快篩試劑可由醫療器材販賣業者、藥粧店、醫療器材行、便利商店等或藥局販售，民眾購買時，請確認產品名稱是否有「家用」、包裝是否刊載「防疫專案核准製造第XXXXXXXXXX號」或「防疫專案核准輸入第XXXXXXXXXX號」等字樣(已核准之家用快篩試劑名單可至衛生福利部食品藥物管理署[下稱食藥署]網站確認)、產品效期是否在有效期間或保存期限內，並依使用說明書或操作影片進行採檢及操作。對使用家用快篩試劑有任何疑問，可洽詢販售該產品之醫療器材商或藥局，或逕洽詢試劑廠商。\$\@\$指揮中心說明，居家隔離或居家檢疫者如測出結果為陽性時，請立即與當地衛生局聯繫，或撥打1922，依指示方式處理；非居家隔離且非居家檢疫者測出結果為陽性時，請戴好口罩，勿搭乘大眾運輸工具，儘速至鄰近的社區採檢院所進一步檢測，並將使用過之採檢器材用塑膠袋密封包好，一併攜帶至社區採檢院所，交予院所人員。當測出結果為陰性時，仍請遵循指揮中心的防疫規範，做好個人防護，持續自我健康管理，採檢完之家用快篩試劑及試劑棒勿任意棄置，請以塑膠袋密封包好，以一般垃圾處理。\$\@\$指揮中心提醒，若民眾已出現嚴重特殊傳染性肺炎相關症狀，不宜使用COVID-19家用快篩試劑自行在家檢測，應佩戴醫用口罩，儘速前往醫療院所就醫，且前往就醫時勿搭乘大眾運輸工具。另外，提醒居家快篩試劑測試結果可能出現偽陰性或偽陽性，仍需經認可實驗室所進行的「核酸檢測」作為診斷COVID-19感染之依據。COVID-19家用快篩試劑產品核准名單、說明書及操作影片均可至食藥署網站( http://www.fda.gov.tw )之業務專區 &gt; 醫療器材 &gt; COVID-19 防疫醫材專區 &gt; 家用新型冠狀病毒檢驗試劑專區查詢。 附件\$\@\$附件-民眾使用COVID-19家用快篩試劑檢驗指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增130例COVID-19確定病例，分別為129例本土個案及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之129例本土病例(其中73例為居家隔離/檢疫期間或期滿檢驗陽性者)，為64例男性、65例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月4日至6月23日。個案分佈以新北市54例最多，其次為臺北市35例、基隆市9例、桃園市7例、屏東縣及高雄市各6例、苗栗縣及新竹縣各5例、南投縣2例。其中雙北地區以外縣市40例中，38例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性5位、女性1位，年齡介於50多歲至90多歲，發病日介於5月11日至6月4日，確診日介於5月15日至6月5日，死亡日介於6月18日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月22日累計公布12,958位確診個案中，已有9,288人解除隔離，解隔離人數達確診人數71.7%。\$\@\$指揮中心表示，案14386為本國籍60多歲女性，於6月9日自巴西返臺，持有登機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，6月22日檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,180,033例新型冠狀病毒肺炎相關通報(含1,164,226例排除)，其中14,389例確診，分別為1,167例境外移入，13,169例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號病例(案10029)，累計102例移除為空號。自2020年起累計605例COVID-19死亡病例，其中597例本土，個案居住縣市分布為新北市304例、臺北市237例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣、新竹縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月24日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，為精進臺北農產運銷公司COVID-19群聚感染事件相關防疫作為，於昨(23)日晚間再次召開會議，與農委會、雙北市政府、雙北農產/果菜運銷公司進行專業溝通及討論「市場專案」各項細節，並於會中達成三點共識如下：\$\@\$一、自6月24日零時起，雙北批發市場所有從業人員未持有陰性檢驗證明者不得進場，請雙北市協調警力於現場維持秩序；另亦設置快篩站至6月24日零時，提供尚未篩檢者快篩服務。\$\@\$二、落實疫調、找出熱區：指揮中心將蒐集本案相關疫調資訊，並與雙北市政府、臺北農產運銷股份有限公司及新北市果菜運銷股份有限公司建立疫調資料交流機制，儘速釐清造成此波感染事件之問題及劃分疫情熱區，以利批發市場、零批市場及周遭傳統市場執行後續防疫因應作為。\$\@\$三、考量多有跨縣市至雙北批發市場之工作者，為即時發覺潛在個案，有效阻斷傳播鏈，確診個案由居住地縣市進行精準疫調及接觸者匡列作業，其中職場接觸者匡列由職場所在縣市進行。另疾管署將成立平台協助各地方政府整合資訊，讓疫調更加完整。\$\@\$指揮中心進一步說明，考量快篩或PCR檢驗陰性僅代表個案現階段不具病毒傳播力，雙北批發市場所有從業人員亦應持續落實動線分流、人員降載等相關防疫措施，減少傳播風險；另請臺北農產運銷股份有限公司、新北市果菜運銷股份有限公司針對從業人員進行健康監測，以及早掌握可能個案，並及時進行各項防治措施。\$\@\$指揮中心強調，本專案結束後，將持續設置篩檢站三週，提供周邊攤商及社區民眾就近篩檢，達到社區清零目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，國內疫情由於國人的努力，得到良好控制，惟目前跨區傳播事件仍然存在，而世界各國因解封太快致疫情再起的經驗亦歷歷在目。為確保國人健康，指揮中心經評估後決定，全國再同步維持疫情三級警戒2週(至7月12日止)，用2週的時間換得國人平安，希望國人共體時艱，共同抗疫。\$\@\$指揮中心指出，考量社區感染風險尚未消除，指揮中心將持續與地方政府密切合作，加強落實以下管制措施，降低社區傳播風險，積極保障國人健康安全：\$\@\$一、針對確診個案精準疫調，儘速匡列相關接觸者並加強追蹤管理，及早阻斷病毒傳播鏈。\$\@\$二、針對居家檢疫及居家隔離者，無論有無症狀，均須於期滿前1日進行公費PCR檢測，以阻絕病毒進入社區。\$\@\$三、加速高風險族群疫苗接種作業，以減少其感染、或感染後產生嚴重併發症及死亡的機率。\$\@\$四、推動社區廣篩，鼓勵各地方政府設置社區篩檢站並加速檢驗時效，同時推廣企業快篩與居家快篩，以擴大篩檢量能並強化主動監測機制，儘速發掘社區內可能潛藏病例，有效斷絕所有感染鏈。\$\@\$五、強化重症醫療照護，透過COVID-19重症個案處置諮詢平臺，由多位專家諮詢委員線上提供醫院臨床重症個案處置意見，以降低個案死亡率、緩解重症醫療量能。\$\@\$六、啟動「民生供需產業健康監測專案」，針對果菜、家畜(肉品)、家禽、水產、綜合及其他類市場、超市、賣場及夜市等相關職業對象，由目的事業主管機關或地方政府進行人員健康監測，以及時進行各項防治措施，避免災害擴大，降低家戶傳播風險。\$\@\$指揮中心表示，現處疫情關鍵時刻，籲請全國民眾持續落實遵循並積極配合三級警戒管制措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，針對臺北農產運銷公司發生COVID-19群聚感染事件，指揮中心於昨(22)日召開會議，與農委會、臺北市政府、臺北農產運銷公司共同討論疫情狀況並研商「市場專案」強化相關防疫作為，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、啟動「市場專案」快速全面篩檢，確保雙北批發市場從業人員防疫安全，避免傳播至家戶及社區之風險，並以社區儘速清零為目標。\$\@\$二、自6月24日零時起，雙北批發市場所有從業人員未持有6月20日以後檢驗陰性證明者不得進場，且規定須於完成篩檢後方得接種COVIID-19疫苗。\$\@\$三、為提升雙北批發市場各從業人員篩檢意願，篩檢站設置應鄰近市場並配合其作業時間；專案結束後，仍延長篩檢站設置時間，以利周邊攤商及社區民眾就近篩檢，以社區清零。\$\@\$四、為加快篩檢速度且減少偽陰性及偽陽性情形，建議僅進行PCR採檢，提升篩檢作業效率；如檢驗陽性者，請地方政府衛生局落實後續疫調及接觸者匡列工作，並請提供疾管署彙整轉送居住地縣市，以進行後續疫調及匡列作業。\$\@\$五、考量雙北批發市場貨車司機及隨車捆工停留於市場時間較短暫，該類人員之篩檢、疫調及接種作業，將請臺北農產運銷公司提供人員名冊，由指揮中心轉居住地縣市政府辦理。\$\@\$六、推動北北基桃批發市場從業人員逐步施打疫苗，以雙北批發市場優先實施，所需疫苗均由指揮中心提供。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增104例COVID-19確定病例，均為本土個案；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之104例本土病例，為45例男性、59例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月10日至6月22日。個案分佈以新北市45例最多，其次為臺北市22例，高雄市及新竹縣各9例，桃園市7例，苗栗縣4例，基隆市3例，宜蘭縣2例，彰化縣、南投縣及屏東縣各1例。其中雙北地區以外縣市37例中，28例為已知感染源，5例關聯不明，4例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，為男性15位、女性9位，年齡介於40多歲至80多歲，發病日介於4月11日至6月14日，確診日介於4月13日至6月16日，死亡日介於6月13日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月21日累計公布12,879位確診個案中，已有9,041人解除隔離，解隔離人數達確診人數70.2%。\$\@\$指揮中心統計，截至目前國內累計1,148,916例新型冠狀病毒肺炎相關通報(含1,133,240例排除)，其中14,260例確診，分別為1,166例境外移入，13,041例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案14228)，累計101例移除為空號；自2020年起累計599例COVID-19死亡病例，其中591例本土，個案居住縣市分布為新北市301例、臺北市235例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月23日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國於今(2021)年6月18日及6月20日共計進口274萬劑莫德納(Moderna) COVID-19疫苗，預計於7月1日起配送至地方政府衛生局及指定醫療院所。自7月1日起，國內COVID-19疫苗接種對象(不限廠牌)擴增如下：\$\@\$1.第一類對象，醫事人員(包含醫事執登人員及醫事機構非醫事人員)\$\@\$2.第二類對象，中央及地方政府防疫人員、第一線處理大體之工作人員\$\@\$3.第三類對象，高接觸風險第一線工作人員\$\@\$4.第四類對象，因特殊情形必要出國者(因公出國者、外交駐臺員眷、代表國家出國之運動員或選手)\$\@\$5.第五類對象，包括「住宿型長照機構住民及其照護者」、「居家式和社區式長照機構及身障服務照服員及服務對象」、「其他機構(含矯正機關工作人員)」及洗腎患者，以及「矯正機關（構）工作人員」\$\@\$6.第六類對象，包括75歲以上長者及孕婦\$\@\$7.第七類對象，維持國家安全及社會機能正常運作者\$\@\$8.第八類對象，65-74歲長者\$\@\$9.已完成第一劑疫苗者，可依建議接種第二劑之時間，以同廠牌完成接種。\$\@\$指揮中心指出，第一批疫苗預計配送110萬劑，係以下列原則核估各縣市分配數量，並配送至各地方政府衛生局或其指定醫療院所：\$\@\$1.各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」與「其他機構(含矯正機關工作人員)」尚未接種人數\$\@\$2.各縣市莫德納(Moderna)COVID-19疫苗第一劑已分配數\$\@\$3.各縣市65-74歲長者30%人口數\$\@\$指揮中心說明，為確保維持國家及社會正常運作的相關基礎設施不受COVID-19疫情影響，第七類對象需經各中央主管機關認定並造冊，列為國家關鍵設施或維持設社會正常運作必要工作人員，並送指揮中心。經中央主管機關認定符合前述條件並造冊之對象，除了已陸續配送的國防軍事相關人員之外，包括高鐵、臺鐵、油氣水電與通訊等國家關鍵設施必要人員、全國第一線郵務處理人員、國家(含大考)等考試工作人員、高密度接觸孩童的幼兒園與國小安親班教育人員、托育機構人員、各類批發市場與屠宰市場工作人員、科學園區防疫工作人員、媒體第一線採訪工作人員、戶役政系統機房人員等。\$\@\$指揮中心表示，針對疫情較高風險的雙北等縣市，從事保母、計程車駕駛、外送員、國道客運司機、貨運司機、傳統市場合法攤商及賣場（含超商）收銀人員等，共計約50萬人，將特別納入此批COVID-19疫苗實施對象。上述對象的疫苗需求量將直接配送至各部會指定醫療院所。另，基於65-74歲長者一旦感染容易產生嚴重併發症或導致死亡，亦同時開放接種。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，依據世界衛生組織（WHO）監測報告，印度變異株(Delta)已在全球約92個國家現蹤並持續蔓延，不但具高傳播性及對風險族群容易造成重症或死亡；且美國疾病管制中心(CDC)、歐盟及相關文獻均指出，若資源許可，無論有、無症狀，隔離期滿皆須採檢，同時國內監測資料也顯示，部分居家隔離接觸者是於隔離期滿之自主健康管理期間陽轉為確定個案等綜合考量。指揮中心經與地方政府審慎討論取得初步共識，調整居家隔離及居家檢疫者相關採檢策略。\$\@\$指揮中心指出，除了原本隔離或檢疫期間「有症狀者」及經疫調之風險評估匡列之接觸者，應立即採檢外，對於COVID-19確定病例之密切接觸者及自國外入境者，即日起於居家隔離或居家檢疫期滿前1日，無論有無症狀者，均須進行PCR檢測。採檢所需相關費用均由政府支應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、在維持加強全國三級警戒等相關管制措施下，雙北市疫情已逐步趨緩，惟各縣市仍有零星爆發群聚事件發生，建議各縣市政府持續加強疫調及接觸者追蹤管理，以及早發現個案、控制疫情。另，端午節連假後對疫情之影響部分，目前尚未有相關影響發生，請各地方政府持續密切注意所轄區域疫情發展狀況，進一步強化社區篩檢及病例監測能力，以防止疫情反彈或新一波流行爆發出現。\$\@\$二、有關COVID-19疫情三級警戒期間，社區式長照服務雖暫時停止服務，但居家式長照服務及送餐服務仍會持續提供獨居失能長者。為因應防疫及持續關懷獨居長者生活與健康狀況，指揮中心就強化相關關懷服務訂定「COVID-19疫情三級警戒期間強化獨居長者關懷服務措施」，請各地方政府落實執行，重點包括：\$\@\$(一)強化服務機制部分：由地方政府整合社政、衛政、民政、警政單位及民間團體之力量，重新盤整資源，強化人力調度、支援及緊急處理機制。針對超過24小時聯繫未果之長者，建立緊急處理啟動機制結合網絡資源前往實地訪視。\$\@\$(二)加強關懷服務部分：針對列冊需關懷之獨居長者，由地方政府透過既有關懷服務體系，或協調由社區照顧關懷據點之專職人力及志工排班，每隔1日定時以電話或其他通訊方式關懷長者，了解其生活及健康狀況。針對暫未使用服務之長者，亦列為關懷對象，由地方政府協調照管中心、長照服務提供單位與鄰里資源，每隔1日定時以電話或其他通訊方式關懷長者。\$\@\$三、疫苗配發及接種：\$\@\$(一)指揮中心表示，有關各地方政府及外界關注之AZ疫苗自費施打第1劑之對象，其第2劑部分，以公費實施接種；另第1劑和第2劑施打不同廠牌疫苗部分，指揮中心目前建議第1劑、第2劑以施打同樣廠牌疫苗為主，不建議混合施打。\$\@\$(二)針對部分縣市將里鄰長納入第2類優先施打對象部分，指揮中心再次向地方政府説明，里鄰長等對象如確有實際執行居家檢疫、居家隔離等高風險對象之追蹤關懷、送餐、訪視等第一線工作，可納入第2類人員，請各地方政府確實查核，並應完成造冊作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，衛生福利部傳染病防治諮詢會預防接種組(ACIP)於6月20日召開第3次臨時會議，專家針對COVID-19疫苗工作小組歷次會議進行確認，討論COVID-19疫苗公費接種對象，經考量孕婦為 COVID-19 感染後容易產生嚴重併發症或導致死亡之族群，為保障懷孕婦女及胎兒健康，建議孕婦應接種COVID-19 疫苗並納入第六類優先接種對象。\$\@\$指揮中心指出，依據現階段國內外疫情及疫苗供貨情形，目前開放實施對象包括第一類至第三類、第五類之「住宿型長照機構住民及其照護者」、「洗腎患者」及第六類「75歲以上長者」及「孕婦」。此外提醒已接種第一劑AZ COVID-19疫苗者，請於間隔10至12週後完成第二劑接種，使疫苗發揮最大效益；指揮中心亦將於6月23日再就4月12日至5月9日前已接種第一劑之人數進行疫苗配發，以使民眾可陸續完成第二劑接種。\$\@\$另指揮中心進一步說明，莫德納(Moderna) COVID-19疫苗現階段作業為開放第一類至第三類人員及孕婦接種，惟顧及孕婦胎兒狀況及多重健康狀況考量，建議孕婦接種前應與醫師就風險效益詳細評估後，擇適合廠牌進行接種。\$\@\$指揮中心強調，將持續視疫情狀況及疫苗供貨情形，滾動調整開放接種實施對象，保障民眾接種權益，守護民眾健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增79例COVID-19確定病例，其中78例為本土個案，另有1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為35例男性、43例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月14日至6月21日。個案分佈以新北市43例最多，其次為臺北市25例，南投縣3例，基隆市2例，苗栗縣、彰化縣、桃園市、臺中市及新竹縣各1例。其中雙北地區以外縣市10例中，8例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性3位、女性3位，年齡介於50多歲至80多歲，發病日介於5月19日至6月19日，確診日介於5月28日至6月21日，死亡日介於6月17日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月20日累計公布12,806位確診個案中，已有8,087人解除隔離，解隔離人數達確診人數63.2%。\$\@\$指揮中心表示，今日新增1例境外移入個案（案14257）為本國籍50多歲男性，長期於印尼工作，6月20日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，6月21日出現喉嚨痛等症狀，由衛生單位安排就醫採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,107,543例新型冠狀病毒肺炎相關通報(含1,091,972例排除)，其中14,157例確診，分別為1,166例境外移入，12,938例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增2例空號 (案10380、案14131)，累計100例移除為空號；自2020年起累計575例COVID-19死亡病例，其中568例本土，個案居住縣市分布為新北市291例、臺北市223例、基隆市18例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日表示，為促使聘有移工的雇主加強落實防疫工作，勞動部已修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，明定下列雇主應辦理措施及建議事項：\$\@\$一、疫情期間雇主應辦理措施，包括移工的工作區及生活區應分艙分流，同產線移工應住宿於同一地點；不同雇主的移工不得混住、公共區域應依照移工住宿樓層分時段使用、每天進行移工健康監測及記錄移工出入足跡、接觸史與是否群聚等資料，並應備有1人1室隔離空間等。\$\@\$二、疫情期間建議雇主辦理事項，包括調整產線人員間距，或運用宿舍閒置空間，增加移工居住面積，以保持社交距離；協助移工購買物品，減少移工外出需求；針對有症狀的移工儘速安排篩檢，並於結果出來前預防安排居住1人1室等。\$\@\$指揮中心表示，基於近期苗栗縣有電子廠移工群聚感染案件，勞動部再強化移工工作及生活住宿管理，明定部分指引內容具有強制性質，後續將配合法規修正，要求雇主落實防疫措施，避免發生防疫破口。雇主在疫情期間，未依指引規範妥善辦理，將視情節輕重，要求雇主限期改善，或立即依就業服務法第57條第9款規定，處新臺幣6萬至30萬元罰鍰；此外，違規情節重大者，將再針對聘僱移工名額予以廢止或不予許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。\$\@\$勞動部已偕同地方政府分階段開始訪查全臺移工宿舍，對於先前待改善的雇主，將於近期辦理複查，並依新修正的指引要求雇主改善。另外，針對違反指引規定的企業雇主，將再與經濟部、科技部合作輔導，加強防疫。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增75例COVID-19本土確定病例，均為本土個案；另確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之75例本土病例，為35例男性、40例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月8日至6月20日。個案分佈以新北市38例最多，其次為臺北市22例，桃園市5例，苗栗縣3例，基隆市及臺中市各2例，高雄市、雲林縣及彰化縣各1例。其中雙北地區以外縣市15例中，15例為已知感染源；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性14位、女性6位，年齡介於50多歲至90多歲，發病日介於5月13日至6月16日，確診日介於5月16日至6月20日，死亡日介於6月2日至6月20日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月19日累計公布12,697位確診個案中，已有7,534人解除隔離，解隔離人數達確診人數59.3%。\$\@\$指揮中心統計，截至目前國內累計1,077,415例新型冠狀病毒肺炎相關通報(含1,061,624例排除)，其中14,080例確診，分別為1,165例境外移入，12,862例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計569例COVID-19死亡病例，其中562例本土，個案居住縣市分布為新北市289例、臺北市221例、基隆市18例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月21日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至今(2021)年6月19日止，國內接種AZ COVID-19疫苗共計1,446,608人次，其中314,487人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS)已收到67例接種AZ COVID-19疫苗後死亡之報告。截至目前為止，尚無死亡個案被判定為與疫苗相關。\$\@\$指揮中心指出，昨(19)日接種後死亡案件新增18件，皆於接種後4日內發生，15例為75歲以上長者，死亡個案大多數為高齡且有慢性疾病。此外，目前已有9例死亡案件送司法相驗解剖，經初步研判，部分個案死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續仍待司法相驗解剖或回溯檢查等更精確資料，以釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮，並適時對外因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另外，現在已開放診所及衛生所可接種疫苗，建議民眾就近前往接種，並注意防曬、補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，美國政府捐贈250萬劑Moderna COVID-19疫苗將於今日傍晚由華航專機運抵臺灣桃園國際機場，並於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此全球疫苗供不應求且疫情艱難時刻，對於美國即時援贈COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心毋任感荷。\$\@\$陳時中指揮官謹向美國政府與人民表達誠摯謝忱，同時重申臺美雙方將在去年簽署之合作瞭解備忘錄下，持續深化臺美醫衛、科學創新合作，共同對抗COVID-19疫情之威脅。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增109例COVID-19確定病例，分別為107例本土個案及2例境外移入；確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之107例本土病例，為57例男性、50例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年6月4日至6月19日。個案分佈以新北市44例最多，其次為臺北市31例，桃園市16例，臺中市6例，新竹縣4例，苗栗縣3例，彰化縣、宜蘭縣及基隆市各1例。其中雙北地區以外縣市32例中，27例為已知感染源、2例關聯不明、3例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增11例死亡個案，為男性5位、女性6位，年齡介於40多歲至90多歲，發病日介於5月14日至6月15日，確診日介於5月18日至6月16日，死亡日介於6月15日至6月18日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月18日累計公布12,572位確診個案中，已有7,496人解除隔離，解隔離人數達確診人數59.6%。\$\@\$指揮中心表示，今日新增2例境外移入中，案14020為菲律賓籍20多歲男性，5月13日自菲律賓來臺工作，持有搭機前3日內檢驗陰性證明，入境後至集中檢疫所檢疫，5月27日檢疫期滿採檢為陰性，由公司安排至其他住所進行一人一室隔離，6月13日由公司安排採檢陰性，18日再次採檢，於今日確診；個案在臺期間並無症狀，檢疫及自主健康管理期間均為一人一室，未與他人接觸，故無匡列接觸者。案14072為本國籍20多歲女性，6月18日自日本返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月19日因出現腹瀉、肌肉及關節痠痛、全身疲倦等症狀，由衛生單位安排就醫採檢，於今日確診；已匡列同班機旅客共1人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,063,890例新型冠狀病毒肺炎相關通報(含1,048,326例排除)，其中14,005例確診，分別為1,165例境外移入，12,787例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計98例移除為空號。自2020年起累計549例COVID-19死亡病例，其中542例本土，個案居住縣市分布為新北市274例、臺北市217例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月20日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至6月18日止，國內接種AZ COVID-19疫苗共計1,374,956人次，其中269,056人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS) 已收到49例接種AZ COVID-19疫苗後死亡之報告。\$\@\$指揮中心指出，昨(18)日接種後死亡案件新增24件，皆於接種後3日內發生，20例為75歲以上長者，死亡個案絕大多數為高齡長者且有慢性疾病。此外，經司法相驗解剖且有正式報告有4例個案(年齡介於70多歲至90多歲)，初步研判死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續還需有司法相驗解剖或回溯檢查等更精確資料釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另現有開放診所及衛生所可接種疫苗，建議就近前往接種，並注意防曬及補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，將自今(2021)年6月23日起，陸續配發AZ COVID-19疫苗至地方政府衛生局，提供先前已接種第一劑AZ COVID-19疫苗的民眾完成兩劑疫苗接種，以提升免疫保護力。\$\@\$指揮中心說明，截至6月18日止，已有2.7萬名民眾完成兩劑AZ COVID-19疫苗接種，核估目前可調度的剩餘疫苗數量，可提供4月12日至5月9日以前約6.7萬名已接種第一劑疫苗的民眾繼續接種第二劑AZ COVID-19疫苗，並視疫苗供應及接種情形，適時調整疫苗配發進度。\$\@\$指揮中心表示，根據世界衛生組織( World Health Organization, WHO)與醫學期刊「刺胳針」(The Lancet)等國外臨床試驗資料分析顯示，完成兩劑AZ COVID-19疫苗(間隔 80 天)的追蹤結果證實，可預防6成以上有症狀感染之風險；當接種間隔 12 週以上且完成 2 劑接種，保護力可達 81%。基此，我國衛生福利部傳染病防治諮詢會預防接種組（ACIP）專家建議兩劑AZ COVID-19疫苗接種間隔至少8週，而間隔10至12週再接種第二劑疫苗的效益更佳，故指揮中心籲請民眾可於第一劑接種後10-12週完成第二劑接種，使疫苗發揮最大效益。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，於接種後請在接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心也提醒民眾，接種AZ COVID-19疫苗後的28天內，如有發生嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當的臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增128例COVID-19確定病例，分別為127例本土個案及1例境外移入；確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之127例本土病例，為60例男性、67例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月18日。個案分佈以新北市81例最多，其次為臺北市30例，桃園市8例，新竹縣3例，新竹市、基隆市各2例，臺中市1例。其中雙北地區以外縣市16例中，12例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性10位、女性10位，年齡介於50多歲至90多歲，發病日介於5月13日至6月12日，確診日介於5月20日至6月17日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月17日累計公布12,385位確診個案中，已有7,189人解除隔離，解隔離人數達確診人數58%。\$\@\$指揮中心表示，今日新增1例境外移入，為本國籍10多歲男性，5月25日曾於印度確診，6月5日自印度返臺，持有搭機前3日內檢驗陰性證明，入境時採檢陰性，後至集中檢疫所檢疫，6月18日檢疫期滿前採檢，於今日確診(Ct值37)。個案檢疫期間並無症狀，亦無接觸他人，故無框列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,044,211例新型冠狀病毒肺炎相關通報(含1,028,898例排除)，其中13,896例確診，分別為1,163例境外移入，12,680例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增3例空號(案6822、案13764、案13800)，累計98例移除為空號。自2020年起累計538例COVID-19死亡病例，其中531例本土，個案居住縣市分布為新北市265例、臺北市215例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月19日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、考量目前國內社區傳播風險仍然存在，請高風險地區持續辦理擴大社區篩檢，雙北部分，建議社區篩檢站設置可以民眾就醫可近性為考量，發生零星案例之地方政府建議加強接觸者追蹤管理，以防堵疫情擴散；另請地方政府持續強化輕症個案之健康監測與轉診效率，尤其針對弱勢族群及獨居老人應提供主動關懷。另對於目前確診病例數持續緩降，爰請各地方政府回復著重疫調及接觸者追蹤管理作業，以利及早發現個案，降低死亡發生。\$\@\$二、疑似感染 COVID-19 之死亡案例死因相驗原則：\$\@\$1.關於相驗，現行法規適用無疑。\$\@\$2.疫情期間猝死個案一律PCR採檢，現階段由雙北地區先施行。\$\@\$3.PCR採檢執行部分：行政相驗由醫師執行，司法相驗由法醫採檢。\$\@\$4.相關檢驗費用由公務預算支出。\$\@\$三、診所辦理自費快篩收治指引及收費標準：\$\@\$1.檢驗方法：以抗原快篩為初篩方法，若為抗原快篩陽性，需以核酸檢驗進行確認。\$\@\$2.檢驗試劑：經食藥署核准防疫專案製造或輸入的SARS-CoV-2抗原快速檢驗試劑，提醒在購買及使用皆須事先確認是否符合相關法規。\$\@\$3.採檢人員：依據傳染病防治法第46條第1項第1款，確定病例的檢體，應該由醫師採檢為原則；疑似病例或社區通報採檢病例的咽喉或鼻咽拭子等接觸者檢體，則不限由醫師採檢，得由醫師或其他醫事人員採檢。\$\@\$四、疫苗配撥及施打部分：\$\@\$1.再次重申疫苗施打目標族群請依指揮中心造冊之對象，依序進行施打，避免造成施打亂象。至於各地方政府提出納入COVID-19疫苗接種對象之相關建議部分，指揮中心均會就各類人員可能受感染風險狀況，作為納入公費施打對象之評估與考量。\$\@\$2.鑒於天氣炎熱，對於年長者施打疫苗部分，請各地方政府儘量安排在地區診所或社區注射站進行，也可運用機動快打方式為長者提供施打服務，避免讓年長者因行程往返造成身體不適情形。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，並於今日邀集專家就「疫苗不良事件通報系統(VAERS)」通報的COVID-19疫苗接種後死亡個案進行討論。指揮中心表示，截至目前為止，尚未有死亡個案被判定為與疫苗相關。\$\@\$指揮中心統計，截至6月17日為止，國內接種AstraZeneca COVID-19疫苗共計1,273,121人次，其中229,566人次為75歲以上長者。又目前VAERS已收到25例接種AstraZeneca COVID-19疫苗後死亡之報告，其中20例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病；部分個案經司法相驗解剖後，初步死因與心血管疾病或慢性病史相關，惟迄目前為止，尚未有死亡個案被判定為與疫苗相關，指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$此外，指揮中心亦針對近期高齡者接種COVID-19疫苗，提供以下建議：\$\@\$1. 對於近期身體具狀況或慢性病情不穩定者，建議身體狀況較穩定後再接種。\$\@\$2. 近期天氣炎熱，考量長者身體狀況，建議避開高溫時段前往接種。\$\@\$3. 現有開放診所及衛生所可接種疫苗，建議就近前往接種。\$\@\$指揮中心提醒，所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日宣布，因應國內近期本土COVID-19確診病例疫情嚴峻，為利醫療院所照護重症個案、降低死亡率，將成立「COVID-19重症個案臨床處置專家諮詢小組」，由臺大醫院新竹臺大分院余忠仁院長擔任召集人，邀集全國22位重症個案臨床處置專家擔任諮詢委員，建立COVID-19重症個案處置諮詢平臺，並自6月21日(星期一)起，定期於星期一至星期五，每日晚間6時至8時，召開COVID-19線上重症病例諮詢會議，每日由3至5位諮詢委員，提供各醫療院所臨床重症個案處置意見，預定每次會議時間約為2小時。\$\@\$指揮中心表示，前已函請地方政府衛生局與相關學會轉知所屬醫療院所及會員，若醫療院所於診治COVID-19個案，有相關重症個案臨床處置諮詢需求，請於會議當日中午12時前，以電子郵件提交討論病例簡報、報告人姓名與聯繫資料至指揮中心醫療應變組公務信箱，以利會議討論。\$\@\$指揮中心說明，為降低重症個案死亡率，將「經鼻高流量濕化氧氣治療(Humidified high flow nasal cannula oxygen therapy, HFNCOT）」及「俯臥通氣治療(Prone positioning ventilation therapy)」，納入COVID-19確診個案公費給付項目，並回溯自5月1日起適用。\$\@\$指揮中心呼籲重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊需照顧好自己及隊友，若有相關重症個案臨床處置諮詢需求，務必儘速提請討論，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，第二批Moderna疫苗24萬劑，已於歐洲時間6月17日下午6時自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增188例COVID-19確定病例，分別為187例本土個案及1例境外移入；確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之187例本土病例，為83例男性、104例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月29日至6月17日。個案分佈以新北市76例最多，其次為臺北市71例，苗栗縣26例，桃園市6例，基隆市4例，臺中市2例，花蓮縣及新竹縣各1例。其中雙北地區以外縣市40例中，38例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，為男性12位、女性9位，年齡介於50多歲至90多歲，發病日介於5月6日至6月13日，確診日介於5月19日至6月15日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月16日累計公布12,210位確診個案中，已有6,873人解除隔離，解隔離人數達確診人數56.3%。\$\@\$指揮中心指出，今日新增1例境外移入個案(案13801)，為印度籍30多歲男性船員，3月5日自印度來臺工作，4月3日登船出海工作，期間並無症狀，6月16日返回我國港口，因出境需要，於同日採檢，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,011,097例新型冠狀病毒肺炎相關通報(含993,010例排除)，其中13,771例確診，分別為1,162例境外移入，12,556例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案13408)，累計95例移除為空號。自2020年起累計518例COVID-19死亡病例，其中511例本土，個案居住縣市分布為新北市255例、臺北市206例、基隆市17例、桃園市14例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日表示，疫苗接種是預防COVID-19感染、避免重症與死亡最有效的方式，全世界已有數億人接種過至少一劑疫苗，且COVID-19疫苗的安全性也正持續被監測當中。依過去經驗顯示，大規模疫苗接種與安全性監測時，會發現有部分人在疫苗接種後，發生對健康造成負面影響的事件，包括死亡。這些事件可能是由接種疫苗所導致，也可能與疫苗無關，僅是剛好發生在接種完疫苗後的巧合事件，相關死因皆仍待調查釐清。指揮中心亦將持續監測疫苗接種後不良事件，請國人放心。\$\@\$指揮中心說明，在大規模疫苗接種初期，大部分的接種對象均為年長者，並可能有潛在慢性疾病，使得這類疫苗接種後通報死亡的案件數量增加。因此需藉由回顧病歷資料或解剖釐清死因，調查這些事件是否可能與疫苗相關。此外，亦可藉由持續性自然死亡率的評估，觀察是否有疫苗安全性的疑慮。如根據109年度我國人口統計資料，75歲以上年中人口為1,433,286人，同年度75歲以上死亡人數為95,367人；故可得知，即便在未接種COVID-19疫苗的情形之下，預期平均每日都會有200多名75歲以上長者死亡。\$\@\$指揮中心統計，截至6月16日為止，國內共計1,133,515位民眾接種AstraZeneca COVID-19疫苗，其中174,098名為75歲以上長者。根據疫苗不良事件通報系統(VAERS)顯示，目前已收到11例接種AstraZeneca COVID-19疫苗後死亡之報告，其中8例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病。部分個案經解剖後已可確認死因。\$\@\$指揮中心強調，截至目前為止，尚未有死亡個案被判定為與疫苗相關。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應；同時提醒所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增175例COVID-19本土確定病例，另確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之175例本土病例，為100例男性、75例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月16日。個案分佈以新北市87例最多，其次為臺北市34例，苗栗縣31例，新竹縣10例，桃園市7例，花蓮縣、基隆市及臺中市各2例。其中雙北地區以外縣市54例中，53例為已知感染源、1例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案，共計為男性11位、女性8位，年齡介於40多歲至90多歲，發病日介於5月8日至6月12日，確診日介於5月15日至6月14日，死亡日介於6月8日至6月15日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月15日累計公布12,042位確診個案中，已有6,731人解除隔離，解隔離人數達確診人數55.9%。\$\@\$指揮中心統計，截至目前國內累計973,215例新型冠狀病毒肺炎相關通報(含951,005例排除)，其中13,584例確診，分別為1,161例境外移入，12,370例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計94例移除為空號；確診個案中497例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月17日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增170例COVID-19確定病例，分別為167例本土個案及3例境外移入；確診個案中新增18例死亡。\$\@\$指揮中心表示，今日新增之167例本土病例，為85例男性、82例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月1日至6月15日。個案分佈以新北市65例最多，其次為臺北市50例，苗栗縣21例，桃園市14例，花蓮縣8例，新竹縣5例，基隆市2例，高雄市及臺中市各1例。其中雙北地區以外縣市52例中，48例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增18例死亡個案，共計為男性9位、女性9位，年齡介於30多歲至90多歲，發病日介於5月7日至6月10日，確診日介於5月15日至6月11日，死亡日介於6月6日至6月14日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月14日累計公布11,907位確診個案中，已有6,373人解除隔離，解隔離人數達確診人數53.5%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13371、案13372均為菲律賓籍20多歲男性船員，分別於5月13日及5月5日自菲律賓來臺工作，皆持有搭機前3日內檢驗陰性報告，且居家檢疫期滿採檢結果均為陰性。2人為同船船員，在臺期間並無症狀，6月14日因出境需求，一同自費採檢，於今日確診；衛生單位已匡列2人接觸者共19人，均列自我健康監測。案13501為本國籍20多歲男性，5月24日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，檢疫期滿後於6月9日出現發燒、咳嗽症狀，就醫後返家持續自主健康管理，6月15日因症狀持續就醫採檢，於今日確診；衛生單位已匡列相關接觸者2人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計937,150例新型冠狀病毒肺炎相關通報(含914,861例排除)，其中13,409例確診，分別為1,161例境外移入，12,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另新增2例空號 (案12511、12767)，累計94例移除為空號；確診個案中478例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月16日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日指出，近日有媒體報導「國光在疫苗研發上，疑因試驗基準不公而慘遭淘汰」及「聯亞遭受衛福部刁難，所提的第三期臨床試驗替代方案遭漠視」等相關訊息，指揮中心嚴正澄清，衛生福利部食品藥物管理署(下稱「食藥署」)及財團法人醫藥品查驗中心(下稱「醫藥品查驗中心」)對於國內COVID-19疫苗臨床試驗計畫申請，皆採取一致性審查標準，包括諮詢輔導、召開週會及專家會議均一視同仁，秉持公平公正，提供最合適、最可行之法規科學建議，並無偏袒特定廠商。\$\@\$指揮中心表示，有關國光公司申請第二期臨床試驗一事，食藥署已於110年2月9日函復廠商審查結果，也於函中敘明食藥署之考量，絕無審查不公相關情事。另，有關報導所提聯亞公司提出「圈選接種 (Ring Vaccination)」的國內第三期臨床試驗規劃，食藥署及醫藥品查驗中心亦於諮詢週會給予相關建議，例如：如何選擇指標個案、樣本數估算、施打及追蹤時程、施打劑數之合理性等，供廠商進行相關評估，但截至目前食藥署仍未收到該廠商後續規劃及申請。\$\@\$指揮中心指出，考量疫情及國際公共衛生緊急需求，為加速國產疫苗及早上市，針對COVID-19疫苗研發及輔導，食藥署及醫藥品查驗中心採滾動式審查機制(rolling review)，並針對重要關鍵製程，派員駐廠監製，協助廠商於研發過程能符合法規要求，以縮短研發及審查時程，並確保疫苗品質、安全及療效。\$\@\$指揮中心表示，該中心採購COVID-19疫苗，包括先前採購國外疫苗，均為預採購模式。此次採購國產疫苗是依據政府採購法第105條第1項第2款「因人民之生命、身體、健康、財產遭遇緊急危難」辦理。惟採購合約細節基於保密要求，相關資訊暫不便對外透露。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日表示，將於6月18日起，配送第二批莫德納(Moderna) COVID-19疫苗73,200劑，同時開放第一類至第三類對象接種，請獲配之合約醫療院所開啟預約掛號服務，提供上述對象預約接種，提升群體免疫力。\$\@\$指揮中心說明，莫德納(Moderna) COVID-19疫苗已於6月9日起陸續提供第一類醫事及非醫事人員接種，截至昨(15)日累計接種3萬7,505人。為儘速提升第二類及第三類對象免疫保護力，將於6月18日起進行第二次配送，同時開放至第三類對象接種。本次疫苗配送量是以各縣市符合第一類至第三類對象中，尚未接種人數接種率４成核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）分配數量係以尚未接種人數接種率達5成以上計算，總計配送63,200劑。\$\@\$指揮中心表示，另10,000劑疫苗提供交通部認定之第二類及第三類對象所需疫苗量，其中分配給國籍航空機組員5,000劑，含長榮、立榮、華航、華信、台灣虎航、星宇及飛特立等7家公司的駕駛員、空服員與隨機維修員等；另外5,000劑分配給民航航空第一線人員，含桃園機場及相關廠商、民航局、航空站、航管人員、飛機維修、倉儲、地勤及空廚等人員。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。另，依據各國疫苗上市後安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等的不良反應事件，大多發生在接種後數天內，指揮中心特別提醒民眾，接種mRNA 疫苗後，應注意如出現胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，有關COVID-19疫苗，在世界各國及世界衛生組織指引中，皆將防疫人員與醫護人員列在優先施打對象，目的是為了執行疾病防治工作保護民眾，維持社會安定；而我國也將此類人員列為優先施打的對象。\$\@\$指揮中心進一步指出，第二類中央及地方政府防疫人員包含對象為：「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」、「港埠執行邊境管制之海關檢查(Customs)、證照查驗(Immigration)、人員檢疫及動植物檢疫(Quarantine)、安全檢查及航空保安(Security)等第一線工作人員」、「實際執行居家檢疫與居家隔離者關懷服務工作可能接觸前開對象之第一線人員(含警察、提送餐等服務之村里長或村里幹事、垃圾清運之環保人員、心理諮商及特殊狀況親訪等人員)」、「實際執行救災、救護人員(指消防隊及民間救護車執行緊急救護技術之第一線人員)」、「第一線海巡、岸巡人員」、「實施空中救護勤務人員」及協助防疫工作之國軍人員，該項下截至6/15已造冊人數計約16.2萬人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為提升目前優先接種COVID-19疫苗對象之接種率，將於6月17日起，依各縣市75歲以上人口比率，進行第二次疫苗撥配，預計配送394,800劑。\$\@\$指揮中心說明，自6月12日起，已陸續撥配68.8萬劑(含高風險縣市及中高風險縣市額外撥配2.49萬劑)至各地方政府衛生局，提供第一類至第六類優先對象(包括「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」)接種。為提升前揭對象接種率，本次疫苗配送量是以各縣市75歲以上長者人口數之26%核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）增配10%，中高風險縣市（桃園市、臺中市、基隆市、苗栗縣及彰化縣）增配5%，合計配送 385,800劑。加上前次疫苗撥配量，預估可讓全臺75歲以上長者接種率至少達53%。\$\@\$指揮中心指出，另考量部分縣市及離島縣市交通不便、疫苗配送不易且醫療資源相較不足，指揮中心規劃「離島-偏遠地區擴大接種計畫」，額外撥補臺東縣、屏東縣、澎湖縣、金門縣及連江縣共9,000劑疫苗，提供縣市依轄內接種需求規劃疫苗接種作業，其中連江縣撥配量將提前於6月16日配送。\$\@\$指揮中心特別提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為儘速發掘社區內可能潛藏病例，並有效斷絕所有感染鏈，該中心已於10日公布「社區廣篩4大策略」；今日並宣布，將補助各地方社區篩檢站50臺PCR檢驗儀器，居家自採與企業快篩陽性民眾，將可就近至社區第一線進行快速PCR檢驗。\$\@\$指揮中心指出，在廣設社區篩檢站方面，截至6月13日止，全國各地已開設249社區篩檢站，為加速社區第一線檢驗量能篩檢，今日宣布將補助各地方社區篩檢站50臺PCR檢驗儀器，未來居家自採與企業快篩民眾，若快篩結果呈現陽性，可就近至有快速PCR檢驗的社區篩檢站進行檢驗，並依照PCR檢驗結果及有無症狀進行後續措施(如附表)，形成全國社區防疫網。\$\@\$指揮中心表示，目前持續鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高的地區為考量，針對具有確診個案相關接觸史、活動史的無症狀民眾為主要篩檢對象。另為保全重度級急救責任醫院收治量能，請考量於社區健康中心、其他非重度級急救責任醫院及通風良好的場所，設置社區篩檢站。相關設置規定，可參考指揮中心訂頒的「各地方政府社區篩檢站設置指引」辦理。\$\@\$指揮中心再次提醒，所有篩檢工具皆有偽陰性、偽陽性的可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。 圖片 附件\$\@\$0615 COVID-19廣篩策略.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增135例COVID-19確定病例，其中132例為本土個案，另有3例境外移入；確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之132例本土病例，為62例男性、70例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月1日至6月14日。個案分佈以新北市65例最多，其次為臺北市26例，苗栗縣18例，桃園市12例，基隆市3例，臺南市、臺中市及花蓮縣各2例，嘉義縣及彰化縣各1例。其中雙北地區以外縣市41例中，33例為已知感染源、6例關聯不明、2例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，共計為男性3位、女性5位，年齡介於50多歲至90多歲，發病日介於5月15日至6月2日，確診日介於5月17日至6月8日，死亡日介於6月6日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月13日累計公布11,722位確診個案中，已有6,188人解除隔離，解隔離人數達確診人數52.8%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13305為20多歲印尼籍男性，5月8日來臺工作，持有搭機前3日內檢驗陰性報告，居家檢疫期滿及自主健康管理期滿時採檢均為陰性，6月13日因工作需求再次安排採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，且期間未與他人接觸，故無匡列接觸者。案13332、案13333分別為本國籍50多歲女性及未滿10歲男性，6月6日一同自秘魯返臺，持有搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，2人於6月11日出現發燒等症狀，6月14日通報衛生單位後安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計903,676例新型冠狀病毒肺炎相關通報(含881,495例排除)，其中13,241例確診，分別為1,158例境外移入，12,030例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中460例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月15日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心表示，今(15)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國推動加強三級警戒等管制措施，雙北疫情雖逐步趨緩，但指揮中心仍請雙北以外的部分縣市，密切注意疫情發展，須持續強化基層醫療檢驗及社區篩檢及病例監測之能力，針對弱勢族群及獨居老人更應提高注意，並加強疫調與接觸者管理及早發現個案，以防疫情反彈或出現新一波流行。\$\@\$二、有關疫苗配發及接種作業：\$\@\$(一)指揮中心再次向各地方政府說明，前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AZ疫苗，均以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各地方政府依比例公平、公開透明分配，指揮中心也會根據各地方政府之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業。\$\@\$(二)有關指揮中心已公布之目標接種族群，其疫苗施打不受戶籍地限制，請地方政府依序完成民眾預約接種作業；另地方政府建請指揮中心就目前開放施打對象重新評估研議部分，鑒於疫苗量有限，仍請各地方政府依造冊對象及接種計畫審慎作業，有關第七類施打對象部分，指揮中心正與相關機關進行盤點，也會參考地方政府建議，依實際狀況完備造冊作業。\$\@\$三、有關地方政府擬進行到宅接種作業，指揮中心尊重地方政府相關作業，惟請留意疫苗保存條件：須保存在2-8℃、開瓶後要在6小時內施打，避免晃動等。另應預先安排10人次進行施打，以利疫苗接種效率。\$\@\$四、針對出國留學之學生能否先予納入公費疫苗接種對象，鑒於國內疫苗供應需求，目前仍以臺灣社區防疫為主，暫不將上類人員納入公費施打對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$國際疫情持續嚴峻且變化快速，為確保國籍航空機組員職場健康及維護國內防疫安全，關於國籍航空公司機組員接種COVID-19疫苗後之檢疫措施，於交通主管機關監督航空公司落實外站「零接觸」管理、機組員「機上全程防護」及返國檢疫措施下，調整說明如下：\$\@\$一、重點高風險國家航線航班之返臺機組員，居家檢疫14天(結束日PCR檢驗)。\$\@\$二、長程航班(入境旅遊疫情第三級地區)：\$\@\$1. 尚未接種疫苗及接種1劑疫苗未達兩週者：110/6/12起，採5天居家檢疫(結束日PCR檢驗)+9天加強版自主健康管理(第9、14天抗原快篩)。7/1起，採7天居家檢疫(結束日PCR檢驗)+7天加強版自主健康管理(第14天抗原快篩)。\$\@\$2. 接種1劑疫苗且滿兩週，但尚未具完整疫苗保護力：110/6/12起，採3天居家檢疫(結束日PCR檢驗)+11天自主健康管理(第9、14天抗原快篩)。7/1起，採5天居家檢疫(結束日PCR檢驗)+9加強版天自主健康管理(第9、14天抗原快篩)。\$\@\$3. 完整接種2劑疫苗達兩週且抗體檢測陽性(每3個月監測)：採7天自主健康管理(結束日PCR陰性)。\$\@\$三、短程航班(當班往返且未入境旅遊疫情第三級地區)：110/6/12起，\$\@\$1. 未完整接種疫苗達兩週及抗體檢測陰性者：採14天自主健康管理+每14天PCR監測。\$\@\$2. 完整接種疫苗滿兩週且抗體檢測陽性者(每3個月抗體監測)：自我健康監測+每14天PCR監測\$\@\$指揮中心表示，自疫情以來，機組員肩負疫苗及輸送物資進出口，以維持空運貨物運能，對機組員的付出表示感謝。目前國籍航空機組員多數已接種第1劑疫苗，後續將保留其第2劑疫苗，確保其能獲得疫苗保護力。指揮中心特別提醒，因病毒株變異及傳播力難以預測，具疫苗保護力的機組員於執勤時，仍應遵守民用航空局訂定之作業規範，於外站「零接觸當地人」、機上全程防護及加強手部衛生清消頻率等，以維護個人及家人防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增185例COVID-19確定病例，均為本土個案；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之185例本土病例，為83例男性、102例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月28日至6月13日。個案分佈以新北市98例最多，其次為臺北市42例，基隆市14例，桃園市10例，苗栗縣7例，花蓮縣4例，彰化縣及新竹縣各3例，宜蘭縣2例，臺中市及雲林縣各1例。其中雙北地區以外縣市45例中，37例為已知感染源、5例關聯不明、3例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，共計為男性9位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月8日，確診日介於5月18日至6月13日，死亡日介於6月5日至6月13日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月12日累計公布11,547位確診個案中，已有5,802人解除隔離，解隔離人數達確診人數50.2%。\$\@\$指揮中心統計，截至目前國內累計886,014例新型冠狀病毒肺炎相關通報(含863,703例排除)，其中13,106例確診，分別為1,155例境外移入，11,898例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中452例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月14日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日就「第二類『中央政府防疫人員』及第三類『高接觸風險第一線工作人員』疫苗量，寄放於各縣市」一事，說明如下：\$\@\$一、指揮中心係以造冊名單核估各縣市第一類至第三類人員疫苗分配數量。前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AstraZeneca COVID-19疫苗，均以此原則估算。\$\@\$二、對於符合各類接種對象身分者，COVID-19合約醫療院所均不得以任何方式拒絕及妨礙該等對象接種，惟未限定須為其保留疫苗數量，故無所謂「寄放」之問題，如未及時接種，地方政府可依現行優先接種對象，安排接種作業。\$\@\$三、考量先前第二類、第三類對象之接種作業，有些地方政府以各縣市所屬機關人員優先接種，而拒絕為符合第二類之「中央政府防疫人員」接種，爰本次疫苗分配時，特別提醒各地方政府衛生局，應提供工作地點位於該縣市之「中央政府防疫人員」及「高接觸風險第一線工作人員」接種疫苗。該數量係以機關/工作所在地位於該縣市，且尚未接種人數之6成估算，提供各地方政府參考使用。\$\@\$指揮中心再次重申，配送予各地方政府之疫苗數量，是以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日表示，有關網傳總統、副總統已接種COVID-19疫苗，經總統及副總統授權由中央流行疫情指揮中心調閱「全國性預防接種資訊管理系統(NIIS)」系統查證，蔡英文總統及賴清德副總統均尚未接種COVID-19疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增251例COVID-19確定病例，分別為250例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之250例本土病例，為116例男性、134例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月28日至6月11日。個案分佈以新北市133例最多，其次為臺北市65例，基隆市16例，桃園市13例，苗栗縣9例，花蓮縣3例，宜蘭縣、新竹市、彰化縣及臺中市各2例，高雄市、雲林縣、新竹縣各1例。其中雙北地區以外縣市52例中，45例為已知感染源，7例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性16位、女性10位，年齡介於40多歲至100多歲，發病日介於5月15日至6月9日，確診日介於5月18日至6月11日，死亡日介於6月4日至6月11日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12698)，為本國籍40多歲女性，5月30日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫旅館進行居家檢疫，於6月9日出現發燒等症狀，6月10日由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，累計845,113例新型冠狀病毒肺炎相關通報(含821,956例排除)，其中12,746例確診，分別為1,154例境外移入，11,539例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增5例空號 (案9332、10323、10337、10353、12078)，累計92例移除為空號。確診個案中411例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月12日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日下午由行政院秘書長李孟諺、指揮中心社區防疫組組長薛瑞元與各縣市政府衛生局召開「COVID-19疫苗接種作業推行協調會」，針對不同年齡與族群的疫苗接種策略，進行相關經驗交流與分享；會議重點如下：\$\@\$請地方衛生機關每日確實將接種名冊上傳，以利及時掌握接種進度及疫苗撥配相關事宜。\$\@\$日本政府提供我國的124萬劑AstraZeneca疫苗，開放75歲以上長者(含65歲以上具原住民身分者)施打，只要為民國35年12月31日(含)以前出生者，或具原住民身分之證明文件且為民國45年12月31日(含)以前出生者，均符合接種資格。同時，75歲以上長者，不限其居住地或戶籍地，均可就近完成接種作業。\$\@\$各地方政府的疫苗接種策略不同，大部分縣市採預先造冊、由民政單位通知方式辦理，另有部分縣市採用院所預約方式，惟請採預約方式之縣市，宜加速擴充電話線路及服務人力，使施打作業更為順暢。\$\@\$另，指揮中心提醒，目前第一類尚未完成接種COVID-19疫苗較多之縣市，請加速疫苗接種作業，使民眾儘早獲得疫苗保護力。\$\@\$為避免人潮擁擠，請各地方政府以分齡、分流、分批辦理，減少群聚風險。\$\@\$另，由於食品藥物管理署加速完成該批COVID-19疫苗檢驗封緘作業，以及物流業者鼎力協助提前於今日深夜開始配送，明(12)日將有50萬劑陸續運抵各地方政府，考量地方政府需前置作業時間，指揮中心表示，疫苗開打日仍以 6月15日為原則辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、雙北疫情趨勢雖持平惟仍舊嚴峻，指揮中心持續鼓勵各縣市增設社區篩檢站，以便及早發掘潛在陽性個案，阻斷社區傳播鏈；另鑒於重症及死亡數攀升對社會之衝擊與影響較大，也請各地方政府持續掌握及協調醫療資源，迅速應變。\$\@\$二、針對疫苗配撥及施打作業：\$\@\$(一)指揮中心再次強調，中央與地方應秉持「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂「COVID-19疫苗接種順序」，進行施打作業。\$\@\$(二)有關各地方政府關切疫苗配撥量部分，指揮中心會儘速完成第一類至第六類符合施打對象之計算，並加速進行疫苗撥發作業。另鑒於現行國內疫苗量仍無法全數完成上開類別人員之施打，亦請各地方政府審慎妥予規劃相關施打作業之進行。\$\@\$(三)請地方衛生機關加強向合約醫療院所宣導，針對符合接種順序者，應讓其以最方便之方式就近完成接種作業，不侷限接種者居住地、工作地或戶籍地區分，避免造成人流移動情形；另有關疫苗施打類別，針對公費疫苗接種第七類有關維持國家安全及社會機能正常運作者之匡列部分，指揮中心將會再進一步研議，俾符實際運作狀況。\$\@\$三、衛生福利部醫事司與內政部消防署已協調民間18家救護車業者，自今日起投入防疫救護載運工作，將進行醫院、集中檢疫場所間，點到點之病患運送作業，預計至少有108部民間救護車加入防疫工作，以有效舒緩消防機關救護工作之壓力。\$\@\$四、請各地方政府鼓勵觀光飯店業者發動「暖心方案」，提供醫護人員以及相關醫事人員入住，讓第一線醫事人員可以獲得充分及妥適休息。\$\@\$五、鑒於暑假將屆，有關大專院校學生暑期生活管理作業，教育部前於5月26日及6月8日2度要求各級學校，應強化住宿生管理，並不得強制要求住宿學生返家。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，指揮中心已採購複合單株抗體藥物，將提供具有重症風險因子之輕中度確診個案治療使用，以降低個案轉為重症需住院之風險，協助紓解重症醫療量能。\$\@\$指揮中心指出，依據國際研究顯示，新冠病毒感染患者輕症比率大約佔8成左右，但其中約9％的患者可能惡化為重症，主要的重症危險因子有高齡、肥胖、慢性腎病、心血管疾病/高血壓、慢性肺病、免疫抑制疾病/免疫抑制治療等影響免疫功能之疾病，以及懷孕等，且其病程演化迅速，甚至導致死亡。截至本(110)年6月10日監測資料，國內輕中度COVID-19確診病例約佔所有確診個案84%，死亡病例數佔確診病例2.7%。\$\@\$指揮中心表示，國內新冠肺炎(COVID-19)疫情持續嚴峻，重症醫療量能持續緊繃，鑒於單株抗體之療效及安全性已有部分證據支持，美國FDA及國際間已陸續發布緊急使用授權(EUA)核准於臨床使用，以治療輕度至中度SARS-CoV-2感染且有重症危險因子之高風險患者，降低個案轉為重症需住院之風險。指揮中心經諮詢專家，已將該藥物之使用建議納入我國新型冠狀病毒(SARS-CoV-2)感染臨床處置暫行指引，並著手採購儲備該藥物，規劃分配於集中檢疫場所之主責醫院，經醫師評估治療效益與風險，並充分告知後，給予符合條件個案注射治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增287例COVID-19確定病例，分別為286例本土及1例境外移入；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之286例本土病例，為141例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月19日至6月10日。個案分佈以新北市120例最多，其次為苗栗縣56例、臺北市49例、桃園市19例、新竹縣12例、基隆市8例、彰化縣7例、臺中市4例、宜蘭縣及新竹市各3例、雲林縣及花蓮縣各2例、臺南市1例。其中雙北地區以外縣市117例中，109例為已知感染源，8例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，共計為男性12位、女性12位，年齡介於50多歲至80多歲，發病日介於5月3日至6月8日，確診日介於5月15日至6月10日，死亡日介於6月2日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12479)，為泰國籍30多歲男性移工，2月7日曾在泰國當地檢出COVID-19陽性，3月23日自泰國來臺工作，持有搭機前3日內檢驗陰性報告，4月7日檢疫期滿採檢結果為陰性，6月8日出現發燒及咳嗽症狀，6月10日就醫採檢，於今日確診(Ct值31，次日再驗核酸檢測陰性，血清抗體陽性)；已匡列個案接觸者13人，皆列為居家隔離。\$\@\$指揮中心統計，累計804,931例新型冠狀病毒肺炎相關通報(含781,334例排除)，其中12,500例確診，分別為1,153例境外移入，11,294例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增9例空號 (案6616、9671、10339、10348、10350、10359、10452、11381、11865)，累計87例移除為空號。確診個案中385例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增266例COVID-19確定病例，其中263例為本土個案，另有3例境外移入個案。確診個案中新增28例死亡。\$\@\$指揮中心表示，今日新增之263例本土病例，為124例男性、139例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月22日至6月9日。個案分佈以新北市112例最多，其次為臺北市58例、苗栗縣43例、桃園市14例、基隆市12例、彰化縣10例、花蓮縣7例、南投縣及新竹縣各2例，宜蘭縣、臺東縣及臺南市各1例。其中雙北地區以外縣市93例中，84例為已知感染源，5例關聯不明，4例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增28例死亡個案，共計為男性21位、女性7位，年齡介於50多歲至90多歲，發病日介於5月13日至6月8日，確診日介於5月16日至6月9日，死亡日介於6月1日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增3例境外移入個案中，案12214為本國籍30多歲男性，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案12293為本國籍30多歲男性，4月14日自奈及利亞返臺，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀；因需再次出境，於6月9日自費採檢後確診；相關接觸者匡列中。案12294為本國籍40多歲女性，曾於4月9日及30日於美國當地完成2劑Pfizer/BioNTech疫苗接種，並於6月3日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後返家進行居家檢疫，6月7日出現咳嗽、流鼻水等症狀但未就醫；6月9日，個案的同住家人出現發燒症狀，經就醫採檢後確診，故同日安排個案採檢，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，累計769,990例新型冠狀病毒肺炎相關通報(含746,817例排除)，其中12,222例確診，分別為1,152例境外移入，11,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增12例空號 (案2550、2977、6445、7162、7379、9729、10340、10354、10355、10356、10524、11849)，累計78例移除為空號。確診個案中361例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$針對臺北市政府提供好心肝診所一千多劑COVID-19 疫苗，且該診所未依指揮中心之規定，提供非屬一到三類醫護人員之一般民眾施打一事，中央流行疫情指揮中心今(9)日嚴正表示，此事嚴重影響尚未施打疫苗之基層醫護人員權益，有人漠視規定，明知故犯，情節重大，指揮中心將由司法單位依法徹查，還原真相，並追究相關人員應負之法律責任。\$\@\$指揮中心指出，該診所之醫護人員多已至院外接種COVID-19疫苗，而指揮中心也尚未許可基層診所提供COVID-19疫苗接種服務，臺北市政府竟無視相關規定，任意將多達一千多劑疫苗撥給該診所，既違反規定，也不合情理；而該診所短時間內即施打一千多劑，究竟是何人被通知前往施打，有無特權介入，事不單純，也不尋常，其中過程實令人合理懷疑是否有違法濫權之事。\$\@\$指揮中心強調，基於維護及確保疫苗施打之合法性及公平性的職責，絕不容許類此情形再度發生，破壞綱紀，並將交由司法單位調查本案之始末，釐清真相，還原事實，以瞭解其中是否有人謀不臧、私相授受，甚至偽造文書或違法圖利之相關犯罪嫌疑，以明法紀，並昭公信。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$有關COVID-19疫苗放置臺北市醫院，提供中央造冊之外國使節等施打一事，中央流行疫情指揮中心今(9)日表示，因特殊情形必要出國者，可由各該主管機關提具需求說明、預估接種人數及時程，向中央流行疫情指揮中心以專案方式，申請接種公費COVID-19疫苗。目前已專案申請接種對象包括我國因外交或公務需求奉派出國者、代表我國出國之運動員或參賽選手等。另基於互惠原則，駐臺外交人員及其在臺眷屬亦屬專案同意接種對象。針對此類專案指揮中心會視疫苗進口期程及供應量整體評估提供。\$\@\$指揮中心進一步說明，考量該類專案對象其工作地點多位於臺北市，且其工作性質需分批次接種，故依專案需求，撥配疫苗至單位指定院所，提供該類對象接種；目前撥配及接種狀況如下：\$\@\$一、疾病管制署庫存30瓶，係供該署尚未接種第一劑及須接種第二劑之防疫人員接種，本週預計接種30人次，並依照業務安排陸續完成接種。\$\@\$二、三軍總醫院附設民眾診療服務處計配送70瓶，提供國軍協助防疫旅館消毒之化學兵接種，已全數接種完畢。\$\@\$三、臺北市立仁愛醫院計配送180瓶，係提供華航機師及機組員接種，截至目前約250人尚未接種，預計本週完成接種。\$\@\$四、三軍總醫院北投分院計配送100瓶，供總統護衛等國安人員接種，截至目前，尚有250人未接種，庫存14 瓶，預計本週完成接種。\$\@\$五、臺北醫學大學附設醫院，係提供食品藥物管理署員工接種，已全數接種完畢。\$\@\$六、臺大醫院配送20瓶，供指揮中心委託研究計畫之研究對象使用，已全數接種完畢。\$\@\$七、指揮中心另請臺北市榮民總醫院協助接種外交使節、因公務需求有必要出國者及代表國家出國之運動選手疫苗接種事宜，目前約400人還未接種。\$\@\$指揮中心強調，針對上述指揮中心同意列冊施打對象，總計配送650瓶疫苗，目前已接種共計5,400人次，尚未接種為1,200人次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增275例COVID-19確定病例，其中274例為本土個案，另有1例境外移入個案。確診個案中新增25例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為142例男性、132例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至6月8日。個案分佈以新北市162例最多，其次為臺北市63例，桃園市15例，苗栗縣12例，基隆市10例，彰化縣及南投縣各3例，宜蘭縣2例，臺南市、嘉義市、臺中市及新竹縣各1例。其中雙北地區以外縣市49例中，43例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增25例死亡個案，共計為男性20位、女性5位，年齡介於50多歲至90多歲，發病日介於5月11日至5月30日，確診日介於5月17日至6月5日，死亡日介於5月29日至6月7日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案（案12033），為本國籍50多歲男性，5月1日於印度曾有相關症狀，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，累計739,818例新型冠狀病毒肺炎相關通報(含717,016例排除)，其中11,968例確診，分別為1,149例境外移入，10,766例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號 (案11069)，累計66例移除為空號。確診個案中333例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日澄清，有關媒體報導某臺北診所開放民眾連夜施打 COVID-19疫苗案，指揮中心重申，有關現階段COVID-19疫苗之撥配，係由各地方政府統籌分配予所轄合約醫療院所，針對於合約醫療院所提供接種服務，應符合目前公費接種對象優先順序，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市，則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。另針對3月22日至4月11日已完成第一劑之公費對象，於間隔10至12週後，開放接種第二劑。\$\@\$指揮中心說明，針對媒體所報導之情事，已請臺北市政府衛生局進行瞭解及處理，另指揮中心聲明，合約醫療院所提供接種服務應符相關規範，並落實感染管制相關指引，同時應規劃維持社交距離避免群聚感染。如經查執行其接種作業有違指揮中心相關接種政策或實施對象者，可依傳染病防治法第29條處以30萬至200萬罰鍰；也再次強調中央與地方「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂之COVID-19疫苗接種順序，進行施打作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心表示，今(8)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、近期國內疫情仍處高峰期，因感染而死亡的個案增加，指揮中心將持續與地方政府掌握及協調醫療資源，迅速應變，請地方政府衛生機關加強設置社區篩檢站，提高民眾採檢可近性，降低社區擴散風險。\$\@\$二、針對端午節連假前後，南北往返的大眾運輸系統購票率以及各觀光景點飯店住房率，指揮中心均與相關部會保持密切聯繫，持續掌握人流狀況，適時強化防疫措施；請各地方政府加強連假期間易造成人潮聚集區域的人流管控，同時呼籲民眾暫緩返鄉，減少人流移動。\$\@\$三、加強及落實移工防疫管理部分：\$\@\$(一) 針對北部電子工廠發生群聚感染案件，指揮中心已成立前進指揮所，協助相關廠區緊急應處，也請地方政府協助企業團體強化因應措施。\$\@\$(二) 勞動部昨(7)日已發布實施「暫停移工轉換至新雇主」，以及「暫緩雇主調派移工至其他廠區工作」作業，力求降低移工人流，並修訂「雇主聘僱移工指引」，增訂「企業因應疫情處置」；勞動部另將儘速發布補助要點，補助雇主因移工隔離以及宿舍降載，所須支出之必要防疫措施費用。\$\@\$四、針對大賣場及傳統市場的人流管制，屬高風險地區的地方政府已加強推動實聯制，並運用身分證單、雙號分流，進行人流管控。此外，經濟部已與地方政府研商擬訂5大措施，以加強傳統市場人流管制，請其他地方政府配合施行。\$\@\$五、針對COVID-19疫苗的分配與接種，請各地方政府及醫療院所依據指揮中心所訂之疫苗接種順序，進行施打作業。\$\@\$六、 經考量疫情進展與防疫量能餘裕，快篩陽性及輕症、無症狀確診者收治原則調整如下：\$\@\$(一) 快篩陽性尚未確診者：雖仍得採居家隔離一人一室，因考量收治量能餘裕已擴大，同意各縣市如量能足夠，得一律安排收住於集中檢疫場所，或加強型防疫旅館，並請地方政府再次盤點相關量能。\$\@\$(二) 輕症、無症狀確診者：應儘速收治於集中檢疫場所及加強型防疫旅館。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增219例COVID-19確定病例，均為本土個案。確診個案中新增22例死亡。\$\@\$指揮中心表示，今日新增之219例本土病例，為117例男性、102例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月22日至6月7日。以新北市123例最多，其次為臺北市54例，苗栗縣16例，桃園市13例，基隆市8例，彰化縣2例，臺南市、新竹市及臺中市各1例。其中雙北地區以外縣市42例中，36例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增22例死亡個案，共計為男性15位、女性7位，年齡介於30多歲至100多歲，發病日介於5月13日至5月30日，確診日介於5月18日至6月4日，死亡日介於5月30日至6月7日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計698,373例新型冠狀病毒肺炎相關通報(含675,836例排除)，其中11,694例確診，分別為1,148例境外移入，10,493例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增16例空號 (案7378、9643、10704、10856、11304、11305、11306、11378、11379、11380、11382、11383、11385、11386、11393、11396)，累計65例移除為空號。確診個案中308例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$疾病管制署今(7)日表示，本(2021)年4月接獲醫院通報，一名住中部之5歲女童流感輕症病患之呼吸道檢體分離出無法次分型之A型流感病毒，經該署進一步檢驗並進行基因定序為H1N2v流感病毒。經調查個案密切接觸者6名，其中3人有類流感症狀，經檢驗均未發現H1N2v流感病毒感染，經邀集農政單位及相關醫學與獸醫專家召開會議討論，依上述現有流行病學調查結果研判，本案應屬散發個案，與國際過去案例類似，無證據顯示有人傳人現象，衛生及農政單位亦將持續加強人類、動物與環境之監測。\$\@\$疾管署指出，這名女童未曾出國，家中從事禽畜養殖業，本年3月12日出現流鼻水及咳嗽症狀，3月13日開始發燒，3月14日因持續發燒而就醫，流感快篩為A型陽性，經醫師評估無需住院，開立流感抗病毒藥劑後返家，目前已康復。4月5日自該名女童呼吸道檢體分離出H1N2v流感病毒，另針對呼吸道感染常見病毒如腺病毒、呼吸道融合病毒、冠狀病毒、腸病毒及鼻病毒等進行檢測，均呈陰性反應。此外，農政單位亦自病例家族經營之養豬場豬隻採集檢體檢驗，結果未檢出H1N2流感病毒。\$\@\$國際間H1N2為存在豬隻的低病原性流感病毒，很少在人群中傳播，但偶爾有人類感染之報告，全球2012-2021年累計30例H1N2v流感確診病例，分布於美洲地區，以美國為多，其次為巴西，病例多具有豬隻暴露史或曾暴露於受汙染環境，並不會透過食用肉品而感染。本次由病患所分離之病毒基因序列，與本土過去於豬隻分離之H1N2流感病毒株最為接近，但不相同，對克流感及瑞樂沙等抗病毒藥物敏感。\$\@\$疾管署提醒，防範新型A型流感，民眾應遵守「5要6不」原則，「5要」：肉類及蛋要熟食、要以肥皂澈底洗手、出現症狀，要戴口罩速就醫並告知職業及接觸史、與禽畜長期接觸者要接種流感疫苗、要均衡飲食及適當運動；「6不」：不生食禽鳥蛋類或製品、不走私及購買來路不明肉品、不接觸或餵食動物、不野放及隨意丟棄動物、不將飼養動物與其他禽畜混居、不去空氣不流通或人潮壅擠的場所。相關資訊可至疾管署全球資訊網（https://www.cdc.gov.tw/），或撥打免費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日表示，為促使聘有移工企業落實防疫工作及員工確診應變處置，勞動部採取以下四大措施：\$\@\$一、增訂企業因應疫情之處置：將修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，並自下列規範公告之日起實施：\$\@\$（一）廠區未發生或部分廠區發生疫情時，應備有1人1室隔離空間、工作區及生活區應分艙分流，同產線移工應同一住宿地點、不得任意變動、每天進行員工健康監測由專人確認、追蹤及轉送疑似症狀者採檢並隔離。\$\@\$（二）廠區有1名員工確診後，應即匡列職場密切接觸者，並確實執行居家隔離於有單獨衛浴設備之套房。衍生隔離費用，必要時將由勞動部部分補貼。\$\@\$二、訪查潛在高風險企業：勞動部偕同地方政府已開始訪查，針對產業聘僱移工人數達50人以上宿舍共計1, 168家，預計6月10日訪查完畢。\$\@\$三、補助移工隔離及宿舍降載：勞動部將補助雇主必要防疫措施的部分費用，包括移工採檢後隔離期間費用，及鼓勵雇主降載移工每房居住人數轉住租賃建物、一般旅館或防疫旅館費用，並協調地方政府受理申請。\$\@\$四、加強宣導防疫措施：已於6月6日以「LINE@移點通」主動推播、發布新聞稿、移工權益網站、1955臉書及多國語廣播電臺，呼籲移工非必要不要外出，提醒桃竹苗地區之家事移工，注意自身健康情形，若有症狀或接觸史，儘速登記快篩。\$\@\$指揮中心表示，近期苗栗縣電子廠之移工群聚感染案件，勞動部已駐點前進指揮所現場，協助個案雇主與仲介公司，加強移工防疫及預防感染擴大：\$\@\$一、清理個案宿舍及進出管制：協助清空共用衛浴之移工宿舍，部分移工送集中檢疫所、部分隔離於其他有獨立衛浴房間，其餘人員禁止外出及限制出房門。\$\@\$二、實地關懷移工給予支持：自6月6日起，派駐雙語人員於前進指揮所，協助疫調翻譯，並每日早晚放送廣播關懷移工、關懷每日健康監測狀況，並啟動隔離移工關懷機制，由1955專線雙語人員主動電話關懷隔離移工情緒給予心理支持，及提供防疫包(溫度計、口罩、消毒用品、家鄉零食、1955專線電話、Line@移點通）。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增214例COVID-19確定病例，分別為211例本土個案及3例境外移入個案。確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之211例本土病例，為106例男性、105例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年5月21日至6月6日。個案分布地區以新北市82例最多，其次為臺北市60例，苗栗縣45例，彰化縣8例，新竹市、桃園市、澎湖縣及基隆市各3例，宜蘭縣、嘉義縣、屏東縣及新竹縣各1例。其中雙北地區以外縣市69例中，64例為已知感染源，1例有萬華區活動史，4例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性20位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月2日，確診日介於5月12日至6月5日，死亡日介於5月31日至6月6日，詳如新聞稿附件。\$\@\$指揮中心表示，今日新增3例境外移入中，案11500、案11501分別為40多歲及20多歲菲律賓籍男性，5月15日來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，6月5日自主健康管理期滿前自費採檢，於今日確診。案11052為本國籍40多歲男性，6月5日自印度返臺，持有搭機前3日內陰性報告，入境時無症狀，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計671,160例新型冠狀病毒肺炎相關通報(含648,841例排除)，其中11,491例確診，分別為1,148例境外移入，10,290例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另49例(新增案10772、10826、10829、11143、11144、11146、11147、11148、11149、11155、11177、11179、11184、11190、11193、11194、11225、11227、11228、11229、11230)移除為空號。確診個案中286例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日宣布，因應本土疫情持續嚴峻，全國疫情警戒第三級延長至6月28日止，請全國民眾與政府共同持續努力，嚴守社區防線。相關措施如下：\$\@\$一、民眾外出應全程佩戴口罩，一經查獲有違反情事，將不再勸導，逕予開罰。\$\@\$二、經公告應關閉的休閒娛樂場所，將嚴查不得營業，並對違法營業的業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$六、關閉休閒娛樂場、觀展觀賽場所及教育學習場域。\$\@\$七、停止室內5人以上、室外10人以上之家庭聚會(同住者不計)和社交聚會，並避免不必要移動、活動或集會。\$\@\$八、自我健康監測，有症狀應就醫。\$\@\$九、營業場所及洽公機關(構)應落實人流管制，戴口罩、保持社交距離。\$\@\$十、職場及工作處所應遵守企業持續營運指引的防疫規定，落實個人及工作場所衛生管理，啟動企業持續營運因應措施，如異地或遠距辦公、彈性時間上班。\$\@\$十一、公共場域、大眾運輸加強清消。\$\@\$指揮中心說明，針對近期醫院及長照機構感染事件，指揮中心已請全國醫院停止開放探病(例外情形除外)，住院病人的陪病者以1人為限，執行至全國三級警戒降級為止。至於長照機構，除停止開放機構住民探視，也要求非必要性特殊情況，盡量避免住民請假外出，並強化門禁管理，避免不必要的人員進出，同時持續落實每日工作人員、服務對象與陪住人員等體溫及健康監測，掌握其COVID-19暴露風險情形。\$\@\$指揮中心強調，現在是防疫的關鍵時刻，惟有民眾與政府互相配合、共同抗疫，才可控制疫情，維護全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，目前我國COVID-19疫苗優先提供公費對象接種，民眾不用負擔疫苗費用，6月7日起也無須負擔其他行政費用。未來將會依序逐漸擴大至全體國民皆能公費接種，目前更無自費接種規劃，並無所謂「自費負擔」之問題存在。今(2021)年5月31日經立法院三讀通過的「嚴重特殊傳染性肺炎防治及紓困振興特別條例」，加上去年所編列之疫苗預算，行政院已編列共約340億用來購買全民公費疫苗，今年則額外編列約40億元預算，用以負擔疫苗接種所需之醫療院所行政費用，讓符合公費資格者，在面對疫情挑戰時，不用擔心還要花錢施打疫苗。\$\@\$指揮中心表示，現階段開放的公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放的公費對象，也將視疫苗供應充裕情況，逐步列入公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增335例本土COVID-19確定病例，另有校正回歸本土個案8例，總計343例。確診個案中新增36例死亡。\$\@\$指揮中心表示，今日新增之335例本土病例，為189例男性、146例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月24日至6月5日。另校正回歸個案8例中，為3例男性、5例女性，年齡介於20多歲至60多歲，發病日介於6月1日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共343例，分布地區以新北市160例最多，其次為苗栗縣75例、臺北市64例、桃園市16例、宜蘭縣9例、雲林縣、高雄市、彰化縣及新竹縣各3例，基隆市、臺中市及臺南市各2例，嘉義市1例。其中雙北地區以外縣市119例中，107例為已知感染源，7例關聯不明、5例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增36例死亡個案，共計為男性22位、女性14位，年齡介於50多歲至90多歲，發病日介於5月7日至6月1日，確診日介於5月13日至6月5日，死亡日介於5月28日至6月4日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計656,768例新型冠狀病毒肺炎相關通報(含634,762例排除)，其中11,298例確診，分別為1,145例境外移入，10,100例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另28例(新增案10494)移除為空號。確診個案中260例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日表示，針對苗栗縣電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、所有外籍移工停止上班，居家隔離，薪資照付。\$\@\$二、高風險區移工安排入住集中檢疫所；中低風險區就地居家隔離，並進行健康監控。\$\@\$三、本國籍員工確診者立即進行疫調，匡列接觸者，依規定進行隔離。其餘員工，加強健康監控。\$\@\$四、所有確診者皆已完成就醫安置。\$\@\$五、經工業局、防疫醫師及廠方進行會勘，依防疫計畫有條件降載復工。\$\@\$指揮中心指出，截至6月5日，第1家電子公司共計182案確診 (24名本國籍、158名外國籍），已匡列接觸者399名；第2家電子公司共計12案確診 (均為外國籍)；第3家電子公司共計12案確診 (2名本國籍、10名外國籍)。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，有關昨(5)日公布之「自6月7日起，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務」新聞稿之內容，是指因應國內疫情嚴峻，指揮中心自6月7日起將依序提供符合「COVID-19疫苗接種計畫」之公費對象免費接種疫苗，相關施打順序將由指揮中心依據專家會議規定計畫，評估群體風險性，陸續開放施打。\$\@\$指揮中心表示，現階段開放之公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗之第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放之公費對象，也將於後續儘快開放公費接種。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，為推動COVID-19疫苗大規模接種作業，指揮中心已編列經費約40億元並自2021年6月7日（一）起實施獎勵COVID-19疫苗合約醫療院所作業。指揮中心指出，特別條例修法於5/31經立院三讀通過後，相關預算也於6/3於行政院會通過，用於請合約醫療院所免費提供民眾COVID-19疫苗接種服務，另還有編列費用補助22縣市政府，及辦理社區和大型接種站的所需經費，以加速全民接種速度，儘早達成群體免疫效果。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。\$\@\$指揮中心提醒，目前開放之公費接種對象，雙北地區為第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者優先接種；雙北以外之縣市為未曾接種疫苗之第一類醫事人員為接種對象，並視疫苗接種進度，逐步開放至第二、三類及機構對象。而未開放之公費對象，將於後續陸續開放公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關COVID-19確診及死亡個案資訊都有公開，所有確診個案已於5月30日及6月1日公布，死亡個案亦於5月31日公布，絕未有隱匿疫情不公布之情事。對於民眾及死者家屬造成誤會，已請衛生單位與其聯絡說明並表達歉意。\$\@\$指揮中心表示，1922若接獲民眾進線詢問就醫疑問或需求，都會提供民眾所在地方衛生單位電話，以利地方衛生單位及時安排就醫事宜。如民眾聯繫衛生單位發現電話無法接通等問題，均可隨時撥打1922專線，由專人協助處理。\$\@\$指揮中心指出，抗病毒藥物瑞德西韋自6月1日起，醫院已可存放，目前存放醫院有：臺大醫院、臺北市立聯合醫院5院區、新北市立聯合醫院、亞東醫院、馬偕醫院(台北、淡水)、陽明交通大學附設醫院、部立臺北醫院、林口長庚醫院。主治醫師經評估有使用本藥劑需求，即可直接領用存放於醫院之藥劑。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$鑒於本土疫情嚴峻，應絕對禁止廠區和廠區間的移工流動。中央流行疫情指揮中心今(5)日表示， 地方政府及勞動部應協助苗栗某電子廠公司的移工避免離開宿舍，並於這段期間與地方政府合作，減少移工不必要的外出，以減少移工群聚發生。\$\@\$指揮中心指出，請雇主及仲介公司自即日起，配合辦理下列事項：\$\@\$一、自即日起針對移工非必要轉換至新雇主之作業，於第三級警戒期間暫緩作業。\$\@\$二、自即日起針對同一雇主不同廠區間的派工，於第三級警戒期間暫緩調派。\$\@\$三、確實依照勞動部發布嚴重特殊傳染性肺炎雇主聘僱移工指引，辦理防疫作業。\$\@\$指揮中心強調，基於國內防疫安全，近期將由勞動部與地方政府針對移工人數達五百人以上企業與百人以上大型移工宿舍進行訪查，實地督導雇主與仲介業者落實防疫指引，並請勞動部規劃補助企業改善宿舍防疫環境，以強化防疫量能。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，針對苗栗縣2家電子公司廠房發生COVID-19群聚事件，指揮中心已於昨(4)日設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關作為如下：\$\@\$一、加速篩檢執行：昨日經動員後於第1家電子公司共開設18條篩檢線，每小時可執行350-500人次篩檢，截至昨日（6/3-6/4）共完成採檢4,599人，累計抗原快篩陽性59人，其中PCR檢驗共56人陽性確診、3人陰性。今日進行其餘約2,451人之採檢，截至中午尚餘約1,500人待採，將於今日完成採檢工作。\$\@\$二、宿舍、職場及外部風險評估及安置：針對第1家電子公司確診個案之宿舍及廠區分布，劃定風險區域，安排相關宿舍樓層之清空及人員區隔安置，密切接觸者送集中檢疫所或防疫旅館居家隔離，今日預計移出280位。另第2家電子公司之相關接觸者已匡列安排隔離安置及採檢，該公司亦於今天展開全員約4千人篩檢。\$\@\$三、由經濟部即刻派遣產業專家進駐前進指揮所，協助防疫醫師與電子場規劃廠區作業、休息及用餐等活動之分艙分流，如無法執行，即要求停工。\$\@\$四、由勞動部即刻派員確保仲介公司之移工管理，落實住宿人數降載及確保分艙分流，並就仍需共用衛浴之宿舍環境問題予以解決；移工宿舍人員禁止外出部分，加強管理並協調警政協處。\$\@\$五、為避免本國勞工將疫情帶入社區，請該公司緊急通知員工留置家中，如家庭環境無法落實一人一室者，公司應協助安排合適住宿地點。\$\@\$指揮中心指出，截至6月4日，第1家電子公司共計131案確診（14名本國籍、117名外國籍），已匡列接觸者323名，均已採檢；第2家電子公司共計9案確診。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增476例COVID-19本土個案確定病例；另有校正回歸本土個案35例，總計511例。確診個案中新增37例死亡。\$\@\$指揮中心表示，今日新增之476例本土病例，為248例男性、205例女性，另有23例外籍人士性別待確認，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月15日至6月4日。另校正回歸個案35例中，為15例男性、20例女性，年齡介於未滿10歲至80多歲，發病日介於今年5月24日至6月1日。\$\@\$指揮中心指出，綜上所有本土個案共511例，以新北市229例最多，其次為臺北市144例，苗栗縣66例，桃園市16例，基隆市13例，彰化縣11例，臺中市9例，新竹縣7例，屏東縣4例，南投縣、高雄市及嘉義縣各3例，新竹市、雲林縣及臺南市各1例。其中雙北地區以外的縣市，138例中121例已知感染源，16例關聯不明，1例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增37例死亡個案，共計為男性25位、女性12位，年齡介於30多歲至90多歲，發病日介於5月2日至5月30日，確診日介於5月15日至6月2日，死亡日期介於5月23日至6月2日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計636,500例新型冠狀病毒肺炎相關通報(含614,742例排除)，其中10,956例確診，分別為1,145例境外移入，9,758例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另27例(新增案9984)移除為空號。確診個案中224例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月5日新增死亡COVID-19確診個案表 - 更正版.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$疾病管制署表示，國內近期受鋒面及熱帶低氣壓影響，各地皆有豪大雨發生，加以氣溫偏高，利於病媒蚊生長。疾管署呼籲，民眾平時應做好環境孳生源清除，及做好防蚊措施，如有疑似症狀儘速就醫，避免讓登革熱有機可乘。\$\@\$疾管署統計，今(2021)年截至目前累計5例登革熱病例，均為境外移入，分別自菲律賓、越南、印尼及柬埔寨移入，目前尚無本土病例；同期累計病例數低於2018-2020年(72、179、53例)。\$\@\$疾管署表示，近日國內各地持續有降雨機會，雨後若未及時清理環境積水容器，易成為病媒蚊孳生的溫床，籲請民眾雨後應落實「巡、倒、清、刷」，仔細巡視戶內外容器，是否有潛在孳生源，如花瓶、花盆底盤、廢棄瓶罐、水桶、運動場設施的廢輪胎、樹洞、竹筒及植物葉腋(檳榔、椰子落葉)、黃金葛或萬年青水瓶等，並澈底清除，以降低病媒蚊孳生的風險。若有運用水桶、儲水箱等容器儲水，務必加蓋或是覆蓋細紗網，並須留意紗網不可接觸水面，避免成為孳生源。\$\@\$民眾如出現疑似登革熱症狀，應儘速就醫，並主動告知旅遊活動史。也請醫療院所提高警覺，加強詢問就診者之TOCC(旅遊史、職業史、接觸史、群聚史)，並可使用登革熱NS1快篩試劑輔助診斷並及早通報，以利衛生單位採取防治工作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，因應國內疫情持續嚴峻，為利醫療院所照護COVID-19重症個案，指揮中心於今日上午10時辦理「COVID-19 Clinical Rounds：新冠病毒重症個案臨床處置」線上課程，由臺大醫院新竹臺大分院余忠仁院長主持。課程內容包括臺大醫院新竹臺大分院余忠仁院長主講「新型冠狀病毒(COVID-19)重症個案臨床處置」；及臺大醫院隔離加護病房主任阮聖元主任主講「新型冠狀病毒(COVID-19)個案之隔離加護病房照護實務經驗分享」，總計約3,900名急重症醫師及照護團隊共同線上參與，且踴躍提出臨床實務問題，並由講者現場即時回應。\$\@\$指揮中心指出，為強化COVID-19急重症臨床處置，指揮中心提供急重症醫療照護團隊不受時間和地點限制的學習平台，錄製數位學習課程，急重症醫療照護團隊可運用手機、平版、電腦等電子裝置進行線上學習，本課程已置於衛生福利部疾病管制署全球資訊網/嚴重特殊傳染性肺炎(COVID-19)防疫專區/數位學習課程( http://at.cdc.tw/x0l31N ) 專區，或點選網址( https://youtu.be/UyHsM82JU-c )，歡迎各界多加利用。\$\@\$指揮中心再次呼籲，重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊要顧好自己，也要顧好隊友，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增341例COVID-19確定病例，分別為339例本土個案及2例境外移入個案；另有校正回歸本土個案133例，總計474例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之339例本土病例，為170例男性、169例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月1日至6月3日。另校正回歸個案133例中，為57例男性、76例女性，年齡介於未滿5歲至80多歲，發病日介於5月18日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共472例，分布地區以新北市227例最多，其次為臺北市152例、苗栗縣51例、桃園市11例、臺中市及基隆市各7例、彰化縣6例、新竹市及南投縣各2例，花蓮縣、宜蘭縣、新竹縣、屏東縣、高雄市、嘉義縣及雲林縣各1例。其中雙北地區以外縣市93例中，1例有萬華活動史，76例為已知感染源，14例關聯不明、2例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，共計為男性14位、女性7位，年齡介於30多歲至90多歲，發病日介於5月15日至5月27日，確診日介於5月21日至5月30日，死亡日介於5月27日至6月2日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案10211為越南籍30多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日檢疫期滿採檢，於今日確診；個案在臺期間並無症狀，已掌握接觸者7人，列居家隔離。案10470為印尼籍40多歲男性，5月14日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，5月29日檢疫期滿由公司安排自費採檢，結果為陰性；因工作需要，6月3日再度至醫院自費採檢，於今日確診；個案在臺期間並無症狀，接觸者調查匡列中。\$\@\$指揮中心統計，截至目前國內累計606,921例新型冠狀病毒肺炎相關通報(含585,272例排除)，其中10,446例確診，分別為1,145例境外移入，9,248例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另26例(新增案9199、案9868)移除為空號。確診個案中187例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，針對苗栗縣某電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、前進指揮所指派衛福部醫福會執行長王必勝擔任指揮官，並由疾管署防疫醫師介入指導緊急防疫措施及疫調。\$\@\$二、請仲介公司儘速盤點移工名單，以利各相關電子廠預作準備及人員分流。各相關電子廠及宿舍須增設篩檢點，加速找出個案，快篩陽性者優先送至集中檢疫所及加強型防疫旅館，快篩陰性者加強衛教，相關翻譯作業已請勞動部協處。\$\@\$三、相關移工宿舍人員於近三日（6月4、5、6日）休假，禁止外出；移工宿舍內部需進行人員降載、分流，擴大社交距離。廠區工作須將移工與本國勞工分流，避免造成進一步社區傳染。\$\@\$四、請地方落實大量篩檢之檢體分流作業，確保檢驗結果即時通報上傳，並須保留及擴大醫療收治量能，為後續收治重症病患預做準備。\$\@\$指揮中心表示，5月30日接獲該電子廠通報，有2名居住在公司宿舍的菲律賓籍移工採檢陽性，衛生單位隨即進行擴大匡列與採檢。截至6月3日，該電子廠共計67名確診個案（含8名本國籍、59名菲律賓籍)，已匡列接觸者323名，並已採檢321人。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，日本政府提供124萬劑AstraZeneca疫苗預定於今日下午2時40分運達桃園國際機場。本批疫苗待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此疫情艱難，且全球疫苗產能供不應求之際，對於日本即時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關強化全國指定檢驗網PCR量能及分流，指揮中心將持續擴充指定COVID-19檢驗網絡最大量能，建立責任區制與分流機制，包括：同縣市與同區分流、跨縣市與跨區分流、以及人員分工，以提升檢驗網PCR檢驗量能及消化積件壓力。\$\@\$二、有關地方建置加強型防疫旅館規格將比照集中檢疫場所，派駐相關維護安全作業之地方員警及其他相關工作人員，原則比照集中檢疫場所處理機制，可申請相關防疫津貼。\$\@\$三、鑒於部分縣市發生企業群聚案件，提醒各地方政府如有類此案件發生應儘快完成篩檢作業，以及確實進行相關隔離作為，並要求企業、團體落實員工自主健康管理，遵守防疫相關措施，預防群聚事件再度發生。\$\@\$四、各地方社區採檢站之設置運用人力，請以基層醫事人力為主，儘量避免運用醫療院所人力，以利醫療量能有效運用；另各地集中檢疫場所病患之安置，應以源頭進行分流。\$\@\$五、為加快疫調速度，儘速掌握確診者足跡，請各地方政府成立客服中心，強化及組織公衛人力運用，有效進行確診者足跡前端掃瞄追蹤作業，以利及早掌握確診者足跡，匡列出可能遭感染者，有效圍堵疫情。\$\@\$六、針對疫苗配發接種，請各地方政府依報送指揮中心之造冊對象順位依序施打；另指揮中心完成疫苗檢驗封緘作業，將儘速撥發地方安排進行接種事宜。\$\@\$七、外傳各地方仍有賽事進行，為顧及國內防疫安全，請各地方政府協助宣導，暫緩舉辦此類非必要性活動。\$\@\$八、端午連假將至，疫情指揮中心呼籲，民眾以視訊問候家人方式取代返鄉團聚，也將請交通部與高鐵、台鐵及公路運輸業者聯繫協調，將連假期間的公共運輸量進行降載，以避免民眾流動導致病毒傳染散布。\$\@\$九、賣場及傳統市場為COVID-19高風險傳染區域，為避免成為防疫破口，請各縣市政府呼籲民眾少去多買、一次購足。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增366例COVID-19確定病例，分別為364例本土個案及2例境外移入個案；另有校正回歸本土個案219例，總計585例。確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之364例本土病例，為186例男性、178例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月28日至6月2日。另校正回歸個案219例中，為120例男性、99例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月31日。\$\@\$指揮中心指出，綜上所有本土個案共583例，分布地區以新北市265例最多，其次為臺北市224例、苗栗縣34例、桃園市30例、彰化縣15例、臺中市5例、基隆市4例、臺南市2例，新竹市、花蓮縣、宜蘭縣及高雄市各1例。其中雙北地區以外縣市94例中，77例為已知感染源，14例關聯不明、3例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，共計為男性13位、女性4位，年齡介於40多歲至90多歲，發病日介於5月12日至5月25日，確診日介於5月14日至5月27日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案9567為印尼籍20多歲男性，5月5日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，在臺期間並無症狀，於25日自主健康管理期滿前，由公司安排自費採檢結果為陰性，後因工作需要，6月1日再次自費採檢，於今日確診；已掌握個案接觸者32人，其中21人列居家隔離，餘11人列自我健康監測。案9883為越南籍20多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計578,935例新型冠狀病毒肺炎相關通報(含556,055例排除)，其中9,974例確診，分別為1,143例境外移入，8,778例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例移除為空號。確診個案中166例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月3日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，為保障國人健康，使國民即早獲得群體免疫保護力，將推動COVID-19疫苗大規模接種作業，並陸續辦理整備作業，包含三大面向：\$\@\$一、    持續擴增COVID-19疫苗接種合約醫療院所，納入基層診所共同提供接種服務。\$\@\$二、    訂定「COVID-19疫苗接種站設置作業指引」，推動包含社區接種站、大型接種站及外展服務等疫苗接種站設置，並透過醫療院所人力及衛生福利部護理及健康照護司所招募籌備之疫苗注射護理隊人力，共同協助設置工作。未來公務機關、軍營及企業等，可藉由外展服務，安排疫苗接種以即早獲得保護力。\$\@\$三、    建立「疫苗接種預約平台」，提供民眾預約服務，增進接種便利性。\$\@\$指揮中心表示，後續疫苗逐續到貨，將運用大規模接種作業，推動COVID-19疫苗全民接種，保障全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，針對近期國內接種AstraZeneca COVID-19疫苗後嚴重不良反應事件，衛生福利部傳染病防治諮詢會預防接種組(ACIP)已於5月31日召開專家諮詢會議進行討論，確認我國首例因接種AstraZeneca COVID-19疫苗後，引發血栓併血小板低下症後群(Thrombosis with Thrombocytopenia Syndrome, TTS)之案例。該名民眾經臨床警覺與及時診治，症狀已改善並轉至普通病房持續觀察中。與會專家於綜整相關資料後表示，截至目前國內AstraZeneca COVID-19已接種461,647人次，本例為我國首例TTS個案，發生率為百萬分之2.1，其他國家如英國於接種第一劑後TTS發生率約百萬分之12.3(截至5月1日)，歐盟則為百萬分之6.5(截至4月4日)，建議指揮中心應持續監測疫苗接種不良反應事件，並建議符合接種對象之民眾應配合疫苗供應進度，接種COVID-19疫苗。\$\@\$指揮中心說明，本案為30多歲男性，於5月12日接種第一劑AstraZeneca COVID-19疫苗後，曾出現發燒等身體不適症狀，於3日後逐漸緩解。自５月19日起，出現微燒、持續頭痛、腹痛等症狀，就醫抽血檢查後，發現血小板低下，D-dimer異常升高等，同步影像學檢視頭部、腹部雖未發現血栓病兆，經臨床研判依「血栓併血小板低下症候群(Thrombosis with Thrombocytopenia Syndrome, TTS)臨床指引」及時診治，個案目前血小板值恢復中，狀況穩定。本案經專家審查，符合布萊頓合作組織(Brighton Collaboration)病例定義，研判為我國首例TTS個案。\$\@\$指揮中心呼籲，接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增372例本土COVID-19確定病例，另有校正回歸本土個案177例，總計549例。確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之372例本土病例，為207例男性、165例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月2日至6月1日。另校正回歸個案177例中，為96例男性、81例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月30日。\$\@\$指揮中心指出，綜上所有本土個案共549例，分布地區以新北市310例最多，其次為臺北市152例、桃園市28例、基隆市18例、苗栗縣12例、彰化縣10例、高雄市5例、臺東縣4例、臺中市3例，新竹縣及臺南市各2例，新竹市、南投縣及花蓮縣各1例。其中雙北地區以外縣市87例中1例有萬華活動史，65例已知感染源，21例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，共計為男性7位、女性5位，年齡介於60多歲至90多歲，發病日介於5月13日至5月29日，確診日介於5月16日至6月1日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計551,478例新型冠狀病毒肺炎相關通報(含524,385例排除)，其中9,389例確診，分別為1,141例境外移入，8,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例(新增案7666、案8854)移除為空號。確診個案中149例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，連江縣政府5月31日、澎湖縣、金門縣政府6月1日逕為公告入境旅客接受COVID-19抗原快篩一事，此舉違反「傳染病防治法」第17條第1項及第37條第3項等相關法律規定，於中央流行疫情指揮中心成立期間，應依中央流行疫情指揮中心指揮官之指示辦理，已由衛生福利部依行政程序法第117條規定予以撤銷其公告。\$\@\$指揮中心說明，為達防疫工作之事權統一，按「傳染病防治法」第17條第1項規定，中央主管機關經考量國内、外流行疫情嚴重程度，認有統籌各種資源、設備及整合相關機關(構)人員之必要時，得報請行政院同意成立中央流行疫情指揮中心，並指定人員擔任指揮官，統一指揮、督導及協調各級政府機關、公營事業、後備軍人組織、民間團體執行防疫工作；必要時，得協調國軍支援；同法第37條第3項規定，於中央流行疫情指揮中心成立期間,應依中央流行疫情指揮中心指揮官之指示辦理。\$\@\$指揮中心指出，指揮中心前於今(110)年5月17日函請各地方政府，於嚴重特殊傳染性肺炎中央流行疫情指揮中心成立期間，務請遵循傳染病防治法相關規定程序公布防疫措施，若有需依「傳染病防治法」第37條第1項規定採行相關防疫措施，仍請地方政府遵循「傳染病防治法」第37條第3項規定，應依指揮官指示辦理，以利整體防疫業務之執行。又檢疫政策之決定依「傳染病防治法」第5條第1項第1款第1目之規定，是屬中央主管機關權責，地方政府應依中央主管機關之決策，始得據以執行，而指揮官近日也公開宣示：「中央決策、地方執行」，此乃權限分際的原則問題。\$\@\$指揮中心強調，值此疫情嚴峻時刻，對國內跨縣市移動採取人員進出之管制作為，或要求民眾強制篩檢等，均屬全國一致性之重要政策，指揮官再三強調中央與地方應「標準一致、說法一致、腳步一致」防疫原則，且已建立全國疫情會議機制，統合協調，避免各自為政，致生雜沓混亂影響整體防疫，為統一事權並維護法制，不得不撤銷上開違法公告。該等縣政府如仍有地方防疫之特殊需求，請正式提出計畫報請指揮官指示辦理，以符合權責並完備法律程序。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、指揮中心均依各地方政府之請撥，全數撥交防疫物資數量，並同意各地方醫療院所調高防疫物資安全存量；此外自今日起配發雙北市2倍安全存量，請各地方政府持續關注各醫療院所及第一線防疫人員口罩使用情形，以符合防疫相關指引規定。另鑒於汛期已屆，也提醒地方政府妥適保存防疫物資，防止物資受潮毀損。\$\@\$二、為利COVID-19重症確診者之收治，請各地方政府衛生局配合，每日利用google表單將確診者動向回報指揮中心，以掌握資訊及有效進行醫療資源分配；另鑒於雙北市重症收治個案眾多，將要求各重度級急救責任醫院加開專責ICU病房；高風險區域須跨區轉診就醫者，則運用醫療綠色通道配對協助轉診，相關轉診所運用之民間救護車輛費用由指揮中心支應。\$\@\$三、企業辦理抗原快篩檢測係屬企業內部對員工健康監測之一環，採企業自主與篩檢自費方式進行，且需由醫事人員執行採檢。考量抗原快篩仍有偽陽或偽陰性機率，企業執行抗原快篩時，如為陽性者，依規定須進行通報及PCR檢測，同時也須提供隔離安置場所，例如返回可隔離的宿舍或居家隔離(一人一室為原則)，也可安置於防疫旅館，等待PCR檢驗結果，降低傳染風險；如為陰性者，仍需進行自我健康監測。指揮中心將於近日對外發布企業快篩指引供各界遵循。\$\@\$四、針對臺北松山、臺中、嘉義、臺南及高雄小港等5個航空站設立篩檢站等事宜，昨(5/31)日由指揮中心邀集交通部、各航空站及地方政府衛生局共同研議，重點包括：\$\@\$1、由交通部研議縮減往返澎湖、金門、馬祖等離島3縣市航班之可行性，減少民眾不必要之跨區域移動，降低傳播風險。\$\@\$2、「因應新冠肺炎(COVID-19)疫情國內機場飛往離島執行快速篩檢」作業，將依傳染病防治法相關規定於今(6/1)日完成公告等法制程序，並自6月2日起實施。\$\@\$3、臺東航空站是否比照進行快篩，已請臺東縣政府本於職權，依指揮中心所訂原則與實施基準辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日表示，因應國內近期持續出現本土COVID-19確診個案，為避免疫情散播及確保航空器防疫安全，指揮中心經評估後，將同意交通部民航局所屬臺北松山、臺中、嘉義、臺南及高雄小港航空站設立篩檢站。旅客搭乘國內航線前往離島時，應於搭機前填寫「健康聲明書」，現場有症狀者不可搭機，且應配合病毒核酸檢測；若為過去14天內有症狀者，須現場配合接受抗原快篩檢驗且為陰性，始得搭機。經抗原快篩檢驗陽性的旅客，將由航空站安排搭乘防疫計乘車送至衛生單位指定防疫旅館或集中檢疫所。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增278例COVID-19確定病例，分別為274例本土個案及4例境外移入個案；另有校正回歸本土個案73例，總計351例。確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為129例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月30日。另校正回歸個案73例中，為36例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於5月14日至5月29日。\$\@\$指揮中心指出，綜上所有本土個案共347例，以新北市171例最多，其次為臺北市122例，桃園市27例，彰化縣10例，臺中市5例，基隆市及苗栗縣各3例，新竹市2例，花蓮縣、澎湖縣、高雄市及新竹縣各1例。其中293例有雙北活動史，其餘縣市54例中2例有萬華活動史，46例已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案（案1778、2111、2616、2656、2658、2795、3143、4936、5698、5732、6803、7140、7277、8031、8134），共計為男性9位、女性6位，年齡介於60多歲至90多歲，發病日介於5月11日至5月28日，確診日介於5月17日至5月30日，死亡日期介於5月21日至5月29日，詳如新聞稿附件。\$\@\$指揮中心指出，新增4例境外移入個案中，皆持有登機前3日內檢驗陰性報告。案8419、案8531、案8532分別為本國籍30多歲男性、50多歲女性及50多歲男性，分別曾於4月29日(案8531)、5月10日(案8419、8532)出現相關症狀，3名個案於5月29日自印度返臺，入境後至檢疫所集中檢疫並採檢，於今日確診。案8434為本國籍40多歲男性，5月14日自南非返臺，入境後至防疫旅館進行居家檢疫，29日出現相關症狀，由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計502,354例新型冠狀病毒肺炎相關通報(含466,018例排除)，其中8,511例確診，分別為1,137例境外移入，7,321例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中124例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月31日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，疫苗自製自用是國家既定政策，未來COVID-19流感化是必然的趨勢，國家必須掌握COVID-19疫苗為戰略物資，本次所有疫苗，包括政府之前對外採購的國外疫苗，均為預採購模式。\$\@\$指揮中心說明，針對AstraZenca及Moderna疫苗，該二疫苗是在第二或第三期臨床實驗未完成前，即進行預採購。\$\@\$指揮中心指出，衛生福利部疾病管制署於今(2021)年5月28日與高端疫苗生物製劑有限公司及聯亞生技開發股份有限公司簽訂「國內COVID-19疫苗採購契約」，每家各500萬劑疫苗，並視未來疫情需求，納入後續擴充每家各500萬劑疫苗。\$\@\$指揮中心強調，考量疫苗接種涵蓋率是充分發揮防治效益的關鍵因素，爰以涵蓋我國人口之65%為規劃，預計為1,500萬人接種，以每人2劑估算，需3,000萬劑疫苗。目前已完成採購COVAX、AstraZenca及Moderna疫苗約2,000萬劑，需再採購1,000萬劑。截至5月28日衛福部取得87.66萬劑進口疫苗，但評估現階段國外疫苗供應時程難以確認，相較之下，採購國產疫苗可確實掌控疫苗供貨時程。\$\@\$指揮中心指出，因全球疫苗生產原物料短缺，疫苗的生產及檢驗至少需要2-3個月的作業程序，為避免因等待疫苗研發程序完成，屆時無法購得原物料而喪失即時生產疫苗的時機，因此基於保障國人最佳利益前提下，以預購模式向國內外廠商採購COVID-19疫苗，以預先保有所需之疫苗數量，俾利廠商於取得專案核准製造許可後，可儘速提供國人接種，保障國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，為積極防治國內COVID-19疫情，針對中央機關、地方政府及醫療院所之防疫物資需求，均會全力支援並儘速供應，與地方政府共同攜手為守護第一線人員及國人健康而努力。據指揮中心統計，自今(2021)年5月3日至5月27日期間，已撥配一般醫用/外科口罩4508餘萬片、N95口罩240萬餘個、隔離衣161萬件、防護衣約27萬餘件，共計逾4900萬個/件。\$\@\$指揮中心指出，為爭取防疫時效、加速防疫物資撥發效率，撥發中央機關、地方政府及醫療院所之防疫物資，除增加原來定期性撥配數量與頻率外，另依觀光局提供地方防疫旅宿房間數、COVID-19確定病例數計算，主動撥配物資予各地方政府統籌撥發轄區醫療院所、防疫旅宿及公務機關作為防疫及醫療使用。指揮中心亦會依中央機關、地方政府、醫療院所緊急防疫需求，額外撥發所需物資。\$\@\$為因應COVID-19病患之醫療照護需要，指揮中心針對特定緊急需要，已緊急採購血氧機、呼吸器、製氧機及採檢亭等醫療器材、設施，提供病患及醫護人員更妥適之照護及工作環境，維護民眾與醫護人員的健康。\$\@\$另，為使防疫物資撥發資訊透明化，讓醫療院所能了解物資撥配情形，自6月1日起，物資撥配資料將公布於衛生福利部疾病管制署網站「COVID-19防疫專區」，供各界查閱。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增266例本土COVID-19確定病例，另有校正回歸本土個案89例，總計355例。確診個案中新增10例死亡。\$\@\$指揮中心表示，今日新增之266例本土病例，為123例男性、143例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至5月29日。另校正回歸個案89例中，為42例男性、47例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共355例，以新北市193例最多，其次為臺北市85例，桃園市24例，苗栗縣、臺中市及彰化縣各9例，基隆市8例，花蓮縣6例，南投縣4例，嘉義縣3例，連江縣、臺東縣、宜蘭縣、新竹市及高雄市各1例。其中萬華活動史相關20例、茶藝館相關1例，其他已知感染源118例、關聯不明47例、疫調中169例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增10例死亡個案（案1574、3972、4092、4798、4832、5288、5682、5690、6631、6907），共計為男性9位、女性1位，年齡介於60多歲至80多歲，發病日介於5月6日至5月25日，確診日介於5月16日至5月28日，死亡日期介於5月24日至5月29日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計492,142例新型冠狀病毒肺炎相關通報(含454,051例排除)，其中8,160例確診，分別為1,133例境外移入，6,974例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中109例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，國際疫苗廠於全球各地設廠，並因應各國規定有不同的標示。我國購買的Moderna疫苗為歐洲廠生產，該廠生產的疫苗標示為「產品批號」及「有效日期」，而美國廠疫苗標示為「產品批號」及「生產日期」，兩者所使用的疫苗標示顯然不同。而日前網友看到的美國Moderna網站，係提供在美接種疫苗者做查詢，因此不適用於查詢我國購買的Moderna疫苗。\$\@\$指揮中心強調，我國購買的Moderna疫苗皆為原廠進口，來源清楚且可靠，經各項疫苗檢驗封緘作業，並注重運送及儲存等條件，確保國人用藥品質安全無虞，請國人安心接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$因應國內近期持續出現本土COVID-19群聚事件及感染源不明的確診病例，經多方討論，中央流行疫情指揮中心今(30)日公布「各地方政府設置社區篩檢站補助要點」，鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高之地區為考量，針對具有確診個案相關接觸史、活動史之無症狀民眾為主要篩檢對象，另為保全重度級急救責任醫院收治量能，社區篩檢站之設置，請考量於社區健康中心或其他非重度級急救責任醫院設置為主，並考量通風良好之場所。相關設置規定，指揮中心將訂頒「各地方政府社區篩檢站設置指引」。\$\@\$自即日起，地方政府衛生局可透過衛生所或健康服務中心依下列補助原則辦理：\$\@\$一、每一篩檢站補助設備費用（包括帳篷等）新臺幣（下同）20萬元，每案相關行政費用（包括掛號、採檢、通報等費用）補助500元。\$\@\$二、支援採檢醫師6,000元/班、護理師或其他醫事人員3,500元/班，每班以4小時計。\$\@\$三、每站每班其他人員（行政、清潔各1人），每人每日2,000元。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日表示，關於「地方政府或企業申請COVID-19疫苗專案輸入流程」議題，指揮中心已多次說明，有關疫苗的輸入申請，有嚴謹的條件與規定，除應有原廠的授權，也必須依照食品藥物管理署召開專家會議審查，且最終須依照指揮中心防疫政策使用，任何民間單位、縣市政府的申請也都必須符合同樣的嚴謹程序。因此，基於保障國民健康安全，疫苗政策應秉持「由中央政府與原廠簽約採購」、「由中央政府統籌分配執行」兩大基本原則，此涉及疫苗安全、法律責任與接種部署三大層面：\$\@\$一、疫苗安全：\$\@\$COVID-19是全球重大流行疫病，為了確保國民健康安全，相關疫苗的取得，因為涉及嚴謹的緊急授權程序以及供應配送等相對嚴格的技術要求，為維護國人健康，保障國家整體之安全，我國疫苗政策與各國相一致，皆由中央政府依權責與專業統籌辦理。\$\@\$二、法律責任：\$\@\$依照「傳染病防治法」第 5條，傳染病防治政策及計畫，包括「預防接種」均是中央主管機關權責；此外，依照「藥事法」第 48-2 條規定意旨，製造或輸入緊急的疫苗藥物，其專案核准權限也屬中央主管機關。因此，有關疫苗的取得、分配與接種，均應由中央統籌，並與地方政府密切合作。\$\@\$三、接種部署：\$\@\$疫苗的購買與施打，涉及嚴格的供貨、冷鏈以及專業人力丶物力的規劃部署，必須配合國家整體防疫策略，施打有序，以確保供應分配的安全性、有效性及公平性，因此執行層面也都必須由中央統籌處理。\$\@\$指揮中心強調，對於近來有企業、宗教或社會團體表示願意出資購買海外原廠疫苗捐贈政府使用，或提供管道途徑，媒合促成向原廠採購者，政府均表達高度感謝與肯定。但為確保國人的安全健康，並達到國家整體防疫的成效，中央的疫苗政策是統一由政府向原廠採購，統籌分配使用，這也是絕大多數國家所採取的基本原則。由政府與原廠直接簽約採購，確保原廠對政府直接負疫苗安全與法律的責任。企業、宗教等民間團體的捐贈，以及地方政府的採購，也需採取同樣原則處理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增327例COVID-19確定病例，分別為320例本土個案及7例境外移入個案；另有校正回歸本土個案166例，總計493例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之320例本土病例，為169例男性、151例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月28日。另校正回歸個案166例中，為90例男性、76例女性，年齡介於未滿5歲至90多歲，發病日介於5月6日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共486例，以新北市224例最多，其次為臺北市168例，臺中市33例，桃園市19例，基隆市14例，臺東縣、宜蘭縣各5例，花蓮縣、嘉義縣各4例，苗栗縣3例，新竹縣及彰化縣各2例，雲林縣、高雄市及新竹市各1例。其中萬華活動史相關36例、茶藝館相關2例，其他已知感染源158例、關聯不明49例、疫調中241例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案（案1950、2265、2652、2862、3066、3302、3618、4391、4881、4893、4985、5552、5594、5702、5791、6283、6284、7237、7274、7435、7508），共計為男性13位、女性8位，年齡介於30多歲至90多歲，發病日介於5月11日至5月25日，確診日介於5月17日至5月29日，死亡日期介於5月23日至5月28日，詳如新聞稿附件。\$\@\$指揮中心指出，新增7例境外移入個案，皆持有登機前3日內檢驗陰性報告，且在臺期間並無症狀。案7557為菲律賓籍20多歲男性，5月6日來臺工作， 28日自我健康管理期滿後自費採檢，於今日確診。案7676為本國籍20多歲男性，4月28日自印尼返臺，5月28日因工作所需進行自費採檢，於今日確診。案7805為本國籍40多歲男性，5月15日自印度返臺，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診。案7811、7812、7813、7814為3名菲律賓籍20多歲男性及1名菲律賓籍30多歲男性(案7814)，4人均於5月15日自菲律賓來臺工作，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診 。\$\@\$指揮中心統計，截至目前國內累計470,287例新型冠狀病毒肺炎相關通報(含426,915例排除)，其中7,806例確診，分別為1,133例境外移入，6,620例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另20例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5841、7096)移除為空號。確診個案中99例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，對於日本政府願意在臺灣疫情艱難時刻，有意提供COVID-19疫苗，給予幫助，表達萬分感謝。\$\@\$指揮中心指出，鑒於臺灣疫情仍然嚴峻，在國內COVID-19疫苗的空窗期時，若日本政府願意即時伸出援手，我國一定也會感到非常溫暖，惟相關事宜均尊重日本政府的討論與安排，也希望能夠儘快著手進行後續作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增299例COVID-19確定病例，分別為297例本土個案及2例境外移入個案；另有校正回歸本土個案258例，總計557例。確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之297例本土病例，為157例男性，140例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月27日；個案分布以新北市136例最多，其次為台北市94例，桃園市21例，台中市10例，花蓮縣9例，彰化縣7例，基隆市及台南市各6例，嘉義市2例，新竹縣、屏東縣、台東縣、南投縣、新竹市及高雄市各1例。\$\@\$指揮中心進一步表示，校正回歸個案258例中，為133例男性，125例女性，年齡介於未滿5歲至90多歲，發病日介於5月11日至5月27日；個案分布以新北市141例最多，其次為台北市114例，彰化縣2例，桃園市1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關110例、茶藝館相關9例、某社團相關1例，其他已知感染源181例、關聯不明143例、疫調中111例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案（案1800、2127、2393、2654、2813、3337、3341、4194、4366、4578、4852、5029、5170、5338、5409、6125、6399、6530、6824），共計為男性14位、女性5位，年齡介於40多歲至80多歲，發病日介於5月10日至5月24日，確診日介於5月17日至5月28日，死亡日期介於5月21日至5月27日，詳如新聞稿附件。\$\@\$指揮中心指出，新增2例境外移入個案中，案7332為本國籍10歲以下男性，5月18日於澳洲出現流鼻水等症狀，5月26日返臺，持有登機前3日內檢驗陰性報告，入境時主動通報曾有症狀，採檢後於今日確診。案7333為菲律賓籍20多歲女性，5月14日來臺工作，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，5月24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，累計455,198例新型冠狀病毒肺炎相關通報(含397,534例排除)，其中7,315例確診，分別為1,126例境外移入，6,136例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另18例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726)移除為空號。確診個案中78例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關長照機構收住人員入院流程，指揮中心完成「新進或出院返回機構之服務對象健康管理」，重點包括：\$\@\$1.由社區新入住之服務對象\$\@\$警戒期間，不建議收住直接由社區新進之服務對象；如確有收住必要，則由服務對象進行自費SARS-CoV-2病毒核酸檢驗，提供入住前3日內陰性檢驗結果；另入住機構後，應先將服務對象安置於隔離空間或單人房14天，且無相關症狀後，再安排入住一般房室。\$\@\$2.出院轉入或返回機構之服務對象\$\@\$院方在病患出院前，循住院病患採檢之機制，進行公費SARS-CoV-2病毒核酸檢驗，其結果須為陰性，始得轉入或返回機構；另考量服務對象因於入院及出院時，皆有進行採檢送驗，故服務對象於轉入或返回機構後可不需進行隔離。\$\@\$二、指揮中心重申，為利傳染病防治工作進行，各直轄市、縣(市)政府得以「指揮中心記者會確診個案資料發布原則」，發布確診個案公共場所活動史。惟發布時，務必注意個人資料保護，避免造成當事人之二度傷害，亦請民眾切勿散布及轉傳未經證實的相關資訊，避免觸法及影響防治工作。\$\@\$三、考量各地方政府相關人力投入防疫工作之負擔，及防疫作業進度執行及規劃等工作已逐漸完備，全國疫情研商早報會議自即日起改為每週二、五召開；指揮中心與各地方政府均建有聯繫窗口，持續保持密切聯繫，務求防疫工作不間斷。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，首批Moderna疫苗15萬劑，將於臺灣時間5月28日凌晨自盧森堡啟運，預定於明(28)日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增405例COVID-19確定病例，分別為401例本土個案及4例境外移入個案；另有校正回歸本土個案266例，總計671例。確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之401例本土病例，為190例男性，211例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月26日至5月26日；個案分布以新北市177例最多，其次為臺北市130例，桃園市18例，基隆市15例，高雄市14例，彰化縣10例，臺中市7例，花蓮縣6例，宜蘭縣、新竹縣各5例、臺東縣4例，屏東縣3例，嘉義市、連江縣各2例，苗栗縣、南投縣及雲林縣各1例。\$\@\$指揮中心進一步表示，校正回歸個案266例中，為140例男性、126例女性，年齡介於未滿5歲至90多歲，發病日介於5月15日至5月26日；個案分布以新北市146例最多，其次為臺北市101例，宜蘭縣5例，桃園市4例，彰化縣及臺中市各3例，基隆市2例，嘉義市及臺南市各1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關152例、茶藝館相關25例、某社團相關6例，其他已知感染源222例、關聯不明145例、疫調中117例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增13例死亡個案中，案1399為本國籍70多歲男性，有高血壓等慢性病史，有萬華區活動史，5月12日因其他原因就醫，13日檢驗陽性後住院，15日確診，24日死亡。案1753為本國籍60多歲男性，有高血壓等慢性病史，有萬華區活動史，5月13日出現咳嗽、呼吸困難等症狀，17日確診，20日收治住院，26日死亡。案2328為本國籍70多歲男性，有洗腎、心臟病等慢性病史，有萬華區活動史，5月16日出現發燒、咳嗽、流鼻水等症狀，17日就醫採檢，18日收治住院，19日確診，25日死亡。案2674為本國籍70多歲男性，有萬華區活動史，5月16日有喉嚨痛、咳嗽等症狀，17日因其他原因就醫後收治住院並採檢，20日確診，26日死亡。案2762為本國籍60多歲男性，有糖尿病、高血壓、哮喘等慢性病史，有萬華區活動史，5月18日出現發燒、腹瀉等症狀，20日確診，21日入住集中檢疫所，25日死亡。案3039為本國籍70多歲男性，曾接觸確診個案，5月18日出現發燒等症狀後就醫採檢，21日確診，23日入住集中檢疫所，26日死亡。案3179為本國籍90多歲女性，有萬華區活動史，5月19日出現發燒、發冷等症狀，20日就醫後住院，22日確診，25日死亡。案3429為本國籍60多歲女性，有高血壓等慢性病史，有萬華區活動史，5月17日出現發燒症狀，20日就醫後收治住院並採檢，22日確診，26日死亡。案4428為本國籍90多歲女性，有高血壓、糖尿病及心臟病等慢性病史，5月18日出現咳嗽及呼吸困難症狀，21日就醫後收治住院並採檢，24日確診，26日死亡。案5676為本國籍40多歲女性，曾接觸確診個案，5月19日採檢後入住防疫旅館，同日出現發燒症狀，25日死亡。案5993為本國籍60多歲男性，有高血壓、高血脂、糖尿病等慢性病史，有萬華區活動史，5月20日出現呼吸喘等症狀，24日就醫並採檢，當日死亡，26日確診。案6316為本國籍70多歲男性，有糖尿病等慢性病史，5月20日因出現呼吸困難症狀就醫並採檢，25日死亡，27日確診。案6503為本國籍50多歲男性，有主動脈剝離病史，5月22日出現呼吸喘等症狀，25日在家中昏迷後急救送醫，同日死亡，採檢後於27日確診。\$\@\$指揮中心指出，新增4例境外移入病例中，案6175、案6369分別為30多歲及印度籍20多歲男性，於5月24日自印度入境，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢，於今日確診。案6557、案6585均為20多歲菲律賓籍男性，持有登機前3日內檢驗陰性報告。案6557於5月10日來臺工作，5月26日自主管理期滿後自費採檢，於今日確診。案6585於5月26日來臺工作，入境後至檢疫所集中檢疫並採檢，於今日確診。上述4名個案在臺期間並無症狀。\$\@\$指揮中心統計，國內累計434,840例新型冠狀病毒肺炎相關通報(含381,735例排除)，其中6,761例確診，分別為1,124例境外移入，5,584例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另15例(案530、1589、1676、1591、1886、2067、2068、2528、2530、3459、3975、3989、3990、3991、4726)移除為空號。確診個案中59例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對部分高風險地區尚未完成設置加強型防疫旅館或量能不足部分，請相關地方政府持續建置，以強化COVID-19確診患者之醫療分流作業。\$\@\$二、為協助醫療院所及集中檢疫場所與加強型防疫旅館，儘速完成符合解除隔離條件之病患返家作業，已請交通部協助各地方政府，加強防疫計程車量能，以利載送。\$\@\$三、指揮中心已於昨(26)日修訂COVID-19確診個案解除隔離治療條件，並於今日全國防疫會議向各地方政府宣布實施。\$\@\$四、有關41萬劑AstraZeneca COVID-19疫苗配發作業，說明如下：\$\@\$(一)    第一階段15萬劑(5/27撥配，用罄前隨時撥補)，其中雙北地區以第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者為優先施打對象。雙北以外縣市，則以第一類人員(醫事人員)未曾接種者、醫護人員與亟需公務出國接種第二劑者。\$\@\$(二)    第二階段26萬劑(6/10起調整對象)，以全國第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者，為優先施打對象。後續再視下批疫苗到貨進度、接種情形及疫情狀況，滾動檢討調整開放第四類至第八類對象未曾接種者進行施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，因應本土疫情持續嚴峻，宣布強化COVID-19第三級疫情警戒相關措施及裁罰規定，請全國民眾持續落實遵循，與政府共同努力，嚴守社區防線。相關強化措施及裁罰如下：\$\@\$一、民眾外出時應全程佩戴口罩，一經查獲有違反情事，不再勸導，逕予開罰。\$\@\$二、經公告應關閉之休閒娛樂場所，將嚴查不得營業；查獲違法營業者，對業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$指揮中心提醒，外出時有飲食需求者，得在與不特定對象保持社交距離或有適當阻隔設備之情形下，於飲食期間暫時取下口罩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增304例COVID-19確定病例，分別為302例本土個案及2例境外移入個案；另有校正回歸本土個案331例，總計635例。確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之302例本土病例，為158例男性，144例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月8日至5月25日；個案分布以新北市152例最多，其次為臺北市87例，桃園市21例，基隆市13例，臺中市9例，新竹縣4例，屏東縣、雲林縣、臺南市、宜蘭縣、高雄市及彰化縣各2例，花蓮縣、嘉義市、臺東縣及連江縣各1例。校正回歸個案331例中，為160例男性、171例女性，年齡介於未滿5歲至90多歲，發病日介於5月13日至5月25日；個案分布以臺北市221例最多，其次為新北市102例，桃園市3例，基隆市及臺中市各2例，苗栗縣1例。綜上所有個案，其中萬華活動史相關209例、茶藝館相關35例、某社團相關3例、其他已知感染源170例、關聯不明122例、疫調中94例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增11例死亡個案（案2865、2877、3305、3213、3980、4273、4373、4666、4984、5098、5869）中，為9男2女，年齡介於50多歲至70多歲。發病日/採檢日介於5月7日至5月25日，確診日介於5月21日至5月26日，死亡日介於5月23日至5月25日。死亡個案中7人有慢性病史，9人有萬華或其他確診個案活動接觸史，相關疫情調查持續進行中。\$\@\$指揮中心指出，新增2例境外移入病例中，案5646為中國籍20多歲男性，5月1日來臺，持有搭機前3日內檢驗陰性報告，入境後於防疫旅館居家檢疫，在臺期間並無症狀，自主健康管理期滿後於5月24日自費採檢，於今日確診。案5891為本國籍50多歲男性，5月5日於印度出現症狀並檢驗陽性，5月14日以緊急醫療包機自印度返臺，入境時PCR採檢陰性、抗體陽性，入境後入院治療，期間再次採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計413,389例新型冠狀病毒肺炎相關通報(含359,139例排除)，其中6,091例確診，分別為1,120例境外移入，4,918例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中46例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，香港本土疫情自3月起持續趨緩，連續4週達低風險分級標準，故自即日起，將香港自中低風險調整為低風險；以色列疫情持續趨緩，連續2週達中低風險分級標準，故自即日起，增列為中低風險；越南近期本土疫情持續升溫，至少30個行政區報告本土病例，故自即日起，自中低風險移除。\$\@\$各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲、香港。\$\@\$中低感染風險國家/地區：斐濟、不丹、新加坡、以色列。\$\@\$指揮中心監測資料顯示，全球累計167,563,632例確診，分布於193個國家/地區；病例數以美國33,251,432例、印度26,948,874例、巴西16,194,209例、法國5,609,050例及土耳其5,203,385例為多；病例中3,491,014例死亡，以美國601,778例、巴西452,031例、印度307,231例、墨西哥221,695例及英國127,739例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對確診者解除隔離作業，指揮中心已於5月17日修訂公布，只要確診者距離發病或採檢日達10天以上，且PCR採檢Ct值≧30者，可逕行完成解隔離程序，並自主健康管理７日，以提升病床週轉率；如為Ct值&lt;30者，則入住集中檢疫所。另指揮中心將於今日再次召開專家小組會議，研議一致之確診者解除隔離公衛模式，供各地方政府遵循辦理。\$\@\$二、集中檢疫場所後送醫院綠色通道，係由集中檢疫場所附近之重度級急救責任醫院配合辦理，六區區域緊急醫療應變中心協助「傳染病防治醫療網」網區指揮官進行急重症病床調度；其中針對雙北市確診病患收轉至外縣市收治之綠色通道合理時間，指揮中心今日將請雙北市提供自設集中檢疫所及加強版防疫旅館位置，並於醫療量能盤點會議中研商討論。\$\@\$三、有關我國進口疫苗，須有正式代理廠商提出疫苗產品相關資訊及藥證申請，包括疫苗廠資格、疫苗相關品質證明等，確保疫苗安全性、有效性、合法性，並經食品藥物管理署(TFDA)核可，始可由代理商進行進口作業，以防止疫苗進入國內施打時產生不良反應問題，影響施打意願。\$\@\$四、疫苗撥補作業部分及施打順位，指揮中心會儘速撥發疫苗，請各地方政府以專責醫院醫護人員列第一順位施打；另鑒於雙北市為高風險疫情地區，將開放一到三順位人員進行接種；其他地方政府部分，原則以地方政府所提一至三順位人員名冊，並同步考量疫苗量，依序撥補施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$疾病管制署今(25)日公布國內新增1例日本腦炎確定病例，為高雄市大寮區40多歲男性，近期無國內外旅遊史，平時活動地以住家及工作地為主；5月5日出現頭痛症狀，自行服藥後症狀改善，5月8日因發燒就醫，隔日因高燒再次就醫並收治住院，入院後發現有失語症狀，5月10日通報，經採檢後確診。由於個案住家附近有豬舍、鴿舍及水稻田等高風險場所，研判其於住家周邊感染的可能性較高，衛生單位已針對個案住活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾之衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共2例確定病例，個案居住地分別為屏東縣及高雄市各1例，個案活動地附近多有高風險環境；2017至2020年全國同期確定病例數分別為1、7、4及0例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，國內日本腦炎病媒蚊以三斑家蚊、環紋家蚊及白頭家蚊為主，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段，大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。\$\@\$疾管署提醒，請民眾儘量避免於病媒蚊吸血高峰時段，在高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，有關離島縣市採檢需求，指揮中心經評估後，同意金門縣、澎湖縣、連江縣等三離島得在符合篩檢流程條件及後送配套流程下，提供自願性採檢服務。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增283例COVID-19確定病例，分別為281例本土個案及2例境外移入個案；另有校正回歸本土個案261例，總計544例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之281例本土病例，為144例男性，137例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月24日；個案分布以新北市154例最多，其次為臺北市49例，桃園市16例，臺南市、基隆市及彰化縣各10例，臺中市9例，屏東縣及新竹市各4例，高雄市、宜蘭縣各3例，臺東縣、南投縣及苗栗縣各2例、新竹縣、雲林縣及花蓮縣各1例。校正回歸個案261例中，為162例男性、99例女性，年齡介於未滿10歲至90多歲，發病日介於5月2日至5月22日；個案分布以臺北市155例最多，其次為新北市89例，宜蘭縣、桃園市各5例，基隆市及彰化縣各3例，臺中市1例。綜上所有個案，其中萬華活動史相關186例、茶藝館相關28例、某社團相關2例、某水果商相關7例、其他已知感染源122例、關聯不明111例、疫調中86例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1341為70多歲男性，有高血壓、糖尿病等慢性病史，5月8日出現咳嗽、發燒、有痰、全身痠痛等症狀，11日就醫並住院，15日確診，20日死亡。案2558為60多歲男性，有萬華區活動史，5月15日出現發燒、喉嚨痛、咳嗽、肌肉痠痛等症狀，20日確診並收治住院，21日死亡。案2719為90多歲男性，有糖尿病、癌症等慢性病史，5月14日出現發燒症狀，17日就醫並住院，20日確診，同日死亡。案3031為60多歲男性，有高血壓、糖尿病等慢性病史，5月15日出現發燒、咳嗽、呼吸困難、喉嚨痛等症狀，20日就醫並住院，21日確診，23日死亡。案3242為60多歲女性，有糖尿病、高血壓、心血管疾病等慢性病史，5月20日有肌肉痠痛、咳嗽、流鼻水、發燒等症狀，22日確診後至防疫旅館隔離，24日死亡。案4648為70多歲男性，有糖尿病、高血壓等慢性病史，5月22日出現發燒、呼吸困難、肺炎等症狀，同日就醫並住院，23日死亡，24日確診。\$\@\$指揮中心指出，新增2例境外移入病例(案5085、5470)皆自菲律賓來臺工作，均持有搭機前3日內檢驗陰性報告。案5085為40多歲男性，5月2日入境後至防疫旅館隔離，在臺期間並無症狀，17日期滿前採檢結果為陰性，24日完成自主健康管理後公司安排自費採檢，於今日確診(Ct值32)。案5470為20多歲男性，5月11日入境，在臺期間並無症狀，24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計388,453例新型冠狀病毒肺炎相關通報(含340,438例排除)，其中5,456例確診，分別為1,118例境外移入，4,285例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中35例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、 考量各項防疫措施生效至落實推動需要時間，請各地方政府持續加強監測、防疫及整備工作，並增加社區採檢站及提升採檢量能，強化檢驗及醫療調度應變量能，避免造成急診壅塞及增加院內感染風險。\$\@\$二、 為評估全國疫情風險狀況，指揮中心明(26)日起開始實施「COVID-19傳染病通報作業新流程」，由各地方政府每日通報社區採檢站篩檢量及陽性數等資訊，產製報表、面板分享共用，以利進行指標監測；另為防止高風險地區之社區篩檢站檢驗壅塞，指揮中心訂有「社區快篩站快篩處置流程」，協助地方提升篩檢工作執行效率。\$\@\$三、 醫療資源整備工作推動：\$\@\$有關雙北市專責病房一人一室收治病患之規範，如確有困難，將由「傳染病防治醫療網」網區指揮官視病人住院必要性、急迫性，及醫院收治量能、病房硬體條件，彈性調整。\$\@\$長期需要血液透析之確診病患，請集中收治於臺北市立聯合醫院和平院區及三軍總醫院松山分院，不限一人一室，並請地方衛生局督導上述醫院儘快制定相關作業流程。\$\@\$為利病患收治，請各地方政府督導轄內醫院加速專責病床清空速度，500床以上醫院須於本週五(28日)完成1/10病床數開設為專責病床；專責ICU部分，以醫學中心及準醫學中心至少20床，其他重度級急救責任醫院至少10床為原則，並以區域為單位規劃設置。\$\@\$地方指定應變醫院且同時肩負該縣市重度級急救責任醫院者，為避免排擠其他重症患者就醫診治，請新竹市、雲林縣及嘉義縣即刻執行備援應變醫院指定工作。\$\@\$集中檢疫場所設置請以50間以上為原則，以提升運用效率。\$\@\$為提升病床週轉率，針對確診住院者，距離發病或採檢日達10天以上且PCR採檢Ct值大於30者，可以出院並自主健康管理7日；若Ct值小於30則入住集中檢疫所。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-24\$\@\$金門縣政府昨（5/23)日逕為公告「搭乘民用航空器抵達金門航空站之旅客應配合實聯制、接受新冠肺炎快速篩檢，並自110年5月24日生效」，此舉違反傳染病防治法第37條第3項等相關法律規定。該府未正式告知並提出書面申請即逕行公告於先，又經指揮官於當晚親自致電溝通仍不依法完備程序於後，故依法撤銷違法處分之公告，以維法制。\$\@\$中央流行疫情指揮中心於110年5月17日即以發文予各地方政府，說明「中央流行疫情指揮中心成立期間，若有需依傳染病防治法第37條第1項規定採行相關防疫措施，仍請貴府遵循傳染病防治法第37條第3項規定，應依指揮官指示辦理，以利整體防疫業務之執行」等語，促請各地方政府應依上開規定辦理之意旨，俾以符合事權統一之立法目的。又檢疫政策之決定依傳染病防治法第5條第1項第1款第1目之規定，係屬中央主管機關之權責，地方政府應依中央主管機關之決策，始得據以執行，而指揮官近日也公開宣示：「中央決策、地方執行」，此乃權限分際之原則問題。\$\@\$對國內跨縣市移動採取人員進出之管制作為，或要求民眾強制普篩等，屬全國一致性之重要政策，按傳染病防治法第37條第3項之規定，均應依中央指揮官之指示辦理，始符法制。\$\@\$值此疫情嚴峻時刻，全國已一致提高至三級警戒，指揮官再三強調中央與地方應「標準一致、說法一致、腳步一致」之防疫原則，且業已建立每日全國疫情會議之機制，俾收統合協調之效，以避免各自為政，致生雜沓混亂影響整體防疫，為統一事權並維護法制，不得不撤銷上開違法公告。金門縣政府如仍有地方防疫之特殊需求，依法應先完備法律程序，正式提出計畫報請指揮官指示辦理。</t>
   </si>
 </sst>
 </file>
@@ -622,7 +2542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,16 +2570,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -667,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -684,16 +2604,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2">
         <v>44396</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -701,16 +2621,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2">
         <v>44396</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -718,16 +2638,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -735,16 +2655,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -752,16 +2672,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -769,16 +2689,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2">
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -786,16 +2706,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -803,13 +2723,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2">
         <v>44393</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -817,16 +2740,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -834,13 +2757,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -848,16 +2774,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2">
         <v>44392</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -865,16 +2791,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2">
         <v>44392</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -882,13 +2808,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -896,13 +2822,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>379</v>
+      </c>
+      <c r="E17" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -910,13 +2839,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>380</v>
+      </c>
+      <c r="E18" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -924,13 +2856,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>381</v>
+      </c>
+      <c r="E19" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -938,16 +2873,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2">
         <v>44390</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -955,13 +2890,2721 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44388</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44388</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44387</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44386</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E36" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2">
-        <v>44389</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44381</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44380</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E48" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E54" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44375</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E60" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E62" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E63" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E64" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E65" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E66" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E68" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E70" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E72" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E73" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E76" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E81" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E83" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E84" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E85" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E86" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E88" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E91" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E92" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E93" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E94" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E96" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E97" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E99" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E101" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E102" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E103" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E104" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E105" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>288</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E106" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E107" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E108" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E109" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E110" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E111" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E112" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E113" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E114" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E115" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E116" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E117" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E118" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E119" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E120" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E121" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E122" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E123" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>306</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E125" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E127" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E128" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E129" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E130" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E131" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E132" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E133" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E134" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E135" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E136" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E137" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>320</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E138" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E141" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E142" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E143" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E145" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E146" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E147" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E148" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E150" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E151" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>334</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E153" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E155" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E156" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E157" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E158" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E159" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E160" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E162" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>345</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E163" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E164" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E165" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E166" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E167" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E168" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E169" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E170" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E171" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E172" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E173" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E174" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E175" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E176" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E177" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E178" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E181" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -986,6 +5629,166 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>新增8例COVID-19確定病例，分別為2例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>公私協力積極爭取  期盼首批BNT疫苗提早到貨</t>
+  </si>
+  <si>
     <t>針對8月23日至8月29日完成第一劑接種高端疫苗民眾，後續第二劑接種說明</t>
   </si>
   <si>
@@ -61,6 +67,33 @@
     <t>因應帛琉出現確診個案，指揮中心啟動相關檢疫應變措施</t>
   </si>
   <si>
+    <t>COVID-19公費疫苗預約平台增加開放8月16日以後新增或加選登記高端疫苗民眾預約，於8月27日起施打</t>
+  </si>
+  <si>
+    <t>因應國內疫情趨緩，重啟境外生專案入境作業</t>
+  </si>
+  <si>
+    <t>指揮中心自8月24日至9月6日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為2例本土及8例境外移入</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為6例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台增加開放35歲至20歲(含)民眾預約高端疫苗，於8月23日起施打</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19確定病例，分別為6例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MCsgPQYHX-7Y1rwdp37gRg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aJJeOsDDOxac6JVfv7Rihw?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
   </si>
   <si>
@@ -91,6 +124,36 @@
     <t>/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MCsgPQYHX-7Y1rwdp37gRg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aJJeOsDDOxac6JVfv7Rihw?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
   </si>
   <si>
@@ -121,6 +184,36 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增8例COVID-19確定病例，分別為2例本土及6例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增2例本土病例中，案16055為越南籍30多歲男性，因曾接觸確診者(案16006)， 8月19日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月25日出現喉嚨痛、喉嚨癢及頭痛症狀，由衛生單位安排就醫採檢，於今日確診(Ct值14.9)。案16056為本國籍20多歲女性，因曾接觸確診者(案15969)，8月16日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月17日出現喉嚨癢及咳嗽症狀，並於隔日緩解，8月25日接受隔離期滿前採檢，於今日確診(Ct值24)。由於2例個案隔離期間未與他人接觸，且就醫期間之相關接觸者均有適當防護，故皆無匡列接觸者。\$\@\$指揮中心說明，今日新增2例死亡個案中，案14517為80多歲男性，具慢性病史、無相關活動接觸史；6月23日因發燒就醫，6月24日採檢並住院隔離治療，6月25日確診，8月4日解除隔離，8月20日死亡。案14837為70多歲男性，具慢性病史及其他確診個案接觸史；6月27日因出現咳嗽、疲倦症狀就醫採檢，6月28日住院隔離治療，6月29日確診，7月14日解除隔離並出院，8月20日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月24日累計公布14,739位確診個案中，已有13,644人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心說明，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至50多歲，分別自美國(案16050、16052、16057)、日本(案16051、16053)及中國(案16054)入境，入境日介於8月2日至8月24日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,573,538例新型冠狀病毒肺炎相關通報(含2,556,336例排除)，其中15,947例確診，分別為1,385例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計832例COVID-19死亡病例，其中824例本土，個案居住縣市分布為新北市409例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月26日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，日前接獲台積電主動告知，鴻海永齡亦提供相關訊息表示，有另一批上海復星代理的BNT原廠疫苗，將於8月下旬出廠，而這批疫苗比捐贈單位預定的首批供應期程還要早，許多國家都在積極爭取，若臺灣不爭取，這批疫苗可能將送往其他國家。\$\@\$指揮中心表示，基於BNT疫苗可以施打12-18歲的青少年學生族群，而9月又即將開學，只要這批疫苗能夠確認是原廠出貨，而且經過安全檢驗，政府當然願意爭取這批疫苗，而疫苗早一天進來，讓學生能早日施打，家長、老師、學生都可以早一天安心。\$\@\$指揮中心指出，這批復星公司另案代理本要銷往他處的疫苗，在外盒包裝印有復必泰的品名，瓶身上則有復星醫藥等中文字樣，雖然這與原約定的標示方式不同，但政府仍願意積極爭取這批可以提早到來的疫苗，而且這批疫苗仍然是原廠製造、包裝並直送臺灣，只要確保疫苗品質安全無虞，當可在標示方式上給予彈性，所以政府接受可以照原來印的標示供貨，以利爭取這批疫苗早日供應國人使用。\$\@\$指揮中心表示，政府很感謝台積電的協助，也很感謝鴻海創辦人郭台銘先生，人在歐洲的這段期間也努力幫忙爭取，後續相關進度會再跟大家報告。從洽購疫苗，到爭取首批BNT的疫苗提早到貨，這都是官民合作的成果，對於包括鴻海永齡、台積電、慈濟三個企業和民間團體的協助，政府要再次表達由衷的感謝。\$\@\$指揮中心強調，防疫是政府唯一的考量，重要的是這個疫苗的內容物是安全有效的，輸入臺灣之後，仍要經過食藥署的檢驗封緘，確實有達到標準、安全無虞，才會開放讓民眾接種。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，自8月23日至8月29日完成第一劑高端COVID-19疫苗接種之民眾，COVID-19公費疫苗預約平台預計於9月27日提供接種第二劑，屆時符合預約資格或收到簡訊提醒者即可預約接種。另若有出國急迫性須於第一劑後滿28天接種者，請地方政府衛生局指定轄內合約醫療院所於預約平台開打(9月27日)前酌情提供接種。\$\@\$指揮中心指出，高端疫苗目前第二劑接種間隔至少28天，已於國內接種第一劑高端COVID-19疫苗之民眾，若因緊急出國需提前接種第二劑疫苗者，可提供具有付款紀錄之機票與出國日程及留學入學證明或公司外派出國等證明文件，至指定之合約醫療院所，經醫師評估後進行接種。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾COVID-19疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線「全國性預防接種資訊管理系統」(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
   </si>
   <si>
@@ -139,10 +232,40 @@
     <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16044)，為本國籍70多歲男性，8月22日因其他原因就醫，採檢後於今日確診(Ct值37.7)；衛生單位已啟動醫院及社區調查與防治，目前匡列家庭接觸者1人，列居家隔離，其餘接觸者匡列中。\$\@\$指揮中心說明，今日新增1例死亡個案(案15877)，為80多歲女性，具慢性病史及其他確診個案接觸史，7月27日出現食慾不振症狀，並於同日死亡；後因同住家人確診(案15851)，故於8月5日進行採檢，8月6日確診(Ct值23.8)。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月22日累計公布14,727位確診個案中，已有13,621人解除隔離，解隔離人數達確診人數92.5%。\$\@\$今日新增5例境外移入個案均為男性，年齡介於10多歲至40多歲，分別自日本(案16043、16045、16048)、印度(案16046)、土耳其(16047)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月12日至8月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,524,269例新型冠狀病毒肺炎相關通報(含2,507,456例排除)，其中15,938例確診，分別為1,378例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計829例COVID-19死亡病例，其中821例本土，個案居住縣市分布為新北市408例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月24日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日表示，全球Delta變異株日益擴散且其傳播力強，我國境外移入病例有增加趨勢，為降低該病毒進入國內社區風險，與及時偵測國內病例阻斷傳播鏈，擬定COVID-19加強監測方案如下：\$\@\$(一)社區加強監測：8月30日將配置公費COVID-19家用快篩試劑於各縣市合約診所，由醫師判斷對具高風險民眾提供試劑，由民眾自行居家篩檢並回報快篩結果。檢驗為陽性時，再前往社區採檢站或採檢院所進行PCR檢測複驗，以強化基層診所監測能力。\$\@\$(二)國際機場特定高風險工作人員重點監測：8月30日起於桃園、臺北、臺中與高雄等四個國際機場之特定高風險工作人員，每7天以公費家用快篩試劑採檢一次，如檢驗為陽性者，再進行公費PCR檢測，以強化邊境監測能力。\$\@\$(三)廢汙水監測：擴大全國汙水SARS-CoV-2病毒監測範圍，由11處擴充為22處，以早期偵測社區中SARS-CoV-2病毒傳播狀況。\$\@\$(四)捐血人血清抗體陽性盛行率調查：針對110年4-7月份臺灣地區捐血中心捐血人之血液存檔樣本，抽樣5,000個檢體進行抗核蛋白及棘蛋白抗體檢測，以分析自然感染或接種疫苗的抗體陽性比例之地理分布及趨勢變化。\$\@\$(五)邊境進口冷凍食品包裝監測：持續在邊境採樣檢驗進口冷凍肉品、水產品及水果之內、外包裝，監控進口冷凍食品內、外包裝之SARS-CoV-2病毒污染狀況及評估消毒作業效果，以防止病毒透過進口食品包裝污染而入境我國。\$\@\$指揮中心進一步指出，目前國內疫情雖穩定控制中，但面臨Delta病毒變異株的威脅無可避免，需持續強化邊境與社區監測及各項防疫作為，避免病毒入侵社區。指揮中心未來將持續觀察疫情態勢，適度調整加強監測方案。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間陽性者)，為2例男性、2例女性，年齡介於20多歲至70多歲，其中2例發病日分別為今(2021)年8月15日、8月20日，餘2例為無症狀感染。個案分布均在新北市；其中2例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月21日累計公布14,717位確診個案中，已有13,601人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案16037為俄羅斯籍20多歲女性，未接種COVID-19疫苗，8月11日自俄羅斯來臺就學，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月20日有鼻塞等症狀，8月21日由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。案16038為40多歲立陶宛籍男性，未接種COVID-19疫苗，8月13日自立陶宛來臺工作，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月21日出現發燒、咳嗽等症狀，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,502,861例新型冠狀病毒肺炎相關通報(含2,485,203例排除)，其中15,932例確診，分別為1,373例境外移入，14,506例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
   </si>
   <si>
     <t>發佈日期：2021-08-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增10例COVID-19確定病例，分別為6例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為3例男性、3例女性，年齡介於未滿5歲至90多歲，其中1例發病日為今(2021)年8月21日、餘5例為無症狀感染。個案分布為臺北市3例，新北市、桃園市及雲林縣各1例；其中3例為已知感染源、1例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月20日累計公布14,707位確診個案中，已有13,580人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於30多歲至50多歲，分別自日本(案16028)、德國(案16029)、南非(案16030)及印度(案16036)入境，入境日介於8月8日至8月20日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,489,074例新型冠狀病毒肺炎相關通報(含2,471,769例排除)，其中15,926例確診，分別為1,371例境外移入，14,502例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月22日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，帛琉衛生部於今日上午發布新聞稿表示，當地2位帛琉籍民眾自8月15日自關島入境，於入境後第5日COVID-19採檢檢驗陽性。帛國政府已立即採取隔離及接觸者採檢等應變措施，目前所有人員檢驗結果均為陰性，該國並將在第10天的隔離規定後再次採檢，2位進入帛琉後活動範圍不大，初步研判帛國疫情似並未擴散。此外，帛國政府已於本日重啟「緊急應變中心」（Emergency Operations Center），擴大執行疫調並追蹤詳細接觸史，密切監控疫情發展。外交部、我國駐帛琉大使館及相關單位持續掌握此案發展，並與該國保持密切聯繫。\$\@\$指揮中心說明，因應此次帛琉出現確診個案，自帛琉入境旅客，除維持自帛琉返臺入境時於機場配合採深喉唾液PCR檢測，參加臺帛旅遊泡泡之旅客於機場應落實與其他國際旅客分流，並於檢驗陰性後採「5+9」模式，於入境第0日至第5日進行加強自主健康管理，第5日自費進行PCR檢測取得陰性報告後，最快第6日起改一般自主健康管理外，另增加入境後第12-14日須公費進行PCR檢測。\$\@\$指揮中心進一步指出，加強自主健康管理期間，除一起前往旅遊及返臺者外，應入住防疫旅宿或符合1人1室之居所，且需有單獨房間與專用衛浴，共同生活者應一起採取適當防護措施，包含佩戴口罩，保持社交距離，不可共食。若沒有出現任何症狀，可以外出，但僅能從事固定且有限度之活動，且不可搭乘大眾運輸，禁止至人潮擁擠場所，採實名制，需記錄每日活動及接觸人員，不可接觸不特定人士，且應全程佩戴口罩及保持社交距離，並於入境後14天內遵守自主健康管理應注意事項。\$\@\$指揮中心提醒，欲赴帛琉旅客，同樣搭機當日於機場採檢PCR陰性，始得搭機，若檢出陽性者應配合疫情調查，其密切接觸者(如：同行家人等)亦應暫緩搭機；防疫期間赴帛琉旅遊，務請確實遵守指揮中心及帛國的防疫措施，如佩戴口罩、勤洗手及保持社交距離等規範，以維護自身的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，「COVID-19公費疫苗預約平台」將於今(2021)年8月21日中午12時進行意願登記結算，並於8月23日上午10時至8月24日下午6時止，增加開放8月16日下午2時以後新登記或加選意願登記為高端疫苗之民眾進行預約。\$\@\$指揮中心說明，本期可接種疫苗為高端疫苗，上述符合預約資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象預定於8月27日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，今(2021)年5月17日考量國內及國際COVID-19疫情升溫，宣布自5月19日開始，暫停未持居留證之非本國籍人士入境，因此教育部配合指揮中心邊境嚴管措施，暫停境外學生入境申請作業。現經評估國內疫情趨緩，且110學年度開學在即，教育部專案簽請指揮中心8月20日同意，重新開放110學年度境外學位生及華語受獎生等申請入境。\$\@\$指揮中心說明，有關重啟境外生專案入境作業，重要原則如下，並請學校預為通知境外生準備：\$\@\$一、入境前：\$\@\$1.新生及未持有效簽證/居留證/中華民國入境許可證之學生，由學校先行造冊送部函轉外交部領事事務局及內政部移民署受理學生辦理簽證或入出境許可證。\$\@\$2.學生取得簽證後，訂妥班機及檢疫場所後，通知學校透過線上申請取得同意函，並於登機前應檢具3日內COVID-19核酸檢驗陰性報告。\$\@\$二、入境後：依規定於入境時採深喉唾液PCR檢測，並於檢疫場所進行居家檢疫14天，檢疫期滿前(檢疫第12至14天)PCR檢測，此外第10至12天須以「家用快篩」採檢一次。\$\@\$三、檢疫結束後：須再進行7天自主健康管理，期滿後始得入校。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，考量國內疫情雖趨緩但仍有零星不明感染源之本土病例，經與相關單位溝通討論及評估後，宣布自今(2021)年8月24日至9月6日維持疫情警戒標準為第二級，並將維持或調整相關管制規定如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：放寬為室內80人，室外300人，若超額則向地方主管機關提報防疫計畫。\$\@\$5. 婚宴、公祭：\$\@\$(1). 公祭遵守內政部相關防疫規定處理。\$\@\$(2). 婚宴遵守每一隔間室內80人、室外300人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$6. 餐飲管理：依照衛福部規定處理，新增同住親友聚餐不受限使用隔板、梅花座及專人分菜。\$\@\$7. 醫院探病：開放加護病房、安寧病房、呼吸照護病房、精神科病房、兒童病房、身心障礙、病況危急及住院天數達7天以上者之探病；探病者須遵守探病時段、人數限制及出具篩檢陰性證明等規定。\$\@\$8. 符合主管機關防疫管理指引或規範得開放：K書中心、室內遊樂園、海釣場、海泳/浮潛等水域活動。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$指揮中心說明，目前國內疫情穩定控制中，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，籲請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增10例COVID-19確定病例，分別為2例本土及8例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之2例本土病例(均非居家隔離期間檢驗陽性者)，為新北市40多歲男性及50多歲女性，分別於8月16日及8月19日發病；其中1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案9244)，為60多歲男性，具慢性病史，無相關接觸史，5月25日出現發燒、流鼻涕等症狀，5月28日就醫採檢，檢驗陽性後於6月1日住院治療，6月2日確診，6月12日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月19日累計公布14,698位確診個案中，已有13,581人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增8例境外移入個案，為7例男性、1例女性，年齡介於10多歲至60多歲，分別自美國(案16018)、印度(案16019)、印尼(案16020至16022)、南非(案16023)、日本(案16024)、阿爾巴尼亞(案16025)入境，入境日介於8月18日至8月19日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,472,606例新型冠狀病毒肺炎相關通報(含2,455,074例排除)，其中15,916例確診，分別為1,367例境外移入，14,496例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增9例COVID-19確定病例，分別為6例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間檢驗陽性者)，為4例男性、2例女性，年齡介於未滿5歲至60多歲，其中3例發病日為今(2021)年8月18日、餘3例為無症狀感染。個案分布為新北市3例、臺北市2例及彰化縣1例；其中2例為已知感染源、2例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案15492)，為60多歲男性，具慢性病史及其他確診個案接觸史，7月9日出現咳嗽症狀，7月16日因發燒及意識不清送醫並住院隔離治療，7月17日確診，8月18日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月18日累計公布14,692位確診個案中，已有13,550人解除隔離，解隔離人數達確診人數92.2%。\$\@\$指揮中心說明，今日新增3例境外移入個案，為2例男性、1例女性，年齡介於20多歲至40多歲，分別自羅馬尼亞(案16011)、孟加拉(案16012)及英國(案16013)入境，入境日介於8月6日至8月17日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,450,350例新型冠狀病毒肺炎相關通報(含2,433,271例排除)，其中15,906例確診，分別為1,359例境外移入，14,494例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計827例COVID-19死亡病例，其中819例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16006)，為本國籍50多歲男性，近期無國內外旅遊史，今(2021)年8月18日陪家人就醫，因家人需住院治療，故於同日接受陪病者採檢，於今日確診(Ct值22.7)；個案為無症狀感染，衛生單位已啟動醫院及社區調查與防治，相關接觸者匡列中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至80多歲，發病日介5月24日至6月13日，確診日介於6月2日至6月15日，死亡日介於8月13日至8月17日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月17日累計公布14,681位確診個案中，已有13,545人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至50多歲，分別自美國(案16002)、立陶宛(案16003)、越南(案16004)、阿拉伯聯合大公國(杜拜) (案16005)及伊朗(案16007)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月6日至8月17日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,429,464例新型冠狀病毒肺炎相關通報(含2,411,951例排除)，其中15,897例確診，分別為1,356例境外移入，14,488例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計826例COVID-19死亡病例，其中818例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$附件1-8月19日新增死亡COVID-19確診個案表.pdf\$\@\$附件2-8月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )自8月16日10時起，已開放高端疫苗預約，至今日12時截止，總計約41.9萬人完成預約，並將於8月23日至8月29日施打。惟為利疫苗資源有效利用，將自8月18日16時至8月20日12時止，增加開放「8月13日12時以前意願登記，且為35歲至20歲(含)[即2001年8月23日(含)以前出生]民眾預約，估計約有29.8萬人。\$\@\$指揮中心說明，請符合上述預約接種資格者，可於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象同樣預定於8月23日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月16日10時至8月18日12時止)已宣布之符合預約資格對象，包含「65歲以上長者」、「64歲至20歲(含)第九類對象」以及「64歲至36歲(含)民眾」，依原預約時間，已於8月18日中午12時停止預約及修改；8月18日16時至8月20日12時，則僅開放上述增加開放對象進行預約。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增11例COVID-19確定病例，分別為6例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(均非居家隔離期間陽性者)，為2例男性、4例女性，年齡介於20多歲至80多歲，其中1例8月14日發病，餘均為無症狀感染，個案分布為臺北市4例、新北市2例；其中2例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月16日累計公布14,663位確診個案中，已有13,214人解除隔離，解隔離人數達確診人數90.1%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為1名男性、4名女性，年齡介於20多歲至40多歲，分別自美國(案15996、案15998)、阿拉伯聯合大公國(杜拜)(案15997)、印度(案15999)、法國(案16000)入境，入境日介於5月17日至8月15日，均持有搭機前3日內檢驗陰性報告。詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,407,073例新型冠狀病毒肺炎相關通報(含2,389,646例排除)，其中15,891例確診，分別為1,351例境外移入，14,487例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月18日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -517,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -562,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>44433</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -579,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>44433</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -596,16 +719,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -613,16 +736,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -630,16 +753,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>44432</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -647,13 +770,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -661,16 +787,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -678,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -695,13 +821,186 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44430</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
         <v>44429</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44427</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -716,6 +1015,16 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1077">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>捷克政府提供3萬劑 Moderna COVID-19疫苗預定於8月29日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增23例COVID-19確定病例，分別為13例本土及10例境外移入</t>
+  </si>
+  <si>
     <t>COVID-19公費疫苗預約平臺自8月28日納入接種BNT疫苗選項；另第七期提供接種AZ疫苗並自8月29日10時開始預約</t>
   </si>
   <si>
@@ -61,6 +67,762 @@
     <t>我國COVID-19科技防疫APEC視訊國際研討會首登場，增進亞太地區團結抗疫及應變能力</t>
   </si>
   <si>
+    <t>指揮中心宣布自8月27日零時起，入境旅客前往檢疫地點均應搭乘「防疫車輛」，不得自行駕車前往</t>
+  </si>
+  <si>
+    <t>全國醫院自今(2021)年8月24日起，有條件開放探病，並調整風險縣市住院病人及陪病者篩檢措施</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為1例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>為防堵Delta變異株入侵社區，指揮中心啟動COVID-19加強監測方案</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為4例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為6例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>因應帛琉出現確診個案，指揮中心啟動相關檢疫應變措施</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台增加開放8月16日以後新增或加選登記高端疫苗民眾預約，於8月27日起施打</t>
+  </si>
+  <si>
+    <t>因應國內疫情趨緩，重啟境外生專案入境作業</t>
+  </si>
+  <si>
+    <t>指揮中心自8月24日至9月6日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為2例本土及8例境外移入</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為6例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台增加開放35歲至20歲(含)民眾預約高端疫苗，於8月23日起施打</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19確定病例，分別為6例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>我國專案輸入或製造(EUA)之COVID-19疫苗均不含豬細胞，敬請安心接種</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為4例本土及14例境外移入</t>
+  </si>
+  <si>
+    <t>食藥署召開聯亞 UB-612新冠肺炎疫苗專家審查會議</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為8例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>第六批採購Moderna疫苗24.96萬劑將於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為2例本土及7例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台將於8月16日上午10時至8月18日中午12時止開放預約，並自8月23日起開打</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為3例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>國內新增1例漢他病毒症候群病例，請民眾落實防鼠「三不」措施</t>
+  </si>
+  <si>
+    <t>指揮中心依各縣市之社區感染風險，有條件放寬住宿式長照機構訪客管理措施</t>
+  </si>
+  <si>
+    <t>52.4萬劑AstraZeneca疫苗將於今日下午抵臺，完成檢驗封緘程序後配撥給國人施打</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台第六期意願登記至8月13日中午12時結束，請把握機會儘速登記，並自8月16日上午10時可開始預約</t>
+  </si>
+  <si>
+    <t>新增16例COVID-19確定病例，分別為12例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19確定病例，分別為3例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>針對COVID-19公費疫苗預約平台，因接種單位登錄接種資料身分別誤植，致收到簡訊並已預約者，將一併提供第二劑Moderna疫苗接種</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19確定病例，分別為4例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心自8月10日至8月23日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>第五批採購Moderna疫苗9.96萬劑將於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為4例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>規劃預計自下週起開放COVID-19專責醫療院所第一線醫護工作人員，接種第一劑AZ疫苗超過10週以上對象，以莫德納疫苗完成第二劑接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台，增加開放7月19日12時前意願登記Moderna疫苗，且為53-54歲之第九類對象，預約接種第一劑</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為10例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心建議民眾出國之COVID-19疫苗接種證明取得方式</t>
+  </si>
+  <si>
+    <t>指揮中心說明 COVID-19公費疫苗預約平臺自7月30日至8月6日疫苗需求數第二批配送數量事宜</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為20例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心將於8月4日配送52.57萬劑AZ疫苗 供地方政府提供疫苗預約平臺、國高中教師及補教業者接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺將於8月5日上午10時至8月7日中午12時止開放預約接種，並自8月11日起開打</t>
+  </si>
+  <si>
+    <t>新增19例COVID-19確定病例，分別為16例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>歡度七夕情人節，「定期篩檢」是給自己和伴侶最好的禮物</t>
+  </si>
+  <si>
+    <t>新增14例COVID-19確定病例，分別為12例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心將規劃COVID-19公費疫苗預約平臺批次預約等功能，並與地方政府持續溝通可行性</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台意願登記至8月3日中午12時止進行結算，提醒已接種第一劑Moderna疫苗之第一到三類對象及孕婦儘速意願登記第二劑</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為11例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>立陶宛政府提供2萬劑AstraZeneca COVID-19疫苗於7月31日上午抵臺</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為21例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>確保已預約民眾施打權益，指揮中心籲請各地方政府依計畫順序進行施打</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為16例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺開放意願登記，並開放第二劑Moderna COVID-19疫苗意願登記，請民眾儘速上網完成意願登記</t>
+  </si>
+  <si>
+    <t>新增20例COVID-19確定病例，分別為18例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>7月27日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺自今日14時起重新開放意願登記，並新增選擇接種高端疫苗選項</t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗58.2萬劑將於今(27)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增17例COVID-19確定病例，分別為16例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第四輪自7月30日起開打</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19確定病例，分別為10例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>因應全球COVID-19疫情回升且Delta變異株持續傳播 持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>汽車旅館及相關旅宿若未通報開趴群聚     將依情節輕重及相關法規裁處</t>
+  </si>
+  <si>
+    <t>新增13例COVID-19確定病例，分別為12例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>調整「COVID-19疫苗合約醫療院所免費提供民眾接種服務獎勵措施」，提高每人次獎勵至100元，以鼓勵合約醫療院所免費提供接種服務，加速全民接種</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為24例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>「疫調輔助平臺」7月26日上線 指揮中心：運用資訊科技以便捷疫調工作</t>
+  </si>
+  <si>
+    <t>指揮中心提醒AstraZeneca及Moderna COVID-19疫苗第二劑接種事宜</t>
+  </si>
+  <si>
+    <t>指揮中心自7月27日至8月9日調降疫情警戒標準至第二級，請民眾持續配合防疫措施，守護彼此健康</t>
+  </si>
+  <si>
+    <t>新增24例COVID-19確定病例，分別為23例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>我國Moderna COVID-19疫苗接種間隔，係參考國際間接種建議，並經專家討論後審慎研訂</t>
+  </si>
+  <si>
+    <t>失智社區服務據點遵照防疫管理指引，即可逐步恢復提供服務</t>
+  </si>
+  <si>
+    <t>新增33例COVID-19確定病例，分別為30例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心宣布與美國Moderna公司再簽署3,600萬劑COVID-19疫苗供應合約</t>
+  </si>
+  <si>
+    <t>因應颱風，請地方衛生單位及COVID-19疫苗合約醫療院所確保疫苗冷儲運作正常；如接種作業停止，於公費疫苗平臺完成預約民眾可保留資格</t>
+  </si>
+  <si>
+    <t>感謝檢疫人員為國人健康，持續戍守邊境，執行各項強化管制措施</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為16例本土及9例境外移入</t>
+  </si>
+  <si>
+    <t>有關媒體報導「桃機採檢室5間增至19間，人力沒補」一事，指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增24例COVID-19確定病例，分別為18例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>7月20日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第三輪意願登記截止，並自明(7/20)日上午10時起預約接種</t>
+  </si>
+  <si>
+    <t>衛福部核准高端MVC-COV1901新冠肺炎疫苗專案製造</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為15例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>自110年7月20日起恢復調派移工變更工作場所 雇主需於調派日前3日內安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>為使疫苗資源有效運用，Moderna疫苗第二劑接種對象擴及至第二類及三類，請各縣市及合約醫療院所加強推動符合資格民眾接種</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為15例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為8例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>近期城市汙水廠採驗結果皆為陰性，指揮中心將持續進行環境監測</t>
+  </si>
+  <si>
+    <t>新增32例COVID-19確定病例，分別為29例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測全球Delta變異株流行情形，自7月18日零時起增列緬甸為「重點高風險國家」</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第二輪預約接種自明(7/16)日開打，第三輪「意願登記」結算將延長至7月19日中午12時止</t>
+  </si>
+  <si>
+    <t>暴露後狂犬病免疫製劑接種適用對象，新增黃喉貂，並自本(110)年7月1日起適用</t>
+  </si>
+  <si>
+    <t>153萬劑AstraZeneca疫苗及35萬劑Moderna疫苗將於今(15)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為14例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>社區式服務之衛生福利機構可依照相關防疫管理指引，逐步恢復提供服務</t>
+  </si>
+  <si>
+    <t>新增27例COVID-19確定病例，分別為17例本土及10例境外移入</t>
+  </si>
+  <si>
+    <t>7月13日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>新增29例COVID-19確定病例，分別為28例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺  即日起開放18歲(含)以上民眾進行第三輪意願登記</t>
+  </si>
+  <si>
+    <t>為儘速提升第一劑COVID-19疫苗涵蓋率，第二劑Moderna疫苗接種間隔調整自第10週起接種</t>
+  </si>
+  <si>
+    <t>自7月13日起恢復移工轉換雇主，雇主需於承接日前3日內安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>籲請50歲(含)以上及18歲(含)以上第9類對象至COVID-19公費疫苗預約平臺登記意願  7月13日起陸續簡訊通知進行預約</t>
+  </si>
+  <si>
+    <t>新增31例COVID-19確定病例，分別為28例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>新增33例COVID-19確定病例，分別為31例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增36例COVID-19確定病例，分別為32例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>即日起開放全國第9及第10類對象意願登記</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為18例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>針對媒體報導「指揮中心設局召開記者會」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>指揮中心延長全國疫情警戒第三級至7月26日止，嚴守社區防線，並自7月13日起適度鬆綁部分措施</t>
+  </si>
+  <si>
+    <t>指揮中心訂購第二批AZ疫苗62.6萬劑將於今(7)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增40例COVID-19確定病例，分別為39例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除</t>
+  </si>
+  <si>
+    <t>新增29例COVID-19確定病例，分別為27例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>日本政府提供113萬劑AstraZeneca COVID-19疫苗將於7月8日下午抵臺</t>
+  </si>
+  <si>
+    <t>7月6日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>報載「疾病管制署造冊人數，超過編制內人數」 指揮中心說明：人員皆符合規定 以利防疫運作</t>
+  </si>
+  <si>
+    <t>新增39例COVID-19確定病例，分別為37例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增80例COVID-19確定病例，分別為76例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>針對6月8日起曾在臺北市環南市場活動人員，將發送疫情警示簡訊</t>
+  </si>
+  <si>
+    <t>新增58例COVID-19確定病例，分別為57例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>7月2日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自7月2日中午12時加強國際港埠入境人員健康監測</t>
+  </si>
+  <si>
+    <t>國內新增2例日本腦炎病例，籲請民眾出入高風險場所加強防蚊，並按時帶幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>即日起，恢復家庭類移工轉換雇主，雇主應於接續當日安排移工檢驗PCR</t>
+  </si>
+  <si>
+    <t>新增50例COVID-19確定病例，分別為47例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與農委會制定「批發市場防疫管理措施建議指引」 協助批發市場防疫</t>
+  </si>
+  <si>
+    <t>Moderna第三批採購疫苗41萬劑將於今(30)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增56例COVID-19確定病例，分別為55例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>簡訊實聯制數據係以合法性、正當性、必要性進行使用，絕無違法情事</t>
+  </si>
+  <si>
+    <t>針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」 指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增54例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>6月29日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>新增60例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>本島各機場前往離島自願快篩而呈陽性反應之旅客，將進行PCR採檢陰性後，始允許登機</t>
+  </si>
+  <si>
+    <t>全球Delta變異株流行，即日起，入境人士前往檢疫地點應搭乘防疫車輛</t>
+  </si>
+  <si>
+    <t>網傳「mRNA疫苗會使接種者變成轉基因生物體」，指揮中心：疫苗品質安全把關，民眾用藥有保障</t>
+  </si>
+  <si>
+    <t>新增89例COVID-19確定病例，分別為88例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗第一階段分配事宜</t>
+  </si>
+  <si>
+    <t>因應屏東Delta印度變異株群聚及相關感染事件，指揮中心已採取相關應變措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>新增78例本土COVID-19確定病例，另有2例境外移入</t>
+  </si>
+  <si>
+    <t>集中檢疫所開放高風險7國以外入境者自費入住</t>
+  </si>
+  <si>
+    <t>第二劑AZ COVID-19疫苗接種說明</t>
+  </si>
+  <si>
+    <t>6月25日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為有效利用COVID-19疫苗 當日最後一瓶開瓶剩餘劑量將開放候補接種</t>
+  </si>
+  <si>
+    <t>因應全球Delta變異株流行，自6月27日零時起，全面提升入境人員檢疫措施</t>
+  </si>
+  <si>
+    <t>新增76例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>民眾使用COVID-19家用快篩試劑流程與注意事項</t>
+  </si>
+  <si>
+    <t>新增130例COVID-19確定病例，分別為129例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與相關單位持續精進「市場專案」相關措施，達到社區清零目的</t>
+  </si>
+  <si>
+    <t>指揮中心維持全國疫情警戒第三級至7月12日止，希望國人共體時艱，共同抗疫</t>
+  </si>
+  <si>
+    <t>因應臺北農產運銷公司群聚感染事件，指揮中心啟動「市場專案」強化相關防疫作為</t>
+  </si>
+  <si>
+    <t>新增104例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗之分配規劃、第一批次分配原則與接種對象</t>
+  </si>
+  <si>
+    <t>因應印度變種病毒蔓延 居家檢疫及居家隔離期滿者均須進行PCR檢測 以維護國內社區安全</t>
+  </si>
+  <si>
+    <t>6月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心說明「COVID-19疫苗公費接種對象」及現階段開放接種實施對象</t>
+  </si>
+  <si>
+    <t>新增78例COVID-19本土病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>修正雇主聘僱移工防疫指引，明定雇主應落實防疫措施</t>
+  </si>
+  <si>
+    <t>新增75例COVID-19本土病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾待身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>美國政府捐贈250萬劑Moderna COVID-19疫苗將於今(20)日傍晚抵臺</t>
+  </si>
+  <si>
+    <t>新增109例COVID-19病例，為107例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾視身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>已接種一劑AZ COVID-19疫苗之民眾，可陸續完成第二劑接種</t>
+  </si>
+  <si>
+    <t>新增128例COVID-19病例，為127例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>6月18日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增175例COVID-19本土病例</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增167例COVID-19本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>國產疫苗審查皆以科學、專業為原則，並依法規程序採購</t>
+  </si>
+  <si>
+    <t>第二批莫德納(Moderna) COVID-19疫苗預計於6月18日起配送，請合約醫療院所開啟預約掛號服務，提供符合對象者預約接種</t>
+  </si>
+  <si>
+    <t>指揮中心說明疫苗接種第二類「中央及地方政府防疫人員」含括對象</t>
+  </si>
+  <si>
+    <t>日本提供我國AstraZeneca COVID-19疫苗第二次分配量說明</t>
+  </si>
+  <si>
+    <t>補助全國快速PCR檢驗儀 加速社區檢驗量能</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增132例本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>6月15日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增263例COVID-19本土確定病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心針對好心肝診所提供非開放接種對象接種疫苗案，將由司法單位依法徹查，還原真相，嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心說明配送至臺北市轄內合約醫院協助專案對象接種事宜</t>
+  </si>
+  <si>
+    <t>因應COVID-19疫情，調整COVID-19疫苗公費優先接種對象</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例COVID-19本土確定病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19疫苗須依循指揮中心所訂之接種順序依序施打</t>
+  </si>
+  <si>
+    <t>6月8日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增219例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>國內出現自呼吸道疾病病人中分離出H1N2v流感病毒案例，病患已痊癒，疾管署呼籲民眾做好個人健康管理</t>
+  </si>
+  <si>
+    <t>加強訪查移工宿舍落實防疫工作  增訂企業因應員工確診應變處置</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增211例本土COVID-19個案、3例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級延長至6月28日，相關防疫措施持續執行，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：目前我國COVID-19疫苗無自費接種規劃，並無所謂「自費負擔」之問題存在，而未來將依序開放全體國民公費接種，相關行政費用皆由政府負擔</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增335例本土COVID-19個案，另有8例校正回歸個案</t>
+  </si>
+  <si>
+    <t>針對苗栗縣電子廠群聚感染案件，指揮中心說明前進指揮所協助防疫作為</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：全民免費接種COVID-19疫苗公費疫苗順序，將由指揮中心陸續公布</t>
+  </si>
+  <si>
+    <t>指揮中心：政府已於特別預算編列40億，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務，自6月7日起實施</t>
+  </si>
+  <si>
+    <t>指揮中心澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關確診及死亡資訊都有公開</t>
+  </si>
+  <si>
+    <t>自即日起，暫停移工轉換雇主等作業以減少人員流動 防杜疫情擴散</t>
+  </si>
+  <si>
+    <t>苗栗縣2家電子廠發生群聚感染案件，前進指揮所已立即啟動相關防疫措施，避免感染擴大</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增476例本土，另有35例校正回歸個案</t>
+  </si>
+  <si>
+    <t>近期各地皆有豪大雨，請民眾落實孳生源清除及防蚊措施，防範登革熱</t>
+  </si>
+  <si>
+    <t>確保COVID-19重症病人照護品質  指揮中心辦理新冠病毒重症個案臨床處置線上課程</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增339例本土、2例境外移入COVID-19個案，另有133例校正回歸個案</t>
+  </si>
+  <si>
+    <t>苗栗縣某電子廠發生群聚感染案件，指揮中心即刻設立前進指揮所協助緊急防疫</t>
+  </si>
+  <si>
+    <t>日本政府提供124萬劑AstraZeneca COVID-19疫苗將於今(4)日下午抵臺</t>
+  </si>
+  <si>
+    <t>6月4日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增364例本土、2例境外移入COVID-19個案，另有219例校正回歸個案</t>
+  </si>
+  <si>
+    <t>譴責暴力行為 指揮中心：修法給予防疫人員妥善照顧</t>
+  </si>
+  <si>
+    <t>指揮中心規劃推動COVID-19疫苗大規模接種作業，加速民眾獲得免疫保護力</t>
+  </si>
+  <si>
+    <t>專家會議決議持續推行AstraZeneca COVID-19疫苗接種作業，並確實執行疫苗接種不良事件監測作業</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增372例本土COVID-19確定病例，另有177例校正回歸個案</t>
+  </si>
+  <si>
+    <t>衛福部依法撤銷110年5月31日連江縣及6月1日澎湖縣、金門縣政府之公告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增262例本土、5例境外移入COVID-19個案，另有65例校正回歸個案</t>
+  </si>
+  <si>
+    <t>6月1日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>交通部所屬5航空站設立篩檢站，有症狀旅客不予搭機、過去14天內有症狀須現場快篩陰性始得搭機</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例本土、4例境外移入COVID-19個案，另有73例校正回歸個案</t>
+  </si>
+  <si>
+    <t>保障國人健康 已向國外採購2,000萬劑及預採購國產1,000萬劑COVID-19疫苗</t>
+  </si>
+  <si>
+    <t>守護國人健康，指揮中心全力供應防疫物資，並自6月1日起公開物資撥配資料供各界查詢</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增266例本土COVID-19個案，另有89例校正回歸個案</t>
+  </si>
+  <si>
+    <t>我國Moderna疫苗皆為原廠進口，請民眾安心接種</t>
+  </si>
+  <si>
+    <t>全國社區篩檢站設置補助上路，提高民眾採檢可近性</t>
+  </si>
+  <si>
+    <t>我國疫苗政策兩大原則：由中央政府與原廠簽約採購並統籌分配執行</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增320例本土、7例境外移入COVID-19個案，另有166例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心對於日本政府有意提供COVID-19疫苗，表達感謝與尊重</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增297例本土、2例境外移入COVID-19個案，另有258例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月28日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>Moderna首批疫苗15萬劑將於5月28日下午抵臺</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增401例本土、4例境外移入COVID-19個案，另有266例校正回歸個案</t>
+  </si>
+  <si>
+    <t>5月27日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>強化COVID-19第三級疫情警戒相關措施及裁罰說明，請民眾確實遵守</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增302例本土、2例境外移入COVID-19個案，另有331例校正回歸個案</t>
+  </si>
+  <si>
+    <t>指揮中心依疫情監測評估，即日起將香港調整為低風險，以色列增列為中低風險，越南自中低風險移除</t>
+  </si>
+  <si>
+    <t>5月26日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>國內新增1例日本腦炎病例，提醒民眾加強防蚊並按時攜幼兒接種疫苗</t>
+  </si>
+  <si>
+    <t>金門縣、澎湖縣及連江縣可在符合相關條件及流程下  提供自願性採檢服務</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增281例本土、2例境外移入COVID-19個案，另有261例校正回歸個案</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WRe3gjz4lTnVbMHCOUpyuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HJD22rw3XEPUcz_Vz-75Ug?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/1hAP5bx29Nm1o3kRjMUuZA?typeid=9</t>
   </si>
   <si>
@@ -91,6 +853,786 @@
     <t>/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HByI1XXj0j0uRCXlxEbkYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1PP5_Nbtc5QiTnOudRxOhA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uQz0FhPiYJbyzBXNENTRYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7D5qw03O_5mh2bLiTxZz9A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AXNRv5f-4_d2K3Asg1uPVw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u8aPPCQHzg2HWET30BEV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oC4Rci1Mx3UtM8nKYumVpA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UWJhrUx3huNvemgBRQfyxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-6VaCXZESXPQ3aQy2TjWLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RFe9mEhp3mP3X8mxWOF_Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v10aCW4aH1oGA9oNFxxJ_g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/C0IvQm2fw3JXoSb-lo-Q-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4xa8MuLOUCL1bD8rUdUdGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3SE7KsEWhx0RHJ7KagA_tA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/koz0rbDV2yhLLdSUW1t2Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3N7SGar7tsvfk6u5FEQb_w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/scHfvc3EM4yxva192-6xow?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QsICUamqs_LK2XHX3n_KvA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PCqKNpVED4mxRia1zaN8Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SjX7QJUzmOmhDTJFl-Nouw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wmThnLvTBe8aSq-XJfi7Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TiwqyY2a2UD542IIigNd4Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QHHV7y8uMR4ZjqB6CnjwjQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V8h5YYEiHHh3VE83C_Qulw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6L1CRGz1tIYSgJlgRjut-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/z7XCUKlXoubnJKPp0gzpng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ztvglSnkA8_j6e9pvbPeuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zBSYvBtvprK55H08irXBwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rEkGqTzLoF3TtCb1mBaaSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/bv-PSugy2Wnhnn4oUPWdfw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0WOGUWf6BIyaMI8V5w9hoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kYO4SKzwdY_NFeeBFlg-VQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/P16V5CiOMz1FHhKbcORvBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NehaPSl3BKRwvHBo5_eSHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/q57O8G7ps1bHZswBzBP_Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9Cj9YWVE7Q19G9NwhNDa0A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DY-FVbUu8CSZM8in_1ZMtg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Izn1EGSiCDrgtgaUrSz9QQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/brwb9yZ4DBf5cD191r_qwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qC1589tILdAIgicwQJ6zlA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aresuMq4RsGY2pqhYAnErQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IAP-YbZY7-O6wIlnkpI-tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ovL3vbjOz8jdlIqsfzUnFg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3wtXbG0cLMAxZN6XNUf95g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/27f08UDJuOCPYs7I2sT_ZQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nXTrcZWcqyMW8TBCsEPVYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2FgGduGbRJzsDE0wmhR8Tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9fWPl9mnorw4IOENTNvEQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6LQ7LVOsuZNqq2EGjxmBsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nv3f0VFT8XYvVFzppkHOPw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wFL8htmKdTXeb4nWUE7dXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OTqEp7Khe-u8b8UsM1o0mQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Mi0ksk8-ozOV4-i79xKNdQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZoKPLEyofrZlLXKKqL1VmA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/egbGFxLkDDPMoPvQjqvYKQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B-q5olcKuBQQnVdUhEJyng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1CgiYux--m_W0047lttHPg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VSO1QqYie-snM91eMcxWfA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xs3elMFhOpNiBYVwJtPjuA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/t3y12ZT1GjIsbm_Dv2JWWw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rVZ1dkbtACeqf4cypmsrkg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/X4kq2ZZXIHfcae6Oer3Hug?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e0v8zImE3rGJ0072A86NHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mQKUUbHhgQ7Nqez4-c3ikg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CYW0F3HIxmgx74RlR7jLuA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/unIBKNQU0KVgKdz_oR5lFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qQUu0BeaYg_zgfTOISQnSw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/U_wcDCb6rXUdg55TQ-jLlg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/EmaqqzhkRxc7VDZBpjOIOA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9goK6mfRQP3eAOVqPXNAyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lhdbzRTt-LN7qAJV8rES4g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/h45utDFpJqz9XI3VAis1yA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/D-lyKRriu-QBn2ydTdwyZw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gzkfXTnBuktqDJ3BXhI54w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/au9qBuU-ft4ueA56WlXGPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/fJu3NrBv5eVgPKLyZxGvyQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7Ct5hMov8Tbtg1FNdufD7g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dgODsBkc6rgudVfEtONAyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DWFR-QOhHCu41HVXYRXAVA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0_5hYtFaIW9kmfkkRHA0fQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B34H9oWmz6AnDmYSsCIHHg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kA2aOz-R6HIFy232juX3FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8J0zKvCwRhnEIxcDO93kog?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qSj5Zk3qZf_2Om9XsxHj7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ppvh82lbGAf4mdyYY3JanQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/djglefBeFAgAOPL4Kq7-0A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/yZAmavXm44dCHkOMtcPprQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1MZ7DQZCr19SPEPOs9xKiw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OlKSN2zbT7JgzxRvLS56dw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WRe3gjz4lTnVbMHCOUpyuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HJD22rw3XEPUcz_Vz-75Ug?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/1hAP5bx29Nm1o3kRjMUuZA?typeid=9</t>
   </si>
   <si>
@@ -121,6 +1663,786 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HByI1XXj0j0uRCXlxEbkYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1PP5_Nbtc5QiTnOudRxOhA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uQz0FhPiYJbyzBXNENTRYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7D5qw03O_5mh2bLiTxZz9A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AXNRv5f-4_d2K3Asg1uPVw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u8aPPCQHzg2HWET30BEV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oC4Rci1Mx3UtM8nKYumVpA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UWJhrUx3huNvemgBRQfyxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-6VaCXZESXPQ3aQy2TjWLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RFe9mEhp3mP3X8mxWOF_Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v10aCW4aH1oGA9oNFxxJ_g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/C0IvQm2fw3JXoSb-lo-Q-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4xa8MuLOUCL1bD8rUdUdGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3SE7KsEWhx0RHJ7KagA_tA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/koz0rbDV2yhLLdSUW1t2Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3N7SGar7tsvfk6u5FEQb_w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/scHfvc3EM4yxva192-6xow?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QsICUamqs_LK2XHX3n_KvA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PCqKNpVED4mxRia1zaN8Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SjX7QJUzmOmhDTJFl-Nouw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wmThnLvTBe8aSq-XJfi7Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TiwqyY2a2UD542IIigNd4Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QHHV7y8uMR4ZjqB6CnjwjQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V8h5YYEiHHh3VE83C_Qulw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6L1CRGz1tIYSgJlgRjut-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/z7XCUKlXoubnJKPp0gzpng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ztvglSnkA8_j6e9pvbPeuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zBSYvBtvprK55H08irXBwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rEkGqTzLoF3TtCb1mBaaSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/bv-PSugy2Wnhnn4oUPWdfw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0WOGUWf6BIyaMI8V5w9hoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kYO4SKzwdY_NFeeBFlg-VQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/P16V5CiOMz1FHhKbcORvBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NehaPSl3BKRwvHBo5_eSHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/q57O8G7ps1bHZswBzBP_Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9Cj9YWVE7Q19G9NwhNDa0A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DY-FVbUu8CSZM8in_1ZMtg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Izn1EGSiCDrgtgaUrSz9QQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/brwb9yZ4DBf5cD191r_qwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qC1589tILdAIgicwQJ6zlA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aresuMq4RsGY2pqhYAnErQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IAP-YbZY7-O6wIlnkpI-tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ovL3vbjOz8jdlIqsfzUnFg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3wtXbG0cLMAxZN6XNUf95g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/27f08UDJuOCPYs7I2sT_ZQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nXTrcZWcqyMW8TBCsEPVYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2FgGduGbRJzsDE0wmhR8Tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9fWPl9mnorw4IOENTNvEQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6LQ7LVOsuZNqq2EGjxmBsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nv3f0VFT8XYvVFzppkHOPw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wFL8htmKdTXeb4nWUE7dXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OTqEp7Khe-u8b8UsM1o0mQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Mi0ksk8-ozOV4-i79xKNdQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZoKPLEyofrZlLXKKqL1VmA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/egbGFxLkDDPMoPvQjqvYKQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B-q5olcKuBQQnVdUhEJyng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1CgiYux--m_W0047lttHPg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VSO1QqYie-snM91eMcxWfA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xs3elMFhOpNiBYVwJtPjuA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/t3y12ZT1GjIsbm_Dv2JWWw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rVZ1dkbtACeqf4cypmsrkg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/X4kq2ZZXIHfcae6Oer3Hug?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e0v8zImE3rGJ0072A86NHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mQKUUbHhgQ7Nqez4-c3ikg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CYW0F3HIxmgx74RlR7jLuA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/unIBKNQU0KVgKdz_oR5lFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qQUu0BeaYg_zgfTOISQnSw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/U_wcDCb6rXUdg55TQ-jLlg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/EmaqqzhkRxc7VDZBpjOIOA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9goK6mfRQP3eAOVqPXNAyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lhdbzRTt-LN7qAJV8rES4g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/h45utDFpJqz9XI3VAis1yA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/D-lyKRriu-QBn2ydTdwyZw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QZnxN-D_mKhbpnDTSRB2YQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gzkfXTnBuktqDJ3BXhI54w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/au9qBuU-ft4ueA56WlXGPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/fJu3NrBv5eVgPKLyZxGvyQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7Ct5hMov8Tbtg1FNdufD7g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dgODsBkc6rgudVfEtONAyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DWFR-QOhHCu41HVXYRXAVA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0_5hYtFaIW9kmfkkRHA0fQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B34H9oWmz6AnDmYSsCIHHg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kA2aOz-R6HIFy232juX3FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8J0zKvCwRhnEIxcDO93kog?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qSj5Zk3qZf_2Om9XsxHj7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TRxFQmh7DNXlnYJdF8qV-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ppvh82lbGAf4mdyYY3JanQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/djglefBeFAgAOPL4Kq7-0A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/yZAmavXm44dCHkOMtcPprQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zOQiiCl-yK8YpiAj15rDNA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mdt2oCvvps_-TB8TSliKag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RACDgdJ7AErNus7J2j37iw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/vu8IYJ-y67cc4ZpemyPBTA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1FS11QWUMT5jcui6nxcIvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3UJq0hJLq-ru0x_ktDM0tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LFEwMGAQQaE-q0wQ6ioHkQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IWGDujzOX0GnYxtf2TCw5Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1dFCXuBsiBFoOW0i9YDK9g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RlZy77CwVu9UhVlsIbpnVg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-ZC75bJni8eECGyL4uEuYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/h6gxof3idm6vTzGCwC7qJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/65J6c1wTSqx-68NNaCRU5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aiGegg4ncYmMP9dTx4W_Zw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BlxZvHJU1w5vlVvV3EqlXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2Rt1n0uftGTcpzceVxt5Zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o2v7FN9aRKyxQMLbSEh6Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UDshrp3kzpPt0FBWObobWQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FS-2y4B6C2TqLutsQbWlzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eW2VeHdKNhOsJIjrzEIQlA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PrfZ05Bfggkz1sUAAWohbg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1MZ7DQZCr19SPEPOs9xKiw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OlKSN2zbT7JgzxRvLS56dw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/75mzJEXQUlqOUK6jOkSFvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JfNJkibqwkf3ALmQsoqf9w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QdvjM3jxQOYglY2Gp2NgIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NQxqNqY1W6Y6z7xGQyKUvQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0FIpdQsOY4ttnb_dXBT1sA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4lJwtoH8B5KhGEctejJNZw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/O3bkuQKuH26ZV0XXbJYucQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4V7Iv__GIhGG03D1ghBXOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QW-rc-JUvcOMq_9P2SjxLA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/pYQ-ddE0kOM_t_QJfc8xjw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2_g7KcaGpuqcmjonS_tseQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HS0hjvHxAOTCPtNPmDo7Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LpD4TCQApQ9vv1V6scwESw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1j8W3yYnAz6bFopxt7_Www?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V6pewvqk9-nbn5aARuSARw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/yaxkF9NPpjDvDsdKXaitsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BIeGHTPRfBMrzrGAaJhH_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HzWKglQxOhCvZk1kKg0VyA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/W8nseTHzy75Qbnpgavjk-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CzOFlvhEpIoqdOEuGLOb8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nM5PTloj8i3dm5h_EI3lHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/F95aOtuKwrsJ347Xslc-ZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Ve2G8PYEHCAhycgrH0Q1PQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZgKW-VupBVtp_sGz2YXXaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/auHSp7RyQ7EesQkbPZBoaA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5NpKu8jZAKdJssJnlGxTXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/a_nNEk7-jcJcUMqE3M-Xeg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tlpf1qYwvYAgaVJbCaL1tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PPX8RUUDodGzAgui6fCasA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BNtnNefG-RoQT5bNM5KRfg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4EWlxEucoNgKJuBe4Xbc2g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/p3ITTl0IyCoc1EJTw7TuKw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mSN0dJTnpFimudzTCyQ9sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JyMrypZDwOaoqBO-YOfHvA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WR7Dwai62NQNMLcqnstemQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6SDYNSLQmI8-6VuL1GeiGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OUnnUS1b3dI3KifFOW9YDQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jorx3mlo_msAG9H81okIqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UO2dXtwLQmHkvnzmMWRDKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xBjwiZmed2hn4ErvUwq6tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-dgNWLOlnaFW6w6aXu56Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YTxcU07Y6rbbKELiJk7LCw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NbJPnux7EVXkJOnojvfmzw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/K36ktrFXahLqSBuiwMYlJw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XA0ksHRpXczO_NWgNKC8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3NTCX4wK-auPibRdNy4oNw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/t2k7j_g5n-n90Pss3bchuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e2Twbeh6ZpvhJa_qx0HoPQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CXDf3UoUsTjxO6_cwsqm3A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5uPAIXLfNRP20QWRZQSoVA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1Q_whSnJYilR4qZB9zso7w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PHfk6o4BpcxNWZRfEQ8Hvw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MLPZkT6cSIuk_hg_iRimNg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RyV8V-Cp01Sv34-qctIZnA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MykTNwPGIGQYv03z6c2rYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LiK5lHMMujoVazVF8pUmtQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NOEfl9Gg6sI7AyhGzOggHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9BEE5xAaBYH17I_aJ8WBYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AVK5_AncjajKseZJuEv4vw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/S5NomUGuTz7MaezDJ6B2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UGe-M0H22tYXGqziLPHLGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kUDnaFKXrbx9HFfhWcfeoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KahOrweh_6C0uEeNBMA96Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/94myHi5lU-69RHq6jPckrA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e_gCvxgmv4SzwJdbqXw2ig?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KJs1FiAR_wExG5FEWfJe3w?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日表示，捷克政府於7月26日宣布捐贈我國3萬劑COVID-19疫苗，經捷克衛生部與我國駐捷克代表處之通力合作安排，已於臺北時間8月27日凌晨自布拉格機場啟運，預計8月29日下午抵達桃園國際機場。該批Moderna疫苗抵臺後，將於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求時刻，捷克伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向捷克政府與民眾至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增23例COVID-19確定病例，分別為13例本土及10例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之13例本土病例(其中9例為居家隔離期間陽性者)，為6例男性、7例女性，年齡介於未滿5歲至50多歲，發病日介於今(2021)年8月16日至8月28日，個案分布為新北市11例、臺北市2例；其中9例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案16067)，為菲律賓籍60多歲男性，8月26日出現發燒症狀，8月27日入境我國後即送醫採檢確診，並於同日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月27日累計公布14,755位確診個案中，已有13,673人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為7例男性、3例女性，年齡介於10多歲至60多歲，分別自中國(案16071)、柬埔寨(案16074、16075)、美國(案16076)、緬甸(案16088、16089、16090、16091)、巴基斯坦(案16092)及越南(案16093)入境，入境日介於8月15日至8月28日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,637,402例新型冠狀病毒肺炎相關通報(含2,619,709例排除)，其中15,983例確診，分別為1,408例境外移入，14,522例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計834例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另9例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月29日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-08-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19公費疫苗預約平臺」 ( https://1922.gov.tw/ ) 自8月28日起將BNT疫苗納入意願登記選項，並維持開放18歲(含)以上民眾登記，請有意願民眾把握機會進行登記；至於12歲至17歲(含)對象，目前規劃採行流感疫苗接種模式，以校園集中接種或依通知書至地方政府衛生局指定合約醫療院所方式接種，暫不納入意願登記。另第七期將提供接種AZ疫苗，預約時間自8月29日上午10時至8月31日中午12時截止。\$\@\$指揮中心說明，第七期預約將提供於7月19日前已意願登記選擇AZ疫苗，且尚未接種過疫苗之29歲(含)以上對象[即1992年12月31日(含)以前出生]及滿18歲以上[即2003年9月3日(含)前出生]第九類對象進行接種；施打期間預計自9月3日至9月10日止，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。此外，提醒符合第七期AZ疫苗預約資格對象如欲增加選擇BNT疫苗，須於8月31日下午4時後始可加選。另已符合AZ疫苗第二劑接種間隔之民眾，將另行開放接種。\$\@\$指揮中心再次提醒，請民眾於「COVID-19公費疫苗預約平臺」開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平臺會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
   </si>
   <si>
@@ -136,6 +2458,9 @@
     <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日表示，26.5萬劑AstraZeneca疫苗已於今(27)日上午11時37分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑，本次提供第六批疫苗，截至目前總計約267.4萬劑到貨。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃環境，依臨床試驗每人需施打2劑，本批效期至今(2021)年12月7日。</t>
   </si>
   <si>
+    <t>發佈日期：2021-08-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增8例COVID-19確定病例，分別為2例本土及6例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增2例本土病例中，案16055為越南籍30多歲男性，因曾接觸確診者(案16006)， 8月19日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月25日出現喉嚨痛、喉嚨癢及頭痛症狀，由衛生單位安排就醫採檢，於今日確診(Ct值14.9)。案16056為本國籍20多歲女性，因曾接觸確診者(案15969)，8月16日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月17日出現喉嚨癢及咳嗽症狀，並於隔日緩解，8月25日接受隔離期滿前採檢，於今日確診(Ct值24)。由於2例個案隔離期間未與他人接觸，且就醫期間之相關接觸者均有適當防護，故皆無匡列接觸者。\$\@\$指揮中心說明，今日新增2例死亡個案中，案14517為80多歲男性，具慢性病史、無相關活動接觸史；6月23日因發燒就醫，6月24日採檢並住院隔離治療，6月25日確診，8月4日解除隔離，8月20日死亡。案14837為70多歲男性，具慢性病史及其他確診個案接觸史；6月27日因出現咳嗽、疲倦症狀就醫採檢，6月28日住院隔離治療，6月29日確診，7月14日解除隔離並出院，8月20日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月24日累計公布14,739位確診個案中，已有13,644人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心說明，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至50多歲，分別自美國(案16050、16052、16057)、日本(案16051、16053)及中國(案16054)入境，入境日介於8月2日至8月24日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,573,538例新型冠狀病毒肺炎相關通報(含2,556,336例排除)，其中15,947例確診，分別為1,385例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計832例COVID-19死亡病例，其中824例本土，個案居住縣市分布為新北市409例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月26日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，日前接獲台積電主動告知，鴻海永齡亦提供相關訊息表示，有另一批上海復星代理的BNT原廠疫苗，將於8月下旬出廠，而這批疫苗比捐贈單位預定的首批供應期程還要早，許多國家都在積極爭取，若臺灣不爭取，這批疫苗可能將送往其他國家。\$\@\$指揮中心表示，基於BNT疫苗可以施打12-18歲的青少年學生族群，而9月又即將開學，只要這批疫苗能夠確認是原廠出貨，而且經過安全檢驗，政府當然願意爭取這批疫苗，而疫苗早一天進來，讓學生能早日施打，家長、老師、學生都可以早一天安心。\$\@\$指揮中心指出，這批復星公司另案代理本要銷往他處的疫苗，在外盒包裝印有復必泰的品名，瓶身上則有復星醫藥等中文字樣，雖然這與原約定的標示方式不同，但政府仍願意積極爭取這批可以提早到來的疫苗，而且這批疫苗仍然是原廠製造、包裝並直送臺灣，只要確保疫苗品質安全無虞，當可在標示方式上給予彈性，所以政府接受可以照原來印的標示供貨，以利爭取這批疫苗早日供應國人使用。\$\@\$指揮中心表示，政府很感謝台積電的協助，也很感謝鴻海創辦人郭台銘先生，人在歐洲的這段期間也努力幫忙爭取，後續相關進度會再跟大家報告。從洽購疫苗，到爭取首批BNT的疫苗提早到貨，這都是官民合作的成果，對於包括鴻海永齡、台積電、慈濟三個企業和民間團體的協助，政府要再次表達由衷的感謝。\$\@\$指揮中心強調，防疫是政府唯一的考量，重要的是這個疫苗的內容物是安全有效的，輸入臺灣之後，仍要經過食藥署的檢驗封緘，確實有達到標準、安全無虞，才會開放讓民眾接種。</t>
   </si>
   <si>
@@ -143,6 +2468,783 @@
   </si>
   <si>
     <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增1例境外移入COVID-19病例(案16049)，自南非入境；另確診個案中新增1例死亡。\$\@\$指揮中心表示，案16049為南非籍20多歲男性，未接種COVID-19疫苗，於今(2021)年8月22日來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館居家檢疫，於今日確診。個案在臺期間並無症狀，衛生單位已匡列同班機接觸者3人，均列居家隔離；其餘接觸者匡列中。\$\@\$指揮中心說明，新增之死亡個案(案15845)，為70多歲女性，具慢性病史及其他確診個案接觸史，7月1日因其他原因住院，8月2日因醫院有病患確診，故安排個案進行採檢，8月4日確診，8月22日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月23日累計公布14,733位確診個案中，已有13,626人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心統計，截至目前國內累計2,548,825例新型冠狀病毒肺炎相關通報(含2,531,924例排除)，其中15,939例確診，分別為1,379例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計830例COVID-19死亡病例，其中822例本土，個案居住縣市分布為新北市409例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$疾病管制署今(25)日表示，我國運用科技進行傳染病防治工作成果獲得亞太經合會（APEC）經濟體高度肯定，並於本（110）年8月25日及26日上午9時，舉辦「APEC亞太地區傳染病數位工具應用：挑戰與機會國際研討會( Digital Tools for Addressing Infectious Disease in the Asia-Pacific Region: Challenges and Opportunities）」，由衛生福利部薛瑞元政務次長、中央研究院陳建仁院士、疾病管制署周志浩署長偕我國與18國產官學專家，於線上分享運用科技工具攜手抗疫經驗，期能增進亞太區域團結抗疫及應變能力。\$\@\$疾管署指出，COVID-19疫情在全球及亞太區域大流行，不僅對健康亦對社會與經濟發展造成重大衝擊及影響。面對疫情的威脅，薛次長致詞中表示，為因應COVID-19疫情的高度變異性，防疫亦須及時調整，單以傳統防治方式恐無法快速應對，所幸科技進步，全球數位科技已廣泛運用於COVID-19疫情監測與應變，協助防疫工作推動更順暢；期望本次研討會可強化APEC經濟體間抗疫協作與夥伴關係發展，互相交流，共同攜手合作，成功抗疫。\$\@\$疾管署說明，本研討會由陳建仁院士擔任專題講座，會中分享我國運用數位科技輔助防疫及檢疫經驗，如健保雲端系統建置「TOCC」(旅遊史、職業別、接觸史及是否群聚)提示機制、電子圍籬居家隔離系統、口罩實名制等，並由歐美亞太等18國逾40位及國內110位專家同步連線參與討論，就傳染病監測、社區防治動員、產官學合作發展創新技術及資料隱私保護等議題進行交流與分享，共同為COVID-19科技防疫工作注入新力量。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日表示，因應全球COVID-19疫情持續升溫，鄰近多國仍處於嚴峻或再創新高狀況，且Delta變異株流行範圍持續擴大，為阻絕疫情由境外擴散，指揮中心宣布自8月27日零時起（航班抵臺時間），入境旅客應搭乘「防疫車輛」逕至檢疫處所，不得自行駕車前往。\$\@\$指揮中心說明，前述措施將避免旅客自行駕車前往檢疫地點之路程中，接觸其他民眾的機會，減少病毒傳播風險，籲請民眾務必配合，維護我國社區防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日表示，鑒於本土疫情趨緩，衡酌醫療機構住院病人及民眾探病需求，自今(2021)年8月24日起，調整門禁管制及陪(探)病人員篩檢措施，請醫院配合於8月28日前(含)開始執行，相關調整說明如下(詳見新聞稿附件)：\$\@\$一、開放醫院之加護病房、安寧病房、呼吸照護病房、精神科病房、兒童病房等區域，及有身心障礙或病況危急者得探病；探病時段為每日固定1時段，每名住院病人限每次至多2名訪客為原則。為保護病人，所有探病者應出具探視日前3天內自費抗原快篩或PCR檢測陰性證明。有關指揮中心8月21日發布新聞稿，開放住院天數達7天以上者探病，將列為下一階段開放對象。\$\@\$二、為避免入院時因處於潛伏期導致偽陰性結果，風險縣市(臺北市及新北市)住院病人及其陪病者，除維持原有之入院篩檢外，增加定期篩檢措施。雙北住院病人入院第7天及第14天各進行1次公費抗原快篩。其陪病者每7天進行1次抗原快篩，1位由公費支應。\$\@\$三、陪(探)病人員如為「完成2劑COVID-19疫苗接種達14天(含)以上者」或「確定病例符合採檢陰性解除隔離條件且距發病日未滿3個月者」，得免除前述篩檢。\$\@\$指揮中心提醒，由於醫院屬於高感染傳播風險場域，籲請民眾於疫情期間儘量避免不必要的陪病或探病，建議以視訊或電話方式替代實地探視，若仍有陪病或探病需要，應配合實名登記及院方相關管理措施。陪(探)病人員須不具COVID-19相關症狀，亦未曾接觸確診個案或具相關公共場所活動史；且進入醫療機構務必全程佩戴口罩、遵循呼吸道衛生與咳嗽禮節、落實手部衛生；陪病及探病期間，以單一病房為活動範圍，減少非必要的人際交流及聚會，縮短在公共空間的停留時間，以降低交互感染風險，保障自身及病人安全。 附件\$\@\$附件-20210824因應疫情警戒標準維持第2級調整醫院COVID-19應變措施.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16044)，為本國籍70多歲男性，8月22日因其他原因就醫，採檢後於今日確診(Ct值37.7)；衛生單位已啟動醫院及社區調查與防治，目前匡列家庭接觸者1人，列居家隔離，其餘接觸者匡列中。\$\@\$指揮中心說明，今日新增1例死亡個案(案15877)，為80多歲女性，具慢性病史及其他確診個案接觸史，7月27日出現食慾不振症狀，並於同日死亡；後因同住家人確診(案15851)，故於8月5日進行採檢，8月6日確診(Ct值23.8)。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月22日累計公布14,727位確診個案中，已有13,621人解除隔離，解隔離人數達確診人數92.5%。\$\@\$今日新增5例境外移入個案均為男性，年齡介於10多歲至40多歲，分別自日本(案16043、16045、16048)、印度(案16046)、土耳其(16047)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月12日至8月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,524,269例新型冠狀病毒肺炎相關通報(含2,507,456例排除)，其中15,938例確診，分別為1,378例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計829例COVID-19死亡病例，其中821例本土，個案居住縣市分布為新北市408例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月24日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日表示，全球Delta變異株日益擴散且其傳播力強，我國境外移入病例有增加趨勢，為降低該病毒進入國內社區風險，與及時偵測國內病例阻斷傳播鏈，擬定COVID-19加強監測方案如下：\$\@\$(一)社區加強監測：8月30日將配置公費COVID-19家用快篩試劑於各縣市合約診所，由醫師判斷對具高風險民眾提供試劑，由民眾自行居家篩檢並回報快篩結果。檢驗為陽性時，再前往社區採檢站或採檢院所進行PCR檢測複驗，以強化基層診所監測能力。\$\@\$(二)國際機場特定高風險工作人員重點監測：8月30日起於桃園、臺北、臺中與高雄等四個國際機場之特定高風險工作人員，每7天以公費家用快篩試劑採檢一次，如檢驗為陽性者，再進行公費PCR檢測，以強化邊境監測能力。\$\@\$(三)廢汙水監測：擴大全國汙水SARS-CoV-2病毒監測範圍，由11處擴充為22處，以早期偵測社區中SARS-CoV-2病毒傳播狀況。\$\@\$(四)捐血人血清抗體陽性盛行率調查：針對110年4-7月份臺灣地區捐血中心捐血人之血液存檔樣本，抽樣5,000個檢體進行抗核蛋白及棘蛋白抗體檢測，以分析自然感染或接種疫苗的抗體陽性比例之地理分布及趨勢變化。\$\@\$(五)邊境進口冷凍食品包裝監測：持續在邊境採樣檢驗進口冷凍肉品、水產品及水果之內、外包裝，監控進口冷凍食品內、外包裝之SARS-CoV-2病毒污染狀況及評估消毒作業效果，以防止病毒透過進口食品包裝污染而入境我國。\$\@\$指揮中心進一步指出，目前國內疫情雖穩定控制中，但面臨Delta病毒變異株的威脅無可避免，需持續強化邊境與社區監測及各項防疫作為，避免病毒入侵社區。指揮中心未來將持續觀察疫情態勢，適度調整加強監測方案。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間陽性者)，為2例男性、2例女性，年齡介於20多歲至70多歲，其中2例發病日分別為今(2021)年8月15日、8月20日，餘2例為無症狀感染。個案分布均在新北市；其中2例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月21日累計公布14,717位確診個案中，已有13,601人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案16037為俄羅斯籍20多歲女性，未接種COVID-19疫苗，8月11日自俄羅斯來臺就學，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月20日有鼻塞等症狀，8月21日由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。案16038為40多歲立陶宛籍男性，未接種COVID-19疫苗，8月13日自立陶宛來臺工作，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月21日出現發燒、咳嗽等症狀，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,502,861例新型冠狀病毒肺炎相關通報(含2,485,203例排除)，其中15,932例確診，分別為1,373例境外移入，14,506例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增10例COVID-19確定病例，分別為6例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為3例男性、3例女性，年齡介於未滿5歲至90多歲，其中1例發病日為今(2021)年8月21日、餘5例為無症狀感染。個案分布為臺北市3例，新北市、桃園市及雲林縣各1例；其中3例為已知感染源、1例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月20日累計公布14,707位確診個案中，已有13,580人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於30多歲至50多歲，分別自日本(案16028)、德國(案16029)、南非(案16030)及印度(案16036)入境，入境日介於8月8日至8月20日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,489,074例新型冠狀病毒肺炎相關通報(含2,471,769例排除)，其中15,926例確診，分別為1,371例境外移入，14,502例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月22日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，帛琉衛生部於今日上午發布新聞稿表示，當地2位帛琉籍民眾自8月15日自關島入境，於入境後第5日COVID-19採檢檢驗陽性。帛國政府已立即採取隔離及接觸者採檢等應變措施，目前所有人員檢驗結果均為陰性，該國並將在第10天的隔離規定後再次採檢，2位進入帛琉後活動範圍不大，初步研判帛國疫情似並未擴散。此外，帛國政府已於本日重啟「緊急應變中心」（Emergency Operations Center），擴大執行疫調並追蹤詳細接觸史，密切監控疫情發展。外交部、我國駐帛琉大使館及相關單位持續掌握此案發展，並與該國保持密切聯繫。\$\@\$指揮中心說明，因應此次帛琉出現確診個案，自帛琉入境旅客，除維持自帛琉返臺入境時於機場配合採深喉唾液PCR檢測，參加臺帛旅遊泡泡之旅客於機場應落實與其他國際旅客分流，並於檢驗陰性後採「5+9」模式，於入境第0日至第5日進行加強自主健康管理，第5日自費進行PCR檢測取得陰性報告後，最快第6日起改一般自主健康管理外，另增加入境後第12-14日須公費進行PCR檢測。\$\@\$指揮中心進一步指出，加強自主健康管理期間，除一起前往旅遊及返臺者外，應入住防疫旅宿或符合1人1室之居所，且需有單獨房間與專用衛浴，共同生活者應一起採取適當防護措施，包含佩戴口罩，保持社交距離，不可共食。若沒有出現任何症狀，可以外出，但僅能從事固定且有限度之活動，且不可搭乘大眾運輸，禁止至人潮擁擠場所，採實名制，需記錄每日活動及接觸人員，不可接觸不特定人士，且應全程佩戴口罩及保持社交距離，並於入境後14天內遵守自主健康管理應注意事項。\$\@\$指揮中心提醒，欲赴帛琉旅客，同樣搭機當日於機場採檢PCR陰性，始得搭機，若檢出陽性者應配合疫情調查，其密切接觸者(如：同行家人等)亦應暫緩搭機；防疫期間赴帛琉旅遊，務請確實遵守指揮中心及帛國的防疫措施，如佩戴口罩、勤洗手及保持社交距離等規範，以維護自身的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，「COVID-19公費疫苗預約平台」將於今(2021)年8月21日中午12時進行意願登記結算，並於8月23日上午10時至8月24日下午6時止，增加開放8月16日下午2時以後新登記或加選意願登記為高端疫苗之民眾進行預約。\$\@\$指揮中心說明，本期可接種疫苗為高端疫苗，上述符合預約資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象預定於8月27日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，今(2021)年5月17日考量國內及國際COVID-19疫情升溫，宣布自5月19日開始，暫停未持居留證之非本國籍人士入境，因此教育部配合指揮中心邊境嚴管措施，暫停境外學生入境申請作業。現經評估國內疫情趨緩，且110學年度開學在即，教育部專案簽請指揮中心8月20日同意，重新開放110學年度境外學位生及華語受獎生等申請入境。\$\@\$指揮中心說明，有關重啟境外生專案入境作業，重要原則如下，並請學校預為通知境外生準備：\$\@\$一、入境前：\$\@\$1.新生及未持有效簽證/居留證/中華民國入境許可證之學生，由學校先行造冊送部函轉外交部領事事務局及內政部移民署受理學生辦理簽證或入出境許可證。\$\@\$2.學生取得簽證後，訂妥班機及檢疫場所後，通知學校透過線上申請取得同意函，並於登機前應檢具3日內COVID-19核酸檢驗陰性報告。\$\@\$二、入境後：依規定於入境時採深喉唾液PCR檢測，並於檢疫場所進行居家檢疫14天，檢疫期滿前(檢疫第12至14天)PCR檢測，此外第10至12天須以「家用快篩」採檢一次。\$\@\$三、檢疫結束後：須再進行7天自主健康管理，期滿後始得入校。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，考量國內疫情雖趨緩但仍有零星不明感染源之本土病例，經與相關單位溝通討論及評估後，宣布自今(2021)年8月24日至9月6日維持疫情警戒標準為第二級，並將維持或調整相關管制規定如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：放寬為室內80人，室外300人，若超額則向地方主管機關提報防疫計畫。\$\@\$5. 婚宴、公祭：\$\@\$(1). 公祭遵守內政部相關防疫規定處理。\$\@\$(2). 婚宴遵守每一隔間室內80人、室外300人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$6. 餐飲管理：依照衛福部規定處理，新增同住親友聚餐不受限使用隔板、梅花座及專人分菜。\$\@\$7. 醫院探病：開放加護病房、安寧病房、呼吸照護病房、精神科病房、兒童病房、身心障礙、病況危急及住院天數達7天以上者之探病；探病者須遵守探病時段、人數限制及出具篩檢陰性證明等規定。\$\@\$8. 符合主管機關防疫管理指引或規範得開放：K書中心、室內遊樂園、海釣場、海泳/浮潛等水域活動。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$指揮中心說明，目前國內疫情穩定控制中，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，籲請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增10例COVID-19確定病例，分別為2例本土及8例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之2例本土病例(均非居家隔離期間檢驗陽性者)，為新北市40多歲男性及50多歲女性，分別於8月16日及8月19日發病；其中1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案9244)，為60多歲男性，具慢性病史，無相關接觸史，5月25日出現發燒、流鼻涕等症狀，5月28日就醫採檢，檢驗陽性後於6月1日住院治療，6月2日確診，6月12日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月19日累計公布14,698位確診個案中，已有13,581人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增8例境外移入個案，為7例男性、1例女性，年齡介於10多歲至60多歲，分別自美國(案16018)、印度(案16019)、印尼(案16020至16022)、南非(案16023)、日本(案16024)、阿爾巴尼亞(案16025)入境，入境日介於8月18日至8月19日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,472,606例新型冠狀病毒肺炎相關通報(含2,455,074例排除)，其中15,916例確診，分別為1,367例境外移入，14,496例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增9例COVID-19確定病例，分別為6例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間檢驗陽性者)，為4例男性、2例女性，年齡介於未滿5歲至60多歲，其中3例發病日為今(2021)年8月18日、餘3例為無症狀感染。個案分布為新北市3例、臺北市2例及彰化縣1例；其中2例為已知感染源、2例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案15492)，為60多歲男性，具慢性病史及其他確診個案接觸史，7月9日出現咳嗽症狀，7月16日因發燒及意識不清送醫並住院隔離治療，7月17日確診，8月18日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月18日累計公布14,692位確診個案中，已有13,550人解除隔離，解隔離人數達確診人數92.2%。\$\@\$指揮中心說明，今日新增3例境外移入個案，為2例男性、1例女性，年齡介於20多歲至40多歲，分別自羅馬尼亞(案16011)、孟加拉(案16012)及英國(案16013)入境，入境日介於8月6日至8月17日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,450,350例新型冠狀病毒肺炎相關通報(含2,433,271例排除)，其中15,906例確診，分別為1,359例境外移入，14,494例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計827例COVID-19死亡病例，其中819例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16006)，為本國籍50多歲男性，近期無國內外旅遊史，今(2021)年8月18日陪家人就醫，因家人需住院治療，故於同日接受陪病者採檢，於今日確診(Ct值22.7)；個案為無症狀感染，衛生單位已啟動醫院及社區調查與防治，相關接觸者匡列中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至80多歲，發病日介5月24日至6月13日，確診日介於6月2日至6月15日，死亡日介於8月13日至8月17日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月17日累計公布14,681位確診個案中，已有13,545人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至50多歲，分別自美國(案16002)、立陶宛(案16003)、越南(案16004)、阿拉伯聯合大公國(杜拜) (案16005)及伊朗(案16007)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月6日至8月17日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,429,464例新型冠狀病毒肺炎相關通報(含2,411,951例排除)，其中15,897例確診，分別為1,356例境外移入，14,488例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計826例COVID-19死亡病例，其中818例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$附件1-8月19日新增死亡COVID-19確診個案表.pdf\$\@\$附件2-8月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )自8月16日10時起，已開放高端疫苗預約，至今日12時截止，總計約41.9萬人完成預約，並將於8月23日至8月29日施打。惟為利疫苗資源有效利用，將自8月18日16時至8月20日12時止，增加開放「8月13日12時以前意願登記，且為35歲至20歲(含)[即2001年8月23日(含)以前出生]民眾預約，估計約有29.8萬人。\$\@\$指揮中心說明，請符合上述預約接種資格者，可於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象同樣預定於8月23日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月16日10時至8月18日12時止)已宣布之符合預約資格對象，包含「65歲以上長者」、「64歲至20歲(含)第九類對象」以及「64歲至36歲(含)民眾」，依原預約時間，已於8月18日中午12時停止預約及修改；8月18日16時至8月20日12時，則僅開放上述增加開放對象進行預約。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增11例COVID-19確定病例，分別為6例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(均非居家隔離期間陽性者)，為2例男性、4例女性，年齡介於20多歲至80多歲，其中1例8月14日發病，餘均為無症狀感染，個案分布為臺北市4例、新北市2例；其中2例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月16日累計公布14,663位確診個案中，已有13,214人解除隔離，解隔離人數達確診人數90.1%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為1名男性、4名女性，年齡介於20多歲至40多歲，分別自美國(案15996、案15998)、阿拉伯聯合大公國(杜拜)(案15997)、印度(案15999)、法國(案16000)入境，入境日介於5月17日至8月15日，均持有搭機前3日內檢驗陰性報告。詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,407,073例新型冠狀病毒肺炎相關通報(含2,389,646例排除)，其中15,891例確診，分別為1,351例境外移入，14,487例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月18日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-17\$\@\$中央流行疫情指揮中心今(17)日表示，目前我國同意專案輸入或製造(EUA)之COVID-19疫苗均不含豬細胞，包括AstraZeneca(AZ)、Moderna、Pfizer-BioNTech(BNT)、高端等，其製造過程無使用豬細胞；同時，世界衛生組織(WHO)於今(2021)年7月24日表示，AZ、Moderna及BNT等COVID-19疫苗均符合清真認證（Halal）。\$\@\$指揮中心說明，有關近日國內印尼移工對AZ疫苗成分有所疑慮一事，經查，該疫苗含有SARS-CoV-2病毒棘蛋白(S protein)基因之非複製型腺病毒載體，利用重組DNA技術在基因改造後之人類胚胎腎臟細胞(HEK 293)內增殖，製造過程均無使用豬細胞。\$\@\$指揮中心指出，目前AZ疫苗已於沙烏地阿拉伯、阿拉伯聯合大公國(阿聯酋)、巴林、阿曼、埃及等大多數人口是穆斯林的國家使用，且多國之伊斯蘭理事會亦允許穆斯林可接種該疫苗；另，Moderna及BNT等疫苗亦取得阿拉伯聯合大公國(阿聯酋)、巴林等國EUA核准或使用，敬請安心接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增18例COVID-19確定病例，分別為4例本土及14例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間陽性者)，為3例男性、1例女性，年齡介於未滿5歲至60多歲，發病日均為8月16日，個案分布為臺北市、新北市各2例；其中2例為已知感染源、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月15日累計公布14,653位確診個案中，已有13,195人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增14例境外移入個案，為8名男性、6名女性，年齡介於未滿5歲至60多歲，分別自美國(案15975、案15980)、英國(案15976、案15977)、緬甸(案15981至案15989)、澳洲(案15990)入境，入境日介於8月3日至8月15日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計 2,382,988例新型冠狀病毒肺炎相關通報(含2,365,884例排除)，其中15,880例確診，分別為1,346例境外移入，14,481例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月17日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-16\$\@\$衛生福利部食品藥物管理署(以下簡稱食藥署) 表示，為積極因應新型冠狀病毒疾病(以下簡稱COVID-19)疫情防疫需求，於今(110)年8月15日邀請國內化學製造管制、藥學、毒理學、臨床醫學、公衛、法律及醫學倫理專家召開會議，討論聯亞UB-612新冠肺炎疫苗(以下簡稱聯亞疫苗)專案製造申請案。\$\@\$食藥署指出，當日會議經過充分的審查與討論，聯亞疫苗的臨床試驗結果顯示，該疫苗安全性可接受，具細胞免疫反應趨勢，惟中和抗體數據與國人接種AZ疫苗外部對照組的中和抗體數據相比，未能達到食藥署於110年5月28日專家會議所訂定的2項國產疫苗EUA療效評估基準。會中經投票表決，與會專家出席計22人，除了主席不參與投票外，21人投票結果為4人補件再議，17人不同意通過，建議不予核准專案製造。此外，聯亞公司已規劃於印度展開第三期臨床試驗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增10例COVID-19確定病例，分別為8例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之8例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為3例男性、5例女性，年齡介於10多歲至50多歲，發病日介於今(2021)年8月10日至8月15日。個案分布為新北市6例、臺北市及桃園市各1例；其中6例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月14日累計公布14,644位確診個案中，已有13,178人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15965為本國籍10多歲女性，已接種COVID-19疫苗，8月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月14日接受檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15972為迦納籍30多歲男性，長期居住於臺灣，無接種COVID-19疫苗，今年3月前往迦納，8月1日自迦納返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月15日接受檢疫期滿前採檢，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,361,186例新型冠狀病毒肺炎相關通報(含2,343,668例排除)，其中15,862例確診，分別為1,332例境外移入，14,477例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。 2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入 。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-15\$\@\$中央流行疫情指揮中心今(15)日表示，第六批採購Moderna疫苗24.96萬劑，已於臺北時間8月15日凌晨自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。\$\@\$指揮中心表示，我國採購之Moderna疫苗目前共有150萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41.04萬劑、第四批7月15日35.04萬劑、第五批8月8日9.96萬劑及本批24.96萬劑。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增9例COVID-19確定病例，分別為2例本土及7例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之2例本土病例(均非居家隔離期間陽性者)，均為40多歲女性，且均為無症狀感染。個案分布為臺北市1例、新北市1例；2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月13日累計公布14,637位確診個案中，已有13,172人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增7例境外移入個案，為3例男性、4例女性，年齡介於20多歲至40多歲，分別自美國(案15956、15957)、韓國(案15958)、波蘭(案15959)、南非(案15960)、阿拉伯聯合大公國(案15961)及立陶宛(案15962)入境，入境日介於8月1日至8月13日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,348,221例新型冠狀病毒肺炎相關通報(含2,331,010例排除)，其中15,852例確診，分別為1,330例境外移入，14,469例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月15日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-14\$\@\$中央流行疫情指揮中心今(14)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )將自8月16日上午10時至8月18日中午12時止開放預約，此期可接種疫苗為高端疫苗，符合預約資格對象如下：\$\@\$一、65歲以上(含)[即1956年12月31日(含)以前出生]長者\$\@\$二、64歲至20歲(含)[即2001年8月23日(含)以前出生]第九類對象\$\@\$三、64歲至36歲(含)[即1985年12月31日(含)以前出生]民眾\$\@\$指揮中心說明，上述符合預約資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此期預約預定於8月23日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增7例COVID-19確定病例，分別為3例本土及4例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(其中2例為居家隔離期間陽性者)，為1例男性、2例女性，年齡介於30多歲至60多歲，發病日均為今(2021)年8月12日。個案分布為新北市2例、臺北市1例；其中2例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案4213為50多歲男性，有慢性病史及相關活動接觸史，5月17日起陸續出現咳嗽有痰、胸痛、腹瀉症狀，5月22日就醫採檢並住院隔離治療，5月23日確診，6月11日解除隔離並出院，6月21日因其他原因死亡。案11423為90多歲女性，有慢性病史、無相關活動接觸史，6月3日出現發燒、咳嗽、嘔吐症狀，6月5日就醫採檢並住院隔離治療，6月7日確診，6月22日解除隔離並出院，7月12日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月12日累計公布14,621位確診個案中，已有13,184人解除隔離，解隔離人數達確診人數90.2%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於20多歲至50多歲，分別自菲律賓(案15950)、俄羅斯(案15951)、印尼(案15952)及越南(案15953)入境，入境日介於7月30日至8月13日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,330,539例新型冠狀病毒肺炎相關通報(含2,312,858例排除)，其中15,843例確診，分別為1,323例境外移入，14,467例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-13\$\@\$疾病管制署今(13)日公布國內新增1例漢他病毒症候群(出血熱)病例，為北部40多歲男性，近期無國內外旅遊史，活動地以住處及工作地周邊為主。個案7月25日被老鼠咬傷，同日就醫後返家，7月26日因發燒再次就醫並收治住院，經通報檢驗確診；個案目前已出院，同住者無疑似症狀。衛生單位已前往個案住處周邊進行疫情調查、環境消毒、放置鼠籠及民眾衛教等防治工作。\$\@\$依據疾管署統計資料顯示，今年截至8月12日，國內累計8例漢他病毒症候群病例，高於2017至2020年同期(分別為0、1、1、7例)，個案居住縣市為高雄市4例、台北市、新北市、台中市及彰化縣各1例；自2011年以來累計32例，性別以男性20例(佔62.5%)為多；年齡則以40歲以上25例(佔78.1%)為多。\$\@\$疾管署表示，漢他病毒出血熱為人畜共通傳染病，人類吸入或接觸遭鼠糞尿污染帶有漢他病毒飛揚的塵土、物體，或被帶病毒的齧齒類動物咬傷，就有感染風險；感染後潛伏期為數天至兩個月，主要症狀為突然且持續性發燒、結膜充血、虛弱、背痛、頭痛、腹痛、厭食、嘔吐等，約第3至6天出現出血症狀，隨後出現蛋白尿、低血壓或少尿，部分患者會出現休克或輕微腎病變，並可能進展成急性腎衰竭，經治療後病況可改善。\$\@\$疾管署呼籲，落實「不讓鼠來、不讓鼠住、不讓鼠吃」是預防漢他病毒最有效的方法，民眾應隨時做好環境清理，尤其是倉庫、儲藏室等老鼠容易窩藏的空間。如發現鼠類排泄物時，應先佩戴口罩、橡膠手套及打開門窗，並以稀釋漂白水(100cc市售漂白水+1公升清水)潑灑於可能被污染的環境，待消毒作用30分鐘後再行清理。；另為避免病毒飛揚於空氣造成傳播，請使用清除污物之拋棄式紙巾、抹布或舊報紙清理，再以垃圾袋密封後丟棄。相關資訊可至疾管署全球資訊網(https://www.cdc.gov.tw)，或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增18例COVID-19確定病例，分別為4例本土及14例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中3例為居家隔離期間或期滿檢驗陽性者)，為2例男性、2例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年8月7日至8月9日。個案分布為臺北市及高雄市各2例；其中3例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案8852為80多歲男性，有慢性病史、無相關活動接觸史，5月28日因出現發燒、呼吸喘症狀就醫採檢並收治住院，6月1日確診，6月8日解除隔離，6月26日出院，7月5日因其他原因死亡。案14165為60多歲男性，有慢性病史、無相關活動接觸史，6月17日出現發燒症狀，6月20日就醫採檢並收治住院，6月21日確診，8月4日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月11日累計公布14,615位確診個案中，已有13,142人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增14例境外移入個案，為7例男性、7例女性，年齡介於20多歲至60多歲，分別自阿拉伯聯合大公國(杜拜)(案15929)、美國(6例：案15932、15935、15937-15939、15944)、柬埔寨(2例：案15933、15934)、中國(案15936)、越南(案15940)、印尼(案15942)、印度(案15943)及泰國(案15945)入境，入境日介於7月30日至8月11日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,309,241例新型冠狀病毒肺炎相關通報(含2,292,428例排除)，其中15,836例確診，分別為1,319例境外移入，14,464本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號病例(案4166、案9260)，共累計110例移除為空號。2020年起累計819例COVID-19死亡病例，其中811例本土，個案居住縣市分布為新北市402例、臺北市312例、基隆市28例、桃園市25例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月13日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日表示，鑒於本土疫情趨緩，指揮中心宣布自8月10日至8月23日維持疫情警戒標準為第二級；考量疫情維持穩定及住宿式長照機構住民探視之需求，依機構人員疫苗接種情形及各縣市之社區感染風險，調整住宿式長照機構訪客管制措施，並將視疫情發展滾動修正。\$\@\$自即日起，中高風險以上縣市(目前為臺北市、新北市)除例外情形外仍維持暫停訪客；其他縣市則有條件開放探視。\$\@\$一、訪客須出具訪視前3天內採檢之自費篩檢陰性證明。\$\@\$二、探視應遵循「衛生福利機構與榮譽國民之家因應COVID-19訪客管理作業原則」辦理，包括：落實預約制、實聯制、詢問TOCC及限制有感染症狀者進入、每位住民每次訪客人數不可超過3人、不同住民訪客間維持社交距離、進入住房探視每住房每時段原則上僅開放1位住民接受訪客探視、全程佩戴口罩等。\$\@\$指揮中心表示，若訪客為「確診者取得解除隔離治療通知書且距發病日未滿3個月者」或「完成2劑COVID-19疫苗接種達14天(含)以上者」，可免除前述篩檢之要求。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日表示，AstraZeneca疫苗約52.4萬劑，預定今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已到貨3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑，本次提供第五批疫苗，截至目前總計約241萬劑到貨。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至110年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中1例為居家隔離期間檢驗陽性者)，為3例男性、1例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年8月4日至8月9日。個案分布為臺北市3例、新北市1例；其中2例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案15379)，為80多歲男性，有慢性病史及其他確診個案接觸史，6月29日因其他原因住院治療，後因照顧者(案15334)確診，於7月12日進行接觸者採檢，7月13日確診，8月7日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月10日累計公布14,599位確診個案中，已有13,121人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15927為美國籍20多歲女性，已接種COVID-19疫苗，8月4日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月11日出現咳嗽及味覺異常症狀，由衛生單位安排就醫採檢，於今日確診；相關接觸者匡列中。案15928為英國籍60多歲男性，長期居住於臺灣，已接種COVID-19疫苗，7月17日前往俄羅斯工作，8月10日返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館居家檢疫，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，其中1人為同行者，列居家隔離，另1人為具適當防護之專車司機，列自我健康監測，其餘同班機接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,289,602例新型冠狀病毒肺炎相關通報(含2,272,067例排除)，其中15,820例確診，分別為1,305例境外移入，14,462本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計817例COVID-19死亡病例，其中809例本土，個案居住縣市分布為新北市402例、臺北市311例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-11\$\@\$中央流行疫情指揮中心今(11)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )於7月27日起將高端疫苗納入意願登記，此期意願登記將於8月13日中午12時結束並進行結算，請尚未意願登記民眾把握機會，儘速完成登記，保障自身權益。\$\@\$指揮中心說明，本期可接種疫苗為高端疫苗，可預約時間自8月16日上午10時起至8月18日中午12時截止；施打期間預計自8月23日至8月29日止，並視疫苗供應期程調整接種場次。開放預約接種對象將依據意願登記結算情形決定。\$\@\$指揮中心再次提醒，請民眾於「COVID-19公費疫苗預約平台」開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平台會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增16例COVID-19確定病例，分別為12例本土及4例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為9例男性、3例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年8月2日至8月10日。個案分布為新北市6例、臺北市4例及基隆市2例；其中7例為已知感染源、3例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案6581為70多歲男性，有慢性病史、無相關活動接觸史，5月21日出現發燒、全身倦怠症狀，隔日因意識改變、呼吸喘就醫採檢並住院隔離治療，5月27日確診，6月19日解隔離出院，7月8日死亡。案13510為90多歲男性，有慢性病史、無相關活動接觸史，6月14日出現發燒、疲倦症狀，6月15日就醫採檢，6月16日住院隔離治療，6月17日確診，7月10日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月9日累計公布14,591位確診個案中，已有13,111人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增4例境外移入個案均為男性，年齡介於20多歲至60多歲，分別自荷蘭(案15912)、印尼(案15913)及英國(案15921、案15922)入境，且皆持有搭機前3日內檢驗陰性報告，入境日介於7月28日至8月9日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,268,145例新型冠狀病毒肺炎相關通報(含2,251,025例排除)，其中15,814例確診，分別為1,303例境外移入，14,458本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計816例COVID-19死亡病例，其中808例本土，個案居住縣市分布為新北市401例、臺北市311例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月11日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增8例COVID-19確定病例，分別為3例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(其中1例為居家隔離期間或期滿檢驗陽性者)，為1例男性、2例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年8月2日至8月7日。個案分布均在新北市；其中2例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案13568)，為50多歲女性，有慢性病史及其他確診個案接觸史，6月14日出現發燒、呼吸喘等症狀至醫院採檢，6月15日檢驗陽性並住院，6月17日確診，8月6日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月8日累計公布14,583位確診個案中，已有13,103人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為2例男性、3例女性，年齡介於10多歲至60多歲，分別自法國(案15899)、美國(案15900、案15901)、印尼(案15904)及瑞士(案15906)入境，入境日介於6月28日至8月8日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,243,540例新型冠狀病毒肺炎相關通報(含2,226,482例排除)，其中15,798例確診，分別為1,299例境外移入，14,446本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計814例COVID-19死亡病例，其中806例本土，個案居住縣市分布為新北市401例、臺北市309例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月10日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )自8月11日起，開放已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一類至第三類及孕婦等對象，可預約接種第二劑；惟有部分非該類對象因接種單位身分別誤植，收到提醒預約接種簡訊之狀況，指揮中心考量該期預約作業已結束，對於已預約者將一併提供接種。\$\@\$指揮中心說明，該期預約接種發送符合第二劑Moderna疫苗預約資格之對象提醒簡訊，是依據接種單位所登錄第一劑的身分別代碼屬第一類至第三類及孕婦，且於8月11日(含)已間隔滿28天者進行發送；因此，第一類至第三類及孕婦以外的對象，可能因接種單位在登錄接種第一劑疫苗相關資料時，身分別誤植，而使該等民眾誤於本期符合預約資格或收到預約簡訊。\$\@\$指揮中心強調，將針對資料登錄誤植之接種單位加強督導，並更正接種資料，以確保相關接種作業依規劃執行。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增8例COVID-19確定病例，分別為4例本土及4例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中1例為居家隔離期間或期滿檢驗陽性者)，均為男性，年齡介於30多歲至50多歲，發病日介於今(2021)年8月7日至8月8日。個案分布為臺北市2例、新北市及高雄市各1例；其中1例為已知感染源、3例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3例男性、1例女性，年齡介於40多歲至80多歲，發病日介5月29日至7月28日，確診日介於5月31日至7月29日，死亡日介於8月2日至8月8日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月7日累計公布14,576位確診個案中，已有13,096人解除隔離，解隔離人數達確診人數89.8%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於20多歲至40多歲，分別自馬來西亞(案15893至案15895)、美國(案15898)入境，入境日介於8月6日至8月7日，且皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,221,156例新型冠狀病毒肺炎相關通報(含2,204,067例排除)，其中15,790例確診，分別為1,294例境外移入，14,443本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計813例COVID-19死亡病例，其中805例本土，個案居住縣市分布為新北市401例、臺北市309例、基隆市28例、桃園市24例、彰化縣15例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月9日新增死亡COVID-19確診個案表.pdf\$\@\$8月9日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日表示，考量國內疫情趨於穩定及參酌其他國家之防疫措施調整經驗，經與相關單位溝通討論及評估後，宣布自8月10日至8月23日維持疫情警戒標準為第二級，相關規定如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：室內50人，室外100人，若超額則提防疫計畫。\$\@\$5. 餐飲內用原則依照衛福部規定處理。\$\@\$6. 婚宴、公祭可開放：\$\@\$(1) 公祭遵守內政部相關防疫規定處理。\$\@\$(2) 婚宴遵守每一隔間室內50人、室外100人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$7. 超商由工作人員服務可販售茶葉蛋、關東煮等熱食。\$\@\$8. 符合主管機關防疫管理得開放：社區大學、樂齡學習中心、社區照顧關懷據點、親子館、桌遊場所(限一般零售交易)、游泳池、職業訓練等。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$3. Ｋ書中心。\$\@\$指揮中心說明，目前國內疫情已在可控範圍，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，阻絕病毒於境外；此外也積極提升疫苗涵蓋率，讓民眾獲得保護力。指揮中心提醒，防疫不可鬆懈，籲請民眾維持個人防疫好習慣，戴口罩、勤洗手、保持社交距離，才能降低病毒傳播風險，共同維護國內社區安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-08\$\@\$中央流行疫情指揮中心今(8)日表示，第五批採購Moderna疫苗9.96萬劑，已於臺北時間8月8日凌晨自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。\$\@\$指揮中心表示，我國與美國Moderna公司採購之疫苗，目前共有124.96萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41萬劑、第四批7月15日35萬劑及本批9.96萬劑。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日及7月21日與美國Moderna公司簽署COVID-19疫苗供應合約，其中605萬劑於今年供應。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存至少6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增7例COVID-19確定病例，分別為4例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為3例男性、1例女性，年齡介於20多歲至50多歲，發病日均為今(2021)年8月6日。個案分布為臺北市2例、新北市及桃園市各1例；其中3例為已知感染源、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至80多歲，發病日介5月24日至6月28日，確診日介於5月28日至6月30日，死亡日介於7月31日至8月1日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月6日累計公布14,566位確診個案中，已有13,066人解除隔離，解隔離人數達確診人數89.7%。\$\@\$指揮中心說明，今日新增3例境外移入個案，為2例男性、1例女性，年齡介於20多歲至30多歲，分別自馬來西亞(案15884)、土耳其(案15886)及美國(案15887)入境，入境日均為8月6日，且皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,208,224例新型冠狀病毒肺炎相關通報(含2,191,057例排除)，其中15,782例確診，分別為1,290例境外移入，14,439本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計809例COVID-19死亡病例，其中801例本土，個案居住縣市分布為新北市398例、臺北市309例、基隆市28例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$附件1-8月8日新增死亡COVID-19確診個案表.pdf\$\@\$附件2-8月8日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日表示，針對COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)第一線醫護工作人員，預計階段性自下週起開放該等對象接種第一劑AstraZeneca COVID-19疫苗(AZ疫苗)超過10週以上，以莫德納疫苗完成第二劑接種。\$\@\$指揮中心進一步說明，前於7月25日衛生福利部傳染病防治諮詢會預防接種組(ACIP)第5次臨時會議初步決議，指揮中心於疫苗接種實務執行作業可推動之前題下，可考量將第一劑接種AZ疫苗之第一類至第三類優先接種對象，規劃第二劑使用mRNA疫苗接種，且兩劑接種間隔至少8週，本階段考量專責醫院第一線風險人員高感染風險須儘速完成兩劑疫苗接種之必要性，優先納入實施對象。\$\@\$指揮中心指出，COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)已列冊第一線醫護工作人員(列冊風險第1及第2風險等級者)，完成兩劑接種比率為56.5%，尚有約3萬3千人接種第一劑AZ疫苗超過10週，而尚未接種第二劑疫苗，爰配合開放以莫德納接種，預計下週依未接種人數需求，撥配疫苗至各專責醫院，並請各專責醫院配合相關接種作業。\$\@\$指揮中心提醒，目前國外尚無AZ疫苗與莫德納疫苗交替使用之大型臨床試驗結果，依據其他疫苗交替使用之臨床試驗初步結果，第一劑接種AZ疫苗、第二劑接種mRNA疫苗者，其不良反應發生機率及嚴重度較兩劑接種同一廠牌者高，請接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日表示，「COVID-19公費疫苗預約平台」自8月5日10時開放之Moderna疫苗預約接種，已於今日12時截止，總計約43.9萬人完成預約，佔符合預約資格人數約85%，此比例與過去三期AZ疫苗預約接種狀況相當。並將於8月11日至8月17日施打。惟為利疫苗資源有效利用，指揮中心經評估剩餘疫苗數量，增加開放「已於7月19日12時前意願登記Moderna疫苗，且為53-54歲之第九類對象」，約5.7萬人，預約接種第一劑，時程為自8月7日16時至8月9日12時止。\$\@\$指揮中心說明，上述符合增加開放預約對象資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象同樣預定於8月11日至8月17日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月5日10時至8月7日12時止)已宣布之符合預約資格對象，包含「已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一到三類及孕婦等對象，可接種第二劑」及「已於7月19日12時前意願登記Moderna疫苗，且為65歲(含)以上長者及 55歲(含)以上之第九類對象，可接種第一劑」，依原預約接種期程，已於8月7日中午12時停止預約及修改；8月7日16時至8月9日12時，僅開放上述增加開放對象進行預約。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增10例COVID-19確定病例，分別為6例本土及4例境外移入；另確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中4例為居家隔離期間或期滿檢驗陽性者)，為1例男性、5例女性，年齡介於20多歲至80多歲，發病日介於今(2021)年7月27日至8月5日。個案分布以新北市4例為最多，其次為臺北市、桃園市各1例；其中4例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增12例死亡個案，為7例男性、5例女性，發病日介5月24日至6月20日，確診日介於5月26日至6月24日，死亡日介於7月22日至7月30日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月5日累計公布14,554位確診個案中，已有13,053人解除隔離，解隔離人數達確診人數89.7%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2名男性、2名女性，年齡介於30多歲至40多歲，分別自美國(案15878)、柬埔寨(案15879)、中國(案15881)、西班牙(案15883)入境，入境日介於8月4日至8月5日，在臺期間均無症狀，相關接觸者匡列中，詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,191,907例新型冠狀病毒肺炎相關通報(含2,174,487例排除)，其中15,775例確診，分別為1,287例境外移入(原公布之本土個案15105，疫調後改判境外移入)，14,435本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計806例COVID-19死亡病例，其中798例本土，個案居住縣市分布為新北市397例、臺北市307例、基隆市28例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月7日新增死亡COVID-19確診個案表.pdf\$\@\$8月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增12例COVID-19確定病例，分別為10例本土及2例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之10例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為5例男性、5例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年8月4日至8月5日。個案分布以新北市4例為最多，其次為臺北市3例、嘉義縣2例、彰化縣1例；其中8例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡均為70多歲且未接種COVID-19疫苗，發病日介於5月18日至6月4日，確診日介於5月21日至6月6日，死亡日介於5月28日至7月21日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月4日累計公布14,543位確診個案中，已有13,018人解除隔離，解隔離人數達確診人數89.5%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15868為美國籍20多歲男性，8月4日自美國來臺工作，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，已匡列同班機前後2排旅客共6人，均列居家隔離。案15873為英國籍30多歲男性，8月4日自英國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所居家檢疫並採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,170,926例新型冠狀病毒肺炎相關通報(含2,153,856例排除)，其中15,765例確診，分別為1,282例境外移入，14,430本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計794例COVID-19死亡病例，其中786例本土，個案居住縣市分布為新北市393例、臺北市300例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-05\$\@\$中央流行疫情指揮中心今(5)日說明，我國COVID-19公費疫苗接種迄今已逾800萬人次，因應部分民眾出國之疫苗接種證明需求，指揮中心建議民眾先行確認前往國家（或就讀學校、工作及參與活動等）之相關規定，採以下列方式之一取得證明文件：\$\@\$一、由 COVID-19疫苗接種院所開立之「COVID-19疫苗接種紀錄卡」，填列完整西元年、護照號碼及同護照之英文姓名。\$\@\$二、由COVID-19疫苗接種院所開立之英文版診斷證明書（註記疫苗接種紀錄）。\$\@\$三、前往國內32家旅遊醫學合約醫院（簡稱旅醫門診），將COVID-19疫苗接種紀錄登載於國際預防接種證明書（簡稱黃皮書）。\$\@\$指揮中心表示，由於目前「COVID-19疫苗接種紀錄卡」已為中英對照版本，且詳細記錄接種者資料、疫苗劑次及廠牌等資訊，如因紀錄格式必須調整，可洽原接種單位申請，亦可持身份證明文件及原接種紀錄卡逕洽鄰近之衛生所(臺北市為健康服務中心)協助開立。\$\@\$指揮中心提醒，如欲取得黃皮書，請攜帶健保卡、護照（或影本）及黃卡前往旅醫門診掛號，由醫師查詢我國「全國性預防接種資訊管理系統（VACC）」紀錄及確認後開立，倘非於國內接種疫苗者，不列入黃皮書登載。黃皮書費用依「港埠檢疫費用徵收辦法」，補證（未持有黃皮書者）為新臺幣200元；加簽（已持有黃皮書者）為新臺幣150元；至於醫院掛號費、診察費等，依各醫院規定收費。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增11例COVID-19確定病例，分別為6例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為4例男性、2例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月23日至8月4日。個案分布以新北市4例為最多，其次為臺北市及桃園市各1例；其中2例為已知感染源、3例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月3日累計公布14,522位確診個案中，已有13,001人解除隔離，解隔離人數達確診人數89.5%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至60多歲，分別自奈及利亞(案15854)、南非(案15855)及美國(案15858、15859、15860)入境，入境日介於7月21日至8月3日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,152,917例新型冠狀病毒肺炎相關通報(含2,135,371例排除)，其中15,753例確診，分別為1,280例境外移入，14,420本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-04\$\@\$中央流行疫情指揮中心今(4)日表示，各地方政府「COVID-19疫苗施打意願登記與預約系統」自7月30日至8月6日預約施打之獲配疫苗數量，原則以兩階段方式撥配；惟考量部分縣市幅員廣大，指揮中心將部分縣市自7月30日至8月6日疫苗需求數量提前於7月28日第一批配發時，即全數或多數配送，以利其及早完成疫苗部署，而第二批配送數則為再補足未配送數。\$\@\$指揮中心進一步指出，各地方政府本期疫苗獲配疫苗數，係依據各縣市自7月30日至8月6日預約平台實際人數、已完成第一劑且間隔10週後可接種第二劑者人數，同時衡酌縣市幅員及中央庫存可供應數量，分兩階段撥配；如已於第一批配送時，即獲配全數或多數疫苗之縣市，今日撥配之該期第二批配送數，係以補足前述預約平臺實際人數及接種第二劑需求數量，並依當時可供應疫苗數量及國、高中教師及補教業者已造冊而尚未接種人數，來增配劑量予該等對象接種。\$\@\$指揮中心說明，臺東縣自7月30日至8月6日疫苗預約施打人數約2,888 人，除了於7月28日第一批即已配撥3,500劑，另因該縣國、高中教師及補教業者已造冊而未接種者約244人，故另於今日撥配300劑。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增21例COVID-19確定病例，分別為20例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之20例本土病例(其中16例為居家隔離期間或期滿檢驗陽性者)，為9例男性、11例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月24日至8月3日。個案分布以新北市14例最多，其次為臺北市5例、桃園市1例；其中16例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月2日累計公布14,503位確診個案中，已有12,957人解除隔離，解隔離人數達確診人數89.3%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15850)，為日本籍10多歲女性，8月2日自日本來臺就學，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,128,419例新型冠狀病毒肺炎相關通報(含2,111,269例排除)，其中15,742例確診，分別為1,275例境外移入，14,414本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日表示，「COVID-19疫苗施打意願登記與預約系統」預約7月30日至8月6日施打各地方政府所需AstraZeneca COVID-19疫苗數量，已於7月28日配送第一批24.31萬劑，預計於明(4)日再配送52.57萬劑，總計76.88萬劑。\$\@\$指揮中心說明，考量開學在即，為確保校園防疫安全，8月4日配送數量除依據此期施打需求數配送，並依據各縣市還未接種的國、高中教師及補教業者人數增配所需疫苗，請地方政府衛生局確實依據預約平臺已預約人數撥配疫苗，其餘數量亦請確實提供國、高中教師、補教業者及已接種第一劑疫苗且間隔滿10週者(不限年齡)接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日表示，「COVID-19疫苗施打意願登記與預約系統」( https://1922.gov.tw/ )將自8月5日上午10時至8月7日中午12時止開放預約接種，此期可接種疫苗為Moderna疫苗，符合預約接種資格對象如下，預估人數約51.9萬：\$\@\$一、已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一到三類及孕婦等對象，可接種第二劑(約6.8萬人)。\$\@\$二、已於7月19日12時前意願登記Moderna疫苗，且為65歲(含)以上長者及 55歲(含)以上之第九類對象，可接種第一劑(45.1萬人)。\$\@\$指揮中心說明，上述符合預約接種資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此期預約接種預定於8月11日至8月17日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增19例COVID-19確定病例，分別為16例本土及3例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為9例男性、7例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月26日至8月2日。個案分布以新北市10例為最多，其次為臺北市4例、嘉義縣2例；其中13例為已知感染源、2例關聯不明，1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案7320為70多歲女性，有慢性病史及其他確診個案接觸史，5月27日安排接觸者採檢，檢驗結果陽性並收治住院，5月28日確診，6月24日解除隔離，7月31日死亡。案14258為80多歲男性，有慢性病史，個案於6月10日因其他原因住院，因同病房有其他病患確診，安排隔離並於6月21日接觸者採檢，6月23日確診，7月28日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月1日累計公布14,489位確診個案中，已有12,929人解除隔離，解隔離人數達確診人數89.2%。\$\@\$指揮中心表示，今日新增3境外移入個案，均為男性，年齡介於30多歲至60多歲，分別自菲律賓、馬來西亞、俄羅斯入境，入境日介於7月16日至8月1日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,101,038例新型冠狀病毒肺炎相關通報(含2,083,962例排除)，其中15,721例確診，分別為1,274例境外移入，14,394本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-02\$\@\$疾病管制署今(2)日表示，適逢一年一度的七夕情人節，與伴侶共度浪漫時光，除落實防疫新生活及個人防護措施，也不忘互相提醒為「愛」篩檢，即日起「愛滋自我篩檢 網路訂購超商取貨 期間限定免運費活動」開跑，至8月底止，只要支付200元，訂購愛滋自我篩檢試劑皆可免運費，互相提醒為「愛」篩檢，共同守護彼此的健康。\$\@\$疾管署說明，為鼓勵民眾瞭解自身健康狀況，疾管署持續辦理「愛滋自我篩檢計畫」，今(110)年透過計畫已提供2萬1,000多人次篩檢服務，民眾上網登錄檢驗結果陽性率為0.4%，計畫受到廣大迴響，其中網路訂購超商取貨為民眾喜愛通路之一，超過6成民眾使用。民眾可上網預訂，透過鄰近超商通路，支付200元試劑費及45元物流費取得自我篩檢試劑，為鼓勵民眾進行篩檢，疾管署於8月份推出「自我篩檢 網路訂購超商取貨 期間限定免運費活動」，民眾僅需支付試劑費用即可獲得篩檢試劑，寄送試劑的外包裝不會有任何標示內容物和寄送廠商名稱，充分保障隱私；此外，也可前往合作民間團體、衛生局(所)等403個實體服務點，或利用41臺自動服務機，支付200元費用後直接取得篩檢試劑，相關服務內容及試劑提供地點資訊可至疾管署自我篩檢計畫網頁(https://hiva.cdc.gov.tw/Selftest/)查詢。\$\@\$疾管署表示，民眾檢驗結果無論為陽性或陰性，均可依包裝指示上傳「試劑編號」照片、登錄檢驗結果及註冊會員(匿名)，將核發免費試劑電子兌換券1張，該兌換券可自用或轉贈親友使用。另，若初步檢驗呈陽性，無須過度驚慌，請儘速至愛滋指定醫事機構進一步確認檢驗，疾管署補助當次就醫掛號費及部分負擔，此外，衛生局及相關民間團體也提供篩檢諮詢及篩檢陽性個案轉介或陪伴就醫等服務，如有需求可多加利用。\$\@\$疾管署提醒，交友時應慎選交往對象、避免多重性伴侶及使用毒品，若發生性行為應主動要求對方或自己全程使用保險套，並搭配水性潤滑液。疾管署再次呼籲，有性行為者，建議至少進行1次愛滋篩檢，有不安全性行為者，建議每年至少進行1次篩檢，若有感染風險行為(如與人共用針具、多重性伴侶、合併使用成癮性藥物、感染性病等)，建議每3至6個月篩檢1次，以了解自身健康狀況。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增14例COVID-19確定病例，分別為12例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為10例男性、2例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年7月29日至7月31日。個案分布以桃園市5例為最多，其次為新北市3例、臺北市2例、基隆市及高雄市各1例。；其中9例為已知感染源、3例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月31日累計公布14,475位確診個案中，已有12,884人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案15805為本國籍60多歲男性，7月18日自泰國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，7月31日檢疫期滿前採檢，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15806為本國籍30多歲女性，7月30日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，於今日確診；已匡列個案同班機前後2排座位旅客共16人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計2,078,019例新型冠狀病毒肺炎相關通報(含2,060,458例排除)，其中15,702例確診，分別為1,271例境外移入，14,378本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計789例COVID-19死亡病例，其中781例本土，個案居住縣市分布為新北市393例、臺北市296例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今(1)日表示，為使COVID-19公費疫苗預約平臺運作更為順利，並加速推動疫苗接種作業，該中心於昨(31)日召開「COVID-19疫苗預約平臺討論會議」，就具數位落差之長者、需集體接種、本國籍無健保卡及需經醫療院所現場評估之對象等議題，進行預約平臺及接種實務執行的討論，決議如下：\$\@\$一、對於透過鄰里長協助登記或預約之長者，及需集體安排接種之對象，例如機構對象接種及未來校園接種，將於系統內規劃可批次預約之功能。\$\@\$二、本國籍無健保卡號者，規劃可以身分證號及戶號進行意願登記。\$\@\$三、針對需經由醫療院所現場評估的對象，包含孕婦、因公出國者/因緊急需求須出國者、第一劑接種後嚴重不良反應需以不同廠牌接種者，規劃將請地方政府指定合約醫療院所，民眾可至指定院所經檢核相關資料後列冊接種。\$\@\$指揮中心說明，針對上述會議決議，該中心將朝此方向進行規劃，並與地方政府持續溝通可行性，確保民眾的接種權益。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今（1）日表示，「COVID-19疫苗施打意願登記與預約系統」(https://1922.gov.tw/)已於7月27日重新開放意願登記，並於 7月28日增加開放第二劑接種Moderna COVID-19疫苗者進行登記，此次意願登記結算將於8月3日中午12時截止，提醒已接種第一劑Moderna疫苗之第一到三類對象及孕婦儘速意願登記第二劑，保障自身權益。\$\@\$指揮中心說明，為使平台運作更為順暢，調整目前意願登記結算時間至8月3日中午12時截止，另預約期程預定自8月5日上午10時至8月7日中午12時止，預計提供已接種第一劑Moderna之第一到三類對象及孕婦，且至8月11日前已間隔滿28天者接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增14例COVID-19確定病例，分別為12例本土及2例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為7例男性、5例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月23日至7月31日。個案分布以新北市6例為最多，其次為臺北市4例、桃園市及臺中市各1例；其中8例為已知感染源、1例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案13058為70多歲男性，有慢性病史，無相關活動接觸史，6月12日無症狀篩檢陽性後至檢疫所隔離，6月14日確診，同日出現呼吸困難等症狀，6月15日住院，7月29日死亡。案15732為60多歲男性，有慢性病史及其他確診者接觸史，7月27日採檢，7月28日檢驗陽性收治住院，7月29日確診，7月30日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月30日累計公布14,463位確診個案中，已有12,879人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案15786為本國籍40多歲男性，7月10日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，入境及檢疫期滿採檢結果均為陰性，個案因出境需求，7月31日自費採檢，於今日確診。個案在臺期間並無症狀，已匡列接觸者23人，均列居家隔離並安排採檢。案15794為本國籍30多歲男性，7月21日自墨西哥返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，當日檢驗結果為陰性，個案7月28日出現頭痛等症狀，31日安排至醫院採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計2,063,516例新型冠狀病毒肺炎相關通報(含2,046,258例排除)，其中15,688例確診，分別為1,269例境外移入，14,366本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計789例COVID-19死亡病例，其中781例本土，個案居住縣市分布為新北市393例、臺北市296例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增12例COVID-19確定病例，分別為11例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之11例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為5例男性、6例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月23日至7月30日。個案分布以新北市6例為最多，其次為臺北市4例、嘉義縣1例；其中7例為已知感染源、2例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月29日累計公布14,438位確診個案中，已有12,856人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增1例境外移入(案15780)，為泰國籍50多歲男性船員，今年1月自泰國登船工作，該船航行期間行經俄羅斯及印尼等國並於7月25日抵臺靠港，7月30日衛生單位登船檢疫發現個案有發燒症狀即送醫採檢，於今日確診；已匡列接觸者64人，其中43人列自主健康管理，餘21人為同船人員，目前未入境，持續於船上隔離。\$\@\$指揮中心統計，截至目前國內累計2,043,204例新型冠狀病毒肺炎相關通報(含2,026,126例排除)，其中15,674例確診，分別為1,267例境外移入，14,354本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-31\$\@\$中央流行疫情指揮中心今(31)日表示，立陶宛政府於6月22日宣布捐贈我國2萬劑AstraZeneca疫苗，經立陶宛衛生部與我國駐拉脫維亞代表處之通力合作安排，業於7月31日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封縅作業，提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求且疫情艱難時刻，立陶宛伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向立陶宛政府與人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增25例COVID-19確定病例，分別為21例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之21例本土病例(其中8例為居家隔離期間或期滿檢驗陽性者)，為14例男性、7例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月24日至7月28日。個案分布以嘉義縣9例為最多，其次為臺北市7例、新北市4例、高雄市1例；其中18例為已知感染源、2例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月28日累計公布14,420位確診個案中，已有12,817人解除隔離，解隔離人數達確診人數88.9%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15752為美國籍20多歲女性，7月28日自美國來臺工作，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15753為本國籍未滿10歲男童，7月28日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至集中檢疫所居家檢疫，同日出現咳嗽有痰症狀，於今日確診；已匡列接觸者23人，其中11人為同行者及同班機前後兩排旅客，列居家隔離，餘12人為同班機機組員，列自我健康監測。案15754為本國籍40多歲女性，7月1日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所居家檢疫，7月13日檢疫期滿前採檢結果為陰性，7月16日檢疫期滿後返家自主健康管理至7月22日，期間並無外出，7月28日由公司安排採檢，於今日確診(Ct值39)；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15768為本國籍50多歲男性，今年5月前往印尼工作，6月28日出現發燒症狀，7月4日於印尼當地確診，並於7月9日住院治療，7月29日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；因個案返臺至後送就醫期間之相關人員均有適當防護，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,021,090例新型冠狀病毒肺炎相關通報(含2,004,528例排除)，其中15,662例確診，分別為1,266例境外移入，14,343本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-29\$\@\$中央流行疫情指揮中心今(29)日表示，各地方政府所需疫苗數量，係依目標族群人數進行規劃及配送，由於部分縣市已先接種非現階段規劃施打對象，而造成部分地方政府在此一階段疫苗接種未能配合民眾預約數，而需調整接種場次的時間。呼籲各地方政府依計畫順序進行施打，確保已預約民眾的施打權益。\$\@\$指揮中心表示，在不影響已預約民眾接種、且確保大眾施打權益為原則，已請地方政府依計畫順序進行施打。指揮中心也將於下批次疫苗撥配時，視各縣市預約及施打情形適時調配疫苗配送量，籲請各地方政府衛生局依實際疫苗庫存與配送量，妥善規劃及安排轄內接種作業與場次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增18例COVID-19確定病例，分別為16例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中14例為居家隔離期間或期滿檢驗陽性者)，為13例男性、3例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月25日至7月28日。個案分布以新北市7例為最多，其次為臺北市5例、高雄市2例、桃園市及嘉義市各1例；其中14例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月27日累計公布14,400位確診個案中，已有12,801人解除隔離，解隔離人數達確診人數88.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15738為本國籍30多歲男性，7月27日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，已匡列同班機前後兩排旅客共15人，列居家隔離。案15745為本國籍70多歲男性，長期居住柬埔寨，7月9日出現發燒及呼吸困難症狀，當日就醫檢查發現有肺炎情形，7月19日於柬埔寨當地住院治療， 7月28日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,998,284例新型冠狀病毒肺炎相關通報(含1,981,309例排除)，其中15,637例確診，分別為1,262例境外移入，14,322例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19疫苗施打意願登記與預約系統」自昨(7/27)日14時起開放意願登記，請18歲(含)以上尚未意願登記民眾把握機會，儘速完成登記，保障自身權益。\$\@\$指揮中心說明，此次開放意願登記，除昨日新增高端疫苗供20歲(含)以上民眾選擇外，亦增加開放第一劑接種Moderna COVID-19疫苗者，進行第二劑Moderna COVID-19疫苗意願登記。第一到三類對象及孕婦第一劑接種Moderna COVID-19疫苗者須間隔28天、其他類第一劑接種Moderna COVID-19疫苗者須間隔10-12週，才符合第二劑預約接種資格。\$\@\$指揮中心表示，目前尚未開放民眾混打疫苗，針對第一劑接種AstraZeneca(AZ)疫苗且已間隔10-12週者，可至平臺進行第二劑AZ疫苗之意願登記。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」( https://1922.gov.tw/）開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平台會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增20例COVID-19確定病例，分別為18例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中12例為居家隔離期間或期滿檢驗陽性者)，為14例男性、4例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年7月12日至7月27日。個案分布以新北市8例為最多，其次為臺北市6例、桃園市3例、高雄市1例；其中16例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月26日累計公布14,383位確診個案中，已有12,686人解除隔離，解隔離人數達確診人數88.2%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15726為本國籍60多歲男性，長期在印尼工作，7月14日出現呼吸喘及嗅味覺異常症狀，7月16日於印尼當地就醫診斷為肺炎，7月17日確診，7月27日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；因個案返臺至後送就醫期間之相關人員均有適當防護，故無匡列接觸者。案15727為本國籍30多歲女性，7月26日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；已匡列專車司機1人，因有適當防護，列自我健康監測，其餘航空器接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,975,087例新型冠狀病毒肺炎相關通報(含1,958,568例排除)，其中15,619例確診，分別為1,260例境外移入，14,306例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心表示，今(27)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.國內疫情持續趨緩，Rt值維持在低點，今(27)日開始全國疫情降為二級警戒，相關社區管制措施將陸續鬆綁，請各地方政府密切注意鬆綁措施之後續效應。另請各地方政府衛政機關持續強化病患收治轉送及醫療照護體系量能之整備，以因應未來可能發生變異株疫情。\$\@\$2.目前新增本土病例仍以雙北為多，且存有零星感染源待釐清個案及群聚事件，顯示社區存有隱性傳播鏈，請臺北市及新北市政府持續須留意疫情警戒降級後，人流回升及民眾社交活動增加對疫情之影響，及早因應。另目前除雙北外，各縣市疫情均調降為中或低等級，請雙北市持續就疫情防疫作為加強疫調與匡列作業。\$\@\$二、針對疫調輔助平臺帳號申請，如各地方政府基於疫調需求，可依規定向指揮中心申請；另為利地方政府在遵守個人隱私保護和資安防護前提下，協助疫調作業，指揮中心提醒地方政府，對於下載、存取簡訊實聯制資料，僅限於疫調使用，並須於28天內刪除相關資料；對於資料之調取，使用人員的帳號、調取資料的時間與內容，應有詳實記錄，俾利後續開放使用紀錄之查詢。\$\@\$三、有關「國家關鍵基礎設施及高風險接種人員等專案對象」疫苗施打作業，指揮中心已請各專案對象的業管部會與地方政府相關局處確實聯繫，向地方政府衛生機關說明專案執行內涵，俾確實依權管部會規劃方式落實執行；另請各地方政府間建立橫向聯繫體系，充分合作，讓疫苗接種作業順利進行。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日表示，「COVID-19疫苗施打意願登記與預約系統」將自今(27)日14時起重新開放意願登記，請18歲(含)以上尚未意願登記民眾把握機會，儘速完成登記，保障自身權益；另此次開放，將新增接種高端疫苗選項，供20歲以上民眾選擇。\$\@\$指揮中心說明，此次重新開放意願登記，除新增高端疫苗供20歲以上民眾選擇外，另也可讓民眾再調整有意願接種的疫苗，惟優先處理於7月19日12時前已意願登記者，再接續處理。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」完成意願登記，後續才會收到預約簡訊提醒。系統平台會按疫苗分配情形、參照民眾登記之意願，簡訊提醒符合預約資格的民眾，收到簡訊提醒者記得進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日表示，AstraZeneca疫苗約58.2萬劑，預定今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已到貨3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑，本次提供第四批疫苗，截至目前總計約188.5萬劑到貨。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年11月30日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增17例COVID-19確定病例，分別為16例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為11例男性、5例女性，年齡介於30多歲至60多歲，發病日介於今(2021)年7月14日至7月26日。個案分布以桃園市6例為多，其次為臺北市5例、新北市4例、新竹縣1例；其中11例為已知感染源、4例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案8354)，為70多歲男性，有慢性病史，無相關活動接觸史，5月28日出現呼吸困難等症狀，5月29日就醫採檢並收治住院，5月31日確診，7月24日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月25日累計公布14,372位確診個案中，已有12,664人解除隔離，解隔離人數達確診人數88.1%。\$\@\$指揮中心表示，今日新增1例境外移入(案15697)，為本國籍10多歲男性，7月25日自美國返臺，持搭機前3日內檢驗陰性報告，入境時無症狀，於機場採檢後至防疫旅館居家檢疫，7月26日出現發燒症狀，於今日確診；已匡列同班機前後2排旅客共6人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,948,640例新型冠狀病毒肺炎相關通報(含1,932,430例排除)，其中15,599例確診，分別為1,258例境外移入，14,288例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$中央流行疫情指揮中心今(26)日表示，「COVID-19疫苗施打意願登記與預約系統」第四輪預計自7月30日起開打。自7月27日上午10時起，1983年12月31日(含)以前出生之民眾、宜蘭縣/基隆市因受颱風影響取消預約者、以及第三輪已收過簡訊但尚未完成預約者共約144萬人，將陸續收到預約簡訊，預約接種期程至7月29日中午12時截止；本輪可接種疫苗為AstraZeneca COVID-19疫苗，施打期間預計自7月30日至8月6日止，並視疫苗供應期程調整接種場次，籲請民眾準時前往接種。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」開放意願登記時，先進行意願登記，後續才會收到預約簡訊通知。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增11例COVID-19確定病例，分別為10例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之10例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為7例男性、3例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月19日至7月25日。個案分布以臺北市4例為多，其次為新北市及桃園市各3例；其中8例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月24日累計公布14,359位確診個案中，已有12,603人解除隔離，解隔離人數達確診人數87.8%。\$\@\$指揮中心表示，今日新增1例境外移入(案15688)，為本國籍50多歲男性，6月22日登船出海作業，該船於7月20日抵臺靠港並進行全員採檢，個案檢驗結果為陰性，但因同船人員確診(案15576至案15581)，由衛生單位安排至集中檢疫所隔離，7月25日出現喉嚨癢症狀，經衛生單位採檢後，於今日確診；個案隔離期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,924,661例新型冠狀病毒肺炎相關通報(含1,907,614例排除)，其中15,582例確診，分別為1,257例境外移入，14,272例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$國內COVID-19疫情降級不鬆懈，中央流行疫情指揮中心今(26)日表示，自今(2021)年7月27日起調降國內疫情警戒標準至第二級，惟考量全球COVID-19疫情回升、Delta變異株持續傳播，為避免境外移入病例增加我國檢疫防疫量能及醫療資源的負擔，將持續執行「邊境嚴管」措施，包括：\$\@\$(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外。\$\@\$(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。\$\@\$指揮中心強調，因應全球Delta變異株流行，持續執行邊境管制為防範COVID-19疫情之重要關鍵，落實全民共同抗疫，將疫情阻絕於境外，以守護國人健康安居的環境。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-25\$\@\$中央流行疫情指揮中心今(25)日說明，國內疫情近期趨緩，並將自110年7月27日後降級、部分項目解封，若在汽車旅館及相關旅宿群聚開趴或歡唱，提高疫情傳染風險，將由各主管機關依情節輕重，分別依「發展觀光條例」、「毒品危害防制條例」裁罰；最重者將視為「損害國家利益、妨害善良風俗」，由地方主管機關依發展觀光條例「定期停止其營業之一部或全部，或廢止其營業執照或登記證」裁處。\$\@\$中央流行疫情指揮中心表示，汽車旅館及相關旅宿違反限制規定且未通報時，將依情節輕重，可裁罰的相關法規依據如下：\$\@\$一、依發展觀光條例裁處\$\@\$旅宿業有損害國家利益、妨害善良風俗等行為者，依發展觀光條例第53條規定裁處新臺幣3-15萬元罰鍰；情節重大者，定期停止其營業之一部或全部，或廢止其營業執照或登記證。經受停止營業一部或全部之處分，仍繼續營業者，廢止其營業執照或登記證。觀光旅館業、旅館業之受僱人員如有前述行為，則處新臺幣1-5萬元罰鍰。旅宿業若違反觀光旅館業管理規則或旅館業管理規則所定相關通報義務，由主管機關依發展觀光條例第55條第3項規定裁處1-5萬元罰鍰。\$\@\$二、依毒品危害防制條例裁處\$\@\$依「毒品危害防制條例」查獲有人在內施用或持有毒品（開毒趴）之場所，該場所將依「特定營業場所執行毒品防制措施辦法」自查獲之翌日起列為特定營業場所；依毒品危害防制條例第31-1條，指定的業者有通報義務，特定營業場所人員知悉有人在內施用或持有毒品，未通報警察機關處理者，除依該條例罰鍰，其情節重大者，該管目的事業主管機關得令其停止營業6個月以上1年6個月以下或勒令歇業。\$\@\$中央流行疫情指揮中心呼籲，所有旅宿業者均應遵守前述相關法規，避免住客群聚，以降低傳染風險。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增13例COVID-19確定病例，分別為12例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為6例男性、6例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月23日至7月24日。個案分布以臺北市7例為最多，其次為新北市5例；其中10例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月23日累計公布14,336位確診個案中，已有12,555人解除隔離，解隔離人數達確診人數87.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案15673)，為本國籍60多歲女性，7月11日自緬甸返臺，入境後至防疫旅館居家檢疫，7月14日因同行者(案15408)確診，被改列為居家隔離對象且持續於防疫旅館隔離，7月23日隔離期滿前採檢，於今日確診(Ct值35)；個案在臺期間並無症狀，且檢疫與隔離期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,911,604例新型冠狀病毒肺炎相關通報(含1,895,377例排除)，其中15,571例確診，分別為1,256例境外移入，14,262例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日表示，為鼓勵合約醫療院所協助辦理COVID-19疫苗大規模接種作業，除每劑次補助100元接種處置費外，配合提供民眾免費疫苗接種服務，調整「COVID-19疫苗合約醫療院所免費提供民眾接種服務獎勵措施」獎勵措施項目如下：\$\@\$1. 醫療院所提供民眾免費COVID-19疫苗接種服務，並配合接種政策相關事項，由按接種人次提供40元/人次，調整為按接種人次提供100元/人次。\$\@\$2. 醫療院所達每月目標接種人次提供接種獎勵，增列診所接種人次達500人次/月，提供1.5萬元，另維持診所接種人次達1,000人次/月，提供3萬元、地區醫院接種人次達4,000人次/月，提供8萬元、區域醫院及醫學中心接種人次達6,000人次/月，提供10萬元。獎勵以每月結算方式提供。\$\@\$3. 醫療院所達每月目標接種人次再加給績效獎勵：維持診所接種人次達1,600人次/月，加給3萬元、地區醫院接種人次達6,400人次/月，加給8萬元、區域醫院及醫學中心接種人次達10,000人次/月，加給10萬元。獎勵以每月結算方式提供。\$\@\$4. 醫療院所表現優良者，一次性獎勵維持診所上限5萬元，地區、區域醫院及醫學中心上限30萬元。\$\@\$指揮中心於今(2021)年6月7日請合約醫療院所免費提供民眾接種服務，不向民眾收取掛號費，並提供相關獎勵措施；本次獎勵措施調整主要提高每接種人次之獎勵額度及增加一項診所之獎勵級距，針對此調整之溯及起算日期認定如下：\$\@\$1. 自地方政府衛生局與合約醫療院所於更換合約書內容日起算。\$\@\$2. 衛生單位因實務作業，如以協議方式與合約醫療院所協定變更合約，則以地方政府衛生局與已簽約之各醫療院所協定變更合約，補充免費提供民眾接種服務內容之協議日期起算。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增25例COVID-19確定病例，分別為24例本土及1例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之24例本土病例(其中12例為居家隔離期間或期滿檢驗陽性者)，為19例男性、5例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月19日至7月23日。個案分布以新北市9例為最多，其次為臺北市7例、桃園市3例、彰化縣2例，臺中市、苗栗縣及基隆市各1例；其中17例為已知感染源， 4例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案8642為70多歲男性，具慢性病史，無相關接觸史，5月30日出現咳嗽、呼吸喘等症狀，同日採檢陽性後收治住院，於6月1日確診，7月20日死亡。案13781為70多歲男性，有慢性病及其他個案接觸史，6月16日採檢陽性，17日收治住院，18日確診。7月22日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月22日累計公布14,312位確診個案中，已有12,543人解除隔離，解隔離人數達確診人數87.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案15660)，為本國籍20多歲男性，6月26日曾於西班牙快篩陽性，7月22日自西班牙入境，持有搭機前3日內檢驗陰性證明，入境時並無症狀，於機場採檢後至防疫旅館居家檢疫，於今日確診，同班機前後二排旅客匡列中。\$\@\$指揮中心統計，截至目前國內累計1,894,957例新型冠狀病毒肺炎相關通報(含1,878,146例排除)，其中15,558例確診，分別為1,255例境外移入，14,250例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號病例(案9508、案15608)，累計108例移除為空號。2020年起累計 786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日表示，為因應將來降級解封及協助精準疫調，指揮中心已建置完成「疫調輔助平臺」，預計於今(110)年7月26日上線，提供熱區地圖、疫調軌跡、簡訊實聯制疫調查詢等功能之整合平臺，嚴格限制提供各地方政府有權進行疫調之人員登入使用，以協助地方政府疫調人員能更便捷進行疫調工作。\$\@\$指揮中心指出，我國COVID-19疫情進入社區感染階段後，全國疫情警戒也提升至第三級，各地方政府疫調作業均須處理大量資訊，有賴以科技方式整合各項資料來源，協助精準疫調，降低人工成本，提升效率。\$\@\$指揮中心說明，為協助疫調人員作業所需資料之整合研判和分析，「疫調輔助平臺」提供直覺式的操作，簡易介面便於疫調人員使用，並以圖形化及動態方式提供查詢確診者活動軌跡功能。另為利地方政府掌握確診者跨縣市流動情形，也提供各地方政府可進行跨區調閱；此外也經由分析確診者足跡，產出區域的軌跡熱力圖，提供可能群聚之足跡分布、潛在感染源分析及多確診者足跡分析等資訊，並以動態方式呈現，以利疫調人員觀察熱區趨勢；此外也整合簡訊實聯制資料，在以疫調為前提下，提供第一線疫調人員以電話或場所代碼進行疫調資訊之查詢及參考，以達到快速掌握可能影響範圍，降低疫情擴散。\$\@\$指揮中心強調，「疫調輔助平臺」嚴格限制提供各地方政府有權進行疫調之人員登入使用，簡訊實聯制資料僅能調取28天內的資料，同時在資料的調取上，均詳實記載帳號使用人員、使用時間及內容，並將於日後開放使用紀錄之查詢，在隱私保護和資安防護的前提下，協助疫調作業。\$\@\$指揮中心再次呼籲，全球COVID-19疫情仍持續發展中，該中心正積極推動各種科技防疫措施，協助各地疫調人員快速掌握疫情資訊，也請全國民眾於疫情期間配合政府防疫措施，共同為國內防疫安全努力。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日表示，接種AstraZeneca及Moderna COVID-19疫苗及之民眾，符合第二劑接種時程者，皆可至各縣市COVID-19疫苗合約醫療院所公費接種第二劑。\$\@\$指揮中心指出，AstraZeneca及Moderna COVID-19疫苗目前第二劑接種間隔為10至12週。惟第一到三類對象及孕婦，Moderna COVID-19疫苗接種第一劑後滿28天，即可接種第二劑，前述對象請至各地方政府衛生局規劃提供接種服務之合約醫療院所，透過一般合約醫療院所提供之預約掛號管道接種第二劑疫苗。對於民眾有出國急迫性須提前接種者，請提出相關證明文件(如機票等)，接種單位可酌情提供接種，並請地方政府衛生局及合約醫療院所共同協助該等對象完成接種。(若為COVID-19疫苗預約平台之預約接種對象，第二劑接種間隔為10週，請依簡訊通知進行預約接種。)\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾COVID-19疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線全國性預防接種資訊管理系統(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日表示，考量國內疫情及參酌其他國家之防疫調整經驗，並經與各地方政府進行溝通討論後，指揮中心自7月27日至8月9日調降疫情警戒標準至第二級，各部會得依指揮中心所發布之通案性原則另訂指引，而各地方政府亦得在此原則下，視疫情需要而有調整空間，惟相關指引必須規範明確以利民眾遵循。說明如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程配戴口罩。\$\@\$2. 確實執行實聯制登記措施。\$\@\$3. 保持社交安全距離。\$\@\$4. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$5. 集會活動人數上限：室內50人，室外100人，若超額則提防疫計畫。\$\@\$6. 餐飲內用原則依照衛福部規定處理。\$\@\$二、婚宴、公祭可開放：\$\@\$1. 公祭遵守內政部相關防疫規定處理。\$\@\$2. 婚宴遵守每一隔間室內50人、室外100人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$三、仍須關閉之場所：\$\@\$1. 休閒娛樂場所：歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、桌遊場所及其他類似場所。\$\@\$2. 教育學習等場域：社區大學(開放受理秋季班報名，實體課程不開放)、樂齡學習中心、K書中心、游泳池等其他類似場所。\$\@\$指揮中心表示，在國人共同努力配合下，國內疫情持續穩定控制中，為兼顧防疫與民眾的生活品質，逐步調降防疫管制措施。指揮中心提醒，防疫仍需全體國民持續共同努力，請民眾持續配合防疫規範，及維持個人防疫好習慣，戴口罩、勤洗手、保持社交距離，才能降低病毒傳播風險，守護彼此的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為19例男性、4例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年7月10日至7月22日。個案分布以新北市13例為最多，其次為臺北市及桃園市各4例、宜蘭縣及高雄市各1例；其中18例為已知感染源，餘5例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案7734為80多歲女性，具慢性病史及其他確診者接觸史；5月26日因出現發燒、咳嗽及喉嚨痛症狀前往就醫採檢，同日返家後死亡，並於5月29日確診。案14617為60多歲男性，具慢性病史及其他確診者接觸史；個案於6月24日出現發燒、呼吸喘及全身無力症狀，同日就醫採檢並住院治療，6月26日確診，7月20日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月21日累計公布 14,280位確診個案中，已有12,501人解除隔離，解隔離人數達確診人數87.5%。\$\@\$指揮中心表示，今日新增1例境外移入(案15641)，為克羅埃西亞籍未滿10歲男童，6月28日與家人自瑞士返臺探親，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館居家檢疫，7月10日檢疫期滿前採檢結果為陰性，但因同行家人確診(案15370)，故由衛生單位安排至其他住所進行居家隔離，7月22日居家隔離期滿前採檢，於今日確診(Ct值29)；個案在臺期間並無症狀，已匡列接觸者2人，均列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,875,313例新型冠狀病毒肺炎相關通報(含1,859,164例排除)，其中15,535例確診，分別為1,254例境外移入，14,228例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計784例COVID-19死亡病例，其中776例本土，個案居住縣市分布為新北市391例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國自今(2021)年7月12日起，調整現階段部分接種對象Moderna COVID-19疫苗的第一劑與第二劑接種間隔10至12週的接種政策，係參考國際間接種建議，並經由衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議專家討論後審慎研訂，亦將依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，依據WHO自今年1月發布(同年6月更新)的Moderna COVID-19 疫苗接種建議，對於尚未達到COVID-19疫苗高接種涵蓋率且有流行疫情的國家，考量其疫情與疫苗供應量以及進貨期程，為加速提升其國內民眾第一劑COVID-19疫苗接種涵蓋率，可採行接種Moderna COVID-19疫苗第一劑後，於間隔10至12週接種第二劑疫苗的接種政策。\$\@\$指揮中心說明，參酌其他國家做法，英國對於各廠牌COVID-19疫苗，接種間隔均為8-12週；加拿大對於 Moderna COVID-19建議最長接種間隔為16週。此外，依據新英格蘭醫學雜誌 (The New England Journal of Medicine)的研究資料，Moderna COVID-19疫苗完成接種第一劑14天後，保護力約為81%。\$\@\$指揮中心強調，我國COVID-19疫苗之接種政策，係參考國際間接種建議，並經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議確認，審慎評估後訂定執行。指揮中心將視國內外流行疫情、疫苗貨量與供應期程，持續滾動調整相關政策。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，國內COVID-19疫情趨緩，考量失智服務對象及家庭照顧者需求，並兼顧疫情社區傳播風險，確保服務人員與服務對象健康，衛生福利部特別訂定「失智社區服務據點因應COVID-19防疫管理指引」(詳見新聞稿附件)，各地據點於防疫完備工作的前提下，遵照指引即可逐漸恢復提供服務。\$\@\$失智據點因應COVID-19防疫管理指引之重點包括：\$\@\$一、提供服務條件(含服務人員、服務對象及陪同者)：\$\@\$(一)完成接種疫苗第一劑且滿14日者。\$\@\$(二)未接種疫苗、接種第一劑疫苗未滿14日者，首次提供/接受服務前應自費提供3日內抗原快篩或PCR檢驗陰性證明。\$\@\$(三) 服務對象接受服務，應採事先預約登記，依失智據點服務人員可提供服務的人數調整，並配合實名制等相關措施。\$\@\$(四)失智據點服務人員於提供服務前，應建立服務人員名冊。\$\@\$(五)疫情警戒為第二級以上(含)期間，不提供照顧者課程；所辦理之認知促進、緩和失智等服務項目，原則應由失智據點服務人員自行辦理。惟外聘講師如符合已完成接種疫苗第一劑且滿14日，或疫苗第一劑接種未滿14日，且於首次提供服務前自費提供3日內抗原快篩或PCR檢驗陰性證明者，不在此限。\$\@\$二、自主防疫管理措施：\$\@\$(一)疫情警戒為第二級(含)以上期間：\$\@\$1.建立健康監測及異常通報機制。\$\@\$2.規劃服務動線、分區空間與隔離空間，建立分艙分流及分組活動、用餐機制，並保持社交距離。\$\@\$3.設置於醫療院所及各類機構(含長照、老福、身障、護家機構)內之據點，據點服務人員不可與機構工作人員共用、混用或支援。\$\@\$4.相同活動空間不同時段有其他單位使用者，每服務時段間應間隔至少2小時，並加強環境清潔消毒。\$\@\$5.與其他單位同時段使用相同活動空間，活動場地間應至少間隔2公尺以上，並設置屏蔽。\$\@\$6.服務人員、服務對象(含陪同者)為居家隔離、居家檢疫、自主健康管理者，不可提供、使用失智據點服務。\$\@\$(二)疫情警戒為第三級(含)以上期間，強化防疫措施：\$\@\$1.服務人員及服務對象(含陪同者)如未接種疫苗，應配合切結每週進行1次自費抗原快篩或PCR檢驗。\$\@\$2.非屬服務人員名冊內人員，應避免出入據點。\$\@\$3.失智據點不收新案，暫停供餐，並禁止訪客進出。\$\@\$4.屬設置於各類機構內失智據點、同日(同時段或不同時段)與其他單位共用場地之失智據點，暫停服務。\$\@\$三、發現COVID-19疑似病例或確診病例之應變措施：\$\@\$（一）發現疑似病例，據點應於24小時內通報地方衛(社)政主管機關，於隔離空間等候就醫或返家，且不得搭乘大眾交通工具前往醫院或篩檢站。\$\@\$（二）任1名服務人員、服務對象(含陪同者)確診時應暫停服務，並立即通知地方衛(社)政主管機關，並依衛生主管機關或防疫人員之指示，配合疫調、匡列及篩檢等防疫措施。\$\@\$（三）應將相關人員進行造冊，並就已知資訊與其聯繫，請其配合疫調。 附件\$\@\$1100722失智據點指引附件</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增33例COVID-19確定病例，分別為30例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之30例本土病例(其中20例為居家隔離期間或期滿檢驗陽性者)，為15例男性、15例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月17日至7月21日。個案分布以臺北市及新北市各11例為最多，其次為桃園市7例、新竹市1例；其中24例為已知感染源、5例關聯不明、1例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於60多歲至70多歲，發病日介於6月1日至6月27日，確診日介於6月4日至6月29日，死亡日介於7月19日至7月21日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月20日累計公布14,255位確診個案中，已有12,456人解除隔離，解隔離人數達確診人數87.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15601為本國籍未滿10歲男童，7月8日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月20日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。案15612為美國籍20多歲男性，7月20日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，已匡列同班機前後兩排旅客共5人，列居家隔離。案15617為本國籍20多歲男性，7月20日自阿拉伯聯合大公國(杜拜)返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，7月21日出現咳嗽、頭昏及體溫偏高症狀，已由衛生單位安排就醫，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,852,658例新型冠狀病毒肺炎相關通報(含1,835,679例排除)，其中15,511例確診，分別為1,253例境外移入，14,205例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計782例COVID-19死亡病例，其中774例本土，個案居住縣市分布為新北市389例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日宣布，業與美國Moderna公司簽署2年共3,500萬劑COVID-19疫苗之供應合約，將於2022年及2023年分批供應基礎劑型(prime series)疫苗與次世代追加劑型(booster vaccine candidate)疫苗，以因應SARS-CoV-2變異病毒株之威脅並供應更多族群接種需求，同時加購100萬劑疫苗於今(2021)年第4季供應，提供民眾接種。\$\@\$指揮中心指出，該中心已於今年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，目前已到貨115萬劑。考量國人對Moderna疫苗接種意願高，且COVID-19疫苗仍處於賣方市場，加以 SARS-CoV-2病毒不斷變異，各國疫情持續升溫，全球疫苗供應量卻嚴重不足，美國、歐盟、日本亦接續與Moderna公司簽署後續供應合約，指揮中心爰於現階段投入採購，俾與歐美日同步取得次世代疫苗，因應未來疫情所需。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，依據交通部中央氣象局最新資料顯示，中度颱風「烟花」將逼近臺灣，提醒COVID-19疫苗合約醫療院所及地方衛生單位做好防颱準備，確保疫苗冷儲與不斷電設備之正常運作。指揮中心將視停班停課情形或颱風動態，延後本週五(7/23)或週六(7/24)的疫苗配送作業，並請各地方政府衛生局預為控管調配轄內疫苗。\$\@\$指揮中心進一步說明，已在「COVID-19公費疫苗預約平臺」完成預約的民眾，如因颱風停班停課取消接種作業而無法接種，預約平臺將保留受影響民眾的名額，請民眾在收到下一輪預約簡訊後，再次進入預約平臺預約接種。至於透過各合約醫療院所原有網路掛號或電話等進行預約之民眾，則請依循合約醫療院所公告或通知方式，重新安排接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-21\$\@\$中央流行疫情指揮中心今(21)日表示，因應國外COVID-19疫情嚴峻，我國實施邊境嚴管且滾動調整入境檢疫各項措施，感謝檢疫人員長期戍守邊境，持續成功攔檢境外移入病例，減少病例進入社區造成疫情散播。有關檢疫人員反映機場工作負擔加重，本中心說明如下：\$\@\$指揮中心說明，現場檢疫人員工作，包括衛教、引導旅客自行採集深喉唾液檢體，再由檢疫人員收取旅客檢體等作業，而非由檢疫人員執行採檢。執勤時，皆會輪替工作內容，且戴口罩、手套及穿著防潑水隔離衣等個人防護裝備，必要時隨時更換；有如廁需求者，皆有其他人員替補及支援，並無長達8小時穿著防潑水隔離衣執勤等情事。另因應檢疫措施提升，近期已增加人力及陸續報到。\$\@\$指揮中心指出，桃園機場第一線檢疫人員Covid-19第1劑疫苗接種率高，除2人因個人生理因素待接種外，其餘皆已接種，對於陸續有接種第2劑疫苗接種需求者，將專案派員到點協助接種。\$\@\$指揮中心表示，執勤同仁如在值勤期間出現症狀，會安排於機場採集深喉唾液送驗，並請同仁儘速返家休息至檢驗結果陰性。如為輪休期間出現症狀，則會請同仁立即就醫並提醒醫師屬於機場第一線檢疫工作人員，以利醫師安排採檢後，返家等待檢驗結果為陰性。\$\@\$此外，為提升邊境檢疫整體行政效率，國際港埠檢體通報作業及送驗系統均已優化，預計明日(7/22)上線。\$\@\$指揮中心強調，感謝邊境所有第一線人員的辛勞與付出，因應全球Delta變異株流行，邊境管制為防範COVID-19疫情之重要關鍵，落實全民共同抗疫，將疫情阻絕於境外，以守護國人健康安居的環境。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增25例COVID-19確定病例，分別為16例本土及9例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為11例男性、5例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月12日至7月19日。個案分布以臺北市9例為最多，其次為桃園市5例、新北市2例；其中9例為已知感染源，4例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增5例死亡個案，為2名女性、3名男性，年齡介於50多歲至90多歲，發病日介於5月25日至6月29日，確診日介於5月29日至7月7日，死亡日介於7月15日至7月19日，詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月19日累計公布14,231位確診個案中，已有12,382人解除隔離，解隔離人數達確診人數87.0%。\$\@\$指揮中心表示，今日新增9例境外移入個案，均為男性，年齡介於20多歲至70多歲，分別自菲律賓(2例)、印尼(7例)入境，入境日介於6月24日至7月20日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,828,036例新型冠狀病毒肺炎相關通報(含1,811,528例排除)，其中15,478例確診，分別為1,250例境外移入，14,175例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計106例移除為空號。2020年起累計778例COVID-19死亡病例，其中770例本土，個案居住縣市分布為新北市386例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月21日新增死亡COVID-19確診個案表.pdf\$\@\$7月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$有關媒體報導「桃機採檢室5間增至19間，人力沒補」一事，中央流行疫情指揮中心今(20)日說明如下：\$\@\$目前桃園機場每週航班旅運量入境尖峰時刻為週三、週五及週日等之清晨4時至7時，平均入境人數約400至600人，其他時段入境班機分散且旅客較少。\$\@\$入境普篩政策實施前，每日檢疫人員值勤人數白班約16至18人、夜班14至16人。政策實施後，每日檢疫值勤人數調整為白班17至22人、夜班14至22人。\$\@\$本中心檢疫人力調度係以旅運量多寡為主要考量，非以採檢站多寡為主，並機動調度一、二航廈人力互相支援，尖峰時段人力配置如下：\$\@\$採檢站：目前機場採檢方式為深喉唾液採檢，係由民眾於採檢室內自行收集唾液檢體，不須檢疫人員一對一採檢。採檢站配置5至6名檢疫人員，專責處理19間採檢室之檢體，另有6至7名協勤人力負責引導旅客排隊及清消採檢室。\$\@\$入境大廳：配置2至3名檢疫人員負責衛教及核對旅客填寫送驗資料，另有6至7名協勤人力協助分流及引導旅客、補充快篩試劑及送驗單等。\$\@\$採檢站與入境大廳之檢疫人員可互相輪流，機動調整工作區域。\$\@\$指揮中心表示，媒體所報導僅由2至3名護理師採檢500至600名旅客，及連續7、8小時穿防護衣等，皆與實情不符。指揮中心後續將會持續依航班旅運量適當調度，並注意同仁休息狀況。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增24例COVID-19確定病例，分別為18例本土及6例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、5例女性，年齡介於20多歲至80多歲，發病日介於今(2021)年7月12日至7月19日。個案分布以臺北市7例為最多，其次為新北市6例、基隆市3例、桃園市2例；其中13例為已知感染源，餘5例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3名女性、1名男性，年齡介於60多歲至70多歲，發病日介於5月17日至7月16日，確診日介於5月22日至7月19日，死亡日介於7月16日至7月19日，詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月18日累計公布14,210位確診個案中，已有12,348人解除隔離，解隔離人數達確診人數86.9%。\$\@\$指揮中心表示，今日新增6例境外移入個案，為4男 2女，年齡介於未滿10歲至40多歲，分別自美國(3例)、印尼(2例)、緬甸入境，入境日介於7月5日至7月19日；詳如新聞稿附件2。\$\@\$指揮中心統計，累計1,801,538例新型冠狀病毒肺炎相關通報(含1,784,759例排除)，其中15,453例確診，分別為1,241例境外移入，14,159例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計106例移除為空號。2020年起累計773例COVID-19死亡病例，其中765例本土，個案居住縣市分布為新北市384例、臺北市292例、基隆市27例、桃園市23例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月20日新增死亡COVID-19確診個案表.pdf\$\@\$7月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$中央流行疫情指揮中心表示，今(20)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估：\$\@\$1.國內疫情持續緩降，新增本土病例仍以雙北為多，各縣(市)偶有零星感染源待釐清之個案及群聚事件，惟近兩週疫情發生之群聚事件以家庭群聚為主；病例年齡層有下降趨勢，請各地方政府應將現階段防治重點納入青年族群且加強留意社區傳播風險，並持續強化病患收治轉送及醫療照護體系量能之整備，以因應未來可能之變異株疫情。\$\@\$2.指揮中心自7月13日起鬆綁部分防疫管制措施，請各地方政府持續密切注意後續效應，俾利疫情發生時，能快速有效防杜。\$\@\$二、針對地方政府所提，確診者其症狀緩解且檢疫期滿，惟經採檢後Ct值&lt;30，可繼續於加強版集中檢疫所或防疫旅館進行居家隔離；至居家隔離或居家檢疫期滿，惟採檢陽性但Ct值&gt;30之處置方式，仍請依確診者處置方式辦理，至2採後Ct值均&gt;30者，可解除居家隔離，但其密切接觸者應辦理疫調匡列。\$\@\$三、鑒於本週可能因颱風來襲，各地方疫苗接種站如因停班停課取消接種，預約平台也將會保留名額給受影響的民眾，併入下一期預約名單。民眾需在收到下一期預約簡訊後，再次進入預約平台預約接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日表示，「COVID-19疫苗施打意願登記與預約系統」第三輪的意願登記已於今日中午12時截止，全國約有887萬人登記，其中約495萬人有意願接種AZ疫苗。該系統平臺自7月20日上午10時起，將針對第六、八、九、十類及1973年12月31日(含)以前出生民眾，約170萬人會陸續收到簡訊，預約接種期程至7月22日中午12時截止；本輪可接種疫苗為AZ疫苗，施打期間為7月23日至7月29日，籲請民眾準時前往接種。未來將視疫苗到貨量，每周二發送簡訊，提醒民眾預約接種。如接獲簡訊，但沒有完成預約者，將自動加入下一次簡訊通知名單。\$\@\$指揮中心進一步說明，該系統平臺自今日中午12時以後將先暫停意願登記，後續視疫苗新到貨量後重開意願登記。此外，重新開啟後，增勾或改勾AZ疫苗者，將於第三輪意願登記接種AZ疫苗之495萬人優先處理後，再接續處理。\$\@\$指揮中心提醒，請民眾須先於「COVID-19疫苗施打意願登記與預約系統」完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立讓大量疫苗接種能依序且穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$衛生福利部食品藥物管理署(以下簡稱食藥署)為積極因應新型冠狀病毒疾病(以下簡稱COVID-19)疫情防疫需求，於110年7月18日邀請國內化學製造管制、藥學、毒理學、臨床醫學、公衛、法律及醫學倫理專家召開會議，討論高端MVC-COV1901新冠肺炎疫苗(以下簡稱高端疫苗)專案製造申請案。\$\@\$經過一天充分的審查與討論，鑑於高端疫苗的中和抗體數據已證明不劣於國人接種AZ疫苗的中和抗體結果，達成食藥署公告之「新冠疫苗專案製造或輸入技術性資料審查基準」要求，且安全性數據顯示無重大安全疑慮：\$\@\$1.高端疫苗組與AZ疫苗組之原型株活病毒中和抗體幾何平均效價比值(geometric mean titer ratio, GMTR)的95%信賴區間下限為3.4倍，遠大於標準要求0.67倍。\$\@\$2.高端疫苗組的血清反應比率(sero-response rate)的95%信賴區間下限為95.5%，遠大於標準要求50%。\$\@\$基於疾病管制署認定國內確有疫情及疫苗緊急公共衛生需求之前提，評估整體醫療利益與風險平衡，與會專家出席21人，主席不參與投票，18人同意(3人通過，15人有條件通過)，1人補件再議，1人不同意。\$\@\$食藥署依「藥事法第48條之2規定」，核准高端疫苗專案製造，適用於20歲以上成人之主動免疫接種，接種兩劑，間隔28天，以預防COVID-19。另針對專家會議建議，該疫苗於專案核准製造期間，藥商須每月提供安全性監測報告，並於核准後一年內檢送國內外執行疫苗保護效益(effectiveness)報告，以保障國人用藥安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增21例COVID-19確定病例，分別為15例本土及6例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之15例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、7例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年7月14日至7月17日。個案分布以新北市11例為最多，其次為桃園市3例、臺北市1例；其中9例為已知感染源，餘6例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案13852)，為80多歲男性，有慢性病，因有其他確診者接觸史，6月17日安排採檢，採檢時無症狀，檢驗結果為陽性，同日收治住院，6月18日確診，7月9日解除隔離，7月17日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月17日累計公布14,192位確診個案中，已有12,268人解除隔離，解隔離人數達確診人數86.4%。\$\@\$指揮中心表示，今日新增6例境外移入個案，為5男 1女，年齡介於20多歲至50多歲，分別自阿根廷、阿拉伯聯合大公國、柬埔寨、波蘭、丹麥、美國入境，均持有搭機前3日內檢驗陰性報告，入境日介於5月28日至7月17日；詳如新聞稿附件。\$\@\$指揮中心統計，累計1,778,511例新型冠狀病毒肺炎相關通報(含1,761,879例排除)，其中15,429例確診，分別為1,235例境外移入，14,141例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計769例COVID-19死亡病例，其中761例本土，個案居住縣市分布為新北市382例、臺北市291例、基隆市27例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-19\$\@\$中央流行疫情指揮中心今(19)日表示，國內疫情已較為穩定，為兼顧國內妥善安排人力及實務上業務需求，自今(2021)年7月20日起恢復移工調派至同一雇主之其他工作場所。至於工作延伸(即雇主指派移工至客戶契約履行地工作)，考量移工流動性較高及染疫風險，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，近期評估國內整體疫情及產業發展需要，將自7月20日起恢復調派移工變更工作場所，雇主符合下列情形，得調派移工變更工作場所單次達60日以上，其餘單次未達60日以上者仍不得調派：\$\@\$一、安排移工核酸檢驗（下稱PCR）且PCR結果須為陰性：如為須向勞動部申請調派許可者(如營造業)，須於申請日(含)前3日內安排移工檢驗PCR，且PCR結果須為陰性，始得向勞動部提出申請。另其他工作類別無須經勞動部許可得逕調派者，須於調派日(含)前3日內安排移工檢驗PCR，且PCR結果須為陰性，始得調派移工，又調派前應先將PCR檢驗結果送當地勞工主管機關備查。\$\@\$二、雇主應依指引辦理防疫措施：倘若移工檢測PCR確診時，雇主應善盡雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若移工檢測PCR陰性，雇主調派移工仍應依指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，雇主調派移工變更工作場所單次達60日以上者，如未於上開規定期限內安排移工檢驗PCR，未依規定向勞動部申請或未送當地勞工主管機關備查，將依「就業服務法」第57條第4款及第68條第1項規定，處新臺幣3萬至15萬元罰鍰；若違反2次以上，將廢止雇主聘僱許可及管制聘僱移工名額。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反上開防疫措施，將依仲介公司違反「就業服務法」規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-18\$\@\$中央流行疫情指揮中心今(18)日表示，Moderna疫苗自解凍後，可使用期間為30天(配送各縣市後以28天計算)，自7月1、5、8及9日陸續配送至各地方政府衛生局或合約醫療院所的Moderna疫苗目前尚餘21萬570劑，將在7月29日至8月6日間到期，請各地方政府衛生局及合約醫療院所加強推動，針對原已符合第二劑接種間隔為至少28天的第一類、機組人員及孕婦等對象提供接種。\$\@\$指揮中心指出，為使疫苗資源有效運用，經統計自6月9日至7月9日為止，已接種第一劑Moderna疫苗之第一類至第三類對象及孕婦，共計18萬9,788人可於8月6日之前(接種間隔至少28天)接種第二劑Moderna疫苗，故目前各地方政府及合約醫療院所剩餘量，尚足以提供該等對象第二劑接種使用。為使高風險第一線防疫人員及相關工作人員能夠儘速獲得保護力，讓疫苗資源有效運用，自即日起除第一類、機組人員及孕婦等對象以外，第二及第三類對象於接種第一劑Moderna疫苗後滿28天，亦可接種第二劑。\$\@\$另指揮中心提醒，5月11日至5月23日已接種第一劑AstraZeneca 疫苗的民眾，將陸續自下週起間隔滿10週，可透過COVID-19疫苗預約系統意願登記接種第二劑，或至COVID-19疫苗合約醫療院所預約。請地方政府衛生局偕同合約醫療院所提供前述對象完成二劑疫苗接種，以提升第二劑疫苗覆蓋率。指揮中心亦將持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」。若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種的醫療院所申請補發，再繼續完成第二劑接種。接種單位於接種前需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線全國性預防接種資訊管理系統(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增18例COVID-19確定病例，分別為15例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之15例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為9例男性、6例女性，年齡介於20多歲至90多歲，發病日介於今(2021)年7月10日至7月17日。個案分布以新北市7例為最多，其次為臺北市5例、桃園市3例；其中9例為已知感染源，餘6例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3例男性、1例女性，年齡介於40多歲至80多歲，發病日介於5月26日至6月13日，確診日介於6月3日至6月16日，死亡日介於7月13日至7月15日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月16日累計公布14,180位確診個案中，已有12,243人解除隔離，解隔離人數達確診人數86.3%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15507為本國籍20多歲男性，7月15日自西班牙返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15508為英國籍20多歲男性，7月15日自英國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15512為本國籍50多歲女性，7月16日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時無症狀，在機場採檢後至防疫旅館檢疫，同日出現流鼻水、喉嚨痛、喉嚨癢及頭暈症狀，7月17日由衛生單位安排至集中檢疫所隔離，並於今日確診；已匡列接觸者19人，其中10人為同班機前後兩排旅客，列居家隔離，餘9人為同班機機組員，列自主健康管理。\$\@\$指揮中心統計，截至目前國內累計1,765,532例新型冠狀病毒肺炎相關通報(含1,747,814例排除)，其中15,408例確診，分別為1,229例境外移入，14,126例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計768例COVID-19死亡病例，其中760例本土，個案居住縣市分布為新北市382例、臺北市291例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增12例COVID-19確定病例，分別為8例本土及4例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之8例本土病例(其中4例為居家隔離期間或期滿檢驗陽性者)，為6例男性、2例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月5日至7月15日。個案分布以新北市5例為最多，其次為臺北市、桃園市及臺中市各1例；其中3例為已知感染源、4例關聯不明、1例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案3419)，為60多歲男性，有慢性病史，無相關活動接觸史。5月21日因其他原因就醫並採檢，採檢時無症狀，當日檢驗結果為陽性並收治住院，5月22日確診，7月15日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月15日累計公布14,148位確診個案中，已有12,207人解除隔離，解隔離人數達確診人數86.3%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15486為本國籍20多歲男性，7月14日自阿拉伯聯合大公國入境，持有搭機前3日內檢驗陰性報告，個案入境時無症狀，入境後至集中檢疫所檢疫並採檢，於今日確診(Ct值32.1) ，相關接觸者匡列中。案15494為本國籍50多歲女性，5月13日自美國入境，持有搭機前3日內檢驗陰性報告，個案在臺期間並無症狀，7月16日因出境需求自費採檢，於今日確診（Ct值36），相關接觸者匡列中。案15495為香港籍40多歲男性，5月7日自奈及利亞入境，持有搭機前3日內檢驗陰性報告，個案在臺期間並無症狀，7月16日因工作需求採檢，於今日確診(Ct值36)，相關接觸者匡列中。案15496為本國籍50多歲男性，7月8日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，檢驗結果陰性，7月10日出現喉嚨痛等症狀，經視訊診療及開藥後緩解，7月16日因症狀持續，由衛生單位安排採檢，於今日確診，個案同班機旅客皆於集中檢疫所檢疫，故無框列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,747,750例新型冠狀病毒肺炎相關通報(含1,730,746例排除)，其中15,390例確診，分別為1,226例境外移入(原1例本土病例案15425疫調後改為美國境外移入)，14,111例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計106例移除為空號。2020年起累計764例COVID-19死亡病例，其中756例本土，個案居住縣市分布為新北市380例、臺北市289例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日表示，為配合世界衛生組織(WHO)推動的根除小兒麻痺病毒之環境監測調查計畫，且為防堵國際疫情威脅與國內疫苗預防接種政策的改變，疾病管制署自(2012)年7月起即建立環境監測系統，透過從污水處理系統收集而來的污水樣本，檢測一個群體中是否有來自未知病患的小兒麻痺病毒，用以評估環境中野生株及疫苗株小兒麻痺病毒的流通傳播。自去(2020)年1月起，因應COVID-19疫情，於前揭計畫下加驗SARS-CoV-2病毒。\$\@\$指揮中心說明，環境監測調查作業的監測頻率為每月2次，將採集汙水廠的汙水樣本，濃縮後進行核酸檢驗；疾管署持續監測採檢11處城市汙水匯流的汙水廠，目前僅於今(2021)年6月1日監測採檢2處驗出COVID-19陽性。惟截至目前為止(含6月中與7月初)，11處（包含前揭該2處）城市汙水廠之污水監測SARS-CoV-2病毒檢測結果皆為陰性。\$\@\$指揮中心強調，未來將持續監測全臺大都會共11間汙水廠，並視疫情狀況調整環境汙水SARS-CoV-2病毒監測作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增32例COVID-19確定病例，分別為29例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之29例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為17例男性、12例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月5日至7月15日。個案分布以臺北市14例為最多，其次為新北市11例、桃園市2例、宜蘭縣及彰化縣各1例；其中21例為已知感染源、4例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，均為男性，年齡介於60多歲至90多歲，發病日介於5月24日至6月16日，確診日介於5月26日至6月24日，死亡日介於7月9日至7月14日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月14日累計公布14,130位確診個案中，已有12,131人解除隔離，解隔離人數達確診人數85.9%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15468為美國籍50多歲男性，7月2日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15472為本國籍未滿10歲女童，7月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月14日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15480為菲律賓籍30多歲男性漁工，4月30日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，檢疫期滿與自主健康管理期滿採檢結果均為陰性，5月22日登船工作後未再下船，7月14日因有出海作業需求，由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者18人，其中17人列居家隔離、1人列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,727,787例新型冠狀病毒肺炎相關通報(含1,710,974例排除)，其中15,378例確診，分別為1,221例境外移入，14,104例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計763例COVID-19死亡病例，其中755例本土，個案居住縣市分布為新北市379例、臺北市289例、基隆市26例、桃園市23例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月16日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-16\$\@\$中央流行疫情指揮中心今(16)日宣布，考量緬甸疫情現況及風險，於「重點高風險國家」增列緬甸。自7月18日零時起(抵臺時間)，自海港或空港入境我國人士，如過去14天有緬甸旅遊史(含轉機)者，入境後均應至集中檢疫所進行14天檢疫，且須配合於入住時與檢疫期滿分別進行PCR檢測，另檢疫期間第10至12天以「家用快篩」採檢一次；旅客不需支付集中檢疫所及採檢費用；此外，國籍航空公司機組員亦維持自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍檢疫14天，且檢疫期滿進行PCR檢測。\$\@\$指揮中心表示，緬甸近1個多月疫情再度遽升，近1週日增確診數由50例以下，上升至逾4,000例，新增確診及死亡數均續創新高，檢驗陽性率已逾30%；迄今累計逾20萬例確診病例，逾4千例死亡，致死率2%。此波疫情初期病例多來自鄰近印度邊境之實皆省(Sagaing)及欽邦(Chin)，爾後與印度接壤之多個社區陸續爆發疫情，並監測到Delta變異株。該國已於部分地區實施居家令，因醫療體系之篩檢量及檢測能力不足，實際疫情可能比官方公布更為嚴峻。\$\@\$指揮中心指出，現行「重點高風險國家」為巴西(Gamma巴西變異株)、印度、英國、秘魯、以色列、印尼、孟加拉及本次新增之緬甸(Delta印度變異株)等，共8國。\$\@\$指揮中心說明，邊境管制為防範COVID-19疫情之重要關鍵，指揮中心已全面提升入境人士檢疫措施、持續監測境外移入檢出變異株情形，同時籲請入境人士抵臺時應主動配合邊境檢疫措施，並依指揮中心規定之交通方式前往檢疫地點及配合後續防疫措施，落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，「COVID-19疫苗施打意願登記與預約系統」第二輪共計約94.1萬人已完成預約接種，將自明(16)日起開始施打，請民眾攜帶健保卡，如為第二劑接種者，亦請攜帶接種紀錄卡，於預約時間準時至預約地點接種疫苗。如民眾錯過預約時段，可於當日告知現場人員，另擇同日之其他時段接種；如無法於預約當日接種，須等候下一輪簡訊通知後，再至系統重新預約接種。\$\@\$指揮中心指出，第三輪意願登記原訂於7月15日下午5時進行第三輪結算，將延長至7月19日中午12時進行第三輪結算，並自7月20日起陸續以簡訊通知符合資格的民眾進行預約接種；本輪可接種疫苗為AZ疫苗。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到簡訊通知後進行預約。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為了建立大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強推動疫苗接種，提升群體保護力，守護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$疾病管制署今(15)日表示，因應行政院農業委員會動植物防疫檢疫局本(2021)年6月30日發布，國內檢出首例黃喉貂狂犬病陽性案例，為維護國內民眾健康及安全，降低感染風險，疾管署修訂「疑似狂犬病或麗沙病毒動物抓咬傷臨床處置指引」，調整暴露後預防接種對象，增列遭「黃喉貂」咬傷者，經評估傷口暴露等級為第2及第3類者，應接種暴露後狂犬病免疫球蛋白及疫苗，並自本年7月1日起適用。\$\@\$疾管署說明，國內每年均接獲數起食肉目野生動物抓咬傷民眾通報案件，今年迄今有8起，其中3件動物檢驗為狂犬病陽性，去（2020）年同期為11起，全年則有14起，其中5件檢驗為狂犬病陽性、4件陰性、5件未送驗，陽性案件分布範圍為南投縣3件，屏東縣、嘉義縣各1件。\$\@\$狂犬病是由狂犬病病毒引起的一種急性腦脊髓炎，狂犬病毒從已感染動物的唾液隨著抓、咬傷所造成之傷口進入人體，潛伏期約1至3個月，初期症狀有發熱、喉嚨痛、發冷、厭食、嘔吐、呼吸困難、咳嗽、頭痛或咬傷部位異樣感，數天後出現興奮及恐懼現象，然後麻痺、吞嚥困難，咽喉部痙攣，並引起恐水現象(又稱恐水症)，隨後會發生精神錯亂及抽搐等情況，如不採取醫療措施，患者常因呼吸麻痺導致死亡，致死率近100%，但如能在遭動物咬傷後及時就醫，並接受狂犬病暴露後預防接種，可以降低發病的風險。\$\@\$疾管署再次呼籲，民眾應避免接觸及捕捉野生動物，每年須帶家中犬、貓等寵物施打狂犬病疫苗；如不慎遭野生哺乳類動物抓咬傷，請以肥皂及大量清水沖洗傷口15分鐘，再以優碘或70%酒精消毒後，儘速前往就醫，經醫師評估如有感染狂犬病風險，應儘速接種免疫球蛋白，並依時程(接種第一劑當天為第0天、3、7及第14天)接種4劑人用狂犬病疫苗，降低發病風險。相關資訊請參閱疾管署全球資訊網(https://www.cdc.gov.tw)或撥打免費防疫專線1922(或0800-001922)洽詢。 圖片 附件\$\@\$鼬獾.jpg\$\@\$黃喉貂.jpg\$\@\$白鼻心.jpg\$\@\$疑似狂犬病或麗沙病毒感染動物抓咬傷臨床處置指引_0715.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日表示，日本政府提供第三批的97萬劑AstraZeneca疫苗及我國自行採購的第三批56萬劑AstraZeneca疫苗與第四批35萬劑Moderna疫苗將於今日下午陸續運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19疫苗接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca疫苗分別為6月4日124萬劑、7月8日113萬劑與本批97萬劑，共334萬劑；我國與供應商(阿斯特捷利康公司)採購AstraZeneca疫苗分別為3月3日11.7萬劑、7月7日62.6萬劑與本批56萬劑，共130.3萬劑到貨。另，我國與Moderna供應商採購部分分別為5月28日15萬劑、6月18日24萬劑、6月30日41萬劑與本批35萬劑，共115萬劑。\$\@\$指揮中心再次感謝日本政府伸出援手提供第三批COVID-19疫苗，加上我國自行採購之AstraZeneca疫苗與Moderna疫苗陸續到貨，將有助提升我國疫苗覆蓋率。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增18例COVID-19確定病例，分別為14例本土及4例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之14例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為8例男性、6例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年7月7日至7月14日。個案分布以臺北市9例為最多，其次為桃園市3例、新北市2例；其中11例為已知感染源、3例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為1例男性、5例女性，年齡介於60多歲至80多歲，發病日介於5月15日至6月29日，確診日介於5月26日至6月30日，死亡日介於7月6日至7月13日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月13日累計公布14,103位確診個案中，已有12,083人解除隔離，解隔離人數達確診人數85.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案中，案15437為阿富汗籍40多歲男性，7月1日自阿富汗來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月13日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15446、案15447均為印尼籍20多歲男性漁工，受雇於同一公司，5月12日搭乘同班機自印尼來臺，皆持有搭機前3日內檢驗陰性報告，入境後均至防疫旅館完成居家檢疫並持續隔離至7月12日，7月13日由公司安排自費採檢，皆於今日確診；2人在臺期間並無症狀且無外出，已匡列接觸者4人，因有適當防護，均列自我健康監測。案15452為荷蘭籍40多歲男性，7月13日自阿拉伯聯合大公國(杜拜)來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,707,362例新型冠狀病毒肺炎相關通報(含1,690,141例排除)，其中15,346例確診，分別為1,218例境外移入，14,075例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計759例COVID-19死亡病例，其中751例本土，個案居住縣市分布為新北市377例、臺北市288例、基隆市26例、桃園市22例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月15日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日表示，COVID-19疫情三級警戒期間，為降低失能者及身心障礙者群聚及傳染風險，社區式機構均暫停提供服務。現因應國內疫情趨緩，指揮中心宣布社區式機構可在工作人員疫苗施打率達8成且做好防疫整備工作的狀態下，適度鬆綁，逐步恢復提供服務。\$\@\$指揮中心說明，為確保服務對象健康，衛生福利部特訂定「衛生福利機構(社區型)因應COVID-19防疫管理指引」，針對「服務條件」、「自主防疫管理措施」、「具有COVID-19感染風險者之應變措施及發生確診病例應變處置」等管理事項，提供社區式服務機構依循辦理，地方政府應輔導轄內機構依本指引提供服務，並填具檢核表報地方政府備查，在完備防疫工作的前提下逐步恢復提供服務。\$\@\$本指引適用提供社區式服務之衛生福利機構，包括：社區式服務類長期照顧機構(日間照顧、小規模多機能)、附設於住宿機構之日間照顧服務、身心障礙日間型服務(含社區日間作業設施、社區式日間照顧、日間服務機構)、精神復健機構(日間型)、早期療育機構。本指引重點包括：\$\@\$一、服務條件\$\@\$(一)機構提供服務條件：\$\@\$1.整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩(以下簡稱抗原快篩)陰性證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$(二)服務對象接受服務條件(未成年者不適用)：\$\@\$1.建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$2.未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$二、自主防疫管理措施：\$\@\$(一)工作人員及服務對象之健康管理部分，若為確診、居家檢疫、居家隔離、自主健康管理、抗原快篩陽性者均不可提供或使用服務。\$\@\$(二)規劃服務動線、分區空間及隔離空間，建立分艙分流及分組活動、用餐機制。\$\@\$(三)交通服務管理，每車以10人(含司機)為限，車內禁止用餐、飲水。\$\@\$(四)加強環境(含交通接送車輛)清潔消毒，每日至少2次。\$\@\$三、具有COVID-19感染風險者之應變措施及發生確診病例應變處置：\$\@\$(一)發現疑似病例，機構應於24小時內通報，疑似病例應各自於隔離空間等候就醫或返家，且不得搭乘大眾交通工具。\$\@\$(二)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(三)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$另家庭托顧服務部分，因照顧規模較小，且工作人員及服務對象皆屬公費疫苗第五類施打對象，較不易發生大規模群聚感染情形；雖不在指引適用範圍，但仍應在家庭托顧員完成疫苗第一劑接種且滿14日的前提下，參考社區式服務防疫管理指引加強人員健康監測、維持社交距離、增加環境清潔消毒次數、建立疑似個案通報轉送及確診病例應變處置機制，落實防疫規範下恢復營運。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增27例COVID-19確定病例，分別為17例本土及10例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之17例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為11例男性、6例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月7日至7月13日。個案分布以臺北市10例為最多，其次為桃園市3例、新北市及臺中市各2例；其中10例為已知感染源、3例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為5例男性、1例女性，年齡介於50多歲至80多歲，發病日介於5月15日至7月3日，確診日介於5月19日至7月5日，死亡日介於7月10日至7月12日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月12日累計公布14,074位確診個案中，已有11,964人解除隔離，解隔離人數達確診人數85.0%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為9例男性、1例女性，年齡介於10多歲至70多歲，分別自緬甸(6例，為同一班機乘客)、英國、日本、印尼及茅利塔尼亞入境，均持有搭機前3日內檢驗陰性報告，入境日介於6月30日至7月11日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,686,311例新型冠狀病毒肺炎相關通報(含1,669,801例排除)，其中15,328例確診，分別為1,214例境外移入，14,061例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案15282)，共累計106例移除為空號。2020年起累計753例COVID-19死亡病例，其中745例本土，個案居住縣市分布為新北市374例、臺北市287例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月14日新增死亡COVID-19確診個案表.pdf\$\@\$7月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心表示，今(13)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.自實施全國加強三級警戒等相關管制措施下，Rt值已逐步下降，疫情持續趨緩，本週開始進行部分管制措施鬆綁，請各地方政府密切注意後續效應、及時應處。另全國三級警戒將延長至7月26日，考量各項防疫措施可能對民眾生活經濟、心理健康造成壓力，建議各地方政府進一步規劃相關關懷及配套方案，以舒緩民眾身心壓力。\$\@\$2.境外移入病例隨國外疫情上升有增加趨勢外，入境全面篩檢亦有陸續發現變異株相關個案，其中不乏病毒量高之病例，建議各地方政府持續加強疫情監控；雙北近期發生家庭群聚及職場群聚事件，仍請雙北地方政府除持續考量民眾就醫可近性設置社區篩檢站外，亦強化疫調作業，以利及早掌握病例，妥善應處。\$\@\$二、各直轄市、縣(市)政府「居家隔離/居家檢疫期滿前採檢政策」執行現況\$\@\$1.因應新型冠狀病毒Delta變異株於全球日益擴散且傳播力高，自今(2021)年6月22日起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫之期滿前，須由各地方政府協助安排於隔離或檢疫期滿前1-3日(即接觸或入境迄日起第12-14日)內，搭乘防疫計程車前往醫療院所進行採檢，並確保於期滿前可取得檢驗報告。\$\@\$2.政策實施迄今，經期滿採檢計發現4名居家隔離、14名居家檢疫者採檢為確定病例，顯見於隔離或檢疫期滿前落實採檢措施，可避免COVID-19病毒進入社區，降低社區傳播風險，仍請各地方政府持續落實居家隔離/檢疫之期滿前採檢措施，共同守護社區防疫安全。\$\@\$三、衛生福利部為利疫情期間日照服務機構業務執行，業研議「衛生福利機構(社區型)因應COVID-19防疫管理指引」，相關重點請各地方政府協助檢視，近期將對外發布，重點包括：\$\@\$1.適用範圍：社區式服務類長期照顧機構(日間照顧、小規模多機能家庭托顧)、附設於一般護理之家、精神護理之家、老人福利機構、身心障礙福利機構之日間照顧服務、身心障礙日間型服務(社區日間作業設施、社區式日間照顧、家庭托顧、日間服務機構)、精神復健機構（日間型）、早期療育機構。\$\@\$2.服務條件\$\@\$(1)機構提供服務條件：\$\@\$整體工作人員疫苗施打率達8成，方可提供服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$地方政府應輔導轄內機構依本指引提供服務，機構須填具檢核表報地方政府備查，並配合後續抽核。\$\@\$(2)服務對象(含陪同照顧者)接受服務條件(未成年者不適用)：\$\@\$建議服務對象接種第一劑疫苗滿14日後，再前往接受服務。\$\@\$未接種疫苗、接種第一劑疫苗未滿14日者，接受服務前應自費提供3日內SARS-CoV-2抗原快篩陰性證明或解除隔離證明，於三級警戒期間須配合每週自費提供抗原快篩陰性證明。\$\@\$3.自主防疫管理措施：\$\@\$(1)工作人員及服務對象之健康管理部分，若為居家檢疫、居家隔離、自主健康管理者均不可提供或使用服務。\$\@\$(2)規劃服務動線、分區空間及隔離空間，建立分艙分流及活動分組進行機制。\$\@\$(3)交通服務管理，每車以10人（含司機）為限\$\@\$4.疑似確診應變措施：\$\@\$(1)任1位工作人員或服務對象為確定病例時，應暫停服務且立即通報地方社（衛）政主管機關，機構應進行相關人員造冊，並向該等人員宣導請其確實配合疫調。\$\@\$(2)立即就已知資訊先通知確定病例及可能與其有接觸之人員，等待衛生單位調查與聯繫。\$\@\$四、針對地方政府疫調資料調閱部分\$\@\$1.各地方政府如有確診軌跡調閱之需求，可透過各區管中心向指揮中心調閱，並將儘速於1天內提供。\$\@\$2.指揮中心已完成個案軌跡、熱區查詢、及簡訊實聯制疫調查詢功能，近日內提供各地方政府直接由線上進行查詢。另簡訊實聯制資料僅限制疫調查詢為主，相關查詢均有紀錄及配套機制，以確保使用範圍。\$\@\$3.以臺北市為例，近日向指揮中心調閱近1,000筆資料，除提供資料，指揮中心也提供線上查詢功能，並將和臺北市資訊局洽談介接與合作事宜。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增29例COVID-19確定病例，分別為28例本土及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為18例男性、10例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月12日。個案分布以新北市15例為最多，其次為臺北市9例，桃園市2例，苗栗縣及臺中市各1例；其中16例為已知感染源、3例關聯不明、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為4例男性、2例女性，年齡介於60多歲至80多歲，發病日介於5月12日至6月18日，確診日介於5月16日至6月19日，死亡日介於7月4日至7月12日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月11日累計公布14,050位確診個案中，已有11,901人解除隔離，解隔離人數達確診人數84.7%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15387)，為本國籍40多歲男性，6月30日自印尼入境，持搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，7月1日結果為陰性；7月8日出現輕微發燒與肌肉痠痛等症狀，7月11日仍未緩解，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，同機旅客均已入住集中檢疫所，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,661,153例新型冠狀病毒肺炎相關通報(含1,644,686例排除)，其中15,302例確診，分別為1,204例境外移入，14,045例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。2020年起累計747例COVID-19死亡病例，其中739例本土，個案居住縣市分布為新北市370例、臺北市286例、基隆市25例、桃園市21例、彰化縣13例、新竹縣10例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-13\$\@\$中央流行疫情指揮中心今(13)日表示，為順利推動我國COVID-19疫苗接種作業，自即(7/13)日起開放18歲(含)以上民眾，於「疫苗施打意願登記與預約系統」( https://1922.gov.tw/）進行第三輪意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月15日17時，並同步進行第三輪結算。\$\@\$二、簡訊通知時間：7月16日至7月18日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。本輪可接種疫苗為AZ疫苗。\$\@\$三、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心進一步表示，第二輪的意願登記已於昨(12)日17時截止，全國約有285萬人登記，其中約114萬人有意願接種AZ疫苗。系統平臺將自7月13日上午，陸續以簡訊通知符合資格的民眾，提醒收到簡訊民眾記得進行預約；施打期間為7月16日至7月22日，籲請民眾準時前往接種。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，為儘速提升國人COVID-19疫苗第一劑涵蓋率及我國群體保護力，並因應政策需要，昨(11)日經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議第4次臨時會議決議，自即日起調整現階段Moderna COVID-19疫苗之第一、二劑接種間隔，除第一類接種對象、國籍航空機組員及孕婦的第二劑Moderna疫苗維持於間隔至少28天後接種外，其餘對象均調整第一劑與第二劑接種間隔10至12週，並依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，截至昨(11)日COVID-19疫苗(包含Moderna及AstraZeneca)累計接種3,565,840人次，疫苗涵蓋率約14.87%。依據國外臨床試驗資料分析顯示，Moderna COVID-19疫苗完成接種第一劑14天後保護力約為81%，另依據WHO建議接種間隔最晚可至12週，指揮中心考量政策需要並參考ACIP建議，亦將Moderna COVID-19疫苗接種間隔調整為10至12週，並持續視疫情狀況及疫苗供貨情形，滾動調整接種政策。\$\@\$指揮中心提醒，前往接種第二劑疫苗前，請確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。此外，籲請民眾完成疫苗接種後，須持續積極配合各項防疫措施，並落實勤洗手、戴口罩及保持社交距離等個人防護，以全面保護自我與家人的健康，有效降低染疫風險。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、10例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月20日至7月11日。個案分布以新北市10例為最多，其次為臺北市9例，基隆市、桃園市、新竹市及臺中市各1例；其中17例為已知感染源、4例關聯不明、2例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案2598)，為60多歲男性，具慢性病史及其他確診者接觸史；個案於5月11日出現發燒等症狀，5月19日就醫採檢，5月20日確診並住院治療，6月11日解除隔離並出院。7月10日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月10日累計公布14,019位確診個案中，已有11,850人解除隔離，解隔離人數達確診人數84.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15370)，為克羅埃西亞籍未滿10歲女童，6月28日自瑞士入境，持搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月10日進行檢疫期滿前採檢，於今日確診(Ct值33)。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,639,921例新型冠狀病毒肺炎相關通報(含1,622,834例排除)，其中15,273例確診，分別為1,203例境外移入，14,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；確診個案中，累計105例移除為空號。自2020年起累計741例COVID-19死亡病例，其中733例本土，個案居住縣市分布為新北市369例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-12\$\@\$中央流行疫情指揮中心今(12)日表示，本土確診案例自今(2021)年7月2日起已連續低於50人，為兼顧國內產業用人需求及移工工作權益，爰自7月13日起恢復移工轉換雇主或工作。至於移工調派及工作延伸，考量移工流動性較高，仍暫緩解封，未來將視疫情再行檢討。\$\@\$指揮中心說明，7月1日已公佈優先恢復家庭類移工轉換至家庭類雇主，新雇主需為移工安排檢驗PCR。近期評估國內整體疫情及產業發展需要，將自7月13日起恢復家庭類以外類別之移工辦理轉換雇主，新雇主接續聘僱(含期滿轉換)移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接移工之新雇主應於接續聘僱日（含期滿轉換）前3日內安排移工檢驗PCR。但工作所在地之醫療院所假日期間未提供檢驗服務或檢驗能量已額滿者，得例外延後至接續聘僱日起3日內檢驗PCR。等待檢驗PCR結果期間，新雇主應安排移工1人1室，落實防疫措施，檢驗費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件續處。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主接續聘僱(含期滿轉換)移工，如未於上開規定期限內安排移工檢驗PCR，或於等待PCR檢驗結果期間，未落實移工1人1室，將依就業服務法規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日表示，為順利推動我國COVID-19疫苗接種作業，自即日起全國50歲(含)以上及18歲(含)以上第9類具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者均可於「疫苗施打意願登記與預約系統」（ https://1922.gov.tw/ ）進行意願登記，相關說明如下：\$\@\$一、意願登記時間：即日起至7月12日17時，並同步進行第一輪結算。\$\@\$二、簡訊通知時間：7月13日至7月15日將陸續以簡訊通知符合資格的民眾；收到簡訊者，才能進行預約。\$\@\$三、最快將於7月16日進行接種，未來三週均為AZ疫苗。\$\@\$四、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」的民眾登記意願，請地方政府設置因地制宜的服務專線或指定人員，協助不便使用系統的民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形、參照民眾所登記的意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。\$\@\$指揮中心強調，「COVID-19疫苗施打意願登記與預約系統」是為建立讓大量疫苗接種能依序穩定有效推行的機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註：\$\@\$1. 第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$(1) 高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$(2) 罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$(3) 重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$2. 第10類對象為50-64歲成人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為15例男性、13例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月26日至7月10日。個案分布以新北市12例為最多，其次為臺北市11例、桃園市2例，新竹縣、彰化縣及臺中市各1例；其中15例為已知感染源、9例關聯不明、4例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於40多歲至70多歲，發病日介於5月22日至6月22日，確診日介於5月25日至7月6日，死亡日介於7月7日至7月9日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月9日累計公布13,986位確診個案中，已有11,802人解除隔離，解隔離人數達確診人數84.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15342為本國籍30多歲男性，7月8日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，並入住防疫旅館，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15351為菲律賓籍30多歲船員，5月17日自菲律賓來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，檢疫期滿前採檢結果為陰性即登船出海工作，7月10日返臺並採檢，於今日確診；個案出海工作及在臺期間並無症狀，相關接觸者匡列中。案15353為本國籍40多歲男性，7月10日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案7月11日出現發燒症狀，已於醫院隔離治療，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,625,351例新型冠狀病毒肺炎相關通報(含1,608,702例排除)，其中15,249例確診，分別為1,202例境外移入，13,994例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計740例COVID-19死亡病例，其中732例本土，個案居住縣市分布為新北市368例、臺北市283例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增33例COVID-19確定病例，分別為31例本土及2例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之31例本土病例(其中19例為居家隔離期間或期滿檢驗陽性者)，為17例男性、14例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年6月22日至7月9日。個案分布以臺北市及新北市各13例最多，其次為桃園市4例，基隆市1例；其中21例為已知感染源、2例關聯不明、8例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為2例男性、4例女性，年齡介於30多歲至80多歲，發病日介於6月3日至6月24日，確診日介於6月4日至6月25日，死亡日介於7月6日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月8日累計公布13,950位確診個案中，已有11,698人解除隔離，解隔離人數達確診人數83.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15299為本國籍30多歲女性，6月25日自義大利入境，持搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15319為本國籍20多歲男性，6月26日自比利時入境，持搭機前3日內檢驗陰性報告，入境後於自宅居家檢疫，7月8日進行期滿前採檢，於今日確診，個案在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,606,389例新型冠狀病毒肺炎相關通報(含1,589,769例排除)，其中15,218例確診，分別為1,199例境外移入，13,966例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計105例移除為空號。自2020年起累計736例COVID-19死亡病例，其中728例本土，個案居住縣市分布為新北市368例、臺北市279例、基隆市25例、桃園市21例、彰化縣12例、新竹縣9例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增36例COVID-19確定病例，分別為32例本土及4例境外移入；另確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之32例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為17例男性、15例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月1日至7月8日。個案分布以臺北市19例最多，其次為新北市11例、桃園市2例；其中14例為已知感染源、1例關聯不明、17例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，為8例男性、4例女性，年齡介於40多歲至80多歲，發病日介於5月12日至7月4日，確診日介於5月16日至7月7日，死亡日介於6月30日至7月8日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月7日累計公布13,929位確診個案中，已有11,536人解除隔離，解隔離人數達確診人數82.8%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15270為本國籍60多歲女性，6月25日自土耳其返臺，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月7日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15283為本國籍30多歲女性，7月7日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；個案在臺期間並無症狀，已匡列同班機前後2排旅客共6人，均列居家隔離。案15289、15290皆為本國籍20多歲女性，7月7日自捷克搭乘同班機返臺，均持有搭機前3日內檢驗陰性報告，入境後在機場採檢，於今日確診；2人在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,582,844例新型冠狀病毒肺炎相關通報(含1,566,436例排除)，其中15,185例確診，分別為1,197例境外移入，13,935例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計730例COVID-19死亡病例，其中722例本土，個案居住縣市分布為新北市367例、臺北市277例、基隆市24例、桃園市21例、彰化縣12例、新竹縣8例、臺中市4例、宜蘭縣、苗栗縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，為順利推動我國COVID-19疫苗接種作業，指揮中心於昨(7)日下午邀集各地方政府代表共同召開「疫苗施打意願登記與預約系統」討論會議，達成共識及決議如下：\$\@\$一、指揮中心將自即日起，開放全國第9類及第10類對象意願登記，並正式啟用「COVID-19疫苗施打意願登記與預約系統」，請符合資格民眾可先行意願登記：\$\@\$(一) 意願登記：即日起至7月12日下午5時止。\$\@\$(二) 為保障65歲以上長者疫苗接種權益，若希望使用該系統進行意願登記，請依時程辦理。\$\@\$二、為協助不便使用「COVID-19疫苗施打意願登記與預約系統」之民眾進行意願登記，請地方政府設置因地制宜之服務專線或指定人員，協助不便使用系統民眾進行意願登記。\$\@\$指揮中心提醒，「COVID-19疫苗施打意願登記與預約系統」須先完成意願登記後，才能在接到通知後進行預約。系統平臺會按疫苗分配情形參照民眾所登記之意願，通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。尚未收到簡訊之民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。指揮中心也強調，「COVID-19疫苗施打意願登記與預約系統」是為建立一個讓大量疫苗接種能依序穩定有效推行之機制，中央與地方腳步一致，加強疫苗接種推動，提升群體保護力，維護國人健康。\$\@\$備註:\$\@\$第9類對象為18-64歲具有易導致嚴重疾病之高風險疾病者、罕見疾病及重大傷病者。\$\@\$高風險疾病者定義： https://reurl.cc/R02Qx6\$\@\$罕見疾病定義： https://reurl.cc/Nr2E36\$\@\$重大傷病者請依健保卡註記或重大傷病卡為主\$\@\$第10類對象為50-64歲成人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增21例COVID-19確定病例，分別為18例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為8例男性、10例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月1日至7月7日。個案分布以臺北市12例最多，其次為新北市6例；其中9例為已知感染源、9例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至70多歲，發病日介於5月27日至6月14日，確診日介於5月28日至6月17日，死亡日介於7月5日至7月6日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月6日累計公布13,889位確診個案中，已有11,456人解除隔離，解隔離人數達確診人數82.5%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15252為本國籍30多歲男性，6月23日自泰國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月6日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15253為印尼籍20多歲男性漁工，5月10日自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，5月23日檢疫期滿前採檢結果為陰性，7月7日因有離境需求再次採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者221人，其中60人列居家隔離，餘161人列自我健康監測。案15254為本國籍10多歲女性，7月6日自美國返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,541,974例新型冠狀病毒肺炎相關通報(含1,525,372例排除)，其中15,149例確診，分別為1,193例境外移入，13,903例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計105例移除為空號。自2020年起累計 718例COVID-19死亡病例，其中710例本土，個案居住縣市分布為新北市363例、臺北市272例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$針對媒體報導「指揮中心設局召開記者會」，中央流行疫情指揮中心今(8)日說明如下：\$\@\$一、針對臺北市環南市場進行大規模PCR篩檢且41人呈現陽性，顯示有群聚感染疫情，指揮中心於7月2日11:30前往環南市場現場召開記者會，並宣布與臺北市政府共同成立聯合前進指揮所。\$\@\$二、當日陳時中指揮官於9:45致電黃珊珊副市長，黃副市長將電話轉交給柯文哲市長，陳指揮官與柯市長直接通話，雙方對成立聯合前進指揮所達成共識，並在環南市場現場召開記者會。\$\@\$三、當日農委會陳吉仲主委於10:00多左右，親自致電二通予臺北市黃副市長，並於第二通電話中明確告知黃副市長，陳指揮官、經濟部王美花部長及農委會陳吉仲主委將至環南市場召開記者會，並邀請黃副市長出席，黃副市長表示柯市長也會出席。\$\@\$四、指揮中心表示，當日均依照指揮中心記者會程序，發布採訪通知；指揮中心幕僚抵達環南市場後，亦與臺北市市場處高副處長確認記者會場地、流程及雙方出席人員，同時與現場媒體溝通說明記者會流程，及預定出席人員。\$\@\$五、當日11:01，臺北市府陳智菡發言人於臺北市府群組發布採訪通知，說明柯市長、黃副市長皆會出席記者會； 11:20柯市長、黃副市長抵達環南市場。\$\@\$六、指揮中心說明，為儘快有效控制疫情，召開記者會說明防疫作為及因應措施，以利相關市場攤商、工作人員及周邊住民了解需配合之事項，並無「以開會名義設局召開記者會」一事。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-08\$\@\$中央流行疫情指揮中心今(8)日表示，在國人共同努力配合下，國內疫情已在控制中，惟仍有部分感染事件發生，參酌世界各國管制作為及經驗，防疫措施鬆綁須逐步執行，才可穩定掌握疫情狀況，為確保國人健康，指揮中心經評估後決定，同步延長全國疫情警戒第三級至7月26日止，並自7月13日起適度鬆綁部分措施，說明如下：\$\@\$一、適度鬆綁措施：\$\@\$(一)    有條件鬆綁對象（地方政府得視防疫需要因時因地調整）：\$\@\$1.    戶外：國家公園、國家風景區、遊樂園區、休閒農場、森林遊樂區、植物園、文化園區、學校操場、駕訓班。\$\@\$2.    室內：美術館、博物館、電影院、表演場館(無觀眾)、社教機構、文化中心。\$\@\$3.    室內外運動場館(游泳池除外)、高爾夫球場。\$\@\$4.    餐飮場所(餐廳、傳統市場及夜市、百貨賣場 美食街、美食區等)符合指揮中心指引得內用。\$\@\$5.    國內小型旅行團(9人以下)、劇組拍攝。\$\@\$(二)    上述鬆綁須遵照通案性原則及主管機關指引：\$\@\$1.    實聯制、出入口管制、人流管控降載。\$\@\$2.    維持社交距離，除飮食外，全程戴口罩。\$\@\$3.    員工人員健康管理、確診事件即時應變。\$\@\$二、三級警戒延長仍須關閉之場所：\$\@\$(一)    休閒娛樂場所：\$\@\$歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、指壓按摩場所、健身休閒中心(含提供指壓、三溫暖等設施之美容瘦身場所)、保齡球館、撞球場、室內螢幕式高爾夫練習場、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、自助選物販賣機營業場所、釣蝦場、桌遊場所及其他類似場所。\$\@\$(二)    教育學習場域：\$\@\$社區大學、樂齡學習中心、訓練班(駕訓班除外)、K書中心等其他類似場所。\$\@\$(三)    觀展觀賽場所：\$\@\$會展場館、游泳池等其他類似場所。\$\@\$指揮中心表示，鬆綁過程是疫情重要關鍵，籲請全國民眾持續落實遵循並積極配合三級警戒管制及鬆綁規定相關措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日表示，第二批AstraZeneca疫苗約62.6萬劑，預定今日下午3時40分抵達桃園國際機場。\$\@\$指揮中心說明，本批疫苗為我國與供應商(阿斯特捷利康公司)採購之一部分，首批11.7萬劑已於3月3日到貨，第二批今日抵臺疫苗完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，該公司也協助交付經由COVAX供應和日本捐贈的AstraZeneca疫苗。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至110年10月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增40例COVID-19確定病例，分別為39例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之39例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為21例男性、18例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年6月26日至7月6日。個案分布以臺北市與新北市各14例最多、其次為桃園市11例；其中23例為已知感染源、4例關聯不明、12例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為4例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月13日至6月27日，確診日介於5月18日至6月29日，死亡日介於7月1日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月5日累計公布13,862位確診個案中，已有11,277人解除隔離，解隔離人數達確診人數81.4%。\$\@\$指揮中心表示，今日新增境外移入個案(案15208)，為本國籍40多歲女性，7月4日自泰國入境，持有搭機前3日內檢驗陰性報告，個案入境時並無症狀，於機場採檢後至檢疫旅館檢疫，於今日確診，衛生單位已匡列個案同班機前後2排座位旅客共7人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,532,252例新型冠狀病毒肺炎相關通報(含1,515,985例排除)，其中15,128例確診，分別為1,190例境外移入，13,885例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計105例移除為空號。自2020年起累計累計715例COVID-19死亡病例，其中707例本土，個案居住縣市分布為新北市361例、臺北市271例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-07\$\@\$網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊，中央流行疫情指揮中心今(7)日澄清，「COVID-19疫苗施打意願登記與預約系統」(1922.gov.tw)運作順暢並無異常，且已正式上線，並非虛擬預約，所有登記成功者皆已記錄在案，除非事後自行取消，否則已登記之紀錄並不會受到影響。前述相關網路訊息均非疾管署或1922防疫專線發布、回復，且內容多有不實，籲請民眾勿信、轉傳與散布。\$\@\$指揮中心說明，有關「COVID-19疫苗施打意願登記與預約系統」其設計目前為開放全國第9、10類對象民眾進行疫苗施打意願登記，故不限金馬澎地區登記意願；惟完成意願登記者，須符合當時公布開放預約之接種年齡及資格條件，系統平台會按疫苗分配情形以簡訊通知符合預約資格的民眾，收到簡訊通知者即可進行下一步預約接種。如有完成意願登記但不符合當時預約資格，則暫時不會收到預約接種簡訊且無法預約接種。而本次以離島金門、馬祖和澎湖先行試辦意願登記及預約接種，未來將再逐步開放到全國，截至今日8時，全國已有約148萬符合第9、10類接種對象完成意願登記，其中離島金門、馬祖及澎湖之意願登記人數約為4千5百人。\$\@\$指揮中心指出，目前全國1-8類對象已開放接種，符合該等對象資格者可依縣市政府規劃安排接種。昨日上線之「COVID-19疫苗施打意願登記與預約系統」，係為建立一個讓大量疫苗接種能依序穩定有效推行之機制，請符合第9、10類對象民眾先進行意願登記，再依簡訊通知，進行預約接種。\$\@\$指揮中心強調，網路謠傳「有1922回復，系統異常讓其他地區民眾預約登記、疾管署討論虛擬預約或取消方式處理、及正式預約開始要向1922確認」等資訊皆為不實訊息且均非發布自疾管署或1922防疫專線，籲請民眾勿信、轉傳與散布。 圖片 附件\$\@\$網傳COVID-19疫苗施打登記系統異常為不實訊息 全國第9、10類皆可登記且紀錄不會被消除.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增29例COVID-19確定病例，分別為27例本土及2例境外移入；另確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之27例本土病例(其中15例為居家隔離期間或期滿檢驗陽性者)，為17例男性、10例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月10日至7月5日。個案分布以臺北市14例最多，其次為新北市11例、屏東縣及彰化縣各1例；其中17例為已知感染源、10例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，為14位男性、3位女性，發病日介於5月16日至7月2日，確診日介於5月19日至7月5日，死亡日介於6月28日至7月5日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月4日累計公布13,831位確診個案中，已有11,180人解除隔離，解隔離人數達確診人數80.8%。\$\@\$指揮中心表示，今日新增境外移入個案中，案15180為本國籍10多歲男性，7月4日自美國入境，持有搭機前3日內檢驗陰性報告，入境時並無症狀，於機場採檢後至防疫旅館檢疫，7月5日出現嗅味覺異常等症狀，於今日確診，相關接觸者匡列中。案15185為本國籍30多歲男性，6月30日自印尼入境，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並進行採檢，當日採檢結果為陰性；7月4日出現發燒、肌肉痠痛、流鼻水等症狀，7月5日由衛生單位採檢送驗，於今日確診，同班機旅客均已入境採檢並入住集中檢疫所。\$\@\$指揮中心統計，截至目前國內累計1,503,584例新型冠狀病毒肺炎相關通報(含1,487,019例排除)，其中15,088例確診，分別為1,189例境外移入，13,846例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號(案10180、案13124)，累計105例移除為空號。自2020年起累計706例COVID-19死亡病例，其中698例本土，個案居住縣市分布為新北市354例、臺北市269例、基隆市24例、桃園市20例、彰化縣12例、新竹縣7例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心今(6)日表示，日本政府繼6月4日提供我國124萬劑AstraZeneca疫苗，再提供113萬劑AstraZeneca疫苗予我國人使用。該批疫苗預定於7月8日下午運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封縅作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此全球疫苗供不應求且疫情艱難時刻，日本政府再度伸出援手追加這批COVID-19疫苗，將有助於提升我國疫苗涵蓋率，並给予國内疫情防治極大幫助，指揮中心謹向日本政府與人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-06\$\@\$中央流行疫情指揮中心表示，今(6)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.疾病傳播能力雖呈現下降趨勢，惟部分縣市仍有群聚事件爆發，請各地方政府持續密切注意監測，早期發現並介入；另國內出現Delta變異株相關群聚，將強化國內病毒變異株基因監測外，鑒於該病毒株具高傳播力，未來可能成為主流病毒變異株，爰請各地方政府重新檢視病患收治轉送及醫療照護體系量能之整備。\$\@\$2.雙北部分，臺北市出現較大規模市場群聚，考量市場人流多屬不特定對象，請該市衛生機關加強轄內社區、市民及醫療院所警覺，並於市場周邊設置篩檢站；新北市亦有出現家禽市場群聚，請該市衛生機關持續留意後續疫情變化。\$\@\$二、疫苗施打意願登記與預約系統\$\@\$1.有關行政院唐鳳政務委員設計開發之「疫苗施打意願登記與預約系統」，重點如下：\$\@\$1)登記與預約四步驟：意願登記→1922以簡訊通知符合資格民眾→預約接種→接種疫苗。\$\@\$2)登記對象：第9類(18歲至64歲，患有高風險疾病、罕見疾病或重大傷病者)及第10類(50-64歲成人)符合公費疫苗接種對象。\$\@\$3)預約及登記平台：可採線上1922.gov.tw或手機app「健保快易通」(全名「全民健保行動快易通」)預約，或者持健保卡到超商、藥局、衛生所插卡預約。\$\@\$4)試辦時間及區域：7月6日上午10點至7日下午5點開放登記，7月8日上午10點至9日下午5點開放預約，於金門、馬祖、澎湖進行試辦。後續視試辦2週之成效後，再推動至全國。\$\@\$2.本系統啟動條件，以中央流行疫情指揮中心開放對象，進行逐步啟動，現行為第9及第10類民眾，另針對偏鄉或年長者意願及預約登記服務部分，請各地方政府各鄉鎮市公所提供協助作業。\$\@\$3.至於疫苗配撥安排，現階段以毎週提供單一品牌疫苗預約為原則，後續視疫苗到貨情況再行研議調整。\$\@\$三、針對第七類優先接種對象認定及疫苗配發施打作業，指揮中心依各專案主管部會造冊人數陸續進行疫苗核撥作業，鑒於造冊施打對象亦為各縣市的居民，且疫苗撥配量原則會多於專案造冊人數，爰請地方政府協助各部會疫苗依施打作業或計畫，進行各該對象之接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-05\$\@\$針對近日媒體報導「疾病管制署造冊人數，超過編制內人數」一事，中央流行疫情指揮中心今(5)日表示，為維持防疫體系運作，相關防疫人員與醫護人員均列為COVID-19公費疫苗接種的優先施打對象，包含第一類「維持醫療量能–醫事人員」及第二類「中央及地方政府防疫人員」，其中第二類對象為「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」以及「港埠執行邊境管制之海關檢查、證照查驗、人員檢疫及動植物檢疫、安全檢查及航空安全等第一線工作人員」等。\$\@\$指揮中心指出，疾管署為COVID-19防疫主責機關，負責疫情監控、邊境檢疫、社區防疫、感染管制及病毒檢驗事項等相關業務，該署造冊1,261人，其對象除了編制內人員(正式職員、聘僱人員、工級人員)850人外，尚有研發替代役、臨時人員、駐點及承攬人員等411人，該等人員負責協助支援各項業務推動，包含協勤保全人員、資訊委外駐點等，協助邊境檢疫作業及檢疫、隔離與預防接種等系統管理維運，均擔負重要職責，亦屬指揮中心公布之第一類「維持醫療量能–醫事人員」及第二類「維持防疫量能-中央及地方政府防疫人員」。\$\@\$指揮中心強調，因應COVID-19疫情，為維持防疫量能，又將防疫視同作戰，故以防疫業務推動與確保同仁防護能力為首要，進行相關人員接種作業，以避免影響防疫業務的正常運作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增31例COVID-19確定病例，分別為28例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之28例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為9例男性、19例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月19日至7月4日。個案分布以臺北市15例最多，其次為新北市5例、桃園市3例、苗栗縣2例，屏東縣、基隆市及新竹縣各1例；其中16例為已知感染源、1例關聯不明、11例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增1例死亡個案(案12752)，為70多歲女性，具慢性病史及其他確診者接觸史；個案於6月11日出現發燒、呼吸困難症狀，同日就醫採檢並住院治療，6月12日確診，7月3日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月3日累計公布13,792位確診個案中，已有11,008人解除隔離，解隔離人數達確診人數79.8%。\$\@\$指揮中心表示，今日新增3例境外移入中，案15152為本國籍未滿5歲女童，6月21日自美國入境，持有搭機前3日內檢驗陰性報告，入境後於自宅進行居家檢疫，7月4日進行期滿前採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，相關接觸者匡列中。案15155為本國籍20多歲男性，7月1日自英國返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢，當日採檢結果為陰性，7月2日出現鼻塞、喉嚨癢、輕微發燒等症狀，7月4日通報衛生單位後安排採檢送驗，於今日確診(Ct值22)，相關接觸者匡列中。案15164為本國籍50多歲男性，7月2日自沙烏地阿拉伯返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,472,827例新型冠狀病毒肺炎相關通報(含1,455,971例排除)，其中15,061例確診，分別為1,187例境外移入(原7月4日公布之本土個案15109、15110 ，經疫調採檢後改判為境外移入)，13,821例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計689例COVID-19死亡病例，其中681例本土，個案居住縣市分布為新北市349例、臺北市261例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增39例COVID-19確定病例，分別為37例本土及2例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之37例本土病例(其中13例為居家隔離期間或期滿檢驗陽性者)，為12例男性、25例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月17日至7月3日。個案分布以臺北市18例最多，其次為新北市11例、桃園市及彰化縣各3例、宜蘭縣2例；其中16例為已知感染源、3例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增2例死亡個案(案8089、12577)，分別為70多歲女性及80多歲男性，發病日為5月18日及6月9日，確診日為5月30日及6月11日，死亡日為7月2日及6月17日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月2日累計公布13,712位確診個案中，已有10,868人解除隔離，解隔離人數達確診人數79.3%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15113為本國籍50多歲女性，7月2日自柬埔寨返臺，持有搭機前3日內檢驗陰性報告，入境時有發燒症狀，在機場採檢後送醫治療，於今日確診；相關接觸者匡列中。案15129為本國籍30多歲男性，6月30日起陸續出現頭痛、喉嚨痛及流鼻水等症狀，7月3日自印尼返臺，持有搭機前3日內檢驗陰性報告，入境時主動通報有症狀並在機場採檢，於今日確診；已掌握個案同行返臺之友人1名，其在臺期間並無症狀，檢體檢驗中，已列居家隔離，其餘同班機接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,459,913例新型冠狀病毒肺炎相關通報(含1,442,937例排除)，其中15,030例確診，分別為1,182例境外移入，13,795例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計688例COVID-19死亡病例，其中680例本土，個案居住縣市分布為新北市349例、臺北市260例、基隆市22例、桃園市20例、彰化縣11例、新竹縣6例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增80例COVID-19確定病例，分別為76例本土及4例境外移入；另確診個案中新增10例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例(其中14例為居家隔離期間或期滿檢驗陽性者)，為 31例男性、45例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年6月22日至7月2日。個案分布以臺北市48例最多，其次為新北市24例、桃園市3例，新竹市1例；其中55例為已知感染源、21例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增10例死亡個案，為5例男性、5例女性，年齡介於50多歲至90多歲，發病日介於5月21日至6月30日，確診日介於5月29日至7月2日，死亡日介於6月26日至7月2日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月1日累計公布13, 654位確診個案中，已有10,551人解除隔離，解隔離人數達確診人數77.3%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15059為本國籍10多歲男性，6月30日自英國入境，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日出現發燒、頭痛、全身倦怠、咳嗽等症狀，由衛生單位安排採檢送驗，於今日確診，接觸者匡列中。案15063為本國籍20多歲男性，6月18日自日本返臺；案15079為本國籍60多歲女性，6月18日自美國返臺，2人皆持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月2日進行期滿前採檢，於今日確診。2人在臺期間並無症狀，檢疫期間無接觸他人，故無匡列接觸者。案15094為本國籍50多歲男性，6月25日自柬埔寨返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日由衛生單位安排轉換檢疫旅館，7月2日進行專案採檢，於今日確診(Ct值37，IgG、IgM均為陽性)，目前接觸者匡列中。\$\@\$指揮中心統計，截至目前累計1,437,283例新型冠狀病毒肺炎相關通報(含1,420,997例排除)，其中14,991例確診，分別為1,180例境外移入，13,758例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計686例COVID-19死亡病例，其中678例本土，個案居住縣市分布為新北市349例、臺北市259例、基隆市22例、桃園市20例、彰化縣11例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月3日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日表示，因應臺北市環南市場疫情，將於今日針對6月8日起，曾於相關時間及地點出入之民眾，發送疫情警示簡訊，內容如下：\$\@\$[疫情警示]如您曾至環南市場，且6月8日之後曾有發燒、呼吸道症狀，腹瀉，或嗅、味覺異常等疑似症狀，請就醫評估或可至社區篩檢站採檢。\$\@\$指揮中心說明，收到簡訊者若有不適，務必正確佩戴外科口罩儘速就醫，不可搭乘大眾交通工具，就醫時應主動告知醫療人員相關暴露及接觸史。指定社區採檢院所醫院清單可至疾病管制署網站查詢：http://at.cdc.tw/5y262t。\$\@\$備註：本次簡訊發送範圍：\$\@\$北至：萬板大橋\$\@\$東至：西藏路\$\@\$南至：華翠大橋\$\@\$西至：環河快速道路</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增58例COVID-19確定病例，分別為57例本土及1例境外移入；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之57例本土病例(其中22例為居家隔離期間或期滿檢驗陽性者)，為25例男性、32例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月22日至7月1日。個案分布以臺北市29例最多，其次為新北市15例、新竹縣4例、桃園市及基隆市各3例、臺中市2例、新竹市1例；其中28例為已知感染源、6例關聯不明、23例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，為8例男性、7例女性，年齡介於40多歲至80多歲，發病日介於5月25日至6月21日，確診日介於5月28日至6月28日，死亡日介於6月3日至6月30日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月30日累計公布13,605位確診個案中，已有10,347人解除隔離，解隔離人數達確診人數76.1%。\$\@\$指揮中心表示，今日新增1例境外移入中(案14975)，為本國籍50多歲女性，6月28日自匈牙利返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，7月1日申請外出奔喪，由衛生單位安排至醫院自費採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,411,572例新型冠狀病毒肺炎相關通報(含1,395,446例排除)，其中14,911例確診，分別為1,176例境外移入，13,682例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計103例移除為空號。自2020年起累計676例COVID-19死亡病例，其中668例本土，個案居住縣市分布為新北市343例、臺北市256例、基隆市21例、桃園市20例、彰化縣11例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-02\$\@\$中央流行疫情指揮中心表示，今(2)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、鑒於國內仍有職場、機構、醫院、社區等場域群聚事件發生，請相關地方政府持續落實疫調及接觸者匡列、社區篩檢及監測，以利早期發現病例，早期介入；另近期人流有上升趨勢，請各地方政府加強宣導落實三級警戒注意事項。\$\@\$1.雙北部分：臺北市近期發生市場、機構及工地等群聚，須留意防範擴散至社區，並加強疫調及跨縣市疫情通報；另建議持續考量民眾就醫可近性，設置社區篩檢站。\$\@\$2.屏東縣部分：Delta變異株進入枋山社區，目前當地疫情雖已控制，仍請屏東縣政府擴大社區篩檢及居民健康監測，提升當地民眾及醫療院所防疫警覺。\$\@\$二、針對第七類「國家關鍵基礎設施及高風險接種人員等專案」對象疫苗配撥及接種作業，已請相關中央目的事業主管機關，於中央流行疫情指揮中心第86次大會(6月29日)中，就接種計畫進行報告，也請各部會與地方政府業務隸屬之局處聯繫，務必向縣市首長報告專案實施內容，讓縣市首長充分瞭解。\$\@\$三、有關地方政府建議擴大疫苗施打對象部分，指揮中心均會就疫情狀況、疫苗可分配數量、接種情形等持續綜合評估，滾動規劃後續納入施打之開放類別目標族群，請各地方政府配合指揮中心規劃，確實將撥配疫苗施打於優先開放之類別目標族群。\$\@\$四、有關地方政府關切Moderna疫苗後續撥發規劃部分，評估疫苗保存、解涷及配發至地方等作業所需時間，目前第二批撥配日期為7月5日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日公布，鑑於Delta變異株於全球日益擴散且其傳播力強，為降低該病毒進入國內社區風險，自今(2021)年7月2日中午12時(航機抵臺時間)起，加強國際港埠入境人員健康監測，包含：\$\@\$一、14天內具「重點高風險國家」旅遊史之入境旅客，自空港或海港入境後，一律公費入住集中檢疫所14天，且須配合入住時、檢疫期滿進行COVID-19病毒核酸檢驗(PCR)檢測；另檢疫期間增加第10至12天以「家用快篩」採檢一次。\$\@\$二、14天內無「重點高風險國家」旅遊史之入境旅客，自空港或海港入境時皆須配合採深喉唾液及進行PCR檢測，並搭乘防疫車隊前往防疫旅宿或自費入住集中檢疫場所接續完成14天檢疫，且於檢疫期滿前(檢疫第12至14天)PCR檢測，另增加第10至12天以「家用快篩」採檢一次。\$\@\$三、所有入境旅客，檢驗為陽性者，均進行病毒基因定序。\$\@\$指揮中心強調，邊境管制為防範COVID-19疫情的重要關鍵，入境旅客抵臺時應主動配合邊境加強監測措施，並依指揮中心規定的交通方式前往檢疫地點及配合後續防疫相關措施。落實全民共同抗疫，將疫情阻絕於境外。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$疾病管制署今(1)日公布國內新增2例日本腦炎確定病例，為彰化縣鹿港鎮本國籍50多歲男性及臺中市大安區越南籍20多歲男性，發病日分別為6月16日及6月24日，症狀包括發燒、頭痛、嘔吐及意識改變等，經就醫通報後確診，目前均仍住院治療中。\$\@\$疾管署表示，2名個案近期均無國內外旅遊史，平時活動地以居住地及工作地為主。衛生單位於2人活動地周邊發現有豬舍或水稻田等高風險場所，研判於活動地附近感染的可能性較高，並已前往個案活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共6例確定病例，個案居住地分別為基隆市、臺中市、彰化縣、臺南市、高雄市及屏東縣各1例，個案活動地附近均有高風險環境；2017至2020年全國同期確定病例數分別為12、25、12及13例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，臺灣每年5至10月為日本腦炎流行季，其中6至7月為流行高峰。在臺灣以三斑家蚊、環紋家蚊及白頭家蚊為主要病媒蚊，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段。大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。請民眾儘量避免於病媒蚊吸血高峰時段，在上述易孳生病媒蚊之高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。\$\@\$疾管署呼籲，預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。住家或活動地鄰近豬舍、水稻田等高風險環境的民眾應加強防蚊，如自覺有感染風險的成人，可前往旅遊醫學門診評估自費接種疫苗。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日表示，本土確診案例連續1週低於百人，經考量失能者家庭照顧需求，及家庭較無其他替代人力，且不致有產業移工群聚擴大傳染風險等因素，自即日起優先恢復外籍家庭看護工及家庭幫傭，得轉換由家庭類雇主接續聘僱(含期滿轉換)；至於其他產業移工仍暫緩轉換，未來將視疫情再行檢討。\$\@\$指揮中心表示，家庭類雇主接續聘僱(含期滿轉換)家庭類移工應辦理以下事項：\$\@\$一、安排移工核酸檢驗（下稱PCR）：承接家庭類移工之新雇主應於接續聘僱（含期滿轉換）當日安排移工至合格醫療機構檢驗PCR，檢測費用應由新雇主支付。\$\@\$二、雇主應依指引辦理防疫措施：倘若接續聘僱移工檢測PCR確診時，新雇主應負雇主責任，並依勞動部「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」(下稱雇主指引)，配合衛生單位安排就醫或送集中檢疫所隔離治療，並依確診個案處置及解除隔離治療條件接續處理。倘若接續聘僱移工檢測PCR陰性，新雇主應依雇主指引，每日進行移工健康監測及記錄移工出入足跡。\$\@\$指揮中心進一步表示，新雇主若未於接續聘僱(含期滿轉換)當日，安排移工檢驗PCR，將依「就業服務法」第57條第9款規定，處新臺幣6萬至30萬元罰鍰，並不予核發接續聘僱許可及廢止名額。另雇主如果委託仲介公司辦理移工生活照顧，但仲介公司未善盡受任事務，違反防疫措施，仲介公司將被依「仲介公司違反就業服務法」規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增50例COVID-19確定病例，分別為47例本土及3例境外移入；另確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之47例本土病例(其中21例為居家隔離期間或期滿檢驗陽性者)，為22例男性、25例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月22日至6月30日。個案分布以新北市20例最多，其次為臺北市18例、桃園市5例、高雄市2例，新竹市及新竹縣各1例；其中28例為已知感染源、3例關聯不明、16例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為7例男性、6例女性，年齡介於50多歲至80多歲，發病日介於5月14日至6月18日，確診日介於5月18日至6月20日，死亡日介於6月17日至6月30日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月29日累計公布13,549位確診個案中，已有10,306人解除隔離，解隔離人數達確診人數76.1%。\$\@\$指揮中心表示，今日新增3例境外移入中，案14926、案14927分別為印尼籍30多歲及印尼籍20多歲男性漁工，去(2020)年12月自印尼來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，檢疫期滿採檢陰性即登船出海工作；2人均於今年6月16日返臺，入境後至防疫旅館檢疫，29日接受檢疫期滿前採檢，皆於今日確診；由於2人在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案14941為菲律賓籍30多歲男性漁工，5月13日自菲律賓來臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，5月27日檢疫期滿前採檢陰性，5月29日檢疫期滿後登船，未再下船，6月14日因工作需求再次採檢陰性，6月16日因同船漁工確診，故移至防疫旅館進行隔離，6月29日隔離期滿前採檢，於今日確診；個案在臺期間並無症狀，且隔離期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,379,630例新型冠狀病毒肺炎相關通報(含1,363,405例排除)，其中14,853例確診，分別為1,175例境外移入，13,625例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案14795)，共累計103例移除為空號。自2020年起累計661例COVID-19死亡病例，其中653例本土，個案居住縣市分布為新北市334例、臺北市251例、基隆市21例、桃園市20例、彰化縣10例、新竹縣5例、臺中市4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月1日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，批發市場為供應民眾農、漁、畜等民生物資的重要營業場所，因應近期批發市場出現群聚感染事件，為確保相關場域工作人員、採購民眾自身與家人健康，指揮中心與農委會共同訂定「批發市場防疫管理措施建議指引」，呼籲各批發市場遵循，以避免群聚感染、疫情擴大。\$\@\$指揮中心進一步表示，「批發市場防疫管理措施建議指引」提供主管機關、場域管理單位及工作人員，依實際可行性與適用性，內化為適合個別場域所需的管理措施，供管理單位、從業人員及採購人員遵循辦理，以降低疫情在批發市場的發生機率、規模及社區傳播風險。\$\@\$指揮中心指出，「批發市場防疫管理措施建議指引」包含以下重點防疫措施，請各批發市場遵循，以降低疫情發生：\$\@\$人員健康管理：落實市場出入人員體溫量測、實聯制。盤點及造冊相關工作人員，落實健康狀況監測、定期篩檢及訂定健康監測計畫(包含人員名單及異常追蹤處理機制)，並鼓勵接種COVID-19疫苗。\$\@\$人流管制措施：調整市場攤位配置及營業時段，減少市場之出入口、劃定人員動線及分流措施，管制人數總量及單位時間人數。\$\@\$落實人員衛生行為：張貼標語、海報或透過廣播提醒顧客、從業人員等落實戴口罩及手部衛生，增加洗手設備可近性，並儘量使用非直接與顧客接觸之收付款方式。\$\@\$個人防護裝備建議：工作人員需佩戴口罩及面罩，視需要佩戴手套或穿著防水圍裙，拋棄式口罩不可重複使用；面罩若為可重複使用者，應確實清潔消毒後重複使用。\$\@\$環境清潔消毒：訂定環境清潔及消毒計畫，定時執行環境清潔及消毒，每天至少1次以上，並增加公共廁所衛生清潔及消毒頻率。\$\@\$出現確定病例之應變措施：訂定包括風險對象管理、風險區域管理及營運降載措施等3大應變措施，批發市場若發生確診者，應通報主管機關，風險區域須暫停營業，並視影響程度，通知供應人及承銷人至鄰近市場交易。\$\@\$指揮中心表示，農委會後續將與全國各批發市場及縣市政府召開視訊說明會，並請各縣市批發市場依據公布的指引自行訂定符合實際經營樣態的防疫作業規範，確保農產品穩定供應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日表示，第三批Moderna疫苗41萬劑，已於歐洲時間6月29日晚上9時30分自阿姆斯特丹啟運，預定今日下午4時40分抵達桃園國際機場。\$\@\$指揮中心表示，本批疫苗為我國與供應商採購之一部分，首批15萬劑已於5月28日、第二批24萬劑也於6月18日分別到貨。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存至少6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增56例COVID-19確定病例，分別為55例本土及1例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之55例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為30例男性、25例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月20日至6月29日。個案分布以新北市23例最多，其次為臺北市22例、桃園市5例，高雄市及苗栗縣各2例、屏東縣1例；其中31例為已知感染源、2例關聯不明、22例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至70多歲，發病日介於5月24日至6月16日，確診日介於5月25日至6月18日，死亡日介於6月25日至6月28日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月28日累計公布13,495位確診個案中，已有10,196人解除隔離，解隔離人數達確診人數75.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案14875)，為印度籍30多歲男性，6月27日自印度來臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，因有適當防護，列自我健康監測。\$\@\$指揮中心統計，截至目前國內累計1,347,513例新型冠狀病毒肺炎相關通報(含1,331,329例排除)，其中14,804例確診，分別為1,172例境外移入(原6月28日公布之本土個案14755，經疫調採檢後改判為境外移入)，13,579例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計 648例COVID-19死亡病例，其中640例本土，個案居住縣市分布為新北市329例、臺北市246例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日表示，簡訊實聯制的推出，係為方便民眾及商家落實實聯制措施、減少紙本紀錄的接觸，並有助於疫調人員掌握個案相關活動史及匡列接觸者等，相關數據之使用，均有其合法性、正當性、必要性，且絕無違法情事，說明如下：\$\@\$一、 合法性：衛福部依傳染病防治法第37條第1項第6款，公告「嚴重特殊傳染性肺炎(COVID-19)第三級疫情警戒標準及防疫措施裁罰規定」，規定外出時應全程佩戴口罩，並配合實聯制；行政院為遏止疫情擴散，並減少實聯制紙本填寫之接觸，推出「簡訊實聯制」，供民眾及商家使用。\$\@\$二、 正當性：簡訊實聯制係於經得使用人同意下，掃瞄QR code即完成實聯制措施；而「簡訊實聯制」並不會留下個資給店家，所留下的活動史簡訊，電信業者也只保留28天，且僅供指揮中心疫調使用，不會做目的外利用。\$\@\$三、 必要性：在疫調工作中，衛生單位人員須掌握確診個案相關之活動資訊，以即時展開接觸者匡列、環境清消等各項防疫措施，故適當的運用簡訊實聯制相關資訊，對防疫推動有實質的幫助。\$\@\$指揮中心進一步指出，簡訊實聯制自今(2021)年5月19日上線後，於6月3日起啟用實聯制資料調用機制，以供地方政府衛生局有疫情調查需求時，向指揮中心申請調閱，經審核通過後將調閱資料回復，大多數申請調用案件可於一日之內提供資料。截至6月29日，已有宜蘭縣、花蓮縣、南投縣、屏東縣、苗栗縣、桃園市、高雄市、基隆市、新北市、新竹縣、嘉義縣、彰化縣、臺中市、臺北市、臺南市、澎湖縣，共計16縣市政府衛生局調用303項資料，調用量前3名依序為桃園市衛生局、高雄市衛生局、臺中市衛生局。\$\@\$指揮中心強調，「簡訊實聯制」的推出，主要為提供民眾、商家、衛生單位不管是在配合防疫措施或執行疫調工作上便利的平臺，籲請民眾、商家配合，也請地方政府加強稽查，共同落實實聯制，完備疫調工作，達到防疫的目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$針對媒體報導「COVID-19疫苗接種外展服務，無法選擇疫苗廠牌，係為國產疫苗鋪路」，中央流行疫情指揮中心今(29)日澄清，無法選擇疫苗廠牌，係因目前尚無法確認屆時可供應之疫苗廠牌與數量，並非為國產疫苗鋪路。\$\@\$指揮中心表示，為加速我國COVID-19疫苗接種作業，規劃辦理「COVID-19疫苗接種外展服務」，已於日前發文請各部會先行調查「規模1,000人以上企業」、「100人以上中央政府機關」等人員施打疫苗意願及進行造冊，並由各機關（構）自行評估是否有適合執行接種作業的地點及空間規劃等。\$\@\$有關媒體報導「該公文提到無法選擇疫苗廠牌，係為國產疫苗鋪路」，指揮中心澄清，係因目前尚無法確認屆時可供外展服務之疫苗廠牌與疫苗數量，並非為國產疫苗鋪路。待疫苗量充足，會依屆時可供應之疫苗廠牌與數量，再次詢問機關（構）參與外展服務與接種之意願。\$\@\$指揮中心進一步說明，有關「疫苗外展服務調查」，係為後續疫苗量充足且可全民接種時，疫苗需求量調查與分布之預先規劃。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增54例COVID-19確定病例，均為本土個案；另確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之54例本土病例(其中17例為居家隔離期間或期滿檢驗陽性者)，為19例男性、35例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月16日至6月28日。個案分布以新北市22例最多，其次為臺北市20例、桃園市及新竹縣各4例，彰化縣2例，基隆市及屏東縣各1例；其中31例為已知感染源、5例關聯不明、18例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，為5例男性、3例女性，年齡介於60多歲至80多歲，發病日介於5月9日至6月19日，確診日介於5月15日至6月20日，死亡日介於6月25日至6月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月27日累計公布13,435位確診個案中，已有10,086人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心統計，截至目前國內累計1,311,961例新型冠狀病毒肺炎相關通報(含1,295,813例排除)，其中14,748例確診，分別為1,170例境外移入，13,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計102例移除為空號。自2020年起累計643例COVID-19死亡病例，其中635例本土，個案居住縣市分布為新北市325例、臺北市245例、基隆市21例、桃園市18例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，苗栗縣、臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-29\$\@\$中央流行疫情指揮中心表示，今(29)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情雖持續下降，惟部分縣(市)仍持續爆發群聚事件，須密切注意監測，及早發現並介入防治；另國內出現Delta變異株群聚，應強化疫調早期圍堵，避免造成社區流行。\$\@\$1.雙北部分：臺北市疫情趨緩，惟轄內近期發生市場、機構及工地等群聚，須留意防範擴散至社區；新北市疫情亦趨緩，惟各行政區仍須留意後續疫情變化。\$\@\$2.屏東縣部分：因出現Delta變異株群聚，不排除未來一週仍可能檢出相關病例，請屏東縣落實精準疫調及接觸者匡列、追蹤，早期發現病例並介入防治。\$\@\$二、有關簡訊實聯制運用於疫調處理部分，鑒於簡訊實聯制推動主要作為輔助疫調之用，建置前提為民眾上傳資訊越少越好(僅有停留場所代碼及進入之時間點)，因此請各地方政府在疫情處理上仍應以精準疫調為主，簡訊實聯制為輔，地方政府如有實聯制資料運用於疫調之需求，指揮中心資訊組將會適時協助提供。\$\@\$三、針對Delta變異株之防範，有無需要調整醫療院所感染管制措施之部分，指揮中心參考比較國外感控措施，目前尚無需調整我國現行措施。至於相關確診者個案能否共同收治入院，建議地方政府在病房收治量能允許下，仍應以一人一室為主。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增60例COVID-19確定病例，均為本土個案；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之60例本土病例(其中31例為居家隔離期間或期滿檢驗陽性者)，為26例男性、34例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年6月19日至6月27日。個案分佈以新北市33例最多，其次為臺北市22例、桃園市2例，基隆市、南投縣及彰化縣各1例；其中32例為已知感染源、3例關聯不明、25例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於70多歲至90多歲，發病日介於5月23日至6月22日，確診日介於5月26日至6月24日，死亡日介於6月25日至6月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前累計1,282,057例新型冠狀病毒肺炎相關通報(含1,265,704例排除)，其中14,694例確診，分別為1,170例境外移入，13,471例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計635例COVID-19死亡病例，其中627例本土，個案居住縣市分布為新北市321例、臺北市243例、基隆市21例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$有關今(6/27)日上午飛往金門航班，某旅客於機場快篩站進行快篩，因第一次篩檢結果無法成為判定的依據，在取得當事人同意後，執行第二次篩檢，呈現陰性，判定快篩結果為陰性，應予放行，另同步通知金門航空站及金門縣衛生局，以確實掌握該旅客情況。該旅客抵達金門後立即執行PCR檢測，經採檢PCR結果亦為陰性。\$\@\$目前本島各機場針對前往離島旅客執行篩檢，仍屬自願性質，並無強迫性，不只顧及防疫，亦能爭取旅客信任，鼓勵更多旅客參與篩檢，對離島的防疫防線更有幫助。惟為避免造成地方疑慮，未來於各機場快篩呈陽性或弱陽性反應之旅客，不再考慮檢驗誤差問題，將進行PCR採檢陰性後，始允許登機。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日宣布，因應Delta變異株於全球日益擴散且其傳播力高，即日起若旅客自「重點高風險國家(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」入境，則請搭乘交通部安排之的防疫車輛前往集中檢疫所。若旅客並非由前述「重點高風險國家」入境，應自費搭乘防疫車輛(或自行駕車)前往防疫旅宿或自費集中檢疫所之檢疫地點。\$\@\$指揮中心強調，入境人士之親友勿前往機場或港口接機，以減少病毒傳播風險，共同保護親友及社區防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$為保障健康安全，近日民眾踴躍接種COVID-19疫苗，關於疫苗接種後是否產生副作用也有諸多討論。針對網傳COVID-19 mRNA疫苗恐傷害人體，中央流行疫情指揮中心今（27）日澄清，疫苗中的mRNA並不會進入細胞核，不會以任何方式改變人體的DNA，或與DNA產生交互作用。而政府也會嚴格把關疫苗安全，民眾可安心接種。\$\@\$指揮中心表示，我國目前已核准緊急使用授權的COVID-19疫苗分為兩大類，其中所使用的COVID-19 mRNA疫苗，其作用原理是將含有一段可轉譯成SARS-CoV-2病毒棘蛋白的mRNA注射至體內，接種後會在人體細胞質內製造出SARS-CoV-2病毒棘蛋白，作為疫苗抗原，進而誘發人體產生免疫反應，以對抗SARS-CoV-2病毒，疫苗中的mRNA不會進入細胞核、不會改變人體的DNA，或與DNA產生交互作用。\$\@\$指揮中心重申，我國核准專案輸入的mRNA疫苗，例如莫德納疫苗，是經過衛生福利部食品藥物管理署審查廠商所提供的疫苗品質管制資料、非臨床藥毒理試驗及人體臨床試驗報告，確認疫苗的品質、安全及療效後，始予以核准。\$\@\$指揮中心表示，為確保COVID-19疫苗上市後廣泛臨床使用下國人用藥安全，我國已建立COVID-19疫苗安全資訊主動監控機制，除持續監控國外衛生主管機關發布之COVID-19疫苗安全警訊外，亦設有「疫苗不良事件通報系統(VAERS)」接受各界通報，蒐集、分析及評估我國COVID-19疫苗不良事件，並藉由收集相關安全資訊，監控其安全性，一旦發現具有未知或未預期之風險，立即啟動再評估機制，重新評估其療效與風險，並確認是否需採取相關風險管控措施。\$\@\$指揮中心再次提醒， COVID-19疫苗與其他藥品一樣，或多或少都具有一些副作用，如過敏反應等，民眾接種前應主動提供自己的身體狀況，包括是否對特定藥品過敏、慢性病或正在服用的藥品；女性則需告知是否(或可能)懷孕、準備懷孕或正在哺乳母乳等，供醫師審慎評估其臨床效益及風險。接種後則應關心身體變化，部分民眾接種COVID-19疫苗後，可能會發生接種部位疼痛、紅腫、疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心等，這些症狀通常輕微並且數天內消失，但如發生嚴重持續性頭痛、視力改變或癲癇、嚴重且持續腹痛超過24小時以上、皮膚出現自發性出血點、瘀青、紫斑、嚴重胸痛或呼吸困難、下肢腫脹或疼痛等，請立即就醫，並說明疫苗接種史，同時請醫師通報當地衛生局或衛生福利部疾病管制署。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增89例COVID-19確定病例，分別為88例本土及1例境外移入；另確診個案中新增9例死亡。\$\@\$指揮中心表示，今日新增之88例本土病例(其中27例為居家隔離期間或期滿檢驗陽性者)，為48例男性、40例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月10日至6月26日。個案分佈以新北市41例最多，其次為臺北市33例、臺南市8例、桃園市3例，屏東縣、南投縣及新竹市各1例；其中60例為已知感染源、2例關聯不明、26例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增9例死亡個案，為3例男性、6例女性，年齡介於40多歲至90多歲，發病日介於5月15日至6月22日，確診日介於5月20日至6月25日，死亡日介於6月22日至6月26日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例境外移入個案(案14719)，為本國籍20多歲男性，5月3日曾在奧地利當地檢出COVID-19陽性，6月11日自奧地利返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月24日進行檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,266,904例新型冠狀病毒肺炎相關通報(含1,250,863例排除)，其中14,634例確診，分別為1,170例境外移入，13,411例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計632例COVID-19死亡病例，其中624例本土，個案居住縣市分布為新北市319例、臺北市243例、基隆市20例、桃園市17例、彰化縣10例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月27日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，目前進口國內之274萬劑莫德納(Ｍoderna) COVID-19疫苗將陸續完成檢驗封緘，預計於今(2021)年7月1日起，陸續配送至地方政府衛生局及指定醫療院所，並開放第一類至第八類對象接種。第一階段預計分配各地方政府衛生局約106萬劑，分兩梯次配送，第一梯次配送約64.3萬劑，預計於7月1日陸續配達，第二梯次配送約41.8萬劑，預計７月８日陸續配達(如附件)。\$\@\$指揮中心指出，第一階段疫苗各地方政府分配數量係以下列原則核估，並將依各地方政府衛生局規劃，配送至衛生局或其指定醫療院所：\$\@\$一、各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」中，尚未接種疫苗之64歲以下與75歲以上服務對象及所有照服員人數總計之6成。\$\@\$二、各縣市第五類「其他機構(含矯正機關工作人員)」尚未接種人數。\$\@\$三、各縣市莫德納(Moderna)COVID-19疫苗已分配數。\$\@\$四、各縣市65-74歲長者30%人口數。\$\@\$另第二階段各地方政府分配數量則以65-74歲長者20%人口數所需疫苗數量核估，將視第一階段疫苗接種情形配發。\$\@\$指揮中心說明，有關第七類對象「維持國家安全及社會機能正常運作者」是經由各中央目的事業主管機關認定，並依據其感染風險決定為優先接種對象後進行造冊，列為首波接種之國家關鍵設施或維持設社會正常運作必要工作人員。上述對象的疫苗需求量，原則直接配送至各部會指定之COVID-19合約醫療院所，各醫療院所可視接種量能，透過原預約機制，或安排於特定時段集中接種。惟莫德納(Moderna) COVID-19疫苗於2-8℃配達後僅能保存28天，請第七類對象於預約日或接獲通知日期後，儘速前往接種，以利指揮中心視各醫療院所接種情形與庫存量，通知醫療院所逐續開放其他類對象接種，發揮COVID-19疫苗最大效益。\$\@\$指揮中心表示，第一階段配送之莫德納(Ｍoderna) COVID-19疫苗為美國提供之250萬劑其中一部分，將以2-8℃溫層配送，其包裝為每瓶14劑，10瓶一盒，接種單位可針對當日最後一瓶疫苗開瓶的剩餘劑，規劃候補名單機制，有效利用COVID-19疫苗。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。 附件\$\@\$附件-274萬劑Moderna疫苗分配量.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，有關屏東COVID-19 Delta印度變異株群聚及其相關感染事件，目前累計12例確定病例，其中6例經基因定序後，均為Delta印度變異株，分別為秘魯境外移入確診祖孫2人(案13332、13333)及案14298、14407、14408、14409。\$\@\$指揮中心指出，該起群聚事件指標個案為當地白牌司機(案14298)，經疫調及接觸者採檢後，發現1位工作接觸者(案14409)確診，而案14409之2位家人(案14407、14408)亦同時確診，其中案14407曾於6月11日、6月14日與秘魯境外移入案13332有短暫接觸，其餘事件相關確診個案均為家庭或活動之接觸者採檢後確診。為避免感染擴大，指揮中心已採取相關應變措施如下：\$\@\$一、精準疫調並擴大匡列接觸者及採檢，另接觸者安排防疫旅館落實隔離，並於居隔期滿前採檢，截至6月25日案14298群聚相關接觸者匡列136人、共居家隔離99人、自主健康管理匡列32人，自我健康監測5人，其中已採檢124人，PCR檢驗陽性9人、陰性115人，接觸者持續擴大匡列中。\$\@\$二、6月24日起於當地設置社區篩檢站，籲請足跡重疊民眾篩檢，並加強民眾溝通配合篩檢，截至6月25日PCR篩檢共419人皆為陰性；另針對確診個案公布社區足跡點，並完成公共場所消毒。\$\@\$三、當地醫療院所加強通報及感染管制措施，請醫師協助有疑似症狀就醫民眾轉介採檢院所通報及採檢。\$\@\$四、透過廣播系統呼籲民眾落實疫情三級警戒規範，外出與工作均要全程佩戴口罩，嚴查避免群聚，另針對當地超市、超商、餐飲業、傳統市場等場所關閉三天。\$\@\$五、給予確診個案妥善臨床照護處置，如符合單株抗體、瑞德西韋使用條件則即時使用；如有出現重症前兆，迅速進行處置及治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增80例COVID-19確定病例，其中78例為本土個案(39例為居家隔離期間或期滿檢驗陽性者)；另有2例境外移入。另，確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為36例男性、42例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月11日至6月25日。個案分佈以新北市36例最多，其次為臺北市30例、桃園市、基隆市及屏東縣各3例，苗栗縣、彰化縣及新竹縣各1例。其中雙北地區以外縣市12例中，10例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案，為8例男性、5例女性，年齡介於40多歲至90多歲，發病日介於5月14日至6月20日，確診日介於5月19日至6月22日，死亡日介於6月21日至6月24日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月24日累計公布13,190位確診個案中，已有9,916人解除隔離，解隔離人數達確診人數75.1%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案14591為30多歲本國籍女性，6月11日自日本返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。案14619為本國籍30多歲女性，6月11日自菲律賓返臺，持有搭機前3日內檢驗陰性證明，居家檢疫期間並無症狀，6月25日進行期滿採檢，於今日確診。2名個案檢疫期間均無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,243,683例新型冠狀病毒肺炎相關通報(含1,227,748例排除)，其中14,545例確診，分別為1,169例境外移入，13,323例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計102例移除為空號。自2020年起累計623例COVID-19死亡病例，其中615例本土，個案居住縣市分布為新北市313例、臺北市241例、基隆市20例、桃園市17例、彰化縣9例、臺中市及新竹縣各4例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月26日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，為因應6月27日起，自COVID-19變異株「重點高風險7國(巴西、印度、英國、祕魯、以色列、印尼及孟加拉)」以外之國家入境旅客(過去14天旅遊史、含轉機)住宿需要，將開放集中檢疫所供民眾自費使用，於今日晚間8時開放訂房。\$\@\$指揮中心指出，目前全臺有49處集中檢疫所，分布於北、中、南等三區，包括各類公務人員訓練中心、軍營、停招的學校宿舍、旅館等，每人每日新臺幣2,000元整，12歲以下幼童與父或母同住一室者，不另外收費。\$\@\$指揮中心說明，民眾入住之檢疫所地點須由指揮中心分派，房內皆有網路、電視等相關設備，入住民眾亦可使用自己的手機電話與外界聯繫；集中檢疫場所均有提供三餐，餐飲會於固定時間送到檢疫房間外，再由民眾自行取用至自己的檢疫房間內用餐。\$\@\$指揮中心提醒，集中檢疫所預定今日晚間8時開放訂房，有意自費入住民眾可至「入境檢疫系統」網頁預約，預約者須於航班預計抵臺48小時前至入境檢疫系統預約、繳費，以取得預約訂房識別碼，作為入境登記使用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-26\$\@\$中央流行疫情指揮中心今(26)日表示，5月9日前已完成第一劑AstraZeneca COVID-19疫苗接種之民眾，皆可於接種後第10至12週公費接種第二劑。專家建議AstraZeneca COVID-19疫苗接種間隔10至12週再接種第二劑疫苗，效益更佳。若有出國急迫性須於8至10週間接種者，亦可酌情提供接種。前述對象均可至各合約醫療院所預約接種，亦建議優先考量原接種醫院，或可至疾病管制署旅遊醫學合約醫院。\$\@\$指揮中心說明，截至6月24日止，已有3.3萬人完成兩劑AstraZeneca COVID-19疫苗接種，為使民眾獲得最大免疫保護力，請4月12日至5月9日期間已接種第一劑疫苗之民眾，於接種日起間隔第10-12週後，透過各醫院預約系統預約接種第二劑疫苗。為確保該等對象第二劑AstraZeneca COVID-19疫苗接種之權益，指揮中心將依據4月12日至5月9日每週AstraZeneca COVID-19疫苗接種量，自本週起4週內，每週配送至指揮中心指定之COVID-19疫苗合約醫療院所，預計全臺4週配送量約6.9萬劑。民眾可優先於原接種醫院預約，或可至疾管署旅遊醫學合約醫院接種（院所名單詳見附件，將視各院接種與開放情形適時調整）。\$\@\$指揮中心提醒，前往接種前務必確認備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，並完成第二劑接種。指揮中心進一步說明，國外臨床試驗資料分析顯示，完成兩劑AstraZeneca COVID-19疫苗接種且間隔 12 週以上，保護力可達81%，籲請民眾可於第一劑接種10-12週後，完成第二劑接種，使疫苗發揮最大效益。 附件\$\@\$有開設旅遊醫學門診之醫療院所名單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心表示，今(25)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國整體疫情雖有趨緩，惟仍有零星爆發群聚事件發生，建議各地方政府仍應加強社區篩檢、疫調及接觸者追蹤管理，且加強批發市場相關人員篩檢及健康監測，避免產銷營運受影響；另鑒於全球Delta病毒變異株流行擴大，指揮中心除持續加強國內變異株監測，並請地方政府配合同步監測。\$\@\$二、因應Delta病毒變異株於全球日益擴散且其傳播力高，自6/22起，確定病例之密切接觸者及自國外入境者，無論有無症狀，於居家隔離/檢疫期滿前1日，均須進行公費PCR檢測，若隔離/檢疫期間「有症狀者」及經疫調風險評估匡列之接觸者仍須立即採檢；另經專案許可入境對象(高級中等【含】以下學校之境外生、外籍移工、搭機入境之我國籍遠洋漁船僱用外籍船員/漁工、大專校院境外生、海外青年技術訓練班新生、境外非學位生等)，由原來的檢疫期滿後隔日採檢，調整為檢疫期滿前1日採檢。\$\@\$三、疫苗接種作業說明\$\@\$1、274萬劑Moderna疫苗，第一批110萬劑預計於6/30進行配送，並於7/1開放施打。\$\@\$2、COVID-19疫苗開瓶後有一定之保存時間，最後一瓶疫苗開瓶後剩餘劑量處理方式如下：\$\@\$(1)請接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$(2)剩餘劑量使用於非現行開放類別對象，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳全國性預防接種資訊系統(NIIS)。\$\@\$3、目前國內供應各廠牌之COVID-19疫苗，其使用說明書皆載明每瓶疫苗抽取之最後一劑，若劑量不足1人分劑量則須丟棄，且為保障疫苗品質，不可與其他瓶疫苗混和抽取接種。\$\@\$4、針對已接種過第1劑COVID-19疫苗者，第2劑接種規劃如下\$\@\$(1)目前已開放5/9前已接種第1劑AZ COVID-19疫苗者，陸續於間隔10~12週時公費接種第2劑。並於7/1起開放所有已接種第1劑者，接種第2劑疫苗。\$\@\$(2)為第1至3類同住者，於5/3起開放COVID-19疫苗接種至暫停提供期間，已接種過第1劑的民眾，皆可於接種後第10至12週接種第2劑。專家建議兩劑AZ COVID-19疫苗接種間隔10至12週再接種第2劑疫苗的效益更佳。\$\@\$(3)在國外接種過第1劑COVID-19疫苗，在國內欲銜接接種第2劑疫苗時，須為已開放之公費對象方可提供接種。\$\@\$四、臺北區以外醫療院所，原則同意辦理專責病房數微調作業，請經傳染病防治醫療網區指揮官同意後報送指揮中心；後續仍應維持各項感染管控作業之進行，並視疫情持續滾動監測調整病房數。另，臺北區醫療院所之專責病房數維持不變，如先前所提供之專責病房數超過10%者，可優先進行微調；急診候床數需求量多者，亦可提出申請調整，惟上述相關調整案件請經傳染病防治醫療網網區指揮官同意後報送指揮中心。\$\@\$五、有關「市場專案」，請各地方政府務必確實落實相關防疫措施；另為利處理臺北市農產運銷群聚事件，包括第一果菜批發市場及環南市場，請儘速完成市場人員PCR採檢作業，並落實相關疫調之進行，以及確實匡列確診者之接觸者，進行隔離作業，並請各地方政府協助就轄區市場從業人員曾至臺北市上開市場作業者，進行營業市場地點、營業類型、攤商編號、姓名及電話等資訊之調查，並提供臺北市政府參考。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，為有效利用COVID-19疫苗，針對當日最後一瓶疫苗開瓶的剩餘劑量，可由接種單位規劃候補名單機制，建議執行方式如下：\$\@\$一、 接種單位公告COVID-19疫苗接種作業及開放候補名單登記。\$\@\$二、請接種單位建立其他18歲以上接種對象候補名單。\$\@\$指揮中心指出，當剩餘劑量使用於非現行開放類別對象時，請於該等人員之接種同意書空白處進行註記「剩餘劑量使用者」，該同意書由接種單位備查，並將接種資料上傳。另針對接種站設站、至機構/洗腎診所接種或外展接種服務作業，亦比照上述原則事先規劃候補名單。接種單位可依上述建議事先規劃，以利有效並妥善的運用疫苗資源。有關尚未開放類別的公費接種對象，詳情可至網址 ( http://at.cdc.tw/1uq4dQ )查詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，世界衛生組織(WHO)公布目前全球已有逾85個國家出現Delta變異株(印度變異株)病例，歐洲疾控中心(ECDC)評估其傳播力較Alpha(英國變異株)高40-60%。國際間部分疫苗接種率較佳的國家包括以色列及英國等，近期病例數回升，且發現Delta變異株病例佔比達七成以上。另國內亦出現自秘魯境外移入個案檢出Delta變異株，其鄰近的孟加拉、印尼等國該變異株佔比近期亦呈增加趨勢。\$\@\$指揮中心指出，因應 Delta變異株於全球日益擴散且其傳播力高，自今(110)年6月27日零時起(抵臺時間)，全面提升入境人員檢疫措施如下：\$\@\$一、「重點高風險國家」入境旅客(過去14天旅遊史、含轉機)之檢疫措施：自空港或海港入境後一律入住集中檢疫所14天，且須配合入住時、檢疫期滿進行PCR檢測，旅客不需支付檢疫所及採檢費用。目前「重點高風險國家」為巴西(巴西變異株)、印度，含本次新增英國、秘魯、以色列、印尼及孟加拉等共7國。\$\@\$二、前述7國旅遊史以外之所有入境旅客，入境後應入住防疫旅宿或自費入住集中檢疫所14天，且於居家檢疫期滿前配合進行PCR檢測。\$\@\$三、國籍航空公司機組員，自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍進行居家檢疫14天，且檢疫期滿進行PCR檢測。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增76例COVID-19確定病例，均為本土個案；其中34例為居家隔離/檢疫期間或期滿檢驗陽性者。另，確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例，為39例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月18日至6月24日。個案分佈以新北市32例最多，其次為臺北市20例、桃園市10例、新竹縣4例、苗栗縣3例、彰化縣及高雄市各2例，宜蘭縣、基隆市及臺中市各1例。其中雙北地區以外縣市24例中，13例為已知感染源、2例關聯不明、9例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於70多歲至90多歲，發病日介於5月16日至6月19日，確診日介於5月29日至6月20日，死亡日介於6月21日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月23日累計公布13,061位確診個案中，已有9,650人解除隔離，解隔離人數達確診人數73.9%。\$\@\$指揮中心統計，截至目前國內累計1,213,717例新型冠狀病毒肺炎相關通報(含1,197,732例排除)，其中14,465例確診，分別為1,167例境外移入，13,245例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計610例COVID-19死亡病例，其中602例本土，個案居住縣市分布為新北市306例、臺北市238例、基隆市19例、桃園市16例、彰化縣9例、臺中市4例、新竹縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月25日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，「民眾使用COVID-19家用快篩試劑指引」已於6月19日公布(詳如新聞稿附件)。為利民眾居家正確自行檢測，指揮中心再次提醒民眾使用家用快篩試劑相關流程與注意事項。\$\@\$指揮中心指出，COVID-19家用快篩試劑可由醫療器材販賣業者、藥粧店、醫療器材行、便利商店等或藥局販售，民眾購買時，請確認產品名稱是否有「家用」、包裝是否刊載「防疫專案核准製造第XXXXXXXXXX號」或「防疫專案核准輸入第XXXXXXXXXX號」等字樣(已核准之家用快篩試劑名單可至衛生福利部食品藥物管理署[下稱食藥署]網站確認)、產品效期是否在有效期間或保存期限內，並依使用說明書或操作影片進行採檢及操作。對使用家用快篩試劑有任何疑問，可洽詢販售該產品之醫療器材商或藥局，或逕洽詢試劑廠商。\$\@\$指揮中心說明，居家隔離或居家檢疫者如測出結果為陽性時，請立即與當地衛生局聯繫，或撥打1922，依指示方式處理；非居家隔離且非居家檢疫者測出結果為陽性時，請戴好口罩，勿搭乘大眾運輸工具，儘速至鄰近的社區採檢院所進一步檢測，並將使用過之採檢器材用塑膠袋密封包好，一併攜帶至社區採檢院所，交予院所人員。當測出結果為陰性時，仍請遵循指揮中心的防疫規範，做好個人防護，持續自我健康管理，採檢完之家用快篩試劑及試劑棒勿任意棄置，請以塑膠袋密封包好，以一般垃圾處理。\$\@\$指揮中心提醒，若民眾已出現嚴重特殊傳染性肺炎相關症狀，不宜使用COVID-19家用快篩試劑自行在家檢測，應佩戴醫用口罩，儘速前往醫療院所就醫，且前往就醫時勿搭乘大眾運輸工具。另外，提醒居家快篩試劑測試結果可能出現偽陰性或偽陽性，仍需經認可實驗室所進行的「核酸檢測」作為診斷COVID-19感染之依據。COVID-19家用快篩試劑產品核准名單、說明書及操作影片均可至食藥署網站( http://www.fda.gov.tw )之業務專區 &gt; 醫療器材 &gt; COVID-19 防疫醫材專區 &gt; 家用新型冠狀病毒檢驗試劑專區查詢。 附件\$\@\$附件-民眾使用COVID-19家用快篩試劑檢驗指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增130例COVID-19確定病例，分別為129例本土個案及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之129例本土病例(其中73例為居家隔離/檢疫期間或期滿檢驗陽性者)，為64例男性、65例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月4日至6月23日。個案分佈以新北市54例最多，其次為臺北市35例、基隆市9例、桃園市7例、屏東縣及高雄市各6例、苗栗縣及新竹縣各5例、南投縣2例。其中雙北地區以外縣市40例中，38例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性5位、女性1位，年齡介於50多歲至90多歲，發病日介於5月11日至6月4日，確診日介於5月15日至6月5日，死亡日介於6月18日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月22日累計公布12,958位確診個案中，已有9,288人解除隔離，解隔離人數達確診人數71.7%。\$\@\$指揮中心表示，案14386為本國籍60多歲女性，於6月9日自巴西返臺，持有登機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，6月22日檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,180,033例新型冠狀病毒肺炎相關通報(含1,164,226例排除)，其中14,389例確診，分別為1,167例境外移入，13,169例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號病例(案10029)，累計102例移除為空號。自2020年起累計605例COVID-19死亡病例，其中597例本土，個案居住縣市分布為新北市304例、臺北市237例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣、新竹縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月24日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，為精進臺北農產運銷公司COVID-19群聚感染事件相關防疫作為，於昨(23)日晚間再次召開會議，與農委會、雙北市政府、雙北農產/果菜運銷公司進行專業溝通及討論「市場專案」各項細節，並於會中達成三點共識如下：\$\@\$一、自6月24日零時起，雙北批發市場所有從業人員未持有陰性檢驗證明者不得進場，請雙北市協調警力於現場維持秩序；另亦設置快篩站至6月24日零時，提供尚未篩檢者快篩服務。\$\@\$二、落實疫調、找出熱區：指揮中心將蒐集本案相關疫調資訊，並與雙北市政府、臺北農產運銷股份有限公司及新北市果菜運銷股份有限公司建立疫調資料交流機制，儘速釐清造成此波感染事件之問題及劃分疫情熱區，以利批發市場、零批市場及周遭傳統市場執行後續防疫因應作為。\$\@\$三、考量多有跨縣市至雙北批發市場之工作者，為即時發覺潛在個案，有效阻斷傳播鏈，確診個案由居住地縣市進行精準疫調及接觸者匡列作業，其中職場接觸者匡列由職場所在縣市進行。另疾管署將成立平台協助各地方政府整合資訊，讓疫調更加完整。\$\@\$指揮中心進一步說明，考量快篩或PCR檢驗陰性僅代表個案現階段不具病毒傳播力，雙北批發市場所有從業人員亦應持續落實動線分流、人員降載等相關防疫措施，減少傳播風險；另請臺北農產運銷股份有限公司、新北市果菜運銷股份有限公司針對從業人員進行健康監測，以及早掌握可能個案，並及時進行各項防治措施。\$\@\$指揮中心強調，本專案結束後，將持續設置篩檢站三週，提供周邊攤商及社區民眾就近篩檢，達到社區清零目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，國內疫情由於國人的努力，得到良好控制，惟目前跨區傳播事件仍然存在，而世界各國因解封太快致疫情再起的經驗亦歷歷在目。為確保國人健康，指揮中心經評估後決定，全國再同步維持疫情三級警戒2週(至7月12日止)，用2週的時間換得國人平安，希望國人共體時艱，共同抗疫。\$\@\$指揮中心指出，考量社區感染風險尚未消除，指揮中心將持續與地方政府密切合作，加強落實以下管制措施，降低社區傳播風險，積極保障國人健康安全：\$\@\$一、針對確診個案精準疫調，儘速匡列相關接觸者並加強追蹤管理，及早阻斷病毒傳播鏈。\$\@\$二、針對居家檢疫及居家隔離者，無論有無症狀，均須於期滿前1日進行公費PCR檢測，以阻絕病毒進入社區。\$\@\$三、加速高風險族群疫苗接種作業，以減少其感染、或感染後產生嚴重併發症及死亡的機率。\$\@\$四、推動社區廣篩，鼓勵各地方政府設置社區篩檢站並加速檢驗時效，同時推廣企業快篩與居家快篩，以擴大篩檢量能並強化主動監測機制，儘速發掘社區內可能潛藏病例，有效斷絕所有感染鏈。\$\@\$五、強化重症醫療照護，透過COVID-19重症個案處置諮詢平臺，由多位專家諮詢委員線上提供醫院臨床重症個案處置意見，以降低個案死亡率、緩解重症醫療量能。\$\@\$六、啟動「民生供需產業健康監測專案」，針對果菜、家畜(肉品)、家禽、水產、綜合及其他類市場、超市、賣場及夜市等相關職業對象，由目的事業主管機關或地方政府進行人員健康監測，以及時進行各項防治措施，避免災害擴大，降低家戶傳播風險。\$\@\$指揮中心表示，現處疫情關鍵時刻，籲請全國民眾持續落實遵循並積極配合三級警戒管制措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，針對臺北農產運銷公司發生COVID-19群聚感染事件，指揮中心於昨(22)日召開會議，與農委會、臺北市政府、臺北農產運銷公司共同討論疫情狀況並研商「市場專案」強化相關防疫作為，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、啟動「市場專案」快速全面篩檢，確保雙北批發市場從業人員防疫安全，避免傳播至家戶及社區之風險，並以社區儘速清零為目標。\$\@\$二、自6月24日零時起，雙北批發市場所有從業人員未持有6月20日以後檢驗陰性證明者不得進場，且規定須於完成篩檢後方得接種COVIID-19疫苗。\$\@\$三、為提升雙北批發市場各從業人員篩檢意願，篩檢站設置應鄰近市場並配合其作業時間；專案結束後，仍延長篩檢站設置時間，以利周邊攤商及社區民眾就近篩檢，以社區清零。\$\@\$四、為加快篩檢速度且減少偽陰性及偽陽性情形，建議僅進行PCR採檢，提升篩檢作業效率；如檢驗陽性者，請地方政府衛生局落實後續疫調及接觸者匡列工作，並請提供疾管署彙整轉送居住地縣市，以進行後續疫調及匡列作業。\$\@\$五、考量雙北批發市場貨車司機及隨車捆工停留於市場時間較短暫，該類人員之篩檢、疫調及接種作業，將請臺北農產運銷公司提供人員名冊，由指揮中心轉居住地縣市政府辦理。\$\@\$六、推動北北基桃批發市場從業人員逐步施打疫苗，以雙北批發市場優先實施，所需疫苗均由指揮中心提供。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增104例COVID-19確定病例，均為本土個案；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之104例本土病例，為45例男性、59例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月10日至6月22日。個案分佈以新北市45例最多，其次為臺北市22例，高雄市及新竹縣各9例，桃園市7例，苗栗縣4例，基隆市3例，宜蘭縣2例，彰化縣、南投縣及屏東縣各1例。其中雙北地區以外縣市37例中，28例為已知感染源，5例關聯不明，4例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，為男性15位、女性9位，年齡介於40多歲至80多歲，發病日介於4月11日至6月14日，確診日介於4月13日至6月16日，死亡日介於6月13日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月21日累計公布12,879位確診個案中，已有9,041人解除隔離，解隔離人數達確診人數70.2%。\$\@\$指揮中心統計，截至目前國內累計1,148,916例新型冠狀病毒肺炎相關通報(含1,133,240例排除)，其中14,260例確診，分別為1,166例境外移入，13,041例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案14228)，累計101例移除為空號；自2020年起累計599例COVID-19死亡病例，其中591例本土，個案居住縣市分布為新北市301例、臺北市235例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月23日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國於今(2021)年6月18日及6月20日共計進口274萬劑莫德納(Moderna) COVID-19疫苗，預計於7月1日起配送至地方政府衛生局及指定醫療院所。自7月1日起，國內COVID-19疫苗接種對象(不限廠牌)擴增如下：\$\@\$1.第一類對象，醫事人員(包含醫事執登人員及醫事機構非醫事人員)\$\@\$2.第二類對象，中央及地方政府防疫人員、第一線處理大體之工作人員\$\@\$3.第三類對象，高接觸風險第一線工作人員\$\@\$4.第四類對象，因特殊情形必要出國者(因公出國者、外交駐臺員眷、代表國家出國之運動員或選手)\$\@\$5.第五類對象，包括「住宿型長照機構住民及其照護者」、「居家式和社區式長照機構及身障服務照服員及服務對象」、「其他機構(含矯正機關工作人員)」及洗腎患者，以及「矯正機關（構）工作人員」\$\@\$6.第六類對象，包括75歲以上長者及孕婦\$\@\$7.第七類對象，維持國家安全及社會機能正常運作者\$\@\$8.第八類對象，65-74歲長者\$\@\$9.已完成第一劑疫苗者，可依建議接種第二劑之時間，以同廠牌完成接種。\$\@\$指揮中心指出，第一批疫苗預計配送110萬劑，係以下列原則核估各縣市分配數量，並配送至各地方政府衛生局或其指定醫療院所：\$\@\$1.各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」與「其他機構(含矯正機關工作人員)」尚未接種人數\$\@\$2.各縣市莫德納(Moderna)COVID-19疫苗第一劑已分配數\$\@\$3.各縣市65-74歲長者30%人口數\$\@\$指揮中心說明，為確保維持國家及社會正常運作的相關基礎設施不受COVID-19疫情影響，第七類對象需經各中央主管機關認定並造冊，列為國家關鍵設施或維持設社會正常運作必要工作人員，並送指揮中心。經中央主管機關認定符合前述條件並造冊之對象，除了已陸續配送的國防軍事相關人員之外，包括高鐵、臺鐵、油氣水電與通訊等國家關鍵設施必要人員、全國第一線郵務處理人員、國家(含大考)等考試工作人員、高密度接觸孩童的幼兒園與國小安親班教育人員、托育機構人員、各類批發市場與屠宰市場工作人員、科學園區防疫工作人員、媒體第一線採訪工作人員、戶役政系統機房人員等。\$\@\$指揮中心表示，針對疫情較高風險的雙北等縣市，從事保母、計程車駕駛、外送員、國道客運司機、貨運司機、傳統市場合法攤商及賣場（含超商）收銀人員等，共計約50萬人，將特別納入此批COVID-19疫苗實施對象。上述對象的疫苗需求量將直接配送至各部會指定醫療院所。另，基於65-74歲長者一旦感染容易產生嚴重併發症或導致死亡，亦同時開放接種。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，依據世界衛生組織（WHO）監測報告，印度變異株(Delta)已在全球約92個國家現蹤並持續蔓延，不但具高傳播性及對風險族群容易造成重症或死亡；且美國疾病管制中心(CDC)、歐盟及相關文獻均指出，若資源許可，無論有、無症狀，隔離期滿皆須採檢，同時國內監測資料也顯示，部分居家隔離接觸者是於隔離期滿之自主健康管理期間陽轉為確定個案等綜合考量。指揮中心經與地方政府審慎討論取得初步共識，調整居家隔離及居家檢疫者相關採檢策略。\$\@\$指揮中心指出，除了原本隔離或檢疫期間「有症狀者」及經疫調之風險評估匡列之接觸者，應立即採檢外，對於COVID-19確定病例之密切接觸者及自國外入境者，即日起於居家隔離或居家檢疫期滿前1日，無論有無症狀者，均須進行PCR檢測。採檢所需相關費用均由政府支應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、在維持加強全國三級警戒等相關管制措施下，雙北市疫情已逐步趨緩，惟各縣市仍有零星爆發群聚事件發生，建議各縣市政府持續加強疫調及接觸者追蹤管理，以及早發現個案、控制疫情。另，端午節連假後對疫情之影響部分，目前尚未有相關影響發生，請各地方政府持續密切注意所轄區域疫情發展狀況，進一步強化社區篩檢及病例監測能力，以防止疫情反彈或新一波流行爆發出現。\$\@\$二、有關COVID-19疫情三級警戒期間，社區式長照服務雖暫時停止服務，但居家式長照服務及送餐服務仍會持續提供獨居失能長者。為因應防疫及持續關懷獨居長者生活與健康狀況，指揮中心就強化相關關懷服務訂定「COVID-19疫情三級警戒期間強化獨居長者關懷服務措施」，請各地方政府落實執行，重點包括：\$\@\$(一)強化服務機制部分：由地方政府整合社政、衛政、民政、警政單位及民間團體之力量，重新盤整資源，強化人力調度、支援及緊急處理機制。針對超過24小時聯繫未果之長者，建立緊急處理啟動機制結合網絡資源前往實地訪視。\$\@\$(二)加強關懷服務部分：針對列冊需關懷之獨居長者，由地方政府透過既有關懷服務體系，或協調由社區照顧關懷據點之專職人力及志工排班，每隔1日定時以電話或其他通訊方式關懷長者，了解其生活及健康狀況。針對暫未使用服務之長者，亦列為關懷對象，由地方政府協調照管中心、長照服務提供單位與鄰里資源，每隔1日定時以電話或其他通訊方式關懷長者。\$\@\$三、疫苗配發及接種：\$\@\$(一)指揮中心表示，有關各地方政府及外界關注之AZ疫苗自費施打第1劑之對象，其第2劑部分，以公費實施接種；另第1劑和第2劑施打不同廠牌疫苗部分，指揮中心目前建議第1劑、第2劑以施打同樣廠牌疫苗為主，不建議混合施打。\$\@\$(二)針對部分縣市將里鄰長納入第2類優先施打對象部分，指揮中心再次向地方政府説明，里鄰長等對象如確有實際執行居家檢疫、居家隔離等高風險對象之追蹤關懷、送餐、訪視等第一線工作，可納入第2類人員，請各地方政府確實查核，並應完成造冊作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，衛生福利部傳染病防治諮詢會預防接種組(ACIP)於6月20日召開第3次臨時會議，專家針對COVID-19疫苗工作小組歷次會議進行確認，討論COVID-19疫苗公費接種對象，經考量孕婦為 COVID-19 感染後容易產生嚴重併發症或導致死亡之族群，為保障懷孕婦女及胎兒健康，建議孕婦應接種COVID-19 疫苗並納入第六類優先接種對象。\$\@\$指揮中心指出，依據現階段國內外疫情及疫苗供貨情形，目前開放實施對象包括第一類至第三類、第五類之「住宿型長照機構住民及其照護者」、「洗腎患者」及第六類「75歲以上長者」及「孕婦」。此外提醒已接種第一劑AZ COVID-19疫苗者，請於間隔10至12週後完成第二劑接種，使疫苗發揮最大效益；指揮中心亦將於6月23日再就4月12日至5月9日前已接種第一劑之人數進行疫苗配發，以使民眾可陸續完成第二劑接種。\$\@\$另指揮中心進一步說明，莫德納(Moderna) COVID-19疫苗現階段作業為開放第一類至第三類人員及孕婦接種，惟顧及孕婦胎兒狀況及多重健康狀況考量，建議孕婦接種前應與醫師就風險效益詳細評估後，擇適合廠牌進行接種。\$\@\$指揮中心強調，將持續視疫情狀況及疫苗供貨情形，滾動調整開放接種實施對象，保障民眾接種權益，守護民眾健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增79例COVID-19確定病例，其中78例為本土個案，另有1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為35例男性、43例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月14日至6月21日。個案分佈以新北市43例最多，其次為臺北市25例，南投縣3例，基隆市2例，苗栗縣、彰化縣、桃園市、臺中市及新竹縣各1例。其中雙北地區以外縣市10例中，8例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性3位、女性3位，年齡介於50多歲至80多歲，發病日介於5月19日至6月19日，確診日介於5月28日至6月21日，死亡日介於6月17日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月20日累計公布12,806位確診個案中，已有8,087人解除隔離，解隔離人數達確診人數63.2%。\$\@\$指揮中心表示，今日新增1例境外移入個案（案14257）為本國籍50多歲男性，長期於印尼工作，6月20日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，6月21日出現喉嚨痛等症狀，由衛生單位安排就醫採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,107,543例新型冠狀病毒肺炎相關通報(含1,091,972例排除)，其中14,157例確診，分別為1,166例境外移入，12,938例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增2例空號 (案10380、案14131)，累計100例移除為空號；自2020年起累計575例COVID-19死亡病例，其中568例本土，個案居住縣市分布為新北市291例、臺北市223例、基隆市18例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日表示，為促使聘有移工的雇主加強落實防疫工作，勞動部已修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，明定下列雇主應辦理措施及建議事項：\$\@\$一、疫情期間雇主應辦理措施，包括移工的工作區及生活區應分艙分流，同產線移工應住宿於同一地點；不同雇主的移工不得混住、公共區域應依照移工住宿樓層分時段使用、每天進行移工健康監測及記錄移工出入足跡、接觸史與是否群聚等資料，並應備有1人1室隔離空間等。\$\@\$二、疫情期間建議雇主辦理事項，包括調整產線人員間距，或運用宿舍閒置空間，增加移工居住面積，以保持社交距離；協助移工購買物品，減少移工外出需求；針對有症狀的移工儘速安排篩檢，並於結果出來前預防安排居住1人1室等。\$\@\$指揮中心表示，基於近期苗栗縣有電子廠移工群聚感染案件，勞動部再強化移工工作及生活住宿管理，明定部分指引內容具有強制性質，後續將配合法規修正，要求雇主落實防疫措施，避免發生防疫破口。雇主在疫情期間，未依指引規範妥善辦理，將視情節輕重，要求雇主限期改善，或立即依就業服務法第57條第9款規定，處新臺幣6萬至30萬元罰鍰；此外，違規情節重大者，將再針對聘僱移工名額予以廢止或不予許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。\$\@\$勞動部已偕同地方政府分階段開始訪查全臺移工宿舍，對於先前待改善的雇主，將於近期辦理複查，並依新修正的指引要求雇主改善。另外，針對違反指引規定的企業雇主，將再與經濟部、科技部合作輔導，加強防疫。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增75例COVID-19本土確定病例，均為本土個案；另確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之75例本土病例，為35例男性、40例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月8日至6月20日。個案分佈以新北市38例最多，其次為臺北市22例，桃園市5例，苗栗縣3例，基隆市及臺中市各2例，高雄市、雲林縣及彰化縣各1例。其中雙北地區以外縣市15例中，15例為已知感染源；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性14位、女性6位，年齡介於50多歲至90多歲，發病日介於5月13日至6月16日，確診日介於5月16日至6月20日，死亡日介於6月2日至6月20日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月19日累計公布12,697位確診個案中，已有7,534人解除隔離，解隔離人數達確診人數59.3%。\$\@\$指揮中心統計，截至目前國內累計1,077,415例新型冠狀病毒肺炎相關通報(含1,061,624例排除)，其中14,080例確診，分別為1,165例境外移入，12,862例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計569例COVID-19死亡病例，其中562例本土，個案居住縣市分布為新北市289例、臺北市221例、基隆市18例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月21日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至今(2021)年6月19日止，國內接種AZ COVID-19疫苗共計1,446,608人次，其中314,487人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS)已收到67例接種AZ COVID-19疫苗後死亡之報告。截至目前為止，尚無死亡個案被判定為與疫苗相關。\$\@\$指揮中心指出，昨(19)日接種後死亡案件新增18件，皆於接種後4日內發生，15例為75歲以上長者，死亡個案大多數為高齡且有慢性疾病。此外，目前已有9例死亡案件送司法相驗解剖，經初步研判，部分個案死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續仍待司法相驗解剖或回溯檢查等更精確資料，以釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮，並適時對外因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另外，現在已開放診所及衛生所可接種疫苗，建議民眾就近前往接種，並注意防曬、補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，美國政府捐贈250萬劑Moderna COVID-19疫苗將於今日傍晚由華航專機運抵臺灣桃園國際機場，並於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此全球疫苗供不應求且疫情艱難時刻，對於美國即時援贈COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心毋任感荷。\$\@\$陳時中指揮官謹向美國政府與人民表達誠摯謝忱，同時重申臺美雙方將在去年簽署之合作瞭解備忘錄下，持續深化臺美醫衛、科學創新合作，共同對抗COVID-19疫情之威脅。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增109例COVID-19確定病例，分別為107例本土個案及2例境外移入；確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之107例本土病例，為57例男性、50例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年6月4日至6月19日。個案分佈以新北市44例最多，其次為臺北市31例，桃園市16例，臺中市6例，新竹縣4例，苗栗縣3例，彰化縣、宜蘭縣及基隆市各1例。其中雙北地區以外縣市32例中，27例為已知感染源、2例關聯不明、3例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增11例死亡個案，為男性5位、女性6位，年齡介於40多歲至90多歲，發病日介於5月14日至6月15日，確診日介於5月18日至6月16日，死亡日介於6月15日至6月18日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月18日累計公布12,572位確診個案中，已有7,496人解除隔離，解隔離人數達確診人數59.6%。\$\@\$指揮中心表示，今日新增2例境外移入中，案14020為菲律賓籍20多歲男性，5月13日自菲律賓來臺工作，持有搭機前3日內檢驗陰性證明，入境後至集中檢疫所檢疫，5月27日檢疫期滿採檢為陰性，由公司安排至其他住所進行一人一室隔離，6月13日由公司安排採檢陰性，18日再次採檢，於今日確診；個案在臺期間並無症狀，檢疫及自主健康管理期間均為一人一室，未與他人接觸，故無匡列接觸者。案14072為本國籍20多歲女性，6月18日自日本返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月19日因出現腹瀉、肌肉及關節痠痛、全身疲倦等症狀，由衛生單位安排就醫採檢，於今日確診；已匡列同班機旅客共1人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,063,890例新型冠狀病毒肺炎相關通報(含1,048,326例排除)，其中14,005例確診，分別為1,165例境外移入，12,787例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計98例移除為空號。自2020年起累計549例COVID-19死亡病例，其中542例本土，個案居住縣市分布為新北市274例、臺北市217例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月20日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至6月18日止，國內接種AZ COVID-19疫苗共計1,374,956人次，其中269,056人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS) 已收到49例接種AZ COVID-19疫苗後死亡之報告。\$\@\$指揮中心指出，昨(18)日接種後死亡案件新增24件，皆於接種後3日內發生，20例為75歲以上長者，死亡個案絕大多數為高齡長者且有慢性疾病。此外，經司法相驗解剖且有正式報告有4例個案(年齡介於70多歲至90多歲)，初步研判死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續還需有司法相驗解剖或回溯檢查等更精確資料釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另現有開放診所及衛生所可接種疫苗，建議就近前往接種，並注意防曬及補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，將自今(2021)年6月23日起，陸續配發AZ COVID-19疫苗至地方政府衛生局，提供先前已接種第一劑AZ COVID-19疫苗的民眾完成兩劑疫苗接種，以提升免疫保護力。\$\@\$指揮中心說明，截至6月18日止，已有2.7萬名民眾完成兩劑AZ COVID-19疫苗接種，核估目前可調度的剩餘疫苗數量，可提供4月12日至5月9日以前約6.7萬名已接種第一劑疫苗的民眾繼續接種第二劑AZ COVID-19疫苗，並視疫苗供應及接種情形，適時調整疫苗配發進度。\$\@\$指揮中心表示，根據世界衛生組織( World Health Organization, WHO)與醫學期刊「刺胳針」(The Lancet)等國外臨床試驗資料分析顯示，完成兩劑AZ COVID-19疫苗(間隔 80 天)的追蹤結果證實，可預防6成以上有症狀感染之風險；當接種間隔 12 週以上且完成 2 劑接種，保護力可達 81%。基此，我國衛生福利部傳染病防治諮詢會預防接種組（ACIP）專家建議兩劑AZ COVID-19疫苗接種間隔至少8週，而間隔10至12週再接種第二劑疫苗的效益更佳，故指揮中心籲請民眾可於第一劑接種後10-12週完成第二劑接種，使疫苗發揮最大效益。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，於接種後請在接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心也提醒民眾，接種AZ COVID-19疫苗後的28天內，如有發生嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當的臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增128例COVID-19確定病例，分別為127例本土個案及1例境外移入；確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之127例本土病例，為60例男性、67例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月18日。個案分佈以新北市81例最多，其次為臺北市30例，桃園市8例，新竹縣3例，新竹市、基隆市各2例，臺中市1例。其中雙北地區以外縣市16例中，12例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性10位、女性10位，年齡介於50多歲至90多歲，發病日介於5月13日至6月12日，確診日介於5月20日至6月17日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月17日累計公布12,385位確診個案中，已有7,189人解除隔離，解隔離人數達確診人數58%。\$\@\$指揮中心表示，今日新增1例境外移入，為本國籍10多歲男性，5月25日曾於印度確診，6月5日自印度返臺，持有搭機前3日內檢驗陰性證明，入境時採檢陰性，後至集中檢疫所檢疫，6月18日檢疫期滿前採檢，於今日確診(Ct值37)。個案檢疫期間並無症狀，亦無接觸他人，故無框列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,044,211例新型冠狀病毒肺炎相關通報(含1,028,898例排除)，其中13,896例確診，分別為1,163例境外移入，12,680例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增3例空號(案6822、案13764、案13800)，累計98例移除為空號。自2020年起累計538例COVID-19死亡病例，其中531例本土，個案居住縣市分布為新北市265例、臺北市215例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月19日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、考量目前國內社區傳播風險仍然存在，請高風險地區持續辦理擴大社區篩檢，雙北部分，建議社區篩檢站設置可以民眾就醫可近性為考量，發生零星案例之地方政府建議加強接觸者追蹤管理，以防堵疫情擴散；另請地方政府持續強化輕症個案之健康監測與轉診效率，尤其針對弱勢族群及獨居老人應提供主動關懷。另對於目前確診病例數持續緩降，爰請各地方政府回復著重疫調及接觸者追蹤管理作業，以利及早發現個案，降低死亡發生。\$\@\$二、疑似感染 COVID-19 之死亡案例死因相驗原則：\$\@\$1.關於相驗，現行法規適用無疑。\$\@\$2.疫情期間猝死個案一律PCR採檢，現階段由雙北地區先施行。\$\@\$3.PCR採檢執行部分：行政相驗由醫師執行，司法相驗由法醫採檢。\$\@\$4.相關檢驗費用由公務預算支出。\$\@\$三、診所辦理自費快篩收治指引及收費標準：\$\@\$1.檢驗方法：以抗原快篩為初篩方法，若為抗原快篩陽性，需以核酸檢驗進行確認。\$\@\$2.檢驗試劑：經食藥署核准防疫專案製造或輸入的SARS-CoV-2抗原快速檢驗試劑，提醒在購買及使用皆須事先確認是否符合相關法規。\$\@\$3.採檢人員：依據傳染病防治法第46條第1項第1款，確定病例的檢體，應該由醫師採檢為原則；疑似病例或社區通報採檢病例的咽喉或鼻咽拭子等接觸者檢體，則不限由醫師採檢，得由醫師或其他醫事人員採檢。\$\@\$四、疫苗配撥及施打部分：\$\@\$1.再次重申疫苗施打目標族群請依指揮中心造冊之對象，依序進行施打，避免造成施打亂象。至於各地方政府提出納入COVID-19疫苗接種對象之相關建議部分，指揮中心均會就各類人員可能受感染風險狀況，作為納入公費施打對象之評估與考量。\$\@\$2.鑒於天氣炎熱，對於年長者施打疫苗部分，請各地方政府儘量安排在地區診所或社區注射站進行，也可運用機動快打方式為長者提供施打服務，避免讓年長者因行程往返造成身體不適情形。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，並於今日邀集專家就「疫苗不良事件通報系統(VAERS)」通報的COVID-19疫苗接種後死亡個案進行討論。指揮中心表示，截至目前為止，尚未有死亡個案被判定為與疫苗相關。\$\@\$指揮中心統計，截至6月17日為止，國內接種AstraZeneca COVID-19疫苗共計1,273,121人次，其中229,566人次為75歲以上長者。又目前VAERS已收到25例接種AstraZeneca COVID-19疫苗後死亡之報告，其中20例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病；部分個案經司法相驗解剖後，初步死因與心血管疾病或慢性病史相關，惟迄目前為止，尚未有死亡個案被判定為與疫苗相關，指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$此外，指揮中心亦針對近期高齡者接種COVID-19疫苗，提供以下建議：\$\@\$1. 對於近期身體具狀況或慢性病情不穩定者，建議身體狀況較穩定後再接種。\$\@\$2. 近期天氣炎熱，考量長者身體狀況，建議避開高溫時段前往接種。\$\@\$3. 現有開放診所及衛生所可接種疫苗，建議就近前往接種。\$\@\$指揮中心提醒，所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日宣布，因應國內近期本土COVID-19確診病例疫情嚴峻，為利醫療院所照護重症個案、降低死亡率，將成立「COVID-19重症個案臨床處置專家諮詢小組」，由臺大醫院新竹臺大分院余忠仁院長擔任召集人，邀集全國22位重症個案臨床處置專家擔任諮詢委員，建立COVID-19重症個案處置諮詢平臺，並自6月21日(星期一)起，定期於星期一至星期五，每日晚間6時至8時，召開COVID-19線上重症病例諮詢會議，每日由3至5位諮詢委員，提供各醫療院所臨床重症個案處置意見，預定每次會議時間約為2小時。\$\@\$指揮中心表示，前已函請地方政府衛生局與相關學會轉知所屬醫療院所及會員，若醫療院所於診治COVID-19個案，有相關重症個案臨床處置諮詢需求，請於會議當日中午12時前，以電子郵件提交討論病例簡報、報告人姓名與聯繫資料至指揮中心醫療應變組公務信箱，以利會議討論。\$\@\$指揮中心說明，為降低重症個案死亡率，將「經鼻高流量濕化氧氣治療(Humidified high flow nasal cannula oxygen therapy, HFNCOT）」及「俯臥通氣治療(Prone positioning ventilation therapy)」，納入COVID-19確診個案公費給付項目，並回溯自5月1日起適用。\$\@\$指揮中心呼籲重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊需照顧好自己及隊友，若有相關重症個案臨床處置諮詢需求，務必儘速提請討論，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，第二批Moderna疫苗24萬劑，已於歐洲時間6月17日下午6時自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增188例COVID-19確定病例，分別為187例本土個案及1例境外移入；確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之187例本土病例，為83例男性、104例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月29日至6月17日。個案分佈以新北市76例最多，其次為臺北市71例，苗栗縣26例，桃園市6例，基隆市4例，臺中市2例，花蓮縣及新竹縣各1例。其中雙北地區以外縣市40例中，38例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，為男性12位、女性9位，年齡介於50多歲至90多歲，發病日介於5月6日至6月13日，確診日介於5月19日至6月15日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月16日累計公布12,210位確診個案中，已有6,873人解除隔離，解隔離人數達確診人數56.3%。\$\@\$指揮中心指出，今日新增1例境外移入個案(案13801)，為印度籍30多歲男性船員，3月5日自印度來臺工作，4月3日登船出海工作，期間並無症狀，6月16日返回我國港口，因出境需要，於同日採檢，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,011,097例新型冠狀病毒肺炎相關通報(含993,010例排除)，其中13,771例確診，分別為1,162例境外移入，12,556例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案13408)，累計95例移除為空號。自2020年起累計518例COVID-19死亡病例，其中511例本土，個案居住縣市分布為新北市255例、臺北市206例、基隆市17例、桃園市14例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日表示，疫苗接種是預防COVID-19感染、避免重症與死亡最有效的方式，全世界已有數億人接種過至少一劑疫苗，且COVID-19疫苗的安全性也正持續被監測當中。依過去經驗顯示，大規模疫苗接種與安全性監測時，會發現有部分人在疫苗接種後，發生對健康造成負面影響的事件，包括死亡。這些事件可能是由接種疫苗所導致，也可能與疫苗無關，僅是剛好發生在接種完疫苗後的巧合事件，相關死因皆仍待調查釐清。指揮中心亦將持續監測疫苗接種後不良事件，請國人放心。\$\@\$指揮中心說明，在大規模疫苗接種初期，大部分的接種對象均為年長者，並可能有潛在慢性疾病，使得這類疫苗接種後通報死亡的案件數量增加。因此需藉由回顧病歷資料或解剖釐清死因，調查這些事件是否可能與疫苗相關。此外，亦可藉由持續性自然死亡率的評估，觀察是否有疫苗安全性的疑慮。如根據109年度我國人口統計資料，75歲以上年中人口為1,433,286人，同年度75歲以上死亡人數為95,367人；故可得知，即便在未接種COVID-19疫苗的情形之下，預期平均每日都會有200多名75歲以上長者死亡。\$\@\$指揮中心統計，截至6月16日為止，國內共計1,133,515位民眾接種AstraZeneca COVID-19疫苗，其中174,098名為75歲以上長者。根據疫苗不良事件通報系統(VAERS)顯示，目前已收到11例接種AstraZeneca COVID-19疫苗後死亡之報告，其中8例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病。部分個案經解剖後已可確認死因。\$\@\$指揮中心強調，截至目前為止，尚未有死亡個案被判定為與疫苗相關。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應；同時提醒所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增175例COVID-19本土確定病例，另確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之175例本土病例，為100例男性、75例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月16日。個案分佈以新北市87例最多，其次為臺北市34例，苗栗縣31例，新竹縣10例，桃園市7例，花蓮縣、基隆市及臺中市各2例。其中雙北地區以外縣市54例中，53例為已知感染源、1例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案，共計為男性11位、女性8位，年齡介於40多歲至90多歲，發病日介於5月8日至6月12日，確診日介於5月15日至6月14日，死亡日介於6月8日至6月15日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月15日累計公布12,042位確診個案中，已有6,731人解除隔離，解隔離人數達確診人數55.9%。\$\@\$指揮中心統計，截至目前國內累計973,215例新型冠狀病毒肺炎相關通報(含951,005例排除)，其中13,584例確診，分別為1,161例境外移入，12,370例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計94例移除為空號；確診個案中497例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月17日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增170例COVID-19確定病例，分別為167例本土個案及3例境外移入；確診個案中新增18例死亡。\$\@\$指揮中心表示，今日新增之167例本土病例，為85例男性、82例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月1日至6月15日。個案分佈以新北市65例最多，其次為臺北市50例，苗栗縣21例，桃園市14例，花蓮縣8例，新竹縣5例，基隆市2例，高雄市及臺中市各1例。其中雙北地區以外縣市52例中，48例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增18例死亡個案，共計為男性9位、女性9位，年齡介於30多歲至90多歲，發病日介於5月7日至6月10日，確診日介於5月15日至6月11日，死亡日介於6月6日至6月14日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月14日累計公布11,907位確診個案中，已有6,373人解除隔離，解隔離人數達確診人數53.5%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13371、案13372均為菲律賓籍20多歲男性船員，分別於5月13日及5月5日自菲律賓來臺工作，皆持有搭機前3日內檢驗陰性報告，且居家檢疫期滿採檢結果均為陰性。2人為同船船員，在臺期間並無症狀，6月14日因出境需求，一同自費採檢，於今日確診；衛生單位已匡列2人接觸者共19人，均列自我健康監測。案13501為本國籍20多歲男性，5月24日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，檢疫期滿後於6月9日出現發燒、咳嗽症狀，就醫後返家持續自主健康管理，6月15日因症狀持續就醫採檢，於今日確診；衛生單位已匡列相關接觸者2人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計937,150例新型冠狀病毒肺炎相關通報(含914,861例排除)，其中13,409例確診，分別為1,161例境外移入，12,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另新增2例空號 (案12511、12767)，累計94例移除為空號；確診個案中478例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月16日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日指出，近日有媒體報導「國光在疫苗研發上，疑因試驗基準不公而慘遭淘汰」及「聯亞遭受衛福部刁難，所提的第三期臨床試驗替代方案遭漠視」等相關訊息，指揮中心嚴正澄清，衛生福利部食品藥物管理署(下稱「食藥署」)及財團法人醫藥品查驗中心(下稱「醫藥品查驗中心」)對於國內COVID-19疫苗臨床試驗計畫申請，皆採取一致性審查標準，包括諮詢輔導、召開週會及專家會議均一視同仁，秉持公平公正，提供最合適、最可行之法規科學建議，並無偏袒特定廠商。\$\@\$指揮中心表示，有關國光公司申請第二期臨床試驗一事，食藥署已於110年2月9日函復廠商審查結果，也於函中敘明食藥署之考量，絕無審查不公相關情事。另，有關報導所提聯亞公司提出「圈選接種 (Ring Vaccination)」的國內第三期臨床試驗規劃，食藥署及醫藥品查驗中心亦於諮詢週會給予相關建議，例如：如何選擇指標個案、樣本數估算、施打及追蹤時程、施打劑數之合理性等，供廠商進行相關評估，但截至目前食藥署仍未收到該廠商後續規劃及申請。\$\@\$指揮中心指出，考量疫情及國際公共衛生緊急需求，為加速國產疫苗及早上市，針對COVID-19疫苗研發及輔導，食藥署及醫藥品查驗中心採滾動式審查機制(rolling review)，並針對重要關鍵製程，派員駐廠監製，協助廠商於研發過程能符合法規要求，以縮短研發及審查時程，並確保疫苗品質、安全及療效。\$\@\$指揮中心表示，該中心採購COVID-19疫苗，包括先前採購國外疫苗，均為預採購模式。此次採購國產疫苗是依據政府採購法第105條第1項第2款「因人民之生命、身體、健康、財產遭遇緊急危難」辦理。惟採購合約細節基於保密要求，相關資訊暫不便對外透露。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日表示，將於6月18日起，配送第二批莫德納(Moderna) COVID-19疫苗73,200劑，同時開放第一類至第三類對象接種，請獲配之合約醫療院所開啟預約掛號服務，提供上述對象預約接種，提升群體免疫力。\$\@\$指揮中心說明，莫德納(Moderna) COVID-19疫苗已於6月9日起陸續提供第一類醫事及非醫事人員接種，截至昨(15)日累計接種3萬7,505人。為儘速提升第二類及第三類對象免疫保護力，將於6月18日起進行第二次配送，同時開放至第三類對象接種。本次疫苗配送量是以各縣市符合第一類至第三類對象中，尚未接種人數接種率４成核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）分配數量係以尚未接種人數接種率達5成以上計算，總計配送63,200劑。\$\@\$指揮中心表示，另10,000劑疫苗提供交通部認定之第二類及第三類對象所需疫苗量，其中分配給國籍航空機組員5,000劑，含長榮、立榮、華航、華信、台灣虎航、星宇及飛特立等7家公司的駕駛員、空服員與隨機維修員等；另外5,000劑分配給民航航空第一線人員，含桃園機場及相關廠商、民航局、航空站、航管人員、飛機維修、倉儲、地勤及空廚等人員。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。另，依據各國疫苗上市後安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等的不良反應事件，大多發生在接種後數天內，指揮中心特別提醒民眾，接種mRNA 疫苗後，應注意如出現胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，有關COVID-19疫苗，在世界各國及世界衛生組織指引中，皆將防疫人員與醫護人員列在優先施打對象，目的是為了執行疾病防治工作保護民眾，維持社會安定；而我國也將此類人員列為優先施打的對象。\$\@\$指揮中心進一步指出，第二類中央及地方政府防疫人員包含對象為：「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」、「港埠執行邊境管制之海關檢查(Customs)、證照查驗(Immigration)、人員檢疫及動植物檢疫(Quarantine)、安全檢查及航空保安(Security)等第一線工作人員」、「實際執行居家檢疫與居家隔離者關懷服務工作可能接觸前開對象之第一線人員(含警察、提送餐等服務之村里長或村里幹事、垃圾清運之環保人員、心理諮商及特殊狀況親訪等人員)」、「實際執行救災、救護人員(指消防隊及民間救護車執行緊急救護技術之第一線人員)」、「第一線海巡、岸巡人員」、「實施空中救護勤務人員」及協助防疫工作之國軍人員，該項下截至6/15已造冊人數計約16.2萬人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為提升目前優先接種COVID-19疫苗對象之接種率，將於6月17日起，依各縣市75歲以上人口比率，進行第二次疫苗撥配，預計配送394,800劑。\$\@\$指揮中心說明，自6月12日起，已陸續撥配68.8萬劑(含高風險縣市及中高風險縣市額外撥配2.49萬劑)至各地方政府衛生局，提供第一類至第六類優先對象(包括「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」)接種。為提升前揭對象接種率，本次疫苗配送量是以各縣市75歲以上長者人口數之26%核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）增配10%，中高風險縣市（桃園市、臺中市、基隆市、苗栗縣及彰化縣）增配5%，合計配送 385,800劑。加上前次疫苗撥配量，預估可讓全臺75歲以上長者接種率至少達53%。\$\@\$指揮中心指出，另考量部分縣市及離島縣市交通不便、疫苗配送不易且醫療資源相較不足，指揮中心規劃「離島-偏遠地區擴大接種計畫」，額外撥補臺東縣、屏東縣、澎湖縣、金門縣及連江縣共9,000劑疫苗，提供縣市依轄內接種需求規劃疫苗接種作業，其中連江縣撥配量將提前於6月16日配送。\$\@\$指揮中心特別提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為儘速發掘社區內可能潛藏病例，並有效斷絕所有感染鏈，該中心已於10日公布「社區廣篩4大策略」；今日並宣布，將補助各地方社區篩檢站50臺PCR檢驗儀器，居家自採與企業快篩陽性民眾，將可就近至社區第一線進行快速PCR檢驗。\$\@\$指揮中心指出，在廣設社區篩檢站方面，截至6月13日止，全國各地已開設249社區篩檢站，為加速社區第一線檢驗量能篩檢，今日宣布將補助各地方社區篩檢站50臺PCR檢驗儀器，未來居家自採與企業快篩民眾，若快篩結果呈現陽性，可就近至有快速PCR檢驗的社區篩檢站進行檢驗，並依照PCR檢驗結果及有無症狀進行後續措施(如附表)，形成全國社區防疫網。\$\@\$指揮中心表示，目前持續鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高的地區為考量，針對具有確診個案相關接觸史、活動史的無症狀民眾為主要篩檢對象。另為保全重度級急救責任醫院收治量能，請考量於社區健康中心、其他非重度級急救責任醫院及通風良好的場所，設置社區篩檢站。相關設置規定，可參考指揮中心訂頒的「各地方政府社區篩檢站設置指引」辦理。\$\@\$指揮中心再次提醒，所有篩檢工具皆有偽陰性、偽陽性的可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。 圖片 附件\$\@\$0615 COVID-19廣篩策略.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增135例COVID-19確定病例，其中132例為本土個案，另有3例境外移入；確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之132例本土病例，為62例男性、70例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月1日至6月14日。個案分佈以新北市65例最多，其次為臺北市26例，苗栗縣18例，桃園市12例，基隆市3例，臺南市、臺中市及花蓮縣各2例，嘉義縣及彰化縣各1例。其中雙北地區以外縣市41例中，33例為已知感染源、6例關聯不明、2例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，共計為男性3位、女性5位，年齡介於50多歲至90多歲，發病日介於5月15日至6月2日，確診日介於5月17日至6月8日，死亡日介於6月6日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月13日累計公布11,722位確診個案中，已有6,188人解除隔離，解隔離人數達確診人數52.8%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13305為20多歲印尼籍男性，5月8日來臺工作，持有搭機前3日內檢驗陰性報告，居家檢疫期滿及自主健康管理期滿時採檢均為陰性，6月13日因工作需求再次安排採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，且期間未與他人接觸，故無匡列接觸者。案13332、案13333分別為本國籍50多歲女性及未滿10歲男性，6月6日一同自秘魯返臺，持有搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，2人於6月11日出現發燒等症狀，6月14日通報衛生單位後安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計903,676例新型冠狀病毒肺炎相關通報(含881,495例排除)，其中13,241例確診，分別為1,158例境外移入，12,030例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中460例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月15日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心表示，今(15)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國推動加強三級警戒等管制措施，雙北疫情雖逐步趨緩，但指揮中心仍請雙北以外的部分縣市，密切注意疫情發展，須持續強化基層醫療檢驗及社區篩檢及病例監測之能力，針對弱勢族群及獨居老人更應提高注意，並加強疫調與接觸者管理及早發現個案，以防疫情反彈或出現新一波流行。\$\@\$二、有關疫苗配發及接種作業：\$\@\$(一)指揮中心再次向各地方政府說明，前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AZ疫苗，均以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各地方政府依比例公平、公開透明分配，指揮中心也會根據各地方政府之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業。\$\@\$(二)有關指揮中心已公布之目標接種族群，其疫苗施打不受戶籍地限制，請地方政府依序完成民眾預約接種作業；另地方政府建請指揮中心就目前開放施打對象重新評估研議部分，鑒於疫苗量有限，仍請各地方政府依造冊對象及接種計畫審慎作業，有關第七類施打對象部分，指揮中心正與相關機關進行盤點，也會參考地方政府建議，依實際狀況完備造冊作業。\$\@\$三、有關地方政府擬進行到宅接種作業，指揮中心尊重地方政府相關作業，惟請留意疫苗保存條件：須保存在2-8℃、開瓶後要在6小時內施打，避免晃動等。另應預先安排10人次進行施打，以利疫苗接種效率。\$\@\$四、針對出國留學之學生能否先予納入公費疫苗接種對象，鑒於國內疫苗供應需求，目前仍以臺灣社區防疫為主，暫不將上類人員納入公費施打對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$國際疫情持續嚴峻且變化快速，為確保國籍航空機組員職場健康及維護國內防疫安全，關於國籍航空公司機組員接種COVID-19疫苗後之檢疫措施，於交通主管機關監督航空公司落實外站「零接觸」管理、機組員「機上全程防護」及返國檢疫措施下，調整說明如下：\$\@\$一、重點高風險國家航線航班之返臺機組員，居家檢疫14天(結束日PCR檢驗)。\$\@\$二、長程航班(入境旅遊疫情第三級地區)：\$\@\$1. 尚未接種疫苗及接種1劑疫苗未達兩週者：110/6/12起，採5天居家檢疫(結束日PCR檢驗)+9天加強版自主健康管理(第9、14天抗原快篩)。7/1起，採7天居家檢疫(結束日PCR檢驗)+7天加強版自主健康管理(第14天抗原快篩)。\$\@\$2. 接種1劑疫苗且滿兩週，但尚未具完整疫苗保護力：110/6/12起，採3天居家檢疫(結束日PCR檢驗)+11天自主健康管理(第9、14天抗原快篩)。7/1起，採5天居家檢疫(結束日PCR檢驗)+9加強版天自主健康管理(第9、14天抗原快篩)。\$\@\$3. 完整接種2劑疫苗達兩週且抗體檢測陽性(每3個月監測)：採7天自主健康管理(結束日PCR陰性)。\$\@\$三、短程航班(當班往返且未入境旅遊疫情第三級地區)：110/6/12起，\$\@\$1. 未完整接種疫苗達兩週及抗體檢測陰性者：採14天自主健康管理+每14天PCR監測。\$\@\$2. 完整接種疫苗滿兩週且抗體檢測陽性者(每3個月抗體監測)：自我健康監測+每14天PCR監測\$\@\$指揮中心表示，自疫情以來，機組員肩負疫苗及輸送物資進出口，以維持空運貨物運能，對機組員的付出表示感謝。目前國籍航空機組員多數已接種第1劑疫苗，後續將保留其第2劑疫苗，確保其能獲得疫苗保護力。指揮中心特別提醒，因病毒株變異及傳播力難以預測，具疫苗保護力的機組員於執勤時，仍應遵守民用航空局訂定之作業規範，於外站「零接觸當地人」、機上全程防護及加強手部衛生清消頻率等，以維護個人及家人防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增185例COVID-19確定病例，均為本土個案；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之185例本土病例，為83例男性、102例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月28日至6月13日。個案分佈以新北市98例最多，其次為臺北市42例，基隆市14例，桃園市10例，苗栗縣7例，花蓮縣4例，彰化縣及新竹縣各3例，宜蘭縣2例，臺中市及雲林縣各1例。其中雙北地區以外縣市45例中，37例為已知感染源、5例關聯不明、3例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，共計為男性9位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月8日，確診日介於5月18日至6月13日，死亡日介於6月5日至6月13日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月12日累計公布11,547位確診個案中，已有5,802人解除隔離，解隔離人數達確診人數50.2%。\$\@\$指揮中心統計，截至目前國內累計886,014例新型冠狀病毒肺炎相關通報(含863,703例排除)，其中13,106例確診，分別為1,155例境外移入，11,898例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中452例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月14日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日就「第二類『中央政府防疫人員』及第三類『高接觸風險第一線工作人員』疫苗量，寄放於各縣市」一事，說明如下：\$\@\$一、指揮中心係以造冊名單核估各縣市第一類至第三類人員疫苗分配數量。前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AstraZeneca COVID-19疫苗，均以此原則估算。\$\@\$二、對於符合各類接種對象身分者，COVID-19合約醫療院所均不得以任何方式拒絕及妨礙該等對象接種，惟未限定須為其保留疫苗數量，故無所謂「寄放」之問題，如未及時接種，地方政府可依現行優先接種對象，安排接種作業。\$\@\$三、考量先前第二類、第三類對象之接種作業，有些地方政府以各縣市所屬機關人員優先接種，而拒絕為符合第二類之「中央政府防疫人員」接種，爰本次疫苗分配時，特別提醒各地方政府衛生局，應提供工作地點位於該縣市之「中央政府防疫人員」及「高接觸風險第一線工作人員」接種疫苗。該數量係以機關/工作所在地位於該縣市，且尚未接種人數之6成估算，提供各地方政府參考使用。\$\@\$指揮中心再次重申，配送予各地方政府之疫苗數量，是以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日表示，有關網傳總統、副總統已接種COVID-19疫苗，經總統及副總統授權由中央流行疫情指揮中心調閱「全國性預防接種資訊管理系統(NIIS)」系統查證，蔡英文總統及賴清德副總統均尚未接種COVID-19疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增251例COVID-19確定病例，分別為250例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之250例本土病例，為116例男性、134例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月28日至6月11日。個案分佈以新北市133例最多，其次為臺北市65例，基隆市16例，桃園市13例，苗栗縣9例，花蓮縣3例，宜蘭縣、新竹市、彰化縣及臺中市各2例，高雄市、雲林縣、新竹縣各1例。其中雙北地區以外縣市52例中，45例為已知感染源，7例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性16位、女性10位，年齡介於40多歲至100多歲，發病日介於5月15日至6月9日，確診日介於5月18日至6月11日，死亡日介於6月4日至6月11日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12698)，為本國籍40多歲女性，5月30日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫旅館進行居家檢疫，於6月9日出現發燒等症狀，6月10日由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，累計845,113例新型冠狀病毒肺炎相關通報(含821,956例排除)，其中12,746例確診，分別為1,154例境外移入，11,539例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增5例空號 (案9332、10323、10337、10353、12078)，累計92例移除為空號。確診個案中411例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月12日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日下午由行政院秘書長李孟諺、指揮中心社區防疫組組長薛瑞元與各縣市政府衛生局召開「COVID-19疫苗接種作業推行協調會」，針對不同年齡與族群的疫苗接種策略，進行相關經驗交流與分享；會議重點如下：\$\@\$請地方衛生機關每日確實將接種名冊上傳，以利及時掌握接種進度及疫苗撥配相關事宜。\$\@\$日本政府提供我國的124萬劑AstraZeneca疫苗，開放75歲以上長者(含65歲以上具原住民身分者)施打，只要為民國35年12月31日(含)以前出生者，或具原住民身分之證明文件且為民國45年12月31日(含)以前出生者，均符合接種資格。同時，75歲以上長者，不限其居住地或戶籍地，均可就近完成接種作業。\$\@\$各地方政府的疫苗接種策略不同，大部分縣市採預先造冊、由民政單位通知方式辦理，另有部分縣市採用院所預約方式，惟請採預約方式之縣市，宜加速擴充電話線路及服務人力，使施打作業更為順暢。\$\@\$另，指揮中心提醒，目前第一類尚未完成接種COVID-19疫苗較多之縣市，請加速疫苗接種作業，使民眾儘早獲得疫苗保護力。\$\@\$為避免人潮擁擠，請各地方政府以分齡、分流、分批辦理，減少群聚風險。\$\@\$另，由於食品藥物管理署加速完成該批COVID-19疫苗檢驗封緘作業，以及物流業者鼎力協助提前於今日深夜開始配送，明(12)日將有50萬劑陸續運抵各地方政府，考量地方政府需前置作業時間，指揮中心表示，疫苗開打日仍以 6月15日為原則辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、雙北疫情趨勢雖持平惟仍舊嚴峻，指揮中心持續鼓勵各縣市增設社區篩檢站，以便及早發掘潛在陽性個案，阻斷社區傳播鏈；另鑒於重症及死亡數攀升對社會之衝擊與影響較大，也請各地方政府持續掌握及協調醫療資源，迅速應變。\$\@\$二、針對疫苗配撥及施打作業：\$\@\$(一)指揮中心再次強調，中央與地方應秉持「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂「COVID-19疫苗接種順序」，進行施打作業。\$\@\$(二)有關各地方政府關切疫苗配撥量部分，指揮中心會儘速完成第一類至第六類符合施打對象之計算，並加速進行疫苗撥發作業。另鑒於現行國內疫苗量仍無法全數完成上開類別人員之施打，亦請各地方政府審慎妥予規劃相關施打作業之進行。\$\@\$(三)請地方衛生機關加強向合約醫療院所宣導，針對符合接種順序者，應讓其以最方便之方式就近完成接種作業，不侷限接種者居住地、工作地或戶籍地區分，避免造成人流移動情形；另有關疫苗施打類別，針對公費疫苗接種第七類有關維持國家安全及社會機能正常運作者之匡列部分，指揮中心將會再進一步研議，俾符實際運作狀況。\$\@\$三、衛生福利部醫事司與內政部消防署已協調民間18家救護車業者，自今日起投入防疫救護載運工作，將進行醫院、集中檢疫場所間，點到點之病患運送作業，預計至少有108部民間救護車加入防疫工作，以有效舒緩消防機關救護工作之壓力。\$\@\$四、請各地方政府鼓勵觀光飯店業者發動「暖心方案」，提供醫護人員以及相關醫事人員入住，讓第一線醫事人員可以獲得充分及妥適休息。\$\@\$五、鑒於暑假將屆，有關大專院校學生暑期生活管理作業，教育部前於5月26日及6月8日2度要求各級學校，應強化住宿生管理，並不得強制要求住宿學生返家。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，指揮中心已採購複合單株抗體藥物，將提供具有重症風險因子之輕中度確診個案治療使用，以降低個案轉為重症需住院之風險，協助紓解重症醫療量能。\$\@\$指揮中心指出，依據國際研究顯示，新冠病毒感染患者輕症比率大約佔8成左右，但其中約9％的患者可能惡化為重症，主要的重症危險因子有高齡、肥胖、慢性腎病、心血管疾病/高血壓、慢性肺病、免疫抑制疾病/免疫抑制治療等影響免疫功能之疾病，以及懷孕等，且其病程演化迅速，甚至導致死亡。截至本(110)年6月10日監測資料，國內輕中度COVID-19確診病例約佔所有確診個案84%，死亡病例數佔確診病例2.7%。\$\@\$指揮中心表示，國內新冠肺炎(COVID-19)疫情持續嚴峻，重症醫療量能持續緊繃，鑒於單株抗體之療效及安全性已有部分證據支持，美國FDA及國際間已陸續發布緊急使用授權(EUA)核准於臨床使用，以治療輕度至中度SARS-CoV-2感染且有重症危險因子之高風險患者，降低個案轉為重症需住院之風險。指揮中心經諮詢專家，已將該藥物之使用建議納入我國新型冠狀病毒(SARS-CoV-2)感染臨床處置暫行指引，並著手採購儲備該藥物，規劃分配於集中檢疫場所之主責醫院，經醫師評估治療效益與風險，並充分告知後，給予符合條件個案注射治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增287例COVID-19確定病例，分別為286例本土及1例境外移入；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之286例本土病例，為141例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月19日至6月10日。個案分佈以新北市120例最多，其次為苗栗縣56例、臺北市49例、桃園市19例、新竹縣12例、基隆市8例、彰化縣7例、臺中市4例、宜蘭縣及新竹市各3例、雲林縣及花蓮縣各2例、臺南市1例。其中雙北地區以外縣市117例中，109例為已知感染源，8例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，共計為男性12位、女性12位，年齡介於50多歲至80多歲，發病日介於5月3日至6月8日，確診日介於5月15日至6月10日，死亡日介於6月2日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12479)，為泰國籍30多歲男性移工，2月7日曾在泰國當地檢出COVID-19陽性，3月23日自泰國來臺工作，持有搭機前3日內檢驗陰性報告，4月7日檢疫期滿採檢結果為陰性，6月8日出現發燒及咳嗽症狀，6月10日就醫採檢，於今日確診(Ct值31，次日再驗核酸檢測陰性，血清抗體陽性)；已匡列個案接觸者13人，皆列為居家隔離。\$\@\$指揮中心統計，累計804,931例新型冠狀病毒肺炎相關通報(含781,334例排除)，其中12,500例確診，分別為1,153例境外移入，11,294例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增9例空號 (案6616、9671、10339、10348、10350、10359、10452、11381、11865)，累計87例移除為空號。確診個案中385例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增266例COVID-19確定病例，其中263例為本土個案，另有3例境外移入個案。確診個案中新增28例死亡。\$\@\$指揮中心表示，今日新增之263例本土病例，為124例男性、139例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月22日至6月9日。個案分佈以新北市112例最多，其次為臺北市58例、苗栗縣43例、桃園市14例、基隆市12例、彰化縣10例、花蓮縣7例、南投縣及新竹縣各2例，宜蘭縣、臺東縣及臺南市各1例。其中雙北地區以外縣市93例中，84例為已知感染源，5例關聯不明，4例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增28例死亡個案，共計為男性21位、女性7位，年齡介於50多歲至90多歲，發病日介於5月13日至6月8日，確診日介於5月16日至6月9日，死亡日介於6月1日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增3例境外移入個案中，案12214為本國籍30多歲男性，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案12293為本國籍30多歲男性，4月14日自奈及利亞返臺，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀；因需再次出境，於6月9日自費採檢後確診；相關接觸者匡列中。案12294為本國籍40多歲女性，曾於4月9日及30日於美國當地完成2劑Pfizer/BioNTech疫苗接種，並於6月3日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後返家進行居家檢疫，6月7日出現咳嗽、流鼻水等症狀但未就醫；6月9日，個案的同住家人出現發燒症狀，經就醫採檢後確診，故同日安排個案採檢，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，累計769,990例新型冠狀病毒肺炎相關通報(含746,817例排除)，其中12,222例確診，分別為1,152例境外移入，11,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增12例空號 (案2550、2977、6445、7162、7379、9729、10340、10354、10355、10356、10524、11849)，累計78例移除為空號。確診個案中361例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$針對臺北市政府提供好心肝診所一千多劑COVID-19 疫苗，且該診所未依指揮中心之規定，提供非屬一到三類醫護人員之一般民眾施打一事，中央流行疫情指揮中心今(9)日嚴正表示，此事嚴重影響尚未施打疫苗之基層醫護人員權益，有人漠視規定，明知故犯，情節重大，指揮中心將由司法單位依法徹查，還原真相，並追究相關人員應負之法律責任。\$\@\$指揮中心指出，該診所之醫護人員多已至院外接種COVID-19疫苗，而指揮中心也尚未許可基層診所提供COVID-19疫苗接種服務，臺北市政府竟無視相關規定，任意將多達一千多劑疫苗撥給該診所，既違反規定，也不合情理；而該診所短時間內即施打一千多劑，究竟是何人被通知前往施打，有無特權介入，事不單純，也不尋常，其中過程實令人合理懷疑是否有違法濫權之事。\$\@\$指揮中心強調，基於維護及確保疫苗施打之合法性及公平性的職責，絕不容許類此情形再度發生，破壞綱紀，並將交由司法單位調查本案之始末，釐清真相，還原事實，以瞭解其中是否有人謀不臧、私相授受，甚至偽造文書或違法圖利之相關犯罪嫌疑，以明法紀，並昭公信。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$有關COVID-19疫苗放置臺北市醫院，提供中央造冊之外國使節等施打一事，中央流行疫情指揮中心今(9)日表示，因特殊情形必要出國者，可由各該主管機關提具需求說明、預估接種人數及時程，向中央流行疫情指揮中心以專案方式，申請接種公費COVID-19疫苗。目前已專案申請接種對象包括我國因外交或公務需求奉派出國者、代表我國出國之運動員或參賽選手等。另基於互惠原則，駐臺外交人員及其在臺眷屬亦屬專案同意接種對象。針對此類專案指揮中心會視疫苗進口期程及供應量整體評估提供。\$\@\$指揮中心進一步說明，考量該類專案對象其工作地點多位於臺北市，且其工作性質需分批次接種，故依專案需求，撥配疫苗至單位指定院所，提供該類對象接種；目前撥配及接種狀況如下：\$\@\$一、疾病管制署庫存30瓶，係供該署尚未接種第一劑及須接種第二劑之防疫人員接種，本週預計接種30人次，並依照業務安排陸續完成接種。\$\@\$二、三軍總醫院附設民眾診療服務處計配送70瓶，提供國軍協助防疫旅館消毒之化學兵接種，已全數接種完畢。\$\@\$三、臺北市立仁愛醫院計配送180瓶，係提供華航機師及機組員接種，截至目前約250人尚未接種，預計本週完成接種。\$\@\$四、三軍總醫院北投分院計配送100瓶，供總統護衛等國安人員接種，截至目前，尚有250人未接種，庫存14 瓶，預計本週完成接種。\$\@\$五、臺北醫學大學附設醫院，係提供食品藥物管理署員工接種，已全數接種完畢。\$\@\$六、臺大醫院配送20瓶，供指揮中心委託研究計畫之研究對象使用，已全數接種完畢。\$\@\$七、指揮中心另請臺北市榮民總醫院協助接種外交使節、因公務需求有必要出國者及代表國家出國之運動選手疫苗接種事宜，目前約400人還未接種。\$\@\$指揮中心強調，針對上述指揮中心同意列冊施打對象，總計配送650瓶疫苗，目前已接種共計5,400人次，尚未接種為1,200人次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日表示，昨(8)日衛生福利部傳染病防治諮詢會預防接種組(ACIP)召開專家會議，討論COVID-19疫苗優先接種順序。會中專家表示，因應國內正處於COVID-19社區流行階段現況，為使醫療、防疫業務正常運作，確保感染後易產生嚴重併發症或導致死亡之對象儘速獲得免疫保護力，同時確保社會及國家設施正常運作，降低疫情造成之衝擊，建議調整「COVID-19疫苗優先接種順序」，將「維持機構及社福照護系統運作」及「75歲以上長者」分別列於第五類及第六類對象，並將「經各主管機關認定之關鍵設施工作人員」、「運輸及倉儲業者」、「高中職以下學校教職員工與校內工作人員」及「幼兒園托育人員及托育機構專業人員」列入第七類「維持國家安全及社會機能正常運作」對象，需報指揮中心同意。\$\@\$指揮中心說明，日本提供我方之124萬劑AstraZeneca COVID-19疫苗完成檢驗封緘後，預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所，並依ACIP專家決議之優先接種順序，於本批疫苗開始供應後，同時開放「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」，優先接種COVID-19疫苗。指揮中心將視疫苗供應期程、數量、優先接種對象接種情形及國內外疫情現況，適時調整疫苗分配數量及開放接種對象。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。\$\@\$指揮中心再次感謝日本政府於此疫情艱難，且全球疫苗產能供不應求之際，及時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助。指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增275例COVID-19確定病例，其中274例為本土個案，另有1例境外移入個案。確診個案中新增25例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為142例男性、132例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至6月8日。個案分佈以新北市162例最多，其次為臺北市63例，桃園市15例，苗栗縣12例，基隆市10例，彰化縣及南投縣各3例，宜蘭縣2例，臺南市、嘉義市、臺中市及新竹縣各1例。其中雙北地區以外縣市49例中，43例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增25例死亡個案，共計為男性20位、女性5位，年齡介於50多歲至90多歲，發病日介於5月11日至5月30日，確診日介於5月17日至6月5日，死亡日介於5月29日至6月7日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案（案12033），為本國籍50多歲男性，5月1日於印度曾有相關症狀，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，累計739,818例新型冠狀病毒肺炎相關通報(含717,016例排除)，其中11,968例確診，分別為1,149例境外移入，10,766例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號 (案11069)，累計66例移除為空號。確診個案中333例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日澄清，有關媒體報導某臺北診所開放民眾連夜施打 COVID-19疫苗案，指揮中心重申，有關現階段COVID-19疫苗之撥配，係由各地方政府統籌分配予所轄合約醫療院所，針對於合約醫療院所提供接種服務，應符合目前公費接種對象優先順序，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市，則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。另針對3月22日至4月11日已完成第一劑之公費對象，於間隔10至12週後，開放接種第二劑。\$\@\$指揮中心說明，針對媒體所報導之情事，已請臺北市政府衛生局進行瞭解及處理，另指揮中心聲明，合約醫療院所提供接種服務應符相關規範，並落實感染管制相關指引，同時應規劃維持社交距離避免群聚感染。如經查執行其接種作業有違指揮中心相關接種政策或實施對象者，可依傳染病防治法第29條處以30萬至200萬罰鍰；也再次強調中央與地方「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂之COVID-19疫苗接種順序，進行施打作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心表示，今(8)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、近期國內疫情仍處高峰期，因感染而死亡的個案增加，指揮中心將持續與地方政府掌握及協調醫療資源，迅速應變，請地方政府衛生機關加強設置社區篩檢站，提高民眾採檢可近性，降低社區擴散風險。\$\@\$二、針對端午節連假前後，南北往返的大眾運輸系統購票率以及各觀光景點飯店住房率，指揮中心均與相關部會保持密切聯繫，持續掌握人流狀況，適時強化防疫措施；請各地方政府加強連假期間易造成人潮聚集區域的人流管控，同時呼籲民眾暫緩返鄉，減少人流移動。\$\@\$三、加強及落實移工防疫管理部分：\$\@\$(一) 針對北部電子工廠發生群聚感染案件，指揮中心已成立前進指揮所，協助相關廠區緊急應處，也請地方政府協助企業團體強化因應措施。\$\@\$(二) 勞動部昨(7)日已發布實施「暫停移工轉換至新雇主」，以及「暫緩雇主調派移工至其他廠區工作」作業，力求降低移工人流，並修訂「雇主聘僱移工指引」，增訂「企業因應疫情處置」；勞動部另將儘速發布補助要點，補助雇主因移工隔離以及宿舍降載，所須支出之必要防疫措施費用。\$\@\$四、針對大賣場及傳統市場的人流管制，屬高風險地區的地方政府已加強推動實聯制，並運用身分證單、雙號分流，進行人流管控。此外，經濟部已與地方政府研商擬訂5大措施，以加強傳統市場人流管制，請其他地方政府配合施行。\$\@\$五、針對COVID-19疫苗的分配與接種，請各地方政府及醫療院所依據指揮中心所訂之疫苗接種順序，進行施打作業。\$\@\$六、 經考量疫情進展與防疫量能餘裕，快篩陽性及輕症、無症狀確診者收治原則調整如下：\$\@\$(一) 快篩陽性尚未確診者：雖仍得採居家隔離一人一室，因考量收治量能餘裕已擴大，同意各縣市如量能足夠，得一律安排收住於集中檢疫場所，或加強型防疫旅館，並請地方政府再次盤點相關量能。\$\@\$(二) 輕症、無症狀確診者：應儘速收治於集中檢疫場所及加強型防疫旅館。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增219例COVID-19確定病例，均為本土個案。確診個案中新增22例死亡。\$\@\$指揮中心表示，今日新增之219例本土病例，為117例男性、102例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月22日至6月7日。以新北市123例最多，其次為臺北市54例，苗栗縣16例，桃園市13例，基隆市8例，彰化縣2例，臺南市、新竹市及臺中市各1例。其中雙北地區以外縣市42例中，36例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增22例死亡個案，共計為男性15位、女性7位，年齡介於30多歲至100多歲，發病日介於5月13日至5月30日，確診日介於5月18日至6月4日，死亡日介於5月30日至6月7日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計698,373例新型冠狀病毒肺炎相關通報(含675,836例排除)，其中11,694例確診，分別為1,148例境外移入，10,493例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增16例空號 (案7378、9643、10704、10856、11304、11305、11306、11378、11379、11380、11382、11383、11385、11386、11393、11396)，累計65例移除為空號。確診個案中308例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$疾病管制署今(7)日表示，本(2021)年4月接獲醫院通報，一名住中部之5歲女童流感輕症病患之呼吸道檢體分離出無法次分型之A型流感病毒，經該署進一步檢驗並進行基因定序為H1N2v流感病毒。經調查個案密切接觸者6名，其中3人有類流感症狀，經檢驗均未發現H1N2v流感病毒感染，經邀集農政單位及相關醫學與獸醫專家召開會議討論，依上述現有流行病學調查結果研判，本案應屬散發個案，與國際過去案例類似，無證據顯示有人傳人現象，衛生及農政單位亦將持續加強人類、動物與環境之監測。\$\@\$疾管署指出，這名女童未曾出國，家中從事禽畜養殖業，本年3月12日出現流鼻水及咳嗽症狀，3月13日開始發燒，3月14日因持續發燒而就醫，流感快篩為A型陽性，經醫師評估無需住院，開立流感抗病毒藥劑後返家，目前已康復。4月5日自該名女童呼吸道檢體分離出H1N2v流感病毒，另針對呼吸道感染常見病毒如腺病毒、呼吸道融合病毒、冠狀病毒、腸病毒及鼻病毒等進行檢測，均呈陰性反應。此外，農政單位亦自病例家族經營之養豬場豬隻採集檢體檢驗，結果未檢出H1N2流感病毒。\$\@\$國際間H1N2為存在豬隻的低病原性流感病毒，很少在人群中傳播，但偶爾有人類感染之報告，全球2012-2021年累計30例H1N2v流感確診病例，分布於美洲地區，以美國為多，其次為巴西，病例多具有豬隻暴露史或曾暴露於受汙染環境，並不會透過食用肉品而感染。本次由病患所分離之病毒基因序列，與本土過去於豬隻分離之H1N2流感病毒株最為接近，但不相同，對克流感及瑞樂沙等抗病毒藥物敏感。\$\@\$疾管署提醒，防範新型A型流感，民眾應遵守「5要6不」原則，「5要」：肉類及蛋要熟食、要以肥皂澈底洗手、出現症狀，要戴口罩速就醫並告知職業及接觸史、與禽畜長期接觸者要接種流感疫苗、要均衡飲食及適當運動；「6不」：不生食禽鳥蛋類或製品、不走私及購買來路不明肉品、不接觸或餵食動物、不野放及隨意丟棄動物、不將飼養動物與其他禽畜混居、不去空氣不流通或人潮壅擠的場所。相關資訊可至疾管署全球資訊網（https://www.cdc.gov.tw/），或撥打免費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日表示，為促使聘有移工企業落實防疫工作及員工確診應變處置，勞動部採取以下四大措施：\$\@\$一、增訂企業因應疫情之處置：將修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，並自下列規範公告之日起實施：\$\@\$（一）廠區未發生或部分廠區發生疫情時，應備有1人1室隔離空間、工作區及生活區應分艙分流，同產線移工應同一住宿地點、不得任意變動、每天進行員工健康監測由專人確認、追蹤及轉送疑似症狀者採檢並隔離。\$\@\$（二）廠區有1名員工確診後，應即匡列職場密切接觸者，並確實執行居家隔離於有單獨衛浴設備之套房。衍生隔離費用，必要時將由勞動部部分補貼。\$\@\$二、訪查潛在高風險企業：勞動部偕同地方政府已開始訪查，針對產業聘僱移工人數達50人以上宿舍共計1, 168家，預計6月10日訪查完畢。\$\@\$三、補助移工隔離及宿舍降載：勞動部將補助雇主必要防疫措施的部分費用，包括移工採檢後隔離期間費用，及鼓勵雇主降載移工每房居住人數轉住租賃建物、一般旅館或防疫旅館費用，並協調地方政府受理申請。\$\@\$四、加強宣導防疫措施：已於6月6日以「LINE@移點通」主動推播、發布新聞稿、移工權益網站、1955臉書及多國語廣播電臺，呼籲移工非必要不要外出，提醒桃竹苗地區之家事移工，注意自身健康情形，若有症狀或接觸史，儘速登記快篩。\$\@\$指揮中心表示，近期苗栗縣電子廠之移工群聚感染案件，勞動部已駐點前進指揮所現場，協助個案雇主與仲介公司，加強移工防疫及預防感染擴大：\$\@\$一、清理個案宿舍及進出管制：協助清空共用衛浴之移工宿舍，部分移工送集中檢疫所、部分隔離於其他有獨立衛浴房間，其餘人員禁止外出及限制出房門。\$\@\$二、實地關懷移工給予支持：自6月6日起，派駐雙語人員於前進指揮所，協助疫調翻譯，並每日早晚放送廣播關懷移工、關懷每日健康監測狀況，並啟動隔離移工關懷機制，由1955專線雙語人員主動電話關懷隔離移工情緒給予心理支持，及提供防疫包(溫度計、口罩、消毒用品、家鄉零食、1955專線電話、Line@移點通）。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增214例COVID-19確定病例，分別為211例本土個案及3例境外移入個案。確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之211例本土病例，為106例男性、105例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年5月21日至6月6日。個案分布地區以新北市82例最多，其次為臺北市60例，苗栗縣45例，彰化縣8例，新竹市、桃園市、澎湖縣及基隆市各3例，宜蘭縣、嘉義縣、屏東縣及新竹縣各1例。其中雙北地區以外縣市69例中，64例為已知感染源，1例有萬華區活動史，4例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性20位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月2日，確診日介於5月12日至6月5日，死亡日介於5月31日至6月6日，詳如新聞稿附件。\$\@\$指揮中心表示，今日新增3例境外移入中，案11500、案11501分別為40多歲及20多歲菲律賓籍男性，5月15日來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，6月5日自主健康管理期滿前自費採檢，於今日確診。案11052為本國籍40多歲男性，6月5日自印度返臺，持有搭機前3日內陰性報告，入境時無症狀，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計671,160例新型冠狀病毒肺炎相關通報(含648,841例排除)，其中11,491例確診，分別為1,148例境外移入，10,290例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另49例(新增案10772、10826、10829、11143、11144、11146、11147、11148、11149、11155、11177、11179、11184、11190、11193、11194、11225、11227、11228、11229、11230)移除為空號。確診個案中286例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日宣布，因應本土疫情持續嚴峻，全國疫情警戒第三級延長至6月28日止，請全國民眾與政府共同持續努力，嚴守社區防線。相關措施如下：\$\@\$一、民眾外出應全程佩戴口罩，一經查獲有違反情事，將不再勸導，逕予開罰。\$\@\$二、經公告應關閉的休閒娛樂場所，將嚴查不得營業，並對違法營業的業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$六、關閉休閒娛樂場、觀展觀賽場所及教育學習場域。\$\@\$七、停止室內5人以上、室外10人以上之家庭聚會(同住者不計)和社交聚會，並避免不必要移動、活動或集會。\$\@\$八、自我健康監測，有症狀應就醫。\$\@\$九、營業場所及洽公機關(構)應落實人流管制，戴口罩、保持社交距離。\$\@\$十、職場及工作處所應遵守企業持續營運指引的防疫規定，落實個人及工作場所衛生管理，啟動企業持續營運因應措施，如異地或遠距辦公、彈性時間上班。\$\@\$十一、公共場域、大眾運輸加強清消。\$\@\$指揮中心說明，針對近期醫院及長照機構感染事件，指揮中心已請全國醫院停止開放探病(例外情形除外)，住院病人的陪病者以1人為限，執行至全國三級警戒降級為止。至於長照機構，除停止開放機構住民探視，也要求非必要性特殊情況，盡量避免住民請假外出，並強化門禁管理，避免不必要的人員進出，同時持續落實每日工作人員、服務對象與陪住人員等體溫及健康監測，掌握其COVID-19暴露風險情形。\$\@\$指揮中心強調，現在是防疫的關鍵時刻，惟有民眾與政府互相配合、共同抗疫，才可控制疫情，維護全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，目前我國COVID-19疫苗優先提供公費對象接種，民眾不用負擔疫苗費用，6月7日起也無須負擔其他行政費用。未來將會依序逐漸擴大至全體國民皆能公費接種，目前更無自費接種規劃，並無所謂「自費負擔」之問題存在。今(2021)年5月31日經立法院三讀通過的「嚴重特殊傳染性肺炎防治及紓困振興特別條例」，加上去年所編列之疫苗預算，行政院已編列共約340億用來購買全民公費疫苗，今年則額外編列約40億元預算，用以負擔疫苗接種所需之醫療院所行政費用，讓符合公費資格者，在面對疫情挑戰時，不用擔心還要花錢施打疫苗。\$\@\$指揮中心表示，現階段開放的公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放的公費對象，也將視疫苗供應充裕情況，逐步列入公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增335例本土COVID-19確定病例，另有校正回歸本土個案8例，總計343例。確診個案中新增36例死亡。\$\@\$指揮中心表示，今日新增之335例本土病例，為189例男性、146例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月24日至6月5日。另校正回歸個案8例中，為3例男性、5例女性，年齡介於20多歲至60多歲，發病日介於6月1日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共343例，分布地區以新北市160例最多，其次為苗栗縣75例、臺北市64例、桃園市16例、宜蘭縣9例、雲林縣、高雄市、彰化縣及新竹縣各3例，基隆市、臺中市及臺南市各2例，嘉義市1例。其中雙北地區以外縣市119例中，107例為已知感染源，7例關聯不明、5例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增36例死亡個案，共計為男性22位、女性14位，年齡介於50多歲至90多歲，發病日介於5月7日至6月1日，確診日介於5月13日至6月5日，死亡日介於5月28日至6月4日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計656,768例新型冠狀病毒肺炎相關通報(含634,762例排除)，其中11,298例確診，分別為1,145例境外移入，10,100例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另28例(新增案10494)移除為空號。確診個案中260例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日表示，針對苗栗縣電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、所有外籍移工停止上班，居家隔離，薪資照付。\$\@\$二、高風險區移工安排入住集中檢疫所；中低風險區就地居家隔離，並進行健康監控。\$\@\$三、本國籍員工確診者立即進行疫調，匡列接觸者，依規定進行隔離。其餘員工，加強健康監控。\$\@\$四、所有確診者皆已完成就醫安置。\$\@\$五、經工業局、防疫醫師及廠方進行會勘，依防疫計畫有條件降載復工。\$\@\$指揮中心指出，截至6月5日，第1家電子公司共計182案確診 (24名本國籍、158名外國籍），已匡列接觸者399名；第2家電子公司共計12案確診 (均為外國籍)；第3家電子公司共計12案確診 (2名本國籍、10名外國籍)。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，有關昨(5)日公布之「自6月7日起，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務」新聞稿之內容，是指因應國內疫情嚴峻，指揮中心自6月7日起將依序提供符合「COVID-19疫苗接種計畫」之公費對象免費接種疫苗，相關施打順序將由指揮中心依據專家會議規定計畫，評估群體風險性，陸續開放施打。\$\@\$指揮中心表示，現階段開放之公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗之第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放之公費對象，也將於後續儘快開放公費接種。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，為推動COVID-19疫苗大規模接種作業，指揮中心已編列經費約40億元並自2021年6月7日（一）起實施獎勵COVID-19疫苗合約醫療院所作業。指揮中心指出，特別條例修法於5/31經立院三讀通過後，相關預算也於6/3於行政院會通過，用於請合約醫療院所免費提供民眾COVID-19疫苗接種服務，另還有編列費用補助22縣市政府，及辦理社區和大型接種站的所需經費，以加速全民接種速度，儘早達成群體免疫效果。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。\$\@\$指揮中心提醒，目前開放之公費接種對象，雙北地區為第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者優先接種；雙北以外之縣市為未曾接種疫苗之第一類醫事人員為接種對象，並視疫苗接種進度，逐步開放至第二、三類及機構對象。而未開放之公費對象，將於後續陸續開放公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關COVID-19確診及死亡個案資訊都有公開，所有確診個案已於5月30日及6月1日公布，死亡個案亦於5月31日公布，絕未有隱匿疫情不公布之情事。對於民眾及死者家屬造成誤會，已請衛生單位與其聯絡說明並表達歉意。\$\@\$指揮中心表示，1922若接獲民眾進線詢問就醫疑問或需求，都會提供民眾所在地方衛生單位電話，以利地方衛生單位及時安排就醫事宜。如民眾聯繫衛生單位發現電話無法接通等問題，均可隨時撥打1922專線，由專人協助處理。\$\@\$指揮中心指出，抗病毒藥物瑞德西韋自6月1日起，醫院已可存放，目前存放醫院有：臺大醫院、臺北市立聯合醫院5院區、新北市立聯合醫院、亞東醫院、馬偕醫院(台北、淡水)、陽明交通大學附設醫院、部立臺北醫院、林口長庚醫院。主治醫師經評估有使用本藥劑需求，即可直接領用存放於醫院之藥劑。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$鑒於本土疫情嚴峻，應絕對禁止廠區和廠區間的移工流動。中央流行疫情指揮中心今(5)日表示， 地方政府及勞動部應協助苗栗某電子廠公司的移工避免離開宿舍，並於這段期間與地方政府合作，減少移工不必要的外出，以減少移工群聚發生。\$\@\$指揮中心指出，請雇主及仲介公司自即日起，配合辦理下列事項：\$\@\$一、自即日起針對移工非必要轉換至新雇主之作業，於第三級警戒期間暫緩作業。\$\@\$二、自即日起針對同一雇主不同廠區間的派工，於第三級警戒期間暫緩調派。\$\@\$三、確實依照勞動部發布嚴重特殊傳染性肺炎雇主聘僱移工指引，辦理防疫作業。\$\@\$指揮中心強調，基於國內防疫安全，近期將由勞動部與地方政府針對移工人數達五百人以上企業與百人以上大型移工宿舍進行訪查，實地督導雇主與仲介業者落實防疫指引，並請勞動部規劃補助企業改善宿舍防疫環境，以強化防疫量能。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，針對苗栗縣2家電子公司廠房發生COVID-19群聚事件，指揮中心已於昨(4)日設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關作為如下：\$\@\$一、加速篩檢執行：昨日經動員後於第1家電子公司共開設18條篩檢線，每小時可執行350-500人次篩檢，截至昨日（6/3-6/4）共完成採檢4,599人，累計抗原快篩陽性59人，其中PCR檢驗共56人陽性確診、3人陰性。今日進行其餘約2,451人之採檢，截至中午尚餘約1,500人待採，將於今日完成採檢工作。\$\@\$二、宿舍、職場及外部風險評估及安置：針對第1家電子公司確診個案之宿舍及廠區分布，劃定風險區域，安排相關宿舍樓層之清空及人員區隔安置，密切接觸者送集中檢疫所或防疫旅館居家隔離，今日預計移出280位。另第2家電子公司之相關接觸者已匡列安排隔離安置及採檢，該公司亦於今天展開全員約4千人篩檢。\$\@\$三、由經濟部即刻派遣產業專家進駐前進指揮所，協助防疫醫師與電子場規劃廠區作業、休息及用餐等活動之分艙分流，如無法執行，即要求停工。\$\@\$四、由勞動部即刻派員確保仲介公司之移工管理，落實住宿人數降載及確保分艙分流，並就仍需共用衛浴之宿舍環境問題予以解決；移工宿舍人員禁止外出部分，加強管理並協調警政協處。\$\@\$五、為避免本國勞工將疫情帶入社區，請該公司緊急通知員工留置家中，如家庭環境無法落實一人一室者，公司應協助安排合適住宿地點。\$\@\$指揮中心指出，截至6月4日，第1家電子公司共計131案確診（14名本國籍、117名外國籍），已匡列接觸者323名，均已採檢；第2家電子公司共計9案確診。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增476例COVID-19本土個案確定病例；另有校正回歸本土個案35例，總計511例。確診個案中新增37例死亡。\$\@\$指揮中心表示，今日新增之476例本土病例，為248例男性、205例女性，另有23例外籍人士性別待確認，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月15日至6月4日。另校正回歸個案35例中，為15例男性、20例女性，年齡介於未滿10歲至80多歲，發病日介於今年5月24日至6月1日。\$\@\$指揮中心指出，綜上所有本土個案共511例，以新北市229例最多，其次為臺北市144例，苗栗縣66例，桃園市16例，基隆市13例，彰化縣11例，臺中市9例，新竹縣7例，屏東縣4例，南投縣、高雄市及嘉義縣各3例，新竹市、雲林縣及臺南市各1例。其中雙北地區以外的縣市，138例中121例已知感染源，16例關聯不明，1例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增37例死亡個案，共計為男性25位、女性12位，年齡介於30多歲至90多歲，發病日介於5月2日至5月30日，確診日介於5月15日至6月2日，死亡日期介於5月23日至6月2日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計636,500例新型冠狀病毒肺炎相關通報(含614,742例排除)，其中10,956例確診，分別為1,145例境外移入，9,758例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另27例(新增案9984)移除為空號。確診個案中224例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月5日新增死亡COVID-19確診個案表 - 更正版.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$疾病管制署表示，國內近期受鋒面及熱帶低氣壓影響，各地皆有豪大雨發生，加以氣溫偏高，利於病媒蚊生長。疾管署呼籲，民眾平時應做好環境孳生源清除，及做好防蚊措施，如有疑似症狀儘速就醫，避免讓登革熱有機可乘。\$\@\$疾管署統計，今(2021)年截至目前累計5例登革熱病例，均為境外移入，分別自菲律賓、越南、印尼及柬埔寨移入，目前尚無本土病例；同期累計病例數低於2018-2020年(72、179、53例)。\$\@\$疾管署表示，近日國內各地持續有降雨機會，雨後若未及時清理環境積水容器，易成為病媒蚊孳生的溫床，籲請民眾雨後應落實「巡、倒、清、刷」，仔細巡視戶內外容器，是否有潛在孳生源，如花瓶、花盆底盤、廢棄瓶罐、水桶、運動場設施的廢輪胎、樹洞、竹筒及植物葉腋(檳榔、椰子落葉)、黃金葛或萬年青水瓶等，並澈底清除，以降低病媒蚊孳生的風險。若有運用水桶、儲水箱等容器儲水，務必加蓋或是覆蓋細紗網，並須留意紗網不可接觸水面，避免成為孳生源。\$\@\$民眾如出現疑似登革熱症狀，應儘速就醫，並主動告知旅遊活動史。也請醫療院所提高警覺，加強詢問就診者之TOCC(旅遊史、職業史、接觸史、群聚史)，並可使用登革熱NS1快篩試劑輔助診斷並及早通報，以利衛生單位採取防治工作。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，因應國內疫情持續嚴峻，為利醫療院所照護COVID-19重症個案，指揮中心於今日上午10時辦理「COVID-19 Clinical Rounds：新冠病毒重症個案臨床處置」線上課程，由臺大醫院新竹臺大分院余忠仁院長主持。課程內容包括臺大醫院新竹臺大分院余忠仁院長主講「新型冠狀病毒(COVID-19)重症個案臨床處置」；及臺大醫院隔離加護病房主任阮聖元主任主講「新型冠狀病毒(COVID-19)個案之隔離加護病房照護實務經驗分享」，總計約3,900名急重症醫師及照護團隊共同線上參與，且踴躍提出臨床實務問題，並由講者現場即時回應。\$\@\$指揮中心指出，為強化COVID-19急重症臨床處置，指揮中心提供急重症醫療照護團隊不受時間和地點限制的學習平台，錄製數位學習課程，急重症醫療照護團隊可運用手機、平版、電腦等電子裝置進行線上學習，本課程已置於衛生福利部疾病管制署全球資訊網/嚴重特殊傳染性肺炎(COVID-19)防疫專區/數位學習課程( http://at.cdc.tw/x0l31N ) 專區，或點選網址( https://youtu.be/UyHsM82JU-c )，歡迎各界多加利用。\$\@\$指揮中心再次呼籲，重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊要顧好自己，也要顧好隊友，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增341例COVID-19確定病例，分別為339例本土個案及2例境外移入個案；另有校正回歸本土個案133例，總計474例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之339例本土病例，為170例男性、169例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月1日至6月3日。另校正回歸個案133例中，為57例男性、76例女性，年齡介於未滿5歲至80多歲，發病日介於5月18日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共472例，分布地區以新北市227例最多，其次為臺北市152例、苗栗縣51例、桃園市11例、臺中市及基隆市各7例、彰化縣6例、新竹市及南投縣各2例，花蓮縣、宜蘭縣、新竹縣、屏東縣、高雄市、嘉義縣及雲林縣各1例。其中雙北地區以外縣市93例中，1例有萬華活動史，76例為已知感染源，14例關聯不明、2例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，共計為男性14位、女性7位，年齡介於30多歲至90多歲，發病日介於5月15日至5月27日，確診日介於5月21日至5月30日，死亡日介於5月27日至6月2日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案10211為越南籍30多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日檢疫期滿採檢，於今日確診；個案在臺期間並無症狀，已掌握接觸者7人，列居家隔離。案10470為印尼籍40多歲男性，5月14日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，5月29日檢疫期滿由公司安排自費採檢，結果為陰性；因工作需要，6月3日再度至醫院自費採檢，於今日確診；個案在臺期間並無症狀，接觸者調查匡列中。\$\@\$指揮中心統計，截至目前國內累計606,921例新型冠狀病毒肺炎相關通報(含585,272例排除)，其中10,446例確診，分別為1,145例境外移入，9,248例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另26例(新增案9199、案9868)移除為空號。確診個案中187例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月4日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，針對苗栗縣某電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、前進指揮所指派衛福部醫福會執行長王必勝擔任指揮官，並由疾管署防疫醫師介入指導緊急防疫措施及疫調。\$\@\$二、請仲介公司儘速盤點移工名單，以利各相關電子廠預作準備及人員分流。各相關電子廠及宿舍須增設篩檢點，加速找出個案，快篩陽性者優先送至集中檢疫所及加強型防疫旅館，快篩陰性者加強衛教，相關翻譯作業已請勞動部協處。\$\@\$三、相關移工宿舍人員於近三日（6月4、5、6日）休假，禁止外出；移工宿舍內部需進行人員降載、分流，擴大社交距離。廠區工作須將移工與本國勞工分流，避免造成進一步社區傳染。\$\@\$四、請地方落實大量篩檢之檢體分流作業，確保檢驗結果即時通報上傳，並須保留及擴大醫療收治量能，為後續收治重症病患預做準備。\$\@\$指揮中心表示，5月30日接獲該電子廠通報，有2名居住在公司宿舍的菲律賓籍移工採檢陽性，衛生單位隨即進行擴大匡列與採檢。截至6月3日，該電子廠共計67名確診個案（含8名本國籍、59名菲律賓籍)，已匡列接觸者323名，並已採檢321人。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，日本政府提供124萬劑AstraZeneca疫苗預定於今日下午2時40分運達桃園國際機場。本批疫苗待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此疫情艱難，且全球疫苗產能供不應求之際，對於日本即時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-04\$\@\$中央流行疫情指揮中心今(4)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關強化全國指定檢驗網PCR量能及分流，指揮中心將持續擴充指定COVID-19檢驗網絡最大量能，建立責任區制與分流機制，包括：同縣市與同區分流、跨縣市與跨區分流、以及人員分工，以提升檢驗網PCR檢驗量能及消化積件壓力。\$\@\$二、有關地方建置加強型防疫旅館規格將比照集中檢疫場所，派駐相關維護安全作業之地方員警及其他相關工作人員，原則比照集中檢疫場所處理機制，可申請相關防疫津貼。\$\@\$三、鑒於部分縣市發生企業群聚案件，提醒各地方政府如有類此案件發生應儘快完成篩檢作業，以及確實進行相關隔離作為，並要求企業、團體落實員工自主健康管理，遵守防疫相關措施，預防群聚事件再度發生。\$\@\$四、各地方社區採檢站之設置運用人力，請以基層醫事人力為主，儘量避免運用醫療院所人力，以利醫療量能有效運用；另各地集中檢疫場所病患之安置，應以源頭進行分流。\$\@\$五、為加快疫調速度，儘速掌握確診者足跡，請各地方政府成立客服中心，強化及組織公衛人力運用，有效進行確診者足跡前端掃瞄追蹤作業，以利及早掌握確診者足跡，匡列出可能遭感染者，有效圍堵疫情。\$\@\$六、針對疫苗配發接種，請各地方政府依報送指揮中心之造冊對象順位依序施打；另指揮中心完成疫苗檢驗封緘作業，將儘速撥發地方安排進行接種事宜。\$\@\$七、外傳各地方仍有賽事進行，為顧及國內防疫安全，請各地方政府協助宣導，暫緩舉辦此類非必要性活動。\$\@\$八、端午連假將至，疫情指揮中心呼籲，民眾以視訊問候家人方式取代返鄉團聚，也將請交通部與高鐵、台鐵及公路運輸業者聯繫協調，將連假期間的公共運輸量進行降載，以避免民眾流動導致病毒傳染散布。\$\@\$九、賣場及傳統市場為COVID-19高風險傳染區域，為避免成為防疫破口，請各縣市政府呼籲民眾少去多買、一次購足。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增366例COVID-19確定病例，分別為364例本土個案及2例境外移入個案；另有校正回歸本土個案219例，總計585例。確診個案中新增17例死亡。\$\@\$指揮中心表示，今日新增之364例本土病例，為186例男性、178例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月28日至6月2日。另校正回歸個案219例中，為120例男性、99例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月31日。\$\@\$指揮中心指出，綜上所有本土個案共583例，分布地區以新北市265例最多，其次為臺北市224例、苗栗縣34例、桃園市30例、彰化縣15例、臺中市5例、基隆市4例、臺南市2例，新竹市、花蓮縣、宜蘭縣及高雄市各1例。其中雙北地區以外縣市94例中，77例為已知感染源，14例關聯不明、3例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增17例死亡個案，共計為男性13位、女性4位，年齡介於40多歲至90多歲，發病日介於5月12日至5月25日，確診日介於5月14日至5月27日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增2例境外移入個案中，案9567為印尼籍20多歲男性，5月5日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，在臺期間並無症狀，於25日自主健康管理期滿前，由公司安排自費採檢結果為陰性，後因工作需要，6月1日再次自費採檢，於今日確診；已掌握個案接觸者32人，其中21人列居家隔離，餘11人列自我健康監測。案9883為越南籍20多歲男性，5月18日來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館檢疫，6月2日由公司安排自費採檢，於今日確診；個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計578,935例新型冠狀病毒肺炎相關通報(含556,055例排除)，其中9,974例確診，分別為1,143例境外移入，8,778例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例移除為空號。確診個案中166例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月3日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$針對雙和醫院有護理人員遭受暴力致傷事件，行為人已嚴重違法，檢警已積極發動公權力偵辦，追究行為人之民、刑事責任。醫療機構在疫情期間擔負起重要任務，傾全力照護病患、搶救生命，衛生福利部今（2）日針對此違法行為亦嚴厲譴責，強調該行為不管在平時或疫情期間都不應存在，於法將予以嚴懲，亦會強化醫院及醫護之安全，保障醫護權益。\$\@\$目前針對疫情期間所發生之醫療暴力事件，衛福部基於對傷者慰助，將修正「執行第五類傳染病防治工作致傷病或死亡補助辦法」，將醫護人員執行防疫工作時遭受暴力所生損害納入得補助事項。相關防疫醫護人員的傷病，亦會由中央全力補助治療與休養期間的薪資。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，為保障國人健康，使國民即早獲得群體免疫保護力，將推動COVID-19疫苗大規模接種作業，並陸續辦理整備作業，包含三大面向：\$\@\$一、    持續擴增COVID-19疫苗接種合約醫療院所，納入基層診所共同提供接種服務。\$\@\$二、    訂定「COVID-19疫苗接種站設置作業指引」，推動包含社區接種站、大型接種站及外展服務等疫苗接種站設置，並透過醫療院所人力及衛生福利部護理及健康照護司所招募籌備之疫苗注射護理隊人力，共同協助設置工作。未來公務機關、軍營及企業等，可藉由外展服務，安排疫苗接種以即早獲得保護力。\$\@\$三、    建立「疫苗接種預約平台」，提供民眾預約服務，增進接種便利性。\$\@\$指揮中心表示，後續疫苗逐續到貨，將運用大規模接種作業，推動COVID-19疫苗全民接種，保障全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日表示，針對近期國內接種AstraZeneca COVID-19疫苗後嚴重不良反應事件，衛生福利部傳染病防治諮詢會預防接種組(ACIP)已於5月31日召開專家諮詢會議進行討論，確認我國首例因接種AstraZeneca COVID-19疫苗後，引發血栓併血小板低下症後群(Thrombosis with Thrombocytopenia Syndrome, TTS)之案例。該名民眾經臨床警覺與及時診治，症狀已改善並轉至普通病房持續觀察中。與會專家於綜整相關資料後表示，截至目前國內AstraZeneca COVID-19已接種461,647人次，本例為我國首例TTS個案，發生率為百萬分之2.1，其他國家如英國於接種第一劑後TTS發生率約百萬分之12.3(截至5月1日)，歐盟則為百萬分之6.5(截至4月4日)，建議指揮中心應持續監測疫苗接種不良反應事件，並建議符合接種對象之民眾應配合疫苗供應進度，接種COVID-19疫苗。\$\@\$指揮中心說明，本案為30多歲男性，於5月12日接種第一劑AstraZeneca COVID-19疫苗後，曾出現發燒等身體不適症狀，於3日後逐漸緩解。自５月19日起，出現微燒、持續頭痛、腹痛等症狀，就醫抽血檢查後，發現血小板低下，D-dimer異常升高等，同步影像學檢視頭部、腹部雖未發現血栓病兆，經臨床研判依「血栓併血小板低下症候群(Thrombosis with Thrombocytopenia Syndrome, TTS)臨床指引」及時診治，個案目前血小板值恢復中，狀況穩定。本案經專家審查，符合布萊頓合作組織(Brighton Collaboration)病例定義，研判為我國首例TTS個案。\$\@\$指揮中心呼籲，接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增372例本土COVID-19確定病例，另有校正回歸本土個案177例，總計549例。確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之372例本土病例，為207例男性、165例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月2日至6月1日。另校正回歸個案177例中，為96例男性、81例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月30日。\$\@\$指揮中心指出，綜上所有本土個案共549例，分布地區以新北市310例最多，其次為臺北市152例、桃園市28例、基隆市18例、苗栗縣12例、彰化縣10例、高雄市5例、臺東縣4例、臺中市3例，新竹縣及臺南市各2例，新竹市、南投縣及花蓮縣各1例。其中雙北地區以外縣市87例中1例有萬華活動史，65例已知感染源，21例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增12例死亡個案，共計為男性7位、女性5位，年齡介於60多歲至90多歲，發病日介於5月13日至5月29日，確診日介於5月16日至6月1日，死亡日期介於5月28日至6月1日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計551,478例新型冠狀病毒肺炎相關通報(含524,385例排除)，其中9,389例確診，分別為1,141例境外移入，8,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另24例(新增案7666、案8854)移除為空號。確診個案中149例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月2日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，連江縣政府5月31日、澎湖縣、金門縣政府6月1日逕為公告入境旅客接受COVID-19抗原快篩一事，此舉違反「傳染病防治法」第17條第1項及第37條第3項等相關法律規定，於中央流行疫情指揮中心成立期間，應依中央流行疫情指揮中心指揮官之指示辦理，已由衛生福利部依行政程序法第117條規定予以撤銷其公告。\$\@\$指揮中心說明，為達防疫工作之事權統一，按「傳染病防治法」第17條第1項規定，中央主管機關經考量國内、外流行疫情嚴重程度，認有統籌各種資源、設備及整合相關機關(構)人員之必要時，得報請行政院同意成立中央流行疫情指揮中心，並指定人員擔任指揮官，統一指揮、督導及協調各級政府機關、公營事業、後備軍人組織、民間團體執行防疫工作；必要時，得協調國軍支援；同法第37條第3項規定，於中央流行疫情指揮中心成立期間,應依中央流行疫情指揮中心指揮官之指示辦理。\$\@\$指揮中心指出，指揮中心前於今(110)年5月17日函請各地方政府，於嚴重特殊傳染性肺炎中央流行疫情指揮中心成立期間，務請遵循傳染病防治法相關規定程序公布防疫措施，若有需依「傳染病防治法」第37條第1項規定採行相關防疫措施，仍請地方政府遵循「傳染病防治法」第37條第3項規定，應依指揮官指示辦理，以利整體防疫業務之執行。又檢疫政策之決定依「傳染病防治法」第5條第1項第1款第1目之規定，是屬中央主管機關權責，地方政府應依中央主管機關之決策，始得據以執行，而指揮官近日也公開宣示：「中央決策、地方執行」，此乃權限分際的原則問題。\$\@\$指揮中心強調，值此疫情嚴峻時刻，對國內跨縣市移動採取人員進出之管制作為，或要求民眾強制篩檢等，均屬全國一致性之重要政策，指揮官再三強調中央與地方應「標準一致、說法一致、腳步一致」防疫原則，且已建立全國疫情會議機制，統合協調，避免各自為政，致生雜沓混亂影響整體防疫，為統一事權並維護法制，不得不撤銷上開違法公告。該等縣政府如仍有地方防疫之特殊需求，請正式提出計畫報請指揮官指示辦理，以符合權責並完備法律程序。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增267例COVID-19確定病例，分別為262例本土個案及5例境外移入個案；另有校正回歸本土個案65例，總計332例。確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之262例本土病例，為136例男性、126例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月20日至5月31日。另校正回歸個案65例中，為31例男性、34例女性，年齡介於未滿5歲至90多歲，發病日介於5月20日至5月30日。\$\@\$指揮中心指出，綜上所有本土個案共327例，以新北市166例最多，其次為臺北市87例，桃園市23例，彰化縣12例，臺中市10例，基隆市8例，宜蘭縣5例，嘉義縣4例，花蓮縣、臺東縣各3例，苗栗縣2例，臺南市、澎湖縣、高雄市及新竹縣各1例。其中253例有雙北活動史，其餘縣市74例中1例有萬華活動史，55例已知感染源，18例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增13例死亡個案（案1757、1993、2580、2786、2993、3145、3546、4102、6517、6562、6932、7483、7793），共計為男性10位、女性3位，年齡介於60多歲至80多歲，發病日介於5月13日至5月27日，確診日介於5月17日至5月29日，死亡日期介於5月24日至5月31日，詳如新聞稿附件。\$\@\$指揮中心指出，新增5例境外移入個案，為3名男性(案8766、8767、8854)、2名女性(案8856、8864)，均為20多歲菲律賓籍人士，入境時持有3日內檢驗陰性報告，入境後至檢疫旅館居家檢疫，在臺期間並無症狀。案8766、案8767於5月10日來臺工作，31日自主健康管理期滿自費採檢，於今日確診。案8854於4月27日來臺工作，5月31日因工作需求自費採檢，於今日確診。案8856、案8864於5月11日來臺工作，31日自主健康管理期滿後自費採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計522,816例新型冠狀病毒肺炎相關通報(含488,696例排除)，其中8,842例確診，分別為1,142例境外移入，7,647例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另22例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096、8343)移除為空號。確診個案中137例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月1日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、指揮中心均依各地方政府之請撥，全數撥交防疫物資數量，並同意各地方醫療院所調高防疫物資安全存量；此外自今日起配發雙北市2倍安全存量，請各地方政府持續關注各醫療院所及第一線防疫人員口罩使用情形，以符合防疫相關指引規定。另鑒於汛期已屆，也提醒地方政府妥適保存防疫物資，防止物資受潮毀損。\$\@\$二、為利COVID-19重症確診者之收治，請各地方政府衛生局配合，每日利用google表單將確診者動向回報指揮中心，以掌握資訊及有效進行醫療資源分配；另鑒於雙北市重症收治個案眾多，將要求各重度級急救責任醫院加開專責ICU病房；高風險區域須跨區轉診就醫者，則運用醫療綠色通道配對協助轉診，相關轉診所運用之民間救護車輛費用由指揮中心支應。\$\@\$三、企業辦理抗原快篩檢測係屬企業內部對員工健康監測之一環，採企業自主與篩檢自費方式進行，且需由醫事人員執行採檢。考量抗原快篩仍有偽陽或偽陰性機率，企業執行抗原快篩時，如為陽性者，依規定須進行通報及PCR檢測，同時也須提供隔離安置場所，例如返回可隔離的宿舍或居家隔離(一人一室為原則)，也可安置於防疫旅館，等待PCR檢驗結果，降低傳染風險；如為陰性者，仍需進行自我健康監測。指揮中心將於近日對外發布企業快篩指引供各界遵循。\$\@\$四、針對臺北松山、臺中、嘉義、臺南及高雄小港等5個航空站設立篩檢站等事宜，昨(5/31)日由指揮中心邀集交通部、各航空站及地方政府衛生局共同研議，重點包括：\$\@\$1、由交通部研議縮減往返澎湖、金門、馬祖等離島3縣市航班之可行性，減少民眾不必要之跨區域移動，降低傳播風險。\$\@\$2、「因應新冠肺炎(COVID-19)疫情國內機場飛往離島執行快速篩檢」作業，將依傳染病防治法相關規定於今(6/1)日完成公告等法制程序，並自6月2日起實施。\$\@\$3、臺東航空站是否比照進行快篩，已請臺東縣政府本於職權，依指揮中心所訂原則與實施基準辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日表示，因應國內近期持續出現本土COVID-19確診個案，為避免疫情散播及確保航空器防疫安全，指揮中心經評估後，將同意交通部民航局所屬臺北松山、臺中、嘉義、臺南及高雄小港航空站設立篩檢站。旅客搭乘國內航線前往離島時，應於搭機前填寫「健康聲明書」，現場有症狀者不可搭機，且應配合病毒核酸檢測；若為過去14天內有症狀者，須現場配合接受抗原快篩檢驗且為陰性，始得搭機。經抗原快篩檢驗陽性的旅客，將由航空站安排搭乘防疫計乘車送至衛生單位指定防疫旅館或集中檢疫所。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增278例COVID-19確定病例，分別為274例本土個案及4例境外移入個案；另有校正回歸本土個案73例，總計351例。確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為129例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月30日。另校正回歸個案73例中，為36例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於5月14日至5月29日。\$\@\$指揮中心指出，綜上所有本土個案共347例，以新北市171例最多，其次為臺北市122例，桃園市27例，彰化縣10例，臺中市5例，基隆市及苗栗縣各3例，新竹市2例，花蓮縣、澎湖縣、高雄市及新竹縣各1例。其中293例有雙北活動史，其餘縣市54例中2例有萬華活動史，46例已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案（案1778、2111、2616、2656、2658、2795、3143、4936、5698、5732、6803、7140、7277、8031、8134），共計為男性9位、女性6位，年齡介於60多歲至90多歲，發病日介於5月11日至5月28日，確診日介於5月17日至5月30日，死亡日期介於5月21日至5月29日，詳如新聞稿附件。\$\@\$指揮中心指出，新增4例境外移入個案中，皆持有登機前3日內檢驗陰性報告。案8419、案8531、案8532分別為本國籍30多歲男性、50多歲女性及50多歲男性，分別曾於4月29日(案8531)、5月10日(案8419、8532)出現相關症狀，3名個案於5月29日自印度返臺，入境後至檢疫所集中檢疫並採檢，於今日確診。案8434為本國籍40多歲男性，5月14日自南非返臺，入境後至防疫旅館進行居家檢疫，29日出現相關症狀，由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計502,354例新型冠狀病毒肺炎相關通報(含466,018例排除)，其中8,511例確診，分別為1,137例境外移入，7,321例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中124例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月31日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，疫苗自製自用是國家既定政策，未來COVID-19流感化是必然的趨勢，國家必須掌握COVID-19疫苗為戰略物資，本次所有疫苗，包括政府之前對外採購的國外疫苗，均為預採購模式。\$\@\$指揮中心說明，針對AstraZenca及Moderna疫苗，該二疫苗是在第二或第三期臨床實驗未完成前，即進行預採購。\$\@\$指揮中心指出，衛生福利部疾病管制署於今(2021)年5月28日與高端疫苗生物製劑有限公司及聯亞生技開發股份有限公司簽訂「國內COVID-19疫苗採購契約」，每家各500萬劑疫苗，並視未來疫情需求，納入後續擴充每家各500萬劑疫苗。\$\@\$指揮中心強調，考量疫苗接種涵蓋率是充分發揮防治效益的關鍵因素，爰以涵蓋我國人口之65%為規劃，預計為1,500萬人接種，以每人2劑估算，需3,000萬劑疫苗。目前已完成採購COVAX、AstraZenca及Moderna疫苗約2,000萬劑，需再採購1,000萬劑。截至5月28日衛福部取得87.66萬劑進口疫苗，但評估現階段國外疫苗供應時程難以確認，相較之下，採購國產疫苗可確實掌控疫苗供貨時程。\$\@\$指揮中心指出，因全球疫苗生產原物料短缺，疫苗的生產及檢驗至少需要2-3個月的作業程序，為避免因等待疫苗研發程序完成，屆時無法購得原物料而喪失即時生產疫苗的時機，因此基於保障國人最佳利益前提下，以預購模式向國內外廠商採購COVID-19疫苗，以預先保有所需之疫苗數量，俾利廠商於取得專案核准製造許可後，可儘速提供國人接種，保障國人健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，為積極防治國內COVID-19疫情，針對中央機關、地方政府及醫療院所之防疫物資需求，均會全力支援並儘速供應，與地方政府共同攜手為守護第一線人員及國人健康而努力。據指揮中心統計，自今(2021)年5月3日至5月27日期間，已撥配一般醫用/外科口罩4508餘萬片、N95口罩240萬餘個、隔離衣161萬件、防護衣約27萬餘件，共計逾4900萬個/件。\$\@\$指揮中心指出，為爭取防疫時效、加速防疫物資撥發效率，撥發中央機關、地方政府及醫療院所之防疫物資，除增加原來定期性撥配數量與頻率外，另依觀光局提供地方防疫旅宿房間數、COVID-19確定病例數計算，主動撥配物資予各地方政府統籌撥發轄區醫療院所、防疫旅宿及公務機關作為防疫及醫療使用。指揮中心亦會依中央機關、地方政府、醫療院所緊急防疫需求，額外撥發所需物資。\$\@\$為因應COVID-19病患之醫療照護需要，指揮中心針對特定緊急需要，已緊急採購血氧機、呼吸器、製氧機及採檢亭等醫療器材、設施，提供病患及醫護人員更妥適之照護及工作環境，維護民眾與醫護人員的健康。\$\@\$另，為使防疫物資撥發資訊透明化，讓醫療院所能了解物資撥配情形，自6月1日起，物資撥配資料將公布於衛生福利部疾病管制署網站「COVID-19防疫專區」，供各界查閱。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增266例本土COVID-19確定病例，另有校正回歸本土個案89例，總計355例。確診個案中新增10例死亡。\$\@\$指揮中心表示，今日新增之266例本土病例，為123例男性、143例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至5月29日。另校正回歸個案89例中，為42例男性、47例女性，年齡介於未滿5歲至80多歲，發病日介於5月13日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共355例，以新北市193例最多，其次為臺北市85例，桃園市24例，苗栗縣、臺中市及彰化縣各9例，基隆市8例，花蓮縣6例，南投縣4例，嘉義縣3例，連江縣、臺東縣、宜蘭縣、新竹市及高雄市各1例。其中萬華活動史相關20例、茶藝館相關1例，其他已知感染源118例、關聯不明47例、疫調中169例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增10例死亡個案（案1574、3972、4092、4798、4832、5288、5682、5690、6631、6907），共計為男性9位、女性1位，年齡介於60多歲至80多歲，發病日介於5月6日至5月25日，確診日介於5月16日至5月28日，死亡日期介於5月24日至5月29日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計492,142例新型冠狀病毒肺炎相關通報(含454,051例排除)，其中8,160例確診，分別為1,133例境外移入，6,974例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另21例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5304、5841、7096)移除為空號。確診個案中109例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月30日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$中央流行疫情指揮中心今(30)日表示，國際疫苗廠於全球各地設廠，並因應各國規定有不同的標示。我國購買的Moderna疫苗為歐洲廠生產，該廠生產的疫苗標示為「產品批號」及「有效日期」，而美國廠疫苗標示為「產品批號」及「生產日期」，兩者所使用的疫苗標示顯然不同。而日前網友看到的美國Moderna網站，係提供在美接種疫苗者做查詢，因此不適用於查詢我國購買的Moderna疫苗。\$\@\$指揮中心強調，我國購買的Moderna疫苗皆為原廠進口，來源清楚且可靠，經各項疫苗檢驗封緘作業，並注重運送及儲存等條件，確保國人用藥品質安全無虞，請國人安心接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-30\$\@\$因應國內近期持續出現本土COVID-19群聚事件及感染源不明的確診病例，經多方討論，中央流行疫情指揮中心今(30)日公布「各地方政府設置社區篩檢站補助要點」，鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高之地區為考量，針對具有確診個案相關接觸史、活動史之無症狀民眾為主要篩檢對象，另為保全重度級急救責任醫院收治量能，社區篩檢站之設置，請考量於社區健康中心或其他非重度級急救責任醫院設置為主，並考量通風良好之場所。相關設置規定，指揮中心將訂頒「各地方政府社區篩檢站設置指引」。\$\@\$自即日起，地方政府衛生局可透過衛生所或健康服務中心依下列補助原則辦理：\$\@\$一、每一篩檢站補助設備費用（包括帳篷等）新臺幣（下同）20萬元，每案相關行政費用（包括掛號、採檢、通報等費用）補助500元。\$\@\$二、支援採檢醫師6,000元/班、護理師或其他醫事人員3,500元/班，每班以4小時計。\$\@\$三、每站每班其他人員（行政、清潔各1人），每人每日2,000元。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日表示，關於「地方政府或企業申請COVID-19疫苗專案輸入流程」議題，指揮中心已多次說明，有關疫苗的輸入申請，有嚴謹的條件與規定，除應有原廠的授權，也必須依照食品藥物管理署召開專家會議審查，且最終須依照指揮中心防疫政策使用，任何民間單位、縣市政府的申請也都必須符合同樣的嚴謹程序。因此，基於保障國民健康安全，疫苗政策應秉持「由中央政府與原廠簽約採購」、「由中央政府統籌分配執行」兩大基本原則，此涉及疫苗安全、法律責任與接種部署三大層面：\$\@\$一、疫苗安全：\$\@\$COVID-19是全球重大流行疫病，為了確保國民健康安全，相關疫苗的取得，因為涉及嚴謹的緊急授權程序以及供應配送等相對嚴格的技術要求，為維護國人健康，保障國家整體之安全，我國疫苗政策與各國相一致，皆由中央政府依權責與專業統籌辦理。\$\@\$二、法律責任：\$\@\$依照「傳染病防治法」第 5條，傳染病防治政策及計畫，包括「預防接種」均是中央主管機關權責；此外，依照「藥事法」第 48-2 條規定意旨，製造或輸入緊急的疫苗藥物，其專案核准權限也屬中央主管機關。因此，有關疫苗的取得、分配與接種，均應由中央統籌，並與地方政府密切合作。\$\@\$三、接種部署：\$\@\$疫苗的購買與施打，涉及嚴格的供貨、冷鏈以及專業人力丶物力的規劃部署，必須配合國家整體防疫策略，施打有序，以確保供應分配的安全性、有效性及公平性，因此執行層面也都必須由中央統籌處理。\$\@\$指揮中心強調，對於近來有企業、宗教或社會團體表示願意出資購買海外原廠疫苗捐贈政府使用，或提供管道途徑，媒合促成向原廠採購者，政府均表達高度感謝與肯定。但為確保國人的安全健康，並達到國家整體防疫的成效，中央的疫苗政策是統一由政府向原廠採購，統籌分配使用，這也是絕大多數國家所採取的基本原則。由政府與原廠直接簽約採購，確保原廠對政府直接負疫苗安全與法律的責任。企業、宗教等民間團體的捐贈，以及地方政府的採購，也需採取同樣原則處理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增327例COVID-19確定病例，分別為320例本土個案及7例境外移入個案；另有校正回歸本土個案166例，總計493例。確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之320例本土病例，為169例男性、151例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月28日。另校正回歸個案166例中，為90例男性、76例女性，年齡介於未滿5歲至90多歲，發病日介於5月6日至5月27日。\$\@\$指揮中心指出，綜上所有本土個案共486例，以新北市224例最多，其次為臺北市168例，臺中市33例，桃園市19例，基隆市14例，臺東縣、宜蘭縣各5例，花蓮縣、嘉義縣各4例，苗栗縣3例，新竹縣及彰化縣各2例，雲林縣、高雄市及新竹市各1例。其中萬華活動史相關36例、茶藝館相關2例，其他已知感染源158例、關聯不明49例、疫調中241例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案（案1950、2265、2652、2862、3066、3302、3618、4391、4881、4893、4985、5552、5594、5702、5791、6283、6284、7237、7274、7435、7508），共計為男性13位、女性8位，年齡介於30多歲至90多歲，發病日介於5月11日至5月25日，確診日介於5月17日至5月29日，死亡日期介於5月23日至5月28日，詳如新聞稿附件。\$\@\$指揮中心指出，新增7例境外移入個案，皆持有登機前3日內檢驗陰性報告，且在臺期間並無症狀。案7557為菲律賓籍20多歲男性，5月6日來臺工作， 28日自我健康管理期滿後自費採檢，於今日確診。案7676為本國籍20多歲男性，4月28日自印尼返臺，5月28日因工作所需進行自費採檢，於今日確診。案7805為本國籍40多歲男性，5月15日自印度返臺，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診。案7811、7812、7813、7814為3名菲律賓籍20多歲男性及1名菲律賓籍30多歲男性(案7814)，4人均於5月15日自菲律賓來臺工作，入境後至檢疫所集中檢疫，28日進行期滿前採檢，於今日確診 。\$\@\$指揮中心統計，截至目前國內累計470,287例新型冠狀病毒肺炎相關通報(含426,915例排除)，其中7,806例確診，分別為1,133例境外移入，6,620例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另20例(案530、1589、1591、1676、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726、5841、7096)移除為空號。確診個案中99例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月29日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，對於日本政府願意在臺灣疫情艱難時刻，有意提供COVID-19疫苗，給予幫助，表達萬分感謝。\$\@\$指揮中心指出，鑒於臺灣疫情仍然嚴峻，在國內COVID-19疫苗的空窗期時，若日本政府願意即時伸出援手，我國一定也會感到非常溫暖，惟相關事宜均尊重日本政府的討論與安排，也希望能夠儘快著手進行後續作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增299例COVID-19確定病例，分別為297例本土個案及2例境外移入個案；另有校正回歸本土個案258例，總計557例。確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之297例本土病例，為157例男性，140例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年4月29日至5月27日；個案分布以新北市136例最多，其次為台北市94例，桃園市21例，台中市10例，花蓮縣9例，彰化縣7例，基隆市及台南市各6例，嘉義市2例，新竹縣、屏東縣、台東縣、南投縣、新竹市及高雄市各1例。\$\@\$指揮中心進一步表示，校正回歸個案258例中，為133例男性，125例女性，年齡介於未滿5歲至90多歲，發病日介於5月11日至5月27日；個案分布以新北市141例最多，其次為台北市114例，彰化縣2例，桃園市1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關110例、茶藝館相關9例、某社團相關1例，其他已知感染源181例、關聯不明143例、疫調中111例。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案（案1800、2127、2393、2654、2813、3337、3341、4194、4366、4578、4852、5029、5170、5338、5409、6125、6399、6530、6824），共計為男性14位、女性5位，年齡介於40多歲至80多歲，發病日介於5月10日至5月24日，確診日介於5月17日至5月28日，死亡日期介於5月21日至5月27日，詳如新聞稿附件。\$\@\$指揮中心指出，新增2例境外移入個案中，案7332為本國籍10歲以下男性，5月18日於澳洲出現流鼻水等症狀，5月26日返臺，持有登機前3日內檢驗陰性報告，入境時主動通報曾有症狀，採檢後於今日確診。案7333為菲律賓籍20多歲女性，5月14日來臺工作，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，5月24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，累計455,198例新型冠狀病毒肺炎相關通報(含397,534例排除)，其中7,315例確診，分別為1,126例境外移入，6,136例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另18例(案530、1589、1676、1591、1886、2067、2068、2528、2530、2599、3459、3921、3975、3989、3990、3991、4059、4726)移除為空號。確診個案中78例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$5月28日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$中央流行疫情指揮中心今(28)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、有關長照機構收住人員入院流程，指揮中心完成「新進或出院返回機構之服務對象健康管理」，重點包括：\$\@\$1.由社區新入住之服務對象\$\@\$警戒期間，不建議收住直接由社區新進之服務對象；如確有收住必要，則由服務對象進行自費SARS-CoV-2病毒核酸檢驗，提供入住前3日內陰性檢驗結果；另入住機構後，應先將服務對象安置於隔離空間或單人房14天，且無相關症狀後，再安排入住一般房室。\$\@\$2.出院轉入或返回機構之服務對象\$\@\$院方在病患出院前，循住院病患採檢之機制，進行公費SARS-CoV-2病毒核酸檢驗，其結果須為陰性，始得轉入或返回機構；另考量服務對象因於入院及出院時，皆有進行採檢送驗，故服務對象於轉入或返回機構後可不需進行隔離。\$\@\$二、指揮中心重申，為利傳染病防治工作進行，各直轄市、縣(市)政府得以「指揮中心記者會確診個案資料發布原則」，發布確診個案公共場所活動史。惟發布時，務必注意個人資料保護，避免造成當事人之二度傷害，亦請民眾切勿散布及轉傳未經證實的相關資訊，避免觸法及影響防治工作。\$\@\$三、考量各地方政府相關人力投入防疫工作之負擔，及防疫作業進度執行及規劃等工作已逐漸完備，全國疫情研商早報會議自即日起改為每週二、五召開；指揮中心與各地方政府均建有聯繫窗口，持續保持密切聯繫，務求防疫工作不間斷。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，首批Moderna疫苗15萬劑，將於臺灣時間5月28日凌晨自盧森堡啟運，預定於明(28)日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增405例COVID-19確定病例，分別為401例本土個案及4例境外移入個案；另有校正回歸本土個案266例，總計671例。確診個案中新增13例死亡。\$\@\$指揮中心表示，今日新增之401例本土病例，為190例男性，211例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年4月26日至5月26日；個案分布以新北市177例最多，其次為臺北市130例，桃園市18例，基隆市15例，高雄市14例，彰化縣10例，臺中市7例，花蓮縣6例，宜蘭縣、新竹縣各5例、臺東縣4例，屏東縣3例，嘉義市、連江縣各2例，苗栗縣、南投縣及雲林縣各1例。\$\@\$指揮中心進一步表示，校正回歸個案266例中，為140例男性、126例女性，年齡介於未滿5歲至90多歲，發病日介於5月15日至5月26日；個案分布以新北市146例最多，其次為臺北市101例，宜蘭縣5例，桃園市4例，彰化縣及臺中市各3例，基隆市2例，嘉義市及臺南市各1例。\$\@\$指揮中心指出，綜上所有個案，其中萬華活動史相關152例、茶藝館相關25例、某社團相關6例，其他已知感染源222例、關聯不明145例、疫調中117例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增13例死亡個案中，案1399為本國籍70多歲男性，有高血壓等慢性病史，有萬華區活動史，5月12日因其他原因就醫，13日檢驗陽性後住院，15日確診，24日死亡。案1753為本國籍60多歲男性，有高血壓等慢性病史，有萬華區活動史，5月13日出現咳嗽、呼吸困難等症狀，17日確診，20日收治住院，26日死亡。案2328為本國籍70多歲男性，有洗腎、心臟病等慢性病史，有萬華區活動史，5月16日出現發燒、咳嗽、流鼻水等症狀，17日就醫採檢，18日收治住院，19日確診，25日死亡。案2674為本國籍70多歲男性，有萬華區活動史，5月16日有喉嚨痛、咳嗽等症狀，17日因其他原因就醫後收治住院並採檢，20日確診，26日死亡。案2762為本國籍60多歲男性，有糖尿病、高血壓、哮喘等慢性病史，有萬華區活動史，5月18日出現發燒、腹瀉等症狀，20日確診，21日入住集中檢疫所，25日死亡。案3039為本國籍70多歲男性，曾接觸確診個案，5月18日出現發燒等症狀後就醫採檢，21日確診，23日入住集中檢疫所，26日死亡。案3179為本國籍90多歲女性，有萬華區活動史，5月19日出現發燒、發冷等症狀，20日就醫後住院，22日確診，25日死亡。案3429為本國籍60多歲女性，有高血壓等慢性病史，有萬華區活動史，5月17日出現發燒症狀，20日就醫後收治住院並採檢，22日確診，26日死亡。案4428為本國籍90多歲女性，有高血壓、糖尿病及心臟病等慢性病史，5月18日出現咳嗽及呼吸困難症狀，21日就醫後收治住院並採檢，24日確診，26日死亡。案5676為本國籍40多歲女性，曾接觸確診個案，5月19日採檢後入住防疫旅館，同日出現發燒症狀，25日死亡。案5993為本國籍60多歲男性，有高血壓、高血脂、糖尿病等慢性病史，有萬華區活動史，5月20日出現呼吸喘等症狀，24日就醫並採檢，當日死亡，26日確診。案6316為本國籍70多歲男性，有糖尿病等慢性病史，5月20日因出現呼吸困難症狀就醫並採檢，25日死亡，27日確診。案6503為本國籍50多歲男性，有主動脈剝離病史，5月22日出現呼吸喘等症狀，25日在家中昏迷後急救送醫，同日死亡，採檢後於27日確診。\$\@\$指揮中心指出，新增4例境外移入病例中，案6175、案6369分別為30多歲及印度籍20多歲男性，於5月24日自印度入境，持有登機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢，於今日確診。案6557、案6585均為20多歲菲律賓籍男性，持有登機前3日內檢驗陰性報告。案6557於5月10日來臺工作，5月26日自主管理期滿後自費採檢，於今日確診。案6585於5月26日來臺工作，入境後至檢疫所集中檢疫並採檢，於今日確診。上述4名個案在臺期間並無症狀。\$\@\$指揮中心統計，國內累計434,840例新型冠狀病毒肺炎相關通報(含381,735例排除)，其中6,761例確診，分別為1,124例境外移入，5,584例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另15例(案530、1589、1676、1591、1886、2067、2068、2528、2530、3459、3975、3989、3990、3991、4726)移除為空號。確診個案中59例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-27\$\@\$中央流行疫情指揮中心今(27)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對部分高風險地區尚未完成設置加強型防疫旅館或量能不足部分，請相關地方政府持續建置，以強化COVID-19確診患者之醫療分流作業。\$\@\$二、為協助醫療院所及集中檢疫場所與加強型防疫旅館，儘速完成符合解除隔離條件之病患返家作業，已請交通部協助各地方政府，加強防疫計程車量能，以利載送。\$\@\$三、指揮中心已於昨(26)日修訂COVID-19確診個案解除隔離治療條件，並於今日全國防疫會議向各地方政府宣布實施。\$\@\$四、有關41萬劑AstraZeneca COVID-19疫苗配發作業，說明如下：\$\@\$(一)    第一階段15萬劑(5/27撥配，用罄前隨時撥補)，其中雙北地區以第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者為優先施打對象。雙北以外縣市，則以第一類人員(醫事人員)未曾接種者、醫護人員與亟需公務出國接種第二劑者。\$\@\$(二)    第二階段26萬劑(6/10起調整對象)，以全國第一類至第三類人員(包括醫事人員、防疫人員及高接觸風險工作者)未曾接種者，為優先施打對象。後續再視下批疫苗到貨進度、接種情形及疫情狀況，滾動檢討調整開放第四類至第八類對象未曾接種者進行施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，因應本土疫情持續嚴峻，宣布強化COVID-19第三級疫情警戒相關措施及裁罰規定，請全國民眾持續落實遵循，與政府共同努力，嚴守社區防線。相關強化措施及裁罰如下：\$\@\$一、民眾外出時應全程佩戴口罩，一經查獲有違反情事，不再勸導，逕予開罰。\$\@\$二、經公告應關閉之休閒娛樂場所，將嚴查不得營業；查獲違法營業者，對業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$指揮中心提醒，外出時有飲食需求者，得在與不特定對象保持社交距離或有適當阻隔設備之情形下，於飲食期間暫時取下口罩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增304例COVID-19確定病例，分別為302例本土個案及2例境外移入個案；另有校正回歸本土個案331例，總計635例。確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之302例本土病例，為158例男性，144例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月8日至5月25日；個案分布以新北市152例最多，其次為臺北市87例，桃園市21例，基隆市13例，臺中市9例，新竹縣4例，屏東縣、雲林縣、臺南市、宜蘭縣、高雄市及彰化縣各2例，花蓮縣、嘉義市、臺東縣及連江縣各1例。校正回歸個案331例中，為160例男性、171例女性，年齡介於未滿5歲至90多歲，發病日介於5月13日至5月25日；個案分布以臺北市221例最多，其次為新北市102例，桃園市3例，基隆市及臺中市各2例，苗栗縣1例。綜上所有個案，其中萬華活動史相關209例、茶藝館相關35例、某社團相關3例、其他已知感染源170例、關聯不明122例、疫調中94例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增11例死亡個案（案2865、2877、3305、3213、3980、4273、4373、4666、4984、5098、5869）中，為9男2女，年齡介於50多歲至70多歲。發病日/採檢日介於5月7日至5月25日，確診日介於5月21日至5月26日，死亡日介於5月23日至5月25日。死亡個案中7人有慢性病史，9人有萬華或其他確診個案活動接觸史，相關疫情調查持續進行中。\$\@\$指揮中心指出，新增2例境外移入病例中，案5646為中國籍20多歲男性，5月1日來臺，持有搭機前3日內檢驗陰性報告，入境後於防疫旅館居家檢疫，在臺期間並無症狀，自主健康管理期滿後於5月24日自費採檢，於今日確診。案5891為本國籍50多歲男性，5月5日於印度出現症狀並檢驗陽性，5月14日以緊急醫療包機自印度返臺，入境時PCR採檢陰性、抗體陽性，入境後入院治療，期間再次採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計413,389例新型冠狀病毒肺炎相關通報(含359,139例排除)，其中6,091例確診，分別為1,120例境外移入，4,918例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中46例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，香港本土疫情自3月起持續趨緩，連續4週達低風險分級標準，故自即日起，將香港自中低風險調整為低風險；以色列疫情持續趨緩，連續2週達中低風險分級標準，故自即日起，增列為中低風險；越南近期本土疫情持續升溫，至少30個行政區報告本土病例，故自即日起，自中低風險移除。\$\@\$各國/地區感染風險級別最新名單如下：\$\@\$低感染風險國家/地區：紐西蘭、澳門、帛琉、汶萊、諾魯、馬紹爾群島、澳洲、香港。\$\@\$中低感染風險國家/地區：斐濟、不丹、新加坡、以色列。\$\@\$指揮中心監測資料顯示，全球累計167,563,632例確診，分布於193個國家/地區；病例數以美國33,251,432例、印度26,948,874例、巴西16,194,209例、法國5,609,050例及土耳其5,203,385例為多；病例中3,491,014例死亡，以美國601,778例、巴西452,031例、印度307,231例、墨西哥221,695例及英國127,739例為多。\$\@\$指揮中心再次提醒，民眾自國外入境時，如有發燒、咳嗽等不適症狀，應主動通報檢疫人員，並配合防疫措施；入境後應落實居家檢疫，期間如出現疑似症狀，請主動聯繫衛生局或各縣市關懷中心，並依指示就醫，勿搭乘大眾運輸工具；就醫時請告知醫師旅遊史、職業別、接觸史及是否群聚(TOCC)，以供及時診斷通報。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-26\$\@\$中央流行疫情指揮中心今(26)日表示，已於上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、針對確診者解除隔離作業，指揮中心已於5月17日修訂公布，只要確診者距離發病或採檢日達10天以上，且PCR採檢Ct值≧30者，可逕行完成解隔離程序，並自主健康管理７日，以提升病床週轉率；如為Ct值&lt;30者，則入住集中檢疫所。另指揮中心將於今日再次召開專家小組會議，研議一致之確診者解除隔離公衛模式，供各地方政府遵循辦理。\$\@\$二、集中檢疫場所後送醫院綠色通道，係由集中檢疫場所附近之重度級急救責任醫院配合辦理，六區區域緊急醫療應變中心協助「傳染病防治醫療網」網區指揮官進行急重症病床調度；其中針對雙北市確診病患收轉至外縣市收治之綠色通道合理時間，指揮中心今日將請雙北市提供自設集中檢疫所及加強版防疫旅館位置，並於醫療量能盤點會議中研商討論。\$\@\$三、有關我國進口疫苗，須有正式代理廠商提出疫苗產品相關資訊及藥證申請，包括疫苗廠資格、疫苗相關品質證明等，確保疫苗安全性、有效性、合法性，並經食品藥物管理署(TFDA)核可，始可由代理商進行進口作業，以防止疫苗進入國內施打時產生不良反應問題，影響施打意願。\$\@\$四、疫苗撥補作業部分及施打順位，指揮中心會儘速撥發疫苗，請各地方政府以專責醫院醫護人員列第一順位施打；另鑒於雙北市為高風險疫情地區，將開放一到三順位人員進行接種；其他地方政府部分，原則以地方政府所提一至三順位人員名冊，並同步考量疫苗量，依序撥補施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$疾病管制署今(25)日公布國內新增1例日本腦炎確定病例，為高雄市大寮區40多歲男性，近期無國內外旅遊史，平時活動地以住家及工作地為主；5月5日出現頭痛症狀，自行服藥後症狀改善，5月8日因發燒就醫，隔日因高燒再次就醫並收治住院，入院後發現有失語症狀，5月10日通報，經採檢後確診。由於個案住家附近有豬舍、鴿舍及水稻田等高風險場所，研判其於住家周邊感染的可能性較高，衛生單位已針對個案住活動地周邊進行環境滅蚊及誘蚊燈懸掛等防治措施，同時加強對當地民眾之衛教宣導。\$\@\$疾管署監測資料顯示，國內今(2021)年截至目前共2例確定病例，個案居住地分別為屏東縣及高雄市各1例，個案活動地附近多有高風險環境；2017至2020年全國同期確定病例數分別為1、7、4及0例，以40歲以上成人較多，惟各年齡層都有感染風險，民眾不可掉以輕心。\$\@\$疾管署指出，國內日本腦炎病媒蚊以三斑家蚊、環紋家蚊及白頭家蚊為主，常孳生於水稻田、池塘及灌溉溝渠等處，吸血高峰為黃昏與黎明時段，大部分的人感染日本腦炎後大多無明顯症狀，少數會有頭痛、發燒或無菌性腦膜炎，嚴重則可能出現意識改變、對人時地不能辨別、全身無力、腦神經功能損傷、輕癱等，甚至昏迷或死亡。預防日本腦炎最有效的方法為接種日本腦炎疫苗，提醒民眾應按時帶家中滿15個月以上的幼兒至各地衛生所或合約院所接種疫苗，以避免因感染衍生嚴重後遺症。\$\@\$疾管署提醒，請民眾儘量避免於病媒蚊吸血高峰時段，在高風險環境附近活動；如果無法避免，應穿著淺色長袖衣褲，並於身體裸露處使用政府機關核可，含敵避(DEET)、派卡瑞丁(Picaridin)或伊默克(IR3535)成分的防蚊藥劑。相關資訊可至疾管署網站(https://www.cdc.gov.tw)或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，有關離島縣市採檢需求，指揮中心經評估後，同意金門縣、澎湖縣、連江縣等三離島得在符合篩檢流程條件及後送配套流程下，提供自願性採檢服務。\$\@\$指揮中心提醒，所有篩檢工具皆有偽陰性、偽陽性之可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增283例COVID-19確定病例，分別為281例本土個案及2例境外移入個案；另有校正回歸本土個案261例，總計544例。確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之281例本土病例，為144例男性，137例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月7日至5月24日；個案分布以新北市154例最多，其次為臺北市49例，桃園市16例，臺南市、基隆市及彰化縣各10例，臺中市9例，屏東縣及新竹市各4例，高雄市、宜蘭縣各3例，臺東縣、南投縣及苗栗縣各2例、新竹縣、雲林縣及花蓮縣各1例。校正回歸個案261例中，為162例男性、99例女性，年齡介於未滿10歲至90多歲，發病日介於5月2日至5月22日；個案分布以臺北市155例最多，其次為新北市89例，宜蘭縣、桃園市各5例，基隆市及彰化縣各3例，臺中市1例。綜上所有個案，其中萬華活動史相關186例、茶藝館相關28例、某社團相關2例、某水果商相關7例、其他已知感染源122例、關聯不明111例、疫調中86例。相關疫情調查持續進行中。\$\@\$指揮中心說明，新增6例死亡個案中，案1341為70多歲男性，有高血壓、糖尿病等慢性病史，5月8日出現咳嗽、發燒、有痰、全身痠痛等症狀，11日就醫並住院，15日確診，20日死亡。案2558為60多歲男性，有萬華區活動史，5月15日出現發燒、喉嚨痛、咳嗽、肌肉痠痛等症狀，20日確診並收治住院，21日死亡。案2719為90多歲男性，有糖尿病、癌症等慢性病史，5月14日出現發燒症狀，17日就醫並住院，20日確診，同日死亡。案3031為60多歲男性，有高血壓、糖尿病等慢性病史，5月15日出現發燒、咳嗽、呼吸困難、喉嚨痛等症狀，20日就醫並住院，21日確診，23日死亡。案3242為60多歲女性，有糖尿病、高血壓、心血管疾病等慢性病史，5月20日有肌肉痠痛、咳嗽、流鼻水、發燒等症狀，22日確診後至防疫旅館隔離，24日死亡。案4648為70多歲男性，有糖尿病、高血壓等慢性病史，5月22日出現發燒、呼吸困難、肺炎等症狀，同日就醫並住院，23日死亡，24日確診。\$\@\$指揮中心指出，新增2例境外移入病例(案5085、5470)皆自菲律賓來臺工作，均持有搭機前3日內檢驗陰性報告。案5085為40多歲男性，5月2日入境後至防疫旅館隔離，在臺期間並無症狀，17日期滿前採檢結果為陰性，24日完成自主健康管理後公司安排自費採檢，於今日確診(Ct值32)。案5470為20多歲男性，5月11日入境，在臺期間並無症狀，24日進行檢疫期滿前採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計388,453例新型冠狀病毒肺炎相關通報(含340,438例排除)，其中5,456例確診，分別為1,118例境外移入，4,285例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另14例(案530、案1589、1676、1591、1886、2067、2068、2528、2530、3975、3989、3990、3991、4726)移除為空號。確診個案中35例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
   </si>
 </sst>
 </file>
@@ -517,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +3647,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>537</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -562,16 +3664,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -579,16 +3681,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -596,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -613,16 +3715,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2">
         <v>44435</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -630,13 +3732,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>542</v>
+      </c>
+      <c r="E7" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -644,16 +3749,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>543</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -661,16 +3766,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -678,16 +3783,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="C10" s="2">
         <v>44433</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -695,13 +3800,4436 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2">
         <v>44433</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44430</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44427</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E26" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E27" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E28" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44425</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E29" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44425</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E31" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44423</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E33" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44423</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E34" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44422</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44422</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E36" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44421</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44421</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E39" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E41" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44419</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44419</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44418</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E44" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E45" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E46" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E47" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44416</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44416</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E49" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E51" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E52" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44414</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E53" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E54" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44412</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E56" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44412</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E57" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E58" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E59" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E60" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44410</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E61" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44410</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E62" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E63" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E64" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E65" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44408</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E66" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44408</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E67" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E68" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E69" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44405</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44405</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E72" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E73" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E74" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E75" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E76" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E77" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E78" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E79" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>345</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44402</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E80" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44402</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E81" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E82" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E83" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E84" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E85" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E86" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E87" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E88" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E89" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E90" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E91" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E92" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E93" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E94" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E95" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E96" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>362</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E97" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E98" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E99" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E100" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>366</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E101" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>367</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44395</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E102" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>368</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44395</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E103" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44394</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E104" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E105" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E106" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>372</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>373</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E108" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>374</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E109" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>375</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E110" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>376</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44392</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E111" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44391</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E112" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44391</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E113" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E114" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E115" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44390</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E116" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E117" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>383</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E118" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44389</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E119" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44388</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E120" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44388</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E121" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44387</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E122" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44386</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E123" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E124" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E125" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>391</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E126" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>392</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E127" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E128" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E129" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44384</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E130" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E131" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>397</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E132" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44383</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E133" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E134" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E135" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" t="s">
+        <v>401</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44381</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E136" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44380</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E137" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" t="s">
+        <v>403</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E138" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>404</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E139" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44379</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E140" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E141" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E142" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E143" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E144" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E145" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>411</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E146" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44377</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E147" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" t="s">
+        <v>413</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E148" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" t="s">
+        <v>414</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E149" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" t="s">
+        <v>415</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E150" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>416</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44376</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E151" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
+        <v>417</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44375</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E152" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E153" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>419</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E154" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" t="s">
+        <v>420</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E155" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>421</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44374</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E156" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>422</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E157" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" t="s">
+        <v>423</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E158" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>424</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E159" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E160" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" t="s">
+        <v>426</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44373</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E161" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" t="s">
+        <v>427</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E162" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" t="s">
+        <v>428</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E163" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>429</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E164" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>430</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E165" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>431</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E166" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s">
+        <v>432</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E167" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>433</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E168" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E169" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" t="s">
+        <v>435</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E170" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>436</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E171" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" t="s">
+        <v>437</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E172" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" t="s">
+        <v>438</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E173" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>439</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E174" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>440</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E175" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" t="s">
+        <v>441</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E176" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" t="s">
+        <v>442</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E177" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" t="s">
+        <v>443</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E178" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" t="s">
+        <v>444</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E179" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" t="s">
+        <v>445</v>
+      </c>
+      <c r="C180" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E180" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E181" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" t="s">
+        <v>447</v>
+      </c>
+      <c r="C182" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E182" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" t="s">
+        <v>448</v>
+      </c>
+      <c r="C183" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E183" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" t="s">
+        <v>449</v>
+      </c>
+      <c r="C184" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E184" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" t="s">
+        <v>450</v>
+      </c>
+      <c r="C185" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E185" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" t="s">
+        <v>451</v>
+      </c>
+      <c r="C186" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E186" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" t="s">
+        <v>452</v>
+      </c>
+      <c r="C187" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E187" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" t="s">
+        <v>453</v>
+      </c>
+      <c r="C188" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E188" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" t="s">
+        <v>454</v>
+      </c>
+      <c r="C189" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E189" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" t="s">
+        <v>455</v>
+      </c>
+      <c r="C190" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E190" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" t="s">
+        <v>456</v>
+      </c>
+      <c r="C191" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E191" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" t="s">
+        <v>457</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E192" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>458</v>
+      </c>
+      <c r="C193" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E193" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" t="s">
+        <v>459</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E194" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" t="s">
+        <v>460</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" t="s">
+        <v>461</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" t="s">
+        <v>462</v>
+      </c>
+      <c r="C197" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>463</v>
+      </c>
+      <c r="C198" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" t="s">
+        <v>464</v>
+      </c>
+      <c r="C199" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200" t="s">
+        <v>465</v>
+      </c>
+      <c r="C200" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" t="s">
+        <v>467</v>
+      </c>
+      <c r="C202" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203" t="s">
+        <v>468</v>
+      </c>
+      <c r="C203" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>199</v>
+      </c>
+      <c r="B204" t="s">
+        <v>469</v>
+      </c>
+      <c r="C204" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" t="s">
+        <v>470</v>
+      </c>
+      <c r="C205" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>201</v>
+      </c>
+      <c r="B206" t="s">
+        <v>471</v>
+      </c>
+      <c r="C206" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>202</v>
+      </c>
+      <c r="B207" t="s">
+        <v>472</v>
+      </c>
+      <c r="C207" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>203</v>
+      </c>
+      <c r="B208" t="s">
+        <v>473</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209" t="s">
+        <v>474</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>205</v>
+      </c>
+      <c r="B210" t="s">
+        <v>475</v>
+      </c>
+      <c r="C210" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211" t="s">
+        <v>476</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212" t="s">
+        <v>477</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>209</v>
+      </c>
+      <c r="B214" t="s">
+        <v>479</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>210</v>
+      </c>
+      <c r="B215" t="s">
+        <v>480</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>211</v>
+      </c>
+      <c r="B216" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>212</v>
+      </c>
+      <c r="B217" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>213</v>
+      </c>
+      <c r="B218" t="s">
+        <v>483</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" t="s">
+        <v>484</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>215</v>
+      </c>
+      <c r="B220" t="s">
+        <v>485</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>216</v>
+      </c>
+      <c r="B221" t="s">
+        <v>486</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>217</v>
+      </c>
+      <c r="B222" t="s">
+        <v>487</v>
+      </c>
+      <c r="C222" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>218</v>
+      </c>
+      <c r="B223" t="s">
+        <v>488</v>
+      </c>
+      <c r="C223" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>219</v>
+      </c>
+      <c r="B224" t="s">
+        <v>489</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>220</v>
+      </c>
+      <c r="B225" t="s">
+        <v>490</v>
+      </c>
+      <c r="C225" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>221</v>
+      </c>
+      <c r="B226" t="s">
+        <v>491</v>
+      </c>
+      <c r="C226" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>222</v>
+      </c>
+      <c r="B227" t="s">
+        <v>492</v>
+      </c>
+      <c r="C227" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>223</v>
+      </c>
+      <c r="B228" t="s">
+        <v>493</v>
+      </c>
+      <c r="C228" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>224</v>
+      </c>
+      <c r="B229" t="s">
+        <v>494</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>225</v>
+      </c>
+      <c r="B230" t="s">
+        <v>495</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>226</v>
+      </c>
+      <c r="B231" t="s">
+        <v>496</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232" t="s">
+        <v>497</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>228</v>
+      </c>
+      <c r="B233" t="s">
+        <v>498</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>499</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>230</v>
+      </c>
+      <c r="B235" t="s">
+        <v>500</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>231</v>
+      </c>
+      <c r="B236" t="s">
+        <v>501</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>232</v>
+      </c>
+      <c r="B237" t="s">
+        <v>502</v>
+      </c>
+      <c r="C237" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>233</v>
+      </c>
+      <c r="B238" t="s">
+        <v>503</v>
+      </c>
+      <c r="C238" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>234</v>
+      </c>
+      <c r="B239" t="s">
+        <v>504</v>
+      </c>
+      <c r="C239" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240" t="s">
+        <v>505</v>
+      </c>
+      <c r="C240" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>236</v>
+      </c>
+      <c r="B241" t="s">
+        <v>506</v>
+      </c>
+      <c r="C241" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
+        <v>507</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>238</v>
+      </c>
+      <c r="B243" t="s">
+        <v>508</v>
+      </c>
+      <c r="C243" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>239</v>
+      </c>
+      <c r="B244" t="s">
+        <v>509</v>
+      </c>
+      <c r="C244" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" t="s">
+        <v>510</v>
+      </c>
+      <c r="C245" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246" t="s">
+        <v>511</v>
+      </c>
+      <c r="C246" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" t="s">
+        <v>512</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>243</v>
+      </c>
+      <c r="B248" t="s">
+        <v>513</v>
+      </c>
+      <c r="C248" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>244</v>
+      </c>
+      <c r="B249" t="s">
+        <v>514</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>245</v>
+      </c>
+      <c r="B250" t="s">
+        <v>515</v>
+      </c>
+      <c r="C250" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>246</v>
+      </c>
+      <c r="B251" t="s">
+        <v>516</v>
+      </c>
+      <c r="C251" s="2">
+        <v>44347</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>247</v>
+      </c>
+      <c r="B252" t="s">
+        <v>517</v>
+      </c>
+      <c r="C252" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>248</v>
+      </c>
+      <c r="B253" t="s">
+        <v>518</v>
+      </c>
+      <c r="C253" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>249</v>
+      </c>
+      <c r="B254" t="s">
+        <v>519</v>
+      </c>
+      <c r="C254" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>250</v>
+      </c>
+      <c r="B255" t="s">
+        <v>520</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>251</v>
+      </c>
+      <c r="B256" t="s">
+        <v>521</v>
+      </c>
+      <c r="C256" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>252</v>
+      </c>
+      <c r="B257" t="s">
+        <v>522</v>
+      </c>
+      <c r="C257" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>253</v>
+      </c>
+      <c r="B258" t="s">
+        <v>523</v>
+      </c>
+      <c r="C258" s="2">
+        <v>44345</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>254</v>
+      </c>
+      <c r="B259" t="s">
+        <v>524</v>
+      </c>
+      <c r="C259" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>255</v>
+      </c>
+      <c r="B260" t="s">
+        <v>525</v>
+      </c>
+      <c r="C260" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>256</v>
+      </c>
+      <c r="B261" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>257</v>
+      </c>
+      <c r="B262" t="s">
+        <v>527</v>
+      </c>
+      <c r="C262" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>258</v>
+      </c>
+      <c r="B263" t="s">
+        <v>528</v>
+      </c>
+      <c r="C263" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>259</v>
+      </c>
+      <c r="B264" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>260</v>
+      </c>
+      <c r="B265" t="s">
+        <v>530</v>
+      </c>
+      <c r="C265" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>261</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+      <c r="C266" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>262</v>
+      </c>
+      <c r="B267" t="s">
+        <v>532</v>
+      </c>
+      <c r="C267" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>263</v>
+      </c>
+      <c r="B268" t="s">
+        <v>533</v>
+      </c>
+      <c r="C268" s="2">
+        <v>44342</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>264</v>
+      </c>
+      <c r="B269" t="s">
+        <v>534</v>
+      </c>
+      <c r="C269" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>265</v>
+      </c>
+      <c r="B270" t="s">
+        <v>535</v>
+      </c>
+      <c r="C270" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>266</v>
+      </c>
+      <c r="B271" t="s">
+        <v>536</v>
+      </c>
+      <c r="C271" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -716,6 +8244,266 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,15 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>新增7例COVID-19確定病例，分別為2例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心訂購AstraZeneca疫苗45.8萬劑將於今(10)日下午抵臺</t>
+  </si>
+  <si>
+    <t>國籍航空公司機組人員防疫健康管控措施作業原則會議說明</t>
+  </si>
+  <si>
     <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第二批BNT疫苗91萬劑於9月9日上午抵臺</t>
   </si>
   <si>
@@ -139,13 +148,13 @@
     <t>針對8月23日至8月29日完成第一劑接種高端疫苗民眾，後續第二劑接種說明</t>
   </si>
   <si>
-    <t>新增1例境外移入COVID-19病例，自南非入境</t>
-  </si>
-  <si>
-    <t>我國COVID-19科技防疫APEC視訊國際研討會首登場，增進亞太地區團結抗疫及應變能力</t>
-  </si>
-  <si>
-    <t>指揮中心宣布自8月27日零時起，入境旅客前往檢疫地點均應搭乘「防疫車輛」，不得自行駕車前往</t>
+    <t>/Bulletin/Detail/rFB5EmwGsyKbpr0QYSaR1Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v691B_c9aAFGvjZj9jes1A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0xS-kPajD0nRI51CKtOqsA?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/82Hu5ddU8Al22gNK_wAq2Q?typeid=9</t>
@@ -259,13 +268,13 @@
     <t>/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/uqw6Rnia5LLT408IUDG9Bw?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rFB5EmwGsyKbpr0QYSaR1Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v691B_c9aAFGvjZj9jes1A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0xS-kPajD0nRI51CKtOqsA?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/82Hu5ddU8Al22gNK_wAq2Q?typeid=9</t>
@@ -379,13 +388,13 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/uqw6Rnia5LLT408IUDG9Bw?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+    <t>發佈日期：2021-09-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增7例COVID-19確定病例，分別為2例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增2例本土病例中，案16173為60多歲男性，9月7日出現胸痛、輕微噁心、肌肉痠痛等症狀，9月8日就醫並採檢，於今日確診，已匡列接觸者6人，列居家隔離，餘匡列中。案16179為10多歲男性， 9月8日出現胸痛、呼吸痛等症狀，9月9日就醫採檢，於今日確診，已匡列接觸者51人，列居家隔離，餘匡列中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增5例境外移入個案，分別自美國(案16174、案16175)、土耳其(案16176)、日本(案16177)、亞美尼亞(案16178)入境，入境日介於8月26日至9月8日，均持有搭機前3日內檢驗陰性報告，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例死亡個案(案10387)，為70多歲男性，具慢性病史及其他確診者接觸史，6月3日因其他原因就醫，同日出現發燒、咳嗽等症狀，採檢後住院治療，於6月4日確診，8月26日解除隔離，9月5日死亡。\$\@\$指揮中心統計，截至目前國內累計2,938,839例新型冠狀病毒肺炎相關通報(含2,921,268例排除)，其中16,069例確診，分別為1,452例境外移入，14,563例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月10日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-10\$\@\$中央流行疫情指揮中心今(10)日表示，約45.8萬劑AstraZeneca疫苗預定於今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，截至目前總計到貨約372.7萬劑，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑，及本次提供第八批45.8萬疫苗。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-09\$\@\$中央流行疫情指揮中心今(9)日表示，為精進國籍航空公司機組員人員防疫作為，於今日晚間召開會議，與桃園市機師職業工會、桃園市空服員職業工會、中華航空企業工會、長榮航空公司企業工會、長榮航空關係企業工會、交通部及民航局進行專業溝通及討論，說明如下：\$\@\$一、就醫問題：將與各醫師公會溝通，加強宣導醫療人員不可無故拒絕機組人員就醫。\$\@\$二、國籍航空公司機組員人員接種第三劑疫苗：將納入未來施打規劃考量，惟目前各國施打間隔不一，有6個月與9個月，需提至專家會議進行討論。\$\@\$三、機組員防護裝備問題：民航局已編列防疫經費補助航空公司採購個人防護裝備，指揮中心建議比照去年防疫經驗再行檢視，並請航空公司按民航局指示配合處理。\$\@\$指揮中心說明，為確保機組人員執勤健康及安全，將持續與相關部會進行討論，強化機組人員防疫措施，並加強職業安全衛生管理，以共同維護機組員身心健康；同時，機組員執勤時應遵守民航局訂定之相關作業規範，提高自我警覺，落實各項防疫措施、自我健康監測及異常通報機制，以維護自身及親友之健康安全。</t>
   </si>
   <si>
     <t>發佈日期：2021-09-09\$\@\$中央流行疫情指揮中心今(9)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第二批BNT疫苗91萬劑，已於今日上午6時18分順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨184萬劑，分別為首批於9月2日送達的93萬劑，以及於今日送達的91萬劑。本批疫苗效期至111年1月17日，將由指揮中心統籌運用，優先開放給12歲至17歲(含)青少年族群造冊接種；其餘將優先提供已意願登記，且尚未接種過疫苗的18至22歲(含)民眾；後續將再視疫情趨勢、接種狀況及疫苗到貨情形等綜合評估，開放其他對象接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
@@ -460,9 +469,6 @@
     <t>發佈日期：2021-08-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增4例COVID-19確定病例，分別為3例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(均非居家隔離期間陽性者)，為2例男性、1例女性，年齡介於30多歲至60多歲，其中1例於今(2021)年 8月16日發病，另2例於8月30日發病。個案分布為新北市2例、台北市1例；其中2例關聯不明，1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案16093)，為本國籍60多歲男性，8月8日於越南確診，8月28日搭乘醫療專機返臺後至醫院採檢並治療，8月29日確診，8月30日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月29日累計公布14,784位確診個案中，已有13,676人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案16105)，為英國籍30多歲男性，未接種COVID-19疫苗，自述6月曾於英國確診，8月17日持搭機前三日內檢驗陰性報告來臺工作，入境後至集中檢疫所採檢陰性並檢疫，8月30日進行期滿前採檢，於今日確診。個案在臺期間並無症狀，集中檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,677,839例新型冠狀病毒肺炎相關通報(含2,660,833例排除)，其中15,995例確診，分別為1,414例境外移入，14,528例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計835例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
   </si>
   <si>
-    <t>發佈日期：2021-08-31\$\@\$中央流行疫情指揮中心今(31)日表示，約59.5萬劑AstraZeneca疫苗預定於今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑，本次提供第七批疫苗，截至目前總計約327萬劑到貨。本次提供的疫苗為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年12月31日。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-08-30\$\@\$中央流行疫情指揮中心今(30)日表示，為降低Delta變異株進入社區風險，及時偵測國內病例以阻斷隱性傳播鏈，指揮中心即日起啟動COVID-19社區加強監測方案，透過一群守護社區健康之基層診所醫師，協助評估就醫民眾臨床症狀，視需要提供公費COVID-19家用快篩試劑，由民眾自行居家篩檢並自主回報篩檢結果，為強化偵測社區病例注入新力量。\$\@\$指揮中心表示，COVID-19社區加強監測方案將自今日開始執行至今(2021)年12月31日，目前全國18個縣市共計82家診所參與，診所名單詳如新聞稿附件；未來將視執行情形及疫情變化，調整公費快篩試劑發放診所家數。民眾如為2歲以上出現呼吸道症狀的病患至公費快篩試劑發放診所掛號就醫，經醫師判斷後，發放公費家用快篩試劑及注意事項說明單張，如為2歲以下幼兒的陪同看診者，亦由醫師判斷後發放。\$\@\$指揮中心說明，民眾領取試劑後，請配合依注意事項說明內容儘速採檢，並至線上(https://forms.gle/8gh7Kb3ZkYE5aArW7)填寫試劑領取診所名稱及快篩結果等資料，此為匿名方式收集，無須擔心個人資料外洩情形。\$\@\$指揮中心呼籲，如快篩檢驗為陽性者請儘速至鄰近的社區採檢院所( https://reurl.cc/MArG1L )進一步PCR檢驗。提醒民眾前往社區採檢院所時，請戴好口罩、勿搭乘大眾運輸工具，對於使用過之採檢器材請用塑膠袋密封包好，並攜帶至社區採檢院所，交予院所人員處理。 附件\$\@\$附件-20210830公費COVID-19家用快篩試劑發送社區定點診所名單.pdf</t>
   </si>
   <si>
@@ -472,40 +478,13 @@
     <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日表示，捷克政府於7月26日宣布捐贈我國3萬劑COVID-19疫苗，經捷克衛生部與我國駐捷克代表處之通力合作安排，已於臺北時間8月27日凌晨自布拉格機場啟運，預計8月29日下午抵達桃園國際機場。該批Moderna疫苗抵臺後，將於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求時刻，捷克伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向捷克政府與民眾至上誠摯謝意。</t>
   </si>
   <si>
-    <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增23例COVID-19確定病例，分別為13例本土及10例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之13例本土病例(其中9例為居家隔離期間陽性者)，為6例男性、7例女性，年齡介於未滿5歲至50多歲，發病日介於今(2021)年8月16日至8月28日，個案分布為新北市11例、臺北市2例；其中9例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案16067)，為菲律賓籍60多歲男性，8月26日出現發燒症狀，8月27日入境我國後即送醫採檢確診，並於同日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月27日累計公布14,755位確診個案中，已有13,673人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為7例男性、3例女性，年齡介於10多歲至60多歲，分別自中國(案16071)、柬埔寨(案16074、16075)、美國(案16076)、緬甸(案16088、16089、16090、16091)、巴基斯坦(案16092)及越南(案16093)入境，入境日介於8月15日至8月28日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,637,402例新型冠狀病毒肺炎相關通報(含2,619,709例排除)，其中15,983例確診，分別為1,408例境外移入，14,522例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計834例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另9例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月29日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
     <t>發佈日期：2021-08-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19公費疫苗預約平臺」 ( https://1922.gov.tw/ ) 自8月28日起將BNT疫苗納入意願登記選項，並維持開放18歲(含)以上民眾登記，請有意願民眾把握機會進行登記；至於12歲至17歲(含)對象，目前規劃採行流感疫苗接種模式，以校園集中接種或依通知書至地方政府衛生局指定合約醫療院所方式接種，暫不納入意願登記。另第七期將提供接種AZ疫苗，預約時間自8月29日上午10時至8月31日中午12時截止。\$\@\$指揮中心說明，第七期預約將提供於7月19日前已意願登記選擇AZ疫苗，且尚未接種過疫苗之29歲(含)以上對象[即1992年12月31日(含)以前出生]及滿18歲以上[即2003年9月3日(含)前出生]第九類對象進行接種；施打期間預計自9月3日至9月10日止，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。此外，提醒符合第七期AZ疫苗預約資格對象如欲增加選擇BNT疫苗，須於8月31日下午4時後始可加選。另已符合AZ疫苗第二劑接種間隔之民眾，將另行開放接種。\$\@\$指揮中心再次提醒，請民眾於「COVID-19公費疫苗預約平臺」開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平臺會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
   </si>
   <si>
-    <t>發佈日期：2021-08-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增6例境外移入COVID-19病例，分別自法國、美國、越南、巴基斯坦、柬埔寨及其他國家移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至60多歲，分別自法國(案16065)、美國(案16066)、其他(案16067)、越南(案16068)、巴基斯坦(案16069)、柬埔寨(案16070)入境，入境日介於今(2021)年8月7日至8月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月26日累計公布14,748位確診個案中，已有13,674人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心統計，截至目前國內累計2,618,184例新型冠狀病毒肺炎相關通報(含2,600,433例排除)，其中15,960例確診，分別為1,398例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。 2020年起累計833例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月28日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日表示，本土疫情趨緩，指揮中心宣布8月24日至9月6日維持疫情警戒標準為第二級，考量疫情維持穩定及住宿式長照機構住民探視之需求，前已於8月10日宣布，全國住宿式長照機構除臺北市及新北市維持暫停訪客(除例外情形)外，其他縣市則有條件開放探視。\$\@\$現經指揮中心評估，臺北市及新北市的社區感染風險等級已調降至中風險，故自8月31日起，可比照其他縣市開放訪客，說明如下：\$\@\$一、訪客須出具訪視前3天內採檢之自費篩檢陰性證明；若訪客為「確診者取得解除隔離治療通知書且距發病日未滿3個月者」或「完成2劑COVID-19疫苗接種達14天(含)以上者」，可免除前述篩檢之要求。\$\@\$二、探視應遵循「衛生福利機構與榮譽國民之家因應COVID-19訪客管理作業原則」辦理，包括：落實預約制、實聯制、詢問TOCC及限制有感染症狀者進入、每位住民每次訪客人數不可超過3人、不同住民訪客間維持社交距離、進入住房探視每住房每時段原則上僅開放1位住民接受訪客探視、全程佩戴口罩等。\$\@\$指揮中心提醒，住宿式長照機構相關管理將視疫情發展，滾動修正。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增7例境外移入COVID-19病例，分別自瑞典、美國、印尼(3例)及印度(2例)入境；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增7例境外移入個案，為3例男性、4例女性，年齡介於20多歲至40多歲，分別自瑞典(案16058)、美國(案16059)、印尼(案16060、16061、16062)及印度(案16063、16064)入境，入境日介於今(2021)年8月13日至8月25日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心說明，今日新增1例死亡個案(案14879)，為60多歲男性，具慢性病史及其他確診個案接觸史；3月12日因其他原因住院，6月26日出現發燒、咳嗽及腹瀉症狀，6月29日採檢，6月30日確診，8月18日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月25日累計公布14,740位確診個案中，已有13,669人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心統計，截至目前國內累計2,596,704例新型冠狀病毒肺炎相關通報(含2,579,632例排除)，其中15,954例確診，分別為1,392例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計833例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月27日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日表示，26.5萬劑AstraZeneca疫苗已於今(27)日上午11時37分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑，本次提供第六批疫苗，截至目前總計約267.4萬劑到貨。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃環境，依臨床試驗每人需施打2劑，本批效期至今(2021)年12月7日。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增8例COVID-19確定病例，分別為2例本土及6例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增2例本土病例中，案16055為越南籍30多歲男性，因曾接觸確診者(案16006)， 8月19日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月25日出現喉嚨痛、喉嚨癢及頭痛症狀，由衛生單位安排就醫採檢，於今日確診(Ct值14.9)。案16056為本國籍20多歲女性，因曾接觸確診者(案15969)，8月16日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月17日出現喉嚨癢及咳嗽症狀，並於隔日緩解，8月25日接受隔離期滿前採檢，於今日確診(Ct值24)。由於2例個案隔離期間未與他人接觸，且就醫期間之相關接觸者均有適當防護，故皆無匡列接觸者。\$\@\$指揮中心說明，今日新增2例死亡個案中，案14517為80多歲男性，具慢性病史、無相關活動接觸史；6月23日因發燒就醫，6月24日採檢並住院隔離治療，6月25日確診，8月4日解除隔離，8月20日死亡。案14837為70多歲男性，具慢性病史及其他確診個案接觸史；6月27日因出現咳嗽、疲倦症狀就醫採檢，6月28日住院隔離治療，6月29日確診，7月14日解除隔離並出院，8月20日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月24日累計公布14,739位確診個案中，已有13,644人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心說明，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至50多歲，分別自美國(案16050、16052、16057)、日本(案16051、16053)及中國(案16054)入境，入境日介於8月2日至8月24日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,573,538例新型冠狀病毒肺炎相關通報(含2,556,336例排除)，其中15,947例確診，分別為1,385例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計832例COVID-19死亡病例，其中824例本土，個案居住縣市分布為新北市409例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月26日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，日前接獲台積電主動告知，鴻海永齡亦提供相關訊息表示，有另一批上海復星代理的BNT原廠疫苗，將於8月下旬出廠，而這批疫苗比捐贈單位預定的首批供應期程還要早，許多國家都在積極爭取，若臺灣不爭取，這批疫苗可能將送往其他國家。\$\@\$指揮中心表示，基於BNT疫苗可以施打12-18歲的青少年學生族群，而9月又即將開學，只要這批疫苗能夠確認是原廠出貨，而且經過安全檢驗，政府當然願意爭取這批疫苗，而疫苗早一天進來，讓學生能早日施打，家長、老師、學生都可以早一天安心。\$\@\$指揮中心指出，這批復星公司另案代理本要銷往他處的疫苗，在外盒包裝印有復必泰的品名，瓶身上則有復星醫藥等中文字樣，雖然這與原約定的標示方式不同，但政府仍願意積極爭取這批可以提早到來的疫苗，而且這批疫苗仍然是原廠製造、包裝並直送臺灣，只要確保疫苗品質安全無虞，當可在標示方式上給予彈性，所以政府接受可以照原來印的標示供貨，以利爭取這批疫苗早日供應國人使用。\$\@\$指揮中心表示，政府很感謝台積電的協助，也很感謝鴻海創辦人郭台銘先生，人在歐洲的這段期間也努力幫忙爭取，後續相關進度會再跟大家報告。從洽購疫苗，到爭取首批BNT的疫苗提早到貨，這都是官民合作的成果，對於包括鴻海永齡、台積電、慈濟三個企業和民間團體的協助，政府要再次表達由衷的感謝。\$\@\$指揮中心強調，防疫是政府唯一的考量，重要的是這個疫苗的內容物是安全有效的，輸入臺灣之後，仍要經過食藥署的檢驗封緘，確實有達到標準、安全無虞，才會開放讓民眾接種。</t>
-  </si>
-  <si>
     <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，自8月23日至8月29日完成第一劑高端COVID-19疫苗接種之民眾，COVID-19公費疫苗預約平台預計於9月27日提供接種第二劑，屆時符合預約資格或收到簡訊提醒者即可預約接種。另若有出國急迫性須於第一劑後滿28天接種者，請地方政府衛生局指定轄內合約醫療院所於預約平台開打(9月27日)前酌情提供接種。\$\@\$指揮中心指出，高端疫苗目前第二劑接種間隔至少28天，已於國內接種第一劑高端COVID-19疫苗之民眾，若因緊急出國需提前接種第二劑疫苗者，可提供具有付款紀錄之機票與出國日程及留學入學證明或公司外派出國等證明文件，至指定之合約醫療院所，經醫師評估後進行接種。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾COVID-19疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線「全國性預防接種資訊管理系統」(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增1例境外移入COVID-19病例(案16049)，自南非入境；另確診個案中新增1例死亡。\$\@\$指揮中心表示，案16049為南非籍20多歲男性，未接種COVID-19疫苗，於今(2021)年8月22日來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館居家檢疫，於今日確診。個案在臺期間並無症狀，衛生單位已匡列同班機接觸者3人，均列居家隔離；其餘接觸者匡列中。\$\@\$指揮中心說明，新增之死亡個案(案15845)，為70多歲女性，具慢性病史及其他確診個案接觸史，7月1日因其他原因住院，8月2日因醫院有病患確診，故安排個案進行採檢，8月4日確診，8月22日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月23日累計公布14,733位確診個案中，已有13,626人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心統計，截至目前國內累計2,548,825例新型冠狀病毒肺炎相關通報(含2,531,924例排除)，其中15,939例確診，分別為1,379例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計830例COVID-19死亡病例，其中822例本土，個案居住縣市分布為新北市409例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-25\$\@\$疾病管制署今(25)日表示，我國運用科技進行傳染病防治工作成果獲得亞太經合會（APEC）經濟體高度肯定，並於本（110）年8月25日及26日上午9時，舉辦「APEC亞太地區傳染病數位工具應用：挑戰與機會國際研討會( Digital Tools for Addressing Infectious Disease in the Asia-Pacific Region: Challenges and Opportunities）」，由衛生福利部薛瑞元政務次長、中央研究院陳建仁院士、疾病管制署周志浩署長偕我國與18國產官學專家，於線上分享運用科技工具攜手抗疫經驗，期能增進亞太區域團結抗疫及應變能力。\$\@\$疾管署指出，COVID-19疫情在全球及亞太區域大流行，不僅對健康亦對社會與經濟發展造成重大衝擊及影響。面對疫情的威脅，薛次長致詞中表示，為因應COVID-19疫情的高度變異性，防疫亦須及時調整，單以傳統防治方式恐無法快速應對，所幸科技進步，全球數位科技已廣泛運用於COVID-19疫情監測與應變，協助防疫工作推動更順暢；期望本次研討會可強化APEC經濟體間抗疫協作與夥伴關係發展，互相交流，共同攜手合作，成功抗疫。\$\@\$疾管署說明，本研討會由陳建仁院士擔任專題講座，會中分享我國運用數位科技輔助防疫及檢疫經驗，如健保雲端系統建置「TOCC」(旅遊史、職業別、接觸史及是否群聚)提示機制、電子圍籬居家隔離系統、口罩實名制等，並由歐美亞太等18國逾40位及國內110位專家同步連線參與討論，就傳染病監測、社區防治動員、產官學合作發展創新技術及資料隱私保護等議題進行交流與分享，共同為COVID-19科技防疫工作注入新力量。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日表示，因應全球COVID-19疫情持續升溫，鄰近多國仍處於嚴峻或再創新高狀況，且Delta變異株流行範圍持續擴大，為阻絕疫情由境外擴散，指揮中心宣布自8月27日零時起（航班抵臺時間），入境旅客應搭乘「防疫車輛」逕至檢疫處所，不得自行駕車前往。\$\@\$指揮中心說明，前述措施將避免旅客自行駕車前往檢疫地點之路程中，接觸其他民眾的機會，減少病毒傳播風險，籲請民眾務必配合，維護我國社區防疫安全。</t>
   </si>
 </sst>
 </file>
@@ -911,7 +890,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>84</v>
@@ -928,7 +907,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>85</v>
@@ -945,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>86</v>
@@ -962,7 +941,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>87</v>
@@ -979,7 +958,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>88</v>
@@ -996,7 +975,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>89</v>
@@ -1013,7 +992,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>90</v>
@@ -1030,7 +1009,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>91</v>
@@ -1047,7 +1026,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
@@ -1064,7 +1043,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="2">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>93</v>
@@ -1081,7 +1060,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="2">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>94</v>
@@ -1098,7 +1077,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="2">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>95</v>
@@ -1115,7 +1094,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="2">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>96</v>
@@ -1132,7 +1111,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="2">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>97</v>
@@ -1149,7 +1128,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="2">
-        <v>44442</v>
+        <v>44444</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>98</v>
@@ -1166,7 +1145,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="2">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>99</v>
@@ -1177,13 +1156,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="2">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>100</v>
@@ -1194,13 +1173,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>101</v>
@@ -1211,13 +1190,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>102</v>
@@ -1228,13 +1207,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>103</v>
@@ -1251,7 +1230,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>104</v>
@@ -1268,7 +1247,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>105</v>
@@ -1285,7 +1264,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>106</v>
@@ -1302,7 +1281,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>107</v>
@@ -1319,7 +1298,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>108</v>
@@ -1336,7 +1315,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>109</v>
@@ -1353,7 +1332,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>110</v>
@@ -1370,13 +1349,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1387,13 +1363,13 @@
         <v>72</v>
       </c>
       <c r="C30" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1404,13 +1380,13 @@
         <v>73</v>
       </c>
       <c r="C31" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1421,13 +1397,13 @@
         <v>74</v>
       </c>
       <c r="C32" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1438,13 +1414,10 @@
         <v>75</v>
       </c>
       <c r="C33" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1455,13 +1428,13 @@
         <v>76</v>
       </c>
       <c r="C34" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1472,13 +1445,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1489,13 +1459,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1506,13 +1473,13 @@
         <v>79</v>
       </c>
       <c r="C37" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1523,13 +1490,10 @@
         <v>80</v>
       </c>
       <c r="C38" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E38" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1540,13 +1504,10 @@
         <v>81</v>
       </c>
       <c r="C39" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E39" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1562,9 +1523,6 @@
       <c r="D40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E40" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
@@ -1574,13 +1532,13 @@
         <v>83</v>
       </c>
       <c r="C41" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1377">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>國外接種之COVID-19疫苗接種證明或紀錄應妥善保存，於國內補登後，不另核發接種紀錄或證明</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為1例本土、5例境外移入</t>
+  </si>
+  <si>
     <t>指揮中心宣布自10月19日至11月1日維持疫情警戒標準為第二級，並調整相關規定，請民眾持續配合防疫措施</t>
   </si>
   <si>
@@ -787,6 +793,216 @@
     <t>因應全球Delta變異株流行，自6月27日零時起，全面提升入境人員檢疫措施</t>
   </si>
   <si>
+    <t>新增76例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>民眾使用COVID-19家用快篩試劑流程與注意事項</t>
+  </si>
+  <si>
+    <t>新增130例COVID-19確定病例，分別為129例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心與相關單位持續精進「市場專案」相關措施，達到社區清零目的</t>
+  </si>
+  <si>
+    <t>指揮中心維持全國疫情警戒第三級至7月12日止，希望國人共體時艱，共同抗疫</t>
+  </si>
+  <si>
+    <t>因應臺北農產運銷公司群聚感染事件，指揮中心啟動「市場專案」強化相關防疫作為</t>
+  </si>
+  <si>
+    <t>新增104例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明274萬劑莫德納(Moderna) COVID-19疫苗之分配規劃、第一批次分配原則與接種對象</t>
+  </si>
+  <si>
+    <t>因應印度變種病毒蔓延 居家檢疫及居家隔離期滿者均須進行PCR檢測 以維護國內社區安全</t>
+  </si>
+  <si>
+    <t>6月22日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心說明「COVID-19疫苗公費接種對象」及現階段開放接種實施對象</t>
+  </si>
+  <si>
+    <t>新增78例COVID-19本土病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>修正雇主聘僱移工防疫指引，明定雇主應落實防疫措施</t>
+  </si>
+  <si>
+    <t>新增75例COVID-19本土病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾待身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>美國政府捐贈250萬劑Moderna COVID-19疫苗將於今(20)日傍晚抵臺</t>
+  </si>
+  <si>
+    <t>新增109例COVID-19病例，為107例本土、2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，提醒民眾視身體狀況穩定後再行安排接種</t>
+  </si>
+  <si>
+    <t>已接種一劑AZ COVID-19疫苗之民眾，可陸續完成第二劑接種</t>
+  </si>
+  <si>
+    <t>新增128例COVID-19病例，為127例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>6月18日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心持續監測疫苗接種後不良事件，並提醒高齡年長者接種疫苗之注意事項</t>
+  </si>
+  <si>
+    <t>為利醫療院所照護重症個案，指揮中心成立COVID-19重症個案臨床處置專家諮詢小組，自6月21日開始線上病例諮詢會議</t>
+  </si>
+  <si>
+    <t>Moderna疫苗24萬劑將於今(18)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增188例COVID-19病例，為187例本土、1例境外移入</t>
+  </si>
+  <si>
+    <t>接種COVID-19疫苗是預防感染、避免重症與死亡最有效的方式　指揮中心持續監測疫苗接種後不良事件</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增175例COVID-19本土病例</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增167例COVID-19本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>國產疫苗審查皆以科學、專業為原則，並依法規程序採購</t>
+  </si>
+  <si>
+    <t>第二批莫德納(Moderna) COVID-19疫苗預計於6月18日起配送，請合約醫療院所開啟預約掛號服務，提供符合對象者預約接種</t>
+  </si>
+  <si>
+    <t>指揮中心說明疫苗接種第二類「中央及地方政府防疫人員」含括對象</t>
+  </si>
+  <si>
+    <t>日本提供我國AstraZeneca COVID-19疫苗第二次分配量說明</t>
+  </si>
+  <si>
+    <t>補助全國快速PCR檢驗儀 加速社區檢驗量能</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增132例本土病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>6月15日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>調整國籍航空公司機組員返臺檢疫措施，確保機組員職場健康安全及維護國內防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增185例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>指揮中心說明「中央政府機關防疫相關人員之疫苗分配量寄放於各縣市」一事</t>
+  </si>
+  <si>
+    <t>網傳總統、副總統已接種COVID-19疫苗  指揮中心調閱接種系統查證均尚未接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增174例COVID-19本土個案及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心：依公式計算配送各縣市疫苗數量  將視後續接種情形滾動檢討並加強配送</t>
+  </si>
+  <si>
+    <t>自6月12日起，首批莫德納疫苗開放尚未接種第一劑COVID-19疫苗的第一類醫事及非醫事人員接種</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增250例本土個案，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>為提升COVID-19疫苗接種效率，指揮中心與地方政府衛生局召開會議進行經驗交流與分享</t>
+  </si>
+  <si>
+    <t>6月11日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>為協助紓解重症醫療量能，指揮中心採購複合單株抗體藥物，提供具有重症風險因子之輕中度確診個案治療使用</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增286例COVID-19本土確定病例及1例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級期間，持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>指揮中心感謝我國企業及民間單位共同捐贈日製負壓隔離艙80座，公私協力共同防疫</t>
+  </si>
+  <si>
+    <t>疫苗接種政策為全體國民重要權益，資訊均公開透明，如有違法將嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增263例COVID-19本土確定病例，另有3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心針對好心肝診所提供非開放接種對象接種疫苗案，將由司法單位依法徹查，還原真相，嚴正法辦</t>
+  </si>
+  <si>
+    <t>指揮中心說明配送至臺北市轄內合約醫院協助專案對象接種事宜</t>
+  </si>
+  <si>
+    <t>因應COVID-19疫情，調整COVID-19疫苗公費優先接種對象</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增274例COVID-19本土確定病例，另有1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19疫苗須依循指揮中心所訂之接種順序依序施打</t>
+  </si>
+  <si>
+    <t>6月8日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增219例COVID-19確定病例，均為本土個案</t>
+  </si>
+  <si>
+    <t>國內出現自呼吸道疾病病人中分離出H1N2v流感病毒案例，病患已痊癒，疾管署呼籲民眾做好個人健康管理</t>
+  </si>
+  <si>
+    <t>加強訪查移工宿舍落實防疫工作  增訂企業因應員工確診應變處置</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增211例本土COVID-19個案、3例境外移入</t>
+  </si>
+  <si>
+    <t>全國疫情警戒第三級延長至6月28日，相關防疫措施持續執行，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：目前我國COVID-19疫苗無自費接種規劃，並無所謂「自費負擔」之問題存在，而未來將依序開放全體國民公費接種，相關行政費用皆由政府負擔</t>
+  </si>
+  <si>
+    <t>指揮中心公布新增335例本土COVID-19個案，另有8例校正回歸個案</t>
+  </si>
+  <si>
+    <t>針對苗栗縣電子廠群聚感染案件，指揮中心說明前進指揮所協助防疫作為</t>
+  </si>
+  <si>
+    <t>指揮中心澄清：全民免費接種COVID-19疫苗公費疫苗順序，將由指揮中心陸續公布</t>
+  </si>
+  <si>
+    <t>指揮中心：政府已於特別預算編列40億，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務，自6月7日起實施</t>
+  </si>
+  <si>
+    <t>指揮中心澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關確診及死亡資訊都有公開</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f03kAkeGXhKesf8-I2YMuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JsYTbSiR4leDCc4Z4UEpOw?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/Da_0VerVFpTxVKUGXpm3jA?typeid=9</t>
   </si>
   <si>
@@ -1627,6 +1843,216 @@
     <t>/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f03kAkeGXhKesf8-I2YMuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JsYTbSiR4leDCc4Z4UEpOw?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/Da_0VerVFpTxVKUGXpm3jA?typeid=9</t>
   </si>
   <si>
@@ -2467,6 +2893,216 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/zqUqseKSNKJint4YMEddiQ?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9pKIzKzZOpp4HocU3uCl6g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c8C9gtHwUNnkywyMqWoLJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3A_GxvlYM4wkYEYTlozw6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0M4E0GxUuEj9_0rHwVlPAw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3LyPF-Dt0AhduqNnRwp9zg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kJJ5ZOZig6PA2ZAu2VMRQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mDFLj0aLsQztMI7vnMSy1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HmZ7CIAda5ftC781xMTSKg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zK5fwXiSohil4etG3pphhw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NC6r7Z2A5ylk0AUMFxAkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H95sl3L-tIrq1-o71rj8Gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7IX7KD-nM2TmIYgml7lDWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OakZRZ4dYRYEnX-_s__Dag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Lby0PKwYfroFHd13wPbOdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ODtiZA3OtV7lf4IEVECBkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/k9iJeEl5uPkgkCmCWtGZDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8QrfZwt787Bjeoh31UZztg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B8Zac1K5GfDJSO8oDKcNfQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4p1T6MpeJyRyu1syfZDUyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9SuLf-DGkfywEXISH7pIw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j5bFJQGngMHxaaQIK-j12w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hbSnCh8vhAKj2CsaFwbmZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tEf1nYt3fuARSRqFzbGbmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/StnIZRaP2BZTFrduQfgCdg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TAeqHS3g8G3Qbp3EGZkXSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/f9isJQRtYK4rL9_Zmd4VUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3EaqopBnYL-XoDtMI8qQEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-bdXbaKzQLCvX8s69vQWQA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gpzjNU57zwqDAfQJhI7fMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7ZPV_qpP_nL8FkiGNv1sbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R-DB5ro9NqAlSEStj_Uaxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2E5FJ55LFelexPtiSn3gbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/84kDjSBTHU75sIoWKAdKcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DRnT39ZhmbVd21bWvHIEng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/dmyxdxokdprJxTw9L5O5Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Aaw09pr_bNORqPc8F1fUSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/832w8RYL7puxozPKMoTSAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_4V_ZEYMJgH3nzjXxy21w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OOQWHbZwyOpZ-GpkKOgyYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iGXRaqo6rnJ0Gh9PFDovyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XUjGVcW2wV5HhfnxjVqg0w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/eCpD5uFuWNjGpxhqMKIZ8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MHEOJlq75e2VYGkuBMGeJQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9laBujLZpjBzFaf_j8hcg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Z3woynaHMpHEAcv_YpZBHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6RR01Fye2xDT2mAOqhAoSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YCIJBF3p851kbsP5H1TZtw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3iNNwroO0OrdsItewXo_GA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/itht4O09O7Hzx42_eMrmqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A_H9_tpR0cCtxnrn6ywmyg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lMHQW2_3wdE5B0rVqMdwKA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_O58a0Z72pKkvO77XRxTwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KklxR5Jvi8ZagDLpc8KhXg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QT1poRzaqL7uU0eT1aAVFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WF6xlOaJgMr0POPnUwWvsw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SPh-q2L4jdXq_e30j4qgMQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/iEPM5F7Kk_MMdZuFIF3xgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8UJd-2sMxGw-HAWQ6FJMSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6GaA6f7NZJ4vssTWjn2lsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/07PCKLsTECw_vdl58CuklQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/R1FSxs02pQ9SbzB6uQQ8TA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0SoUcz9h9xq6wfHsBCpV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CigUYrFf8immzExlBKZU7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JjN_NyCRNf6UTrNW6xvYhQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/c4MhZ18JVk_AQCy1McxIag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_dM67Z59iwBnM6hPn9W1uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aYrItM5MHeKmi1AQ2o0pzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nR4VlCvEVaDQd2QxrYxh5g?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-19\$\@\$中央流行疫情指揮中心今(19)日說明，於國外接種世界衛生組織(WHO)核發EUL(緊急使用清單)之COVID-19疫苗種類[AZ、Moderna(莫德納)、Pfizer/BioNTech(BNT)、Janssen(嬌生)、Sinopharm(中國國藥)、Sinovac(中國科興)]，可於全國性預防接種資訊管理系統(NIIS)採取補登，亦視為有效劑次。於國外已完成接種劑次者，不需再追加接種；未完成接種者，返國後依我國核准使用之疫苗接種期程、間隔，完成後續劑次，且依當時國內開放接種對象與提供之疫苗進行接種。\$\@\$指揮中心提醒，國外接種WHO核發EUL之COVID-19疫苗，雖可於NIIS採取補登，但不納入COVID-19疫苗接種證明(包含國際預防接種證明書、預防接種紀錄卡及建置中之數位證明)劑次。因此，補登接種紀錄之民眾，應妥善保存國外接種證明或接種紀錄，以作為後續醫療諮詢或查核之依據。\$\@\$另針對於國外接種非WHO核發EUL之COVID-19疫苗，無論是否完成接種，皆視同未接種，建議與國外接種最後一劑至少間隔28天以上，再接種我國核准使用之疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增6例COVID-19確定病例，分別為1例本土、5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增1例本土個案(案16451)，為60多歲男性，今(2021)年10月16日因出現發燒等症狀，10月17日就醫並採檢，檢驗結果陽性收治住院(Ct值33.1，IgG、IgM均為陽性，後續採檢2次核酸檢測均為陰性)，於今日確診。衛生單位已匡列接觸者12人，其中4人列居家隔離、3人列自主健康管理、5人列自我健康監測，將持續進行疫調及匡列，以釐清感染源。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於10多歲至60多歲，分別自美國(2例，案16448、案16452)、阿拉伯聯合大公國(案16449)、菲律賓(案16450)、馬來西亞(案16453)入境，入境日期介於10月5日至10月17日之間，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,760,750例新型冠狀病毒肺炎相關通報(含3,743,687例排除)，其中16,343例確診，分別為1,704例境外移入，14,585例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計846例COVID-19死亡病例，其中834例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2021-10-17\$\@\$考量國內疫情目前已趨緩並且穩定控制，經與相關單位溝通討論及評估後，中央流行疫情指揮中心今(17)日宣布，自今(2021)年10月19日至11月1日維持疫情警戒標準為第二級，調整相關措施及規定如下：\$\@\$一、 二級警戒措施：\$\@\$1. 除例外情形，外出全程佩戴口罩：於室外從事運動，或於室內外拍攝個人/團體照時，如無相關症狀且與不特定對象均能保持社交距離，可免戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動(含會議、展覽、婚宴、餐宴等)人數上限：\$\@\$(1) 室內80人，或室內超過80人但容留人數符合室內空間至少1.5米/人(2.25平方米/人)。\$\@\$(2) 室外300人。\$\@\$(3) 不符上列條件者，應提防疫計畫，或依主管機關防疫規定辦理。\$\@\$二、 外出時應全程佩戴口罩，但符合以下情形者，得免戴口罩：\$\@\$1. 於室外從事運動時。\$\@\$2. 於室內外拍攝個人/團體照時。\$\@\$3. 農林漁牧工作者於空曠處(如：田間、魚塭、山林)工作。\$\@\$4. 於山林(含森林遊樂區)、海濱活動。\$\@\$上述場合得免戴口罩，但應隨身攜帶口罩，如本身有相關症狀或與不特定對象無法 保持社交距離時，仍應戴口罩。\$\@\$5. 外出時有飲食需求，能與不特定對象保持社交距離或有適當阻隔設備，得免戴口罩。\$\@\$6. 於指揮中心或主管機關指定之場所(如：臺鐵高鐵用餐區)或活動，如符合相關防疫措施，得暫時脫下口罩。\$\@\$三、 仍須關閉之場所：歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、理容院(觀光理髮、視聽理容)。\$\@\$指揮中心將持續觀察疫情態勢，適度放寬管制措施，強化邊境監測及防疫作為。籲請民眾應落實個人防護措施，主動積極配合各項防疫措施，以兼顧防疫與生活品質。</t>
   </si>
   <si>
@@ -3305,6 +3941,210 @@
   </si>
   <si>
     <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日表示，世界衛生組織(WHO)公布目前全球已有逾85個國家出現Delta變異株(印度變異株)病例，歐洲疾控中心(ECDC)評估其傳播力較Alpha(英國變異株)高40-60%。國際間部分疫苗接種率較佳的國家包括以色列及英國等，近期病例數回升，且發現Delta變異株病例佔比達七成以上。另國內亦出現自秘魯境外移入個案檢出Delta變異株，其鄰近的孟加拉、印尼等國該變異株佔比近期亦呈增加趨勢。\$\@\$指揮中心指出，因應 Delta變異株於全球日益擴散且其傳播力高，自今(110)年6月27日零時起(抵臺時間)，全面提升入境人員檢疫措施如下：\$\@\$一、「重點高風險國家」入境旅客(過去14天旅遊史、含轉機)之檢疫措施：自空港或海港入境後一律入住集中檢疫所14天，且須配合入住時、檢疫期滿進行PCR檢測，旅客不需支付檢疫所及採檢費用。目前「重點高風險國家」為巴西(巴西變異株)、印度，含本次新增英國、秘魯、以色列、印尼及孟加拉等共7國。\$\@\$二、前述7國旅遊史以外之所有入境旅客，入境後應入住防疫旅宿或自費入住集中檢疫所14天，且於居家檢疫期滿前配合進行PCR檢測。\$\@\$三、國籍航空公司機組員，自「重點高風險國家」航線航班返臺後，應入住防疫旅宿或符合規定之公司宿舍進行居家檢疫14天，且檢疫期滿進行PCR檢測。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增76例COVID-19確定病例，均為本土個案；其中34例為居家隔離/檢疫期間或期滿檢驗陽性者。另，確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之76例本土病例，為39例男性、37例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年5月18日至6月24日。個案分佈以新北市32例最多，其次為臺北市20例、桃園市10例、新竹縣4例、苗栗縣3例、彰化縣及高雄市各2例，宜蘭縣、基隆市及臺中市各1例。其中雙北地區以外縣市24例中，13例為已知感染源、2例關聯不明、9例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於70多歲至90多歲，發病日介於5月16日至6月19日，確診日介於5月29日至6月20日，死亡日介於6月21日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月23日累計公布13,061位確診個案中，已有9,650人解除隔離，解隔離人數達確診人數73.9%。\$\@\$指揮中心統計，截至目前國內累計1,213,717例新型冠狀病毒肺炎相關通報(含1,197,732例排除)，其中14,465例確診，分別為1,167例境外移入，13,245例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計102例移除為空號。自2020年起累計610例COVID-19死亡病例，其中602例本土，個案居住縣市分布為新北市306例、臺北市238例、基隆市19例、桃園市16例、彰化縣9例、臺中市4例、新竹縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月25日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，「民眾使用COVID-19家用快篩試劑指引」已於6月19日公布(詳如新聞稿附件)。為利民眾居家正確自行檢測，指揮中心再次提醒民眾使用家用快篩試劑相關流程與注意事項。\$\@\$指揮中心指出，COVID-19家用快篩試劑可由醫療器材販賣業者、藥粧店、醫療器材行、便利商店等或藥局販售，民眾購買時，請確認產品名稱是否有「家用」、包裝是否刊載「防疫專案核准製造第XXXXXXXXXX號」或「防疫專案核准輸入第XXXXXXXXXX號」等字樣(已核准之家用快篩試劑名單可至衛生福利部食品藥物管理署[下稱食藥署]網站確認)、產品效期是否在有效期間或保存期限內，並依使用說明書或操作影片進行採檢及操作。對使用家用快篩試劑有任何疑問，可洽詢販售該產品之醫療器材商或藥局，或逕洽詢試劑廠商。\$\@\$指揮中心說明，居家隔離或居家檢疫者如測出結果為陽性時，請立即與當地衛生局聯繫，或撥打1922，依指示方式處理；非居家隔離且非居家檢疫者測出結果為陽性時，請戴好口罩，勿搭乘大眾運輸工具，儘速至鄰近的社區採檢院所進一步檢測，並將使用過之採檢器材用塑膠袋密封包好，一併攜帶至社區採檢院所，交予院所人員。當測出結果為陰性時，仍請遵循指揮中心的防疫規範，做好個人防護，持續自我健康管理，採檢完之家用快篩試劑及試劑棒勿任意棄置，請以塑膠袋密封包好，以一般垃圾處理。\$\@\$指揮中心提醒，若民眾已出現嚴重特殊傳染性肺炎相關症狀，不宜使用COVID-19家用快篩試劑自行在家檢測，應佩戴醫用口罩，儘速前往醫療院所就醫，且前往就醫時勿搭乘大眾運輸工具。另外，提醒居家快篩試劑測試結果可能出現偽陰性或偽陽性，仍需經認可實驗室所進行的「核酸檢測」作為診斷COVID-19感染之依據。COVID-19家用快篩試劑產品核准名單、說明書及操作影片均可至食藥署網站( http://www.fda.gov.tw )之業務專區 &gt; 醫療器材 &gt; COVID-19 防疫醫材專區 &gt; 家用新型冠狀病毒檢驗試劑專區查詢。 附件\$\@\$附件-民眾使用COVID-19家用快篩試劑檢驗指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增130例COVID-19確定病例，分別為129例本土個案及1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之129例本土病例(其中73例為居家隔離/檢疫期間或期滿檢驗陽性者)，為64例男性、65例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月4日至6月23日。個案分佈以新北市54例最多，其次為臺北市35例、基隆市9例、桃園市7例、屏東縣及高雄市各6例、苗栗縣及新竹縣各5例、南投縣2例。其中雙北地區以外縣市40例中，38例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性5位、女性1位，年齡介於50多歲至90多歲，發病日介於5月11日至6月4日，確診日介於5月15日至6月5日，死亡日介於6月18日至6月23日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月22日累計公布12,958位確診個案中，已有9,288人解除隔離，解隔離人數達確診人數71.7%。\$\@\$指揮中心表示，案14386為本國籍60多歲女性，於6月9日自巴西返臺，持有登機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫，6月22日檢疫期滿前採檢，於今日確診。個案在臺期間並無症狀，檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，國內累計1,180,033例新型冠狀病毒肺炎相關通報(含1,164,226例排除)，其中14,389例確診，分別為1,167例境外移入，13,169例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號病例(案10029)，累計102例移除為空號。自2020年起累計605例COVID-19死亡病例，其中597例本土，個案居住縣市分布為新北市304例、臺北市237例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣、新竹縣及花蓮縣各2例，臺東縣、雲林縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月24日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-24\$\@\$中央流行疫情指揮中心今(24)日表示，為精進臺北農產運銷公司COVID-19群聚感染事件相關防疫作為，於昨(23)日晚間再次召開會議，與農委會、雙北市政府、雙北農產/果菜運銷公司進行專業溝通及討論「市場專案」各項細節，並於會中達成三點共識如下：\$\@\$一、自6月24日零時起，雙北批發市場所有從業人員未持有陰性檢驗證明者不得進場，請雙北市協調警力於現場維持秩序；另亦設置快篩站至6月24日零時，提供尚未篩檢者快篩服務。\$\@\$二、落實疫調、找出熱區：指揮中心將蒐集本案相關疫調資訊，並與雙北市政府、臺北農產運銷股份有限公司及新北市果菜運銷股份有限公司建立疫調資料交流機制，儘速釐清造成此波感染事件之問題及劃分疫情熱區，以利批發市場、零批市場及周遭傳統市場執行後續防疫因應作為。\$\@\$三、考量多有跨縣市至雙北批發市場之工作者，為即時發覺潛在個案，有效阻斷傳播鏈，確診個案由居住地縣市進行精準疫調及接觸者匡列作業，其中職場接觸者匡列由職場所在縣市進行。另疾管署將成立平台協助各地方政府整合資訊，讓疫調更加完整。\$\@\$指揮中心進一步說明，考量快篩或PCR檢驗陰性僅代表個案現階段不具病毒傳播力，雙北批發市場所有從業人員亦應持續落實動線分流、人員降載等相關防疫措施，減少傳播風險；另請臺北農產運銷股份有限公司、新北市果菜運銷股份有限公司針對從業人員進行健康監測，以及早掌握可能個案，並及時進行各項防治措施。\$\@\$指揮中心強調，本專案結束後，將持續設置篩檢站三週，提供周邊攤商及社區民眾就近篩檢，達到社區清零目的。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，國內疫情由於國人的努力，得到良好控制，惟目前跨區傳播事件仍然存在，而世界各國因解封太快致疫情再起的經驗亦歷歷在目。為確保國人健康，指揮中心經評估後決定，全國再同步維持疫情三級警戒2週(至7月12日止)，用2週的時間換得國人平安，希望國人共體時艱，共同抗疫。\$\@\$指揮中心指出，考量社區感染風險尚未消除，指揮中心將持續與地方政府密切合作，加強落實以下管制措施，降低社區傳播風險，積極保障國人健康安全：\$\@\$一、針對確診個案精準疫調，儘速匡列相關接觸者並加強追蹤管理，及早阻斷病毒傳播鏈。\$\@\$二、針對居家檢疫及居家隔離者，無論有無症狀，均須於期滿前1日進行公費PCR檢測，以阻絕病毒進入社區。\$\@\$三、加速高風險族群疫苗接種作業，以減少其感染、或感染後產生嚴重併發症及死亡的機率。\$\@\$四、推動社區廣篩，鼓勵各地方政府設置社區篩檢站並加速檢驗時效，同時推廣企業快篩與居家快篩，以擴大篩檢量能並強化主動監測機制，儘速發掘社區內可能潛藏病例，有效斷絕所有感染鏈。\$\@\$五、強化重症醫療照護，透過COVID-19重症個案處置諮詢平臺，由多位專家諮詢委員線上提供醫院臨床重症個案處置意見，以降低個案死亡率、緩解重症醫療量能。\$\@\$六、啟動「民生供需產業健康監測專案」，針對果菜、家畜(肉品)、家禽、水產、綜合及其他類市場、超市、賣場及夜市等相關職業對象，由目的事業主管機關或地方政府進行人員健康監測，以及時進行各項防治措施，避免災害擴大，降低家戶傳播風險。\$\@\$指揮中心表示，現處疫情關鍵時刻，籲請全國民眾持續落實遵循並積極配合三級警戒管制措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日表示，針對臺北農產運銷公司發生COVID-19群聚感染事件，指揮中心於昨(22)日召開會議，與農委會、臺北市政府、臺北農產運銷公司共同討論疫情狀況並研商「市場專案」強化相關防疫作為，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、啟動「市場專案」快速全面篩檢，確保雙北批發市場從業人員防疫安全，避免傳播至家戶及社區之風險，並以社區儘速清零為目標。\$\@\$二、自6月24日零時起，雙北批發市場所有從業人員未持有6月20日以後檢驗陰性證明者不得進場，且規定須於完成篩檢後方得接種COVIID-19疫苗。\$\@\$三、為提升雙北批發市場各從業人員篩檢意願，篩檢站設置應鄰近市場並配合其作業時間；專案結束後，仍延長篩檢站設置時間，以利周邊攤商及社區民眾就近篩檢，以社區清零。\$\@\$四、為加快篩檢速度且減少偽陰性及偽陽性情形，建議僅進行PCR採檢，提升篩檢作業效率；如檢驗陽性者，請地方政府衛生局落實後續疫調及接觸者匡列工作，並請提供疾管署彙整轉送居住地縣市，以進行後續疫調及匡列作業。\$\@\$五、考量雙北批發市場貨車司機及隨車捆工停留於市場時間較短暫，該類人員之篩檢、疫調及接種作業，將請臺北農產運銷公司提供人員名冊，由指揮中心轉居住地縣市政府辦理。\$\@\$六、推動北北基桃批發市場從業人員逐步施打疫苗，以雙北批發市場優先實施，所需疫苗均由指揮中心提供。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增104例COVID-19確定病例，均為本土個案；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之104例本土病例，為45例男性、59例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月10日至6月22日。個案分佈以新北市45例最多，其次為臺北市22例，高雄市及新竹縣各9例，桃園市7例，苗栗縣4例，基隆市3例，宜蘭縣2例，彰化縣、南投縣及屏東縣各1例。其中雙北地區以外縣市37例中，28例為已知感染源，5例關聯不明，4例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，為男性15位、女性9位，年齡介於40多歲至80多歲，發病日介於4月11日至6月14日，確診日介於4月13日至6月16日，死亡日介於6月13日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月21日累計公布12,879位確診個案中，已有9,041人解除隔離，解隔離人數達確診人數70.2%。\$\@\$指揮中心統計，截至目前國內累計1,148,916例新型冠狀病毒肺炎相關通報(含1,133,240例排除)，其中14,260例確診，分別為1,166例境外移入，13,041例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增1例空號病例(案14228)，累計101例移除為空號；自2020年起累計599例COVID-19死亡病例，其中591例本土，個案居住縣市分布為新北市301例、臺北市235例、基隆市19例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月23日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國於今(2021)年6月18日及6月20日共計進口274萬劑莫德納(Moderna) COVID-19疫苗，預計於7月1日起配送至地方政府衛生局及指定醫療院所。自7月1日起，國內COVID-19疫苗接種對象(不限廠牌)擴增如下：\$\@\$1.第一類對象，醫事人員(包含醫事執登人員及醫事機構非醫事人員)\$\@\$2.第二類對象，中央及地方政府防疫人員、第一線處理大體之工作人員\$\@\$3.第三類對象，高接觸風險第一線工作人員\$\@\$4.第四類對象，因特殊情形必要出國者(因公出國者、外交駐臺員眷、代表國家出國之運動員或選手)\$\@\$5.第五類對象，包括「住宿型長照機構住民及其照護者」、「居家式和社區式長照機構及身障服務照服員及服務對象」、「其他機構(含矯正機關工作人員)」及洗腎患者，以及「矯正機關（構）工作人員」\$\@\$6.第六類對象，包括75歲以上長者及孕婦\$\@\$7.第七類對象，維持國家安全及社會機能正常運作者\$\@\$8.第八類對象，65-74歲長者\$\@\$9.已完成第一劑疫苗者，可依建議接種第二劑之時間，以同廠牌完成接種。\$\@\$指揮中心指出，第一批疫苗預計配送110萬劑，係以下列原則核估各縣市分配數量，並配送至各地方政府衛生局或其指定醫療院所：\$\@\$1.各縣市第五類「居家式和社區式長照機構及身障服務照服員及服務對象」與「其他機構(含矯正機關工作人員)」尚未接種人數\$\@\$2.各縣市莫德納(Moderna)COVID-19疫苗第一劑已分配數\$\@\$3.各縣市65-74歲長者30%人口數\$\@\$指揮中心說明，為確保維持國家及社會正常運作的相關基礎設施不受COVID-19疫情影響，第七類對象需經各中央主管機關認定並造冊，列為國家關鍵設施或維持設社會正常運作必要工作人員，並送指揮中心。經中央主管機關認定符合前述條件並造冊之對象，除了已陸續配送的國防軍事相關人員之外，包括高鐵、臺鐵、油氣水電與通訊等國家關鍵設施必要人員、全國第一線郵務處理人員、國家(含大考)等考試工作人員、高密度接觸孩童的幼兒園與國小安親班教育人員、托育機構人員、各類批發市場與屠宰市場工作人員、科學園區防疫工作人員、媒體第一線採訪工作人員、戶役政系統機房人員等。\$\@\$指揮中心表示，針對疫情較高風險的雙北等縣市，從事保母、計程車駕駛、外送員、國道客運司機、貨運司機、傳統市場合法攤商及賣場（含超商）收銀人員等，共計約50萬人，將特別納入此批COVID-19疫苗實施對象。上述對象的疫苗需求量將直接配送至各部會指定醫療院所。另，基於65-74歲長者一旦感染容易產生嚴重併發症或導致死亡，亦同時開放接種。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心強調，依據各國疫苗上市後的安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等不良反應事件，大多發生在接種後數天內，請民眾在接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，依據世界衛生組織（WHO）監測報告，印度變異株(Delta)已在全球約92個國家現蹤並持續蔓延，不但具高傳播性及對風險族群容易造成重症或死亡；且美國疾病管制中心(CDC)、歐盟及相關文獻均指出，若資源許可，無論有、無症狀，隔離期滿皆須採檢，同時國內監測資料也顯示，部分居家隔離接觸者是於隔離期滿之自主健康管理期間陽轉為確定個案等綜合考量。指揮中心經與地方政府審慎討論取得初步共識，調整居家隔離及居家檢疫者相關採檢策略。\$\@\$指揮中心指出，除了原本隔離或檢疫期間「有症狀者」及經疫調之風險評估匡列之接觸者，應立即採檢外，對於COVID-19確定病例之密切接觸者及自國外入境者，即日起於居家隔離或居家檢疫期滿前1日，無論有無症狀者，均須進行PCR檢測。採檢所需相關費用均由政府支應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、在維持加強全國三級警戒等相關管制措施下，雙北市疫情已逐步趨緩，惟各縣市仍有零星爆發群聚事件發生，建議各縣市政府持續加強疫調及接觸者追蹤管理，以及早發現個案、控制疫情。另，端午節連假後對疫情之影響部分，目前尚未有相關影響發生，請各地方政府持續密切注意所轄區域疫情發展狀況，進一步強化社區篩檢及病例監測能力，以防止疫情反彈或新一波流行爆發出現。\$\@\$二、有關COVID-19疫情三級警戒期間，社區式長照服務雖暫時停止服務，但居家式長照服務及送餐服務仍會持續提供獨居失能長者。為因應防疫及持續關懷獨居長者生活與健康狀況，指揮中心就強化相關關懷服務訂定「COVID-19疫情三級警戒期間強化獨居長者關懷服務措施」，請各地方政府落實執行，重點包括：\$\@\$(一)強化服務機制部分：由地方政府整合社政、衛政、民政、警政單位及民間團體之力量，重新盤整資源，強化人力調度、支援及緊急處理機制。針對超過24小時聯繫未果之長者，建立緊急處理啟動機制結合網絡資源前往實地訪視。\$\@\$(二)加強關懷服務部分：針對列冊需關懷之獨居長者，由地方政府透過既有關懷服務體系，或協調由社區照顧關懷據點之專職人力及志工排班，每隔1日定時以電話或其他通訊方式關懷長者，了解其生活及健康狀況。針對暫未使用服務之長者，亦列為關懷對象，由地方政府協調照管中心、長照服務提供單位與鄰里資源，每隔1日定時以電話或其他通訊方式關懷長者。\$\@\$三、疫苗配發及接種：\$\@\$(一)指揮中心表示，有關各地方政府及外界關注之AZ疫苗自費施打第1劑之對象，其第2劑部分，以公費實施接種；另第1劑和第2劑施打不同廠牌疫苗部分，指揮中心目前建議第1劑、第2劑以施打同樣廠牌疫苗為主，不建議混合施打。\$\@\$(二)針對部分縣市將里鄰長納入第2類優先施打對象部分，指揮中心再次向地方政府説明，里鄰長等對象如確有實際執行居家檢疫、居家隔離等高風險對象之追蹤關懷、送餐、訪視等第一線工作，可納入第2類人員，請各地方政府確實查核，並應完成造冊作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日表示，衛生福利部傳染病防治諮詢會預防接種組(ACIP)於6月20日召開第3次臨時會議，專家針對COVID-19疫苗工作小組歷次會議進行確認，討論COVID-19疫苗公費接種對象，經考量孕婦為 COVID-19 感染後容易產生嚴重併發症或導致死亡之族群，為保障懷孕婦女及胎兒健康，建議孕婦應接種COVID-19 疫苗並納入第六類優先接種對象。\$\@\$指揮中心指出，依據現階段國內外疫情及疫苗供貨情形，目前開放實施對象包括第一類至第三類、第五類之「住宿型長照機構住民及其照護者」、「洗腎患者」及第六類「75歲以上長者」及「孕婦」。此外提醒已接種第一劑AZ COVID-19疫苗者，請於間隔10至12週後完成第二劑接種，使疫苗發揮最大效益；指揮中心亦將於6月23日再就4月12日至5月9日前已接種第一劑之人數進行疫苗配發，以使民眾可陸續完成第二劑接種。\$\@\$另指揮中心進一步說明，莫德納(Moderna) COVID-19疫苗現階段作業為開放第一類至第三類人員及孕婦接種，惟顧及孕婦胎兒狀況及多重健康狀況考量，建議孕婦接種前應與醫師就風險效益詳細評估後，擇適合廠牌進行接種。\$\@\$指揮中心強調，將持續視疫情狀況及疫苗供貨情形，滾動調整開放接種實施對象，保障民眾接種權益，守護民眾健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增79例COVID-19確定病例，其中78例為本土個案，另有1例境外移入；另確診個案中新增6例死亡。\$\@\$指揮中心表示，今日新增之78例本土病例，為35例男性、43例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月14日至6月21日。個案分佈以新北市43例最多，其次為臺北市25例，南投縣3例，基隆市2例，苗栗縣、彰化縣、桃園市、臺中市及新竹縣各1例。其中雙北地區以外縣市10例中，8例為已知感染源，2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增6例死亡個案，為男性3位、女性3位，年齡介於50多歲至80多歲，發病日介於5月19日至6月19日，確診日介於5月28日至6月21日，死亡日介於6月17日至6月21日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月20日累計公布12,806位確診個案中，已有8,087人解除隔離，解隔離人數達確診人數63.2%。\$\@\$指揮中心表示，今日新增1例境外移入個案（案14257）為本國籍50多歲男性，長期於印尼工作，6月20日返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，6月21日出現喉嚨痛等症狀，由衛生單位安排就醫採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,107,543例新型冠狀病毒肺炎相關通報(含1,091,972例排除)，其中14,157例確診，分別為1,166例境外移入，12,938例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；新增2例空號 (案10380、案14131)，累計100例移除為空號；自2020年起累計575例COVID-19死亡病例，其中568例本土，個案居住縣市分布為新北市291例、臺北市223例、基隆市18例、桃園市15例、彰化縣9例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣、高雄市及花蓮市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日表示，為促使聘有移工的雇主加強落實防疫工作，勞動部已修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，明定下列雇主應辦理措施及建議事項：\$\@\$一、疫情期間雇主應辦理措施，包括移工的工作區及生活區應分艙分流，同產線移工應住宿於同一地點；不同雇主的移工不得混住、公共區域應依照移工住宿樓層分時段使用、每天進行移工健康監測及記錄移工出入足跡、接觸史與是否群聚等資料，並應備有1人1室隔離空間等。\$\@\$二、疫情期間建議雇主辦理事項，包括調整產線人員間距，或運用宿舍閒置空間，增加移工居住面積，以保持社交距離；協助移工購買物品，減少移工外出需求；針對有症狀的移工儘速安排篩檢，並於結果出來前預防安排居住1人1室等。\$\@\$指揮中心表示，基於近期苗栗縣有電子廠移工群聚感染案件，勞動部再強化移工工作及生活住宿管理，明定部分指引內容具有強制性質，後續將配合法規修正，要求雇主落實防疫措施，避免發生防疫破口。雇主在疫情期間，未依指引規範妥善辦理，將視情節輕重，要求雇主限期改善，或立即依就業服務法第57條第9款規定，處新臺幣6萬至30萬元罰鍰；此外，違規情節重大者，將再針對聘僱移工名額予以廢止或不予許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。\$\@\$勞動部已偕同地方政府分階段開始訪查全臺移工宿舍，對於先前待改善的雇主，將於近期辦理複查，並依新修正的指引要求雇主改善。另外，針對違反指引規定的企業雇主，將再與經濟部、科技部合作輔導，加強防疫。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增75例COVID-19本土確定病例，均為本土個案；另確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之75例本土病例，為35例男性、40例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月8日至6月20日。個案分佈以新北市38例最多，其次為臺北市22例，桃園市5例，苗栗縣3例，基隆市及臺中市各2例，高雄市、雲林縣及彰化縣各1例。其中雙北地區以外縣市15例中，15例為已知感染源；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性14位、女性6位，年齡介於50多歲至90多歲，發病日介於5月13日至6月16日，確診日介於5月16日至6月20日，死亡日介於6月2日至6月20日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月19日累計公布12,697位確診個案中，已有7,534人解除隔離，解隔離人數達確診人數59.3%。\$\@\$指揮中心統計，截至目前國內累計1,077,415例新型冠狀病毒肺炎相關通報(含1,061,624例排除)，其中14,080例確診，分別為1,165例境外移入，12,862例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；累計569例COVID-19死亡病例，其中562例本土，個案居住縣市分布為新北市289例、臺北市221例、基隆市18例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月21日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至今(2021)年6月19日止，國內接種AZ COVID-19疫苗共計1,446,608人次，其中314,487人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS)已收到67例接種AZ COVID-19疫苗後死亡之報告。截至目前為止，尚無死亡個案被判定為與疫苗相關。\$\@\$指揮中心指出，昨(19)日接種後死亡案件新增18件，皆於接種後4日內發生，15例為75歲以上長者，死亡個案大多數為高齡且有慢性疾病。此外，目前已有9例死亡案件送司法相驗解剖，經初步研判，部分個案死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續仍待司法相驗解剖或回溯檢查等更精確資料，以釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮，並適時對外因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另外，現在已開放診所及衛生所可接種疫苗，建議民眾就近前往接種，並注意防曬、補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日表示，美國政府捐贈250萬劑Moderna COVID-19疫苗將於今日傍晚由華航專機運抵臺灣桃園國際機場，並於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$值此全球疫苗供不應求且疫情艱難時刻，對於美國即時援贈COVID-19疫苗，給予臺灣國內疫情防治極大幫助，指揮中心毋任感荷。\$\@\$陳時中指揮官謹向美國政府與人民表達誠摯謝忱，同時重申臺美雙方將在去年簽署之合作瞭解備忘錄下，持續深化臺美醫衛、科學創新合作，共同對抗COVID-19疫情之威脅。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增109例COVID-19確定病例，分別為107例本土個案及2例境外移入；確診個案中新增11例死亡。\$\@\$指揮中心表示，今日新增之107例本土病例，為57例男性、50例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年6月4日至6月19日。個案分佈以新北市44例最多，其次為臺北市31例，桃園市16例，臺中市6例，新竹縣4例，苗栗縣3例，彰化縣、宜蘭縣及基隆市各1例。其中雙北地區以外縣市32例中，27例為已知感染源、2例關聯不明、3例疫調中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增11例死亡個案，為男性5位、女性6位，年齡介於40多歲至90多歲，發病日介於5月14日至6月15日，確診日介於5月18日至6月16日，死亡日介於6月15日至6月18日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月18日累計公布12,572位確診個案中，已有7,496人解除隔離，解隔離人數達確診人數59.6%。\$\@\$指揮中心表示，今日新增2例境外移入中，案14020為菲律賓籍20多歲男性，5月13日自菲律賓來臺工作，持有搭機前3日內檢驗陰性證明，入境後至集中檢疫所檢疫，5月27日檢疫期滿採檢為陰性，由公司安排至其他住所進行一人一室隔離，6月13日由公司安排採檢陰性，18日再次採檢，於今日確診；個案在臺期間並無症狀，檢疫及自主健康管理期間均為一人一室，未與他人接觸，故無匡列接觸者。案14072為本國籍20多歲女性，6月18日自日本返臺，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館檢疫，6月19日因出現腹瀉、肌肉及關節痠痛、全身疲倦等症狀，由衛生單位安排就醫採檢，於今日確診；已匡列同班機旅客共1人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,063,890例新型冠狀病毒肺炎相關通報(含1,048,326例排除)，其中14,005例確診，分別為1,165例境外移入，12,787例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計98例移除為空號。自2020年起累計549例COVID-19死亡病例，其中542例本土，個案居住縣市分布為新北市274例、臺北市217例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月20日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，截至6月18日止，國內接種AZ COVID-19疫苗共計1,374,956人次，其中269,056人次為75歲以上長者。目前疫苗不良事件通報系統(VAERS) 已收到49例接種AZ COVID-19疫苗後死亡之報告。\$\@\$指揮中心指出，昨(18)日接種後死亡案件新增24件，皆於接種後3日內發生，20例為75歲以上長者，死亡個案絕大多數為高齡長者且有慢性疾病。此外，經司法相驗解剖且有正式報告有4例個案(年齡介於70多歲至90多歲)，初步研判死因與心血管疾病(包括粥狀動脈硬化、主動脈瘤破裂及心肌梗塞等)或慢性病史(如支氣管性肺炎)相關。截至目前為止，死亡個案雖在時序上與疫苗接種相近，但尚無死亡個案被判定為與疫苗相關，後續還需有司法相驗解剖或回溯檢查等更精確資料釐清死因。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$指揮中心提醒，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。近期天氣炎熱，考量長者身體狀況，也建議避開高溫時段前往接種。另現有開放診所及衛生所可接種疫苗，建議就近前往接種，並注意防曬及補充水分。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日表示，將自今(2021)年6月23日起，陸續配發AZ COVID-19疫苗至地方政府衛生局，提供先前已接種第一劑AZ COVID-19疫苗的民眾完成兩劑疫苗接種，以提升免疫保護力。\$\@\$指揮中心說明，截至6月18日止，已有2.7萬名民眾完成兩劑AZ COVID-19疫苗接種，核估目前可調度的剩餘疫苗數量，可提供4月12日至5月9日以前約6.7萬名已接種第一劑疫苗的民眾繼續接種第二劑AZ COVID-19疫苗，並視疫苗供應及接種情形，適時調整疫苗配發進度。\$\@\$指揮中心表示，根據世界衛生組織( World Health Organization, WHO)與醫學期刊「刺胳針」(The Lancet)等國外臨床試驗資料分析顯示，完成兩劑AZ COVID-19疫苗(間隔 80 天)的追蹤結果證實，可預防6成以上有症狀感染之風險；當接種間隔 12 週以上且完成 2 劑接種，保護力可達 81%。基此，我國衛生福利部傳染病防治諮詢會預防接種組（ACIP）專家建議兩劑AZ COVID-19疫苗接種間隔至少8週，而間隔10至12週再接種第二劑疫苗的效益更佳，故指揮中心籲請民眾可於第一劑接種後10-12週完成第二劑接種，使疫苗發揮最大效益。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，於接種後請在接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。\$\@\$指揮中心也提醒民眾，接種AZ COVID-19疫苗後的28天內，如有發生嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當的臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增128例COVID-19確定病例，分別為127例本土個案及1例境外移入；確診個案中新增20例死亡。\$\@\$指揮中心表示，今日新增之127例本土病例，為60例男性、67例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月18日。個案分佈以新北市81例最多，其次為臺北市30例，桃園市8例，新竹縣3例，新竹市、基隆市各2例，臺中市1例。其中雙北地區以外縣市16例中，12例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增20例死亡個案，為男性10位、女性10位，年齡介於50多歲至90多歲，發病日介於5月13日至6月12日，確診日介於5月20日至6月17日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月17日累計公布12,385位確診個案中，已有7,189人解除隔離，解隔離人數達確診人數58%。\$\@\$指揮中心表示，今日新增1例境外移入，為本國籍10多歲男性，5月25日曾於印度確診，6月5日自印度返臺，持有搭機前3日內檢驗陰性證明，入境時採檢陰性，後至集中檢疫所檢疫，6月18日檢疫期滿前採檢，於今日確診(Ct值37)。個案檢疫期間並無症狀，亦無接觸他人，故無框列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,044,211例新型冠狀病毒肺炎相關通報(含1,028,898例排除)，其中13,896例確診，分別為1,163例境外移入，12,680例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增3例空號(案6822、案13764、案13800)，累計98例移除為空號。自2020年起累計538例COVID-19死亡病例，其中531例本土，個案居住縣市分布為新北市265例、臺北市215例、基隆市17例、桃園市15例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月19日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，已於今日上午與各縣市政府完成召開「全國防疫會議」。會議決議如下：\$\@\$一、考量目前國內社區傳播風險仍然存在，請高風險地區持續辦理擴大社區篩檢，雙北部分，建議社區篩檢站設置可以民眾就醫可近性為考量，發生零星案例之地方政府建議加強接觸者追蹤管理，以防堵疫情擴散；另請地方政府持續強化輕症個案之健康監測與轉診效率，尤其針對弱勢族群及獨居老人應提供主動關懷。另對於目前確診病例數持續緩降，爰請各地方政府回復著重疫調及接觸者追蹤管理作業，以利及早發現個案，降低死亡發生。\$\@\$二、疑似感染 COVID-19 之死亡案例死因相驗原則：\$\@\$1.關於相驗，現行法規適用無疑。\$\@\$2.疫情期間猝死個案一律PCR採檢，現階段由雙北地區先施行。\$\@\$3.PCR採檢執行部分：行政相驗由醫師執行，司法相驗由法醫採檢。\$\@\$4.相關檢驗費用由公務預算支出。\$\@\$三、診所辦理自費快篩收治指引及收費標準：\$\@\$1.檢驗方法：以抗原快篩為初篩方法，若為抗原快篩陽性，需以核酸檢驗進行確認。\$\@\$2.檢驗試劑：經食藥署核准防疫專案製造或輸入的SARS-CoV-2抗原快速檢驗試劑，提醒在購買及使用皆須事先確認是否符合相關法規。\$\@\$3.採檢人員：依據傳染病防治法第46條第1項第1款，確定病例的檢體，應該由醫師採檢為原則；疑似病例或社區通報採檢病例的咽喉或鼻咽拭子等接觸者檢體，則不限由醫師採檢，得由醫師或其他醫事人員採檢。\$\@\$四、疫苗配撥及施打部分：\$\@\$1.再次重申疫苗施打目標族群請依指揮中心造冊之對象，依序進行施打，避免造成施打亂象。至於各地方政府提出納入COVID-19疫苗接種對象之相關建議部分，指揮中心均會就各類人員可能受感染風險狀況，作為納入公費施打對象之評估與考量。\$\@\$2.鑒於天氣炎熱，對於年長者施打疫苗部分，請各地方政府儘量安排在地區診所或社區注射站進行，也可運用機動快打方式為長者提供施打服務，避免讓年長者因行程往返造成身體不適情形。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，為保障國人接種COVID-19疫苗權益，指揮中心持續監測疫苗接種後不良事件，並於今日邀集專家就「疫苗不良事件通報系統(VAERS)」通報的COVID-19疫苗接種後死亡個案進行討論。指揮中心表示，截至目前為止，尚未有死亡個案被判定為與疫苗相關。\$\@\$指揮中心統計，截至6月17日為止，國內接種AstraZeneca COVID-19疫苗共計1,273,121人次，其中229,566人次為75歲以上長者。又目前VAERS已收到25例接種AstraZeneca COVID-19疫苗後死亡之報告，其中20例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病；部分個案經司法相驗解剖後，初步死因與心血管疾病或慢性病史相關，惟迄目前為止，尚未有死亡個案被判定為與疫苗相關，指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應。\$\@\$此外，指揮中心亦針對近期高齡者接種COVID-19疫苗，提供以下建議：\$\@\$1. 對於近期身體具狀況或慢性病情不穩定者，建議身體狀況較穩定後再接種。\$\@\$2. 近期天氣炎熱，考量長者身體狀況，建議避開高溫時段前往接種。\$\@\$3. 現有開放診所及衛生所可接種疫苗，建議就近前往接種。\$\@\$指揮中心提醒，所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日宣布，因應國內近期本土COVID-19確診病例疫情嚴峻，為利醫療院所照護重症個案、降低死亡率，將成立「COVID-19重症個案臨床處置專家諮詢小組」，由臺大醫院新竹臺大分院余忠仁院長擔任召集人，邀集全國22位重症個案臨床處置專家擔任諮詢委員，建立COVID-19重症個案處置諮詢平臺，並自6月21日(星期一)起，定期於星期一至星期五，每日晚間6時至8時，召開COVID-19線上重症病例諮詢會議，每日由3至5位諮詢委員，提供各醫療院所臨床重症個案處置意見，預定每次會議時間約為2小時。\$\@\$指揮中心表示，前已函請地方政府衛生局與相關學會轉知所屬醫療院所及會員，若醫療院所於診治COVID-19個案，有相關重症個案臨床處置諮詢需求，請於會議當日中午12時前，以電子郵件提交討論病例簡報、報告人姓名與聯繫資料至指揮中心醫療應變組公務信箱，以利會議討論。\$\@\$指揮中心說明，為降低重症個案死亡率，將「經鼻高流量濕化氧氣治療(Humidified high flow nasal cannula oxygen therapy, HFNCOT）」及「俯臥通氣治療(Prone positioning ventilation therapy)」，納入COVID-19確診個案公費給付項目，並回溯自5月1日起適用。\$\@\$指揮中心呼籲重症照護是團隊作戰，面對COVID-19疫情，重症照護團隊需照顧好自己及隊友，若有相關重症個案臨床處置諮詢需求，務必儘速提請討論，共同強化重症病人照護，保障病人安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日表示，第二批Moderna疫苗24萬劑，已於歐洲時間6月17日下午6時自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。本批疫苗為供應商承諾供應之一部分，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增188例COVID-19確定病例，分別為187例本土個案及1例境外移入；確診個案中新增21例死亡。\$\@\$指揮中心表示，今日新增之187例本土病例，為83例男性、104例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月29日至6月17日。個案分佈以新北市76例最多，其次為臺北市71例，苗栗縣26例，桃園市6例，基隆市4例，臺中市2例，花蓮縣及新竹縣各1例。其中雙北地區以外縣市40例中，38例為已知感染源、2例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增21例死亡個案，為男性12位、女性9位，年齡介於50多歲至90多歲，發病日介於5月6日至6月13日，確診日介於5月19日至6月15日，死亡日介於6月10日至6月16日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月16日累計公布12,210位確診個案中，已有6,873人解除隔離，解隔離人數達確診人數56.3%。\$\@\$指揮中心指出，今日新增1例境外移入個案(案13801)，為印度籍30多歲男性船員，3月5日自印度來臺工作，4月3日登船出海工作，期間並無症狀，6月16日返回我國港口，因出境需要，於同日採檢，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,011,097例新型冠狀病毒肺炎相關通報(含993,010例排除)，其中13,771例確診，分別為1,162例境外移入，12,556例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號(案13408)，累計95例移除為空號。自2020年起累計518例COVID-19死亡病例，其中511例本土，個案居住縣市分布為新北市255例、臺北市206例、基隆市17例、桃園市14例、彰化縣8例、臺中市4例、宜蘭縣及新竹縣各2例，臺東縣、雲林縣及高雄市各1例；另7例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月18日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日表示，疫苗接種是預防COVID-19感染、避免重症與死亡最有效的方式，全世界已有數億人接種過至少一劑疫苗，且COVID-19疫苗的安全性也正持續被監測當中。依過去經驗顯示，大規模疫苗接種與安全性監測時，會發現有部分人在疫苗接種後，發生對健康造成負面影響的事件，包括死亡。這些事件可能是由接種疫苗所導致，也可能與疫苗無關，僅是剛好發生在接種完疫苗後的巧合事件，相關死因皆仍待調查釐清。指揮中心亦將持續監測疫苗接種後不良事件，請國人放心。\$\@\$指揮中心說明，在大規模疫苗接種初期，大部分的接種對象均為年長者，並可能有潛在慢性疾病，使得這類疫苗接種後通報死亡的案件數量增加。因此需藉由回顧病歷資料或解剖釐清死因，調查這些事件是否可能與疫苗相關。此外，亦可藉由持續性自然死亡率的評估，觀察是否有疫苗安全性的疑慮。如根據109年度我國人口統計資料，75歲以上年中人口為1,433,286人，同年度75歲以上死亡人數為95,367人；故可得知，即便在未接種COVID-19疫苗的情形之下，預期平均每日都會有200多名75歲以上長者死亡。\$\@\$指揮中心統計，截至6月16日為止，國內共計1,133,515位民眾接種AstraZeneca COVID-19疫苗，其中174,098名為75歲以上長者。根據疫苗不良事件通報系統(VAERS)顯示，目前已收到11例接種AstraZeneca COVID-19疫苗後死亡之報告，其中8例發生在75歲以上長者，死亡個案絕大多數均為高齡長者且有慢性疾病。部分個案經解剖後已可確認死因。\$\@\$指揮中心強調，截至目前為止，尚未有死亡個案被判定為與疫苗相關。指揮中心將持續監測疫苗接種後不良事件，偵測安全疑慮並做出因應；同時提醒所有符合目前開放疫苗接種順序的民眾，皆能依照各縣市政府的說明接種COVID-19疫苗，除了保護個人免於罹病，更可建立群體對COVID-19的免疫力，避免疾病傳播。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增175例COVID-19本土確定病例，另確診個案中新增19例死亡。\$\@\$指揮中心表示，今日新增之175例本土病例，為100例男性、75例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月3日至6月16日。個案分佈以新北市87例最多，其次為臺北市34例，苗栗縣31例，新竹縣10例，桃園市7例，花蓮縣、基隆市及臺中市各2例。其中雙北地區以外縣市54例中，53例為已知感染源、1例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增19例死亡個案，共計為男性11位、女性8位，年齡介於40多歲至90多歲，發病日介於5月8日至6月12日，確診日介於5月15日至6月14日，死亡日介於6月8日至6月15日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月15日累計公布12,042位確診個案中，已有6,731人解除隔離，解隔離人數達確診人數55.9%。\$\@\$指揮中心統計，截至目前國內累計973,215例新型冠狀病毒肺炎相關通報(含951,005例排除)，其中13,584例確診，分別為1,161例境外移入，12,370例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計94例移除為空號；確診個案中497例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月17日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增170例COVID-19確定病例，分別為167例本土個案及3例境外移入；確診個案中新增18例死亡。\$\@\$指揮中心表示，今日新增之167例本土病例，為85例男性、82例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年6月1日至6月15日。個案分佈以新北市65例最多，其次為臺北市50例，苗栗縣21例，桃園市14例，花蓮縣8例，新竹縣5例，基隆市2例，高雄市及臺中市各1例。其中雙北地區以外縣市52例中，48例為已知感染源、4例關聯不明；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增18例死亡個案，共計為男性9位、女性9位，年齡介於30多歲至90多歲，發病日介於5月7日至6月10日，確診日介於5月15日至6月11日，死亡日介於6月6日至6月14日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月14日累計公布11,907位確診個案中，已有6,373人解除隔離，解隔離人數達確診人數53.5%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13371、案13372均為菲律賓籍20多歲男性船員，分別於5月13日及5月5日自菲律賓來臺工作，皆持有搭機前3日內檢驗陰性報告，且居家檢疫期滿採檢結果均為陰性。2人為同船船員，在臺期間並無症狀，6月14日因出境需求，一同自費採檢，於今日確診；衛生單位已匡列2人接觸者共19人，均列自我健康監測。案13501為本國籍20多歲男性，5月24日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，檢疫期滿後於6月9日出現發燒、咳嗽症狀，就醫後返家持續自主健康管理，6月15日因症狀持續就醫採檢，於今日確診；衛生單位已匡列相關接觸者2人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計937,150例新型冠狀病毒肺炎相關通報(含914,861例排除)，其中13,409例確診，分別為1,161例境外移入，12,195例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另新增2例空號 (案12511、12767)，累計94例移除為空號；確診個案中478例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月16日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日指出，近日有媒體報導「國光在疫苗研發上，疑因試驗基準不公而慘遭淘汰」及「聯亞遭受衛福部刁難，所提的第三期臨床試驗替代方案遭漠視」等相關訊息，指揮中心嚴正澄清，衛生福利部食品藥物管理署(下稱「食藥署」)及財團法人醫藥品查驗中心(下稱「醫藥品查驗中心」)對於國內COVID-19疫苗臨床試驗計畫申請，皆採取一致性審查標準，包括諮詢輔導、召開週會及專家會議均一視同仁，秉持公平公正，提供最合適、最可行之法規科學建議，並無偏袒特定廠商。\$\@\$指揮中心表示，有關國光公司申請第二期臨床試驗一事，食藥署已於110年2月9日函復廠商審查結果，也於函中敘明食藥署之考量，絕無審查不公相關情事。另，有關報導所提聯亞公司提出「圈選接種 (Ring Vaccination)」的國內第三期臨床試驗規劃，食藥署及醫藥品查驗中心亦於諮詢週會給予相關建議，例如：如何選擇指標個案、樣本數估算、施打及追蹤時程、施打劑數之合理性等，供廠商進行相關評估，但截至目前食藥署仍未收到該廠商後續規劃及申請。\$\@\$指揮中心指出，考量疫情及國際公共衛生緊急需求，為加速國產疫苗及早上市，針對COVID-19疫苗研發及輔導，食藥署及醫藥品查驗中心採滾動式審查機制(rolling review)，並針對重要關鍵製程，派員駐廠監製，協助廠商於研發過程能符合法規要求，以縮短研發及審查時程，並確保疫苗品質、安全及療效。\$\@\$指揮中心表示，該中心採購COVID-19疫苗，包括先前採購國外疫苗，均為預採購模式。此次採購國產疫苗是依據政府採購法第105條第1項第2款「因人民之生命、身體、健康、財產遭遇緊急危難」辦理。惟採購合約細節基於保密要求，相關資訊暫不便對外透露。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-16\$\@\$中央流行疫情指揮中心今(16)日表示，將於6月18日起，配送第二批莫德納(Moderna) COVID-19疫苗73,200劑，同時開放第一類至第三類對象接種，請獲配之合約醫療院所開啟預約掛號服務，提供上述對象預約接種，提升群體免疫力。\$\@\$指揮中心說明，莫德納(Moderna) COVID-19疫苗已於6月9日起陸續提供第一類醫事及非醫事人員接種，截至昨(15)日累計接種3萬7,505人。為儘速提升第二類及第三類對象免疫保護力，將於6月18日起進行第二次配送，同時開放至第三類對象接種。本次疫苗配送量是以各縣市符合第一類至第三類對象中，尚未接種人數接種率４成核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）分配數量係以尚未接種人數接種率達5成以上計算，總計配送63,200劑。\$\@\$指揮中心表示，另10,000劑疫苗提供交通部認定之第二類及第三類對象所需疫苗量，其中分配給國籍航空機組員5,000劑，含長榮、立榮、華航、華信、台灣虎航、星宇及飛特立等7家公司的駕駛員、空服員與隨機維修員等；另外5,000劑分配給民航航空第一線人員，含桃園機場及相關廠商、民航局、航空站、航管人員、飛機維修、倉儲、地勤及空廚等人員。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。另，依據各國疫苗上市後安全性監測，曾有報告極少數年輕族群在接種mRNA 疫苗後發生心肌炎等的不良反應事件，大多發生在接種後數天內，指揮中心特別提醒民眾，接種mRNA 疫苗後，應注意如出現胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，有關COVID-19疫苗，在世界各國及世界衛生組織指引中，皆將防疫人員與醫護人員列在優先施打對象，目的是為了執行疾病防治工作保護民眾，維持社會安定；而我國也將此類人員列為優先施打的對象。\$\@\$指揮中心進一步指出，第二類中央及地方政府防疫人員包含對象為：「維持防疫體系運作之中央及地方政府重要官員」、「衛生單位第一線防疫人員」、「港埠執行邊境管制之海關檢查(Customs)、證照查驗(Immigration)、人員檢疫及動植物檢疫(Quarantine)、安全檢查及航空保安(Security)等第一線工作人員」、「實際執行居家檢疫與居家隔離者關懷服務工作可能接觸前開對象之第一線人員(含警察、提送餐等服務之村里長或村里幹事、垃圾清運之環保人員、心理諮商及特殊狀況親訪等人員)」、「實際執行救災、救護人員(指消防隊及民間救護車執行緊急救護技術之第一線人員)」、「第一線海巡、岸巡人員」、「實施空中救護勤務人員」及協助防疫工作之國軍人員，該項下截至6/15已造冊人數計約16.2萬人。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為提升目前優先接種COVID-19疫苗對象之接種率，將於6月17日起，依各縣市75歲以上人口比率，進行第二次疫苗撥配，預計配送394,800劑。\$\@\$指揮中心說明，自6月12日起，已陸續撥配68.8萬劑(含高風險縣市及中高風險縣市額外撥配2.49萬劑)至各地方政府衛生局，提供第一類至第六類優先對象(包括「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」)接種。為提升前揭對象接種率，本次疫苗配送量是以各縣市75歲以上長者人口數之26%核估，同時考量疫情風險程度，高風險縣市（臺北市、新北市）增配10%，中高風險縣市（桃園市、臺中市、基隆市、苗栗縣及彰化縣）增配5%，合計配送 385,800劑。加上前次疫苗撥配量，預估可讓全臺75歲以上長者接種率至少達53%。\$\@\$指揮中心指出，另考量部分縣市及離島縣市交通不便、疫苗配送不易且醫療資源相較不足，指揮中心規劃「離島-偏遠地區擴大接種計畫」，額外撥補臺東縣、屏東縣、澎湖縣、金門縣及連江縣共9,000劑疫苗，提供縣市依轄內接種需求規劃疫苗接種作業，其中連江縣撥配量將提前於6月16日配送。\$\@\$指揮中心特別提醒，為確保疫苗接種安全，建議先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日表示，為儘速發掘社區內可能潛藏病例，並有效斷絕所有感染鏈，該中心已於10日公布「社區廣篩4大策略」；今日並宣布，將補助各地方社區篩檢站50臺PCR檢驗儀器，居家自採與企業快篩陽性民眾，將可就近至社區第一線進行快速PCR檢驗。\$\@\$指揮中心指出，在廣設社區篩檢站方面，截至6月13日止，全國各地已開設249社區篩檢站，為加速社區第一線檢驗量能篩檢，今日宣布將補助各地方社區篩檢站50臺PCR檢驗儀器，未來居家自採與企業快篩民眾，若快篩結果呈現陽性，可就近至有快速PCR檢驗的社區篩檢站進行檢驗，並依照PCR檢驗結果及有無症狀進行後續措施(如附表)，形成全國社區防疫網。\$\@\$指揮中心表示，目前持續鼓勵各地方政府設置社區篩檢站，並以「區域個案數」、「確診者足跡熱區」等盛行率較高的地區為考量，針對具有確診個案相關接觸史、活動史的無症狀民眾為主要篩檢對象。另為保全重度級急救責任醫院收治量能，請考量於社區健康中心、其他非重度級急救責任醫院及通風良好的場所，設置社區篩檢站。相關設置規定，可參考指揮中心訂頒的「各地方政府社區篩檢站設置指引」辦理。\$\@\$指揮中心再次提醒，所有篩檢工具皆有偽陰性、偽陽性的可能，檢驗陰性民眾仍應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施。 圖片 附件\$\@\$0615 COVID-19廣篩策略.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增135例COVID-19確定病例，其中132例為本土個案，另有3例境外移入；確診個案中新增8例死亡。\$\@\$指揮中心表示，今日新增之132例本土病例，為62例男性、70例女性，年齡介於未滿5歲至80多歲，發病日介於今(2021)年6月1日至6月14日。個案分佈以新北市65例最多，其次為臺北市26例，苗栗縣18例，桃園市12例，基隆市3例，臺南市、臺中市及花蓮縣各2例，嘉義縣及彰化縣各1例。其中雙北地區以外縣市41例中，33例為已知感染源、6例關聯不明、2例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增8例死亡個案，共計為男性3位、女性5位，年齡介於50多歲至90多歲，發病日介於5月15日至6月2日，確診日介於5月17日至6月8日，死亡日介於6月6日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月13日累計公布11,722位確診個案中，已有6,188人解除隔離，解隔離人數達確診人數52.8%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案13305為20多歲印尼籍男性，5月8日來臺工作，持有搭機前3日內檢驗陰性報告，居家檢疫期滿及自主健康管理期滿時採檢均為陰性，6月13日因工作需求再次安排採檢，於今日確診(Ct值33)，個案在臺期間並無症狀，且期間未與他人接觸，故無匡列接觸者。案13332、案13333分別為本國籍50多歲女性及未滿10歲男性，6月6日一同自秘魯返臺，持有搭機前3日內檢驗陰性報告，入境後至自宅居家檢疫，2人於6月11日出現發燒等症狀，6月14日通報衛生單位後安排採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計903,676例新型冠狀病毒肺炎相關通報(含881,495例排除)，其中13,241例確診，分別為1,158例境外移入，12,030例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中460例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月15日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-15\$\@\$中央流行疫情指揮中心表示，今(15)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、目前全國推動加強三級警戒等管制措施，雙北疫情雖逐步趨緩，但指揮中心仍請雙北以外的部分縣市，密切注意疫情發展，須持續強化基層醫療檢驗及社區篩檢及病例監測之能力，針對弱勢族群及獨居老人更應提高注意，並加強疫調與接觸者管理及早發現個案，以防疫情反彈或出現新一波流行。\$\@\$二、有關疫苗配發及接種作業：\$\@\$(一)指揮中心再次向各地方政府說明，前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AZ疫苗，均以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各地方政府依比例公平、公開透明分配，指揮中心也會根據各地方政府之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業。\$\@\$(二)有關指揮中心已公布之目標接種族群，其疫苗施打不受戶籍地限制，請地方政府依序完成民眾預約接種作業；另地方政府建請指揮中心就目前開放施打對象重新評估研議部分，鑒於疫苗量有限，仍請各地方政府依造冊對象及接種計畫審慎作業，有關第七類施打對象部分，指揮中心正與相關機關進行盤點，也會參考地方政府建議，依實際狀況完備造冊作業。\$\@\$三、有關地方政府擬進行到宅接種作業，指揮中心尊重地方政府相關作業，惟請留意疫苗保存條件：須保存在2-8℃、開瓶後要在6小時內施打，避免晃動等。另應預先安排10人次進行施打，以利疫苗接種效率。\$\@\$四、針對出國留學之學生能否先予納入公費疫苗接種對象，鑒於國內疫苗供應需求，目前仍以臺灣社區防疫為主，暫不將上類人員納入公費施打對象。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$國際疫情持續嚴峻且變化快速，為確保國籍航空機組員職場健康及維護國內防疫安全，關於國籍航空公司機組員接種COVID-19疫苗後之檢疫措施，於交通主管機關監督航空公司落實外站「零接觸」管理、機組員「機上全程防護」及返國檢疫措施下，調整說明如下：\$\@\$一、重點高風險國家航線航班之返臺機組員，居家檢疫14天(結束日PCR檢驗)。\$\@\$二、長程航班(入境旅遊疫情第三級地區)：\$\@\$1. 尚未接種疫苗及接種1劑疫苗未達兩週者：110/6/12起，採5天居家檢疫(結束日PCR檢驗)+9天加強版自主健康管理(第9、14天抗原快篩)。7/1起，採7天居家檢疫(結束日PCR檢驗)+7天加強版自主健康管理(第14天抗原快篩)。\$\@\$2. 接種1劑疫苗且滿兩週，但尚未具完整疫苗保護力：110/6/12起，採3天居家檢疫(結束日PCR檢驗)+11天自主健康管理(第9、14天抗原快篩)。7/1起，採5天居家檢疫(結束日PCR檢驗)+9加強版天自主健康管理(第9、14天抗原快篩)。\$\@\$3. 完整接種2劑疫苗達兩週且抗體檢測陽性(每3個月監測)：採7天自主健康管理(結束日PCR陰性)。\$\@\$三、短程航班(當班往返且未入境旅遊疫情第三級地區)：110/6/12起，\$\@\$1. 未完整接種疫苗達兩週及抗體檢測陰性者：採14天自主健康管理+每14天PCR監測。\$\@\$2. 完整接種疫苗滿兩週且抗體檢測陽性者(每3個月抗體監測)：自我健康監測+每14天PCR監測\$\@\$指揮中心表示，自疫情以來，機組員肩負疫苗及輸送物資進出口，以維持空運貨物運能，對機組員的付出表示感謝。目前國籍航空機組員多數已接種第1劑疫苗，後續將保留其第2劑疫苗，確保其能獲得疫苗保護力。指揮中心特別提醒，因病毒株變異及傳播力難以預測，具疫苗保護力的機組員於執勤時，仍應遵守民用航空局訂定之作業規範，於外站「零接觸當地人」、機上全程防護及加強手部衛生清消頻率等，以維護個人及家人防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增185例COVID-19確定病例，均為本土個案；另確診個案中新增15例死亡。\$\@\$指揮中心表示，今日新增之185例本土病例，為83例男性、102例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月28日至6月13日。個案分佈以新北市98例最多，其次為臺北市42例，基隆市14例，桃園市10例，苗栗縣7例，花蓮縣4例，彰化縣及新竹縣各3例，宜蘭縣2例，臺中市及雲林縣各1例。其中雙北地區以外縣市45例中，37例為已知感染源、5例關聯不明、3例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增15例死亡個案，共計為男性9位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月8日，確診日介於5月18日至6月13日，死亡日介於6月5日至6月13日，詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至6月12日累計公布11,547位確診個案中，已有5,802人解除隔離，解隔離人數達確診人數50.2%。\$\@\$指揮中心統計，截至目前國內累計886,014例新型冠狀病毒肺炎相關通報(含863,703例排除)，其中13,106例確診，分別為1,155例境外移入，11,898例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中452例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月14日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日就「第二類『中央政府防疫人員』及第三類『高接觸風險第一線工作人員』疫苗量，寄放於各縣市」一事，說明如下：\$\@\$一、指揮中心係以造冊名單核估各縣市第一類至第三類人員疫苗分配數量。前一批COVAX分配之40.98萬劑及本次日本政府提供之124萬劑AstraZeneca COVID-19疫苗，均以此原則估算。\$\@\$二、對於符合各類接種對象身分者，COVID-19合約醫療院所均不得以任何方式拒絕及妨礙該等對象接種，惟未限定須為其保留疫苗數量，故無所謂「寄放」之問題，如未及時接種，地方政府可依現行優先接種對象，安排接種作業。\$\@\$三、考量先前第二類、第三類對象之接種作業，有些地方政府以各縣市所屬機關人員優先接種，而拒絕為符合第二類之「中央政府防疫人員」接種，爰本次疫苗分配時，特別提醒各地方政府衛生局，應提供工作地點位於該縣市之「中央政府防疫人員」及「高接觸風險第一線工作人員」接種疫苗。該數量係以機關/工作所在地位於該縣市，且尚未接種人數之6成估算，提供各地方政府參考使用。\$\@\$指揮中心再次重申，配送予各地方政府之疫苗數量，是以疫情狀況、疫苗可分配數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日表示，有關網傳總統、副總統已接種COVID-19疫苗，經總統及副總統授權由中央流行疫情指揮中心調閱「全國性預防接種資訊管理系統(NIIS)」系統查證，蔡英文總統及賴清德副總統均尚未接種COVID-19疫苗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增175例COVID-19確定病例，分別為174例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之174例本土病例，為79例男性、95例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月23日至6月12日。個案分佈以新北市81例最多，其次為臺北市62例，桃園市16例，基隆市7例，彰化縣4例，新竹縣2例，臺中市及花蓮縣各1例。其中雙北地區以外縣市31例中，20例為已知感染源、7例關聯不明、4例調查中；相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性15位、女性11位，年齡介於50多歲至90多歲，發病日介於5月6日至6月10日，確診日介於5月15日至6月12日，死亡日介於6月4日至6月12日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12924)，為本國籍20多歲男性，4月曾在美國當地檢出COVID-19陽性，5月17日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館進行居家檢疫，6月11日自費採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。\$\@\$指揮中心統計，累計869,247例新型冠狀病毒肺炎相關通報(含846,797例排除)，其中12,921例確診，分別為1,155例境外移入，11,713例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中，另累計92例移除為空號。確診個案中437例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月13日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，有關日本提供之124萬劑AZ疫苗，已於6月9日發布之新聞稿說明：預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所；而各地方政府分配數計算基礎如下（分配表如附件）：\$\@\$1、第一至三類未接種人數的六成。\$\@\$2、長照機構未接種人數的六成（離島加權至八成以上）。\$\@\$3、75歲以上人數的27%（離島加權至九成以上）。\$\@\$4、洗腎患者人數之全數。\$\@\$1至4項合計數扣除已配送莫德納疫苗數，即為各地方政府獲配疫苗數量。\$\@\$指揮中心重申，每批次疫苗配送各地方政府，是以疫情狀況、疫苗數量、接種情形等綜合評估後，訂定分配數計算基礎之公式，對各縣市依比例公平分配，指揮中心也會根據各自縣市之疫情及後續接種情形等狀況分析，滾動檢討並加強配送作業，全力協助地方政府推動疫苗接種作業。 附件\$\@\$附件-1100612-日本提供之124萬劑AZ疫苗各地方政府第一次配送分配表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日表示，首批莫德納（Moderna）疫苗15萬劑中，7.5萬劑已於6月9日配送提供全國COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)，以提供尚未接種COVID-19疫苗的第一線照顧病患醫事及非醫事人員接種服務，截至昨(11)日累計接種2萬4,869人。\$\@\$指揮中心指出，為使疫苗資源有效運用，並加速接種作業，自今日起同時開放所有第一類對象包含醫院、診所及其他醫事機構等執業登記醫事人員、非醫事工作人員，以及集中檢疫所非醫事人員接種莫德納疫苗。\$\@\$指揮中心表示，依據目前研究顯示，接種兩劑不同技術產製的COVID-19疫苗，第二劑接種後發生不良反應機率及嚴重程度較高，故不建議交替使用，惟若接種第一劑COVID-19疫苗發生嚴重過敏反應或產生任何(含對疫苗成分)嚴重的立即過敏或不良反應，並經通報疫苗不良事件通報系統(VAERS)判定為嚴重反應者，建議經醫師評估後接種不同技術產製的 COVID-19 疫苗，完成後續劑次。\$\@\$指揮中心進一步表示，另依美國疾病管制及預防中心近期針對COVID-19疫苗接種不良反應事件監測發現：「曾有報告極少數年輕族群在接種mRNA疫苗後發生心肌炎的不良反應事件，大多發生在接種後數天內」。由於莫德納COVID-19疫苗屬於mRNA疫苗的一種，因此會在接種意願書上加上下列說明「接種mRNA疫苗後應注意若有發生胸痛、喘或心悸等症狀，請立即就醫並說明疫苗接種史」。接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。\$\@\$指揮中心指出，為利接種作業推動及維持社交距離避免群聚，COVID-19疫苗接種後調整留觀時間為15分鐘，自我密切觀察15分鐘；但針對先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。倘持續發燒超過 48 小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，亦應儘速就醫，並說明疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增251例COVID-19確定病例，分別為250例本土及1例境外移入；另確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之250例本土病例，為116例男性、134例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月28日至6月11日。個案分佈以新北市133例最多，其次為臺北市65例，基隆市16例，桃園市13例，苗栗縣9例，花蓮縣3例，宜蘭縣、新竹市、彰化縣及臺中市各2例，高雄市、雲林縣、新竹縣各1例。其中雙北地區以外縣市52例中，45例為已知感染源，7例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性16位、女性10位，年齡介於40多歲至100多歲，發病日介於5月15日至6月9日，確診日介於5月18日至6月11日，死亡日介於6月4日至6月11日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12698)，為本國籍40多歲女性，5月30日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫旅館進行居家檢疫，於6月9日出現發燒等症狀，6月10日由衛生單位安排採檢送驗，於今日確診。\$\@\$指揮中心統計，累計845,113例新型冠狀病毒肺炎相關通報(含821,956例排除)，其中12,746例確診，分別為1,154例境外移入，11,539例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增5例空號 (案9332、10323、10337、10353、12078)，累計92例移除為空號。確診個案中411例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月12日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日下午由行政院秘書長李孟諺、指揮中心社區防疫組組長薛瑞元與各縣市政府衛生局召開「COVID-19疫苗接種作業推行協調會」，針對不同年齡與族群的疫苗接種策略，進行相關經驗交流與分享；會議重點如下：\$\@\$請地方衛生機關每日確實將接種名冊上傳，以利及時掌握接種進度及疫苗撥配相關事宜。\$\@\$日本政府提供我國的124萬劑AstraZeneca疫苗，開放75歲以上長者(含65歲以上具原住民身分者)施打，只要為民國35年12月31日(含)以前出生者，或具原住民身分之證明文件且為民國45年12月31日(含)以前出生者，均符合接種資格。同時，75歲以上長者，不限其居住地或戶籍地，均可就近完成接種作業。\$\@\$各地方政府的疫苗接種策略不同，大部分縣市採預先造冊、由民政單位通知方式辦理，另有部分縣市採用院所預約方式，惟請採預約方式之縣市，宜加速擴充電話線路及服務人力，使施打作業更為順暢。\$\@\$另，指揮中心提醒，目前第一類尚未完成接種COVID-19疫苗較多之縣市，請加速疫苗接種作業，使民眾儘早獲得疫苗保護力。\$\@\$為避免人潮擁擠，請各地方政府以分齡、分流、分批辦理，減少群聚風險。\$\@\$另，由於食品藥物管理署加速完成該批COVID-19疫苗檢驗封緘作業，以及物流業者鼎力協助提前於今日深夜開始配送，明(12)日將有50萬劑陸續運抵各地方政府，考量地方政府需前置作業時間，指揮中心表示，疫苗開打日仍以 6月15日為原則辦理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心表示，今(11)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、雙北疫情趨勢雖持平惟仍舊嚴峻，指揮中心持續鼓勵各縣市增設社區篩檢站，以便及早發掘潛在陽性個案，阻斷社區傳播鏈；另鑒於重症及死亡數攀升對社會之衝擊與影響較大，也請各地方政府持續掌握及協調醫療資源，迅速應變。\$\@\$二、針對疫苗配撥及施打作業：\$\@\$(一)指揮中心再次強調，中央與地方應秉持「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂「COVID-19疫苗接種順序」，進行施打作業。\$\@\$(二)有關各地方政府關切疫苗配撥量部分，指揮中心會儘速完成第一類至第六類符合施打對象之計算，並加速進行疫苗撥發作業。另鑒於現行國內疫苗量仍無法全數完成上開類別人員之施打，亦請各地方政府審慎妥予規劃相關施打作業之進行。\$\@\$(三)請地方衛生機關加強向合約醫療院所宣導，針對符合接種順序者，應讓其以最方便之方式就近完成接種作業，不侷限接種者居住地、工作地或戶籍地區分，避免造成人流移動情形；另有關疫苗施打類別，針對公費疫苗接種第七類有關維持國家安全及社會機能正常運作者之匡列部分，指揮中心將會再進一步研議，俾符實際運作狀況。\$\@\$三、衛生福利部醫事司與內政部消防署已協調民間18家救護車業者，自今日起投入防疫救護載運工作，將進行醫院、集中檢疫場所間，點到點之病患運送作業，預計至少有108部民間救護車加入防疫工作，以有效舒緩消防機關救護工作之壓力。\$\@\$四、請各地方政府鼓勵觀光飯店業者發動「暖心方案」，提供醫護人員以及相關醫事人員入住，讓第一線醫事人員可以獲得充分及妥適休息。\$\@\$五、鑒於暑假將屆，有關大專院校學生暑期生活管理作業，教育部前於5月26日及6月8日2度要求各級學校，應強化住宿生管理，並不得強制要求住宿學生返家。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，指揮中心已採購複合單株抗體藥物，將提供具有重症風險因子之輕中度確診個案治療使用，以降低個案轉為重症需住院之風險，協助紓解重症醫療量能。\$\@\$指揮中心指出，依據國際研究顯示，新冠病毒感染患者輕症比率大約佔8成左右，但其中約9％的患者可能惡化為重症，主要的重症危險因子有高齡、肥胖、慢性腎病、心血管疾病/高血壓、慢性肺病、免疫抑制疾病/免疫抑制治療等影響免疫功能之疾病，以及懷孕等，且其病程演化迅速，甚至導致死亡。截至本(110)年6月10日監測資料，國內輕中度COVID-19確診病例約佔所有確診個案84%，死亡病例數佔確診病例2.7%。\$\@\$指揮中心表示，國內新冠肺炎(COVID-19)疫情持續嚴峻，重症醫療量能持續緊繃，鑒於單株抗體之療效及安全性已有部分證據支持，美國FDA及國際間已陸續發布緊急使用授權(EUA)核准於臨床使用，以治療輕度至中度SARS-CoV-2感染且有重症危險因子之高風險患者，降低個案轉為重症需住院之風險。指揮中心經諮詢專家，已將該藥物之使用建議納入我國新型冠狀病毒(SARS-CoV-2)感染臨床處置暫行指引，並著手採購儲備該藥物，規劃分配於集中檢疫場所之主責醫院，經醫師評估治療效益與風險，並充分告知後，給予符合條件個案注射治療。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增287例COVID-19確定病例，分別為286例本土及1例境外移入；另確診個案中新增24例死亡。\$\@\$指揮中心表示，今日新增之286例本土病例，為141例男性、145例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月19日至6月10日。個案分佈以新北市120例最多，其次為苗栗縣56例、臺北市49例、桃園市19例、新竹縣12例、基隆市8例、彰化縣7例、臺中市4例、宜蘭縣及新竹市各3例、雲林縣及花蓮縣各2例、臺南市1例。其中雙北地區以外縣市117例中，109例為已知感染源，8例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增24例死亡個案，共計為男性12位、女性12位，年齡介於50多歲至80多歲，發病日介於5月3日至6月8日，確診日介於5月15日至6月10日，死亡日介於6月2日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案(案12479)，為泰國籍30多歲男性移工，2月7日曾在泰國當地檢出COVID-19陽性，3月23日自泰國來臺工作，持有搭機前3日內檢驗陰性報告，4月7日檢疫期滿採檢結果為陰性，6月8日出現發燒及咳嗽症狀，6月10日就醫採檢，於今日確診(Ct值31，次日再驗核酸檢測陰性，血清抗體陽性)；已匡列個案接觸者13人，皆列為居家隔離。\$\@\$指揮中心統計，累計804,931例新型冠狀病毒肺炎相關通報(含781,334例排除)，其中12,500例確診，分別為1,153例境外移入，11,294例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增9例空號 (案6616、9671、10339、10348、10350、10359、10452、11381、11865)，累計87例移除為空號。確診個案中385例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月11日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-11\$\@\$中央流行疫情指揮中心今(11)日表示，鑑於國內COVID-19疫情仍未穩定，為避免增加我國檢疫量能及醫療資源的負擔，全國疫情警戒第三級期間，將持續執行「邊境嚴管」措施。\$\@\$邊境嚴管措施，包括(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外；(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日表示，鑒於近日國內疫情嚴峻，我國共計6家企業及民間單位（萬海航運、元大金控集團、臺灣證券交易所/臺灣期貨交易所/臺灣集中保管結算所/中華民國證券櫃檯買賣中心、光合基金會/大肚山產業創新基金會、富邦金控、急診醫學會）集資共同捐贈日本日立公司所生產之「負壓隔離艙」80座，將由衛生福利部轉交各急救責任醫院使用，盼能協助解決為各大急救責任醫院負壓隔離病房不足的問題，提供解決方案。\$\@\$指揮中心說明，經指揮中心醫療應變組王必勝副組長與代理商三顧股份有限公司交涉，日本日立公司鑒於臺灣疫情嚴峻，優先協調部分訂單給予我國採購，並由中華航空公司無償協助運輸工作，今日晚間首批10座已抵達臺灣，剩餘70座將分批於未來三周內陸續送達。\$\@\$指揮中心指出，「負壓隔離艙」可用於室內外、急診或加護病房等處，為確診或疑似病患提供緊急處置、暫留及轉出轉入空間，以減少醫護和病患直接接觸的機會，為我國第一線醫療資源提供直接的保護。正值此疫情艱難時刻，指揮中心感謝各方集結力量、團結抗疫，協助我國疫情防治工作，共同守護第一線醫療人員，指揮中心向各方表達誠摯的感謝，近日將儘快依各醫院需求及疫情狀況，調配運送至各醫院組裝啟用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今（10）日表示，針對臺北市今日上午對COVID-19疫苗接種相關之言論，說明如下：\$\@\$一、    指揮中心指出，所謂4月21日之發文是指揮中心於4月14日與衛生局召開協調會之紀錄，其中一項決議為若合約醫院 COVID-19疫苗庫存量過多，評估無法於效期內用畢，為使疫苗有效運用，可在轄區衛生局人員協助下，將疫苗配送至其他合約醫院、非合約醫療院所或衛生所，需用者儘速使用，調度以一次為限，運送時應符合疫苗冷運冷藏相關規範等；惟當時狀況係因一批疫苗即將於5月底到期，當時開放之公費對象接種意願低，故將疫苗進行靈活配置，於效期前提供開放之公費對象中的需求者接種，以儘速適當使用疫苗。\$\@\$二、    指揮中心進一步說明，自5月下旬起，因疫情致疫苗接種需求大增，指揮中心為保障第一線醫護及防疫人員安全，依ACIP COVID-19疫苗工作小組會議決議，以電子郵件通知地方政府衛生局，自5/24起優先提供第一類至第三類人員接種，並視疫苗庫存量及接種規劃，提供3月22日至4月11日已完第一劑之醫護人員與因公務出國者接種第二劑，此外，必須暫緩「自費對象」以及「第一類至第三類同住者」接種；後續指揮中心撥配疫苗時亦皆限定接種對象，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象，並未開放其他對象接種。有關好心肝診所接種疫苗的事件，疫苗效期至8月多，應無庫存量過多而無法使用之疑慮，且接種對象是否為開放接種之公費對象，為應釐清之重點。\$\@\$三、指揮中心重申，有關中央政府有850瓶COVID-19疫苗置於臺北市或轄內醫院一事，已於昨(9)日發布新聞稿說明，該等疫苗為指揮中心專案同意列冊施打對象，總計配送650瓶疫苗，其中差距之200瓶係為已送至臺北市立聯合醫院仁愛院區，提供華航機師及機組員接種之疫苗，另80瓶為指揮中心提供中心內各部會及疾管署人員施打，目前剩餘30瓶。\$\@\$四、有關疫苗接種預約系統部分，於這次124萬劑疫苗接種規劃，係以運用現行合約醫療院所預約模式提供民眾接種服務；至臺北市政府所提指揮中心規劃之預約系統，係為大規模接種措施使用，目前正積極測試中。\$\@\$指揮中心強調，疫苗接種政策為全體國民重要權益，相關規定、流程、接種對象及順序均公開透明，如有違法事項絕對依法徹查，嚴正法辦，絕不寬貸，有心人士切勿心存僥倖，以身試法。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增266例COVID-19確定病例，其中263例為本土個案，另有3例境外移入個案。確診個案中新增28例死亡。\$\@\$指揮中心表示，今日新增之263例本土病例，為124例男性、139例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月22日至6月9日。個案分佈以新北市112例最多，其次為臺北市58例、苗栗縣43例、桃園市14例、基隆市12例、彰化縣10例、花蓮縣7例、南投縣及新竹縣各2例，宜蘭縣、臺東縣及臺南市各1例。其中雙北地區以外縣市93例中，84例為已知感染源，5例關聯不明，4例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增28例死亡個案，共計為男性21位、女性7位，年齡介於50多歲至90多歲，發病日介於5月13日至6月8日，確診日介於5月16日至6月9日，死亡日介於6月1日至6月9日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增3例境外移入個案中，案12214為本國籍30多歲男性，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所檢疫並採檢送驗，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案12293為本國籍30多歲男性，4月14日自奈及利亞返臺，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀；因需再次出境，於6月9日自費採檢後確診；相關接觸者匡列中。案12294為本國籍40多歲女性，曾於4月9日及30日於美國當地完成2劑Pfizer/BioNTech疫苗接種，並於6月3日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後返家進行居家檢疫，6月7日出現咳嗽、流鼻水等症狀但未就醫；6月9日，個案的同住家人出現發燒症狀，經就醫採檢後確診，故同日安排個案採檢，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，累計769,990例新型冠狀病毒肺炎相關通報(含746,817例排除)，其中12,222例確診，分別為1,152例境外移入，11,017例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增12例空號 (案2550、2977、6445、7162、7379、9729、10340、10354、10355、10356、10524、11849)，累計78例移除為空號。確診個案中361例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月10日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$針對臺北市政府提供好心肝診所一千多劑COVID-19 疫苗，且該診所未依指揮中心之規定，提供非屬一到三類醫護人員之一般民眾施打一事，中央流行疫情指揮中心今(9)日嚴正表示，此事嚴重影響尚未施打疫苗之基層醫護人員權益，有人漠視規定，明知故犯，情節重大，指揮中心將由司法單位依法徹查，還原真相，並追究相關人員應負之法律責任。\$\@\$指揮中心指出，該診所之醫護人員多已至院外接種COVID-19疫苗，而指揮中心也尚未許可基層診所提供COVID-19疫苗接種服務，臺北市政府竟無視相關規定，任意將多達一千多劑疫苗撥給該診所，既違反規定，也不合情理；而該診所短時間內即施打一千多劑，究竟是何人被通知前往施打，有無特權介入，事不單純，也不尋常，其中過程實令人合理懷疑是否有違法濫權之事。\$\@\$指揮中心強調，基於維護及確保疫苗施打之合法性及公平性的職責，絕不容許類此情形再度發生，破壞綱紀，並將交由司法單位調查本案之始末，釐清真相，還原事實，以瞭解其中是否有人謀不臧、私相授受，甚至偽造文書或違法圖利之相關犯罪嫌疑，以明法紀，並昭公信。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$有關COVID-19疫苗放置臺北市醫院，提供中央造冊之外國使節等施打一事，中央流行疫情指揮中心今(9)日表示，因特殊情形必要出國者，可由各該主管機關提具需求說明、預估接種人數及時程，向中央流行疫情指揮中心以專案方式，申請接種公費COVID-19疫苗。目前已專案申請接種對象包括我國因外交或公務需求奉派出國者、代表我國出國之運動員或參賽選手等。另基於互惠原則，駐臺外交人員及其在臺眷屬亦屬專案同意接種對象。針對此類專案指揮中心會視疫苗進口期程及供應量整體評估提供。\$\@\$指揮中心進一步說明，考量該類專案對象其工作地點多位於臺北市，且其工作性質需分批次接種，故依專案需求，撥配疫苗至單位指定院所，提供該類對象接種；目前撥配及接種狀況如下：\$\@\$一、疾病管制署庫存30瓶，係供該署尚未接種第一劑及須接種第二劑之防疫人員接種，本週預計接種30人次，並依照業務安排陸續完成接種。\$\@\$二、三軍總醫院附設民眾診療服務處計配送70瓶，提供國軍協助防疫旅館消毒之化學兵接種，已全數接種完畢。\$\@\$三、臺北市立仁愛醫院計配送180瓶，係提供華航機師及機組員接種，截至目前約250人尚未接種，預計本週完成接種。\$\@\$四、三軍總醫院北投分院計配送100瓶，供總統護衛等國安人員接種，截至目前，尚有250人未接種，庫存14 瓶，預計本週完成接種。\$\@\$五、臺北醫學大學附設醫院，係提供食品藥物管理署員工接種，已全數接種完畢。\$\@\$六、臺大醫院配送20瓶，供指揮中心委託研究計畫之研究對象使用，已全數接種完畢。\$\@\$七、指揮中心另請臺北市榮民總醫院協助接種外交使節、因公務需求有必要出國者及代表國家出國之運動選手疫苗接種事宜，目前約400人還未接種。\$\@\$指揮中心強調，針對上述指揮中心同意列冊施打對象，總計配送650瓶疫苗，目前已接種共計5,400人次，尚未接種為1,200人次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日表示，昨(8)日衛生福利部傳染病防治諮詢會預防接種組(ACIP)召開專家會議，討論COVID-19疫苗優先接種順序。會中專家表示，因應國內正處於COVID-19社區流行階段現況，為使醫療、防疫業務正常運作，確保感染後易產生嚴重併發症或導致死亡之對象儘速獲得免疫保護力，同時確保社會及國家設施正常運作，降低疫情造成之衝擊，建議調整「COVID-19疫苗優先接種順序」，將「維持機構及社福照護系統運作」及「75歲以上長者」分別列於第五類及第六類對象，並將「經各主管機關認定之關鍵設施工作人員」、「運輸及倉儲業者」、「高中職以下學校教職員工與校內工作人員」及「幼兒園托育人員及托育機構專業人員」列入第七類「維持國家安全及社會機能正常運作」對象，需報指揮中心同意。\$\@\$指揮中心說明，日本提供我方之124萬劑AstraZeneca COVID-19疫苗完成檢驗封緘後，預計自6月12日起，分階段陸續配送至各地方政府衛生局或指定醫療院所，並依ACIP專家決議之優先接種順序，於本批疫苗開始供應後，同時開放「第一類至第三類尚未接種第一劑疫苗者」、「住宿式長照機構工作人員及住民」、「洗腎患者」及「75歲以上長者」，優先接種COVID-19疫苗。指揮中心將視疫苗供應期程、數量、優先接種對象接種情形及國內外疫情現況，適時調整疫苗分配數量及開放接種對象。\$\@\$指揮中心提醒，為確保疫苗接種安全，建議先前曾經因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後請於接種處或附近留觀至少30分鐘，一般民眾則建議至少留觀15分鐘，並自我密切觀察15分鐘，以利即時處置該類急性過敏反應。接種AstraZeneca COVID-19疫苗後28天內，若出現嚴重持續性頭痛、視力改變、癲癇、嚴重且持續腹痛超過24小時以上、嚴重胸痛或呼吸困難、下肢腫脹或疼痛、皮膚出現自發性出血點、瘀青、紫斑等任一症狀，應盡速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。\$\@\$指揮中心再次感謝日本政府於此疫情艱難，且全球疫苗產能供不應求之際，及時提供這批COVID-19疫苗，給予臺灣國內疫情防治極大幫助。指揮中心謹向日本政府與人民表達誠摯謝忱與感佩。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增275例COVID-19確定病例，其中274例為本土個案，另有1例境外移入個案。確診個案中新增25例死亡。\$\@\$指揮中心表示，今日新增之274例本土病例，為142例男性、132例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月14日至6月8日。個案分佈以新北市162例最多，其次為臺北市63例，桃園市15例，苗栗縣12例，基隆市10例，彰化縣及南投縣各3例，宜蘭縣2例，臺南市、嘉義市、臺中市及新竹縣各1例。其中雙北地區以外縣市49例中，43例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增25例死亡個案，共計為男性20位、女性5位，年齡介於50多歲至90多歲，發病日介於5月11日至5月30日，確診日介於5月17日至6月5日，死亡日介於5月29日至6月7日，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例境外移入個案（案12033），為本國籍50多歲男性，5月1日於印度曾有相關症狀，6月7日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，累計739,818例新型冠狀病毒肺炎相關通報(含717,016例排除)，其中11,968例確診，分別為1,149例境外移入，10,766例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增1例空號 (案11069)，累計66例移除為空號。確診個案中333例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月9日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-09\$\@\$中央流行疫情指揮中心今(9)日澄清，有關媒體報導某臺北診所開放民眾連夜施打 COVID-19疫苗案，指揮中心重申，有關現階段COVID-19疫苗之撥配，係由各地方政府統籌分配予所轄合約醫療院所，針對於合約醫療院所提供接種服務，應符合目前公費接種對象優先順序，雙北地區以第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市，則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。另針對3月22日至4月11日已完成第一劑之公費對象，於間隔10至12週後，開放接種第二劑。\$\@\$指揮中心說明，針對媒體所報導之情事，已請臺北市政府衛生局進行瞭解及處理，另指揮中心聲明，合約醫療院所提供接種服務應符相關規範，並落實感染管制相關指引，同時應規劃維持社交距離避免群聚感染。如經查執行其接種作業有違指揮中心相關接種政策或實施對象者，可依傳染病防治法第29條處以30萬至200萬罰鍰；也再次強調中央與地方「標準一致、做法一致、腳步一致」防疫原則，請各地方政府及醫療院所依據指揮中心所訂之COVID-19疫苗接種順序，進行施打作業。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心表示，今(8)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、近期國內疫情仍處高峰期，因感染而死亡的個案增加，指揮中心將持續與地方政府掌握及協調醫療資源，迅速應變，請地方政府衛生機關加強設置社區篩檢站，提高民眾採檢可近性，降低社區擴散風險。\$\@\$二、針對端午節連假前後，南北往返的大眾運輸系統購票率以及各觀光景點飯店住房率，指揮中心均與相關部會保持密切聯繫，持續掌握人流狀況，適時強化防疫措施；請各地方政府加強連假期間易造成人潮聚集區域的人流管控，同時呼籲民眾暫緩返鄉，減少人流移動。\$\@\$三、加強及落實移工防疫管理部分：\$\@\$(一) 針對北部電子工廠發生群聚感染案件，指揮中心已成立前進指揮所，協助相關廠區緊急應處，也請地方政府協助企業團體強化因應措施。\$\@\$(二) 勞動部昨(7)日已發布實施「暫停移工轉換至新雇主」，以及「暫緩雇主調派移工至其他廠區工作」作業，力求降低移工人流，並修訂「雇主聘僱移工指引」，增訂「企業因應疫情處置」；勞動部另將儘速發布補助要點，補助雇主因移工隔離以及宿舍降載，所須支出之必要防疫措施費用。\$\@\$四、針對大賣場及傳統市場的人流管制，屬高風險地區的地方政府已加強推動實聯制，並運用身分證單、雙號分流，進行人流管控。此外，經濟部已與地方政府研商擬訂5大措施，以加強傳統市場人流管制，請其他地方政府配合施行。\$\@\$五、針對COVID-19疫苗的分配與接種，請各地方政府及醫療院所依據指揮中心所訂之疫苗接種順序，進行施打作業。\$\@\$六、 經考量疫情進展與防疫量能餘裕，快篩陽性及輕症、無症狀確診者收治原則調整如下：\$\@\$(一) 快篩陽性尚未確診者：雖仍得採居家隔離一人一室，因考量收治量能餘裕已擴大，同意各縣市如量能足夠，得一律安排收住於集中檢疫場所，或加強型防疫旅館，並請地方政府再次盤點相關量能。\$\@\$(二) 輕症、無症狀確診者：應儘速收治於集中檢疫場所及加強型防疫旅館。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增219例COVID-19確定病例，均為本土個案。確診個案中新增22例死亡。\$\@\$指揮中心表示，今日新增之219例本土病例，為117例男性、102例女性，年齡介於未滿5歲至100多歲，發病日介於今(2021)年5月22日至6月7日。以新北市123例最多，其次為臺北市54例，苗栗縣16例，桃園市13例，基隆市8例，彰化縣2例，臺南市、新竹市及臺中市各1例。其中雙北地區以外縣市42例中，36例為已知感染源，6例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增22例死亡個案，共計為男性15位、女性7位，年齡介於30多歲至100多歲，發病日介於5月13日至5月30日，確診日介於5月18日至6月4日，死亡日介於5月30日至6月7日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計698,373例新型冠狀病毒肺炎相關通報(含675,836例排除)，其中11,694例確診，分別為1,148例境外移入，10,493例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增16例空號 (案7378、9643、10704、10856、11304、11305、11306、11378、11379、11380、11382、11383、11385、11386、11393、11396)，累計65例移除為空號。確診個案中308例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月8日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$疾病管制署今(7)日表示，本(2021)年4月接獲醫院通報，一名住中部之5歲女童流感輕症病患之呼吸道檢體分離出無法次分型之A型流感病毒，經該署進一步檢驗並進行基因定序為H1N2v流感病毒。經調查個案密切接觸者6名，其中3人有類流感症狀，經檢驗均未發現H1N2v流感病毒感染，經邀集農政單位及相關醫學與獸醫專家召開會議討論，依上述現有流行病學調查結果研判，本案應屬散發個案，與國際過去案例類似，無證據顯示有人傳人現象，衛生及農政單位亦將持續加強人類、動物與環境之監測。\$\@\$疾管署指出，這名女童未曾出國，家中從事禽畜養殖業，本年3月12日出現流鼻水及咳嗽症狀，3月13日開始發燒，3月14日因持續發燒而就醫，流感快篩為A型陽性，經醫師評估無需住院，開立流感抗病毒藥劑後返家，目前已康復。4月5日自該名女童呼吸道檢體分離出H1N2v流感病毒，另針對呼吸道感染常見病毒如腺病毒、呼吸道融合病毒、冠狀病毒、腸病毒及鼻病毒等進行檢測，均呈陰性反應。此外，農政單位亦自病例家族經營之養豬場豬隻採集檢體檢驗，結果未檢出H1N2流感病毒。\$\@\$國際間H1N2為存在豬隻的低病原性流感病毒，很少在人群中傳播，但偶爾有人類感染之報告，全球2012-2021年累計30例H1N2v流感確診病例，分布於美洲地區，以美國為多，其次為巴西，病例多具有豬隻暴露史或曾暴露於受汙染環境，並不會透過食用肉品而感染。本次由病患所分離之病毒基因序列，與本土過去於豬隻分離之H1N2流感病毒株最為接近，但不相同，對克流感及瑞樂沙等抗病毒藥物敏感。\$\@\$疾管署提醒，防範新型A型流感，民眾應遵守「5要6不」原則，「5要」：肉類及蛋要熟食、要以肥皂澈底洗手、出現症狀，要戴口罩速就醫並告知職業及接觸史、與禽畜長期接觸者要接種流感疫苗、要均衡飲食及適當運動；「6不」：不生食禽鳥蛋類或製品、不走私及購買來路不明肉品、不接觸或餵食動物、不野放及隨意丟棄動物、不將飼養動物與其他禽畜混居、不去空氣不流通或人潮壅擠的場所。相關資訊可至疾管署全球資訊網（https://www.cdc.gov.tw/），或撥打免費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日表示，為促使聘有移工企業落實防疫工作及員工確診應變處置，勞動部採取以下四大措施：\$\@\$一、增訂企業因應疫情之處置：將修訂「因應嚴重特殊傳染性肺炎雇主聘僱移工指引：移工工作、生活及外出管理注意事項」，並自下列規範公告之日起實施：\$\@\$（一）廠區未發生或部分廠區發生疫情時，應備有1人1室隔離空間、工作區及生活區應分艙分流，同產線移工應同一住宿地點、不得任意變動、每天進行員工健康監測由專人確認、追蹤及轉送疑似症狀者採檢並隔離。\$\@\$（二）廠區有1名員工確診後，應即匡列職場密切接觸者，並確實執行居家隔離於有單獨衛浴設備之套房。衍生隔離費用，必要時將由勞動部部分補貼。\$\@\$二、訪查潛在高風險企業：勞動部偕同地方政府已開始訪查，針對產業聘僱移工人數達50人以上宿舍共計1, 168家，預計6月10日訪查完畢。\$\@\$三、補助移工隔離及宿舍降載：勞動部將補助雇主必要防疫措施的部分費用，包括移工採檢後隔離期間費用，及鼓勵雇主降載移工每房居住人數轉住租賃建物、一般旅館或防疫旅館費用，並協調地方政府受理申請。\$\@\$四、加強宣導防疫措施：已於6月6日以「LINE@移點通」主動推播、發布新聞稿、移工權益網站、1955臉書及多國語廣播電臺，呼籲移工非必要不要外出，提醒桃竹苗地區之家事移工，注意自身健康情形，若有症狀或接觸史，儘速登記快篩。\$\@\$指揮中心表示，近期苗栗縣電子廠之移工群聚感染案件，勞動部已駐點前進指揮所現場，協助個案雇主與仲介公司，加強移工防疫及預防感染擴大：\$\@\$一、清理個案宿舍及進出管制：協助清空共用衛浴之移工宿舍，部分移工送集中檢疫所、部分隔離於其他有獨立衛浴房間，其餘人員禁止外出及限制出房門。\$\@\$二、實地關懷移工給予支持：自6月6日起，派駐雙語人員於前進指揮所，協助疫調翻譯，並每日早晚放送廣播關懷移工、關懷每日健康監測狀況，並啟動隔離移工關懷機制，由1955專線雙語人員主動電話關懷隔離移工情緒給予心理支持，及提供防疫包(溫度計、口罩、消毒用品、家鄉零食、1955專線電話、Line@移點通）。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增214例COVID-19確定病例，分別為211例本土個案及3例境外移入個案。確診個案中新增26例死亡。\$\@\$指揮中心表示，今日新增之211例本土病例，為106例男性、105例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年5月21日至6月6日。個案分布地區以新北市82例最多，其次為臺北市60例，苗栗縣45例，彰化縣8例，新竹市、桃園市、澎湖縣及基隆市各3例，宜蘭縣、嘉義縣、屏東縣及新竹縣各1例。其中雙北地區以外縣市69例中，64例為已知感染源，1例有萬華區活動史，4例關聯不明。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增26例死亡個案，共計為男性20位、女性6位，年齡介於50多歲至90多歲，發病日介於5月10日至6月2日，確診日介於5月12日至6月5日，死亡日介於5月31日至6月6日，詳如新聞稿附件。\$\@\$指揮中心表示，今日新增3例境外移入中，案11500、案11501分別為40多歲及20多歲菲律賓籍男性，5月15日來臺工作，持有搭機前3日內檢驗陰性報告，在臺期間並無症狀，6月5日自主健康管理期滿前自費採檢，於今日確診。案11052為本國籍40多歲男性，6月5日自印度返臺，持有搭機前3日內陰性報告，入境時無症狀，入境後至檢疫所集中檢疫並採檢送驗，於今日確診。\$\@\$指揮中心統計，截至目前國內累計671,160例新型冠狀病毒肺炎相關通報(含648,841例排除)，其中11,491例確診，分別為1,148例境外移入，10,290例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另49例(新增案10772、10826、10829、11143、11144、11146、11147、11148、11149、11155、11177、11179、11184、11190、11193、11194、11225、11227、11228、11229、11230)移除為空號。確診個案中286例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月7日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-07\$\@\$中央流行疫情指揮中心今(7)日宣布，因應本土疫情持續嚴峻，全國疫情警戒第三級延長至6月28日止，請全國民眾與政府共同持續努力，嚴守社區防線。相關措施如下：\$\@\$一、民眾外出應全程佩戴口罩，一經查獲有違反情事，將不再勸導，逕予開罰。\$\@\$二、經公告應關閉的休閒娛樂場所，將嚴查不得營業，並對違法營業的業者、現場執業人員、消費及聚會者，依法分別裁罰。\$\@\$三、全國餐飲業一律外帶，賣場及超市加強人流管制，並呼籲民眾少去多買，一次購足。\$\@\$四、結婚不宴客，喪禮不公祭。\$\@\$五、宗教集會活動全面暫停辦理，宗教場所暫不開放民眾進入。\$\@\$六、關閉休閒娛樂場、觀展觀賽場所及教育學習場域。\$\@\$七、停止室內5人以上、室外10人以上之家庭聚會(同住者不計)和社交聚會，並避免不必要移動、活動或集會。\$\@\$八、自我健康監測，有症狀應就醫。\$\@\$九、營業場所及洽公機關(構)應落實人流管制，戴口罩、保持社交距離。\$\@\$十、職場及工作處所應遵守企業持續營運指引的防疫規定，落實個人及工作場所衛生管理，啟動企業持續營運因應措施，如異地或遠距辦公、彈性時間上班。\$\@\$十一、公共場域、大眾運輸加強清消。\$\@\$指揮中心說明，針對近期醫院及長照機構感染事件，指揮中心已請全國醫院停止開放探病(例外情形除外)，住院病人的陪病者以1人為限，執行至全國三級警戒降級為止。至於長照機構，除停止開放機構住民探視，也要求非必要性特殊情況，盡量避免住民請假外出，並強化門禁管理，避免不必要的人員進出，同時持續落實每日工作人員、服務對象與陪住人員等體溫及健康監測，掌握其COVID-19暴露風險情形。\$\@\$指揮中心強調，現在是防疫的關鍵時刻，惟有民眾與政府互相配合、共同抗疫，才可控制疫情，維護全民健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，目前我國COVID-19疫苗優先提供公費對象接種，民眾不用負擔疫苗費用，6月7日起也無須負擔其他行政費用。未來將會依序逐漸擴大至全體國民皆能公費接種，目前更無自費接種規劃，並無所謂「自費負擔」之問題存在。今(2021)年5月31日經立法院三讀通過的「嚴重特殊傳染性肺炎防治及紓困振興特別條例」，加上去年所編列之疫苗預算，行政院已編列共約340億用來購買全民公費疫苗，今年則額外編列約40億元預算，用以負擔疫苗接種所需之醫療院所行政費用，讓符合公費資格者，在面對疫情挑戰時，不用擔心還要花錢施打疫苗。\$\@\$指揮中心表示，現階段開放的公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗的醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗的第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放的公費對象，也將視疫苗供應充裕情況，逐步列入公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增335例本土COVID-19確定病例，另有校正回歸本土個案8例，總計343例。確診個案中新增36例死亡。\$\@\$指揮中心表示，今日新增之335例本土病例，為189例男性、146例女性，年齡介於未滿5歲至90多歲，發病日介於今(2021)年5月24日至6月5日。另校正回歸個案8例中，為3例男性、5例女性，年齡介於20多歲至60多歲，發病日介於6月1日至6月2日。\$\@\$指揮中心指出，綜上所有本土個案共343例，分布地區以新北市160例最多，其次為苗栗縣75例、臺北市64例、桃園市16例、宜蘭縣9例、雲林縣、高雄市、彰化縣及新竹縣各3例，基隆市、臺中市及臺南市各2例，嘉義市1例。其中雙北地區以外縣市119例中，107例為已知感染源，7例關聯不明、5例疫調中。相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增36例死亡個案，共計為男性22位、女性14位，年齡介於50多歲至90多歲，發病日介於5月7日至6月1日，確診日介於5月13日至6月5日，死亡日介於5月28日至6月4日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計656,768例新型冠狀病毒肺炎相關通報(含634,762例排除)，其中11,298例確診，分別為1,145例境外移入，10,100例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另28例(新增案10494)移除為空號。確診個案中260例死亡。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$6月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日表示，針對苗栗縣電子公司廠房發生COVID-19群聚事件，指揮中心已即刻設立前進指揮所，積極協助地方政府及廠商進行防疫，避免感染擴大。相關措施如下：\$\@\$一、所有外籍移工停止上班，居家隔離，薪資照付。\$\@\$二、高風險區移工安排入住集中檢疫所；中低風險區就地居家隔離，並進行健康監控。\$\@\$三、本國籍員工確診者立即進行疫調，匡列接觸者，依規定進行隔離。其餘員工，加強健康監控。\$\@\$四、所有確診者皆已完成就醫安置。\$\@\$五、經工業局、防疫醫師及廠方進行會勘，依防疫計畫有條件降載復工。\$\@\$指揮中心指出，截至6月5日，第1家電子公司共計182案確診 (24名本國籍、158名外國籍），已匡列接觸者399名；第2家電子公司共計12案確診 (均為外國籍)；第3家電子公司共計12案確診 (2名本國籍、10名外國籍)。相關疫調持續進行中。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-06\$\@\$中央流行疫情指揮中心今(6)日澄清，有關昨(5)日公布之「自6月7日起，請合約醫療院所免費提供民眾接種公費COVID-19疫苗服務」新聞稿之內容，是指因應國內疫情嚴峻，指揮中心自6月7日起將依序提供符合「COVID-19疫苗接種計畫」之公費對象免費接種疫苗，相關施打順序將由指揮中心依據專家會議規定計畫，評估群體風險性，陸續開放施打。\$\@\$指揮中心表示，現階段開放之公費接種對象，以雙北地區屬於第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者為優先接種對象；雙北以外之縣市則以未曾接種疫苗之第一類醫事人員為接種對象，並將視疫苗接種進度，逐步開放至第二、三類及機構對象。目前尚未開放之公費對象，也將於後續儘快開放公費接種。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日表示，為推動COVID-19疫苗大規模接種作業，指揮中心已編列經費約40億元並自2021年6月7日（一）起實施獎勵COVID-19疫苗合約醫療院所作業。指揮中心指出，特別條例修法於5/31經立院三讀通過後，相關預算也於6/3於行政院會通過，用於請合約醫療院所免費提供民眾COVID-19疫苗接種服務，另還有編列費用補助22縣市政府，及辦理社區和大型接種站的所需經費，以加速全民接種速度，儘早達成群體免疫效果。\$\@\$指揮中心強調，防疫相關政策皆秉持中央與地方「標準一致、做法一致、腳步一致」防疫原則，推動各項措施，也請相關單位及民眾主動積極配合，與政府共同努力，嚴守社區防線。\$\@\$指揮中心提醒，目前開放之公費接種對象，雙北地區為第一類至第三類未曾接種第一劑疫苗之醫事、防疫人員及高接觸風險者優先接種；雙北以外之縣市為未曾接種疫苗之第一類醫事人員為接種對象，並視疫苗接種進度，逐步開放至第二、三類及機構對象。而未開放之公費對象，將於後續陸續開放公費接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-05\$\@\$中央流行疫情指揮中心今(5)日澄清，有關網路及媒體報導全家6人確診COVID-19、母親病逝案，相關COVID-19確診及死亡個案資訊都有公開，所有確診個案已於5月30日及6月1日公布，死亡個案亦於5月31日公布，絕未有隱匿疫情不公布之情事。對於民眾及死者家屬造成誤會，已請衛生單位與其聯絡說明並表達歉意。\$\@\$指揮中心表示，1922若接獲民眾進線詢問就醫疑問或需求，都會提供民眾所在地方衛生單位電話，以利地方衛生單位及時安排就醫事宜。如民眾聯繫衛生單位發現電話無法接通等問題，均可隨時撥打1922專線，由專人協助處理。\$\@\$指揮中心指出，抗病毒藥物瑞德西韋自6月1日起，醫院已可存放，目前存放醫院有：臺大醫院、臺北市立聯合醫院5院區、新北市立聯合醫院、亞東醫院、馬偕醫院(台北、淡水)、陽明交通大學附設醫院、部立臺北醫院、林口長庚醫院。主治醫師經評估有使用本藥劑需求，即可直接領用存放於醫院之藥劑。</t>
   </si>
 </sst>
 </file>
@@ -3679,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3707,16 +4547,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="C2" s="2">
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>537</v>
+        <v>677</v>
       </c>
       <c r="E2" t="s">
-        <v>817</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3724,16 +4564,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2">
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>538</v>
+        <v>678</v>
       </c>
       <c r="E3" t="s">
-        <v>818</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3741,16 +4581,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>539</v>
+        <v>679</v>
       </c>
       <c r="E4" t="s">
-        <v>819</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3758,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C5" s="2">
-        <v>44484</v>
+        <v>44486</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="E5" t="s">
-        <v>820</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3775,16 +4615,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="C6" s="2">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>541</v>
+        <v>681</v>
       </c>
       <c r="E6" t="s">
-        <v>821</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3792,16 +4632,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="C7" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>542</v>
+        <v>682</v>
       </c>
       <c r="E7" t="s">
-        <v>822</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3809,16 +4649,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="C8" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>543</v>
+        <v>683</v>
       </c>
       <c r="E8" t="s">
-        <v>823</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3826,16 +4666,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="C9" s="2">
         <v>44483</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>544</v>
+        <v>684</v>
       </c>
       <c r="E9" t="s">
-        <v>824</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3843,16 +4683,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="C10" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>545</v>
+        <v>685</v>
       </c>
       <c r="E10" t="s">
-        <v>825</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3860,135 +4700,135 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="C11" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>546</v>
+        <v>686</v>
       </c>
       <c r="E11" t="s">
-        <v>826</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="C12" s="2">
         <v>44482</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>547</v>
+        <v>687</v>
       </c>
       <c r="E12" t="s">
-        <v>827</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="C13" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>548</v>
+        <v>688</v>
       </c>
       <c r="E13" t="s">
-        <v>828</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="C14" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>549</v>
+        <v>689</v>
       </c>
       <c r="E14" t="s">
-        <v>829</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>550</v>
+        <v>690</v>
       </c>
       <c r="E15" t="s">
-        <v>830</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="C16" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>551</v>
+        <v>691</v>
       </c>
       <c r="E16" t="s">
-        <v>831</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="C17" s="2">
-        <v>44479</v>
+        <v>44480</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>552</v>
+        <v>692</v>
       </c>
       <c r="E17" t="s">
-        <v>832</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="C18" s="2">
-        <v>44478</v>
+        <v>44480</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>553</v>
+        <v>693</v>
       </c>
       <c r="E18" t="s">
-        <v>833</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3996,16 +4836,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>554</v>
+        <v>694</v>
       </c>
       <c r="E19" t="s">
-        <v>834</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4013,16 +4853,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="C20" s="2">
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="E20" t="s">
-        <v>835</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4030,16 +4870,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="C21" s="2">
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="E21" t="s">
-        <v>836</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4047,16 +4887,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="C22" s="2">
         <v>44477</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>557</v>
+        <v>697</v>
       </c>
       <c r="E22" t="s">
-        <v>837</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4064,16 +4904,16 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="C23" s="2">
         <v>44477</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>558</v>
+        <v>698</v>
       </c>
       <c r="E23" t="s">
-        <v>838</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4081,67 +4921,67 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="C24" s="2">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>559</v>
+        <v>699</v>
       </c>
       <c r="E24" t="s">
-        <v>839</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C25" s="2">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="E25" t="s">
-        <v>840</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="C26" s="2">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>561</v>
+        <v>701</v>
       </c>
       <c r="E26" t="s">
-        <v>841</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="C27" s="2">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>562</v>
+        <v>702</v>
       </c>
       <c r="E27" t="s">
-        <v>842</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4149,16 +4989,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="C28" s="2">
         <v>44475</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>563</v>
+        <v>703</v>
       </c>
       <c r="E28" t="s">
-        <v>843</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4166,67 +5006,67 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C29" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>564</v>
+        <v>704</v>
       </c>
       <c r="E29" t="s">
-        <v>844</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="C30" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>565</v>
+        <v>705</v>
       </c>
       <c r="E30" t="s">
-        <v>845</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="C31" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>566</v>
+        <v>706</v>
       </c>
       <c r="E31" t="s">
-        <v>846</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="C32" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>567</v>
+        <v>707</v>
       </c>
       <c r="E32" t="s">
-        <v>847</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4234,16 +5074,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2">
         <v>44473</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>568</v>
+        <v>708</v>
       </c>
       <c r="E33" t="s">
-        <v>848</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4251,16 +5091,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="C34" s="2">
         <v>44473</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>569</v>
+        <v>709</v>
       </c>
       <c r="E34" t="s">
-        <v>849</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4268,67 +5108,67 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2">
         <v>44473</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>570</v>
+        <v>710</v>
       </c>
       <c r="E35" t="s">
-        <v>850</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2">
         <v>44473</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>571</v>
+        <v>711</v>
       </c>
       <c r="E36" t="s">
-        <v>851</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>572</v>
+        <v>712</v>
       </c>
       <c r="E37" t="s">
-        <v>852</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>573</v>
+        <v>713</v>
       </c>
       <c r="E38" t="s">
-        <v>853</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4336,16 +5176,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>574</v>
+        <v>714</v>
       </c>
       <c r="E39" t="s">
-        <v>854</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4353,16 +5193,16 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>575</v>
+        <v>715</v>
       </c>
       <c r="E40" t="s">
-        <v>855</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4370,16 +5210,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>576</v>
+        <v>716</v>
       </c>
       <c r="E41" t="s">
-        <v>856</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4387,16 +5227,16 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>577</v>
+        <v>717</v>
       </c>
       <c r="E42" t="s">
-        <v>857</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4404,16 +5244,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2">
         <v>44470</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="E43" t="s">
-        <v>858</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4421,16 +5261,16 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2">
         <v>44470</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>579</v>
+        <v>719</v>
       </c>
       <c r="E44" t="s">
-        <v>859</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4438,16 +5278,16 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>580</v>
+        <v>720</v>
       </c>
       <c r="E45" t="s">
-        <v>860</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4455,16 +5295,16 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>581</v>
+        <v>721</v>
       </c>
       <c r="E46" t="s">
-        <v>861</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4472,84 +5312,84 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2">
         <v>44469</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>582</v>
+        <v>722</v>
       </c>
       <c r="E47" t="s">
-        <v>862</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2">
         <v>44469</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>583</v>
+        <v>723</v>
       </c>
       <c r="E48" t="s">
-        <v>863</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>584</v>
+        <v>724</v>
       </c>
       <c r="E49" t="s">
-        <v>864</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>585</v>
+        <v>725</v>
       </c>
       <c r="E50" t="s">
-        <v>865</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>586</v>
+        <v>726</v>
       </c>
       <c r="E51" t="s">
-        <v>866</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4557,16 +5397,16 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2">
         <v>44467</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>587</v>
+        <v>727</v>
       </c>
       <c r="E52" t="s">
-        <v>867</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4574,16 +5414,16 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>588</v>
+        <v>728</v>
       </c>
       <c r="E53" t="s">
-        <v>868</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4591,16 +5431,16 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>589</v>
+        <v>729</v>
       </c>
       <c r="E54" t="s">
-        <v>869</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4608,16 +5448,16 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2">
-        <v>44465</v>
+        <v>44466</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>590</v>
+        <v>730</v>
       </c>
       <c r="E55" t="s">
-        <v>870</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4625,101 +5465,101 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2">
-        <v>44465</v>
+        <v>44466</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>591</v>
+        <v>731</v>
       </c>
       <c r="E56" t="s">
-        <v>871</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2">
         <v>44465</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>592</v>
+        <v>732</v>
       </c>
       <c r="E57" t="s">
-        <v>872</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2">
         <v>44465</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>593</v>
+        <v>733</v>
       </c>
       <c r="E58" t="s">
-        <v>873</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2">
-        <v>44464</v>
+        <v>44465</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>594</v>
+        <v>734</v>
       </c>
       <c r="E59" t="s">
-        <v>874</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2">
-        <v>44464</v>
+        <v>44465</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>595</v>
+        <v>735</v>
       </c>
       <c r="E60" t="s">
-        <v>875</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="C61" s="2">
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>596</v>
+        <v>736</v>
       </c>
       <c r="E61" t="s">
-        <v>876</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4727,16 +5567,16 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2">
-        <v>44462</v>
+        <v>44464</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>597</v>
+        <v>737</v>
       </c>
       <c r="E62" t="s">
-        <v>877</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4744,16 +5584,16 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>598</v>
+        <v>738</v>
       </c>
       <c r="E63" t="s">
-        <v>878</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4761,67 +5601,67 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2">
         <v>44462</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>599</v>
+        <v>739</v>
       </c>
       <c r="E64" t="s">
-        <v>879</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="E65" t="s">
-        <v>880</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>601</v>
+        <v>741</v>
       </c>
       <c r="E66" t="s">
-        <v>881</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="C67" s="2">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>602</v>
+        <v>742</v>
       </c>
       <c r="E67" t="s">
-        <v>882</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4829,16 +5669,16 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="C68" s="2">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>603</v>
+        <v>743</v>
       </c>
       <c r="E68" t="s">
-        <v>883</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4846,16 +5686,16 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2">
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>604</v>
+        <v>744</v>
       </c>
       <c r="E69" t="s">
-        <v>884</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4863,16 +5703,16 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="C70" s="2">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>605</v>
+        <v>745</v>
       </c>
       <c r="E70" t="s">
-        <v>885</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4880,16 +5720,16 @@
         <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="E71" t="s">
-        <v>886</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4897,16 +5737,16 @@
         <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>607</v>
+        <v>747</v>
       </c>
       <c r="E72" t="s">
-        <v>887</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4914,16 +5754,16 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="C73" s="2">
         <v>44457</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>608</v>
+        <v>748</v>
       </c>
       <c r="E73" t="s">
-        <v>888</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4931,16 +5771,16 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="C74" s="2">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>609</v>
+        <v>749</v>
       </c>
       <c r="E74" t="s">
-        <v>889</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4948,16 +5788,16 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>610</v>
+        <v>750</v>
       </c>
       <c r="E75" t="s">
-        <v>890</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4965,16 +5805,16 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>611</v>
+        <v>751</v>
       </c>
       <c r="E76" t="s">
-        <v>891</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4982,16 +5822,16 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="C77" s="2">
         <v>44455</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>612</v>
+        <v>752</v>
       </c>
       <c r="E77" t="s">
-        <v>892</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4999,16 +5839,16 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="C78" s="2">
         <v>44455</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>613</v>
+        <v>753</v>
       </c>
       <c r="E78" t="s">
-        <v>893</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5016,16 +5856,16 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="C79" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>614</v>
+        <v>754</v>
       </c>
       <c r="E79" t="s">
-        <v>894</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5033,16 +5873,16 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>615</v>
+        <v>755</v>
       </c>
       <c r="E80" t="s">
-        <v>895</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5050,67 +5890,67 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="C81" s="2">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>616</v>
+        <v>756</v>
       </c>
       <c r="E81" t="s">
-        <v>896</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="C82" s="2">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>617</v>
+        <v>757</v>
       </c>
       <c r="E82" t="s">
-        <v>897</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="C83" s="2">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>618</v>
+        <v>758</v>
       </c>
       <c r="E83" t="s">
-        <v>898</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="C84" s="2">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>619</v>
+        <v>759</v>
       </c>
       <c r="E84" t="s">
-        <v>899</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5118,16 +5958,16 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="C85" s="2">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>620</v>
+        <v>760</v>
       </c>
       <c r="E85" t="s">
-        <v>900</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5135,16 +5975,16 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="C86" s="2">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>621</v>
+        <v>761</v>
       </c>
       <c r="E86" t="s">
-        <v>901</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5152,16 +5992,16 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2">
         <v>44450</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>622</v>
+        <v>762</v>
       </c>
       <c r="E87" t="s">
-        <v>902</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5169,16 +6009,16 @@
         <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="C88" s="2">
         <v>44450</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>623</v>
+        <v>763</v>
       </c>
       <c r="E88" t="s">
-        <v>903</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5186,16 +6026,16 @@
         <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="C89" s="2">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>624</v>
+        <v>764</v>
       </c>
       <c r="E89" t="s">
-        <v>904</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5203,16 +6043,16 @@
         <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="C90" s="2">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>625</v>
+        <v>765</v>
       </c>
       <c r="E90" t="s">
-        <v>905</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5220,16 +6060,16 @@
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="C91" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>626</v>
+        <v>766</v>
       </c>
       <c r="E91" t="s">
-        <v>906</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5237,16 +6077,16 @@
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="C92" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>627</v>
+        <v>767</v>
       </c>
       <c r="E92" t="s">
-        <v>907</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5254,16 +6094,16 @@
         <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="C93" s="2">
         <v>44448</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>628</v>
+        <v>768</v>
       </c>
       <c r="E93" t="s">
-        <v>908</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5271,16 +6111,16 @@
         <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="C94" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>629</v>
+        <v>769</v>
       </c>
       <c r="E94" t="s">
-        <v>909</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5288,16 +6128,16 @@
         <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C95" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>630</v>
+        <v>770</v>
       </c>
       <c r="E95" t="s">
-        <v>910</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5305,16 +6145,16 @@
         <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="C96" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>631</v>
+        <v>771</v>
       </c>
       <c r="E96" t="s">
-        <v>911</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5322,16 +6162,16 @@
         <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="C97" s="2">
         <v>44446</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>632</v>
+        <v>772</v>
       </c>
       <c r="E97" t="s">
-        <v>912</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5339,16 +6179,16 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="C98" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>633</v>
+        <v>773</v>
       </c>
       <c r="E98" t="s">
-        <v>913</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5356,16 +6196,16 @@
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="C99" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>634</v>
+        <v>774</v>
       </c>
       <c r="E99" t="s">
-        <v>914</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5373,16 +6213,16 @@
         <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="C100" s="2">
         <v>44445</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>635</v>
+        <v>775</v>
       </c>
       <c r="E100" t="s">
-        <v>915</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5390,16 +6230,16 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="C101" s="2">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>636</v>
+        <v>776</v>
       </c>
       <c r="E101" t="s">
-        <v>916</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5407,67 +6247,67 @@
         <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="C102" s="2">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>637</v>
+        <v>777</v>
       </c>
       <c r="E102" t="s">
-        <v>917</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="C103" s="2">
         <v>44444</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>638</v>
+        <v>778</v>
       </c>
       <c r="E103" t="s">
-        <v>918</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>639</v>
+        <v>779</v>
       </c>
       <c r="E104" t="s">
-        <v>919</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="C105" s="2">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>640</v>
+        <v>780</v>
       </c>
       <c r="E105" t="s">
-        <v>920</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5475,16 +6315,16 @@
         <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="C106" s="2">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>641</v>
+        <v>781</v>
       </c>
       <c r="E106" t="s">
-        <v>921</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5492,101 +6332,101 @@
         <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="C107" s="2">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>642</v>
+        <v>782</v>
       </c>
       <c r="E107" t="s">
-        <v>922</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="C108" s="2">
         <v>44442</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>643</v>
+        <v>783</v>
       </c>
       <c r="E108" t="s">
-        <v>923</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="C109" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>644</v>
+        <v>784</v>
       </c>
       <c r="E109" t="s">
-        <v>924</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="C110" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>645</v>
+        <v>785</v>
       </c>
       <c r="E110" t="s">
-        <v>925</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="C111" s="2">
         <v>44441</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>646</v>
+        <v>786</v>
       </c>
       <c r="E111" t="s">
-        <v>926</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="C112" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>647</v>
+        <v>787</v>
       </c>
       <c r="E112" t="s">
-        <v>927</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5594,16 +6434,16 @@
         <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="C113" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>648</v>
+        <v>788</v>
       </c>
       <c r="E113" t="s">
-        <v>928</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5611,16 +6451,16 @@
         <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="C114" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>649</v>
+        <v>789</v>
       </c>
       <c r="E114" t="s">
-        <v>929</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5628,16 +6468,16 @@
         <v>103</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="C115" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="E115" t="s">
-        <v>930</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5645,16 +6485,16 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="C116" s="2">
         <v>44439</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>651</v>
+        <v>791</v>
       </c>
       <c r="E116" t="s">
-        <v>931</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5662,16 +6502,16 @@
         <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="C117" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>652</v>
+        <v>792</v>
       </c>
       <c r="E117" t="s">
-        <v>932</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5679,16 +6519,16 @@
         <v>106</v>
       </c>
       <c r="B118" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="C118" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>653</v>
+        <v>793</v>
       </c>
       <c r="E118" t="s">
-        <v>933</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5696,16 +6536,16 @@
         <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="C119" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>654</v>
+        <v>794</v>
       </c>
       <c r="E119" t="s">
-        <v>934</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5713,16 +6553,16 @@
         <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="C120" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>655</v>
+        <v>795</v>
       </c>
       <c r="E120" t="s">
-        <v>935</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5730,16 +6570,16 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="C121" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>656</v>
+        <v>796</v>
       </c>
       <c r="E121" t="s">
-        <v>936</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5747,16 +6587,16 @@
         <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="C122" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>657</v>
+        <v>797</v>
       </c>
       <c r="E122" t="s">
-        <v>937</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5764,16 +6604,16 @@
         <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="C123" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="E123" t="s">
-        <v>938</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5781,16 +6621,16 @@
         <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C124" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>659</v>
+        <v>799</v>
       </c>
       <c r="E124" t="s">
-        <v>939</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5798,67 +6638,67 @@
         <v>113</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="C125" s="2">
         <v>44435</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="E125" t="s">
-        <v>940</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="C126" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>661</v>
+        <v>801</v>
       </c>
       <c r="E126" t="s">
-        <v>941</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="C127" s="2">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>662</v>
+        <v>802</v>
       </c>
       <c r="E127" t="s">
-        <v>942</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B128" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="C128" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>663</v>
+        <v>803</v>
       </c>
       <c r="E128" t="s">
-        <v>943</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5866,16 +6706,16 @@
         <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="C129" s="2">
         <v>44433</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="E129" t="s">
-        <v>944</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5883,16 +6723,16 @@
         <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="C130" s="2">
         <v>44433</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>665</v>
+        <v>805</v>
       </c>
       <c r="E130" t="s">
-        <v>945</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5900,16 +6740,16 @@
         <v>118</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="C131" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="E131" t="s">
-        <v>946</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5917,101 +6757,101 @@
         <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="C132" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>667</v>
+        <v>807</v>
       </c>
       <c r="E132" t="s">
-        <v>947</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="C133" s="2">
         <v>44432</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>668</v>
+        <v>808</v>
       </c>
       <c r="E133" t="s">
-        <v>948</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="C134" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>669</v>
+        <v>809</v>
       </c>
       <c r="E134" t="s">
-        <v>949</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="C135" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>670</v>
+        <v>810</v>
       </c>
       <c r="E135" t="s">
-        <v>950</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="C136" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>671</v>
+        <v>811</v>
       </c>
       <c r="E136" t="s">
-        <v>951</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="C137" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>672</v>
+        <v>812</v>
       </c>
       <c r="E137" t="s">
-        <v>952</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6019,16 +6859,16 @@
         <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="C138" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>673</v>
+        <v>813</v>
       </c>
       <c r="E138" t="s">
-        <v>953</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6036,16 +6876,16 @@
         <v>124</v>
       </c>
       <c r="B139" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="C139" s="2">
         <v>44429</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>674</v>
+        <v>814</v>
       </c>
       <c r="E139" t="s">
-        <v>954</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6053,16 +6893,16 @@
         <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="C140" s="2">
         <v>44429</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>675</v>
+        <v>815</v>
       </c>
       <c r="E140" t="s">
-        <v>955</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6070,16 +6910,16 @@
         <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="C141" s="2">
         <v>44429</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="E141" t="s">
-        <v>956</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6087,67 +6927,67 @@
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="C142" s="2">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>677</v>
+        <v>817</v>
       </c>
       <c r="E142" t="s">
-        <v>957</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B143" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="C143" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>678</v>
+        <v>818</v>
       </c>
       <c r="E143" t="s">
-        <v>958</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="C144" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>679</v>
+        <v>819</v>
       </c>
       <c r="E144" t="s">
-        <v>959</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="C145" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="E145" t="s">
-        <v>960</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6155,16 +6995,16 @@
         <v>130</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="C146" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>681</v>
+        <v>821</v>
       </c>
       <c r="E146" t="s">
-        <v>961</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6172,16 +7012,16 @@
         <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="C147" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>682</v>
+        <v>822</v>
       </c>
       <c r="E147" t="s">
-        <v>962</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6189,16 +7029,16 @@
         <v>132</v>
       </c>
       <c r="B148" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="C148" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>683</v>
+        <v>823</v>
       </c>
       <c r="E148" t="s">
-        <v>963</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6206,16 +7046,16 @@
         <v>133</v>
       </c>
       <c r="B149" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="C149" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>684</v>
+        <v>824</v>
       </c>
       <c r="E149" t="s">
-        <v>964</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6223,16 +7063,16 @@
         <v>134</v>
       </c>
       <c r="B150" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="C150" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>685</v>
+        <v>825</v>
       </c>
       <c r="E150" t="s">
-        <v>965</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6240,16 +7080,16 @@
         <v>135</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="C151" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="E151" t="s">
-        <v>966</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6257,16 +7097,16 @@
         <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="C152" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>687</v>
+        <v>827</v>
       </c>
       <c r="E152" t="s">
-        <v>967</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6274,16 +7114,16 @@
         <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="C153" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>688</v>
+        <v>828</v>
       </c>
       <c r="E153" t="s">
-        <v>968</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6291,169 +7131,169 @@
         <v>138</v>
       </c>
       <c r="B154" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="C154" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>689</v>
+        <v>829</v>
       </c>
       <c r="E154" t="s">
-        <v>969</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B155" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="C155" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>690</v>
+        <v>830</v>
       </c>
       <c r="E155" t="s">
-        <v>970</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="C156" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>691</v>
+        <v>831</v>
       </c>
       <c r="E156" t="s">
-        <v>971</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="C157" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>692</v>
+        <v>832</v>
       </c>
       <c r="E157" t="s">
-        <v>972</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B158" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
       <c r="C158" s="2">
         <v>44420</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>693</v>
+        <v>833</v>
       </c>
       <c r="E158" t="s">
-        <v>973</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="C159" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>694</v>
+        <v>834</v>
       </c>
       <c r="E159" t="s">
-        <v>974</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B160" t="s">
-        <v>415</v>
+        <v>485</v>
       </c>
       <c r="C160" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>695</v>
+        <v>835</v>
       </c>
       <c r="E160" t="s">
-        <v>975</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="C161" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>696</v>
+        <v>836</v>
       </c>
       <c r="E161" t="s">
-        <v>976</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B162" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="C162" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="E162" t="s">
-        <v>977</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B163" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="C163" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>698</v>
+        <v>838</v>
       </c>
       <c r="E163" t="s">
-        <v>978</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6461,16 +7301,16 @@
         <v>145</v>
       </c>
       <c r="B164" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
       <c r="C164" s="2">
         <v>44417</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="E164" t="s">
-        <v>979</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6478,16 +7318,16 @@
         <v>146</v>
       </c>
       <c r="B165" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="C165" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="E165" t="s">
-        <v>980</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6495,16 +7335,16 @@
         <v>147</v>
       </c>
       <c r="B166" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="C166" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>701</v>
+        <v>841</v>
       </c>
       <c r="E166" t="s">
-        <v>981</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6512,16 +7352,16 @@
         <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="C167" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>702</v>
+        <v>842</v>
       </c>
       <c r="E167" t="s">
-        <v>982</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6529,118 +7369,118 @@
         <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="C168" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>703</v>
+        <v>843</v>
       </c>
       <c r="E168" t="s">
-        <v>983</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="C169" s="2">
         <v>44415</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>704</v>
+        <v>844</v>
       </c>
       <c r="E169" t="s">
-        <v>984</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="C170" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>705</v>
+        <v>845</v>
       </c>
       <c r="E170" t="s">
-        <v>985</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="C171" s="2">
-        <v>44413</v>
+        <v>44415</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="E171" t="s">
-        <v>986</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B172" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="C172" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>707</v>
+        <v>847</v>
       </c>
       <c r="E172" t="s">
-        <v>987</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B173" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="C173" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="E173" t="s">
-        <v>988</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B174" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="C174" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>709</v>
+        <v>849</v>
       </c>
       <c r="E174" t="s">
-        <v>989</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6648,16 +7488,16 @@
         <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="C175" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="E175" t="s">
-        <v>990</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6665,16 +7505,16 @@
         <v>155</v>
       </c>
       <c r="B176" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
       <c r="C176" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>711</v>
+        <v>851</v>
       </c>
       <c r="E176" t="s">
-        <v>991</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6682,16 +7522,16 @@
         <v>156</v>
       </c>
       <c r="B177" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="C177" s="2">
         <v>44411</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>712</v>
+        <v>852</v>
       </c>
       <c r="E177" t="s">
-        <v>992</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6699,16 +7539,16 @@
         <v>157</v>
       </c>
       <c r="B178" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="C178" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>713</v>
+        <v>853</v>
       </c>
       <c r="E178" t="s">
-        <v>993</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6716,16 +7556,16 @@
         <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="C179" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>714</v>
+        <v>854</v>
       </c>
       <c r="E179" t="s">
-        <v>994</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6733,16 +7573,16 @@
         <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="C180" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>715</v>
+        <v>855</v>
       </c>
       <c r="E180" t="s">
-        <v>995</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6750,67 +7590,67 @@
         <v>160</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C181" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>716</v>
+        <v>856</v>
       </c>
       <c r="E181" t="s">
-        <v>996</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="C182" s="2">
         <v>44409</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>717</v>
+        <v>857</v>
       </c>
       <c r="E182" t="s">
-        <v>997</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="C183" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>718</v>
+        <v>858</v>
       </c>
       <c r="E183" t="s">
-        <v>998</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="C184" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>719</v>
+        <v>859</v>
       </c>
       <c r="E184" t="s">
-        <v>999</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6818,16 +7658,16 @@
         <v>163</v>
       </c>
       <c r="B185" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="C185" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>720</v>
+        <v>860</v>
       </c>
       <c r="E185" t="s">
-        <v>1000</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6835,16 +7675,16 @@
         <v>164</v>
       </c>
       <c r="B186" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="C186" s="2">
-        <v>44406</v>
+        <v>44408</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>721</v>
+        <v>861</v>
       </c>
       <c r="E186" t="s">
-        <v>1001</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6852,16 +7692,16 @@
         <v>165</v>
       </c>
       <c r="B187" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="C187" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>722</v>
+        <v>862</v>
       </c>
       <c r="E187" t="s">
-        <v>1002</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6869,16 +7709,16 @@
         <v>166</v>
       </c>
       <c r="B188" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="C188" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>723</v>
+        <v>863</v>
       </c>
       <c r="E188" t="s">
-        <v>1003</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6886,16 +7726,16 @@
         <v>167</v>
       </c>
       <c r="B189" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="C189" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>724</v>
+        <v>864</v>
       </c>
       <c r="E189" t="s">
-        <v>1004</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6903,16 +7743,16 @@
         <v>168</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>515</v>
       </c>
       <c r="C190" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>725</v>
+        <v>865</v>
       </c>
       <c r="E190" t="s">
-        <v>1005</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6920,16 +7760,16 @@
         <v>169</v>
       </c>
       <c r="B191" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="C191" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>726</v>
+        <v>866</v>
       </c>
       <c r="E191" t="s">
-        <v>1006</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6937,16 +7777,16 @@
         <v>170</v>
       </c>
       <c r="B192" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="C192" s="2">
         <v>44404</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>727</v>
+        <v>867</v>
       </c>
       <c r="E192" t="s">
-        <v>1007</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6954,16 +7794,16 @@
         <v>171</v>
       </c>
       <c r="B193" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="C193" s="2">
         <v>44404</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>728</v>
+        <v>868</v>
       </c>
       <c r="E193" t="s">
-        <v>1008</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6971,16 +7811,16 @@
         <v>172</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="C194" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="E194" t="s">
-        <v>1009</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6988,16 +7828,16 @@
         <v>173</v>
       </c>
       <c r="B195" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="C195" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>730</v>
+        <v>870</v>
       </c>
       <c r="E195" t="s">
-        <v>1010</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7005,16 +7845,16 @@
         <v>174</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="C196" s="2">
         <v>44403</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>731</v>
+        <v>871</v>
       </c>
       <c r="E196" t="s">
-        <v>1011</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7022,16 +7862,16 @@
         <v>175</v>
       </c>
       <c r="B197" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="C197" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="E197" t="s">
-        <v>1012</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7039,16 +7879,16 @@
         <v>176</v>
       </c>
       <c r="B198" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="C198" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>733</v>
+        <v>873</v>
       </c>
       <c r="E198" t="s">
-        <v>1013</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7056,16 +7896,16 @@
         <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="C199" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>734</v>
+        <v>874</v>
       </c>
       <c r="E199" t="s">
-        <v>1014</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7073,16 +7913,16 @@
         <v>178</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="C200" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>735</v>
+        <v>875</v>
       </c>
       <c r="E200" t="s">
-        <v>1015</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7090,16 +7930,16 @@
         <v>179</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="C201" s="2">
         <v>44401</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>736</v>
+        <v>876</v>
       </c>
       <c r="E201" t="s">
-        <v>1016</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7107,16 +7947,16 @@
         <v>180</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="C202" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>737</v>
+        <v>877</v>
       </c>
       <c r="E202" t="s">
-        <v>1017</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7124,16 +7964,16 @@
         <v>181</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="C203" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>738</v>
+        <v>878</v>
       </c>
       <c r="E203" t="s">
-        <v>1018</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7141,16 +7981,16 @@
         <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="C204" s="2">
         <v>44400</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>739</v>
+        <v>879</v>
       </c>
       <c r="E204" t="s">
-        <v>1019</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7158,16 +7998,16 @@
         <v>183</v>
       </c>
       <c r="B205" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="C205" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="E205" t="s">
-        <v>1020</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7175,16 +8015,16 @@
         <v>184</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="C206" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>741</v>
+        <v>881</v>
       </c>
       <c r="E206" t="s">
-        <v>1021</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7192,16 +8032,16 @@
         <v>185</v>
       </c>
       <c r="B207" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="C207" s="2">
         <v>44399</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>742</v>
+        <v>882</v>
       </c>
       <c r="E207" t="s">
-        <v>1022</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7209,16 +8049,16 @@
         <v>186</v>
       </c>
       <c r="B208" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="C208" s="2">
         <v>44399</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>743</v>
+        <v>883</v>
       </c>
       <c r="E208" t="s">
-        <v>1023</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7226,16 +8066,16 @@
         <v>187</v>
       </c>
       <c r="B209" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="C209" s="2">
         <v>44399</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="E209" t="s">
-        <v>1024</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7243,16 +8083,16 @@
         <v>188</v>
       </c>
       <c r="B210" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="C210" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="E210" t="s">
-        <v>1025</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7260,16 +8100,16 @@
         <v>189</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="C211" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>746</v>
+        <v>886</v>
       </c>
       <c r="E211" t="s">
-        <v>1026</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7277,16 +8117,16 @@
         <v>190</v>
       </c>
       <c r="B212" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="C212" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="E212" t="s">
-        <v>1027</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7294,16 +8134,16 @@
         <v>191</v>
       </c>
       <c r="B213" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="C213" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="E213" t="s">
-        <v>1028</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7311,16 +8151,16 @@
         <v>192</v>
       </c>
       <c r="B214" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="C214" s="2">
         <v>44397</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="E214" t="s">
-        <v>1029</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7328,16 +8168,16 @@
         <v>193</v>
       </c>
       <c r="B215" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="C215" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>750</v>
+        <v>890</v>
       </c>
       <c r="E215" t="s">
-        <v>1030</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7345,16 +8185,16 @@
         <v>194</v>
       </c>
       <c r="B216" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C216" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>751</v>
+        <v>891</v>
       </c>
       <c r="E216" t="s">
-        <v>1031</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7362,16 +8202,16 @@
         <v>195</v>
       </c>
       <c r="B217" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="C217" s="2">
         <v>44396</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>752</v>
+        <v>892</v>
       </c>
       <c r="E217" t="s">
-        <v>1032</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7379,16 +8219,16 @@
         <v>196</v>
       </c>
       <c r="B218" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="C218" s="2">
         <v>44396</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>753</v>
+        <v>893</v>
       </c>
       <c r="E218" t="s">
-        <v>1033</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7396,16 +8236,16 @@
         <v>197</v>
       </c>
       <c r="B219" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="C219" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>754</v>
+        <v>894</v>
       </c>
       <c r="E219" t="s">
-        <v>1034</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7413,67 +8253,67 @@
         <v>198</v>
       </c>
       <c r="B220" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="C220" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>755</v>
+        <v>895</v>
       </c>
       <c r="E220" t="s">
-        <v>1035</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="B221" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="C221" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>756</v>
+        <v>896</v>
       </c>
       <c r="E221" t="s">
-        <v>1036</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="C222" s="2">
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>757</v>
+        <v>897</v>
       </c>
       <c r="E222" t="s">
-        <v>1037</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="C223" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>758</v>
+        <v>898</v>
       </c>
       <c r="E223" t="s">
-        <v>1038</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7481,16 +8321,16 @@
         <v>201</v>
       </c>
       <c r="B224" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="C224" s="2">
         <v>44393</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>759</v>
+        <v>899</v>
       </c>
       <c r="E224" t="s">
-        <v>1039</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7498,16 +8338,16 @@
         <v>202</v>
       </c>
       <c r="B225" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="C225" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="E225" t="s">
-        <v>1040</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7515,16 +8355,16 @@
         <v>203</v>
       </c>
       <c r="B226" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="C226" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>761</v>
+        <v>901</v>
       </c>
       <c r="E226" t="s">
-        <v>1041</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7532,16 +8372,16 @@
         <v>204</v>
       </c>
       <c r="B227" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="C227" s="2">
         <v>44392</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="E227" t="s">
-        <v>1042</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7549,16 +8389,16 @@
         <v>205</v>
       </c>
       <c r="B228" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="C228" s="2">
         <v>44392</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>763</v>
+        <v>903</v>
       </c>
       <c r="E228" t="s">
-        <v>1043</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7566,16 +8406,16 @@
         <v>206</v>
       </c>
       <c r="B229" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="C229" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>764</v>
+        <v>904</v>
       </c>
       <c r="E229" t="s">
-        <v>1044</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7583,16 +8423,16 @@
         <v>207</v>
       </c>
       <c r="B230" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="C230" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>765</v>
+        <v>905</v>
       </c>
       <c r="E230" t="s">
-        <v>1045</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7600,16 +8440,16 @@
         <v>208</v>
       </c>
       <c r="B231" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="C231" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>766</v>
+        <v>906</v>
       </c>
       <c r="E231" t="s">
-        <v>1046</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7617,16 +8457,16 @@
         <v>209</v>
       </c>
       <c r="B232" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="C232" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>767</v>
+        <v>907</v>
       </c>
       <c r="E232" t="s">
-        <v>1047</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7634,16 +8474,16 @@
         <v>210</v>
       </c>
       <c r="B233" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="C233" s="2">
         <v>44390</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>768</v>
+        <v>908</v>
       </c>
       <c r="E233" t="s">
-        <v>1048</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7651,67 +8491,67 @@
         <v>211</v>
       </c>
       <c r="B234" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="C234" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>769</v>
+        <v>909</v>
       </c>
       <c r="E234" t="s">
-        <v>1049</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B235" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="C235" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="E235" t="s">
-        <v>1050</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B236" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="C236" s="2">
         <v>44389</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>771</v>
+        <v>911</v>
       </c>
       <c r="E236" t="s">
-        <v>1051</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B237" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="C237" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>772</v>
+        <v>912</v>
       </c>
       <c r="E237" t="s">
-        <v>1052</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7719,16 +8559,16 @@
         <v>214</v>
       </c>
       <c r="B238" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="C238" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="E238" t="s">
-        <v>1053</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7736,16 +8576,16 @@
         <v>215</v>
       </c>
       <c r="B239" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="C239" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>774</v>
+        <v>914</v>
       </c>
       <c r="E239" t="s">
-        <v>1054</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7753,16 +8593,16 @@
         <v>216</v>
       </c>
       <c r="B240" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="C240" s="2">
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>775</v>
+        <v>915</v>
       </c>
       <c r="E240" t="s">
-        <v>1055</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7770,16 +8610,16 @@
         <v>217</v>
       </c>
       <c r="B241" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="C241" s="2">
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>776</v>
+        <v>916</v>
       </c>
       <c r="E241" t="s">
-        <v>1056</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7787,16 +8627,16 @@
         <v>218</v>
       </c>
       <c r="B242" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="C242" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>777</v>
+        <v>917</v>
       </c>
       <c r="E242" t="s">
-        <v>1057</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7804,16 +8644,16 @@
         <v>219</v>
       </c>
       <c r="B243" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="C243" s="2">
         <v>44385</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="E243" t="s">
-        <v>1058</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7821,16 +8661,16 @@
         <v>220</v>
       </c>
       <c r="B244" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="C244" s="2">
         <v>44385</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>779</v>
+        <v>919</v>
       </c>
       <c r="E244" t="s">
-        <v>1059</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7838,16 +8678,16 @@
         <v>221</v>
       </c>
       <c r="B245" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="C245" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>780</v>
+        <v>920</v>
       </c>
       <c r="E245" t="s">
-        <v>1060</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7855,16 +8695,16 @@
         <v>222</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="C246" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>781</v>
+        <v>921</v>
       </c>
       <c r="E246" t="s">
-        <v>1061</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7872,16 +8712,16 @@
         <v>223</v>
       </c>
       <c r="B247" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="C247" s="2">
         <v>44384</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>782</v>
+        <v>922</v>
       </c>
       <c r="E247" t="s">
-        <v>1062</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7889,16 +8729,16 @@
         <v>224</v>
       </c>
       <c r="B248" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="C248" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>783</v>
+        <v>923</v>
       </c>
       <c r="E248" t="s">
-        <v>1063</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7906,16 +8746,16 @@
         <v>225</v>
       </c>
       <c r="B249" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="C249" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>784</v>
+        <v>924</v>
       </c>
       <c r="E249" t="s">
-        <v>1064</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7923,16 +8763,16 @@
         <v>226</v>
       </c>
       <c r="B250" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="C250" s="2">
         <v>44383</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>785</v>
+        <v>925</v>
       </c>
       <c r="E250" t="s">
-        <v>1065</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7940,67 +8780,67 @@
         <v>227</v>
       </c>
       <c r="B251" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="C251" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>786</v>
+        <v>926</v>
       </c>
       <c r="E251" t="s">
-        <v>1066</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B252" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="C252" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>787</v>
+        <v>927</v>
       </c>
       <c r="E252" t="s">
-        <v>1067</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B253" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="C253" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>788</v>
+        <v>928</v>
       </c>
       <c r="E253" t="s">
-        <v>1068</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B254" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="C254" s="2">
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>789</v>
+        <v>929</v>
       </c>
       <c r="E254" t="s">
-        <v>1069</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -8008,16 +8848,16 @@
         <v>230</v>
       </c>
       <c r="B255" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="C255" s="2">
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>790</v>
+        <v>930</v>
       </c>
       <c r="E255" t="s">
-        <v>1070</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -8025,16 +8865,16 @@
         <v>231</v>
       </c>
       <c r="B256" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="C256" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>791</v>
+        <v>931</v>
       </c>
       <c r="E256" t="s">
-        <v>1071</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8042,16 +8882,16 @@
         <v>232</v>
       </c>
       <c r="B257" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="C257" s="2">
         <v>44379</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>792</v>
+        <v>932</v>
       </c>
       <c r="E257" t="s">
-        <v>1072</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8059,16 +8899,16 @@
         <v>233</v>
       </c>
       <c r="B258" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="C258" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>793</v>
+        <v>933</v>
       </c>
       <c r="E258" t="s">
-        <v>1073</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8076,16 +8916,16 @@
         <v>234</v>
       </c>
       <c r="B259" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="C259" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>794</v>
+        <v>934</v>
       </c>
       <c r="E259" t="s">
-        <v>1074</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8093,16 +8933,16 @@
         <v>235</v>
       </c>
       <c r="B260" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="C260" s="2">
         <v>44378</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>795</v>
+        <v>935</v>
       </c>
       <c r="E260" t="s">
-        <v>1075</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8110,16 +8950,16 @@
         <v>236</v>
       </c>
       <c r="B261" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="C261" s="2">
         <v>44378</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>796</v>
+        <v>936</v>
       </c>
       <c r="E261" t="s">
-        <v>1076</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8127,16 +8967,16 @@
         <v>237</v>
       </c>
       <c r="B262" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="C262" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>797</v>
+        <v>937</v>
       </c>
       <c r="E262" t="s">
-        <v>1077</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8144,16 +8984,16 @@
         <v>238</v>
       </c>
       <c r="B263" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="C263" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>798</v>
+        <v>938</v>
       </c>
       <c r="E263" t="s">
-        <v>1078</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8161,16 +9001,16 @@
         <v>239</v>
       </c>
       <c r="B264" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="C264" s="2">
         <v>44377</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>799</v>
+        <v>939</v>
       </c>
       <c r="E264" t="s">
-        <v>1079</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8178,16 +9018,16 @@
         <v>240</v>
       </c>
       <c r="B265" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="C265" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>800</v>
+        <v>940</v>
       </c>
       <c r="E265" t="s">
-        <v>1080</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8195,16 +9035,16 @@
         <v>241</v>
       </c>
       <c r="B266" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="C266" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>801</v>
+        <v>941</v>
       </c>
       <c r="E266" t="s">
-        <v>1081</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8212,16 +9052,16 @@
         <v>242</v>
       </c>
       <c r="B267" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="C267" s="2">
         <v>44376</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>802</v>
+        <v>942</v>
       </c>
       <c r="E267" t="s">
-        <v>1082</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -8229,16 +9069,16 @@
         <v>243</v>
       </c>
       <c r="B268" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="C268" s="2">
         <v>44376</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>803</v>
+        <v>943</v>
       </c>
       <c r="E268" t="s">
-        <v>1083</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8246,16 +9086,16 @@
         <v>244</v>
       </c>
       <c r="B269" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="C269" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>804</v>
+        <v>944</v>
       </c>
       <c r="E269" t="s">
-        <v>1084</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8263,16 +9103,16 @@
         <v>245</v>
       </c>
       <c r="B270" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="C270" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>805</v>
+        <v>945</v>
       </c>
       <c r="E270" t="s">
-        <v>1085</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8280,16 +9120,16 @@
         <v>246</v>
       </c>
       <c r="B271" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="C271" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>806</v>
+        <v>946</v>
       </c>
       <c r="E271" t="s">
-        <v>1086</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8297,16 +9137,16 @@
         <v>247</v>
       </c>
       <c r="B272" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="C272" s="2">
         <v>44374</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>807</v>
+        <v>947</v>
       </c>
       <c r="E272" t="s">
-        <v>1087</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8314,16 +9154,16 @@
         <v>248</v>
       </c>
       <c r="B273" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="C273" s="2">
         <v>44374</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>808</v>
+        <v>948</v>
       </c>
       <c r="E273" t="s">
-        <v>1088</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8331,16 +9171,16 @@
         <v>249</v>
       </c>
       <c r="B274" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="C274" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>809</v>
+        <v>949</v>
       </c>
       <c r="E274" t="s">
-        <v>1089</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8348,16 +9188,16 @@
         <v>250</v>
       </c>
       <c r="B275" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="C275" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>810</v>
+        <v>950</v>
       </c>
       <c r="E275" t="s">
-        <v>1090</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8365,16 +9205,16 @@
         <v>251</v>
       </c>
       <c r="B276" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="C276" s="2">
         <v>44373</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>811</v>
+        <v>951</v>
       </c>
       <c r="E276" t="s">
-        <v>1091</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8382,16 +9222,16 @@
         <v>252</v>
       </c>
       <c r="B277" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="C277" s="2">
         <v>44373</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>812</v>
+        <v>952</v>
       </c>
       <c r="E277" t="s">
-        <v>1092</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8399,16 +9239,16 @@
         <v>253</v>
       </c>
       <c r="B278" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="C278" s="2">
         <v>44373</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>813</v>
+        <v>953</v>
       </c>
       <c r="E278" t="s">
-        <v>1093</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8416,16 +9256,16 @@
         <v>254</v>
       </c>
       <c r="B279" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="C279" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>814</v>
+        <v>954</v>
       </c>
       <c r="E279" t="s">
-        <v>1094</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8433,16 +9273,16 @@
         <v>255</v>
       </c>
       <c r="B280" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="C280" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>815</v>
+        <v>955</v>
       </c>
       <c r="E280" t="s">
-        <v>1095</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8450,16 +9290,1206 @@
         <v>256</v>
       </c>
       <c r="B281" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="C281" s="2">
         <v>44372</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>816</v>
+        <v>956</v>
       </c>
       <c r="E281" t="s">
-        <v>1096</v>
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>257</v>
+      </c>
+      <c r="B282" t="s">
+        <v>607</v>
+      </c>
+      <c r="C282" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>258</v>
+      </c>
+      <c r="B283" t="s">
+        <v>608</v>
+      </c>
+      <c r="C283" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>259</v>
+      </c>
+      <c r="B284" t="s">
+        <v>609</v>
+      </c>
+      <c r="C284" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>610</v>
+      </c>
+      <c r="C285" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>261</v>
+      </c>
+      <c r="B286" t="s">
+        <v>611</v>
+      </c>
+      <c r="C286" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>262</v>
+      </c>
+      <c r="B287" t="s">
+        <v>612</v>
+      </c>
+      <c r="C287" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>263</v>
+      </c>
+      <c r="B288" t="s">
+        <v>613</v>
+      </c>
+      <c r="C288" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>264</v>
+      </c>
+      <c r="B289" t="s">
+        <v>614</v>
+      </c>
+      <c r="C289" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>265</v>
+      </c>
+      <c r="B290" t="s">
+        <v>615</v>
+      </c>
+      <c r="C290" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>266</v>
+      </c>
+      <c r="B291" t="s">
+        <v>616</v>
+      </c>
+      <c r="C291" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>267</v>
+      </c>
+      <c r="B292" t="s">
+        <v>617</v>
+      </c>
+      <c r="C292" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>268</v>
+      </c>
+      <c r="B293" t="s">
+        <v>618</v>
+      </c>
+      <c r="C293" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>269</v>
+      </c>
+      <c r="B294" t="s">
+        <v>619</v>
+      </c>
+      <c r="C294" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>270</v>
+      </c>
+      <c r="B295" t="s">
+        <v>620</v>
+      </c>
+      <c r="C295" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>271</v>
+      </c>
+      <c r="B296" t="s">
+        <v>621</v>
+      </c>
+      <c r="C296" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>272</v>
+      </c>
+      <c r="B297" t="s">
+        <v>622</v>
+      </c>
+      <c r="C297" s="2">
+        <v>44368</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>273</v>
+      </c>
+      <c r="B298" t="s">
+        <v>623</v>
+      </c>
+      <c r="C298" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>274</v>
+      </c>
+      <c r="B299" t="s">
+        <v>624</v>
+      </c>
+      <c r="C299" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>275</v>
+      </c>
+      <c r="B300" t="s">
+        <v>625</v>
+      </c>
+      <c r="C300" s="2">
+        <v>44367</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>276</v>
+      </c>
+      <c r="B301" t="s">
+        <v>626</v>
+      </c>
+      <c r="C301" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>277</v>
+      </c>
+      <c r="B302" t="s">
+        <v>627</v>
+      </c>
+      <c r="C302" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>278</v>
+      </c>
+      <c r="B303" t="s">
+        <v>628</v>
+      </c>
+      <c r="C303" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>279</v>
+      </c>
+      <c r="B304" t="s">
+        <v>629</v>
+      </c>
+      <c r="C304" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>280</v>
+      </c>
+      <c r="B305" t="s">
+        <v>630</v>
+      </c>
+      <c r="C305" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>281</v>
+      </c>
+      <c r="B306" t="s">
+        <v>631</v>
+      </c>
+      <c r="C306" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>282</v>
+      </c>
+      <c r="B307" t="s">
+        <v>632</v>
+      </c>
+      <c r="C307" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>283</v>
+      </c>
+      <c r="B308" t="s">
+        <v>633</v>
+      </c>
+      <c r="C308" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>284</v>
+      </c>
+      <c r="B309" t="s">
+        <v>634</v>
+      </c>
+      <c r="C309" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>285</v>
+      </c>
+      <c r="B310" t="s">
+        <v>635</v>
+      </c>
+      <c r="C310" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>286</v>
+      </c>
+      <c r="B311" t="s">
+        <v>636</v>
+      </c>
+      <c r="C311" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>287</v>
+      </c>
+      <c r="B312" t="s">
+        <v>637</v>
+      </c>
+      <c r="C312" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>288</v>
+      </c>
+      <c r="B313" t="s">
+        <v>638</v>
+      </c>
+      <c r="C313" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>289</v>
+      </c>
+      <c r="B314" t="s">
+        <v>639</v>
+      </c>
+      <c r="C314" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>290</v>
+      </c>
+      <c r="B315" t="s">
+        <v>640</v>
+      </c>
+      <c r="C315" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>291</v>
+      </c>
+      <c r="B316" t="s">
+        <v>641</v>
+      </c>
+      <c r="C316" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>292</v>
+      </c>
+      <c r="B317" t="s">
+        <v>642</v>
+      </c>
+      <c r="C317" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>293</v>
+      </c>
+      <c r="B318" t="s">
+        <v>643</v>
+      </c>
+      <c r="C318" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>294</v>
+      </c>
+      <c r="B319" t="s">
+        <v>644</v>
+      </c>
+      <c r="C319" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>295</v>
+      </c>
+      <c r="B320" t="s">
+        <v>645</v>
+      </c>
+      <c r="C320" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>296</v>
+      </c>
+      <c r="B321" t="s">
+        <v>646</v>
+      </c>
+      <c r="C321" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>297</v>
+      </c>
+      <c r="B322" t="s">
+        <v>647</v>
+      </c>
+      <c r="C322" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>298</v>
+      </c>
+      <c r="B323" t="s">
+        <v>648</v>
+      </c>
+      <c r="C323" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>299</v>
+      </c>
+      <c r="B324" t="s">
+        <v>649</v>
+      </c>
+      <c r="C324" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>300</v>
+      </c>
+      <c r="B325" t="s">
+        <v>650</v>
+      </c>
+      <c r="C325" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>301</v>
+      </c>
+      <c r="B326" t="s">
+        <v>651</v>
+      </c>
+      <c r="C326" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>302</v>
+      </c>
+      <c r="B327" t="s">
+        <v>652</v>
+      </c>
+      <c r="C327" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>303</v>
+      </c>
+      <c r="B328" t="s">
+        <v>653</v>
+      </c>
+      <c r="C328" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>304</v>
+      </c>
+      <c r="B329" t="s">
+        <v>654</v>
+      </c>
+      <c r="C329" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>305</v>
+      </c>
+      <c r="B330" t="s">
+        <v>655</v>
+      </c>
+      <c r="C330" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>306</v>
+      </c>
+      <c r="B331" t="s">
+        <v>656</v>
+      </c>
+      <c r="C331" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>307</v>
+      </c>
+      <c r="B332" t="s">
+        <v>657</v>
+      </c>
+      <c r="C332" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>308</v>
+      </c>
+      <c r="B333" t="s">
+        <v>658</v>
+      </c>
+      <c r="C333" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>309</v>
+      </c>
+      <c r="B334" t="s">
+        <v>659</v>
+      </c>
+      <c r="C334" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>310</v>
+      </c>
+      <c r="B335" t="s">
+        <v>660</v>
+      </c>
+      <c r="C335" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>311</v>
+      </c>
+      <c r="B336" t="s">
+        <v>661</v>
+      </c>
+      <c r="C336" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>312</v>
+      </c>
+      <c r="B337" t="s">
+        <v>662</v>
+      </c>
+      <c r="C337" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>313</v>
+      </c>
+      <c r="B338" t="s">
+        <v>663</v>
+      </c>
+      <c r="C338" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>314</v>
+      </c>
+      <c r="B339" t="s">
+        <v>664</v>
+      </c>
+      <c r="C339" s="2">
+        <v>44356</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>315</v>
+      </c>
+      <c r="B340" t="s">
+        <v>665</v>
+      </c>
+      <c r="C340" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>316</v>
+      </c>
+      <c r="B341" t="s">
+        <v>666</v>
+      </c>
+      <c r="C341" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>317</v>
+      </c>
+      <c r="B342" t="s">
+        <v>667</v>
+      </c>
+      <c r="C342" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>318</v>
+      </c>
+      <c r="B343" t="s">
+        <v>668</v>
+      </c>
+      <c r="C343" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>319</v>
+      </c>
+      <c r="B344" t="s">
+        <v>669</v>
+      </c>
+      <c r="C344" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>320</v>
+      </c>
+      <c r="B345" t="s">
+        <v>670</v>
+      </c>
+      <c r="C345" s="2">
+        <v>44354</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>321</v>
+      </c>
+      <c r="B346" t="s">
+        <v>671</v>
+      </c>
+      <c r="C346" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>322</v>
+      </c>
+      <c r="B347" t="s">
+        <v>672</v>
+      </c>
+      <c r="C347" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>323</v>
+      </c>
+      <c r="B348" t="s">
+        <v>673</v>
+      </c>
+      <c r="C348" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>324</v>
+      </c>
+      <c r="B349" t="s">
+        <v>674</v>
+      </c>
+      <c r="C349" s="2">
+        <v>44353</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>325</v>
+      </c>
+      <c r="B350" t="s">
+        <v>675</v>
+      </c>
+      <c r="C350" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>326</v>
+      </c>
+      <c r="B351" t="s">
+        <v>676</v>
+      </c>
+      <c r="C351" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -8744,6 +10774,76 @@
     <hyperlink ref="D279" r:id="rId278"/>
     <hyperlink ref="D280" r:id="rId279"/>
     <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="967">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,21 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>COVID-19公費疫苗預約平臺第13期增加開放10月26日中午12時前意願登記AZ疫苗49至18歲民眾接種第一劑</t>
+  </si>
+  <si>
+    <t>新增2例COVID-19確定病例，分別為1例本土及1例境外</t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗約14.2萬劑將於今(4)日下午抵臺</t>
+  </si>
+  <si>
+    <t>疾管署說明有關新竹縣發生4位幼兒接種過期流感疫苗事件，已第一時間進行追蹤關懷，並安排補接種流感疫苗</t>
+  </si>
+  <si>
+    <t>有關COVID-19疫苗合約醫療院所發生疫苗接種異常事件說明</t>
+  </si>
+  <si>
     <t>自11月6日起，將印度、英國、緬甸等國家自「重點高風險國家」移除，自該等國家入境或具旅遊史之旅客，恢復為第三級流行地區之檢疫措施</t>
   </si>
   <si>
@@ -142,6 +157,531 @@
     <t>新增4例COVID-19確定病例，分別為1例本土及3例境外</t>
   </si>
   <si>
+    <t>立陶宛提供23.59萬劑AZ疫苗將於10月9日下午抵臺</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第11期調整增加符合 BNT疫苗第一劑及AZ疫苗第二劑接種資格對象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第八批採購Moderna疫苗113.21萬劑將於10月8日晚間抵臺 </t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第七批BNT疫苗88.92萬劑於10月8日上午抵臺</t>
+  </si>
+  <si>
+    <t>新增12例境外移入COVID-19確定病例</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟和民間團體捐贈的第六批BNT疫苗88.92萬劑，於10月7日上午抵臺</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第十期明(7)日增加開放9月29日前意願登記BNT疫苗之61歲至63歲民眾(不含第9類對象)預約接種</t>
+  </si>
+  <si>
+    <t>「COVID-19公費疫苗預約平臺」第11期預約將採分流方式進行，請符合預約資格民眾依分流期程預約</t>
+  </si>
+  <si>
+    <t>疾病管制署捐血人血清抗體研究調查計畫說明</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第五批BNT疫苗27萬劑於10月4日上午抵臺</t>
+  </si>
+  <si>
+    <t>自10月4日零時起調整國際港埠入境人員健康監測措施，請於自主健康管理期間第6至7天以家用快篩採檢一次</t>
+  </si>
+  <si>
+    <t>「COVID-19公費疫苗預約平臺」第11期提供AZ疫苗第二劑及BNT疫苗第一劑接種，請未曾意願登記之民眾儘速前往登記意願</t>
+  </si>
+  <si>
+    <t>指揮中心宣布自10月5日至10月18日維持疫情警戒標準為第二級，並調整相關規定，請民眾持續配合防疫措施</t>
+  </si>
+  <si>
+    <t>10/5起宗教活動、國家公園落實管理適度開放</t>
+  </si>
+  <si>
+    <t>合約醫療院所提供COVID-19疫苗接種服務，應以律定接種對象資格依序接種，並加強落實身分查核</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第十期施打期程，部分縣市維持自10月6日起開打</t>
+  </si>
+  <si>
+    <t>新增10例境外移入COVID-19確定病例</t>
+  </si>
+  <si>
+    <t>「COVID-19公費疫苗預約平臺」第十期將加開BNT疫苗第一劑接種</t>
+  </si>
+  <si>
+    <t>新增11例境外移入COVID-19確定病例</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第四批BNT疫苗67萬劑於10月1日上午抵臺</t>
+  </si>
+  <si>
+    <t>10月1日起公費流感疫苗分階段開打，讓健康與我們同在一起</t>
+  </si>
+  <si>
+    <t>持續提供高端疫苗，民眾可至有提供接種服務之醫療院所預約後接種</t>
+  </si>
+  <si>
+    <t>65.6萬劑AZ疫苗將於今(30)日下午抵臺</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第三批BNT疫苗54萬劑於9月30日上午抵臺</t>
+  </si>
+  <si>
+    <t>有關COVID-19疫苗接種異常事件  指揮中心再次呼籲合約醫療院所落實相關接種教育訓練及三讀五對原則</t>
+  </si>
+  <si>
+    <t>「COVID-19公費疫苗預約平臺」第十期提供AZ疫苗及高端疫苗第二劑接種，請未曾意願登記之民眾儘速前往登記意願</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為1例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心規劃於本週起放寬部分場域防疫管制措施，並於10月5日起有條件開放部分休閒娛樂場所</t>
+  </si>
+  <si>
+    <t>新增9例境外移入COVID-19確定病例</t>
+  </si>
+  <si>
+    <t>AZ疫苗將自9月29日起陸續配送，7月22日前已接種第一劑AZ疫苗之52歲以上民眾，請依縣市政府安排通知接種第二劑AZ疫苗</t>
+  </si>
+  <si>
+    <t>10月1日起公費流感疫苗分階段開打，請符合資格民眾儘速預約接種，並注意與COVID-19疫苗接種時間間隔7天以上</t>
+  </si>
+  <si>
+    <t>斯洛伐克政府提供16萬劑AZ疫苗於今日上午抵臺</t>
+  </si>
+  <si>
+    <t>日本提供50萬劑AZ疫苗於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19確定病例，分別為1例本土及７例境外移入</t>
+  </si>
+  <si>
+    <t>開放民眾自費進行COVID-19血清抗體檢驗及配套措施討論會議說明</t>
+  </si>
+  <si>
+    <t>秘魯、孟加拉、巴西疫情趨緩 9月25日起恢復為第三級流行地區入境之檢疫措施</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，均為境外移入</t>
+  </si>
+  <si>
+    <t>近期長者接種第二劑莫德納疫苗 指揮中心提醒應留意接種注意事項</t>
+  </si>
+  <si>
+    <t>新增5例COVID-19確定病例，分別自越南、美國、南非、史瓦帝尼、俄羅斯移入</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為2例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心自9月21日至10月4日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為1例本土及11例境外移入</t>
+  </si>
+  <si>
+    <t>「COVID-19公費疫苗預約平臺」第九期提供BNT疫苗及高端疫苗接種，其中高端疫苗施打期程調整為9月27日至10月2日</t>
+  </si>
+  <si>
+    <t>實名制口罩販售，網路/超商通路運作至第44輪後暫停服務，藥局通路維持運作</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，均為境外移入</t>
+  </si>
+  <si>
+    <t>開放7月9日前已接種第一劑之75歲(含)以上長者接種第二劑莫德納疫苗</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為2例本土及10例境外移入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第七批採購Moderna疫苗108萬劑將於17日晚上抵臺 </t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗64萬劑將於明(17)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增5例COVID-19確定病例，分別為1例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>新增5例COVID-19確定病例，分別為2例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>保障國人家庭團聚權 即日起開放國人外籍配偶及未成年子女邊境嚴管期間申請入境</t>
+  </si>
+  <si>
+    <t>指揮中心專案設置社區接種站，以保障受防疫管制而無法如期至醫療院所接種 COVID-19疫苗民眾之權益</t>
+  </si>
+  <si>
+    <t>新增14例COVID-19確定病例，分別為3例本土及11例境外移入</t>
+  </si>
+  <si>
+    <t>請地方衛生單位及COVID-19疫苗合約醫療院所確保防颱工作及疫苗冷儲運作正常；如接種作業停止，請依循各衛生局公告或通知方式，重新安排接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺規劃增開第八期可預約數，請符合資格民眾於預約期間，就近選擇所在地施打站預約接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第九期將開放特定民眾接種BNT疫苗第一劑及9月28日(含)前接種間隔滿4週以上民眾接種高端疫苗第二劑</t>
+  </si>
+  <si>
+    <t>新增5例COVID-19確定病例，自南非、越南、日本入境</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為2例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心訂購AstraZeneca疫苗45.8萬劑將於今(10)日下午抵臺</t>
+  </si>
+  <si>
+    <t>國籍航空公司機組人員防疫健康管控措施作業原則會議說明</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第二批BNT疫苗91萬劑於9月9日上午抵臺</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為4例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為7例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>國內發現首例兔熱病本土確定病例，籲請民眾慎防節肢動物叮咬，避免接觸野生動物</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為8例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>日本提供6.4萬劑AZ疫苗於9月7日下午抵臺</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第八期自9月10日10時起開放預約，並自9月15日起開打</t>
+  </si>
+  <si>
+    <t>新增16例COVID-19確定病例，分別為9例本土及7例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心自9月7日至9月20日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>第三批COVAX獲配之41.04萬劑AZ疫苗於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>波蘭政府提供40萬劑AZ疫苗於9月5日上午抵臺</t>
+  </si>
+  <si>
+    <t>針對8月13日至9月2日期間，曾與國籍航空機師及家人群聚事件之確診者接觸或活動軌跡重疊者，將發送疫情警示簡訊</t>
+  </si>
+  <si>
+    <t>新增1例COVID-19確定病例，自美國入境</t>
+  </si>
+  <si>
+    <t>因應某國籍航空機師及家人群聚事件，指揮中心啟動疫調及應變作為，自即日起(2021)9月3日全面實施「強化機組員返臺後防檢疫規定」</t>
+  </si>
+  <si>
+    <t>因應境外移入Delta變異株疫情，指揮中心自即日起至9月9日強化桃園市COVID-19第二級疫情警戒相關措施，嚴守社區防線</t>
+  </si>
+  <si>
+    <t>為保障入營服役群體安全 9月3日起役男入營快篩免付費</t>
+  </si>
+  <si>
+    <t>感謝台積電、鴻海永齡、慈濟三間企業和民間團體共同捐贈1,500萬劑BNT疫苗，第一批93萬劑疫苗於9月2日上午7時抵臺</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19確定病例，分別為1例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>因應Delta變異株廣泛於國際間擴散，9月15日零時起強化機組員返臺後防檢疫規定</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺增加開放7月19日前意願登記AZ疫苗之23-28歲民眾預約，及BNT疫苗接種對象說明</t>
+  </si>
+  <si>
+    <t>新增4例COVID-19確定病例，分別為3例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗59.5萬劑將於今(31)日下午抵臺</t>
+  </si>
+  <si>
+    <t>社區基層診所於8月30日起加入COVID-19社區監測行列</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19確定病例，分別為3例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>捷克政府提供3萬劑 Moderna COVID-19疫苗預定於8月29日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增23例COVID-19確定病例，分別為13例本土及10例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺自8月28日納入接種BNT疫苗選項；另第七期提供接種AZ疫苗並自8月29日10時開始預約</t>
+  </si>
+  <si>
+    <t>新增6例境外移入COVID-19病例，分別自法國、美國、越南、巴基斯坦、柬埔寨及其他國家入境</t>
+  </si>
+  <si>
+    <t>8月31日起臺北市及新北市開放住宿式長照機構訪客探視</t>
+  </si>
+  <si>
+    <t>新增7例境外移入COVID-19病例，分別自瑞典、美國、印尼及印度入境</t>
+  </si>
+  <si>
+    <t>26.5萬劑AstraZeneca疫苗已於今(27)日中午抵臺</t>
+  </si>
+  <si>
+    <t>公私協力積極爭取  期盼首批BNT疫苗提早到貨</t>
+  </si>
+  <si>
+    <t>針對8月23日至8月29日完成第一劑接種高端疫苗民眾，後續第二劑接種說明</t>
+  </si>
+  <si>
+    <t>新增1例境外移入COVID-19病例，自南非入境</t>
+  </si>
+  <si>
+    <t>我國COVID-19科技防疫APEC視訊國際研討會首登場，增進亞太地區團結抗疫及應變能力</t>
+  </si>
+  <si>
+    <t>指揮中心宣布自8月27日零時起，入境旅客前往檢疫地點均應搭乘「防疫車輛」，不得自行駕車前往</t>
+  </si>
+  <si>
+    <t>全國醫院自今(2021)年8月24日起，有條件開放探病，並調整風險縣市住院病人及陪病者篩檢措施</t>
+  </si>
+  <si>
+    <t>為防堵Delta變異株入侵社區，指揮中心啟動COVID-19加強監測方案</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為6例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>因應帛琉出現確診個案，指揮中心啟動相關檢疫應變措施</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台增加開放8月16日以後新增或加選登記高端疫苗民眾預約，於8月27日起施打</t>
+  </si>
+  <si>
+    <t>因應國內疫情趨緩，重啟境外生專案入境作業</t>
+  </si>
+  <si>
+    <t>指揮中心自8月24日至9月6日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為2例本土及8例境外移入</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為6例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台增加開放35歲至20歲(含)民眾預約高端疫苗，於8月23日起施打</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19確定病例，分別為6例本土及5例境外移入</t>
+  </si>
+  <si>
+    <t>我國專案輸入或製造(EUA)之COVID-19疫苗均不含豬細胞，敬請安心接種</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為4例本土及14例境外移入</t>
+  </si>
+  <si>
+    <t>食藥署召開聯亞 UB-612新冠肺炎疫苗專家審查會議</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19確定病例，分別為8例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>第六批採購Moderna疫苗24.96萬劑將於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增9例COVID-19確定病例，分別為2例本土及7例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台將於8月16日上午10時至8月18日中午12時止開放預約，並自8月23日起開打</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為3例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>國內新增1例漢他病毒症候群病例，請民眾落實防鼠「三不」措施</t>
+  </si>
+  <si>
+    <t>指揮中心依各縣市之社區感染風險，有條件放寬住宿式長照機構訪客管理措施</t>
+  </si>
+  <si>
+    <t>52.4萬劑AstraZeneca疫苗將於今日下午抵臺，完成檢驗封緘程序後配撥給國人施打</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台第六期意願登記至8月13日中午12時結束，請把握機會儘速登記，並自8月16日上午10時可開始預約</t>
+  </si>
+  <si>
+    <t>新增16例COVID-19確定病例，分別為12例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>針對COVID-19公費疫苗預約平台，因接種單位登錄接種資料身分別誤植，致收到簡訊並已預約者，將一併提供第二劑Moderna疫苗接種</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19確定病例，分別為4例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心自8月10日至8月23日維持疫情警戒標準為第二級，請民眾持續配合防疫措施，共同維護國內社區安全</t>
+  </si>
+  <si>
+    <t>第五批採購Moderna疫苗9.96萬劑將於今日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19確定病例，分別為4例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>規劃預計自下週起開放COVID-19專責醫療院所第一線醫護工作人員，接種第一劑AZ疫苗超過10週以上對象，以莫德納疫苗完成第二劑接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台，增加開放7月19日12時前意願登記Moderna疫苗，且為53-54歲之第九類對象，預約接種第一劑</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為10例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心建議民眾出國之COVID-19疫苗接種證明取得方式</t>
+  </si>
+  <si>
+    <t>指揮中心說明 COVID-19公費疫苗預約平臺自7月30日至8月6日疫苗需求數第二批配送數量事宜</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19確定病例，分別為20例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心將於8月4日配送52.57萬劑AZ疫苗 供地方政府提供疫苗預約平臺、國高中教師及補教業者接種</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺將於8月5日上午10時至8月7日中午12時止開放預約接種，並自8月11日起開打</t>
+  </si>
+  <si>
+    <t>新增19例COVID-19確定病例，分別為16例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>歡度七夕情人節，「定期篩檢」是給自己和伴侶最好的禮物</t>
+  </si>
+  <si>
+    <t>新增14例COVID-19確定病例，分別為12例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心將規劃COVID-19公費疫苗預約平臺批次預約等功能，並與地方政府持續溝通可行性</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平台意願登記至8月3日中午12時止進行結算，提醒已接種第一劑Moderna疫苗之第一到三類對象及孕婦儘速意願登記第二劑</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為11例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>立陶宛政府提供2萬劑AstraZeneca COVID-19疫苗於7月31日上午抵臺</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為21例本土及4例境外移入</t>
+  </si>
+  <si>
+    <t>確保已預約民眾施打權益，指揮中心籲請各地方政府依計畫順序進行施打</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19確定病例，分別為16例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺開放意願登記，並開放第二劑Moderna COVID-19疫苗意願登記，請民眾儘速上網完成意願登記</t>
+  </si>
+  <si>
+    <t>新增20例COVID-19確定病例，分別為18例本土及2例境外移入</t>
+  </si>
+  <si>
+    <t>7月27日全國防疫會議後記者會報告</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺自今日14時起重新開放意願登記，並新增選擇接種高端疫苗選項</t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗58.2萬劑將於今(27)日下午抵臺</t>
+  </si>
+  <si>
+    <t>新增17例COVID-19確定病例，分別為16例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>COVID-19公費疫苗預約平臺第四輪自7月30日起開打</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19確定病例，分別為10例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>因應全球COVID-19疫情回升且Delta變異株持續傳播 持續執行「邊境嚴管」措施</t>
+  </si>
+  <si>
+    <t>汽車旅館及相關旅宿若未通報開趴群聚     將依情節輕重及相關法規裁處</t>
+  </si>
+  <si>
+    <t>新增13例COVID-19確定病例，分別為12例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>調整「COVID-19疫苗合約醫療院所免費提供民眾接種服務獎勵措施」，提高每人次獎勵至100元，以鼓勵合約醫療院所免費提供接種服務，加速全民接種</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為24例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>「疫調輔助平臺」7月26日上線 指揮中心：運用資訊科技以便捷疫調工作</t>
+  </si>
+  <si>
+    <t>指揮中心提醒AstraZeneca及Moderna COVID-19疫苗第二劑接種事宜</t>
+  </si>
+  <si>
+    <t>指揮中心自7月27日至8月9日調降疫情警戒標準至第二級，請民眾持續配合防疫措施，守護彼此健康</t>
+  </si>
+  <si>
+    <t>新增24例COVID-19確定病例，分別為23例本土及1例境外移入</t>
+  </si>
+  <si>
+    <t>我國Moderna COVID-19疫苗接種間隔，係參考國際間接種建議，並經專家討論後審慎研訂</t>
+  </si>
+  <si>
+    <t>失智社區服務據點遵照防疫管理指引，即可逐步恢復提供服務</t>
+  </si>
+  <si>
+    <t>新增33例COVID-19確定病例，分別為30例本土及3例境外移入</t>
+  </si>
+  <si>
+    <t>指揮中心宣布與美國Moderna公司再簽署3,600萬劑COVID-19疫苗供應合約</t>
+  </si>
+  <si>
+    <t>因應颱風，請地方衛生單位及COVID-19疫苗合約醫療院所確保疫苗冷儲運作正常；如接種作業停止，於公費疫苗平臺完成預約民眾可保留資格</t>
+  </si>
+  <si>
+    <t>感謝檢疫人員為國人健康，持續戍守邊境，執行各項強化管制措施</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19確定病例，分別為16例本土及9例境外移入</t>
+  </si>
+  <si>
+    <t>有關媒體報導「桃機採檢室5間增至19間，人力沒補」一事，指揮中心澄清並非事實</t>
+  </si>
+  <si>
+    <t>新增24例COVID-19確定病例，分別為18例本土及6例境外移入</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/cN0M2Zd7nlf9xzqF1DYvQg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UICMHo8u9mB6uDCbY5Nmjg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IUvYu4Y_Kk_1oi8dZST1Gw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UX2Q75c--6-trZQ6Q1KTHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MMNe8Jq0ms6L98i62o9-Fw?typeid=9</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/hCzh78XvCHkBUY1mEFT0Og?typeid=9</t>
   </si>
   <si>
@@ -292,6 +832,606 @@
     <t>/Bulletin/Detail/tpKy6-q-uJHKP82rjnPJ4Q?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/4eOqyjbb90njd8PtWOt_tw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/O6_62G_Abr9KDOiqFDRTzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/b1lEjKY6cyDi2qcFYHK6Aw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oOfr740yaxMhu_UldkVoXQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oz0HpU2guW-d_FOz7BBKQw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Pk5EEO1UZ4hUqqB3_MOWQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/gmtBHPaeXlhN13QOZDDzgQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Cer-eZkAVsRDNVhjPE3-lQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3CTd0DT6tjXHtOD7bBUfuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZKPZ2UYrVVhZvON9-VkAUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/cOQ80ajiHYkVpFscql8krg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Se5wa9JawKc3u2h6U_Tepg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FAloI2vOuJrGFhye6F-nqw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BsWRsaSbRjyqJj3kSksqEA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/l8WS5kyOBRhcsobguSEDfw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V-VIRjhXDQ5ZTI-ScMTxDA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8vCXJYjqG0vE7pXfsfKMMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Uy7fZNgiTUtaGvnI9ozkFg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/YyjcPhFsm7t8IMYe3rlvuA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HT4OJwZJOSR97Dq8nEUPZw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4Skh1Gg1nXndsnyDA5VteQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VkiSUyDBRyb0iFwAd8jbTw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MQcM4YN0Abt3zAUZcLCrqA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9Nq0yfsmkMVoQUbgvwXkLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XWt_t75thNpCkCROJ3YeiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xvet5RcvIxmdFInevCh94g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DdUmEAzdXHoQbCz3WvquTw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v5TrqIin9LNza7vgYBbudQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ypaExsGqi_hdup15uBc9MA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NRd_o6H5xQtRZLoN-mFxJg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uinfYYZrKS-Z9GWKesNeWw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/sgUdiVoqGdlxy7jT41N2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Pf6_z5_rJ_mB6UKZmuUv_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0TamZE7n-zBmWI_AwB0YAA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lTK0Vs3MCdjRrJgJr5YJUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SWkS7zioiivG05EwhTRIdw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/x69U2NfyNa3dM_bgl4Safg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9qRdGeYrYjzJ2XlzBGPxkA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xR-r-CHqTrZNlG7UU7WORw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zG558mhwhLOrzKe39ATOJg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/34GeLdP78XzJsFAHGl9XOg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MsSgPr0cwPcnUp5TaHDjBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BeJbnf4Gy3nJ7PjffmsTNw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oxvwK11-ZkeSGrDWtszPRQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/x50XNgoS8isoLVReWtCH0Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/p8BSfKUkdffrV_IV1lzc1w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5S9o1jB0qj14o375-THOMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KwxISW6Jvrsp81fGGIfHoA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/hfasZm-24Z_zKe9F_XvgDA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LeISWauYLM7PDvkuMKjSEw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rSZSlC-V0MYV41rOIIg7Kg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/spDFzUjv7sA2pSWp0bPXnw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9Z_o7HCNpVQkUhbqRdX1hA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VkHVxRBm7f2vq8fBDugy8Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RQSCG-SwBUPv7bRP1Sp5OA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/byygl_Vhc802F19_JQAN2w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zVVO2_nGY1UQ_KLa_nb_gg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/fy_t3gfUfNGM6x-CR6q22A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0yB6RliRJ27zMVdhoZixpg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xS2odfoASM12WHuhDLjS8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/G37NdiMeLNMQr3kLi-uqcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/W196H8qkJGfIOVIQAJ-jeA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CYtxjNv0cImZoVrJsBp0mg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B3jVw1ZBkJ0AUo5p0q6AoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v1sSfEVivWrYxo5RIoJFCw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/E0VoYSp-VY8DMzE7-9uPUw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9dHcUdP5DUyETntVyser3Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VP-XbuQUbzbRoeYkwTJP6Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Wj7sYV7SJ_eMx4w7RFLRSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/89ILPvj_5_ARiqy8oyLQ4A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rFB5EmwGsyKbpr0QYSaR1Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v691B_c9aAFGvjZj9jes1A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0xS-kPajD0nRI51CKtOqsA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/82Hu5ddU8Al22gNK_wAq2Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/H474DjVcjn1Ua2xWWumCzg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/5kEuMlHU9Y-DoKkOdf97vw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/om652EdzTjvzj73McvSblQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JoxcvPJ411tf00PljOrxsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wb8q2cKvjM1HgwzsEcVGMA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VIgg0D01lkJJf6S_7tpTsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Od_A3iAG4ysQosgMWpGqSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7GOpqzeF-jiifA2MO-zb9w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9n9h4VQnQ_QM_2BMae1IFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/z1icV65Qbwnw45jLjQM9vw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/61oub4oHTSlW-_oCA1YdOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NY8kOPHsOxO2d5UeVeWD8g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6V7mJ1TVswmrP0rIagUkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3gJzkU8v2X7ZT6KVVa6Q_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/x96-7CD5UvUxB2oj2J2ulQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VICcPtkDqUlO9WAGsm8BTw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oLPv0cLgbLDBTxyMToZDqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qcMPRG9-1Dg7e7wt43OkCQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Hs6PgiLrDThHBXH02Vgv1A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/vFdpdZiD4vB9xXW_jqDIoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zywlOEtah3k5S3HLuay1Rw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/LcWWoP_nWnuGUdLeo-_QTQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xs4MNour4QiZwwMnVfvpKw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FKCii3VR5Scz5RxiezV-hA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/GEafkjHtT5O7i-RIK8le3w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/z1vVcNoM5rtpdCLtlpI53w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WRe3gjz4lTnVbMHCOUpyuw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HJD22rw3XEPUcz_Vz-75Ug?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1hAP5bx29Nm1o3kRjMUuZA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/A8sZbjImqVaGG7Xktvmigg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VUzE83thy3BCYgF6gzuZTg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HlZnsSTec4DWLUImDV3zSA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/FRWZDea-zeDAHSYBeuR-nA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MCsgPQYHX-7Y1rwdp37gRg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aJJeOsDDOxac6JVfv7Rihw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uqw6Rnia5LLT408IUDG9Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HByI1XXj0j0uRCXlxEbkYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1PP5_Nbtc5QiTnOudRxOhA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uQz0FhPiYJbyzBXNENTRYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7D5qw03O_5mh2bLiTxZz9A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AXNRv5f-4_d2K3Asg1uPVw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u8aPPCQHzg2HWET30BEV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oC4Rci1Mx3UtM8nKYumVpA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UWJhrUx3huNvemgBRQfyxw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-6VaCXZESXPQ3aQy2TjWLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/RFe9mEhp3mP3X8mxWOF_Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/v10aCW4aH1oGA9oNFxxJ_g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/C0IvQm2fw3JXoSb-lo-Q-g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4xa8MuLOUCL1bD8rUdUdGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3SE7KsEWhx0RHJ7KagA_tA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/koz0rbDV2yhLLdSUW1t2Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3N7SGar7tsvfk6u5FEQb_w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/scHfvc3EM4yxva192-6xow?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QsICUamqs_LK2XHX3n_KvA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PCqKNpVED4mxRia1zaN8Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/SjX7QJUzmOmhDTJFl-Nouw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wmThnLvTBe8aSq-XJfi7Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TiwqyY2a2UD542IIigNd4Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QHHV7y8uMR4ZjqB6CnjwjQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/V8h5YYEiHHh3VE83C_Qulw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6L1CRGz1tIYSgJlgRjut-A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/z7XCUKlXoubnJKPp0gzpng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ztvglSnkA8_j6e9pvbPeuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zBSYvBtvprK55H08irXBwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rEkGqTzLoF3TtCb1mBaaSg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/bv-PSugy2Wnhnn4oUPWdfw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/0WOGUWf6BIyaMI8V5w9hoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kYO4SKzwdY_NFeeBFlg-VQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/P16V5CiOMz1FHhKbcORvBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NehaPSl3BKRwvHBo5_eSHw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/q57O8G7ps1bHZswBzBP_Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9Cj9YWVE7Q19G9NwhNDa0A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DY-FVbUu8CSZM8in_1ZMtg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Izn1EGSiCDrgtgaUrSz9QQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/brwb9yZ4DBf5cD191r_qwg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qC1589tILdAIgicwQJ6zlA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/aresuMq4RsGY2pqhYAnErQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IAP-YbZY7-O6wIlnkpI-tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ovL3vbjOz8jdlIqsfzUnFg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3wtXbG0cLMAxZN6XNUf95g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/27f08UDJuOCPYs7I2sT_ZQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nXTrcZWcqyMW8TBCsEPVYw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/2FgGduGbRJzsDE0wmhR8Tg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-9fWPl9mnorw4IOENTNvEQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6LQ7LVOsuZNqq2EGjxmBsg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nv3f0VFT8XYvVFzppkHOPw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wFL8htmKdTXeb4nWUE7dXA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OTqEp7Khe-u8b8UsM1o0mQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Mi0ksk8-ozOV4-i79xKNdQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZoKPLEyofrZlLXKKqL1VmA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/egbGFxLkDDPMoPvQjqvYKQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/B-q5olcKuBQQnVdUhEJyng?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1CgiYux--m_W0047lttHPg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VSO1QqYie-snM91eMcxWfA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xs3elMFhOpNiBYVwJtPjuA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/t3y12ZT1GjIsbm_Dv2JWWw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/rVZ1dkbtACeqf4cypmsrkg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/X4kq2ZZXIHfcae6Oer3Hug?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/e0v8zImE3rGJ0072A86NHA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mQKUUbHhgQ7Nqez4-c3ikg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/CYW0F3HIxmgx74RlR7jLuA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/unIBKNQU0KVgKdz_oR5lFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qQUu0BeaYg_zgfTOISQnSw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/U_wcDCb6rXUdg55TQ-jLlg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/EmaqqzhkRxc7VDZBpjOIOA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/9goK6mfRQP3eAOVqPXNAyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/lhdbzRTt-LN7qAJV8rES4g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/h45utDFpJqz9XI3VAis1yA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/cN0M2Zd7nlf9xzqF1DYvQg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UICMHo8u9mB6uDCbY5Nmjg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IUvYu4Y_Kk_1oi8dZST1Gw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UX2Q75c--6-trZQ6Q1KTHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MMNe8Jq0ms6L98i62o9-Fw?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/hCzh78XvCHkBUY1mEFT0Og?typeid=9</t>
   </si>
   <si>
@@ -442,6 +1582,606 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/tpKy6-q-uJHKP82rjnPJ4Q?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4eOqyjbb90njd8PtWOt_tw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/O6_62G_Abr9KDOiqFDRTzQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/b1lEjKY6cyDi2qcFYHK6Aw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oOfr740yaxMhu_UldkVoXQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oz0HpU2guW-d_FOz7BBKQw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Pk5EEO1UZ4hUqqB3_MOWQQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/gmtBHPaeXlhN13QOZDDzgQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Cer-eZkAVsRDNVhjPE3-lQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3CTd0DT6tjXHtOD7bBUfuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZKPZ2UYrVVhZvON9-VkAUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/cOQ80ajiHYkVpFscql8krg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Se5wa9JawKc3u2h6U_Tepg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FAloI2vOuJrGFhye6F-nqw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BsWRsaSbRjyqJj3kSksqEA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/l8WS5kyOBRhcsobguSEDfw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V-VIRjhXDQ5ZTI-ScMTxDA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8vCXJYjqG0vE7pXfsfKMMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Uy7fZNgiTUtaGvnI9ozkFg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/YyjcPhFsm7t8IMYe3rlvuA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HT4OJwZJOSR97Dq8nEUPZw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4Skh1Gg1nXndsnyDA5VteQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VkiSUyDBRyb0iFwAd8jbTw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MQcM4YN0Abt3zAUZcLCrqA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9Nq0yfsmkMVoQUbgvwXkLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XWt_t75thNpCkCROJ3YeiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xvet5RcvIxmdFInevCh94g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DdUmEAzdXHoQbCz3WvquTw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v5TrqIin9LNza7vgYBbudQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ypaExsGqi_hdup15uBc9MA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NRd_o6H5xQtRZLoN-mFxJg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uinfYYZrKS-Z9GWKesNeWw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/sgUdiVoqGdlxy7jT41N2Dg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Pf6_z5_rJ_mB6UKZmuUv_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0TamZE7n-zBmWI_AwB0YAA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lTK0Vs3MCdjRrJgJr5YJUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SWkS7zioiivG05EwhTRIdw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/x69U2NfyNa3dM_bgl4Safg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9qRdGeYrYjzJ2XlzBGPxkA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xR-r-CHqTrZNlG7UU7WORw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zG558mhwhLOrzKe39ATOJg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/34GeLdP78XzJsFAHGl9XOg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MsSgPr0cwPcnUp5TaHDjBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BeJbnf4Gy3nJ7PjffmsTNw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oxvwK11-ZkeSGrDWtszPRQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/x50XNgoS8isoLVReWtCH0Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/p8BSfKUkdffrV_IV1lzc1w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5S9o1jB0qj14o375-THOMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KwxISW6Jvrsp81fGGIfHoA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/hfasZm-24Z_zKe9F_XvgDA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LeISWauYLM7PDvkuMKjSEw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rSZSlC-V0MYV41rOIIg7Kg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/spDFzUjv7sA2pSWp0bPXnw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9Z_o7HCNpVQkUhbqRdX1hA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VkHVxRBm7f2vq8fBDugy8Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RQSCG-SwBUPv7bRP1Sp5OA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/byygl_Vhc802F19_JQAN2w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zVVO2_nGY1UQ_KLa_nb_gg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/fy_t3gfUfNGM6x-CR6q22A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0yB6RliRJ27zMVdhoZixpg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xS2odfoASM12WHuhDLjS8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/G37NdiMeLNMQr3kLi-uqcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/W196H8qkJGfIOVIQAJ-jeA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CYtxjNv0cImZoVrJsBp0mg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B3jVw1ZBkJ0AUo5p0q6AoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v1sSfEVivWrYxo5RIoJFCw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/E0VoYSp-VY8DMzE7-9uPUw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9dHcUdP5DUyETntVyser3Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VP-XbuQUbzbRoeYkwTJP6Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Wj7sYV7SJ_eMx4w7RFLRSQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/89ILPvj_5_ARiqy8oyLQ4A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rFB5EmwGsyKbpr0QYSaR1Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v691B_c9aAFGvjZj9jes1A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0xS-kPajD0nRI51CKtOqsA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/82Hu5ddU8Al22gNK_wAq2Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/H474DjVcjn1Ua2xWWumCzg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/5kEuMlHU9Y-DoKkOdf97vw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/om652EdzTjvzj73McvSblQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JoxcvPJ411tf00PljOrxsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wb8q2cKvjM1HgwzsEcVGMA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VIgg0D01lkJJf6S_7tpTsQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Od_A3iAG4ysQosgMWpGqSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7GOpqzeF-jiifA2MO-zb9w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9n9h4VQnQ_QM_2BMae1IFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/z1icV65Qbwnw45jLjQM9vw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/61oub4oHTSlW-_oCA1YdOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NY8kOPHsOxO2d5UeVeWD8g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6V7mJ1TVswmrP0rIagUkcA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3gJzkU8v2X7ZT6KVVa6Q_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/x96-7CD5UvUxB2oj2J2ulQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VICcPtkDqUlO9WAGsm8BTw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oLPv0cLgbLDBTxyMToZDqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qcMPRG9-1Dg7e7wt43OkCQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Hs6PgiLrDThHBXH02Vgv1A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/vFdpdZiD4vB9xXW_jqDIoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zywlOEtah3k5S3HLuay1Rw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/LcWWoP_nWnuGUdLeo-_QTQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xs4MNour4QiZwwMnVfvpKw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FKCii3VR5Scz5RxiezV-hA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/GEafkjHtT5O7i-RIK8le3w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/z1vVcNoM5rtpdCLtlpI53w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WRe3gjz4lTnVbMHCOUpyuw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HJD22rw3XEPUcz_Vz-75Ug?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1hAP5bx29Nm1o3kRjMUuZA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/A8sZbjImqVaGG7Xktvmigg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VUzE83thy3BCYgF6gzuZTg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HlZnsSTec4DWLUImDV3zSA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/FRWZDea-zeDAHSYBeuR-nA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MCsgPQYHX-7Y1rwdp37gRg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aJJeOsDDOxac6JVfv7Rihw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/En4toBxZv-IRT1rsaV5HRg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uqw6Rnia5LLT408IUDG9Bw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CdKpu9coN7HNgaRFiwz2uA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/r99mP45_fbYuhr1y_Y7ChA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HByI1XXj0j0uRCXlxEbkYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1PP5_Nbtc5QiTnOudRxOhA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uQz0FhPiYJbyzBXNENTRYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7D5qw03O_5mh2bLiTxZz9A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AXNRv5f-4_d2K3Asg1uPVw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/20df0rka3uytDe64smiXPw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/JwqUNrkd3UJjTrh__G1IWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/s8vqd-5p3fAMcsi6juI9qQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CH9ulKnJV8KjzHAoNAS49g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TMBzM2ScpzGt4E13V2gfiA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zrW7NHh2Fvz07rrCKMjwkw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ec1AizBRzil-FR1eJbYJGA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WtKfUsA_vl63jWz7H9vufw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/MCSodz6QzYMEGxgwoZMdYg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u8aPPCQHzg2HWET30BEV-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oC4Rci1Mx3UtM8nKYumVpA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UWJhrUx3huNvemgBRQfyxw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-6VaCXZESXPQ3aQy2TjWLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/RFe9mEhp3mP3X8mxWOF_Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/v10aCW4aH1oGA9oNFxxJ_g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/C0IvQm2fw3JXoSb-lo-Q-g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4xa8MuLOUCL1bD8rUdUdGQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3SE7KsEWhx0RHJ7KagA_tA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/koz0rbDV2yhLLdSUW1t2Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3N7SGar7tsvfk6u5FEQb_w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/scHfvc3EM4yxva192-6xow?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QsICUamqs_LK2XHX3n_KvA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PCqKNpVED4mxRia1zaN8Sg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/SjX7QJUzmOmhDTJFl-Nouw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wmThnLvTBe8aSq-XJfi7Hw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TiwqyY2a2UD542IIigNd4Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QHHV7y8uMR4ZjqB6CnjwjQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/V8h5YYEiHHh3VE83C_Qulw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6L1CRGz1tIYSgJlgRjut-A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/z7XCUKlXoubnJKPp0gzpng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ztvglSnkA8_j6e9pvbPeuQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zBSYvBtvprK55H08irXBwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rEkGqTzLoF3TtCb1mBaaSg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/bv-PSugy2Wnhnn4oUPWdfw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/0WOGUWf6BIyaMI8V5w9hoQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kYO4SKzwdY_NFeeBFlg-VQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/P16V5CiOMz1FHhKbcORvBQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NehaPSl3BKRwvHBo5_eSHw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/q57O8G7ps1bHZswBzBP_Iw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9Cj9YWVE7Q19G9NwhNDa0A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DY-FVbUu8CSZM8in_1ZMtg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Izn1EGSiCDrgtgaUrSz9QQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/brwb9yZ4DBf5cD191r_qwg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qC1589tILdAIgicwQJ6zlA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/aresuMq4RsGY2pqhYAnErQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IAP-YbZY7-O6wIlnkpI-tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ovL3vbjOz8jdlIqsfzUnFg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3wtXbG0cLMAxZN6XNUf95g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/27f08UDJuOCPYs7I2sT_ZQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nXTrcZWcqyMW8TBCsEPVYw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/2FgGduGbRJzsDE0wmhR8Tg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-9fWPl9mnorw4IOENTNvEQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6LQ7LVOsuZNqq2EGjxmBsg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nv3f0VFT8XYvVFzppkHOPw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wFL8htmKdTXeb4nWUE7dXA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OTqEp7Khe-u8b8UsM1o0mQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Mi0ksk8-ozOV4-i79xKNdQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZoKPLEyofrZlLXKKqL1VmA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/egbGFxLkDDPMoPvQjqvYKQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/B-q5olcKuBQQnVdUhEJyng?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1CgiYux--m_W0047lttHPg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VSO1QqYie-snM91eMcxWfA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xs3elMFhOpNiBYVwJtPjuA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/t3y12ZT1GjIsbm_Dv2JWWw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/rVZ1dkbtACeqf4cypmsrkg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/X4kq2ZZXIHfcae6Oer3Hug?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/e0v8zImE3rGJ0072A86NHA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mQKUUbHhgQ7Nqez4-c3ikg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/CYW0F3HIxmgx74RlR7jLuA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/unIBKNQU0KVgKdz_oR5lFQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qQUu0BeaYg_zgfTOISQnSw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/U_wcDCb6rXUdg55TQ-jLlg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/EmaqqzhkRxc7VDZBpjOIOA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/9goK6mfRQP3eAOVqPXNAyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/lhdbzRTt-LN7qAJV8rES4g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/h45utDFpJqz9XI3VAis1yA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/sHkOPnMD4fo4JtJ5QaVeog?typeid=9</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-04\$\@\$中央流行疫情指揮中心今(4)日表示，為利疫苗資源有效利用，「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/ ，以下簡稱預約平臺）第13期增加開放「10月26日前意願登記AZ疫苗之49歲至18歲民眾[即1972/1/1(含)-2003/11/6(含)間出生] 」，預約接種第一劑AZ疫苗，人數預估約27.6萬人。預約時程：11月4日下午4時至11月5日中午12時止；施打時程：11月6日至11月12日，惟施打期間各縣市可預約接種名額不等，請及早預約。\$\@\$指揮中心說明，11月4日下午4時至11月5日中午12時，僅開放上述增加開放對象進行預約，符合資格者，於今日下午4時開放預約起即可上平臺預約，提醒簡訊將陸續發送。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。另預約平臺第13期原預約資格對象，依原預約期程，已於今日中午12時停止預約及修改，總計約126.8萬人完成預約，並將於11月5日至11月12日施打。\$\@\$指揮中心提醒，18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書，若由家長陪同前往接種，請本人與家長於現場共同簽屬意願同意書。此外，10月1日起亦開始接種流感疫苗，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。\$\@\$指揮中心強調，本次增加開放對象，如無選擇到適合場次及時間，指揮中心亦將持續規劃透過預約平臺或至合約醫療院所預約方式提供民眾接種\$\@\$指揮中心另指出，除增開13期預約對象外，平臺意願登記亦將於今日下午2時起至11月5日下午2時止，開放進行意願登記或修改。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增2例COVID-19確定病例，分別為1例本土個案及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增1例本土個案(案16539)，為本國籍30多歲男性，今(2021)年10月19日起開始出現全身倦怠、呼吸喘及食慾不振等症狀，11月2日因症狀持續且有發燒而就醫採檢，於今日確診(Ct值34，住院後採檢之核酸檢驗陰性、血清抗體陽性)；相關接觸者衛生單位匡列中。\$\@\$指揮中心表示，今日新增1例義大利境外移入個案(案16540)，為本國籍20多歲男性， 5月至美國工作， 10月25日因公前往義大利，11月2日自義大利返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，於今日確診(Ct值34.6)；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計4,041,662例新型冠狀病毒肺炎相關通報(含4,024,164例排除)，其中16,430例確診，分別為1,786境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計847例COVID-19死亡病例，其中835例本土，個案居住縣市分布為新北市412例、臺北市320例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-04\$\@\$中央流行疫情指揮中心今(4)日表示，我國自購AstraZeneca疫苗約14.2萬劑預定於今日下午抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，截至目前總計已有約653萬劑到貨，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑、9月10日45.8萬劑、9月17日64萬劑、9月30日65.6萬劑、10月13日136萬劑，及本次提供第十二批14.2萬疫苗。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至2022年2月28日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-03\$\@\$疾病管制署今(3)日表示，有關新竹縣某衛生所發生4位幼兒接種過期流感疫苗一事，新竹縣政府衛生局已於第一時間了解，以及與幼兒家長聯繫說明並進行健康情形追蹤關懷，目前4位幼兒健康情形均良好，並已安排補接種流感疫苗。疾管署再次提醒合約院所，務必落實疫苗冷運冷藏管理及接種前三讀五對作業規範，以避免發生類似情事。\$\@\$疾管署說明，經初步調查，該衛生所係因將已屆期尚未銷毀之109年度流感疫苗誤認為110年度流感疫苗而接種於該些幼兒，於10月14日當日接種結束後經盤點時發現。衛生所第一時間已連繫幼兒家長說明，以及每日健康追蹤關懷連續14天，迄今幼兒健康情形均良好；另安排後續補種，目前已有2名幼兒補接種流感疫苗，其餘2名幼兒已排定接種日，將持續進行追蹤該些幼兒接種反應至少2週，以及主動關切並因應家長之需求。\$\@\$疾管署表示，依規定屆期疫苗應儘速銷毀，倘無法立即銷毀，合約院所應將已屆期疫苗明顯標示並與未屆期疫苗分開存放，避免誤用；接種前，應落實三讀五對。此外，為強化疫苗管理，除立即請各縣市衛生局確認轄區屆期流感疫苗已全數完成銷毀，亦加強屆期疫苗處理及查核機制，以及如發生接種異常事件之追蹤關懷及提供必要協助之相關處理流程，維護民眾接種安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-03\$\@\$中央流行疫情指揮中心今(3)日表示，今日接獲屏東縣衛生局通報，轄內某醫療院所於今日上午為長者進行Moderna COVID-19疫苗第二劑接種，於上午時段結束後，發現其中88人誤接種為AZ疫苗。\$\@\$指揮中心說明，針對不慎接種兩劑不同廠牌疫苗之民眾，依據疫苗臨床試驗與國際相關指引及指揮中心所訂COVID-19 疫苗接種實務原則，不須再補接種疫苗，會再提ACIP委員會討論，諮詢專家意見。另民眾接種後，可能出現如接種部位疼痛、紅腫等常見副作用，目前針對該等個案已由衛生局持續督導該院所進行追蹤，關懷民眾身體狀況，並提供民眾諮詢窗口。\$\@\$此外，經衛生局初步調查瞭解，該合約醫療院所因疫苗出庫作業不慎，導致混有AZ疫苗，執行接種作業時亦未注意疫苗廠牌，對此衛生局與疾病管制署於今日緊急至現場查核了解醫療院所作業流程，並請該院所暫停接種作業，將待完善疫苗接種相關工作人員之各項疫苗接種教育訓練及建立改善及預防措施後，再評估該院所是否繼續提供COVID-19疫苗接種服務。\$\@\$指揮中心強調，各地方政府衛生局應加強督導轄內合約醫療院所疫苗接種作業，落實疫苗進出庫標準作業流程，相關工作人員也應熟稔疫苗外觀、及各項操作程序，接種疫苗時務必落實「三讀五對原則」（三讀：取藥時、給藥時、歸藥時必須核對；五對：藥名、病人名、給藥時間、給藥途徑、劑量），以避免接種誤失發生。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-11-03\$\@\$中央流行疫情指揮中心今(3)日指出，目前國內已累積對於Delta變異株防疫經驗，經檢討及評估後，宣布移除以Delta變異株為主的「重點高風險國家」名單，並自11月6日零時起（航班抵臺時間），凡自印度、英國、緬甸3國入境之旅客，恢復為第三級流行地區抵臺旅客檢疫措施。\$\@\$指揮中心表示，我國今(2021)年6月底因應Delta變異株而實施「重點高風險國家」來臺旅客管制措施已逾四個月，截至10月31日已執行6,360位旅客專案集中檢疫，計篩檢出28例Delta變異株病例，阻絕COVID-19病毒變異株傳入社區。指揮中心亦將持續監視國際疫情，如經監測發現新興(emerging)變異株可能對我國防疫造成重大威脅時，將再重啟「重點高風險國家」來臺旅客專案管制措施。\$\@\$指揮中心說明，國際COVID-19疫情持續，自第三級流行地區所有入境旅客搭機來臺前仍應取得「表定航班時間(Flight schedule time)前3日內COVID-19核酸檢驗報告」，且事前安排檢疫居所(僅限防疫旅宿或自費集中檢疫所)，抵臺後皆須配合採深喉唾液及進行PCR檢測，並搭乘防疫車隊前往防疫旅宿或自費入住集中檢疫場所接續完成14天檢疫，且於檢疫期滿前(檢疫第12至14天)PCR檢測，並於自主健康管理期間之第6至7天以家用快篩採檢一次，亦請民眾透過雙向簡訊自主回報檢測結果。\$\@\$指揮中心進一步說明，因應農曆春節前入境人潮，自本(2021)年12月14日至明(2022)年2月14日期間，入境旅客維持14天檢疫及7天自主健康管理，相關檢疫措施請參照11月1日發布新聞稿（http://at.cdc.tw/1QI6t4）。</t>
   </si>
   <si>
@@ -590,6 +2330,591 @@
   </si>
   <si>
     <t>發佈日期：2021-10-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增4例COVID-19確定病例，分別為1例本土個案及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增1例本土個案(案16396)，為未滿5歲女童，今(2021)年10月5日出現發燒、腹瀉等症狀，10月7日就醫採檢，於今日確診(Ct值38)。衛生單位已匡列接觸者5人，其中4人列居家隔離，1人列自我健康監測，並均安排PCR及血清採檢。\$\@\$指揮中心指出，今日新增3例境外移入個案，為1例男性、2例女性，年齡介於未滿10歲至50多歲，分別自美國(案16394、案16397)、及緬甸(案16395)入境，入境日介於9月24日至10月6日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例死亡個案(案8748)，為70多歲女性，具慢性病史及其他確診者接觸史，5月30日安排接觸者採檢，5月31日檢驗陽性後收治住院，6月1日確診，9月17日解除隔離，10月4日死亡。\$\@\$指揮中心統計，截至目前國內累計3,571,519例新型冠狀病毒肺炎相關通報(含3,553,809例排除)，其中16,287例確診，分別為1,651例境外移入，14,582例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計846例COVID-19死亡病例，其中834例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月9日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-09\$\@\$中央流行疫情指揮中心今(9)日表示，立陶宛政府繼今(2021)年7月31日捐贈我國2萬劑AZ疫苗，9月22日宣布捐贈我國第二批23.59萬劑AZ疫苗，預定於10月9日下午運抵桃園國際機場，待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封縅作業。本批疫苗效期至2021年10月31日及11月30日，將由指揮中心統籌規劃運用，再提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求且疫情艱難時刻，立陶宛再度伸出援手，提供這批COVID-19疫苗，有助提升我國疫苗覆蓋率，指揮中心再次向立陶宛政府與人民致上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-08\$\@\$中央流行疫情指揮中心今(8)日表示，為利疫苗資源有效利用，「COVID-19公費疫苗預約平臺( https://1922.gov.tw/，以下簡稱預約平臺)第11期調整增加符合BNT疫苗第一劑及AZ(AstraZeneca)疫苗第二劑接種資格對象，依不同廠牌疫苗預約分流，並於預約分流日前一日14時起發送簡訊，籲請民眾依時程進行預約，並準時前往接種，對象及期程說明如下：\$\@\$一、BNT疫苗第一劑\$\@\$(一)預約接種對象：10月6日中午12時前登記選擇BNT疫苗民眾，且符合下列任一項條件：\$\@\$1.45歲以上民眾[即1976/12/31(含)前出生]。\$\@\$2.22-12歲民眾[即1999/1/1(含)-2009/10/15(含)間出生]。\$\@\$3.18歲以上第9類對象[即2003/12/31(含)前出生]。\$\@\$(二)預約時間：10月11日上午10時至10月13日中午12時(10月10日14時起發送簡訊)。\$\@\$(三)接種期間：10月15日至10月21日。\$\@\$二、AZ疫苗第二劑\$\@\$(一)預約接種對象：以下對象若曾於預約平台登記過意願，第二劑無須再重新登記意願。\$\@\$1.7月22日(含)前已接種AZ第一劑之18歲以上民眾[即2003/10/15(含)前出生]」。\$\@\$2.7月30日(含)前已接種AZ第一劑之54歲以上民眾[即1967/12/31(含)前出生]」。\$\@\$(二)預約時間：10月12日上午10時至10月13日中午12時（10月11日14時起發送簡訊）。\$\@\$(三)接種期間：10月15日至10月21日。\$\@\$本期接種BNT疫苗第一劑對象，若為滿12歲至17歲(含)之學生/青少年，請家長(監護人或關係人)於接種當日陪同學生/青少年至選擇之合約醫療院所或接種站，於現場簽署接種評估及意願書，完成COVID-19疫苗接種。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，依衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-08\$\@\$中央流行疫情指揮中心今(8)日表示，第八批採購 Moderna 疫苗 113.21 萬劑，已於臺北時間10月8日凌晨自美國亞特蘭大啟運，預定當日晚間抵達桃園國際機場。\$\@\$指揮中心表示，我國採購之Moderna疫苗目前共有371.21萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41.04萬劑、第四批7月15日35.04萬劑、第五批8月8日9.96萬劑、第六批8月15日24.96萬劑、第七批9月17日108萬劑及本批113.21萬劑。抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，本批疫苗效期至2022年3月2日，將由指揮中心統籌運用，儘速提供民眾接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-08\$\@\$中央流行疫情指揮中心今(8)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第七批BNT疫苗88.92萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨509.84萬劑，分別為首批9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑、第五批10月4日27萬劑、第六批10月7日88.92萬劑，以及本批88.92萬劑。本批疫苗效期至2022年2月22日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增12例COVID-19確定病例，均為境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增12例境外移入個案，為7例男性、5例女性，年齡介於10多歲至60多歲，其中11例分別自美國(2例，案16382、案16385)、馬來西亞(案16383)、菲律賓(案16384)、緬甸(4例，案16386、案16387、案16392、案16393)、英國(案16388)、日本(案16390)及印尼(案16391)入境、餘1例(案16389)調查中，入境日介於今(2021)年9月13日至10月6日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例死亡個案(案14970)，為40多歲女性，具慢性病史及其他確診者接觸史，6月24日因其他原因住院治療，6月30日因出現喉嚨痛症狀由院方安排採檢，7月2日確診，9月28日死亡。\$\@\$指揮中心統計，截至目前國內累計3,551,518例新型冠狀病毒肺炎相關通報(含3,534,092例排除)，其中16,283例確診，分別為1,648例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計845例COVID-19死亡病例，其中833例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月8日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-07\$\@\$中央流行疫情指揮中心今(7)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第六批BNT疫苗88.92萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨420.92萬劑，分別為首批9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑、第五批10月4日27萬劑，以及本批88.92萬劑。本批疫苗效期至2022年2月20日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增4例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於20多歲至40多歲，分別自南非(案16378)、馬來西亞(2例，案16379、案16381)及印尼(案16380)入境，入境日介於今(2021)年9月23日至10月5日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,531,025例新型冠狀病毒肺炎相關通報(含3,513,361例排除)，其中16,271例確診，分別為1,636例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計844例COVID-19死亡病例，其中832例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-06\$\@\$中央流行疫情指揮中心今(6)日表示，為利疫苗資源有效利用，「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/ ，以下簡稱預約平臺）第十期將於10月7日上午10時至10月7日下午6時止，增加開放「9月29日前意願登記BNT疫苗之63歲至61歲民眾[即1958/1/1(含) - 1960/12/31(含)間出生] (不含第9類對象)」，進行第一劑BNT疫苗預約，並預定於10月10日至10月14日施打。\$\@\$指揮中心說明，10月7日上午10時至10月7日下午6時，僅開放上述增加開放對象進行預約；符合上述預約資格者將於開放預約後，陸續收到提醒簡訊，請記得進行預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，預約平臺第十期前次(10月4日上午10時至10月5日下午4時止)已宣布之符合BNT疫苗預約資格對象，包含64歲以上民眾、18歲至63歲第9類對象以及18歲至22歲民眾，依原預約期程，已於10月5日下午4時停止預約及修改，總計約29.7萬人完成預約，並將於10月6日至10月14日施打。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-06\$\@\$中央流行疫情指揮中心今(6)日表示，「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/）已於今日中午12時停止意願登記進行結算，第11期預約將提供AZ疫苗第二劑及BNT疫苗第一劑接種，並採分流方式預約，相關說明如下:\$\@\$一、 預約分流時間(本期預約提醒簡訊將於預約分流日前一天陸續發送，BNT：10月10日14時起、AZ：10月11日14時起)：\$\@\$1. BNT第一劑：10月11日上午10時至10月13日中午12時。\$\@\$2. AZ第二劑：10月12日上午10時至10月13日中午12時。\$\@\$二、 施打期間：10月15日至10月21日。\$\@\$三、 符合資格對象(於10月6日中午12時前完成意願登記)：\$\@\$1. 7月22日(含)前已接種AZ第一劑之55歲至18歲民眾[即1966/1/1(含)-2003/10/15(含)間出生]，預約接種第二劑AZ疫苗。\$\@\$2. 7月30日(含)前已接種AZ第一劑之56歲以上民眾[即1965/12/31(含)前出生]，預約接種第二劑AZ疫苗。\$\@\$3.於10月6日前意願登記選擇BNT疫苗民眾之下列對象，接種第一劑：\$\@\$(1) 47歲以上民眾[即1974/12/31(含)前出生]。\$\@\$(2) 22-12歲民眾[即1999/1/1(含)-2009/10/15(含)間出生]。\$\@\$(3) 18歲以上第9類對象[即2003/12/31(含)前出生]。\$\@\$指揮中心說明，預約分流有助於讓預約過程更順暢，請符合上述預約資格民眾依期程分流進行預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。另針對滿12歲至17歲(含)學生/青少年，請家長(監護人或關係人)於預約接種當日陪同學生/青少年至選擇之合約醫療院所或接種站，於現場簽署接種評估及意願書，完成COVID-19疫苗接種。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，依衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增5例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增5例境外移入個案，為1例男性、4例女性，年齡介於20多歲至40多歲，其中4例分別自美國(3例，案16373、案16374、案16376)、南非(案16375)入境，餘1例調查中(案16377)，入境日介於今(2021)年9月14日至9月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,507,972例新型冠狀病毒肺炎相關通報(含3,490,728例排除)，其中16,267例確診，分別為1,632例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計844例COVID-19死亡病例，其中832例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月6日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-05\$\@\$中央流行疫情指揮中心今(5)日表示，為防堵 COVID-19病毒Delta變異株入侵社區，指揮中心已於今(2021)年8月23日啟動防堵Delta變異株之COVID-19加強監測方案，並將由疾病管制署進行捐血人血清抗體陽性盛行率研究調查計畫，以作為防治政策上的參考依據與評估捐輸血者之風險。\$\@\$指揮中心說明，為瞭解今年5月份本土COVID-19疫情上升之際，社區中自然感染或接種疫苗的抗體陽性比例之地理分布與趨勢變化，與評估捐輸血者之風險，前述計畫將針對今年4月25日至7月3日全臺各捐血中心之血清存檔樣本(每袋血均須留存此樣本，作為血液安全追溯調查之用)隨機抽樣共5000件，檢測SARS-CoV-2病毒抗核蛋白及棘蛋白抗體，該時段有捐血的民眾被抽到的機率約為1-2%。該計畫不僅是作為防治政策上的參考依據，亦為國際上普遍使用於COVID-19血清流行病學調查之方式。該計畫為保護捐血人個資，血液基金會於抽樣後，僅提供匿名資料與血清存檔樣本給疾病管制署進行後續檢驗與資料統計分析。抽樣檔案將由血液基金會按程序銷毀，故無論是血液基金會或疾病管制署均無法辨識或回溯特定捐血人檢體檢測結果，亦無法將抗體檢測結果通知特定捐血人。\$\@\$指揮中心指出，加入或退出此計畫與否並不影響捐血人現有任何權益，亦不會被特別註記。該研究經疾病管制署人體研究倫理審查會審查通過，採用選擇退出(opt out)的方式，以確保受試者的自主權。若有曾於該段時間捐血之捐血人欲退出本計畫，請於10月18日前致電1922並請留下相關資料(血袋號碼，或提供姓名、身分證字號及生日)，後續由血液基金會於檢體抽樣前排除。 附件\$\@\$疾病管制署捐血人血清抗體研究調查計畫Q&amp;A.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增7例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增7例境外移入個案，為3例男性、4例女性，年齡介於10多歲至60多歲，分別自美國(5例，案16366、案16367、案16369、案16370、案16371)；越南(16368)、馬來西亞(案16372)入境，入境日介於今(2021)年9月21日至10月3日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,482,953例新型冠狀病毒肺炎相關通報(含3,466,041例排除)，其中16,262例確診，分別為1,627例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計844例COVID-19死亡病例，其中832例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$中央流行疫情指揮中心今(4)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第五批BNT疫苗27萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨332萬劑，分別為首批於9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑，以及本批27萬劑。本批疫苗效期至2022年2月10日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$中央流行疫情指揮中心今(4)日公布，因應COVID-19 Delta變異株於全球日益擴散且傳播力強，為強化國際港埠入境人員於檢疫期滿後自主健康管理期間之健康監測，以降低社區傳播風險，自今(2021)年10月4日零時（航機抵臺時間）起，原於「檢疫期間第10至12天」以家用快篩採檢一次之措施，調整至「自主健康管理期間之第6至7天」執行，並請民眾透過雙向簡訊自主回報檢測結果。\$\@\$指揮中心表示，有關今年10月3日(含)以前入境者，仍維持於檢疫期間第10至12天進行快篩，並由其關懷人員持續追蹤快篩結果至10月15日，請民眾持續配合。\$\@\$指揮中心再次強調，邊境管制為防範COVID-19疫情的重要關鍵，入境旅客抵臺時應主動配合邊境加強監測措施，並依指揮中心規定的交通方式前往檢疫地點及配合後續防疫相關措施，落實全民共同抗疫，將疫情阻絕於境外，齊力守護國內防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$中央流行疫情指揮中心今(4)日表示，「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/ ，以下簡稱預約平臺）第11期規劃提供AZ疫苗第二劑及BNT疫苗第一劑接種，相關說明如下:\$\@\$一、 符合資格對象：\$\@\$1. 7月22日(含)前已接種AZ第一劑之55歲至18歲民眾[即1966/1/1(含)-2003/10/15(含)間出生]，預約接種第二劑AZ疫苗。\$\@\$2. 7月30日(含)前已接種AZ第一劑之56歲以上民眾[即1965/12/31(含)前出生]，預約接種第二劑AZ疫苗。\$\@\$3.於10月6日前意願登記選擇BNT疫苗民眾之下列對象，接種第一劑：\$\@\$(1) 47歲以上民眾[即1974/12/31(含)前出生]。\$\@\$(2) 22-12歲民眾[即1999/1/1(含)-2009/10/15(含)間出生]。\$\@\$(3) 18歲以上第9類對象[即2003/12/31(含)前出生]。\$\@\$二、 意願登記截止時間：即日起至10月6日中午12時止。\$\@\$三、 預約時間：10月11日上午10時至10月13日中午12時止。\$\@\$四、 施打期間：10月15日至10月21日。\$\@\$指揮中心說明，針對滿12歲至17歲(含)學生/青少年，請家長(監護人或關係人)於預約接種當日陪同學生/青少年至選擇之合約醫療院所或接種站，於現場簽署接種評估及意願書，完成COVID-19疫苗接種。此外，符合上述資格如為已經意願登記過且無取消者(不需區分第一劑或第二劑)，則不用再登記意願；但如為未曾於預約平臺意願登記對象，請於10月6日中午12時前登入預約平臺完成登記意願，並於開放預約期間進行預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$考量國內疫情已趨緩並且穩定控制，經與相關單位溝通討論及評估後，中央流行疫情指揮中心今(4)日宣布，自今(2021)年10月5日至10月18日維持疫情警戒標準為第二級，調整相關規定及原則說明如下：\$\@\$一、符合主管機關防疫管理規定得開放，請遵循相關規範或指引：\$\@\$1.電子遊戲場所、資訊休閒場所、錄影節目帶播映場所(MTV)、視聽歌唱場所(自助式KTV及電話亭式KTV)、桌遊、麻將休閒館營業場所。\$\@\$2.宗教祭祀：\$\@\$(1)有條件開放進香團、餐會活動。\$\@\$(2)宗教祭祀場所入座，不限梅花座。\$\@\$3.餐飲：內用不限隔板或1.5公尺間距；宴席開放離桌進行敬酒(茶)等社交互動；放寬桌菜、自助式餐廳取菜方式。\$\@\$4.超商：茶葉蛋、關東煮等熟食不限由工作人員服務方式販售。\$\@\$5.電視主播製播新聞如能與其他工作人員均保持適當社交距離，得於正式拍攝時不戴口罩。\$\@\$二、10月5日起，開放以下情形者，得於戶外免戴口罩：\$\@\$1.農林漁牧工作者於空曠處(如：田間、魚塭、山林)工作，無須戴口罩，惟應隨身攜帶口罩，並應與他人均保持社交距離。\$\@\$2.於山林(含森林遊樂區)、海濱活動，無須戴口罩，惟應隨身攜帶口罩，並應與他人均保持社交距離。\$\@\$3.上述情形如有人潮聚集或與他人共同工作、活動等無法保持社交距離之場合，仍應戴口罩。\$\@\$4.主管機關另有規定者，依其規定辦理。\$\@\$三、仍須關閉之場所：歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、理容院(觀光理髮、視聽理容)。\$\@\$指揮中心提醒，除上述例外情形外，外出仍應全程佩戴口罩、實聯制、保持安全社交距離；營業場所及公共場域仍應執行人流控管或總量管制；集會活動人數上限亦維持原有規定。\$\@\$指揮中心將持續觀察疫情態勢，適度放寬管制措施，強化邊境監測及防疫作為。籲請民眾應落實個人防護措施，主動積極配合各項防疫措施，以兼顧防疫與生活品質。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$中央流行疫情指揮中心今(4)日宣布，自10月5日起，鬆綁部分防疫措施，內政部表示，將適度調整宗教場所及宗教集會活動防疫管制，開放全程搭乘車輛的進香團及餐會型活動，但繞境、遊行、徒步進香活動等仍不開放；另外國家公園部分，單日往返登山承載量恢復正常，山屋住宿量由原數量1/3調整至1/2。\$\@\$指揮中心表示，考量目前疫情日漸穩定，宗教活動及集會部分，取消須梅花座及固定座位的限制，另在符合宗教場所空間容留人數規定的室內外活動也將適度鬆綁，開放可辦理餐會類型活動，但仍須依「餐飲業防疫指引」做好防疫措施。\$\@\$指揮中心說明，宗教團體提供住宿時，除同住家人外，每室可居住人數由1人放寬至最多4人。另外，開放得辦理全程搭乘車輛的進香團類型活動，進入寺廟時仍須遵守室內外容留人數規定；至於繞境、遊行或徒步進香活動，因風險較高，待疫情更進一步穩定後再行開放。\$\@\$指揮中心表示，殯葬設施方面，維持開放公祭，各地方殯儀館管理單位依場所空間容留人數，訂定設施人數管制總量，並按各廳室大小公告容留人數上限，室內至少以每人2.25平方公尺計算，如於室外開放空間辦理者，容留人數以每人1平方公尺計算。骨灰（骸）存放設施部分亦依場所容留人數訂定管制總量。\$\@\$指揮中心表示，國家公園部分，對於在指定營地搭營的多日登山路線以及單日往返登山路線，將恢復至原有承載量進行人流總量管制；另考量山屋通鋪密閉以及無法設置床位隔板等特性，將調整山屋住宿量由原數量1/3調整至1/2。相關防疫管制措施將視指揮中心最新防疫指引，宣導維持社交距離及佩戴口罩等防疫作為，若於通風良好且無人潮聚集之戶外場所，在能與其他人保持社交距離之情形下，暫免佩戴口罩。另配合各國家公園環境特性，採因地制宜方式滾動檢討。\$\@\$指揮中心說明，團體召開會議部分，同步放寬場所容留人數為室內至少每人2.25平方公尺、室外每人1平方公尺，也提醒團體應依「公眾集會因應指引」做好相關防疫措施。\$\@\$指揮中心表示，如能澈底落實管理且遵守娛樂場所防疫指引，里民或社區活動中心亦開放使用卡拉OK設備，但各地方政府可視疫情決定是否開放。\$\@\$指揮中心強調，雖然疫情漸緩，防疫千萬不能鬆懈，務必遵守指揮中心及各部會發布之防疫指引，並落實實聯制，維持勤洗手、戴口罩、保持社交距離，以維護自身及民眾的安全，齊心防疫。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增5例COVID-19確定病例，均為境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至50多歲，分別自印尼(3例，案16361、案16362、案16363)、貝里斯(案16364)及美國(案16365)入境，入境日介於今(2021)年9月20日至10月2日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例死亡個案(案15920)，為70多歲男性，具慢性病史，無相關活動接觸史，8月10日因其他原因就醫採檢並住院治療，8月11日確診，9月4日解除隔離，10月2日因其他原因死亡。\$\@\$指揮中心統計，截至目前國內累計3,460,241例新型冠狀病毒肺炎相關通報(含3,442,726例排除)，其中16,255例確診，分別為1,620例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計844例COVID-19死亡病例，其中832例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市29例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月4日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-03\$\@\$中央流行疫情指揮中心今(3)日表示，針對某公司員工未依醫院公告對象逕行掛號預約第二劑莫德納疫苗，指揮中心籲請合約醫療院所如有以自有系統提供COVID-19疫苗預約接種，應以律定接種對象資格依序接種，並加強落實身分查核。\$\@\$指揮中心說明，有關合約醫療院所開放提供第一類至第三類人員接種第二劑莫德納疫苗，係由地方政府視疫苗庫存安排對象提供接種，合約醫療院所可依配送之疫苗劑量及醫院庫存，採滾動式開放預約，並於醫院自有掛號系統公告開放時間及對象。\$\@\$指揮中心指出，針對日前發生某公司員工未依合約醫療院所公告對象，逕行透過該院所官網掛號預約接種疫苗，該院考量雖已先行公告開放接種對象類別，然因該院所自有系統未能限制可預約對象為一至三類對象，造成民眾誤解。為避免造成疫苗施打時間延誤，該院評估在不影響其他一至三類公費對象接種權益的情況下，勉予同意現場42位間隔已滿十週以上之某公司員工接種，並同時緊急修正掛號說明，檢討後續公告作業流程。\$\@\$指揮中心說明，該合約醫療院所提供第一至三類人員接種第二劑莫德納疫苗，係符合地方政府可視疫苗庫存，調度安排疫苗使用，以使疫苗資源有效利用。但為避免民眾誤解並逕行利用各合約醫療院所自有系統預約等類似事件再次發生，已由地方政府針對合約醫療院所加強宣導，應以律定對象資格依序接種，並落實身分查核。\$\@\$指揮中心提醒，民眾如為地方政府造冊安排，或自行至地方政府指定合約醫療院所自有系統掛號預約接種COVID-19疫苗時，請依指揮中心及地方政府通知或公告，於符合接種資格時，再行前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增6例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增6例境外移入個案，為5例男性、1例女性，年齡介於10多歲至30多歲，分別自馬來西亞(2例，案16355、案16360)、美國(案16356)、蒙古(案16357)、英國(案16358)、緬甸(案16359)入境，入境日介於今(2021)年9月19日至10月1日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,445,789例新型冠狀病毒肺炎相關通報(含3,428,390例排除)，其中16,250例確診，分別為1,615例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計 843例COVID-19死亡病例，其中831例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-02\$\@\$中央流行疫情指揮中心今(2)日表示，為避免影響部分縣市量能調度，「COVID-19公費疫苗預約平臺」第十期施打期程維持自10月6日起提供接種。\$\@\$指揮中心說明，昨(1)日宣布增開「BNT疫苗第一劑接種」，調整第十期施打期程，惟考量部分縣市已設置接種站量能，為避免影響合約醫療院所人力調度安排，故維持自10月6日起開打。指揮中心後續將視預約情形及疫苗供應期程適時調整接種對象，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。完成接種後建議於接種處或附近至少留觀15分鐘，自我密切觀察15分鐘，先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾建議留觀至少30分鐘，以利即時處置該類急性過敏反應。 圖片 附件\$\@\$1002 第十期提供第二劑AZ及高端疫苗及加開BNT疫苗第一劑接種 .jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增10例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增10例境外移入個案，為5例男性、5例女性，年齡介於10多歲至30多歲，分別自尼加拉瓜(案16345)、日本(案16346)、泰國(案16347)、英國(2例，案16348、案16353)、印尼(案16349)、新加坡(案16350)、菲律賓(案16351)、索馬利蘭(案16352)及越南(案16354)入境，入境日介於今(2021)年9月17日至9月30日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,426,479例新型冠狀病毒肺炎相關通報(含3,408,719例排除)，其中16,244例確診，分別為1,609例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計843例COVID-19死亡病例，其中831例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月2日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-01\$\@\$中央流行疫情指揮中心今(1)日表示，「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/）第十期將再提供BNT疫苗第一劑接種，並調整預約與接種時間。有關第十期接種對象及相關時間說明如下:\$\@\$一、符合資格對象：\$\@\$1.「7月22日(含)前已接種AZ第一劑且間隔滿10週以上之64歲至50歲民眾[即1957/1/1(含)-1971/12/31(含)前出生]」，預約接種第二劑AZ疫苗。\$\@\$2.「9月8日(含)前已接種高端第一劑且間隔滿4週以上之民眾」，預約接種第二劑高端疫苗。\$\@\$3.於9月29日前意願登記選擇BNT疫苗民眾之下列對象，接種第一劑：\$\@\$(1)「64歲以上〔即1957/12/31(含)前出生〕」之所有民眾\$\@\$(2)「63-18歲第9類對象」\$\@\$(3)「22-18歲〔即1999/1/1-2003/12/31(含)前出生〕」之所有民眾\$\@\$二、預約接種時間：調整為10月4日上午10時至10月5日下午4時止。\$\@\$三、施打期間：調整為10月7日至10月14日。\$\@\$指揮中心說明，除第十期原規劃於10月6日起接種之AstraZeneca COVID-19疫苗與高端疫苗第二劑對象外，將再提供BNT疫苗接種。後續將視預約情形及疫苗供應期程適時調整接種對象，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。為即時處理接種後發生率極低的立即型嚴重過敏反應，民眾接種後應於接種單位或附近稍作休息留觀15分鐘，離開後請自我密切觀察15分鐘，但針對先前曾因接種疫苗或任何注射治療後發生急性過敏反應之民眾，接種後仍請於接種處或附近留觀至少30分鐘。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增11例COVID-19確定病例，均為境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增1例死亡個案(案6426)，為60多歲女性，有慢性病史及萬華區活動史，今(2021)年5月19日出現咳嗽、發燒等症狀，5月22日因快篩陽性由衛生單位安排隔離，5月27日確診，5月31日收治住院，7月23日解除隔離，9月29日死亡。\$\@\$指揮中心說明，今日新增11例境外移入個案，為5例男性、6例女性，年齡介於10多歲至40多歲，分別自美國(6例，案16334、案16335、案16336、案16339、案16340、案16343)、宏都拉斯(案16337)、日本(案16338)、印尼(案16341)、越南(案16342)及柬埔寨(案16344)入境，入境日介於今年9月17日至9月30日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,404,562例新型冠狀病毒肺炎相關通報(含3,387,120例排除)，其中16,234例確診，分別為1,599例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計843例COVID-19死亡病例，其中831例本土，個案居住縣市分布為新北市412例、臺北市319例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$10月1日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-01\$\@\$中央流行疫情指揮中心今(1)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第四批BNT疫苗67萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨305萬劑，分別為首批於9月2日送達的93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑，以及於今日送達的67萬劑。本批疫苗效期至2022年2月10日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-10-01\$\@\$衛生福利部疾病管制署今(1)日舉辦「讓健康與我們同在一起」110年度公費流感疫苗開打記者會，邀請衛生福利部薛瑞元次長、疾病管制署周志浩署長、莊人祥副署長、防疫大使譚艾珍與女兒歐陽靖及孫子新醬一家三代一同出席，並由周署長、譚艾珍與孫子新醬於現場率先施打，共同呼籲符合公費對象之民眾，配合開打時程儘速接種，以於流感流行期來臨前獲得完整保護力，守護自己及家人健康。\$\@\$薛瑞元次長表示，今(110)年度政府持續提供632萬劑四價公費流感疫苗，可涵蓋約27%全人口數，接種流感疫苗後保護力約1年，須每年接種，也需「與COVID-19疫苗接種時間間隔7天以上」才能接種；而接種流感疫苗除能減少流感的感染風險和降低重症機率外，對於COVID-19也具有減少重症的效果。同時也感謝自108年底全球COVID-19疫情發生以來，每位配合防疫的民眾及醫護人員的協助與付出，期望大家繼續共同努力，讓健康與我們同在一起。\$\@\$防疫大使譚艾珍分享，家裡也有女兒與年滿1歲的孫子，自己也會常外出拍片，於工作場合接觸人群機會較高，因此特別重視身體健康，每年都會接種流感疫苗，保護自己和家人；女兒歐陽靖也分享這是兒子新醬首次接種流感疫苗，並以當媽媽的心情呼籲，病毒不分年齡與性別，家長一定要帶小寶貝打流感疫苗，讓自己安心，孩子健康。\$\@\$疾管署指出，今年度公費流感疫苗分2階段開打，第1階段於10月1日起開打，第2階段自11月15日開始，除50至64歲無高風險慢性病成人接種時間在第2階段，其餘對象均於第1階段。接種流感疫苗是預防流感最有效的方法，接種後保護力平均約可達30-80%；對因流感而住院的保護力約有41%，對重症保護力則可達82%。\$\@\$疾管署也提醒，今年全臺約有4,000個接種合約院所，民眾可先透過各地方政府衛生局網頁、疾管署流感防治一網通(https://antiflu.cdc.gov.tw/)、疾管家或1922防疫諮詢專線，查詢鄰近合約院所，再電洽院所預約，以確保可施打到疫苗且節省排隊等候時間；前往接種時應攜帶健保卡及相關證明文件(如兒童健康手冊、孕婦健康手冊等)，並佩戴口罩、適度保持安全距離及執行手部衛生等措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-30\$\@\$中央流行疫情指揮中心今(30)日表示，目前高端疫苗供應穩定，滿20歲以上且尚未接種任何一劑COVID-19疫苗或已接種第一劑高端疫苗且間隔滿28天以上之民眾，除透過「COVID-19公費疫苗預約平臺」進行預約，亦可至提供高端疫苗接種服務之醫療院所預約後接種。\$\@\$指揮中心說明，截至本(2021)年9月30日，共72.4萬人接種第一劑高端疫苗，其中3.9 萬人已完成兩劑接種。為提升有意願接種第一劑高端疫苗或需接種第二劑高端疫苗民眾之接種便利性及可近性，指揮中心已協調衛生福利部所屬醫院持續開設高端疫苗接種門診，另已於本年9月27日函請各縣市政府衛生局依轄內高端疫苗庫存量、接種量能與接種可近性，開放符合接種資格民眾接種；此外，後續指揮中心將陸續配送高端疫苗，請衛生局後續評估增設及公告高端疫苗接種院所。\$\@\$指揮中心強調，民眾除可透過於各期程「COVID-19公費疫苗預約平臺」預約接種，亦可逕洽地方衛生局詢問有提供高端疫苗接種服務之醫療院所或各部立醫院，並事先電洽院所確認後進行預約。指揮中心另表示，高端疫苗除提供單劑型預充填式包裝之外，亦將同時供應多劑型疫苗，包裝為每瓶10人份，每人每劑接種0.5ml。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-30\$\@\$中央流行疫情指揮中心今(30)日表示，約65.6萬劑AstraZeneca疫苗預定於今(30)日下午抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，截至目前總計到貨約502萬劑，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑、9月10日45.8萬劑、9月17日64萬劑，及本次提供第十批65.6萬疫苗。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至2022年1月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-30\$\@\$中央流行疫情指揮中心今(30)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第三批BNT疫苗54萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨238萬劑，分別為首批於9月2日送達的93萬劑、第二批9月9日91萬劑，以及於今日送達的54萬劑。本批疫苗效期至2022年2月8日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增7例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增7例境外移入個案，為4例男性、3例女性，年齡介於未滿5歲至40多歲，分別自印尼(案16327)、美國(案16328)、丹麥(案16329)、菲律賓(案16330)、史瓦帝尼(2例，案16331、案16332)及柬埔寨(案16333)入境，入境日介於今(2021)年8月24日至9月28日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計 3,383,403例新型冠狀病毒肺炎相關通報(含3,365,810例排除)，其中16,223例確診，分別為1,588例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計842例COVID-19死亡病例，其中830例本土，個案居住縣市分布為新北市412例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月30日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增11例COVID-19確定病例，分別為1例本土及10例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增1例本土個案(案16326)，為印尼籍30多歲女性，今(2021)年9月27日出現頭痛症狀，9月28日就醫採檢，於今日確診。衛生單位已匡列接觸者7人，均列居家隔離，其餘接觸者匡列中。\$\@\$指揮中心指出，今日新增10例境外移入個案，為9例男性、1例女性，年齡介於20多歲至40多歲，入境日介於9月3日至9月28日，分別自美國(案16316)、哈薩克(2例，案16317、案16318)、巴基斯坦(案16319)、柬埔寨(16320)、俄羅斯(案16324)及菲律賓(案16325)入境，餘3例 (案16321、案16322、案16323)的旅遊國家調查中；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,358,228例新型冠狀病毒肺炎相關通報(含3,341,439例排除)，其中16,216例確診，分別為1,581例境外移入，14,581例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計842例COVID-19死亡病例，其中830例本土，個案居住縣市分布為新北市412例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月29日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-28\$\@\$中央流行疫情指揮中心今(28)日表示，新北市衛生局昨(27)日通報轄內某COVID-19疫苗合約醫療院所於當日執行BioNTech COVID-19疫苗（簡稱BNT疫苗）接種作業時，發現疫苗消耗數量異常，經該院所調查，共25人接種未稀釋的BNT疫苗。\$\@\$指揮中心說明，經該院所提供的調查報告表示，本次疫苗接種異常事件經初步調查，係因值班人員將未開封的25瓶BNT疫苗，誤判為接種後的剩餘劑量，故以未稀釋的疫苗原液每瓶各抽取0.3ml提供民眾接種，導致此次異常接種事件。\$\@\$指揮中心指出，該院所已於當日緊急通知該25位民眾，進行後續追蹤關懷以及相關醫療處置。針對本次接種異常事件，新北市衛生局已暫停該院所的接種作業，並進行事件調查及實地查核，以確認該院所接種流程。後續於完善疫苗接種相關工作人員的各項教育訓練，並建立改善及預防措施後，再行評估該院所是否繼續提供COVID-19疫苗接種服務。\$\@\$指揮中心表示，有關民眾因合約醫療院所不慎接種超過疫苗規範劑量之異常接種事件，依據該疫苗臨床試驗及國際(英國及美國)相關指引顯示，大部分為接種後產生可能出現較明顯局部或全身性反應(如接種部位疼痛、紅腫等常見副作用)，惟尚未發現嚴重不良反應。另針對mRNA疫苗接種後可能發生之心肌炎及心包膜炎，大部分發生於接種後約7天，且接種第二劑發生機率較第一劑高。\$\@\$指揮中心進一步表示，目前針對該等個案，已由新北市衛生局持續督導該院所進行追蹤關懷民眾身體狀況，如出現不適症狀務必協助就醫。\$\@\$指揮中心強調，BNT疫苗接種程序與其他廠牌的COVID-19疫苗不同，合約醫療院所的疫苗接種相關工作人員應熟稔準備、稀釋及接種等各項操作程序，接種疫苗時務必落實「三讀五對原則」（三讀：取藥時、給藥時、歸藥時必須核對；五對：藥名、病人名、給藥時間、給藥途徑、劑量），以避免接種誤失發生。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19公費疫苗預約平臺」 ( https://1922.gov.tw/ ，下稱預約平臺)第十期將提供AZ疫苗及高端疫苗第二劑接種，相關說明如下：\$\@\$一、符合資格對象：\$\@\$(1)「9月30日(含)前符合已接種AZ疫苗第一劑且間隔滿10週以上之64歲至50歲民眾[即1957/1/1(含)-1971/12/31(含)前出生]」，預約接種第二劑AZ疫苗。\$\@\$(2)「10月6日(含)前符合已接種高端疫苗第一劑且間隔滿4週以上之民眾」，預約接種第二劑高端疫苗。\$\@\$二、意願登記截止時間：即日起至9月29日中午12時止。\$\@\$三、預約時間：10月3日上午10時至10月4日下午4時止。\$\@\$四、施打期間：10月6日至10月12日。\$\@\$指揮中心說明，符合上述資格如為已經意願登記過且無取消者，則不用再登記意願；但如為未曾於預約平臺意願登記對象，請於9月29日中午12時前登入預約平臺完成登記意願，並於開放預約期間進行預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心進一步說明，除上述透過平臺預約接種對象外，針對「9月30日(含)前符合AZ疫苗間隔滿10週以上之65歲以上長者」，將由地方政府衛生局造冊安排至指定合約醫療院所或接種點方式，提供第二劑AZ疫苗接種服務。近期天氣炎熱，提醒長者前往接種時應注意防曬及補充水分，並留意自身身體狀況。\$\@\$另自10月1日起亦開始接種流感疫苗，指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。完成接種後建議於接種處或附近至少留觀15分鐘，自我密切觀察15分鐘，先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾建議留觀至少30分鐘，以利即時處置該類急性過敏反應。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增7例COVID-19確定病例，分別為1例本土及6例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增1例本土個案(案16315)，為50多歲男性，9月27日因工作需求自費採檢，並於今日確診。個案近期均無症狀，衛生單位已啟動醫院及社區調查與防治，相關接觸者匡列中。\$\@\$指揮中心指出，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於20多歲至50多歲，分別自美國(2例，案16309、案16313)、日本(2例，案16310、案16311)、越南(案16312)、新加坡(案16314)入境，入境日介於9月13日至9月26日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,329,815例新型冠狀病毒肺炎相關通報(含3,312,650例排除)，其中16,205例確診，分別為1,571例境外移入，14,580例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計842例COVID-19死亡病例，其中830例本土，個案居住縣市分布為新北市412例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月28日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-27\$\@\$中央流行疫情指揮中心今(27)日表示，考量國內疫情目前已趨緩且穩定控制，經與相關單位溝通討論及評估後，指揮中心規劃於本週起放寬部分場域防疫管制措施，並於10月5日起有條件開放部分休閒娛樂場所，詳細防疫管制措施將由主管部會公布/修訂之相關指引辦理，原則說明如下：\$\@\$一、各場域管制調整(本週起放寬)：\$\@\$1. 臺鐵、高鐵：車站付費區，如能維持適當社交距離，可開放飲食。\$\@\$2. 遊覽車：以核定座位數乘坐，不另限制承載上限。\$\@\$3. 藝文表演展覽、體育活動賽事：\$\@\$(1) 實聯制、量體溫、全程戴口罩、禁止飲食。\$\@\$(2) 室內：進場人數符合場所容留人數，得不受限室內80人上限，以實際座位數入座，且不限梅花座/間隔座。\$\@\$(3) 室外：人數降載50%(如實際座位數50%)，得不受限室外300人上限。\$\@\$(4) 如能維持排隊時之室內外適當社交距離，得現場售票，不限預約制。\$\@\$(5) 開演前、中場休息及散場時仍須維持室內外適當社交距離。\$\@\$二、有條件開放部分休閒娛樂場所(規劃10月5日起)，並依經濟部公布之相關場所防疫管理措施指引辦理：\$\@\$1. 通則：\$\@\$(1) 預約制、實聯制、量體溫、全程戴口罩、人流控管、加強通風換氣。不得有陪侍服務行為。\$\@\$(2) 從業人員應6成以上已施打至少1劑疫苗滿14天，落實健康管理。\$\@\$2. 電子遊戲場所及資訊休閒場所：\$\@\$(1) 顧客以1人1機遊玩，機檯間須裝設隔板，或採間隔座/梅花座。禁止飲食。\$\@\$(2) 場所內須裝設攝影監視設備，必要時提供錄影資料供查核。\$\@\$(3) 定時執行環境及機臺清消，顧客把玩離開後立即消毒機臺。洗手間加強清消。\$\@\$3. 錄影節目帶播映場所(MTV)\$\@\$(1) 固定座位，採梅花座或間隔座。非固定座位須維持1.5公尺以上距離。禁止飲食。\$\@\$(2) 每組顧客消費完畢，應清消包廂環境設備，距下一組顧客使用至少隔30分鐘。\$\@\$(3) 維持場所良好通風，每2小時進行換氣，加速室內空氣循環。\$\@\$4. 視聽歌唱場所(自助式KTV及電話亭KTV)\$\@\$(1) 除飲水外不得飲食。須全程戴口罩（包括使用麥克風時）。\$\@\$(2) 每組顧客消費完畢，應清消包廂環境設備，距下一組顧客使用至少隔30分鐘。\$\@\$(3) 維持場所良好通風，每2小時進行換氣，加速室內空氣循環。\$\@\$5. 桌遊、麻將休閒館營業場所\$\@\$(1) 不同桌之顧客間保持1.5公尺以上間距或獨立包廂、屏風或隔板，同桌者使用隔板。\$\@\$(2) 接觸遊具前後應執行手部衛生並戴手套。飲食須遵照餐飲相關規範。\$\@\$(3) 遊具及桌面使用過應立即清消，間隔至少15分鐘始能提供下一組客人使用。\$\@\$三、仍需關閉之場所：歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、理容院(觀光理髮、視聽理容)。\$\@\$指揮中心說明，將持續觀察國內外疫情態勢，循序漸進放寬管制措施，也請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，並主動積極配合各項防疫措施，才能達到兼顧防疫與生活品質。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增9例COVID-19確定病例，均為境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增9例境外移入個案，為4例男性、5例女性，年齡介於未滿10歲至40多歲，分別自緬甸(7例，案16300-16302、案16304-16306、案16308)及印尼(2例，案16303、案16307)入境，入境日介於9月11日至9月24日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例死亡個案(案14085)，為80多歲女性，具慢性病史，6月19日因發燒就醫，同日採檢並住院治療，6月20日確診，9月25日死亡。\$\@\$指揮中心統計，截至目前國內累計3,305,433例新型冠狀病毒肺炎相關通報(含3,287,506例排除)，其中16,198例確診，分別為1,565例境外移入，14,579例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計842例COVID-19死亡病例，其中830例本土，個案居住縣市分布為新北市412例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月27日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-26\$\@\$中央流行疫情指揮中心今(26)日表示，為儘速提升國內第二劑COVID-19疫苗涵蓋率，將自9月29日起陸續配送AstraZeneca COVID-19疫苗(以下簡稱AZ疫苗)，預計開放7月22日前已接種第一劑AZ疫苗且間隔滿10週以上之52歲(含)以上[即1969年12月31日(含)前出生]民眾，由縣市政府安排通知接種第二劑AZ疫苗，並可視疫苗庫存、到貨與接種情形，依年齡層逐序向下開放與第一劑AZ疫苗接種間隔滿10週之民眾接種第二劑。\$\@\$指揮中心說明，本(2021)年7月22日前接種AZ疫苗之民眾，至9月30日間隔將滿10週以上。考量年齡較大者感染COVID-19後重症風險較高，為使年紀較長之民眾獲得足夠免疫保護力，故目前可配送之AZ疫苗量約111萬劑，將優先提供52歲以上民眾接種，將自9月29日起陸續配送。地方政府衛生局可依現有疫苗庫存及後續配送時間，規劃指定合約院所或接種點提供接種服務，並可視接種量能與疫苗可調度量調整開始接種日期。\$\@\$另自10月1日起亦開始接種流感疫苗，指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾於接種各項疫苗前應攜帶「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時應說明過往疫苗接種史，以利醫生評估。完成接種後建議於接種處或附近至少留觀15分鐘，自我密切觀察15分鐘，先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾建議留觀至少30分鐘，以利即時處置該類急性過敏反應；另接種AZ疫苗後28天內，若出現嚴重不適症狀，應儘速就醫，並告知疫苗接種史，以利醫師及早釐清病因，並給予適當臨床處置。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-26\$\@\$中央流行疫情指揮中心今(26)日表示，今(110)年度公費流感疫苗分2階段開打，第1階段於10月1日起開打，第2階段自11月15日開始，除50至64歲無高風險慢性病成人接種時間在第2階段，其餘對象均於第1階段。指揮中心呼籲符合公費接種資格民眾開打後儘速預約接種，且需注意「與COVID-19疫苗接種時間間隔7天以上」，並在前往合約院所預約或接種前，主動告知疫苗接種史。\$\@\$指揮中心說明，公費流感疫苗開打期間，COVID-19疫苗接種作業持續進行，依據衛生福利部傳染病防治諮詢會預防接種組專家建議，COVID-19及流感2種疫苗接種間隔應至少7天，避免發生疫苗接種不良事件無法釐清。今年度公費流感疫苗實施對象與去(109)年相同，第1階段開打對象，包括醫事及衛生防疫相關人員、65歲以上長者、安養、養護、長期照顧(服務)等機構之受照顧者及所屬工作人員、滿6個月以上至國小入學前幼兒、孕婦、具有潛在疾病之高風險慢性病人、BMI≧30者與罕見疾病及重大傷病患者、國小至高中(職)/五專一至三年級學生、6個月內嬰兒之父母、幼兒園托育人員及托育機構專業人員、禽畜業及動物防疫相關人員；第2階段開打對象，為50至64歲無高風險慢性病成人。\$\@\$指揮中心提醒，開打後，民眾可先透過各地方政府衛生局網頁、疾管署流感防治一網通(https://antiflu.cdc.gov.tw/)、疾管家或1922防疫諮詢專線，查詢鄰近合約院所，再電洽院所預約，以確保可施打到疫苗且節省排隊等候時間；前往接種時應攜帶健保卡及相關證明文件(如兒童健康手冊、孕婦健康手冊等)，並佩戴口罩、適度保持安全距離及執行手部衛生等措施。\$\@\$指揮中心表示，合約院所請配合妥善安排接種動線，讓預約民眾優先接種，適時增加人力疏導人流等接種規劃；此外，請醫師於接種前可先查詢全國性預防接種資訊管理系統，以及進行接種評估時，請民眾出示全民健保動快易通健康存摺APP或COVID-19疫苗接種紀錄卡，確認民眾是否7天內曾接種COVID-19疫苗，並於完成接種流感疫苗後，於健保卡黏貼流感疫苗接種貼紙。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增8例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增8例境外移入個案，為2例男性、6例女性，年齡介於10多歲至40多歲，分別自緬甸(案16292至案16295、案16298、案16299)、印尼(案16296)、阿拉伯聯合大公國(案16297)入境，入境日介於今(2021)年9月2日至9月24日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,289,349例新型冠狀病毒肺炎相關通報(含3,271,665例排除)，其中16,189例確診，分別為1,556例境外移入，14,579例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計841例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月26日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-26\$\@\$中央流行疫情指揮中心今(26)日表示，斯洛伐克政府為協助各國對抗疫情，共同維護全球衛生安全，繼7月16日宣布捐贈我國1萬劑疫苗後，又將捐贈數量提高至16萬劑AstraZeneca(AZ)疫苗，經斯國衛生部與我國斯洛伐克代表處之通力合作安排，已於9月26日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。本批疫苗效期至110年10月31日及11月30日，將由指揮中心統籌規劃運用，提供國人接種。\$\@\$指揮中心說明，全球面對疫情肆虐，國際社會竭盡一切努力，透過相互援助遏止疫情蔓延，斯洛伐克為感謝我國去年捐贈70萬片口罩之情誼，此時伸出援手提供並加碼捐贈這批COVID-19疫苗，讓我國感受到國際間正向循環的良善力量，此批疫苗將有助我國提升疫苗覆蓋率，指揮中心謹向斯洛伐克政府與人民致上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增5例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增5例境外移入個案，為3例男性、2例女性，年齡介於10多歲至30多歲，分別自阿拉伯聯合大公國(案16287)、美國(案16288)、衣索比亞(案16289)、菲律賓(案16290)及孟加拉(案16291)入境，入境日介於今(2021)年9月10日至9月23日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,267,405例新型冠狀病毒肺炎相關通報(含3,249,272例排除)，其中16,181例確診，分別為1,548例境外移入，14,579例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計841例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月25日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-25\$\@\$中央流行疫情指揮中心今(25)日表示，日本政府提供第五批50萬劑AstraZeneca(AZ)疫苗於今日下午運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。本批疫苗效期至110年11月26日及11月30日，將由指揮中心統籌規劃運用，提供國人與在臺日籍人士接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca(AZ)疫苗分別為6月4日124萬劑、7月8日113萬劑、7月15日97萬劑、9月7日6.4萬劑及本批50萬劑，共390.4萬劑，有助我國提升疫苗覆蓋率，指揮中心再次向日本政府及人民致上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增8例COVID-19確定病例，分別為1例本土及7例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增1例本土病例(案16286)，為20多歲女性，9月7日因發燒就醫快篩為陰性，9月22日因工作需求就醫採檢，並於今日確診。衛生單位已啟動醫院及社區調查與防治，相關接觸者匡列中。\$\@\$指揮中心表示，今日新增7例境外移入個案，為5例男性、2例女性，年齡介於未滿10歲至60多歲，分別自貝里斯(案16279)、英國(案16280)、菲律賓(案16281、案16282、案16283)、美國(案16284)、日本(案16285)入境，入境日介於9月11日至9月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,241,201例新型冠狀病毒肺炎相關通報(含3,223,684例排除)，其中16,176例確診，分別為1,543例境外移入，14,579例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計841例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月24日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-23\$\@\$中央流行疫情指揮中心今(23)日表示，因應民眾因求學、工作、出國及其他個人因素等，而有血清抗體檢驗需求，指揮中心醫療應變組於9月22日召開會議，邀集傳染病防治醫療網指揮官、臨床醫療及檢驗專家等進行專業溝通及討論，說明如下：\$\@\$1.民眾如有血清抗體檢驗需求，將可至經各地方衛生局審核通過之提供自費COVID-19血清抗體檢驗服務之醫事機構進行檢驗。為使提供自費血清抗體檢驗服務醫事機構及民眾有所依循，指揮中心參考歐美等國際檢驗指引及建議，血清抗體檢驗主要適用時機為評估個人是否曾經遭受感染產生抗體。由於一般抗體檢測結果不完全等同於對COVID-19免疫力（或保護力）之高低或有無，醫事機構在接受民眾進行自費血清抗體檢驗前後，應詳細說明其檢測方式及結果代表之意義，以利正確解讀。\$\@\$2.為防範疾病傳播風險及保障民眾健康，民眾於自費抗體檢驗前，需經醫師評估，如具發燒、呼吸道症狀、味覺嗅覺喪失、不明腹瀉等疑似COVID-19 症狀、TOCC風險或有疑慮者，應先進行核酸檢驗等措施。若無上述相關症狀或評估無疑慮者，由醫師開立檢驗處方執行自費抗體檢驗。\$\@\$3.檢驗試劑以使用通過衛生福利部食品藥物管理署許可之SARS-CoV-2人類抗體檢測試劑抗體，並須於檢驗報告中載明檢驗抗原種類(如：S蛋白等)及抗體項目(如：IgG、Total Ig等)、使用之試劑廠牌及檢測方法(如：CLIA或ELISA)、檢驗結果(如檢測數值及判讀標準)等資訊。\$\@\$4.自費檢驗收費標準，依據醫療法第21條規定：「醫療機構收取醫療費用之標準，由直轄市、縣(市)主管機關核定之」，及醫療法第22條第2項規定：「醫療機構不得違反收費標準，超額或擅立收費項目收費」。\$\@\$指揮中心提醒，不論血清抗體檢驗結果為陽性或陰性，仍應遵守防疫新生活原則，維持社交距離、落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施等，以降低感染風險，確保自身健康。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-23\$\@\$中央流行疫情指揮中心今（23）日指出，依據疫情監測資料顯示，秘魯、孟加拉及巴西等三國之疫情已過高峰，且呈明顯下降，加上逾二個月未檢出自該等國家境外移入我國之COVID-19病毒變異株案例，故9月25日零時起（航班抵臺時間），調整自該3個國家旅客入境之檢疫措施。\$\@\$指揮中心表示，抵臺旅客如過去14日內具秘魯、孟加拉或巴西等國家旅遊史（含在當地轉機），入境後須入住防疫旅宿或自費集中檢疫所，且所有旅客均須配合入境時採深喉唾液及進行PCR檢測、期間快篩及期滿再篩等三次採檢措施。\$\@\$指揮中心指出，經調整後「重點高風險國家」為印度、英國、以色列、印尼及緬甸等5國，具該等國家旅遊史之旅客，入境後仍應至集中檢疫所檢疫，且配合檢疫期間專案採檢。\$\@\$指揮中心提醒，國際間Delta變異株持續流行，為確保國內防疫安全，所有入境旅客皆已提升其入境檢疫規格，搭機來臺前除應取得「表定航班時間（Flight schedule time）前3日內COVID-19核酸檢驗報告」，且應事前安排檢疫居所（防疫旅宿或自費集中檢疫所），抵臺後限搭乘防疫車輛前往該處所完成檢疫。入境檢疫措施將視疫情及執行狀況，適時滾動調整。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增9例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增9例境外移入個案，為7例男性、2例女性，年齡介於20多歲至40多歲，分別自印尼(案16270、案16278)、阿拉伯聯合大公國(案16271)、越南(案16272、案16273)、菲律賓(案16274)、奧地利(案16275)、印度(案16276)及肯亞(案16277)入境，入境日介於9月8日至9月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,216,611例新型冠狀病毒肺炎相關通報(含3,199,476例排除)，其中16,168例確診，分別為1,536例境外移入，14,578例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計841例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月23日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增7例COVID-19確定病例，分別為1例本土及6例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增1例本土病例(案16263)，為30多歲女性，因曾接觸確診個案(案16146、案16157)，於今(2021)年9月7日匡列為居家隔離，9月20日進行隔離期滿前採檢，於今日確診。個案隔離期間無症狀，亦無接觸他人，故無匡列接觸者。\$\@\$指揮中心指出，今日新增1例死亡個案(案16004)，有慢性病史，8月6日自越南入境，8月17日出現發燒、喉嚨痛症狀，8月18日檢疫期滿前採檢，確診後收治住院，9月20日死亡。\$\@\$指揮中心表示，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於未滿5歲至50多歲，分別自美國(案16264)、柬埔寨(案16265)、英國(案16266、16267、16268)、緬甸(案16269)入境，入境日介於8月15日至9月20日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,191,134例新型冠狀病毒肺炎相關通報(含3,173,736例排除)，其中16,159例確診，分別為1,527例境外移入(原1例本土病例(案16254)疫調後改為自英國境外移入)，14,578例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計841例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月22日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-21\$\@\$中央流行疫情指揮中心今(21)日表示，今(2021)年9月17日到貨的108萬劑莫德納疫苗，亦將於9月28日配送到各地方衛生局，並由地方政府衛生局造冊安排至指定合約醫院或接種點方式，提供70歲以上長者(即1951年12月31日(含)前出生)及60歲以上具原住民身分(即1961年12月31日(含)以前出生)對象接種，並視接種情形逐序往下年齡層接種。\$\@\$指揮中心說明，自9月17日起已陸續開放接種第一劑莫德納疫苗且間隔滿10週以上之長者，依地方政府衛生局安排至指定合約醫院或接種點，接種第二劑莫德納疫苗。近期天氣炎熱，考量長者身體狀況，建議避開高溫時段並就近前往接種。另疫苗接種後可能發生的反應大多為接種部位疼痛、紅腫，其他可能反應包含疲倦、頭痛、肌肉痠痛、體溫升高、畏寒、關節痛及噁心，通常輕微並於數天內消失，亦可能有發燒反應 (≥38℃ )，一般約48小時可緩解；雖然這些症狀會隨年齡層增加而減少，但接種第二劑發生機率較第一劑高，提醒長者接種後多加留意，多喝水多休息，亦請家人協助注意，如有持續發燒超過48小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，應儘速就醫釐清病因。\$\@\$指揮中心呼籲，接種第二劑莫德納疫苗後，不良反應發生機率及嚴重度較第一劑高，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後再安排接種。民眾完成疫苗接種後，建議於接種處或附近至少留觀15分鐘，自我密切觀察15分鐘，先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾，建議留觀至少30分鐘，以利即時處置該類急性過敏反應。此外接種莫德納疫苗後可能出現心肌炎和心包膜炎，主要發生在接種後14天內，較常發生在接種第二劑之後以及年輕男性，接種後請留意身體狀況，亦請家人協助注意。若在接種疫苗後28天內出現疑似心肌炎或心包膜炎的症狀（例如：急性和持續性胸痛、呼吸急促或心悸），應立即就醫並說明疫苗接種史。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾「COVID-19疫苗接種紀錄卡」紀錄及健保卡註記貼紙資料。 圖片 附件\$\@\$0921 配送莫德納疫苗供70歲以上長者接種_更.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增5例COVID-19確定病例，均為境外移入個案，分別自越南、美國、南非、史瓦帝尼、俄羅斯移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增5例境外移入個案，為3例男性、2例女性，年齡介於20多歲至50多歲，分別自越南(案16258)、美國(案16259)、南非(案16260)、史瓦帝尼(案16261)及俄羅斯(案16262)入境，入境日介於9月7日至9月10日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,173,829例新型冠狀病毒肺炎相關通報(含3,156,928例排除)，其中16,152例確診，分別為1,520例境外移入，14,578例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計840例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另11例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增6例COVID-19確定病例，分別為2例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增2例本土病例中，案16254為20多歲女性，今(2021)年9月19日因出境需求自費採檢，於今日確診；已匡列接觸者21人，均列居家隔離，餘匡列中。案16255為未滿5歲男童，因同住家人確診(案16150)，匡列為居家隔離對象，9月19日進行隔離期滿前採檢，於今日確診；已匡列接觸者1人，列居家隔離。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於未滿5歲至40多歲，分別自柬埔寨(案16252、案16257)、印尼(案16253)、美國(案16256)入境，入境日介於9月7日至9月17日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,154,941例新型冠狀病毒肺炎相關通報(含3,137,397例排除)，其中16,147例確診，分別為1,515例境外移入，14,578例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計840例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另11例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-19\$\@\$中央流行疫情指揮中心今(19)日表示，考量國內疫情雖趨緩但仍有零星不明感染源之本土病例，經與相關單位溝通討論及評估後，宣布自今(2021)年9月21日至10月4日維持疫情警戒標準為第二級，並將維持或調整相關管制規定如下：\$\@\$一、通案性原則：\$\@\$1.除飲食外，外出全程佩戴口罩。\$\@\$2.實聯制、保持社交安全距離。\$\@\$3.營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4.集會活動(含會展、宴席等)人數上限：\$\@\$(1)室內80人，或室內超過80人但容留人數符合室內空間至少1.5米/人(2.25平方米/人)。(以活動場所之樓地板面積(扣除固定設施設備)除以2.25平方米計算容留人數)\$\@\$(2)室外300人。\$\@\$(3)不符上列條件者，應提防疫計畫，或依主管機關防疫規定辦理。\$\@\$5.會展活動及場館：依照經濟部相關防疫指引辦理。\$\@\$6.餐飲管理及宴席：遵守餐飲防疫指引；宴席不得離桌進行敬酒/茶等社交互動。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$指揮中心說明，目前國內疫情穩定控制中，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，籲請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增12例COVID-19確定病例，分別為1例本土及11例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增1例本土病例(案16251)，為60多歲女性，因曾接觸確診者(案16227)，於今(2021)年9月17日由衛生單位安排採檢，於今日確診；衛生單位持續進行疫情調查及防治，接觸者匡列中。\$\@\$指揮中心表示，今日新增11例境外移入個案，為5例男性、6例女性，年齡介於10多歲至50多歲，分別自俄羅斯(案16240)、美國(案16241、案16243)、宏都拉斯(案16242)、南非(案16244、案16249)、加拿大(案16245)、捷克(案16246)、波蘭(案16247)、緬甸(案16248)及柬埔寨(案16250)入境，入境日介於9月5日至9月17日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例死亡個案(案15745)，為本國籍70多歲男性，7月9日於柬埔寨出現發燒及呼吸困難症狀，當日就醫檢查發現有肺炎情形，7月19日於柬埔寨當地住院治療，7月28日搭乘醫療專機抵臺後即送醫治療並採檢，7月29日確診，9月10日死亡。\$\@\$指揮中心統計，截至目前國內累計3,142,093例新型冠狀病毒肺炎相關通報(含3,124,360例排除)，其中16,141例確診，分別為1,511例境外移入，14,576例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計840例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另11例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-18\$\@\$中央流行疫情指揮中心今(18)日表示，「COVID-19公費疫苗預約平臺」第九期可接種疫苗為BNT疫苗及高端疫苗，預約接種時間為今(2021)年9月20日10時至9月22日12時止。符合本期預約資格者，將於開放預約後，陸續收到提醒簡訊，請記得進行預約。另高端疫苗施打期程調整自9月27日至10月2日提供接種，BNT疫苗施打期間則維持原訂9月25日至10月2日提供接種。\$\@\$指揮中心說明，第九期符合預約資格對象及意願登記情形如下(依9月17日中午意願結算結果)：\$\@\$一、「18至22歲」、「所有65歲以上」、「第九類40歲以上」，且意願登記選擇BNT民眾，預約接種BNT疫苗第一劑，共計910,184人。\$\@\$二、「9月28日(含)前符合高端疫苗第二劑接種間隔滿4週以上民眾」，預約接種高端疫苗第二劑，共計652,833人。\$\@\$指揮中心提醒，民眾前往接種高端第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，請民眾返回第一劑接種之醫療院所申請補發，以順利完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾「COVID-19疫苗接種紀錄卡」紀錄及「健保卡」註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線「全國性預防接種資訊管理系統」(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-18\$\@\$中央流行疫情指揮中心今(18)日表示，考量目前國內口罩產量已大幅提升，足夠供應每位國人所需，且有多元購買口罩管道，民眾透過實名制通路取得口罩的需求已大幅下降，因此實名制口罩網路/超商販售通路，將運作至第44輪後暫停服務。藥局通路及無健保特約藥局的偏鄉衛生所，則仍持續維持實名制口罩販售服務。\$\@\$指揮中心進一步說明，最後1輪(第44輪)實名制口罩網路/超商販售的續(預)購時間為今(2021)年9月27日至10月6日，取貨時間為10月11日至10月24日；另外第43輪及第44輪已預繳款未領取口罩的補領時間，分別為10月25日至11月7日及11月8日至11月21日，請民眾依時程續(預)購、取貨及補領。此外，為保障停用口罩網路/超商販售通路後，民眾持續可以購買到口罩，藥局通路與無健保特約藥局的偏鄉衛生所，仍維持提供實名制口罩販售服務。\$\@\$指揮中心指出，去(2020)年初COVID-19疫情初期，因應民眾突然增加的購買口罩需求，且當時國內口罩產能有限，為讓徵用口罩能有效分配及提供民眾購買，指揮中心於去年2月6日推動口罩實名制，透過藥局通路販售徵用口罩；之後為讓沒時間排隊買口罩的上班族、學生等族群便於購買口罩，再於3月12日增加網路/超商販售通路，民眾上網路預購後，可選擇到統一、全家、萊爾富、OK、全聯社、美廉社、屈臣氏及康是美等全國8大超商/市/藥妝店的1萬4千餘家門市取貨。實名制口罩推行至今，已販售約17億片，在此次COVID-19疫情的防疫過程，發揮相當重要之貢獻。\$\@\$指揮中心特別感謝藥師/藥劑生、衛生所及各超商/市/藥妝店相關人員，一年多來對疫情防治付出的努力和辛勞，重大貢獻值得民眾肯定。現在網路/超商通路已完成階段性任務，暫停服務，未來實名制口罩，將由藥局通路與偏鄉衛生所繼續販售，落實醫材管理，以及提供民眾專業諮詢服務。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增6例COVID-19確定病例，均為境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增６例境外移入個案，為4例男性、2例女性，年齡介於20多歲至50多歲，分別自印尼(案16234、案16235、案16236)、孟加拉(案16237)及菲律賓(案16238、案16239)入境，入境日介於9月4日至9月16日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,127,179例新型冠狀病毒肺炎相關通報(含3,109,042例排除)，其中16,129例確診，分別為1,500例境外移入，14,575例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月18日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增8例COVID-19確定病例，分別為2例本土及6例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增2例本土病例中，案16226為70多歲女性，9月15日因其他原因就醫採檢，於今日確診；目前匡列接觸者1人，列居家隔離，餘匡列中。案16227為20多歲女性，9月15日因陪病需求採檢，於今日確診；目前匡列接觸者8人，列居家隔離，餘匡列中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於20多歲至60多歲，分別自美國(案16228、案16230)、印尼(案16229、案16233)、立陶宛(案16231)、馬來西亞(案16232)入境，入境日介於9月3日至9月15日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,104,233例新型冠狀病毒肺炎相關通報(含3,086,845例排除)，其中16,123例確診，分別為1,494例境外移入，14,575例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月17日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-16\$\@\$中央流行疫情指揮中心今(16)日表示，考量長者族群為COVID-19感染後重症或死亡之高風險族群，為確保長者族群完成第二劑疫苗接種，獲得足夠免疫保護力，預計今(2021)年自9月17日起開放7月9日前已接種第一劑莫德納疫苗，且間隔滿10週以上之75歲(含)以上，亦即1946年12月31日(含)前出生的長者，接種第二劑莫德納疫苗，並依各縣市政府造冊通知施打。\$\@\$指揮中心說明，今年7月9日前接種第一劑莫德納疫苗之75歲(含)以上長者，將陸續自9月17日起間隔滿10週，人數預估約29萬1,000人，指揮中心將於9月17日配送所需疫苗，由地方政府衛生局視現有疫苗庫存及後續供應之疫苗規劃接種作業，並指定合約醫院或接種點提供接種服務。後續將視疫苗到貨情形，依年齡層逐續向下開放民眾接種第二劑疫苗。\$\@\$指揮中心呼籲，依國外臨床試驗及上市後監測資料顯示，接種第二劑莫德納疫苗後，不良反應發生機率及嚴重度較第一劑高，民眾於完成接種後，建議於接種處或附近至少留觀15分鐘，自我密切觀察15分鐘，先前曾因接種疫苗或任何注射治療後發生急性過敏反應的民眾建議留觀至少30分鐘，以利即時處置該類急性過敏反應。接種mRNA 疫苗後如出現胸痛、喘或心悸等症狀，應立即就醫並說明疫苗接種史。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增12例COVID-19確定病例，分別為2例本土及10例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增2例本土病例中，案16214為80多歲女性，今(2021)年9月14日因其他原因就醫並採檢，於今日確診；接觸者匡列中。案16221為70多歲女性，9月5日因北部某幼兒園感染事件由衛生單位安排至其他場所隔離，隔離期間及隔離期滿前採檢結果皆為陰性且均無症狀，9月12日解除隔離，9月14日因喉嚨痛就醫採檢，於今日確診；已匡列接觸者2人，均列居家隔離，其餘接觸者匡列中。\$\@\$指揮中心表示，今日新增10例境外移入個案，為5例男性、5例女性，年齡介於20多歲至30多歲，分別自南非(案16215)、美國(案16216、16218、16219、16223)、日本(案16217、16222)、阿拉伯聯合大公國(案16220)、印尼(案16224)及印度(案16225)，入境日介於8月31日至9月14日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,082,957例新型冠狀病毒肺炎相關通報(含3,065,218例排除)，其中16,115例確診，分別為1,488例境外移入，14,573例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月16日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-16\$\@\$中央流行疫情指揮中心今(16)日表示，第七批採購Moderna疫苗108萬劑，預定於臺北時間9月17日凌晨自美國亞特蘭大啟運，預定17日晚間抵達桃園國際機場。\$\@\$指揮中心表示，我國採購之Moderna疫苗目前共有258萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41.04萬劑、第四批7月15日35.04萬劑、第五批8月8日9.96萬劑、第六批8月15日24.96萬劑及本批108萬劑。明日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-16\$\@\$中央流行疫情指揮中心今(16)日表示，AstraZeneca(AZ)疫苗約64萬劑預定於明(17)日下午抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分別為今(2021)年3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑、9月10日45.8萬劑，本次提供第九批疫苗，截至目前總計約437萬劑到貨。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至2022年1月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增5例COVID-19確定病例，分別為1例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增1例本土個案，為20多歲女性，9月12日出現輕微流鼻涕、頭暈等症狀，9月14日因工作需求篩檢，於今日確診。衛生單位已匡列家庭及工作接觸者45人，均列居家隔離，餘匡列中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於20多歲至50多歲，分別自法國(案16209)、美國(案16210、案16212)、菲律賓 (案16211)入境，入境日期介於8月31日至9月13日，均持有搭機前3日內檢驗陰性報告，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,057,142例新型冠狀病毒肺炎相關通報(含3,039,848例排除)，其中16,103例確診，分別為1,478例境外移入，14,571例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月15日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增5例COVID-19確定病例，分別為2例本土及3例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增2例本土個案，案16204、案16205分別為30多歲男性及未滿5歲女性，為同住家人，因有北部某幼兒園相關接觸史，於9月6日匡列為居家隔離對象。案16204於9月12日出現發燒等症狀，2名個案由衛生單位安排採檢，於今日確診，衛生單位刻正進行相關疫調及接觸者匡列。\$\@\$指揮中心表示，今日新增3例境外移入個案，為1例男性、2例女性，年齡介於30多歲至60多歲，分別自柬埔寨(案16206)、美國(案16207)、印尼 (案16208)入境，入境日期介於8月20日至9月1日，均持有搭機前3日內檢驗陰性報告，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,028,468例新型冠狀病毒肺炎相關通報(含3,011,399例排除)，其中16,098例確診，分別為1,474例境外移入，14,570例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-13\$\@\$中央流行疫情指揮中心今(13)日表示，我國自本(2021)年5月19日起於全國疫情警戒第三級期間基於整體防疫考量，暫緩未持有我國有效居留證的非本國籍人士入境，外籍人士如果因奔喪、探視病危親屬及陪產等緊急重大事由急需來臺，必須經指揮中心專案許可後才能向駐外館處申請特別入境許可簽證。經考量國內疫情現況已較趨緩，而國人家庭團聚需求殷切，為保障國人家庭團聚權，自即日起開放已完成結婚程序之國人外籍配偶及其國人外籍未成年子女得於邊境嚴管期間申請入境。\$\@\$指揮中心說明，將授權外交部駐外館處依現行國人外籍配偶及未成年子女申請依親、探親簽證規定受理其簽證申請，並核發「特別入境許可」簽證。其入境檢疫措施依現行隔離檢疫作業辦理。原持有依親簽證效期於本年5月19日至9月13日屆期者，其簽證效期自動延長至本年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增5例COVID-19確定病例，分別為2例本土及3例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增2例本土個案中，案16199為50多歲女性，9月11日因同住家人(案16197)檢出COVID-19陽性，由衛生單位安排採檢，同日出現喉嚨癢等症狀，於今日確診，已匡列接觸者23人，均列集中檢疫，餘匡列中。案16203為60多歲女性，因家戶接觸者確診(案16179)而被匡列居家隔離，9月11號由衛生單位安排採檢，於今日確診，相關接觸者匡列中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增3例境外移入個案，為2例男性、1例女性，年齡均為20多歲，分別自美國(案16200、案16201)、日本(案16202)入境，入境日介於8月30日至9月10日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計3,005,313例新型冠狀病毒肺炎相關通報(含2,988,645例排除)，其中16,093例確診，分別為1,471例境外移入，14,568例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月13日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-12\$\@\$中央流行疫情指揮中心今(12)日表示，因應北部某社區發生COVID-19群聚疫情，衛生單位已針對該社區民眾採取相關防疫管制措施；該社區約有473人屬防疫管制之「自主健康管理」對象，茲因部分民眾先前已預約接種 COVID-19疫苗，但為配合防疫管制而無法如期至醫療院所接種疫苗，故為保障民眾權益及提升防疫成效，將專案指派衛生福利部臺北醫院醫療團隊進駐該社區設置接種站，以就近提供受防疫管制民眾之疫苗接種服務。\$\@\$指揮中心說明，目前部立臺北醫院已規劃於9月13日(週一)10:00-13:00及20:00-22:00兩個服務時段，至該社區大樓大廳提供接種服務；服務對象為該社區目前需「自主健康管理」之住民(不包括已施打第一劑及18歲以下未成年之住民)。本次接種服務所需疫苗係由中央提供之AZ疫苗(約計300劑)。\$\@\$指揮中心提醒，該社區民眾應依照社區大樓主委之通知，以「未上班者上午時段，上班者晚上時段」為接種時段之原則，依民眾所住樓層，逐層前往一樓大廳施打，接種過程務請注意維持安全距離並避免群聚；完成疫苗接種後，籲請民眾須持續積極配合各項防疫管制措規定，並落實個人衛生與防護措施，以全面保護自我與家人的健康，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增14例COVID-19確定病例，分別為3例本土及11例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增3例本土個案，為2例男性、1例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年9月7日至9月9日，個案分布為臺北市、新北市及桃園市各1例；其中2例為已知感染源、1例關聯不明，衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增11例境外移入個案，為5例男性、6例女性，年齡介於10多歲至60多歲，分別自美國(案16186)、印尼(案16187、16188、16192、16195)、阿拉伯聯合大公國(杜拜)(案16189、16190、16191、16196)、英國(案16193)、馬來西亞(案16194)入境，入境日均為9月10日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,991,387例新型冠狀病毒肺炎相關通報(含2,973,728例排除)，其中16,088例確診，分別為1,468例境外移入，14,566例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月12日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-11\$\@\$中央流行疫情指揮中心今(11)日表示，交通部中央氣象局已於今日針對全臺各地發布中度颱風「璨樹」陸上颱風警報，提醒地方衛生單位及COVID-19疫苗合約醫療院所做好防颱準備，確保疫苗冷儲及不斷電設備運作正常。\$\@\$指揮中心進一步說明，已在「COVID-19公費疫苗預約平臺」( https://1922.gov.tw/ )完成預約之民眾，如因颱風停班停課取消接種作業而無法接種，請依循各地方政府衛生局公告或醫療院所通知方式，重新安排接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-11\$\@\$中央流行疫情指揮中心今(11)日表示，「COVID-19公費疫苗預約平臺」( https://1922.gov.tw/ )第八期開放預約持續至9月12日中午12時止。但因部分縣市同步協助65歲以上長者、洗腎患者及機構對象等民眾造冊接種第二劑AZ疫苗，部分長者亦同時至預約平臺登記，導致未列入預約平台可預約數，造成可預約數低於符合施打資格之人數的問題，指揮中心已於今日通知各縣市政府儘速加開，提供符合資格民眾預約。\$\@\$指揮中心說明，目前部分縣市(包括新北市、新竹縣、彰化縣、金門縣及臺北市等)已規劃增加施打站可預約人數，其餘縣市也請依實際符合資格人數，評估是否加開預約數，指揮中心將依據現階段可供應疫苗數量進行分配。\$\@\$指揮中心呼籲，請符合預約資格民眾至預約平臺時，就近選擇所在地施打站接種，避免跨區移動，保障自己及其他民眾接種權益，並落實各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-11\$\@\$中央流行疫情指揮中心今(11)日表示，「COVID-19公費疫苗預約平臺」( https://1922.gov.tw/ )第九期將提供BNT疫苗及高端疫苗，相關說明如下：\$\@\$一、預約平臺於9月13日12時暫停意願登記，並於9月14日10時起，開放「12至17歲不在校施打及不在籍學生」至預約平臺意願登記BNT疫苗，至於開放接種時間再依指揮中心公布實施。\$\@\$二、符合資格對象：\$\@\$(1)「18至22歲」；「所有65歲以上」；「第九類40歲以上」，且意願登記選擇BNT民眾，預約接種BNT疫苗第一劑。\$\@\$(2)「9月28日(含)前符合高端疫苗第二劑接種間隔滿4週以上民眾」，預約接種高端疫苗第二劑。\$\@\$三、預約時間：9月20日10時至9月22日12時止。\$\@\$四、施打期間：\$\@\$(1)BNT疫苗預計於9月25日至10月2日。\$\@\$(2)高端疫苗預計於9月30日至10月2日。\$\@\$指揮中心提醒，上述符合資格對象請於9月17日12時前登入預約平臺完成意願登記或修改，並於開放預約期間進行預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增5例境外移入COVID-19確定病例，自南非、越南、日本入境；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增5例境外移入個案，為3女2男，年齡介於20多歲至50多歲，分別自南非(案16180)、越南(案16181至案16183)、日本(案16184)入境，入境日介於8月27日至9月9日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,965,908例新型冠狀病毒肺炎相關通報(含2,948,529例排除)，其中16,074例確診，分別為1,457例境外移入，14,563例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月11日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增7例COVID-19確定病例，分別為2例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增2例本土病例中，案16173為60多歲男性，9月7日出現胸痛、輕微噁心、肌肉痠痛等症狀，9月8日就醫並採檢，於今日確診，已匡列接觸者6人，列居家隔離，餘匡列中。案16179為10多歲男性， 9月8日出現胸痛、呼吸痛等症狀，9月9日就醫採檢，於今日確診，已匡列接觸者51人，列居家隔離，餘匡列中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增5例境外移入個案，分別自美國(案16174、案16175)、土耳其(案16176)、日本(案16177)、亞美尼亞(案16178)入境，入境日介於8月26日至9月8日，均持有搭機前3日內檢驗陰性報告，詳如新聞稿附件。\$\@\$指揮中心指出，今日新增1例死亡個案(案10387)，為70多歲男性，具慢性病史及其他確診者接觸史，6月3日因其他原因就醫，同日出現發燒、咳嗽等症狀，採檢後住院治療，於6月4日確診，8月26日解除隔離，9月5日死亡。\$\@\$指揮中心統計，截至目前國內累計2,938,839例新型冠狀病毒肺炎相關通報(含2,921,268例排除)，其中16,069例確診，分別為1,452例境外移入，14,563例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計839例COVID-19死亡病例，其中829例本土，個案居住縣市分布為新北市411例、臺北市318例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月10日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-10\$\@\$中央流行疫情指揮中心今(10)日表示，約45.8萬劑AstraZeneca疫苗預定於今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，截至目前總計到貨約372.7萬劑，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑，及本次提供第八批45.8萬疫苗。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-09\$\@\$中央流行疫情指揮中心今(9)日表示，為精進國籍航空公司機組員人員防疫作為，於今日晚間召開會議，與桃園市機師職業工會、桃園市空服員職業工會、中華航空企業工會、長榮航空公司企業工會、長榮航空關係企業工會、交通部及民航局進行專業溝通及討論，說明如下：\$\@\$一、就醫問題：將與各醫師公會溝通，加強宣導醫療人員不可無故拒絕機組人員就醫。\$\@\$二、國籍航空公司機組員人員接種第三劑疫苗：將納入未來施打規劃考量，惟目前各國施打間隔不一，有6個月與9個月，需提至專家會議進行討論。\$\@\$三、機組員防護裝備問題：民航局已編列防疫經費補助航空公司採購個人防護裝備，指揮中心建議比照去年防疫經驗再行檢視，並請航空公司按民航局指示配合處理。\$\@\$指揮中心說明，為確保機組人員執勤健康及安全，將持續與相關部會進行討論，強化機組人員防疫措施，並加強職業安全衛生管理，以共同維護機組員身心健康；同時，機組員執勤時應遵守民航局訂定之相關作業規範，提高自我警覺，落實各項防疫措施、自我健康監測及異常通報機制，以維護自身及親友之健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-09\$\@\$中央流行疫情指揮中心今(9)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第二批BNT疫苗91萬劑，已於今日上午6時18分順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨184萬劑，分別為首批於9月2日送達的93萬劑，以及於今日送達的91萬劑。本批疫苗效期至111年1月17日，將由指揮中心統籌運用，優先開放給12歲至17歲(含)青少年族群造冊接種；其餘將優先提供已意願登記，且尚未接種過疫苗的18至22歲(含)民眾；後續將再視疫情趨勢、接種狀況及疫苗到貨情形等綜合評估，開放其他對象接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增4例本土病例中，為3例男性、1例女性，年齡介於30歲至50多歲，其中1例發病日為今(2021)年9月5日、餘3例為無症狀感染；個案分布為臺北市及新北市各2例，其中3例為已知感染源、1例關聯不明，衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增2例境外移入個案，分別為埃及籍30多歲男性(案16169)及埃及籍40多歲男性(案16170)，8月4日一同自埃及來臺，均持有搭機前3日內檢驗陰性證明且入境後採檢及檢疫期滿前採檢結果均為陰性；由於2人曾接觸確診個案，9月7日由衛生單位安排採檢，結果皆為陰性，今日再次採檢並確診(案16169之Ct值36.7，案16170之Ct值34.7)；2人相關接觸者匡列中。\$\@\$指揮中心指出，今日新增1例死亡個案(案16162)，為70多歲男性，具慢性病史、無其他確診者接觸史，9月3日至9月6日期間多次因其他原因就醫(9月4日就醫快篩陰性)，9月7日因身體不適送醫，到院前無生命跡象，於同日死亡，並於9月8日確診。\$\@\$指揮中心統計，截至目前國內累計2,911,463例新型冠狀病毒肺炎相關通報(含2,894,136例排除)，其中16,062例確診，分別為1,447例境外移入，14,561例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計838例COVID-19死亡病例，其中828例本土，個案居住縣市分布為新北市411例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增9例COVID-19確定病例，分別為7例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增7例本土個案，為2例男性、5例女性，年齡介於30歲至80多歲，發病日介於今(2021)年8月27日至9月7日，個案均分布在新北市；其中6例為已知感染源、1例關聯不明，衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案16159為英國籍50多歲男性，已接種COVID-19疫苗，7月曾於英國檢驗陽性；9月5日自英國來臺探親，持搭機3日內檢驗陰性證明，入境後至集中檢疫所檢疫並採檢，於今日確診(Ct值36)；已匡列同班機接觸者4人，均列居家隔離。案16160為埃及籍30多歲男性，未接種COVID-19疫苗，8月4日自埃及來臺探親，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月16日檢疫期滿前採檢結果亦為陰性。9月6日因曾接觸確診者，由衛生單位安排採檢，於今日確診(Ct值37.9)；已匡列接觸者2人，均列居家隔離。\$\@\$指揮中心統計，截至目前國內累計2,881,111例新型冠狀病毒肺炎相關通報(含2,864,293例排除)，其中16,056例確診，分別為1,445例境外移入，14,557例本土病例，36例敦睦艦隊、3例航空器感染(原公布之境外移入個案16119，經病毒定序後改判為航空器感染)、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-07\$\@\$疾病管制署今(7)日公布國內首例兔熱病本土確定病例。國內自2007年將兔熱病列為法定傳染病監測，迄今共通報確診2例，另1例為2011年自美國境外移入。\$\@\$疾病管制署表示，該名個案為居住南部地區的60多歲本國籍男性，有高血壓、心臟病、腎臟病等慢性病史，潛伏期間無國內外旅遊史及動物接觸史，家中無飼養寵物，住家附近有草叢及魚塭，同時有野貓出沒。個案因發燒、寒顫、腹瀉等症狀至某醫學中心就醫，血液培養之菌株經基因定序與土倫病法蘭西斯氏菌(Francisella tularensis)高度相似，於8月24日通報，經血清二採抗體檢驗陽性確診。個案經治療後症狀改善，目前已出院，同住者3人及醫院接觸者皆無疑似症狀。衛生及環保單位已前往個案住處周邊進行環境評估及消毒、完成附近居民健康狀況調查，並衛教民眾避免接觸家畜及野生動物、定期進行住處環境檢查消毒及滅鼠工作，另也督導通報醫院完成病房環境及實驗室消毒作業。\$\@\$兔熱病為人畜共通傳染病，病原菌為土倫病法蘭西斯氏菌，宿主包含野生動物、家畜及多種的硬蜱，主要野生動物宿主包含兔子、野兔、田鼠、麝香鼠、海狸、水鼠。病原循環存在於媒介節肢動物及各種哺乳類、鳥類、爬蟲類及魚類之間，低劑量即可致病，潛伏期與暴露劑量有關，通常為3-5天，亦可長達14天，流行地區包含北美、歐洲、亞洲及中東地區。傳染途徑多元，人類可經由吸血性節肢動物叮咬而感染，也可經由接觸受感染動物組織、吃到受汙染的食物或水或吸入受汙染的空氣而感染。目前沒有人傳人病例報告，實驗室職業暴露及從事野外活動者為風險族群。\$\@\$疾病管制署提醒，民眾應避免接觸野兔、囓齒類等野生動物，也應避免生食野生動物或畜肉，著長袖衣褲或使用驅蟲劑以避免受節肢動物叮咬，處理動物屍體（尤其兔子）時，需佩戴口罩、防水手套，避免接觸或生飲受汙染的水。如出現高燒、寒顫、淋巴腺腫、病原侵入部位出現癒合緩慢潰瘍疼痛、咽頭炎、腹痛、嘔吐、腹瀉等症狀，應儘速就醫，並主動告知旅遊史及動物接觸史。相關資訊可至疾病管制署全球資訊網（https://www.cdc.gov.tw）查詢，或撥打免付費防疫專線1922（或0800-001922）洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增12例COVID-19確定病例，分別為8例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增8例本土個案，為1例男性、7例女性，年齡介於未滿5歲至50多歲，發病日介於今(2021)年9月1日至9月5日，個案分布為新北市7例、臺北市1例；其中6例為已知感染源，1例關聯不明，1例疫調中。衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於10多歲至40多歲，分別自印度(案16147)、日本(案16148)、馬來西亞 (案16149)及賴索托(案16156)入境，入境日介於8月13日至9月5日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,849,565例新型冠狀病毒肺炎相關通報(含2,832,159例排除)，其中16,047例確診，分別為1,444例境外移入，14,550例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-07\$\@\$中央流行疫情指揮中心今(7)日表示，日本政府提供第四批6.4萬劑AstraZeneca(AZ)疫苗於今日下午運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。本批疫苗效期至110年10月3日及11月26日，將由指揮中心統籌規劃運用，提供國人與在臺日籍人士接種。\$\@\$指揮中心說明，日本提供我國AstraZeneca(AZ)疫苗分別為6月4日124萬劑、7月8日113萬劑、7月15日97萬劑及本批6.4萬劑，共340.4萬劑，有助我國提升疫苗覆蓋率，指揮中心再次向日本政府及人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-06\$\@\$中央流行疫情指揮中心今(6)日表示，「COVID-19公費疫苗預約平臺」( https://1922.gov.tw/ )第八期預約將提供AZ疫苗，說明如下：\$\@\$一、開放對象：\$\@\$1. 9月10日(含)前符合AZ第二劑接種間隔滿10週以上民眾，預約接種第二劑。\$\@\$2. 7月19日(含)前已意願登記選擇AZ之滿18歲至22歲民眾，預約接種第一劑。\$\@\$二、預約期程：自9月10日10時至9月12日12時截止。\$\@\$三、施打時程：9月15日至9月23日。\$\@\$指揮中心說明，本次開放符合AZ第二劑接種間隔滿10週以上民眾，包含65歲以上長者、洗腎患者及機構對象等，為利該等對象接種，避免數位落差影響，將同時請地方政府衛生局安排未於預約平臺預約者進行接種，並將需求總量批次上傳預約平臺，且開放該等對象可由地方政府衛生局持續安排接種至9月26日。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增16例COVID-19確定病例，分別為9例本土及7例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增9例本土個案，為5例男性、4例女性，年齡介於未滿5歲至20多歲，發病日介於今(2021)年8月28日至9月4日，個案分布均在新北市；9例均為已知感染源，衛生單位將持續進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至9月4日累計公布14,814位確診個案中，已有13,742人解除隔離，解隔離人數達確診人數92.8%。\$\@\$指揮中心表示，今日新增7例境外移入個案均為男性，年齡介於20多歲至50多歲，分別自甘比亞(案16130)、日本(案16131)及其他(案16132至案16136)入境，入境日介於8月23日至9月5日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,819,374例新型冠狀病毒肺炎相關通報(含2,801,429例排除)，其中16,035例確診，分別為1,440例境外移入，14,542例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月6日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-06\$\@\$中央流行疫情指揮中心今(6)日表示，考量國內疫情雖趨緩但仍有零星不明感染源之本土病例，經與相關單位溝通討論及評估後，宣布自今(2021)年9月7日至9月20日維持疫情警戒標準為第二級，並將維持或調整相關管制規定如下：\$\@\$一、通案性原則(下述交通運輸及旅行業相關管制作為調整，依交通部公告日期開始實施)：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：放寬為室內80人、室外300人，若超額則向地方主管機關提報防疫計畫。\$\@\$5. 餐飲管理：依照衛福部規定處理。\$\@\$6. 婚宴、公祭：\$\@\$(1)公祭遵守內政部相關防疫規定處理。\$\@\$(2)婚宴遵守每一隔間室內80人、室外300人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$7. 游泳池及運動場館：有條件開放淋浴設施、冷熱水池、SPA區、兒童戲水池等附屬設施。\$\@\$8. 臺鐵：對號列車開放全車座位發售，不售站票。\$\@\$9. 高鐵：開放全車座位數發售，維持全車對號座。\$\@\$10.國家風景區及觀光遊樂業：容留量上限提升至8成。\$\@\$11.遊覽車乘車人數以核定座位數8成為上限，必須全程佩戴口罩，禁止車內飲食。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$指揮中心說明，目前國內疫情穩定控制中，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，籲請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-05\$\@\$中央流行疫情指揮中心今(5)日表示，我國透過COVAX獲配之第三批AstraZeneca(AZ)疫苗41.04萬劑，預計今日下午運抵桃園國際機場。\$\@\$指揮中心說明，本批疫苗為我國透過COVAX機制採購476萬劑COVID-19疫苗之一部分，目前計有102萬劑AZ疫苗到貨，分別為首批4月4日19.92萬劑、第二批5月19日41.04萬劑及本批41.04萬劑。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再由指揮中心統籌規劃運用，提供國人接種。本批效期至110年11月30日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-05\$\@\$中央流行疫情指揮中心今(5)日表示，波蘭政府於9月4日宣布捐贈我國40萬劑AstraZeneca(AZ)疫苗，經波蘭政府戰略儲備局(Government Strategic Reserves Agency)與我國波蘭代表處之通力合作安排，已於9月5日上午6時30分順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。本批疫苗效期至110年11月30日，將由指揮中心統籌規劃運用，提供國人接種。\$\@\$指揮中心說明，值此全球疫苗供不應求時刻，波蘭伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向波蘭政府與人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增6例COVID-19確定病例，分別為2例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增2例本土病例，分別為本國籍40多歲男性(案16128)及本國籍30多歲女性(案16129)，2人為同住家人。案16128於今(2021)年9月1日出現咳嗽、發燒、頭痛及全身倦怠症狀，9月4日就醫採檢，於今日確診(Ct值24)。另，案16129於8月27日至8月30日期間出現咳嗽及味覺異常症狀，9月4日因案16128檢驗陽性，由衛生單位安排隔離並採檢，於今日確診(Ct值17)。衛生單位已匡列2人接觸者共50人，均列居家隔離，另有49人尚待風險評估後再行匡列，其餘相關接觸者匡列中。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至9月3日累計公布14,813位確診個案中，已有13,751人解除隔離，解隔離人數達確診人數92.8%。\$\@\$指揮中心表示，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於20多歲至30多歲，分別自塞爾維亞(案16124)、美國(案16125)、布吉納法索(案16126)及日本(案16127)入境，入境日介於9月2日至9月3日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,801,846例新型冠狀病毒肺炎相關通報(含2,784,487例排除)，其中16,019例確診，分別為1,433例境外移入，14,533例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-04\$\@\$中央流行疫情指揮中心今(4)日表示，因應國籍航空機師及家人群聚事件，將於今日針對今(2021)年8月13日至9月2日期間，曾與確診者接觸或曾於相關時間及地點出入之民眾，發送疫情警示簡訊，內容如下：\$\@\$[疫情警示]因您曾於8月13日至9月2日期間與確診者接觸或活動軌跡重疊，如於8月13日之後曾有COVID-19疑似症狀，請就醫評估或可至社區篩檢站採檢。\$\@\$指揮中心說明，收到簡訊者若有不適，務必正確佩戴醫療口罩儘速就醫，不可搭乘大眾交通工具，就醫時應主動告知醫療人員相關暴露及接觸史。指定社區採檢院所醫院清單可至疾病管制署網站查詢：http://at.cdc.tw/5y262t。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增1例COVID-19確定病例，為自美國入境；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增1例境外移入個案(16123)，為美國籍30多歲男性，已接種過COVID-19疫苗，今(2021)年9月1日自美國來臺工作，持搭機前3日內檢驗陰性報告，入境於機場採檢後至防疫旅館檢疫，於今日確診，個案在臺期間並無症狀，已匡列同班機前後2排旅客29人，列居家隔離。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至9月2日累計公布14,807位確診個案中，已有13,745人解除隔離，解隔離人數達確診人數92.8%。\$\@\$指揮中心統計，截至目前國內累計2,779,364例新型冠狀病毒肺炎相關通報(含2,761,367例排除)，其中16,013例確診，分別為1,429例境外移入，14,531例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-03\$\@\$中央流行疫情指揮中心今(3)日說明，近期國際COVID-19之Delta變異株疫情持續嚴峻，其傳播力強、發病時病毒量高，為持續關注國際疫情及Delta變異株流行現況，同時持續監測國籍航空公司機組員健康情形，並因應本次透過定期監測檢出機師確診事件，「強化機組員返臺後防檢疫規定」將提前至即日起今(2021)年9月3日全面實施， (原訂為自9月15日起強化機組員返臺後防檢疫規定)。\$\@\$指揮中心表示，於本次群聚事件感染源釐清前，該家國籍航空公司執飛美國芝加哥航線之機組員，入境均應至指定處所檢疫14天，且於入境日及檢疫期間進行3次篩檢；同時，為求慎重，亦將回溯及召回過往14天(8月21日至9月3日)曾執飛該航線之機組員，進行檢疫及採檢等應變措施。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-03\$\@\$中央流行疫情指揮中心今(3)日表示，因應境外移入Delta變異株疫情，宣布自即日起至9月9日，強化桃園市COVID-19第二級疫情警戒相關措施，請民眾落實遵循。強化措施如下：\$\@\$一、集會活動人數上限降為室內 50 人，室外 100 人，若超額得提防疫計畫報請桃園市政府核准後實施。\$\@\$二、賣場與超市加強人流管制。\$\@\$三、醫院及長照機構除例外情形，停止開放探病及探視；陪病及陪伴者限1人。\$\@\$指揮中心表示，除上述措施外，也請民眾持續落實第二級警戒其他措施，與政府共同努力，嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增6例COVID-19確定病例，分別為2例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增2例本土病例中，案16121為本國籍50多歲女性，今(2021)年8月26日至9月1日期間因出現咳嗽、流鼻水、發燒、腹瀉、味覺異常及喉嚨痛等症狀多次就醫，9月2日再次就醫並採檢，於今日確診(Ct值25)；已匡列接觸者1人，列居家隔離，其餘相關接觸者匡列中。案16122為本國籍10多歲男性，8月30日自覺有疑似中暑症狀，9月1日喉嚨痛，9月2日因家人(案16120)檢出COVID-19陽性，由衛生單位安排採檢，並於今日確診(Ct值11)；相關接觸者匡列中。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至9月1日累計公布14,802位確診個案中，已有13,728人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心表示，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於30多歲至50多歲，分別自美國(案16117、案16120)、泰國(案16118)及澳大利亞(案16119)入境，入境日介於8月31日至9月1日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,756,726例新型冠狀病毒肺炎相關通報(含2,739,013例排除)，其中16,012例確診，分別為1,428例境外移入，14,531例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-02\$\@\$中央流行疫情指揮中心今(2)日表示，疫情期間經國防部與內政部多次研議，役男入營前，均已實施旅遊及接觸史調查、額溫量測及自我健康關懷聲明卡檢核等防疫措施；為加強COVID-19防疫作為，今(2021)年自9月6日起，實施入營役男應於入營前3日(不含入營當日)免費快篩，也就是說，9月6日入營之役男，應於前三日即9月3日實施免費快篩，以保障入營服役群體安全。\$\@\$指揮中心說明，入營役男應於入營前3日(不含入營當日，最早自9月3日開始)持徵集令(常備兵役、一般替代役、補充兵)、入營通知書(研發替代役)或錄取通知書(志願役)及健保卡，至鄰近之COVID-19全國指定社區採檢院所( https://antiflu.cdc.gov.tw/ExaminationCounter )或其他由地方縣市政府之指定醫事機構，進行免費COVID-19抗原快篩；入營集合時，請役男先出示健保快易通App篩檢結果提供查核，篩檢結果為陰性者，才可以報到入營。\$\@\$內政部役政署也特別提醒役男，前往快篩前，請先洽詢採檢院所或醫事機構是否已實施役男入營公費快篩作業、篩檢時間及是否須預約等注意事項。役政署指出，明(3)日入營替代役役男，因作業整備因素，將於抵達成功嶺後實施篩檢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增5例COVID-19確定病例，分別為1例本土及4例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16112)，為30多歲男性，因其他原因就醫採檢，於今日確診(Ct值37.5)。個案為無症狀感染，衛生單位已啟動醫院及社區調查與防治，已匡列接觸者1名，餘疫調中。\$\@\$指揮中心說明，今日新增1例死亡個案(案9933)，為60多歲男性，有慢性病史及萬華區活動史，5月21日出現喉嚨刺激感、咳嗽等症狀，5月27日就醫採檢並住院治療，6月3日確診，6月27日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月31日累計公布14,796位確診個案中，已有13,692人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心表示，今日新增4例境外移入個案，分別自美國(案16113、案16115)、俄羅斯(案16114)、南非(案16116)入境，入境日介於8月19日至8月27日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,733,767例新型冠狀病毒肺炎相關通報(含2,716,052例排除)，其中16,006例確診，分別為1,424例境外移入，14,529例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計 837例COVID-19死亡病例，其中827例本土，個案居住縣市分布為新北市410例、臺北市317例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月2日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-02\$\@\$中央流行疫情指揮中心今(2)日表示，感謝台灣積體電路製造股份有限公司、鴻海精密工業股份有限公司及財團法人永齡慈善社會福利事業基金會、財團法人中華民國佛教慈濟慈善事業基金會，共同捐贈1,500萬劑BNT疫苗。這段期間從洽購疫苗，到爭取首批BNT疫苗提早到貨，3間企業及民間團體積極協助，與政府合作，以提供更多的疫苗讓民眾接種，指揮中心再次表達由衷的謝意。\$\@\$指揮中心說明，此批BNT疫苗共計93萬劑，已於今(2)日上午7時抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，並進行後續檢驗封緘作業。此批疫苗將由指揮中心統籌運用，目前初步規劃將優先開放給12歲至17歲(含)青少年族群造冊接種；其餘將優先提供已意願登記，且尚未接種過疫苗之18至22歲(含)民眾；後續將再視疫情趨勢、接種狀況及疫苗到貨情形等綜合評估，開放其他對象接種。\$\@\$指揮中心重申，防疫是政府唯一的考量，政府絕對會把關疫苗的安全與有效性，疫苗輸入臺灣之後，都要經過食藥署的檢驗封緘，確實有達到標準、安全無虞，才會開放讓民眾接種，請民眾配合政府接種疫苗，加速提升臺灣疫苗覆蓋率。\$\@\$指揮中心指出，本次提供的疫苗係為多劑型包裝(每瓶6人份)，需於-60至-90°C超低溫冷凍保存，若轉置到2~8°C冷藏設備可保存1個月，依臨床試驗每人需施打2劑，本批效期至明(2022)年1月15日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16110)，為60多歲女性，因曾接觸其他確診個案，由衛生單位安排居家隔離，8月23日出現流鼻水、喉嚨癢等症狀，因症狀輕微未就醫；8月31日進行解隔離前採檢，於今日確診(Ct值24)。個案隔離期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心說明，今日新增1例死亡個案(案9686)，為60多歲男性，有慢性病史及其他確診個案接觸史，5月30日出現呼吸困難、咳嗽、發燒等症狀，當日就醫採檢並住院治療，6月3日確診，8月30日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月30日累計公布14,792位確診個案中，已有13,692人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心表示，今日新增5例境外移入個案，分別自阿拉伯聯合大公國(案16106、案16107)、奈及利亞(案16108)、尼加拉瓜(案16109)、美國(案16111)入境，入境日介於7月2日至8月30日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,707,449例新型冠狀病毒肺炎相關通報(含2,690,627例排除)，其中16,001例確診，分別為1,420例境外移入(原1例本土病例案16087，其8月30日血清抗體檢驗結果顯示為非近期感染，改判為美國境外移入)，14,528例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計累計836例COVID-19死亡病例，其中826例本土，個案居住縣市分布為新北市410例、臺北市316例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$9月1日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-01\$\@\$中央流行疫情指揮中心今(1)日表示，近期國際COVID-19之Delta變異株疫情持續嚴峻，其傳播力強、發病時病毒量高，且國外頻傳完整接種COVID-19疫苗後突破性感染案例，考量整體流行病學特性與過去Alpha株顯有不同等因素，指揮中心滾動式調整機組員返臺防檢疫規定，將於今(2021)年9月15日零時起(航班抵臺時間)實施：\$\@\$1.長程航班(入境旅遊疫情第三級地區)機組員：\$\@\$(1)未完整接種疫苗者：7天居檢(PCR採陰)+7天加強自主健康管理+D10、D14 PCR採檢(得採深喉唾液或鼻咽拭子)。\$\@\$(2)完整接種者(完整接種疫苗達兩週且抗體檢測陽性者)：5天居檢(PCR採陰)+9天加強自主健康管理+D9、D14 PCR採檢(得採深喉唾液或鼻咽拭子)。\$\@\$2.短程航班(當班往返且未入境第三地)機組員：\$\@\$(1)未完整接種疫苗者：14天加強自主健康管理+每7天PCR採檢(得採深喉唾液)。\$\@\$(2)完整接種疫苗者(完整接種疫苗達兩週且抗體檢測陽性者)：7天一般自主健康管理+每7天PCR採檢(得採深喉唾液)。\$\@\$指揮中心說明，為確保機組員於國外執勤健康及安全，落實外站「零接觸」管理、機上「全程防護」，是關鍵機制，交通部民用航空局將持續督導，並加強職業安全衛生管理，提供健康服務、關懷諮商等，且妥善規劃派飛執勤頻率，以共同維護機組員身心健康。\$\@\$指揮中心提醒，機組員執勤時應遵守民航局訂定之相關作業規範，提高自我警覺，落實自我健康監測及異常通報措施，且加強手部衛生清消頻率，以維護自身及親友之防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-31\$\@\$中央流行疫情指揮中心今(31)日表示，「COVID-19公費疫苗預約平臺」( https://1922.gov.tw/ )第七期自8月29日10時開放之AZ疫苗預約接種，已於今日12時截止，總計約80.6萬人完成預約，將自9月3日至9月10日施打。為利疫苗資源有效利用，將於9月3日10時至9月4日18時止，增加開放「7月19日前已意願登記選擇AZ疫苗，且尚未接種過疫苗之23歲至28歲(含)[即1998年12月31日(含)以前出生]民眾」，將會陸續收到提醒簡訊，籲請民眾記得進行預約，施打時間預定於9月9日至9月12日，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月29日10時至8月31日12時止)已宣布之符合預約資格對象，包含7月19日前已意願登記選擇AZ疫苗，且尚未接種過疫苗之29歲(含)以上對象[即1992年12月31日(含)以前出生]及滿18歲以上[即2003年9月3日(含)前出生]第九類對象，依原預約期程，已於8月31日中午12時停止預約及修改。\$\@\$另針對BNT疫苗到貨後接種對象，指揮中心說明，目前已規劃採校園集中接種或依通知書至地方政府衛生局指定合約醫療院所方式，開放12歲至17歲(含)對象造冊接種，其餘將優先提供預約平臺意願登記，且尚未接種過疫苗之18至22歲(含)民眾預約接種。\$\@\$指揮中心強調，防疫是政府唯一的考量，疫苗接種開放對象，會視疫情趨勢、接種狀況及疫苗到貨情形等綜合評估規劃，儘速讓所有國民接種疫苗，獲得保護力。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增4例COVID-19確定病例，分別為3例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(均非居家隔離期間陽性者)，為2例男性、1例女性，年齡介於30多歲至60多歲，其中1例於今(2021)年 8月16日發病，另2例於8月30日發病。個案分布為新北市2例、台北市1例；其中2例關聯不明，1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案16093)，為本國籍60多歲男性，8月8日於越南確診，8月28日搭乘醫療專機返臺後至醫院採檢並治療，8月29日確診，8月30日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月29日累計公布14,784位確診個案中，已有13,676人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案16105)，為英國籍30多歲男性，未接種COVID-19疫苗，自述6月曾於英國確診，8月17日持搭機前三日內檢驗陰性報告來臺工作，入境後至集中檢疫所採檢陰性並檢疫，8月30日進行期滿前採檢，於今日確診。個案在臺期間並無症狀，集中檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,677,839例新型冠狀病毒肺炎相關通報(含2,660,833例排除)，其中15,995例確診，分別為1,414例境外移入，14,528例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計835例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另10例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-31\$\@\$中央流行疫情指揮中心今(31)日表示，約59.5萬劑AstraZeneca疫苗預定於今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑，本次提供第七批疫苗，截至目前總計約327萬劑到貨。本次提供的疫苗為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-30\$\@\$中央流行疫情指揮中心今(30)日表示，為降低Delta變異株進入社區風險，及時偵測國內病例以阻斷隱性傳播鏈，指揮中心即日起啟動COVID-19社區加強監測方案，透過一群守護社區健康之基層診所醫師，協助評估就醫民眾臨床症狀，視需要提供公費COVID-19家用快篩試劑，由民眾自行居家篩檢並自主回報篩檢結果，為強化偵測社區病例注入新力量。\$\@\$指揮中心表示，COVID-19社區加強監測方案將自今日開始執行至今(2021)年12月31日，目前全國18個縣市共計82家診所參與，診所名單詳如新聞稿附件；未來將視執行情形及疫情變化，調整公費快篩試劑發放診所家數。民眾如為2歲以上出現呼吸道症狀的病患至公費快篩試劑發放診所掛號就醫，經醫師判斷後，發放公費家用快篩試劑及注意事項說明單張，如為2歲以下幼兒的陪同看診者，亦由醫師判斷後發放。\$\@\$指揮中心說明，民眾領取試劑後，請配合依注意事項說明內容儘速採檢，並至線上(https://forms.gle/8gh7Kb3ZkYE5aArW7)填寫試劑領取診所名稱及快篩結果等資料，此為匿名方式收集，無須擔心個人資料外洩情形。\$\@\$指揮中心呼籲，如快篩檢驗為陽性者請儘速至鄰近的社區採檢院所( https://reurl.cc/MArG1L )進一步PCR檢驗。提醒民眾前往社區採檢院所時，請戴好口罩、勿搭乘大眾運輸工具，對於使用過之採檢器材請用塑膠袋密封包好，並攜帶至社區採檢院所，交予院所人員處理。 附件\$\@\$附件-20210830公費COVID-19家用快篩試劑發送社區定點診所名單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增8例COVID-19確定病例，分別為3例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(均非居家隔離期間陽性者)，為2例男性、1例女性，年齡介於10多歲至70多歲，1例為今(2021)年8月29日發病，餘2例為無症狀感染，個案分布均在新北市；其中1例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月28日累計公布14,761位確診個案中，已有13,673人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心表示，今日新增5例境外移入個案，均為男性，年齡介於未滿10歲至60多歲，分別自印尼(案16096、案16101)、泰國(案16097)、荷蘭(案16098)、菲律賓(案16099)入境，入境日介於8月27日至8月29日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,651,089例新型冠狀病毒肺炎相關通報(含2,633,030例排除)，其中15,991例確診，分別為1,413例境外移入，14,525例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計834例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另9例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月30日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日表示，捷克政府於7月26日宣布捐贈我國3萬劑COVID-19疫苗，經捷克衛生部與我國駐捷克代表處之通力合作安排，已於臺北時間8月27日凌晨自布拉格機場啟運，預計8月29日下午抵達桃園國際機場。該批Moderna疫苗抵臺後，將於完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求時刻，捷克伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向捷克政府與民眾至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增23例COVID-19確定病例，分別為13例本土及10例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之13例本土病例(其中9例為居家隔離期間陽性者)，為6例男性、7例女性，年齡介於未滿5歲至50多歲，發病日介於今(2021)年8月16日至8月28日，個案分布為新北市11例、臺北市2例；其中9例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案16067)，為菲律賓籍60多歲男性，8月26日出現發燒症狀，8月27日入境我國後即送醫採檢確診，並於同日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月27日累計公布14,755位確診個案中，已有13,673人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心表示，今日新增10例境外移入個案，為7例男性、3例女性，年齡介於10多歲至60多歲，分別自中國(案16071)、柬埔寨(案16074、16075)、美國(案16076)、緬甸(案16088、16089、16090、16091)、巴基斯坦(案16092)及越南(案16093)入境，入境日介於8月15日至8月28日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,637,402例新型冠狀病毒肺炎相關通報(含2,619,709例排除)，其中15,983例確診，分別為1,408例境外移入，14,522例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計834例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另9例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月29日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19公費疫苗預約平臺」 ( https://1922.gov.tw/ ) 自8月28日起將BNT疫苗納入意願登記選項，並維持開放18歲(含)以上民眾登記，請有意願民眾把握機會進行登記；至於12歲至17歲(含)對象，目前規劃採行流感疫苗接種模式，以校園集中接種或依通知書至地方政府衛生局指定合約醫療院所方式接種，暫不納入意願登記。另第七期將提供接種AZ疫苗，預約時間自8月29日上午10時至8月31日中午12時截止。\$\@\$指揮中心說明，第七期預約將提供於7月19日前已意願登記選擇AZ疫苗，且尚未接種過疫苗之29歲(含)以上對象[即1992年12月31日(含)以前出生]及滿18歲以上[即2003年9月3日(含)前出生]第九類對象進行接種；施打期間預計自9月3日至9月10日止，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。此外，提醒符合第七期AZ疫苗預約資格對象如欲增加選擇BNT疫苗，須於8月31日下午4時後始可加選。另已符合AZ疫苗第二劑接種間隔之民眾，將另行開放接種。\$\@\$指揮中心再次提醒，請民眾於「COVID-19公費疫苗預約平臺」開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平臺會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增6例境外移入COVID-19病例，分別自法國、美國、越南、巴基斯坦、柬埔寨及其他國家移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至60多歲，分別自法國(案16065)、美國(案16066)、其他(案16067)、越南(案16068)、巴基斯坦(案16069)、柬埔寨(案16070)入境，入境日介於今(2021)年8月7日至8月27日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月26日累計公布14,748位確診個案中，已有13,674人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心統計，截至目前國內累計2,618,184例新型冠狀病毒肺炎相關通報(含2,600,433例排除)，其中15,960例確診，分別為1,398例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。 2020年起累計833例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月28日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日表示，本土疫情趨緩，指揮中心宣布8月24日至9月6日維持疫情警戒標準為第二級，考量疫情維持穩定及住宿式長照機構住民探視之需求，前已於8月10日宣布，全國住宿式長照機構除臺北市及新北市維持暫停訪客(除例外情形)外，其他縣市則有條件開放探視。\$\@\$現經指揮中心評估，臺北市及新北市的社區感染風險等級已調降至中風險，故自8月31日起，可比照其他縣市開放訪客，說明如下：\$\@\$一、訪客須出具訪視前3天內採檢之自費篩檢陰性證明；若訪客為「確診者取得解除隔離治療通知書且距發病日未滿3個月者」或「完成2劑COVID-19疫苗接種達14天(含)以上者」，可免除前述篩檢之要求。\$\@\$二、探視應遵循「衛生福利機構與榮譽國民之家因應COVID-19訪客管理作業原則」辦理，包括：落實預約制、實聯制、詢問TOCC及限制有感染症狀者進入、每位住民每次訪客人數不可超過3人、不同住民訪客間維持社交距離、進入住房探視每住房每時段原則上僅開放1位住民接受訪客探視、全程佩戴口罩等。\$\@\$指揮中心提醒，住宿式長照機構相關管理將視疫情發展，滾動修正。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增7例境外移入COVID-19病例，分別自瑞典、美國、印尼(3例)及印度(2例)入境；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增7例境外移入個案，為3例男性、4例女性，年齡介於20多歲至40多歲，分別自瑞典(案16058)、美國(案16059)、印尼(案16060、16061、16062)及印度(案16063、16064)入境，入境日介於今(2021)年8月13日至8月25日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心說明，今日新增1例死亡個案(案14879)，為60多歲男性，具慢性病史及其他確診個案接觸史；3月12日因其他原因住院，6月26日出現發燒、咳嗽及腹瀉症狀，6月29日採檢，6月30日確診，8月18日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月25日累計公布14,740位確診個案中，已有13,669人解除隔離，解隔離人數達確診人數92.7%。\$\@\$指揮中心統計，截至目前國內累計2,596,704例新型冠狀病毒肺炎相關通報(含2,579,632例排除)，其中15,954例確診，分別為1,392例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計833例COVID-19死亡病例，其中825例本土，個案居住縣市分布為新北市410例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月27日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-27\$\@\$中央流行疫情指揮中心今(27)日表示，26.5萬劑AstraZeneca疫苗已於今(27)日上午11時37分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心，進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已陸續到貨，分為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑，本次提供第六批疫苗，截至目前總計約267.4萬劑到貨。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃環境，依臨床試驗每人需施打2劑，本批效期至今(2021)年12月7日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增8例COVID-19確定病例，分別為2例本土及6例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增2例本土病例中，案16055為越南籍30多歲男性，因曾接觸確診者(案16006)， 8月19日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月25日出現喉嚨痛、喉嚨癢及頭痛症狀，由衛生單位安排就醫採檢，於今日確診(Ct值14.9)。案16056為本國籍20多歲女性，因曾接觸確診者(案15969)，8月16日由衛生單位安排採檢(核酸檢驗結果為陰性)並進行居家隔離，8月17日出現喉嚨癢及咳嗽症狀，並於隔日緩解，8月25日接受隔離期滿前採檢，於今日確診(Ct值24)。由於2例個案隔離期間未與他人接觸，且就醫期間之相關接觸者均有適當防護，故皆無匡列接觸者。\$\@\$指揮中心說明，今日新增2例死亡個案中，案14517為80多歲男性，具慢性病史、無相關活動接觸史；6月23日因發燒就醫，6月24日採檢並住院隔離治療，6月25日確診，8月4日解除隔離，8月20日死亡。案14837為70多歲男性，具慢性病史及其他確診個案接觸史；6月27日因出現咳嗽、疲倦症狀就醫採檢，6月28日住院隔離治療，6月29日確診，7月14日解除隔離並出院，8月20日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月24日累計公布14,739位確診個案中，已有13,644人解除隔離，解隔離人數達確診人數92.6%。\$\@\$指揮中心說明，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至50多歲，分別自美國(案16050、16052、16057)、日本(案16051、16053)及中國(案16054)入境，入境日介於8月2日至8月24日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,573,538例新型冠狀病毒肺炎相關通報(含2,556,336例排除)，其中15,947例確診，分別為1,385例境外移入，14,509例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計832例COVID-19死亡病例，其中824例本土，個案居住縣市分布為新北市409例、臺北市315例、基隆市28例、桃園市26例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月26日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，日前接獲台積電主動告知，鴻海永齡亦提供相關訊息表示，有另一批上海復星代理的BNT原廠疫苗，將於8月下旬出廠，而這批疫苗比捐贈單位預定的首批供應期程還要早，許多國家都在積極爭取，若臺灣不爭取，這批疫苗可能將送往其他國家。\$\@\$指揮中心表示，基於BNT疫苗可以施打12-18歲的青少年學生族群，而9月又即將開學，只要這批疫苗能夠確認是原廠出貨，而且經過安全檢驗，政府當然願意爭取這批疫苗，而疫苗早一天進來，讓學生能早日施打，家長、老師、學生都可以早一天安心。\$\@\$指揮中心指出，這批復星公司另案代理本要銷往他處的疫苗，在外盒包裝印有復必泰的品名，瓶身上則有復星醫藥等中文字樣，雖然這與原約定的標示方式不同，但政府仍願意積極爭取這批可以提早到來的疫苗，而且這批疫苗仍然是原廠製造、包裝並直送臺灣，只要確保疫苗品質安全無虞，當可在標示方式上給予彈性，所以政府接受可以照原來印的標示供貨，以利爭取這批疫苗早日供應國人使用。\$\@\$指揮中心表示，政府很感謝台積電的協助，也很感謝鴻海創辦人郭台銘先生，人在歐洲的這段期間也努力幫忙爭取，後續相關進度會再跟大家報告。從洽購疫苗，到爭取首批BNT的疫苗提早到貨，這都是官民合作的成果，對於包括鴻海永齡、台積電、慈濟三個企業和民間團體的協助，政府要再次表達由衷的感謝。\$\@\$指揮中心強調，防疫是政府唯一的考量，重要的是這個疫苗的內容物是安全有效的，輸入臺灣之後，仍要經過食藥署的檢驗封緘，確實有達到標準、安全無虞，才會開放讓民眾接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日表示，自8月23日至8月29日完成第一劑高端COVID-19疫苗接種之民眾，COVID-19公費疫苗預約平台預計於9月27日提供接種第二劑，屆時符合預約資格或收到簡訊提醒者即可預約接種。另若有出國急迫性須於第一劑後滿28天接種者，請地方政府衛生局指定轄內合約醫療院所於預約平台開打(9月27日)前酌情提供接種。\$\@\$指揮中心指出，高端疫苗目前第二劑接種間隔至少28天，已於國內接種第一劑高端COVID-19疫苗之民眾，若因緊急出國需提前接種第二劑疫苗者，可提供具有付款紀錄之機票與出國日程及留學入學證明或公司外派出國等證明文件，至指定之合約醫療院所，經醫師評估後進行接種。\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾COVID-19疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線「全國性預防接種資訊管理系統」(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增1例境外移入COVID-19病例(案16049)，自南非入境；另確診個案中新增1例死亡。\$\@\$指揮中心表示，案16049為南非籍20多歲男性，未接種COVID-19疫苗，於今(2021)年8月22日來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館居家檢疫，於今日確診。個案在臺期間並無症狀，衛生單位已匡列同班機接觸者3人，均列居家隔離；其餘接觸者匡列中。\$\@\$指揮中心說明，新增之死亡個案(案15845)，為70多歲女性，具慢性病史及其他確診個案接觸史，7月1日因其他原因住院，8月2日因醫院有病患確診，故安排個案進行採檢，8月4日確診，8月22日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月23日累計公布14,733位確診個案中，已有13,626人解除隔離，解隔離人數達確診人數92.5%。\$\@\$指揮中心統計，截至目前國內累計2,548,825例新型冠狀病毒肺炎相關通報(含2,531,924例排除)，其中15,939例確診，分別為1,379例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計830例COVID-19死亡病例，其中822例本土，個案居住縣市分布為新北市409例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-25\$\@\$疾病管制署今(25)日表示，我國運用科技進行傳染病防治工作成果獲得亞太經合會（APEC）經濟體高度肯定，並於本（110）年8月25日及26日上午9時，舉辦「APEC亞太地區傳染病數位工具應用：挑戰與機會國際研討會( Digital Tools for Addressing Infectious Disease in the Asia-Pacific Region: Challenges and Opportunities）」，由衛生福利部薛瑞元政務次長、中央研究院陳建仁院士、疾病管制署周志浩署長偕我國與18國產官學專家，於線上分享運用科技工具攜手抗疫經驗，期能增進亞太區域團結抗疫及應變能力。\$\@\$疾管署指出，COVID-19疫情在全球及亞太區域大流行，不僅對健康亦對社會與經濟發展造成重大衝擊及影響。面對疫情的威脅，薛次長致詞中表示，為因應COVID-19疫情的高度變異性，防疫亦須及時調整，單以傳統防治方式恐無法快速應對，所幸科技進步，全球數位科技已廣泛運用於COVID-19疫情監測與應變，協助防疫工作推動更順暢；期望本次研討會可強化APEC經濟體間抗疫協作與夥伴關係發展，互相交流，共同攜手合作，成功抗疫。\$\@\$疾管署說明，本研討會由陳建仁院士擔任專題講座，會中分享我國運用數位科技輔助防疫及檢疫經驗，如健保雲端系統建置「TOCC」(旅遊史、職業別、接觸史及是否群聚)提示機制、電子圍籬居家隔離系統、口罩實名制等，並由歐美亞太等18國逾40位及國內110位專家同步連線參與討論，就傳染病監測、社區防治動員、產官學合作發展創新技術及資料隱私保護等議題進行交流與分享，共同為COVID-19科技防疫工作注入新力量。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日表示，因應全球COVID-19疫情持續升溫，鄰近多國仍處於嚴峻或再創新高狀況，且Delta變異株流行範圍持續擴大，為阻絕疫情由境外擴散，指揮中心宣布自8月27日零時起（航班抵臺時間），入境旅客應搭乘「防疫車輛」逕至檢疫處所，不得自行駕車前往。\$\@\$指揮中心說明，前述措施將避免旅客自行駕車前往檢疫地點之路程中，接觸其他民眾的機會，減少病毒傳播風險，籲請民眾務必配合，維護我國社區防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日表示，鑒於本土疫情趨緩，衡酌醫療機構住院病人及民眾探病需求，自今(2021)年8月24日起，調整門禁管制及陪(探)病人員篩檢措施，請醫院配合於8月28日前(含)開始執行，相關調整說明如下(詳見新聞稿附件)：\$\@\$一、開放醫院之加護病房、安寧病房、呼吸照護病房、精神科病房、兒童病房等區域，及有身心障礙或病況危急者得探病；探病時段為每日固定1時段，每名住院病人限每次至多2名訪客為原則。為保護病人，所有探病者應出具探視日前3天內自費抗原快篩或PCR檢測陰性證明。有關指揮中心8月21日發布新聞稿，開放住院天數達7天以上者探病，將列為下一階段開放對象。\$\@\$二、為避免入院時因處於潛伏期導致偽陰性結果，風險縣市(臺北市及新北市)住院病人及其陪病者，除維持原有之入院篩檢外，增加定期篩檢措施。雙北住院病人入院第7天及第14天各進行1次公費抗原快篩。其陪病者每7天進行1次抗原快篩，1位由公費支應。\$\@\$三、陪(探)病人員如為「完成2劑COVID-19疫苗接種達14天(含)以上者」或「確定病例符合採檢陰性解除隔離條件且距發病日未滿3個月者」，得免除前述篩檢。\$\@\$指揮中心提醒，由於醫院屬於高感染傳播風險場域，籲請民眾於疫情期間儘量避免不必要的陪病或探病，建議以視訊或電話方式替代實地探視，若仍有陪病或探病需要，應配合實名登記及院方相關管理措施。陪(探)病人員須不具COVID-19相關症狀，亦未曾接觸確診個案或具相關公共場所活動史；且進入醫療機構務必全程佩戴口罩、遵循呼吸道衛生與咳嗽禮節、落實手部衛生；陪病及探病期間，以單一病房為活動範圍，減少非必要的人際交流及聚會，縮短在公共空間的停留時間，以降低交互感染風險，保障自身及病人安全。 附件\$\@\$附件-20210824因應疫情警戒標準維持第2級調整醫院COVID-19應變措施.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16044)，為本國籍70多歲男性，8月22日因其他原因就醫，採檢後於今日確診(Ct值37.7)；衛生單位已啟動醫院及社區調查與防治，目前匡列家庭接觸者1人，列居家隔離，其餘接觸者匡列中。\$\@\$指揮中心說明，今日新增1例死亡個案(案15877)，為80多歲女性，具慢性病史及其他確診個案接觸史，7月27日出現食慾不振症狀，並於同日死亡；後因同住家人確診(案15851)，故於8月5日進行採檢，8月6日確診(Ct值23.8)。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月22日累計公布14,727位確診個案中，已有13,621人解除隔離，解隔離人數達確診人數92.5%。\$\@\$今日新增5例境外移入個案均為男性，年齡介於10多歲至40多歲，分別自日本(案16043、16045、16048)、印度(案16046)、土耳其(16047)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月12日至8月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,524,269例新型冠狀病毒肺炎相關通報(含2,507,456例排除)，其中15,938例確診，分別為1,378例境外移入，14,507例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計829例COVID-19死亡病例，其中821例本土，個案居住縣市分布為新北市408例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月24日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日表示，全球Delta變異株日益擴散且其傳播力強，我國境外移入病例有增加趨勢，為降低該病毒進入國內社區風險，與及時偵測國內病例阻斷傳播鏈，擬定COVID-19加強監測方案如下：\$\@\$(一)社區加強監測：8月30日將配置公費COVID-19家用快篩試劑於各縣市合約診所，由醫師判斷對具高風險民眾提供試劑，由民眾自行居家篩檢並回報快篩結果。檢驗為陽性時，再前往社區採檢站或採檢院所進行PCR檢測複驗，以強化基層診所監測能力。\$\@\$(二)國際機場特定高風險工作人員重點監測：8月30日起於桃園、臺北、臺中與高雄等四個國際機場之特定高風險工作人員，每7天以公費家用快篩試劑採檢一次，如檢驗為陽性者，再進行公費PCR檢測，以強化邊境監測能力。\$\@\$(三)廢汙水監測：擴大全國汙水SARS-CoV-2病毒監測範圍，由11處擴充為22處，以早期偵測社區中SARS-CoV-2病毒傳播狀況。\$\@\$(四)捐血人血清抗體陽性盛行率調查：針對110年4-7月份臺灣地區捐血中心捐血人之血液存檔樣本，抽樣5,000個檢體進行抗核蛋白及棘蛋白抗體檢測，以分析自然感染或接種疫苗的抗體陽性比例之地理分布及趨勢變化。\$\@\$(五)邊境進口冷凍食品包裝監測：持續在邊境採樣檢驗進口冷凍肉品、水產品及水果之內、外包裝，監控進口冷凍食品內、外包裝之SARS-CoV-2病毒污染狀況及評估消毒作業效果，以防止病毒透過進口食品包裝污染而入境我國。\$\@\$指揮中心進一步指出，目前國內疫情雖穩定控制中，但面臨Delta病毒變異株的威脅無可避免，需持續強化邊境與社區監測及各項防疫作為，避免病毒入侵社區。指揮中心未來將持續觀察疫情態勢，適度調整加強監測方案。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間陽性者)，為2例男性、2例女性，年齡介於20多歲至70多歲，其中2例發病日分別為今(2021)年8月15日、8月20日，餘2例為無症狀感染。個案分布均在新北市；其中2例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月21日累計公布14,717位確診個案中，已有13,601人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案16037為俄羅斯籍20多歲女性，未接種COVID-19疫苗，8月11日自俄羅斯來臺就學，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月20日有鼻塞等症狀，8月21日由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。案16038為40多歲立陶宛籍男性，未接種COVID-19疫苗，8月13日自立陶宛來臺工作，持搭機3日內檢驗陰性證明，個案入境於機場採檢結果陰性，至防疫旅館檢疫，8月21日出現發燒、咳嗽等症狀，由衛生單位安排採檢，於今日確診。個案檢疫期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,502,861例新型冠狀病毒肺炎相關通報(含2,485,203例排除)，其中15,932例確診，分別為1,373例境外移入，14,506例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增10例COVID-19確定病例，分別為6例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為3例男性、3例女性，年齡介於未滿5歲至90多歲，其中1例發病日為今(2021)年8月21日、餘5例為無症狀感染。個案分布為臺北市3例，新北市、桃園市及雲林縣各1例；其中3例為已知感染源、1例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月20日累計公布14,707位確診個案中，已有13,580人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於30多歲至50多歲，分別自日本(案16028)、德國(案16029)、南非(案16030)及印度(案16036)入境，入境日介於8月8日至8月20日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,489,074例新型冠狀病毒肺炎相關通報(含2,471,769例排除)，其中15,926例確診，分別為1,371例境外移入，14,502例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月22日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，帛琉衛生部於今日上午發布新聞稿表示，當地2位帛琉籍民眾自8月15日自關島入境，於入境後第5日COVID-19採檢檢驗陽性。帛國政府已立即採取隔離及接觸者採檢等應變措施，目前所有人員檢驗結果均為陰性，該國並將在第10天的隔離規定後再次採檢，2位進入帛琉後活動範圍不大，初步研判帛國疫情似並未擴散。此外，帛國政府已於本日重啟「緊急應變中心」（Emergency Operations Center），擴大執行疫調並追蹤詳細接觸史，密切監控疫情發展。外交部、我國駐帛琉大使館及相關單位持續掌握此案發展，並與該國保持密切聯繫。\$\@\$指揮中心說明，因應此次帛琉出現確診個案，自帛琉入境旅客，除維持自帛琉返臺入境時於機場配合採深喉唾液PCR檢測，參加臺帛旅遊泡泡之旅客於機場應落實與其他國際旅客分流，並於檢驗陰性後採「5+9」模式，於入境第0日至第5日進行加強自主健康管理，第5日自費進行PCR檢測取得陰性報告後，最快第6日起改一般自主健康管理外，另增加入境後第12-14日須公費進行PCR檢測。\$\@\$指揮中心進一步指出，加強自主健康管理期間，除一起前往旅遊及返臺者外，應入住防疫旅宿或符合1人1室之居所，且需有單獨房間與專用衛浴，共同生活者應一起採取適當防護措施，包含佩戴口罩，保持社交距離，不可共食。若沒有出現任何症狀，可以外出，但僅能從事固定且有限度之活動，且不可搭乘大眾運輸，禁止至人潮擁擠場所，採實名制，需記錄每日活動及接觸人員，不可接觸不特定人士，且應全程佩戴口罩及保持社交距離，並於入境後14天內遵守自主健康管理應注意事項。\$\@\$指揮中心提醒，欲赴帛琉旅客，同樣搭機當日於機場採檢PCR陰性，始得搭機，若檢出陽性者應配合疫情調查，其密切接觸者(如：同行家人等)亦應暫緩搭機；防疫期間赴帛琉旅遊，務請確實遵守指揮中心及帛國的防疫措施，如佩戴口罩、勤洗手及保持社交距離等規範，以維護自身的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，「COVID-19公費疫苗預約平台」將於今(2021)年8月21日中午12時進行意願登記結算，並於8月23日上午10時至8月24日下午6時止，增加開放8月16日下午2時以後新登記或加選意願登記為高端疫苗之民眾進行預約。\$\@\$指揮中心說明，本期可接種疫苗為高端疫苗，上述符合預約資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象預定於8月27日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，今(2021)年5月17日考量國內及國際COVID-19疫情升溫，宣布自5月19日開始，暫停未持居留證之非本國籍人士入境，因此教育部配合指揮中心邊境嚴管措施，暫停境外學生入境申請作業。現經評估國內疫情趨緩，且110學年度開學在即，教育部專案簽請指揮中心8月20日同意，重新開放110學年度境外學位生及華語受獎生等申請入境。\$\@\$指揮中心說明，有關重啟境外生專案入境作業，重要原則如下，並請學校預為通知境外生準備：\$\@\$一、入境前：\$\@\$1.新生及未持有效簽證/居留證/中華民國入境許可證之學生，由學校先行造冊送部函轉外交部領事事務局及內政部移民署受理學生辦理簽證或入出境許可證。\$\@\$2.學生取得簽證後，訂妥班機及檢疫場所後，通知學校透過線上申請取得同意函，並於登機前應檢具3日內COVID-19核酸檢驗陰性報告。\$\@\$二、入境後：依規定於入境時採深喉唾液PCR檢測，並於檢疫場所進行居家檢疫14天，檢疫期滿前(檢疫第12至14天)PCR檢測，此外第10至12天須以「家用快篩」採檢一次。\$\@\$三、檢疫結束後：須再進行7天自主健康管理，期滿後始得入校。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日表示，考量國內疫情雖趨緩但仍有零星不明感染源之本土病例，經與相關單位溝通討論及評估後，宣布自今(2021)年8月24日至9月6日維持疫情警戒標準為第二級，並將維持或調整相關管制規定如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：放寬為室內80人，室外300人，若超額則向地方主管機關提報防疫計畫。\$\@\$5. 婚宴、公祭：\$\@\$(1). 公祭遵守內政部相關防疫規定處理。\$\@\$(2). 婚宴遵守每一隔間室內80人、室外300人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$6. 餐飲管理：依照衛福部規定處理，新增同住親友聚餐不受限使用隔板、梅花座及專人分菜。\$\@\$7. 醫院探病：開放加護病房、安寧病房、呼吸照護病房、精神科病房、兒童病房、身心障礙、病況危急及住院天數達7天以上者之探病；探病者須遵守探病時段、人數限制及出具篩檢陰性證明等規定。\$\@\$8. 符合主管機關防疫管理指引或規範得開放：K書中心、室內遊樂園、海釣場、海泳/浮潛等水域活動。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$指揮中心說明，目前國內疫情穩定控制中，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，籲請民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增10例COVID-19確定病例，分別為2例本土及8例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之2例本土病例(均非居家隔離期間檢驗陽性者)，為新北市40多歲男性及50多歲女性，分別於8月16日及8月19日發病；其中1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案9244)，為60多歲男性，具慢性病史，無相關接觸史，5月25日出現發燒、流鼻涕等症狀，5月28日就醫採檢，檢驗陽性後於6月1日住院治療，6月2日確診，6月12日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月19日累計公布14,698位確診個案中，已有13,581人解除隔離，解隔離人數達確診人數92.4%。\$\@\$指揮中心說明，今日新增8例境外移入個案，為7例男性、1例女性，年齡介於10多歲至60多歲，分別自美國(案16018)、印度(案16019)、印尼(案16020至16022)、南非(案16023)、日本(案16024)、阿爾巴尼亞(案16025)入境，入境日介於8月18日至8月19日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,472,606例新型冠狀病毒肺炎相關通報(含2,455,074例排除)，其中15,916例確診，分別為1,367例境外移入，14,496例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計828例COVID-19死亡病例，其中820例本土，個案居住縣市分布為新北市407例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增9例COVID-19確定病例，分別為6例本土及3例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間檢驗陽性者)，為4例男性、2例女性，年齡介於未滿5歲至60多歲，其中3例發病日為今(2021)年8月18日、餘3例為無症狀感染。個案分布為新北市3例、臺北市2例及彰化縣1例；其中2例為已知感染源、2例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案15492)，為60多歲男性，具慢性病史及其他確診個案接觸史，7月9日出現咳嗽症狀，7月16日因發燒及意識不清送醫並住院隔離治療，7月17日確診，8月18日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月18日累計公布14,692位確診個案中，已有13,550人解除隔離，解隔離人數達確診人數92.2%。\$\@\$指揮中心說明，今日新增3例境外移入個案，為2例男性、1例女性，年齡介於20多歲至40多歲，分別自羅馬尼亞(案16011)、孟加拉(案16012)及英國(案16013)入境，入境日介於8月6日至8月17日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,450,350例新型冠狀病毒肺炎相關通報(含2,433,271例排除)，其中15,906例確診，分別為1,359例境外移入，14,494例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計827例COVID-19死亡病例，其中819例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增6例COVID-19確定病例，分別為1例本土及5例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之1例本土病例(案16006)，為本國籍50多歲男性，近期無國內外旅遊史，今(2021)年8月18日陪家人就醫，因家人需住院治療，故於同日接受陪病者採檢，於今日確診(Ct值22.7)；個案為無症狀感染，衛生單位已啟動醫院及社區調查與防治，相關接觸者匡列中。\$\@\$指揮中心說明，今日新增5例死亡個案，為3例男性、2例女性，年齡介於60多歲至80多歲，發病日介5月24日至6月13日，確診日介於6月2日至6月15日，死亡日介於8月13日至8月17日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月17日累計公布14,681位確診個案中，已有13,545人解除隔離，解隔離人數達確診人數92.3%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至50多歲，分別自美國(案16002)、立陶宛(案16003)、越南(案16004)、阿拉伯聯合大公國(杜拜) (案16005)及伊朗(案16007)入境，均持有搭機前3日內檢驗陰性報告，入境日介於8月6日至8月17日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,429,464例新型冠狀病毒肺炎相關通報(含2,411,951例排除)，其中15,897例確診，分別為1,356例境外移入，14,488例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計826例COVID-19死亡病例，其中818例本土，個案居住縣市分布為新北市406例、臺北市314例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$附件1-8月19日新增死亡COVID-19確診個案表.pdf\$\@\$附件2-8月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )自8月16日10時起，已開放高端疫苗預約，至今日12時截止，總計約41.9萬人完成預約，並將於8月23日至8月29日施打。惟為利疫苗資源有效利用，將自8月18日16時至8月20日12時止，增加開放「8月13日12時以前意願登記，且為35歲至20歲(含)[即2001年8月23日(含)以前出生]民眾預約，估計約有29.8萬人。\$\@\$指揮中心說明，請符合上述預約接種資格者，可於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象同樣預定於8月23日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月16日10時至8月18日12時止)已宣布之符合預約資格對象，包含「65歲以上長者」、「64歲至20歲(含)第九類對象」以及「64歲至36歲(含)民眾」，依原預約時間，已於8月18日中午12時停止預約及修改；8月18日16時至8月20日12時，則僅開放上述增加開放對象進行預約。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增11例COVID-19確定病例，分別為6例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(均非居家隔離期間陽性者)，為2例男性、4例女性，年齡介於20多歲至80多歲，其中1例8月14日發病，餘均為無症狀感染，個案分布為臺北市4例、新北市2例；其中2例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月16日累計公布14,663位確診個案中，已有13,214人解除隔離，解隔離人數達確診人數90.1%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為1名男性、4名女性，年齡介於20多歲至40多歲，分別自美國(案15996、案15998)、阿拉伯聯合大公國(杜拜)(案15997)、印度(案15999)、法國(案16000)入境，入境日介於5月17日至8月15日，均持有搭機前3日內檢驗陰性報告。詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,407,073例新型冠狀病毒肺炎相關通報(含2,389,646例排除)，其中15,891例確診，分別為1,351例境外移入，14,487例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月18日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-17\$\@\$中央流行疫情指揮中心今(17)日表示，目前我國同意專案輸入或製造(EUA)之COVID-19疫苗均不含豬細胞，包括AstraZeneca(AZ)、Moderna、Pfizer-BioNTech(BNT)、高端等，其製造過程無使用豬細胞；同時，世界衛生組織(WHO)於今(2021)年7月24日表示，AZ、Moderna及BNT等COVID-19疫苗均符合清真認證（Halal）。\$\@\$指揮中心說明，有關近日國內印尼移工對AZ疫苗成分有所疑慮一事，經查，該疫苗含有SARS-CoV-2病毒棘蛋白(S protein)基因之非複製型腺病毒載體，利用重組DNA技術在基因改造後之人類胚胎腎臟細胞(HEK 293)內增殖，製造過程均無使用豬細胞。\$\@\$指揮中心指出，目前AZ疫苗已於沙烏地阿拉伯、阿拉伯聯合大公國(阿聯酋)、巴林、阿曼、埃及等大多數人口是穆斯林的國家使用，且多國之伊斯蘭理事會亦允許穆斯林可接種該疫苗；另，Moderna及BNT等疫苗亦取得阿拉伯聯合大公國(阿聯酋)、巴林等國EUA核准或使用，敬請安心接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-17\$\@\$中央流行疫情指揮中心今(17)日公布國內新增18例COVID-19確定病例，分別為4例本土及14例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間陽性者)，為3例男性、1例女性，年齡介於未滿5歲至60多歲，發病日均為8月16日，個案分布為臺北市、新北市各2例；其中2例為已知感染源、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月15日累計公布14,653位確診個案中，已有13,195人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增14例境外移入個案，為8名男性、6名女性，年齡介於未滿5歲至60多歲，分別自美國(案15975、案15980)、英國(案15976、案15977)、緬甸(案15981至案15989)、澳洲(案15990)入境，入境日介於8月3日至8月15日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計 2,382,988例新型冠狀病毒肺炎相關通報(含2,365,884例排除)，其中15,880例確診，分別為1,346例境外移入，14,481例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月17日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-16\$\@\$衛生福利部食品藥物管理署(以下簡稱食藥署) 表示，為積極因應新型冠狀病毒疾病(以下簡稱COVID-19)疫情防疫需求，於今(110)年8月15日邀請國內化學製造管制、藥學、毒理學、臨床醫學、公衛、法律及醫學倫理專家召開會議，討論聯亞UB-612新冠肺炎疫苗(以下簡稱聯亞疫苗)專案製造申請案。\$\@\$食藥署指出，當日會議經過充分的審查與討論，聯亞疫苗的臨床試驗結果顯示，該疫苗安全性可接受，具細胞免疫反應趨勢，惟中和抗體數據與國人接種AZ疫苗外部對照組的中和抗體數據相比，未能達到食藥署於110年5月28日專家會議所訂定的2項國產疫苗EUA療效評估基準。會中經投票表決，與會專家出席計22人，除了主席不參與投票外，21人投票結果為4人補件再議，17人不同意通過，建議不予核准專案製造。此外，聯亞公司已規劃於印度展開第三期臨床試驗。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增10例COVID-19確定病例，分別為8例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之8例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為3例男性、5例女性，年齡介於10多歲至50多歲，發病日介於今(2021)年8月10日至8月15日。個案分布為新北市6例、臺北市及桃園市各1例；其中6例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月14日累計公布14,644位確診個案中，已有13,178人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15965為本國籍10多歲女性，已接種COVID-19疫苗，8月2日自美國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月14日接受檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15972為迦納籍30多歲男性，長期居住於臺灣，無接種COVID-19疫苗，今年3月前往迦納，8月1日自迦納返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月15日接受檢疫期滿前採檢，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,361,186例新型冠狀病毒肺炎相關通報(含2,343,668例排除)，其中15,862例確診，分別為1,332例境外移入，14,477例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。 2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入 。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-15\$\@\$中央流行疫情指揮中心今(15)日表示，第六批採購Moderna疫苗24.96萬劑，已於臺北時間8月15日凌晨自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。\$\@\$指揮中心表示，我國採購之Moderna疫苗目前共有150萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41.04萬劑、第四批7月15日35.04萬劑、第五批8月8日9.96萬劑及本批24.96萬劑。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增9例COVID-19確定病例，分別為2例本土及7例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之2例本土病例(均非居家隔離期間陽性者)，均為40多歲女性，且均為無症狀感染。個案分布為臺北市1例、新北市1例；2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月13日累計公布14,637位確診個案中，已有13,172人解除隔離，解隔離人數達確診人數90.0%。\$\@\$指揮中心說明，今日新增7例境外移入個案，為3例男性、4例女性，年齡介於20多歲至40多歲，分別自美國(案15956、15957)、韓國(案15958)、波蘭(案15959)、南非(案15960)、阿拉伯聯合大公國(案15961)及立陶宛(案15962)入境，入境日介於8月1日至8月13日，均持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,348,221例新型冠狀病毒肺炎相關通報(含2,331,010例排除)，其中15,852例確診，分別為1,330例境外移入，14,469例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月15日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-14\$\@\$中央流行疫情指揮中心今(14)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )將自8月16日上午10時至8月18日中午12時止開放預約，此期可接種疫苗為高端疫苗，符合預約資格對象如下：\$\@\$一、65歲以上(含)[即1956年12月31日(含)以前出生]長者\$\@\$二、64歲至20歲(含)[即2001年8月23日(含)以前出生]第九類對象\$\@\$三、64歲至36歲(含)[即1985年12月31日(含)以前出生]民眾\$\@\$指揮中心說明，上述符合預約資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此期預約預定於8月23日至8月29日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增7例COVID-19確定病例，分別為3例本土及4例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(其中2例為居家隔離期間陽性者)，為1例男性、2例女性，年齡介於30多歲至60多歲，發病日均為今(2021)年8月12日。個案分布為新北市2例、臺北市1例；其中2例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案4213為50多歲男性，有慢性病史及相關活動接觸史，5月17日起陸續出現咳嗽有痰、胸痛、腹瀉症狀，5月22日就醫採檢並住院隔離治療，5月23日確診，6月11日解除隔離並出院，6月21日因其他原因死亡。案11423為90多歲女性，有慢性病史、無相關活動接觸史，6月3日出現發燒、咳嗽、嘔吐症狀，6月5日就醫採檢並住院隔離治療，6月7日確診，6月22日解除隔離並出院，7月12日因其他原因死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月12日累計公布14,621位確診個案中，已有13,184人解除隔離，解隔離人數達確診人數90.2%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2例男性、2例女性，年齡介於20多歲至50多歲，分別自菲律賓(案15950)、俄羅斯(案15951)、印尼(案15952)及越南(案15953)入境，入境日介於7月30日至8月13日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,330,539例新型冠狀病毒肺炎相關通報(含2,312,858例排除)，其中15,843例確診，分別為1,323例境外移入，14,467例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計110例移除為空號。2020年起累計821例COVID-19死亡病例，其中813例本土，個案居住縣市分布為新北市402例、臺北市313例、基隆市28例、桃園市26例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-13\$\@\$疾病管制署今(13)日公布國內新增1例漢他病毒症候群(出血熱)病例，為北部40多歲男性，近期無國內外旅遊史，活動地以住處及工作地周邊為主。個案7月25日被老鼠咬傷，同日就醫後返家，7月26日因發燒再次就醫並收治住院，經通報檢驗確診；個案目前已出院，同住者無疑似症狀。衛生單位已前往個案住處周邊進行疫情調查、環境消毒、放置鼠籠及民眾衛教等防治工作。\$\@\$依據疾管署統計資料顯示，今年截至8月12日，國內累計8例漢他病毒症候群病例，高於2017至2020年同期(分別為0、1、1、7例)，個案居住縣市為高雄市4例、台北市、新北市、台中市及彰化縣各1例；自2011年以來累計32例，性別以男性20例(佔62.5%)為多；年齡則以40歲以上25例(佔78.1%)為多。\$\@\$疾管署表示，漢他病毒出血熱為人畜共通傳染病，人類吸入或接觸遭鼠糞尿污染帶有漢他病毒飛揚的塵土、物體，或被帶病毒的齧齒類動物咬傷，就有感染風險；感染後潛伏期為數天至兩個月，主要症狀為突然且持續性發燒、結膜充血、虛弱、背痛、頭痛、腹痛、厭食、嘔吐等，約第3至6天出現出血症狀，隨後出現蛋白尿、低血壓或少尿，部分患者會出現休克或輕微腎病變，並可能進展成急性腎衰竭，經治療後病況可改善。\$\@\$疾管署呼籲，落實「不讓鼠來、不讓鼠住、不讓鼠吃」是預防漢他病毒最有效的方法，民眾應隨時做好環境清理，尤其是倉庫、儲藏室等老鼠容易窩藏的空間。如發現鼠類排泄物時，應先佩戴口罩、橡膠手套及打開門窗，並以稀釋漂白水(100cc市售漂白水+1公升清水)潑灑於可能被污染的環境，待消毒作用30分鐘後再行清理。；另為避免病毒飛揚於空氣造成傳播，請使用清除污物之拋棄式紙巾、抹布或舊報紙清理，再以垃圾袋密封後丟棄。相關資訊可至疾管署全球資訊網(https://www.cdc.gov.tw)，或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增18例COVID-19確定病例，分別為4例本土及14例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中3例為居家隔離期間或期滿檢驗陽性者)，為2例男性、2例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年8月7日至8月9日。個案分布為臺北市及高雄市各2例；其中3例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案8852為80多歲男性，有慢性病史、無相關活動接觸史，5月28日因出現發燒、呼吸喘症狀就醫採檢並收治住院，6月1日確診，6月8日解除隔離，6月26日出院，7月5日因其他原因死亡。案14165為60多歲男性，有慢性病史、無相關活動接觸史，6月17日出現發燒症狀，6月20日就醫採檢並收治住院，6月21日確診，8月4日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月11日累計公布14,615位確診個案中，已有13,142人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增14例境外移入個案，為7例男性、7例女性，年齡介於20多歲至60多歲，分別自阿拉伯聯合大公國(杜拜)(案15929)、美國(6例：案15932、15935、15937-15939、15944)、柬埔寨(2例：案15933、15934)、中國(案15936)、越南(案15940)、印尼(案15942)、印度(案15943)及泰國(案15945)入境，入境日介於7月30日至8月11日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,309,241例新型冠狀病毒肺炎相關通報(含2,292,428例排除)，其中15,836例確診，分別為1,319例境外移入，14,464本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號病例(案4166、案9260)，共累計110例移除為空號。2020年起累計819例COVID-19死亡病例，其中811例本土，個案居住縣市分布為新北市402例、臺北市312例、基隆市28例、桃園市25例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月13日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日表示，鑒於本土疫情趨緩，指揮中心宣布自8月10日至8月23日維持疫情警戒標準為第二級；考量疫情維持穩定及住宿式長照機構住民探視之需求，依機構人員疫苗接種情形及各縣市之社區感染風險，調整住宿式長照機構訪客管制措施，並將視疫情發展滾動修正。\$\@\$自即日起，中高風險以上縣市(目前為臺北市、新北市)除例外情形外仍維持暫停訪客；其他縣市則有條件開放探視。\$\@\$一、訪客須出具訪視前3天內採檢之自費篩檢陰性證明。\$\@\$二、探視應遵循「衛生福利機構與榮譽國民之家因應COVID-19訪客管理作業原則」辦理，包括：落實預約制、實聯制、詢問TOCC及限制有感染症狀者進入、每位住民每次訪客人數不可超過3人、不同住民訪客間維持社交距離、進入住房探視每住房每時段原則上僅開放1位住民接受訪客探視、全程佩戴口罩等。\$\@\$指揮中心表示，若訪客為「確診者取得解除隔離治療通知書且距發病日未滿3個月者」或「完成2劑COVID-19疫苗接種達14天(含)以上者」，可免除前述篩檢之要求。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日表示，AstraZeneca疫苗約52.4萬劑，預定今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已到貨3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑，本次提供第五批疫苗，截至目前總計約241萬劑到貨。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至110年12月31日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增6例COVID-19確定病例，分別為4例本土及2例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中1例為居家隔離期間檢驗陽性者)，為3例男性、1例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年8月4日至8月9日。個案分布為臺北市3例、新北市1例；其中2例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案15379)，為80多歲男性，有慢性病史及其他確診個案接觸史，6月29日因其他原因住院治療，後因照顧者(案15334)確診，於7月12日進行接觸者採檢，7月13日確診，8月7日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月10日累計公布14,599位確診個案中，已有13,121人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15927為美國籍20多歲女性，已接種COVID-19疫苗，8月4日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，8月11日出現咳嗽及味覺異常症狀，由衛生單位安排就醫採檢，於今日確診；相關接觸者匡列中。案15928為英國籍60多歲男性，長期居住於臺灣，已接種COVID-19疫苗，7月17日前往俄羅斯工作，8月10日返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館居家檢疫，於今日確診；個案在臺期間並無症狀，已匡列接觸者2人，其中1人為同行者，列居家隔離，另1人為具適當防護之專車司機，列自我健康監測，其餘同班機接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,289,602例新型冠狀病毒肺炎相關通報(含2,272,067例排除)，其中15,820例確診，分別為1,305例境外移入，14,462本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計817例COVID-19死亡病例，其中809例本土，個案居住縣市分布為新北市402例、臺北市311例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-11\$\@\$中央流行疫情指揮中心今(11)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )於7月27日起將高端疫苗納入意願登記，此期意願登記將於8月13日中午12時結束並進行結算，請尚未意願登記民眾把握機會，儘速完成登記，保障自身權益。\$\@\$指揮中心說明，本期可接種疫苗為高端疫苗，可預約時間自8月16日上午10時起至8月18日中午12時截止；施打期間預計自8月23日至8月29日止，並視疫苗供應期程調整接種場次。開放預約接種對象將依據意願登記結算情形決定。\$\@\$指揮中心再次提醒，請民眾於「COVID-19公費疫苗預約平台」開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平台會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增16例COVID-19確定病例，分別為12例本土及4例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為9例男性、3例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年8月2日至8月10日。個案分布為新北市6例、臺北市4例及基隆市2例；其中7例為已知感染源、3例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案6581為70多歲男性，有慢性病史、無相關活動接觸史，5月21日出現發燒、全身倦怠症狀，隔日因意識改變、呼吸喘就醫採檢並住院隔離治療，5月27日確診，6月19日解隔離出院，7月8日死亡。案13510為90多歲男性，有慢性病史、無相關活動接觸史，6月14日出現發燒、疲倦症狀，6月15日就醫採檢，6月16日住院隔離治療，6月17日確診，7月10日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月9日累計公布14,591位確診個案中，已有13,111人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增4例境外移入個案均為男性，年齡介於20多歲至60多歲，分別自荷蘭(案15912)、印尼(案15913)及英國(案15921、案15922)入境，且皆持有搭機前3日內檢驗陰性報告，入境日介於7月28日至8月9日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,268,145例新型冠狀病毒肺炎相關通報(含2,251,025例排除)，其中15,814例確診，分別為1,303例境外移入，14,458本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計816例COVID-19死亡病例，其中808例本土，個案居住縣市分布為新北市401例、臺北市311例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月11日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-10\$\@\$中央流行疫情指揮中心今(10)日公布國內新增8例COVID-19確定病例，分別為3例本土及5例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之3例本土病例(其中1例為居家隔離期間或期滿檢驗陽性者)，為1例男性、2例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年8月2日至8月7日。個案分布均在新北市；其中2例為已知感染源、1例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案13568)，為50多歲女性，有慢性病史及其他確診個案接觸史，6月14日出現發燒、呼吸喘等症狀至醫院採檢，6月15日檢驗陽性並住院，6月17日確診，8月6日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月8日累計公布14,583位確診個案中，已有13,103人解除隔離，解隔離人數達確診人數89.9%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為2例男性、3例女性，年齡介於10多歲至60多歲，分別自法國(案15899)、美國(案15900、案15901)、印尼(案15904)及瑞士(案15906)入境，入境日介於6月28日至8月8日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,243,540例新型冠狀病毒肺炎相關通報(含2,226,482例排除)，其中15,798例確診，分別為1,299例境外移入，14,446本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計814例COVID-19死亡病例，其中806例本土，個案居住縣市分布為新北市401例、臺北市309例、基隆市28例、桃園市24例、彰化縣15例、新竹縣12例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月10日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日表示，「COVID-19公費疫苗預約平台」( https://1922.gov.tw/ )自8月11日起，開放已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一類至第三類及孕婦等對象，可預約接種第二劑；惟有部分非該類對象因接種單位身分別誤植，收到提醒預約接種簡訊之狀況，指揮中心考量該期預約作業已結束，對於已預約者將一併提供接種。\$\@\$指揮中心說明，該期預約接種發送符合第二劑Moderna疫苗預約資格之對象提醒簡訊，是依據接種單位所登錄第一劑的身分別代碼屬第一類至第三類及孕婦，且於8月11日(含)已間隔滿28天者進行發送；因此，第一類至第三類及孕婦以外的對象，可能因接種單位在登錄接種第一劑疫苗相關資料時，身分別誤植，而使該等民眾誤於本期符合預約資格或收到預約簡訊。\$\@\$指揮中心強調，將針對資料登錄誤植之接種單位加強督導，並更正接種資料，以確保相關接種作業依規劃執行。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增8例COVID-19確定病例，分別為4例本土及4例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中1例為居家隔離期間或期滿檢驗陽性者)，均為男性，年齡介於30多歲至50多歲，發病日介於今(2021)年8月7日至8月8日。個案分布為臺北市2例、新北市及高雄市各1例；其中1例為已知感染源、3例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3例男性、1例女性，年齡介於40多歲至80多歲，發病日介5月29日至7月28日，確診日介於5月31日至7月29日，死亡日介於8月2日至8月8日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月7日累計公布14,576位確診個案中，已有13,096人解除隔離，解隔離人數達確診人數89.8%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於20多歲至40多歲，分別自馬來西亞(案15893至案15895)、美國(案15898)入境，入境日介於8月6日至8月7日，且皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,221,156例新型冠狀病毒肺炎相關通報(含2,204,067例排除)，其中15,790例確診，分別為1,294例境外移入，14,443本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計813例COVID-19死亡病例，其中805例本土，個案居住縣市分布為新北市401例、臺北市309例、基隆市28例、桃園市24例、彰化縣15例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月9日新增死亡COVID-19確診個案表.pdf\$\@\$8月9日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-09\$\@\$中央流行疫情指揮中心今(9)日表示，考量國內疫情趨於穩定及參酌其他國家之防疫措施調整經驗，經與相關單位溝通討論及評估後，宣布自8月10日至8月23日維持疫情警戒標準為第二級，相關規定如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程佩戴口罩。\$\@\$2. 實聯制、保持社交安全距離。\$\@\$3. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$4. 集會活動人數上限：室內50人，室外100人，若超額則提防疫計畫。\$\@\$5. 餐飲內用原則依照衛福部規定處理。\$\@\$6. 婚宴、公祭可開放：\$\@\$(1) 公祭遵守內政部相關防疫規定處理。\$\@\$(2) 婚宴遵守每一隔間室內50人、室外100人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$7. 超商由工作人員服務可販售茶葉蛋、關東煮等熱食。\$\@\$8. 符合主管機關防疫管理得開放：社區大學、樂齡學習中心、社區照顧關懷據點、親子館、桌遊場所(限一般零售交易)、游泳池、職業訓練等。\$\@\$二、仍須關閉之場所：\$\@\$1. 歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)。\$\@\$2. 遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館及其他類似場所。\$\@\$3. Ｋ書中心。\$\@\$指揮中心說明，目前國內疫情已在可控範圍，為兼顧防疫與民眾的生活品質，未來將持續觀察疫情態勢，循序漸進，適度放寬管制措施；面對病毒變異株的威脅，將持續強化邊境監測及防疫作為，阻絕病毒於境外；此外也積極提升疫苗涵蓋率，讓民眾獲得保護力。指揮中心提醒，防疫不可鬆懈，籲請民眾維持個人防疫好習慣，戴口罩、勤洗手、保持社交距離，才能降低病毒傳播風險，共同維護國內社區安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-08\$\@\$中央流行疫情指揮中心今(8)日表示，第五批採購Moderna疫苗9.96萬劑，已於臺北時間8月8日凌晨自盧森堡啟運，預定今日下午3時50分抵達桃園國際機場。\$\@\$指揮中心表示，我國與美國Moderna公司採購之疫苗，目前共有124.96萬劑到貨，分別為首批5月28日15萬劑、第二批6月18日24萬劑、第三批6月30日41萬劑、第四批7月15日35萬劑及本批9.96萬劑。今日抵臺疫苗待完成通關程序後，將直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心已於今(2021)年2月8日及7月21日與美國Moderna公司簽署COVID-19疫苗供應合約，其中605萬劑於今年供應。該疫苗為多劑型包裝(每瓶10人份)，存放於-20℃可保存至少6個月，於2-8℃之使用期限為30天，依臨床試驗結果，每人需施打2劑，2劑間隔28天以上，疫苗保護效力可達94%。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增7例COVID-19確定病例，分別為4例本土及3例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之4例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為3例男性、1例女性，年齡介於20多歲至50多歲，發病日均為今(2021)年8月6日。個案分布為臺北市2例、新北市及桃園市各1例；其中3例為已知感染源、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡介於60多歲至80多歲，發病日介5月24日至6月28日，確診日介於5月28日至6月30日，死亡日介於7月31日至8月1日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月6日累計公布14,566位確診個案中，已有13,066人解除隔離，解隔離人數達確診人數89.7%。\$\@\$指揮中心說明，今日新增3例境外移入個案，為2例男性、1例女性，年齡介於20多歲至30多歲，分別自馬來西亞(案15884)、土耳其(案15886)及美國(案15887)入境，入境日均為8月6日，且皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,208,224例新型冠狀病毒肺炎相關通報(含2,191,057例排除)，其中15,782例確診，分別為1,290例境外移入，14,439本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計809例COVID-19死亡病例，其中801例本土，個案居住縣市分布為新北市398例、臺北市309例、基隆市28例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$附件1-8月8日新增死亡COVID-19確診個案表.pdf\$\@\$附件2-8月8日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日表示，針對COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)第一線醫護工作人員，預計階段性自下週起開放該等對象接種第一劑AstraZeneca COVID-19疫苗(AZ疫苗)超過10週以上，以莫德納疫苗完成第二劑接種。\$\@\$指揮中心進一步說明，前於7月25日衛生福利部傳染病防治諮詢會預防接種組(ACIP)第5次臨時會議初步決議，指揮中心於疫苗接種實務執行作業可推動之前題下，可考量將第一劑接種AZ疫苗之第一類至第三類優先接種對象，規劃第二劑使用mRNA疫苗接種，且兩劑接種間隔至少8週，本階段考量專責醫院第一線風險人員高感染風險須儘速完成兩劑疫苗接種之必要性，優先納入實施對象。\$\@\$指揮中心指出，COVID-19專責醫療院所(包括設置專責病房或負壓隔離病房或採檢院所)已列冊第一線醫護工作人員(列冊風險第1及第2風險等級者)，完成兩劑接種比率為56.5%，尚有約3萬3千人接種第一劑AZ疫苗超過10週，而尚未接種第二劑疫苗，爰配合開放以莫德納接種，預計下週依未接種人數需求，撥配疫苗至各專責醫院，並請各專責醫院配合相關接種作業。\$\@\$指揮中心提醒，目前國外尚無AZ疫苗與莫德納疫苗交替使用之大型臨床試驗結果，依據其他疫苗交替使用之臨床試驗初步結果，第一劑接種AZ疫苗、第二劑接種mRNA疫苗者，其不良反應發生機率及嚴重度較兩劑接種同一廠牌者高，請接種單位或地方政府衛生局如接獲相關不良反應事件通報，亦請依循相關作業進行通報，以利及時掌握。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日表示，「COVID-19公費疫苗預約平台」自8月5日10時開放之Moderna疫苗預約接種，已於今日12時截止，總計約43.9萬人完成預約，佔符合預約資格人數約85%，此比例與過去三期AZ疫苗預約接種狀況相當。並將於8月11日至8月17日施打。惟為利疫苗資源有效利用，指揮中心經評估剩餘疫苗數量，增加開放「已於7月19日12時前意願登記Moderna疫苗，且為53-54歲之第九類對象」，約5.7萬人，預約接種第一劑，時程為自8月7日16時至8月9日12時止。\$\@\$指揮中心說明，上述符合增加開放預約對象資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此次增加開放對象同樣預定於8月11日至8月17日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，前次(8月5日10時至8月7日12時止)已宣布之符合預約資格對象，包含「已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一到三類及孕婦等對象，可接種第二劑」及「已於7月19日12時前意願登記Moderna疫苗，且為65歲(含)以上長者及 55歲(含)以上之第九類對象，可接種第一劑」，依原預約接種期程，已於8月7日中午12時停止預約及修改；8月7日16時至8月9日12時，僅開放上述增加開放對象進行預約。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增10例COVID-19確定病例，分別為6例本土及4例境外移入；另確診個案中新增12例死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中4例為居家隔離期間或期滿檢驗陽性者)，為1例男性、5例女性，年齡介於20多歲至80多歲，發病日介於今(2021)年7月27日至8月5日。個案分布以新北市4例為最多，其次為臺北市、桃園市各1例；其中4例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增12例死亡個案，為7例男性、5例女性，發病日介5月24日至6月20日，確診日介於5月26日至6月24日，死亡日介於7月22日至7月30日；詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月5日累計公布14,554位確診個案中，已有13,053人解除隔離，解隔離人數達確診人數89.7%。\$\@\$指揮中心說明，今日新增4例境外移入個案，為2名男性、2名女性，年齡介於30多歲至40多歲，分別自美國(案15878)、柬埔寨(案15879)、中國(案15881)、西班牙(案15883)入境，入境日介於8月4日至8月5日，在臺期間均無症狀，相關接觸者匡列中，詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計2,191,907例新型冠狀病毒肺炎相關通報(含2,174,487例排除)，其中15,775例確診，分別為1,287例境外移入(原公布之本土個案15105，疫調後改判境外移入)，14,435本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計806例COVID-19死亡病例，其中798例本土，個案居住縣市分布為新北市397例、臺北市307例、基隆市28例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月7日新增死亡COVID-19確診個案表.pdf\$\@\$8月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增12例COVID-19確定病例，分別為10例本土及2例境外移入；另確診個案中新增3例死亡。\$\@\$指揮中心表示，今日新增之10例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為5例男性、5例女性，年齡介於未滿10歲至60多歲，發病日介於今(2021)年8月4日至8月5日。個案分布以新北市4例為最多，其次為臺北市3例、嘉義縣2例、彰化縣1例；其中8例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增3例死亡個案，為2例男性、1例女性，年齡均為70多歲且未接種COVID-19疫苗，發病日介於5月18日至6月4日，確診日介於5月21日至6月6日，死亡日介於5月28日至7月21日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月4日累計公布14,543位確診個案中，已有13,018人解除隔離，解隔離人數達確診人數89.5%。\$\@\$指揮中心說明，今日新增2例境外移入個案中，案15868為美國籍20多歲男性，8月4日自美國來臺工作，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，已匡列同班機前後2排旅客共6人，均列居家隔離。案15873為英國籍30多歲男性，8月4日自英國來臺工作，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所居家檢疫並採檢，於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,170,926例新型冠狀病毒肺炎相關通報(含2,153,856例排除)，其中15,765例確診，分別為1,282例境外移入，14,430本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計794例COVID-19死亡病例，其中786例本土，個案居住縣市分布為新北市393例、臺北市300例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月6日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-05\$\@\$中央流行疫情指揮中心今(5)日說明，我國COVID-19公費疫苗接種迄今已逾800萬人次，因應部分民眾出國之疫苗接種證明需求，指揮中心建議民眾先行確認前往國家（或就讀學校、工作及參與活動等）之相關規定，採以下列方式之一取得證明文件：\$\@\$一、由 COVID-19疫苗接種院所開立之「COVID-19疫苗接種紀錄卡」，填列完整西元年、護照號碼及同護照之英文姓名。\$\@\$二、由COVID-19疫苗接種院所開立之英文版診斷證明書（註記疫苗接種紀錄）。\$\@\$三、前往國內32家旅遊醫學合約醫院（簡稱旅醫門診），將COVID-19疫苗接種紀錄登載於國際預防接種證明書（簡稱黃皮書）。\$\@\$指揮中心表示，由於目前「COVID-19疫苗接種紀錄卡」已為中英對照版本，且詳細記錄接種者資料、疫苗劑次及廠牌等資訊，如因紀錄格式必須調整，可洽原接種單位申請，亦可持身份證明文件及原接種紀錄卡逕洽鄰近之衛生所(臺北市為健康服務中心)協助開立。\$\@\$指揮中心提醒，如欲取得黃皮書，請攜帶健保卡、護照（或影本）及黃卡前往旅醫門診掛號，由醫師查詢我國「全國性預防接種資訊管理系統（VACC）」紀錄及確認後開立，倘非於國內接種疫苗者，不列入黃皮書登載。黃皮書費用依「港埠檢疫費用徵收辦法」，補證（未持有黃皮書者）為新臺幣200元；加簽（已持有黃皮書者）為新臺幣150元；至於醫院掛號費、診察費等，依各醫院規定收費。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增11例COVID-19確定病例，分別為6例本土及5例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之6例本土病例(其中2例為居家隔離期間或期滿檢驗陽性者)，為4例男性、2例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月23日至8月4日。個案分布以新北市4例為最多，其次為臺北市及桃園市各1例；其中2例為已知感染源、3例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月3日累計公布14,522位確診個案中，已有13,001人解除隔離，解隔離人數達確診人數89.5%。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於20多歲至60多歲，分別自奈及利亞(案15854)、南非(案15855)及美國(案15858、15859、15860)入境，入境日介於7月21日至8月3日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,152,917例新型冠狀病毒肺炎相關通報(含2,135,371例排除)，其中15,753例確診，分別為1,280例境外移入，14,420本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-04\$\@\$中央流行疫情指揮中心今(4)日表示，各地方政府「COVID-19疫苗施打意願登記與預約系統」自7月30日至8月6日預約施打之獲配疫苗數量，原則以兩階段方式撥配；惟考量部分縣市幅員廣大，指揮中心將部分縣市自7月30日至8月6日疫苗需求數量提前於7月28日第一批配發時，即全數或多數配送，以利其及早完成疫苗部署，而第二批配送數則為再補足未配送數。\$\@\$指揮中心進一步指出，各地方政府本期疫苗獲配疫苗數，係依據各縣市自7月30日至8月6日預約平台實際人數、已完成第一劑且間隔10週後可接種第二劑者人數，同時衡酌縣市幅員及中央庫存可供應數量，分兩階段撥配；如已於第一批配送時，即獲配全數或多數疫苗之縣市，今日撥配之該期第二批配送數，係以補足前述預約平臺實際人數及接種第二劑需求數量，並依當時可供應疫苗數量及國、高中教師及補教業者已造冊而尚未接種人數，來增配劑量予該等對象接種。\$\@\$指揮中心說明，臺東縣自7月30日至8月6日疫苗預約施打人數約2,888 人，除了於7月28日第一批即已配撥3,500劑，另因該縣國、高中教師及補教業者已造冊而未接種者約244人，故另於今日撥配300劑。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增21例COVID-19確定病例，分別為20例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之20例本土病例(其中16例為居家隔離期間或期滿檢驗陽性者)，為9例男性、11例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月24日至8月3日。個案分布以新北市14例最多，其次為臺北市5例、桃園市1例；其中16例為已知感染源、4例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月2日累計公布14,503位確診個案中，已有12,957人解除隔離，解隔離人數達確診人數89.3%。\$\@\$指揮中心表示，今日新增1例境外移入個案(案15850)，為日本籍10多歲女性，8月2日自日本來臺就學，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計2,128,419例新型冠狀病毒肺炎相關通報(含2,111,269例排除)，其中15,742例確診，分別為1,275例境外移入，14,414本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；無新增空號病例，累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日表示，「COVID-19疫苗施打意願登記與預約系統」預約7月30日至8月6日施打各地方政府所需AstraZeneca COVID-19疫苗數量，已於7月28日配送第一批24.31萬劑，預計於明(4)日再配送52.57萬劑，總計76.88萬劑。\$\@\$指揮中心說明，考量開學在即，為確保校園防疫安全，8月4日配送數量除依據此期施打需求數配送，並依據各縣市還未接種的國、高中教師及補教業者人數增配所需疫苗，請地方政府衛生局確實依據預約平臺已預約人數撥配疫苗，其餘數量亦請確實提供國、高中教師、補教業者及已接種第一劑疫苗且間隔滿10週者(不限年齡)接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日表示，「COVID-19疫苗施打意願登記與預約系統」( https://1922.gov.tw/ )將自8月5日上午10時至8月7日中午12時止開放預約接種，此期可接種疫苗為Moderna疫苗，符合預約接種資格對象如下，預估人數約51.9萬：\$\@\$一、已接種第一劑Moderna疫苗，且至8月11日(含)前已間隔滿28天之第一到三類及孕婦等對象，可接種第二劑(約6.8萬人)。\$\@\$二、已於7月19日12時前意願登記Moderna疫苗，且為65歲(含)以上長者及 55歲(含)以上之第九類對象，可接種第一劑(45.1萬人)。\$\@\$指揮中心說明，上述符合預約接種資格者，即得於開放預約期間進行預約，亦將於開放預約後，陸續收到提醒簡訊，請記得進行預約。此期預約接種預定於8月11日至8月17日施打，並視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增19例COVID-19確定病例，分別為16例本土及3例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中10例為居家隔離期間或期滿檢驗陽性者)，為9例男性、7例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月26日至8月2日。個案分布以新北市10例為最多，其次為臺北市4例、嘉義縣2例；其中13例為已知感染源、2例關聯不明，1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案7320為70多歲女性，有慢性病史及其他確診個案接觸史，5月27日安排接觸者採檢，檢驗結果陽性並收治住院，5月28日確診，6月24日解除隔離，7月31日死亡。案14258為80多歲男性，有慢性病史，個案於6月10日因其他原因住院，因同病房有其他病患確診，安排隔離並於6月21日接觸者採檢，6月23日確診，7月28日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至8月1日累計公布14,489位確診個案中，已有12,929人解除隔離，解隔離人數達確診人數89.2%。\$\@\$指揮中心表示，今日新增3境外移入個案，均為男性，年齡介於30多歲至60多歲，分別自菲律賓、馬來西亞、俄羅斯入境，入境日介於7月16日至8月1日，詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計2,101,038例新型冠狀病毒肺炎相關通報(含2,083,962例排除)，其中15,721例確診，分別為1,274例境外移入，14,394本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計791例COVID-19死亡病例，其中783例本土，個案居住縣市分布為新北市393例、臺北市297例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、臺南市、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$8月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-02\$\@\$疾病管制署今(2)日表示，適逢一年一度的七夕情人節，與伴侶共度浪漫時光，除落實防疫新生活及個人防護措施，也不忘互相提醒為「愛」篩檢，即日起「愛滋自我篩檢 網路訂購超商取貨 期間限定免運費活動」開跑，至8月底止，只要支付200元，訂購愛滋自我篩檢試劑皆可免運費，互相提醒為「愛」篩檢，共同守護彼此的健康。\$\@\$疾管署說明，為鼓勵民眾瞭解自身健康狀況，疾管署持續辦理「愛滋自我篩檢計畫」，今(110)年透過計畫已提供2萬1,000多人次篩檢服務，民眾上網登錄檢驗結果陽性率為0.4%，計畫受到廣大迴響，其中網路訂購超商取貨為民眾喜愛通路之一，超過6成民眾使用。民眾可上網預訂，透過鄰近超商通路，支付200元試劑費及45元物流費取得自我篩檢試劑，為鼓勵民眾進行篩檢，疾管署於8月份推出「自我篩檢 網路訂購超商取貨 期間限定免運費活動」，民眾僅需支付試劑費用即可獲得篩檢試劑，寄送試劑的外包裝不會有任何標示內容物和寄送廠商名稱，充分保障隱私；此外，也可前往合作民間團體、衛生局(所)等403個實體服務點，或利用41臺自動服務機，支付200元費用後直接取得篩檢試劑，相關服務內容及試劑提供地點資訊可至疾管署自我篩檢計畫網頁(https://hiva.cdc.gov.tw/Selftest/)查詢。\$\@\$疾管署表示，民眾檢驗結果無論為陽性或陰性，均可依包裝指示上傳「試劑編號」照片、登錄檢驗結果及註冊會員(匿名)，將核發免費試劑電子兌換券1張，該兌換券可自用或轉贈親友使用。另，若初步檢驗呈陽性，無須過度驚慌，請儘速至愛滋指定醫事機構進一步確認檢驗，疾管署補助當次就醫掛號費及部分負擔，此外，衛生局及相關民間團體也提供篩檢諮詢及篩檢陽性個案轉介或陪伴就醫等服務，如有需求可多加利用。\$\@\$疾管署提醒，交友時應慎選交往對象、避免多重性伴侶及使用毒品，若發生性行為應主動要求對方或自己全程使用保險套，並搭配水性潤滑液。疾管署再次呼籲，有性行為者，建議至少進行1次愛滋篩檢，有不安全性行為者，建議每年至少進行1次篩檢，若有感染風險行為(如與人共用針具、多重性伴侶、合併使用成癮性藥物、感染性病等)，建議每3至6個月篩檢1次，以了解自身健康狀況。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增14例COVID-19確定病例，分別為12例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為10例男性、2例女性，年齡介於10多歲至70多歲，發病日介於今(2021)年7月29日至7月31日。個案分布以桃園市5例為最多，其次為新北市3例、臺北市2例、基隆市及高雄市各1例。；其中9例為已知感染源、3例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月31日累計公布14,475位確診個案中，已有12,884人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案15805為本國籍60多歲男性，7月18日自泰國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，7月31日檢疫期滿前採檢，於今日確診；由於個案在臺期間並無症狀，且檢疫期間未與他人接觸，故無匡列接觸者。案15806為本國籍30多歲女性，7月30日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，於今日確診；已匡列個案同班機前後2排座位旅客共16人，皆列居家隔離。\$\@\$指揮中心統計，截至目前國內累計2,078,019例新型冠狀病毒肺炎相關通報(含2,060,458例排除)，其中15,702例確診，分別為1,271例境外移入，14,378本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計789例COVID-19死亡病例，其中781例本土，個案居住縣市分布為新北市393例、臺北市296例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今(1)日表示，為使COVID-19公費疫苗預約平臺運作更為順利，並加速推動疫苗接種作業，該中心於昨(31)日召開「COVID-19疫苗預約平臺討論會議」，就具數位落差之長者、需集體接種、本國籍無健保卡及需經醫療院所現場評估之對象等議題，進行預約平臺及接種實務執行的討論，決議如下：\$\@\$一、對於透過鄰里長協助登記或預約之長者，及需集體安排接種之對象，例如機構對象接種及未來校園接種，將於系統內規劃可批次預約之功能。\$\@\$二、本國籍無健保卡號者，規劃可以身分證號及戶號進行意願登記。\$\@\$三、針對需經由醫療院所現場評估的對象，包含孕婦、因公出國者/因緊急需求須出國者、第一劑接種後嚴重不良反應需以不同廠牌接種者，規劃將請地方政府指定合約醫療院所，民眾可至指定院所經檢核相關資料後列冊接種。\$\@\$指揮中心說明，針對上述會議決議，該中心將朝此方向進行規劃，並與地方政府持續溝通可行性，確保民眾的接種權益。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今（1）日表示，「COVID-19疫苗施打意願登記與預約系統」(https://1922.gov.tw/)已於7月27日重新開放意願登記，並於 7月28日增加開放第二劑接種Moderna COVID-19疫苗者進行登記，此次意願登記結算將於8月3日中午12時截止，提醒已接種第一劑Moderna疫苗之第一到三類對象及孕婦儘速意願登記第二劑，保障自身權益。\$\@\$指揮中心說明，為使平台運作更為順暢，調整目前意願登記結算時間至8月3日中午12時截止，另預約期程預定自8月5日上午10時至8月7日中午12時止，預計提供已接種第一劑Moderna之第一到三類對象及孕婦，且至8月11日前已間隔滿28天者接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-08-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增14例COVID-19確定病例，分別為12例本土及2例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為7例男性、5例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月23日至7月31日。個案分布以新北市6例為最多，其次為臺北市4例、桃園市及臺中市各1例；其中8例為已知感染源、1例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案13058為70多歲男性，有慢性病史，無相關活動接觸史，6月12日無症狀篩檢陽性後至檢疫所隔離，6月14日確診，同日出現呼吸困難等症狀，6月15日住院，7月29日死亡。案15732為60多歲男性，有慢性病史及其他確診者接觸史，7月27日採檢，7月28日檢驗陽性收治住院，7月29日確診，7月30日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月30日累計公布14,463位確診個案中，已有12,879人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增2例境外移入個案中，案15786為本國籍40多歲男性，7月10日自印度返臺，持有搭機前3日內檢驗陰性報告，入境後至檢疫所集中檢疫，入境及檢疫期滿採檢結果均為陰性，個案因出境需求，7月31日自費採檢，於今日確診。個案在臺期間並無症狀，已匡列接觸者23人，均列居家隔離並安排採檢。案15794為本國籍30多歲男性，7月21日自墨西哥返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，當日檢驗結果為陰性，個案7月28日出現頭痛等症狀，31日安排至醫院採檢，於今日確診。\$\@\$指揮中心統計，截至目前國內累計2,063,516例新型冠狀病毒肺炎相關通報(含2,046,258例排除)，其中15,688例確診，分別為1,269例境外移入，14,366本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計789例COVID-19死亡病例，其中781例本土，個案居住縣市分布為新北市393例、臺北市296例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增12例COVID-19確定病例，分別為11例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之11例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為5例男性、6例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月23日至7月30日。個案分布以新北市6例為最多，其次為臺北市4例、嘉義縣1例；其中7例為已知感染源、2例關聯不明、2例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月29日累計公布14,438位確診個案中，已有12,856人解除隔離，解隔離人數達確診人數89.0%。\$\@\$指揮中心表示，今日新增1例境外移入(案15780)，為泰國籍50多歲男性船員，今年1月自泰國登船工作，該船航行期間行經俄羅斯及印尼等國並於7月25日抵臺靠港，7月30日衛生單位登船檢疫發現個案有發燒症狀即送醫採檢，於今日確診；已匡列接觸者64人，其中43人列自主健康管理，餘21人為同船人員，目前未入境，持續於船上隔離。\$\@\$指揮中心統計，截至目前國內累計2,043,204例新型冠狀病毒肺炎相關通報(含2,026,126例排除)，其中15,674例確診，分別為1,267例境外移入，14,354本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-31\$\@\$中央流行疫情指揮中心今(31)日表示，立陶宛政府於6月22日宣布捐贈我國2萬劑AstraZeneca疫苗，經立陶宛衛生部與我國駐拉脫維亞代表處之通力合作安排，業於7月31日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封縅作業，提供COVID-19接種計畫所列實施對象進行接種。\$\@\$指揮中心說明，值此全球疫苗供不應求且疫情艱難時刻，立陶宛伸出援手提供這批COVID-19疫苗，給予國内疫情防治極大幫助，指揮中心謹向立陶宛政府與人民至上誠摯謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增25例COVID-19確定病例，分別為21例本土及4例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之21例本土病例(其中8例為居家隔離期間或期滿檢驗陽性者)，為14例男性、7例女性，年齡介於未滿10歲至80多歲，發病日介於今(2021)年7月24日至7月28日。個案分布以嘉義縣9例為最多，其次為臺北市7例、新北市4例、高雄市1例；其中18例為已知感染源、2例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月28日累計公布14,420位確診個案中，已有12,817人解除隔離，解隔離人數達確診人數88.9%。\$\@\$指揮中心表示，今日新增4例境外移入中，案15752為美國籍20多歲女性，7月28日自美國來臺工作，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，相關接觸者匡列中。案15753為本國籍未滿10歲男童，7月28日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至集中檢疫所居家檢疫，同日出現咳嗽有痰症狀，於今日確診；已匡列接觸者23人，其中11人為同行者及同班機前後兩排旅客，列居家隔離，餘12人為同班機機組員，列自我健康監測。案15754為本國籍40多歲女性，7月1日自菲律賓返臺，持有搭機前3日內檢驗陰性報告，入境後至集中檢疫所居家檢疫，7月13日檢疫期滿前採檢結果為陰性，7月16日檢疫期滿後返家自主健康管理至7月22日，期間並無外出，7月28日由公司安排採檢，於今日確診(Ct值39)；個案在臺期間並無症狀，已匡列接觸者2人，列居家隔離。案15768為本國籍50多歲男性，今年5月前往印尼工作，6月28日出現發燒症狀，7月4日於印尼當地確診，並於7月9日住院治療，7月29日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；因個案返臺至後送就醫期間之相關人員均有適當防護，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計2,021,090例新型冠狀病毒肺炎相關通報(含2,004,528例排除)，其中15,662例確診，分別為1,266例境外移入，14,343本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-29\$\@\$中央流行疫情指揮中心今(29)日表示，各地方政府所需疫苗數量，係依目標族群人數進行規劃及配送，由於部分縣市已先接種非現階段規劃施打對象，而造成部分地方政府在此一階段疫苗接種未能配合民眾預約數，而需調整接種場次的時間。呼籲各地方政府依計畫順序進行施打，確保已預約民眾的施打權益。\$\@\$指揮中心表示，在不影響已預約民眾接種、且確保大眾施打權益為原則，已請地方政府依計畫順序進行施打。指揮中心也將於下批次疫苗撥配時，視各縣市預約及施打情形適時調配疫苗配送量，籲請各地方政府衛生局依實際疫苗庫存與配送量，妥善規劃及安排轄內接種作業與場次。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增18例COVID-19確定病例，分別為16例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中14例為居家隔離期間或期滿檢驗陽性者)，為13例男性、3例女性，年齡介於20多歲至60多歲，發病日介於今(2021)年7月25日至7月28日。個案分布以新北市7例為最多，其次為臺北市5例、高雄市2例、桃園市及嘉義市各1例；其中14例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月27日累計公布14,400位確診個案中，已有12,801人解除隔離，解隔離人數達確診人數88.9%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15738為本國籍30多歲男性，7月27日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；個案在臺期間並無症狀，已匡列同班機前後兩排旅客共15人，列居家隔離。案15745為本國籍70多歲男性，長期居住柬埔寨，7月9日出現發燒及呼吸困難症狀，當日就醫檢查發現有肺炎情形，7月19日於柬埔寨當地住院治療， 7月28日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,998,284例新型冠狀病毒肺炎相關通報(含1,981,309例排除)，其中15,637例確診，分別為1,262例境外移入，14,322例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-28\$\@\$中央流行疫情指揮中心今(28)日表示，「COVID-19疫苗施打意願登記與預約系統」自昨(7/27)日14時起開放意願登記，請18歲(含)以上尚未意願登記民眾把握機會，儘速完成登記，保障自身權益。\$\@\$指揮中心說明，此次開放意願登記，除昨日新增高端疫苗供20歲(含)以上民眾選擇外，亦增加開放第一劑接種Moderna COVID-19疫苗者，進行第二劑Moderna COVID-19疫苗意願登記。第一到三類對象及孕婦第一劑接種Moderna COVID-19疫苗者須間隔28天、其他類第一劑接種Moderna COVID-19疫苗者須間隔10-12週，才符合第二劑預約接種資格。\$\@\$指揮中心表示，目前尚未開放民眾混打疫苗，針對第一劑接種AstraZeneca(AZ)疫苗且已間隔10-12週者，可至平臺進行第二劑AZ疫苗之意願登記。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」( https://1922.gov.tw/）開放意願登記時，先進行意願登記，後續符合預約資格者才可進行下一步預約接種。系統平台會按疫苗分配情形、參照民眾登記之意願，提供符合預約資格者進行預約接種，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增20例COVID-19確定病例，分別為18例本土及2例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中12例為居家隔離期間或期滿檢驗陽性者)，為14例男性、4例女性，年齡介於未滿10歲至90多歲，發病日介於今(2021)年7月12日至7月27日。個案分布以新北市8例為最多，其次為臺北市6例、桃園市3例、高雄市1例；其中16例為已知感染源、2例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月26日累計公布14,383位確診個案中，已有12,686人解除隔離，解隔離人數達確診人數88.2%。\$\@\$指揮中心表示，今日新增2例境外移入中，案15726為本國籍60多歲男性，長期在印尼工作，7月14日出現呼吸喘及嗅味覺異常症狀，7月16日於印尼當地就醫診斷為肺炎，7月17日確診，7月27日搭乘國際緊急醫療專機返臺，入境後即收治住院隔離及採檢，並於今日確診；因個案返臺至後送就醫期間之相關人員均有適當防護，故無匡列接觸者。案15727為本國籍30多歲女性，7月26日自美國返臺，持有搭機前3日內檢驗陰性報告，於機場採檢後至防疫旅館居家檢疫，並於今日確診；已匡列專車司機1人，因有適當防護，列自我健康監測，其餘航空器接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,975,087例新型冠狀病毒肺炎相關通報(含1,958,568例排除)，其中15,619例確診，分別為1,260例境外移入，14,306例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心表示，今(27)日上午與各縣市政府召開的「全國防疫會議」，決議如下：\$\@\$一、國內疫情現況及評估\$\@\$1.國內疫情持續趨緩，Rt值維持在低點，今(27)日開始全國疫情降為二級警戒，相關社區管制措施將陸續鬆綁，請各地方政府密切注意鬆綁措施之後續效應。另請各地方政府衛政機關持續強化病患收治轉送及醫療照護體系量能之整備，以因應未來可能發生變異株疫情。\$\@\$2.目前新增本土病例仍以雙北為多，且存有零星感染源待釐清個案及群聚事件，顯示社區存有隱性傳播鏈，請臺北市及新北市政府持續須留意疫情警戒降級後，人流回升及民眾社交活動增加對疫情之影響，及早因應。另目前除雙北外，各縣市疫情均調降為中或低等級，請雙北市持續就疫情防疫作為加強疫調與匡列作業。\$\@\$二、針對疫調輔助平臺帳號申請，如各地方政府基於疫調需求，可依規定向指揮中心申請；另為利地方政府在遵守個人隱私保護和資安防護前提下，協助疫調作業，指揮中心提醒地方政府，對於下載、存取簡訊實聯制資料，僅限於疫調使用，並須於28天內刪除相關資料；對於資料之調取，使用人員的帳號、調取資料的時間與內容，應有詳實記錄，俾利後續開放使用紀錄之查詢。\$\@\$三、有關「國家關鍵基礎設施及高風險接種人員等專案對象」疫苗施打作業，指揮中心已請各專案對象的業管部會與地方政府相關局處確實聯繫，向地方政府衛生機關說明專案執行內涵，俾確實依權管部會規劃方式落實執行；另請各地方政府間建立橫向聯繫體系，充分合作，讓疫苗接種作業順利進行。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日表示，「COVID-19疫苗施打意願登記與預約系統」將自今(27)日14時起重新開放意願登記，請18歲(含)以上尚未意願登記民眾把握機會，儘速完成登記，保障自身權益；另此次開放，將新增接種高端疫苗選項，供20歲以上民眾選擇。\$\@\$指揮中心說明，此次重新開放意願登記，除新增高端疫苗供20歲以上民眾選擇外，另也可讓民眾再調整有意願接種的疫苗，惟優先處理於7月19日12時前已意願登記者，再接續處理。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」完成意願登記，後續才會收到預約簡訊提醒。系統平台會按疫苗分配情形、參照民眾登記之意願，簡訊提醒符合預約資格的民眾，收到簡訊提醒者記得進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日表示，AstraZeneca疫苗約58.2萬劑，預定今日下午3時40分抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，先前已到貨3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑，本次提供第四批疫苗，截至目前總計約188.5萬劑到貨。本次提供之疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，依臨床試驗每人需施打2劑，本批效期至110年11月30日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增17例COVID-19確定病例，分別為16例本土及1例境外移入；另確診個案中新增1例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中7例為居家隔離期間或期滿檢驗陽性者)，為11例男性、5例女性，年齡介於30多歲至60多歲，發病日介於今(2021)年7月14日至7月26日。個案分布以桃園市6例為多，其次為臺北市5例、新北市4例、新竹縣1例；其中11例為已知感染源、4例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增1例死亡個案(案8354)，為70多歲男性，有慢性病史，無相關活動接觸史，5月28日出現呼吸困難等症狀，5月29日就醫採檢並收治住院，5月31日確診，7月24日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月25日累計公布14,372位確診個案中，已有12,664人解除隔離，解隔離人數達確診人數88.1%。\$\@\$指揮中心表示，今日新增1例境外移入(案15697)，為本國籍10多歲男性，7月25日自美國返臺，持搭機前3日內檢驗陰性報告，入境時無症狀，於機場採檢後至防疫旅館居家檢疫，7月26日出現發燒症狀，於今日確診；已匡列同班機前後2排旅客共6人，列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,948,640例新型冠狀病毒肺炎相關通報(含1,932,430例排除)，其中15,599例確診，分別為1,258例境外移入，14,288例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計787例COVID-19死亡病例，其中779例本土，個案居住縣市分布為新北市392例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$中央流行疫情指揮中心今(26)日表示，「COVID-19疫苗施打意願登記與預約系統」第四輪預計自7月30日起開打。自7月27日上午10時起，1983年12月31日(含)以前出生之民眾、宜蘭縣/基隆市因受颱風影響取消預約者、以及第三輪已收過簡訊但尚未完成預約者共約144萬人，將陸續收到預約簡訊，預約接種期程至7月29日中午12時截止；本輪可接種疫苗為AstraZeneca COVID-19疫苗，施打期間預計自7月30日至8月6日止，並視疫苗供應期程調整接種場次，籲請民眾準時前往接種。\$\@\$指揮中心再次提醒，請民眾於「COVID-19疫苗施打意願登記與預約系統」開放意願登記時，先進行意願登記，後續才會收到預約簡訊通知。系統平臺會按疫苗分配情形、參照民眾登記之意願，通知符合預約資格的民眾，收到簡訊通知者才可進行下一步預約接種。尚未收到簡訊的民眾，會於後續符合預約資格後，收到簡訊通知，所有資料皆會完整保存，請民眾放心。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增11例COVID-19確定病例，分別為10例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之10例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為7例男性、3例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月19日至7月25日。個案分布以臺北市4例為多，其次為新北市及桃園市各3例；其中8例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月24日累計公布14,359位確診個案中，已有12,603人解除隔離，解隔離人數達確診人數87.8%。\$\@\$指揮中心表示，今日新增1例境外移入(案15688)，為本國籍50多歲男性，6月22日登船出海作業，該船於7月20日抵臺靠港並進行全員採檢，個案檢驗結果為陰性，但因同船人員確診(案15576至案15581)，由衛生單位安排至集中檢疫所隔離，7月25日出現喉嚨癢症狀，經衛生單位採檢後，於今日確診；個案隔離期間無接觸他人，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,924,661例新型冠狀病毒肺炎相關通報(含1,907,614例排除)，其中15,582例確診，分別為1,257例境外移入，14,272例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-26\$\@\$國內COVID-19疫情降級不鬆懈，中央流行疫情指揮中心今(26)日表示，自今(2021)年7月27日起調降國內疫情警戒標準至第二級，惟考量全球COVID-19疫情回升、Delta變異株持續傳播，為避免境外移入病例增加我國檢疫防疫量能及醫療資源的負擔，將持續執行「邊境嚴管」措施，包括：\$\@\$(一)未持有我國有效居留證之非本國籍人士，暫緩入境。緊急或人道考量等經專案許可者除外。\$\@\$(二)暫停旅客來臺轉機。指揮中心亦將視國內外疫情及社區防疫執行狀況，適時滾動調整。\$\@\$指揮中心強調，因應全球Delta變異株流行，持續執行邊境管制為防範COVID-19疫情之重要關鍵，落實全民共同抗疫，將疫情阻絕於境外，以守護國人健康安居的環境。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-25\$\@\$中央流行疫情指揮中心今(25)日說明，國內疫情近期趨緩，並將自110年7月27日後降級、部分項目解封，若在汽車旅館及相關旅宿群聚開趴或歡唱，提高疫情傳染風險，將由各主管機關依情節輕重，分別依「發展觀光條例」、「毒品危害防制條例」裁罰；最重者將視為「損害國家利益、妨害善良風俗」，由地方主管機關依發展觀光條例「定期停止其營業之一部或全部，或廢止其營業執照或登記證」裁處。\$\@\$中央流行疫情指揮中心表示，汽車旅館及相關旅宿違反限制規定且未通報時，將依情節輕重，可裁罰的相關法規依據如下：\$\@\$一、依發展觀光條例裁處\$\@\$旅宿業有損害國家利益、妨害善良風俗等行為者，依發展觀光條例第53條規定裁處新臺幣3-15萬元罰鍰；情節重大者，定期停止其營業之一部或全部，或廢止其營業執照或登記證。經受停止營業一部或全部之處分，仍繼續營業者，廢止其營業執照或登記證。觀光旅館業、旅館業之受僱人員如有前述行為，則處新臺幣1-5萬元罰鍰。旅宿業若違反觀光旅館業管理規則或旅館業管理規則所定相關通報義務，由主管機關依發展觀光條例第55條第3項規定裁處1-5萬元罰鍰。\$\@\$二、依毒品危害防制條例裁處\$\@\$依「毒品危害防制條例」查獲有人在內施用或持有毒品（開毒趴）之場所，該場所將依「特定營業場所執行毒品防制措施辦法」自查獲之翌日起列為特定營業場所；依毒品危害防制條例第31-1條，指定的業者有通報義務，特定營業場所人員知悉有人在內施用或持有毒品，未通報警察機關處理者，除依該條例罰鍰，其情節重大者，該管目的事業主管機關得令其停止營業6個月以上1年6個月以下或勒令歇業。\$\@\$中央流行疫情指揮中心呼籲，所有旅宿業者均應遵守前述相關法規，避免住客群聚，以降低傳染風險。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增13例COVID-19確定病例，分別為12例本土及1例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增之12例本土病例(其中5例為居家隔離期間或期滿檢驗陽性者)，為6例男性、6例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月23日至7月24日。個案分布以臺北市7例為最多，其次為新北市5例；其中10例為已知感染源、1例關聯不明、1例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月23日累計公布14,336位確診個案中，已有12,555人解除隔離，解隔離人數達確診人數87.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案15673)，為本國籍60多歲女性，7月11日自緬甸返臺，入境後至防疫旅館居家檢疫，7月14日因同行者(案15408)確診，被改列為居家隔離對象且持續於防疫旅館隔離，7月23日隔離期滿前採檢，於今日確診(Ct值35)；個案在臺期間並無症狀，且檢疫與隔離期間未與他人接觸，故無匡列接觸者。\$\@\$指揮中心統計，截至目前國內累計1,911,604例新型冠狀病毒肺炎相關通報(含1,895,377例排除)，其中15,571例確診，分別為1,256例境外移入，14,262例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計108例移除為空號。2020年起累計786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日表示，為鼓勵合約醫療院所協助辦理COVID-19疫苗大規模接種作業，除每劑次補助100元接種處置費外，配合提供民眾免費疫苗接種服務，調整「COVID-19疫苗合約醫療院所免費提供民眾接種服務獎勵措施」獎勵措施項目如下：\$\@\$1. 醫療院所提供民眾免費COVID-19疫苗接種服務，並配合接種政策相關事項，由按接種人次提供40元/人次，調整為按接種人次提供100元/人次。\$\@\$2. 醫療院所達每月目標接種人次提供接種獎勵，增列診所接種人次達500人次/月，提供1.5萬元，另維持診所接種人次達1,000人次/月，提供3萬元、地區醫院接種人次達4,000人次/月，提供8萬元、區域醫院及醫學中心接種人次達6,000人次/月，提供10萬元。獎勵以每月結算方式提供。\$\@\$3. 醫療院所達每月目標接種人次再加給績效獎勵：維持診所接種人次達1,600人次/月，加給3萬元、地區醫院接種人次達6,400人次/月，加給8萬元、區域醫院及醫學中心接種人次達10,000人次/月，加給10萬元。獎勵以每月結算方式提供。\$\@\$4. 醫療院所表現優良者，一次性獎勵維持診所上限5萬元，地區、區域醫院及醫學中心上限30萬元。\$\@\$指揮中心於今(2021)年6月7日請合約醫療院所免費提供民眾接種服務，不向民眾收取掛號費，並提供相關獎勵措施；本次獎勵措施調整主要提高每接種人次之獎勵額度及增加一項診所之獎勵級距，針對此調整之溯及起算日期認定如下：\$\@\$1. 自地方政府衛生局與合約醫療院所於更換合約書內容日起算。\$\@\$2. 衛生單位因實務作業，如以協議方式與合約醫療院所協定變更合約，則以地方政府衛生局與已簽約之各醫療院所協定變更合約，補充免費提供民眾接種服務內容之協議日期起算。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增25例COVID-19確定病例，分別為24例本土及1例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之24例本土病例(其中12例為居家隔離期間或期滿檢驗陽性者)，為19例男性、5例女性，年齡介於未滿5歲至60多歲，發病日介於今(2021)年7月19日至7月23日。個案分布以新北市9例為最多，其次為臺北市7例、桃園市3例、彰化縣2例，臺中市、苗栗縣及基隆市各1例；其中17例為已知感染源， 4例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案8642為70多歲男性，具慢性病史，無相關接觸史，5月30日出現咳嗽、呼吸喘等症狀，同日採檢陽性後收治住院，於6月1日確診，7月20日死亡。案13781為70多歲男性，有慢性病及其他個案接觸史，6月16日採檢陽性，17日收治住院，18日確診。7月22日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月22日累計公布14,312位確診個案中，已有12,543人解除隔離，解隔離人數達確診人數87.6%。\$\@\$指揮中心表示，今日新增1例境外移入(案15660)，為本國籍20多歲男性，6月26日曾於西班牙快篩陽性，7月22日自西班牙入境，持有搭機前3日內檢驗陰性證明，入境時並無症狀，於機場採檢後至防疫旅館居家檢疫，於今日確診，同班機前後二排旅客匡列中。\$\@\$指揮中心統計，截至目前國內累計1,894,957例新型冠狀病毒肺炎相關通報(含1,878,146例排除)，其中15,558例確診，分別為1,255例境外移入，14,250例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另新增2例空號病例(案9508、案15608)，累計108例移除為空號。2020年起累計 786例COVID-19死亡病例，其中778例本土，個案居住縣市分布為新北市391例、臺北市295例、基隆市27例、桃園市24例、彰化縣14例、新竹縣11例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-24\$\@\$中央流行疫情指揮中心今(24)日表示，為因應將來降級解封及協助精準疫調，指揮中心已建置完成「疫調輔助平臺」，預計於今(110)年7月26日上線，提供熱區地圖、疫調軌跡、簡訊實聯制疫調查詢等功能之整合平臺，嚴格限制提供各地方政府有權進行疫調之人員登入使用，以協助地方政府疫調人員能更便捷進行疫調工作。\$\@\$指揮中心指出，我國COVID-19疫情進入社區感染階段後，全國疫情警戒也提升至第三級，各地方政府疫調作業均須處理大量資訊，有賴以科技方式整合各項資料來源，協助精準疫調，降低人工成本，提升效率。\$\@\$指揮中心說明，為協助疫調人員作業所需資料之整合研判和分析，「疫調輔助平臺」提供直覺式的操作，簡易介面便於疫調人員使用，並以圖形化及動態方式提供查詢確診者活動軌跡功能。另為利地方政府掌握確診者跨縣市流動情形，也提供各地方政府可進行跨區調閱；此外也經由分析確診者足跡，產出區域的軌跡熱力圖，提供可能群聚之足跡分布、潛在感染源分析及多確診者足跡分析等資訊，並以動態方式呈現，以利疫調人員觀察熱區趨勢；此外也整合簡訊實聯制資料，在以疫調為前提下，提供第一線疫調人員以電話或場所代碼進行疫調資訊之查詢及參考，以達到快速掌握可能影響範圍，降低疫情擴散。\$\@\$指揮中心強調，「疫調輔助平臺」嚴格限制提供各地方政府有權進行疫調之人員登入使用，簡訊實聯制資料僅能調取28天內的資料，同時在資料的調取上，均詳實記載帳號使用人員、使用時間及內容，並將於日後開放使用紀錄之查詢，在隱私保護和資安防護的前提下，協助疫調作業。\$\@\$指揮中心再次呼籲，全球COVID-19疫情仍持續發展中，該中心正積極推動各種科技防疫措施，協助各地疫調人員快速掌握疫情資訊，也請全國民眾於疫情期間配合政府防疫措施，共同為國內防疫安全努力。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日表示，接種AstraZeneca及Moderna COVID-19疫苗及之民眾，符合第二劑接種時程者，皆可至各縣市COVID-19疫苗合約醫療院所公費接種第二劑。\$\@\$指揮中心指出，AstraZeneca及Moderna COVID-19疫苗目前第二劑接種間隔為10至12週。惟第一到三類對象及孕婦，Moderna COVID-19疫苗接種第一劑後滿28天，即可接種第二劑，前述對象請至各地方政府衛生局規劃提供接種服務之合約醫療院所，透過一般合約醫療院所提供之預約掛號管道接種第二劑疫苗。對於民眾有出國急迫性須提前接種者，請提出相關證明文件(如機票等)，接種單位可酌情提供接種，並請地方政府衛生局及合約醫療院所共同協助該等對象完成接種。(若為COVID-19疫苗預約平台之預約接種對象，第二劑接種間隔為10週，請依簡訊通知進行預約接種。)\$\@\$指揮中心提醒，民眾前往接種COVID-19第二劑疫苗前，請備妥「COVID-19疫苗接種紀錄卡」及「健保卡」，若「COVID-19疫苗接種紀錄卡」已遺失，民眾可返回第一劑接種之醫療院所補發，再完成第二劑接種。於接種前，接種單位需核對民眾身分資料、主動詢問民眾疫苗接種史，檢視民眾COVID-19疫苗接種紀錄卡紀錄及健保卡註記貼紙資料，如均無相關接種證明或資訊者，除可使用網路連線全國性預防接種資訊管理系統(NIIS)查詢子系統查詢疫苗接種史，合約醫療院所亦可透過雲端藥歷系統等連結查詢，以確認疫苗接種間隔及廠牌是否符合規範。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日表示，考量國內疫情及參酌其他國家之防疫調整經驗，並經與各地方政府進行溝通討論後，指揮中心自7月27日至8月9日調降疫情警戒標準至第二級，各部會得依指揮中心所發布之通案性原則另訂指引，而各地方政府亦得在此原則下，視疫情需要而有調整空間，惟相關指引必須規範明確以利民眾遵循。說明如下：\$\@\$一、通案性原則：\$\@\$1. 除飲食外，外出全程配戴口罩。\$\@\$2. 確實執行實聯制登記措施。\$\@\$3. 保持社交安全距離。\$\@\$4. 營業場所及公共場域人流控管或總量管制：室內空間至少1.5米/人(2.25平方米/人)，室外空間至少1米/人(1平方米/人)。\$\@\$5. 集會活動人數上限：室內50人，室外100人，若超額則提防疫計畫。\$\@\$6. 餐飲內用原則依照衛福部規定處理。\$\@\$二、婚宴、公祭可開放：\$\@\$1. 公祭遵守內政部相關防疫規定處理。\$\@\$2. 婚宴遵守每一隔間室內50人、室外100人上限，並遵守餐飲指引不得逐桌敬酒。\$\@\$三、仍須關閉之場所：\$\@\$1. 休閒娛樂場所：歌廳、舞廳、夜總會、俱樂部、酒家、酒吧、酒店(廊)、錄影節目帶播映場所(MTV)、視聽歌唱場所(KTV)、理容院(觀光理髮、視聽理容)、遊藝場所、電子遊戲場、資訊休閒場所、休閒麻將館、桌遊場所及其他類似場所。\$\@\$2. 教育學習等場域：社區大學(開放受理秋季班報名，實體課程不開放)、樂齡學習中心、K書中心、游泳池等其他類似場所。\$\@\$指揮中心表示，在國人共同努力配合下，國內疫情持續穩定控制中，為兼顧防疫與民眾的生活品質，逐步調降防疫管制措施。指揮中心提醒，防疫仍需全體國民持續共同努力，請民眾持續配合防疫規範，及維持個人防疫好習慣，戴口罩、勤洗手、保持社交距離，才能降低病毒傳播風險，守護彼此的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增24例COVID-19確定病例，分別為23例本土及1例境外移入；另確診個案中新增2例死亡。\$\@\$指揮中心表示，今日新增之23例本土病例(其中11例為居家隔離期間或期滿檢驗陽性者)，為19例男性、4例女性，年齡介於20多歲至50多歲，發病日介於今(2021)年7月10日至7月22日。個案分布以新北市13例為最多，其次為臺北市及桃園市各4例、宜蘭縣及高雄市各1例；其中18例為已知感染源，餘5例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增2例死亡個案中，案7734為80多歲女性，具慢性病史及其他確診者接觸史；5月26日因出現發燒、咳嗽及喉嚨痛症狀前往就醫採檢，同日返家後死亡，並於5月29日確診。案14617為60多歲男性，具慢性病史及其他確診者接觸史；個案於6月24日出現發燒、呼吸喘及全身無力症狀，同日就醫採檢並住院治療，6月26日確診，7月20日死亡。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月21日累計公布 14,280位確診個案中，已有12,501人解除隔離，解隔離人數達確診人數87.5%。\$\@\$指揮中心表示，今日新增1例境外移入(案15641)，為克羅埃西亞籍未滿10歲男童，6月28日與家人自瑞士返臺探親，持有搭機前3日內檢驗陰性證明，入境後至防疫旅館居家檢疫，7月10日檢疫期滿前採檢結果為陰性，但因同行家人確診(案15370)，故由衛生單位安排至其他住所進行居家隔離，7月22日居家隔離期滿前採檢，於今日確診(Ct值29)；個案在臺期間並無症狀，已匡列接觸者2人，均列居家隔離。\$\@\$指揮中心統計，截至目前國內累計1,875,313例新型冠狀病毒肺炎相關通報(含1,859,164例排除)，其中15,535例確診，分別為1,254例境外移入，14,228例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計784例COVID-19死亡病例，其中776例本土，個案居住縣市分布為新北市391例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，我國自今(2021)年7月12日起，調整現階段部分接種對象Moderna COVID-19疫苗的第一劑與第二劑接種間隔10至12週的接種政策，係參考國際間接種建議，並經由衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議專家討論後審慎研訂，亦將依疫苗供貨情形滾動調整。\$\@\$指揮中心指出，依據WHO自今年1月發布(同年6月更新)的Moderna COVID-19 疫苗接種建議，對於尚未達到COVID-19疫苗高接種涵蓋率且有流行疫情的國家，考量其疫情與疫苗供應量以及進貨期程，為加速提升其國內民眾第一劑COVID-19疫苗接種涵蓋率，可採行接種Moderna COVID-19疫苗第一劑後，於間隔10至12週接種第二劑疫苗的接種政策。\$\@\$指揮中心說明，參酌其他國家做法，英國對於各廠牌COVID-19疫苗，接種間隔均為8-12週；加拿大對於 Moderna COVID-19建議最長接種間隔為16週。此外，依據新英格蘭醫學雜誌 (The New England Journal of Medicine)的研究資料，Moderna COVID-19疫苗完成接種第一劑14天後，保護力約為81%。\$\@\$指揮中心強調，我國COVID-19疫苗之接種政策，係參考國際間接種建議，並經衛生福利部傳染病防治諮詢會預防接種組(ACIP)會議確認，審慎評估後訂定執行。指揮中心將視國內外流行疫情、疫苗貨量與供應期程，持續滾動調整相關政策。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，國內COVID-19疫情趨緩，考量失智服務對象及家庭照顧者需求，並兼顧疫情社區傳播風險，確保服務人員與服務對象健康，衛生福利部特別訂定「失智社區服務據點因應COVID-19防疫管理指引」(詳見新聞稿附件)，各地據點於防疫完備工作的前提下，遵照指引即可逐漸恢復提供服務。\$\@\$失智據點因應COVID-19防疫管理指引之重點包括：\$\@\$一、提供服務條件(含服務人員、服務對象及陪同者)：\$\@\$(一)完成接種疫苗第一劑且滿14日者。\$\@\$(二)未接種疫苗、接種第一劑疫苗未滿14日者，首次提供/接受服務前應自費提供3日內抗原快篩或PCR檢驗陰性證明。\$\@\$(三) 服務對象接受服務，應採事先預約登記，依失智據點服務人員可提供服務的人數調整，並配合實名制等相關措施。\$\@\$(四)失智據點服務人員於提供服務前，應建立服務人員名冊。\$\@\$(五)疫情警戒為第二級以上(含)期間，不提供照顧者課程；所辦理之認知促進、緩和失智等服務項目，原則應由失智據點服務人員自行辦理。惟外聘講師如符合已完成接種疫苗第一劑且滿14日，或疫苗第一劑接種未滿14日，且於首次提供服務前自費提供3日內抗原快篩或PCR檢驗陰性證明者，不在此限。\$\@\$二、自主防疫管理措施：\$\@\$(一)疫情警戒為第二級(含)以上期間：\$\@\$1.建立健康監測及異常通報機制。\$\@\$2.規劃服務動線、分區空間與隔離空間，建立分艙分流及分組活動、用餐機制，並保持社交距離。\$\@\$3.設置於醫療院所及各類機構(含長照、老福、身障、護家機構)內之據點，據點服務人員不可與機構工作人員共用、混用或支援。\$\@\$4.相同活動空間不同時段有其他單位使用者，每服務時段間應間隔至少2小時，並加強環境清潔消毒。\$\@\$5.與其他單位同時段使用相同活動空間，活動場地間應至少間隔2公尺以上，並設置屏蔽。\$\@\$6.服務人員、服務對象(含陪同者)為居家隔離、居家檢疫、自主健康管理者，不可提供、使用失智據點服務。\$\@\$(二)疫情警戒為第三級(含)以上期間，強化防疫措施：\$\@\$1.服務人員及服務對象(含陪同者)如未接種疫苗，應配合切結每週進行1次自費抗原快篩或PCR檢驗。\$\@\$2.非屬服務人員名冊內人員，應避免出入據點。\$\@\$3.失智據點不收新案，暫停供餐，並禁止訪客進出。\$\@\$4.屬設置於各類機構內失智據點、同日(同時段或不同時段)與其他單位共用場地之失智據點，暫停服務。\$\@\$三、發現COVID-19疑似病例或確診病例之應變措施：\$\@\$（一）發現疑似病例，據點應於24小時內通報地方衛(社)政主管機關，於隔離空間等候就醫或返家，且不得搭乘大眾交通工具前往醫院或篩檢站。\$\@\$（二）任1名服務人員、服務對象(含陪同者)確診時應暫停服務，並立即通知地方衛(社)政主管機關，並依衛生主管機關或防疫人員之指示，配合疫調、匡列及篩檢等防疫措施。\$\@\$（三）應將相關人員進行造冊，並就已知資訊與其聯繫，請其配合疫調。 附件\$\@\$1100722失智據點指引附件</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增33例COVID-19確定病例，分別為30例本土及3例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之30例本土病例(其中20例為居家隔離期間或期滿檢驗陽性者)，為15例男性、15例女性，年齡介於未滿5歲至70多歲，發病日介於今(2021)年7月17日至7月21日。個案分布以臺北市及新北市各11例為最多，其次為桃園市7例、新竹市1例；其中24例為已知感染源、5例關聯不明、1例調查中，相關疫情調查持續進行中。\$\@\$指揮中心說明，今日新增4例死亡個案，為2例男性、2例女性，年齡介於60多歲至70多歲，發病日介於6月1日至6月27日，確診日介於6月4日至6月29日，死亡日介於7月19日至7月21日；詳如新聞稿附件。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月20日累計公布14,255位確診個案中，已有12,456人解除隔離，解隔離人數達確診人數87.4%。\$\@\$指揮中心表示，今日新增3例境外移入個案中，案15601為本國籍未滿10歲男童，7月8日自中國返臺，持有搭機前3日內檢驗陰性報告，入境後至防疫旅館居家檢疫，7月20日檢疫期滿前採檢，於今日確診；個案在臺期間並無症狀，已匡列接觸者1人，列居家隔離。案15612為美國籍20多歲男性，7月20日自美國來臺工作，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，於今日確診；個案在臺期間並無症狀，已匡列同班機前後兩排旅客共5人，列居家隔離。案15617為本國籍20多歲男性，7月20日自阿拉伯聯合大公國(杜拜)返臺，持有搭機前3日內檢驗陰性報告，入境時在機場採檢後至防疫旅館檢疫，7月21日出現咳嗽、頭昏及體溫偏高症狀，已由衛生單位安排就醫，於今日確診；相關接觸者匡列中。\$\@\$指揮中心統計，截至目前國內累計1,852,658例新型冠狀病毒肺炎相關通報(含1,835,679例排除)，其中15,511例確診，分別為1,253例境外移入，14,205例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；另累計106例移除為空號。2020年起累計782例COVID-19死亡病例，其中774例本土，個案居住縣市分布為新北市389例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣、高雄市及屏東縣各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月22日新增死亡COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日宣布，業與美國Moderna公司簽署2年共3,500萬劑COVID-19疫苗之供應合約，將於2022年及2023年分批供應基礎劑型(prime series)疫苗與次世代追加劑型(booster vaccine candidate)疫苗，以因應SARS-CoV-2變異病毒株之威脅並供應更多族群接種需求，同時加購100萬劑疫苗於今(2021)年第4季供應，提供民眾接種。\$\@\$指揮中心指出，該中心已於今年2月8日與美國Moderna公司簽署505萬劑COVID-19疫苗供應合約，目前已到貨115萬劑。考量國人對Moderna疫苗接種意願高，且COVID-19疫苗仍處於賣方市場，加以 SARS-CoV-2病毒不斷變異，各國疫情持續升溫，全球疫苗供應量卻嚴重不足，美國、歐盟、日本亦接續與Moderna公司簽署後續供應合約，指揮中心爰於現階段投入採購，俾與歐美日同步取得次世代疫苗，因應未來疫情所需。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-22\$\@\$中央流行疫情指揮中心今(22)日表示，依據交通部中央氣象局最新資料顯示，中度颱風「烟花」將逼近臺灣，提醒COVID-19疫苗合約醫療院所及地方衛生單位做好防颱準備，確保疫苗冷儲與不斷電設備之正常運作。指揮中心將視停班停課情形或颱風動態，延後本週五(7/23)或週六(7/24)的疫苗配送作業，並請各地方政府衛生局預為控管調配轄內疫苗。\$\@\$指揮中心進一步說明，已在「COVID-19公費疫苗預約平臺」完成預約的民眾，如因颱風停班停課取消接種作業而無法接種，預約平臺將保留受影響民眾的名額，請民眾在收到下一輪預約簡訊後，再次進入預約平臺預約接種。至於透過各合約醫療院所原有網路掛號或電話等進行預約之民眾，則請依循合約醫療院所公告或通知方式，重新安排接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-21\$\@\$中央流行疫情指揮中心今(21)日表示，因應國外COVID-19疫情嚴峻，我國實施邊境嚴管且滾動調整入境檢疫各項措施，感謝檢疫人員長期戍守邊境，持續成功攔檢境外移入病例，減少病例進入社區造成疫情散播。有關檢疫人員反映機場工作負擔加重，本中心說明如下：\$\@\$指揮中心說明，現場檢疫人員工作，包括衛教、引導旅客自行採集深喉唾液檢體，再由檢疫人員收取旅客檢體等作業，而非由檢疫人員執行採檢。執勤時，皆會輪替工作內容，且戴口罩、手套及穿著防潑水隔離衣等個人防護裝備，必要時隨時更換；有如廁需求者，皆有其他人員替補及支援，並無長達8小時穿著防潑水隔離衣執勤等情事。另因應檢疫措施提升，近期已增加人力及陸續報到。\$\@\$指揮中心指出，桃園機場第一線檢疫人員Covid-19第1劑疫苗接種率高，除2人因個人生理因素待接種外，其餘皆已接種，對於陸續有接種第2劑疫苗接種需求者，將專案派員到點協助接種。\$\@\$指揮中心表示，執勤同仁如在值勤期間出現症狀，會安排於機場採集深喉唾液送驗，並請同仁儘速返家休息至檢驗結果陰性。如為輪休期間出現症狀，則會請同仁立即就醫並提醒醫師屬於機場第一線檢疫工作人員，以利醫師安排採檢後，返家等待檢驗結果為陰性。\$\@\$此外，為提升邊境檢疫整體行政效率，國際港埠檢體通報作業及送驗系統均已優化，預計明日(7/22)上線。\$\@\$指揮中心強調，感謝邊境所有第一線人員的辛勞與付出，因應全球Delta變異株流行，邊境管制為防範COVID-19疫情之重要關鍵，落實全民共同抗疫，將疫情阻絕於境外，以守護國人健康安居的環境。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增25例COVID-19確定病例，分別為16例本土及9例境外移入；另確診個案中新增5例死亡。\$\@\$指揮中心表示，今日新增之16例本土病例(其中6例為居家隔離期間或期滿檢驗陽性者)，為11例男性、5例女性，年齡介於20多歲至70多歲，發病日介於今(2021)年7月12日至7月19日。個案分布以臺北市9例為最多，其次為桃園市5例、新北市2例；其中9例為已知感染源，4例關聯不明、3例疫調中，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增5例死亡個案，為2名女性、3名男性，年齡介於50多歲至90多歲，發病日介於5月25日至6月29日，確診日介於5月29日至7月7日，死亡日介於7月15日至7月19日，詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月19日累計公布14,231位確診個案中，已有12,382人解除隔離，解隔離人數達確診人數87.0%。\$\@\$指揮中心表示，今日新增9例境外移入個案，均為男性，年齡介於20多歲至70多歲，分別自菲律賓(2例)、印尼(7例)入境，入境日介於6月24日至7月20日；詳如新聞稿附件2。\$\@\$指揮中心統計，截至目前國內累計1,828,036例新型冠狀病毒肺炎相關通報(含1,811,528例排除)，其中15,478例確診，分別為1,250例境外移入，14,175例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計106例移除為空號。2020年起累計778例COVID-19死亡病例，其中770例本土，個案居住縣市分布為新北市386例、臺北市294例、基隆市27例、桃園市24例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月21日新增死亡COVID-19確診個案表.pdf\$\@\$7月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$有關媒體報導「桃機採檢室5間增至19間，人力沒補」一事，中央流行疫情指揮中心今(20)日說明如下：\$\@\$目前桃園機場每週航班旅運量入境尖峰時刻為週三、週五及週日等之清晨4時至7時，平均入境人數約400至600人，其他時段入境班機分散且旅客較少。\$\@\$入境普篩政策實施前，每日檢疫人員值勤人數白班約16至18人、夜班14至16人。政策實施後，每日檢疫值勤人數調整為白班17至22人、夜班14至22人。\$\@\$本中心檢疫人力調度係以旅運量多寡為主要考量，非以採檢站多寡為主，並機動調度一、二航廈人力互相支援，尖峰時段人力配置如下：\$\@\$採檢站：目前機場採檢方式為深喉唾液採檢，係由民眾於採檢室內自行收集唾液檢體，不須檢疫人員一對一採檢。採檢站配置5至6名檢疫人員，專責處理19間採檢室之檢體，另有6至7名協勤人力負責引導旅客排隊及清消採檢室。\$\@\$入境大廳：配置2至3名檢疫人員負責衛教及核對旅客填寫送驗資料，另有6至7名協勤人力協助分流及引導旅客、補充快篩試劑及送驗單等。\$\@\$採檢站與入境大廳之檢疫人員可互相輪流，機動調整工作區域。\$\@\$指揮中心表示，媒體所報導僅由2至3名護理師採檢500至600名旅客，及連續7、8小時穿防護衣等，皆與實情不符。指揮中心後續將會持續依航班旅運量適當調度，並注意同仁休息狀況。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增24例COVID-19確定病例，分別為18例本土及6例境外移入；另確診個案中新增4例死亡。\$\@\$指揮中心表示，今日新增之18例本土病例(其中9例為居家隔離期間或期滿檢驗陽性者)，為13例男性、5例女性，年齡介於20多歲至80多歲，發病日介於今(2021)年7月12日至7月19日。個案分布以臺北市7例為最多，其次為新北市6例、基隆市3例、桃園市2例；其中13例為已知感染源，餘5例關聯不明，將持續進行疫情調查，以釐清感染源。\$\@\$指揮中心說明，今日新增4例死亡個案，為3名女性、1名男性，年齡介於60多歲至70多歲，發病日介於5月17日至7月16日，確診日介於5月22日至7月19日，死亡日介於7月16日至7月19日，詳如新聞稿附件1。\$\@\$指揮中心指出，近期確診個案解隔離情形，5月11日至7月18日累計公布14,210位確診個案中，已有12,348人解除隔離，解隔離人數達確診人數86.9%。\$\@\$指揮中心表示，今日新增6例境外移入個案，為4男 2女，年齡介於未滿10歲至40多歲，分別自美國(3例)、印尼(2例)、緬甸入境，入境日介於7月5日至7月19日；詳如新聞稿附件2。\$\@\$指揮中心統計，累計1,801,538例新型冠狀病毒肺炎相關通報(含1,784,759例排除)，其中15,453例確診，分別為1,241例境外移入，14,159例本土病例，36例敦睦艦隊、2例航空器感染、1例不明及14例調查中；個案中累計106例移除為空號。2020年起累計773例COVID-19死亡病例，其中765例本土，個案居住縣市分布為新北市384例、臺北市292例、基隆市27例、桃園市23例、彰化縣14例、新竹縣10例、臺中市4例、苗栗縣3例、宜蘭縣及花蓮縣各2例，臺東縣、雲林縣、南投縣及高雄市各1例；另8例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$7月20日新增死亡COVID-19確診個案表.pdf\$\@\$7月20日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -964,7 +3289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,16 +3317,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>92</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1009,16 +3334,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>468</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1026,16 +3351,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2">
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1043,16 +3368,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1060,16 +3385,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1077,16 +3402,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1094,16 +3419,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1111,475 +3436,475 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2">
-        <v>44500</v>
+        <v>44502</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>474</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2">
-        <v>44499</v>
+        <v>44502</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2">
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2">
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>477</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="C13" s="2">
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="C14" s="2">
-        <v>44498</v>
+        <v>44500</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2">
-        <v>44497</v>
+        <v>44499</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="C16" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="C17" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="C18" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2">
-        <v>44496</v>
+        <v>44498</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>484</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>112</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>488</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>489</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2">
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2">
-        <v>44493</v>
+        <v>44496</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2">
-        <v>44492</v>
+        <v>44495</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2">
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2">
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>122</v>
+        <v>497</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="C33" s="2">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>123</v>
+        <v>498</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2">
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>124</v>
+        <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2">
-        <v>44486</v>
+        <v>44489</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2">
-        <v>44486</v>
+        <v>44489</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="E36" t="s">
-        <v>176</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1587,16 +3912,16 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2">
-        <v>44485</v>
+        <v>44488</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>127</v>
+        <v>502</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1604,237 +3929,3637 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>128</v>
+        <v>503</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="C39" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>129</v>
+        <v>504</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>130</v>
+        <v>505</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="C42" s="2">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>132</v>
+        <v>507</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>757</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>759</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>135</v>
+        <v>510</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C46" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>136</v>
+        <v>511</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C47" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>137</v>
+        <v>512</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>138</v>
+        <v>513</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>515</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44481</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44481</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E52" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44480</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E53" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44480</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E54" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44479</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E55" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44478</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44478</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E57" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E58" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E59" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44476</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E62" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44476</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E63" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44475</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E64" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44475</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E65" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44475</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E66" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E67" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E68" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E69" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E70" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E71" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E72" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E73" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E74" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44472</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E75" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44472</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E76" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44471</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E77" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44471</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E78" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E80" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E81" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E82" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E83" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E84" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E85" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E86" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44468</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E87" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E88" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E89" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E90" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44466</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E91" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44466</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E92" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>308</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44465</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E93" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44465</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E94" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44465</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E95" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44465</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E96" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44464</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E97" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44464</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E98" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44463</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E99" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44462</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E100" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44462</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E101" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44462</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E102" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E103" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" t="s">
+        <v>319</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E104" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E105" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44459</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E106" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44458</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E107" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44458</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E108" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44457</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E109" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44457</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="2">
-        <v>44478</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="B111" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44457</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E111" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44456</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E112" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44455</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E113" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>329</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44455</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E114" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44455</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E115" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44455</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E116" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44454</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E117" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>333</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44453</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E118" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44452</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E119" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44452</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E120" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44451</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44451</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E122" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44450</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E123" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44450</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E124" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>340</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44450</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E125" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>341</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44450</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E126" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>342</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E127" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" t="s">
+        <v>344</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44448</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E129" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44448</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E130" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44448</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E131" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>347</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44447</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E132" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44446</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E133" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44446</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" t="s">
+        <v>350</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44446</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E135" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" t="s">
+        <v>351</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44445</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E136" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44445</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E137" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44445</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E138" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E139" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" t="s">
+        <v>355</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E140" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E141" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>119</v>
+      </c>
+      <c r="B142" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44443</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E142" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>120</v>
+      </c>
+      <c r="B143" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44443</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E143" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44442</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E144" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44442</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E145" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44442</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E146" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44441</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E147" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44441</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E148" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44441</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E149" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E150" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E151" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44439</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E152" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44439</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E153" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44439</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E154" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B155" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44438</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E155" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44438</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E156" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44437</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E157" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44437</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E158" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44436</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E159" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>135</v>
+      </c>
+      <c r="B160" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44436</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E160" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>136</v>
+      </c>
+      <c r="B161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44435</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E161" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44435</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E162" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44435</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E163" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44434</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E164" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E165" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E166" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>141</v>
       </c>
-      <c r="E51" t="s">
+      <c r="B167" t="s">
+        <v>382</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E167" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" t="s">
+        <v>383</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44433</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E168" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>143</v>
+      </c>
+      <c r="B169" t="s">
+        <v>384</v>
+      </c>
+      <c r="C169" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E169" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>385</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E170" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>386</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44432</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E171" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" t="s">
+        <v>387</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E172" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>109</v>
+      </c>
+      <c r="B173" t="s">
+        <v>388</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E173" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>146</v>
+      </c>
+      <c r="B174" t="s">
+        <v>389</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44430</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E174" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" t="s">
+        <v>390</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E175" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" t="s">
+        <v>391</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E176" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C177" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E177" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" t="s">
+        <v>393</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E178" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>151</v>
+      </c>
+      <c r="B179" t="s">
+        <v>394</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E179" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" t="s">
+        <v>395</v>
+      </c>
+      <c r="C180" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E180" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>396</v>
+      </c>
+      <c r="C181" s="2">
+        <v>44427</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E181" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E182" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>154</v>
+      </c>
+      <c r="B183" t="s">
+        <v>398</v>
+      </c>
+      <c r="C183" s="2">
+        <v>44426</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E183" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>155</v>
+      </c>
+      <c r="B184" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="2">
+        <v>44425</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E184" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>156</v>
+      </c>
+      <c r="B185" t="s">
+        <v>400</v>
+      </c>
+      <c r="C185" s="2">
+        <v>44425</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E185" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" t="s">
+        <v>401</v>
+      </c>
+      <c r="C186" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E186" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" t="s">
+        <v>402</v>
+      </c>
+      <c r="C187" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E187" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="2">
+        <v>44423</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E188" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>160</v>
+      </c>
+      <c r="B189" t="s">
+        <v>404</v>
+      </c>
+      <c r="C189" s="2">
+        <v>44423</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E189" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>405</v>
+      </c>
+      <c r="C190" s="2">
+        <v>44422</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E190" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" t="s">
+        <v>406</v>
+      </c>
+      <c r="C191" s="2">
+        <v>44422</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E191" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" t="s">
+        <v>407</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44421</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E192" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>156</v>
+      </c>
+      <c r="B193" t="s">
+        <v>408</v>
+      </c>
+      <c r="C193" s="2">
+        <v>44421</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E193" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>164</v>
+      </c>
+      <c r="B194" t="s">
+        <v>409</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E194" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>165</v>
+      </c>
+      <c r="B195" t="s">
+        <v>410</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E195" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E196" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" t="s">
+        <v>412</v>
+      </c>
+      <c r="C197" s="2">
+        <v>44419</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E197" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>167</v>
+      </c>
+      <c r="B198" t="s">
+        <v>413</v>
+      </c>
+      <c r="C198" s="2">
+        <v>44419</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E198" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>131</v>
+      </c>
+      <c r="B199" t="s">
+        <v>414</v>
+      </c>
+      <c r="C199" s="2">
+        <v>44418</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E199" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E200" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" t="s">
+        <v>416</v>
+      </c>
+      <c r="C201" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E201" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202" t="s">
+        <v>417</v>
+      </c>
+      <c r="C202" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E202" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203" t="s">
+        <v>418</v>
+      </c>
+      <c r="C203" s="2">
+        <v>44416</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E203" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" t="s">
+        <v>419</v>
+      </c>
+      <c r="C204" s="2">
+        <v>44416</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E204" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" t="s">
+        <v>420</v>
+      </c>
+      <c r="C205" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E205" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>174</v>
+      </c>
+      <c r="B206" t="s">
+        <v>421</v>
+      </c>
+      <c r="C206" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E206" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>146</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" s="2">
+        <v>44415</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E207" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208" t="s">
+        <v>423</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44414</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E208" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209" t="s">
+        <v>424</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E209" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210" t="s">
+        <v>425</v>
+      </c>
+      <c r="C210" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E210" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" t="s">
+        <v>426</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44412</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E211" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>178</v>
+      </c>
+      <c r="B212" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44412</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E212" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>179</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E213" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>180</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E214" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>181</v>
+      </c>
+      <c r="B215" t="s">
+        <v>430</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E215" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>182</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44410</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E216" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>183</v>
+      </c>
+      <c r="B217" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44410</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E217" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>184</v>
+      </c>
+      <c r="B218" t="s">
+        <v>433</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E218" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" t="s">
+        <v>434</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E219" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>183</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E220" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>186</v>
+      </c>
+      <c r="B221" t="s">
+        <v>436</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44408</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E221" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>187</v>
+      </c>
+      <c r="B222" t="s">
+        <v>437</v>
+      </c>
+      <c r="C222" s="2">
+        <v>44408</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E222" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>188</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+      <c r="C223" s="2">
+        <v>44407</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E223" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>189</v>
+      </c>
+      <c r="B224" t="s">
+        <v>439</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E224" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" t="s">
+        <v>440</v>
+      </c>
+      <c r="C225" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E225" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
         <v>191</v>
+      </c>
+      <c r="B226" t="s">
+        <v>441</v>
+      </c>
+      <c r="C226" s="2">
+        <v>44405</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E226" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>192</v>
+      </c>
+      <c r="B227" t="s">
+        <v>442</v>
+      </c>
+      <c r="C227" s="2">
+        <v>44405</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E227" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>193</v>
+      </c>
+      <c r="B228" t="s">
+        <v>443</v>
+      </c>
+      <c r="C228" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E228" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>194</v>
+      </c>
+      <c r="B229" t="s">
+        <v>444</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E229" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>195</v>
+      </c>
+      <c r="B230" t="s">
+        <v>445</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E230" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>196</v>
+      </c>
+      <c r="B231" t="s">
+        <v>446</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44404</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E231" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>197</v>
+      </c>
+      <c r="B232" t="s">
+        <v>447</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E232" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>198</v>
+      </c>
+      <c r="B233" t="s">
+        <v>448</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E233" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>199</v>
+      </c>
+      <c r="B234" t="s">
+        <v>449</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E234" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>200</v>
+      </c>
+      <c r="B235" t="s">
+        <v>450</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44402</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E235" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>201</v>
+      </c>
+      <c r="B236" t="s">
+        <v>451</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44402</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E236" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>202</v>
+      </c>
+      <c r="B237" t="s">
+        <v>452</v>
+      </c>
+      <c r="C237" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E237" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>203</v>
+      </c>
+      <c r="B238" t="s">
+        <v>453</v>
+      </c>
+      <c r="C238" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E238" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>204</v>
+      </c>
+      <c r="B239" t="s">
+        <v>454</v>
+      </c>
+      <c r="C239" s="2">
+        <v>44401</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E239" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>205</v>
+      </c>
+      <c r="B240" t="s">
+        <v>455</v>
+      </c>
+      <c r="C240" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E240" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241" t="s">
+        <v>456</v>
+      </c>
+      <c r="C241" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E241" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>207</v>
+      </c>
+      <c r="B242" t="s">
+        <v>457</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44400</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E242" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>208</v>
+      </c>
+      <c r="B243" t="s">
+        <v>458</v>
+      </c>
+      <c r="C243" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E243" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>209</v>
+      </c>
+      <c r="B244" t="s">
+        <v>459</v>
+      </c>
+      <c r="C244" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E244" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>210</v>
+      </c>
+      <c r="B245" t="s">
+        <v>460</v>
+      </c>
+      <c r="C245" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E245" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>211</v>
+      </c>
+      <c r="B246" t="s">
+        <v>461</v>
+      </c>
+      <c r="C246" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E246" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>212</v>
+      </c>
+      <c r="B247" t="s">
+        <v>462</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E247" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>213</v>
+      </c>
+      <c r="B248" t="s">
+        <v>463</v>
+      </c>
+      <c r="C248" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E248" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>214</v>
+      </c>
+      <c r="B249" t="s">
+        <v>464</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E249" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>215</v>
+      </c>
+      <c r="B250" t="s">
+        <v>465</v>
+      </c>
+      <c r="C250" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E250" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251" t="s">
+        <v>466</v>
+      </c>
+      <c r="C251" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E251" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -1889,6 +7614,206 @@
     <hyperlink ref="D49" r:id="rId48"/>
     <hyperlink ref="D50" r:id="rId49"/>
     <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Press Title</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Page Content</t>
   </si>
   <si>
+    <t>新增44例COVID-19確定病例，分別為2例本土及42例境外移入</t>
+  </si>
+  <si>
     <t>即日起請已接種兩劑COVID-19疫苗且滿12週並滿18歲民眾，儘速接種疫苗追加劑</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>針對桃園機場群聚感染案件，指揮中心今日成立前進指揮所協助防疫作為</t>
   </si>
   <si>
-    <t>1月5日起至1月31日止，地方政府可提供民眾200元(含)以下衛教品，以提升接種意願</t>
+    <t>/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/DViInYHA83okHIasbqONZQ?typeid=9</t>
@@ -88,7 +91,7 @@
     <t>/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/DViInYHA83okHIasbqONZQ?typeid=9</t>
@@ -118,10 +121,10 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日表示，因應國內發生Omicron變異株本土確診病例，社區感染風險提升，衛生福利部傳染病防治諮詢會預防接種組(ACIP)決議，已接種兩劑COVID-19疫苗且間隔滿12週(84天)以上之滿18歲民眾，應儘速接種1劑COVID-19疫苗追加劑，以提升免疫保護力。\$\@\$指揮中心說明，昨(6)日召開ACIP會議討論COVID-19疫苗接種策略，考量國內外COVID-19疫情升溫，為降低社區傳播風險，專家指出，建議滿18歲以上民眾於完整接種COVID-19疫苗基礎劑12週後，應接種1劑追加劑，以提升個人及群體免疫力。追加劑接種廠牌建議如下：\$\@\$一、以mRNA疫苗(如Moderna、BNT)或蛋白質次單元疫苗(如高端)完成基礎劑：追加劑可以選擇接種Moderna(半劑量)、BNT、高端或AZ疫苗。\$\@\$二、以AZ完成基礎劑：追加劑可選擇接種mRNA或蛋白質次單元疫苗。\$\@\$指揮中心指出，目前國內疫苗庫存充足，將請地方政府衛生局儘速擴充接種量能，符合接種間隔的民眾可透過「COVID-19疫苗防治一網通」( https://antiflu.cdc.gov.tw/Covid19 )或地方政府衛生局公告，查詢鄰近合約醫療院所提供施打之疫苗廠牌及接種時間。</t>
+    <t>發佈日期：2022-01-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增44例COVID-19確定病例，分別為2例本土個案(案17414-17415)及42例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17414-17415)分別為本國籍1例男性、1例女性，年齡均為50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增42例境外移入個案，性別為25例男性、16例女性、1例調查中，年齡介於未滿10至70多歲，分別自美國(23例)、越南(4例)、法國(2例)、阿根廷、澳大利亞、菲律賓、加拿大、阿拉伯聯合大公國、泰國、巴西、西班牙、印度、義大利及德國(各1例)入境，另有2例調查中，入境日介於去(2021)年12月15日至今(2022)年1月7日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,074,946例新型冠狀病毒肺炎相關通報(含5,055,445例排除)，其中17,302例確診，分別為2,630例境外移入，14,618例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月8日新增本土COVID-19確診個案表.pdf\$\@\$1月8日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日表示，因應國內發生Omicron變異株本土確診病例，社區感染風險提升，衛生福利部傳染病防治諮詢會預防接種組(ACIP)決議，已接種兩劑COVID-19疫苗且間隔滿12週(84天)以上之滿18歲民眾，應儘速接種1劑COVID-19疫苗追加劑，以提升免疫保護力。\$\@\$指揮中心說明，昨(6)日召開ACIP會議討論COVID-19疫苗接種策略，考量國內外COVID-19疫情升溫，為降低社區傳播風險，專家指出，建議滿18歲以上民眾於完整接種COVID-19疫苗基礎劑12週後，應接種1劑追加劑，以提升個人及群體免疫力。追加劑接種廠牌建議如下：\$\@\$一、以mRNA疫苗(如Moderna、BNT)或蛋白質次單元疫苗(如高端)完成基礎劑：追加劑可以選擇接種Moderna(半劑量)、BNT、高端或AZ疫苗。\$\@\$二、以AZ完成基礎劑：追加劑可選擇接種mRNA或蛋白質次單元疫苗。\$\@\$指揮中心指出，目前國內疫苗庫存充足，將請地方政府衛生局儘速擴充接種量能，符合接種間隔的民眾可透過「COVID-19疫苗防治一網通」( https://antiflu.cdc.gov.tw/Covid19 )或地方政府衛生局公告，查詢鄰近合約醫療院所提供施打之疫苗廠牌及接種時間。\$\@\$*備註：國外接種疫苗者，接種追加劑說明：\$\@\$一、於國外曾接種WHO EUL 之COVID-19疫苗 返國後請先至就近衛生所或健康服務中心補登國外疫苗接種紀錄，並妥善保存國外接種紀錄。\$\@\$二、符合現行追加劑接種間隔者(至少12週)，可攜國外接種紀錄、健保卡或相關身分證明文件，至鄰近COVID-19疫苗合約院所掛號接種。\$\@\$三、如接種非WHO EUL COVID-19疫苗, 視同無效劑次, 可於與最後一劑COVID-19疫苗間隔28天後, 於國內先完成COVID-19疫苗基礎劑接種，再依規定接種追加劑。</t>
   </si>
   <si>
     <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增62例COVID-19確定病例，分別為4例本土個案(案17368-17371)及58例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17368-17371)分別為本國籍1例男性、3例女性，年齡介於20至50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增58例境外移入個案，為29例男性、29例女性，年齡介於10多歲至70多歲，分別自美國(35例)、法國(4例)、英國(3例)、瑞士、越南及印度(各2例)、奧地利、智利、德國、加拿大、愛爾蘭、孟加拉、奈及利亞、墨西哥、西班牙及哥斯大黎加(各1例)入境，入境日介於去(2021)年12月22日至今(2022)年1月6日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,055,274例新型冠狀病毒肺炎相關通報(含5,035,769例排除)，其中17,258例確診，分別為2,588例境外移入，14,616例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另新增2例空號病例(案17271，案17272與舊案重複，改列空號)，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月7日新增本土COVID-19確診個案表.pdf\$\@\$1月7日新增境外移入COVID-19確診個案表.pdf</t>
@@ -133,16 +136,19 @@
     <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，考量目前國際COVID-19疫情嚴峻，請長者及其他 COVID-19感染後容易產生嚴重併發症之族群，儘速完成COVID-19疫苗基礎劑接種，提升保護力。\$\@\$指揮中心表示，目前我國75歲以上長者第1劑接種率僅約73%，第2劑接種率僅約67%，仍需再積極提升，為維護長者及風險族群健康，降低因感染COVID-19造成之重症、住院或死亡風險，家中長輩如尚未接種COVID-19疫苗第1、2劑，請於其身體狀況較穩定時，協助陪同至各地方政府衛生局安排或指定之合約醫療院所接種。\$\@\$指揮中心說明，疫苗接種後可能發生副作用，通常輕微並於數天內消失，並隨年齡層增加而減少，若擔心接種疫苗後所產生之副作用，可先與醫師討論，經諮詢評估選擇合適的疫苗接種。\$\@\$指揮中心表示，若為行動不便者，各地方政府衛生局亦設有到宅接種服務，有需求者可向各地方政府衛生局洽詢。另為鼓勵18歲以上尚未接種第1劑、第2劑COVID-19疫苗接種者儘速踴躍前往接種，於2022年1月5日至1月31日前接種COVID-19疫苗者，可獲得地方政府發放之200元(含)以下衛教品，鼓勵民眾儘速接種，獲得保護力。\$\@\$指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者，請記得攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時，說明過往疫苗接種史，以利醫生評估。另近期天氣多變，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後就近前往接種。接種後亦請多加留意身體狀況，多喝水多休息，亦請家人協助注意，如有持續發燒超過48小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，應儘速就醫釐清病因。</t>
   </si>
   <si>
+    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，因應國際COVID-19疫情嚴峻及Omicron新型變異株威脅，考量春節入境人潮且近期COVID-19境外移入確診個案增加，為確保國內醫療院所對疫情的因應及保全醫療量能，即日起調整醫療機構醫療應變作為，說明如下：\$\@\$一、全國專責病房及負壓隔離病房調整收治病人條件，專責病房僅收治疑似或確診COVID-19病人；負壓隔離病室則以收治疑似或確診COVID-19及其他空氣傳染之法定傳染病病人為原則，清空非必要(如非空氣傳染防護隔離治療)入住於負壓隔離病房的病人。\$\@\$二、臺北市、新北市、基隆市、桃園市之應變醫院，於3日內恢復開設急性一般病床總數之20%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$三、臺北市、新北市、基隆市、宜蘭縣、桃園市、新竹市、新竹縣及苗栗縣之急性一般病床總數500床以上之急救責任醫院，於3日內恢復開設急性一般病床總數之5%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$四、專責病房收治疑似或確診COVID-19病人應以一人一室為原則(家人、同住者、同行者等如均為確診個案且知情同意，得兩人一室)，並有適當動線規劃，分流分艙安置住院病人；落實固定照護團隊與服務區塊化，避免人員頻繁輪替或跨單位工作；配置適當且固定之工作人員(含清潔人員、傳送人員及照顧服務員等)，以防範院內感染傳播風險。\$\@\$指揮中心呼籲醫療機構落實感染管制、強化門禁管制及工作人員健康監測、加強員工使用適當個人防護裝備，以預防並降低醫院群聚感染風險。由於Omicron新型變異株可能造成突破性感染，降低疫苗之保護力，指揮中心籲請可接種追加劑疫苗之醫院工作人員儘速接種追加劑疫苗，以確保人員健康安全。指揮中心將持續監測國內外疫情發展，確實掌握病床數及相關醫療資源分配，滾動修正相關應變策略，完善醫療照護體系，確保醫療量能充足以因應疫情。</t>
+  </si>
+  <si>
     <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增3例COVID-19本土確定病例(尚未取號)，為擴大採檢清潔外包人員，於今日晚間檢驗陽性。\$\@\$指揮中心表示，3名個案均為女性，年齡分別為1例50多歲及2例60多歲，Ct值分別為33.8、23.4及19.5，為案17230、案17238、案17239及17266同職場工作人員，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心說明，因應桃園機場感染事件，指揮中心於第一時間針對外包清潔人員進行擴大採檢，已匡列861人，截至今日晚間，已有4例陽性（案17266及前述3例陽性）、855例陰性、1例檢驗中、1例待採檢。總計清潔外包人員已確診共7人（案17230、案17238-17239、17266、及前述3例）。\$\@\$指揮中心說明，因應今日晚間新增3位本土確診病例，前進指揮所立即啟動緊急作為如下：\$\@\$1. 針對清潔外包公司航廈夜班人員共93人，全數送集中檢疫所集中隔離。\$\@\$2. 該公司其餘未隔離員工，共768人，明後兩日（1月6日-1月7日）每日以家用快篩自我檢測，並彙整報告提供前進指揮所。1月8日將再度安排全員PCR檢驗。\$\@\$3. 已責成外包清潔公司嚴格確實執行員工健康監測，確保員工健康，以及早處理可能事件。</t>
   </si>
   <si>
-    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增26例COVID-19確定病例，分別為1例(案17266)本土及25例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17266為本國籍50多歲女性，已接種2劑莫德納疫苗(為突破性感染)，與案17230、案17238及案17239為同職場工作人員，曾與前述個案搭乘同路線交通車，原定於今(2022)年1月5日採檢，1月3日出現乾咳、喉嚨不適等症狀，1月4日自行前往採檢站採檢後於今日確診，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心表示，今日新增25例境外移入個案，為12例男性、13例女性，年齡介於未滿5歲至70多歲，分別自美國(11例，案17241-17243、案17250、案17252、案17254、案17256-17259、案17265)、法國(3例，案17244、案17246、案17253)、加拿大(案17245)、丹麥(案17247)、英國(17248)、玻利維亞(案17249)、德國(案17251)、史瓦帝尼王國(案17255)、澳洲(案17260)、巴拿馬(2例，案17261-17262)、瑞典(案17263)及印尼(案17264)入境，入境日介於去(2021)年11月14日至今(2022)年1月4日；詳如新聞稿附件。\$\@\$另1月2日公布之案17181境外移入病例經疫調後改判為本土病例，為案16941之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,017,456例新型冠狀病毒肺炎相關通報(含4,998,328例排除)，其中17,155例確診，分別為2,493例境外移入，14,608例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月5日新增境外移入COVID-19確診個案表.pdf</t>
+    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增26例COVID-19確定病例，分別為1例(案17266)本土及25例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17266為本國籍50多歲女性，已接種2劑莫德納疫苗(為突破性感染)，與案17230、案17238及案17239為同職場工作人員，曾與前述個案搭乘同路線交通車，原定於今(2022)年1月5日採檢，1月3日出現乾咳、喉嚨不適等症狀，1月4日自行前往採檢站採檢後於今日確診，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心表示，今日新增25例境外移入個案，為12例男性、13例女性，年齡介於未滿5歲至70多歲，分別自美國(12例，案17241-17243、案17245、案17250、案17252、案17254、案17256-17259、案17265)、法國(3例，案17244、案17246、案17253)、丹麥(案17247)、英國(17248)、玻利維亞(案17249)、德國(案17251)、史瓦帝尼王國(案17255)、澳洲(案17260)、巴拿馬(2例，案17261-17262)、瑞典(案17263)及印尼(案17264)入境，入境日介於去(2021)年11月14日至今(2022)年1月4日；詳如新聞稿附件。\$\@\$另1月2日公布之案17181境外移入病例經疫調後改判為本土病例，為案16941之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,017,456例新型冠狀病毒肺炎相關通報(含4,998,328例排除)，其中17,155例確診，分別為2,493例境外移入，14,608例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月5日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
     <t>發佈日期：2022-01-05\$\@\$疾管署今(5)日宣布，為提升疫苗接種人口涵蓋率，發揮疫苗最大效益，自2022年1月6日起，公費流感疫苗擴大提供全國6個月以上尚未接種之民眾接種，至疫苗用罄為止，疾管署呼籲尚未接種的計畫對象，尤其是65歲以上長者、學齡前幼兒及醫事人員等重點族群儘快接種，以保障自身及周遭人員的健康。\$\@\$疾管署表示，2021年度公費流感疫苗分2階段施打，除50至64歲無高風險慢性病成人於第二階段11月15日開打外，其於對象均為10月1日開打。截至2022年1月4日，公費疫苗總接種數約562萬劑，整體疫苗使用率逾91.9%，剩餘量約49萬劑；目前全國約有3,700餘家合約院所(含部分衛生所)提供接種服務，建議民眾可先透過各地方政府衛生局網頁、疾管署流感防治一網通(https://antiflu.cdc.gov.tw/)、疾管家或1922防疫諮詢專線，查詢鄰近合約院所名單，並向合約院所預約，以確保可施打到疫苗。\$\@\$另公費流感疫苗接種期間，COVID-19疫苗接種作業持續進行，依衛生福利部傳染病防治諮詢會預防接種組專家建議，2種疫苗接種間隔應至少7天，避免發生疫苗接種不良事件無法釐清。疾管署提醒民眾於預約或接種前主動告知疫苗接種史，合約院所應於接種區建立動線分流，並請相關工作人員於接種前落實檢核接種紀錄，接種後於健保卡黏貼流感疫苗接種貼紙。\$\@\$疾管署提醒，國內流感疫情仍處低點尚未進入流行期，民眾可儘速接種，以於流感疫情達高峰前獲得足夠保護力。近期氣溫偏低，為防範流感及COVID-19疫情雙重衝擊，民眾除接種疫苗，應養成良好衛生習慣，出現類流感症狀儘速戴口罩就醫，並在家休息，減少病毒傳播機會。如有流感疫苗或流感防治相關疑問，可至疾管署全球資訊網(https://www.cdc.gov.tw)，或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
   </si>
   <si>
-    <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日表示，為加速國人完成2劑接種，提升尚未接種第1、2劑COVID-19疫苗民眾之接種意願，各地方政府自2022年1月5日至1月31日前，可提供18歲以上民眾200元(含)以下衛教品，以鼓勵民眾踴躍完成接種2劑COVID-19疫苗，儘速獲得完整免疫保護力。\$\@\$指揮中心表示，截至2022年1月3日為止，我國COVID-19疫苗第一劑接種率約80%，第二劑接種率約69%，為因應國際疫情持續嚴峻及Omicron新型變異株之威脅增加，接種涵蓋率仍須再提升，目前COVID-19疫苗由地方政府衛生局指定/安排之合約醫療院所或衛生所進行接種，鼓勵尚未接種過任何1劑COVID-19疫苗及符合接種間隔但尚未完成2劑COVID-19疫苗接種之民眾，請儘速前往COVID-19疫苗合約醫療院所接種。\$\@\$指揮中心說明，目前國內各廠牌COVID-19疫苗供應充分，民眾可至衛生福利部疾病管制署全球資訊網，「COVID-19疫苗接種院所單元」（https://www.cdc.gov.tw/Category/List/u4l1b_gHhf9WDjhEtRmRRw），運用「COVID-19接種院所地圖」及各地方政府衛生局公告之COVID-19疫苗接種合約醫療院所以及車站等隨到隨打疫苗接種站，就近前往接種。\$\@\$指揮中心提醒， 18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書。若由家長陪同前往接種，請本人與家長於現場共同簽署意願同意書。另依衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者亦請攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
+    <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日表示，為因應桃園機場群聚感染案件，陳時中指揮官於今日下午協同醫療應變組王必勝副組長、桃園市政府衛生局王文彥局長、衛生福利部疾病管制署北區管制中心及機場公司航運中心工作人員，實地進行入境旅客動線勘查，評估釐清風險，檢視第一線人員防護裝備及消毒情形，並啟動下列防疫作為：\$\@\$一、 成立前進指揮所，由醫療應變組王必勝副組長擔任指揮官，統籌指揮相關防疫工作，進行跨單位溝通協調，並評估各單位現場作業風險，提出相關改善計畫。\$\@\$二、 針對高風險旅客(14天內有症狀)之入境動線，重新釐清評估風險，避免與其他民眾、工作人員接觸，降低傳播可能性。\$\@\$三、 配合桃園市政府衛生局採檢規劃「擴大、快速」戰略概念，擴大評估可能有在個案活動地(如清潔的廁所)活動之其他人員，快速進行相關篩檢。</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -582,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -621,6 +627,9 @@
       <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -630,13 +639,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -653,7 +662,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -670,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -681,10 +690,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -701,7 +713,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="202">
   <si>
     <t>Press Title</t>
   </si>
@@ -49,16 +49,151 @@
     <t>因應春節入境人潮及COVID-19境外移入確診個案增加，指揮中心擴大開設專責病房及調整醫療機構應變策略</t>
   </si>
   <si>
-    <t>新增3例COVID-19本土確定病例，衛生單位已啟動疫情調查及防治作為</t>
-  </si>
-  <si>
-    <t>新增26例COVID-19確定病例，分別為1例本土及25例境外移入</t>
-  </si>
-  <si>
-    <t>自2022年1月6日起，公費流感疫苗開放全民接種至疫苗用罄</t>
-  </si>
-  <si>
-    <t>針對桃園機場群聚感染案件，指揮中心今日成立前進指揮所協助防疫作為</t>
+    <t>網傳「三級警戒微解封的不可思議之處」指揮中心： 原同住家人就不受限制，謠言邏輯誤導且比喻失當，請勿輕信轉傳，造成防疫困擾</t>
+  </si>
+  <si>
+    <t>網傳「政府讓人民施打未受認證且保護力低之國產疫苗」  指揮中心：會把關國產疫苗品質、安全及療效</t>
+  </si>
+  <si>
+    <t>網傳「代工(AZ疫苗)三億劑嫌太多賣不出去」，指揮中心：有心人刻意扭曲語意</t>
+  </si>
+  <si>
+    <t>網傳「臺中太原路復健醫院被徵收為方艙醫院」 指揮中心：假訊息勿轉傳</t>
+  </si>
+  <si>
+    <t>網路販售「新冠病毒快篩試劑」，指揮中心：已觸法，警方偵辦中</t>
+  </si>
+  <si>
+    <t>網現偽冒教育部網站  指揮中心：境外假網頁勿輕信</t>
+  </si>
+  <si>
+    <t>因應結核菌液態培養(MGIT)檢驗試劑暫時性缺貨，為利早期診斷結核病，針對疑似結核病送驗初查痰3套，請務必再進行結核分枝桿菌核酸增幅(NAA)檢驗(疾病管制署致醫界通函第470號)</t>
+  </si>
+  <si>
+    <t>COVID-19專家諮詢會因應變異株流行，更新治療指引藥物適用原則(疾病管制署致醫界通函第469號)</t>
+  </si>
+  <si>
+    <t>因應COVID-19 Omicron變異株威脅，籲請社區定點診所加強發放公費COVID-19家用快篩試劑予高風險民眾(疾病管制署致醫界通函第468號)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19專家諮詢會參照最新實證與藥物適應症，更新治療指引藥物適用對象並重申制定原則(疾病管制署致醫界通函第467號) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">近期登革熱隱藏期平均超過3日，籲請醫師對具登革熱流行地區旅遊史之疑似病例提高警覺，加強診斷及通報(疾病管制署致醫界通函第466號) </t>
+  </si>
+  <si>
+    <t>10月1日起擴大2歲以上兒童使用丙型干擾素釋放試驗(IGRA)，以提升潛伏結核感染(LTBI)檢驗準確性及守護幼童健康(疾病管制署致醫界通函第465號)</t>
+  </si>
+  <si>
+    <t>111年潛伏結核感染治療HP複方藥品.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>「111年人體測溫用紅外線熱影像儀維護保養」採購案.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>111年細胞培養及分生試劑乙批.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>111年疫情統計分析R系統維護及諮詢服務.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>111-112年 COVID-19疫苗4,000萬劑倉儲物流與配送.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>高屏區管制中心111年國際港埠檢體收送.pdf(另開新視窗)</t>
+  </si>
+  <si>
+    <t>助理研究員(預估缺)</t>
+  </si>
+  <si>
+    <t>師(三)級護理師</t>
+  </si>
+  <si>
+    <t>約聘護理師</t>
+  </si>
+  <si>
+    <t>約用護理師(徵才案號：1521延長公告)</t>
+  </si>
+  <si>
+    <t>約用助理(徵才案號：1522延長公告)</t>
+  </si>
+  <si>
+    <t>111年地方衛生機關防疫業務考評作業手冊</t>
+  </si>
+  <si>
+    <t>公告本署慢性傳染病組約用人員徵才案(徵才案號：0309)初審合格名單及甄試事宜。</t>
+  </si>
+  <si>
+    <t>公告本署公共關係室約用人員徵才案(徵才案號：0708)初審合格名單及甄試事宜。</t>
+  </si>
+  <si>
+    <t>公告本署檢驗及疫苗研製中心約用人員徵才案(徵才案號：1057、1058)初審合格名單及甄試事宜。</t>
+  </si>
+  <si>
+    <t>公告本署師(三)級護理師甄選之口試日程相關事宜(口試名單公告)。</t>
+  </si>
+  <si>
+    <t>公告本署急性傳染病組約用人員徵才案(徵才案號：1105)初審合格名單及甄試事宜。</t>
+  </si>
+  <si>
+    <t>1月5日起至1月31日止，地方政府可提供民眾200元(含)以下衛教品，以提升接種意願</t>
+  </si>
+  <si>
+    <t>新增34例COVID-19確定病例，分別為4例本土及30例境外移入</t>
+  </si>
+  <si>
+    <t>新增1例COVID-19本土確定病例，衛生單位已啟動疫情調查及防治作為</t>
+  </si>
+  <si>
+    <t>新增25例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增20例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增21例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增41例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>指揮中心重申，兩岸應以防疫優先，才能維護兩岸民眾健康</t>
+  </si>
+  <si>
+    <t>受聘僱外國人健康檢查管理辦法部分條文修正案自111年1月1日起實施，確保社區防疫安全</t>
+  </si>
+  <si>
+    <t>指揮中心增加公費COVID-19家用快篩試劑發放點，早期偵測，防範病毒進入社區</t>
+  </si>
+  <si>
+    <t>新增24例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第十五批BNT疫苗93.83萬劑於今(30)日上午抵臺</t>
+  </si>
+  <si>
+    <t>新增14例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增19例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>為因應我國民眾能加速入境歐盟等國家，我國「數位新冠病毒健康證明」於12月28日上午8時開放下載</t>
+  </si>
+  <si>
+    <t>因應國際Omicron變異株疫情迅速擴散，指揮中心入境旅客PCR檢驗報告調整為「2日內」報告並改以「採檢日」為計算基準</t>
+  </si>
+  <si>
+    <t>移工轉換雇主及雇主調派移工變更工作地點，如已完整接種COVID-19疫苗，即日起無須事前檢驗PCR</t>
+  </si>
+  <si>
+    <t>有條件放寬陪病人數上限至2人，並調整陪病者COVID-19疫苗接種規範及篩檢措施</t>
+  </si>
+  <si>
+    <t>新增16例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>12月28日至1月10日維持疫情警戒標準為第二級，請民眾配合跨年大型活動等防疫準備注意事項</t>
   </si>
   <si>
     <t>/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
@@ -79,16 +214,154 @@
     <t>/Bulletin/Detail/u0vHFZX2nzlhWBifQl3x5Q?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/jK3GN-Hw8x_ELLciTmfwQg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/xR3EWQ6aKrqsQwfI_iNxqg?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/oHyBMuXSjeea-EJ0olgdRQ?typeid=9</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
+    <t>/Bulletin/Detail/ftv6FPFis84j5uHWTq4lNA?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PmSCiSjM5YpCUxXqoS81RA?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QCmwPRiL1nKrc8-AuqSEGg?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IO3F02JMs4pToOM84aXopQ?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zjF-6vCLlbYe1RhTXKlq1Q?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IU5CMLLt8bQqXWHQhil0Aw?typeid=8772</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/KaqzyT5RqFOuOQFGpEYLgA?typeid=48</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/zUiCR7uM2Ox39wGHOkzhMw?typeid=48</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/tun0Es9fOoIJqDFToylh6Q?typeid=48</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/1pVYYgWzE_U3RlTuctsioQ?typeid=48</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HU4mCbrzZQlHC-VhwBiJOg?typeid=48</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DyZ6ZOuk-VLQSHiQ6xhqoQ?typeid=48</t>
+  </si>
+  <si>
+    <t>/Uploads/files/2eca6680-fdde-4a38-934a-6da1c2dd8b8b.pdf</t>
+  </si>
+  <si>
+    <t>/Uploads/files/575633c9-11a3-4d2c-a5df-3bc675a198dc.pdf</t>
+  </si>
+  <si>
+    <t>/Uploads/files/a022ad25-9fb8-433f-a588-a93c1e5f9d9c.pdf</t>
+  </si>
+  <si>
+    <t>/Uploads/files/557f2695-c3ee-4d00-aa33-5d0dc36f7f09.pdf</t>
+  </si>
+  <si>
+    <t>/Uploads/files/a22b63a6-c6cb-463f-940d-26f4c11b17bc.pdf</t>
+  </si>
+  <si>
+    <t>/Uploads/files/0516860c-da1c-4620-ae05-79a01343a4d6.pdf</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=kLNv1XH1fB8TlCZo6RSNGw</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=7afE7y_q_0a-FLqnxHIjIA</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=0i1H55b5Pqk0ahyBe-cr-A</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=2tmdwtNL8GDuj002O3_QsA</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=3FDssdDwiCeDzVB2w5R-gA</t>
+  </si>
+  <si>
+    <t>/HireList/Detail?hireId=HnyAaEpJjNTAhTgoRupHfg</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Y_cTXA-RBSS1MjAEFDP3TQ?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/vN_TxnDuv7GamvGxnZXEdw?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7UJRpdDRbQNIZWyyEfHdHQ?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/u9ej71cxiu9bJqO0gMxdOQ?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_EjXyzKBrURN93eoTpH45Q?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6_WqkhWC-GJV1mcZ8hGpEg?typeid=11</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NQf6AVY3GBaKX9pYZ5jA3Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8XzxB5KZNJhy0ITApU7wWg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/wPYoUO5Fv8bYEL0fGvlwrw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/7wbCdR_N1PJc783mP_mtlQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/mj5H52pb8ivr0RcjQ-N9cw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/L32CQqYyDVXO-DF7hgHyAQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/pr-CblnPk9vL2ApdEOo_dQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jOxiIwl9CpcNJxP8dckk6A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ijxgB4PqNSwT9jxZQotXIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/AjUkrlWXkxOqou5W9tgVpw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/WIMrcWpPk8g16xjOZR_e4g?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uC2CvyAZKpXLB4pbfUDEwA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Vr-xa_jxF7CS4mlKHSpHgw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-rE5uMCRLrzdP16Sf7m5UA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/_VRX4ciyxXBAZZrWlce-FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Cd_p1u_CUNlo8A-6VywrYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/frAq9bxqUXeg-8CrHH-M_w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Q8YCgoN6l70alReqqr5Wmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/nIdKcbV265_Oy19NRrVK0g?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
@@ -109,16 +382,154 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/u0vHFZX2nzlhWBifQl3x5Q?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/jK3GN-Hw8x_ELLciTmfwQg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/xR3EWQ6aKrqsQwfI_iNxqg?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/oHyBMuXSjeea-EJ0olgdRQ?typeid=9</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ftv6FPFis84j5uHWTq4lNA?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PmSCiSjM5YpCUxXqoS81RA?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QCmwPRiL1nKrc8-AuqSEGg?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IO3F02JMs4pToOM84aXopQ?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zjF-6vCLlbYe1RhTXKlq1Q?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IU5CMLLt8bQqXWHQhil0Aw?typeid=8772</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/KaqzyT5RqFOuOQFGpEYLgA?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/zUiCR7uM2Ox39wGHOkzhMw?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/tun0Es9fOoIJqDFToylh6Q?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/1pVYYgWzE_U3RlTuctsioQ?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HU4mCbrzZQlHC-VhwBiJOg?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DyZ6ZOuk-VLQSHiQ6xhqoQ?typeid=48</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/2eca6680-fdde-4a38-934a-6da1c2dd8b8b.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/575633c9-11a3-4d2c-a5df-3bc675a198dc.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/a022ad25-9fb8-433f-a588-a93c1e5f9d9c.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/557f2695-c3ee-4d00-aa33-5d0dc36f7f09.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/a22b63a6-c6cb-463f-940d-26f4c11b17bc.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Uploads/files/0516860c-da1c-4620-ae05-79a01343a4d6.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=kLNv1XH1fB8TlCZo6RSNGw</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=7afE7y_q_0a-FLqnxHIjIA</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=0i1H55b5Pqk0ahyBe-cr-A</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=2tmdwtNL8GDuj002O3_QsA</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=3FDssdDwiCeDzVB2w5R-gA</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=HnyAaEpJjNTAhTgoRupHfg</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Y_cTXA-RBSS1MjAEFDP3TQ?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/vN_TxnDuv7GamvGxnZXEdw?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7UJRpdDRbQNIZWyyEfHdHQ?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9ej71cxiu9bJqO0gMxdOQ?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_EjXyzKBrURN93eoTpH45Q?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6_WqkhWC-GJV1mcZ8hGpEg?typeid=11</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NQf6AVY3GBaKX9pYZ5jA3Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8XzxB5KZNJhy0ITApU7wWg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/wPYoUO5Fv8bYEL0fGvlwrw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/7wbCdR_N1PJc783mP_mtlQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/mj5H52pb8ivr0RcjQ-N9cw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/L32CQqYyDVXO-DF7hgHyAQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/pr-CblnPk9vL2ApdEOo_dQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jOxiIwl9CpcNJxP8dckk6A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ijxgB4PqNSwT9jxZQotXIQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/AjUkrlWXkxOqou5W9tgVpw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/WIMrcWpPk8g16xjOZR_e4g?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uC2CvyAZKpXLB4pbfUDEwA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Vr-xa_jxF7CS4mlKHSpHgw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-rE5uMCRLrzdP16Sf7m5UA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/_VRX4ciyxXBAZZrWlce-FQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Cd_p1u_CUNlo8A-6VywrYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/frAq9bxqUXeg-8CrHH-M_w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Q8YCgoN6l70alReqqr5Wmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/nIdKcbV265_Oy19NRrVK0g?typeid=9</t>
   </si>
   <si>
     <t>發佈日期：2022-01-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增44例COVID-19確定病例，分別為2例本土個案(案17414-17415)及42例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17414-17415)分別為本國籍1例男性、1例女性，年齡均為50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增42例境外移入個案，性別為25例男性、16例女性、1例調查中，年齡介於未滿10至70多歲，分別自美國(23例)、越南(4例)、法國(2例)、阿根廷、澳大利亞、菲律賓、加拿大、阿拉伯聯合大公國、泰國、巴西、西班牙、印度、義大利及德國(各1例)入境，另有2例調查中，入境日介於去(2021)年12月15日至今(2022)年1月7日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,074,946例新型冠狀病毒肺炎相關通報(含5,055,445例排除)，其中17,302例確診，分別為2,630例境外移入，14,618例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月8日新增本土COVID-19確診個案表.pdf\$\@\$1月8日新增境外移入COVID-19確診個案表.pdf</t>
@@ -127,28 +538,88 @@
     <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日表示，因應國內發生Omicron變異株本土確診病例，社區感染風險提升，衛生福利部傳染病防治諮詢會預防接種組(ACIP)決議，已接種兩劑COVID-19疫苗且間隔滿12週(84天)以上之滿18歲民眾，應儘速接種1劑COVID-19疫苗追加劑，以提升免疫保護力。\$\@\$指揮中心說明，昨(6)日召開ACIP會議討論COVID-19疫苗接種策略，考量國內外COVID-19疫情升溫，為降低社區傳播風險，專家指出，建議滿18歲以上民眾於完整接種COVID-19疫苗基礎劑12週後，應接種1劑追加劑，以提升個人及群體免疫力。追加劑接種廠牌建議如下：\$\@\$一、以mRNA疫苗(如Moderna、BNT)或蛋白質次單元疫苗(如高端)完成基礎劑：追加劑可以選擇接種Moderna(半劑量)、BNT、高端或AZ疫苗。\$\@\$二、以AZ完成基礎劑：追加劑可選擇接種mRNA或蛋白質次單元疫苗。\$\@\$指揮中心指出，目前國內疫苗庫存充足，將請地方政府衛生局儘速擴充接種量能，符合接種間隔的民眾可透過「COVID-19疫苗防治一網通」( https://antiflu.cdc.gov.tw/Covid19 )或地方政府衛生局公告，查詢鄰近合約醫療院所提供施打之疫苗廠牌及接種時間。\$\@\$*備註：國外接種疫苗者，接種追加劑說明：\$\@\$一、於國外曾接種WHO EUL 之COVID-19疫苗 返國後請先至就近衛生所或健康服務中心補登國外疫苗接種紀錄，並妥善保存國外接種紀錄。\$\@\$二、符合現行追加劑接種間隔者(至少12週)，可攜國外接種紀錄、健保卡或相關身分證明文件，至鄰近COVID-19疫苗合約院所掛號接種。\$\@\$三、如接種非WHO EUL COVID-19疫苗, 視同無效劑次, 可於與最後一劑COVID-19疫苗間隔28天後, 於國內先完成COVID-19疫苗基礎劑接種，再依規定接種追加劑。</t>
   </si>
   <si>
+    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，因應國際COVID-19疫情嚴峻及Omicron新型變異株威脅，考量春節入境人潮且近期COVID-19境外移入確診個案增加，為確保國內醫療院所對疫情的因應及保全醫療量能，即日起調整醫療機構醫療應變作為，說明如下：\$\@\$一、全國專責病房及負壓隔離病房調整收治病人條件，專責病房僅收治疑似或確診COVID-19病人；負壓隔離病室則以收治疑似或確診COVID-19及其他空氣傳染之法定傳染病病人為原則，清空非必要(如非空氣傳染防護隔離治療)入住於負壓隔離病房的病人。\$\@\$二、臺北市、新北市、基隆市、桃園市之應變醫院，於3日內恢復開設急性一般病床總數之20%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$三、臺北市、新北市、基隆市、宜蘭縣、桃園市、新竹市、新竹縣及苗栗縣之急性一般病床總數500床以上之急救責任醫院，於3日內恢復開設急性一般病床總數之5%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$四、專責病房收治疑似或確診COVID-19病人應以一人一室為原則(家人、同住者、同行者等如均為確診個案且知情同意，得兩人一室)，並有適當動線規劃，分流分艙安置住院病人；落實固定照護團隊與服務區塊化，避免人員頻繁輪替或跨單位工作；配置適當且固定之工作人員(含清潔人員、傳送人員及照顧服務員等)，以防範院內感染傳播風險。\$\@\$指揮中心呼籲醫療機構落實感染管制、強化門禁管制及工作人員健康監測、加強員工使用適當個人防護裝備，以預防並降低醫院群聚感染風險。由於Omicron新型變異株可能造成突破性感染，降低疫苗之保護力，指揮中心籲請可接種追加劑疫苗之醫院工作人員儘速接種追加劑疫苗，以確保人員健康安全。指揮中心將持續監測國內外疫情發展，確實掌握病床數及相關醫療資源分配，滾動修正相關應變策略，完善醫療照護體系，確保醫療量能充足以因應疫情。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今（10）日表示，近日有網友散布「三級警戒微解封的不可思議之處，新冠肺炎病毒只會攻擊家人」等訊息，相關內容多有誤導，且在錯誤基礎上進行不當類比，指揮中心再次強調，相關防疫指引已清楚說明，原本同住家人可以繼續維持生活，相關指引都是針對日常非同住者間的行為互動加以規範，呼籲民眾勿輕信或隨意散播、轉傳錯誤訊息，造成防疫困擾。\$\@\$指揮中心指出，有關7月13號以後針對部分場所將適度鬆綁，但仍須遵守防疫相關指引及規範，而此波疫情中，不少個案均為家戶群聚感染，由於室內密切接觸風險較高，因此對於室內社交人數須有較嚴格規範，但不包含原本同住的家人，也無需限制同住家人不能在家打麻將、看電影、吃飯等。 圖片 附件\$\@\$0710指揮中心：勿輕信「三級警戒微解封的不可思議之處」之網傳.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-13\$\@\$近日有網友在臉書FB以自製圖文方式散布「政府讓人民施打未受認證且保護力低之國產疫苗」、「國產疫苗的中和抗體效價比國外疫苗差」、「國產疫苗為什麼不向國際提出緊急授權」，中央流行疫情指揮中心(下稱指揮中心)今（13）日嚴正澄清表示，目前國產疫苗臨床試驗尚在進行中，最終結果須等廠商提出EUA 申請，經專家會議審查疫苗的製程管控、藥毒理試驗及臨床試驗結果，在緊急公衛的需求下，確認疫苗使用效益大於風險，才會核准緊急授權使用。\$\@\$指揮中心指出，目前國產疫苗廠商皆已積極規劃，以取得國際認證為目標。國產疫苗需經食藥署和專家會議嚴謹審查，在緊急公衛需求，並確認效益大於風險，才會核准緊急授權使用。此外，各家廠牌的疫苗所使用的檢驗實驗室及檢驗方式不同且無協和，無法直接由各實驗室產生數值進行比較。國產疫苗仍需等廠商提出申請，經過中央主管機關嚴格把關及審查通過後，確認品質、安全、療效後，品質沒有問題，疫苗方可供民眾施打。\$\@\$指揮中心再次提醒，民眾接獲來源不明的訊息時，應先進行查證，切勿隨意散播、轉傳，以免觸法。 圖片 附件\$\@\$0613網傳「政府讓人民施打未受認證且保護力低之國產疫苗」-1.jpg\$\@\$0613網傳「政府讓人民施打未受認證且保護力低之國產疫苗」-2.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日嚴正澄清，近日於社群平台流傳「代工三億劑嫌太多賣不出去」等訊息，指揮中心於6月10日記者會已公開說明，與AstraZeneca原廠洽談授權製造事宜時，我方提出可年產一億劑之規劃，但原廠要求需年產三億劑，經評估，對我方產能過於沉重，並無以「賣不出去」為由拒絕原廠授權製造，卻被有心人刻意扭曲語意。此圖文與事實不符，指揮中心特此澄清。\$\@\$指揮中心重申，防疫相關資訊應以中央流行疫情指揮中心公布內容為主。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播。詳情請上官網查詢 (http://at.cdc.tw/Q7S2Vt)。 圖片 附件\$\@\$20210612澄清.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，近日網路出現偽冒教育部網站，杜撰「全國各級學校因應疫情停課時程資訊」等訊息，意圖造成民眾困惑，此為境外假網頁不實訊息，請民眾勿輕信。\$\@\$指揮中心副指揮官陳宗彥表示，該網站假冒教育部傳達不實防疫訊息，刑事警察局已成立專案小組偵辦，經調查其為境外IP。\$\@\$指揮中心指出，教育部全球資訊網正確的網址是https://www.edu.tw/ ，民眾收到任何連結時，可以先觀察連結網址，是否跟官方網址一樣。例如，教育部官方網址的網域，就會是「edu.tw」結尾。\$\@\$指揮中心強調，散播假訊息構成犯罪，會被判處最高三年有期徒刑或併科三百萬元罰金。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播，以免觸法。 圖片 附件\$\@\$0525指揮中心指出，網路出現偽冒教育部網站並杜撰假訊息，請民眾勿輕信.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-06\$\@\$為提供結核病患即時診斷，疾病管制署結核病診治指引自104年已加重結核分枝桿菌核酸增幅(nucleic acid amplification, NAA)檢驗於診斷結核病之角色。NAA檢驗具快速、高敏感度及高特異性，可大幅縮短傳統培養檢驗方法所需等待結果時間，有利及早診斷及治療結核病。\$\@\$因應近期結核菌液態培養(MGIT)檢驗發生添加劑(營養劑併抑制細菌生長的抗生素成分)供貨短缺情形，為避免延遲發現疑似結核病個案，依本署110年12月24日「衛生福利部傳染病防治諮詢會(結核病防治組)」會議決議，於供貨短缺期間，對於社區型肺炎尚未通報結核病者，於診斷送驗3套初查痰執行塗片耐酸性染色鏡檢(Acid fast stain)及分枝桿菌培養時，其中1套請務必同時開立NAA檢驗。另考量實驗室短期內MGIT痰培養試劑有限，對於管理中的結核病患追蹤複查痰，請採1套進行培養檢驗，暫時避免重複送驗檢體，此因應作為停止施行時間將於缺貨狀況緩解後再函週知。\$\@\$有關「結核病診治指引」可至疾病管制署全球資訊網(https://www.cdc.gov.tw)&gt;傳染病與防疫專題&gt;傳染病介紹&gt;第三類定傳染病&gt;結核病&gt;重要指引及教材項下查閱。\$\@\$感謝您與我們共同維護全民的健康安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-24\$\@\$一、考評單位：衛生福利部疾病管制署。\$\@\$二、考評目的：客觀衡量地方政府衛生局111年防疫業務之施政績效。\$\@\$三、受評機關：地方政府衛生局。\$\@\$四、受評期間：111年1月至12月\$\@\$五、考評架構與權重：9項考評指標，共計200分。\$\@\$六、考評方式：\$\@\$(一)   防疫業務相關管理系統之統計結果及書面考核。\$\@\$本手冊考評指標資料，如須受評機關提供始得評分者，請於112年1月13日前備函逕送考評執行單位進行評核。\$\@\$考評單位於指定日期前完成分數統計及成績評定。\$\@\$考評單位完成考評並請地方政府衛生局確認後，於111年3月17日前將考評結果送衛生福利部綜合規劃司備查。\$\@\$(二)   考評單位得視需要辦理實地查核。 附件\$\@\$111年地方衛生機關業務考評作業手冊-防疫類.pdf\$\@\$111年地方衛生機關業務考評作業手冊-防疫類.docx</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-20\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$公共關係室\$\@\$約用公關助理\$\@\$(徵才案號：0708)\$\@\$(計5名)\$\@\$王○琴(F22546****)\$\@\$李○怡(A22422****)\$\@\$李○達(F12468****)\$\@\$鍾○婷(T22347****)\$\@\$廖○儀(T22036****)\$\@\$二、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)口試：\$\@\$1、報到時間：110年12月30日星期四09:50~10:00，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：10:00~11:30。\$\@\$(二)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(三)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於110年12月29日下午5點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(四)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(五)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日表示，為加速國人完成2劑接種，提升尚未接種第1、2劑COVID-19疫苗民眾之接種意願，各地方政府自2022年1月5日至1月31日前，可提供18歲以上民眾200元(含)以下衛教品，以鼓勵民眾踴躍完成接種2劑COVID-19疫苗，儘速獲得完整免疫保護力。\$\@\$指揮中心表示，截至2022年1月3日為止，我國COVID-19疫苗第一劑接種率約80%，第二劑接種率約69%，為因應國際疫情持續嚴峻及Omicron新型變異株之威脅增加，接種涵蓋率仍須再提升，目前COVID-19疫苗由地方政府衛生局指定/安排之合約醫療院所或衛生所進行接種，鼓勵尚未接種過任何1劑COVID-19疫苗及符合接種間隔但尚未完成2劑COVID-19疫苗接種之民眾，請儘速前往COVID-19疫苗合約醫療院所接種。\$\@\$指揮中心說明，目前國內各廠牌COVID-19疫苗供應充分，民眾可至衛生福利部疾病管制署全球資訊網，「COVID-19疫苗接種院所單元」（https://www.cdc.gov.tw/Category/List/u4l1b_gHhf9WDjhEtRmRRw），運用「COVID-19接種院所地圖」及各地方政府衛生局公告之COVID-19疫苗接種合約醫療院所以及車站等隨到隨打疫苗接種站，就近前往接種。\$\@\$指揮中心提醒， 18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書。若由家長陪同前往接種，請本人與家長於現場共同簽署意願同意書。另依衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者亦請攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增34例COVID-19確定病例，分別為4例(案17230、案17238-17240)本土及30例境外移入，其中案17230為昨(3)日公布之尚未取號本土個案；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17238-17240為本國籍，1例男性、2例女性，年齡均為50多歲，皆已接種2劑疫苗，為案17230接觸者。案17238及案17239均為同職場工作人員，通勤時搭乘同班交通車，案17239於1月1日起陸續出現疲倦、咳嗽、流鼻水症狀；案17240為防疫計程車司機，1月1日出現咳嗽症狀，3人經衛生單位安排採檢後於今日確診，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心表示，今日新增30例境外移入個案，為16例男性、14例女性，年齡介於未滿5歲至70多歲，分別自美國(22例，案17207、案17210-17219、案17221、案17223-17228、案17231-17232、案17235-17236)、法國(案17208)、挪威(案17209)、南非(案17220)、阿拉伯聯合大公國(案17222)、英國(案17229)、波蘭(案17234)及烏茲別克(案17237)入境，另1例(案17233)調查中，入境日介於去(2021)年11月20日至今(2022)年1月3日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,998,949例新型冠狀病毒肺炎相關通報(含4,979,641例排除)，其中17,129例確診，分別為2,469例境外移入，14,606例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月4日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增1例COVID-19本土確定病例(尚未取號)，為本國籍40多歲女性，任機場停車場清潔人員，近期無出入境紀錄，已接種2劑AZ疫苗。個案於今(2022)年1/2出現發燒、畏寒、咳嗽、流鼻水、喉嚨痛等症狀，並於今日進行快篩，結果為陽性，同時採檢後確診。桃園市政府衛生局即刻啟動疫情調查，並立即通知同住家人就讀之兩校，分別預防性停課一天。\$\@\$指揮中心說明，桃園市政府在接獲醫院通報個案後，已通知個案家人就讀之兩校，分別預防性停課一天。並立即針對6名家人，已於今晚完成採檢，並以急件進行核酸檢驗，檢驗結果確認均為陰性，請兩校師生及家長不需擔憂。並對於個案之工作場域相關接觸者，現正擴大匡列採檢中，包括召回數百名防疫計程車司機將漏夜進行採檢，及針對個案所服務工作場域將進行清消。\$\@\$指揮中心進一步說明，個案另曾於去(2021)年12/30、12/31兩日上午9時至12時有至忠貞市場(中壢前龍街路段)擺攤賣小孩耳環、公仔、髪圈等，衛生單位將針對該市場進行疫調及接觸者匡列，並進行清消作業。\$\@\$指揮中心呼籲，民眾若曾於該段時間出入該場所，應請進行自我健康監測，若於1/14前出現發燒、上呼吸道、腹瀉、嗅味覺異常等症狀，應佩戴醫用口罩，儘速至社區採檢站或各指定採檢院所，接受採檢及評估。</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增25例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增25例境外移入個案，為9例男性、16例女性，年齡介於未滿5歲至70多歲，分別自美國(15例，案17182-17183、案17186-17191、案17196-17197、案17199、案17201-17203、案17205)、土耳其(4例，案17192-17195)、德國(案17184)、加拿大(案17185)、義大利(案17198)、菲律賓(案17200)、亞美尼亞(案17204)及千里達及托巴哥(案17206)入境，入境日介於去(2021)年12月19日至今(2022)年1月1日；詳如新聞稿附件。\$\@\$另去年12月28日及12月30日公布之2例(案17058、案17099)境外移入病例經疫調後改判為本土病例，為案17085之相關感染。\$\@\$指揮中心統計，截至目前國內累計4,982,263例新型冠狀病毒肺炎相關通報(含4,962,860例排除)，其中17,095例確診，分別為2,439例境外移入，14,602例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增21例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增21例境外移入個案，為15例男性、6例女性，年齡介於20多歲至70多歲，分別自美國(9例，案17141、案17148、案17149、案17151、案17154、案17156、案17159-17161)、越南(6例，案17142、案17145、案17147、案17150、案17152、案17153)、埃及(案17143)、寮國(案17144)、瓜地馬拉(案17146)、羅馬尼亞(案17155)、烏克蘭(案17157)及德國(案17158)入境，入境日介於去(2021)年12月17日至12月31日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,961,497例新型冠狀病毒肺炎相關通報(含4,942,271例排除)，其中17,050例確診，分別為2,396例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月1日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增41例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增41例境外移入個案，為16例男性、25例女性，年齡介於20多歲至70多歲，分別自美國(14例，案17104-17106、案17112、案17113、案17115、案17116、案17118-17122、案17131、案17139)、菲律賓(2例，案17125、案17132)、法國(2例，案17117、案17124)、義大利(案17114)、肯亞(案17123)、喀麥隆(案17126)、瑞士(案17127)、印度(案17128)、阿拉伯聯合大公國(案17129)、烏克蘭(案17130)、越南(案17133)及柬埔寨(案17138)入境，另14例(案17100-17103、案17107-17111、案17134-17137、案17140)調查中，入境日介於今(2021)年12月16日至12月30日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,946,919例新型冠狀病毒肺炎相關通報(含4,927,473例排除)，其中17,029例確診，分別為2,375例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月31日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-30\$\@\$衛生福利部疾病管制署今（30）日公布「受聘僱外國人健康檢查管理辦法」部分條文修正案，並預訂於111年1月1日實施。本次修法重點包括「修正移工申請結核病都治條件」及「防疫期間調整移工健檢期限之法源依據」等事項，確保社區防疫安全。\$\@\$疾管署說明，結核病為結核桿菌感染所造成的慢性傳染病，目前抗結核藥物效果良好，連續服藥14天後的傳染力可大幅下降；透過移工主動配合、雇主支持，再加上結核病都治關懷員等衛生單位人員持續關心移工確實規則服藥，幾乎可以痊癒，且治療期間亦可正常工作與生活作息；此外，罹患結核病之移工若於國內完成治療，除能避免疾病持續傳播，維護員工健康外，亦不影響雇主勞動力需求。本辦法修正後，移工確診為肺結核、結核性肋膜炎（多重抗藥性結核病個案除外）或漢生病，且本人同意留臺配合按規治療者，雇主應於收受診斷證明書之次日起15日內，檢具「診斷證明書」及「受聘僱外國人接受衛生單位安排都治服務同意書」送縣市政府衛生局申請都治服務，共同落實社區防疫。\$\@\$疾管署指出，本辦法另增訂「中央流行疫情指揮中心成立期間，中央衛生主管機關得依國內疫情防治所需，調整移工健檢期限」及「自聘僱許可生效日起滿6、18及30個月之日與最近一次健檢日間隔未滿3個月者，免辦該次定期健檢」等規定；且回溯至自110年5月19日施行，以避免部分移工需於短期間內重複健檢，並能兼顧防疫安全。\$\@\$為利雇主（仲介）能瞭解本辦法修正後實務作業，疾病管制署提供「移工罹患結核病申請留臺治療」宣導海報、「認識結核病的問與答」多國語言宣導單張及宣導影片等相關衛教素材，並建置於該署全球資訊網（http://www.cdc.gov.tw ； 首頁&gt;國際旅遊與健康&gt;外國人健康管理&gt;受聘僱外國人健檢&gt;最新消息）供下載瀏覽。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-30\$\@\$中央流行疫情指揮中心今（30）日表示，由於國際疫情嚴峻及Omicron新型變異株之威脅日益擴散，近期入境人數及COVID-19境外移入個案增加，為強化社區監測，自明(2022)年1月1日起擴大辦理COVID-19社區加強監測方案，全國由86家定點診所發放公費COVID-19家用快篩試劑增加至272家，由各縣市人口數較多之鄉鎮市區基層診所協助發放試劑，因COVID-19症狀與一般感冒相似，提醒民眾如有出現呼吸道症狀，可多加前往該等診所，由醫師評估發放試劑後自行檢驗。\$\@\$指揮中心說明，今(2021)年8月30日起規劃推動COVID-19社區加強監測方案，迄今已發放1萬餘劑公費COVID-19家用快篩試劑，考量近期COVID-19社區傳播風險提升，為提高民眾取得公費家用快篩試劑可近性與及早發現自身感染之可能，將自明年1月1日起於全國21個縣市增加至272個診所試劑發放點，診所名單詳如新聞稿附件。\$\@\$指揮中心呼籲，現值呼吸道病毒活躍期，請民眾多加留意自身健康，如出現呼吸道症狀，可前往本計畫定點診所；民眾如為2歲以上出現呼吸道症狀的病患至公費快篩試劑發放診所掛號就醫，經醫師評估後發放試劑及注意事項說明單張，如為2歲以下幼兒的陪同看診者，亦由醫師評估後發放。民眾領取試劑後，請配合依注意事項說明內容儘速採檢，並至線上(https://forms.gle/8gh7Kb3ZkYE5aArW7)填寫試劑領取診所名稱及快篩結果等資料，此為匿名方式收集，無須擔心個人資料外洩情形。\$\@\$指揮中心提醒，如居家快篩檢驗為陽性時，請勿慌張並儘速至鄰近的社區採檢院所( https://reurl.cc/MArG1L )進一步PCR檢驗。民眾前往社區採檢院所時，請戴好口罩、勿搭乘大眾運輸工具，對於使用過之採檢器材請用塑膠袋密封包好，並攜帶至社區採檢院所，交予院所人員處理。 附件\$\@\$附件-配合辦理發放公費COVID-19家用快篩試劑社區定點診所名單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-30\$\@\$中央流行疫情指揮中心今(30)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第十五批BNT疫苗93.83萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨1333.62萬劑，分別為首批9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑、第五批10月4日27萬劑、第六批10月7日88.92萬劑、第七批10月8日88.92萬劑、第八批10月14日82.7萬劑、第九批10月28日90.21萬劑、第十批10月29日91.03萬劑、第十一批11月5日87.17萬劑、第十二批11月12日92.66萬劑、第十三批11月25日93.83萬劑、第十四批12月9日192.35萬劑，以及本批93.83萬劑。本批疫苗效期至2022年3月28日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增14例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增14例境外移入個案，為6例男性、8例女性，年齡介於10多歲至70多歲，分別自美國(10例，案17063-17070、案17072、案17073)、德國(案17062)、泰國(案17071)、香港(案17074)及越南(案17075)入境，入境日介於今(2021)年12月14日至12月27日；詳如新聞稿附件。\$\@\$指揮中心統計，累計4,917,481例新型冠狀病毒肺炎相關通報(含4,898,907例排除)，其中16,964例確診，分別為2,310例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月29日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增19例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增19例境外移入個案，為9例男性、10例女性，年齡介於未滿10歲至80多歲，分別自美國(8例，案17043、案17045-17049、案17051、案17056)、瑞士(案17044)、寮國(案17050)、越南(案17052)、柬埔寨(案17053)、加拿大(2例，案17054、案17061)、哈薩克(案17055)、香港(案17057)、中國(案17058)及阿根廷(2例，案17059、案17060)入境，入境日介於今(2021)年12月14日至12月26日；詳如新聞稿附件。\$\@\$指揮中心統計，累計4,901,375例新型冠狀病毒肺炎相關通報(含4,882,616例排除)，其中16,950例確診，分別為2,296例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月28日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日表示，近期考量國內整體疫情趨緩及配合疫苗接種政策，為兼顧國內產業用人需求及移工工作權益，因此適度鬆綁管制措施，自110年12月27日起，移工轉換新雇主及同一雇主調派移工變更工作地點，如移工已完整接種COVID-19疫苗，無須再事前安排移工檢驗PCR，但雇主及移工仍應落實指揮中心及勞動部規定的相關防疫措施。\$\@\$指揮中心表示，鼓勵在臺移工接種疫苗，以提升疫苗覆蓋率，降低群聚感染可能性。另取消PCR相關規定後，雇主仍應依規定落實強化宿舍管理、分艙分流、健康監測等其他防疫規定，若未落實防疫，仍將依就業服務法相關規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增16例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增16例境外移入個案，為12例男性、4例女性，年齡介於10多歲至60多歲，分別自美國(8例，案17027-案17028、案17031、案17033-案17037)、越南(案17029)、匈牙利(案17030)、哈薩克(案17032)、菲律賓(案17038)、寮國(案17039)、英國(案17040)、德國(案17041)及印尼(案17042)入境，入境日介於今(2021)年12月12日至12月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,884,004例新型冠狀病毒肺炎相關通報(含4,864,380例排除)，其中16,931例確診，分別為2,277例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月27日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增62例COVID-19確定病例，分別為4例本土個案(案17368-17371)及58例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17368-17371)分別為本國籍1例男性、3例女性，年齡介於20至50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增58例境外移入個案，為29例男性、29例女性，年齡介於10多歲至70多歲，分別自美國(35例)、法國(4例)、英國(3例)、瑞士、越南及印度(各2例)、奧地利、智利、德國、加拿大、愛爾蘭、孟加拉、奈及利亞、墨西哥、西班牙及哥斯大黎加(各1例)入境，入境日介於去(2021)年12月22日至今(2022)年1月6日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,055,274例新型冠狀病毒肺炎相關通報(含5,035,769例排除)，其中17,258例確診，分別為2,588例境外移入，14,616例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另新增2例空號病例(案17271，案17272與舊案重複，改列空號)，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月7日新增本土COVID-19確診個案表.pdf\$\@\$1月7日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增43例COVID-19確定病例，為昨(5)日公布尚未取號的3例本土個案(案17307-17309)及40例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17307-17309為本國籍女性，年齡介於50至60多歲，皆已接種2劑疫苗，為案17230、案17238、案17239及案17266同職場工作人員；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增40例境外移入個案，為20例男性、20例女性，年齡介於未滿5歲至70多歲，分別自美國(24例，案17267、案17270、案17273-17275、案17277-17282、案17284-17289、案17291-17292、案17300、案17302、案17304-17306)、印度(3例，案17290、案17296、案17303)、巴拿馬(2例，案17271-17272)、荷蘭(案17268)、阿拉伯聯合大公國(2例，案17283、案17301)、加拿大(案17269)、菲律賓(案17276)、義大利(案17293)、英國(案17295)、中國(案17298)及法國(案17299)入境，另有2例(案17294、案17297)調查中，入境日介於去(2021)年12月26日至今(2022)年1月5日；詳如新聞稿附件。\$\@\$另去年12月31日公布之案17127境外移入病例經疫調後改判為本土病例，為案17073之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,036,659例新型冠狀病毒肺炎相關通報(含5,016,638例排除)，其中17,198例確診，分別為2,532例境外移入，14,612例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月6日新增境外移入COVID-19確診個案表.pdf\$\@\$1月6日新增本土COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
     <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，考量目前國際COVID-19疫情嚴峻，請長者及其他 COVID-19感染後容易產生嚴重併發症之族群，儘速完成COVID-19疫苗基礎劑接種，提升保護力。\$\@\$指揮中心表示，目前我國75歲以上長者第1劑接種率僅約73%，第2劑接種率僅約67%，仍需再積極提升，為維護長者及風險族群健康，降低因感染COVID-19造成之重症、住院或死亡風險，家中長輩如尚未接種COVID-19疫苗第1、2劑，請於其身體狀況較穩定時，協助陪同至各地方政府衛生局安排或指定之合約醫療院所接種。\$\@\$指揮中心說明，疫苗接種後可能發生副作用，通常輕微並於數天內消失，並隨年齡層增加而減少，若擔心接種疫苗後所產生之副作用，可先與醫師討論，經諮詢評估選擇合適的疫苗接種。\$\@\$指揮中心表示，若為行動不便者，各地方政府衛生局亦設有到宅接種服務，有需求者可向各地方政府衛生局洽詢。另為鼓勵18歲以上尚未接種第1劑、第2劑COVID-19疫苗接種者儘速踴躍前往接種，於2022年1月5日至1月31日前接種COVID-19疫苗者，可獲得地方政府發放之200元(含)以下衛教品，鼓勵民眾儘速接種，獲得保護力。\$\@\$指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者，請記得攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時，說明過往疫苗接種史，以利醫生評估。另近期天氣多變，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後就近前往接種。接種後亦請多加留意身體狀況，多喝水多休息，亦請家人協助注意，如有持續發燒超過48小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，應儘速就醫釐清病因。</t>
   </si>
   <si>
-    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，因應國際COVID-19疫情嚴峻及Omicron新型變異株威脅，考量春節入境人潮且近期COVID-19境外移入確診個案增加，為確保國內醫療院所對疫情的因應及保全醫療量能，即日起調整醫療機構醫療應變作為，說明如下：\$\@\$一、全國專責病房及負壓隔離病房調整收治病人條件，專責病房僅收治疑似或確診COVID-19病人；負壓隔離病室則以收治疑似或確診COVID-19及其他空氣傳染之法定傳染病病人為原則，清空非必要(如非空氣傳染防護隔離治療)入住於負壓隔離病房的病人。\$\@\$二、臺北市、新北市、基隆市、桃園市之應變醫院，於3日內恢復開設急性一般病床總數之20%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$三、臺北市、新北市、基隆市、宜蘭縣、桃園市、新竹市、新竹縣及苗栗縣之急性一般病床總數500床以上之急救責任醫院，於3日內恢復開設急性一般病床總數之5%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$四、專責病房收治疑似或確診COVID-19病人應以一人一室為原則(家人、同住者、同行者等如均為確診個案且知情同意，得兩人一室)，並有適當動線規劃，分流分艙安置住院病人；落實固定照護團隊與服務區塊化，避免人員頻繁輪替或跨單位工作；配置適當且固定之工作人員(含清潔人員、傳送人員及照顧服務員等)，以防範院內感染傳播風險。\$\@\$指揮中心呼籲醫療機構落實感染管制、強化門禁管制及工作人員健康監測、加強員工使用適當個人防護裝備，以預防並降低醫院群聚感染風險。由於Omicron新型變異株可能造成突破性感染，降低疫苗之保護力，指揮中心籲請可接種追加劑疫苗之醫院工作人員儘速接種追加劑疫苗，以確保人員健康安全。指揮中心將持續監測國內外疫情發展，確實掌握病床數及相關醫療資源分配，滾動修正相關應變策略，完善醫療照護體系，確保醫療量能充足以因應疫情。</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增3例COVID-19本土確定病例(尚未取號)，為擴大採檢清潔外包人員，於今日晚間檢驗陽性。\$\@\$指揮中心表示，3名個案均為女性，年齡分別為1例50多歲及2例60多歲，Ct值分別為33.8、23.4及19.5，為案17230、案17238、案17239及17266同職場工作人員，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心說明，因應桃園機場感染事件，指揮中心於第一時間針對外包清潔人員進行擴大採檢，已匡列861人，截至今日晚間，已有4例陽性（案17266及前述3例陽性）、855例陰性、1例檢驗中、1例待採檢。總計清潔外包人員已確診共7人（案17230、案17238-17239、17266、及前述3例）。\$\@\$指揮中心說明，因應今日晚間新增3位本土確診病例，前進指揮所立即啟動緊急作為如下：\$\@\$1. 針對清潔外包公司航廈夜班人員共93人，全數送集中檢疫所集中隔離。\$\@\$2. 該公司其餘未隔離員工，共768人，明後兩日（1月6日-1月7日）每日以家用快篩自我檢測，並彙整報告提供前進指揮所。1月8日將再度安排全員PCR檢驗。\$\@\$3. 已責成外包清潔公司嚴格確實執行員工健康監測，確保員工健康，以及早處理可能事件。</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增26例COVID-19確定病例，分別為1例(案17266)本土及25例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17266為本國籍50多歲女性，已接種2劑莫德納疫苗(為突破性感染)，與案17230、案17238及案17239為同職場工作人員，曾與前述個案搭乘同路線交通車，原定於今(2022)年1月5日採檢，1月3日出現乾咳、喉嚨不適等症狀，1月4日自行前往採檢站採檢後於今日確診，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心表示，今日新增25例境外移入個案，為12例男性、13例女性，年齡介於未滿5歲至70多歲，分別自美國(12例，案17241-17243、案17245、案17250、案17252、案17254、案17256-17259、案17265)、法國(3例，案17244、案17246、案17253)、丹麥(案17247)、英國(17248)、玻利維亞(案17249)、德國(案17251)、史瓦帝尼王國(案17255)、澳洲(案17260)、巴拿馬(2例，案17261-17262)、瑞典(案17263)及印尼(案17264)入境，入境日介於去(2021)年11月14日至今(2022)年1月4日；詳如新聞稿附件。\$\@\$另1月2日公布之案17181境外移入病例經疫調後改判為本土病例，為案16941之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,017,456例新型冠狀病毒肺炎相關通報(含4,998,328例排除)，其中17,155例確診，分別為2,493例境外移入，14,608例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月5日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-05\$\@\$疾管署今(5)日宣布，為提升疫苗接種人口涵蓋率，發揮疫苗最大效益，自2022年1月6日起，公費流感疫苗擴大提供全國6個月以上尚未接種之民眾接種，至疫苗用罄為止，疾管署呼籲尚未接種的計畫對象，尤其是65歲以上長者、學齡前幼兒及醫事人員等重點族群儘快接種，以保障自身及周遭人員的健康。\$\@\$疾管署表示，2021年度公費流感疫苗分2階段施打，除50至64歲無高風險慢性病成人於第二階段11月15日開打外，其於對象均為10月1日開打。截至2022年1月4日，公費疫苗總接種數約562萬劑，整體疫苗使用率逾91.9%，剩餘量約49萬劑；目前全國約有3,700餘家合約院所(含部分衛生所)提供接種服務，建議民眾可先透過各地方政府衛生局網頁、疾管署流感防治一網通(https://antiflu.cdc.gov.tw/)、疾管家或1922防疫諮詢專線，查詢鄰近合約院所名單，並向合約院所預約，以確保可施打到疫苗。\$\@\$另公費流感疫苗接種期間，COVID-19疫苗接種作業持續進行，依衛生福利部傳染病防治諮詢會預防接種組專家建議，2種疫苗接種間隔應至少7天，避免發生疫苗接種不良事件無法釐清。疾管署提醒民眾於預約或接種前主動告知疫苗接種史，合約院所應於接種區建立動線分流，並請相關工作人員於接種前落實檢核接種紀錄，接種後於健保卡黏貼流感疫苗接種貼紙。\$\@\$疾管署提醒，國內流感疫情仍處低點尚未進入流行期，民眾可儘速接種，以於流感疫情達高峰前獲得足夠保護力。近期氣溫偏低，為防範流感及COVID-19疫情雙重衝擊，民眾除接種疫苗，應養成良好衛生習慣，出現類流感症狀儘速戴口罩就醫，並在家休息，減少病毒傳播機會。如有流感疫苗或流感防治相關疑問，可至疾管署全球資訊網(https://www.cdc.gov.tw)，或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日表示，為因應桃園機場群聚感染案件，陳時中指揮官於今日下午協同醫療應變組王必勝副組長、桃園市政府衛生局王文彥局長、衛生福利部疾病管制署北區管制中心及機場公司航運中心工作人員，實地進行入境旅客動線勘查，評估釐清風險，檢視第一線人員防護裝備及消毒情形，並啟動下列防疫作為：\$\@\$一、 成立前進指揮所，由醫療應變組王必勝副組長擔任指揮官，統籌指揮相關防疫工作，進行跨單位溝通協調，並評估各單位現場作業風險，提出相關改善計畫。\$\@\$二、 針對高風險旅客(14天內有症狀)之入境動線，重新釐清評估風險，避免與其他民眾、工作人員接觸，降低傳播可能性。\$\@\$三、 配合桃園市政府衛生局採檢規劃「擴大、快速」戰略概念，擴大評估可能有在個案活動地(如清潔的廁所)活動之其他人員，快速進行相關篩檢。</t>
+    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日指出，近日有網友在通訊軟體LINE散布「臺中市太原路復健醫院被徵收為方艙醫院」，臺中市政府衛生局已澄清為不實訊息，請民眾勿再轉傳與散布，以免觸法遭罰。\$\@\$指揮中心表示，臺中市政府已對外澄清，此復健醫院近期進行搬遷作業，是為了提升醫療品質，正以BOT方式規劃市立綜合醫院，並非徵用作為方艙醫院。\$\@\$指揮中心副指揮官陳宗彥指出，因應疫情變化，各地方政府規劃應變醫院及專責醫院收治患者，民眾接獲來源不明的訊息時，應先進行查證，切勿隨意散播、轉傳，以免觸法。\$\@\$指揮中心重申，防疫相關資訊應以中央流行疫情指揮中心公布內容為主，散播假訊息構成犯罪，會被判處最高三年有期徒刑或併科三百萬元罰金。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播，以免觸法。詳情請上官網查詢(http://at.cdc.tw/Q7S2Vt)。 圖片 附件\$\@\$網傳「臺中市太原路復健醫院被徵收為方艙醫院」為不實訊息勿轉傳.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-05-28\$\@\$近期國內疫情升溫，警方發現網路上有不肖人士販售「新冠病毒快篩試劑」，中央流行疫情指揮中心副指揮官陳宗彥今(28)日表示，擅自在網路販售新冠病毒檢驗試劑等第三級醫療器材已違反「醫療器材管理法」，目前警方已進行偵辦，提醒民眾切勿購買檢測，除有效性及檢測結果正確性均無法確認外，還可能危害自身健康。\$\@\$指揮中心指出，新冠病毒檢驗試劑是第三級醫療器材，依據「醫療器材管理法」規定，只有醫療器材商及藥局可以販賣，且國內並未開放可使用通訊方式在網路、電話、社群媒體等販售。\$\@\$指揮中心強調，不肖人士在網路擅自販售專案核准的新冠病毒檢驗試劑已違「醫療器材管理法」，會被罰3萬以上100萬以下罰鍰，如果民眾發現有類似狀況，可打1919專線或是向地方衛生局檢舉。 圖片 附件\$\@\$0528網路販售「新冠病毒快篩試劑」已觸法，警方偵辦中.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-09-28\$\@\$各位醫界朋友，您好：\$\@\$我國現行潛伏結核感染(LTBI)檢驗方式依受檢者年齡區分，未滿5歲以皮膚結核菌素試驗(TST)，5歲(含)以上抽血執行丙型干擾素釋放試驗(IGRA)。經參考世界衛生組織(WHO)、美國兒科醫學會(AAP)及國內臨床兒科醫師建議，並考量國際間已有相關研究指出IGRA可適用於2歲以上兒童，爰自本(110)年10月1日起擴大IGRA適用對象至2歲(含)以上兒童。\$\@\$IGRA檢驗方式較TST可減少兒童接種卡介苗造成的偽陽性結果，避免因環境非結核分枝桿菌(NTM)或卡介苗造成的TST增強效應(booster effect)，提升檢驗準確性，及早給予治療。倘2歲(含)至未滿5歲兒童無法執行IGRA檢驗，得維持使用TST方式。另，考量2歲以下因缺乏相關實證資料故暫不建議使用IGRA檢驗，仍維持TST方式檢測。\$\@\$此外，考量未滿5歲之結核病接觸者發病風險高，應於指標個案確診後儘速完成胸部X光攝影及LTBI檢驗，其中陽性者排除活動性結核病後應提供LTBI治療；陰性者可能處於LTBI空窗期，請LTBI合作醫師先提供預防性治療(prophylaxis)，俟接觸者與指標個案終止有效暴露滿8週後之LTBI檢驗結果，再決定是否停止預防性治療或完成LTBI治療，以降低發病風險。有關LTBI檢驗與治療資訊，請參考疾病管制署全球資訊網(https://www.cdc.gov.tw)&gt;傳染病與防疫專題&gt;傳染病介紹&gt;第三類法定傳染病&gt;結核病&gt;治療照護&gt;潛伏結核感染專區。\$\@\$感謝您與我們共同守護民眾的健康。 附件\$\@\$附件1-110年IGRA檢驗適用對象擴大至2歲以上兒童問答集.pdf\$\@\$附件2-未滿5歲結核病接觸者LTBI檢驗流程建議.pdf\$\@\$附件3-結核病接觸者就醫轉介單更新版.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-24\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$慢性傳染病組\$\@\$約用助理\$\@\$(徵才案號：0309)\$\@\$(計3名)\$\@\$林○萱(B22260****)\$\@\$陳○瑜(Q22389****)\$\@\$陳○君(F22674****)\$\@\$二、實作、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)實作：\$\@\$1、報到時間：111年1月7日星期五13:20。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、實作時間：13:40~15:10。實作開始鈴響(13:40)未到者，喪失應考資格。\$\@\$(二)口試：\$\@\$1、報到時間：111年1月7日星期五15:20，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：15:30~16:30。\$\@\$(三)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(四)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於111年1月6日下午5點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(五)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(六)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。\$\@\$三、試場規則：\$\@\$(一)第一試為實作測驗，題型為資料串接統計分析，應試者得自行攜帶筆記型電腦，並預先安裝欲於測驗時使用的統計分析軟體(可選擇使用SAS、R、Excel等其他統計分析軟體)；未自行攜帶筆記型電腦者，則由本署提供公務電腦於測驗時使用(僅具Excel功能且無法安裝軟體)。\$\@\$(二)測驗中途不容許離場，並於考試時間過半後始得離場，離場後不得再進入試場。\$\@\$(三)測驗期間不允許上網、隨身攜帶手機(含智慧手環)、行動網卡、無線網路分享器等電子用品，並請關閉網路、手機、聲音及振動(含鬧鐘)，考試過程中如有上網、發出聲音及震動，均喪失應考資格。\$\@\$(四)個人用品(如書包等)置於考場前後，桌面上僅可放置必要文具(墊板須為透明；水杯、飲料亦禁止放置)。\$\@\$(五)有下列各款情事之一者，予以扣考並不予計分或不得繼續應考：\$\@\$1、冒名頂替。\$\@\$2、持用偽造或變造之證件。\$\@\$3、互換座位或試卷。\$\@\$4、傳遞文稿、參考資料、書寫有關文字之物件或有關信號。\$\@\$5、夾帶書籍文件。\$\@\$6、故意不繳交試卷或破壞試卷彌封。\$\@\$7、在桌椅、文具或肢體上或其他處所，書寫有關文字。\$\@\$8、電子通訊舞弊行為。\$\@\$9、窺視他人試卷、答案卷、作答結果或互相交談。\$\@\$10、在答案卷上書寫姓名、座號或其他不應有之文字、標記或自備稿紙書寫。\$\@\$11、其他破壞試場秩序事項。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-15\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$檢驗及疫苗研製中心\$\@\$約用助理\$\@\$(徵才案號：1057)\$\@\$(計3名)\$\@\$張○睿(I10045****)\$\@\$方○媃(Q22405****)\$\@\$洪○貞(E22306****)\$\@\$檢驗及疫苗研製中心\$\@\$約用研究助理\$\@\$(徵才案號：1058)\$\@\$(計4名)\$\@\$蘇○瑜(A22867****)\$\@\$李○志(P12320****)\$\@\$陳○均(F23000****)\$\@\$陳○君(C22130****)\$\@\$二、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)口試：\$\@\$1、報到時間：110年11月25日星期四08:50~09:00，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署7樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：09:00~11:00。\$\@\$(二)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(三)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於110年11月24日下午3點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(四)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(五)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
   </si>
 </sst>
 </file>
@@ -523,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>44569</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -568,16 +1039,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -585,16 +1056,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -602,16 +1070,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2">
         <v>44567</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -619,16 +1084,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
         <v>44567</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -636,16 +1098,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>44567</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -653,16 +1115,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
-        <v>44566</v>
+        <v>44387</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -670,16 +1132,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2">
-        <v>44566</v>
+        <v>44360</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -687,16 +1149,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2">
-        <v>44566</v>
+        <v>44359</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -704,16 +1166,1254 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44491</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44554</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44554</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44550</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44515</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44496</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44494</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2">
         <v>44565</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44565</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44564</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44564</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44563</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44561</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44561</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44559</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44558</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44557</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44569</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44387</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44341</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44560</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44491</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44567</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44554</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44554</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44550</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44515</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44496</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44494</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -728,6 +2428,88 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CDC_Press List.xlsx
+++ b/Data/CDC_Press List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="343">
   <si>
     <t>Press Title</t>
   </si>
@@ -49,91 +49,16 @@
     <t>因應春節入境人潮及COVID-19境外移入確診個案增加，指揮中心擴大開設專責病房及調整醫療機構應變策略</t>
   </si>
   <si>
-    <t>網傳「三級警戒微解封的不可思議之處」指揮中心： 原同住家人就不受限制，謠言邏輯誤導且比喻失當，請勿輕信轉傳，造成防疫困擾</t>
-  </si>
-  <si>
-    <t>網傳「政府讓人民施打未受認證且保護力低之國產疫苗」  指揮中心：會把關國產疫苗品質、安全及療效</t>
-  </si>
-  <si>
-    <t>網傳「代工(AZ疫苗)三億劑嫌太多賣不出去」，指揮中心：有心人刻意扭曲語意</t>
-  </si>
-  <si>
-    <t>網傳「臺中太原路復健醫院被徵收為方艙醫院」 指揮中心：假訊息勿轉傳</t>
-  </si>
-  <si>
-    <t>網路販售「新冠病毒快篩試劑」，指揮中心：已觸法，警方偵辦中</t>
-  </si>
-  <si>
-    <t>網現偽冒教育部網站  指揮中心：境外假網頁勿輕信</t>
-  </si>
-  <si>
-    <t>因應結核菌液態培養(MGIT)檢驗試劑暫時性缺貨，為利早期診斷結核病，針對疑似結核病送驗初查痰3套，請務必再進行結核分枝桿菌核酸增幅(NAA)檢驗(疾病管制署致醫界通函第470號)</t>
-  </si>
-  <si>
-    <t>COVID-19專家諮詢會因應變異株流行，更新治療指引藥物適用原則(疾病管制署致醫界通函第469號)</t>
-  </si>
-  <si>
-    <t>因應COVID-19 Omicron變異株威脅，籲請社區定點診所加強發放公費COVID-19家用快篩試劑予高風險民眾(疾病管制署致醫界通函第468號)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVID-19專家諮詢會參照最新實證與藥物適應症，更新治療指引藥物適用對象並重申制定原則(疾病管制署致醫界通函第467號) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">近期登革熱隱藏期平均超過3日，籲請醫師對具登革熱流行地區旅遊史之疑似病例提高警覺，加強診斷及通報(疾病管制署致醫界通函第466號) </t>
-  </si>
-  <si>
-    <t>10月1日起擴大2歲以上兒童使用丙型干擾素釋放試驗(IGRA)，以提升潛伏結核感染(LTBI)檢驗準確性及守護幼童健康(疾病管制署致醫界通函第465號)</t>
-  </si>
-  <si>
-    <t>111年潛伏結核感染治療HP複方藥品.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>「111年人體測溫用紅外線熱影像儀維護保養」採購案.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>111年細胞培養及分生試劑乙批.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>111年疫情統計分析R系統維護及諮詢服務.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>111-112年 COVID-19疫苗4,000萬劑倉儲物流與配送.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>高屏區管制中心111年國際港埠檢體收送.pdf(另開新視窗)</t>
-  </si>
-  <si>
-    <t>助理研究員(預估缺)</t>
-  </si>
-  <si>
-    <t>師(三)級護理師</t>
-  </si>
-  <si>
-    <t>約聘護理師</t>
-  </si>
-  <si>
-    <t>約用護理師(徵才案號：1521延長公告)</t>
-  </si>
-  <si>
-    <t>約用助理(徵才案號：1522延長公告)</t>
-  </si>
-  <si>
-    <t>111年地方衛生機關防疫業務考評作業手冊</t>
-  </si>
-  <si>
-    <t>公告本署慢性傳染病組約用人員徵才案(徵才案號：0309)初審合格名單及甄試事宜。</t>
-  </si>
-  <si>
-    <t>公告本署公共關係室約用人員徵才案(徵才案號：0708)初審合格名單及甄試事宜。</t>
-  </si>
-  <si>
-    <t>公告本署檢驗及疫苗研製中心約用人員徵才案(徵才案號：1057、1058)初審合格名單及甄試事宜。</t>
-  </si>
-  <si>
-    <t>公告本署師(三)級護理師甄選之口試日程相關事宜(口試名單公告)。</t>
-  </si>
-  <si>
-    <t>公告本署急性傳染病組約用人員徵才案(徵才案號：1105)初審合格名單及甄試事宜。</t>
+    <t>新增3例COVID-19本土確定病例，衛生單位已啟動疫情調查及防治作為</t>
+  </si>
+  <si>
+    <t>新增26例COVID-19確定病例，分別為1例本土及25例境外移入</t>
+  </si>
+  <si>
+    <t>自2022年1月6日起，公費流感疫苗開放全民接種至疫苗用罄</t>
+  </si>
+  <si>
+    <t>針對桃園機場群聚感染案件，指揮中心今日成立前進指揮所協助防疫作為</t>
   </si>
   <si>
     <t>1月5日起至1月31日止，地方政府可提供民眾200元(含)以下衛教品，以提升接種意願</t>
@@ -196,6 +121,135 @@
     <t>12月28日至1月10日維持疫情警戒標準為第二級，請民眾配合跨年大型活動等防疫準備注意事項</t>
   </si>
   <si>
+    <t>新增24例COVID-19確定病例，分別為1例本土及23例境外移入</t>
+  </si>
+  <si>
+    <t>新增18例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>關鍵「疫」戰，感謝有您！指揮中心向COVID-19疫情期間貢獻卓越的第一線防疫英雄致謝！</t>
+  </si>
+  <si>
+    <t>指揮中心外部專家調查小組說明中研院ABSL-3實驗室感染事件初步調查結果</t>
+  </si>
+  <si>
+    <t>指揮中心說明如參與國內臨床試驗計畫，接種未經我國食品藥物管理署核准使用COVID-19疫苗之民眾，後續疫苗接種相關因應方式</t>
+  </si>
+  <si>
+    <t>新增13例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>歡慶佳節，「定期篩檢」是給自己和伴侶最好的禮物</t>
+  </si>
+  <si>
+    <t>春節檢疫專案擇C方案(7+7+7)入境者返家注意事項</t>
+  </si>
+  <si>
+    <t>指揮中心全面檢討防疫旅宿防疫作為，3大強化措施精進管理</t>
+  </si>
+  <si>
+    <t>新增10例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>AstraZeneca疫苗約73.84萬劑將於今(21)日下午抵臺</t>
+  </si>
+  <si>
+    <t>ACIP專家建議，符合COVID-19疫苗接種對象與間隔之民眾，應盡速完成基礎劑接種；已完成基礎劑接種且滿5個月之民眾，應接種追加劑</t>
+  </si>
+  <si>
+    <t>指揮中心說明中研院P3實驗室事件調查進度</t>
+  </si>
+  <si>
+    <t>新增11例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增6例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增15例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>因應近期疫情，指揮中心啟動防疫旅宿四大強化作為</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19確定病例，分別為1例本土及11例境外移入</t>
+  </si>
+  <si>
+    <t>新增7例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增5例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>指揮中心宣布自12月14日至12月27日維持疫情警戒標準為第二級，請民眾持續配合防疫措施</t>
+  </si>
+  <si>
+    <t>指揮中心已全面提供民眾預約接種COVID-19疫苗第一、二劑，及已完整接種疫苗且滿５個月者接種追加劑，請民眾儘速完成二劑疫苗接種，以獲得完整免疫保護力</t>
+  </si>
+  <si>
+    <t>已完整接種COVID-19疫苗且滿5個月之民眾，可前往合約醫療院所接種COVID-19疫苗追加劑</t>
+  </si>
+  <si>
+    <t>疾管署攜手廚神奶爸蔣偉文推廣防疫雙語繪本，一起用繪本陪孩童共同思考正確防疫觀念！</t>
+  </si>
+  <si>
+    <t>「做好檢疫、返臺簡易」，指揮中心提醒旅客返臺前及機場通關應配合事項</t>
+  </si>
+  <si>
+    <t>台積電、鴻海永齡、慈濟三間企業和民間團體捐贈之第十四批BNT疫苗192.35萬劑於今(9)日下午抵臺</t>
+  </si>
+  <si>
+    <t>自111年1月1日起，強化因工作或服務性質具有「接觸不特定人士或無法保持社交距離」之部分場所(域)人員COVID-19疫苗接種規範，以嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心臺北車站之「莫德納疫苗施打站」將延長開設至12/12，請民眾把握時間多加利用</t>
+  </si>
+  <si>
+    <t>指揮中心再度重申治安機關不會針對接種疫苗之失聯移工進行查處，請各單位依防疫政策辦理</t>
+  </si>
+  <si>
+    <t>自111年1月1日起，強化教育部、經濟部、勞動部、衛生福利部業管之部分場所(域)人員COVID-19疫苗接種規範，請儘速於110年12月17日前完整接種疫苗2劑，以嚴守社區防線</t>
+  </si>
+  <si>
+    <t>指揮中心12/5-12/9於臺北車站大廳開設「莫德納疫苗施打站」，歡迎民眾多加利用</t>
+  </si>
+  <si>
+    <t>新增4例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>目前已全面提供民眾COVID-19疫苗第一、二劑預約接種，請民眾利用「COVID-19公費疫苗預約平臺」、各地方政府衛生局指定或安排的醫療院所或衛生所等管道進行預約</t>
+  </si>
+  <si>
+    <t>因應Omicron變異株疫情，即日起提供已完整接種COVID-19疫苗且滿５個月之民眾，接種COVID-19疫苗追加劑</t>
+  </si>
+  <si>
+    <t>新增17例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>新增8例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
+    <t>感謝地方政府及醫療院所通力合作，妥善運用疫苗資源，提升國人疫苗涵蓋率</t>
+  </si>
+  <si>
+    <t>疾管署與奧運拳擊國手黃筱雯共同出擊，邀請您一起「戰勝愛滋，分享愛」!</t>
+  </si>
+  <si>
+    <t>12月1日零時起，增列馬拉威、莫三比克、埃及、奈及利亞等4個國家為「重點高風險國家」，入境後須入住集中檢疫所</t>
+  </si>
+  <si>
+    <t>12-17歲青少年第二劑BioNTech COVID-19疫苗接種建議</t>
+  </si>
+  <si>
+    <t>為提升免疫保護力，專家建議接種COVID-19疫苗追加劑</t>
+  </si>
+  <si>
+    <t>指揮中心宣布自11月30日至12月13日維持疫情警戒標準為第二級，並宣布歲末／跨年大型活動防疫準備注意事項，請民眾持續配合</t>
+  </si>
+  <si>
+    <t>新增12例COVID-19境外移入確定病例</t>
+  </si>
+  <si>
     <t>/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
   </si>
   <si>
@@ -214,94 +268,16 @@
     <t>/Bulletin/Detail/u0vHFZX2nzlhWBifQl3x5Q?typeid=9</t>
   </si>
   <si>
-    <t>/Bulletin/Detail/ftv6FPFis84j5uHWTq4lNA?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/PmSCiSjM5YpCUxXqoS81RA?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/QCmwPRiL1nKrc8-AuqSEGg?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/IO3F02JMs4pToOM84aXopQ?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/zjF-6vCLlbYe1RhTXKlq1Q?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/IU5CMLLt8bQqXWHQhil0Aw?typeid=8772</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/KaqzyT5RqFOuOQFGpEYLgA?typeid=48</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/zUiCR7uM2Ox39wGHOkzhMw?typeid=48</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/tun0Es9fOoIJqDFToylh6Q?typeid=48</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/1pVYYgWzE_U3RlTuctsioQ?typeid=48</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/HU4mCbrzZQlHC-VhwBiJOg?typeid=48</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/DyZ6ZOuk-VLQSHiQ6xhqoQ?typeid=48</t>
-  </si>
-  <si>
-    <t>/Uploads/files/2eca6680-fdde-4a38-934a-6da1c2dd8b8b.pdf</t>
-  </si>
-  <si>
-    <t>/Uploads/files/575633c9-11a3-4d2c-a5df-3bc675a198dc.pdf</t>
-  </si>
-  <si>
-    <t>/Uploads/files/a022ad25-9fb8-433f-a588-a93c1e5f9d9c.pdf</t>
-  </si>
-  <si>
-    <t>/Uploads/files/557f2695-c3ee-4d00-aa33-5d0dc36f7f09.pdf</t>
-  </si>
-  <si>
-    <t>/Uploads/files/a22b63a6-c6cb-463f-940d-26f4c11b17bc.pdf</t>
-  </si>
-  <si>
-    <t>/Uploads/files/0516860c-da1c-4620-ae05-79a01343a4d6.pdf</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=kLNv1XH1fB8TlCZo6RSNGw</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=7afE7y_q_0a-FLqnxHIjIA</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=0i1H55b5Pqk0ahyBe-cr-A</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=2tmdwtNL8GDuj002O3_QsA</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=3FDssdDwiCeDzVB2w5R-gA</t>
-  </si>
-  <si>
-    <t>/HireList/Detail?hireId=HnyAaEpJjNTAhTgoRupHfg</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/Y_cTXA-RBSS1MjAEFDP3TQ?typeid=11</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/vN_TxnDuv7GamvGxnZXEdw?typeid=11</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/7UJRpdDRbQNIZWyyEfHdHQ?typeid=11</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/u9ej71cxiu9bJqO0gMxdOQ?typeid=11</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/_EjXyzKBrURN93eoTpH45Q?typeid=11</t>
-  </si>
-  <si>
-    <t>/Bulletin/Detail/6_WqkhWC-GJV1mcZ8hGpEg?typeid=11</t>
+    <t>/Bulletin/Detail/jK3GN-Hw8x_ELLciTmfwQg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xR3EWQ6aKrqsQwfI_iNxqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/oHyBMuXSjeea-EJ0olgdRQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
   </si>
   <si>
     <t>/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
@@ -364,6 +340,186 @@
     <t>/Bulletin/Detail/nIdKcbV265_Oy19NRrVK0g?typeid=9</t>
   </si>
   <si>
+    <t>/Bulletin/Detail/E9JqcdOD9YBfOq_fOEruwQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/D9upl4oQF7fRR8BX1H0Gqg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-GpLgraJhhrmCF_EV5snAg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DyYwMZYOnDPQaxZXyYkGag?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/U_G8thyYx_NXqs4bt22mLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZRGaGQGvgOVp0sgi7p0Flw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/3PbK6u1juCPF_H5RpSmg1A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/K6-Py9CkPH7F7fbEhkN-cg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/kWxZwn01NkNft8vvuR-8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/M936bwIy8h1c3o0JAGx6XQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/OFCGVMPdO7s8EroSL08bnw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZCHA5BJcbAHqa3rEfKzgiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/4ig8Ulsdu5Upgxk7yAoHbw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/L-qJBbrKStZuXh0N0Y1B7A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DDtX98YMnWlt1E5YooyXig?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/IgdrNGmRzvUV_y1dDQZLbg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/GqrECv8g1A5pcuUsJbNwyA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/xpr8IEBdD6agTmKYO0do_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ZEZs-BpahQJyNxIgZMvnmw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/g07xJkUnioeBi2K4x_oa8A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j0Lv5A4_bB5XCnhGvdJYzw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DF7ogeZZ4Sq2mcsf3p5V1A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/jYSkhkTuIrL1g8h4BnsiPw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/8ZtmGnmnTDndGf1ih_-ZgA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/BawHgYTsb-Ifbw2VpNUErA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/6_2cOpRBTVjg_3-72yJMVQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XL05Cn8AuiHJYNBfEMlPUA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ruOWq6GTSZGSOq38yIgd3w?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/PnGZZJOra7MGuKGaHvOMnw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UN5fQgp3h2gfyNntP6ouCQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/o-9C7vcqy3glqLxfaZr0rA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/fj9M7VB1NY9hkka3hbzqZg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/NI47Ps_FwSzR-S0AKTUsOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/M6sT3rx4Rd7QcDxcnCG8ow?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ka15R2rxOSpGsHael2mbNg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/-boqIqRww_Yy5jsG6ykh4A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Cw2WizvTzxs1dNf94r8Fnw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/leTuUMjsTGLW2_z9xHKGtA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/UTOmrhMe_NCgvE6ng0eQpQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/DkHH9jmlqsuArel0Ge54ig?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/XIxEY8HS7u87sxrY5rsZcw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/uZUdiaR1R7nr_G3N1VnVNQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Nw8YySH5kTUhHqnmT5ZVDg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/QyP53F_Wz5w2aH-FyMZoYA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/j64gUcFiy8FFvnjgoM5oyw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/F8-1SIJFEYKojfzKvCdPlQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/Np-A0yrPBcpPrd8Kd2z18A?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/798cb1f2X8khkCiLzskCRA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/TejSFjyPpHPOxcpKU26DyQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/GrUNWEYBePWBA55X5f08Fg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/qfSGTQPpNsErzyNcZmWsvg?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/K4mTgO4hBZ97ER1dRHGqxQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/VVem5ruoxZhiPBFveSPiLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/li9brSynHWZJlsVyo8ePTA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/HWZBo7OcNi_zzoXb5_g2SA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/22wN1aouBR921VG4dFhDmA?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/m00G4Iadc5c7bts6_BIahw?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/g3P2I2f95J6p71e1KnOaaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/ANy77Zi3gOROMqIijYiUbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>/Bulletin/Detail/l5TWIq4FmR_R3yAuW40-iA?typeid=9</t>
+  </si>
+  <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/QcNPHHjaJVEr-bnW4hG5RQ?typeid=9</t>
   </si>
   <si>
@@ -382,94 +538,16 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/u0vHFZX2nzlhWBifQl3x5Q?typeid=9</t>
   </si>
   <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/ftv6FPFis84j5uHWTq4lNA?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/PmSCiSjM5YpCUxXqoS81RA?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/QCmwPRiL1nKrc8-AuqSEGg?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/IO3F02JMs4pToOM84aXopQ?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/zjF-6vCLlbYe1RhTXKlq1Q?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/IU5CMLLt8bQqXWHQhil0Aw?typeid=8772</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/KaqzyT5RqFOuOQFGpEYLgA?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/zUiCR7uM2Ox39wGHOkzhMw?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/tun0Es9fOoIJqDFToylh6Q?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/1pVYYgWzE_U3RlTuctsioQ?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/HU4mCbrzZQlHC-VhwBiJOg?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/DyZ6ZOuk-VLQSHiQ6xhqoQ?typeid=48</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/2eca6680-fdde-4a38-934a-6da1c2dd8b8b.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/575633c9-11a3-4d2c-a5df-3bc675a198dc.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/a022ad25-9fb8-433f-a588-a93c1e5f9d9c.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/557f2695-c3ee-4d00-aa33-5d0dc36f7f09.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/a22b63a6-c6cb-463f-940d-26f4c11b17bc.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Uploads/files/0516860c-da1c-4620-ae05-79a01343a4d6.pdf</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=kLNv1XH1fB8TlCZo6RSNGw</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=7afE7y_q_0a-FLqnxHIjIA</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=0i1H55b5Pqk0ahyBe-cr-A</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=2tmdwtNL8GDuj002O3_QsA</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=3FDssdDwiCeDzVB2w5R-gA</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/HireList/Detail?hireId=HnyAaEpJjNTAhTgoRupHfg</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/Y_cTXA-RBSS1MjAEFDP3TQ?typeid=11</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/vN_TxnDuv7GamvGxnZXEdw?typeid=11</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/7UJRpdDRbQNIZWyyEfHdHQ?typeid=11</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/u9ej71cxiu9bJqO0gMxdOQ?typeid=11</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/_EjXyzKBrURN93eoTpH45Q?typeid=11</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov.tw/Bulletin/Detail/6_WqkhWC-GJV1mcZ8hGpEg?typeid=11</t>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jK3GN-Hw8x_ELLciTmfwQg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xR3EWQ6aKrqsQwfI_iNxqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/oHyBMuXSjeea-EJ0olgdRQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Y4fwruTZG4YQclQTSYPT-w?typeid=9</t>
   </si>
   <si>
     <t>https://www.cdc.gov.tw/Bulletin/Detail/Q-xhjZ6c709hJ-9GQXtFFw?typeid=9</t>
@@ -532,34 +610,211 @@
     <t>https://www.cdc.gov.tw/Bulletin/Detail/nIdKcbV265_Oy19NRrVK0g?typeid=9</t>
   </si>
   <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/E9JqcdOD9YBfOq_fOEruwQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/D9upl4oQF7fRR8BX1H0Gqg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-GpLgraJhhrmCF_EV5snAg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DyYwMZYOnDPQaxZXyYkGag?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/U_G8thyYx_NXqs4bt22mLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZRGaGQGvgOVp0sgi7p0Flw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/3PbK6u1juCPF_H5RpSmg1A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/K6-Py9CkPH7F7fbEhkN-cg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/kWxZwn01NkNft8vvuR-8iQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/M936bwIy8h1c3o0JAGx6XQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/OFCGVMPdO7s8EroSL08bnw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZCHA5BJcbAHqa3rEfKzgiQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/4ig8Ulsdu5Upgxk7yAoHbw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/L-qJBbrKStZuXh0N0Y1B7A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DDtX98YMnWlt1E5YooyXig?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/IgdrNGmRzvUV_y1dDQZLbg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/GqrECv8g1A5pcuUsJbNwyA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/xpr8IEBdD6agTmKYO0do_Q?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ZEZs-BpahQJyNxIgZMvnmw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/g07xJkUnioeBi2K4x_oa8A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j0Lv5A4_bB5XCnhGvdJYzw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DF7ogeZZ4Sq2mcsf3p5V1A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/jYSkhkTuIrL1g8h4BnsiPw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/8ZtmGnmnTDndGf1ih_-ZgA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/BawHgYTsb-Ifbw2VpNUErA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/6_2cOpRBTVjg_3-72yJMVQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XL05Cn8AuiHJYNBfEMlPUA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ruOWq6GTSZGSOq38yIgd3w?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/PnGZZJOra7MGuKGaHvOMnw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UN5fQgp3h2gfyNntP6ouCQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/o-9C7vcqy3glqLxfaZr0rA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/fj9M7VB1NY9hkka3hbzqZg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/NI47Ps_FwSzR-S0AKTUsOQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/M6sT3rx4Rd7QcDxcnCG8ow?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ka15R2rxOSpGsHael2mbNg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/-boqIqRww_Yy5jsG6ykh4A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Cw2WizvTzxs1dNf94r8Fnw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/leTuUMjsTGLW2_z9xHKGtA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/UTOmrhMe_NCgvE6ng0eQpQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/DkHH9jmlqsuArel0Ge54ig?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/XIxEY8HS7u87sxrY5rsZcw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/uZUdiaR1R7nr_G3N1VnVNQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Nw8YySH5kTUhHqnmT5ZVDg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/QyP53F_Wz5w2aH-FyMZoYA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/j64gUcFiy8FFvnjgoM5oyw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/F8-1SIJFEYKojfzKvCdPlQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/Np-A0yrPBcpPrd8Kd2z18A?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/798cb1f2X8khkCiLzskCRA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/TejSFjyPpHPOxcpKU26DyQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/GrUNWEYBePWBA55X5f08Fg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/qfSGTQPpNsErzyNcZmWsvg?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/K4mTgO4hBZ97ER1dRHGqxQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/VVem5ruoxZhiPBFveSPiLQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/li9brSynHWZJlsVyo8ePTA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/HWZBo7OcNi_zzoXb5_g2SA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/22wN1aouBR921VG4dFhDmA?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/m00G4Iadc5c7bts6_BIahw?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/g3P2I2f95J6p71e1KnOaaQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/ANy77Zi3gOROMqIijYiUbQ?typeid=9</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/Bulletin/Detail/l5TWIq4FmR_R3yAuW40-iA?typeid=9</t>
+  </si>
+  <si>
     <t>發佈日期：2022-01-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增44例COVID-19確定病例，分別為2例本土個案(案17414-17415)及42例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17414-17415)分別為本國籍1例男性、1例女性，年齡均為50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增42例境外移入個案，性別為25例男性、16例女性、1例調查中，年齡介於未滿10至70多歲，分別自美國(23例)、越南(4例)、法國(2例)、阿根廷、澳大利亞、菲律賓、加拿大、阿拉伯聯合大公國、泰國、巴西、西班牙、印度、義大利及德國(各1例)入境，另有2例調查中，入境日介於去(2021)年12月15日至今(2022)年1月7日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,074,946例新型冠狀病毒肺炎相關通報(含5,055,445例排除)，其中17,302例確診，分別為2,630例境外移入，14,618例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月8日新增本土COVID-19確診個案表.pdf\$\@\$1月8日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
     <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日表示，因應國內發生Omicron變異株本土確診病例，社區感染風險提升，衛生福利部傳染病防治諮詢會預防接種組(ACIP)決議，已接種兩劑COVID-19疫苗且間隔滿12週(84天)以上之滿18歲民眾，應儘速接種1劑COVID-19疫苗追加劑，以提升免疫保護力。\$\@\$指揮中心說明，昨(6)日召開ACIP會議討論COVID-19疫苗接種策略，考量國內外COVID-19疫情升溫，為降低社區傳播風險，專家指出，建議滿18歲以上民眾於完整接種COVID-19疫苗基礎劑12週後，應接種1劑追加劑，以提升個人及群體免疫力。追加劑接種廠牌建議如下：\$\@\$一、以mRNA疫苗(如Moderna、BNT)或蛋白質次單元疫苗(如高端)完成基礎劑：追加劑可以選擇接種Moderna(半劑量)、BNT、高端或AZ疫苗。\$\@\$二、以AZ完成基礎劑：追加劑可選擇接種mRNA或蛋白質次單元疫苗。\$\@\$指揮中心指出，目前國內疫苗庫存充足，將請地方政府衛生局儘速擴充接種量能，符合接種間隔的民眾可透過「COVID-19疫苗防治一網通」( https://antiflu.cdc.gov.tw/Covid19 )或地方政府衛生局公告，查詢鄰近合約醫療院所提供施打之疫苗廠牌及接種時間。\$\@\$*備註：國外接種疫苗者，接種追加劑說明：\$\@\$一、於國外曾接種WHO EUL 之COVID-19疫苗 返國後請先至就近衛生所或健康服務中心補登國外疫苗接種紀錄，並妥善保存國外接種紀錄。\$\@\$二、符合現行追加劑接種間隔者(至少12週)，可攜國外接種紀錄、健保卡或相關身分證明文件，至鄰近COVID-19疫苗合約院所掛號接種。\$\@\$三、如接種非WHO EUL COVID-19疫苗, 視同無效劑次, 可於與最後一劑COVID-19疫苗間隔28天後, 於國內先完成COVID-19疫苗基礎劑接種，再依規定接種追加劑。</t>
   </si>
   <si>
+    <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增62例COVID-19確定病例，分別為4例本土個案(案17368-17371)及58例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17368-17371)分別為本國籍1例男性、3例女性，年齡介於20至50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增58例境外移入個案，為29例男性、29例女性，年齡介於10多歲至70多歲，分別自美國(35例)、法國(4例)、英國(3例)、瑞士、越南及印度(各2例)、奧地利、智利、德國、加拿大、愛爾蘭、孟加拉、奈及利亞、墨西哥、西班牙及哥斯大黎加(各1例)入境，入境日介於去(2021)年12月22日至今(2022)年1月6日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,055,274例新型冠狀病毒肺炎相關通報(含5,035,769例排除)，其中17,258例確診，分別為2,588例境外移入，14,616例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另新增2例空號病例(案17271，案17272與舊案重複，改列空號)，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月7日新增本土COVID-19確診個案表.pdf\$\@\$1月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日公布國內新增43例COVID-19確定病例，為昨(5)日公布尚未取號的3例本土個案(案17307-17309)及40例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17307-17309為本國籍女性，年齡介於50至60多歲，皆已接種2劑疫苗，為案17230、案17238、案17239及案17266同職場工作人員；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增40例境外移入個案，為20例男性、20例女性，年齡介於未滿5歲至70多歲，分別自美國(24例，案17267、案17270、案17273-17275、案17277-17282、案17284-17289、案17291-17292、案17300、案17302、案17304-17306)、印度(3例，案17290、案17296、案17303)、巴拿馬(2例，案17271-17272)、荷蘭(案17268)、阿拉伯聯合大公國(2例，案17283、案17301)、加拿大(案17269)、菲律賓(案17276)、義大利(案17293)、英國(案17295)、中國(案17298)及法國(案17299)入境，另有2例(案17294、案17297)調查中，入境日介於去(2021)年12月26日至今(2022)年1月5日；詳如新聞稿附件。\$\@\$另去年12月31日公布之案17127境外移入病例經疫調後改判為本土病例，為案17073之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,036,659例新型冠狀病毒肺炎相關通報(含5,016,638例排除)，其中17,198例確診，分別為2,532例境外移入，14,612例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月6日新增境外移入COVID-19確診個案表.pdf\$\@\$1月6日新增本土COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，考量目前國際COVID-19疫情嚴峻，請長者及其他 COVID-19感染後容易產生嚴重併發症之族群，儘速完成COVID-19疫苗基礎劑接種，提升保護力。\$\@\$指揮中心表示，目前我國75歲以上長者第1劑接種率僅約73%，第2劑接種率僅約67%，仍需再積極提升，為維護長者及風險族群健康，降低因感染COVID-19造成之重症、住院或死亡風險，家中長輩如尚未接種COVID-19疫苗第1、2劑，請於其身體狀況較穩定時，協助陪同至各地方政府衛生局安排或指定之合約醫療院所接種。\$\@\$指揮中心說明，疫苗接種後可能發生副作用，通常輕微並於數天內消失，並隨年齡層增加而減少，若擔心接種疫苗後所產生之副作用，可先與醫師討論，經諮詢評估選擇合適的疫苗接種。\$\@\$指揮中心表示，若為行動不便者，各地方政府衛生局亦設有到宅接種服務，有需求者可向各地方政府衛生局洽詢。另為鼓勵18歲以上尚未接種第1劑、第2劑COVID-19疫苗接種者儘速踴躍前往接種，於2022年1月5日至1月31日前接種COVID-19疫苗者，可獲得地方政府發放之200元(含)以下衛教品，鼓勵民眾儘速接種，獲得保護力。\$\@\$指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者，請記得攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時，說明過往疫苗接種史，以利醫生評估。另近期天氣多變，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後就近前往接種。接種後亦請多加留意身體狀況，多喝水多休息，亦請家人協助注意，如有持續發燒超過48小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，應儘速就醫釐清病因。</t>
+  </si>
+  <si>
     <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，因應國際COVID-19疫情嚴峻及Omicron新型變異株威脅，考量春節入境人潮且近期COVID-19境外移入確診個案增加，為確保國內醫療院所對疫情的因應及保全醫療量能，即日起調整醫療機構醫療應變作為，說明如下：\$\@\$一、全國專責病房及負壓隔離病房調整收治病人條件，專責病房僅收治疑似或確診COVID-19病人；負壓隔離病室則以收治疑似或確診COVID-19及其他空氣傳染之法定傳染病病人為原則，清空非必要(如非空氣傳染防護隔離治療)入住於負壓隔離病房的病人。\$\@\$二、臺北市、新北市、基隆市、桃園市之應變醫院，於3日內恢復開設急性一般病床總數之20%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$三、臺北市、新北市、基隆市、宜蘭縣、桃園市、新竹市、新竹縣及苗栗縣之急性一般病床總數500床以上之急救責任醫院，於3日內恢復開設急性一般病床總數之5%作為專責病房(開設床數含負壓隔離病床)，收治疑似或確診個案。\$\@\$四、專責病房收治疑似或確診COVID-19病人應以一人一室為原則(家人、同住者、同行者等如均為確診個案且知情同意，得兩人一室)，並有適當動線規劃，分流分艙安置住院病人；落實固定照護團隊與服務區塊化，避免人員頻繁輪替或跨單位工作；配置適當且固定之工作人員(含清潔人員、傳送人員及照顧服務員等)，以防範院內感染傳播風險。\$\@\$指揮中心呼籲醫療機構落實感染管制、強化門禁管制及工作人員健康監測、加強員工使用適當個人防護裝備，以預防並降低醫院群聚感染風險。由於Omicron新型變異株可能造成突破性感染，降低疫苗之保護力，指揮中心籲請可接種追加劑疫苗之醫院工作人員儘速接種追加劑疫苗，以確保人員健康安全。指揮中心將持續監測國內外疫情發展，確實掌握病床數及相關醫療資源分配，滾動修正相關應變策略，完善醫療照護體系，確保醫療量能充足以因應疫情。</t>
   </si>
   <si>
-    <t>發佈日期：2021-07-10\$\@\$中央流行疫情指揮中心今（10）日表示，近日有網友散布「三級警戒微解封的不可思議之處，新冠肺炎病毒只會攻擊家人」等訊息，相關內容多有誤導，且在錯誤基礎上進行不當類比，指揮中心再次強調，相關防疫指引已清楚說明，原本同住家人可以繼續維持生活，相關指引都是針對日常非同住者間的行為互動加以規範，呼籲民眾勿輕信或隨意散播、轉傳錯誤訊息，造成防疫困擾。\$\@\$指揮中心指出，有關7月13號以後針對部分場所將適度鬆綁，但仍須遵守防疫相關指引及規範，而此波疫情中，不少個案均為家戶群聚感染，由於室內密切接觸風險較高，因此對於室內社交人數須有較嚴格規範，但不包含原本同住的家人，也無需限制同住家人不能在家打麻將、看電影、吃飯等。 圖片 附件\$\@\$0710指揮中心：勿輕信「三級警戒微解封的不可思議之處」之網傳.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-13\$\@\$近日有網友在臉書FB以自製圖文方式散布「政府讓人民施打未受認證且保護力低之國產疫苗」、「國產疫苗的中和抗體效價比國外疫苗差」、「國產疫苗為什麼不向國際提出緊急授權」，中央流行疫情指揮中心(下稱指揮中心)今（13）日嚴正澄清表示，目前國產疫苗臨床試驗尚在進行中，最終結果須等廠商提出EUA 申請，經專家會議審查疫苗的製程管控、藥毒理試驗及臨床試驗結果，在緊急公衛的需求下，確認疫苗使用效益大於風險，才會核准緊急授權使用。\$\@\$指揮中心指出，目前國產疫苗廠商皆已積極規劃，以取得國際認證為目標。國產疫苗需經食藥署和專家會議嚴謹審查，在緊急公衛需求，並確認效益大於風險，才會核准緊急授權使用。此外，各家廠牌的疫苗所使用的檢驗實驗室及檢驗方式不同且無協和，無法直接由各實驗室產生數值進行比較。國產疫苗仍需等廠商提出申請，經過中央主管機關嚴格把關及審查通過後，確認品質、安全、療效後，品質沒有問題，疫苗方可供民眾施打。\$\@\$指揮中心再次提醒，民眾接獲來源不明的訊息時，應先進行查證，切勿隨意散播、轉傳，以免觸法。 圖片 附件\$\@\$0613網傳「政府讓人民施打未受認證且保護力低之國產疫苗」-1.jpg\$\@\$0613網傳「政府讓人民施打未受認證且保護力低之國產疫苗」-2.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-12\$\@\$中央流行疫情指揮中心今(12)日嚴正澄清，近日於社群平台流傳「代工三億劑嫌太多賣不出去」等訊息，指揮中心於6月10日記者會已公開說明，與AstraZeneca原廠洽談授權製造事宜時，我方提出可年產一億劑之規劃，但原廠要求需年產三億劑，經評估，對我方產能過於沉重，並無以「賣不出去」為由拒絕原廠授權製造，卻被有心人刻意扭曲語意。此圖文與事實不符，指揮中心特此澄清。\$\@\$指揮中心重申，防疫相關資訊應以中央流行疫情指揮中心公布內容為主。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播。詳情請上官網查詢 (http://at.cdc.tw/Q7S2Vt)。 圖片 附件\$\@\$20210612澄清.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-05-25\$\@\$中央流行疫情指揮中心今(25)日表示，近日網路出現偽冒教育部網站，杜撰「全國各級學校因應疫情停課時程資訊」等訊息，意圖造成民眾困惑，此為境外假網頁不實訊息，請民眾勿輕信。\$\@\$指揮中心副指揮官陳宗彥表示，該網站假冒教育部傳達不實防疫訊息，刑事警察局已成立專案小組偵辦，經調查其為境外IP。\$\@\$指揮中心指出，教育部全球資訊網正確的網址是https://www.edu.tw/ ，民眾收到任何連結時，可以先觀察連結網址，是否跟官方網址一樣。例如，教育部官方網址的網域，就會是「edu.tw」結尾。\$\@\$指揮中心強調，散播假訊息構成犯罪，會被判處最高三年有期徒刑或併科三百萬元罰金。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播，以免觸法。 圖片 附件\$\@\$0525指揮中心指出，網路出現偽冒教育部網站並杜撰假訊息，請民眾勿輕信.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-06\$\@\$為提供結核病患即時診斷，疾病管制署結核病診治指引自104年已加重結核分枝桿菌核酸增幅(nucleic acid amplification, NAA)檢驗於診斷結核病之角色。NAA檢驗具快速、高敏感度及高特異性，可大幅縮短傳統培養檢驗方法所需等待結果時間，有利及早診斷及治療結核病。\$\@\$因應近期結核菌液態培養(MGIT)檢驗發生添加劑(營養劑併抑制細菌生長的抗生素成分)供貨短缺情形，為避免延遲發現疑似結核病個案，依本署110年12月24日「衛生福利部傳染病防治諮詢會(結核病防治組)」會議決議，於供貨短缺期間，對於社區型肺炎尚未通報結核病者，於診斷送驗3套初查痰執行塗片耐酸性染色鏡檢(Acid fast stain)及分枝桿菌培養時，其中1套請務必同時開立NAA檢驗。另考量實驗室短期內MGIT痰培養試劑有限，對於管理中的結核病患追蹤複查痰，請採1套進行培養檢驗，暫時避免重複送驗檢體，此因應作為停止施行時間將於缺貨狀況緩解後再函週知。\$\@\$有關「結核病診治指引」可至疾病管制署全球資訊網(https://www.cdc.gov.tw)&gt;傳染病與防疫專題&gt;傳染病介紹&gt;第三類定傳染病&gt;結核病&gt;重要指引及教材項下查閱。\$\@\$感謝您與我們共同維護全民的健康安全。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-12-24\$\@\$一、考評單位：衛生福利部疾病管制署。\$\@\$二、考評目的：客觀衡量地方政府衛生局111年防疫業務之施政績效。\$\@\$三、受評機關：地方政府衛生局。\$\@\$四、受評期間：111年1月至12月\$\@\$五、考評架構與權重：9項考評指標，共計200分。\$\@\$六、考評方式：\$\@\$(一)   防疫業務相關管理系統之統計結果及書面考核。\$\@\$本手冊考評指標資料，如須受評機關提供始得評分者，請於112年1月13日前備函逕送考評執行單位進行評核。\$\@\$考評單位於指定日期前完成分數統計及成績評定。\$\@\$考評單位完成考評並請地方政府衛生局確認後，於111年3月17日前將考評結果送衛生福利部綜合規劃司備查。\$\@\$(二)   考評單位得視需要辦理實地查核。 附件\$\@\$111年地方衛生機關業務考評作業手冊-防疫類.pdf\$\@\$111年地方衛生機關業務考評作業手冊-防疫類.docx</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-12-20\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$公共關係室\$\@\$約用公關助理\$\@\$(徵才案號：0708)\$\@\$(計5名)\$\@\$王○琴(F22546****)\$\@\$李○怡(A22422****)\$\@\$李○達(F12468****)\$\@\$鍾○婷(T22347****)\$\@\$廖○儀(T22036****)\$\@\$二、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)口試：\$\@\$1、報到時間：110年12月30日星期四09:50~10:00，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：10:00~11:30。\$\@\$(二)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(三)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於110年12月29日下午5點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(四)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(五)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
+    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增3例COVID-19本土確定病例(尚未取號)，為擴大採檢清潔外包人員，於今日晚間檢驗陽性。\$\@\$指揮中心表示，3名個案均為女性，年齡分別為1例50多歲及2例60多歲，Ct值分別為33.8、23.4及19.5，為案17230、案17238、案17239及17266同職場工作人員，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心說明，因應桃園機場感染事件，指揮中心於第一時間針對外包清潔人員進行擴大採檢，已匡列861人，截至今日晚間，已有4例陽性（案17266及前述3例陽性）、855例陰性、1例檢驗中、1例待採檢。總計清潔外包人員已確診共7人（案17230、案17238-17239、17266、及前述3例）。\$\@\$指揮中心說明，因應今日晚間新增3位本土確診病例，前進指揮所立即啟動緊急作為如下：\$\@\$1. 針對清潔外包公司航廈夜班人員共93人，全數送集中檢疫所集中隔離。\$\@\$2. 該公司其餘未隔離員工，共768人，明後兩日（1月6日-1月7日）每日以家用快篩自我檢測，並彙整報告提供前進指揮所。1月8日將再度安排全員PCR檢驗。\$\@\$3. 已責成外包清潔公司嚴格確實執行員工健康監測，確保員工健康，以及早處理可能事件。</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增26例COVID-19確定病例，分別為1例(案17266)本土及25例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，案17266為本國籍50多歲女性，已接種2劑莫德納疫苗(為突破性感染)，與案17230、案17238及案17239為同職場工作人員，曾與前述個案搭乘同路線交通車，原定於今(2022)年1月5日採檢，1月3日出現乾咳、喉嚨不適等症狀，1月4日自行前往採檢站採檢後於今日確診，相關疫情調查、接觸者匡列及防治工作刻正進行中。\$\@\$指揮中心表示，今日新增25例境外移入個案，為12例男性、13例女性，年齡介於未滿5歲至70多歲，分別自美國(12例，案17241-17243、案17245、案17250、案17252、案17254、案17256-17259、案17265)、法國(3例，案17244、案17246、案17253)、丹麥(案17247)、英國(17248)、玻利維亞(案17249)、德國(案17251)、史瓦帝尼王國(案17255)、澳洲(案17260)、巴拿馬(2例，案17261-17262)、瑞典(案17263)及印尼(案17264)入境，入境日介於去(2021)年11月14日至今(2022)年1月4日；詳如新聞稿附件。\$\@\$另1月2日公布之案17181境外移入病例經疫調後改判為本土病例，為案16941之相關感染。\$\@\$指揮中心統計，截至目前國內累計5,017,456例新型冠狀病毒肺炎相關通報(含4,998,328例排除)，其中17,155例確診，分別為2,493例境外移入，14,608例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2022-01-05\$\@\$疾管署今(5)日宣布，為提升疫苗接種人口涵蓋率，發揮疫苗最大效益，自2022年1月6日起，公費流感疫苗擴大提供全國6個月以上尚未接種之民眾接種，至疫苗用罄為止，疾管署呼籲尚未接種的計畫對象，尤其是65歲以上長者、學齡前幼兒及醫事人員等重點族群儘快接種，以保障自身及周遭人員的健康。\$\@\$疾管署表示，2021年度公費流感疫苗分2階段施打，除50至64歲無高風險慢性病成人於第二階段11月15日開打外，其於對象均為10月1日開打。截至2022年1月4日，公費疫苗總接種數約562萬劑，整體疫苗使用率逾91.9%，剩餘量約49萬劑；目前全國約有3,700餘家合約院所(含部分衛生所)提供接種服務，建議民眾可先透過各地方政府衛生局網頁、疾管署流感防治一網通(https://antiflu.cdc.gov.tw/)、疾管家或1922防疫諮詢專線，查詢鄰近合約院所名單，並向合約院所預約，以確保可施打到疫苗。\$\@\$另公費流感疫苗接種期間，COVID-19疫苗接種作業持續進行，依衛生福利部傳染病防治諮詢會預防接種組專家建議，2種疫苗接種間隔應至少7天，避免發生疫苗接種不良事件無法釐清。疾管署提醒民眾於預約或接種前主動告知疫苗接種史，合約院所應於接種區建立動線分流，並請相關工作人員於接種前落實檢核接種紀錄，接種後於健保卡黏貼流感疫苗接種貼紙。\$\@\$疾管署提醒，國內流感疫情仍處低點尚未進入流行期，民眾可儘速接種，以於流感疫情達高峰前獲得足夠保護力。近期氣溫偏低，為防範流感及COVID-19疫情雙重衝擊，民眾除接種疫苗，應養成良好衛生習慣，出現類流感症狀儘速戴口罩就醫，並在家休息，減少病毒傳播機會。如有流感疫苗或流感防治相關疑問，可至疾管署全球資訊網(https://www.cdc.gov.tw)，或撥打免付費防疫專線1922(或0800-001922)洽詢。</t>
   </si>
   <si>
     <t>發佈日期：2022-01-04\$\@\$中央流行疫情指揮中心今(4)日表示，為加速國人完成2劑接種，提升尚未接種第1、2劑COVID-19疫苗民眾之接種意願，各地方政府自2022年1月5日至1月31日前，可提供18歲以上民眾200元(含)以下衛教品，以鼓勵民眾踴躍完成接種2劑COVID-19疫苗，儘速獲得完整免疫保護力。\$\@\$指揮中心表示，截至2022年1月3日為止，我國COVID-19疫苗第一劑接種率約80%，第二劑接種率約69%，為因應國際疫情持續嚴峻及Omicron新型變異株之威脅增加，接種涵蓋率仍須再提升，目前COVID-19疫苗由地方政府衛生局指定/安排之合約醫療院所或衛生所進行接種，鼓勵尚未接種過任何1劑COVID-19疫苗及符合接種間隔但尚未完成2劑COVID-19疫苗接種之民眾，請儘速前往COVID-19疫苗合約醫療院所接種。\$\@\$指揮中心說明，目前國內各廠牌COVID-19疫苗供應充分，民眾可至衛生福利部疾病管制署全球資訊網，「COVID-19疫苗接種院所單元」（https://www.cdc.gov.tw/Category/List/u4l1b_gHhf9WDjhEtRmRRw），運用「COVID-19接種院所地圖」及各地方政府衛生局公告之COVID-19疫苗接種合約醫療院所以及車站等隨到隨打疫苗接種站，就近前往接種。\$\@\$指揮中心提醒， 18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書。若由家長陪同前往接種，請本人與家長於現場共同簽署意願同意書。另依衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者亦請攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時說明過往疫苗接種史，以利醫生評估。</t>
@@ -574,16 +829,22 @@
     <t>發佈日期：2022-01-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增25例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增25例境外移入個案，為9例男性、16例女性，年齡介於未滿5歲至70多歲，分別自美國(15例，案17182-17183、案17186-17191、案17196-17197、案17199、案17201-17203、案17205)、土耳其(4例，案17192-17195)、德國(案17184)、加拿大(案17185)、義大利(案17198)、菲律賓(案17200)、亞美尼亞(案17204)及千里達及托巴哥(案17206)入境，入境日介於去(2021)年12月19日至今(2022)年1月1日；詳如新聞稿附件。\$\@\$另去年12月28日及12月30日公布之2例(案17058、案17099)境外移入病例經疫調後改判為本土病例，為案17085之相關感染。\$\@\$指揮中心統計，截至目前國內累計4,982,263例新型冠狀病毒肺炎相關通報(含4,962,860例排除)，其中17,095例確診，分別為2,439例境外移入，14,602例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月3日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2022-01-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增20例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增20例境外移入個案，為10例男性、10例女性，年齡介於未滿5歲至60多歲，分別自美國(11例，案17162-17163、17165-17166、案17168、案17170、案17172、案17174-17175、案17179-17180)、加拿大(案17164)、澳大利亞(案17167)、英國(2例，案17169、案17177)、越南(案17171)、沙烏地阿拉伯(案17173)、泰國(案17176)、希臘(案17178)及中國(案17181)，入境日介於去(2021)年12月12日至12月31日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,972,057例新型冠狀病毒肺炎相關通報(含4,951,828例排除)，其中17,070例確診，分別為2,416例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月2日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
     <t>發佈日期：2022-01-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增21例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增21例境外移入個案，為15例男性、6例女性，年齡介於20多歲至70多歲，分別自美國(9例，案17141、案17148、案17149、案17151、案17154、案17156、案17159-17161)、越南(6例，案17142、案17145、案17147、案17150、案17152、案17153)、埃及(案17143)、寮國(案17144)、瓜地馬拉(案17146)、羅馬尼亞(案17155)、烏克蘭(案17157)及德國(案17158)入境，入境日介於去(2021)年12月17日至12月31日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,961,497例新型冠狀病毒肺炎相關通報(含4,942,271例排除)，其中17,050例確診，分別為2,396例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月1日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
     <t>發佈日期：2021-12-31\$\@\$中央流行疫情指揮中心今(31)日公布國內新增41例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增41例境外移入個案，為16例男性、25例女性，年齡介於20多歲至70多歲，分別自美國(14例，案17104-17106、案17112、案17113、案17115、案17116、案17118-17122、案17131、案17139)、菲律賓(2例，案17125、案17132)、法國(2例，案17117、案17124)、義大利(案17114)、肯亞(案17123)、喀麥隆(案17126)、瑞士(案17127)、印度(案17128)、阿拉伯聯合大公國(案17129)、烏克蘭(案17130)、越南(案17133)及柬埔寨(案17138)入境，另14例(案17100-17103、案17107-17111、案17134-17137、案17140)調查中，入境日介於今(2021)年12月16日至12月30日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,946,919例新型冠狀病毒肺炎相關通報(含4,927,473例排除)，其中17,029例確診，分別為2,375例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月31日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-12-31\$\@\$中央流行疫情指揮中心今(31)日表示，指揮中心均秉持防疫優先之原則進行各項防疫工作，有關中國大陸國台辦針對臺灣防疫之錯誤發言內容，相關澄清說明如下：\$\@\$一、鑒於兩岸往來頻繁，為掌握疫情狀況，向來致力與中國大陸保持資訊交流，我方自108年12月31日至110年12月28日，與中國大陸透過正式管道就 COVID-19 疫情往來資訊包括陸方提供我方疫情資訊286次，我方提供陸方包括個案大陸旅遊史等資訊共50次。另我方洽詢陸方疫情訊息計85次，陸方回覆我方疫情資訊21次，而陸方洽詢我方疫情訊息29次，我方回覆陸方疫情資訊28次。陸方電話洽我方聯絡疫情資訊7次，我方電話洽陸方聯絡疫情資訊8次。此外，陸方提供我方技術文件共計12次。相關數據都有文件紀錄可查數，國台辦提供數據有與事實不符之處。\$\@\$二、為與國際分享、交換衛生、防疫經驗，我國均積極爭取參與世界衛生組織相關會議，自2009年至2021年，共向WHO申請參加220場技術性會議，但僅77場獲邀出席。\$\@\$三、為守護國人健康，我國政府一直多方洽談COVID-19疫苗購買，在BioNTech疫苗取得上，為尊重BioNTech原廠疫苗商業代理權劃分，BioNTech 疫苗係由台積電、鴻海／永齡基金會、慈濟基金會三捐贈方委託裕利醫藥公司，向原廠代理商復星實業公司（香港復星）有償購買，在基於「原廠製造、原廠標籤、直送臺灣」三原則的共識，全部無償捐贈政府統籌運用，對於捐贈單位出錢、出力，無私付出，不應被扭曲抹殺。\$\@\$指揮中心強調，疫情尚未止息，人民健康福祉為先。兩岸應互助合作，防疫優先，才能維護兩岸民眾健康。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-12-30\$\@\$衛生福利部疾病管制署今（30）日公布「受聘僱外國人健康檢查管理辦法」部分條文修正案，並預訂於111年1月1日實施。本次修法重點包括「修正移工申請結核病都治條件」及「防疫期間調整移工健檢期限之法源依據」等事項，確保社區防疫安全。\$\@\$疾管署說明，結核病為結核桿菌感染所造成的慢性傳染病，目前抗結核藥物效果良好，連續服藥14天後的傳染力可大幅下降；透過移工主動配合、雇主支持，再加上結核病都治關懷員等衛生單位人員持續關心移工確實規則服藥，幾乎可以痊癒，且治療期間亦可正常工作與生活作息；此外，罹患結核病之移工若於國內完成治療，除能避免疾病持續傳播，維護員工健康外，亦不影響雇主勞動力需求。本辦法修正後，移工確診為肺結核、結核性肋膜炎（多重抗藥性結核病個案除外）或漢生病，且本人同意留臺配合按規治療者，雇主應於收受診斷證明書之次日起15日內，檢具「診斷證明書」及「受聘僱外國人接受衛生單位安排都治服務同意書」送縣市政府衛生局申請都治服務，共同落實社區防疫。\$\@\$疾管署指出，本辦法另增訂「中央流行疫情指揮中心成立期間，中央衛生主管機關得依國內疫情防治所需，調整移工健檢期限」及「自聘僱許可生效日起滿6、18及30個月之日與最近一次健檢日間隔未滿3個月者，免辦該次定期健檢」等規定；且回溯至自110年5月19日施行，以避免部分移工需於短期間內重複健檢，並能兼顧防疫安全。\$\@\$為利雇主（仲介）能瞭解本辦法修正後實務作業，疾病管制署提供「移工罹患結核病申請留臺治療」宣導海報、「認識結核病的問與答」多國語言宣導單張及宣導影片等相關衛教素材，並建置於該署全球資訊網（http://www.cdc.gov.tw ； 首頁&gt;國際旅遊與健康&gt;外國人健康管理&gt;受聘僱外國人健檢&gt;最新消息）供下載瀏覽。</t>
   </si>
   <si>
-    <t>發佈日期：2021-12-30\$\@\$中央流行疫情指揮中心今（30）日表示，由於國際疫情嚴峻及Omicron新型變異株之威脅日益擴散，近期入境人數及COVID-19境外移入個案增加，為強化社區監測，自明(2022)年1月1日起擴大辦理COVID-19社區加強監測方案，全國由86家定點診所發放公費COVID-19家用快篩試劑增加至272家，由各縣市人口數較多之鄉鎮市區基層診所協助發放試劑，因COVID-19症狀與一般感冒相似，提醒民眾如有出現呼吸道症狀，可多加前往該等診所，由醫師評估發放試劑後自行檢驗。\$\@\$指揮中心說明，今(2021)年8月30日起規劃推動COVID-19社區加強監測方案，迄今已發放1萬餘劑公費COVID-19家用快篩試劑，考量近期COVID-19社區傳播風險提升，為提高民眾取得公費家用快篩試劑可近性與及早發現自身感染之可能，將自明年1月1日起於全國21個縣市增加至272個診所試劑發放點，診所名單詳如新聞稿附件。\$\@\$指揮中心呼籲，現值呼吸道病毒活躍期，請民眾多加留意自身健康，如出現呼吸道症狀，可前往本計畫定點診所；民眾如為2歲以上出現呼吸道症狀的病患至公費快篩試劑發放診所掛號就醫，經醫師評估後發放試劑及注意事項說明單張，如為2歲以下幼兒的陪同看診者，亦由醫師評估後發放。民眾領取試劑後，請配合依注意事項說明內容儘速採檢，並至線上(https://forms.gle/8gh7Kb3ZkYE5aArW7)填寫試劑領取診所名稱及快篩結果等資料，此為匿名方式收集，無須擔心個人資料外洩情形。\$\@\$指揮中心提醒，如居家快篩檢驗為陽性時，請勿慌張並儘速至鄰近的社區採檢院所( https://reurl.cc/MArG1L )進一步PCR檢驗。民眾前往社區採檢院所時，請戴好口罩、勿搭乘大眾運輸工具，對於使用過之採檢器材請用塑膠袋密封包好，並攜帶至社區採檢院所，交予院所人員處理。 附件\$\@\$附件-配合辦理發放公費COVID-19家用快篩試劑社區定點診所名單.pdf</t>
+    <t>發佈日期：2021-12-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增24例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增24例境外移入個案，為11例男性、13例女性，年齡介於10多歲至60多歲，分別自美國(12例，案17076、案17078-17080、案17082-17083、案17085、案17088、案17090、案17094、案17096)、越南(2例，案17077、案17098)、英國(案17081)、尼加拉瓜(案17084)、奈及利亞(案17086)、加拿大(案17087)、阿拉伯聯合大公國(案17089)、法國(3例，17091-17093)、泰國(案17095)、海地(案17097)及日本(案17099)入境，入境日介於今(2021)年12月14日至12月28日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,932,261例新型冠狀病毒肺炎相關通報(含4,912,670例排除)，其中16,988例確診，分別為2,334例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月30日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
     <t>發佈日期：2021-12-30\$\@\$中央流行疫情指揮中心今(30)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第十五批BNT疫苗93.83萬劑，已於今日上午順利運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨1333.62萬劑，分別為首批9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑、第五批10月4日27萬劑、第六批10月7日88.92萬劑、第七批10月8日88.92萬劑、第八批10月14日82.7萬劑、第九批10月28日90.21萬劑、第十批10月29日91.03萬劑、第十一批11月5日87.17萬劑、第十二批11月12日92.66萬劑、第十三批11月25日93.83萬劑、第十四批12月9日192.35萬劑，以及本批93.83萬劑。本批疫苗效期至2022年3月28日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
@@ -595,31 +856,193 @@
     <t>發佈日期：2021-12-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增19例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增19例境外移入個案，為9例男性、10例女性，年齡介於未滿10歲至80多歲，分別自美國(8例，案17043、案17045-17049、案17051、案17056)、瑞士(案17044)、寮國(案17050)、越南(案17052)、柬埔寨(案17053)、加拿大(2例，案17054、案17061)、哈薩克(案17055)、香港(案17057)、中國(案17058)及阿根廷(2例，案17059、案17060)入境，入境日介於今(2021)年12月14日至12月26日；詳如新聞稿附件。\$\@\$指揮中心統計，累計4,901,375例新型冠狀病毒肺炎相關通報(含4,882,616例排除)，其中16,950例確診，分別為2,296例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月28日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
+    <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日表示，歐盟執委會於今(110)年12月21日宣布我國正式加入「歐盟數位新冠證明」系統。歐盟數位新冠證明為世界性標準之一，國際成員國多且最早用於國際旅行，為使我國民眾能加速入境歐盟等國家，指揮中心將於12月28日上午8時開放我國「數位新冠病毒健康證明」供國人下載使用。\$\@\$指揮中心說明，由於歐盟為世界重要國際聯盟，「歐盟數位新冠證明」系統目前已有60國加入，包括27個歐盟會員國、33個非歐盟會員國(統計至2021/12/22止)。另，美國已公開接受旅客持歐盟數位新冠證明供入境查驗，國際航空運輸協會(IATA)之數位新冠證明亦與之互通，故持我國數位證明於國際旅行己不限上述的60國。\$\@\$指揮中心指出，我國「疫苗接種數位證明」或「檢驗結果數位證明」之資料欄位、數位簽章、防偽機制、個人資料保護、QR Code顯示與電子驗證等均依照歐盟標準，尤其是個人資料保護完全依據歐盟一般資料保護規則之最小使用、自行攜帶、可被遺忘等原則，請國人安心使用。\$\@\$指揮中心表示，本項數位證明的內容屬於個人資料保護法定義的敏感性資料，身分確認的方式相對繁瑣。本數位證明提供所有於國內接種疫苗或進行PCR檢驗者自行下載，初期限持有有效護照者，申請方式以電腦或手機直接上網辦理，網址為：https://dvc.mohw.gov.tw（將於12月28日上午8時開放），或在衛福部官網取得連結，三個步驟即可取得證明：\$\@\$一、確認身分：\$\@\$(一)國人：(1)身分證號+健保卡號+有效護照號碼；(2) FIDO(為安全且便利的生物辨識方式，提供指紋或臉部辨識登入)+有效護照號碼；(3)自然人憑證+有效護照號碼。三種方式擇一。\$\@\$(二)外來人口：(1)統一證號+健保卡號；(2) 統一證號+入出境證號；(3) 統一證號+護照號碼。三種方式擇一。\$\@\$二、選擇項目：選擇「疫苗接種數位證明」或「檢驗結果數位證明」。\$\@\$三、取得證明：於申請成功畫面點選「下載/列印 數位證明」，檔案格式為PDF，提醒要先保存於行動裝置或電腦硬碟中，再視個人需要列印紙本。無列印設備但又有列印需求者，可於申請成功畫面選擇超商並點選「取得超商列印碼」，系統將產製超商取件條碼或取件編號，請自行攜至超商付費列印。\$\@\$指揮中心提醒，實際使用時，出示紙本或行動載具中的QR code都是可接受的方法，查驗人員掃瞄QR code後會出現不同顏色的號誌表達接受與否。但各國或不同場所仍可能有不同方式驗證，請民眾特別提醒留意。本數位證明優先提供民眾出國使用，至於國內何時開放使用，再由疫情指揮中心另行發布。詳細系統操作方式可以參考衛生福利部官網數位證明專區( https://covid19.mohw.gov.tw/ch/np-5345-205.html )。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日表示，因應近期COVID-19全球疫情升溫，Omicron等新興變異株於全球迅速擴散，上週(12/20-12/26)境外移入病例數新增109例，較前一次(12/13-12/19)新增62例，上升76%，且Omicron變異株增加迅速，截至今日已累計34例，感染國家以美國及英國較多，加以我國已檢出多起境外移入病例為突破性感染，經評估國際間採認之入境前檢驗報告多以採檢日計算，故為確保航空防疫安全，自2022年1月4日零時起(啟程日)，旅客搭機前應檢附之COVID-19核酸檢驗報告調整為「2日內」報告，報告起計日由原「報告日」改以「採檢日」為基準，並以啟程地表定航班時間（不含搭機當日）往前推2個「日曆日」計算，請旅客搭機前務必確認PCR檢驗報告符合以上規範。\$\@\$指揮中心說明，旅客所持「2日內COVID-19核酸檢驗報告」請符合下列規範：\$\@\$1. 以英文、中文或中英對照版本為原則。\$\@\$2. 該報告可為紙本(正本/影本)或電子報告書形式。\$\@\$3. 需採分子生物學核酸檢測，且應可審核登機者之護照姓名、出生年月日(或護照號碼)、疾病名稱、採檢日及報告日、核酸檢驗方法（包括PCR、Real-Time PCR及RT-PCR等）及判讀結果等。\$\@\$4. 血清免疫學檢驗抗原或抗體，非屬核酸檢測，未符合本措施規範之條件。\$\@\$對於違反前述規定之旅客，抵臺時將依傳染病防治法第58條、第69條規定及衛生福利部公告裁罰基準，處新臺幣一萬元至十五萬元罰鍰。\$\@\$指揮中心強調，適逢春節前返鄉人潮，請旅客返臺必須事先瞭解並配合我國現行入境檢疫規定，及在臺檢疫期間應遵守之防疫措施，共同維護國內社區安全。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日表示，近期考量國內整體疫情趨緩及配合疫苗接種政策，為兼顧國內產業用人需求及移工工作權益，因此適度鬆綁管制措施，自110年12月27日起，移工轉換新雇主及同一雇主調派移工變更工作地點，如移工已完整接種COVID-19疫苗，無須再事前安排移工檢驗PCR，但雇主及移工仍應落實指揮中心及勞動部規定的相關防疫措施。\$\@\$指揮中心表示，鼓勵在臺移工接種疫苗，以提升疫苗覆蓋率，降低群聚感染可能性。另取消PCR相關規定後，雇主仍應依規定落實強化宿舍管理、分艙分流、健康監測等其他防疫規定，若未落實防疫，仍將依就業服務法相關規定，處新臺幣6萬至30萬元罰鍰及不予核發接續聘僱許可。另雇主如委託仲介公司辦理移工生活照顧，因仲介公司未善盡受任事務，違反防疫措施，將依仲介公司違反就業服務法規定，處新臺幣6萬元以上至30萬元以下罰鍰。</t>
   </si>
   <si>
+    <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日表示，鑒於國際疫情持續嚴峻及Omicron新型變異株之威脅增加，並考量住院陪病特殊需求，已於12月24日發函周知全國醫療院所，調整醫院門禁管制及強化住院病人之陪病者COVID-19疫苗接種規範，相關調整說明如下：\$\@\$1. 陪病人數：\$\@\$(1) 每名住院病人之陪病人數維持以1人為原則。\$\@\$(2) 若病人為兒童(12歲以下)、老人(65歲以上)、身心障礙、或經醫療機構評估有必要者等特殊情形，陪病人數上限得為2人，惟每名住院病人之陪病者公費篩檢仍為1名。\$\@\$2. 篩檢規定：\$\@\$(1) 完成疫苗應接種劑次達14天(含)以上之陪病者，得免除入院篩檢及每週定期篩檢。\$\@\$(2) 未完成疫苗應接種劑次達14天(含)以上之陪病者，自明(111)年1月1日起，入院進行公費篩檢(每名住院病人之陪病者限1名公費)，且每週定期進行自費篩檢；自明年2月1日起，入院篩檢改為自費篩檢，且每週定期進行自費篩檢。\$\@\$3. 篩檢方式：\$\@\$(1) 公費篩檢方式為抗原快篩或PCR核酸檢驗二者擇一，或同時執行；自費篩檢方式為抗原快篩(含家用快篩)或PCR核酸檢驗。\$\@\$(2) 若為「確定病例符合檢驗解除隔離條件且距發病日3個月內」，得免除前述篩檢。\$\@\$指揮中心提醒，由於醫院屬於高感染傳播風險場域，為降低疾病在院內傳播風險，籲請民眾儘速完成完整疫苗接種。於疫情期間儘量避免不必要的陪病或探病，建議以視訊或電話方式替代實地探視，若仍有陪病或探病需要，應配合實名登記及院方相關管理措施。陪(探)病人員須不具COVID-19相關症狀，亦未曾接觸確診個案或具相關公共場所活動史；且進入醫療機構務必全程佩戴口罩、遵循呼吸道衛生與咳嗽禮節、落實手部衛生，以降低交互感染風險，保障自身及病人安全。</t>
+  </si>
+  <si>
     <t>發佈日期：2021-12-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增16例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心表示，今日新增16例境外移入個案，為12例男性、4例女性，年齡介於10多歲至60多歲，分別自美國(8例，案17027-案17028、案17031、案17033-案17037)、越南(案17029)、匈牙利(案17030)、哈薩克(案17032)、菲律賓(案17038)、寮國(案17039)、英國(案17040)、德國(案17041)及印尼(案17042)入境，入境日介於今(2021)年12月12日至12月26日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,884,004例新型冠狀病毒肺炎相關通報(含4,864,380例排除)，其中16,931例確診，分別為2,277例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月27日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
   <si>
-    <t>發佈日期：2022-01-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增62例COVID-19確定病例，分別為4例本土個案(案17368-17371)及58例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心表示，本土個案(案17368-17371)分別為本國籍1例男性、3例女性，年齡介於20至50多歲，均為桃園機場感染事件相關個案；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增58例境外移入個案，為29例男性、29例女性，年齡介於10多歲至70多歲，分別自美國(35例)、法國(4例)、英國(3例)、瑞士、越南及印度(各2例)、奧地利、智利、德國、加拿大、愛爾蘭、孟加拉、奈及利亞、墨西哥、西班牙及哥斯大黎加(各1例)入境，入境日介於去(2021)年12月22日至今(2022)年1月6日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計5,055,274例新型冠狀病毒肺炎相關通報(含5,035,769例排除)，其中17,258例確診，分別為2,588例境外移入，14,616例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另新增2例空號病例(案17271，案17272與舊案重複，改列空號)，累計113例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$1月7日新增本土COVID-19確診個案表.pdf\$\@\$1月7日新增境外移入COVID-19確診個案表.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2022-01-06\$\@\$中央流行疫情指揮中心今(6)日表示，考量目前國際COVID-19疫情嚴峻，請長者及其他 COVID-19感染後容易產生嚴重併發症之族群，儘速完成COVID-19疫苗基礎劑接種，提升保護力。\$\@\$指揮中心表示，目前我國75歲以上長者第1劑接種率僅約73%，第2劑接種率僅約67%，仍需再積極提升，為維護長者及風險族群健康，降低因感染COVID-19造成之重症、住院或死亡風險，家中長輩如尚未接種COVID-19疫苗第1、2劑，請於其身體狀況較穩定時，協助陪同至各地方政府衛生局安排或指定之合約醫療院所接種。\$\@\$指揮中心說明，疫苗接種後可能發生副作用，通常輕微並於數天內消失，並隨年齡層增加而減少，若擔心接種疫苗後所產生之副作用，可先與醫師討論，經諮詢評估選擇合適的疫苗接種。\$\@\$指揮中心表示，若為行動不便者，各地方政府衛生局亦設有到宅接種服務，有需求者可向各地方政府衛生局洽詢。另為鼓勵18歲以上尚未接種第1劑、第2劑COVID-19疫苗接種者儘速踴躍前往接種，於2022年1月5日至1月31日前接種COVID-19疫苗者，可獲得地方政府發放之200元(含)以下衛教品，鼓勵民眾儘速接種，獲得保護力。\$\@\$指揮中心提醒，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種COVID-19疫苗應與流感疫苗等其他疫苗間隔至少7天，亦請民眾前往接種COVID-19疫苗前，應備妥健保卡或其他可證明身分之證件，如為接種第2劑COVID-19疫苗者，請記得攜帶「COVID-19疫苗接種紀錄卡」，並於接種前評估時，說明過往疫苗接種史，以利醫生評估。另近期天氣多變，對於近期身體具狀況或慢性病情不穩定者，請於身體狀況較穩定後就近前往接種。接種後亦請多加留意身體狀況，多喝水多休息，亦請家人協助注意，如有持續發燒超過48小時、嚴重過敏反應如呼吸困難、氣喘、眩暈、心跳加速、全身紅疹等不適症狀，應儘速就醫釐清病因。</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-06-01\$\@\$中央流行疫情指揮中心今(1)日指出，近日有網友在通訊軟體LINE散布「臺中市太原路復健醫院被徵收為方艙醫院」，臺中市政府衛生局已澄清為不實訊息，請民眾勿再轉傳與散布，以免觸法遭罰。\$\@\$指揮中心表示，臺中市政府已對外澄清，此復健醫院近期進行搬遷作業，是為了提升醫療品質，正以BOT方式規劃市立綜合醫院，並非徵用作為方艙醫院。\$\@\$指揮中心副指揮官陳宗彥指出，因應疫情變化，各地方政府規劃應變醫院及專責醫院收治患者，民眾接獲來源不明的訊息時，應先進行查證，切勿隨意散播、轉傳，以免觸法。\$\@\$指揮中心重申，防疫相關資訊應以中央流行疫情指揮中心公布內容為主，散播假訊息構成犯罪，會被判處最高三年有期徒刑或併科三百萬元罰金。提醒民眾，收到來路不明訊息多加留意、查證，切勿轉傳散播，以免觸法。詳情請上官網查詢(http://at.cdc.tw/Q7S2Vt)。 圖片 附件\$\@\$網傳「臺中市太原路復健醫院被徵收為方艙醫院」為不實訊息勿轉傳.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-05-28\$\@\$近期國內疫情升溫，警方發現網路上有不肖人士販售「新冠病毒快篩試劑」，中央流行疫情指揮中心副指揮官陳宗彥今(28)日表示，擅自在網路販售新冠病毒檢驗試劑等第三級醫療器材已違反「醫療器材管理法」，目前警方已進行偵辦，提醒民眾切勿購買檢測，除有效性及檢測結果正確性均無法確認外，還可能危害自身健康。\$\@\$指揮中心指出，新冠病毒檢驗試劑是第三級醫療器材，依據「醫療器材管理法」規定，只有醫療器材商及藥局可以販賣，且國內並未開放可使用通訊方式在網路、電話、社群媒體等販售。\$\@\$指揮中心強調，不肖人士在網路擅自販售專案核准的新冠病毒檢驗試劑已違「醫療器材管理法」，會被罰3萬以上100萬以下罰鍰，如果民眾發現有類似狀況，可打1919專線或是向地方衛生局檢舉。 圖片 附件\$\@\$0528網路販售「新冠病毒快篩試劑」已觸法，警方偵辦中.jpg\$\@\$勿散播不實訊息，以免觸法受罰.jpg</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-09-28\$\@\$各位醫界朋友，您好：\$\@\$我國現行潛伏結核感染(LTBI)檢驗方式依受檢者年齡區分，未滿5歲以皮膚結核菌素試驗(TST)，5歲(含)以上抽血執行丙型干擾素釋放試驗(IGRA)。經參考世界衛生組織(WHO)、美國兒科醫學會(AAP)及國內臨床兒科醫師建議，並考量國際間已有相關研究指出IGRA可適用於2歲以上兒童，爰自本(110)年10月1日起擴大IGRA適用對象至2歲(含)以上兒童。\$\@\$IGRA檢驗方式較TST可減少兒童接種卡介苗造成的偽陽性結果，避免因環境非結核分枝桿菌(NTM)或卡介苗造成的TST增強效應(booster effect)，提升檢驗準確性，及早給予治療。倘2歲(含)至未滿5歲兒童無法執行IGRA檢驗，得維持使用TST方式。另，考量2歲以下因缺乏相關實證資料故暫不建議使用IGRA檢驗，仍維持TST方式檢測。\$\@\$此外，考量未滿5歲之結核病接觸者發病風險高，應於指標個案確診後儘速完成胸部X光攝影及LTBI檢驗，其中陽性者排除活動性結核病後應提供LTBI治療；陰性者可能處於LTBI空窗期，請LTBI合作醫師先提供預防性治療(prophylaxis)，俟接觸者與指標個案終止有效暴露滿8週後之LTBI檢驗結果，再決定是否停止預防性治療或完成LTBI治療，以降低發病風險。有關LTBI檢驗與治療資訊，請參考疾病管制署全球資訊網(https://www.cdc.gov.tw)&gt;傳染病與防疫專題&gt;傳染病介紹&gt;第三類法定傳染病&gt;結核病&gt;治療照護&gt;潛伏結核感染專區。\$\@\$感謝您與我們共同守護民眾的健康。 附件\$\@\$附件1-110年IGRA檢驗適用對象擴大至2歲以上兒童問答集.pdf\$\@\$附件2-未滿5歲結核病接觸者LTBI檢驗流程建議.pdf\$\@\$附件3-結核病接觸者就醫轉介單更新版.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-12-24\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$慢性傳染病組\$\@\$約用助理\$\@\$(徵才案號：0309)\$\@\$(計3名)\$\@\$林○萱(B22260****)\$\@\$陳○瑜(Q22389****)\$\@\$陳○君(F22674****)\$\@\$二、實作、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)實作：\$\@\$1、報到時間：111年1月7日星期五13:20。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、實作時間：13:40~15:10。實作開始鈴響(13:40)未到者，喪失應考資格。\$\@\$(二)口試：\$\@\$1、報到時間：111年1月7日星期五15:20，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署1樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：15:30~16:30。\$\@\$(三)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(四)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於111年1月6日下午5點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(五)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(六)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。\$\@\$三、試場規則：\$\@\$(一)第一試為實作測驗，題型為資料串接統計分析，應試者得自行攜帶筆記型電腦，並預先安裝欲於測驗時使用的統計分析軟體(可選擇使用SAS、R、Excel等其他統計分析軟體)；未自行攜帶筆記型電腦者，則由本署提供公務電腦於測驗時使用(僅具Excel功能且無法安裝軟體)。\$\@\$(二)測驗中途不容許離場，並於考試時間過半後始得離場，離場後不得再進入試場。\$\@\$(三)測驗期間不允許上網、隨身攜帶手機(含智慧手環)、行動網卡、無線網路分享器等電子用品，並請關閉網路、手機、聲音及振動(含鬧鐘)，考試過程中如有上網、發出聲音及震動，均喪失應考資格。\$\@\$(四)個人用品(如書包等)置於考場前後，桌面上僅可放置必要文具(墊板須為透明；水杯、飲料亦禁止放置)。\$\@\$(五)有下列各款情事之一者，予以扣考並不予計分或不得繼續應考：\$\@\$1、冒名頂替。\$\@\$2、持用偽造或變造之證件。\$\@\$3、互換座位或試卷。\$\@\$4、傳遞文稿、參考資料、書寫有關文字之物件或有關信號。\$\@\$5、夾帶書籍文件。\$\@\$6、故意不繳交試卷或破壞試卷彌封。\$\@\$7、在桌椅、文具或肢體上或其他處所，書寫有關文字。\$\@\$8、電子通訊舞弊行為。\$\@\$9、窺視他人試卷、答案卷、作答結果或互相交談。\$\@\$10、在答案卷上書寫姓名、座號或其他不應有之文字、標記或自備稿紙書寫。\$\@\$11、其他破壞試場秩序事項。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
-  </si>
-  <si>
-    <t>發佈日期：2021-11-15\$\@\$一、 書面審查合格名單：\$\@\$甄選單位(合格人數)\$\@\$合格人員(按報名順序排列)\$\@\$檢驗及疫苗研製中心\$\@\$約用助理\$\@\$(徵才案號：1057)\$\@\$(計3名)\$\@\$張○睿(I10045****)\$\@\$方○媃(Q22405****)\$\@\$洪○貞(E22306****)\$\@\$檢驗及疫苗研製中心\$\@\$約用研究助理\$\@\$(徵才案號：1058)\$\@\$(計4名)\$\@\$蘇○瑜(A22867****)\$\@\$李○志(P12320****)\$\@\$陳○均(F23000****)\$\@\$陳○君(C22130****)\$\@\$二、口試相關資訊如下，請前揭應試人員預為準備：\$\@\$(一)口試：\$\@\$1、報到時間：110年11月25日星期四08:50~09:00，未準時報到者，喪失口試資格。\$\@\$2、報到地點：衛生福利部疾病管制署7樓(臺北市中正區林森南路6號)。\$\@\$3、口試時間：09:00~11:00。\$\@\$(二)為因應嚴重特殊傳染性肺炎，本次甄試請依「衛生福利部疾病管制署辦理甄試防疫措施指引(如附件1)」及中央流行疫情指揮中心發布之「具感染風險民眾追蹤管理機制」(如附件2)之相關規定辦理。報到時請繳交健康聲明切結書(如附件3)，並自備口罩全程配戴。進入試場前均需量測體溫，如有發燒(額溫≧37.5°C)，將安排至本署設置之隔離試場應試。\$\@\$(三)應試當日如屬經各級衛生主管機關認定應接受居家隔離者、居家檢疫者，以及屬自主健康管理期間，就醫後經醫院安排採檢，返家後尚未接獲檢驗結果前者，均請配合留在家中(或指定地點)勿至試場；如屬上述附件2「自主健康管理」者，請於110年11月24日下午3點前主動以電子郵件或電話通知人事室林小姐(swlin@cdc.gov.tw、電話02-23959825分機3823)，俾利安排應試座位。\$\@\$(四)應試當日如遇颱風等天然災害，臺灣本島任一縣市有依「天然災害停止上班及上課作業辦法」規定停止上班之情形，則延後辦理口試，並於1週內於公布更改之時間地點，請自行查閱，恕不另行通知。\$\@\$(五)請務必攜帶中華民國國民身分證或有照片之全民健康保險卡正本俾供查驗。 附件\$\@\$附件1-衛生福利部疾病管制署辦理甄試防疫措施指引.pdf\$\@\$附件2-具感染風險者追蹤管理機制表-1100514(掛網).pdf\$\@\$附件3-應試健康聲明書.pdf</t>
+    <t>發佈日期：2021-12-27\$\@\$因應國際間新變異株Omicron威脅，中央流行疫情指揮中心與相關單位溝通及評估後於今(27)日宣布，今(2021)年12月28日至明(2022)年1月10日維持疫情警戒標準為第二級，並維持相關措施及規定如下：\$\@\$一、維持現行戴口罩規定，外出時應全程佩戴口罩，但符合以下情形，得免戴口罩(本次未調整)：\$\@\$(一)下列場合得免戴口罩，但應隨身攜帶口罩，且如本身有相關症狀或與不特定對象無法保持社交距離時，仍應戴口罩：\$\@\$1.於室內外從事運動、唱歌時。\$\@\$2.於室內外拍攝個人/團體照時。\$\@\$3.單人或多人進行直播、錄影、主持、報導、致詞、演講、講課等談話性質工作或活動之正式拍攝或進行時。\$\@\$4.農林漁牧工作者於空曠處(如：田間、魚塭、山林)工作。\$\@\$5.於山林(含森林遊樂區)、海濱活動。\$\@\$6.於溫/冷泉、烤箱、水療設施、三溫暖、蒸氣室、水域活動等易使口罩潮濕之場合。\$\@\$(二)外出時有飲食需求，得免戴口罩。\$\@\$(三)於指揮中心或主管機關指定之場所或活動，如符合相關防疫措施，得暫時脫下口罩。\$\@\$二、營業場所及公共場域維持應遵守實聯制、量體溫、加強環境清消、員工健康管理、確診事件即時應變。\$\@\$指揮中心強調，歲末年終將近，請民眾配合歲末/跨年大型活動防疫準備注意事項：\$\@\$一、主辦單位應遵守指揮中心二級警戒公告措施、地方政府大型活動相關防疫規定：\$\@\$(一)主辦單位應於活動場域提供足量手部清消用品、提高公共廁所之消毒頻率並設有醫療應變措施。\$\@\$(二)除指定販賣區外，場內不得販售飲食。\$\@\$(三)室內活動不得販售無座位票，須落實實聯制，規劃固定入口，且於入口處進行體溫量測及手部消毒。\$\@\$二、活動期間應全程佩戴口罩，除補充水分外，禁止飲食。\$\@\$(一)除主持、表演及致詞人員得於正式拍攝或進行時免戴口罩，其餘人員及參加活動者不適用飲食(補充水分除外)、拍照等得免戴口罩之例外情形。\$\@\$(二)主辦單位經地方政府同意，得設置專屬飲食區域供民眾脫口罩飲食，該區域須落實實聯制、入口體溫量測及手部消毒，並不得邊走邊吃，亦不開放試吃。\$\@\$(三)違反以上規定、經工作人員勸導不聽者，由地方政府依傳染病防治法裁罰。\$\@\$三、居家檢疫、居家隔離、(加強)自主健康管理者，及有發燒、呼吸道症狀、腹瀉、嗅味覺異常等疑似症狀之民眾(包括表演者及活動工作人員)，不得參加相關活動。違反者將從重處罰。\$\@\$指揮中心將視國內外疫情及實際執行狀況，適時機動調整防疫措施，強化邊境監測及防疫作為。籲請民眾應落實個人防護措施，主動積極配合各項防疫規範，以兼顧防疫與生活品質。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-26\$\@\$中央流行疫情指揮中心今(26)日公布國內新增24例COVID-19確定病例，分別為1例本土及23例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增1例本土病例(案17026)，為30多歲本國籍男性，未接種過COVID-19疫苗，今(2021)年12月25日因有陪病需求至醫院採檢，於今日確診( Ct值34.1，二採PCR檢驗陰性)，血清檢驗IgM陰性，IgG陽性，研判為非近期感染。目前已匡列接觸者14人，3人列居家隔離，6人列自主健康管理，5人列自我健康監測，其餘接觸者匡列中。衛生單位刻正進行疫情調查及防治工作，以釐清感染源。\$\@\$指揮中心表示，今日新增23例境外移入個案，為13例男性、10例女性，年齡介於10多歲至70多歲，分別自美國(10例，案17003-17009、案17022-17023、案17025)、哈薩克(11例，案17010-17019、案17024)、喀麥隆(案17020)及南非(案17021)，入境日介於今(2021)年12月19日至12月24日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,873,578例新型冠狀病毒肺炎相關通報(含4,853,506例排除)，其中16,915例確診，分別為2,261例境外移入，14,600例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月26日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-25\$\@\$中央流行疫情指揮中心今(25)日公布國內新增18例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增18例境外移入個案，為15例男性、3例女性，年齡介於10多歲至60多歲，分別自美國(6例，案16985、案16990-16992、案17000、案17001)、越南(6例，案16986-16988、案16996、案16997、案16999)、柬埔寨(案16989)、法國(案16993)、巴基斯坦(案16994)、義大利(案16995)、阿拉伯聯合大公國(案16998)及荷蘭(案17002)，入境日介於今(2021)年12月10日至12月23日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,860,998例新型冠狀病毒肺炎相關通報(含4,841,748例排除)，其中16,891例確診，分別為2,238例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月25日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-25\$\@\$為感謝2021年我國COVID-19本土疫情期間，眾多醫護防疫人員、醫療院所、專業學協會與防疫旅館，不畏辛勞、挺身抗疫，幫助國家快速彌平疫情、恢復民生經濟，中央流行疫情指揮中心今（25）日於衛生福利部大禮堂舉行 COVID-19「關鍵『疫』戰，感謝有您」頒獎典禮，向疫情期間貢獻卓越的第一線防疫英雄致謝，同時發表紀錄我國抗疫重症照護關鍵的「COVID-19重症照護關鍵紀實」專書。\$\@\$本次頒獎典禮由指揮中心指揮官陳時中親自頒發獎項，共計頒發79座獎座予疫情期間防疫有功之單位，包含COVID-19本土疫情期間 （本年5月12日至7月14日）收治確診者超過1,000住院人日之醫院（平均每日照顧16位確診者）、收住高感染風險族群的加強型防疫旅館、派駐前往防疫旅館提供專業醫療的主責醫院、加強版集中檢疫所主責醫院，以及提供專業諮詢之相關專業公學協會；陳指揮官同時頒發感謝狀予134位貢獻良多的防疫專家，包含傳染病防治醫療網指揮官、緊急醫療網執行長、中央流行疫情指揮中心專家諮詢小組、COVID-19重症個案臨床處置專家諮詢小組暨研討會專家、COVID-19感染管制與防治策略研討會專家，以及COVID-19疫苗與心血管疾病臨床處置研討會專家。\$\@\$指揮中心指出，我國於本年5月發生COVID-19本土疫情，重症與死亡個案增加，為加強公共衛生及醫療從業人員針對COVID-19重症個案之照護能力及品質，指揮中心緊急成立「COVID-19重症個案臨床處置專家諮詢小組」，邀請臺大醫院新竹分院余忠仁院長擔任召集人，率領22位委員建立重症個案處置諮詢平臺，規劃辦理COVID-19系列線上直播研討會以及COVID-19重症個案臨床處置線上病例諮詢討論會議，並擷取前述講座與諮詢會議之重要關鍵及實務經驗，彙整成「COVID-19重症照護關鍵紀實」專書，亦於本次頒獎典禮同步發表，以期相關領域專業人員精進臨床照護知能，作為未來疫情防治之參考。\$\@\$指揮中心表示，頒獎典禮中亦同步播放「關鍵『疫』戰，感謝有您」感謝與回顧影片，紀錄我國貢獻卓越的第一線防疫英雄堅守崗位、抗疫不懈的過程，共同回顧與感謝防疫英雄於抗疫期間守護國人健康的點點滴滴，同時也藉由國立臺灣大學醫學院杏林管弦樂團的音樂饗宴，象徵防疫的薪火相傳，生生不息！</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-24\$\@\$中央流行疫情指揮中心今(24)日表示，昨(23)日召開生物安全專家調查小組會議，針對中研院提供動物生物安全第三等級(Animal Biosafety Level 3, ABSL-3)實驗室內部調查報告，以及調查小組先前進行中研院相關人員訪談紀錄與實驗室內部監控影帶及資料，討論造成實驗室感染之可能原因。經初步調查結果如下：\$\@\$一、ABSL-3實驗室人員進行實驗操作時，未依規定穿著C級防護裝備(包括連身型防護衣、N95口罩、雙層手套、護目鏡及鞋套等)；並且在穿脫個人防護裝備(Personal Protective Equipment, PPE)以及使用生物安全櫃(Biosafety cabinet, BSC)方面，皆未遵守該實驗室訂定之標準作業程序(Standard Operating Procedures, SOP)。\$\@\$二、生物安全會未依「感染性生物材料管理辦法」規定，每年落實對實驗室辦理內部稽核；亦未追蹤ABSL-3實驗室之新進人員相關訓練考核完成情形。\$\@\$三、實驗室人員需再加強教育訓練，並落實訓練後考核機制，以及辦理個人防護裝備之實體演練，確認人員對於個人防護裝備穿脫的認知程度。\$\@\$四、另有部分調查細節尚待釐清，將請中研院再提供該實驗室人員進出實驗室之電子紀錄、監控影帶以及工作紀錄等，予調查小組確認。\$\@\$指揮中心說明，調查小組將於釐清相關事實後，完成最終調查報告，屆時再由指揮官統一對外說明。另對於中研院未依「感染性生物材料管理辦法」規定，落實單位內部生物安全事務之監督及管理情事，將於彙整相關違規事實後，依傳染病防治法第34條及第69條規定，對中研院進行裁處，從重處以最高罰鍰新臺幣十五萬元。\$\@\$指揮中心提醒，國內持有、使用、輸出入、保存及處分第2級危險群以上病原體及生物毒素之設置單位，單位生物安全主管及生物安全會，應依法落實對單位內部生物安全事務之監督及管理，以確保所屬實驗室之生物安全無虞。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-24\$\@\$中央流行疫情指揮中心今(24)日公布國內新增20例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增20例境外移入個案，為14例男性、6例女性，年齡介於10多歲至60多歲，分別自美國(7例，案16965、案16967、案16968、案16970、案16977、案16982、案16983)、越南(3例，案16971、案16979、案16980)、菲律賓(2例，案16973、案16974)、泰國(案16966)、德國(案16969)、馬來西亞(案16972)、印尼(案16975)、新加坡(案16976)、加拿大(案16978)、立陶宛(案16984)及日本(案16981)，入境日介於今(2021)年11月21日至12月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,844,559例新型冠狀病毒肺炎相關通報(含4,825,692例排除)，其中16,873例確診，分別為2,220例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月24日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-23\$\@\$中央流行疫情指揮中心今(23)日表示，衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，考量目前國內部分民眾加入COVID-19疫苗臨床試驗計畫，ACIP參酌各國疫苗接種政策，建議該類民眾如後續有疫苗接種需求，可與臨床試驗研究單位討論後，經醫師評估接種其他國內核准之COVID-19疫苗，並建議與最後一劑試驗COVID-19疫苗間隔28天。\$\@\$指揮中心說明，由於國際疫情持續嚴峻及Omicron新型變異株之威脅增加，為積極防範社區傳播風險，自明(2022)年1月1日起，強化因工作或服務性質具有「接觸不特定人士或無法保持社交距離」之部分場所(域)人員COVID-19疫苗接種規範，如經醫師評估且開立不建議施打COVID-19疫苗證明，或個人因素無法施打者，可每週1次自費抗原快篩(含家用快篩)或PCR檢驗。另參與臨床試驗之民眾工作性質，如屬於「接觸不特定人士或無法保持社交距離」之對象，可與臨床試驗計畫單位討論後續疫苗接種，以及以自費抗原快篩(含家用快篩)或PCR檢驗取代疫苗接種證明等事宜。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-23\$\@\$中央流行疫情指揮中心今(23)日公布國內新增13例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增13例境外移入個案，為8例男性、5例女性，年齡介於10多歲至60多歲，分別自美國(10例，案16952-16954、案16956-16962)、多明尼加(案16955)、俄羅斯(案16963)、烏克蘭(案16964)，入境日介於今(2021)年12月7日至12月22日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,829,258例新型冠狀病毒肺炎相關通報(含4,810,401例排除)，其中16,853例確診，分別為2,200例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月23日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-22\$\@\$疾病管制署今(22)日表示，迎接耶誕及新年到來，共度歡樂時光的同時，除落實防疫新生活及個人防護措施，也不忘互相提醒為「愛」篩檢，「定期篩檢」就是送給自己與伴侶最好的禮物。疾管署「愛滋自我篩檢 網路訂購超商取貨 期間限定免運費活動」自今(2021)年12月23日起開跑，至明(2022)年1月31日止，只要支付200元即可訂購愛滋自我篩檢試劑(免運費)，歡迎民眾把握機會、掌握自身健康！\$\@\$疾管署說明，為鼓勵民眾瞭解自身健康狀況，今年透過「愛滋自我篩檢計畫」已提供4萬7,000多人次篩檢服務，民眾上網登錄檢驗結果陽性率為0.5%，計畫受到廣大迴響，其中網路訂購超商取貨為民眾喜愛通路之一，有超過7成民眾使用。民眾可至疾管署自我篩檢網站預訂，選擇鄰近超商通路，支付200元試劑費及45元物流費取得自我篩檢試劑。假期將至，疾管署於12月23日推出「自我篩檢 網路訂購超商取貨 期間限定免運費活動」，民眾僅需支付試劑費用即可獲得篩檢試劑，寄送試劑的外包裝不會有任何標示內容物和寄送廠商名稱，充分保障隱私。\$\@\$此外，也可就近前往合作民間團體、衛生局(所)等411個實體服務點，或利用54臺自動服務機，支付200元費用後直接取得篩檢試劑，相關服務內容及試劑提供地點資訊可至疾管署自我篩檢計畫網頁(https://hiva.cdc.gov.tw/Selftest/)查詢。若初步檢驗呈陽性，即使沒有不適，請儘速至愛滋指定醫事機構進一步確認檢驗，疾管署補助當次就醫掛號費及部分負擔，並退還200元試劑費用。衛生局及相關民間團體也提供篩檢諮詢及篩檢陽性個案轉介或陪伴就醫等服務，如有需求可多加利用。\$\@\$疾管署提醒，若發生性行為應主動要求對方或自己全程使用保險套，並搭配水性潤滑液，以保護自己，降低感染風險。疾管署再次呼籲，有性行為者，建議至少進行1次愛滋篩檢，有不安全性行為者，建議每年至少進行1次篩檢，若有感染風險行為(如與人共用針具、多重性伴侶、合併使用成癮性藥物、感染性病等)，建議每3至6個月篩檢1次，以了解自身健康狀況。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-22\$\@\$中央流行疫情指揮中心今(22)日公布國內新增14例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增14例境外移入個案，為9例男性、5例女性，年齡介於20多歲至40多歲，分別自美國(5例，案16938、案16941-16942、案16946、案16950)、義大利(案16939)、印尼(案16940)、波蘭(案16943)、英國(案16944)、柬埔寨(案16945)、越南(3例，案16947、案16949、案16951)，餘1例調查中(案16948)，入境日介於今(2021)年10月7日至12月19日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,813,164例新型冠狀病毒肺炎相關通報(含4,794,827例排除)，其中16,840例確診，分別為2,187例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。 2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月22日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-21\$\@\$中央流行疫情指揮中心今(21)日表示，本(2021)年12月14日起入境擇定春節檢疫專案C方案之民眾，將自12月21日起陸續期滿168小時，凡經檢疫第6天PCR檢測陰性及返家居家檢疫環境與條件均符合規定者，請全程佩戴口罩，搭乘地方政府安排之防疫車輛，返家接續後7天在家居家檢疫，並配合以下檢測措施：\$\@\$一、檢疫期間第10天(Day 10)以家用快篩檢測1次，並配合健康關懷回報結果。\$\@\$二、在家居家檢疫期滿前(Day 13-14)進行PCR檢測1次。\$\@\$三、檢疫期滿後，自主健康管理期間第6至7天(Day 20-21)以家用快篩檢測1次，並以雙向簡訊回復篩檢結果。\$\@\$指揮中心再次提醒，在居家檢疫期間，應留在家中，禁止外出，亦不得出境或出國，確實遵守「防範嚴重特殊傳染性肺炎入境健康聲明暨居家檢疫通知書(春節檢疫專案)」所載規定，並呼籲返家後7天係採1人1室之檢疫者，其同戶內同住者(非居家檢疫者)應共同遵守以下加強暨自主健康管理相關規定及檢測措施，包括：\$\@\$一、於檢疫者返家第3天、第7天各進行1次自費家用快篩，並以雙向簡訊回報結果。\$\@\$二、檢疫者返家檢疫同住期間加強自主健康管理7天，檢疫者檢疫期滿後，接續一起自主健康管理7天。\$\@\$三、自主健康管理期間之規定：\$\@\$(一)    每日早/晚各量體溫一次、詳實記錄體溫、健康狀況及活動史，並配合雙向簡訊回報健康狀況。\$\@\$(二)    避免出入無法保持社交距離，或容易近距離接觸不特定人之場所。\$\@\$(三)    禁止從事近距離或群聚型之活動。\$\@\$(四)    外出時全程佩戴口罩及保持社交距離。\$\@\$(五)    若出現相關症狀，應主動與當地衛生局聯繫，或撥1922，依指示方式就醫。\$\@\$四、加強自主健康管理期間，除遵守上開規定外，應同時遵守下列規定：\$\@\$(一)    不可與自國外入境家人共用房間、衛浴，亦不可同處、共食。\$\@\$(二)    僅能從事固定且有限度之活動，且不可搭乘大眾運輸，禁止至人潮擁擠場所。\$\@\$(三)    落實實名制，須記錄每日活動，且應全程佩戴口罩及保持社交距離。\$\@\$指揮中心強調，檢疫措施是控制疫情的必要防線之一，請民眾務必遵守檢疫期間相關事項，如有違反規定，依法最高可處新臺幣100萬元罰鍰。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-21\$\@\$中央流行疫情指揮中心今(21)日表示，防疫旅宿為國內疫情控制關鍵，經追蹤調查近期兩起群聚事件結果，為提升民眾入住安全品質，降低社區傳播風險，全面檢討防疫旅宿防疫作為，即刻啟動防疫旅宿3大強化措施，嚴守社區防線：\$\@\$一、建立防疫旅宿疑似COVID-19群聚事件之偵測與應變作業，以即時掌握可能相關個案，啟動防治作為：\$\@\$(一) 建立及早偵測防疫旅宿發生疑似群聚事件之策略及可運用資料。\$\@\$(二) 懷疑可能有疑似群聚事件階段之應變作為。\$\@\$(三) 已研判確認發生疑似群聚事件階段之應變作為。\$\@\$二、增修「COVID-19因應指引：防疫旅宿設置及管理」：\$\@\$針對本次群聚事件進行檢討分析，並針對環境、人員等設置與管理之可能風險，與相關專家討論後納入指引；並請地方政府加強落實防疫旅館每月查核作業。\$\@\$三、防疫旅宿訪視輔導與全面查核：\$\@\$(一) 請地方政府於111/1/3前完成全面查核，並可邀請勞動部勞動及職業安全衛生研究所代表或所推薦之通風空調領域專家共同參與，檢視防疫旅宿通風空調運作情形，對於查核結果有須改善之事項，儘速輔導並複查至改善完成。\$\@\$(二) 由感染管制、公共衛生、空調等領域專家組成查核團隊，預計自110/12/27啟動防疫旅宿訪視輔導作業，將曾發生群聚、高於75%入住率、採分層收住等事項之防疫旅宿列為優先訪視輔導對象，並提出改善建議。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-21\$\@\$中央流行疫情指揮中心今(21)日公布國內新增10例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增10例境外移入個案，為5例男性、5例女性，年齡介於20多歲至50多歲，分別自哥倫比亞(案16928)、美國(2例，案16929、案16937)、柬埔寨(案16930)、越南(案16931)、英國(3例，案16932、案16934-16935)、印尼(2例，案16933、案16936)，入境日介於今(2021)年11月22日至12月19日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,794,007例新型冠狀病毒肺炎相關通報(含4,775,550例排除)，其中16,826例確診，分別為2,173例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月21日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-21\$\@\$中央流行疫情指揮中心今(21)日表示，AstraZeneca疫苗約73.84萬劑預定於今日下午抵達桃園國際機場，待完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業，再提供COVID-19接種計畫所列實施對象接種。\$\@\$指揮中心指出，該中心係於去(2020)年10月30日與臺灣阿斯特捷利康公司簽署1,000萬劑COVID-19疫苗供應合約，截至目前總計已超過853萬劑到貨，分別為3月3日11.7萬劑、7月7日62.6萬劑、7月15日56萬劑、7月27日58.2萬劑、8月12日52.4萬劑、8月27日26.5萬劑、8月31日59.5萬劑、9月10日45.8萬劑、9月17日64萬劑、9月30日65.6萬劑、10月13日136萬劑、11月4日14.2萬劑、11月6日59.4萬劑、11月19日67.6萬劑，及本次提供第十五批73.84萬疫苗。本次提供的疫苗係為多劑型包裝(每瓶10人份)，需存放於2-8℃的環境，本批效期至2022年4月30日。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-20\$\@\$中央流行疫情指揮中心今(20)日表示，昨(19)日衛生福利部傳染病防治諮詢會預防接種組(ACIP)專家會議決議，經評估國內外疫情風險、國內疫苗供應現況並參酌各國疫苗接種政策，調整及建議COVID-19疫苗接種作業如下：\$\@\$(一)已接種基礎劑(primary series)第一劑COVID-19疫苗之民眾，經醫師評估符合接種間隔後，第二劑可選擇我國食品藥物管理署核准之接種任一廠牌COVID-19疫苗。\$\@\$(二)經醫師評估有免疫不全或免疫力低下且病情穩定之12歲以上民眾，應接種基礎加強劑(additional dose)，其與第二劑COVID-19疫苗間隔至少28天，建議優先接種mRNA疫苗(如Moderna、BNT)或次單位蛋白質疫苗(如高端)。\$\@\$(三)已完成基礎劑接種且間隔滿5個月之18歲以上民眾，應接種追加劑(Booster dose)，建議優先接種mRNA疫苗(如Moderna、BNT)或次單位蛋白質疫苗(如高端)，以獲得充足之免疫保護力。\$\@\$指揮中心說明，會議中專家參酌國內外臨床研究與試驗結果及各國接種策略指出，目前經衛生福利部食品藥物管理署核准專案輸入或製造之COVID-19疫苗，均需至少完成兩劑接種。由於目前國內各廠牌COVID-19疫苗供應充足，世界衛生組織(World Health Organization, WHO)、歐盟及各國亦多採用基礎劑可混打策略，民眾經醫師評估後，可選擇同廠牌疫苗或混打，以提升疫苗接種完成率。\$\@\$另ACIP專家檢視目前現有文獻及臨床試驗結果後表示，免疫不全以及免疫力低下病人即使完成2劑COVID-19疫苗接種，多無法獲得足夠的免疫保護力，爰建議12歲以上經醫師評估病情穩定之下列對象，應接種第3劑基礎加強劑，其間隔與第二劑COVID-19疫苗至少28天，建議優先接種全劑量mRNA疫苗(如Moderna、BNT)或次單位蛋白質疫苗(如高端)：\$\@\$(一)目前正進行或1年內曾接受免疫抑制治療之癌症患者\$\@\$(二)器官移植患者/幹細胞移植患者\$\@\$(三)中度/嚴重先天性免疫不全患者\$\@\$(四)血液透析患者\$\@\$(五)HIV陽性患者\$\@\$(六)目前正使用高度免疫抑制藥物者\$\@\$(七)過去6個月內接受化學治療或放射線治療者\$\@\$(八)其他經醫師評估因免疫不全或免疫力低下，可接種基礎加強劑者\$\@\$基於Omicron變異株疫情於各國持續升溫，ACIP專家表示雖然目前尚無證據顯示感染Omicron變異株後會增加重症、住院或死亡之風險，惟此變異株會可能造成突破性感染(Breakthrough infection)，降低疫苗之保護力，加速傳播，即使曾經感染過其他COVID-19基因型痊癒者，亦可能感染Omicron變異株。對此ACIP專家亦表示，目前就國際間臨床試驗報告、監測及相關文獻均指出，完成基礎劑接種後，疫苗保護力會隨接種時間消退，建議滿18歲以上民眾於完成基礎劑接種後，應接種追加劑。而依據目前國內外研究數據顯示，無論基礎劑接種何種廠牌COVID-19疫苗，國內追加劑建議優先接種Moderna COVID-19疫苗半劑量(50微毫克)、BioNTech COVID-19疫苗全劑量或次單位蛋白質疫苗(如高端)全劑量，以提升免疫保護力。\$\@\$指揮中心提醒，前述政策訂於12月24日開始實施，施行細節將於近日函知各地方政府衛生局轉轄內COVID-19疫苗接種合約院所。指揮中心呼籲，符合接種資格之民眾，請儘速前往COVID-19疫苗合約醫療院所完成接種，加強免疫保護。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-20\$\@\$中央流行疫情指揮中心今(20)日表示，有關中研院P3實驗室內部調查報告，該院已依指揮中心要求期限於昨(19)日晚間送達指揮中心。報告書中說明事發經過、院方應變措施、感染途徑調查、院方整體調查結果與根本原因分析、責任檢討與未來改進事項；其中針對人員訪談、11月中下旬監視器錄影檔、實驗室使用紀錄表等調查發現，確認具有以下三項感染暴露風險因子：\$\@\$一、實驗操作區與非操作區均存在環境汙染。於實驗動物操作時，未於生物安全櫃中進行。髒墊料直接置於未封口的袋子、也未放置於加蓋的容器中。\$\@\$二、個案及其他實驗室人員均曾僅穿著一般防護裝備(未戴N95口罩、雙層手套、護目鏡或面罩)執行實驗。\$\@\$三、個案於脫除防護裝備過程先行脫口罩。\$\@\$根據以上感染暴露風險因子，中研院研判感染途徑可能有三種：\$\@\$一、呼吸道直接暴露受汙染的墊料粉塵、染疫動物受刺激而引發噴飛沫或氣膠的環境。\$\@\$二、手套表面因直接操作染疫動物被汙染，於脫卸防護裝備程序先誤脫口罩時，接觸臉部口鼻等部位而感染。\$\@\$三、防護裝備外層在操作區遭帶有病毒之物體表面汙染，於脫卸防護裝備程序先誤脫口罩時，使口鼻暴露於脫卸過程而感染。\$\@\$此外，中研院亦針對：(1)新進人員教育訓練與操作指導；(2)實驗室SOP操作；(3)實驗操作過程監控；(4)個人防護裝備穿卸流程；(5)意外事故通報流程；(6)動物科學應用審核管理規範及感染性生物材料之使用管控；(7)本次染疫事件成因的系統性問題等七大面向，進行制度面及執行面的回顧檢討，並說明若最終調查認定確有違反規定，將依據人員身分別處理責任歸屬及處分。中研院並提出未來將成立P3實驗室綜合檢討委員會，確實改進P3實驗室的管理運作級生物安全監督查核機制。\$\@\$指揮中心說明，該中心已於12月17日及19日派員訪談中研院該P3實驗室主管、工作人員、及中研院生安會主委，並於今日上午提交訪談結果及中研院內部調查報告予外部專家調查小組，且安排於本週四開會進行審視及討論，預計兩週內提出外部專家小組調查結論及建議；另亦將依傳染病防治法第34條、第69條及感染性生物材料管理辦法第25條規定，對中研院進行裁處，最高可處十五萬元罰鍰，並限期令其改善，屆期未改善者，按次處罰之，並於生物安全疑慮解除前，要求該P3實驗室停止使用或處分相關感染性生物材料。另依前開管理辦法第29條規定，於生物安全疑慮解除，經該院生安會確認後，報疾管署同意後，始得再行使用或處分相關感染性生物材料。\$\@\$指揮中心另指出，除中研院基因體研究中心P3實驗室已另案調查，其餘國內11家操作新冠病毒之P3實驗室均已於12/17查核完畢，未發現重大缺失。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-20\$\@\$中央流行疫情指揮中心今(20)日公布國內新增11例COVID-19移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增11例境外移入個案，為7例男性、4例女性，年齡介於10多歲至50多歲，分別自義大利(案16917)、美國(5例，案16918-16920、案16922、案16926)、德國(案16921)、法國(案16923)、巴西(案16924)、越南(案16925)及菲律賓(案16927)入境，入境日介於今(2021)年12月5日至12月19日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,774,769例新型冠狀病毒肺炎相關通報(含4,756,108例排除)，其中16,816例確診，分別為2,163例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月20日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-19\$\@\$中央流行疫情指揮中心今(19)日公布國內新增6例COVID-19境外移入確定病例；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增6例境外移入個案，為3例男性、3例女性，年齡介於10多歲至40多歲，分別自美國(案16911)、加拿大(案16912)、英國(2例，案16913、案16915)、越南(案16914)及奈及利亞(案16916)入境，入境日介於今(2021)年12月5日至12月17日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例死亡個案(案4397)，為60多歲本國籍男性，具慢性病史；5月22日因發燒就醫採檢，5月23日住院隔離治療，5月24日確診，7月2日解除隔離，12月1日死亡。\$\@\$指揮中心統計，截至目前國內累計4,763,385例新型冠狀病毒肺炎相關通報(含4,744,216例排除)，其中16,805例確診，分別為2,152例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；累計111例移除為空號。2020年起累計850例COVID-19死亡病例，其中838例本土，個案居住縣市分布為新北市413例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月19日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-18\$\@\$中央流行疫情指揮中心今(18)日公布國內新增13例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增13例境外移入個案，為6例男性、7例女性，年齡介於10多歲至60多歲，分別自越南(4例，案16898、案16900、案16904、案16906)、英國(3例，案16899、案16905、案16908)、美國(2例，案16903、16910)、西班牙(案16901)、柬埔寨(案16902)、菲律賓(案16907)及新加坡(案16909)入境，入境日介於今(2021)年12月3日至12月17日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,747,250例新型冠狀病毒肺炎相關通報(含4,727,825例排除)，其中16,799例確診，分別為2,146例境外移入，14,599例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；累計111例移除為空號。2020年起累計849例COVID-19死亡病例，其中837例本土，個案居住縣市分布為新北市412例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月18日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-16\$\@\$中央流行疫情指揮中心今(16)日表示，因應案16851於今(2021)年12月11日自主健康管理期間確診，指揮中心與地方衛生局立即展開相關調查，包括擴大回溯追蹤、擴大採檢、現場勘查、病毒定序等，發現同防疫旅宿同樓層之案16768、16841、16851、16856病毒S基因序列相同，初步研判可能為一起防疫旅宿相關感染事件。\$\@\$指揮中心說明，考量防疫旅宿為國內疫情控制關鍵，指揮中心即刻啟動防疫旅宿四大強化作為，多管齊下，嚴守社區防線：\$\@\$一、強化監測作為，增加春節檢疫專案3項方案篩檢次數及查核與違規裁處：\$\@\$(一) 3方案均於入境時、檢疫第3、7、10、14及第21天(自主健康管理期間第6-7天)進行PCR檢驗或公費快篩(詳附件)。\$\@\$(二) 居家檢疫期間加強查核，違反規定者將加重裁處。\$\@\$二、防疫旅宿防疫措施查核：邀集感控專家針對防疫旅宿進行全面查核，指導與協助防疫旅宿落實防疫管理措施。\$\@\$三、防疫旅宿通風空調檢視：請勞動部勞動及職業安全衛生研究所協助全面檢視防疫旅宿之通風空調換氣情形，並提供改善建議。\$\@\$四、加強有症狀通報：檢疫期間有症狀均要進行PCR採檢，以確實掌握可能個案。 附件\$\@\$1216-春節檢疫專案篩檢次數調整.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-16\$\@\$中央流行疫情指揮中心今(16)日公布國內新增12例COVID-19確定病例，分別為1例本土及11例境外移入；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增1例本土病例(案16882)，為80多歲本國籍女性，已接種2劑AZ疫苗，今(2021)年12月15日因腹痛、發燒等症狀就醫並採檢，於今日確診( Ct值39.9)，血清檢驗N蛋白抗體陽性，研判為舊案。目前已匡列接觸者2人，列居家隔離，其餘接觸者匡列中。衛生單位刻正進行疫情調查及防治，以釐清感染源。\$\@\$指揮中心表示，今日新增11例境外移入個案，為4例男性、7例女性，年齡介於10多歲至50多歲，分別自美國(案16871)、柬埔寨(3例，案16872、案16878、案16879)、菲律賓(2例，案16873、案16876)、英國(案16874)、越南(2例，案16875、案16877)、泰國(案16880)、蒙古(案16881)入境，入境日介於11月21日至12月14日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,710,205例新型冠狀病毒肺炎相關通報(含4,689,895例排除)，其中16,771例確診，分別為2,125例境外移入，14,592例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計849例COVID-19死亡病例，其中837例本土，個案居住縣市分布為新北市412例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月16日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-15\$\@\$中央流行疫情指揮中心今(15)日公布國內新增7例COVID-19境外移入確定病例；另確診個案中新增1例死亡。\$\@\$指揮中心說明，今日新增7例境外移入個案，為6例男性、1例女性，年齡介於20多歲至40多歲，分別自菲律賓(3例，案16864、案16866、案16867)、澳大利亞(案16865)、印尼(案16868)及美國(案16870)入境，餘1例調查中(案16869)，入境日介於今(2021)年11月30日至12月5日；詳如新聞稿附件。\$\@\$指揮中心表示，今日新增1例死亡個案(案10511)，為50多歲本國籍男性，具慢性病史及相關活動接觸史；6月3日採檢為陽性，6月4日因呼吸喘住院隔離治療，6月5日確診，8月14日解除隔離，11月19日死亡。\$\@\$指揮中心統計，截至目前國內累計4,690,800例新型冠狀病毒肺炎相關通報(含4,672,174例排除)，其中16,759例確診，分別為2,114例境外移入，14,591例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；累計111例移除為空號。2020年起累計849例COVID-19死亡病例，其中837例本土，個案居住縣市分布為新北市412例、臺北市322例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月15日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-14\$\@\$中央流行疫情指揮中心今(14)日公布國內新增10例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增10例境外移入個案，為6例男性、4例女性，年齡介於10多歲至50多歲，分別自美國(2例，案16854、案16855)、香港(案16856)、孟加拉(案16857)、越南(2例，案16858、案16863)、柬埔寨(案16859)、菲律賓(案16860)、阿拉伯聯合大公國(案16861)及印尼(案16862)入境，入境日介於今(2021)年11月26日至12月12日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,672,651例新型冠狀病毒肺炎相關通報(含4,655,350例排除)，其中16,752例確診，分別為2,107例境外移入，14,591例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月14日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-13\$\@\$中央流行疫情指揮中心今(13)日公布國內新增5例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增5例境外移入個案，為4例男性、1例女性，年齡介於10多歲至40多歲，分別自越南(2例，案16849、案16853)、英國(案16850)、中國(案16851)及馬來西亞(案16852)入境，入境日介於今(2021)年11月20日至12月10日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,657,395例新型冠狀病毒肺炎相關通報(含4,639,667例排除)，其中16,742例確診，分別為2,097例境外移入，14,591例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月13日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-13\$\@\$因應國際間新變異株Omicron威脅，中央流行疫情指揮中心經與相關單位溝通討論及評估後，於今(13)日宣布，自今(2021)年12月14日至12月27日維持疫情警戒標準為第二級，並維持相關措施及規定如下：\$\@\$一、維持現行戴口罩規定，外出時應全程佩戴口罩，但符合以下情形，得免戴口罩(本次未調整)：\$\@\$(一)下列場合得免戴口罩，但應隨身攜帶口罩，且如本身有相關症狀或與不特定對象無法保持社交距離時，仍應戴口罩：\$\@\$1.於室內外從事運動、唱歌時。\$\@\$2.於室內外拍攝個人/團體照時。\$\@\$3.單人或多人進行直播、錄影、主持、報導、致詞、演講、講課等談話性質工作或活動之正式拍攝或進行時。\$\@\$4.農林漁牧工作者於空曠處(如：田間、魚塭、山林)工作。\$\@\$5.於山林(含森林遊樂區)、海濱活動。\$\@\$6.於溫/冷泉、烤箱、水療設施、三溫暖、蒸氣室、水域活動等易使口罩潮濕之場合。\$\@\$(二)外出時有飲食需求，得免戴口罩。\$\@\$(三)於指揮中心或主管機關指定之場所或活動，如符合相關防疫措施，得暫時脫下口罩。\$\@\$二、營業場所及公共場域維持應遵守實聯制、量體溫、加強環境清消、員工健康管理、確診事件即時應變。\$\@\$指揮中心將視國內外疫情及實際執行狀況，適時機動調整防疫措施，強化邊境監測及防疫作為。籲請民眾應落實個人防護措施，主動積極配合各項防疫規範，以兼顧防疫與生活品質。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-13\$\@\$中央流行疫情指揮中心今(13)日表示，目前已全面提供「AZ、莫德納、BNT、高端共4種疫苗第一、二劑」、「已接種第一劑AZ疫苗，第二劑混打BNT或莫德納疫苗」以及「完整接種COVID-19疫苗且滿5個月，追加接種第三劑莫德納」之接種服務，請民眾儘速透過「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/ ，以下簡稱預約平臺）或各地方政府指定合約醫療院所/衛生所預約接種。\$\@\$其中，預約平臺第18期規劃提供BNT疫苗預約，相關對象及期程說明如下：\$\@\$一、符合資格對象，12月13日上午6時前已意願登記(含混打)民眾，且符合下列任一條件：\$\@\$(一) BNT第一劑：12歲以上民眾[即2009/12/16(含)前出生]。\$\@\$(二) BNT第二劑：11月18日(含)前已接種BNT第一劑18歲以上民眾[即2003/12/31(含)前出生]。\$\@\$(三)已接種第一劑AZ，第二劑混打BNT疫苗：10月21日(含)前已接種AZ第一劑18歲以上民眾[即2003/12/16(含)前出生]。\$\@\$二、預約時程：12月14日上午10時至12月15日中午12時。\$\@\$三、施打時程：12月16日至12月22日。\$\@\$指揮中心說明，上述符合資格對象將於12月13日下午2時起，陸續收到提醒簡訊，請記得依預約時間進行預約；預約當日如遇啟動流量管制亦請配合依序排隊耐心等候預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心強調，各廠牌疫苗均可至各地方政府衛生局合約醫療院所預約接種，且衛生福利部所屬醫院、國軍退除役官兵輔導委員會所屬醫院及國防部所屬醫院，亦增開週一至週五夜間門診，提供莫德納疫苗接種服務，請民眾多加利用，並呼籲民眾儘速完成二劑疫苗接種，以獲得完整免疫保護力。\$\@\$指揮中心提醒，10月1日起亦開始接種流感疫苗，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。另未滿18歲對象，請由家長(或法定代理人、監護人及關係人等)陪同前往合約醫療院所或接種站接種，並由本人與家長於現場共同簽署意願同意書；18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書，若由家長陪同前往接種，請本人與家長於現場共同簽署意願同意書。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-12\$\@\$中央流行疫情指揮中心今(12)日公布國內新增6例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增6例境外移入個案，為5例男性、1例女性，年齡介於10多歲至20多歲，分別自美國(2例，案16843、案16844)、柬埔寨(案16845)、馬來西亞(案16846)、菲律賓(案16847)及印尼(案16848)入境，入境日介於今(2021)年11月26日至12月10日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,646,270例新型冠狀病毒肺炎相關通報(含4,628,598例排除)，其中16,737例確診，分別為2,092例境外移入，14,591例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月12日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-11\$\@\$中央流行疫情指揮中心今(11)日公布國內新增10例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增10例境外移入個案，為7例男性、3例女性，年齡介於10多歲至70多歲，分別自美國(案16833)、柬埔寨(2例，案16834、案16835)、印尼(案16836)、緬甸(案16837)、越南(3例，案16838-16840)、中國(案16841)及蒙古(案16842)入境，入境日介於今(2021)年11月19日至12月9日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,632,446例新型冠狀病毒肺炎相關通報(含4,614,110例排除)，其中16,731例確診，分別為2,086例境外移入，14,591例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月11日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-10\$\@\$中央流行疫情指揮中心今(10)日表示，因應國內新增本土確定病例，為降低社區感染及傳播風險，呼籲已接種兩劑COVID-19疫苗且滿5個月之民眾，可前往追加接種第三劑莫德納COVID-19疫苗，提升免疫保護力。依目前各國核准及我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，莫德納追加劑接種劑量為50微毫克(依目前劑型，注射量為0.25ml)。\$\@\$指揮中心說明，目前各廠牌COVID-19疫苗接種後之免疫保護力會隨時間下降，加上COVID-19病毒變異株具免疫逃脫之特性，即使完整接種兩劑疫苗後，仍可能因免疫保護力不足導致突破性感染(breakthrough infection)，建議符合接種間隔之民眾可接種追加劑，特別是醫護人員、防疫工作人員、第一線高感染風險工作人員、65歲以上長者、長照機構住民與工作者及容易感染與疾病嚴重風險者。民眾除可透過各地方政府衛生局合約醫療院所預約接種，亦可多利用衛生福利部所屬醫院、國軍退除役官兵輔導委員會所屬醫院、及國防部所屬醫院於週一至週五增設之夜間門診。指揮中心提醒民眾前往接種時，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。\$\@\$指揮中心指出，昨(9)日屆期之莫德納 COVID-19疫苗已全數用罄，指揮中心特別感謝地方政府及醫療院所通力合作，積極調度，有效運用疫苗資源。截至本年12月10日止，我國COVID-19疫苗第一劑涵蓋率為78.55%，第二劑涵蓋率為63.25%，呼籲尚未接種第一劑或完整接種之民眾應儘速接種。\$\@\$指揮中心表示，為提供民眾更便利的疫苗接種服務，指揮中心自12月5日起協調臺北車站場地及三軍總醫院、三軍總醫院松山分院與衛生福利部臺北醫院醫療人力，提供莫德納COVID-19疫苗第一劑及第二劑接種服務，截至12月9日已接種12,760人次。臺北車站接種站服務期間至12月12日止，服務時間為每日下午1時至晚上8時，尚未接種第一劑或二劑疫苗之民眾可多加利用。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增1例COVID-19本土確定病例(案16816)，為本國籍20多歲女性，曾任中央研究院基因體研究中心實驗室研究人員，近期無出入境紀錄，已接種2劑莫德納疫苗。個案於11月中旬工作過程曾接觸過病原，當下並無症狀；11月26日開始出現輕微咳嗽，12月4日咳嗽加劇，12月8日出現嗅、味覺異常，就醫採檢後，於今日確診。\$\@\$指揮中心說明，因應本例本土確定病例，指揮中心已初步匡列相關接觸者共85人，均安排於集中檢疫所隔離，並進行採檢，其中1人為陰性，其餘接觸者持續匡列中。指揮中心進一步說明，在接獲醫院通報個案後，隨即安排疾病管制署防疫醫師、同仁至該實驗室進行調查，同時由專家諮詢小組張上淳召集人到場指導並召開會議，針對疫情及防治作為進行討論，採取措施包括：\$\@\$一、個案所屬實驗室暫停使用，同樓層人員全數居家隔離。\$\@\$二、調閱實驗室進出紀錄及錄影帶，以掌握可能接觸者及瞭解運作情形。\$\@\$三、實驗室全棟人員12月10日停止上班，且於9日起自我健康監測，如有不適症狀立即聯絡衛生單位。\$\@\$四、要求中央研究院10日內提出調查檢討報告，指揮中心將派生物安全專家調查小組前往該實驗室進行調查。\$\@\$指揮中心進一步指出，依照該中心所訂定的「新型冠狀病毒(SARS-CoV-2)之實驗室生物安全指引」，請各實驗室務必落實及查核相關規定，也提醒相關人員，注意下列事項，確保自身安全：\$\@\$一、有關從事SARS-CoV-2檢驗研究相關實驗室之工作人員，應落實健康監測。\$\@\$二、如實驗室工作人員出現疑似感染症狀，應主動通報實驗室主管並儘速就醫評估，並於就醫時主動告知醫師相關暴露風險。\$\@\$三、操作SARS-CoV-2檢驗研究相關實驗室工作人員，應儘速完成COVID-19疫苗接種。\$\@\$四、各設置單位之生物安全會應落實實驗室工作人員之健康監測管理。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-09\$\@\$衛生福利部疾病管制署今(9)日表示，為響應雙語國家政策，自2019年起，每年推出一套4本中英文防疫雙語繪本「CHELSEA AND FRIENDS小喜與朋友們」，至今(2021)年共推出三套12個主題，利用中英文對照、淺顯易懂的單字及故事劇情，讓小朋友在學習常見的傳染病，如COVID-19、登革熱、腸病毒、流感等知識中，一起學習英文。\$\@\$疾管署說明，今年是以狂犬病、日本腦炎、破傷風及結核病等傳染病為主題，設計4本中英文雙語繪本，除了中英文雙語繪本外，也製作了新型A型流感、腸病毒中英文防疫兒歌動畫影片4支；系列繪本及兒歌動畫，都是透過主角「小喜」與好朋友之間的故事，深入淺出地引導讀者認識疾病症狀與預防方法，大人、小孩在閱讀繪本及學習兒歌的過程中，能共同學習與思考正確防疫觀念。\$\@\$疾管署也指出，隨著民眾對傳染病相關議題越來越關注，今年特別邀請廚神奶爸蔣偉文擔任防疫大使，拍攝宣導短片《「廚神奶爸」防疫繪話通》，與民眾分享親子共讀及歌唱的樂趣，也向民眾呼籲勤洗手、戴口罩、及按時接種疫苗等防疫措施對幼兒預防傳染病的重要性。育有兩子的蔣偉文在影片中與小朋友安安一起閱讀雙語繪本「汪！汪！」，以說故事方式，搭配中英語對話互動，讓家長知道如何輕鬆、自然與孩子共讀，寓教於樂學習防疫知識；此外，影片中還有一起學唱「新型A型流感」雙語防疫兒歌動畫，藉由簡單的歌詞讓小孩記得基本的預防方法。\$\@\$身為防疫大使的蔣偉文也透露，防疫雙語繪本與兒歌不僅故事畫風有趣，容易吸引小孩注意，讓小孩在閱讀繪本與歌唱過程中，提升對傳染病認知並學習豐富的英文單字，大力推薦給家中有幼兒的父母親。\$\@\$本系列套書可透過國家書店、五南書店購買；防疫兒歌動畫影片，可於疾管署全球資訊網宣導專區（https://reurl.cc/m9yaLj），選擇新型A型流感或腸病毒主題之影片分類下觀看；《「廚神奶爸」防疫繪話通》也可至相同宣導專區，選擇狂犬病或新型A型流感主題之影片分類下觀看。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-09\$\@\$中央流行疫情指揮中心今(9)日表示，因應國際疫情變化難測、新興變異株頻傳，並考量國際間COVID-19病毒核酸(PCR)檢測可近性已大幅增加，為確保航空防疫安全，自2021年12月14日起，調整「3日內」PCR報告日為啟程地表定航班時間往前推3個「日曆日」計算，不排除當地國定假日、例假日，請旅客搭機前務必確認PCR檢驗報告符合規範。\$\@\$指揮中心指出，春節檢疫措施專案將於下週二(12月14日)上路，預期將湧現返鄉人潮，提醒12月14日至明(2022)年2月14日期間自國外返臺旅客，必須瞭解及配合以下三步驟，事先做好檢疫，返臺將更簡易：\$\@\$第一步、事前，應準備資料：\$\@\$旅客請依照選擇的春節檢疫方案(方案A：入住防疫旅宿完成檢疫期14天及接續自主健康管理7天、方案B：10天入住防疫旅宿+4天在家居家檢疫+7天自主健康管理、方案C：7天自費入住集中檢疫所或防疫旅宿+7天在家居家檢疫+7天自主健康管理)，備妥相關資料及可上網的個人手機；其中無論選擇哪個方案，全部旅客均需準備「搭機前三日內COVID-19病毒核酸(PCR)檢驗報告」和「防疫旅宿訂房證明(全部旅客)」；如為選擇方案C者，須增加準備「完整疫苗接種證明」；此外，若為選擇方案B/方案C旅客，且於隔離檢疫最後4天/7天需返家，並符合以一人一室方式進行在家檢疫者(同住家人須已完整COVID-19疫苗接種且滿14天)，應事前取得同戶內同住家人之姓名、身分證字號、電話等個人資訊，以利線上申報。\$\@\$第二步、搭機前，應完成線上申報：\$\@\$旅客請於航班抵臺前48小時內至「入境檢疫系統」( https://hdhq.mohw.gov.tw/ )完成線上申報，於國外機場報到(check-in)時，出示已完成線上申報之「啟程地申報證明」手機畫面，並隨身攜帶前述證明文件，以供航空公司進行搭機前檢視作業。\$\@\$第三步、抵臺時，應依現場引導順利通關：\$\@\$旅客下機後，請打開手機確認收到簡訊，於機場通關時依序出示線上檢疫憑證及前述證明文件；於完成證照查驗及提領行李，再取快篩試劑(選擇方案A、方案C者)、並配合深喉唾液採檢後，儘速搭乘防疫車輛前往檢疫地點，完成14天檢疫。\$\@\$指揮中心強調，邊境管制為防範COVID-19疫情的重要關鍵，交通主管機關已通知各航空公司應主動通知訂票旅客配合上述規定及落實外站檢視把關；也籲請入境旅客務必配合上述規範及相關檢疫措施，共同維護國內防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-09\$\@\$中央流行疫情指揮中心今(9)日公布國內新增16例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增16例境外移入個案，為11例男性、5例女性，年齡介於10多歲至50多歲，分別自美國(案16800)、越南(7例，案16801-16802、案16806、案16809-16812)、西班牙(案16803)、英國(2例，案16804-16805)、菲律賓(2例，案16807、案16815)及印尼(3例，案16808、案16813-16814)入境，入境日介於今(2021)年11月25日至12月7日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,600,226例新型冠狀病毒肺炎相關通報(含4,582,236例排除)，其中16,704例確診，分別為2,060例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月9日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-09\$\@\$中央流行疫情指揮中心今(9)日表示，台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的第十四批BNT疫苗192.35萬劑，預計於今日下午運抵桃園國際機場，並在完成通關程序後，直接運送至指定冷儲物流中心進行後續檢驗封緘作業。\$\@\$指揮中心說明，由台積電、鴻海暨永齡基金會、慈濟基金會共同捐贈的BNT疫苗1,500萬劑，目前共計到貨1239.79萬劑，分別為首批9月2日93萬劑、第二批9月9日91萬劑、第三批9月30日54萬劑、第四批10月1日67萬劑、第五批10月4日27萬劑、第六批10月7日88.92萬劑、第七批10月8日88.92萬劑、第八批10月14日82.7萬劑、第九批10月28日90.21萬劑、第十批10月29日91.03萬劑、第十一批11月5日87.17萬劑、第十二批11月12日92.66萬劑、第十三批11月25日93.83萬劑，以及本批192.35萬劑。本批疫苗效期至2022年3月25日，將由指揮中心統籌運用，儘速提供民眾接種。\$\@\$對於台積電、鴻海暨永齡基金會、慈濟基金會三間企業和民間團體積極協助，提供更多的疫苗讓民眾接種，加速提升臺灣疫苗覆蓋率，指揮中心再次表達由衷的謝意。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-08\$\@\$中央流行疫情指揮中心今(8)日表示，由於國際疫情持續嚴峻及Omicron新型變異株之威脅增加，考量國內COVID-19疫苗接種量能尚屬充足，為積極防範社區傳播風險，自111年1月1日起，中央各部會及地方政府權管場所場域之工作人員及從業人員，屬於維持醫療及防疫量能者、高接觸風險工作者、維持國家安全及社會機能正常運作者(即COVID-19公費疫苗接種對象第1、2、3、7類對象)，以及矯正機關、殯葬場所工作人員等(詳如附件)，因工作或服務性質具有「接觸不特定人士或無法保持社交距離」之特性，將強化上述人員COVID-19疫苗接種規範，共同維護國人健康安全。規範原則如下：\$\@\$一、上述中央各部會及地方政府權管場所場域工作人員/從業人員皆應接種COVID-19疫苗2劑且滿14天（最晚應於110年12月17日前接種第2劑疫苗）；新進人員於首次服務前，倘未完整接種2劑疫苗且滿14天，應提供自費3日內抗原快篩(含家用快篩)或PCR檢驗陰性證明。\$\@\$二、倘人員曾為COVID-19確診個案，且持有3個月內由衛生機關開立之解除隔離通知書者，可暫免檢具COVID-19疫苗接種證明，惟應於解除隔離滿3個月後，儘速完整接種COVID-19疫苗，新進人員並應於首次服務前，提供自費3日內PCR檢驗陰性證明。\$\@\$三、倘人員經醫師評估且開立不建議施打COVID-19疫苗證明或個人因素無法施打者，須每週1次自費抗原快篩(含家用快篩)或PCR檢驗陰性後，始得提供服務，新進人員並應於首次服務前，增加1次自費3日內PCR檢驗陰性證明。\$\@\$指揮中心強調，為確保相關場所場域人員自111年1月1日起皆能符合上開規範，各相關部會及地方政府將加強督導，請相關場所場域鼓勵未完整COVID-19疫苗接種之工作人員及從業人員，儘速於110年12月17日前完整接種2劑疫苗。 附件\$\@\$附件-各部會業管場所場域之工作及從業人員於110年12月17日前完整接種2劑疫苗清單.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-08\$\@\$中央流行疫情指揮中心今(8)日公布國內新增5例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增5例境外移入個案，為3例男性、2例女性，年齡介於20多歲至70多歲，分別自印尼(2例，案16795、案16796)、菲律賓(案16797)及衣索比亞(2例，案16798、案16799)入境，入境日介於今(2021)年11月19日至11月24日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,583,889例新型冠狀病毒肺炎相關通報(含4,566,149例排除)，其中16,688例確診，分別為2,044例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月8日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-08\$\@\$中央流行疫情指揮中心今(8)日表示，為因應Omicron變異株疫情，以及提供民眾更便利的疫苗接種服務，指揮中心自今(2021)年12月5日起在臺北車站開設「莫德納疫苗施打站」，由於民眾接種踴躍，除原三軍總醫院松山分院醫護人力外，已於12月6日起再協調三軍總醫院及衛生福利部臺北醫院醫療人力增設2個施打處，截至12月7日止，累計接種5,623人次。為擴大接種服務，符合民眾接種需求，該接種站將延長服務時間至12月12日止，持續在每日下午1時至晚上8時，於車站大廳西側迴廊、車站大廳及東側迴廊，共3個施打處提供莫德納疫苗接種服務；可接種對象不限本國籍民眾，外國籍人士亦可接種，民眾無需預約，隨到隨打，完成接種者即可獲得1份禮品。\$\@\$指揮中心另說明，昨(7)日屆效之莫德納疫苗皆已用完，此外，約有4萬劑解凍後28天之莫德納疫苗即將於12月12日到期；為使資源有效運用，並為提升民眾莫德納疫苗第一劑、第二劑施打意願，各縣市至12月21日止，均可提供接種疫苗之宣導品，以鼓勵民眾踴躍接種莫德納疫苗。\$\@\$指揮中心強調，除設置施打站外，並已協調衛生福利部所屬醫院、國軍退除役官兵輔導委員會所屬醫院、及國防部所屬醫院，增開週一至週五夜間門診，提供莫德納疫苗接種服務；另其餘廠牌COVID-19疫苗亦可透過「COVID-19公費疫苗預約平臺」、或各地方政府衛生局合約醫療院所預約接種。呼籲民眾把握機會儘速完成二劑疫苗接種，以獲得完整免疫保護力。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-07\$\@\$中央流行疫情指揮中心今(7)日表示，有關媒體報導新竹縣一名失聯移工接種疫苗被捕一事，指揮中心說明如下：\$\@\$一、指揮中心指出，為提高全國疫苗覆蓋率，指揮中心與地方衛生局設置接種站，提供民眾(含外籍人士)便利接種，針對失聯移工配合政策出面接種疫苗，昨(6)日記者會再度重申，治安機關不會針對失聯移工進行查處，因此，已通知各治安機關依指揮中心之防疫政策辦理。\$\@\$二、指揮中心強調，逾期停(居)留外來人口申請接種疫苗所提供之基本資料，不會作為治安機關查處依據；現階段，各治安機關均應以防疫為首要任務，請各治安機關務必配合。\$\@\$三、指揮中心重申，為確保臺灣社區防疫安全網，勞政、衛政、警政及移民等各機關，應確實配合指揮中心防疫政策辦理。各機關請依內政部移民署「安心接種疫苗專案」之不通報、不查處、不收費及不管制等四項作為，鼓勵逾期停(居)留外來人口出面接種疫苗，共同維護臺灣的防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-07\$\@\$中央流行疫情指揮中心今(7)日公布國內新增21例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增21例境外移入個案，為8例男性、13例女性，年齡介於20多歲至60多歲，分別自貝里斯(案16774)、美國(2例，案16775、案16777)、印尼(10例，案16776、案16778-16779、案16781-16782、案16789-16790、案16792-16794)、越南(案16780)、新加坡(5例，案16783-16787)、柬埔寨(案16788)及菲律賓(案16791)入境，入境日介於今(2021)年10月29日至12月5日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,565,572例新型冠狀病毒肺炎相關通報(含4,547,856例排除)，其中16,683例確診，分別為2,039例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月7日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-05\$\@\$中央流行疫情指揮中心今(5)日表示，考量目前國內已持續提升COVID-19疫苗接種量能，為積極防範國際疫情嚴峻及新型變異株威脅，降低社區傳播風險，自111年1月1日起，教育部、經濟部、勞動部及衛生福利部業管之部分場所(域)防疫指引(如附表)將強化COVID-19疫苗接種規範，以嚴守社區防線。規範原則如下：\$\@\$一、所有工作人員/從業人員皆應接種COVID-19疫苗2劑且滿14天，復業及新進人員於首次服務前，應同時提供自費3日內抗原快篩(含家用快篩)或PCR檢驗陰性證明。\$\@\$二、倘人員曾為COVID-19確診個案，且持有3個月內由衛生機關開立之解除隔離通知書者，可暫免檢具COVID-19疫苗接種證明。惟於首次服務前，仍應提供自費3日內PCR檢驗陰性證明，並應於解除隔離滿3個月後，儘速完整COVID-19疫苗接種。\$\@\$三、倘人員經醫師評估且開立不建議施打COVID-19疫苗證明或個人因素無法施打者，於首次服務前，應提供自費3日內PCR檢驗陰性證明，後續須每週1次自費抗原快篩(含家用快篩)或PCR檢驗陰性後，始得提供服務。\$\@\$指揮中心強調，為確保相關場所(域)人員自111年1月1日起能符合上開規範，請相關場所(域)鼓勵未完整COVID-19疫苗接種之工作人員及從業人員，儘速於110年12月17日前完整接種疫苗2劑。各相關部會亦將加強查核，倘場所(域)尚有未完整COVID-19疫苗接種之人員，業者須限期改善，並依各主管機關所訂之防疫指引規定辦理。 附件\$\@\$附件-訂有COVID-19疫苗接種規定之防疫指引.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-05\$\@\$中央流行疫情指揮中心今(5)日表示，為因應Omicron變異株疫情，以及提供民眾更便利的疫苗接種服務，指揮中心已協調臺北車站場地及三軍總醫院松山分院醫療人力，自即日起至12月9日止，每日下午1時至晚上8時，於車站大廳西側迴廊開設「莫德納疫苗施打站」，不限本國籍民眾，外國籍人士亦可接種，民眾無需預約，隨到隨打，完成接種者還可獲得禮品1份。\$\@\$指揮中心說明，臺北車站「莫德納疫苗施打站」可接種對象如下：\$\@\$一、18歲以上有意願接種莫德納疫苗第一劑者。\$\@\$二、已接種莫德納疫苗第一劑間隔滿4週以上者。\$\@\$三、已接種AZ疫苗第一劑間隔滿8週以上者。\$\@\$指揮中心指出，經考量臺北火車站為臺鐵、高鐵及臺北捷運三鐵共構，地理位置便利，出入人潮眾多，為方便即時提供民眾接種服務，提升疫苗之可近性，故選擇該站做為莫德納疫苗施打站，歡迎民眾踴躍多加利用。\$\@\$指揮中心強調，除設置施打站外，並已協調衛生福利部所屬醫院、國軍退除役官兵輔導委員會所屬醫院、及國防部所屬醫院，增開週一至週五夜間門診，提供莫德納疫苗接種服務；另其餘廠牌COVID-19疫苗亦可透過「COVID-19公費疫苗預約平臺」、或各地方政府衛生局合約醫療院所預約接種。呼籲民眾把握機會儘速完成二劑疫苗接種，以獲得完整免疫保護力。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-05\$\@\$中央流行疫情指揮中心今(5)日公布國內新增4例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增4例境外移入個案，為3例男性、1例女性，年齡介於20多歲至60多歲，分別自美國(案16760)、越南(案16761)、寮國(案16762)及印尼(案16763)入境，入境日介於今(2021)年11月18日至12月3日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,536,780例新型冠狀病毒肺炎相關通報(含4,518,083例排除)，其中16,652例確診，分別為2,008例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月5日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-04\$\@\$中央流行疫情指揮中心今(4)日公布國內新增11例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增11例境外移入個案，為5例男性、6例女性，年齡介於未滿5歲至50多歲，分別自美國(2例，案16749、案16759)、新加坡(案16750)、越南(2例，案16751、16755)、印尼(5例，案16752- 16754、案16757-16758)及柬埔寨(案16756)入境，入境日介於今(2021)年11月19日至12月2日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,523,528例新型冠狀病毒肺炎相關通報(含4,504,860例排除)，其中16,648例確診，分別為2,004例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月4日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-04\$\@\$中央流行疫情指揮中心今(4)日表示，目前已全面提供民眾BNT疫苗、AZ疫苗、莫德納疫苗以及高端疫苗等四種COVID-19疫苗預約接種，為方便民眾接種疫苗，除「COVID-19公費疫苗預約平臺」（https://1922.gov.tw/ ，以下簡稱預約平臺）外，指揮中心已開放各地方政府指定/安排合約醫療院所或衛生所，提供AZ、莫德納、BNT、高端共4種疫苗第一、二劑，及已接種第一劑AZ疫苗，第二劑混打BNT或莫德納疫苗之接種服務。\$\@\$其中，預約平臺第17期規劃提供BNT疫苗及AZ疫苗預約，相關對象及期程說明如下：\$\@\$一、 符合資格對象，今(2021)年12月5日上午6時前已意願登記/混打意願登記民眾，且符合下列任一條件：\$\@\$(一) BNT第一劑：12歲以上民眾[即2009/12/9(含)前出生]。\$\@\$(二) BNT第二劑：11月11日(含)前已接種BNT第一劑18歲以上民眾[即2003/12/31(含)前出生]。\$\@\$(三) AZ第一劑：18歲以上民眾[即2003/12/9(含)前出生]。\$\@\$(四) AZ第二劑/第二劑混打BNT疫苗：10月14日(含)前已接種AZ第一劑18歲以上民眾[即2003/12/9(含)前出生]。\$\@\$二、 預約分流時程：\$\@\$(一) BNT 疫苗：12月6日上午10時至12月7日中午12時。\$\@\$(二) AZ疫苗：12月6日下午2時至12月7日中午12時。\$\@\$三、 施打時程：12月9日至12月15日。\$\@\$指揮中心說明，預約平臺對象將於12月5日下午2時起，陸續收到提醒簡訊，請記得依預約分流時間進行預約；如為已接種第一劑AZ疫苗之民眾，請依欲選擇之第二劑疫苗種類分流時間，進行預約；預約當日如遇啟動流量管制亦請配合依序排隊耐心等候預約。後續將視疫苗供應期程調整接種場次，籲請民眾屆時準時前往接種。\$\@\$指揮中心提醒，由於10月1日起亦開始接種流感疫苗，依我國衛生福利部傳染病防治諮詢會預防接種組(ACIP)建議，接種流感疫苗應與COVID-19疫苗間隔至少7天，請民眾前往接種COVID-19第二劑疫苗前，應備妥「COVID-19疫苗接種紀錄卡」及健保卡，並於接種前評估時說明過往疫苗接種史，以利醫生評估。\$\@\$此外，未滿18歲對象，請由家長(或法定代理人、監護人及關係人等)陪同前往合約醫療院所或接種站接種，並由本人與家長於現場共同簽署意願同意書；18歲至未滿20歲民眾，如自行前往接種，請持家長簽具之意願同意書，若由家長陪同前往接種，請本人與家長於現場共同簽署意願同意書。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-03\$\@\$中央流行疫情指揮中心今(3)日公布國內新增11例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增11例境外移入個案，為4例男性、7例女性，年齡介於20多歲至40多歲，分別自美國(案16738)、土耳其(案16739)、印尼(4例，案16740-案16742、案16745)、西班牙(案16743)、義大利(案16744)、韓國(案16746)、英國(案16747)及越南(案16748)入境，入境日介於今(2021)年10月24日至12月1日；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,507,035例新型冠狀病毒肺炎相關通報(含4,488,710例排除)，其中16,637例確診，分別為1,993例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月3日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-02\$\@\$中央流行疫情指揮中心今(2)日表示，COVID-19變異株Omicron於各國迅速傳播，為積極因應COVID-19病毒變異株對於國內防疫造成之威脅，確保醫療及防疫量能，自即日起提供已完整接種COVID-19疫苗且滿5個月之民眾，追加接種第三劑COVID-19疫苗。\$\@\$指揮中心提醒，目前提供接種之追加劑為莫德納 COVID-19疫苗，依各國核准及接種建議，接種劑量為50微毫克(基礎劑之一半劑量，依目前劑型，注射量為0.25ml)。\$\@\$指揮中心說明，截至今日，已完整接種COVID-19疫苗(不論廠牌)且間隔滿５個月者[即本(2021)年7月2日(含)前已完整接種]，約4.8萬人，依我國COVID-19疫苗接種政策歷程，多為「COVID-19公費疫苗優先接種順序」第一類至第三類對象，包括醫護人員、防疫工作人員、第一線高感染風險工作人員等。為確保高感染風險對象儘速接種第三劑，建議優先接種符合間隔之醫護人員、第一線高感染風險工作人員(包括航空機組員、港埠工作人員、防疫旅宿工作人員等)及因公出國人員；其餘符合間隔之民眾，亦可視感染風險及接種意願，經醫師評估後接種。\$\@\$指揮中心指出，本年11月28日我國「衛生福利部傳染病防治諮詢會預防接種組(ACIP)」專家會議即建議，高風險對象追加接種第三劑COVID-19疫苗，其他18歲以上民眾可評估自身感染風險以及接種意願，經醫師評估後接種；而會中專家亦表示，如遇特殊情況，第二劑與第三劑間隔可縮短至5個月。\$\@\$為因應農曆年節返臺人潮，指揮中心評估國際疫情風險及國內疫苗供應現況，調整第二劑及第三劑間隔為5個月，並自即日起開始提供接種，以及早建立高感染風險人員之免疫保護力。\$\@\$指揮中心強調，目前各國對於追加劑接種廠牌尚無明確建議，惟依據已開始接種追加劑國家之接種現況，以腺病毒載體COVID-19疫苗(包括AstraZeneca 及 Janssen COVID-19 Vaccine)為基礎劑者，可以莫德納 COVID-19疫苗做為追加劑，接種劑量為莫德納 COVID-19疫苗基礎劑之一半劑量。另依據莫德納原廠建議，疫苗瓶裝之膠塞(vial stopper)，每瓶入針不得超過20次，以避免影響疫苗品質，爰若該瓶疫苗開瓶已接種20人劑後，疫苗即丟棄不使用。\$\@\$指揮中心呼籲，為提升COVID-19疫苗接種可近性，指揮中心已協調國軍醫院、衛福部所屬醫院、及退輔會所屬醫療機構即日起加開夜間門診，提供COVID-19疫苗接種服務。民眾除可透過「COVID-19公費疫苗預約平臺」預約接種，亦可至前述院所，或各地方政府衛生局合約醫療院所預約接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-02\$\@\$中央流行疫情指揮中心今(2)日公布國內新增17例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增17例境外移入個案，為16例男性、1例女性，年齡介於10多歲至50多歲，分別自美國(2例，案16721、案16736)、波蘭(案16722) 、菲律賓(案16723) 、印尼(6例，案16724-16728、案16737)、緬甸(案16729)、阿拉伯聯合大公國(案16730)、馬來西亞(案16731)、越南(2例，案16732、案16733)、英國(案16734)及義大利(案16735)入境，入境日介於今(2021)年11月17日至11月30日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,491,850例新型冠狀病毒肺炎相關通報(含4,473,526例排除)，其中16,626例確診，分別為1,982例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月2日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-01\$\@\$中央流行疫情指揮中心今(1)日公布國內新增8例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增8例境外移入個案，為5例男性、3例女性，年齡介於10多歲至40多歲，分別自印尼(5例，案16713、案16716-16718、案16720)、加拿大(案16714)、美國(案16715)及柬埔寨(案16719)入境，入境日介於今(2021)年11月17日至11月29日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,475,425例新型冠狀病毒肺炎相關通報(含4,457,677例排除)，其中16,609例確診，分別為1,965例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$12月1日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-12-01\$\@\$中央流行疫情指揮中心今(1)日表示，今(2021)年11月6日晚間抵臺之AstraZeneca COVID-19疫苗第十三批59.4萬劑AstraZeneca COVID-19疫苗，經衛生福利部食品藥物管理署檢驗合格後封緘放行，於11月15日配送至各地方政府衛生局提供民眾接種，已於昨日用罄。指揮中心特別感謝地方政府及醫療院所通力合作，積極調度疫苗，提升國內疫苗涵蓋率。\$\@\$指揮中心表示，截至本年12月1日止，我國COVID-19疫苗第一劑涵蓋率為77.93%，第二劑涵蓋率為56.80%，劑次人口比為134.74 (劑/每百人)。指揮中心再次感謝參與疫苗接種計畫之所有工作人員，包括醫護人員、衛生工作人員、協助運送之航空機組員、疫苗倉儲物流人員等，以及願意前往接種疫苗之每一位民眾。指揮中心將持續推動COVID-19疫苗接種計畫，提升國人疫苗涵蓋率，確保國內防疫安全。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-30\$\@\$中央流行疫情指揮中心今(30)日公布國內新增5例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增5例境外移入個案，為5例男性，年齡介於20多歲至40多歲，分別自捷克(案16708)、澳大利亞(3案，案16709-16711)及荷蘭(案16712)入境，入境日介於今(2021)年11月15日至11月29日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,456,652例新型冠狀病毒肺炎相關通報(含4,438,954例排除)，其中16,601例確診，分別為1,957例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$11月30日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-30\$\@\$響應聯合國愛滋病規劃署(UNAIDS) 2021世界愛滋病日宣導主題「End inequalities. End AIDS. End pandemics.」，疾管署以「戰勝愛滋，分享愛」作為今年宣導主軸，邀請奧運拳擊國手黃筱雯拍攝宣導影片，透過自身戰勝人生難題之故事，呼籲民眾勇於接受愛滋篩檢，正視愛滋議題，並結合時下流行的網路宣傳平台，推出首支Instagram (IG)濾鏡及Facebook大頭貼特效框活動，邀請民眾一起使用IG濾鏡與Facebook大頭貼特效框，共同響應世界愛滋病日活動，一同關注愛滋防治議題。\$\@\$「戰勝愛滋，分享愛」宣導影片呈現奧運拳擊國手黃筱雯在賽場上面臨挑戰從自我懷疑到正視後戰勝挑戰的心路歷程，鼓勵民眾要正視愛滋議題、勇於接受愛滋篩檢，若感染愛滋病毒也應及早接受治療、達到病毒量測不到之狀態。\$\@\$疾管署持續結合相關部會、地方政府、醫療機關及民間團體等各界資源，全面推動各項愛滋防治工作，我國愛滋疫情自2018年起，已連續4年呈現下降趨勢，2021年截至11月24日新通報感染人數為1,139人，與2020年同期相較亦下降11%。此外，UNAIDS訂定之2020年達成「90-90-90」目標（90%感染者知道自己之感染狀態、90%感染者有服藥、90%服藥之感染者病毒量達測不到），全球達成值為「84-87-90」，我國則為「90-93-95」。並自2022年起推動「2030年消除愛滋第一期計畫(2022-2026)」，以達UNAIDS下一階段「95-95-95」目標努力。\$\@\$同時呼籲各界築起戰勝愛滋之4道防線：\$\@\$第1道-安全性行為：落實性行為時，全程正確使用保險套及水性潤滑液。\$\@\$第2道-暴露愛滋病毒前預防性投藥(PrEP)：感染風險族群在暴露於感染愛滋風險前，透過服用藥物，讓體內有足夠的藥物濃度以預防愛滋病毒感染，保護效果可達90%以上。\$\@\$第3道-定期篩檢愛滋：可藉由疾管署提供之多元篩檢管道，包括自我篩檢或匿名篩檢，鼓勵有性行為者，至少進行1次篩檢；有無套性行為者，每年至少進行1次篩檢；若有感染風險行為(如多重性伴侶、合併使用成癮性藥物、感染性病等) ，每3至6個月篩檢1次。\$\@\$第4道-及早治療，控制病毒量：診斷即刻治療，使感染者維持在病毒量測不到狀態，可預防透過性行為傳播，亦大大降低社區傳染風險。\$\@\$更多相關資訊，可透過疾管家Line@於本年12月1日上線之「性健康友善資源地圖」或疾病管制署全球資訊網(https://www.cdc.gov.tw)查詢。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-29\$\@\$中央流行疫情指揮中心今(29)日表示，為因應新型變異株Omicron於全球日益擴散且其傳播力強，考量馬拉威、莫三比克、埃及、奈及利亞等4國已有個案輸入他國，且評估其國內疫情有擴散趨勢，研判風險較高，自今(2021)年12月1日零時(航機抵臺時間)起，增列前述4國為「重點高風險國家」，如過去14天有前述4國旅遊史(含轉機)者，入境後均應至集中檢疫所進行14天檢疫，且配合專案採檢(到所、期滿)及續行7天自主健康管理(第6-7天公費家用快篩1次)，上述旅客不需支付集中檢疫所及採檢費用，亦不適用7+7+7、10+4+7之春節專案。此外，國籍航空公司機組員若自「重點高風險國家」航線航班(含轉機)返臺後，應入住防疫旅宿或符合規定之公司宿舍檢疫14天，且配合入境、檢疫期滿進行PCR檢測，並續行7天自主健康管理。\$\@\$指揮中心指出，現行「重點高風險國家」為南非、波札那、納米比亞、賴索托、史瓦帝尼、辛巴威及本次新增馬拉威、莫三比克、埃及、奈及利亞，共10國。\$\@\$指揮中心強調，邊境管制為防範COVID-19疫情的重要關鍵，入境旅客抵臺時應主動配合邊境檢疫措施，並依指揮中心規定的交通方式前往檢疫地點及配合後續防疫相關措施。落實全民共同抗疫，將疫情阻絕於境外，以降低該病毒進入我國社區之風險。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-29\$\@\$中央流行疫情指揮中心今(29)日公布國內新增8例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增8例境外移入個案，為7例男性、1例女性，年齡介於10多歲至60多歲，分別自越南(4例，案16700-16703)、印尼(案16704)、柬埔寨(2案，案16705、16706)及美國(案16707)入境，入境日介於今(2021)年11月15日至11月26日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,439,574例新型冠狀病毒肺炎相關通報(含4,421,667例排除)，其中16,596例確診，分別為1,952例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；無新增空號病例，累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$11月29日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-29\$\@\$中央流行疫情指揮中心今(29)日表示，昨(28)日經我國「衛生福利部傳染病防治諮詢會預防接種組(ACIP)」專家會議討論，為提升社區群體免疫力，確保國內防疫安全，國人應按時程接種第二劑COVID-19疫苗，並建議已接種第1劑BioNTech COVID-19疫苗(以下簡稱BNT疫苗)且無發生嚴重不良反應之12-17歲青少年族群，接種第2劑BNT疫苗，並建議兩劑間隔12週以上。後續將由指揮中心與地方政府衛生局規劃安排於校園接種。\$\@\$指揮中心指出，會中經專家審慎檢視各國青少年族群COVID-19感染、傳播與重症風險、mRNA COVID-19疫苗(包括BNT 及Moderna)接種策略、疫苗接種後心肌炎發生率與相關文獻，並分析國內青少年接種BNT疫苗後心肌炎/心包膜炎發生率、個案病程與恢復情形，雖然mRNA疫苗接種後發生之心肌炎/心包膜炎，可能與疫苗接種有關，惟考量COVID-19病毒變異株持續於國際間流行，且農曆春節即將到來，為降低境外移入個案造成國內社區流行之風險，應積極提升各類對象第二劑接種率，提升群體免疫力，故建議12-17歲青少年完成兩劑BNT疫苗接種。另評估現行雖尚無研究證實兩劑接種間隔與接種疫苗後心肌炎/心包膜炎發生率之關聯性，然依據目前疫苗間隔與保護力實證研究結果，及英國、歐盟、加拿大等國之監測與建議，專家建議12-17歲青少年兩劑BNT疫苗間隔為12週以上。\$\@\$指揮中心說明，依據各國上市後監測數據，接種BNT疫苗會出現極罕見的心肌炎/心包膜炎病例，這些病例主要發生在接種後14天內，亦有極少數個案發生於接種後2週至4週間；接種第二劑後發生心肌炎/心包膜炎之比率高於第一劑，且年輕男性發生比例較女性以及其他男性年齡層高。指揮中心特別提醒，民眾於接種BNT疫苗後28天內，如出現下列任一疑似心肌炎或心包膜炎的症狀，包括胸痛、胸口壓迫感或不適、心悸(心跳不規則、跳拍或「顫動」)、暈厥（昏厥）、呼吸急促、運動耐受不良（例如走幾步路就會很喘、沒有力氣爬樓梯）等，應立即就醫。並於就醫時告知醫師相關症狀、症狀發生時間、疫苗接種時間，以做為診斷參考。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-29\$\@\$中央流行疫情指揮中心今(29)日表示，昨(28)日我國「衛生福利部傳染病防治諮詢會預防接種組(ACIP)」專家會議建議，考量COVID-19疫苗接種後之免疫保護力可能隨時間下降，為積極因應COVID-19病毒變異株對於國內防疫造成之威脅，降低COVID-19疫苗感染與感染後重症風險，建議已完成2劑COVID-19疫苗接種之65歲以上長者、長照機構住民與工作者、醫護人員、防疫工作人員、第一線高感染風險工作人員及容易感染與疾病嚴重風險者(即COVID-19疫苗公費接種對象第九類)，應於第二劑COVID-19疫苗接種6個月後，追加接種第三劑COVID-19疫苗，其他滿18歲以上民眾可以評估自身感染風險以及接種意願，經醫師評估後接種第三劑COVID-19疫苗，提升保護力。\$\@\$指揮中心說明，會中經專家檢視目前國外COVID-19疫苗接種後保護力追蹤情形及各國追加劑接種政策與接種實務作業，評估雖完成兩劑COVID-19疫苗後可以快速提升免疫保護力，有效預防COVID-19病毒感染、及感染後重症與死亡風險，惟疫苗保護力會隨著接種時間逐續下降，加以COVID-19病毒不斷變異，即便完成兩劑疫苗後，仍有突破性感染(breakthrough infection)之風險，故建議完成兩劑疫苗接種之民眾，應於第二劑接種6個月後，追加接種第三劑COVID-19疫苗。\$\@\$指揮中心指出，目前國外各國對於追加劑接種廠牌尚無明確建議，指揮中心將持續收集國內外相關臨床實驗與研究數據以及各國接種建議，並視國內疫苗接種與供應情形，規劃接種作業後，再提供民眾進行接種。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-29\$\@\$國內疫情趨緩且穩定控制，中央流行疫情指揮中心經與相關單位溝通討論及評估後，於今(29)日宣布，自今(2021)年11月30日至12月13日維持疫情警戒標準為第二級，並維持相關措施及規定如下：\$\@\$一、維持現行戴口罩規定，外出時應全程佩戴口罩，但符合以下情形，得免戴口罩(本次未調整)：\$\@\$(一)下列場合得免戴口罩，但應隨身攜帶口罩，且如本身有相關症狀或與不特定對象無法保持社交距離時，仍應戴口罩：\$\@\$1.於室內外從事運動、唱歌時。\$\@\$2.於室內外拍攝個人/團體照時。\$\@\$3.單人或多人進行直播、錄影、主持、報導、致詞、演講、講課等談話性質工作或活動之正式拍攝或進行時。\$\@\$4.農林漁牧工作者於空曠處(如：田間、魚塭、山林)工作。\$\@\$5.於山林(含森林遊樂區)、海濱活動。\$\@\$6.於溫/冷泉、烤箱、水療設施、三溫暖、蒸氣室、水域活動等易使口罩潮濕之場合。\$\@\$(二)外出時有飲食需求，得免戴口罩。\$\@\$(三)於指揮中心或主管機關指定之場所或活動，如符合相關防疫措施，得暫時脫下口罩。\$\@\$二、營業場所及公共場域維持應遵守實聯制、量體溫、加強環境清消、員工健康管理、確診事件即時應變。\$\@\$指揮中心指出，因應國際間新變異株Omicron威脅，相關大型活動具有人潮擁擠、長時間且近距離接觸不特定人士的特性，仍應維持嚴格防疫管理並加嚴裁處，請主辦單位及民眾務必遵守下列防疫準備注意事項：\$\@\$一、主辦單位應遵守指揮中心二級警戒公告措施、地方政府大型活動相關防疫規定：\$\@\$(一)主辦單位應於活動場域提供足量手部清消用品、提高公共廁所之消毒頻率並設有醫療應變措施。\$\@\$(二)除指定販賣區外，場內不得販售飲食。\$\@\$(三)室內活動不得販售無座位票，須落實實聯制，規劃固定入口，且於入口處進行體溫量測及手部消毒。\$\@\$二、活動期間應全程佩戴口罩，除補充水分外，禁止飲食。\$\@\$(一)除主持、表演及致詞人員得於正式拍攝或進行時免戴口罩，其餘人員及參加活動者不適用飲食(補充水分除外)、拍照等得免戴口罩之例外情形。\$\@\$(二)主辦單位經地方政府同意，得設置專屬飲食區域供民眾脫口罩飲食，該區域須落實實聯制、入口體溫量測及手部消毒，並不得邊走邊吃，亦不開放試吃。\$\@\$(三)違反以上規定、經工作人員勸導不聽者，由地方政府依傳染病防治法裁罰。\$\@\$三、居家檢疫、居家隔離、(加強)自主健康管理者，及有發燒、呼吸道症狀、腹瀉、嗅味覺異常等疑似症狀之民眾(包括表演者及活動工作人員)，不得參加相關活動。違反者將從重處罰。\$\@\$指揮中心將視國內外疫情及實際執行狀況，適時機動調整防疫措施，強化邊境監測及防疫作為。籲請民眾應落實個人防護措施，主動積極配合各項防疫措施，以兼顧防疫與生活品質。</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-28\$\@\$中央流行疫情指揮中心今(28)日公布國內新增10例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增10例境外移入個案，為7例男性、3例女性，年齡介於10多歲至30多歲，分別自美國(案16690)、越南(4例，案16691、案16692、案16697、案16699)、印尼(3案，案16693、案16696、案16698)、阿拉伯聯合大公國(案16694)及菲律賓(案16695)入境，入境日介於今(2021)年11月25日至11月26日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,426,033例新型冠狀病毒肺炎相關通報(含4,407,812例排除)，其中16,588例確診，分別為1,944例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$11月28日新增境外移入COVID-19確診個案表.pdf</t>
+  </si>
+  <si>
+    <t>發佈日期：2021-11-27\$\@\$中央流行疫情指揮中心今(27)日公布國內新增12例COVID-19境外移入確定病例；另確診個案中無新增死亡。\$\@\$指揮中心說明，今日新增12例境外移入個案，為8例男性、4例女性，年齡介於10多歲至60多歲，分別自衣索比亞(3例，案16678-16680)、印尼(4例、案16681-16684)、越南(2例，案16685-16686)、印度(案16687)、美國(案16688)及韓國(案16689)入境，入境日介於今(2021)年11月12日至11月25日，皆持有搭機前3日內檢驗陰性報告；詳如新聞稿附件。\$\@\$指揮中心統計，截至目前國內累計4,411,374例新型冠狀病毒肺炎相關通報(含4,393,040例排除)，其中16,578例確診，分別為1,934例境外移入，14,590例本土病例，36例敦睦艦隊、3例航空器感染、1例不明及14例調查中；另累計111例移除為空號。2020年起累計848例COVID-19死亡病例，其中836例本土，個案居住縣市分布為新北市412例、臺北市321例、基隆市29例、桃園市27例、彰化縣15例、新竹縣13例、臺中市5例、苗栗縣3例、宜蘭縣及花蓮縣各2例，新竹市、南投縣、雲林縣、臺南市、高雄市、屏東縣及臺東縣各1例；另12例為境外移入。\$\@\$指揮中心再次呼籲，民眾應落實手部衛生、咳嗽禮節及佩戴口罩等個人防護措施，減少不必要移動、活動或集會，避免出入人多擁擠的場所，或高感染傳播風險場域，並主動積極配合各項防疫措施，共同嚴守社區防線。 附件\$\@\$11月27日新增境外移入COVID-19確診個案表.pdf</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1022,16 +1445,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>44569</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1039,16 +1462,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>44568</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1056,13 +1479,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>44568</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1070,13 +1496,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
         <v>44567</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1084,13 +1513,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2">
         <v>44567</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1098,16 +1530,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2">
         <v>44567</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1115,16 +1547,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
-        <v>44387</v>
+        <v>44566</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1132,16 +1564,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2">
-        <v>44360</v>
+        <v>44566</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1149,16 +1581,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
-        <v>44359</v>
+        <v>44566</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1166,13 +1598,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2">
-        <v>44348</v>
+        <v>44565</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1180,13 +1612,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2">
-        <v>44344</v>
+        <v>44565</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1194,16 +1629,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2">
-        <v>44341</v>
+        <v>44565</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1211,16 +1646,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1228,13 +1663,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1242,13 +1680,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2">
-        <v>44560</v>
+        <v>44563</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>130</v>
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1256,13 +1697,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2">
-        <v>44491</v>
+        <v>44562</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>131</v>
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1270,13 +1714,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>132</v>
+        <v>184</v>
+      </c>
+      <c r="E18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1284,13 +1731,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2">
-        <v>44467</v>
+        <v>44561</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1298,13 +1748,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2">
-        <v>44568</v>
+        <v>44560</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>134</v>
+        <v>186</v>
+      </c>
+      <c r="E20" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1312,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2">
-        <v>44567</v>
+        <v>44560</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1326,13 +1779,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2">
-        <v>44567</v>
+        <v>44560</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
+        <v>188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1340,13 +1796,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2">
-        <v>44566</v>
+        <v>44560</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>137</v>
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1354,13 +1813,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2">
-        <v>44566</v>
+        <v>44559</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>138</v>
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1368,13 +1830,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>139</v>
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1382,13 +1847,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2">
-        <v>44568</v>
+        <v>44557</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>140</v>
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1396,145 +1864,169 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2">
-        <v>44568</v>
+        <v>44557</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>141</v>
+        <v>193</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2">
-        <v>44568</v>
+        <v>44557</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2">
-        <v>44567</v>
+        <v>44557</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>143</v>
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2">
-        <v>44566</v>
+        <v>44557</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>144</v>
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2">
-        <v>44566</v>
+        <v>44557</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>145</v>
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2">
-        <v>44554</v>
+        <v>44555</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>147</v>
+        <v>199</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2">
-        <v>44550</v>
+        <v>44555</v>
       </c>
       <c r="D34" s="3" t="s">
-     